--- a/translations_result.xlsx
+++ b/translations_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,134 +436,6306 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>“我知道，我不是因为偶然才来到这个世界，我是为了践行一个平凡、美丽、无私的梦想而来的；我是为了通过各种苦乐逆顺的体验来历练自己而来的，并由此完善，成长而提升……”金华市环城小学校训，没有一个字和学习有关，却让学生、家长和老师都掉下泪来。校训原文： 世界因我多温暖 我知道，我不是因为偶然才来到这个世界，我是为了践行一个平凡、美丽、无私的梦想而来的;我是为了通过各种苦乐逆顺的体验来历练自己而来的，并由此完善，成长而提升。 我深深地知道，改变这个世界的力量来自太阳，来自人类心灵深处的温度。我，要让世界因我而多温暖。 我知道，我所有的长处都源自父母祖宗的优秀，源自华夏千年文明的积淀。但它不是我炫耀和自私的资本，它是我赖以成长并服务人类的工具，它是我生命的伟大、美好和无私的工具。 我知道，我的缺点与不足不是我的自愿，那是因为我是从有缺点和不足的爸爸妈妈而来，选择这样的爸爸妈妈是我的自愿。对于这些缺陷，我全然接受，并通过今生的感恩、忍受和努力来弥补。 我想对爸爸妈妈说，我愿意从今天开始，不再用完美要求你们，也请你们不再用完美苛求于我，我是你们的一部分，我们是一个整体，让我们一起改变，用爱让家里充满温暖，以影响世界。 从今天起，我将高高地放飞自己的梦想，积极乐观地生活和学习。 命运从来没有规定我此生将是什么?国家没有规定我，父母没有规定我，老师也是一样。一切万物都没有规定我必须是什么样的人，大家把一切主动权交给我，让我自己决定自己的梦想，然后慈悲无私地帮助我，成就我。 因此，我必须让我自己成为一颗最圆润的种子，让周边的世界因我的成长而温暖。 我知道，生命是人世间最美丽的奇迹，读书是人世间最享受的愉悦。 老师对我说，曾经有一个善人，在春天的时候特别给两个乞丐一间破房和一块空地。到了秋天，一个懒惰的乞丐贫病而死，而另一个勤奋的乞丐却富裕安乐。 在宇宙中，每一个灵魂都是乞丐，四处漂泊。父母就是善人，给了属于我的一间破房和广袤无垠的空地，那间破房就是我不完美的身体，而那块空地就是我无边的心灵。我坚信，只要用勤劳播撒智慧与爱的种子，就一定会有硕果累累的明天。 从这一刻起，我要用无限的信心走向未来。 我知道，生命中最珍贵最强大的就是灵魂。环城小学是我人生的第一母校，母校给我的最大眷顾是把我放在春天里，给我规矩，给我阳光，给我一颗春天般温暖柔软的灵魂，去温暖属于我们的世界。</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>在国内外的种种不稳定因素下，中国西部地区的工业经济在一季度实现了快速增长。产业专家指出，高科技和新兴产业为地区经济发展注入了新动能。贵州省统计局发布的数据显示，贵州一季度全省规模以上工业增加值同比增长15.2%，增速高于全国平均水平8.7个百分点。</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Under various unstable factors at home and abroad, the industrial economy in China's western region achieved rapid growth in the first quarter. Industry experts pointed out that high-tech and emerging industries injected new momentum into regional economic development. Data released by the Guizhou Provincial Bureau of Statistics showed that in the first quarter, the industrial added value above designated size in Guizhou province increased by 15.2% year-on-year, with a growth rate higher than the national average level by 8.7 percentage points.</t>
+          <t>"I know, I didn't come to this world by accident, I came to fulfill an ordinary, beautiful, and selfless dream; I came to experience various hardships and joys, adversities and smoothness, in order to temper myself, improve, and grow from it... " The school motto of Huan Cheng Primary School in Jinhua City has nothing to do with studying, yet it brings tears to students, parents, and teachers. The original text of the school motto: The world is warmer because of me. I know, I didn't come to this world by accident, I came to fulfill an ordinary, beautiful, and selfless dream; I came to experience various hardships and joys, adversities and smoothness, in order to temper myself, improve, and grow from it. I deeply understand that the power to change the world comes from the sun, from the warmth deep within the human soul. I want to make the world warmer because of me. I know, all my strengths come from the excellence of my parents and ancestors, from the accumulation of thousands of years of Chinese civilization. But it is not my capital to show off and be selfish, it is the tool for me to grow and serve humanity, it is the great, beautiful, and selfless tool of my life. I know, my shortcomings and inadequacies are not voluntary, they are because I come from parents with shortcomings and inadequacies, choosing such parents is my own choice. I fully accept these flaws, and through gratitude, endurance, and effort in this life, I will make up for them. I want to say to my parents, from today onwards, I will no longer demand perfection from you, and I ask you not to demand perfection from me either. I am a part of you, we are a whole, let us change together, let our home be filled with warmth through love, and influence the world. From today onwards, I will soar high with my dreams, and live and learn actively and optimistically. Fate has never determined what I will be in this life. The country has not determined me, nor have my parents, nor the teachers. Everything has not determined what kind of person I must be, everyone has given me the initiative to decide my own dreams, and then help me with compassion and selflessness to achieve them. Therefore, I must make myself the roundest seed, so that the world around me will be warmer because of my growth. I know, life is the most beautiful miracle in the world, and reading is the most enjoyable pleasure in the world. My teacher told me, there was once a kind person who specially gave two beggars a dilapidated house and a piece of empty land in the spring. By autumn, a lazy beggar died in poverty and illness, while the other diligent beggar became wealthy and content. In the universe, every soul is a beggar, wandering around. Parents are the kind people, giving me a dilapidated house that is my imperfect body, and vast endless land that is my boundless soul. I firmly believe that as long as I diligently sow the seeds of wisdom and love, there will definitely be a fruitful tomorrow. From this moment on, I will walk towards the future with infinite confidence. I know, the most precious and powerful thing in life is the soul. Huan Cheng Primary School is my first alma mater in life, and the greatest care my alma mater has given me is to place me in spring, give me discipline, give me sunshine, and give me a spring-like warm and soft soul to warm our world."</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 张女士提供豆皮有虫尸的证据照片。受访者供图淘宝上购物，一年被忽悠四次。这样的事情就被市民张女士遭遇。今年“3·15”之际，青年报“老罗帮你忙”互动维权栏目热线记者联系淘宝后，张女士虽在退还货款同时获得了补偿，但并没有要回退货运费。青年报记者 罗水元[网购豆皮]下订单后40天才收到货张女士是淘宝老顾客。早在2014年年初，她就在淘宝网上买过麻花和米馒头，但均遭遇缺斤少两，退货后虽几经交涉仍被要求自担运费，直至青年报“老罗帮你忙”互动维权栏目热线记者联系淘宝方面后，她才要回运费（详见本报2014年5月8日报道），并得到一定赔偿（详见本报5月16日报道）。张女士说，受此打击，此后相当长一段时间，她都没有继续在淘宝上购物。直到去年“双十二”来临之际，在各大电商宣传攻势下，她禁不住诱惑，恢复在淘宝上购物。12月12日这一天，她登录淘宝进入“罗田特产”网店，相中了标称“特级豆皮”的产品，该产品自称为“豆油皮干货”、“原汁原味豆皮”、“云南石屏豆腐皮”，250克7.9元，还可以使用5元优惠券。张女士称，在与商家确认此商品为袋装，同时确定20袋运费为22元后，一次性拍下了20袋。但此后结账时，卖家多收了7元运费，“我让卖家改运费，卖家说搞活动，价格低不好改，承诺收货后再返还。”于是，她支付了“双十二”的100元优惠券一张及人民币65.1元。然而，订单下好后，商家一再拖延发货。“12月27日我催发货，卖家说要10天后发货；2015年1月5日，我再次催卖家发货，卖家不予理睬；1月8日，我继续催，卖家回答说要1月12日发货；1月14日，我两次催卖家发货，卖家又不理睬了。”张女士说，她先后催货5次无果后于1月15日、16日打长途电话向淘宝投诉，订单显示于1月16日发货，但他查询发现，实际发货时间为1月20日，她于1月22日才收到货——此时已距下单时间40天。退了货却损失了运费、优惠券收到货后，张女士发现为1250克/袋、无任何标识的白塑袋包装，遂询问：“豆腐皮不是半斤1包那种？”卖家则说“这个是土特产，不是衣服什么的，一件250克不等于250克一袋”。听对方那么一说，张女士当时就想退货，但是，根据淘宝规定，如退货，100元优惠券就要作废，只能勉强收下。然而，2月1日用这些豆腐皮做素鸭时，发现豆腐皮上有虫尸，并伴有深色脏斑。见状，张女士当即拍照传给卖家，但卖家未予理睬。</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>高科技和新兴产业增长强劲。一季度，贵州省新能源电池及材料产业增加值同比增长44.9%，比规模以上工业增速快29.7个百分点。与此同时，贵州的计算机、通信和其他电子设备制造业比上年同期增长35.4%。</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>High technology and emerging industries grow strongly. In the first quarter, the added value of the new energy battery and materials industry in Guizhou Province increased by 44.9% year-on-year, which is 29.7 percentage points faster than the growth rate of above-scale industries. At the same time, Guizhou's computer, communication, and other electronic equipment manufacturing industry grew by 35.4% compared to the same period last year.</t>
+          <t>Ms. Zhang provided photographic evidence of insect corpses in the tofu skin she purchased. The interviewee, who shops on Taobao, was deceived four times in a year. This is what happened to citizen Zhang. On the occasion of "3.15" this year, when the Youth Daily's "Lao Luo Helps You" interactive rights protection column hotline reporter contacted Taobao, although Ms. Zhang received a refund and compensation, she did not get back the return shipping fee. Youth Daily reporter Luo Shuiyuan [Online Shopping for Tofu Skin] placed an order and received the goods 40 days later. Ms. Zhang is a loyal customer of Taobao. As early as the beginning of 2014, she bought twisted crullers and rice steamed buns on Taobao, but both times they were underweight. After returning the goods, despite several negotiations, she was still asked to bear the shipping fee. It was not until the Youth Daily's "Lao Luo Helps You" interactive rights protection column hotline reporter contacted Taobao that she got the shipping fee back (see the report on May 8, 2014), and received some compensation (see the report on May 16). Ms. Zhang said that after this blow, she did not shop on Taobao for quite a long time. It wasn't until the arrival of "Double Twelve" last year, under the promotion of various e-commerce platforms, that she couldn't resist the temptation and resumed shopping on Taobao. On December 12, she logged into the "Luotian Specialties" store on Taobao and selected a product labeled as "premium tofu skin," claiming to be "dried tofu skin," "authentic tofu skin," and "Yunnan Shiping tofu skin," priced at 7.9 yuan for 250 grams, with an additional 5 yuan discount coupon. Ms. Zhang said that after confirming with the merchant that the product was packaged in bags and confirming that the shipping fee for 20 bags was 22 yuan, she bought 20 bags at once. However, when checking out, the seller charged an extra 7 yuan for shipping. "I asked the seller to adjust the shipping fee, but the seller said that the price was low due to the promotion and couldn't be changed, promising to refund it after receiving the goods." So, she paid a 100 yuan coupon and 65.1 yuan in cash on "Double Twelve." However, after placing the order, the merchant repeatedly delayed shipment. "On December 27, when I urged the seller to ship, the seller said it would be shipped in 10 days; on January 5, 2015, when I urged the seller again, the seller ignored me; on January 8, when I continued to urge, the seller replied that it would be shipped on January 12; on January 14, I urged the seller twice to ship, but the seller ignored me again." Ms. Zhang said that after urging the shipment five times without success, she made long-distance calls to complain to Taobao on January 15 and 16. The order showed that it was shipped on January 16, but upon checking, she found that it was actually shipped on January 20, and she only received the goods on January 22 - 40 days after placing the order. Returned the goods but lost the shipping fee and coupon. After receiving the goods, Ms. Zhang found that they were packaged in unmarked white plastic bags, each containing 1250 grams, and asked, "Isn't tofu skin usually sold in half-pound packages?" The seller replied, "This is a local specialty, not clothing, 250 grams per bag is not equal to 250 grams." Upon hearing this, Ms. Zhang wanted to return the goods, but according to Taobao's regulations, if she returned the goods, the 100 yuan coupon would be invalidated, so she reluctantly accepted them. However, on February 1, when she used the tofu skin to make vegetarian duck, she found insect corpses and dark dirty spots on the tofu skin. Seeing this, Ms. Zhang immediately took photos and sent them to the seller, but the seller ignored her.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>@名称代码收盘价日涨跌周涨跌月涨跌季涨跌深华新0000100.0000.00%0.00%0.00%0.00%中联重科0001577.7303.48%5.60%24.28%9.65%潍柴动力00033833.0902.64%5.79%27.32%10.74%许继电气00040031.380-1.35%15.37% 32.68% 41.35%华意压缩 000404 9.510 1.06% 5.90% 17.41% 18.14%沈阳机床 000410 0.000 0.00% 0.00% 0.00% 35.26%徐工机械 000425 15.370 1.45% 0.46% 11.94% 4.27%江南红箭 000519 18.870 2.39% 7.58% 26.14% 35.66%柳工 000528 13.870 1.54% 2.82% 23.18% 13.04%大冷股份 000530 15.550 0.39% 8.59% 14.17% 30.67%万家乐 000533 7.590 1.34% 10.32% 38.00% 27.14%华映科技 000536 22.100 1.94% 2.27% 20.11% 39.17%创元科技 000551 13.270 0.23% 6.93% 15.29% 33.10%万向钱潮 000559 19.250 -0.62% 11.08% 35.28% 56.63%烽火电子 000561 13.770 7.58% 13.71% 34.34% 52.49%苏常柴Ａ 000570 11.250 -1.32% 9.65% 22.68% 26.98%威孚高科 000581 35.830 0.62% 1.67% 11.97% 26.16%西北轴承 000595 13.650 0.00% 14.90% 6.89% 74.33%石油济柴 000617 14.210 4.95% 8.39% 23.67% 40.42%合金投资 000633 0.000 0.00% 0.00% 0.00% -19.72%西王食品 000639 30.030 1.56% 13.75% 46.35% 74.59%经纬纺机 000666 21.560 0.70% 4.36% 16.60% 18.07% 智度投资 000676 0.000 0.00% 0.00% 0.00% 0.00</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>一季度，贵州省高技术产业投资比上年同期增长96.1%，其中，高技术制造业、高技术服务业投资分别增长129.6%、66.8%。此外，据四川省相关部门报告，四川省一季度规模以上工业增加值同比增长8.1%。其中，电气机械和器材制造业同比增长39.3%。</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>In the first quarter, Guizhou Province's high-tech industry investment increased by 96.1% compared to the same period last year, among which, high-tech manufacturing and high-tech service industry investments increased by 129.6% and 66.8% respectively. In addition, according to reports from relevant departments in Sichuan Province, Sichuan Province's industrial added value above designated size in the first quarter increased by 8.1% year-on-year. Among them, the electrical machinery and equipment manufacturing industry increased by 39.3% year-on-year.</t>
+          <t>@NameCodeClosing PriceDaily ChangeWeekly ChangeMonthly ChangeQuarterly ChangeShenhua Xin0001000.0000.00%0.00%0.00%0.00%China National Heavy Duty Truck Group0001577.7303.48%5.60%24.28%9.65%Weichai Power00033833.0902.64%5.79%27.32%10.74%Xuji Electric00040031.380-1.35%15.37%32.68%41.35%Hua Yi Compressor0004049.5101.06%5.90%17.41%18.14%Shenyang Machine Tool0004100.0000.00%0.00%0.00%35.26%XCMG00042515.3701.45%0.46%11.94%4.27%Jiangnan Red Arrow00051918.8702.39%7.58%26.14%35.66%Liugong00052813.8701.54%2.82%23.18%13.04%Dalian Refrigeration00053015.5500.39%8.59%14.17%30.67%Wanjiale0005337.5901.34%10.32%38.00%27.14%Huaying Technology00053622.1001.94%2.27%20.11%39.17%Chuangyuan Technology00055113.2700.23%6.93%15.29%33.10%Wanxiang Qianchao00055919.250-0.62%11.08%35.28%56.63%Fiberhome Telecommunication Technologies00056113.7707.58%13.71%34.34%52.49%Soochow Diesel00057011.250-1.32%9.65%22.68%26.98%Weifu High-Technology00058135.8300.62%1.67%11.97%26.16%Northwest Bearing00059513.6500.00%14.90%6.89%74.33%China Petroleum Ji'nan Diesel Engine00061714.2104.95%8.39%23.67%40.42%Alloy Investment0006330.0000.00%0.00%0.00%-19.72%Xiwang Food00063930.0301.56%13.75%46.35%74.59%Jingwei Textile Machinery00066621.5600.70%4.36%16.60%18.07%Zhidu Investment0006760.0000.00%0.00%0.00%0.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 女子误搭假出租找零和发票均为假昨晚6时许，北京女子小暖(化名)在路边打了一辆出租车，下车时司机找了她50元，回家发现竟是假钱。小暖赶紧拨打了的票上的电话，却发现的票不仅是假的，就连这辆出租车也是假的。据小暖介绍，她从世贸天阶路边拦了一辆出租车，前往春秀路。到达目的地后，“的哥”给她找了零钱，其中有一张50元纸币。她像往常一样，索取了的票，就下了车。下车后，她才发现，刚才“的哥”找她的这张50块钱有点不对劲，仔细观察后，确认是一张假币。小暖急了，她找出那张的票，拨打了上面的出租车公司电话想投诉，可是接电话的人告诉她这根本不是出租车公司。小暖这才意识到，这个“的哥”给她的是张假的票，而且从车到票再到钱，没有一样是真的。小暖在个人微博上晒出了假的票和假币，并披露了这件事。目前，她已在线向平安北京反映了此事，希望有关部门能加强对类似假出租的打击力度。如何辨别假出租车呢?1.“假出租车”只能“克隆”正规出租车的外形，却无法“克隆”正规出租车的刷卡、打票设备，所以“黑车”司机总会以借口，死活要乘客付现金。2.“假出租车”使用的都是假发票，乘客如果发现发票名称与顶灯、车身上的公司标识不符，该车十有八九就是假冒的。但上述识别都是在乘客已上车的情况下，比较被动。3.正规出租车副驾驶座位置都会贴有出租车司机的个人信息和运营许可证，并有该出租车公司的公章等信息。“假出租车”一般都不会有，就算有也都是凑合一下，很明显可以看出是假的。本文来源前瞻网，未经前瞻网书面授权，禁止转载，违者将被追究法律责任！</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>今年1月，国务院印发了《关于支持贵州在新时代西部大开发上闯新路的意见》，强调了推动内陆开放型经济试验区建设和发展数字经济的重要性。</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>In January of this year, the State Council issued the "Opinions on Supporting Guizhou to Explore New Paths in the New Era of Western Development," emphasizing the importance of promoting the construction of inland open economic pilot zones and developing the digital economy.</t>
+          <t>A woman mistakenly took a fake taxi, both the change and the receipt were fake. Last night around 6 o'clock, a Beijing woman named Xiaonuan (alias) hailed a taxi on the roadside. When she got off, the driver gave her 50 yuan in change, but she found out at home that the money was fake. Xiaonuan quickly called the number on the receipt, only to discover that not only was the receipt fake, but the taxi itself was also fake. According to Xiaonuan, she flagged down a taxi on the side of World Trade Avenue to go to Chunxiu Road. Upon reaching her destination, the driver gave her change, including a 50 yuan bill. As usual, she asked for a receipt and then got off the taxi. It was only after getting off that she realized something was wrong with the 50 yuan bill the driver gave her. Upon closer inspection, she confirmed it was a counterfeit bill. Xiaonuan, feeling anxious, took out the receipt and called the taxi company's number on it to complain, but the person who answered told her it was not a taxi company at all. It was then that Xiaonuan realized that the driver had given her a fake receipt, and from the taxi to the receipt to the money, nothing was real. Xiaonuan posted the fake receipt and counterfeit bill on her personal Weibo account and disclosed the incident. Currently, she has reported the matter to the Beijing Public Security Bureau online, hoping that relevant departments can strengthen the crackdown on such fake taxis. How to identify fake taxis? 1. "Fake taxis" can only mimic the appearance of legitimate taxis but cannot replicate the legitimate taxi's card-swiping and ticketing devices, so "black cab" drivers will always insist on passengers paying in cash. 2. "Fake taxis" use fake receipts. If passengers find that the receipt name does not match the company logo on the roof light or the body of the vehicle, the chances are high that the vehicle is fake. However, these identifications are more passive once passengers have already boarded the vehicle. 3. Legitimate taxis have the driver's personal information and operating permit pasted on the front passenger seat, along with the company's official seal and other information. "Fake taxis" generally do not have these, and even if they do, they are usually makeshift and clearly fake. This article is from Qianzhan.com. Unauthorized reproduction is prohibited. Offenders will be held legally responsible!</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中国古代玺印的出现，可以上溯至商代。印者，信也，印章的主要功能就是示信，随着佩印风气的形成，吉语印、肖形印等彰显审美功能的多种印式逐渐盛行。唐宋元时期文人用印功能扩大，渐成体系，但中国印章出现新的发展方向。明代中叶以后，石章应用渐盛，便利了文人独立完成创作，篆刻成为新的艺术样式。文人寄情金石，使篆刻逐渐脱离实用功能，重在抒情写意，向着艺术化方向发展。以文彭为代表的文人群体推动风气，一时风从者众，继而衍为流派。明代晚期的文人篆刻家大都受到文彭的影响，后人以文彭为首的吴门派、何震为首的雪渔派和苏宣为首的泗水派，尊为开风气之先的早期流派，文人篆刻进入盛期。明末汪关，清初程邃、林皋、许容等亦各创新风，形成新的流派。清中期的丁敬、邓石如奇峰突起，浙派、邓派从者如云，印风播及南北。高凤翰、高翔、巴慰祖、鞠履厚、乔林等一批区域性名家活跃于印坛，扬州、云间、齐鲁印人群体各呈风貌，派系繁多，争奇斗艳。晚清印人除传承浙、邓二派印风以外，亦受金石学振兴的影响，取资广泛。吴让之师法邓派而面目一新，赵之谦、徐三庚融邓、浙二家而自出机杼，黄士陵独立黟山派，印坛千峰竞秀。印人张扬个性的理念更为自觉，文人篆刻艺术的发展进入新的阶段，对近现代中国篆刻艺术的影响极为深刻。 文彭刻 画隐、梁袠刻 东山草堂珍玩 兩面章由上海博物馆、无锡博物院联合主办的《云心石面——上海博物馆、无锡博物院藏明清文人篆刻特展》将于10月29日在无锡博物院西区二层临展厅隆重展出。此次特展全面系统地展示了明清流派印的发展过程，更融入了无锡地域文化的特征。展出的印章作品，主要包括上海博物馆藏明清流派印和无锡博物院藏明代顾林墓出土的一组明代流派印，共计150余件。 苏宣刻 顾林之印 石章此次展出的印章实物，除上海博物馆藏明清文人篆刻作品以外，另有无锡博物院藏明代顾林墓、锡山区文管会藏明代华师伊墓出土的两组印章，均为首次面世。上海博物馆藏明清篆刻作品中，有相当一部分为无锡籍近代实业家华笃安先生和毛明芬女士捐赠。华氏为无锡望族，元代华幼武，明代华夏、华云、华叔阳，清代华翼纶，近代华绎之等，素有雅好收藏之传统。此次展出也是华笃安旧藏首次回归故里，观众在品味明清篆刻艺术魅力的同时，亦可从中感受到收藏、捐赠者的文化情怀，以及无锡华氏悠久深厚的家族文化传承。</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>信息消费联盟理事长项立刚指出，西部地区可再生资源丰富，将会成为我国发展战略性新兴产业的重要基地。他还表示，与长江三角洲和珠江三角洲地区相比，人力成本在西部地区相对较低。</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The chairman of the Information Consumption Alliance, Xiang Ligang, pointed out that the western region has abundant renewable resources and will become an important base for the development of strategic emerging industries in our country. He also stated that, compared with the Yangtze River Delta and the Pearl River Delta regions, labor costs in the western region are relatively low.</t>
+          <t>The appearance of ancient Chinese seals can be traced back to the Shang Dynasty. The seal, representing trust, the main function of a seal is to show trust. With the formation of the custom of wearing seals, various seal styles such as auspicious language seals and animal-shaped seals gradually became popular, showcasing aesthetic functions. During the Tang, Song, and Yuan Dynasties, the function of seals used by literati expanded and gradually became systematic, but a new development direction emerged for Chinese seals. In the mid-Ming Dynasty, the application of stone seals gradually increased, facilitating literati to independently complete their creations, and seal engraving became a new artistic style. Literati were emotionally attached to inscriptions on gold and stone, causing seal engraving to gradually move away from practical functions, focusing more on expressing emotions and artistic development. Literati groups represented by Wen Peng promoted the trend, followed by many imitators, evolving into different schools. In the late Ming Dynasty, most literati seal engravers were influenced by Wen Peng. Later generations regarded Wen Peng's Wu School, He Zhen's Xueyu School, and Su Xuan's Sishui School as the early schools that set the trend, marking the peak period of literati seal engraving. Towards the end of the Ming Dynasty and the beginning of the Qing Dynasty, Cheng Sui, Lin Gao, Xu Rong, and others innovated, forming new schools. In the mid-Qing Dynasty, Ding Jing and Deng Shiru emerged as outstanding figures, with followers of the Zhe School and Deng School spreading widely, influencing the north and south. A group of regional famous artists such as Gao Fenghan, Gao Xiang, Ba Weizu, Ju Lihou, and Qiao Lin were active in the seal world. The literati seal engraving artists in Yangzhou, Yunjian, and Qilu each had their own styles, with numerous schools competing for attention. Apart from inheriting the styles of the Zhe and Deng schools, literati seal engravers in the late Qing Dynasty were also influenced by the revival of epigraphy, drawing from a wide range of sources. Wu Rangzhi adopted the style of the Deng School and brought a new look, Zhao Zhiqian and Xu Sangeng integrated the styles of the Deng and Zhe schools to create their own, Huang Shiling independently founded the Yishan School, and numerous peaks emerged in the seal world. The concept of expressing individuality by seal artists became more conscious, leading to a new stage in the development of literati seal engraving art, which had a profound influence on modern and contemporary Chinese seal engraving art. Wen Peng engraved "Painting Hidden by Hua Yin," Liang Ye engraved "Dongshan Caotang Treasures." The special exhibition "Yunxin Stone Surface - Special Exhibition of Ming and Qing Literati Seal Engraving from Shanghai Museum and Wuxi Museum" jointly organized by Shanghai Museum and Wuxi Museum will be grandly displayed in the temporary exhibition hall on the second floor of the west wing of Wuxi Museum on October 29. This special exhibition systematically showcases the development process of Ming and Qing school seals and incorporates the characteristics of Wuxi's regional culture. The exhibited seal works mainly include Ming and Qing school seals from Shanghai Museum and a group of Ming Dynasty school seals unearthed from the Gu Lin Tomb in the Ming Dynasty from Wuxi Museum, totaling more than 150 pieces. Su Xuan engraved "Gu Lin's Seal." In addition to the Ming and Qing literati seal engraving works from Shanghai Museum, this exhibition also includes two groups of seals from the Gu Lin Tomb in the Ming Dynasty from Wuxi Museum and the tomb of Hua Shi Yi in the Ming Dynasty from the Wuxi Cultural Affairs Bureau, both of which are being exhibited for the first time. Among the Ming and Qing seal engraving works from Shanghai Museum, a considerable portion was donated by Mr. Hua Du'an and Ms. Mao Mingfen, industrialists from Wuxi. The Hua family in Wuxi has a tradition of collecting art, with figures such as Hua Youwu in the Yuan Dynasty, Hua Xia, Hua Yun, Hua Shuyang in the Ming Dynasty, Hua Yilun in the Qing Dynasty, and Hua Yizhi in modern times, all known for their passion for collecting. This exhibition marks the first return of the collection of Mr. Hua Du'an to his hometown, allowing the audience to appreciate the charm of Ming and Qing seal engraving art while experiencing the cultural sentiments of the collectors and donors, as well as the long-standing and profound family cultural heritage of the Hua family in Wuxi.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 【环球科技报道周涛】北京时间26日凌晨，苹果公司公布的最新业绩显示，2016财年，公司收入为2156亿美元，低于2015财年的2337亿美元，下降9%。这是2001年以来第一次整个财年业绩出现下降。 苹果第四财季营收468.52亿美元，同比下滑9%;净利润90.14亿美元，同比下滑19%。大中华区营收为87.85亿美元，同比下滑30%。分析称，苹果大中华区下滑厉害，国产手机严重的占领了苹果原有份额。财报还显示，来自于iPhone的营收为281.60亿美元，比去年同期的322.09亿美元下滑13%。虽然营收大致符合预期，但其盘后股价仍大幅下跌逾2%。业内人士向环球网科技表示，苹果正在从神坛走下，硬件的创新不足，硬件产品销售增长乏力。苹果应该进行多方面的尝试，进行转型。国产手机崛起2016年以来，苹果的辉煌不再了，国产手机开始崛起。国产手机性价比高，外观美观，硬件配置也高，已成为苹果手机强有力的竞争对手，国产品牌正在崛起。全球市场研究机构TrendForce官网发布的最新报告显示，受中国品牌出货持续高增长的推动，今年第三季度全球智能手机出货量达到约3.5亿部，环比增速高达10.4%。值得一提的是，第三季度中国品牌智能手机的生产数量达到1.68亿部，环比增长18%，超越三星与苹果两大品牌的生产数量总和。其中，华为、OPPO、vivo都保持了超过10%的高增速。第三季度华为智能手机出货量达3200万部，环比增长10.3%，稳居全球第三;OPPO与vivo出货量增速分别为20.3%及23%。业内人士向环球网科技表示，国产智能手机近几年来在商品质量和服务上的提升有目共睹。尤其是最近的三星电池爆炸和华为手机挡子弹两条新闻，更是形成了鲜明的对比，为中国国产智能手机的质量做了最好的宣传。责编：周涛</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>由于赞助疫情期间一些项目的联邦政府紧急拨款已枯竭且国会没有注入新资金，如今没有医保的美国人在接受部分实验室的核酸检测时将需要缴纳至少100美元（约合人民币637元）的费用，并可能需要自费住院治疗，打免费疫苗也没那么容易了。</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Due to the federal government's emergency funding for some projects during the pandemic being exhausted and Congress not injecting new funds, now uninsured Americans will need to pay at least 100 dollars (about 637 yuan) when receiving nucleic acid tests from some laboratories, and may need to pay out of pocket for hospital treatment, and getting free vaccines is not that easy anymore.</t>
+          <t>Global Tech Report by Zhou Tao: In the early morning of the 26th Beijing time, Apple announced its latest financial results. In the 2016 fiscal year, the company's revenue was $215.6 billion, lower than the $233.7 billion in the 2015 fiscal year, a decrease of 9%. This is the first time since 2001 that the entire fiscal year's performance has declined. Apple's revenue in the fourth fiscal quarter was $46.852 billion, a year-on-year decrease of 9%; net profit was $9.014 billion, a year-on-year decrease of 19%. Revenue in Greater China was $8.785 billion, a year-on-year decrease of 30%. Analysts say that Apple's decline in Greater China is severe, as domestic smartphones have significantly captured Apple's market share. The financial report also shows that revenue from the iPhone was $28.16 billion, a 13% decrease from the same period last year's $32.209 billion. Although revenue roughly met expectations, its stock price still fell by over 2% after hours. Industry insiders told Global Tech Network that Apple is descending from its pedestal, lacking innovation in hardware, and experiencing weak growth in hardware product sales. Apple should make various attempts and undergo transformation. Since 2016, Apple's glory has faded, and domestic smartphones have begun to rise. Domestic smartphones offer high cost performance, attractive appearance, and high hardware configuration, making them strong competitors to Apple. Chinese brands are on the rise. The latest report from global market research firm TrendForce's official website shows that driven by the continuous high growth of Chinese brands, global smartphone shipments reached approximately 350 million units in the third quarter of this year, with a quarter-on-quarter growth rate of up to 10.4%. It is worth mentioning that in the third quarter, the production volume of Chinese brand smartphones reached 168 million units, an 18% increase compared to the previous quarter, surpassing the combined production volume of Samsung and Apple. Huawei, OPPO, and vivo all maintained growth rates of over 10%. In the third quarter, Huawei's smartphone shipments reached 32 million units, with a 10.3% increase, firmly ranking third globally; OPPO and vivo saw shipment growth rates of 20.3% and 23%, respectively. Industry insiders told Global Tech Network that the improvement in the quality and service of domestic smartphones in recent years is evident. Especially with the recent news of Samsung battery explosions and a Huawei phone stopping a bullet, a sharp contrast has been formed, providing the best publicity for the quality of Chinese domestic smartphones. Editor: Zhou Tao</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>家有小学生和幼儿园小朋友的爸妈看到这篇文章算是“赚”到了安静地读完吧~ 文/粱旅珠，留学于美国宾州大学，不仅自己从小成绩优秀，而且女儿进入斯坦福大学，儿子进入了加州大学柏克莱分校。本文节选自《我把女儿教进世界名校》一书。图/奥斯卡最佳短片《莫里斯·莱斯莫先生的神奇飞书》低年级，盯功课，高年级，就放手我从不讳言孩子小学低年级的时候，我很用心盯功课，但到高年级，功课方面我几乎全放手了。于珺（作者女儿）上小学五年级以后，除了她偶尔拿不会的题目来问我，我好像再也没有主动看过任何作业和考卷，顶多是考卷签名时若看到成绩不尽理想，我会问孩子懂了吗，需不需要帮忙，只要他们说没问题，我信任他们，就不会再追问。 我见过好些念书比孩子更认真的父母，即使到了中学，还是天天在家管理小孩所有的功课细节，研究过滤每一张考卷。我觉得盯功课、管孩子应该是有阶段性的，目标是帮助孩子尽快养成好的读书习惯和方法，父母不该到孩子已经初高中了，还继续当书童，孩子可能因此养成依赖性。不过，带老大时，我并没有清楚的概念预知什么时间点该怎么做，就是边看边走，自己观察孩子的自理能力已经差不多，就逐渐放手。 曾有人问我，为何会有小学低年级时要陪着孩子做功课的概念。很多年前孩子三四岁时，有一次吃饭的场合，旁边坐了一位大女儿已经上中学的朋友。聊天中她谈起教育小孩的经验，我记得她说：“小学一年级的时候要盯紧一点，把习惯培养好，以后就轻松了。”我回想自己小学一年级时，妈妈就花了不少时间坐在我旁边看我写功课。好的开始的确很重要，我认同小学一年级要把习惯养好的说法，因此朋友的提醒让我特别把这件事放在心上。这位朋友在孩子长大了以后，重返职场成了女强人，她的大女儿也成为一位亮眼的新闻主播。每次我在电视上看到她女儿台风稳健地播报新闻，总会忍不住想起当年我们吃饭的场景和谈话的内容。人生很奇妙，有时不经意听到的一句话，可以让自己受用无穷，也记得一辈子。 十岁前，与孩子打好良性互动基础孩子小学三年级以前，父母的影响力大，我们的指令和建议，孩子比较愿意听从。到了四年级，尤其是女孩子，伴随着一些青春期发育带来的生理变化，自主意识就变强了（男孩子通常会慢一点，开始的时间约在初中一年级）。</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>几家大型检测公司现在也开始对无医保者收费。奎斯特诊断公司告诉美国消费者新闻与商业频道，人们现在至少要支付100美元才能做准确度最高的核酸检测。美国实验室控股公司对美国消费者新闻与商业频道说，该公司向做核酸检测的无医保者收费119美元。在全美34个州运营数千个检测点的美国凯迪泰医疗科技有限公司表示，在那些州政府或当地政府不承担费用的地方，该公司将不能再为无医保者免费提供核酸检测。</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Several large testing companies are now starting to charge uninsured individuals. Quest Diagnostics told the American Consumers News and Business Channel that people now have to pay at least $100 to get the most accurate nucleic acid test. American Laboratory Holdings told the American Consumers News and Business Channel that the company charges uninsured individuals $119 for nucleic acid testing. American Kedi Tai Medical Technology Co., which operates thousands of testing sites in 34 states across the country, stated that in those places where state or local governments do not cover the costs, the company will no longer be able to provide free nucleic acid testing for uninsured individuals.</t>
+          <t>Parents of elementary school students and kindergarten kids who read this article quietly can be considered as "gaining"~ Written by Liang Lüzhu, who studied at the University of Pennsylvania in the United States, not only excelled academically since childhood, but also had a daughter admitted to Stanford University and a son admitted to the University of California, Berkeley. This article is an excerpt from the book "I Got My Daughter into World-renowned Universities". Photo/Oscar-winning short film "Mr. Morris Lessmore's Magical Flying Books" Lower grades, focus on homework; higher grades, let go. I never hide the fact that when my children were in the lower grades of elementary school, I paid close attention to their homework, but by the time they reached higher grades, I had almost completely let go of their academic work. After my daughter, Jun, reached the fifth grade of elementary school, besides occasionally asking me about problems she couldn't solve, it seemed like I never actively checked any homework or test papers again. At most, when signing a test paper, if I saw that the grades were not ideal, I would ask the children if they understood and if they needed help. As long as they said they were fine, I trusted them and wouldn't inquire further. I have seen many parents who are more serious about studying than their children, even in middle school, they still manage every detail of their children's homework at home and scrutinize every test paper. I believe that monitoring homework and managing children should be phased, with the goal of helping children develop good study habits and methods as quickly as possible. Parents should not continue to act as bookkeepers for their children when they are already in junior high or high school, as this may foster dependency in children. However, when raising my eldest child, I did not have a clear concept of when and how to let go, I just observed and gradually let go as I saw that my child's self-care ability was almost there. Someone once asked me why there is a concept of accompanying children to do homework in the lower grades of elementary school. Many years ago, when my child was three or four years old, at a meal, there was a friend who already had a daughter in middle school sitting next to us. In our conversation, she talked about her experience in educating children, and I remember her saying, "You need to pay close attention in first grade of elementary school, establish good habits, and it will be easier later on." Thinking back to when I was in first grade, my mother spent a lot of time sitting next to me watching me do my homework. A good start is indeed very important, and I agree with the idea of establishing good habits in first grade of elementary school. Therefore, I especially took this matter to heart due to my friend's reminder. After her child grew up, this friend returned to the workforce and became a successful career woman, and her daughter also became a prominent news anchor. Every time I see her daughter confidently reporting the news on TV, I can't help but think back to the scene and conversation we had during that meal. Life is very mysterious, sometimes a casual remark can be of great benefit and remembered for a lifetime. Before the age of ten, establish a good foundation for positive interaction with children. Before the third grade of elementary school, parents have a great influence, and children are more willing to follow our instructions and suggestions. By the fourth grade, especially for girls, with some physiological changes that come with puberty, their sense of autonomy becomes stronger (boys usually start a bit later, around the first year of junior high school).</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>一、门门是一切气息的出入口，其布局相当重要。切记不可两扇门相对，不然会造成气息相冲，使得财气不稳、家庭不和。另外，门应当向内开而不是向外开，就家庭来说，门向外开会使得财气外漏、阳气外泄而阴气入侵，极其不利于家庭和谐。 二、卧室卧室是人最常待的地方，与人的亲密程度也非同一般。在卧室里，切记不可堆放杂物。应当保持整洁，衣物等必须整齐摆放，只有这样才能使人有一个很好的状态来面对每一天，不至于浑浑噩噩。卧室的光线要适中，不能太亮也不能太暗。三、厨房厨房属火，所以厨房内不应过于潮湿，以免属性相冲，导致家庭不和；厨房内的刀具切记不能外漏，不能正对厨房门。刀具和利器本身煞气就重，外漏会对人体造成危害，不利于屋宅安定。 四、厕所厕所属水，厨房属火，所以厕所和厨房是不可以相对的，不然的话会造成水火相冲。另外，厕所还应时刻保持通风，最好厕所有抽风机或者有窗户与外界相连，因为厕所煞气重，所以还是时常通风的好。五、阳台阳台是房屋的第二个门户，是财气的主要通道。阳台切记不能正对大门，不然会形成“穿心”，使得气息相冲。此外，阳台最好正对东方，紫气即财气，紫气东来，阳台面对东方，正好承接财气。 六、客厅客厅是房屋的内部“门面”，其布局尤为重要。客厅里切记不能湿气过多，像鱼缸之类的物件就应少摆放。另外，刀剑、动物标本都不应挂在墙上，不然容易招揽秽气，危害家人健康。财运不好，“钱”途不佳?加微信：puyuan89助您好运连绵，财源滚滚来~独家为你解读生活中最常遇到的风水中不可不知的禁忌和误区！关注方法：打开微信点右上角+号点 添加朋友搜索：puyuan89</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>然而，他承认，SWIFT在效率、市场规模、安全性、保密性和信息自动化处理方面具有优势，参与的金融机构数量非常多。他表示，如果避开SWIFT另开一个渠道，可能要有过渡期，会影响贸易效率。</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>However, he admitted that SWIFT has advantages in efficiency, market scale, security, confidentiality, and information automation processing, and the number of participating financial institutions is very large. He stated that if avoiding SWIFT and opening another channel, there may need to be a transition period, which will affect trade efficiency.</t>
+          <t>1. Every door is the entrance and exit of all breaths, and its layout is quite important. Remember not to have two doors facing each other, otherwise it will cause a clash of breaths, making the financial luck unstable and the family disharmonious. In addition, doors should open inward rather than outward. For a family, if the door opens outward, it will cause financial luck to leak out, yang energy to leak out, and yin energy to invade, which is extremely unfavorable for family harmony. 
+2. The bedroom is where people most often stay, and the intimacy level is also extraordinary. In the bedroom, remember not to pile up miscellaneous items. It should be kept tidy, and clothes and other items must be neatly arranged. Only in this way can people have a good state to face each day, avoiding confusion. The bedroom's lighting should be moderate, not too bright or too dark. 
+3. The kitchen belongs to fire, so the kitchen should not be too damp to avoid clashes of attributes, leading to family disharmony. The knives in the kitchen must not be exposed and should not face the kitchen door. Knives and sharp objects themselves carry negative energy, and exposure can harm the body, which is not conducive to the stability of the house. 
+4. The bathroom belongs to water, and the kitchen belongs to fire, so the bathroom and kitchen should not face each other, otherwise it will cause clashes between water and fire. In addition, the bathroom should always be well ventilated. It is best to have an exhaust fan or a window connected to the outside because the bathroom has heavy negative energy, so it is better to ventilate it regularly. 
+5. The balcony is the second entrance of the house and the main channel of financial luck. Remember not to directly face the main door with the balcony, otherwise it will create a "piercing heart," causing a clash of breaths. In addition, the balcony is best facing east, as purple energy represents financial luck. When purple energy comes from the east, facing east with the balcony can perfectly receive financial luck. 
+6. The living room is the internal "facade" of the house, and its layout is particularly important. Remember not to have too much dampness in the living room, and items like fish tanks should be placed sparingly. In addition, swords, animal specimens, etc., should not be hung on the wall, as they can easily attract negative energy, harming the health of family members. If your financial luck is not good, and your "money" path is not smooth, add WeChat: puyuan89 to help you with continuous good luck and rolling financial resources. Exclusively interpret the taboos and misconceptions in Feng Shui that are most commonly encountered in life! Follow these steps: Open WeChat, click the plus sign in the upper right corner, click "Add Friends," search for: puyuan89.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中新网广州7月19日电(郭军温光富)记者19日从广东海事局召开的今年上半年水上交通安全新闻发布会上了解到，为全面落实《南海各方行为宣言》和有关国际公约要求，积极推进中国-东盟国家在周边海域海上搜救领域的务实合作，中国-东盟海上联合搜救桌面推演计划将于今年9月在广州举行。据介绍，今年上半年，广东省海上搜救中心协调救起海上遇险人员1459人，人命搜救成功率96.63%；平均每天救起8名海上遇险人员。据悉，今年上半年广东水路运输量稳中有升，广东海事局辖区港口货物吞吐量9.74亿吨(其中危险货物吞吐量1.57亿吨)，同比增长12.5%；集装箱吞吐量1540.3万标箱，同比下降0.35%；受厄尔尼诺现象影响，导致极端灾害性天气多发频发的不利的条件下，广东海事部门确保了广东水上交通安全持续稳定。广东海事局通航处处长吴建生告诉记者，从今年上半年发生水上交通事故分析的情况看，广东海事部门通过落实安全主体责任，推进风险源管理，加强重点船舶、重点水域、重点时段的安全监管，大力促进了广东水上交通安全形势的持续稳定，有效遏制重特大事故的发生。重点监管船舶效果明显，上半年广东省渡口渡船、客船等重点监管船舶没有发生事故险情，取得了良好成效。(完)</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中国人民银行4月2日宣布，将扩大数字人民币试点范围，在现有试点地区基础上增加天津市、浙江省承办亚运会的6个城市等11个城市作为试点地区。截止到2021年底，中国数字人民币交易达875.7亿人民币，根据人民银行数据，已累计开立个人数字人民币钱包2.61亿个。</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>The People's Bank of China announced on April 2 that it will expand the pilot scope of digital renminbi, adding 11 cities including Tianjin and 6 cities in Zhejiang Province that will host the Asian Games to the existing pilot areas. By the end of 2021, transactions of China's digital renminbi reached 87.57 billion renminbi. According to the data from the People's Bank, a total of 261 million personal digital renminbi wallets have been opened.</t>
+          <t>Guangzhou, July 19 (Guo Jun, Wen Guangfu) - It was learned from the news conference on water traffic safety in the first half of this year held by the Guangdong Maritime Bureau on the 19th that, in order to comprehensively implement the "Declaration on the Conduct of Parties in the South China Sea" and relevant international conventions, actively promote practical cooperation between China and ASEAN countries in maritime search and rescue in the surrounding waters, the China-ASEAN joint maritime search and rescue tabletop exercise plan will be held in Guangzhou in September this year. According to the introduction, in the first half of this year, the Guangdong Maritime Search and Rescue Center coordinated the rescue of 1459 people in distress at sea, with a successful rescue rate of 96.63%; an average of 8 people in distress at sea were rescued every day. It is reported that in the first half of this year, the waterway transportation volume in Guangdong has remained stable and increased. The cargo throughput of ports under the jurisdiction of the Guangdong Maritime Bureau reached 9.74 billion tons (including 1.57 billion tons of dangerous goods), a year-on-year increase of 12.5%; the container throughput was 15.403 million TEUs, a year-on-year decrease of 0.35%; under the unfavorable conditions of frequent extreme and disastrous weather events caused by the El Niño phenomenon, the Guangdong Maritime Department has ensured the continuous stability of water traffic safety in Guangdong. Wu Jiansheng, Director of the Navigation Department of the Guangdong Maritime Bureau, told reporters that from the analysis of water traffic accidents in the first half of this year, the Guangdong Maritime Department has promoted the continuous stability of water traffic safety in Guangdong by implementing safety responsibilities, advancing risk source management, strengthening safety supervision of key vessels, key waters, and key time periods, and effectively curbing the occurrence of major accidents. The effect of key vessel supervision is obvious. In the first half of the year, there were no accidents or incidents involving key supervised vessels such as ferries and passenger ships in Guangdong Province, achieving good results. (End)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>只要感情有，喝啥都是酒。亲人朋友一聚会，怎少得了小酌几杯？可喝了酒，哪怕是吃个酒酿小圆子都！不！能！开！车！不！能！开！车！ 说到这，相信很多人立马就想到了代驾。代驾虽好，可问题又来了，如果在代驾过程中发生交通故，这责任又该谁来担？自己？代驾司机？ 客官别急，小编这就告诉你。 一般情况下，如果发生交通事故，除按照车主投保的险种由保险人承担保险责任外， 超出部分一般由车主和司机负责。其中，车主、司机该如何划分， 这就要看两人之间的法律关系。 两人之间的法律关系又有哪些呢？ 第一种： “雇佣关系” 记住！是雇佣关系！如果是车主花钱雇人代驾，双方之间形成雇佣关系。在这一关系中，如果代驾司机在履行代驾的行为过程中存在过错，保险不足赔付时， 由代驾司机或代驾司机所在公司承担责任。第二种： “好意施惠”关系 嘿嘿，就是亲友好意帮了你一把。如果代驾司机是车主的亲朋好友，只是来帮忙就不一样了。这样的好友属于 “好意施惠”。在好意施惠行为过程中发生交通事故，保险不足赔付部分，车主自行承担。车主对（好友）司机无追偿权。最多基于公平原则，车主可适当要求好意施惠人进行补偿，而这个（补偿）比例一般在实践中比较低。 嗯，是的，内容差不多就这么多。 但最后小编还是要多啰嗦一句，如果要找代驾的话，最好找正规的代驾公司哦！如果条件允许的话，最好在代驾之前签订相关协议，明确责任归属问题。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>As long as there is emotion, anything can be considered alcohol. When gathering with family and friends, how can one miss having a few drinks? Even after drinking, even if it's just having a small rice wine ball, No! Driving! No! Driving! Speaking of this, I believe many people immediately think of designated drivers. Designated drivers are good, but here comes the problem: if a traffic accident occurs during the designated driving process, who should bear the responsibility? Oneself? The designated driver? Don't worry, let me tell you. In general, in the event of a traffic accident, in addition to the insurance responsibility borne by the insurer according to the insurance coverage purchased by the car owner, the excess is usually the responsibility of the car owner and the driver. How to allocate between the car owner and the driver depends on the legal relationship between the two. What are the legal relationships between the two? The first type: "employment relationship" Remember! It's an employment relationship! If the car owner pays someone to be a designated driver, an employment relationship is formed between the two. In this relationship, if the designated driver is at fault during the designated driving process and the insurance coverage is insufficient for compensation, the responsibility lies with the designated driver or the company the designated driver belongs to. The second type: "act of kindness" relationship Hehe, it's when a friend or relative kindly helps you out. If the designated driver is a friend or relative of the car owner and is just helping out, it's different. Such friends fall under the "act of kindness" relationship. In the event of a traffic accident during the act of kindness, the car owner bears the part where the insurance coverage is insufficient. The car owner has no right to claim against the (friend) driver. At most, based on the principle of fairness, the car owner can appropriately request the person who helped out of kindness to compensate, and this compensation ratio is generally relatively low in practice. Well, that's about it for the content. But finally, I have to add one more thing: if you need a designated driver, it's best to find a reputable designated driving company! If conditions allow, it's best to sign a relevant agreement before designated driving to clarify the issue of responsibility allocation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 盖世汽车讯据《美国汽车新闻》报道，去年以来，车企因高田气囊造成的召回不断扩大，近日有数据显示，各车企在日本的召回维修进度明显快于美国，召回车辆中三分之二已经完成维修。由于气囊打开力度过大可能引起爆炸，金属碎片飞溅杀伤车内人员，迄今为止高田气囊在全球造成的召回已达到2，500万辆，其中日本约为305万辆。据《日经新闻》报道，截止到今年2月底，日本召回车辆中已有213辆完成维修，意味着维修率已经达到70%。相比之下，美国的召回维修进度则慢了一拍。十大车企在美国的召回车辆约为1，700万辆，然而截止到2月份，完成维修的车辆不足200万辆，维修率仅为12%。为了加快召回进度，本田汽车近日在美国加大了对召回的宣传。该公司将在120余家报纸上刊登整版广告，并将在110多个地区市场投放30秒召回广告视频。《美国汽车新闻》分析称，日本消费者对于召回的反应更为敏感，当地安全与排放检测机构的严格控制也要求消费者对车辆召回及时作出反应。日本汽车制造业协会主席池文彦(Fumihiko Ike)表示，日本的二手车市场远不如美国庞大，而被转手的汽车进行召回非常困难，尤其是超过11年车龄的汽车。日本目前的保有车辆中平均车龄为8年，老旧车型较少，而美国则为11年。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>According to "Automotive News", since last year, car manufacturers have been expanding recalls due to Takata airbags. Recent data shows that the recall and repair progress of various car manufacturers in Japan is significantly faster than in the United States. Two-thirds of the recalled vehicles have been repaired. Due to the risk of the airbags deploying with excessive force and causing explosions that may injure occupants with metal fragments, Takata airbags have led to recalls of 25 million vehicles globally, with approximately 3.05 million in Japan. As reported by "Nikkei News", by the end of February this year, 213 vehicles in Japan had completed repairs, indicating a repair rate of 70%. In contrast, the recall repair progress in the United States has been slower. The top ten car manufacturers have recalled around 17 million vehicles in the U.S., but by February, less than 2 million vehicles had been repaired, with a repair rate of only 12%. To accelerate the recall progress, Honda recently increased its recall promotion efforts in the United States. The company will publish full-page advertisements in over 120 newspapers and air 30-second recall commercials in more than 110 local markets. "Automotive News" analysis suggests that Japanese consumers are more sensitive to recalls, and strict controls by local safety and emission testing agencies require consumers to respond promptly to vehicle recalls. Fumihiko Ike, Chairman of the Japan Automobile Manufacturers Association, stated that Japan's second-hand car market is not as large as the U.S., making recalls of transferred vehicles challenging, especially for cars over 11 years old. The average age of vehicles in Japan is currently 8 years, with fewer older models, compared to 11 years in the U.S.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>若论当下投资热点，只有收藏。俗话说，盛世藏古董，乱世买黄金。如今，收藏被认为是继股票、房地产之后中国内地最火的投资方式。不管是商贾大款，还是升斗百姓，无不希望能从中分一杯羹。于是，收藏市场日渐火爆，收藏者队伍不断壮大。据不完全统计，我国现有各类收藏协会、收藏品市场近万家，收藏者队伍达9000万人。中国进入了全民收藏时代！ 收藏市场的日益火爆，很多藏家都只进不出，市场上的销售让一些寻找宝贝的人犯了难。真是东西越来越少，宝贝越来越难淘，如此下去不少藏家表示玩不下去了。在十年前，在收藏市场上有钱的是“爷”，而如今，市场上到处都是出手阔绰的有钱人，而在这个收藏品缺货的年代，有货傍身的才算“爷”。 明代永乐青花海水龙纹大盘老精稀缺货残瓷也成藏品古玩市场上的“老精稀”藏品已经被第一批淘宝者淘光捡净，在旧货减少，卖家惜售的情况下，收藏者却越来越多，这导致“捡漏儿”的机会也越来越少。时至今日，在收藏大军不断扩容的背景下，这种“僧多粥少”的现象显得更加突出。不说别的，就拿瓷器来说，现今在收藏市场上的精品瓷是越来越少了，看拍卖场上明清瓷的受宠程度就知这瓷器的火热行情。然而，在收藏市场上，对于藏品，特别是瓷器一类，“全品相”要求几乎被提到了无以复加的高度，有“病”即弃、见“残”即“废”成为一些群体的当然选择。行话也有说：“瓷器起毛，不值分毫”，“瓷器毛了边，不值半分钱”。但是，在如今日益缺货的市场上，宁藏残器，不藏赝品。残器同样具有收藏价值，尤其是那些精品残器——器型基本完整、工艺水平一流、材质精良的藏品，其文物、艺术和经济价值都不可忽视。 宣德青花蟋蟀罐残瓷收藏不可“统吃”说起收藏残瓷很多收藏者都来了兴趣，“全品相”的瓷器在市场上不仅少见而且价格极高，但是残瓷却是在市场上随处可见。当然，如果不论品相而“统吃”，那么我们终其一生、倾家所有，也只能收得遗世残瓷之沧海一粟。瓷器易碎，但瓷片却千年不化，因而残瓷、瓷片存世浩如烟海。但也正因为瓷器易碎，千百年来，经历了战乱、生活中的使用与磕碰，一件件完美的瓷器“粉身碎骨”，完好无损者才少之又少。而如今收藏者的队伍在迅猛扩编，有限存世的完美器“吃”进一件市面上少一件，想要淘得完美的精品，其付出的财力非一般爱好者所能承受。而如想收几件不同时代、不同器型者的完美精品，更是难上加难。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>If we talk about the current investment hotspots, only collecting stands out. As the saying goes, in prosperous times, collect antiques; in chaotic times, buy gold. Nowadays, collecting is considered the hottest investment method in mainland China after stocks and real estate. Whether it's wealthy merchants or common people, everyone hopes to get a piece of the pie. As a result, the collecting market is becoming increasingly popular, and the number of collectors is constantly growing. According to incomplete statistics, there are nearly ten thousand collecting associations and markets in China, with a collector base of 90 million people. China has entered the era of nationwide collecting! With the collecting market becoming increasingly hot, many collectors are only buying and not selling, making it difficult for some treasure seekers to find what they are looking for. Items are becoming scarcer, treasures are harder to find, and many collectors feel they can't continue playing this game. Ten years ago, the ones with money were the "masters" in the collecting market, but now, there are wealthy people everywhere, and in this era of scarce collectibles, those with items in hand are the true "masters". Ming Dynasty Yongle blue and white dragon-patterned large plates are rare and scarce items, and even damaged porcelain has become sought-after in the antique market. The first batch of treasure hunters have already picked clean the "rare and scarce" collectibles, and with decreasing old items and sellers reluctant to sell, the number of collectors is increasing, leading to fewer opportunities for "picking up the pieces". Today, with the continuous expansion of the collecting army, this "more people than resources" phenomenon becomes more prominent. Taking porcelain as an example, high-quality porcelain items are becoming increasingly rare in the collecting market. The popularity of Ming and Qing porcelain in auctions reflects the hot market for these items. However, in the collecting market, especially for items like porcelain, the demand for items in "perfect condition" has reached an unprecedented level, with some groups choosing to discard items at the slightest flaw. There is a saying in the industry: "Porcelain with hairline cracks is worthless", "Porcelain with chipped edges is worth nothing". However, in today's increasingly scarce market, it's better to collect damaged items than fake ones. Damaged items also have collecting value, especially those high-quality damaged items with almost complete shapes, top-notch craftsmanship, and excellent materials, whose cultural, artistic, and economic value cannot be ignored. When it comes to collecting damaged porcelain, many collectors are interested. Perfect condition porcelain is not only rare but also extremely expensive in the market, while damaged porcelain is readily available. Of course, if we collect indiscriminately regardless of condition, we may spend our whole lives and exhaust all our resources, only to collect a few pieces of damaged porcelain. Porcelain is fragile, but porcelain shards can last for thousands of years, so damaged porcelain and shards are as numerous as the sea. However, precisely because porcelain is fragile, over the centuries, through wars, daily use, and accidental knocks, perfectly intact porcelain items are few and far between. Now, as the number of collectors is rapidly increasing, each perfect item "eaten" by one collector means one less in the market. To acquire a perfect high-quality item, the financial commitment required is beyond what an average enthusiast can afford. Moreover, collecting several perfect items from different eras and types is even more challenging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>生活真是个残酷的人，它有时会先给你一巴掌再塞你颗糖吃，还有时候它打完巴掌，就自己拍拍屁股一走了之。既然它常常挥一挥衣袖，什么都舍不得留下，插画师AlexNoriega就把自己的人生感悟画成了30幅漫画：01不能把眼前苟且的生活过好的人，永远到不了远方的诗和田野。 02不要妄自菲薄，你在别人眼中超逗的知道不！ 03不要因为没房没车得不到想要的一切就唉声叹气，比你混得惨的人多了去了，别人都没哭穷，你抱怨个毛线。 04内衣要穿好点的，万一哪天突然要和男神滚床单呢，你总不能让人家看到你破洞的bra。 05再生气也不要做网络喷子，因为在别人眼里你和傻X没什么区别。 06虚荣是魔鬼，再多的名包名表，都不如朋友的一句嘘寒问暖。 07成功的标准因人而异，没必要拿别人的标杆去衡量自己，否则，你早晚会被马云气得口吐白沫，和王思聪比得七窍流血。 08去他的“男人不坏，女人不爱”，好男人比什么都容易脱销。做你自己，不要让混蛋理论左右你的人生。 09朋友圈是用来分享的，不是用来显摆的。没人关心你是去了美国晒太阳还是去了欧洲血拼，晒可以，适可而止就好，多点真诚，少点套路。 10不要强迫你的朋友爱你所爱，如果他们喜欢，自己会说的。 11碌碌无为过日子真的很舒服呢，但是你最好80岁的时候也这么想。 12治疗孤单的最好办法，就是跟人打招呼，无论是得到友情还是爱情，你都赚翻了。 13不要花太多时间在虚无的事上，比如追剧，比如网购，比如微博，越忙碌越空虚。 14多和自带正能量气场的人交朋友，鸡汤这种东西，排肠毒，润肠道。 15没事少YY，因为胡思乱想要么把你逼成被害妄想症，要么让你迷上白日做梦。 16年龄越大你就越明白，找一个和你笑点一样的人，有多难。 17颜值这种事别太纠结，因为比你长得美和长得丑的人，一。样。多。 18每个人都觉得自己独一无二，你也没自己想得那么与众不同。 19也许你一生都无法摆脱恐惧，总有很多夜路要自己走，总有很多事要独自应对，但你可以学着和它共处，让恐惧也变得稀松平常。 20拖延症是病吗？P嘞！哺乳动物都酱婶～ 21无事可做的时候就睡觉，省钱，美容，还减肥... 22永远像个孩子，保持天真，永远好奇，热血沸腾。 23人生，记得给自己藏一手，哪怕是私房钱呢，至少能救急。 24女人和男人一样好色，三十如狼，四十如虎，发作起来，吓死你哦。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Life is such a cruel person, sometimes it will slap you before giving you a piece of candy, and sometimes after the slap, it just walks away on its own. Since it often waves its sleeves and doesn't leave anything behind, illustrator Alex Noriega has turned his life insights into 30 comics: 01 Those who can't live well in the present hardships will never reach the distant poetry and fields. 02 Don't belittle yourself, you are super funny in the eyes of others! 03 Don't sigh just because you don't have a house or a car and can't get what you want. There are plenty of people worse off than you, others haven't cried poor, why complain. 04 Wear better underwear, in case one day you suddenly have to roll in the sheets with your crush, you can't let them see your torn bra. 05 Don't become an online troll even when angry, because in others' eyes, you are no different from an idiot. 06 Vanity is the devil, no matter how many designer bags and watches you have, they are not as good as a caring word from a friend. 07 The standard of success varies from person to person, there is no need to measure yourself against others' benchmarks, otherwise, you will sooner or later be infuriated by Jack Ma and have a nosebleed from comparing with Wang Sicong. 08 Forget about the saying "men are not bad, women don't love", good men are easier to sell out than anything else. Be yourself, don't let the jerks theory dictate your life. 09 The circle of friends is for sharing, not for showing off. No one cares if you went to the US to sunbathe or went to Europe for shopping, it's fine to share, just do it in moderation, more sincerity, less pretense. 10 Don't force your friends to love what you love, if they like it, they will say it themselves. 11 Living a mediocre life is really comfortable, but you better think the same when you're 80. 12 The best way to cure loneliness is to say hello to people, whether you gain friendship or love, you win. 13 Don't spend too much time on trivial matters, such as binge-watching, online shopping, or Weibo, the busier you are, the emptier you feel. 14 Make friends with people who radiate positive energy, chicken soup cleanses the intestines and nourishes the bowels. 15 Stop daydreaming, because overthinking will either drive you to paranoia or make you addicted to daydreaming. 16 The older you get, the more you realize how difficult it is to find someone who shares your sense of humor. 17 Don't obsess over looks, because there are just as many people prettier or uglier than you. 18 Everyone thinks they are unique, you are not as different as you think. 19 Perhaps you will never be able to escape fear throughout your life, there will always be many lonely roads to walk, many things to face alone, but you can learn to coexist with it and make fear seem ordinary. 20 Is procrastination a disease? Nah! Even mammals procrastinate~ 21 When you have nothing to do, just sleep, save money, beautify yourself, and lose weight... 22 Always be like a child, stay innocent, forever curious, and passionate. 23 In life, remember to keep a trick up your sleeve, even if it's just some emergency cash, at least it can come in handy. 24 Women are just as lustful as men, at thirty like a wolf, at forty like a tiger, when it strikes, it can scare you to death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>前日，赵薇新作《虎妈猫爸》正式定档，这也是她在2008年主演电视剧《一个女人的史诗》七年后回归荧屏之作，该剧将于5月3日登陆东方、天津卫视。《虎妈猫爸》由赵薇、佟大为、董洁、潘虹、韩童生等联袂出演，其中佟大为与赵薇此前在电影《赤壁》《亲爱的》中合作过，《虎妈猫爸》是二人携手回归荧屏的第三次合作。赵薇、佟大为这对剧中的“虎妈猫爸”不仅演绎了婚后甜蜜的家庭生活，也共同经历了幼儿早教、东西方教育分歧、新手爸妈、隔辈带孩、学区房等教育抉择。虽然佟大为吐槽剧中的“虎妈”有些变态，却评价戏外的赵薇“很乖很可爱”。现实生活中也都已为人父母，佟大为称生活中跟“猫爸”观点相同，比起赢在起跑线上的“精英式”教育，更希望孩子有一个简单快乐的童年。赵薇则称生活中自己是“猫妈”，家庭地位很低，“在家里我女儿是虎，我和老公都管不住她，女儿不怕我，还常常歧视我，就是那种‘占山为王’的感觉。我跟老公都属于喜欢做事情的人，跟女儿相处的时间很少，所以不愿意在有限的相处时光里给她留下恶劣印象，慢慢就变得很没家庭地位。”</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The day before yesterday, Zhao Wei's new work "Tiger Mom Cat Dad" was officially scheduled. This is also her return to the screen after seven years since starring in the TV series "An Epic of a Woman" in 2008. The drama will premiere on Dongfang and Tianjin Satellite TV on May 3rd. "Tiger Mom Cat Dad" stars Zhao Wei, Tong Dawei, Dong Jie, Pan Hong, Han Tongsheng, and others. Tong Dawei and Zhao Wei have previously collaborated in the movies "Red Cliff" and "So Young." "Tiger Mom Cat Dad" marks their third collaboration on screen. In the drama, Zhao Wei and Tong Dawei not only interpret the sweet family life after marriage but also go through early childhood education, differences between Eastern and Western education, new parents, raising children across generations, and choosing schools in the education system. Although Tong Dawei criticized the "Tiger Mom" in the drama as somewhat abnormal, he praised Zhao Wei off-screen as "very obedient and lovely." In real life, both of them are already parents. Tong Dawei mentioned that in life, his views are similar to the "Cat Dad." He hopes for a simple and happy childhood for his children rather than an "elite-style" education that wins at the starting line. Zhao Wei described herself as a "Cat Mom" in real life, with a low status in the family. She said, "At home, my daughter is the tiger. Both my husband and I can't control her. She's not afraid of me, often looks down on me, giving me the feeling of being dominated. Both my husband and I are people who like to work. We spend very little time with our daughter, so I don't want to leave a bad impression on her during the limited time we have together. Gradually, I have become very low in the family hierarchy."</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 资料图：清东陵位于河北省唐山市遵化市西北30公里处，西距北京市区125公里，占地80平方公里。 京华时报讯清东陵自去年以来接连发生景妃园寝温僖贵妃墓被盗和违法建设中锦钓鱼台生态庄园案，在落实1月13日国家文物局约谈整改过程中，又发生昭西陵隆恩殿台基护栏柱头遭盗窃案件，日前国家文物局就清东陵再次被盗约谈唐山市政府。去年10月31日，犯罪团伙对清东陵景妃园寝温僖贵妃墓实施盗掘，被保安巡查发现后，犯罪嫌疑人逃离。温僖贵妃墓西侧被挖开半米长盗洞，现场遗留被盗出墓室的棉朝靴一双、绣龙纹棉被一床和绣龙纹棉朝服、披风、内裤等各一件。案件已侦破，追回被盗12件文物。今年1月13日，国家文物局就此事约谈了唐山市、遵化市人民政府及清东陵管委会。7月25日，国家文物局再次约谈唐山市、遵化市人民政府及清东陵管委会。国家文物局在约谈时指出，清东陵自去年以来接连发生景妃园寝温僖贵妃墓被盗和违法建设中锦钓鱼台生态庄园案，在落实1月13日国家文物局约谈整改过程中，又发生昭西陵隆恩殿台基护栏柱头遭盗窃案件，反映出当地政府和相关部门管理水平亟待提高，责任意识亟待加强，吸取教训不够深刻，虽然进行了整改工作但仍然存在诸多问题：一是责任追究不到位，敷衍了事，避重就轻，未真正触及问题实质，真正提高各级管理部门的文物安全责任意识；二是案件调查不到位，深挖不够，延伸不足，未深层次分析连续发生盗窃案的根源，形成有效打击和防范文物犯罪的措施；三是整改措施不到位，未坚持问题导向，从体制、机制上查找问题，厘清责任，健全机构，充实人员，建立完善的安全责任体系。 延伸阅读：清东陵被盗12件文物已追回 凤冠价值不菲(图)清东陵修复：慈禧锦缎修复难 乾隆“卧室”漏水 资料图：清东陵于1661年（顺治十八年）开始修建，历时247年，陆续建成217座宫殿牌楼，组成大小15座陵园。陵区南北长125公里、宽20公里，埋葬着5位皇帝、15位皇后、136位妃嫔、3位阿哥、2位公主共161人。是中国现存规模最宏大、体系最完整、布局最得体的帝王陵墓建筑群。 唐山市人民政府有关负责人表示，要从思想上认识文物安全的根源，彻底解决追责不到位、处罚不到位的问题；从体制上、管理上和效率上切实落实文物安全保护机制和措施；政府要抓好整改工作，促进落实，全面提升清东陵文物保护安全管理水平。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Illustration: The Eastern Qing Tombs are located 30 kilometers northwest of Zunhua City, Tangshan City, Hebei Province, 125 kilometers west of Beijing, covering an area of 80 square kilometers. According to the Beijing Times, since last year, a series of incidents have occurred at the Eastern Qing Tombs, including the theft of the tomb of Empress Wenxi and the illegal construction of the Jin Diaoyutai Ecological Manor in the Jingfei Garden, as well as the theft of the railing column heads of the Long'en Hall platform at the Zhaoling Palace. Recently, the National Cultural Heritage Administration held discussions with the Tangshan City government regarding the repeated theft at the Eastern Qing Tombs. On October 31 last year, a criminal gang dug up the tomb of Empress Wenxi at the Eastern Qing Tombs, but fled when discovered by security guards. A half-meter-long hole was dug on the west side of the tomb, and items stolen included a pair of cotton boots, an embroidered dragon-pattern cotton quilt, and various clothing items. The case has been solved, and 12 stolen artifacts have been recovered. On January 13 this year, the National Cultural Heritage Administration held discussions with the Tangshan City government, Zunhua City government, and the Eastern Qing Tombs Management Committee. On July 25, the National Cultural Heritage Administration again held discussions with the Tangshan City government, Zunhua City government, and the Eastern Qing Tombs Management Committee. During the discussions, it was pointed out that the local government and relevant departments need to improve their management level and strengthen their sense of responsibility. Although corrective measures have been taken, there are still many issues that need to be addressed: inadequate accountability, superficial handling of issues, insufficient investigation of cases, lack of in-depth analysis of the root causes of theft cases, and inadequate corrective measures. The Eastern Qing Tombs, built in 1661 during the 18th year of the Shunzhi reign, took 247 years to complete, consisting of 217 palaces and pavilions, forming 15 large and small mausoleums. The tomb area is 125 kilometers long from north to south and 20 kilometers wide, burying a total of 161 individuals, including 5 emperors, 15 empresses, 136 concubines, 3 princes, and 2 princesses. It is the largest and most complete imperial tomb architectural complex in China. A responsible person from the Tangshan City government stated that they need to thoroughly address the issues of inadequate accountability and punishment, implement effective mechanisms and measures for cultural heritage protection, and enhance the management level of cultural heritage protection at the Eastern Qing Tombs comprehensively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>寄语：在投资的路上，我们要在坚持与放弃间选择，在失败与胜利之间是徘徊还是单边走向成功亦或失败。成功的奥秘就是对自我的掌控，如果说行情是一，那么心态就是你千万个成功与否的关键。坚持是为了在失败中找到成功，放弃是为了打散眼前的诱惑。如有投资上的问题欢迎咨询张景未，将随时为您解惑！ 早在今年6月，美国原油价格曾突破每桶50美元，激发了市场对于持续两年之久的价格崩跌或结束的乐观情绪。然而市嘲风云变幻”，目前美国原油期货价格较6月中旬触及的高位低了17%，距离重入熊市“仅一步之遥”。原油价格周二(7月26日)震荡下挫，美国原油期货主力合约一度创三个月新低42.36美元/桶；近期美国原油钻井增加、OPEC及俄罗斯产量上升、伊拉克原油出口增加、中国需求减少、汽油需求减少、FED加息预期升温以及多头减持头寸七大利空联手打压油价；油价跌跌不休，料进一步向下探底，下测41.6美元/桶以及40美元/桶附近支撑。国际油价跌跌不休，美国原油期货价格最低触及4月21日以来的低位42.36美元/桶，缘于供应过剩担忧，需求疲软，以及美元走强等利空因素。随着产量增长和活跃钻机数量的增加，对于需求达不到预期的担忧加剧，这使得分析师们认为，油价的复苏或许还是一年甚至是更长时间以后的事情。需求的步伐一直要比多头们的预期要慢。今年夏季，美国司机的行驶里程要少于预期，随着9月劳工节渐行渐近，积压的汽油库存对原油和精炼油品构成下行压力。原油今日符合预期下跌，最终日图收取阴线，预计明日日还有一定的下探空间，日线上，布林开口，K线三连阴呈弱势下跌，短期关注日图布林下轨支持，预计日内破低之后有一定的反弹需求，但日线呈现的空能已经势不可挡，在市场没有利好原油消息面刺激下油价下行成必然，早在45美元预测油价将跌势42关口目前来看基本板上钉钉，油价跌破43美元，那么后市极有可能触及42关口；原油4小时图看，布林带上轨向上运行，下轨与中轨向下运行，开口迹象明显，K线沿布林带下轨向下运行，受下轨强力支撑，目前处于43美元下方，CCI指标拐头向下运行，RSI指标向下发散运行，综合而言，原油价格下跌势头较为明显，且利空影响较多，油价缺乏有力支撑，张景未预计原油价格后市仍将震荡下行。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Message: On the road of investment, we need to choose between persistence and giving up, between hesitating and unilaterally moving towards success or failure. The secret of success lies in self-control. If the market is one, then mindset is the key to your success or failure. Persistence is to find success in failure, giving up is to resist the temptations in front of you. If you have any investment questions, feel free to consult Zhang Jingwei, who will be available to help you at any time! As early as June this year, the price of crude oil in the United States once broke through $50 per barrel, sparking optimism in the market that the two-year-long price collapse may be coming to an end. However, the market is ever-changing. Currently, the price of US crude oil futures is 17% lower than the high point reached in mid-June, just a step away from re-entering a bear market. On Tuesday (July 26th), crude oil prices fluctuated downward, with the main US crude oil futures contract hitting a three-month low of $42.36 per barrel; recent factors such as increased US crude oil drilling, rising production from OPEC and Russia, increased Iraqi crude oil exports, reduced demand from China, decreased gasoline demand, expectations of a Fed rate hike, and long positions being reduced have all combined to suppress oil prices; oil prices continue to fall, expected to further test support levels around $41.6 per barrel and $40 per barrel. International oil prices continue to fall, with the lowest US crude oil futures price touching $42.36 per barrel since April 21st, due to concerns about oversupply, weak demand, and a strong US dollar, among other bearish factors. With growing production and an increase in active drilling rigs, concerns about demand not meeting expectations have intensified, leading analysts to believe that the recovery of oil prices may still be a year or even longer away. The pace of demand has always been slower than what the bulls expected. This summer, US drivers are driving fewer miles than expected, and as Labor Day in September approaches, the backlog of gasoline inventories is putting downward pressure on crude oil and refined oil products. Crude oil fell as expected today, ultimately forming a bearish candle on the daily chart, with an anticipated further downward movement tomorrow. On the daily chart, the Bollinger Bands are widening, with three consecutive bearish candles indicating a weak downward trend. In the short term, attention should be paid to the support of the lower Bollinger Band on the daily chart, with a demand for rebound expected after breaking below the low. However, the bearish momentum shown on the daily chart is unstoppable, and without any positive news stimulating oil prices, the downward trend is inevitable. With the prediction of oil prices falling below $45, it seems likely that oil prices will reach the $42 level in the future; Looking at the 4-hour chart of crude oil, the upper Bollinger Band is moving upwards, while the lower band and the middle band are moving downwards, with a clear widening trend. The candlesticks are moving downwards along the lower Bollinger Band, currently below $43, with the CCI indicator turning downwards and the RSI indicator diverging downwards. In conclusion, the downward trend of oil prices is quite evident, with many bearish influences and a lack of strong support. Zhang Jingwei predicts that oil prices will continue to fluctuate downward in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>近日，陆河县公安局抓获一名网上在逃犯罪嫌疑人。该犯罪嫌疑人是在准备去河口镇接女儿到梅州市五华县度暑假途中，被早已布控的民警抓了个正着。据了解，2013年6月23日，该县公安局在河口镇剑门村捣毁一个制毒窝点，其中一名犯罪嫌疑人张某某（男，44岁，陆河人）畏罪潜逃，且一直隐姓埋名，躲避公安机关的追捕。同年8月5日，张某某被该县检察机关依法批准逮捕，并被列为网上在逃人员。三年多来，该县公安民警始终没有放弃追捕工作，在今年开展的“雷鸣行动”中，该县公安局领导高度重视追逃工作，部署警力，做好周密抓捕逃犯方案。经缜密摸查和综合分析研判，该县公安局掌握到张某某藏匿梅州市五华县，并锁定了张某某欲前往河口镇接其女儿到五华县过暑假的可靠信息。7月8日晚，犯罪嫌疑人张某某驱车如约前来接其女儿，该县公安刑侦、禁毒、巡警大队和河口、螺溪派出所联合作战，在梅州、汕尾警方的大力协助下，于当天23时许在螺溪镇各安村通往五华县的山路上成功将张某某抓获。目前，犯罪嫌疑人已被公安机关依法执行逮捕。（记者 洪广凭 通讯员 罗碧潺）</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Recently, the Public Security Bureau of Luhe County captured a suspected criminal who was on the run online. The suspect was on his way to pick up his daughter in Hekou Town and head to Wuhua County, Meizhou City for the summer vacation when he was caught by the police who had long been monitoring him. It is understood that on June 23, 2013, the Public Security Bureau of the county raided a drug manufacturing den in Jianmen Village, Hekou Town, where a suspect named Zhang (male, 44 years old, from Luhe) fled in fear and had been hiding and evading the police pursuit under an assumed name. On August 5 of the same year, Zhang was lawfully arrested by the county procuratorate and listed as an online fugitive. For over three years, the county public security police never gave up on the pursuit. In the "Thunder Operation" launched this year, the leadership of the county Public Security Bureau attached great importance to the pursuit work, deployed police forces, and formulated a meticulous plan to capture the fugitive. Through careful investigation and comprehensive analysis, the Public Security Bureau of the county obtained reliable information that Zhang was hiding in Wuhua County, Meizhou City, and had identified that he planned to go to Hekou Town to pick up his daughter and then head to Wuhua County for the summer vacation. On the evening of July 8, the suspect Zhang drove to pick up his daughter as scheduled. The county public security criminal investigation, anti-drug, patrol, and Hekou and Luoxi police stations jointly launched an operation. With strong assistance from the police in Meizhou and Shanwei, they successfully captured Zhang on the mountain road from Ge'an Village in Luoxi Town to Wuhua County around 11 p.m. on the same day. Currently, the suspect has been lawfully arrested by the public security authorities. (Reporter Hong Guangping, Correspondent Luo Bichan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>为贯彻落实党的十八大和十八届三中、四中、五中全会精神，根据国务院《关于加强审计工作的意见》、中共中央办公厅、国务院办公厅《关于完善审计制度若干重大问题的框架意见》及相关配套文件、审计署《“十三五”国家审计工作发展规划》和《六安市国民经济和社会发展第十三个五年规划纲要》，结合我市审计工作实际，制定本发展规划。一、指导思想高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观为指导，深入贯彻习近平总书记系列重要讲话精神，坚持创新、协调、绿色、开放、共享的发展理念，认真落实“四个全面”战略布局，创新审计方式，加大审计力度，提升审计能力，提高审计效率，依法独立行使审计监督权，全面构建国家审计为主导、内部审计为基础、社会审计为补充的审计全覆盖工作机制，充分发挥审计在党和国家监督体系中的重要作用，全力服务绿色发展和幸福六安建设。二、总体目标紧紧围绕改革发展这条主线，全面解放思想，大胆创新，完善审计制度，推进法治、维护民生、贯彻落实供给侧改革，促进体制机制健全完善，对公共资金、国有资产、国有资源和领导干部履行经济责任情况实行审计全覆盖，做到应审尽审、凡审必审、严肃问责。到2020年，基本形成与国家治理体系和治理能力现代化相适应的审计监督制度，更好发挥审计在保障党和国家重大决策部署贯彻落实、维护经济安全、推动深化改革、促进依法治市、推进廉政建设中的重要作用。——完善审计制度。全面落实中央和我省完善审计制度的决策部署，推动建立健全履行法定审计职责保障机制，完善审计结果运用机制。关注审计法、审计法实施条例及国家审计准则等法律法规规章修订情况，及时推动修改完善地方审计法规制度，为依法审计提供制度保障。——推进审计全覆盖。坚持科学规划、统筹安排、分类实施，在“十三五”期间，对依法属于审计监督范围的所有管理、分配、使用公共资金、国有资产、国有资源的部门和单位，以及党政主要领导干部和国有企事业单位领导人员履行经济责任情况实现有重点、有步骤、有深度、有成效的审计监督全覆盖。对重点部门、单位每年审计，其他审计对象至少审计1次，对重点地区、部门、单位以及关键岗位的领导干部任期内至少审计1次，对重大政策措施、重大投资项目、重点专项资金和重大突发事件开展跟踪审计。——提升审计能力。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>To implement the spirit of the 18th National Congress of the Communist Party of China, as well as the Third, Fourth, and Fifth Plenary Sessions of the 18th Central Committee, in accordance with the State Council's "Opinions on Strengthening Audit Work," the General Office of the CPC Central Committee and the General Office of the State Council's "Framework Opinions on Improving the Audit System," along with relevant supporting documents, the National Audit Office's "13th Five-Year National Audit Development Plan," and the "13th Five-Year Plan for the National Economy and Social Development of Lu'an City," combined with the actual audit work of our city, this development plan is formulated. 
+I. Guiding Ideology: Hold high the great banner of socialism with Chinese characteristics, guided by Marxism-Leninism, Mao Zedong Thought, Deng Xiaoping Theory, the important thought of the "Three Represents," and the Scientific Outlook on Development. Thoroughly implement the spirit of General Secretary Xi Jinping's important speeches, adhere to the development concept of innovation, coordination, green, openness, and sharing, conscientiously implement the "Four Comprehensives" strategic layout, innovate audit methods, intensify audit efforts, enhance audit capabilities, improve audit efficiency, independently exercise audit supervision rights in accordance with the law, comprehensively construct an audit work mechanism where national audit takes the lead, internal audit serves as the foundation, and social audit serves as a supplement, fully play the important role of audit in the supervision system of the Party and the country, and fully serve the green development and the construction of a happy Lu'an.
+II. Overall Objective: Centered on the main theme of reform and development, emancipate the mind comprehensively, innovate boldly, improve the audit system, promote the rule of law, safeguard people's livelihood, implement supply-side structural reform, promote the sound and improved development of the system and mechanisms, conduct full-coverage audits on the use of public funds, state-owned assets, state-owned resources, and the performance of leading cadres in fulfilling economic responsibilities. By 2020, basically establish an audit supervision system that is in line with the modernization of the national governance system and governance capacity, better play the important role of audit in ensuring the implementation of major decisions and deployments of the Party and the country, safeguarding economic security, promoting deepening reform, advancing the rule of law, and promoting clean governance. — Improve the audit system. Fully implement the decisions and deployments of the central government and our province to improve the audit system, promote the establishment of a sound mechanism to fulfill statutory audit responsibilities, and improve the mechanism for the use of audit results. Pay attention to the revision of laws, regulations, and rules such as the Audit Law, the Implementing Regulations of the Audit Law, and national audit standards, and promptly promote the revision and improvement of local audit laws and regulations to provide institutional guarantees for legal audits. — Promote full-coverage audits. Adhere to scientific planning, overall arrangements, and classified implementation. During the "13th Five-Year Plan" period, conduct targeted, systematic, in-depth, and effective audit supervision on all departments and units that fall within the scope of audit supervision according to the law, including those managing, allocating, and using public funds, state-owned assets, state-owned resources, as well as the economic responsibilities of the main leaders of the party and government and leaders of state-owned enterprises and institutions. Conduct annual audits for key departments and units, at least one audit for other audit targets, at least one audit during the term of office for key regions, departments, units, and key positions of leading cadres, and conduct follow-up audits on major policy measures, major investment projects, key special funds, and major emergencies. — Enhance audit capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>【IT168厂商动态】NECV300W+投影机在节能方面也做得非常出色。得益于NEC对投影机内部光路的优化设计，该机型在节能模式下灯泡寿命长达5000小时，远远超过市面上的普通产品，显著降低了后期的使用成本。此外，该机在待机状态下，功率可以降低到1瓦以下，也为用户日常的使用节约了电力成本，NEC将投影机的高品质、高性能特性带到了商务领域，其专为中小企业、SOHO一族设计的V系列入门商务产品，具备便捷、高效、高性价比的优势，V300W+宽屏商务投影机作为V系列产品中的旗舰机型，更为商务人士提供了超值产品。广州龙元电子科技有限公司;联系人;郭小姐;联系电话;020-87516830.13580409618 特效投影机NEC投影机V300W+报6500元 ，这款投影机在节能方面也做得非常出色。得益于NEC对投影机内部光路的优化设计，该机型在节能模式下灯泡寿命长达5000小时，远远超过市面上的普通产品，显著降低了后期的使用成本。此外，该机在待机状态下，功率可以降低到1瓦以下，也为用户日常的使用节约了电力成本。 特效投影机NEC投影机V300W+报6500元 为了节省中小企业与SOHO一族的日常开支，NECV300W+投影机在节能方面也做得非常出色。得益于NEC对投影机内部光路的优化设计，该机型在节能模式下灯泡寿命长达5000小时，远远超过市面上的普通产品，显著降低了后期的使用成本。此外，该机在待机状态下，功率可以降低到1瓦以下，也为用户日常的使用节约了电力成本。NEC V300W+凭借着3000流明的高亮度和WXGA的宽屏分辨率脱颖而出，以及更多的优越条件为主导，在社会脚步频率如此高的时代，NEC推出的V系列投影机。 在外观与配置方面，NECV300W+采用了一贯的全白色外观设计，机身重量仅有2.5公斤，可谓时尚小巧，摆放在小型的会议室中也不会占据很大空间，轻便的机身还可以方便NEC V300W+采用了DLP投影技术，亮度达到了3000流明，即使光线充足的会议室中也可以投射出清晰的画面。同时，该机采用了WXGA(1280×800)的宽屏分辨率，与现在市场上主流的笔记本分辨率相同，连接笔记本后无需再调整分辨率，真正做到点对点的完美播放。这一分辨率也达到了高清的标准，在商务之余观看高清电影、打游戏，都可以获得清晰的画面效果。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>【IT168 Vendor News】The NEC V300W+ projector excels in energy saving as well. Thanks to NEC's optimized design of the internal light path of the projector, this model has a lamp life of up to 5000 hours in energy-saving mode, far exceeding ordinary products on the market, significantly reducing later-stage usage costs. In addition, the power consumption of this projector can be reduced to below 1 watt in standby mode, saving electricity costs for daily use. NEC has brought high-quality and high-performance characteristics of projectors to the business field. The V series entry-level business products designed specifically for small and medium-sized enterprises and SOHO users have the advantages of convenience, efficiency, and cost-effectiveness. The V300W+ widescreen business projector, as the flagship model of the V series products, provides excellent value for business professionals. Contact: Miss Guo, Guangzhou Longyuan Electronic Technology Co., Ltd; Tel: 020-87516830, 13580409618. The special effects projector NEC V300W+ is priced at 6500 yuan, and this projector also excels in energy saving. Thanks to NEC's optimized design of the internal light path of the projector, this model has a lamp life of up to 5000 hours in energy-saving mode, far exceeding ordinary products on the market, significantly reducing later-stage usage costs. In addition, the power consumption of this projector can be reduced to below 1 watt in standby mode, saving electricity costs for daily use. In order to save daily expenses for small and medium-sized enterprises and SOHO users, the NEC V300W+ projector excels in energy saving as well. Thanks to NEC's optimized design of the internal light path of the projector, this model has a lamp life of up to 5000 hours in energy-saving mode, far exceeding ordinary products on the market, significantly reducing later-stage usage costs. In addition, the power consumption of this projector can be reduced to below 1 watt in standby mode, saving electricity costs for daily use. With a high brightness of 3000 lumens and a widescreen WXGA resolution, the NEC V300W+ stands out with more superior conditions as the leading product in the V series projectors launched by NEC in an era of high social frequency. In terms of appearance and configuration, the NEC V300W+ maintains its consistent all-white appearance design, with a body weight of only 2.5 kilograms, making it stylish and compact. It does not take up much space even when placed in a small meeting room. The lightweight body is also convenient. The NEC V300W+ adopts DLP projection technology, achieving a brightness of 3000 lumens, allowing clear images to be projected even in well-lit meeting rooms. At the same time, this projector uses a widescreen WXGA (1280×800) resolution, the same as the mainstream notebook resolution on the market. When connected to a notebook, there is no need to adjust the resolution, achieving perfect point-to-point playback. This resolution also meets the high-definition standard, allowing for clear image effects when watching high-definition movies or playing games in addition to business use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 特松加 当地时间周六，特松加在维也纳公开赛男单半决赛中以5-7、7-5、7-6(6)艰难逆转了卡洛维奇，晋级决赛。卡洛维奇在第二盘一度挽救了4个被破发点，领先两个破发，在决胜盘抢七也一度领先两个迷你破发，但是都被特松加一一化解危机，后来居上。“我在第一盘的盘末有些紧张，所以输掉了。”特松加在赛后表示，“他打得很好。对我来说，能够逆转非常不容易。不过我抓住了难得的机会。我一直尝试保持专注。”6号种子将在决赛中与头号种子穆雷争夺冠军。英国人因为费雷尔左腿受伤，不战而胜，自动晋级决赛。穆雷继续在追逐ATP世界排名第一的殊荣。如果他能够在本周的维也纳以及下周的巴黎大师赛夺冠，而德约科维奇在巴黎决赛前出局，他将荣升新科世界第一。“我知道费雷尔在本周开始的时候就有伤病。”穆雷表示，“他昨天打了很长的一场比赛，所以非常不幸。他是我们当中长期能保持健康的选手之一，不经常有伤病。他肯定是非常疼痛才决定退赛的，非常惋惜。对我来说，我会休息一天，为明天的决赛做好准备。我知道那将是一场非常困难的比赛，不过我很有动力在赛季末强势收兵。能够在这一周再度闯入绝死啊，感觉很好。”“在昨天的比赛之后，我的左腿受伤了。”费雷尔说道，“这是肌肉的问题。我现在需要等48个小时，去看核磁共振的结果。我必须为下一个赛季做好准备。”在周日的决赛，作为2011年的赛会冠军，特松加希望能够终结自己对阵2014年冠军穆雷的四连败。苏格兰人在双方的交手记录中以13-2占据绝对优势。他们二人今年唯一一次交手是在温网的四分之一决赛。他们之前也只在决赛交手过一次，那是2011年的女王杯，穆雷获得了冠军。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>In Vienna Open men's singles semi-final on Saturday local time, Thiem staged a tough comeback against Cilic with a score of 5-7, 7-5, 7-6(6), advancing to the final. Cilic saved four break points in the second set, leading by two breaks. In the deciding set tiebreak, he also led by two mini-breaks, but Thiem managed to resolve the crisis one by one and eventually turned the tables. "I was a bit nervous towards the end of the first set, so I lost it," Thiem said after the match. "He played very well. For me, it was very difficult to come back. But I seized the rare opportunity. I tried to stay focused all the time." The 6th seed will compete for the championship in the final against the top seed, Murray. Murray advanced to the final automatically as Ferrer withdrew due to a left leg injury. Murray continues to chase the honor of becoming the world No. 1 in the ATP rankings. If he wins the titles in Vienna this week and the Paris Masters next week, and Djokovic is eliminated before the final in Paris, he will ascend to the new world No. 1. "I knew Ferrer had an injury at the beginning of this week," Murray said. "He played a very long match yesterday, so it's very unfortunate. He is one of the players among us who can stay healthy for a long time and doesn't often get injured. He must be in a lot of pain to decide to withdraw, which is very regrettable. For me, I will rest for a day and prepare for tomorrow's final. I know it will be a very difficult match, but I am motivated to finish the season strongly. It feels great to reach the final again this week." "My left leg was injured after yesterday's match," Ferrer said. "It's a muscle issue. I need to wait for 48 hours to see the results of the MRI. I have to prepare for the next season." In Sunday's final, as the 2011 tournament champion, Thiem hopes to end his four-match losing streak against Murray, the 2014 champion. The Scot holds a dominant 13-2 record in their head-to-head encounters. They met only once this year in the Wimbledon quarterfinals. They have faced each other only once before in a final, which was the 2011 Queen's Club, where Murray claimed the title.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>北京时间4月12日早间消息，雅虎最资深的高管之一迈克·科恩斯(MikeKerns)已经离职。近期的一系列人员调整表明，雅虎正在经历新的高层人事动荡。多名消息人士称，科恩斯考虑离职已有一段时间。他对与雅虎其他高管，尤其是媒体业务负责人凯西·萨维特(Kathy Savitt)的内耗感到厌倦。 科恩斯于2006年在雅虎收购Citizen Sports的交易中加入雅虎。他在雅虎担任高级副总裁，负责主页和其他垂直网站，例如视频网站，并直接向雅虎CEO玛丽莎·梅耶尔(Marissa Mayer)报告工作。消息人士称，科恩斯曾就自己的离职条件与梅耶尔进行协商，而后者将接管科恩斯的大部分工作。目前尚不清楚科恩斯未来将从事什么工作。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Morning of April 12th Beijing Time, news came that Mike Kerns, one of Yahoo's most senior executives, has resigned. A series of recent personnel adjustments indicate that Yahoo is undergoing new senior management turmoil. Several sources said Kerns had been considering resigning for some time. He grew tired of internal conflicts with other Yahoo executives, especially with Kathy Savitt, who is in charge of the media business. Kerns joined Yahoo in 2006 through the acquisition of Citizen Sports. He served as Senior Vice President at Yahoo, responsible for the homepage and other vertical websites, such as the video site, and reported directly to Yahoo CEO Marissa Mayer. Sources said Kerns had negotiated his resignation terms with Mayer, who will take over most of Kerns' responsibilities. It is currently unclear what Kerns will do in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>近日，有临沂网友在微博爆料称，在预约孙中山先生诞辰150周年普通纪念币（以下简称“孙中山币”）时，发现自己的姓名和身份证号码等信息被冒用，已被他人预约成功。大众网记者调查发现，在该事件中被冒用者还涉及济宁、枣庄、烟台等地网友。有网友称，预约开启当天凌晨，有中介雇佣大学生去网吧集体抢预约，中介手中掌握的身份证信息或达3万条。目前，农行山东省分行称已报警，警方正介入调查。爆料：姓名、身份证号全都对，但手机号和兑换码是陌生人的10月25日上午，有临沂网友爆料称，“孙中山币”当天凌晨开始在农行官网在线预约，但当天早上他去临沂大山路一农行网点进行线下预约时，却被告知自己已预约过了。银行工作人员打印出的预约结果显示，他预约兑换的银行网点位于270公里外的济宁梁山县拳铺镇。但对此，他本人却毫不知情。这位网友说，银行出示的预约信息中，除了手机号不符外，上面的姓名和身份证号信息都是自己的。他抱着试着看的态度加了预约手机号关联的微信号，对方竟告知他信息被冒用的不只他一个，可能有好几万人。在微博中，这位网友为了证明自己爆料的真实性，还晒出了部分疑似个人信息被冒用人员的名单。大众网记者粗略地计算了一下，仅这一页名单就涉及90余人。随后，大众网记者调查发现，枣庄、济宁和烟台等地有多名网友也遭遇了相同经历。在网友提供的冒用者电话中，记者发现170****8178和170****8128这两个号码被多人集中曝光，且两个号码就差一位数，号码归属地显示为陕西西安，所属虚拟运营商是国美极信。10月27日上午，大众网记者拨打了这两个手机号，显示均已关机。回应：不是个例！银行称警方已介入调查，网点兑换需持预约身份证“我昨天发了微博后，有好多人都私信我说他们也遇到了这个情况。”10月26日下午，信息被冒用的一位枣庄网友，给大众网记者发来了她与农行山东省分行官微之间的私信截图。她告诉记者，她也是在网上预约“孙中山币”时发现个人信息被冒用了，而且，她随后发现母亲和身边其他人的身份证号码，也有被冒用预约纪念币的情况。对于信息被冒用了个人该如何处理，农行山东省分行第一时间进行了回复称，网友可以到银行网点进行取消。对于农行的这一说法，江苏的一位刘女士在接受大众网采访时表示，她已到银行网点成功取消了被冒用的预约信息。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Recently, a netizen from Linyi revealed on Weibo that when reserving the commemorative coin for the 150th anniversary of Mr. Sun Yat-sen's birth (hereinafter referred to as the "Sun Yat-sen coin"), they found that their name and ID number were used without authorization, and someone else had successfully made a reservation using their information. Investigation by reporters from Dazhong Net found that in this incident, the victims of identity theft also included netizens from Jining, Zaozhuang, Yantai, and other places. Some netizens claimed that on the day the reservations opened, in the early morning, intermediaries hired college students to collectively rush to internet cafes to grab reservations. The intermediaries had access to up to 30,000 ID information. Currently, the Agricultural Bank of China Shandong Branch has reported to the police, and the authorities are investigating. The whistleblower stated: the name and ID number were correct, but the phone number and redemption code belonged to strangers. On the morning of October 25th, a netizen from Linyi disclosed that the "Sun Yat-sen coin" started online reservations on the Agricultural Bank's official website. However, when he went to an Agricultural Bank branch on Dashan Road in Linyi for offline reservation in the morning, he was told that he had already made a reservation. The printed reservation result from the bank showed that the bank branch he reserved for redemption was in Quanpu Town, Liangshan County, Jining, which is 270 kilometers away. However, he was completely unaware of this. The netizen said that besides the phone number discrepancy, the name and ID information on the reservation shown by the bank were his own. He added the reservation phone number to WeChat out of curiosity, and the other party informed him that he was not the only one whose information was stolen, possibly involving tens of thousands of people. In order to prove the authenticity of his disclosure, the netizen also posted a list of individuals whose personal information was allegedly stolen on Weibo. Dazhong Net reporters roughly calculated that this single page list involved more than 90 people. Subsequently, Dazhong Net reporters found that netizens from Zaozhuang, Jining, Yantai, and other places had also encountered similar experiences. Among the phone numbers provided by netizens as stolen, reporters found that the numbers 170****8178 and 170****8128 were exposed by multiple people, and the two numbers differed by only one digit. The numbers were registered in Xi'an, Shaanxi, under the virtual operator Guomei Jixin. On the morning of October 27th, Dazhong Net reporters called these two numbers, but both were switched off. Response: Not an isolated case! The bank stated that the police are investigating, and identity verification is required for coin redemption at bank branches. "After I posted on Weibo yesterday, many people messaged me saying they also encountered this situation." On the afternoon of October 26th, a netizen from Zaozhuang, whose information was stolen, sent screenshots of her private messages with the official WeChat account of the Agricultural Bank of China Shandong Branch to Dazhong Net reporters. She told the reporters that she also found her personal information was stolen when she reserved the "Sun Yat-sen coin" online, and later discovered that her mother's and other people's ID numbers were also used for coin reservations without authorization. Regarding how individuals should handle their stolen information, the Agricultural Bank of China Shandong Branch promptly replied that netizens can go to bank branches to cancel the reservations. Regarding the bank's statement, a woman named Liu from Jiangsu, in an interview with Dazhong Net, stated that she had successfully canceled the unauthorized reservation at the bank branch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>视频截图近日，吉林省珲春市网友上传的一只东北虎下山的视频刷爆朋友圈。从视频中看，网友车辆经过一片玉米地时，一只老虎从一片一人多高的玉米地钻出，神态悠闲。如此近距离拍摄的野生东北虎十分罕见。许多网友纷纷点赞：“好漂亮的大猫”“太可爱了”。视频是真是假？老虎为什么会出现在珲春？记者对此展开调查。7月26日上午，记者多次致电视频拍摄者珲春市民孙先生，因信号不好未果。记者转而联系到发布视频的珲春市委宣传部微信公众账号——“掌上珲春”网络编辑部。编辑部主任刘玺铎称，7月25日，“掌上珲春”发现朋友圈转发“珲春路边出现野生东北虎”视频的消息，随即联系了拍摄者孙先生。据孙先生介绍，首先发现东北虎的是珲春市马川子乡的一位村民。孙先生得知这个消息后驱车赶赴现场，恰巧老虎还在。孙先生把车停在距离老虎两三米左右的地方，用手机拍下三段视频和几张照片。“现场还有几只死鸡，可能是老虎抓来的，还没来得及吃掉。因为害怕，我没在现场留很长时间就离开了。”马川子乡村民告诉记者，老虎在附近转悠好几天了，还咬死了几条狗。另据记者了解，接到报警后，珲春市林业局野生动物保护科、珲春市公安局林业公安分局、珲春东北虎国家级自然保护区管理局等单位工作人员赶往现场，用噪音措施将东北虎赶回山林。记者向吉林市野生动物保护协会秘书长唐景文展示了这段视频，他表示，这是一只亚成体小虎，应该刚与母虎分离，尚不具备独自捕食和野外生存的能力。珲春位于吉林省延边朝鲜族自治州东部，中、俄、朝三国交界地带。近年来，珲春林区作为东北虎、东北豹从俄罗斯向中国内陆扩散的生态廊道已经形成，并正在成为中国野生东北虎、豹恢复的种源基地。记者从吉林省林业厅获悉，通过长期实施全面禁猎和自然保护区建设等措施，该省东北虎、豹等旗舰物种种群数量得到恢复性增长。截至目前，在吉林省境内监测到东北虎27—28只，东北豹42只。吉林珲春、汪清地区已成为我国最重要的东北虎、东北豹繁殖地。去年8月，吉林省林业厅公布了对长白山区东北虎豹的监测结果。在吉林省境内，共生活着5个东北虎家族和1个东北豹家族。专家分析，按正常生命周期计算，2016年至2017年珲春林业局发现的两只雌性幼虎将进入繁殖期。在吉林省内陆范围内，未来可能有4只雌虎参与下一个繁殖周期，吉林省长白山区虎豹繁殖趋势非常乐观。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Recently, a screenshot of a video uploaded by a netizen from Hunchun City, Jilin Province, showing a Northeast tiger coming down the mountain has gone viral on social media. In the video, as the netizen's vehicle passed through a cornfield, a tiger emerged from the cornfield, standing as tall as a person. It appeared relaxed. It is extremely rare to capture a wild Northeast tiger at such a close distance. Many netizens praised, "What a beautiful big cat" and "So adorable." Is the video real or fake? Why did the tiger appear in Hunchun? Reporters launched an investigation into this. On the morning of July 26, the reporter tried to contact the video shooter, Mr. Sun, a resident of Hunchun City, several times but was unsuccessful due to poor signal. The reporter then contacted the Hunchun City Committee's Publicity Department's WeChat official account, "Hunchun at Your Fingertips" network editorial department. The director of the editorial department, Liu Xiduo, said that on July 25, "Hunchun at Your Fingertips" discovered the video circulating on social media about the appearance of a wild Northeast tiger on the roadside in Hunchun. They immediately contacted the shooter, Mr. Sun. According to Mr. Sun, the first person to spot the Northeast tiger was a villager from Machuanzi Township in Hunchun City. Upon receiving this information, Mr. Sun drove to the scene and coincidentally found the tiger still there. Mr. Sun parked his car about two to three meters away from the tiger and captured three videos and several photos with his phone. "There were several dead chickens at the scene, possibly caught by the tiger but not eaten yet. Because of fear, I didn't stay at the scene for long and left." A villager from Machuanzi Township told the reporter that the tiger had been wandering around the area for several days and had even killed several dogs. According to the reporter, after receiving the report, staff from the Hunchun City Forestry Bureau's Wildlife Protection Department, the Forestry Public Security Sub-Bureau of Hunchun City Public Security Bureau, and the Hunchun Northeast Tiger National Nature Reserve Management Bureau rushed to the scene and used noise measures to drive the Northeast tiger back into the mountains. The reporter showed this video to Tang Jingwen, the Secretary-General of the Jilin Wildlife Protection Association. He said that this was a sub-adult tiger, probably recently separated from its mother, and did not yet have the ability to hunt and survive in the wild alone. Hunchun is located in the eastern part of the Yanbian Korean Autonomous Prefecture in Jilin Province, at the junction of China, Russia, and North Korea. In recent years, the Hunchun forest area has formed an ecological corridor for the spread of Northeast tigers and leopards from Russia to inland China and is becoming a source base for the restoration of wild Northeast tigers and leopards in China. The reporter learned from the Jilin Provincial Forestry Department that through long-term comprehensive measures such as a complete hunting ban and the establishment of nature reserves, the population of flagship species such as Northeast tigers and leopards in the province has shown a recovery growth trend. As of now, 27-28 Northeast tigers and 42 Northeast leopards have been monitored in Jilin Province. Hunchun and Wangqing areas in Jilin have become the most important breeding grounds for Northeast tigers and leopards in China. Last August, the Jilin Provincial Forestry Department announced the monitoring results of Northeast tigers and leopards in the Changbai Mountain area. In Jilin Province, there are a total of 5 Northeast tiger families and 1 Northeast leopard family. Experts analyzed that according to the normal life cycle, the two female tiger cubs discovered by the Hunchun Forestry Bureau in 2016-2017 will enter the breeding period. In the inland areas of Jilin Province, it is expected that 4 female tigers will participate in the next breeding cycle, indicating a very optimistic trend for tiger and leopard breeding in the Changbai Mountain area of Jilin Province.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>文童——促使昨晚行情大跌的原因：周四晚间美国能源信息署（EIA）公布，截至10月7日当周原油库存录得大幅增加490万桶，预期值为增加65万桶，前值为减少297.6万桶。原油库存结束连续五周的下滑趋势，原油库存刷新4月以来的最大增幅，并且是连续6周以来首次录得上涨。数据公布后，美原油持续下跌。另一方面，库欣地区原油库存、汽油库存和精炼油库存的下滑幅度都大于预期幅度。文童——促使昨晚行情跌后反涨的原因：据美国能源信息署公布的当周EIA原油库存，均将剔除租赁原油库存不再统计，剔除后并不会对EIA原油库存变化值与油价产生太大影响。（IEA）月报称，若原油输出国组织（OPEC）和俄罗斯达成协议的减产幅度够大，则全球油市可能加速恢复供需平衡。晚间EIA除了原油库存利空之外，其他分享数据全部利多。美原油宽幅震荡近1美元，美原油将近抹去此前的跌幅。文童——原油后市行情解析：周四原油收取带上下影小阴线，日线结束两天的回调，短期将展开二次冲顶，目前看基本确立了下轨处于49.0-49.2，上轨在51.3-51.6区间范围内震荡盘整； 原油日线收取带长下影小阳线，结束前两日的回调，有再次冲顶的趋势。原油小时图显示，油价自低位49.6一线反弹上行，二次冲顶50.3一线后承压，短线下行至前期支撑平台49.3一线后迅速回收，再次回到50美元上方，攀升至前期上涨趋势线附近。只有价格重新回到上涨趋势线上方才能改变目前油价的弱势，在价格未有效突破前期压制平台50.7一线的压制情况下，文童建议维持以区间对待。1、价格触及上方51.2附近空单进场 止损51.6上，目标回看50.5-50.42、价格下方企稳50.4附近进场多单，止损50.0，目标上看51.2-51.43、行情在没有破位之前，保持区间对待，破位跟进！需要获取更多利润的朋友，请咨询文童QQ：2092928044！非文童实盘客户，暂不提供风控策略。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Wentong - The reason for the sharp drop in the market last night: The U.S. Energy Information Administration (EIA) announced on Thursday evening that crude oil inventories for the week ending October 7 recorded a significant increase of 4.9 million barrels, with an expected increase of 0.65 million barrels and a previous decrease of 29.76 million barrels. Crude oil inventories ended a five-week consecutive decline trend, marking the largest increase since April and the first rise in six weeks. After the data was released, U.S. crude oil continued to decline. On the other hand, the decline in crude oil inventories, gasoline inventories, and refined oil inventories in the Cushing region were all greater than expected. Wentong - The reason for the rebound after the market fell last night: According to the EIA's crude oil inventory for the week announced by the U.S. Energy Information Administration, leased crude oil inventories will no longer be included in the statistics, and their exclusion will not have a significant impact on the change in EIA crude oil inventories and oil prices. The IEA monthly report stated that if OPEC and Russia reach a significant agreement on production cuts, the global oil market may accelerate the recovery of supply and demand balance. Apart from the bearish news of crude oil inventories, all other shared data from the EIA were bullish. U.S. crude oil fluctuated widely by nearly $1, almost erasing the previous decline. Wentong - Analysis of the future market of crude oil: Crude oil closed with a small shadow candlestick on Thursday, ending a two-day pullback on the daily chart, and is expected to initiate a second round of testing. Currently, the lower boundary is established around 49.0-49.2, while the upper boundary oscillates in the range of 51.3-51.6 for consolidation. The daily chart of crude oil closed with a small bullish candlestick with a long lower shadow, indicating a trend of retesting the peak. The hourly chart of crude oil shows that the price rebounded from the low point of around 49.6, rose to around 50.3 for a second test, then faced pressure, quickly dropped to the previous support platform of 49.3, and rebounded above $50 again, climbing near the previous uptrend line. Only when the price returns above the uptrend line can the current weakness in oil prices be reversed. Without effectively breaking through the previous suppression platform of around 50.7, Wentong suggests maintaining a range-bound approach. 1. Enter a short position near 51.2 when the price touches above, with a stop loss at 51.6 and a target back to 50.5-50.4. 2. Enter a long position near 50.4 when the price stabilizes below, with a stop loss at 50.0 and a target up to 51.2-51.4. 3. Until a breakthrough occurs, maintain a range-bound approach and follow up on the breakthrough! For friends who need to obtain more profits, please consult Wentong on QQ: 2092928044! For non-Wentong live account clients, risk control strategies are temporarily not provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 且不说微商产品市场销量之巨还是从业人数之多，单看众多传统大品牌都纷纷高举渠道变革的大旗争先恐后的对微商抛出橄榄枝，就知道微商已经成为传统企业尤其是快速消费品行业不可或缺的主流渠道。2015年以来短短三个月的时间，微商从过去的散兵游勇变成了集团军作战。最明显的一个变化就是3月份举行的全国性的大型展会、博览会几乎都会有微商专题论坛，且主办方都是地方政府或中字头的商会协会，尤其是两会总理政府工作报告之后，可见互联网+对各地的影响力确实挺大。假如微商是一支股票，显然目前政策面、基本面、消息面都出于利好。但是微商如何做？这么系统的问题绝不是开几场大会马上小白们就能立马长袖善舞的，就像抗日战争前夕，各地开抗日动员大会群情激昂，但接下来这个仗如何打？组建人马、准备军需、操练部队才是最重要的。其实我们分析微商产业链包括其他的商业链条，无非是三个核心组成部分：产品、卖产品的人、买产品的人。在这个时代缺产品吗？答案显然是否定的；缺消费者吗？答案显然也是否定的，咱泱泱大国最多的就是人。那么这个行业目前爆发的唯一要素就是卖产品的人，当然笔者这里指的是会卖产品的人，即会做微商的微商！首先我们必须接受一个观点：在做微商的人和微商不是同一个概念，就像在做生意的人都可叫老板但不能都叫企业家一样，微商从业者已有1000万之多了，因为大多数不会做的人充斥其中，制约了整个行业的整体素质和发展水平，而解决这一问题最好的办法就是培训。但是微商行业真正发展也就一年多时间，真正有多少人已经做得好了？而且做的好的人当中又有多少能够把自己的知识系统地教给别人？这一点很重要！不是好的运动员都可以做好教练，世界冠军没做成好教练的比比皆是。所以这个行业目前最迫切的需求是一群在微商行业有实操经验、有系统化的理论体系且懂得如何教会别人的人，这三者缺一不可，尤其是第三点往往容易被忽视，只有具备了这三点才算是笔者所说的微商行业的人才！所以这两年应运而生的微商培训机构知道该怎么做了吧？那些满怀热情的准微商创业者们知道怎么去学了吧？不是提到学习就是干货越干越好，那只是别人的方法，同样的追女孩的方法别人用了效果喜人，你用可能被人骂耍流氓；而且别人还不一定具备把他做的结果系统的表达出来让你听懂的能力。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Not to mention the huge sales volume of products in the WeChat business market or the large number of practitioners, just by observing numerous traditional big brands raising the banner of channel transformation one after another and eagerly extending an olive branch to WeChat business, it is evident that WeChat business has become an indispensable mainstream channel for traditional enterprises, especially in the fast-moving consumer goods industry. In the past three months since 2015, WeChat business has transformed from scattered individual fighters to a united army. One of the most obvious changes is the national large-scale exhibitions and expos held in March, almost all of which have WeChat business themed forums, organized by local governments or chambers of commerce, especially after the government work report of the two sessions, showing the significant influence of Internet+ across various regions. If WeChat business were a stock, it is clearly in a favorable position in terms of policy, fundamentals, and news. But how to operate WeChat business? This systematic issue cannot be solved by just holding a few conferences for beginners to immediately become adept, just like on the eve of the War of Resistance against Japan, the anti-Japanese mobilization meetings were passionate, but what comes next in the battle? Building a team, preparing supplies, and training troops are the most important tasks. In fact, when we analyze the WeChat business industry chain and other commercial chains, there are only three core components: products, people who sell products, and people who buy products. Is there a shortage of products in this era? The answer is obviously no; Is there a shortage of consumers? The answer is also obviously no, as our country has a large population. Therefore, the only explosive factor in this industry currently is the people who sell products, of course, here the author refers to those who can sell products, namely, WeChat business practitioners! First of all, we must accept a viewpoint: people doing WeChat business and WeChat business itself are not the same concept, just like people doing business can be called bosses but not all can be called entrepreneurs, there are already over 10 million WeChat business practitioners, because most of them are incapable, which hinders the overall quality and development level of the entire industry, and the best way to solve this problem is through training. However, the WeChat business industry has only truly developed for a little over a year, how many people have actually done well? And among those who have done well, how many can systematically teach their knowledge to others? This is crucial! Not all good athletes can become good coaches, there are many world champions who have failed as coaches. Therefore, the most urgent need in this industry currently is a group of people with practical experience in the WeChat business industry, a systematic theoretical system, and the ability to teach others how to do it. All three are indispensable, especially the third point is often overlooked. Only those who possess these three points can be considered talents in the WeChat business industry as mentioned by the author! So, do the WeChat business training institutions that have emerged in the past two years know what to do? Do those enthusiastic prospective WeChat business entrepreneurs know how to learn? It's not that the more practical knowledge you mention, the better it is, that's just someone else's method. Similarly, the method of pursuing a girl that works for someone else may be criticized as harassment if you use it, and the other person may not necessarily have the ability to systematically express the results they have achieved for you to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>点击标题下「BALLIN篮球」可快速关注最近马隆火了，不是打乒乓球的马龙，也不是娱乐圈闹得沸沸扬扬的马蓉；他在SOMECITY北京站上帮助NOWHO一路过关斩将，虽然最终决赛遗憾获得了亚军，但马隆凭借着超强的表现，获得了MVP称号。他与NO WHO并没有停下前进的脚步，他们还将前往东京，参加日本SOMECITY总决赛，马隆输得并不甘心，他还想继续战斗。 决赛结果：意料之中 情理之外这次SOMECITY的比赛，马隆所在的NO WHO第一场就遇到了来自日本的球队，他们阵中拥有SOMECITY的MVP，实力与最终夺冠的Ballaholic队不相上下。比赛和马隆赛前想象地一样紧张，由于不熟悉比赛规则，NO WHO 经常出现低级失误，而对手既有身体强度又有精准的投篮，让比分一直焦灼着。最终，凭借马隆、王璁的出色发挥，NO WHO惊险战胜对手！许多观看全程直播的网友称，第一场比赛就是本次系列赛最精彩的比赛！ 而谈到决赛输给了Ballaholic，马隆对BALLIN说：“总结日本队为什么会赢，我想很大一方面是我们对于比赛的赛程赛制理解地不够深刻，很多赛制是比赛当中才临时知道的。另一方面是体能问题，由于我们很荣幸地又一次抽到了死亡之组（又一次…），第一场遇到了实力最强劲的日本冠军队，第二场又与老牌劲旅酒球会‘亲密接触’，最后体能耗尽，输在体能方面（好啦，绕了一大圈，终于编了个还算理由的理由）。”整个系列赛，马隆外线手感火热，由于NO WHO是最终战绩最佳的中国球队，马隆自然当选MVP！对于殊荣，马隆谦虚表示：“我觉得我整体的表现可谓一般，个人能力的体现绝对是由整体表现决定的，我相信如果不是队友的支持我也不会有所谓的个人成绩。” 运动生涯从足球开始别看马隆193cm的身高，120kg的体重，但其实小时候他是一个“足球小将”，至于为什么他后来放弃了足球而改打篮球，他对BALLIN叙说了他的故事。“我的篮球之路只能说很偶然，其实小时候喜欢踢足球，参加过百队杯比赛。没赢一场，但还是喜欢。不过后来上初中的时候身高太高，他们又非让我当门将，我感觉跟枪把子似的，进球赖我，还疼，就放弃了足球……” 后来马隆母亲觉得他应该有个爱好，很巧的是当时马隆母亲的同事是国家元老队的出纳，他才开始慢慢接触篮球。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Click on the title "BALLIN Basketball" to quickly follow the recent rise of Marlon. He is not the table tennis player Ma Long, nor the controversial figure in the entertainment industry, Ma Rong; he helped NOWHO pass through all the challenges at the SOME CITY Beijing stop. Although he ultimately regretfully finished as the runner-up in the final, Marlon, with his outstanding performance, was awarded the MVP title. He and NO WHO have not stopped their progress; they will continue to Tokyo to participate in the Japan SOME CITY Grand Finals. Marlon, not content with the loss, still wants to continue fighting. 
+Final result: Expected but beyond reason. In this SOME CITY competition, NO WHO, where Marlon is, encountered a team from Japan in the first match. The opponent had the MVP of SOME CITY and was on par with the eventual champions, Ballaholic. The match was as tense as Marlon had imagined beforehand. Due to being unfamiliar with the rules, NO WHO made frequent basic mistakes, while the opponents had both physical strength and accurate shooting, keeping the score tight. In the end, with the outstanding performances of Marlon and Wang Cong, NO WHO narrowly defeated their opponents! Many viewers who watched the live broadcast throughout claimed that the first match was the most exciting in this series! 
+Regarding the loss to Ballaholic in the final, Marlon told BALLIN, "To sum up why the Japanese team won, I think it was largely because we did not have a deep enough understanding of the competition schedule and format, many of which we only knew about during the matches. Another aspect was the issue of physical fitness. We were fortunate to once again draw the 'Group of Death' (once again...), encountering the strongest Japanese champion team in the first match and having an 'intimate encounter' with the veteran team, Sake Ball Club, in the second match. In the end, we lost due to physical exhaustion (well, after a long detour, I finally came up with a somewhat reasonable excuse)." Throughout the series, Marlon had a hot hand from the outside. As NO WHO had the best overall performance among Chinese teams, Marlon naturally won the MVP title! Regarding the honor, Marlon humbly said, "I think my overall performance can only be described as average. The manifestation of individual ability is definitely determined by the overall performance. I believe that without the support of my teammates, I would not have achieved any so-called personal results." 
+His sports career started with football. Despite Marlon's height of 193cm and weight of 120kg, he was actually a "football prodigy" when he was young. As for why he later gave up football and switched to basketball, he told his story to BALLIN. "My basketball journey can only be described as very accidental. In fact, I loved playing football when I was young and participated in the Hundred Teams Cup competition. I didn't win a single game, but I still liked it. However, when I entered junior high school, I was too tall, and they made me a goalkeeper, I felt like a target, blamed for every goal, and it hurt, so I gave up football..." Later, Marlon's mother felt he should have a hobby, and coincidentally, at that time, Marlon's mother's colleague was the treasurer of the national veteran team, which is how he slowly started to get in touch with basketball.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>经报讯（李波）近日，丘北县正式启动了2014年农村1000户的危房改造工程。为做好2014年农村危访改造工作，丘北县通过认真核查农户房屋危险等级，做到“四看三了解”，即看现有住房主体结构地基是否下陷，看墙体是否裂缝，看椽梁是否朽蚀，看房屋是否濒临倒塌；了解房屋建造时间，了解农户所持意见，了解自筹资金状况，并按照县、乡、村“三级审批、三榜公示”的程序，优先帮助住房最危险、经济最贫困农户解决最基本安全住房，合理确定补助对象。同时坚持公开、公平、公正原则，规范补助对象的审核、审批程序，实行农户自愿申请、村民会议或村民代表会议民主评议，乡（镇）审核、县级审批，将补助对象基本信息和各审查环节的结果在村务公开栏公示，做好与经批准的危房改造农户签订合同或协议工作。在工作中坚持“一个推进”，即坚持整乡整村推进；注重“两个结合”，即坚持危房改造与新农村建设、扶贫开发相结合；突出“三个原则”，即规划先行、就地改造、尊重群众生活习俗的原则。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>According to the report (by Li Bo), recently, Qiubei County officially launched the 2014 rural dilapidated house renovation project for 1000 households. In order to do a good job in the 2014 rural dilapidated house renovation work, Qiubei County carefully checked the danger level of rural households' houses, achieving the "four looks and three understandings": looking at whether the main structure and foundation of the existing housing has sunk, looking at whether there are cracks in the walls, looking at whether the beams and rafters are decayed, and looking at whether the house is on the verge of collapsing; understanding the construction time of the house, understanding the opinions held by the households, understanding the self-raised fund situation. According to the county, township, and village "three-level approval, three-public announcement" procedure, priority is given to helping the most dangerous housing and economically poorest rural households solve the most basic safety housing, and reasonably determine the subsidy recipients. At the same time, adhere to the principles of openness, fairness, and justice, standardize the review and approval procedures for subsidy recipients, implement voluntary application by households, democratic evaluation through village meetings or village representative meetings, township (town) review, county-level approval, publicly announce the basic information of subsidy recipients and the results of each review stage on the village public notice board, and sign contracts or agreements with approved dilapidated house renovation households. In the work, adhere to the principle of "one advancement", that is, adhere to the advancement of the entire township and village; emphasize the "combination of two", that is, adhere to the combination of dilapidated house renovation with the construction of new rural areas and poverty alleviation and development; highlight the "three principles", that is, the principles of planning first, on-site renovation, and respecting the customs of the people's lives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>探索|四大障碍制约创客教育普及2016-10-11中国教育信息化 点击上方蓝字「中国教育信息化」一键关注要说创客教育，定然绕不开STEM教育理念。STEM是科学(Science)、技术(Technology)、工程(Engineering)、数学(Mathematics)4个单词首字母的组合缩写。STEM教育由美国政府于20世纪50年代提出，是为促进国家竞争力提升而推行的一项教育计划，被誉为美国的“素质教育”，倡导“为了创新而教育”，强调运用21世纪技能来教育美国人并培养出世界一流的劳动力，以影响国家未来的创新能力和竞争力。STEM教育理念传入中国之后，逐步演变为“创客教育”。2015年，被业界公认为中国创客教育元年，创客教育在我国正以前所未有的态势迅猛发展，各级各类创客教育联盟风起云涌地成立，各级各类论坛、大会、比赛相继出现，各地政府纷纷出资鼓励学校设立校园“创客空间”。然而，透过席卷全国的热闹景象，我们却隐隐地感到创客教育正面临着“两头热、中间冷”的尴尬，即高校和中小学校的参与度高，而本该是创客教育中坚力量的职业院校缺席现象严重。以被业界誉为创客教育“热土”的温州为例，普通中小学校的参与度和影响力远超职业院校，而在职业院校中，高职院校的声势和成效又远超中职学校。在普教层面，由温州中学、温州实验中学、温州百里路小学等十多所学校组成的创客教育“第一梯队”，已在国内享有很高的知名度，温州中学的创客空间案例，还先后入选清华大学发布的《中国创客教育蓝皮书》和《2016新媒体联盟中国基础教育技术展望：地平线项目区域报告》。然而，占据“半壁江山”的职业院校却名不副实，真正参与者寥寥无几。温州尚且如此，其他地区更难同日而语。众所周知，职业教育具有离企业近、离科技近、离创新近、离学生近等诸多特点，职业院校具有大量乐于创新的“双师型”教师;拥有大量能够与企业生产直接对接的先进设备、软件、仪器和工具，具备创客空间所需的条件;而职业院校学生又具有喜欢动手的天性，近几年职业院校的课程开设越来越朝着任务驱动、项目教学、理实一体化方向发展，这些都为职业院校开展创客教育创造了独特的条件和优势。自身具有他人无法企及的优势，职业院校却未能成为创客教育的领头羊和领跑者，个中原由值得深思。正是基于对职业院校创客教育的担忧，笔者梳理了当前职业院校创客教育推广工作广泛存在的制约因素，分析原因，提出建议。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Exploring | Four Major Obstacles Restricting the Popularization of Maker Education
+On October 11, 2016, China Education Informatization. Click the blue word "China Education Informatization" above to follow. When it comes to maker education, one cannot avoid the STEM education concept. STEM is an acronym composed of the initials of the words Science, Technology, Engineering, and Mathematics. STEM education was proposed by the U.S. government in the 1950s to promote national competitiveness. It is regarded as the "quality education" of the United States, advocating "education for innovation," emphasizing the use of 21st-century skills to educate Americans and cultivate a world-class workforce to influence the country's future innovation and competitiveness. After the STEM education concept was introduced into China, it gradually evolved into "maker education." In 2015, it was recognized by the industry as the first year of maker education in China. Maker education in our country is developing rapidly in an unprecedented manner. Maker education alliances of all levels and types are being established, and various forums, conferences, and competitions are emerging one after another. Local governments are investing to encourage schools to establish campus "maker spaces." However, through the bustling scenes sweeping across the country, we faintly feel that maker education is facing the awkward situation of being "hot at both ends, cold in the middle," with high participation from universities and primary and secondary schools, while the absence of vocational colleges, which should be the backbone of maker education, is severe. Taking Wenzhou, praised by the industry as the "hotbed of maker education," as an example, the participation and influence of ordinary primary and secondary schools far exceed that of vocational colleges. Among vocational colleges, the momentum and effectiveness of higher vocational colleges far surpass secondary vocational schools. At the general education level, the "first echelon" of maker education, composed of more than ten schools such as Wenzhou Middle School, Wenzhou Experimental Middle School, and Baili Road Primary School, enjoys high visibility in China. The maker space case of Wenzhou Middle School has been selected for the "China Maker Education Blue Book" and the "2016 New Media Alliance China Basic Education Technology Outlook: Horizon Project Regional Report" released by Tsinghua University. However, vocational colleges, which occupy a significant position, do not live up to their reputation, with very few actual participants. If this is the case in Wenzhou, it is even more challenging in other regions. It is well known that vocational education has many characteristics, such as being close to enterprises, technology, innovation, and students. Vocational colleges have a large number of "dual-teacher" teachers who are willing to innovate; they have advanced equipment, software, instruments, and tools that can directly connect with enterprise production, meeting the requirements of maker spaces. Moreover, vocational college students have a natural inclination towards hands-on activities. In recent years, the curriculum of vocational colleges has been increasingly oriented towards task-driven, project-based teaching, and integration of theory and practice. All these factors create unique conditions and advantages for vocational colleges to carry out maker education. Despite having advantages that others cannot match, vocational colleges have not become the leaders and pioneers of maker education. The reasons behind this are worth pondering. Based on concerns about maker education in vocational colleges, the author has analyzed the constraints widely present in the promotion of maker education in vocational colleges, identified the reasons, and made suggestions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 爱国不能成为一个空洞的口号，更不能成为被利用的工具。爱国，是情感更是责任，脚下就是你的国家，请你不要糟蹋她！ 张强从辞去工作，自掏腰包投身公益，到徒步汾河沿岸调查水质污染；从回收数吨废旧电池，到遍及太原周边荒山义务植树；从组织社区试行垃圾分类，到推广自制环保酵素；从思念去世的女儿，日夜暗自落泪，到自己身患重病，却不愿累及他人；从坎坷的公益路上饱受非议，到建立绿色教育基地的美好构想。张强身上，有一种悲壮的气息。在这个不再崇尚英雄的时代，精神和气节渐渐模糊出我们的视野。当一些身影穿越滚滚红尘，孤独而决然地前行，他们是否能唤起一些我们已经麻木的知觉。感谢张强，感谢众多环保志愿者，请珍惜他们的付出，积极加入到保护环境的行列！</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Patriotism cannot become an empty slogan, let alone be used as a tool. Patriotism is not only an emotion but also a responsibility. The land beneath your feet is your country, please do not desecrate her! Zhang Qiang resigned from his job, funded public welfare activities out of his own pocket, and conducted investigations on water quality pollution along the Fen River on foot; from recycling tons of waste batteries to voluntarily planting trees in the barren mountains around Taiyuan; from organizing community trials of garbage classification to promoting homemade environmentally friendly enzymes; from missing his deceased daughter and silently shedding tears day and night, to suffering from a serious illness but unwilling to burden others; from facing criticism on the bumpy road of public welfare to envisioning the establishment of a green education base. There is a kind of heroic and tragic spirit in Zhang Qiang. In this era that no longer worships heroes, our vision of spirit and integrity is gradually becoming blurred. When some figures traverse the bustling world alone and resolutely, can they awaken some of our numb senses? Thanks to Zhang Qiang, thanks to the numerous environmental volunteers, please cherish their efforts and actively join the ranks of environmental protection!</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>大连海关26日对外披露，在中国海关总署缉私局的指挥下，大连海关近日开展代号为“征战04”的打击中韩航线走私专项行动，摧毁了一个利用中韩航线国际班轮走私进境韩国商品的犯罪网络，抓捕18名犯罪嫌疑人，初估案值3000余万元人民币。大连海关方面称，今年5月，大连海关隶属港湾海关在监管过程中发现，有人利用韩国仁川至大连中韩航线从事走私活动，海关人员迅速将线索整理移交缉私局；很快，缉私局办案人员理清了走私团伙的脉络，并固定了相关证据。7月17日晚，时机成熟，大连海关缉私局出动200余名警力，分成24个小组在大连地区同时开展行动，将18名目标嫌疑人全部抓捕到案，同步查缉“飞龙号”及相关储货、分销点5个，当场扣押多台涉嫌走私运输车辆，缴获境外品牌烟酒、化妆品等涉嫌走私物品100余包装箱及书证物证一批。经调查，该走私团伙以韩国籍的崔某某为首。崔某某负责为中国货主在韩国组织货源，并策划走私活动。该犯罪嫌疑人将走私货物运至韩国仁川-大连客货两用国际班轮“飞龙号”，并雇佣船员在“飞龙号”停泊中国境内港口后，等待客货全部下船，关闭船舶周围灯光及监控，利用夜色掩护，伺机将货物通过船边的“引水门”偷卸上岸，交由货主私人或雇佣的运输车辆运至仓库或分销点，再通过淘宝、微商、实体店等渠道销售牟利。大连海关缉私局政委陈和建表示，大连海关坚决落实“国门利剑2016”行动要求，连续破获了多起中韩航线重特大走私犯罪案件。大连海关也将始终坚持‘监管就是打私、打私就是监管’理念，坚持现场海关和缉私部门联合查发大案。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dalian Customs disclosed on the 26th that under the command of the Anti-Smuggling Bureau of the General Administration of Customs of China, Dalian Customs recently carried out a special operation codenamed "Strike 04" to combat smuggling activities on the China-South Korea route. They dismantled a criminal network that smuggled goods into South Korea using international liners on the China-South Korea route, arrested 18 criminal suspects, and estimated the case value to be over 30 million yuan. Dalian Customs stated that in May this year, during the supervision process, Dalian Customs, a subordinate of Dalian Port Customs, discovered individuals engaging in smuggling activities using the Incheon to Dalian route on the China-South Korea line. Customs officers promptly organized the clues and transferred them to the Anti-Smuggling Bureau. Soon after, the bureau's investigators unraveled the smuggling network and collected relevant evidence. On the evening of July 17th, with the timing right, over 200 law enforcement officers from Dalian Customs Anti-Smuggling Bureau formed 24 teams to simultaneously carry out operations in the Dalian area. They successfully apprehended all 18 targeted suspects, conducted simultaneous searches on the "Feilong" and five related storage and distribution points, seized multiple suspected smuggling transport vehicles on the spot, and confiscated over 100 packages of overseas branded cigarettes, alcohol, cosmetics, and other suspected smuggled goods, as well as a batch of physical and documentary evidence. According to the investigation, the smuggling network was led by a South Korean national named Cui. Cui was responsible for organizing the source of goods for Chinese principals in South Korea and planning smuggling activities. The suspects transported the smuggled goods to the Incheon-Dalian international liner "Feilong," and after the ship docked at a Chinese port, they waited for all cargo to be unloaded, turned off the ship's lights and surveillance, took advantage of the night to unload the goods through the ship's "scuttle" onto the shore, and then had them transported to warehouses or distribution points by private individuals or hired transport vehicles. The goods were later sold for profit through channels such as Taobao, WeChat business, and physical stores. Chen Hejian, the political commissar of the Dalian Customs Anti-Smuggling Bureau, stated that Dalian Customs is resolutely implementing the requirements of the "Sharp Blade 2016" operation and has successively cracked down on several major smuggling cases on the China-South Korea route. Dalian Customs will continue to adhere to the concept of "supervision is anti-smuggling, anti-smuggling is supervision," and uphold the joint investigation and cracking down on major cases by on-site customs and anti-smuggling departments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 根据美国移民研究中心(CenterforImmigratonStudies)公布的最新数据显示，随着移民的增加，2015年，有超过6470万的美国居民在家不讲英语，这个数字已超过总人口的五分之一（约21％），在家说中文、西班牙语、阿拉伯语的人数巨幅上升。未来10年中，更将有1400万新移民进入美国，在家不讲英语的比例还会飙升。 美国移民人口在2013年是4130万人，到2014年达4240万人，2015年预计将会再增加124万新移民进入美国。移民研究中心预估，从2015年至2025年，将有1400万新移民进入美国。美国人口普查局则预测，新移民人口到2060年将达到7800万人，占美国总人口的18.8％，其中亚裔和拉美裔所占的比例最高。据移民研究中心的最新报告指出，由于移民人口成长快速，出现了值得关注的现象，其中一项是新移民很慢融入美国文化，在家不说英语的人数自1990年以来增加一倍，若从1980年计算起，则几乎增为三倍。到了2014年，有6320万美国居民在家不说英语，2015年达到6470万，人数破纪录，以人口比例计算，21％美国居民在家说外国话。 在家说非英语语言的人群中，19%的人说中文。这份报告也指出，2014年超过100万人以上使用的语言，依序是西班牙语(3930万人)、中文(310万人)、塔加洛语(170万人)、越南语(150万人)、法语(120万人) ，以及韩语和阿拉伯语(各110万人)。目前美国移民人口已达到创纪录的4240万人，即每8个美国公民中就有一个是外国出生。若再加上移民家庭出生的子女，移民人口将达5860万人，占美国居民人数的1/6。更多美国移民问题欢迎咨询：4000661916/010-53519595，地址：北京市朝阳区西大望路1号温特莱中心B座1506室。微信号：jiadayimin。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>According to the latest data released by the Center for Immigration Studies in the United States, in 2015, with the increase of immigrants, over 64.7 million American residents did not speak English at home, exceeding one-fifth of the total population (approximately 21%). The number of people speaking Chinese, Spanish, and Arabic at home has surged. In the next 10 years, there will be an additional 14 million new immigrants entering the United States, further escalating the proportion of those who do not speak English at home. The immigrant population in the United States was 41.3 million in 2013, reached 42.4 million in 2014, and is expected to increase by another 1.24 million new immigrants in 2015. The Center for Immigration Studies estimates that from 2015 to 2025, there will be 14 million new immigrants entering the United States. The U.S. Census Bureau predicts that the new immigrant population will reach 78 million by 2060, accounting for 18.8% of the total U.S. population, with Asians and Latin Americans having the highest proportions. According to the latest report from the Center for Immigration Studies, due to the rapid growth of the immigrant population, there are noteworthy phenomena, one of which is that new immigrants are slow to integrate into American culture. The number of people who do not speak English at home has doubled since 1990 and almost tripled since 1980. By 2014, 63.2 million American residents did not speak English at home, reaching 64.7 million in 2015, a record-breaking number. Calculated as a percentage of the population, 21% of American residents speak a foreign language at home. Among those who speak a non-English language at home, 19% speak Chinese. The report also points out that in 2014, the languages used by over 1 million people were Spanish (39.3 million), Chinese (3.1 million), Tagalog (1.7 million), Vietnamese (1.5 million), French (1.2 million), as well as Korean and Arabic (each 1.1 million). The current immigrant population in the United States has reached a record high of 42.4 million, meaning one out of every eight American citizens is foreign-born. If the children born to immigrant families are included, the immigrant population will reach 58.6 million, accounting for one-sixth of the U.S. resident population. For more information on U.S. immigration issues, please contact: 4000661916 / 010-53519595, Address: Room 1506, Block B, Winterlay Center, No. 1 Xidawang Road, Chaoyang District, Beijing. WeChat ID: jiadayimin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>他很乖，担心残疾妈妈走路不便，总是扶着妈妈的拐杖；他很小，只有5岁半，却总是抢着帮妈妈拿东西……他是父母的“小拐杖”，可是病魔来袭，“小拐杖”猝然离去。连小学都未毕业的父母决定无偿捐献孩子全身器官，帮助更多支离破碎的家庭（本报曾报道）。昨日，成都商报记者了解到，孩子父母在第86期阿里公益“天天正能量”活动中，荣获一等奖以及奖金1万元。据悉，“天天正能量”大型公益活动是由阿里巴巴联合成都商报等国内部分主流媒体发起，旨在发现和传播正能量。“在成都商报上看到这篇报道时，眼泪就不由自主流下来了。”阿里公益天天正能量工作人员文娜说，希望这份奖励能给孩子的父母一些慰藉。昨日，得知自己获奖的消息后，孩子父亲吴明强有些意外，连说了三次“没想到”，称这样做只是不想其他家庭再悲伤。成都商报记者李惠原标题：“小拐杖”父母获“天天正能量”</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>He is very obedient, always worried about his disabled mother's difficulty in walking, and always supporting his mother's crutch; he is very young, only five and a half years old, but always eager to help his mother carry things... He is the "little crutch" of his parents, but when illness struck, the "little crutch" suddenly left. The parents, who hadn't even graduated from elementary school, decided to donate their child's organs free of charge to help more broken families (as reported by this newspaper). Yesterday, the Chengdu Business Daily reporter learned that the child's parents were awarded the first prize and a prize of 10,000 yuan in the 86th session of the Alibaba Public Welfare "Daily Positive Energy" event. It is reported that the "Daily Positive Energy" large-scale public welfare event was initiated by Alibaba in conjunction with Chengdu Business Daily and other mainstream media in China, aiming to discover and spread positive energy. "When I saw this report in the Chengdu Business Daily, tears just flowed uncontrollably," said Wen Na, a staff member of Alibaba Public Welfare Daily Positive Energy, hoping that this reward could bring some comfort to the child's parents. Yesterday, upon learning of the news of their award, the child's father, Wu Mingqiang, was somewhat surprised, saying "I didn't expect it" three times in a row, stating that they did this just to prevent other families from being sad again. Chengdu Business Daily reporter Li Hui's original title: "Little Crutch" Parents Win "Daily Positive Energy" Award.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>解放军报北京4月2日电柏贵念、记者费士廷报道：第二炮兵司令员魏凤和、政委王家胜近日签署命令，授予某旅技术营测试一连一级军士长王忠心“践行强军目标模范士官”荣誉称号。授称大会今天在某基地举行，第二炮兵领导宣读命令，并为王忠心颁发二级英模勋章、证书。王忠心入伍29年，操作过多种型号导弹，系统掌握了测控专业全部号位的操作本领，实装操作2000多次。他先后被第二炮兵评为十大砺剑尖兵、十大优秀士官、十大好班长标兵，被总部表彰为全军爱军精武标兵、全军创先争优优秀共产党员、践行当代革命军人核心价值观新闻人物，4次获全军士官优秀人才奖，荣立二等功1次、三等功2次。本报曾多次报道他的先进事迹。今年2月，本报在“点赞新一代革命军人·习主席接见过的基层官兵”栏目中，以《习主席一眼认出的老兵》为题再次报道了他的先进事迹，在军内外引起强烈反响。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLA Daily, Beijing, April 2nd - Reporters Bai Guinian and Fei Shiting: Recently, the Commander of the Second Artillery Corps, Wei Fenghe, and the Political Commissar, Wang Jiasheng, signed an order to award the title of "Exemplary Sergeant Practicing the Goal of Strengthening the Military" to Wang Zhongxin, a junior sergeant of the Technology Battalion of a certain brigade. The award ceremony was held today at a certain base, where the leaders of the Second Artillery Corps read out the order and presented Wang Zhongxin with the Second-Class Hero Medal and certificate. Wang Zhongxin has been in the military for 29 years, operating various types of missiles, mastering the operation skills of all positions in the measurement and control profession, and conducting over 2000 actual operations. He has been successively recognized as one of the top ten sharp soldiers, top ten outstanding sergeants, and top ten excellent squad leaders by the Second Artillery Corps. He has been commended by the headquarters as a model of loving the army and excelling in martial arts in the entire army, an outstanding Communist Party member striving for excellence in the entire army, and a news figure embodying the core values of contemporary revolutionary soldiers. He has won the Outstanding Talent Award for Non-commissioned Officers four times, and has been awarded the Second-Class Merit once and the Third-Class Merit twice. Our newspaper has reported on his advanced deeds many times. In February of this year, our newspaper once again reported on his advanced deeds under the column "Praising the New Generation of Revolutionary Soldiers · President Xi Meets Grassroots Officers and Soldiers," with the title "The Veteran Recognized by President Xi at a Glance," which has caused a strong reaction both inside and outside the military.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 夫妻之间生活在一起，生活中难免会发生口角，婚姻心理在线咨询师分析当夫妻之间发生争吵，矛盾，往往用沉默来休战，而实际上沉默给婚姻带来的伤害最具有杀伤力，很多婚姻破裂的原因就是冷战时间过长，没有及时解决，让矛盾在彼此心中越积越多没有及时的沟通，造成最后的分道扬镳。夫妻之间没有什么对与错，没有什么深仇大恨，两个人从不同的家庭走到了一起，既然想和对方共度此生，相濡以沫，就应该在争吵之后换位思考一下，多替对方想想，何必跟上战场一样，争锋相对呢，当婚姻中出现争吵的行为，不要认为自己总是对的， 婚姻心理在线咨询专家分析，当夫妻之间因为两人经常争吵，需要自身去反思，这种做法是否适合自己和对方的呢，不要只是自私的为了自己而伤害折磨对方。婚姻心理在线咨询师调查发现，在夫妻之间发生矛盾与冲突的时候，另一方为了避免争吵，便通过冷战来表达自己的不满和愤怒，这种方式不仅难以让两人无法沟通，甚至让彼此之间的误会矛盾更深，在调查中，冷战的夫妻多办是，分居，互相不理睬，自己顾自己的，没有夫妻生活，对对方也是漠不关心，等等，这样看似表面没事，其实已经给婚姻种下了恶性肿瘤，只要夫妻冷战过长这种怨恨就会胜过原有的爱情以及恩情，由此可见冷战的要害。当婚姻中出现问题，不要打冷战，如果自己不知道该怎么处理，应该联系专业的 婚姻心理在线咨询师咨询，这样能避免两人的关系恶化，学会放手，用心去爱，用爱去感化对方，不要让两人之间产生隔阂。在吵架的时候，双方情绪都比较激动、暴躁，口不择言的严重后果有时候让人无法想象。可是要知道，伤感情的话一旦讲出口，想要挽回时必须得付出多于几倍的努力才行，甚至有些伤害，再努力也都无法挽回了，如同社会中的人际关系，人与人的相处总会有着这样那样的忌讳，夫妻吵架也一样，有些话、有些忌讳，是无论如何也不能碰触的。上海神光心理咨询中心官网 ：http://www.xinli315.com客服电话 021—22819129相关阅读：更多情感案例可请进入：http://www.shsgxl.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Living together as a couple, it is inevitable to have disputes in life. Marriage psychologists analyze that when couples argue or have conflicts, they often use silence as a ceasefire. However, in reality, silence can be the most damaging to a marriage. Many marriages break down because the cold war lasts too long without timely resolution, allowing conflicts to accumulate in each other's hearts without communication, leading to eventual separation. There is no right or wrong between couples, no deep-seated hatred. Two people come together from different families. If they want to spend their lives together and support each other, they should think from each other's perspective after an argument, rather than always being confrontational. When conflicts arise in marriage, do not always assume you are right. Marriage psychologists suggest that when couples argue frequently, individuals need to reflect on whether this approach is suitable for themselves and their partners, rather than selfishly hurting or tormenting the other person. Investigations by marriage psychologists have found that when conflicts occur between couples, one party may resort to the silent treatment to express dissatisfaction and anger in order to avoid arguments. This approach not only hinders communication but also deepens misunderstandings and conflicts. Couples who engage in the silent treatment often end up living separately, ignoring each other, focusing only on themselves, neglecting marital life, and showing indifference to each other. This seemingly peaceful surface actually plants a malignant tumor in the marriage. Prolonged silent treatment in a marriage can lead to resentment overpowering the original love and affection, highlighting the critical nature of the silent treatment. When problems arise in a marriage, do not resort to the silent treatment. If you are unsure how to handle the situation, seek advice from professional marriage psychologists to prevent the deterioration of the relationship. Learn to let go, love sincerely, and influence each other with love, avoiding creating barriers between each other. During arguments, when both parties are emotionally charged and speak harshly, the serious consequences can be unimaginable. It is important to remember that once hurtful words are spoken, it may require multiple times the effort to mend the damage, and sometimes, some wounds may be irreparable no matter how hard one tries. Just like in social relationships, there are certain taboos in human interactions that should never be crossed, and the same applies to marital arguments. Shanghai Shenguang Psychological Counseling Center official website: http://www.xinli315.com Customer service hotline: 021-22819129 For more emotional cases, please visit: http://www.shsgxl.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 作为亚洲最具影响力的化妆品行业展会，亚太区美容展（以下简称“亚太展”）每年的展会安排都备受业界关注。而已经进入第21个年头的亚太展，始终保持着持续创新的初心。众所周知，本届亚太展与往届最大的不同，在于首次打出“一展两地”概念。其中，包装、原料及生产设备参展商将于2016年11月15-17日云集亚洲国际博览馆（亚博馆），而各类型美容成品参展商则会在2016年11月16-18日亮相香港会议展览中心（会展）。两个场地的展览面积合共占98，000平方米，预计将迎来2，700家参展商、25个国家及团体展馆，吸引超过60，000名参观者。更重要的是，本年度的展会将为每个场地的参观者度身订造连串特备及焦点项目。 ·亚博馆亮点作为首次亮相的展馆，本次亚博馆的焦点项目为首届Innovation Circle大奖。据悉，该项大奖由国际著名潮流预测机构Beautystreams主导评审及策划，旨在表扬美容界最创新的包装及设计方案，鼓励专门从事包装或承包生产的参展商围绕此次奖项指定主题「经典?传奇」，根据六个奖项类别——最创新彩妆产品、最创新美甲产品、最创新护肤产品、最创新美发产品、最创新首包装设计（Primary Packaging）和最创新次包装设计（Secondary Packaging），选择自己的产品或包装设计来参与评选而入围作品将由大会组织的权威评审团亲自挑选而出，本次阵容强大的评审团包括来自爱茉莉太平洋、欧莱雅、法尚（Centdegrés）、玛丽黛佳、Martha Tillaar Companies及NYX Cosmetics等业界专家级企业和机构。最终，入围作品并会于11月15至17日在亚洲国际博览馆东翼的Innovation Circle大型展示区公开展出，颁奖典礼则于11月15日隆重举行。 其次，位于5号展馆的The Lipstick Factory，将带领参观者见证尊贵唇膏的诞生。据悉，观众可亲身接触唇膏制作流程中每一个细微步骤，由专业人员从旁讲解从原料采购及混合搅拌过程、溶液倒入模具，以至切割特殊饰面、包装及激光加工的每一个制造工序。四款不同形状及质感、数量共8，000支的“亚太区美容展限定版唇膏”将以先到先得的形式，于展会期间免费派发予在场参观人士。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>As the most influential cosmetics industry exhibition in Asia, the Asia-Pacific Beauty Expo (referred to as "Asia-Pacific Expo" below) attracts great attention to its annual arrangements. Now in its 21st year, the Asia-Pacific Expo has always maintained its original intention of continuous innovation. It is well known that the biggest difference of this year's Asia-Pacific Expo from previous ones lies in the concept of "one exhibition, two locations" for the first time. Packaging, raw materials, and production equipment exhibitors will gather at the Asia International Expo (Asia Expo) from November 15 to 17, 2016, while exhibitors of various types of beauty products will appear at the Hong Kong Convention and Exhibition Center (Convention Center) from November 16 to 18, 2016. The combined exhibition area of the two venues covers 98,000 square meters, expecting to welcome 2,700 exhibitors from 25 countries and group pavilions, attracting over 60,000 visitors. More importantly, this year's exhibition will tailor a series of special and focus projects for visitors at each venue. ·Highlights of Asia Expo As the first-time exhibiting venue, the highlight project of this Asia Expo is the inaugural Innovation Circle Award. It is reported that this award is led by the internationally renowned trend forecasting agency Beautystreams for judging and planning, aiming to commend the most innovative packaging and design solutions in the beauty industry. It encourages exhibitors specializing in packaging or contract manufacturing to focus on the designated theme of this award, "Classic? Legend," and select their products or packaging designs to participate in the selection based on six award categories - Most Innovative Makeup Product, Most Innovative Nail Product, Most Innovative Skincare Product, Most Innovative Hair Product, Most Innovative Primary Packaging Design, and Most Innovative Secondary Packaging Design. The shortlisted works will be personally selected by the authoritative jury organized by the conference, which includes industry expert-level companies and institutions such as L'Oréal, Centdegrés, Mary Kay, Martha Tillaar Companies, and NYX Cosmetics. The shortlisted works will be publicly displayed in the large Innovation Circle exhibition area in the East Wing of the Asia International Expo from November 15 to 17, and the award ceremony will be held grandly on November 15. Next, The Lipstick Factory located in Hall 5 will lead visitors to witness the birth of exquisite lipsticks. It is reported that the audience can personally experience every subtle step in the lipstick production process, with professionals explaining each step from raw material procurement and mixing process, pouring the solution into molds, cutting special finishes, packaging, to laser processing. Four different shapes and textures, a total of 8,000 pieces of "Asia-Pacific Beauty Expo Limited Edition Lipsticks," will be distributed free of charge to on-site visitors on a first-come, first-served basis during the exhibition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>多益网络2016年全新3D魔幻冒险MMO《永恒魔法》将于10月21日开启首次技术测试，《永恒魔法》官方预约通道已经开放，今日12:00游戏客户端开放下载!参加首测预约就能获得预约大礼包!热血战场，感受血火同燃的竞技乐趣;萌宠相伴，冒险之旅绝不孤单;拒绝单调，与知己好友轻松社交，来一场随心所欲的自由冒险。（来源：http://www.5gy.com/news/hot/27805.html） 驭酷炫坐骑 探魔幻秘境在MMO游戏中，一匹坐骑和一袭锦衣一样，都是游戏的标配。而在游戏中，驾驭一匹良马，骑乘一头酷炫猛犸，奔驰在城镇或郊野，必定引人注目、羡煞旁人。那么，《永恒魔法》的坐骑又有什么特色呢?又是怎么获得呢?这款游戏在设计之初，就希望玩家能够找回在MMORPG中最单纯的乐趣，不是单纯的刷怪升级打副本，更多的是为玩家创造一个简洁操控、战斗有趣、轻松交友、自由冒险的大世界。本文由5G游戏网http://www.5gy.com/整理，希望对您有所帮助！微信公众号：youxi5gy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>The brand-new 3D magical adventure MMO "Eternal Magic" by TOEIC Network in 2016 will start its first technical test on October 21. The official reservation channel for "Eternal Magic" has been opened, and the game client will be available for download at 12:00 today! Participating in the first test reservation will entitle you to receive a reservation gift pack! Experience the thrilling battlefield, feel the competitive fun of blood and fire burning together; accompanied by cute pets, your adventure will never be lonely; refuse monotony, easily socialize with close friends, and embark on a free adventure as you wish. (Source: http://www.5gy.com/news/hot/27805.html) Ride cool mounts and explore magical realms In MMO games, a mount is as essential as a gorgeous robe. In the game, riding a good horse or a cool mammoth, galloping through towns or wilderness, will definitely attract attention and envy. So, what are the features of mounts in "Eternal Magic"? How can you obtain them? This game was designed with the hope that players can rediscover the purest joy in MMORPGs, not just grinding levels, doing dungeons, but more about creating a world with simple controls, fun battles, easy socializing, and free adventures for players. This article is compiled by 5G Game Network http://www.5gy.com/, hoping it will be helpful to you! WeChat Official Account: youxi5gy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 路过司机拍下一地碎鸡蛋。微博图片 路过司机拍下一地碎鸡蛋。微博图片京华时报讯（记者吕高见）昨天上午，京平高速进京方向30公里处一货车侧翻，车上鸡蛋散落一地，幸好司机未受伤。目前，事故正在进一步调查处理中。昨天下午2点，记者赶到京平高速进京方向30公里处，不远处就是北务收费站，现场首发公路养护工作人员已清理干净。司机坐在高速路中间隔离带上，事故车辆停在左侧车道。车上装有鸡蛋、筐子等物品，虽然已过几小时，但现场仍有鸡蛋腥味。目击者护路工人称，上午10点多，她正在附近高速路上工作，只听“咣当”一声，就发现前面不远处一辆货车侧翻，上面装的鸡蛋散落，蛋清蛋黄流了一地，有100多米远。“司机好像没受伤，从驾驶室里自己爬出来了。”不一会儿，警察就赶过来了。货车司机介绍，鸡蛋是从平谷拉过来的，当时前面有辆车剐了一下，没想到车就翻了。“还好没受伤，现在想起来还有点害怕。”司机说。据了解，事故刚发生后，路段严重拥堵；后首发公路养护工作人员赶到，他们用铁锹、扫帚紧急清理路面，清出一条车道供排队车辆通行。昨天下午2点52分，事故车辆驶离现场。目前，事故正在进一步调查处理中。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Passing driver captured a ground full of broken eggs. Weibo picture Passing driver captured a ground full of broken eggs. Weibo picture Beijing Times News (Reporter Lv Gaojian) Yesterday morning, a truck overturned 30 kilometers into Beijing on the Jingping Expressway, with eggs scattered all over the ground, fortunately the driver was unharmed. Currently, the accident is under further investigation and processing. At 2 o'clock yesterday afternoon, the reporter arrived at the 30-kilometer mark on the Jingping Expressway heading into Beijing, not far from the Beiwu Toll Station. The on-site highway maintenance staff had already cleaned up. The driver sat in the middle of the highway on the isolation belt, and the accident vehicle was parked in the left lane. The vehicle was loaded with eggs, baskets, and other items. Although several hours had passed, there was still a smell of eggs at the scene. A witness, a road maintenance worker, said that around 10 o'clock in the morning, she was working on the nearby expressway when she heard a "clang" sound. She then saw a truck overturned not far ahead, with the eggs it was carrying scattered all over the ground, egg whites and yolks flowing everywhere, extending more than 100 meters. "The driver seemed uninjured and climbed out of the cab by himself." Shortly after, the police arrived. The truck driver explained that the eggs were being transported from Pinggu. At that time, a car in front had a slight collision, which unexpectedly caused the truck to overturn. "Fortunately, no one was injured. Thinking back now, I'm still a bit scared," the driver said. It was reported that immediately after the accident, the road section was severely congested. Later, the first group of highway maintenance workers arrived and urgently cleared the road with shovels and brooms, creating a lane for queued vehicles to pass through. At 2:52 p.m. yesterday afternoon, the accident vehicle left the scene. Currently, the accident is under further investigation and processing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>文/众通社娘口三三2016年10月20日，天朗气清，惠风和畅，天空通透的仿佛水洗一样，秋风落叶，和着发动机的轰鸣声，坐在星X克的吧坐上目送来来往往的人群，小编不禁感叹，一日之计在于晨，正是装X好时候。浸淫多年中二场的筒子们都知道。。每当男女猪脚要福至心灵开外挂的时候都会感到一阵激动。。鸡冻。。悸动。对，没错，就是这个感觉！小编也悸动了！不是心脏病！不是998！！刹那间，小编有一种预感，今天，是个好日子。 Kkk。。做选择题全靠蒙的小编一直十分相信自己的直觉，对，直觉，呀巴黎，，走进公司门的瞬间，仿佛一道闪电劈过，外焦里嫩，分外兴奋。我看到了啥！啥！！公司两个大V全来了！全来了！！ 留着小辫子没留小胡子风趣幽默平易近人的才总和留着小胡子没留小辫子和蔼儒雅下笔如神的王总，两种截然不同的风格融合在一起，如同彗星碰撞，妙笔生花，好吃到爆炸，小编已经语无伦次了（世界再见）。如此和谐有爱的画面出现在小编面前，心潮澎湃了有没有！都是大粗腿有没有！！（小编不会告诉你们以上几百字废话全是为了铺垫这一幕）此时此刻，小编只想大吼一句，大V，腿借我抱一下可以嘛~ 就在小编大脑当机正在努力重启的时候，留着小编子没有留小胡子风趣幽默平易近人的才总突然抬头看过来，露出邪魅狷狂（划掉）和蔼可亲的笑容，“小姑娘，想不想当网红呀。”啥？网红?网红是啥？可以吃嘛？ 就这样尴尬的五秒钟里，小编的大脑飞速重启，系统紊乱，勾起来类似于诞生初期的记忆，那时候麻麻还很年轻，她语重心长的对我说，“崽，女娃儿要矜持。” 于是小编委婉的说出了二十年来最痛心疾首的话：“不要。” 看着留着小辫子没留小胡子风趣幽默平易近人的才总和留着小胡子没留小辫子和蔼儒雅下笔如神的王总缓缓收回看向小编的目光，小编只想说一句：“大V，请再爱我一次。” 致天下所有才思奇葩想要成为最热网红迎取高富帅自此走上人生巅峰的姑娘们！女孩子，适当的时候，不要，矜！持！要OPEN，脑洞大开停不下！旁边终于看不下去的大花安慰小编，“三娘，别哭，虽然你做不了网红，但你可以成为网骗啊。”你走开，“去往你的领地发展吧，两位大V会支持你的，毕竟一个蛇精病成为网红容易挨骂。”所以说，大花，你真的是来安慰我的吗，一个围笑。 所以说，有志青年不能等，吃下这颗安利，我爱我们“邪教”。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>On October 20, 2016, the weather was clear and pleasant, with a refreshing breeze. The sky was so clear that it seemed to have been washed with water. The autumn wind rustled the fallen leaves, accompanied by the roar of the engine. Sitting at the bar of Star X, watching the crowds come and go, the editor couldn't help but sigh, "The plan for the day lies in the morning, and it's the perfect time to show off." Those who have immersed themselves in the world of Chuunibyou for many years all know... Whenever a man and a woman are about to touch each other's hearts and activate their external plugins, they will feel a wave of excitement... excitement... palpitations. Yes, that's right, it's this feeling! The editor also felt palpitations! Not a heart attack! Not 998!! In an instant, the editor had a premonition that today was going to be a good day. Kkk... The editor, who relies on luck to answer multiple-choice questions, has always believed in his intuition, yes, intuition, oh Paris... Upon entering the company's door, it was as if a lightning bolt had struck, both excited and nervous, exceptionally thrilled. What did I see! What!! Both big Vs of the company are here! Both here!! The one with small braids but no beard, humorous and approachable, and the one with a beard but no braids, gentle and elegant, the two completely different styles merged together, like a comet colliding, creating a beautiful scene, incredibly delicious, the editor was already incoherent (goodbye, world). Such a harmonious and loving scene appeared before the editor, isn't it exhilarating! All with big legs, right! (The editor won't tell you that the hundreds of words above are all just to set the stage for this scene) At this moment, the editor just wants to shout out, "Big Vs, can I hug your legs for a moment~" Just as the editor's brain was about to crash and was trying hard to reboot, the one with small braids but no beard, humorous and approachable, suddenly looked up and flashed a smile that was both mischievous and amiable, "Little girl, do you want to be an internet celebrity?" What? Internet celebrity? What's that? Can you eat it? In this awkward five seconds, the editor's brain quickly rebooted, the system was in chaos, triggering memories similar to the early days of my life, when mom was still young and said to me with great emphasis, "Child, a girl should be reserved." So the editor tactfully said the most heart-wrenching words in twenty years, "No." Watching the one with small braids but no beard, humorous and approachable, and the one with a beard but no braids, gentle and elegant, slowly retract their gaze from the editor, the editor just wanted to say, "Big Vs, please love me again." To all the talented and quirky girls in the world who want to become the hottest internet celebrities and attract handsome and wealthy men to reach the peak of life! Girls, at the right time, don't be reserved! Be OPEN, let your imagination run wild! Finally, unable to bear it any longer, the big flower comforted the editor, "San Niang, don't cry, although you can't become an internet celebrity, you can become an internet scammer." You go away, "go develop in your own territory, the two big Vs will support you, after all, it's easy for a lunatic to become an internet celebrity and get scolded." So, big flower, are you really comforting me, a circle of laughter. So, young people with aspirations should not wait, take this recommendation, I love our "cult."</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>????砍?蝻??嚗?015-009霂??隞??嚗?30737霂??蝞?妍嚗??颲曄???銝餃??詨?嚗??靽∟???????航噢?啗?皞?????隞賣??????2015撟渡洵銝?活銝湔??∩?憭找?????砍??砍??詨????隡??雿?????霂?????摰寧???????蝖桀?摰??嚗?瓷?????扇頧賬?霂臬紡?折?餈唳????憭折?瞍??撟嗅笆?嗅?摰寧?????扼???＆?批?摰???扳???葵?怠?餈?蒂瘜??韐?遙?? 銝??隡?悅?砍??箸???? (銝??∩?憭找?撅?活 ?祆活隡?悅銝?2015 撟渡洵銝?活銝湔??∩?憭找? (鈭??祇?鈭箸?甈∟?銝?之隡???祇?鈭箔蛹???隡?? (銝?隡?悅?砍????瘜?????閫?? (??隡?悅?砍??交?????? 撘???園?嚗?015 撟?4??11 ?乩???10 ??00 ?? 蝏???園?嚗?015 撟?4??11 ?乩???12 ??00 ?? (鈭?隡?悅?砍??孵??祆活隡?悅????啣??孵??砍??? (???箏葉撖寡情 1.?⊥??餉扇?交?????貉?隞賜??∩??? ?祆活?∩?憭找????撘?泵????砍?瘜?????霂??瘜??????貊?蝔?????閫??嚗??????嗡??詨??券??孵???悼銵??閬??摨?? ?砍?蝻??嚗?015-009 ?祆活?∩?憭找???????霈唳?銝?2015 撟?4 ??8 ?伐??⊥??餉扇?乩????撣???其葉?賜?蝞??鈭砍??砍??餉扇?典?????詨?雿??銝??????箏葉?∩?憭找?(?刻????霈唳?銋啣?霂?????韏??鈭急?甇斗??抬??刻????霈唳????霂?????韏??銝?澈??迨???)嚗??銝??隞乩髡?Ｗ耦撘????誨??犖?箏葉隡?悅?????”?喉?霂亥?銝?誨??犖銝???舀??砍??∩??? 2.?砍??貉?鈭????????蝥抒恣??犖???靽⊥??恍?鈭??韐?提鈭箝? (銝?隡?悅?啁?嚗???⊥?颲暹??賣?蝘???∩遢????砍?鈭?未隡?悅摰? 鈭??隡?悅摰∟悅鈭?★2.1 摰∟悅????⊥?颲暹??賣?蝘???∩遢????砍? 2015 撟渡洵銝?活?∠巨????寞???.2 摰∟悅???鈭?倌蝵脫??⊥?颲暹??賣?蝘???∩遢????砍??∩遢霈方揚??悅?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>????Cutting?蝻??嚗?015-009霂??隞??嚗?30737霂??蝞?妍嚗??颲曄???銝餃??詨?嚗??靽∟???????航噢?啗?皞?????隞賣??????2015撟渡洵銝?活銝湔??∩?憭找?????Cutting??Cutting??詨????隡??雿?????霂?????摰寧???????蝖桀?摰??嚗?瓷?????扇頧賬?霂臬紡?折?餈唳????憭折?瞍??撟嗅笆?嗅?摰寧?????扼???＆?批?摰???扳???葵?怠?餈?蒂瘜??韐?遙?? 銝??隡?悅?Cutting??箸???? (銝??∩?憭找?撅?活 ?祆活隡?悅銝?2015 撟渡洵銝?活銝湔??∩?憭找? (鈭??祇?鈭箸?甈∟?銝?之隡???祇?鈭箔蛹???隡?? (銝?隡?悅?Cutting????瘜?????閫?? (??隡?悅?Cutting??交?????? 撘???園?嚗?015 撟?4??11 ?乩???10 ??00 ?? 蝏???園?嚗?015 撟?4??11 ?乩???12 ??00 ?? (鈭?隡?悅?Cutting??孵??祆活隡?悅????啣??孵??Cutting??? (???箏葉撖寡情 1.?⊥??餉扇?交?????貉?隞賜??∩??? ?祆活?∩?憭找????撘?泵????Cutting?瘜?????霂??瘜??????貊?蝔?????閫??嚗??????嗡??詨??券??孵???悼銵??閬??摨?? ?Cutting?蝻??嚗?015-009 ?祆活?∩?憭找???????霈唳?銝?2015 撟?4 ??8 ?伐??⊥??餉扇?乩????撣???其葉?賜?蝞??鈭Cutting??Cutting??餉扇?典?????詨?雿??銝??????箏葉?∩?憭找?(?刻????霈唳?銋啣?霂?????韏??鈭急?甇斗??抬??刻????霈唳????霂?????韏??銝?澈??迨???)嚗??銝??隞乩髡?Ｗ耦撘????誨??犖?箏葉隡?悅?????”?喉?霂亥?銝?誨??犖銝???舀??Cutting??∩??? 2.?Cutting??貉?鈭????????蝥抒恣??犖???靽⊥??恍?鈭??韐?提鈭箝? (銝?隡?悅?啁?嚗???⊥?颲暹??賣?蝘???∩遢????Cutting?鈭?未隡?悅摰? 鈭??隡?悅摰∟悅鈭?★2.1 摰∟悅????⊥?颲暹??賣?蝘???∩遢????Cutting? 2015 撟渡洵銝?活?∠巨????寞???.2 摰∟悅???鈭?倌蝵脫??⊥?颲暹??賣?蝘???∩遢????Cutting??∩遢霈方揚??悅?</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2016年10月24日-26日，惠阳四中九年级学生在惠阳教育基地的综合实践活动圆满结束，在这里，让学生们学会创新，学会思考，学会团结，学会尊重，学会感恩，学会探究。 学生们对于社会和未来还处于懵懂迷茫的状态，心中还怀揣着对社会、对未来的幻想和期待，社会实践为学生们提供了广泛接触社会、了解社会的机会，通过实践活动对社会了解，也为同学们未来道路打开一道窗口！ 活动精彩回放 信任背摔让同学们学会信任，也享受被人信任的喜悦 救护知识让同学们学会守护生命，懂得生命的珍贵 包饺子包饺子的各道工序都由同学们自己动手制作，课程也在同学们中间营造出健康向上、充满欢乐的氛围，此活动既是对我国传统文化的继承，又是对同学们生活能力的培养，增强了班级凝聚力。 包饺子可真是欢乐有趣！ 味道还不错诶！ 毕业墙毕业墙，要求全班所有同学在规定的时间内翻越一面高4.2米的光滑墙面，在此过程中，同学们不能借助任何外界的工具，包括：衣服、皮带、绳子等；所能用的资源只有每个人的身体。 介绍虽然简单，但是实际操作中是真的不那么简单。要所有人都付出自己的肩膀，付出自己的身体，在互相帮助的情况下，才能够完成这个项目。 毕业墙，让同学们充分领略到了团结协作的重要意义，激发了同学们许多潜在的特长和能力，进一步培养了同学们逆向思维、树立创新精神的思路，促进了同学之间友好、互助、彼此信任、相互关爱的和谐感情。 闭营仪式会议现场 先进连队颁奖</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>From October 24th to 26th, 2016, the ninth-grade students of Huiyang No.4 Middle School successfully concluded their comprehensive practical activities at the Huiyang Education Base. Here, students learned to innovate, think, unite, respect, be grateful, and explore. The students are still in a state of confusion and ignorance about society and the future, holding fantasies and expectations for society and the future in their hearts. Social practice provides students with a broad opportunity to interact with and understand society. Through practical activities, students gain an understanding of society and open a window to their future paths! The highlights of the activities include: Trust Fall, allowing students to learn to trust and enjoy the joy of being trusted; First Aid knowledge, teaching students to guard life and understand the value of life; Dumpling making, where students personally participate in each step, creating a healthy and joyful atmosphere among the students. This activity not only inherits traditional Chinese culture but also cultivates students' life skills, enhancing class cohesion. Dumpling making is truly joyful and interesting! The taste is not bad! Graduation Wall, requiring all students to climb over a 4.2-meter smooth wall within a specified time. During this process, students cannot use any external tools, including clothes, belts, ropes, etc.; the only resource they can use is their own bodies. Although the introduction is simple, the actual operation is not that simple. Everyone has to put in their shoulders and bodies, and only through mutual help can this project be completed. The Graduation Wall allows students to fully appreciate the importance of unity and cooperation, stimulates many of their potential talents and abilities, further nurtures their reverse thinking and innovative spirit, promotes friendly, mutual assistance, trust, and love among students, creating a harmonious atmosphere. The closing ceremony on-site meeting, presenting awards to the outstanding squads.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今年7月，一家名为“小湖南”的餐厅在悉尼闹市区改造完工。中式窗格、竹篾编织、原木板…浓郁的地域特色与悉尼的现代街景形成鲜明对比，一开业便迅速引燃当地华人圈。 这家“小湖南”以“发现湖南好味道，留住民间好手艺”为核心，希望通过食物与空间陈设，与悉尼留学生、新一代中国移民以及当地华人的故乡情感联结在一起。空间设计上，以传统手作的民间美食为依托，将故事性融入艺术装置的陈列中，用理性的元素搭配创造人们对湖南地域文化的认知。 食材的展示采用了民居的存储方式，而非一般餐厅的柜台陈列方式，在色系与材质上，与老木门、八仙桌融为一体，精心营造生活场景感。 小湖南项目地址：悉尼项目面积：280平方米竣工时间：2016年7月设计单位：水木言（香港）室内设计机构设计主创：梁宁健设计说明：金雪鹏软装设计：深圳大境主要材料：文化石、中式窗格、竹编、原木板 主创设计师 梁宁健 湖南人，米兰理工大学室内设计硕士，2008年创办水木言（香港）室内设计机构，深圳市大境国际家居配饰设计有限公司创始人，2011-2013年在湖南省建筑设计院建筑装饰所担任副所长。 主要设计案例： 小湖南、长沙黄花机场T2新航站楼室内设计、品酒店、凤凰豪庭精品酒店、泊富国际广场写字楼公共区域整体设计、止间书店、万博汇长沙体验中心建筑及室内设计、伍厚德堂、饭怕鱼、食在不一样、深圳来客兄弟餐饮、扬州小小狮子楼。 伍厚德堂、食在不一样、止间书店…除了小湖南，梁宁健和他的水木言室内设计机构做的不少项目，在本土消费市场中都颇有名声。 从业近十年，作为一个商业空间设计经验丰富的设计师，梁宁健一直在探索商业诉求和设计艺术之间的平衡，以及如何塑造品牌空间的独创性。通过研究本土传统建筑的美学脉络，他们找到了一些自己的方法。 “把一个空间做漂亮不难，难的是找到地域文化的根。”梁宁健和他的团队用两年半的时间，跑遍了湘南湘西的现存老宅与建筑，渐行渐远间，湖南民居建筑与人文历史的交融脉络逐渐在他们面前变得清晰。“我们摸索出了一个潇湘建筑美学，把建筑作为一个载体，从中提炼湖湘文化元素应用到商业空间。有的空间做得很美，但这个东西是哪里的呢，不好说，可能是移植过来的，为什么我们不挖掘一些本土的东西来做呢？我们希望让别人感受到湖南还有这么一群人在致力于本土文化。” 通过多个项目的落地实践，梁宁健和他的团队将潇湘建筑美学与空间设计做了三个方向的定义和创作。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>In July this year, a restaurant named "Little Hunan" completed its renovation in the bustling area of Sydney. Chinese-style lattice windows, bamboo weaving, original wooden boards... The strong regional characteristics sharply contrast with the modern streetscape of Sydney, quickly igniting the local Chinese community upon opening. "Little Hunan" is centered around the idea of "Discovering the delicious flavors of Hunan, preserving the traditional craftsmanship," aiming to connect with the emotional homeland of Sydney's international students, new generation Chinese immigrants, and local Chinese through food and spatial arrangement. In terms of spatial design, traditional handmade folk cuisine serves as the foundation, integrating storytelling into artistic installations, using rational elements to create people's understanding of Hunan's regional culture. The display of ingredients adopts the storage method of a residence, rather than the typical restaurant counter display method, blending seamlessly with old wooden doors and traditional Chinese tables, meticulously creating a sense of daily life scenes. Little Hunan Project Address: Sydney Project Area: 280 square meters Completion Time: July 2016 Design Firm: Shui Mu Yan (Hong Kong) Interior Design Agency Design Director: Liang Ningjian Design Description: Jin Xuepeng Soft Furnishing Design: Shenzhen Dajing Main Materials: Cultural stone, Chinese lattice windows, bamboo weaving, original wooden boards Design Director Liang Ningjian, a Hunan native, holds a Master's degree in Interior Design from Politecnico di Milano. In 2008, he founded Shui Mu Yan (Hong Kong) Interior Design Agency and is the founder of Shenzhen Dajing International Home Furnishing Design Co., Ltd. He served as the Deputy Director of the Architectural Decoration Department of Hunan Provincial Architectural Design Institute from 2011 to 2013. Major design cases include Little Hunan, Changsha Huanghua Airport T2 New Terminal Interior Design, Pin Hotel, Fenghuang Haoting Boutique Hotel, Bofu International Plaza Office Building Public Area Overall Design, Zhijian Bookstore, Wanbohui Changsha Experience Center Architectural and Interior Design, Wu Houde Hall, Fanpa Fish, Shi Zai Buyiyang, Shenzhen Laikexiong Brothers Catering, Yangzhou Xiaoxiao Lion Building. Apart from Little Hunan, Liang Ningjian and his Shui Mu Yan Interior Design Agency have undertaken many projects that have gained a good reputation in the local consumer market. With nearly a decade of experience in commercial space design, Liang Ningjian has been exploring the balance between commercial demands and artistic design, as well as how to shape the originality of brand spaces. By studying the aesthetic context of traditional local architecture, they have found their own methods. "It's not difficult to make a space beautiful, what's difficult is to find the roots of regional culture." Liang Ningjian and his team spent two and a half years visiting existing old houses and buildings in southern and western Hunan, gradually gaining a clearer understanding of the blend of Hunan's residential architecture and human history. "We have explored a Xiangxiang architectural aesthetic, using architecture as a carrier to extract Hunan cultural elements and apply them to commercial spaces. Some spaces are beautifully done, but where is this thing from, it's hard to say, maybe it's transplanted. Why don't we dig up some local things to work with? We hope to let others feel that there is still a group of people in Hunan dedicated to local culture." Through the implementation of multiple projects, Liang Ningjian and his team have defined and created three directions for Xiangxiang architectural aesthetics and spatial design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>“中国航海第一人”郭川26日失联至今，牵动无数人心。他，站在航海文明的突破点上，始终为自己的人生掌舵。谨以此文，致敬这位老船长，海水太冷，我们等你回家。也向所有敢为天下先的勇士，致敬。“我恐惧过、绝望过、崩溃过，但从没放弃过。来到这里，我不能让祖国蒙羞。”——郭川船在人失！正在驾驶帆船进行单人穿越太平洋的“中国航海第一人”郭川，在航行至夏威夷西约900公里海域时，与岸上团队失去联系。中方紧急协调搜救，美方派军舰搜寻，但郭川依然音信全无……郭川团队随后确认，郭川于北京时间10月26日15时至15时30分之间，因突发事故落水，落水时“有最大可能”穿着救生衣。落水原因，很可能是在阻止大三角帆落水或挽救落水的大三角帆时，因突如其来的海浪或船剧烈晃动而被甩出了船。郭川此次航行于北京时间10月19日5时24分11秒从美国旧金山金门大桥出发，以上海金山为目的，希望创造单人不间断跨越太平洋航行的纪录。 1965年1月出生的郭川曾是北京航空航天大学飞行器控制专业硕士，后在北京大学取得MBA学位，过去任职于中国长城工业总公司，参与过国际商业卫星发射工作。 33岁时，他爱上帆船运动，此后一心投入职业帆船领域，创造了许多中国甚至世界“第一”：△郭川138天环球航行画面 看到最后泪目2013年4月5日，48岁的他历时138天，驾驶“中国·青岛号”帆船荣归母港青岛，成为第一位完成单人不间断环球航行的中国人，同时创造了40英尺级帆船单人环球航行的世界纪录。 2015年9月16日，郭川和他的国际团队又驾驶“中国·青岛”号帆船冲过白令海峡的终点线，用时12天3个多小时横穿北冰洋驶入太平洋，创造了人类第一次驾驶帆船采取不间断、无补给方式穿越北极东北航道的世界纪录……第一位完成沃尔沃环球帆船赛的亚洲人、第一位单人帆船跨越英吉利海峡的中国人、第一位单人帆船横跨大西洋的中国人……太多太多的纪录被郭川甩在身后，但有谁知道，航行的危险一直笼罩着他，飓风、撞船、抑郁症甚至海盗，随时可能成为终结航行、终结航海者生命的不确定因素。 郭川这次挑战横跨太平洋航行，是想给中国人再争口气。这位和大海孤独搏击的勇士曾说过：“我恐惧过、绝望过、崩溃过，但从没放弃过。来到这里，我不能让祖国蒙羞。”“世之奇伟，瑰怪，非常之观，常在于险远，而人之所罕至焉，故非有志者不能至也。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"The first Chinese navigator" Guo Chuan has been missing since the 26th, touching the hearts of countless people. He, standing at the breakthrough point of maritime civilization, has always steered his own life. With this article, we pay tribute to this old captain. The sea is too cold, we are waiting for you to come home. Also, salute to all the brave warriors who dare to be the first. "I have been afraid, desperate, and broken, but I have never given up. Coming here, I cannot let my country be ashamed." - Guo Chuan, the ship is missing in the person! Guo Chuan, the "first Chinese navigator," who was sailing a sailboat solo across the Pacific, lost contact with the shore team when he was about 900 kilometers west of Hawaii. China urgently coordinated the search and rescue, and the U.S. dispatched warships to search, but there is still no news of Guo Chuan... Guo Chuan's team later confirmed that between 3:00 p.m. and 3:30 p.m. on October 26th Beijing time, Guo Chuan fell overboard due to a sudden accident, and "most likely" was wearing a life jacket when he fell. The reason for falling overboard was likely that when trying to prevent the mainsail from falling overboard or to save the falling mainsail, he was thrown off the boat due to the sudden large waves or the violent rocking of the boat. Guo Chuan set sail on October 19th at 5:24:11 a.m. Beijing time from the Golden Gate Bridge in San Francisco, USA, with Jinshan in Shanghai as the destination, hoping to create a record of solo uninterrupted crossing of the Pacific. Guo Chuan, born in January 1965, was a master's degree holder in aircraft control from Beihang University and later obtained an MBA from Peking University. He used to work for China Great Wall Industry Corporation and was involved in international commercial satellite launch work. At the age of 33, he fell in love with sailing and devoted himself to the professional sailing field, creating many "firsts" in China and even the world: △ Guo Chuan's 138-day global sailing scene, tears at the end On April 5, 2013, at the age of 48, he returned triumphantly to his home port of Qingdao after a 138-day journey, driving the "China Qingdao" sailboat, becoming the first Chinese person to complete a solo uninterrupted circumnavigation and setting a world record for solo global sailing in a 40-foot sailboat. On September 16, 2015, Guo Chuan and his international team crossed the finish line of the Bering Strait with the "China Qingdao" sailboat, taking 12 days and over 3 hours to cross the North Pole into the Pacific, setting a world record for the first time a human has sailed a sailboat continuously and without replenishment across the Northeast Passage of the Arctic... The first Asian to complete the Volvo Ocean Race, the first Chinese to sail solo across the English Channel, the first Chinese to sail solo across the Atlantic... Guo Chuan left behind too many records, but who knows that the dangers of sailing have always loomed over him. Hurricanes, collisions, depression, and even pirates could at any time become uncertain factors that end the voyage and the life of the navigator. Guo Chuan's challenge to cross the Pacific Ocean this time is to give the Chinese people a boost. This warrior who fights alone with the sea once said, "I have been afraid, desperate, and broken, but I have never given up. Coming here, I cannot let my country be ashamed." "The wonders of the world, the marvels, the extraordinary sights, often lie in the distant dangers, where people rarely go, so only those with aspirations can reach them."</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 亲爱的学员：您好！恭喜您成为北京第34期《卓越父母专业课》的学员！此次学习的相关通知如下：【授课时间】10月29-30日（2整天，食宿自理）第一天：早上8:00开始签到，课程时间9:00-12:30，下午14:00-18:00，晚上19:30-22:30第二天：早上9:00-12:30，下午14:00-18:00课程咨询电话：13391628082或15810820282【授课地点】天通苑黄河京都会议中心地址：昌平区东小口镇太平庄中街住宿订房：王洪微18510508572 （标间350元/天）市内自驾车：走立汤路往北，过龙德广场(立水桥往北)后，第一个红绿灯左转1000米路北即到。小汤山路线:走立汤路往南，过天通苑地铁站（对面是广发银行），第一个红绿灯右转1000米路北即到（提前走辅路）。地铁：天通苑南出口往北，十字路口往西(兰各庄方向)1000米，路北即到；机场巴士：首都机场到上地，天通西苑北门 下车后往西800米路北即到；公交车：天通苑下车后坐520/522中滩北下车后即到。导航:天通绿园美【签到须知】1、请仔细阅读以下流程：请将报到编号告知现场工作人员并出示身份证→工作人员验证并签到→工作人员发放姓名牌→工作人员给学员佩戴手环（学习期间包括晚上请不要摘下手环）→出示手环入场。2、关于孩子：A、若孩子在16岁以上，只要不影响课堂纪律，欢迎进入会场一同学习B、特别声明：为保证所有参训学员的听课效果，16岁以下的孩子不允许进入会场3、温馨提示:A、会场手机需调至静音，且为保障学员的权益和老师的课程内容不外泄，课程现场不允许录音、录像，查实后将由现场会务组代为保管，会后归还；B、本会场提供笔和本，方便大家做笔记；C、本会场配备茶水，请您自带水杯（我们拒绝一次性浪费）；D、请您根据温度提前准备好衣物；E、请提前安排好您的工作与作息时间，保证足够的精神投入到两天的学习中！【咨询电13391628082或15810820282香港卓越父母国际研究院全体同仁恭候您的到来，预祝您此次学习之旅愉快，收获满满！感恩相伴成长，共享生命之美!</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dear students: Hello! Congratulations on becoming a student of the 34th session of the "Excellent Parent Professional Course" in Beijing! The relevant information for this study is as follows: [Teaching Time] October 29-30 (2 full days, board and lodging self-care) Day 1: Registration starts at 8:00 in the morning, course time 9:00-12:30, afternoon 14:00-18:00, evening 19:30-22:30 Day 2: 9:00-12:30 in the morning, 14:00-18:00 in the afternoon Course consultation phone: 13391628082 or 15810820282 [Teaching Location] Tian Tong Yuan Huanghe Jingdu Conference Center Address: Taipingzhuang Middle Street, Dongxiaokou Town, Changping District Accommodation booking: Wang Hongwei 18510508572 (Standard room 350 yuan/day) Driving within the city: Take Litang Road north, pass Longde Square (north from Lishuiqiao), turn left at the first traffic light, 1000 meters north to arrive. Xiaotangshan route: Take Litang Road south, pass Tiantongyuan Subway Station (opposite is Guangfa Bank), turn right at the first traffic light, 1000 meters north (walk on the auxiliary road in advance). Subway: Exit from Tian Tong Yuan South, go north, turn west at the intersection (towards Langgezhuang) for 1000 meters, arrive on the north side; Airport bus: Capital Airport to Shangdi, get off at the north gate of Tiantong West Garden, go west for 800 meters, arrive on the north side; Bus: Get off at Tiantongyuan and take bus 520/522 to Zhongtan North. Navigation: Tiantong Green Park Beautiful [Registration Notice] 1. Please read the following process carefully: Inform the on-site staff of the registration number and show your ID card → Staff verification and registration → Staff issue name tags → Staff put wristbands on students (do not take off the wristband during the study period) → Show the wristband for entry. 2. About children: A. If the child is over 16 years old, as long as it does not affect classroom discipline, they are welcome to enter the venue for study together. B. Special statement: To ensure the listening effect of all trainees, children under 16 are not allowed to enter the venue. 3. Warm tips: A. Mobile phones in the venue need to be set to silent mode. To protect the rights of students and the confidentiality of teachers' course content, recording is not allowed on-site. If found, it will be kept by the on-site conference team and returned after the event; B. Pens and notebooks are provided at the venue for note-taking convenience; C. The venue provides tea, please bring your own cup (we refuse disposable waste); D. Please prepare clothing in advance according to the temperature; E. Please arrange your work and rest time in advance to ensure sufficient mental focus on the two days of study! [Consultation phone 13391628082 or 15810820282] The Hong Kong Excellent Parent International Research Institute and all staff look forward to your arrival, and wish you a pleasant and fruitful learning journey! Grateful for accompanying growth and sharing the beauty of life together!</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>李女士每天上班都对着电脑，近年来视力下降。最近，同事间流行喝花草养生茶，她也跟风买了红枣、枸杞，每天泡来喝，但奇怪的是，她只要一喝就拉肚子。其实，中国人喝茶已有几千年历史，秋季干燥，很多人都喜欢喝枸杞菊花茶、玫瑰花茶等茶饮来养生，还有不少女性会喝红茶来暖胃、喝黑茶来减肥。虽然许多人都爱喝茶，但不一定人人都会在正确的时间和季节品茶。专家提醒，不同茶饮性味不同，不能“千篇一律”“千人一茶”地喝。茶喝不好，不但起不到保健作用，还可能导致胃寒腹泻、失眠等不良健康影响。喝“养生茶”要因人而异，女性养生不能乱喝茶中国中医科学院研究生院教授杨力在接受中国妇女报、中华女性网记者采访时指出，从中医理论来说，养生茶用到的不少材料都有药性，为稳妥起见，饮用养生茶前，不妨请医生把个脉，有针对性地选择养生茶种类。广州军区武汉总医院营养科主任韩芳介绍，枸杞菊花茶清肝明目，很适合经常熬夜加班的电脑族。“但要注意的是，菊花性凉，感冒发热、身体发炎、腹泻的人最好别喝，也不适合寒冷的秋冬喝。像李女士每次一喝就拉肚子，可能是体质偏虚寒，不适合喝菊花茶。”女性喝茶也要对症因人而异。“茶以分人”，女性该如何选择养生茶呢？针对不同的病症，杨力推荐了几款女性养生茶：脸上起痘、舌尖红、牙痛、上火的人，可以饮用清热的竹叶茶、银花茶、菊花茶。血脂高、血管堵塞的人，可以选择活血化瘀的山楂茶。糖尿病患者，适合喝葛根玉竹茶来辅助降糖。心气弱、爱心慌的人群，可以试试养心的桂圆茶。消化代谢弱的人，适合饮用陈皮茶、大麦茶、糊米茶。寒气重、受寒、肚子疼的人，可以喝一杯温中散寒的红糖姜茶。爱感冒、过敏的人，喝灵芝茶可增强免疫力。常接触电脑宜喝菊花茶、绿茶等。中国农科院茶叶研究所副所长江用文向记者介绍，在菊花茶中，白菊具有很好去毒作用，对有害的化学物质和放射性物质都有抵抗、排除的疗效。同时，菊花对治疗眼睛疲劳和视力模糊也具有很好的效果，茶中的维生素有助于恢复视力和防止视力衰退，绿茶中的β—胡萝卜素、钼、钙、脂多糖、茶多酚等物质均有减轻视觉疲劳和防辐射的功效。想减肥宜喝乌龙茶、普洱茶、黑茶等。乌龙茶属于半发酵茶，铁、钙等营养物质非常丰富，有促进消化和分解脂肪的功效。饭前、饭后喝一杯乌龙茶，可促进消化分解脂肪的功效，还可防止因脂肪摄取过多而引起的肥胖。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ms. Li faces the computer every day at work, and her eyesight has declined in recent years. Recently, there is a trend among colleagues to drink herbal health tea. She also followed suit and bought red dates and goji berries to brew and drink every day. However, strangely, she gets diarrhea every time she drinks it. In fact, Chinese people have been drinking tea for thousands of years. In the dry autumn season, many people like to drink goji chrysanthemum tea, rose tea, and other teas for health preservation. Many women drink black tea to warm the stomach and green tea to lose weight. Although many people love to drink tea, not everyone necessarily drinks tea at the right time and season. Experts remind that different teas have different properties and tastes, and should not be consumed in a "one-size-fits-all" manner. Drinking tea improperly not only fails to have health benefits but may also lead to adverse health effects such as stomach coldness, diarrhea, and insomnia. When drinking "health tea," it should be tailored to the individual. Women should not drink tea indiscriminately for health preservation. Professor Yang Li from the Graduate School of the China Academy of Chinese Medical Sciences pointed out in an interview with China Women's News and China Women's Network that many ingredients used in health teas have medicinal properties. For safety reasons, before drinking health tea, it is advisable to have a doctor check your pulse and choose the type of health tea accordingly. Han Fang, Director of the Nutrition Department at the Wuhan General Hospital of Guangzhou Military Region, introduced that goji chrysanthemum tea clears the liver and brightens the eyes, making it very suitable for computer users who often work late nights. "However, it is important to note that chrysanthemum has a cooling nature, so people with colds, fever, inflammation, or diarrhea should not drink it, and it is also not suitable for cold autumn and winter seasons. For someone like Ms. Li who gets diarrhea every time she drinks it, it may be due to a constitution that leans towards deficiency-cold, making chrysanthemum tea unsuitable for her." Women should also choose health teas according to their individual conditions. "Tea varies from person to person." How should women choose health teas? For different ailments, Yang Li recommends several health teas for women: for acne, red tongue, toothache, and internal heat, one can drink heat-clearing bamboo leaf tea, honeysuckle tea, or chrysanthemum tea. For high blood lipids and blocked blood vessels, one can choose blood-activating and stasis-dispelling hawthorn tea. For diabetic patients, it is suitable to drink kudzu and yam tea to assist in lowering blood sugar. For those with weak heart qi and palpitations, try heart-nourishing longan tea. For those with weak digestion and metabolism, it is suitable to drink tangerine peel tea, barley tea, or glutinous rice tea. For those with heavy cold, feeling cold, and stomach pain, a cup of warming and dispelling cold ginger tea is recommended. For those prone to colds and allergies, drinking lingzhi tea can enhance immunity. It is advisable for those who often use computers to drink chrysanthemum tea or green tea. Jiang Yongwen, Deputy Director of the Tea Research Institute of the Chinese Academy of Agricultural Sciences, introduced to reporters that in chrysanthemum tea, white chrysanthemum has a good detoxifying effect, resisting and eliminating harmful chemicals and radioactive substances. At the same time, chrysanthemum has a good effect on treating eye fatigue and blurred vision. The vitamins in tea help restore vision and prevent vision decline. The β-carotene, molybdenum, calcium, polysaccharides, and tea polyphenols in green tea all have the effect of reducing visual fatigue and preventing radiation. For weight loss, it is suitable to drink oolong tea, pu'er tea, black tea, etc. Oolong tea is a semi-fermented tea with rich nutrients such as iron and calcium, which can promote digestion and fat breakdown. Drinking a cup of oolong tea before or after meals can promote digestion and fat breakdown, as well as prevent obesity caused by excessive fat intake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>宝宝出生了，全家人都开心得要飞起来。作为两边都是独生子女的家庭，孩子的出生不仅代表我和老公有了宝宝，两边老人也有了宝贝。婆婆和老妈天天轮流送汤，有时还相约着一起讨论孩子的名字，纸尿裤，衣服的问题。看到他们这么开心，我也挺高兴的。 可是宝宝出生两个月了，我一直请假在家没有工作，现在我坚持要去工作，他们也算勉强妥协。可是，孩子的营养问题怎么办呢？我推荐了很多国内国外的奶粉，还找到质检报告给他们看，可是婆婆和老妈竟一致认为我必须母乳喂养，声明这是他们的底线了，面对他们的坚持，我也不知道怎么办，只能求助医生，希望得到满意的答复。没想到，医生的回答竟让他们两个满意了，我每天中午回家母乳喂宝宝。医生告诉我们母乳喂养对宝宝有很多的好处。 增强宝宝的免疫力母乳中含有丰富的抗生素，营养物质，这都是宝宝需要的物质，尤其是抗生素，可以帮助宝宝抵抗感染，增加抵抗力和免疫力，减少疾病的发生。母乳是任何乳制品，奶粉都代替不了的，宝宝对奶粉中某些成分可能会过敏，但是母乳绝对不会存在危害，对宝宝的身体发育益处多多。 有利于宝宝的消化系统和健康发育母乳较奶粉有天然的有点，营养均衡，不存在副作用，因而母乳喂养有利于宝宝的消化系统，增强宝宝的身体健康发育。母乳喂养的宝宝都是吃得香，睡的香，晚间睡得安稳，妈妈也放心。 有利于增进母子感情妈妈母乳喂养宝宝增加母子之间的交流，宝宝感受到妈妈的肌肤温暖，从心里感受到安全，信任，满足，妈妈传递出关心，疼爱的眼神，动作，抚摸，母子之间微妙的沟通，爱就在慢慢地传递。 母乳喂养健康，干净，安全，它是任何奶粉都无法超越的，对于宝宝母乳是安全感和爱的满足。关山老师，一名儿科大夫。解决孕期，育儿，亲子类教育问题！咨询更多育儿问题，欢迎各位朋友关注关山老师公众号guan676 。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The baby is born, and the whole family is so happy that they could fly. As both sides are only children families, the birth of the child not only means that my husband and I have a baby, but also that both sets of grandparents have a precious one. My mother-in-law and my mom take turns bringing soup every day, and sometimes they even discuss the baby's name, diapers, and clothing together. Seeing them so happy, I am also quite pleased. However, the baby is two months old now, and I have been on leave at home without working. Now I insist on going back to work, and they reluctantly compromise. But what about the baby's nutrition? I have recommended many domestic and foreign milk powders, and even found quality inspection reports to show them. However, to my surprise, both my mother-in-law and my mom insist that I must breastfeed, stating that this is their bottom line. Faced with their insistence, I don't know what to do and can only seek help from a doctor, hoping for a satisfactory answer. Unexpectedly, the doctor's response satisfied both of them, and I breastfeed the baby at home every noon. The doctor told us that breastfeeding has many benefits for the baby. It enhances the baby's immunity as breast milk contains rich antibiotics and nutrients, which are substances that the baby needs, especially antibiotics that can help the baby resist infections, increase resistance and immunity, and reduce the occurrence of diseases. Breast milk cannot be replaced by any dairy product or milk powder. Some components in milk powder may cause allergies in babies, but breast milk will not harm the baby's health and has many benefits for the baby's physical development. It is beneficial for the baby's digestive system and healthy development. Breast milk has natural advantages over formula milk, with balanced nutrition and no side effects, thus breastfeeding is beneficial for the baby's digestive system and enhances the baby's physical health and development. Breastfed babies eat well, sleep well, and sleep soundly at night, making mothers feel at ease. It is beneficial for enhancing the mother-child relationship. Breastfeeding increases communication between mother and baby. The baby feels the warmth of the mother's skin, senses safety, trust, and satisfaction from the heart, and the mother conveys care and love through her eyes, actions, and touch. There is subtle communication between mother and child, and love is slowly transmitted. Breastfeeding is healthy, clean, and safe. It surpasses any formula milk and provides the baby with a sense of security and love. Guan Shan, a pediatrician, solves pregnancy, parenting, and parent-child education issues! For more parenting questions, please follow Guan Shan's official account guan676.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>昨天下午17时30分左右，香坊区和平路与民生路交口附近发生严重交通事故，一名横穿马路男子被撞身亡！ 记者赶到现场看到，事故现场已经处理完毕，但路中间双实线处留有一大滩血迹。通过巡逻辅警提供的视频可以看到，被撞男子身上盖着蓝布，头部大量出血已经身亡，肇事的灰色赛马停在路旁，风挡玻璃破碎，左前车头有明显撞击痕迹。 据香坊巡逻辅警大队五中队辅警樊警官介绍，事故发生在17点30分左右，当时现场聚集着许多围观市民，因事故原因导致和平路严重堵车。动力交警大队事故科民警正在勘察现场，被撞男子已经身亡，肇事车辆停在路旁。自己和同事随即在现场维持秩序，疏导车辆。 据了解，事发时，肇事车辆在和平路由省政府向乐松广场方向主道行驶，这名男子在和平路距离信号灯50米左右位置横穿马路，因穿梭在车辆缝隙中，导致肇事车辆驾驶员瞭望不够将该男子撞飞。男子倒地后头部大量出血，当120急救人员赶到后，经确认男子已经身亡。另据了解，被撞男子今年26岁，目前交警已通知家属。 18点20左右，事故现场处理完毕，死者被殡仪馆车辆运走，肇事车辆被拖走滞留，肇事驾驶员被民警带走接受调查。目前事故具体原因以及责任认定有待交警部门进一步调查处理。中国式过马路几乎每个人都知道乱闯红灯是不文明的行为，但是生活中还是有好多人对此事明知不当为而为之。究其原因，除了因为人们总是认为交通事故这样概率极小的事不会发生在自己的身上之外，还有一个很重要的原因是人们的从众心理外加群体效应的影响，想一想，红灯车少时如果身边的人都过马路了，只有自己站在一边等绿灯，人们心里总会有一种自己看起来很傻的感觉。更何况如果“凑够了一撮人”，情况就变成“车怕人”了，出交通事故的几率自然也就近乎为零，那么你们知道“中国式过马路”背后的成本是多少吗？ 交通安全记心上 等等红灯又何妨耐心等绿灯亮起、规规矩矩排队、不乱扔垃圾、在公共场合不大声喧哗，这些显然都不是大事，然而“素质”却在这点点滴滴的小事中显现出来了。 文明交通离不开每一个人的积极参与。为了您和他人的安全，为了我们共同生活的城市成为文明之城，请一定要遵规守法，文明出行。不要因为一时的疏忽大意给自己带来一生都磨灭不掉的痛苦回忆。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yesterday afternoon around 17:30, a serious traffic accident occurred near the intersection of Heping Road and Minsheng Road in Xiangfang District. A man crossing the road was hit and killed! When the reporter arrived at the scene, the accident site had been cleared, but there was a large puddle of blood left at the double solid line in the middle of the road. From the video provided by the patrolling auxiliary police, it can be seen that the man who was hit was covered with a blue cloth, with a large amount of blood coming from his head, indicating that he was already dead. The gray Saima responsible for the accident was parked on the side of the road, with a broken windshield and obvious signs of impact on the left front of the car. According to Officer Fan from the 5th Squadron of the Xiangfang Patrolling Auxiliary Police, the accident occurred around 17:30, with many onlookers gathered at the scene, causing a severe traffic jam on Heping Road due to the accident. The traffic police accident investigation unit is currently surveying the scene, and the man who was hit has already passed away, with the vehicle responsible for the accident parked on the side of the road. Officer Fan and his colleagues immediately maintained order at the scene and directed traffic. It was learned that at the time of the incident, the vehicle responsible for the accident was traveling on the main road from the Provincial Government towards Lesong Square on Heping Road. The man was crossing the road about 50 meters away from the traffic light on Heping Road. Due to weaving through the gaps between vehicles, the driver of the vehicle responsible for the accident did not see the man and hit him. After falling to the ground, the man suffered a large amount of bleeding from his head. When the emergency medical personnel arrived, it was confirmed that the man had passed away. It was also learned that the man who was hit was 26 years old, and the traffic police have notified his family. Around 18:20, the accident site was cleared, the deceased was taken away by the funeral parlor vehicle, the vehicle responsible for the accident was towed away for retention, and the driver was taken away by the police for investigation. The specific cause of the accident and the determination of responsibility are pending further investigation and handling by the traffic police department. Almost everyone knows that jaywalking is an uncivilized behavior in crossing the road in the Chinese way, but many people still do it knowingly. The reason for this is not only because people always think that the probability of a traffic accident, such a rare event, will not happen to them, but also because of the influence of conformity psychology and the group effect. Think about it, when there are few cars at a red light and everyone around you crosses the road, if you are the only one standing aside waiting for the green light, you will always feel a bit silly. Moreover, if "a group of people" gather, the situation becomes "cars fear people", and the probability of a traffic accident naturally approaches zero. Do you know the cost behind the "Chinese way of crossing the road"? Traffic safety should be remembered, it's okay to wait patiently for the red light, line up properly, not litter, not be loud in public places. These are obviously not major issues, but "quality" is manifested in these small things. Civilized traffic cannot be achieved without the active participation of everyone. For your safety and that of others, for our city to become a civilized city where we live together, please be sure to abide by the rules, travel in a civilized manner. Do not bring a lifetime of painful memories due to momentary negligence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>本报记者包慧杭州报道6月19日，收购恒生集团的主体公司浙江融信网络技术有限公司（下称浙江融信）在接受21世纪经济报道记者独家采访时，首度回应商务部17日所称已对浙江融信收购恒生电子股权立案审查一事。“立案审查是例行的审核程序，因为我们已触发申报审核要求。"立案"意思是商务部正式受理我们提交的待审核材料，启动相关审核程序，而非外界通常所指。后续有任何进展，会通过恒生电子上市公司及时向广大投资者公告。”浙江融信投资总监黄辰立对21世纪经济报道记者表示。黄辰立称，浙江融信是主动向商务部申报“求审核”，“4月1日合同一签，浙江融信即与商务部口头沟通，并在此后递交书面的待审核相关材料。”原因是，收购双方及其关联方和控股子公司2013年在境内的营业收入已经达到反垄断法规定的需申报标准。浙江融信以32.99亿现金受让恒生集团100%股份，交易完成后通过恒生集团持有恒生电子（600570）20.62%的股份，成为恒生电子的控股股东，属于“经营者集中”。而《反垄断法》规定，“经营者集中”达到以下标准需“申报”：参与集中的所有经营者上一会计年度在中国境内的营业额合计超过20亿元人民币，并且其中至少两个经营者上一会计年度在中国境内的营业额均超过4亿元人民币。恒生电子年报显示其去年营收超过12亿，而浙江融信去年营收只有2000多万，黄辰立解释，“融信虽然很小，但算上关联方，包括所有控股的子公司和关联公司，我们超过这个标准，所以要做申报。”恒生“垄断”之辩外界认为恒生电子垄断的证据来自其2012年报的一组数据。作为机构交易、清算系统的核心提供商，恒生电子在基金、券商、保险、信托资管核心市场占有率分别达到93%、80%、90%、75%。事实上，一位知情人士对21世纪经济报道记者表示，金融IT服务行业进入门槛很低，既不需要牌照，也对资金实力等没有要求，业内有大小公司上千家。年报中所指的市场占有率准确来说应该叫“覆盖率”或者“渗透率”，统计的时候“把所有曾经购买过恒生电子任何大小产品和服务的公司都算进来了，而比较准确的，应该按销售收入所占百分比来算。”可以佐证的另一组数据是：金证股份（600446）2013年报显示，金证在新增基金IT业务市场中占据绝对优势，占到增量市场超过60%的份额。在区域股权交易领域，2013年公司细分市场份额接近70%。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Reporter Bao Hui from this newspaper reported from Hangzhou on June 19th that Zhejiang Rongxin Network Technology Co., Ltd. (referred to as Zhejiang Rongxin), the main company acquiring Hengsheng Group, responded for the first time to the Ministry of Commerce's statement on June 17th that it had initiated a case review of Zhejiang Rongxin's acquisition of Hengsheng Electronics. "The case review is a routine review procedure because we have triggered the declaration and review requirements." "Filing a case" means that the Ministry of Commerce has formally accepted the materials we submitted for review, initiated relevant review procedures, rather than what is commonly referred to by the public. "Any progress will be announced to investors in a timely manner through Hengsheng Electronics' listed company," said Huang Chenli, the investment director of Zhejiang Rongxin, in an exclusive interview with 21st Century Business Herald reporters. Huang Chenli stated that Zhejiang Rongxin proactively applied to the Ministry of Commerce for "review." "After signing the contract on April 1st, Zhejiang Rongxin verbally communicated with the Ministry of Commerce and subsequently submitted written materials for review." The reason is that the domestic operating income of the acquirer, the target company, and their related parties and controlling subsidiaries in 2013 has reached the declaration threshold stipulated by the Anti-Monopoly Law. Zhejiang Rongxin acquired 100% of Hengsheng Group's shares for 3.299 billion RMB in cash. After the transaction is completed, through Hengsheng Group, it holds 20.62% of Hengsheng Electronics' shares, becoming the controlling shareholder of Hengsheng Electronics, which falls under "concentration of operators." According to the Anti-Monopoly Law, the "concentration of operators" reaching the following criteria requires a "declaration": the total operating income of all operators participating in the concentration in the previous accounting year in China exceeds 2 billion RMB, and at least two operators had operating income exceeding 400 million RMB in the previous accounting year in China. Hengsheng Electronics' annual report shows that its revenue exceeded 1.2 billion RMB last year, while Zhejiang Rongxin's revenue was only over 20 million RMB. Huang Chenli explained, "Although Rongxin is very small, when including related parties, including all controlled subsidiaries and affiliated companies, we exceed this threshold, so we need to make a declaration." The debate over Hengsheng's "monopoly" comes from a set of data in its 2012 annual report. As a core provider of institutional trading and clearing systems, Hengsheng Electronics has market shares of 93%, 80%, 90%, and 75% in the core markets of funds, securities firms, insurance, and trust asset management, respectively. In fact, an informed source told 21st Century Business Herald reporters that the entry barrier for the financial IT service industry is very low, requiring no license and no specific financial strength, with thousands of large and small companies in the industry. The market share mentioned in the annual report should more accurately be called "coverage rate" or "penetration rate." When calculating, "all companies that have ever purchased any size of products and services from Hengsheng Electronics are included, but more accurately, it should be calculated based on the percentage of sales revenue." Another set of data that can be used as evidence is: Golden Wisdom (600446) 2013 annual report shows that Golden Wisdom has an absolute advantage in the new fund IT business market, occupying over 60% of the incremental market share. In the field of regional equity trading, the company's market share in the segmented market was close to 70% in 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>前言：油价跳升逾6%创一个月最大周度升幅，受美国原油库存意外减少支撑。油价4月8日跳升逾6%，且本周升幅为一个月最大，因美国EIA原油库存意外减少，助燃了对持续近两年的全球供应过剩情况可能正接近转折点的希望。美国原油期货上扬2.46美元，或6.6%，收报每桶39.72美元，盘中逼近40美元。布伦特原油期货大涨2.51美元，或6.4%，收报每桶41.94美元，盘中曾升至42美元之上。据本周早些时候公布的数据显示，美国上周原油库存出人意料地大幅下降，且来自于炼厂的需求强劲增长。这帮助驱散了市场有关油价上涨可能会促使页岩油生产商迅速作出反应以提高产量的担忧情绪。美国活跃钻机数本周减少8座至354，连续第三周创至2009年11月来最低，因尽管油价自2月触及的13年低位强劲反弹约50%，但能源公司依然持续削减开支。?多哈会谈可能有除冻结在1月产量以外的其他选项，产油国目前正探讨将产量冻结在1月水平。俄罗斯2016年全年日均产油量将不会超过1月水平；预计全年国内石油行业投入将持平。俄罗斯2016年石油出口可能较去年稍有增加，提高出口与冻结产量并不矛盾。已有18个国家确认对多哈会议施以援手，产油国有权追求公平的油价。第一步是冻结石油产量，如果冻产协议并未奏效，接下来就会削减石油产量，委内瑞拉预计油价会处于50-60美元/桶。天盛老师认为，美联储主席耶伦今天凌晨表示美国经济取得重大改善，复苏进程虽缓慢但步伐坚定，言论打消了市场对美国经济发展的担忧；此外，即将在4月17日举行的多哈冻产会议依旧是推动油价的重要因素。基于原油库存下降，未来六个月内油市或会恢复平衡，年中或推动油价上涨至47美元/桶。天盛老师看法:我认为，目前的油价是无法维持下去的，并预计当市场平衡状况在今年中期和下半年变得更好时，油价将在根本上回弹。这种复苏将耗时良久笔者寄语：本人【天盛解盘】威信：sz88066yy，是一名高级金融分析师，今天有所感慨特写此篇文章，希望找到有共鸣的人一起探讨国际金融形势。本人认为，投资如同钓鱼，每次抛出去的钩并不见得都有收获，但你心中要永远寄予希望，经得起鱼漂的上下沉浮，把握好手中的这根鱼竿，娴熟的技巧来自于时间的积累。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Preface: Oil prices surged more than 6%, marking the largest weekly gain in a month, supported by an unexpected decrease in U.S. crude inventories. Oil prices jumped over 6% on April 8th, with the weekly increase being the largest in a month, as U.S. EIA crude inventories unexpectedly decreased, fueling hopes that the nearly two-year global supply glut situation may be nearing a turning point. U.S. crude oil futures rose by $2.46, or 6.6%, to settle at $39.72 per barrel, approaching $40 during trading. Brent crude futures surged by $2.51, or 6.4%, to settle at $41.94 per barrel, briefly rising above $42 during trading. Data released earlier this week showed a significant drop in U.S. crude inventories last week, driven by strong demand from refineries. This helped dispel concerns in the market that rising oil prices might prompt shale oil producers to quickly ramp up production. The number of active drilling rigs in the U.S. decreased by 8 this week to 354, marking the lowest level since November 2009 for the third consecutive week, as energy companies continue to cut spending despite a strong rebound of about 50% in oil prices from the 13-year low touched in February. The Doha talks may have options other than freezing production at January levels, with oil-producing countries currently discussing freezing production at January levels. Russia's average daily oil production for the full year of 2016 will not exceed the January level; it is expected that domestic investment in the oil industry will remain stable throughout the year. Russia's oil exports in 2016 may slightly increase compared to last year, and increasing exports is not contradictory to freezing production. Eighteen countries have confirmed their support for the Doha meeting, with oil-producing countries having the right to pursue fair oil prices. The first step is to freeze oil production, and if the production freeze agreement does not work, the next step will be to cut oil production. Venezuela expects oil prices to range between $50-60 per barrel. Teacher Tiansheng believes that Federal Reserve Chair Yellen stated early this morning that the U.S. economy has made significant improvements, and although the recovery process is slow, it is steady, dispelling concerns about the development of the U.S. economy in the market; in addition, the upcoming Doha production freeze meeting on April 17th remains an important factor driving oil prices. Based on the decrease in crude oil inventories, the oil market may rebalance within the next six months, potentially pushing oil prices up to $47 per barrel by mid-year. Teacher Tiansheng's opinion: I believe that the current oil prices are unsustainable, and I expect that when the market balance improves in the middle and second half of this year, oil prices will fundamentally rebound. This recovery will take a long time. The author's message: I, "Tiansheng Jiepan," contact: sz88066yy, a senior financial analyst, wrote this article today with some emotions, hoping to find like-minded individuals to discuss the international financial situation together. I believe that investing is like fishing, not every cast of the hook will yield results, but you must always keep hope in your heart, withstand the ups and downs of the fishing float, and master the fishing rod in your hand. Skillful techniques come from the accumulation of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>【概要】涉嫌危险驾驶两豪车司机被刑拘 现场遗落的一只高跟鞋。有网友质疑，事发时车内是否有其他人在场。 行车仪显示，事发前，兰博基尼和法拉利两车车头相对。 事发现场一片狼藉昨天下午，经进一步调查取证，警方确认在11日晚大屯路隧道交通事故中，两名涉事司机存在飙车行为，两人目前因涉嫌危险驾驶罪被依法刑事拘留。而在此消息发布不久后，又有网友发布了一段事发前视频，带来了更多疑点。今天凌晨，记者重返事发现场，发现超速安全隐患仍然存在。进展两飙车司机被刑拘在事发当日，警方排除了两辆豪车驾驶员存在酒驾的嫌疑。昨天，北京市交管局发布了调查的最新结果，警方经进一步调查取证，认为事发时，法拉利驾驶员于某、兰博基尼驾驶员唐某存在驾驶机动车追逐竞驶，属违法行为。警方认定，两车在隧道内行驶过程中，瞬间时速超过160公里，目前两人被公安机关以涉嫌危险驾驶罪依法刑事拘留。探究炒股挣钱买了兰博基尼“不是富二代，就是官二代！”面对这样的豪车相撞事件，此前网友们对于车主身份众说纷纭。官方发布的信息中显示，20岁的于某为吉林长春人，21岁的唐某为北京人，两人均无业，对于两名车主的身份，官方信息虽然并没有解释太透彻，但也有网友称，车主家庭并未达到“非富即贵”的程度。“兰博基尼车主曾是一名职业台球手，很小的时候圈子里就已经很有名了。”而还有网友称可以证实，于某目前确无工作，之前所谓的在某高校就读纯属推论。唐某母亲在接受采访时说，“他只是一个普通的小孩儿，我们家祖宗三代都是老北京，没有任何背景。”唐某的母亲李女士称，一家人非官非商，“这句话我可以负法律责任。”最近两年，唐某开始投身股市，和朋友一起学习炒股。恰逢股市行情不错，炒股赚了一些钱。今年春节前，唐某用炒股挣的钱，加上唐父赞助的一部分，买下一部绿色的兰博基尼。两涉事车均不是SCC会员在事故发生后，撞损的兰博基尼轿车被拉上拖车，送往北京超跑汽车服务有限公司修理。有的网友猜测，兰博基尼车主可能是超跑俱乐部成员。昨天，SCC超跑俱乐部创始人之一的“CC可乐”在微博中表示，涉事的法拉利和兰博基尼均不是SCC会员。昨天下午，记者在SCC旗下的维修公司看到，兰博基尼并未开始修理，只是被蒙上了车罩后，停放在车库内。维修工人说，动手修理可能还得有一段时间，因为车辆损坏严重，光是检查就需要花费大量的时间和精力。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>【Summary】Two drivers suspected of dangerous driving in two luxury cars were criminally detained. A high-heeled shoe left at the scene. Some netizens questioned whether there were other people in the car at the time of the incident. The dashcam footage shows that before the incident, the Lamborghini and Ferrari were facing each other. The scene of the incident was chaotic yesterday afternoon. After further investigation and evidence collection, the police confirmed that in the traffic accident at Datun Road Tunnel on the evening of the 11th, the two drivers involved were engaged in illegal street racing behavior. They are currently criminally detained on suspicion of dangerous driving. Shortly after this news was released, another netizen posted a video before the incident, raising more doubts. Early this morning, reporters returned to the scene of the incident and found that overspeed safety hazards still existed. Progress: Two street racing drivers were criminally detained on the day of the incident, the police ruled out the suspicion of drunk driving for the drivers of the two luxury cars. Yesterday, the Beijing Municipal Traffic Management Bureau released the latest results of the investigation, stating that after further investigation and evidence collection, the police believed that at the time of the incident, the Ferrari driver Yu and the Lamborghini driver Tang were engaged in illegal street racing behavior. The police determined that the two cars exceeded 160 kilometers per hour in the tunnel, and currently both individuals have been criminally detained by the public security organs on suspicion of dangerous driving. Investigating stock trading to buy a Lamborghini "Either born rich or born into an official family!" Faced with such a collision of luxury cars, netizens had various opinions on the identities of the owners. Official information shows that Yu, 20, is from Changchun, Jilin, and Tang, 21, is from Beijing. Both are unemployed. Although the official information did not explain the identities of the two owners in detail, some netizens claimed that the families of the owners did not reach the level of "either rich or noble." "The Lamborghini owner used to be a professional billiards player and was well-known in the circle since childhood." Another netizen confirmed that Yu currently has no job, and his previous claim of studying at a certain university was purely speculative. When interviewed, Tang's mother said, "He is just an ordinary child. Our family has been Beijingers for three generations, with no background." Tang's mother, Ms. Li, stated that their family is neither official nor business-related, "I can take legal responsibility for this statement." In the past two years, Tang started investing in the stock market and made some money with friends. With the good stock market performance, before the Spring Festival this year, Tang used the money earned from stock trading, along with some sponsorship from his father, to buy a green Lamborghini. Both vehicles involved are not SCC members. After the accident, the damaged Lamborghini was towed to Beijing Supercar Automotive Service Co., Ltd. for repairs. Some netizens speculated that the Lamborghini owner might be a member of a supercar club. Yesterday, one of the founders of the SCC Supercar Club, "CC Cola," stated on Weibo that the Ferrari and Lamborghini involved were not SCC members. Yesterday afternoon, reporters saw at the repair company under SCC that the Lamborghini had not yet been repaired and was covered with a car cover, parked in the garage. The repair workers mentioned that it might take some time to start repairs because the vehicle was severely damaged, and just the inspection would require a significant amount of time and effort.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>近日，记者发现苏宁易购医药馆官网已经上线。近几年，苏宁从线下家电连锁转型综合型电商，而现在也开始涉足医药电商第三方平台。在苏宁易购医药馆的官网上，目前保健类、成人用品类、养生类、医疗器械和隐形眼镜可以购买，不过，记者注意到其销售的范围暂时还不包括OTC药品，而其自营商品也多为保健养生类。目前，苏宁易购医药馆已经入驻的商家有好药师大药房、正园堂大药房、杜蕾斯、亨博士、上元堂、冈本、鱼跃、汤臣倍健、新新人、养生堂、欧姆龙、海尔等。 近日，在朋友圈广传的高薪招聘贴《【镀金机遇】某知名电商平台招聘医药电商采购总监、运营总监》引人关注，其以月薪1-2万招聘采购总监和运营总监。记者在拨通其预留的联系电话时发现，其号码归属地为江苏南京。多位医药电商从业者猜测其为苏宁易购。苏宁易购在早期是否就有所布局医药电商领域？其是否有实力在这众巨头企业都“趋之若鹜”的医药电商大蛋糕上分得一杯羹？2015年10月的一篇文章显示，苏宁云商宣布与国际制药品牌辉瑞制药达成合作，帮助其打开国内电商市场通道。记者查询国家食药监总局官网信息发现，苏宁易购在2016年1月14日就已经获得了《互联网药品信息服务资格证书》。苏宁云商在2016年半年报披露，其在2016年上半年实现营业收入为687.15亿元，同比上年增长9.01%；归属于上市公司股东的净利润为-1.21亿元，同比增长-134.79%，其在互联网业务方面同比增长80.31%。2016年，苏宁的互联网零售CPU能力是在逐步凸显的。在线上零售方面，不断在丰富产品结构。苏宁表示，接下来也将加强健康、家居类产品的推广和O2O的运营等。事实上，除了苏宁在2015年推出的医疗众筹项目“呼吸卫士”外，苏宁在医疗领域的布局一直比较少。据广州恒生一位医药分析人士称，医药电商领域最有发展优势的还是在医药体系中的医药电商公司以及在医药配送领域较为成熟的公司。国务院办公厅印发的《关于城市公立医院综合改革试点的指导意见》中提出，推进医药分开，力争到2017年试点城市公立医院药占比(不含中药饮片)总体降到30%左右。这意味着未来更多的药品将在药店和电商平台流通。而面对医药电商这块市场蛋糕，除即将入场的苏宁之外的众多互联网巨头企业早已做好准备。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Recently, reporters found that Suning's online pharmacy official website has been launched. In recent years, Suning has transformed from an offline home appliance chain to a comprehensive e-commerce platform, and now it is also entering the third-party platform of pharmaceutical e-commerce. On the official website of Suning's online pharmacy, currently available for purchase are health care products, adult products, health products, medical devices, and contact lenses. However, the range of products currently sold does not include OTC drugs, and most of its self-operated products are related to health and wellness. Currently, the merchants that have settled in Suning's online pharmacy include Haoyao Shi Pharmacy, Zhengyuantang Pharmacy, Durex, Dr. Hahn, Shangyuantang, Okamoto, Fish Leap, Tongrentang, Xinxinren, Yangshengtang, Omron, Haier, etc. Recently, a high-paying recruitment post widely circulated on social media titled "【Golden Opportunity】A well-known e-commerce platform is recruiting a director of pharmaceutical e-commerce procurement and operations director" has attracted attention, offering a monthly salary of 10,000 to 20,000 yuan for these positions. When reporters called the contact number provided, they found that the number is located in Nanjing, Jiangsu Province. Many pharmaceutical e-commerce practitioners speculate that it may be related to Suning. Did Suning lay out in the field of pharmaceutical e-commerce in the early days? Does it have the strength to grab a share of the pharmaceutical e-commerce market that all major players are eyeing? An article from October 2015 shows that Suning Cloud Business announced a cooperation with the international pharmaceutical brand Pfizer to help it enter the domestic e-commerce market. A search on the official website of the National Medical Products Administration revealed that Suning's online pharmacy obtained the "Internet Drug Information Service Qualification Certificate" on January 14, 2016. In the first half of 2016, Suning Cloud Business disclosed in its interim report that its operating income in the first half of 2016 was 68.715 billion yuan, a year-on-year increase of 9.01%; the net profit attributable to shareholders of the listed company was -121 million yuan, a year-on-year increase of -134.79%, with an 80.31% year-on-year growth in Internet business. In 2016, Suning's online retail CPU capabilities gradually became prominent. In terms of online retail, the product structure continues to be enriched. Suning stated that it will also strengthen the promotion of health and home products and the operation of O2O in the future. In fact, apart from the medical crowdfunding project "Respiratory Guardian" launched by Suning in 2015, Suning has been relatively less involved in the medical field. According to a pharmaceutical analyst from Guangzhou Hengsheng, the most promising companies in the field of pharmaceutical e-commerce are those within the medical system and companies with mature pharmaceutical distribution capabilities. The "Guiding Opinions on the Comprehensive Reform Pilot of Urban Public Hospitals" issued by the General Office of the State Council proposes to promote the separation of medicine and medical services, striving to reduce the proportion of drugs in urban public hospitals (excluding Chinese patent medicines) to around 30% by 2017. This means that more drugs will be distributed through pharmacies and e-commerce platforms in the future. Faced with this market opportunity in pharmaceutical e-commerce, besides Suning, many internet giants have long been prepared to enter the field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>▲点击蓝字“二胡”关注，仅限爱好二胡的朋友哦您微信里，不可或缺的二胡小百科二胡教学、二胡演奏 、二胡入门 二胡考级、二胡曲谱、二胡名曲欣赏我们有一个活跃交流的二胡论坛关注进入论坛与二胡老师互动学习！王宁说二胡：二胡初级教学中的音准训练王宁，山东聊城人，中共党员，国家二级演奏员，副教授。毕业于四川音乐学院，重庆市沙坪坝音乐家协会副主席。出版有《二胡研究与训练》、《中外器乐作品赏析》、《中国音乐欣赏》（已作为高校教材）、教育辞典《教育理论与实践》素质教育卷、《高师二胡选修》等专著和合著。发表有《琴声铮铮，珠落玉盘》、《二胡初级训练的美与准》、《二胡快速乐曲中的时间与空间》、《浅谈二胡左手基础音阶练习》等专业论文17篇。录制有：教育电视台《中老年学二胡》四集二胡教学视频。 01音准是弦乐的灵魂，二胡因为没有指板和“品、位”所以音准要依靠手指和听觉来控制，所以加大了初学者对学习二胡的难度。造成二胡音准控制不好的主要原因是内心听觉的缺失，即拉不准自己也听不出来，但是一个正确的手型在加上规范的基本功训练对掌握音准同样重要。一、培养初学者的辨音能力大多数二胡初学者在接触二胡之前是没有经过专业的音乐理论学习的，对于这些初学者来说“音准”在他们脑海中是没有具体概念的。所以我认为在学习二胡的过程中应该着重培养爱好者朋友的辨音能力，让这些初学的朋友们在“音准”上有个具体的概念。通过以下几点可以对他们的基础音准进行纠正与巩固。首先应该要熟悉乐音体系中各音之间的音程关系。比如：1到2是大二度（全音） 3到4是小二度（半音） 并要知道大二度和小二度在二胡上是如何表现出来的。比如D调中上把位3、4两音就是中指与无名指靠近，但G调外弦3、4两音就是食指与中指靠近。第二点就是对“音高”唱名的掌握。学习者一定要把标准音（也就是钢琴上小字一组的a）熟练的辨别出来。能够清晰的辨别出标准音后，再根据音程关系去辨别其它音就没那么难了，只要勤加的练习很快就能掌握。第三点勤听多唱。在练习时要敢于唱，经常唱，大胆唱，听辨着唱。唱的多了自然能发现其错误。有条件的话配上钢琴就会起到事半功倍的作用。二、正确的手型有利于初学者更快的掌握音准二胡不同于琵琶，音有固定的“品”，不同于小提琴，没有指板。二胡必须依靠听觉和手指来控制音高，因而音准的要求便不易达到。在掌握了辨音能力之后还需要调整手指的指距关系。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>▲ Click on the blue word "Erhu" to follow, only for friends who love Erhu in your WeChat. Indispensable Erhu trivia in your WeChat, including Erhu teaching, Erhu performance, Erhu beginner's guide, Erhu grading, Erhu music scores, and appreciation of famous Erhu pieces. We have an active Erhu forum for interaction and learning with Erhu teachers! Wang Ning talks about Erhu: Intonation training in Erhu beginner's teaching. Wang Ning, a native of Liaocheng, Shandong, a member of the Communist Party of China, a national second-level performer, and an associate professor. Graduated from Sichuan Conservatory of Music, he is also the Vice Chairman of the Shapingba Musicians Association in Chongqing. He has published monographs and co-authored works such as "Research and Training of Erhu," "Appreciation of Chinese and Foreign Instrumental Works," "Appreciation of Chinese Music" (already used as a textbook in universities), and educational dictionaries "Educational Theory and Practice" on quality education, "Erhu Elective Course for Higher Normal Schools," etc. He has published 17 professional papers, including "Resonant Sound of the Qin, Pearls Falling on Jade Plates," "The Beauty and Accuracy of Erhu Beginner's Training," "Time and Space in Fast Erhu Pieces," and "A Brief Discussion on Basic Left-hand Scale Exercises for Erhu." He has recorded four episodes of Erhu teaching videos for the educational TV program "Learning Erhu for Middle-aged and Elderly." 01 Intonation is the soul of string instruments. Because the Erhu does not have a fingerboard or "frets," intonation must rely on fingers and hearing to control, which increases the difficulty for beginners to learn Erhu. The main reason for poor intonation control in Erhu is the lack of internal auditory perception. That is, if one cannot play accurately, they also cannot hear it. However, a correct hand position combined with standardized basic training is equally important for mastering intonation. I. Cultivating beginners' ability to distinguish tones. Most Erhu beginners have not undergone professional music theory training before they start learning Erhu, so the concept of "intonation" is not specific in their minds. Therefore, I believe that in the process of learning Erhu, it is essential to focus on cultivating enthusiasts' ability to distinguish tones, allowing these novice friends to have a specific concept of "intonation." The following points can help correct and consolidate their basic intonation. First, one should be familiar with the interval relationships between notes in the musical system. For example, 1 to 2 is a major second (whole tone), 3 to 4 is a minor second (half tone), and one should know how major and minor seconds are expressed on the Erhu. For example, in the key of D, the 3rd and 4th notes on the upper strings are played with the middle and ring fingers close together, while in the key of G, the 3rd and 4th notes on the outer strings are played with the index and middle fingers close together. The second point is mastering the vocal names of "pitch." Learners must be able to identify the standard pitch (the group of small letters on the piano, such as 'a') proficiently. Once one can clearly identify the standard pitch, it is not so difficult to identify other pitches based on interval relationships, and with diligent practice, one can quickly master this skill. The third point is to listen and sing more. When practicing, one should dare to sing, sing frequently, sing boldly, and sing while listening and distinguishing. By singing more, one can naturally discover their mistakes. If possible, using a piano as accompaniment will greatly enhance the learning effect. II. Correct hand position helps beginners grasp intonation faster. Unlike the Pipa, which has fixed "frets" for notes, and unlike the violin, which has a fingerboard, the Erhu must rely on hearing and fingers to control pitch, making it challenging to achieve accurate intonation. After mastering the ability to distinguish tones, it is also necessary to adjust the finger spacing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3月6日，习近平总书记在参加江西代表团审议时强调，要着力推动生态环境保护，走出一条经济发展与生态文明相辅相成、相得益彰的路子，巩固提升江西生态优势，打造生态文明建设的江西样板。这一重要讲话为深入推进我省生态文明先行示范区建设、大力发展生态经济指明了方向。去年，《江西省生态文明先行示范区建设实施方案》得到国务院六部委的正式批复，标志着我省建设生态文明先行示范区上升为国家战略。这一方案的实施，呼应了中央提出要“更加注重建设生态文明”“切实把经济工作着力点放到转方式调结构上”“推动形成绿色低碳循环发展新方式”的新要求，具有重大的现实意义和深远的历史意义。当前，深入贯彻落实总书记重要讲话精神，推动我省生态文明先行示范区建设，努力走出一条经济发展和生态文明相辅相成、相得益彰的路子，一个重要方面就是要以法治建设为抓手，建立健全促进我省绿色发展、循环发展、低碳发展的有效保障机制。建立完备的法律法规是推动生态经济发展的重要一环生态经济的发展有赖于完备的法律法规。目前，我国已经形成以《中华人民共和国环境保护法》为基本法律，以土地管理法、水资源保护法、矿产资源法、大气污染防治法等专门法律为框架的基本健全的环境资源法律体系，这一法律体系在生态环境保护上发挥了重要作用。同时，我们也应看到，各地区之间存在地理气候、经济结构、历史传统、文化风俗等差异，进一步保护生态环境、推动生态经济发展，还需要制定、完善针对性强的地方性法规，确保生态建设各项措施落到实处。我省要打造生态文明建设的江西样板，大力发展生态经济，就必须在地方立法权限内，进一步建立完善适应江西省情的耕地保护、水资源管理、环境保护等地方性法规。要建立完善鄱阳湖生态保护、赣南稀土保护等一系列适应省情的地方性专项立法，建立完善最严格的源头保护制度、损害赔偿制度、责任追究制度和生态补偿制度，依法健全自然资源资产产权制度和用途管制制度，完善自然资源资产管理体制。处理产业转型升级带来的新问题需要依靠法治发展生态经济要求用法治手段处理产业转型升级带来的新问题。新常态下，江西经济的发展应在做大总量的同时注重提升质量，实现产业转型升级。虽然我省的生态环境质量位居全国前列，但随着工业化、城镇化的不断推进，资源、能源和环境压力不断增大。这就要求我们在寻求新的绿色增长点的同时，淘汰一批高污染、高能耗的企业。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>On March 6th, General Secretary Xi Jinping emphasized during the deliberation with the Jiangxi delegation the need to vigorously promote ecological environmental protection, to embark on a path where economic development and ecological civilization complement each other and achieve mutual benefit, to consolidate and enhance Jiangxi's ecological advantages, and to create a model of ecological civilization construction in Jiangxi. This important speech has provided guidance for deepening the construction of the ecological civilization pilot zone in our province and vigorously developing the ecological economy. Last year, the "Implementation Plan for the Construction of Jiangxi Province Ecological Civilization Pilot Zone" received official approval from six ministries of the State Council, marking the elevation of our province's construction of the ecological civilization pilot zone to a national strategy. The implementation of this plan echoes the new requirements put forward by the central government to "pay more attention to building ecological civilization," "effectively focus economic work on transforming development patterns," and "promote the formation of a new way of green, low-carbon, and circular development," which holds significant practical and far-reaching historical significance. Currently, thoroughly implementing the spirit of General Secretary Xi Jinping's important speech, promoting the construction of the ecological civilization pilot zone in our province, and striving to embark on a path where economic development and ecological civilization complement each other and achieve mutual benefit, one important aspect is to take the construction of the rule of law as the starting point, establish a sound guarantee mechanism to promote green development, circular development, and low-carbon development in our province. Establishing a complete set of laws and regulations is an important part of promoting the development of the ecological economy. The development of the ecological economy relies on a complete set of laws and regulations. At present, China has formed a basic and sound legal system for environmental resources with the "Environmental Protection Law of the People's Republic of China" as the basic law and specialized laws such as the Land Management Law, Water Resources Protection Law, Mineral Resources Law, and Air Pollution Prevention and Control Law as the framework, which has played an important role in environmental protection. At the same time, we should also see that there are differences among regions in terms of geographical climate, economic structure, historical traditions, and cultural customs. To further protect the ecological environment and promote ecological economic development, it is necessary to formulate and improve targeted local regulations to ensure that various measures for ecological construction are implemented. In order to create a model of ecological civilization construction in Jiangxi and vigorously develop the ecological economy, it is necessary to further establish and improve local regulations for land protection, water resource management, and environmental protection that are adapted to the situation in Jiangxi within the scope of local legislative authority. It is necessary to establish and improve a series of local special laws adapted to the provincial situation, such as the protection of Poyang Lake and the protection of rare earths in southern Jiangxi, and to establish and improve the strictest source protection system, damage compensation system, accountability system, and ecological compensation system, legally improve the system of property rights and use control of natural resources, and improve the management system of natural resource assets. Dealing with new problems brought about by industrial transformation and upgrading requires relying on the rule of law. Developing the ecological economy requires using legal means to address new problems brought about by industrial transformation and upgrading. In the new normal, the development of Jiangxi's economy should focus on increasing quality while expanding quantity, and achieve industrial transformation and upgrading. Although the quality of our province's ecological environment ranks among the top in the country, with the continuous advancement of industrialization and urbanization, the pressure on resources, energy, and the environment continues to increase. This requires us to seek new green growth points while phasing out a number of highly polluting and energy-intensive enterprises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2016年3月24日，哈佛大学校长福斯特应邀访问美国陆军学院西点军校。在该校罗宾逊礼堂所发表的演讲中，她坚持自己一贯的主张——人文教育在大学中具有重要作用。针对军队院校培养军事领导人的特点，福斯特强调指出，人文教育在高效率的领导力中具有重要而不可替代的价值。来到西点军校，我倍感荣幸。我的家庭和军队有着很深的渊源，我的曾祖父1883年毕业于西点军校，我们家里一直以此为豪。我曾祖父叫Lawrence Davis Tyson，我最近拿到他的成绩单，我才发现，他在他的年级里排名51。 这可能听起来不算差，但其实当年他所在的年级只有52人。他的成绩比1861年毕业的George Armstrong Custer（美国内战著名将军卡斯特）好，卡斯特是1861年毕业那届倒数第一；但是没有Ulysses Grant（尤里西斯·格兰特，美国第18任总统）好，1843年毕业的39人中，格兰特总统排名第21。格兰特总统曾说过，当时在西点军校时，他常常花很多时间看小说。最近我在读我曾祖父的遗稿，我发现他和格兰特总统相似，都喜爱文字。我的曾祖父年轻时是少尉，曾在美国西部驻扎。就是当时，他遇到了我的曾祖母，开始给她写各种深情款款而又充满诗意的情书。他甚至在其中一封中这样写道，“我怕我写的太频繁你会厌烦。”在他们认识以后的第一个圣诞，二人互送礼物，是剑形的围巾扣。我的曾祖父把这看做二人结合的信物，他说，“再也没有争吵，没有战争...我们两个人已经对彼此缴械投降。”后来，我的曾祖父在第一次世界大战中升任将军，当选为美国参议院的参议员，在任上去世。而今天来到西点，我想谈谈，语言对于领导力、富有感染力的言论对于一个领袖、以及人文科学及艺术对于培养这些品质的重要性。在西点谈领导力似乎有点“班门弄斧”，毕竟西点从1802年就开始成为领袖训练营了──尽管可能不为世人所知。“领导力”一词，从19世纪末开始，大量地出现于书中──亚马逊上关于它的书有18万多本，哈佛大学的图书馆里关于领导力的索引也有170多万条。但是我们看到，这么多关于领导力的书，真正成为领袖的人却很少。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>On March 24, 2016, Harvard University President Faust was invited to visit the United States Military Academy at West Point. In her speech delivered at Robinson Hall, she insisted on her consistent belief that humanistic education plays an important role in universities. Addressing the characteristics of military academies in cultivating military leaders, Faust emphasized that humanistic education holds significant and irreplaceable value in effective leadership. Visiting West Point, I feel doubly honored. My family has deep roots in the military, as my great-grandfather graduated from West Point in 1883, a fact of which our family has always been proud. My great-grandfather's name was Lawrence Davis Tyson, and I recently obtained his transcript, only to discover that he ranked 51st in his class. This may not sound bad, but in fact, there were only 52 people in his class. His grades were better than George Armstrong Custer, a famous general in the American Civil War, who graduated last in his class in 1861; however, they were not as good as Ulysses Grant, the 18th President of the United States, who ranked 21st out of 39 graduates in 1843. President Grant once said that during his time at West Point, he spent a lot of time reading novels. Recently, as I read my great-grandfather's memoirs, I found that he was similar to President Grant in his love for literature. When my great-grandfather was a young lieutenant stationed in the American West, he met my great-grandmother and began writing her various affectionate and poetic love letters. In one of the letters, he even wrote, "I fear I write too frequently and you may become tired of it." On their first Christmas together after they met, they exchanged gifts, which were sword-shaped scarf pins. My great-grandfather saw this as a symbol of their union, saying, "No more quarrels, no more wars... we have both surrendered to each other." Later, my great-grandfather was promoted to general in World War I, elected as a senator in the United States Senate, and passed away while in office. Today, being at West Point, I want to talk about the importance of language in leadership, the influential words of a leader, and the significance of humanities and arts in cultivating these qualities. Discussing leadership at West Point may seem a bit redundant, as West Point has been a leadership training ground since 1802, although it may not be widely known. The term "leadership" began to appear extensively in books from the late 19th century onwards—there are over 180,000 books on leadership on Amazon, and Harvard University's library has over 1.7 million references on leadership. However, despite the abundance of books on leadership, there are very few who truly become leaders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 所谓“窑变”，主要是指瓷器在烧制过程中，由于窑内温度发生变化导致其表面釉色发生的不确定性自然变化。古人对窑变的定义，相对来说，更加宽泛，甚至将瓷器器型的变化也包括在内。例如《稗史汇编》认为：“瓷有同是一质，遂成异质，同是一色，遂成异色者。水土所合，非人力之巧所能加，是之谓窑变。”而在《古物指南》、《陶成记事碑记》中，则进而将“人巧”所为的釉色变化，增加进了“窑变”之中。《景德镇陶录》也认为：“窑变之器有三：二为天工，一为人巧。其由天工者，火性幻化，天然而成……；其由人巧者，则工故以釉作幻色物态，直名之曰窑变，殊数见不鲜耳。”对这种具体的“人巧”之法，《南窑笔记》记载道：“法用白釉为底，外加釉里红元子少许，罩以玻璃红宝石晶料为釉，涂于胎外，入火藉其流淌，颜色变幻，听其自然，而非有意预定为某色也。其复火数次成者，其色愈佳。”而这种“人巧”的窑变也往往不是一种特定的色彩。窑变的结果，不外两种情况：一是窑病，二是窑宝。《南窑笔记》说：“釉水色泽，全资窑火，或风雨阴霾，地气蒸湿，则釉色黯黄惊裂，种种诸疵，皆窑病也。必使火候釉水恰好，则完美之器十有七八矣。又有窑变一种，盖因窑火精华凝结，偶然独钟，天然奇色，光怪可爱，是为窑宝，邈不可得。” 古人对窑变的认知古人对窑变有很多的记载。如《清波杂志》说："饶州景德镇，大观间有窑变，色红如朱砂。物反常为妖，窑户亟碎之。"当时的陶工从来没有看见过这种现象，觉得不可思议，于是就从迷信的角度来理解，认为它是"妖"。但久而久之，窑户们反而发现其形态极美，或如灿烂云霞，或如春花秋云，或如大海怒涛，或如万马奔腾，因而被视为艺术瓷釉为人们所欣赏。如宋代河南禹县钧窑生产的铜红窑变，可谓变化莫测，鬼斧神工。清以前景德镇窑偶尔烧制的窑变釉瓷多被捣毁，至清时则作为著名色釉而专门生产，据《南窑笔记》载，清代生产的窑变釉，虽入火使釉流淌，颜色变化任其自然，非有意预定为某种色泽，但已经能人为配置釉料，较好的控制火候，基本上掌握了窑变的规律。著名的如康熙朝创烧的豇豆红、苹果绿等品种。 窑变的真实原因可以说，窑变的成因有很多种，以钧窑为例，比较主要的有以下几种：独有的原料钧瓷所用矿物原料均为禹州当地所产，这些原料成分复杂，含有多种微量元素，本身多带有不同的颜色。原料中即使是同一种矿物质，由于所处矿床的位置不同和加工方法的不同，其物理和化学性能也会存在一定的差异。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The so-called "kiln change" mainly refers to the uncertainty natural change in the glaze color of ceramics during the firing process due to the temperature changes inside the kiln. The ancient definition of kiln change is relatively broad, even including changes in the shape of ceramics. For example, "Bai Shi Hui Bian" believes: "Ceramics of the same material, eventually become different materials, of the same color, eventually become different colors. The combination of water and soil is beyond the skill of man, this is called kiln change." In "Gu Wu Zhi Nan" and "Tao Cheng Ji Shi Bei Ji," the glaze color changes made by "skillful craftsmen" are further included in the category of "kiln change." "Jingdezhen Ceramic Records" also states: "There are three types of kiln-changed vessels: two are created by nature, and one is created by human skill. Those created by nature, undergo a transformation of fire and naturally form...; those created by human skill, are made by craftsmen using glaze to create illusionary colors and textures, directly named kiln change, not uncommon to see." Regarding the specific "skillful craftsmanship," "Nan Yao Notes" records: "The method uses white glaze as the base, adding a small amount of red cobalt inside the glaze, covering it with glass red gem crystal material as the glaze, applying it to the body, allowing it to flow in the fire, the color changes, listening to its natural state, rather than intentionally predetermined as a certain color. The more times it is fired, the better the color." This kind of "skillful craftsmanship" kiln change is often not a specific color. The result of kiln change is either kiln disease or kiln treasure. "Nan Yao Notes" states: "The color of the glaze depends entirely on the kiln fire, if affected by wind, rain, overcast skies, or damp earth, the glaze color will become dull, yellow, cracked, and various defects, all of which are kiln diseases. Only when the firing temperature and glaze are just right, can a perfect vessel be achieved. There is also another type of kiln change, which is due to the condensation of the essence of the kiln fire, occasionally unique, naturally displaying strange and lovely colors, known as kiln treasure, rare and unattainable." Ancient people had many records of kiln change. For example, "Qing Bo Za Zhi" states: "In Jiaozhou Jingdezhen, there is a kiln change, red like cinnabar. The object is abnormal and considered demonic, causing the kiln to break frequently." At that time, the potters had never seen such a phenomenon before and found it unbelievable, so they interpreted it from a superstitious perspective, believing it to be "demonic." However, over time, the kiln workers discovered that its form was extremely beautiful, resembling brilliant clouds, spring flowers, autumn clouds, raging seas, galloping horses, and thus it was appreciated as artistic ceramic glaze by people. For example, the copper-red kiln change produced by the Jun kiln in Yuxian, Henan during the Song Dynasty was unpredictable and extraordinary. Before the Qing Dynasty, the kiln-changed glazed ceramics occasionally fired in Jingdezhen were mostly destroyed, but by the Qing Dynasty, they were specifically produced as famous colored glazes. According to "Nan Yao Notes," the kiln-changed glazes produced in the Qing Dynasty, although the glaze flows naturally when fired, the color changes naturally without intentional predetermination of a certain color, craftsmen were able to mix glaze materials and control the firing temperature better, essentially mastering the rules of kiln change. Famous varieties include the "Bean Red" and "Apple Green" created during the Kangxi reign. The true cause of kiln change can be said that there are many reasons for the occurrence of kiln change. Taking the Jun kiln as an example, the main reasons are as follows: the unique raw materials used in Jun porcelain are all locally produced in Yuzhou, these raw materials have complex compositions, containing various trace elements, and inherently have different colors. Even if the raw materials are the same mineral, due to different locations of the ore deposits and processing methods, there will be certain differences in their physical and chemical properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>很多的外贸人在对于外贸物流上有一个很大的很大的误区，有的时候都绕晕了。这个我们就不得不提到清关。其实很多外贸人认为这是货代的责任。可是外贸老鸟很清楚，物流只是负责运输，关于运输的问题会尽最大的努力去解决，可是关于清关的问题，这个就不归业务员管了。接下来就好好听一下上海腾道对于清关的解释吧！ 快递的增值服务，造成了外贸人对清关的最大误区：四大快递（DHL、UPS、FEDEX、TNT）外加EMS和Aramex等一些专线渠道，这些渠道都是属于传统意义的快递行业，门到门服务，快递公司对这批所有的货物进行统一报关，到了目的地国家，快递公司会把所有货物进行统一清关，也就是我们说的快递公司会先帮你的货物解决清关。但是在这个过程中，如果是因为你的货物本身问题和敏感货以及品名不符合等问题产生了无法清关，那么这个时候DHL或者UPS就会提示要求请收件人联系当地DHL或者UPS（很多外贸人看到官网上这样的提示都吓得不轻，其实只是很小的问题，给客户发封邮件让他联系当地的DHL或者UPS就OK了）。很多外贸人，尤其是新手开始的，可能第一单就是个小快递，走了DHL出去，发现也没什么，顺利清关到达客户手上，于是开始在他们的思想上形成了“货代就是可以解决清关的”的想法，慢慢的这种思想它根深蒂固了，就算到了后面纠正了这一错误，还是会经常习惯性的认为是货代的责任。还有一种外贸人，他们很清楚的知晓目的地的清关是客户来负责，但是出了问题之后，他铁板钉钉的认为是货代的责任，因为快递就是门到门的，这中间的任何问题都需要你来负责的。其实货物的通关很简单（针对普货货物的公司来说），影响通关的要素有哪些？不同国家分别不同的，最常见的影响因素：货值，发票品名，是否带电，敏感货危险品等。货值是外贸人最常操作的，为了给客户省关税，申报写低，这很正常，但是不要写的太低嘛，假如因为低申报问题导致货物被扣住了，这个问题你考虑过了吗？发票品名，品名和实际货物不符合，这一点现在还是出现的比较少的。电池货，每年都会因为这个问题严查几天，或者渠道暂停接带电产品。有些人故意隐瞒，在货物中隐藏电池，当无电产品出，被查到了，就等着被扣件退回吧。敏感货，市场上敏感货太多了，一般针对敏感货，货代都会有公司的敏感渠道来运行这些货物的，基本上走敏感渠道比较保险的，货物也可以顺利到达客户手上。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Many foreign trade practitioners have a big misconception about foreign trade logistics, sometimes getting confused. This leads us to mention customs clearance. In fact, many foreign traders believe this is the responsibility of freight forwarders. However, experienced foreign traders are well aware that logistics is only responsible for transportation, and will make every effort to solve transportation-related issues. But when it comes to customs clearance, this is no longer the responsibility of the salesperson. Next, let's listen carefully to Shanghai Tengdao's explanation of customs clearance! The value-added services of express delivery have caused the biggest misconception among foreign traders about customs clearance: the four major express delivery companies (DHL, UPS, FEDEX, TNT) plus EMS and Aramex and other specialized channels. These channels belong to the traditional express delivery industry, providing door-to-door services. The express delivery companies handle unified customs declaration for all these goods, and upon arrival at the destination country, the express delivery companies will handle unified customs clearance for all goods, which means the express delivery companies will help clear customs for your goods. However, during this process, if there are issues with your goods themselves, such as sensitive items or discrepancies in product names, causing customs clearance problems, then DHL or UPS may request the recipient to contact the local DHL or UPS (many foreign traders are often frightened when they see such prompts on the official website, but it's actually a minor issue; just send an email to the customer asking them to contact the local DHL or UPS). Many foreign traders, especially beginners, may have their first order shipped out via DHL, find that everything goes smoothly, and the goods reach the customer successfully. This may lead them to form the idea that "freight forwarders can handle customs clearance." Gradually, this idea becomes deeply rooted, and even if this misconception is corrected later on, they still tend to habitually believe that it is the responsibility of the freight forwarder. There is another type of foreign trader who is well aware that customs clearance at the destination is the customer's responsibility. However, when problems arise, they firmly believe it is the responsibility of the freight forwarder because express delivery is door-to-door, and any issues in between need to be handled by you. In fact, customs clearance is very simple (for companies dealing with general goods). What are the factors that affect customs clearance? They vary from country to country, but the most common influencing factors are: the value of the goods, the invoice description, whether they are electric, sensitive goods, dangerous goods, etc. The value of the goods is what foreign traders often manipulate. To save customers on customs duties, they declare a lower value, which is normal. But don't declare too low. Have you considered the problem if the goods are detained due to under-declaration? The invoice description, where the description does not match the actual goods, is still relatively rare. Battery goods are scrutinized every year for a few days due to this issue, or channels may temporarily stop accepting electronic products. Some people intentionally conceal batteries in the goods. When non-electronic products are found to have batteries, they can expect the goods to be detained and returned. Sensitive goods, there are too many sensitive goods on the market. Generally, for sensitive goods, freight forwarders will have their own channels to operate these goods. It is generally safer to use sensitive channels, and the goods can reach the customer smoothly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>我是美缝人勤勤恳恳的人从小我就听妈妈的话先辈的故事伴我长大我是美缝人堂堂正正的人他们说男儿要勇闯天下女人要勤勤恳恳守住家我是美缝人大大方方的人从小就挨过爸爸的打他说打过才知道理是啥我是美缝人实实在在的人人生要尝遍酸甜苦辣做人要堂堂正正苦不怕我是美缝人忠孝是我的根爱国爱家爱爹爱妈走遍天涯把她牵挂我是美缝人情义是我的魂敢做敢当敢拼敢闯路遇不平出手相帮人之初 性本善性相近 习相远苟不教 性乃迁教之道 贵以专玉不琢 不成器人不学 不知义为人子 方少时亲师友 习礼仪 从小我就听妈妈的话孔夫子的教导将我启发他说吃亏是福聪明是傻做人要大大方方常报答从小就挨过爸爸的打他说打的是我疼的是他不打不成器就怕没出息我是美缝人忠孝是我的根爱国爱家爱爹爱妈走遍天涯把她牵挂我是美缝人情义是我的魂敢做敢当敢拼敢闯路遇不平出手相帮做人实实在在有志气 我是美缝人勤勤恳恳的人我是美缝人堂堂正正的人我是美缝人大大方方的人我是美缝人实实在在的人本文章由云美缝（http://www.yunmeifeng.com）编辑并整理发布，如需转载请标明出处。更多精彩内容敬请关注“云美缝”微信公众号。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>I am a diligent and honest person of beauty grout. Since I was young, I have always listened to my mother's words and the stories of my ancestors accompanied me as I grew up. I am a dignified person of beauty grout. They say men should venture bravely into the world, and women should diligently guard their homes. I am a straightforward person of beauty grout. I have been disciplined by my father since I was young. He said that only through discipline can one understand the principles. I am a down-to-earth person of beauty grout. In life, one must experience all the ups and downs, and one must be upright and not afraid of hardships. I am a person of beauty grout. Loyalty and filial piety are my roots. I love my country, my family, my father, and my mother. I travel far and wide, always keeping them in my thoughts. I am a person of beauty grout. Integrity is my soul. I dare to act, dare to take responsibility, dare to strive, and dare to explore. When encountering injustice, I lend a helping hand. Human nature is inherently good, similar at the start but diverging through practice. If not taught, one's nature will change. The way of teaching is to value specialization. Without polishing, jade cannot become a gem. Without learning, one cannot understand righteousness as a son of man. When young, be close to teachers, friends, and learn etiquette. Since I was young, I have listened to my mother's words and the teachings of Confucius have enlightened me. He said that suffering losses is a blessing, being clever is foolish, and one should be generous and always repay kindness. I have been disciplined by my father since I was young. He said that the pain of discipline is for my own good. Without discipline, one will be worthless and afraid of being incompetent. I am a person of beauty grout. Loyalty and filial piety are my roots. I love my country, my family, my father, and my mother. I travel far and wide, always keeping them in my thoughts. I am a person of beauty grout. Integrity is my soul. I dare to act, dare to take responsibility, dare to strive, and dare to explore. When encountering injustice, I lend a helping hand. Being a person of integrity with aspirations, I am a diligent and honest person of beauty grout. I am a dignified person of beauty grout. I am a straightforward person of beauty grout. I am a down-to-earth person of beauty grout. This article is edited and organized by Yunmeifeng (http://www.yunmeifeng.com). If you need to reprint, please indicate the source. For more exciting content, please follow the "Yunmeifeng" WeChat public account.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>本报讯(记者李剑平)4月10日下午，一场创业导师选聘工作在杭州高新区(滨江)众创群英会场紧张地进行，贝壳社董事长姜慧霞、米趣网络CEO毛靖翔等创业“新星”讲述了创业面临的困难与困惑。杭州高新区区长金志鹏说，高新区已涌现出阿里巴巴、华三通信、海康威视等一批在国内外领先的企业，期待更多的“阿里巴巴”与“马云”诞生。“区内有40名人才入选国家 千人计划 、89名人才入选省 千人计划 。”“海归”创业者、聚光科技(杭州)股份有限公司CEO姚纳新说，他1995年赴美国加州大学伯克利分校留学，亲历了本世纪初期美国硅谷的创业浪潮，现在非常愿意与国内的创业人士分享自己的经验教训与人脉资源等。浙江赛伯乐投资管理有限公司总裁陈斌建议，每个创业导师要为创业新星提供各种支持与服务。经过一系列尖锐的提问考察后，拓森电子董事长卢立君、三维通信董事长李越伦、中恒电讯董事长朱国锭等16名企业家被选聘为杭州高新区“大众创业、万众创新”的首批创业导师。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>This report (by reporter Li Jianping) On the afternoon of April 10th, a selection process for entrepreneurship mentors was conducted nervously at the venue of the Zhongchuang Qunying Conference in Hangzhou High-tech Zone (Binjiang). Jiang Huixia, Chairman of Beike Group, and Mao Jingxiang, CEO of MiQu Network, and other entrepreneurial "rising stars" recounted the difficulties and confusion faced in entrepreneurship. Jin Zhipeng, the district head of Hangzhou High-tech Zone, said that the High-tech Zone has seen the emergence of a group of leading companies such as Alibaba, Huawei, and Hikvision at home and abroad, and looks forward to the birth of more "Alibaba" and "Jack Mas". "There are 40 talents selected for the national Thousand Talents Plan and 89 talents selected for the provincial Thousand Talents Plan in the district." Yao Naxin, a returnee entrepreneur and CEO of Juguang Technology (Hangzhou) Co., Ltd., said that he went to the University of California, Berkeley in the United States in 1995, witnessed the entrepreneurial wave in Silicon Valley in the early 21st century, and is now very willing to share his experience, lessons, and network resources with domestic entrepreneurs. Chen Bin, President of Zhejiang Saibole Investment Management Co., Ltd., suggested that each entrepreneurship mentor should provide various support and services for the new entrepreneurial stars. After a series of sharp questioning and inspections, Lu Lijun, Chairman of Tosun Electronics, Li Yuelun, Chairman of 3W Communications, and Zhu Guoding, Chairman of Zhongheng Telecom, and 16 other entrepreneurs were selected as the first batch of entrepreneurship mentors for the "mass entrepreneurship and innovation" in Hangzhou High-tech Zone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2014年10月5日，由上海儿童医学中心卫生部儿童血液肿瘤重点实验室与中国抗癌协会儿童白血病专业委员会联合发起和组织的中国儿童肿瘤（白血病）临床多中心研究协作组宣告成立。该协作组由国内10个省市19家医院和香港地区威尔斯亲王医院加盟，并由美国St. Jude儿童研究医院的专家、新加坡Viva基金会共同参与。全国人大常委会副委员长，中国科学院院士陈竺应邀出席成立仪式并讲话。近年来，强烈化疗和积极支持治疗使儿童急性淋巴细胞性白血病的近、远期疗效获得了显著提高，但仍有近30%的患儿复发，与美国St Jude儿童研究医院依然存在较大差距。因此，2011年上海儿童医学中心与美国St. Jude儿童研究医院牵手，联合成立了国内首个“儿童癌症国际合作中心”，使得国内儿童血液肿瘤疾病的诊治及管理水平又有了提升。本次协作组成立，将以St.Jude的急性淋巴细胞白血病精细化分型、个体化诊治方案为基础，通过方案优化并推出“中国儿童肿瘤协助组-急性淋巴细胞白血病-2015方案（CCCG-ALL-2015方案”，开展多中心临床研究。以期找到适合中国儿童急性淋巴性白血病的最佳诊治方案，促进临床与基础双向转化研究发展，从而提高我国儿童白血病的整体治愈率。成立仪式上，与会专家以“精诚团结、开放合作、协调创新、造福患儿”为主题，讨论了未来协作组的发展方向和具体任务。同时，St.Jude儿童研究医院的科研团队与上海儿童医学中心卫生部儿童血液肿瘤重点实验室也就通过下一代测序技术开展全基因测序，探讨白血病患儿的复发机制的合作研究达成了广泛一致。新加坡Viva基金会表示将募集捐助支持协作组急性淋巴细胞性白血病临床多中心研究。最后，作为一名多年从事白血病研究的工作者陈竺副委员长在讲话中提到，此次儿童白血病的多中心合作在我国儿科医学发展史上具有划时代的重要意义。他对多中心研究协作组的成立表达的三次感谢，首先对支持我国儿童医疗事业发展的医务工作表示感谢，感谢他们在全国新一轮医疗改革的发展进程中起到的引领作用，特别是上海儿童医学中心医疗团队为“新农合”医疗保障体系中儿童先天性心脏病和儿童白血病的诊治体系建设所做的贡献。其次感谢了StJude儿童研究医院20多年来与国内医疗团队的合作，他们不仅带来了全球最先进的白血病治疗方案，并为方案的实施和推广提供了持续的技术支持和保障。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>On October 5, 2014, the Chinese Children's Tumor (Leukemia) Clinical Multicenter Research Collaboration Group, initiated and organized by the Key Laboratory of Children's Hematologic Malignancies of the Shanghai Children's Medical Center under the Ministry of Health and the Pediatric Leukemia Professional Committee of the Chinese Anti-Cancer Association, was officially established. The collaboration group is composed of 19 hospitals in 10 provinces and cities in China, as well as the Prince of Wales Hospital in Hong Kong, with experts from St. Jude Children's Research Hospital in the United States and the Viva Foundation in Singapore participating. Vice Chairman of the Standing Committee of the National People's Congress and academician of the Chinese Academy of Sciences, Chen Zhu, was invited to attend the founding ceremony and delivered a speech. In recent years, intensive chemotherapy and active supportive treatment have significantly improved the short- and long-term efficacy of childhood acute lymphoblastic leukemia, but still about 30% of patients experience relapse, showing a considerable gap compared to St. Jude Children's Research Hospital in the United States. Therefore, in 2011, the Shanghai Children's Medical Center and St. Jude Children's Research Hospital in the United States joined hands to establish the first "International Children's Cancer Cooperation Center" in China, further enhancing the diagnosis, treatment, and management of pediatric hematologic malignancies in the country. With the establishment of this collaboration group, based on the refined subtyping and individualized treatment plans for acute lymphoblastic leukemia by St. Jude, the "China Children's Cancer Group - Acute Lymphoblastic Leukemia - 2015 Protocol (CCCG-ALL-2015 Protocol)" will be optimized and launched for multicenter clinical research. The aim is to find the best treatment plan for Chinese children with acute lymphoblastic leukemia, promote the development of clinical and basic translational research, and ultimately improve the overall cure rate of childhood leukemia in China. During the founding ceremony, experts discussed the future development direction and specific tasks of the collaboration group under the theme of "sincerity, unity, open cooperation, innovative coordination, and benefiting children." Meanwhile, the research team from St. Jude Children's Research Hospital and the Key Laboratory of Children's Hematologic Malignancies at the Shanghai Children's Medical Center also reached a broad consensus on collaborative research on the relapse mechanism of leukemia patients through whole-genome sequencing using next-generation sequencing technology. The Viva Foundation in Singapore expressed its commitment to raising donations to support the multicenter clinical research on acute lymphoblastic leukemia by the collaboration group. Finally, Vice Chairman Chen Zhu, a long-time researcher in leukemia, mentioned in his speech that this multicenter collaboration on childhood leukemia has epoch-making significance in the history of pediatric medicine development in China. He expressed his gratitude three times for the establishment of the multicenter research collaboration group: firstly, he thanked the medical workers who support the development of pediatric medical care in China and their leading role in the national new round of medical reform, especially the medical team at the Shanghai Children's Medical Center for their contributions to the diagnosis and treatment system for congenital heart disease and childhood leukemia in the "New Rural Cooperative Medical System." Secondly, he thanked St. Jude Children's Research Hospital for over 20 years of cooperation with domestic medical teams, bringing the most advanced global leukemia treatment solutions and providing continuous technical support and guarantees for the implementation and promotion of these solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 商务合作微信号：13795485702如果你在佛山有乡下亲戚，请记得，要对他们好一点，因为…… （网络图片）如果你在佛山有乡下亲戚，你可以经常吃到各种无公害、天然有机的瓜果蔬菜： 如果你在佛山有乡下亲戚，你可以经常吃到正宗的土鸡，土鸡蛋： 如果你佛山有乡下亲戚，割禾晒谷了，他们会热情地分你一大包米或粉： 如果你在佛山有乡下亲戚，节假日时可以带你免费游山玩水远离城市的喧嚣： 如果你在佛山有乡下亲戚，生活无聊时你可以去农田里活动筋骨： 如果你在佛山有乡下亲戚，快过年的时候，他们总会给你们抓鸡、抓鹅，送亲手做的粽子和传统小吃： ……农民非常重感情，非常好客，你到一个农民家去，就算他家徒四壁，他会把家里最好的食物拿出来款待你！ 其实，亲戚们没义务给东西你，只是很看重与你之间的感情……请不要把这些看成“应该的”，作为回报，你也应该常带点手信回去！ 现在，有某些城市人，在外面混得好了，买了房、买了车，就数典忘祖了……一边吃着农民种的粮食，一边看不起家里的乡亲父老，提起来，心里总是有一些鄙夷…… 其实，这个社会90%的人，都是从农村走出去的，乡下再不好，都是我们的根！如果哪天他有事，需要你在城里帮忙，请不要嫌麻烦，请尽量帮他们的忙！不管你现在混得多好，在小城市安居乐业，还是在大城市春风得意，不管你是位高权重，还是生意千万，往上数三代，大家都是农村人！如果你在佛山有乡下亲戚，那么请记得，对他们好一点，因为，他们对你也很好！来源：高明论坛、网络等版权归原作者所有趣味推理某大楼发生一起盗窃案，第二天，抓获一个嫌疑人，警察问他：“昨天晚上发生的事情，你知道吗？”嫌疑人说：“知道，就是某大楼被盗了，可我一直在家，没有出去。”警察又问：“你在家干什么。”嫌疑人回答：“我家养的十几只鸭子在孵蛋，我准备接小鸭子出生。”你能从上面的对话中，找出嫌疑人撒谎的地方吗？编辑“撒谎”发送至【佛山老友记】查阅一下答案吧九 江 酒 厂 招 聘业务员：年龄20-35岁之间，高中或以上学历，沟通和执行能力强，能吃苦耐劳，积极乐观就可！有快消品销售经验，有白酒经验、丰富的驾驶经验优先考虑。主要负责区域：新会、开平、禅桂、丹灶、西樵、平洲、南庄、北滘、九江如果你觉得自己可以胜任，请拨打我们的人事热线：0757-86503321 陈小姐</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Business cooperation WeChat ID: 13795485702 If you have relatives in the countryside in Foshan, please remember to treat them a little better, because... (Internet picture) If you have relatives in the countryside in Foshan, you can often eat various pollution-free, naturally organic fruits and vegetables: If you have relatives in the countryside in Foshan, you can often eat authentic free-range chickens and eggs: If you have relatives in the countryside in Foshan, when they harvest and dry the grains, they will warmly share a large bag of rice or flour with you: If you have relatives in the countryside in Foshan, during holidays, they can take you for free to enjoy nature away from the hustle and bustle of the city: If you have relatives in the countryside in Foshan, when life gets boring, you can go to the fields to stretch your muscles: If you have relatives in the countryside in Foshan, as the Chinese New Year approaches, they will always catch chickens, geese, and give you handmade zongzi and traditional snacks: ... Farmers are very sentimental and hospitable. When you visit a farmer's home, even if they have very little, they will bring out the best food to entertain you! In fact, relatives are not obligated to give you things, they just value the relationship with you... Please do not see these as "shoulds," as a return, you should also often bring some small gifts back! Nowadays, some city people, after doing well outside, buying houses, buying cars, tend to forget their roots... While eating the grains grown by farmers, they look down on their rural relatives, with a hint of disdain in their hearts... In fact, 90% of people in this society come from the countryside. No matter how bad the countryside is, it is our roots! If one day they need your help in the city, please do not find it troublesome, please try to help them! No matter how well you are doing now, whether you are living comfortably in a small city or thriving in a big city, whether you are in a high position of power or have a successful business, going back three generations, everyone is from the countryside! If you have relatives in the countryside in Foshan, then please remember to treat them a little better, because they are also very good to you! Source: Gaoming Forum, Internet, etc. Fun reasoning A theft occurred in a certain building. The next day, a suspect was caught. The police asked him, "Do you know what happened last night?" The suspect said, "Yes, the building was robbed, but I was at home all the time and did not go out." The police asked again, "What were you doing at home?" The suspect replied, "I was hatching eggs for the dozen ducks we raise at home, preparing to welcome the ducklings." Can you find where the suspect lied from the above conversation? Send "lie" to [Foshan Friends] to check the answer. Jiujiang Liquor Factory is hiring salespersons: aged between 20-35, high school education or above, strong communication and execution abilities, hardworking, positive, and optimistic! Experience in fast-moving consumer goods sales, white wine experience, and rich driving experience are preferred. Main responsibilities: Xinhui, Kaiping, Chancheng, Danzao, Xiqiao, Pingzhou, Nanzhuang, Beijiao, Jiujiang. If you think you are suitable, please call our HR hotline: 0757-86503321 Ms. Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>你们要的油泼辣子升级版来了有什么值得买账号的，可以登陆关注我，以后的文都会推送给你了~~关注办法如下还不会关注人的筒子们看这里——关注只能在手机app端，首先升级到7.2版本，然后点开帖子后在最右上角有个关注的＋号点一下，右下角有个加关注，再点一下就关注成功了，关注了某人之后，她发的帖子就会第一时间推送给你，如果没看到也不要紧，进去app之后，右上角的关注旁边会出现一个小圆点，点开就能看到你关注的人发的所有你没看过的帖子了，是不是很方便，还不右上角关注我咩之前的油泼辣子家常版收到了很多同学的欢迎，我很开心，没想到这篇帖子能博得这么多欢心，还有很多同学留言说要看专业版专业版专业版！我不想瞎说我的就一定是什么秘方或者我一定多专业啥的鬼话，毕竟我也不是什么科班出身的。。所以这篇帖子就叫升级版了，好嘛~~~没看过家常版的，戳下面阅读原文链接，麻烦进去顺手点个赞，再收藏下。。算做鼓励我了升级版比家常版的多了几种香料，步骤上也略有不同，当然，最大不同的是原料油不同，我个人觉得升级版的麻烦程度是家常版的五倍，难度是两倍左右，好吃程度是2-3倍左右，所以看到这里，觉得胜任不了的，还是去做家常版的就挺好了。。当然也别忘了点赞打赏再走哦，大爷~~那么我们不废话了，进入正题，今天的升级版是用手边大家都能买到的材料和香料做的，我老家菜市场卖香料的摊子每种香料都可以称，品种非常全非常多，但是我这里菜市场的香料摊几乎就只有八角、桂皮、茴香、草果等几味主要的香料，其他很多香料不容易买到，我这次就用了京东直接买的炖肉料做，这样大家都可以复刻出来了楼主简直太贴心做法步骤准备材料——首先你需要有一个温度计。。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The upgraded version of the oil-splashed chili is here. What's worth buying an account for? You can log in and follow me, and I will push all the articles to you in the future. The method of following is as follows. If you don't know how to follow someone, look here - Following can only be done on the mobile app. First, upgrade to version 7.2, then click on the post, and in the top right corner, there is a plus sign for following. Click on it, then there is an add follow at the bottom right corner. Click on it again to successfully follow. After following someone, the posts she makes will be pushed to you in real-time. If you don't see it, don't worry. After entering the app, there will be a small dot next to the follow in the upper right corner. Click on it, and you can see all the posts from the people you follow that you haven't seen yet. Isn't it convenient? If you haven't followed me yet, before that, the home-style version of the oil-splashed chili received a warm welcome from many students. I am very happy. I didn't expect this post to win so many hearts. Many students left messages saying they want to see the professional version, the professional version, the professional version! I don't want to talk nonsense about having some secret recipe or being super professional, after all, I'm not from a professional background... So this post is called an upgraded version, okay~~~ If you haven't seen the home-style version, click on the link below to read the original text. Please go in and give it a like, and then bookmark it... Consider it as encouraging me. The upgraded version has several more spices than the home-style version, and the steps are slightly different. Of course, the biggest difference is the different raw materials. I personally think the trouble of the upgraded version is about five times that of the home-style version, the difficulty is about twice as much, and the deliciousness is about 2-3 times. So, if you feel inadequate here, it's better to just make the home-style version... Of course, don't forget to like, reward, and then leave, sir~~ So, without further ado, let's get to the point. Today's upgraded version is made with materials and spices that everyone can buy nearby. In my hometown, the market stall selling spices has a wide variety of spices, but the spice stall in my area has only a few main spices such as star anise, cinnamon, fennel, and Amomum, and many other spices are not easy to buy. This time, I used stewed meat seasoning bought directly from JD, so everyone can replicate it. The host is so thoughtful. The preparation steps and materials - first, you need to have a thermometer...</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10月24日，新生入学教育之“温情法大”专场晚会暨中国残疾人艺术团“我的梦”文艺演出在礼堂成功举办。这不是普通的演出，而是2016级新生入学教育的一课。本场演出寓教于学，中国残疾人艺术团用特殊的艺术，谱写生命的华章，诠释人生的真谛，激励在座的每一位观众，他们所传递的梦想与希望将化作星火点燃每一位同学心底的光芒，让温情在法大延续，让爱与力量充满世界。这为新生教育添上了色彩浓厚的一笔。 中国残疾人艺术团为我校师生带来“特殊一课”中国残疾人艺术团为我校师生呈现了一台精彩的演出，晚会的演出环节丰富多样，包含舞蹈、歌唱、器乐演奏、京剧在内的14个精彩节目。 《我的梦》演员们用曼妙的舞姿和灵动的手势，述说她们无声的梦想。 演员们用变幻莫测的手姿，划出一道道优美的金色弧线，将舞蹈《千手观音》演绎得美轮美奂，给人以视觉的享受和心灵的震撼。 传统演绎、凄美动人的舞剧《化蝶》。 风格多变、美妙动人的器乐联奏《风情组曲》。 由盲人和聋人艺术家带来的京剧《三岔口》赢得了现场阵阵掌声。 灵动优美、婀娜蹁跹的舞蹈《雀之灵》。 异域风情、点燃全场的拉丁舞组合《动·听》。 一个个精彩的节目，一首首生命之歌深深地感染了在场每一位师生。 在场师生不约而同地举起双手，通过“爱”的手语和“我爱你”的呐喊向演员们表达尊敬与感动。“这场晚会传递了爱与力量，这是对生命的敬畏、执着，他们让我懂得了感恩。”一位同学在看完演出后的采访中如是说，“真的震撼、感动，我会铭记这种坚韧、这种正能量，让温情继续传递下去。” 法大微信 【第20161025期】图文来源：新闻中心内容编辑：骆红维</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>On October 24th, the special evening event "Warmth of Fudan Law School" for new student orientation education and the artistic performance "My Dream" by the China Disabled People's Performing Art Troupe were successfully held in the auditorium. This was not an ordinary performance, but a lesson for the 2016 new students' orientation education. This performance integrated education with entertainment. The China Disabled People's Performing Art Troupe used special art to compose the chapters of life, interpret the true essence of life, and inspire every audience present. The dreams and hopes they conveyed will turn into sparks, igniting the inner light of every student, allowing warmth to continue at Fudan Law School, and filling the world with love and strength. This added a colorful touch to the new student education. The China Disabled People's Performing Art Troupe brought a "special lesson" to our school's teachers and students. They presented a wonderful performance, with a rich and diverse program including 14 exciting segments such as dance, singing, instrumental performances, and Peking Opera. The actors of "My Dream" used graceful dance moves and agile hand gestures to express their silent dreams. With ever-changing hand gestures, they drew beautiful golden arcs, interpreting the dance "Thousand-Hand Guanyin" in a magnificent way, providing visual enjoyment and spiritual shock. The traditional and moving dance drama "Butterfly Transformation". The versatile and enchanting instrumental ensemble "Suite of Styles". The Peking Opera "Three Forks in the Road" performed by blind and deaf artists received waves of applause from the audience. The graceful and elegant dance "Spirit of the Sparrow". The exotic and energizing Latin dance combination "Move·Listen" that lit up the entire venue. Each wonderful performance and each song of life deeply touched every teacher and student present. Teachers and students in attendance spontaneously raised their hands, expressing respect and admiration to the actors through sign language for "love" and shouts of "I love you". "This event conveyed love and strength, it is a tribute to life, dedication. They made me understand gratitude," a student said in an interview after watching the performance. "Truly shocking and moving, I will remember this resilience, this positive energy, and let the warmth continue to spread." Fudan Law School WeChat 【Issue 20161025】Text and image source: News Center Content Editor: Luo Hongwei</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>学生本科毕业，雅思6.5分即可申请新加坡大学硕士课程。新加坡管理发展学院是新加坡创办最早、为终身学习而设的非营利专业学府。学院成立于1956年，半个世纪的丰富教学经验使其成为新加坡最具声誉和实力的教育机构之一。新加坡东亚管理学院是新加坡著名的私立高等学院，创建于1984年。也是首批正式授予Edu Trust认证的院校之一。下面就为大家介绍一下这两所院校的硕士课程。 新加坡管理发展学院计算机信息系统硕士新加坡管理发展学院计算机信息系统硕士课程证书由英国南威尔士大学颁发，学制12个月，开课时间2月（具体时间欢迎咨询教外留学顾问老师），报名费321新币，学费总计24396新币。在信息技术学士课程中，学生将学习核心课程，获得进入IT领域工作所需的关键技能。我们的计算机和网络专业将纯粹的计算机科学和IT应用领域相联系。学生将学习核心课程，获得进入IT领域工作所需的关键技能。新加坡管理发展学院硕士申请条件1、本科毕业；2、雅思6.0分或者完成新加坡管理发展学院的英文课程； 新加坡东亚管理学院金融工程硕士新加坡东亚管理学院金融工程硕士专业课程证书由英国赫瑞瓦特大学爱丁堡商学院颁发，学制为18个月，开课时间：1月、3月、7月、9月（具体时间欢迎咨询教外留学顾问老师）报名费481.5新币，学费总计38800新币。金融工程专业课程是在要求学生掌握管理基本理论和专业知识的同时，注重对学生实际工作能力的培养，突出实践性、综合性和应用性，毕业生适应面广、就业率高。核心课程：会计学、金融学、市场营销学、组织行为学、战略规划学、项目管理学、经济学。进入行业监督管理部门做金融官员，对于金融研究生而言应是首选。金融学是立足于宏观经济学，基于金融市场宏观调控，专业应用较易入手，政策把握比较到位;在行业管理部门做上三五年再入行到实践机构至少能给个中层以上的职位。新加坡东亚管理学院硕士申请条件1、本科毕业具备学士学位，或大专毕业并具备两年或以上相关管理工作经验2、雅思6分或通过东亚管理学院英达商务英语第三级分享专业的留学知识，将为您提供专业的服务，免中介费为你办理出国留学关注微信公众号：xjplxlm加微信咨询：2853683187为你量身制作最适合你人生发展的留学规划</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Students who have completed their undergraduate studies can apply for a master's program at the National University of Singapore with an IELTS score of 6.5. The Singapore Institute of Management and Development is a non-profit professional institution founded in Singapore, dedicated to lifelong learning. Established in 1956, with half a century of rich teaching experience, it has become one of the most reputable and powerful educational institutions in Singapore. The Singapore Institute of Management and Development is a well-known private higher education institution in Singapore, founded in 1984. It is also one of the first institutions to be officially awarded the Edu Trust certification. Below is an introduction to the master's programs of these two institutions. 
+The Master of Computer Information Systems at the Singapore Institute of Management and Development is awarded by the University of South Wales in the UK, with a duration of 12 months. The course starts in February (specific dates can be obtained by consulting the study abroad consultant). The registration fee is 321 Singapore dollars, with a total tuition fee of 24396 Singapore dollars. In the Bachelor of Information Technology program, students will study core courses to acquire key skills required to work in the IT field. Our Computer and Network major links pure computer science with IT applications. Students will study core courses to acquire key skills required to work in the IT field. The application requirements for the Master's program at the Singapore Institute of Management and Development are: 1. Completion of undergraduate studies; 2. IELTS score of 6.0 or completion of the English course at the Singapore Institute of Management and Development.
+The Master of Financial Engineering at the Singapore Management Institute of East Asia is awarded by the Edinburgh Business School at Heriot-Watt University in the UK, with a duration of 18 months. The course starts in January, March, July, and September (specific dates can be obtained by consulting the study abroad consultant). The registration fee is 481.5 Singapore dollars, with a total tuition fee of 38800 Singapore dollars. The Financial Engineering program emphasizes the cultivation of students' practical work abilities while requiring them to master basic management theories and professional knowledge. It highlights practicality, comprehensiveness, and applicability, with graduates having a wide range of adaptability and high employment rates. Core courses include Accounting, Finance, Marketing, Organizational Behavior, Strategic Planning, Project Management, and Economics. Becoming a financial officer in the industry supervisory department should be the first choice for financial graduate students. Financial studies are based on macroeconomics, focusing on macro-control of financial markets, making it relatively easy to apply professionally and have a good grasp of policies. Working in industry management departments for three to five years before entering practical institutions can at least secure a mid-level or higher position. The application requirements for the Master's program at the Singapore Institute of East Asia are: 1. Completion of undergraduate studies with a bachelor's degree, or completion of a college degree and two or more years of relevant management work experience; 2. IELTS score of 6 or passing the third level of the English Business English course at the East Asia Management Institute. 
+We provide professional services to share expertise in studying abroad without charging any intermediary fees. For personalized overseas study plans tailored to your life development, follow our WeChat public account: xjplxlm or contact us on WeChat at 2853683187.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>去年美国一部分学校宣布更新自己的大学申请系统，但是今年好多学校却纷纷变卦。到底怎么回事？跟着快讯君一起看看吧。2015年9月28日，美国83所高校轰轰烈烈的宣布了一项新政，即共同创建一个新的大学申请系统——theCoalitionfor Access ， Affordability and Success，简称CAAS。在今年六月之前，只接受联盟申请的学校有三所：佛罗里达大学，马里兰大学，和华盛顿大学。然而，截至如今，已经陆陆续续有学校开始变卦，真正只接受CAAS系统的学校少之又少。塔夫茨大学在10月12日发表声明，招办将改成从明年才开始接受CAAS的申请。而在之前，学校明确表示自己是第一批加入使用联盟申请的大学之一。之前华盛顿大学是明确表明了：想要申请我们学校只能通过CAAS系统，但是今年八月华盛顿大学去变卦了，做出如下声明： 华盛顿大学表示，之前计划是让2017年季入学的申请者们使用最新的CAAS申请系统。但是在使用过程中却遭遇了两个关键性的问题。问题一：对于联盟申请的 “DisciplinarySection(考察学生是否有在校严重 违规记录的板块)”，UW的招生办还存在一些疑虑。问题二：并没有信心在10月1日之前完全整合UW学校系统和联盟申请系统。不过在声明的最后，华盛顿大学也表示，到2018年CAAS申请系统将会成为他们唯一接受的申请方式。CAAS VS Common app Common app系统今年也进行了改版，而且还提前开放了申请。为了更好的知道高中生，Common还添加了Inaugural CollegeUp的板块。而且Common App成员众多，历史更悠久，广大学生更熟悉这个申请系统。CAAS更加注重学生的成长过程，更加适合早早就开始规划大学申请的学生，CAAS可以给这类学生提供更好的帮助，让学生展现自己高中时段的变化与成长。不过由于CAAS是个全新的系统，有些功能还没有完全开放，所以想要看学生们的反响还要得带一段时间。然而不管用哪种网申系统，最终学校录取依据的还是个人的素质和条件，最重要的还是提高自己的能力，各位小伙伴还是要不断努力提升自己的竞争力哦。▲最新留学资讯，时事评论，热门解读，实用的留学干货，尽在留学快讯▲不管什么留学问题都可以直接在【对话框】输入提问▲戳【阅读原文】获得一份属于你的留学评估(??ω?)?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Last year, some schools in the United States announced updates to their university application systems, but this year many schools have changed their minds one after another. What's going on? Let's find out with the Fast News. On September 28, 2015, 83 American universities grandly announced a new policy, that is, to jointly create a new university application system - the Coalition for Access, Affordability and Success, abbreviated as CAAS. Until June of this year, only three schools accepted applications through the coalition: the University of Florida, the University of Maryland, and the University of Washington. However, as of now, schools have gradually started to change their stance, with very few schools truly accepting only the CAAS system. Tufts University issued a statement on October 12, stating that the admissions office will start accepting CAAS applications from next year. Previously, the school had explicitly stated that it was one of the first universities to join the use of the coalition application. Previously, the University of Washington had made it clear that applicants could only apply to our school through the CAAS system, but in August of this year, the University of Washington changed its stance and made the following statement: The University of Washington stated that the original plan was for applicants for the 2017 fall semester to use the latest CAAS application system. However, during the process, they encountered two key issues. Issue one: The admissions office at UW still had some doubts about the "Disciplinary Section" of the coalition application, which examines whether students have serious violations while in school. Issue two: They did not have confidence in fully integrating the UW school system and the coalition application system before October 1. However, in the final statement, the University of Washington also stated that by 2018, the CAAS application system will be the only application method they accept. CAAS VS Common App The Common App system has also been updated this year and opened applications earlier. To better understand high school students, Common also added the Inaugural CollegeUp section. Moreover, Common App has a large number of members, a longer history, and students are more familiar with this application system. CAAS focuses more on students' growth process and is more suitable for students who start planning for university applications early. CAAS can provide better assistance to these students, allowing them to showcase the changes and growth during their high school years. However, since CAAS is a new system, some functions have not been fully opened yet, so it will take some time to see the students' reactions. However, regardless of which online application system is used, the ultimate basis for school admission is still the individual's qualities and conditions. The most important thing is to improve one's abilities continuously, so all friends should keep working hard to enhance their competitiveness. ▲The latest study abroad information, current affairs commentary, popular interpretations, practical study abroad tips, all in Study Abroad Fast News ▲You can directly ask any study abroad questions in the chatbox ▲Click on 【Read Original】to get a study abroad evaluation tailored for you (??ω?)?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>当前正值秋收农忙时节，农民大多在田间地头忙农活，为切实加强秋收期间道路交通安全管理，确保辖区道路交通安全畅通，预防和减少交通堵塞及交通事故的发生。10月11日，临泽县公安局交警大队组织民警走进田间地头，向正在劳作的农民朋友开展交通安全教育宣传。民警结合秋收高峰期，农业机械流动量大，作业任务重、时间紧，农机安全隐患呈增多趋势等实际，为农民朋友和农机驾驶人详细讲解了道路交通安全法规，通过生动形象的解说和发生在身边的交通事故，教给广大群众秋收时节突发事件的应急技巧，引导群众克服不良驾驶习惯，提高机车性能。同时，民警走进田间地头，教育正在进行收购甜叶菊的农机驾驶人，严禁人货混装、无牌无证驾驶、超速超载驾驶及病车上路等；对公路沿线的群众，民警重点讲解在公路上打场晒粮的危险性和违法性，发现有在公路上打场晒粮的及时给予教育和制止，确保道路特别是辖区省道等重点道路的交通的安全畅通。此次活动，进一步普及了安全法规，传播了安全知识，增强了广大农机驾驶人的守法观念和安全意识，有效抵制了农机违法行为和安全事故发生，保障了农业生产的安全顺利进行</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>At present, it is the busy autumn harvest season. Most farmers are busy working in the fields to ensure the smooth and safe management of road traffic during the autumn harvest period, prevent and reduce traffic congestion and accidents. On October 11th, the Traffic Police Brigade of Linze County Public Security Bureau organized police officers to go into the fields and provide traffic safety education and publicity to farmers who were working. The police officers explained in detail the road traffic safety regulations to farmers and agricultural machinery drivers, combining the peak period of autumn harvest, the large flow of agricultural machinery, heavy workload, tight schedule, and the increasing safety hazards of agricultural machinery. Through vivid explanations and real-life traffic accidents, they taught the masses emergency skills for unexpected events during the autumn harvest season, guided people to overcome bad driving habits, and improve the performance of vehicles. At the same time, the police officers entered the fields to educate agricultural machinery drivers who were harvesting stevia, strictly prohibiting mixed loading of people and goods, driving without licenses or permits, speeding, overloading, and driving sick vehicles on the road. For the people along the highway, the police officers emphasized the dangers and illegality of drying grains on the road, educating and stopping those who were drying grains on the road in a timely manner to ensure the safety and smooth traffic flow of roads, especially key roads such as provincial highways in the jurisdiction. This activity further popularized safety regulations, disseminated safety knowledge, enhanced the law-abiding concept and safety awareness of agricultural machinery drivers, effectively resisted illegal behaviors and safety accidents involving agricultural machinery, and ensured the safe and smooth progress of agricultural production.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1栗子+咸猪肉+冬瓜板栗富含维生素C，对人体有很好的滋补作用，初秋板栗刚刚上市，用来做便当在合适不过了。 2鸡肉+辣椒+高丽菜鸡肉烤到金黄后切片，蛋白质含量高又容易被消化，配上红色的辣椒和紫色的高丽菜，光是看着就让人食欲大增。 3鲑鱼+马铃薯+西兰花鲑鱼肉厚，具有丰富的不饱和脂肪酸，能有效降低血脂和血胆固醇，味道鲜美，少刺，就算赶时间也不用担心被卡到了。 4茄子+秋葵+鸡肉秋葵含有铁、钙及糖类等多种营养物，是有名的营养保健蔬菜，不仅有预防贫血的效果，其中的可溶性纤维也可以让皮肤美白、细嫩。 5培根+火腿+鸡蛋培根烤至酥脆，既开胃又能起到健脾的作用。把鸡蛋单面煎，在蛋黄凝固之前就撑起来就做好了一个好吃又好看的溏心鸡蛋，过程非常简单。 6豆芽+豆角+香菇可别小看了这几种家常菜，虽然不起眼，营养价值可不低。豆芽和豆角富含维生素C和膳食纤维，而且热量低，常吃可达到减肥的目的。香菇则能防癌抗癌，延缓衰老。 7土豆+藕片+水煮蛋土豆是一种粮蔬两用的食物，不仅可以用作菜吃，单独食用也很美味。将土豆切大块烤熟，加上一颗水煮蛋营养又丰富。 8炸肉排+通心粉+番茄偶尔吃一次油炸食品，可口又解馋，饭后可以吃几颗小番茄帮助消化。 9紫米饭+咸猪排+柠檬跟普通的稻米相比，紫米不仅蛋白质含量高，必需的氨基酸齐全，还含有丰富的微量元素，入口香甜细腻，口感好。 10鱼+胡萝卜+菠菜鱼肉的蛋白质含量是猪肉的两倍，而且吃法众多，在外总是难找到适合自己口味的，还不如自己做，好吃又卫生。 （图文来自网络）</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1. Chestnuts + salted pork + winter melon and chestnuts are rich in vitamin C, which has a very good nourishing effect on the human body. Chestnuts have just come on the market in early autumn, making them perfect for making lunch boxes. 2. Chicken + chili + cabbage, chicken roasted to golden brown and sliced, high in protein and easily digestible, paired with red chili and purple cabbage, just looking at it increases appetite. 3. Salmon + potatoes + broccoli, salmon has thick flesh, rich in unsaturated fatty acids, can effectively reduce blood lipids and cholesterol, delicious taste, less bones, even if you are in a hurry, you don't have to worry about getting stuck. 4. Eggplant + okra + chicken, okra contains iron, calcium, sugars and other nutrients, is a well-known nutritious vegetable, not only has the effect of preventing anemia, but also its soluble fiber can whiten and soften the skin. 5. Bacon + ham + eggs, bacon baked until crispy, appetizing and good for the spleen. Fry the egg on one side, prop it up before the yolk solidifies, and you have a delicious and visually appealing soft-boiled egg, the process is very simple. 6. Bean sprouts + green beans + mushrooms, don't underestimate these common home-cooked dishes, although not eye-catching, their nutritional value is not low. Bean sprouts and green beans are rich in vitamin C and dietary fiber, low in calories, and eating them regularly can help with weight loss. Mushrooms can prevent and fight cancer, and slow down aging. 7. Potatoes + lotus root slices + boiled eggs, potatoes are a versatile food that can be used as a vegetable or a staple food, not only can be used in dishes, but also delicious when eaten alone. Cut the potatoes into large pieces, add a boiled egg for a nutritious and rich meal. 8. Fried pork chops + macaroni + tomatoes, occasionally eating fried foods is delicious and satisfying, eating a few cherry tomatoes after a meal can aid digestion. 9. Purple rice + salted pork chops + lemon, compared to regular rice, purple rice not only has a high protein content and complete essential amino acids, but also contains rich trace elements, it is sweet and delicate in taste, with a good texture. 10. Fish + carrots + spinach, the protein content of fish is twice that of pork, and there are many ways to cook it. It's hard to find a suitable one outside, so it's better to cook it yourself, delicious and hygienic. (Pictures and text from the internet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 多数人都面临过做管理还是做业务的选择。很多人都想在管理上有所尝试，有的人进入了管理通道，但发展并不顺利。企业为了扩张发展而绞尽脑汁、不惜代价地培养管理者，可他们面临的最大困惑是，芸芸众生谁更有管理的潜力呢？1、看一个人是否具有抓住工作重点的能力，是否有明确的工作思路抓重点是指能快速地将纷繁复杂的各种表面现象归纳总结为结构清晰的事物特征，抓住事物的根本、问题的关键，并确定工作重心的能力。管理工作涉及到的环境和对象很复杂，范围越广规模越大，复杂度就成几何级数上升。所以“抓重点”是管理者必须具有的第一项能力。抓重点能力弱的管理人员，在工作上表现上往往是没有主见和工作思路，左右摇摆，拿不定主意，力气使不到点上，他可能很努力、很辛苦，团队成员跟着他不停地东奔西跑，但基本上是瞎忙活，因为没有结果和成绩。古人说“将帅无能，累死三军”就是指这种情况。时间一长，团队成员就会失去对管理者的信心，这时候必须更换管理者了。如果你想成为一个优秀的管理者，需要训练自己结构化的思考能力，简单地说就是归纳、概括和总结的能力。普通人关注的是思维的逻辑性，讲的是前后的连续性和流畅性。而管理者需要具有较强的结构化思考能力。俞凌雄课程报名：18658431656 黄老师（可加微信） 2、看一个人是否具有强烈的目标导向和结果导向意识结果导向也就是目标导向，是杰出管理者最突出的思维特征。管理是为了达成目标，而且是团队或组织的目标，不能达成预期目标的管理者一定不是好的管理者，优秀管理者一定是目标感很强的人。结果导向意识就是以终为始，高度关注和聚焦目标和结果，将团队或组织的核心资源、策略都指向目标的达成，所有行动都必须是对目标达成有高度贡献的。这种管理者给外部的印象就是目标清晰、执行力很强。结果导向的思维，以终为始，从目标开始考虑需要什么条件，然后主动想办法去创造条件从而达成问题的解决，技术思维者往往是被动的等待条件成熟。3、看一个人是否具有快速发现规律和预测结果的能力在当今快速变化的时代，管理者所面对的环境瞬息万变，要求管理者能够快速做出判断，也就通常说的要具有快速反应、灵活应变的能力。快速灵活应变只是一种行为表现，其背后的能力是什么呢？实际上是管理者善于并快速发现事物的运行规律并能够对事情的发展结果进行准确预测。如果不能把握事物的运行规律并做出准确预测结果，就容易做出错误的判断，影响管理目标的达成。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Most people have faced the choice between doing management or doing business. Many people want to try management, some enter the management track, but their development is not smooth. In order to expand and develop, companies rack their brains and spare no effort to cultivate managers, but their biggest dilemma is, among the multitude of people, who has more potential for management? 1. To see if a person has the ability to grasp the key points of work, whether there is a clear work train of thought to grasp the key points means the ability to quickly summarize the various surface phenomena into clear structural characteristics, grasp the essence of things, the key of the problem, and determine the focus of work. The environment and objects involved in management work are very complex, the wider the scope and the larger the scale, the complexity increases exponentially. Therefore, "grasping the key points" is the first ability that managers must possess. Managers with weak ability to grasp key points often lack initiative and work train of thought, they vacillate, cannot make up their minds, and cannot focus on the point. They may work hard and diligently, with team members running around with them, but basically it is busy work without results and achievements. The ancient saying "inept generals lead to the death of the army" refers to this situation. Over time, team members will lose confidence in the manager, and a change of manager is necessary at this point. If you want to become an excellent manager, you need to train your ability to think structurally, in simple terms, it is the ability to summarize, generalize, and conclude. Ordinary people focus on the logic of thinking, emphasizing continuity and fluency. Managers need to have strong structured thinking ability. Yu Lingxiong course registration: 18658431656 Teacher Huang (WeChat available) 2. To see if a person has a strong goal-oriented and results-oriented consciousness. Results-oriented is also goal-oriented, which is the most prominent thinking characteristic of outstanding managers. Management is to achieve goals, and it is the goals of the team or organization. Managers who fail to achieve the expected goals are definitely not good managers, and excellent managers must be people with a strong sense of goals. Results-oriented consciousness means starting with the end in mind, paying high attention and focus on goals and results, directing the core resources and strategies of the team or organization towards the achievement of goals, and all actions must make a significant contribution to achieving the goals. This kind of manager gives the impression of having clear goals and strong execution. Results-oriented thinking starts with the end in mind, considering what conditions are needed from the goal, and then actively finding ways to create conditions to achieve the solution to the problem, while technical thinkers often passively wait for conditions to mature. 3. To see if a person has the ability to quickly discover patterns and predict results. In today's rapidly changing era, the environment that managers face is constantly changing, requiring managers to make quick judgments, which usually means having the ability to react quickly and adapt flexibly. Quick and flexible adaptation is just a behavioral performance, what is the ability behind it? In fact, managers are good at and quickly discover the operating rules of things and can accurately predict the development results of things. If one cannot grasp the operating rules of things and make accurate predictions of results, it is easy to make wrong judgments, affecting the achievement of management goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>新华网北京3月31日新媒体专电（记者李倩倩）3月30日，央行、住建部、银监会联合下发通知，将已有一套住房且贷款未结清家庭购买二套房的最低首付比例降至4成，公积金贷款购买首套房首付比例下调至2成，已有一套住房并已结清贷款家庭再次申请公积金贷款购房首付比例为3成。当日，财政部、国税总局也联合发文，将个人普通住房转让营业税免征期限由5年调整为2年。业内专家指出，系列政策措施意在通过降低购房门槛撬动改善性住房需求，活跃房地产市场交易，进而带动库存消化。政策对供求关系相对缓和、改善性需求数量较大的一二线楼市提振作用更为明显。中国房地产研究会副会长胡志刚认为，一二线城市楼市供大于求的压力较小，大量改善性需求受制于高首付、高税收压力得不到释放。二套房贷款首付比例和交易税费降低，能够使这部分希望“卖小换大”“卖旧换新”的改善性需求以相对较低的成本实现改善愿望，进而增加对一级住房市场的需求，促进成交量回升，成交价格也会出现小幅上扬。而多数三四线城市大量已建设项目空置，住房严重供过于求，部分首套和改善性需求入市也难使成交出现明显起色。北京中房研协技术服务有限公司研究中心副总监回建强认为，营业税免征期限“5改2”使得二手房市场上符合免税政策的房源增加，部分有改善意愿的人会出售手中的房子，加大市场供应量，同时，二套房首付比例下调、降低当期购房成本，会带动入市需求增加，两相配合将使得二手房成交更加活跃。但是成交量上升和价格上涨之间有个对冲的过程，因此成交活跃并不意味价格会出现大涨。从政策出台后市场反应来看，由于从去年下半年开始，市场就已多次传出营业税免征期限将由5年改为2年，此次消息被“做实”也在市场意料范围内，但此次二套房首付比例降至四成一定程度上超出了市场预期，此前市场多猜测二套房贷首付比例降至五成。加之这是继3月27日国土、住建两部委发文“稳楼市”之后，相关部委再次出台楼市新规，政策出台密集程度之高，也使得一些市场人士认为“房地产政策重回2009年”“政府已经开始全面救市”。对此，胡志刚认为，降低首付比例只是部分房款“早付”和“晚付”的问题，并未使得总房价减少。更为重要的是，目前银行资金成本高企、吸储难度加大，房贷利率并未出现大幅放松，2009年大范围的“七折利率”很难再现，购房成本也并未大幅降低。这也表明政策制定者主要希望借此释放被高首付门槛限制所积压的改善性需求。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Beijing, March 31st - People's Bank of China, Ministry of Housing and Urban-Rural Development, and China Banking Regulatory Commission jointly issued a notice on March 30th, lowering the minimum down payment ratio for families who already own one property and have an outstanding loan to purchase a second property to 40%. The down payment ratio for purchasing the first property with housing provident fund loans has been reduced to 20%, and for families who already own one property and have cleared the loan and apply for a housing provident fund loan again, the down payment ratio is set at 30%. On the same day, the Ministry of Finance and the State Administration of Taxation also jointly issued a document, adjusting the exemption period for individual ordinary housing transfer business tax from 5 years to 2 years. Industry experts pointed out that the series of policy measures aim to lower the threshold for home purchases, stimulate the demand for improved housing, boost transactions in the real estate market, and thereby drive inventory digestion. The policy has a more pronounced boosting effect on the first and second-tier real estate markets where the supply-demand relationship is relatively balanced and the demand for improved housing is significant. Hu Zhigang, Vice Chairman of the China Real Estate Association, believes that the pressure of oversupply in the first and second-tier cities is relatively small, and a large number of demand for improved housing is constrained by high down payments and high tax burdens. The reduction in down payment ratio for the second property loans and transaction taxes can enable those who wish to "sell small and buy big" or "sell old and buy new" to realize their improvement desires at a relatively low cost, increase demand for primary housing market, boost transaction volume, and lead to a slight increase in transaction prices. However, in most third and fourth-tier cities where there is a large amount of vacant housing and a serious oversupply, it is difficult for the first-time buyers and those with demand for improved housing to significantly boost transactions. Hu Jianqiang, Deputy Director of the Research Center of Beijing Zhongfang Research Institute, believes that the adjustment of the business tax exemption period from "5 to 2" will increase the supply of second-hand housing that qualifies for tax exemption. Some people with improvement intentions will sell their properties, increase market supply, and at the same time, the reduction in down payment ratio for the second property and the decrease in current housing purchase costs will stimulate the demand for entering the market, and the combination of the two will make second-hand housing transactions more active. However, there is a process of offsetting between the increase in transaction volume and the rise in prices, so active transactions do not necessarily mean a significant price increase. From the market response after the policy was introduced, it can be seen that since the second half of last year, there have been multiple rumors about adjusting the business tax exemption period from 5 years to 2 years, and this news falling within market expectations. However, the reduction of the down payment ratio for the second property to 40% to a certain extent exceeded market expectations, as the market had previously speculated that the down payment ratio for the second property loans would be reduced to 50%. In addition, following the issuance of the "stabilizing the real estate market" document by the Ministry of Land and Resources and the Ministry of Housing and Urban-Rural Development on March 27th, the subsequent introduction of new real estate regulations by relevant ministries has led some market participants to believe that "real estate policies are returning to 2009" and "the government has begun a comprehensive market rescue." In response to this, Hu Zhigang believes that the reduction in the down payment ratio only addresses the issue of "early payment" and "late payment" of part of the housing funds, without reducing the total housing price. More importantly, with the current high cost of bank funds and increased difficulty in attracting deposits, there has not been a significant relaxation of mortgage rates, and the widespread "70% discount rate" seen in 2009 is unlikely to reappear, and the cost of purchasing a house has not decreased significantly. This also indicates that policymakers mainly hope to release the pent-up demand for improved housing that has been restricted by high down payment thresholds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 漫画王建明人社部、财政部6月下旬向社会公开征求意见的《职业年金基金管理暂行办法》（以下简称《办法》），近日正式印发。这一纲领性文件的出炉，标志着作为基本养老保险有益补充的职业年金正式起航，同时也意味着继企业年金后，A股将迎来新资金。与征求意见稿相比，正式公布的《办法》主要在“代理人角色定位的明确”等三处进行了微调，但总体基调未变。尤其是职业年金存在与企业年金相同的保值增值诉求，投资风格将延续企业年金的长期稳健基调。业内专家表示，考虑到投资收益因素，预计五年后职业年金市场规模有望达万亿元。若根据《办法》中“职业年金基金财产限于境内投资”、“投资股票、股票基金、混合基金、股票型养老金产品的比例合计不得高于投资组合委托投资资产净值的30%”这两点粗略计算，预计5年后职业年金进入A股的资金规模最高可达3000亿元。相较征求意见稿有三处微调作为前期参与职业年金法规和相关配套文件前瞻性研究的主要机构，中国平安旗下平安养老保险股份有限公司对于《办法》的正式出炉，有着更深入的理解和更殷切的期待。该公司相关业务部门负责人昨日接受记者采访时表示，与此前的征求意见稿相比，正式公布的《办法》主要在三方面做了修改。首先，确定了中央国家机关养老保险管理中心及省级社会保险经办机构为“代理人”的角色定位，代理委托人集中行使委托职责并负责职业年金基金账户管理业务。而在征求意见稿中，未强调代理人需负责职业年金基金账户管理业务。其次，明确了中央及省级职业年金基金管理机构评选委员会人数为七人、九人或十一人，而征求意见稿中规定的人数为七人或九人。再者，信息披露时效有所放宽。相对于征求意见稿中的解释，《办法》规定的时效天数基本上均有5个工作日的延长。如《办法》规定：“代理人应当在年度结束后45个工作日内，向机关事业单位披露职业年金管理信息，向受益人提供职业年金个人账户权益信息”，比征求意见稿中的规定增加了5个工作日。职业年金年均缴费约1500亿与企业自主决定是否建立的企业年金制度不同，职业年金是针对机关事业单位的强制性补充养老保险，且有政府财政保底投入，由此可确保职业年金的稳定增长。这也意味着，职业年金刚性需求带来的业务潜力巨大。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The "Interim Measures for the Management of Occupational Pension Funds" (hereinafter referred to as the "Measures") publicly solicited opinions by the Ministry of Human Resources and Social Security and the Ministry of Finance in late June, has been officially issued recently. The release of this landmark document marks the official launch of occupational pensions as a beneficial supplement to basic old-age insurance, and also signifies that, following enterprise annuities, A-shares will welcome new funds. Compared with the draft for public opinion, the officially published "Measures" have made minor adjustments in three areas such as "clear positioning of the agent's role," but the overall tone remains unchanged. In particular, occupational pensions share the same value preservation and appreciation demands as enterprise annuities, and the investment style will continue the long-term and stable approach of enterprise annuities. Industry experts indicate that considering investment returns, the market size of occupational pensions is expected to reach one trillion yuan in five years. Rough calculations based on the "Measures" stipulating that "the assets of occupational pension funds are limited to domestic investments" and "the total proportion of investments in stocks, stock funds, mixed funds, and stock-type pension products shall not exceed 30% of the net value of the entrusted investment assets" suggest that the maximum amount of funds entering A-shares through occupational pensions could reach 300 billion yuan in five years. Compared with the draft for public opinion, there have been three minor adjustments. As a leading institution in the early research on occupational pension regulations and related supporting documents, China Ping An's Ping An Life Insurance Co., Ltd. has a deeper understanding and more earnest expectations for the official release of the "Measures." The head of the company's relevant business department stated in an interview with reporters yesterday that, compared with the previous draft for public opinion, the officially published "Measures" have made modifications in three main aspects. Firstly, it has defined the role of the Central State Organs Pension Management Center and provincial social insurance agencies as "agents," who will centrally exercise entrusted responsibilities and be responsible for the management of occupational pension fund accounts. In the draft for public opinion, it did not emphasize that agents should be responsible for the management of occupational pension fund accounts. Secondly, it has specified that the number of members of the selection committee for the central and provincial occupational pension fund management institutions shall be seven, nine, or eleven, whereas the draft for public opinion stipulated seven or nine members. Lastly, there has been a relaxation in the timeliness of information disclosure. Compared to the explanations in the draft for public opinion, the timeframes stipulated in the "Measures" have been extended by an average of 5 working days. For example, the "Measures" state: "The agent shall disclose the information on the management of occupational pensions to government institutions and provide information on the individual account rights of occupational pensions to beneficiaries within 45 working days after the end of the year," which is 5 working days longer than the provisions in the draft for public opinion. Occupational pensions have an average annual contribution of about 150 billion yuan. Unlike the enterprise annuity system, which enterprises can decide whether to establish, occupational pensions are mandatory supplementary old-age insurance for government institutions and public service units, with a government financial bottom-line input to ensure the stable growth of occupational pensions. This also means that the huge business potential brought by the rigid demand for occupational pensions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>中国环境报讯福建省政府近日下发《2014年度主要污染物减排工作的意见》（以下简称《意见》），《意见》明确了今年的减排目标任务。根据《意见》，福建将继续实施减排硬措施，未完成减排任务地区将遭项目限批。《意见》明确，今年福建的减排目标任务为：和去年排放总量相比，化学需氧量减排0.5%，氨氮减排1%，二氧化硫减排1%，氮氧化物减排4%。对未完成年度减排任务的地区和企业实行“一票否决”，暂停其新增相应主要污染物排放的建设项目环评审批。对污水处理设施建设严重滞后、污水处理厂建成一年后负荷率未达60%的地区，实行区域内新增水污染物建设项目环保限批。《意见》要求，力争上半年完成43个省级综合改革建设试点镇污水集中处理，全面启动“六江两溪”流域沿岸1公里范围内的乡镇污水处理工作，确保完成长乐潭头等9个列入国家责任书的2014年度重点项目的污水处理厂新（扩）建任务，全面完成工业园区污水集中处理，省级以上（含省级）工业园区要全面实现污水集中处理，对未按期完成的，实行园区限批和摘牌。《意见》指出，年底前福建90%的规模化畜禽养殖场要完成全过程综合治理，全面供应符合国家第四阶段标准的车用汽油，加快淘汰2005年底前注册运营的黄标车。此外，福建省还将出台比国标更严格的行业排污标准，其中制浆企业比国家现行标准最高从严80%，造纸企业最高从严75%。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The Fujian Provincial Government recently issued the "Opinions on the Reduction of Major Pollutants in 2014" (hereinafter referred to as the "Opinions"), which clearly defines this year's emission reduction targets. According to the "Opinions," Fujian will continue to implement strict emission reduction measures, and areas that fail to meet the reduction targets will face restrictions on project approvals. The "Opinions" specify that this year's emission reduction targets for Fujian are as follows compared to the total emissions of last year: a 0.5% reduction in chemical oxygen demand, a 1% reduction in ammonia nitrogen, a 1% reduction in sulfur dioxide, and a 4% reduction in nitrogen oxides. Areas and enterprises that fail to meet the annual emission reduction targets will face a "veto," suspending the environmental impact assessment approval for new construction projects corresponding to the major pollutants. For areas where the construction of sewage treatment facilities seriously lags behind and the load rate of sewage treatment plants does not reach 60% one year after completion, environmental approvals for new water pollution projects within the region will be restricted. The "Opinions" require striving to complete the centralized sewage treatment in 43 provincial-level comprehensive reform and construction pilot towns in the first half of the year, fully launching the sewage treatment work in towns within 1 kilometer along the "Six Rivers and Two Creeks" basin, ensuring the completion of the new (expansion) tasks of sewage treatment plants for 9 key projects listed in the national responsibility book for 2014, such as Changle and Tantou, and fully completing industrial park sewage centralized treatment. Industrial parks at or above the provincial level must achieve comprehensive sewage centralized treatment. For those who fail to complete on time, the park will face restrictions and removal of approval. The "Opinions" point out that by the end of the year, 90% of the large-scale livestock and poultry farms in Fujian must complete comprehensive treatment throughout the process, provide vehicle gasoline that meets the national fourth stage standards, and accelerate the phase-out of yellow-label vehicles registered and operated before the end of 2005. In addition, Fujian Province will introduce industry emission standards stricter than the national standards, with pulp mills being the strictest at 80% higher than the current national standards, and paper mills at 75% higher than the current national standards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>为落实国务院第83次常务会议关于扩大小型微利企业减半征收企业所得税优惠政策实施范围的决定，近日财政部、国家税务总局下发财税〔2015〕34号和国家税务总局公告2015年第17号文，就此问题进行了明确：一、自2015年1月1日至2017年12月31日，享受小型微利企业减半征收企业所得税优惠政策的应纳税所得额由10万元调整至20万元，即对年应纳税所得额低于20万元（含20万元）的小型微利企业，其所得减按50%计入应纳税所得额，按20%的税率缴纳企业所得税。前款所称小型微利企业，是指符合《中华人民共和国企业所得税法》及其实施条例规定的小型微利企业。二、符合规定条件的小型微利企业，无论采取查账征收还是核定征收方式，均可享受小型微利企业所得税优惠政策。这是2014年扩大范围之后的再一次调整，是国务院为支持小微企业发展和创业创新，释放小微企业税收优惠政策红利的重要举措。希望符合条件的纳税人主动向税务机关申报享受该政策，详情请咨询12366。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>To implement the decision of the 83rd executive meeting of the State Council on expanding the scope of halving the enterprise income tax for small and micro-profit enterprises, the Ministry of Finance and the State Administration of Taxation recently issued the Document No. 34 of Cai Shui [2015] and the Announcement No. 17 of the State Administration of Taxation in 2015, clarifying the following issues: 1. From January 1, 2015 to December 31, 2017, the taxable income eligible for the preferential policy of halving the enterprise income tax for small and micro-profit enterprises has been adjusted from 100,000 yuan to 200,000 yuan. That is, for small and micro-profit enterprises with annual taxable income below 200,000 yuan (including 200,000 yuan), 50% of their income shall be included in the taxable income, and the enterprise income tax shall be paid at a rate of 20%. The term "small and micro-profit enterprises" referred to in the preceding paragraph refers to small and micro-profit enterprises as stipulated in the Enterprise Income Tax Law of the People's Republic of China and its implementing regulations. 2. Small and micro-profit enterprises that meet the specified conditions can enjoy the preferential policy of enterprise income tax for small and micro-profit enterprises, whether they adopt the method of accounting for tax payment or the method of fixed tax payment. This is another adjustment after the expansion of the scope in 2014, which is an important measure taken by the State Council to support the development and innovation of small and micro-enterprises, and to unleash the dividend of tax incentives for small and micro-enterprises. Taxpayers who meet the conditions are encouraged to actively apply to the tax authorities to enjoy this policy. For details, please consult 12366.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 富顺县怀德镇清辉村村委会，张玉仲在这里当村主任已经12年。在距离自贡市区80余公里的富顺县怀德镇清辉村，村民家里但凡有白事，大多会请村里的“张五”来做道场。在他们眼里，“张五”是个很有经验的风水先生。可最近，这个“张五”却受到了非议，因为，除了风水先生，他还有一个身份——清辉村的村主任。一个贫困村的村主任，工作之余“兼职”当风水先生，此事经网络曝光后，外号“张五”的村主任张玉仲被推到了风口浪尖。7月26日，记者来到清辉村，见到了张玉仲。他告诉记者，他已决定辞去村主任职务，风水先生的营生也不打算做了。一重身份：风水师看风水做道场 年收入四五千元今年50岁的张玉仲看上去比较精干，当记者在清辉村村委会找到他时，他才从网上看到媒体关于自己的报道不久。“我觉得挺冤枉的，替人看风水、做道场，其实是我从年轻时起的兴趣，我觉得与我的工作不冲突。”张玉仲说，“我从小就迷恋易经，自己爱钻研。从1980年左右开始学习，1986年结婚，3年后生娃娃，就很少研究这些了。”张玉仲自称这门“技艺”是30多年前从老辈那里学来的，“在我当上村干部前，村里人都知道我在干这个。谁家里有丧事，会请我去看风水、做道场。”在他看来，看风水、做道场是村里一直就有的风俗，大家习以为常，没有什么不妥。在清辉村及周边村社，外号“张五”的张玉仲会看风水、做道场，几乎人尽皆知。“村里有人家修房子要看风水，一般是80元、120元，白事一般是看风水和做道场一起，一般一场五六千元，需要六七个人一起做，我一个人是做不下来的。”张玉仲透露，一般来说，他当“风水先生”一年收入大约四五千元，一年最多就是几场，而且是与人合作。二重身份：村主任一干就是12年 这两年很少做“生意”清辉村是富顺县34个贫困村之一，人口2000多人，张玉仲从2004年开始当村主任至今，一干就是四届，今年是换届的最后一年。张玉仲说，为了生计，婚后他承包了十六七亩土地，一个人干，只为了让家里人过得更好。“1999年，我当上了村里的文书，工作也多了起来，‘风水先生’的活干得更少。”按照张玉仲的说法，他当“风水先生”最频繁的时期，是当村干部之前的几年。“基层工作非常繁杂，各种日常事务，加上调解村里的各种纠纷，干‘风水先生’的时间确实少了。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>In Huade Town, Fushun County, Zhang Yuzhong has been the village head for 12 years. In Qinghui Village, Huade Town, Fushun County, which is more than 80 kilometers away from the downtown area of Zigong City, whenever a villager has a funeral, most of them will invite the village's "Zhang Wu" to conduct rituals. In their eyes, "Zhang Wu" is a very experienced Feng Shui master. However, recently, this "Zhang Wu" has come under criticism because, in addition to being a Feng Shui master, he also holds another position - the village head of Qinghui Village. A village head of a poor village who "moonlights" as a Feng Shui master, this matter, after being exposed on the internet, has put Zhang Yuzhong, the village head known as "Zhang Wu", in a difficult position. On July 26th, a reporter visited Qinghui Village and met with Zhang Yuzhong. He told the reporter that he had decided to resign from his position as the village head and also had no intention of continuing his livelihood as a Feng Shui master. With a dual identity: a Feng Shui master conducting rituals, his annual income is around four to five thousand yuan. Zhang Yuzhong, who is 50 years old this year, looks quite lean. When the reporter found him at the Qinghui Village Committee, he had just seen the media reports about himself online. "I feel quite wronged. Reading Feng Shui and conducting rituals for others has been an interest of mine since I was young. I don't think it conflicts with my job," Zhang Yuzhong said. "I have been fascinated by the Book of Changes since I was young and loved to study it. I started learning around 1980, got married in 1986, had a child three years later, and then rarely studied these things." Zhang Yuzhong claimed that he learned this "skill" from his elders more than 30 years ago. "Before I became a village cadre, everyone in the village knew that I was doing this. Whenever there was a funeral in a family, they would invite me to read Feng Shui and conduct rituals." In his view, reading Feng Shui and conducting rituals have always been customs in the village, and everyone is accustomed to it, seeing nothing wrong with it. In Qinghui Village and surrounding villages, Zhang Yuzhong, known as "Zhang Wu", is well-known for reading Feng Shui and conducting rituals. "When a family in the village is building a house and needs Feng Shui advice, it usually costs 80 to 120 yuan. For funerals, reading Feng Shui and conducting rituals together usually cost around five to six thousand yuan per session, requiring six to seven people to work together. I alone cannot handle it," Zhang Yuzhong revealed. Generally, he earns about four to five thousand yuan a year as a "Feng Shui master", and at most, he conducts a few sessions a year, always in cooperation with others. With a dual identity: serving as the village head for 12 years, he has rarely conducted "business" in the past two years. Qinghui Village is one of the 34 poor villages in Fushun County, with a population of over 2,000. Zhang Yuzhong has been the village head since 2004, serving for four terms, and this year is the last year of his term. Zhang Yuzhong said that to make a living, after getting married, he took on the contract for about sixteen to seventeen mu of land and worked alone, all to provide a better life for his family. "In 1999, I became the village's clerk, and my workload increased. I did less work as a 'Feng Shui master'." According to Zhang Yuzhong, the busiest period for him as a "Feng Shui master" was the years before he became a village cadre. "Grassroots work is very complicated, with various daily affairs, in addition to mediating various disputes in the village, so the time for being a 'Feng Shui master' indeed decreased."</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 惠安传统建筑历史悠久，文化积淀深厚。早在秦汉以前，境内先民已垒墙架木筑屋而居；晋唐衣冠南渡，带来烧灰和制砖瓦的技艺，房屋建筑得以采用砖瓦、石、木等构筑；唐时，有木构架，硬山式坡面顶，弧形瓦面铺作；北宋即具有驱石填海、垒址于源、筏型基础、浮运上梁及殖蛎固基等建造技术；宋元时代，严谨规范的木构架结构和瓦作屋面相得益彰，梁、柱、枋等建筑元素的合理运用和石雕、木雕工艺的完美结合，使惠安传统建筑的地域性趋于突出；明初，建筑工匠编入“匠户”，筑建寨、所城，这些工匠父传子习，世袭相承；明清两代，惠安的战略地位突出，成为闽南重镇，闽地多兴建翼角翘飞的宫庙寺院，惠安工匠不仅于境内建造诸多大型宫观寺庙，还参加福建闽南一带及台湾、东南亚等地的寺庙建筑；清末民国，开创了惠安传统建筑向海外传播新局面；新中国成立后，惠安建筑产业兴起，几十万惠安建筑工匠，遍布全国20多个省市和台港澳及东南亚等地，留下了不胜枚举的传世佳作。而闽南地区传统民居一般作“三开间”“五开间”构式的建筑，几乎都延聘惠安建筑师傅“掌高尺”，组织施工。（辑自张惠评 许晓松著《泉州古代科技史话》）（图片来源于网络）</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Huian's traditional architecture has a long history and profound cultural heritage. As early as before the Qin and Han Dynasties, the ancestors within the territory had already built walls, erected wooden structures, and lived in houses. During the Jin and Tang Dynasties, when the literati migrated south, they brought the skills of burning lime and making bricks and tiles, allowing houses to be constructed using bricks, stones, and wood. During the Tang Dynasty, wooden structures with hard mountain-style sloping roofs and arched tile surfaces were used. By the Northern Song Dynasty, construction techniques such as driving stones to reclaim land, building on the source, raft foundations, floating beams, and solidifying bases with oyster shells were developed. In the Song and Yuan Dynasties, the rigorous and standardized wooden framework structure complemented the tiled roofs, highlighting the regional characteristics of Huian's traditional architecture. In the early Ming Dynasty, craftsmen were incorporated into the "craftsman households" to build forts and cities, passing down their skills from generation to generation. During the Ming and Qing Dynasties, due to Huian's prominent strategic position, it became a key town in southern Fujian. Many grand palaces and temples were built in southern Fujian, Taiwan, Southeast Asia, and other places by Huian craftsmen. In the late Qing Dynasty and the Republic of China era, Huian's traditional architecture began to spread overseas. After the founding of New China, the construction industry in Huian flourished. Tens of thousands of Huian craftsmen were scattered across more than 20 provinces and cities in China, as well as Taiwan, Hong Kong, Macau, Southeast Asia, and other regions, leaving behind countless masterpieces. In the traditional residential buildings of southern Fujian, the "three-bay" and "five-bay" architectural styles are commonly used, with almost all of them hiring Huian architects to oversee construction. (Adapted from "Quanzhou Ancient History of Science and Technology" by Zhang Huiping and Xu Xiaosong) (Image source: Internet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>近期，全国老龄委办公室、国家发改委、民政部等25部委联合印发的《关于推进老年宜居环境建设的指导意见》(下称“意见稿”)，让适老化改造再次成为一大批此前进军养老地产的险企、房企关注的热点。根据媒体记者不完全统计显示，目前已有超过35家上市公司涉足养老地产，其中以房地产公司、保险公司居多，也有一些医疗健康产业公司涉足该领域。作为地产行业的一个新兴领域，在众多机构涌入养老地产后，盈利模式成为这些机构首要考虑的问题，而适老化改造则成为这类机构不得不直面的另一大问题。北京幸福养老服务有限公司董事长刘春生对媒体记者表示，目前市场上一大批进军养老地产、养老社区的机构，所共同面临的一大问题是对建成住宅的适老化改造困局，国内专业的适老化改造的机构并不多，许多房企、险企在适老化改造领域也是摸着石头过河。35家上市公司进军养老地产近年来，传统地产开发商、险资纷纷高调宣布布局养老产业，就连中石化、首钢之类企业也跨界进入。据记者不完全统计显示，截至昨日，有35家上市公司(具体公司请参阅“媒体微保险”)已经涉足或拟进入养老地产领域，其中以房企、险企为主。从非上市公司的角度来看，根据公开资料及记者梳理显示，全国已经有80家房地产企业进入养老地产；有17家险企已进入或拟进入养老地产。从险企来看，记者获悉，2016年10月22日，11家保险公司签约加入“中国保险养老社区联盟”。该联盟旨在为保险公司和地产企业打造一个资源整合的平台，建立资产池，助力保险公司发展养老社区，助力地产企业去库存和转型发展，并助力双方跨界合作实现互惠互利。加入“中国保险养老社区联盟”的险企分别为，太平人寿、太平洋（601099）养老产业投资、新华养老、百年人寿、华夏人寿、吉祥人寿、天安人寿、北大方正人寿、中韩人寿、阳光人寿和昆仑健康。此外，除上述11家险企之外，据记者梳理，还有中国人寿（601628）、中国平安（601318）、合众人寿、泰康人寿、富德生命人寿、前海人寿等6家险企已布局或拟布局养老社区。从地产公司来看，有万科、万达、远洋、保利、复兴、绿城等房企进入养老产业，进入养老产业一方面源于这些房企的转型需求，另一方面，加速的人口老龄化，也为这些房企提供了想象空间。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Recently, the Office of the National Committee on Aging, the National Development and Reform Commission, the Ministry of Civil Affairs, and 25 other ministries jointly issued the "Guiding Opinions on Promoting the Construction of Elderly-Friendly Living Environments" (referred to as the "draft opinions"), making aging-friendly renovation once again a hot topic of concern for a large number of insurance companies and real estate companies that had previously entered the elderly care real estate sector. According to incomplete statistics from media reporters, currently more than 35 listed companies have entered the elderly care real estate sector, with a majority being real estate companies and insurance companies, and some medical and health industry companies have also entered this field. As an emerging sector in the real estate industry, after a large number of institutions have entered the elderly care real estate sector, the profit model has become the primary concern for these institutions, while aging-friendly renovation has become another major issue that these institutions must face. Liu Chunsheng, Chairman of Beijing Happiness Elderly Care Services Co., Ltd., told media reporters that a major issue faced by a large number of institutions entering the elderly care real estate and elderly care community markets is the dilemma of aging-friendly renovation of completed residential buildings. There are not many professional institutions in China specializing in aging-friendly renovation, and many real estate and insurance companies are also feeling their way through the field of aging-friendly renovation. In recent years, 35 listed companies have entered the elderly care real estate sector. Traditional real estate developers and insurance funds have announced their high-profile layouts in the elderly care industry, and even enterprises such as Sinopec and Shougang have entered the field. According to incomplete statistics from reporters, as of yesterday, 35 listed companies (please refer to "Media Microinsurance" for specific companies) have already entered or planned to enter the elderly care real estate sector, with real estate and insurance companies being the main players. From the perspective of non-listed companies, according to public information and reporters' findings, there are already 80 real estate companies nationwide entering the elderly care real estate sector; 17 insurance companies have entered or plan to enter the elderly care real estate sector. From the perspective of insurance companies, reporters learned that on October 22, 2016, 11 insurance companies signed up to join the "China Insurance Elderly Care Community Alliance." The alliance aims to create a resource integration platform for insurance companies and real estate enterprises, establish an asset pool, help insurance companies develop elderly care communities, assist real estate companies in destocking and transformation, and facilitate mutually beneficial cross-industry cooperation between the two sides. The insurance companies that joined the "China Insurance Elderly Care Community Alliance" are Taiping Life, Taipingyang (601099) Elderly Industry Investment, New China Life, CN Life, Huaxia Life, Jixiang Life, Tianan Life, PKU Fanzheng Life, China-Korea Life, Sunshine Life, and Kunlun Health. In addition to the 11 insurance companies mentioned above, according to reporters' findings, there are also 6 insurance companies including China Life (601628), Ping An of China (601318), China Taiping, Taikang Life, Fude Life, and Qianhai Life that have already laid out or plan to lay out elderly care communities. From the perspective of real estate companies, companies such as Vanke, Wanda, Sunac, Poly, Rongxin, and Greentown have entered the elderly care industry. The entry into the elderly care industry is partly due to the transformation needs of these real estate companies, and on the other hand, the accelerated aging of the population has also provided these real estate companies with room for imagination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 又是一年举家春游的好时节。如今环保日益受到重视，无论是远行的旅游自驾，还是附近的登山远足，低碳节能已成为大家出行的宗旨之一。2015款新桑塔纳以高效节能的动力表现，并搭载娱乐、安全的科技配置，陪伴广大车主惬意出行，乐享春光。2015款新桑塔纳搭载的EA211环保发动机，采用铝合金打造，使发动机体积及重量大幅减小，并将油耗及二氧化碳排放均控制在较低水平。同时，与之搭配的六速自动变速箱，能够有效减小发动机转速变化幅度，降低油耗。2015款新桑塔纳1.4T DSG尊享版车型同样动力十足且节能环保，搭载的发动机额定功率达96kw，最大扭矩达225N·m，在保证动力性的同时，以尽量少的燃油消耗量经济行驶，为节能环保出一份力。春回大地，草绿花香。美景当前，有了音乐的相伴相信出行将更加惬意。2015款新桑塔纳配置的多媒体娱乐系统，拥有Aux-in、USB、SD 卡以及蓝牙等多种音频输入方式，为音乐播放带来更多选择和便利。同时，2015款新桑塔纳提供的音量智能随速调节功能，可使音量跟随车速变化进行智能调节，让旅途随心随行，惬意自如。举家出游，安全不可忽视，2015款新桑塔纳以周到智能的安全配置，悉心为车主打造安心出行。2015款新桑塔纳搭载新版ESP车身动态电子稳定系统，能对车轮进行动态制动调整，可较好地保持旅途中车辆行驶的稳定性，提升车辆在恶劣路况的低速制动表现。无论是郊野泥泞道路还是湿滑的路况，均带来更为安心的驾驭体验。此外，2015款新桑塔纳的激光焊接高强度安全车身、新一代WOKS安全头枕及儿童安全座椅固定装置等配置，为全家出行带来贴心保护。2015款新桑塔纳以高效节能的动力表现、前瞻实用的科技配置和周到的安全性能，为广大车主带来绿色、愉悦、安全的春游行车体验，陪伴车主享受惬意的春季出行。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>It's the good season for family spring outings again this year. Nowadays, environmental protection is increasingly valued. Whether it's long-distance travel by self-driving or nearby mountain hiking, low-carbon energy conservation has become one of the purposes for everyone's travel. The 2015 new Santana is equipped with a high-efficiency and energy-saving power performance, as well as entertainment and safety technological configurations, accompanying numerous car owners for a comfortable journey and enjoying the spring scenery. The EA211 environmentally friendly engine installed in the 2015 new Santana is made of aluminum alloy, significantly reducing the engine's volume and weight, and controlling fuel consumption and carbon dioxide emissions at a lower level. At the same time, the matched six-speed automatic transmission can effectively reduce the engine speed change range, lowering fuel consumption. The 2015 new Santana 1.4T DSG deluxe model also has ample power and is energy-efficient and environmentally friendly. The engine's rated power reaches 96kw, and the maximum torque reaches 225N·m. While ensuring power performance, it drives economically with minimal fuel consumption, contributing to energy conservation and environmental protection. As spring returns to the earth, with green grass and fragrant flowers, the beautiful scenery now accompanied by music will surely make the journey more enjoyable. The multimedia entertainment system equipped in the 2015 new Santana offers various audio input methods such as Aux-in, USB, SD card, and Bluetooth, providing more choices and convenience for music playback. Additionally, the intelligent speed-adjustable volume function provided by the 2015 new Santana can intelligently adjust the volume according to the vehicle speed, allowing for a carefree and comfortable journey. Safety cannot be ignored when traveling with the family. The 2015 new Santana is meticulously designed with intelligent safety configurations to ensure a worry-free journey for car owners. The new version of ESP dynamic electronic stability control system installed in the 2015 new Santana can dynamically adjust the braking of the wheels, effectively maintaining the stability of the vehicle during the journey and enhancing the low-speed braking performance in harsh road conditions. Whether it's muddy off-road or slippery roads, it brings a more reassuring driving experience. Furthermore, the 2015 new Santana's laser-welded high-strength safety body, the new generation of WOKS safety headrests, and child safety seat fixing devices provide considerate protection for the whole family during the trip. With its high-efficiency power performance, forward-looking practical technological configurations, and thoughtful safety features, the 2015 new Santana brings a green, pleasant, and safe spring outing experience to numerous car owners, accompanying them to enjoy a comfortable spring travel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>店铺开在了偏僻的地方？人流量少？距离幼儿园和小学比较远？周围的商业氛围不浓？开业大半年了经营状况还是差强人意？ 其实，开错店铺的童装店还有救！只要你做好网络营销、口碑传播等线上线下各种活动，照样会带来源源不断的客人，正所谓真金不怕红炉火，酒香不怕巷子深。 如今，买衣服上淘宝，吃饭上饿了么，看新闻上微博，打电话上微信，人们的消费习惯和生活习惯已经与互联网密不可分，在互联网+时代下，零售业路在何方？在商业浪潮中，我们应学会顺势而为，改变思维模式。互联网是这个时代的脉络，已经延伸到社会的每个角落。谁抓住了互联网时代的节奏谁就紧扣了时代脉搏。实体店要有突破，就应该摒弃原先的传统思维，像互联网思维靠近，以客户为中心，注意与顾客的互动，打造一个现代的“数字化”的实体店。 那么实体店怎么跟上消费者的步伐，取悦和迎合消费者呢？1、店铺内（1）创建自己的微信公众号，开设微店，在店里设计很多二维码小立牌，并且在产品的礼袋上也有二维码标识，通过扫一扫把实体店与微店进行打通，实现了产品信息的平台分享。后期可做到，线上下单，店内拿货。 （2）气球5岁左右儿童都喜欢气球，气球上须有简单店面名称，有氢气球更好。把吹起来的各色气球插满所有柜台，从外边看，五彩缤纷，热闹非凡。见儿童就发气球，让店面成为儿童喜欢的地方。 （3）集赞获得优惠若家长把孩子试穿的照片发到朋友圈，24小时集赞达到规定的数量就可免费获得一定数量的代金券，代金券可以刺激消费。 （4）节假日时动员家长将穿着本店童装的儿童照片交给童装店，照片贴在店内展示栏，以及在公众号内推送宝贝照片，评选自己最喜欢的漂亮宝贝，得票最多者可5折获得所穿童装一套，这样会带动大家的积极性，同时也会带来人流量。 （5）在公众号上征集“我店小明星”活动，每个宝贝都有机会成为本店小明星，制作成海报悬挂在店内外，可作为本店“每周一星”的广告代言，同时凡参与者都会成为本店会员，享有各种消费优惠和积分。 （6）以本店会员为资源，建立宝贝微信群，讨论宝贝学习与成长话题，定期做新款推荐，品牌传播，注重口碑的力量，不断增强会员黏度和刺激消费。2、店外互动既然店铺位置不好，消费者不会主动过来，我们就反其道而行之，主动去找消费者，积极与其互动，做好宣传工作。（1）特定时间在幼儿园和小学门口摆放印有二维码的海报，凭扫一扫并关注公众号可免费获得各种造型的卡通、动物等气球。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>The store is located in a remote area? Low foot traffic? Far from kindergartens and primary schools? The surrounding commercial atmosphere is not strong? The business situation has been mediocre since opening for half a year? In fact, there is still hope for a children's clothing store opened in the wrong location! As long as you do well in online marketing, word-of-mouth promotion, and various online and offline activities, you will still attract a steady stream of customers. As the saying goes, true gold fears no fire, and good wine fears no alley. Nowadays, people buy clothes on Taobao, order food on Ele.me, read news on Weibo, make calls on WeChat, and their consumption habits and lifestyle habits are closely tied to the Internet. In the era of Internet+, where is the road for the retail industry? In the commercial wave, we should learn to adapt to the trend and change our mindset. The Internet is the backbone of this era, extending to every corner of society. Whoever seizes the rhythm of the Internet era will be in sync with the pulse of the times. To make a breakthrough in physical stores, we should abandon traditional thinking, move closer to Internet thinking, focus on customer-centricity, pay attention to interacting with customers, and create a modern "digitalized" physical store. So how can physical stores keep up with consumers, please and cater to them? 1. In-store strategies: (1) Create your own WeChat official account, open a WeChat store, design many QR code signs in the store, and also have QR code labels on product gift bags. By scanning, connect the physical store with the WeChat store, achieving platform sharing of product information. Later, online orders can be picked up in-store. (2) Balloons: Children around 5 years old like balloons. Balloons should have the store name on them, and helium balloons are even better. Fill all counters with colorful balloons, making the store look lively and vibrant from the outside. Give out balloons to children, making the store a place children love. (3) Get discounts through likes: If parents post photos of their children trying on clothes to their Moments, and within 24 hours, the post receives a certain number of likes, they can get a certain amount of vouchers for free, which can stimulate consumption. (4) Mobilize parents during holidays to submit photos of children wearing the store's children's clothing to the store. The photos will be displayed in the store showcase and promoted on the official account. The most voted child can get a 50% discount on the outfit they wore, which will boost everyone's enthusiasm and bring in more foot traffic. (5) Conduct a "Our Store's Little Star" activity on the official account, where every child has the opportunity to become the store's little star. Make posters of the children and hang them inside and outside the store, serving as the store's "Star of the Week" advertisement. Participants will become store members, enjoying various consumption discounts and points. (6) Use store members as resources to establish a children's WeChat group, discuss topics related to children's learning and growth, regularly recommend new products, brand promotion, focus on the power of word-of-mouth, and continuously enhance member stickiness and stimulate consumption. 2. External interaction: Since the store's location is not ideal and consumers won't come on their own, we should take the initiative to reach out to consumers, actively interact with them, and do good publicity. (1) At specific times, place posters with QR codes at the entrances of kindergartens and primary schools. By scanning and following the official account, people can get various styles of cartoon, animal, and other balloons for free.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>这两天，一张照片在网上火了……拍摄于合肥阜阳路大润发门前，由于画面太过搞笑，瞬间就火了！这张图是这个样子滴： 冷冷的冰雨在脸上胡乱地拍……孩子一脸迷茫，我的伞呢？ 生无可恋.jpg 孩子：奶奶，我是不是你最疼爱的人？PS 高手们也闻风而动，把 " 表情包网红 " 宋民国给P了上去↓ 毫无违和感有木有？！更有网友po出亲妈带孩子打伞的图片↓ 妈说：我才是宝宝，你先忍耐一下吧还有亲爹版本的↓ 孩子：我拿你当爹，你拿我当伞 …除了撑伞这种小细节，熊父母为了防止孩子乱跑，也是纷纷放出各种大招↓↓↓这个风景不错我要拍一下，孩子不能乱跑，吊一下吧... 拍照了要保持微笑、pose摆好，孩子呢？只要入镜就行了吧... 爹说：我知道这样做不对，但是真的控制不住自己...（笑哭） 打电话的时候孩子乱跑可不行，来来来，夹一下 啊！微风拂面，景色怡人，让我感受一下这世界的美好先~ 被熊父母无视，有时候他们还得倒过来帮忙，小小年纪就撑起一个家...捞硬币…… 人肉背垫…… 人肉楼梯…… 亲情的火苗说灭就灭...说好的亲情大过天呢？孩子，人生路还很长，你要坚强！看到这里，小青妹突然想起了另一张曾火遍网络的图片，同样是下雨天，同样是给孩子打伞他却感动了全世界。▼ 玩笑归玩笑，笑过之余，我们也要反思。虽然带孩子都不容易，但有些行为，千万不要做！1让宝宝站在购物车内危险动作：逛超市时直接将孩子放进购物车里。潜在危害：孩子站在购物车里，一个趔趄很容易头朝下重重的摔在地上造成颅骨骨折。轻微的翻车也可能导致孩子骨折擦伤。2亲吻孩子、用嘴喂养危险动作：嘴对嘴亲吻孩子，将自己咀嚼后的食物喂给孩子潜在危害：亲吻可传染270多种细菌，春秋季是“亲吻病”高发期。一年四季均可发病，潜伏期在1～2周，起病急缓不一，症状呈多样性，如咽炎型、腺热型、淋巴结肿大最为常见。3开飞机危险动作：一手抓在宝宝的脖颈处，一手抓在宝宝的脚踝处，用力向上将宝宝托举起来，宝宝的姿势像一架小飞机，不停地向前、转圈“飞行”。潜在危险：这样做容易致颈椎脱位，还有使宝宝跌伤的危险。 4抛宝宝危险动作：用手托住宝宝的身体往上抛出三四尺高，在其下落时用双手接住。潜在危害：宝宝自上落下，跌落的力量非常大，不仅有可能损伤成年人，而且成年人手指也有可能戳伤宝宝，如果被戳到要害部位，会引起内伤。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>These days, a photo has gone viral online... taken in front of the RT-Mart on Fuyang Road in Hefei, due to the hilarious scene, it instantly became popular! The picture looks like this: The cold rain is slapping randomly on the face... The child looks confused, where is my umbrella? Lifeless.jpg Child: Grandma, am I the one you love the most? PS Masters also joined in, photoshopping the "meme star" Song Mingguo onto it↓ No sense of violation, right?! Furthermore, some netizens posted a picture of a mother holding an umbrella for her child↓ Mother says: I am the baby, you have to endure it for a while. There is also a version with the father↓ Child: I treat you as my dad, you treat me as an umbrella... Apart from holding an umbrella, bear parents also released various tricks to prevent the child from running around↓↓↓ This scenery is nice, let's take a picture, the child cannot run around, let's lift him up... When taking a photo, remember to smile and pose well, what about the child? As long as he is in the frame, it's fine... Dad says: I know this is wrong, but I can't control myself... (laughing and crying) It's not okay for the child to run around while on the phone, come here, let me hold you. Ah! The gentle breeze, the beautiful scenery, let me feel the beauty of this world first~ Being ignored by the bear parents, sometimes they have to turn around and help, at such a young age, they are already supporting a family... acting as a coin scoop... a human cushion... a human ladder... The flame of affection can be extinguished at will... What about the promise that affection is greater than the sky? Child, the road of life is still long, you have to be strong! Seeing this, Xiao Qing suddenly remembered another picture that once went viral on the internet, also on a rainy day, also holding an umbrella for the child, but it moved the whole world. ▼ Jokes aside, after laughing, we also need to reflect. Although it's not easy to raise a child, there are some behaviors that must not be done! 1. Letting the baby stand in the shopping cart Dangerous action: Putting the child directly into the shopping cart while shopping in the supermarket. Potential harm: The child standing in the shopping cart, a stumble can easily cause a heavy fall on the head, leading to a skull fracture. Even a minor accident could result in the child suffering from fractures and abrasions. 2. Kissing the child, feeding with mouth Dangerous action: Kissing the child on the mouth, feeding the child with chewed food from one's mouth. Potential harm: Kissing can transmit over 270 kinds of bacteria, and the spring and autumn seasons are the peak periods for "kissing diseases." The disease can occur throughout the year, with an incubation period of 1 to 2 weeks, and the onset can be sudden or gradual, with various symptoms such as pharyngitis, glandular fever, and swollen lymph nodes being the most common. 3. Playing airplane Dangerous action: Holding the baby by the neck with one hand and by the ankle with the other hand, lifting the baby forcefully upwards, making the baby's posture resemble a small airplane, continuously moving forward and spinning in circles "flying." Potential harm: This action can easily cause dislocation of the cervical vertebrae, and there is also a risk of the baby falling and getting injured. 4. Tossing the baby Dangerous action: Using hands to toss the baby's body upwards three to four feet high, and catching the baby with both hands as it falls. Potential harm: The force of the baby falling from above is very strong, not only can it injure the adult, but the adult's fingers can also accidentally poke the baby, causing internal injuries if poked in a vital area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>外媒称，香港首富李嘉诚斥资15亿港元捐造的慈山寺，根据寺方秘书长倪启端表示，订于4月15日起开放予公众善信，但每天限额400人，并已接受网上和电话预约。据法国国际广播电台网站3月30日报道，有别于其他多数寺庙，慈山寺内参拜观音时不准烧香，以“供水”取代；寺内而且还建有一个盛传是李嘉诚专用的防弹私人禅修室。位于新界大埔洞梓占地约4.6万平方米的慈山寺，在建造期间，因为负责施工的俊和工程公司与李嘉诚的长实集团就工程改动所需的额外费用发生纠纷，双方两年前一度对薄公堂，而有关寺院建造材料之精挑细选，以及一个盛传足可抗御炸弹和子弹的私人禅修室，亦因此而曝光。慈山寺秘书长倪启瑞表示，寺方有必要限制入寺人数，不接待旅行团，目的要“保持番寺庙清幽，另外面对附近居民，如果太多人流，会对附近居民有影响”。他补充预约入寺要选定时段，分八个时段分散人流，参观者可参加抄经、供水和行禅等活动。寺方近日安排传媒入内参观，包括盛传是李嘉诚专用的私人禅修室。该房间位于寺内三座僧寮其中一座之内，睡房连洗手间面积约27平方米，布置淡雅简朴，放置一张双人床、一部电视机。门窗有防弹玻璃，洗手间作为“安全房”。据记者观察，洗手间木门内嵌钢板，异常厚重，大力才能推动，墙身明显加厚。主人房注重对外联络，有3台电话，洗手间墙身有按键式警报器，将紧急讯息传至保安或控制中心。根据慈山寺的设计和造像顾问何培斌教授的介绍，以及上述工程费用官司案的法院文件显示，寺庙用料豪华，木材采用从非洲进口紫檀木兴建，大雄宝殿三尊大佛的莲花状宝盖镀上24K金。而屋顶采用日本烧造银瓦，确保色泽均匀。何培斌指，全寺部份摆设价值难以估算，例如2012年斯里兰卡总统送赠佛陀悟道处的菩提圣树折枝，从敦煌莫高窟以精密仪器拍摄，复制出“弥勒经变”、“文殊经变”和“普贤经变”壁画。报道引述倪启瑞表示，他否认寺庙过于豪华，强调寺院模仿唐代设计，亦希望犹如学院帮助市民学习佛法。他说：“佛法在东方琉璃世界非常之清凉，而西方的世界是黄金为地，佛法有很多不同法门，我们希望提供适宜环境给人学习”。倪启端亦否认寺院特别为李嘉诚打造私人禅修室的说法，设计也非李嘉诚授意，而是由建筑团队构思。不过报导引述资料显示，建寺工程正是由长实发展部承担。倪说，高设防房间是用作招呼大长老、僧王，但拒绝透露保安投资额。李嘉诚曾到场观察，亦参加法会，但暂时没有入住。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Foreign media reported that Hong Kong's richest man Li Ka-shing donated 1.5 billion Hong Kong dollars to build Tsz Shan Monastery. According to the monastery's secretary-general Ni Qi-duan, it will be open to the public and believers starting from April 15th, with a daily limit of 400 people. Reservations can be made online or by phone. 
+As reported by Radio France Internationale's website on March 30th, unlike most other temples, at Tsz Shan Monastery, incense burning is not allowed when worshipping Guanyin, and instead, "water offerings" are used. Additionally, there is a rumored bulletproof private meditation room believed to be exclusively for Li Ka-shing. 
+Located in Tai Po, New Territories, Tsz Shan Monastery covers an area of approximately 46,000 square meters. During its construction, there was a dispute between the construction company responsible, Chun Wo Engineering, and Li Ka-shing's Cheung Kong Group over additional costs for project modifications. Two years ago, the two parties even went to court. Details about the meticulous selection of building materials for the monastery and the rumored private meditation room capable of withstanding bombs and bullets were exposed as a result. 
+Ni Qi-rui, the monastery's secretary-general, stated that it is necessary to limit the number of visitors and not receive tour groups in order to maintain the tranquility of the monastery and minimize the impact on nearby residents. Visitors need to make appointments for specific time slots, with eight time slots available to spread out the flow of people. Activities such as copying scriptures, water offerings, and walking meditation can be participated in by visitors. 
+Recently, the media was allowed to visit the monastery, including the rumored private meditation room believed to be used by Li Ka-shing. This room is located inside one of the three monks' quarters in the monastery, with a bedroom connected to a bathroom covering an area of about 27 square meters. The room is elegantly simple, with a double bed and a television. The windows and doors are made of bulletproof glass, and the bathroom serves as a "safe room." Observers noted that the bathroom door is embedded with steel plates, making it exceptionally heavy and requiring significant force to push open, with visibly thickened walls. 
+The master bedroom focuses on external communication, with three telephones available, and the bathroom wall features a keypad alarm that can send emergency messages to security or a control center. According to Professor He Pei-bin, the design and sculpture consultant for Tsz Shan Monastery, as well as court documents related to the aforementioned construction cost lawsuit, the materials used in the temple are luxurious. The wood used is imported African rosewood, and the lotus-shaped canopies of the three Buddha statues in the main hall are plated with 24K gold. The roof is made of Japanese-fired silver tiles to ensure uniform color. He Pei-bin pointed out that some of the decorations in the temple are of inestimable value, such as a branch of the Bodhi tree gifted by the President of Sri Lanka in 2012, which was photographed with precision instruments at the Dunhuang Mogao Grottoes to replicate the murals of the "Maitreya Sutra," "Manjusri Sutra," and "Samantabhadra Sutra." 
+Reports quoted Ni Qi-rui as denying that the monastery is overly luxurious, emphasizing that the design of the monastery is modeled after the Tang Dynasty and aims to help citizens learn Buddhism like in an academy. He said, "Buddhism is very pure in the Eastern Lapis Lazuli World, while the Western world is a place of gold. Buddhism has many different teachings, and we hope to provide a suitable environment for people to learn." Ni Qi-duan also denied the claim that the monastery was specifically built for Li Ka-shing's private meditation room, stating that the design was not at Li Ka-shing's direction but conceived by the architectural team. However, reports cited data showing that the construction of the monastery was undertaken by the Cheung Kong Development Department. Ni mentioned that the high-security room is used to welcome senior monks and leaders but declined to disclose the amount invested in security. Li Ka-shing has visited and attended ceremonies but has not stayed overnight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>共读“陈颖语文”qq群活动一碗汤的温度叶倾城①那时，我对自己说：“每个人生命中，都会有一两次寒冬。”但也许有的人生活在亚热带，连秋天都没见过呢。又或者，真正的寒潮会在明天才陡然到达，把我冻僵。啊，我还没减肥成功，史上最胖的一尊冰雕。②最山穷水尽的时候，我找到了一份工作：钱少得不能提，路远得一塌糊涂。我在百度地图上查到公交车，后来才发现这趟车要绕个大圈子。微有阳光、全无暖意的下午，我扣紧羽绒服所有的扣子，穿过四环积雪未融的桥洞去搭公车，黄花鱼一样贴着边，经常有疾驰的三轮车、电动车与我擦身而过。应该有车水马龙，记忆里却死寂，许是我聋了，要么内心的哭喊太大声。③在车上，我迟钝地看着窗外，看到一块“周记米粉”的招牌，我下了车。④是临街民居的底楼，要上几步台阶，一进门暖气扑面，满眼郁郁葱葱的绿叶植物。叫了份“招牌米粉”，我连汤都喝尽，热流一点一滴，在全身弥漫开来，像一只手轻轻拂过我全身。不够给力，不是一把揽我入怀，但已经够让我有力气去搭长长的一程车。⑤就这样，每天车行此处，我就下来吃一碗米粉。有时是正饭点，一屋子人，更显得热闹。玻璃板下压着井字蓝格桌布，老板娘扬声向后厨报客人点的餐。我的米粉端上来，扑我一脸热气，是食物的舌吻。我突然间，意识到了饿，是知觉被唤醒。⑥曾经的我，“饿过劲”了。求而不得，于是索性不求——不用因此承担得不到的绝望。真正的无欲则刚。⑦但此刻，热汤在口腔里，米粉像一群滑梯上的小孩子，嗤溜嗤溜、排着队下肚。周身都发出满足的低吟。⑧即使我还一无所有：爱人离开我，事业正低谷，我与世界爱恨交织。未来是紧闭着的嘴，我渴望它吐出祝福又怕会听到诅咒。但，能有一碗热汤粉吃，就是幸福。⑨我把菜单看了又看，终于扬声：“老板，给我加一个蛋。”没关系，即使他答“没鱼丸没粗面”，我还可以要牛腩。⑩握筷在手，我像《胡桃夹子》里被魔法变身的王子，一点点，从指尖开始，从木偶人化回血肉之躯。啊，吃饱了，多么好。我还不及成为熟客，公司就搬了家，我从此再没有去过那家店。回忆起那段日子，像《海洋》最后的一个镜头，被割去双翅的鲨鱼沉默地、沉默地坠进海底，一动不动，连血色都只有一点点，在海水里很快看不见了。只有它，有声有色：绿植物，花桌布，老板娘温软的南方口音，常常放着一首歌：《勇气》。以及，冰冷世界里，一碗热汤粉。在我的冬天里，它是一个名叫“春天”的岛屿。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Together we read the "Chen Ying Chinese Language" QQ group activity, the temperature of a bowl of soup, Ye Qingcheng① At that time, I said to myself: "In everyone's life, there will be one or two cold winters." But maybe some people live in subtropical areas and have never even seen autumn. Or perhaps, the real cold wave will suddenly arrive tomorrow and freeze me. Ah, I haven't successfully lost weight yet, the fattest ice sculpture in history.② At the most desperate moment, I found a job: the pay was so low that it couldn't be mentioned, and the distance was so far that it was a mess. I found the bus on Baidu Maps, only to realize later that this bus had to take a big detour. On a slightly sunny afternoon with no warmth, I buttoned up all the buttons on my down jacket, crossed the snow-covered bridge of the Fourth Ring Road to catch the bus, sticking close to the edge like a yellow croaker, often being passed by speeding tricycles and electric bikes. There should be a bustling scene of cars and horses, but in my memory, it is dead silent, perhaps I am deaf, or maybe the inner cry is too loud.③ On the bus, I sluggishly looked out the window and saw a sign for "Zhouji Rice Noodles," so I got off the bus.④ It was the ground floor of a residential building facing the street, with a few steps to climb, and as soon as I entered, the heating hit me, with lush green plants filling my eyes. I ordered a "signature rice noodle," drank up all the soup, the hot flow seeping bit by bit, spreading throughout my body, like a hand gently brushing over me. Not powerful enough to embrace me, but enough to give me the strength to take a long journey on the bus.⑤ So, every day on this route, I would get off and eat a bowl of rice noodles. Sometimes it was mealtime, with a room full of people, making it more lively. Under the glass panel was a blue checkered tablecloth, and the landlady called out the orders to the kitchen. When my rice noodles were served, the hot steam hit my face, a kiss of food. Suddenly, I realized I was hungry, my senses awakened.⑥ I used to be "starving." Unable to obtain, so I simply stopped seeking—no need to bear the despair of the unattainable. True contentment lies in having no desires.⑦ But at this moment, with the hot soup in my mouth, the rice noodles were like children on a slide, sliding down in line into my stomach. A satisfied hum emanated from my whole body.⑧ Even though I had nothing: my lover left me, my career was at a low point, and I was entangled in love and hate with the world. The future was a closed mouth, I longed for it to speak blessings but feared hearing curses. Yet, having a bowl of hot soup noodles was happiness.⑨ I looked at the menu again and again, and finally exclaimed, "Boss, add an egg for me." It didn't matter, even if he said "no fish balls, no thick noodles," I could still ask for beef brisket.⑩ With chopsticks in hand, I felt like the prince in "The Nutcracker" who had been magically transformed, slowly returning from a puppet to a flesh-and-blood body, starting from the fingertips. Ah, being full, how wonderful. Before I could become a regular customer, the company moved, and I never went to that shop again. Recalling those days, it was like the final scene in "The Ocean," a shark with its wings cut off silently sinking to the seabed, motionless, even its blood color fading away quickly in the seawater. Only it, with sound and color: green plants, flowery tablecloth, the soft southern accent of the landlady, often playing a song: "Courage." And in the cold world, a bowl of hot soup noodles. In my winter, it is an island called "Spring."</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>在去年年中的时候，突然有一种健康营养的零食火爆朋友圈！那就是红枣夹核桃！主要这种零食看起来既美味又营养，红枣美容养颜，核桃助益大脑，正因为所需的原材料都是好东西，所以特别昂贵！ 在某宝网站上销量大的商家一月销量有数万袋消费者反馈沈阳白领李女士表示：“枣夹核桃又甜又香，平时不爱吃核桃的也爱吃，并且口感很好，又补脑又补血。”而大部分消费者多是满意于“食用方便”、“味道不错”、“纯天然的干果无添加剂”。 但！重点来了！下边这个视频，来自太原电视台2015年11月2日《新闻快车》节目，和小编一起去看看目前太原市场上枣夹核桃的市场情况。加工过程干净不？“枣加核桃”的枣是咋去核的？主要还去除的那么完整。核桃仁是怎么弄出来的，又是怎么的装进枣里的？ 是纯手工还是全程机器运作？”一系列问题浮现脑海！忽然，微微又想起小时候的一个疑问：超市卖的那么多剥好的瓜子仁是全是人嗑出来的吗？那得多累啊！ 回到正题上来，所以这个核桃和红枣跟瓜子差不多一个性质，是人工一边吃着一边脱壳脱籽还是在机器上反复“摸爬滚打”完工？工作人员有没有戴口罩、帽子、一次性手套操作。据微微了解，生产“枣夹核桃”的大多是小作坊，几乎是“纯手工”制作，这样生产出来的产品符合国家卫生标准吗？微微光想像画面就有点……疑虑。 存在产品信息不全的问题很多卖家卖的是自己手工制作的“枣夹核桃”。小作坊经营，没有牌照。而市面上销售的“枣夹核桃”琳琅满目，有些产品质优，可是有些包装袋上却没有标注厂名厂址、生产日期、食品许可证批号等信息，颇有些鱼目混珠之意。大家购买的时候可要认真看清，不要买到没有质量保证的产品。近日《华商报》记者根据网友的爆料对“枣夹核桃”市场进行了暗访结果……记者暗访：成品露天堆放，旁边还有垃圾记者来到帖子中所说的西安市胡家庙果品批发市场实地了解。市场最东侧是一排干果批发商户，店门口堆放着各类干果。记者注意到，几乎每个摊位上都有红色小袋子装着的枣夹核桃，袋子上有“补血又补脑”“陕西特产”等字样，包装背面的营养组成说明的字体极小、不易辨认，包装上也找不到生产厂家。看到记者关注该商品，老板立刻推销：“枣是补血的，核桃是补脑的，现在人都喜欢吃。”一位老板说，这种吃法是从新疆那边传过来的，制作大多用的是新疆枣。 这些商户对面的市场空地也被部分商户摆上了商品，在这些商品中间，记者看到了枣夹核桃的制作过程。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>In the middle of last year, a healthy and nutritious snack suddenly became popular in the circle of friends! That is jujube stuffed with walnuts! Mainly because this snack looks both delicious and nutritious, jujube is good for beauty and walnut is beneficial for the brain. Due to the fact that the required raw materials are all good stuff, it is particularly expensive! On a popular online shopping website, a seller with large sales volume sells tens of thousands of bags per month. Consumer feedback from Ms. Li, a white-collar worker in Shenyang, said, "Jujube stuffed with walnuts is sweet and fragrant, even those who don't usually like walnuts love it, and it has a great taste, nourishing the brain and blood." Most consumers are satisfied with the "convenience of consumption", "good taste", and "pure natural dried fruits without additives". But! The key point is here! In the following video from the program "News Express" of Taiyuan TV Station on November 2, 2015, let's take a look at the current market situation of jujube stuffed with walnuts in the Taiyuan market. Is the processing process clean? How are the jujubes in "jujube stuffed with walnuts" pitted? And how are the walnut kernels extracted and put into the jujubes? Is it done purely by hand or entirely by machine operation? A series of questions come to mind! Suddenly, I remembered a childhood question: Are all the shelled melon seeds sold in supermarkets shelled by people? That must be very tiring! Getting back to the point, so are these walnuts and jujubes similar to melon seeds in nature, where people shell and pit them while eating, or are they repeatedly processed on machines? Do the staff wear masks, hats, and disposable gloves during the operation? According to my understanding, most of the producers of "jujube stuffed with walnuts" are small workshops, almost entirely "handmade". Are the products produced in this way in line with national hygiene standards? Just imagining the scene makes me a bit doubtful. There are many problems with incomplete product information. Many sellers sell "jujube stuffed with walnuts" handmade by themselves. Small workshops operate without a license. While there is a wide variety of "jujube stuffed with walnuts" available on the market, some products are of good quality, but some packaging bags do not indicate the factory name and address, production date, food license number, etc., which is somewhat misleading. When purchasing, everyone should carefully check and not buy products without quality assurance. Recently, reporters from "Huashang Bao" conducted a secret investigation into the "jujube stuffed with walnuts" market based on tips from netizens... Undercover investigation by reporters: Finished products are piled up in the open air, with garbage nearby. Reporters visited the Hu Jiamiao Fruit Wholesale Market in Xi'an as mentioned in the post to learn more. At the easternmost end of the market, there is a row of dried fruit wholesalers, with various dried fruits piled up at the store entrance. The reporters noticed that almost every stall had jujube stuffed with walnuts in small red bags, with words like "nourishing blood and brain" and "specialty of Shaanxi" written on the bags. The font of the nutritional composition description on the back of the packaging is extremely small and difficult to read, and the packaging does not show the manufacturer. Seeing the reporters' interest in the product, the boss immediately promoted it: "Jujube is for nourishing blood, and walnut is for nourishing the brain, people nowadays all like to eat it." One boss said that this way of eating was passed down from Xinjiang, and most of the production uses Xinjiang jujubes. The market space opposite these merchants is also filled with goods, and in the midst of these goods, the reporters saw the process of making jujube stuffed with walnuts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 人工智能究竟是什么？将何去何从？IBMCEO罗睿兰（GinniRometty）近日为《华尔街日报》撰文讲述了自己的理解。在罗睿兰看来，外界对机器学习技术存在着大量的认识误区，人工智能的崛起令人兴奋，但同时也引发了一些人的恐惧——担心这些机器人终有一天会拥有自主意识而反噬人类。但她指出，“如果你参与到机器智能的研究当中，就会明白这些都是由于误导性表达而形成的错误观念。” 图片来自：Fortune“AI 是一个误称”在文章中，罗睿兰介绍了“人工智能”一词的由来：最早出现在 1955 年，“表达的是通用智能的概念，意思是人类的所有认知都来自一个或多个基础算法，通过编程，让计算机以同样的方式思考，我们就能够创造出模拟人类大脑的自动系统。” 图片来自：Gizmodo在当时，一些研究人员采用了自下而上认识法，试图从逐渐增长的数据量中寻找模式，称之为 IA——“智能增强”（intelligence augmentation）。罗睿兰表示虽然这种方法未能建立人脑模型，却造就了我们当前的认知系统。或许 IA 的概念对于我们来说过于抽象，但你只要知道我们现在的“语言处理机器学习、人机交互”等技术背后，都少不了 IA 的支持就够了。至于如今大火的 AI 概念，罗睿兰表示“尽管‘AI’一词最终胜出，但这只是一个误称”。“AI 改变了一个又一个行业”IBM 在人工智能领域有着丰富的底蕴，罗睿兰在文章中自然免不了提及自家的 AI 产品 Watson。她表示从法律到医学、从教育到零售，人工智能已经改变了一个又一个行业，比如 Watson 就能干很多事了：与纪念斯隆-凯特琳癌症中心合作治疗肿瘤、为梅西百货顾客提供个性化服务、与“芝麻街”合作打造认知导师、甚至还能够参与电影制作。 图片来自：Fortune同样基于算法与程序，那么 AI 与普通计算机究竟有何区别？罗睿兰是这么解释的： “视频、音频、来自传感器的信息、医疗记录和电影片段等，这些数据有 80%是非结构化数据，传统计算机对此无能为力，它们能够抓取信息，却无法理解其含义，但认知系统能够读懂这些数据。” “谁将在数字化时代胜出？” 在罗睿兰看来，这些认知系统既非自动化，也不带有情感，“但它们形成一种新的非人工智能，增强了我们了解周围复杂世界的能力。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>What is artificial intelligence exactly? Where is it heading? IBM CEO Ginni Rometty recently wrote an article for The Wall Street Journal to share her understanding. In Rometty's view, there are many misconceptions about machine learning technologies in the outside world. The rise of artificial intelligence is exciting, but it has also sparked fears among some people—fearing that these robots will eventually develop consciousness and turn against humans. However, she pointed out, "If you engage in the research of machine intelligence, you will understand that these are all misconceptions formed due to misleading expressions." 
+In the article, Rometty introduced the origin of the term "artificial intelligence": it first appeared in 1955, "expressing the concept of general intelligence, meaning all human cognition comes from one or more basic algorithms, and by programming, allowing computers to think in the same way, we can create an automatic system that simulates the human brain." At that time, some researchers adopted a bottom-up approach, trying to find patterns from the growing amount of data, calling it IA—"intelligence augmentation." Rometty said that although this method did not establish a model of the human brain, it has shaped our current cognitive systems. Perhaps the concept of IA is too abstract for us, but you only need to know that behind our current technologies such as "language processing machine learning, human-computer interaction," IA support is indispensable. 
+As for the currently popular concept of AI, Rometty said, "Although the term 'AI' eventually prevailed, it is just a misnomer." "AI is changing one industry after another." IBM has a rich heritage in the field of artificial intelligence, and Rometty naturally mentioned her company's AI product Watson in the article. She said that from law to medicine, from education to retail, artificial intelligence has changed one industry after another. For example, Watson can do many things: collaborate with Memorial Sloan Kettering Cancer Center to treat tumors, provide personalized services to Macy's customers, collaborate with "Sesame Street" to create cognitive tutors, and even participate in film production. 
+Similarly based on algorithms and programs, what is the difference between AI and ordinary computers? Rometty explained it this way: "Video, audio, information from sensors, medical records, and movie clips, 80% of this data is unstructured data, traditional computers are powerless against this, they can capture information but cannot understand its meaning, but cognitive systems can read and understand this data." 
+"Who will emerge victorious in the digital age?" In Rometty's view, these cognitive systems are neither automated nor emotional, "but they form a new form of non-artificial intelligence, enhancing our ability to understand the complex world around us."</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 谁还没做过小孩？还记得小时候不愿意开学不愿意去幼儿园的时候，一定也有过想通过装病、撒娇而逃避上学的“小九九”。所以当我的肚子疼和开学相遇的时候，妈妈也就自然而然地觉得我只是个装病的“坏”小孩。训我一顿后还是会拉着我和我的书包送我上幼儿园。妈妈，我确实有过撒娇、装病的小心思，可对开学的不情愿确实会让我的身体感觉到生病呢！比如肚子疼、想吐、手脚没力气、爱走神、睡不着觉等等。我也不知道这是怎么了，反正我是真的病了。还记得曾经走红网络的一个视频吗？在视频里，每一个孩子一听到明天要开学多是“我伙呆”的状态。更有报道称国外的熊孩子在开学时一把火烧了学校。由此可见，“开学”二字在孩子们心中堪比恐怖片。所以，适逢开学，若孩子哼哼唧唧说肚子疼、头疼……哪哪儿都疼，先别急着冲孩子发火，其实，这可能是“开学恐惧症”的生理表现。儿童心理科医生：总有些孩子一开学就生病假期过后，开学的第一个星期总有几个孩子因为身体不适要到医院“报到”的。据儿童心理科的医生说，这些求诊的孩子往往会有一些共同的特点：一提到要去上学了，情绪就变得低落，有的还会吃不下饭、肚痛、呕吐，更有甚者一走到学校门口就吐了。这并不是什么肠胃病，而是开学恐惧症这种情况在开学的第一周表现得最为明显。 孩子为什么会产生开学恐惧症？不难想象孩子们害怕开学的原因：第一，在假期里，睡得晚、起得晚，有iPad相伴、有电视解闷，在游乐嬉戏方面花费了过多时间的孩子们，一下子又要恢复规律生活并且被迫学习，换了谁也会不高兴。第二，有些孩子会因为假期作业未完成、对新学期紧张等因素感到焦虑、恐惧。第三，假期里被爸爸妈妈、爷爷奶奶等长辈照顾习惯了，一下子又要恢复到独立、自理的集体生活，有些忧心忡忡。第四，孩子在幼儿园、学校有一些人际关系、学习压力方面的顾虑，假期这些不愉快都抛诸脑后，现在又要重新面对了。这些因素放在成人身上都可能让人夜不能寐，何况小小年纪的孩子呢？开学恐惧症该拿你怎么办？有的家长说，既然马上就要开学了，就让时间来帮孩子治愈开学恐惧症吧。但是专家建议，应该积极帮孩子迎战开学恐惧症，否则这些问题若处理不好，会直接影响到孩子的身心健康。 在孩子开学之初，无论学校还是家庭都应该给孩子多安排些户外活动。其实，防比治更重要的道理谁都懂，最好趁在孩子开学前就提前做好开学的准备。比如，调整作息、适当给孩子布置些和学校、幼儿园有关的小任务让孩子来完成等等。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Who hasn't played the child before? Still remember when you were a child and didn't want to go to school or kindergarten, you must have had the "trick" of pretending to be sick and acting spoiled to avoid going to school. So when my stomach ache coincided with the start of school, my mom naturally thought I was just a "naughty" child pretending to be sick. After scolding me, she would still take me and my school bag to kindergarten. Mom, I did have thoughts of acting spoiled and pretending to be sick, but my unwillingness to go to school really made my body feel sick! For example, stomach aches, nausea, weakness in limbs, daydreaming, insomnia, and so on. I don't know what's going on, but I really got sick. Do you remember a video that once went viral on the internet? In the video, every child's reaction to the news of school starting tomorrow was mostly "I'm so dumbfounded." There are even reports of naughty kids overseas setting fire to schools on the first day of school. It can be seen that the word "school start" is as scary as a horror movie in the minds of children. Therefore, when it's time for school to start, if a child whines about stomach aches, headaches... aches everywhere, don't rush to get angry with the child. In fact, this may be a physiological manifestation of "school phobia." Child psychologists say: Some children always get sick as soon as school starts. After the holidays, there are always a few children who have to go to the hospital due to physical discomfort at the beginning of school. According to child psychologists, these children seeking medical help often have some common characteristics: as soon as they mention going to school, their emotions become low, some may lose their appetite, have stomach aches, vomit, and some even vomit as soon as they reach the school gate. This is not a gastrointestinal disease, but a manifestation of school phobia, which is most evident in the first week of school. Why do children develop school phobia? It is not difficult to imagine why children are afraid of going to school: first, during the holidays, staying up late, waking up late, having an iPad to accompany them, watching TV to pass the time, children who spend too much time playing and having fun suddenly have to return to a regular life and be forced to study, which would make anyone unhappy. Second, some children may feel anxious and fearful due to unfinished holiday homework and nervousness about the new semester. Third, having been taken care of by parents, grandparents, and other elders during the holidays, children suddenly have to return to independent, self-reliant collective living, which makes them worried. Fourth, children have concerns about interpersonal relationships and academic pressure at kindergarten or school, all the unpleasantness during the holidays is forgotten, and now they have to face it again. These factors, even in adults, can cause sleepless nights, let alone children of such a young age. What should you do about school phobia? Some parents say that since school is about to start, let time help cure the child's school phobia. However, experts suggest actively helping children confront school phobia, otherwise, if these issues are not handled properly, they will directly affect the child's physical and mental health. At the beginning of the child's school start, both schools and families should arrange more outdoor activities for the child. In fact, everyone understands that prevention is better than cure, so it's best to make preparations for the start of school in advance. For example, adjust the child's schedule, assign some small tasks related to school or kindergarten for the child to complete, and so on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>今天，小被一个视频吓傻了…… 微博热传：“爸爸一屁股把孩子坐死？告诫家长长点心多注意！！！” 这一幕发生在某超市，男子拖着儿子一前一后走着玩耍，突然，男子重心不稳向后跌倒，一屁股坐在孩子的头颈部，而孩子却再也没醒来。我也是孩子的父亲，看到这悲惨的一幕，我的眼泪禁不住刷地一下就流了下来!好悲惨！好痛心！我的心，一直跟着在哭泣！在滴血！ 超市中，父亲拉着儿子一前一后，边玩边走。 父亲一个没站稳，直接向后摔倒。 父亲一屁股坐在了儿子的身上，压到了孩子的头部。 一旁的超市员工赶紧拉男子起身。 而孩子已经倒在地不能起来，父亲和超市员工赶紧去扶孩子。 看到孩子晕倒，父亲应该没想到会这么严重，抱着孩子企图让孩子站起来。 紧急当中，父亲也在慌乱中按孩子人中，并拍打孩子希望能将他唤醒。 超市人员也急忙赶到，但已无法回天，一个本应在父母怀里撒娇的孩子，就这么悲惨地死去。然后我们再来看看网友的态度吧！ 这个视频让很多家长看得胆战心惊，但这样的危险真的确确实实存在我们身边……为什么会出现“坐死”这样可怕的事情，经过医院专家分析：视频里大人的整个压力，全部坐到了孩子的胸腹部以上，包括头颈部。从受到的外力损伤的来源，是可以判断可能存在颈椎的损害了。特别是意外发生后，无论是超市售货员还是男子，都对小孩进行了“抱起”“晃动”的一系列动作。医生提醒，如果小朋友颈椎已经脱位，家长还用平时的姿势去抱他，会对小朋友造成二次损害，伤害往往更大，应该找一个硬的支撑物，以滚动式或有支撑点，两三个人平移到硬物上，再送到医院。同时，医生也提醒家长们，一些传统的保留亲子互动的玩耍动作其实都相当危险。1、抛接孩子 这是小编见得最多的一个玩耍动作，抛接孩子的家长往往对于自己的身手十分有信心，但是，如果，一旦没有接住......啧啧啧，后果不堪设想！2、把孩子放在购物车中超市里人多、货物多，稍不注意就容易出现意外伤害，尤其是很多家长喜欢带小朋友逛超市，为了不让孩子乱跑，就会让孩子坐在购物车里…… 这样很不安全！！！此前，就有视频拍下了这样一幕…… 此类受伤事件非常多。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Today, Xiaobei was scared silly by a video... It went viral on Weibo: "Father accidentally sits on child and causes tragic accident? Parents, please be more vigilant and careful!!!" This incident took place in a supermarket, where a man was playing with his son, walking in front and behind. Suddenly, the man lost his balance and fell backwards, sitting on the child's head and neck with his buttocks. Unfortunately, the child never woke up. As a father myself, witnessing this tragic scene, tears uncontrollably streamed down my face! It's so tragic! So heart-wrenching! My heart kept crying and bleeding! In the supermarket, the father was walking with his son, playing along the way. The father lost his balance and fell backward. He ended up sitting on his son's body, putting pressure on the child's head. A supermarket staff member quickly helped the man up. Meanwhile, the child was lying on the ground unable to get up, and the father and supermarket staff rushed to help the child. Seeing the child faint, the father probably didn't expect it to be so serious, trying to make the child stand up. In the midst of the emergency, the father was also in a panic, tapping the child's acupoint and patting the child in an attempt to wake him up. The supermarket staff also rushed over, but it was too late, a child who should have been cuddling in his parents' arms tragically passed away. Now let's take a look at the attitudes of netizens! This video has made many parents tremble with fear, but such dangers do exist around us... Why did such a terrifying incident of "sitting to death" occur? According to analysis by hospital experts: in the video, the entire pressure from the adult was directly on the child's chest and abdomen, including the head and neck. From the source of the external force injury, it can be inferred that there may be damage to the cervical spine. Especially after the accident, whether it was the supermarket staff or the man, they performed a series of actions such as "lifting" and "shaking" the child. Doctors remind that if a child's cervical spine is dislocated, and parents still hold the child in their usual posture, it will cause secondary damage to the child, often resulting in greater harm. Parents should find a hard support, with a rolling or supporting point, move the child with the help of two to three people to a hard surface, and then take them to the hospital. At the same time, doctors also remind parents that some traditional parent-child interactive play actions are actually quite dangerous. 1. Throwing and catching the child This is one of the most common play actions seen by the editor. Parents who throw and catch their children often have great confidence in their own skills, but if they fail to catch... tsk tsk tsk, the consequences are unimaginable! 2. Putting the child in the shopping cart Supermarkets are crowded with people and goods, and accidents are prone to happen if one is not careful, especially when many parents like to take their children shopping. In order to prevent the child from running around, they may let the child sit in the shopping cart... This is very unsafe!!! Previously, a video captured such a scene... There are many such injury incidents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>【每文一笑】在杂志上看说穷亲戚多可怕多粘人，我跟父亲说爸咱家真好，没有穷亲戚诶!父亲沉默了一会说：咱家就是别人家的穷亲戚啊! 【正文】母乳喂养对于新妈妈来说，你一项必须学习的新技能，关于这样新技能，新妈妈要学习的还真不少，像都有哪些哺乳姿势了，用什么样的哺乳姿势对宝宝比较好了，哺乳时有哪些技巧了，哺乳时的注意事项了等等。那么，要学好这项技能，新妈妈除了听取前辈们的经验、和其他宝妈交流，更多的还是要自己通过实践来获得更多的经验。下面，家有好baby小编将为大家讲解一下关于新妈妈哺乳这件事。 一、哺乳姿势有哪些?哪种姿势更有利于宝宝健康?要想很好地掌握母乳喂养，首先就要从正确的哺乳姿势开始。哺乳姿势一般有四种：1. 半躺式在分娩后的头几天，妈妈坐起来仍有困难，这时，以半躺式的姿势喂哺宝宝便最为适合。把宝宝横倚着妈妈的腹部，背后用枕头垫高上身，斜靠躺卧。2. 榄球式在喂哺双胞胎时，或同时有另一位孩子想依偎着妈妈时，这种姿势便尤为适合。婴儿躺在妈妈的臂弯，臀部相对，有需要时可用软垫支撑，而妈妈的下臂应托着婴儿的背部。身子应稍微前倾，让婴儿靠近乳房。开始喂哺后，便可放松及将身体后倾。这种姿势能让婴孩吸吮下半部乳房的乳汁。3. 摇篮式摇篮式喂哺最广为人熟悉。婴儿的头部枕着妈妈的手臂，腹部向内，而妈妈的手应托着婴儿的臀部，方便身体接触。利用软垫或扶手支撑手臂，手臂的肌肉便不会因为抬肩过高而拉得绷紧。采用这种喂哺姿势时，垫高双脚有助身体放松，例如把脚放在脚踏上。4. 侧卧式在晚上喂哺或想放松一下时，可采用这种姿势。妈妈和婴儿都侧卧在床上，腹部相对，这样婴儿的口便会正对乳头。妈妈的手臂及肩膀应平放在床垫上，只有头部以枕头承托。妈妈可用卷起的毛巾或类似物品垫着婴儿，让婴儿保持同一姿势。以上这几种哺乳方式，各有利弊，用哪种方法还是要看具体情况，半躺式适用于新妈妈分娩后的前几天，榄球式适用于双胞胎，侧卧式更适用于晚上哺乳，摇篮式就是最常用的方式。 二、新妈妈哺乳技巧有哪些?要保证母乳喂养顺利成功，新妈还必须学习正确的母乳喂养技巧——正确的嘴乳衔接方法。正确的嘴乳衔接应该是婴儿的小嘴完全环抱妈妈乳房的乳头和乳晕。1. 用乳头挠弄宝宝的小嘴唇一旦母婴都处在感觉非常舒适的体位，妈妈就可以用乳头轻轻抚弄婴儿嘴唇，等婴儿小嘴完全张开——直到像打呵欠那样大大地张开小嘴为止。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>【Every Smile in the Text】In a magazine, I read that having many poor relatives is terrible and clingy. I told my father, "Dad, our family is really good, we don't have any poor relatives!" My father was silent for a moment and then said, "Our family is just the poor relatives of others, huh!" 【Main Text】For new mothers, breastfeeding is a new skill that you must learn. There are quite a few things that new mothers need to learn about this new skill, such as different breastfeeding positions, which breastfeeding position is better for the baby, breastfeeding techniques, and breastfeeding precautions, and so on. Therefore, to master this skill well, new mothers not only need to listen to the experiences of predecessors and communicate with other moms, but also need to gain more experience through practice. Next, the editor of the family's lovely baby will explain to everyone about breastfeeding for new mothers. 1. What are the breastfeeding positions? Which position is more beneficial to the baby's health? To master breastfeeding well, you need to start with the correct breastfeeding position. There are generally four breastfeeding positions: 1. Semi-reclining position: In the first few days after delivery, when sitting up is still difficult for the mother, the semi-reclining position is most suitable for feeding the baby. The baby lies horizontally against the mother's abdomen, with a pillow behind the back to elevate the upper body, leaning slightly reclined. 2. Rugby ball position: This position is particularly suitable for feeding twins or when another child wants to snuggle with the mother at the same time. The baby lies in the mother's arm, buttocks facing inwards, with a soft cushion for support if needed, and the mother's lower arm should support the baby's back. The body should lean slightly forward, bringing the baby close to the breast. After starting feeding, you can relax and lean the body back. This position allows the baby to suck the lower part of the breast. 3. Cradle position: The cradle position is the most familiar way of feeding. The baby's head rests on the mother's arm, abdomen inward, and the mother's hand supports the baby's buttocks for better body contact. Using a soft cushion or armrest to support the arm prevents the muscles from becoming tense due to lifting the shoulder too high. When using this feeding position, raising both feet helps relax the body, such as placing the feet on a footstool. 4. Side-lying position: This position can be used for night feeding or to relax. Both the mother and the baby lie on their sides on the bed, with their abdomens facing each other, so the baby's mouth is directly facing the nipple. The mother's arm and shoulder should be flat on the mattress, with only the head supported by a pillow. The mother can use a rolled-up towel or similar item to support the baby and keep the baby in the same position. Each of these breastfeeding methods has its pros and cons, and the choice of method depends on the specific situation. The semi-reclining position is suitable for new mothers in the first few days after delivery, the rugby ball position is suitable for twins, the side-lying position is more suitable for night feeding, and the cradle position is the most commonly used method. 2. What are the breastfeeding techniques for new mothers? To ensure the smooth success of breastfeeding, new mothers must also learn the correct breastfeeding techniques - the correct mouth-to-breast attachment method. The correct mouth-to-breast attachment should involve the baby's small mouth completely surrounding the mother's nipple and areola. 1. Use the nipple to tickle the baby's lips: Once both the mother and the baby are in a very comfortable position, the mother can gently stroke the baby's lips with the nipple until the baby's mouth opens completely - until the mouth opens wide like yawning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>现在养宠物的人越来越多，生活中与狗狗在一起会经历很多事情，快乐的、生气的、悲伤的。狗狗的寿命只有区区十几年，每个主人想到自己的宠物会离开自己都会很伤心，甚至泪流满面。但是在狗狗的世界里，它们更不希望你离开，也许根本不会想到你会比它先走一步…… 17岁少年顾小波养了一只大金毛，名字叫西西。就是这么一位少年，为了狗狗，牺牲了自己的生命。这个不幸的意外是大家都没有想到的。顾小波像往常一样带着西西在江边玩水，当时江水比较急，狗狗不慎卷入急流，小主人救狗心切，跳入江中营救爱犬，但是自己也被江水卷了进去。 眼见情况危急，岸上的几位工人跳了下去想把顾小波拉上来，就在他们刚刚抓住顾小波的时候，原本离得不远也在水中挣扎的大狗突然窜过来，伸出前爪搭在工人和顾小波的肩上。由于狗狗身体沉重，直接把两人压入水中。此时，下游十几米外停靠的货船上，也有人向江里扔出救生衣，但是顾小波都没有抓住。顾小波很快消失在江面上，而因营救而进入水中的工人抓住一艘货船尾部，等待同事赶来才被获救。金毛被水中的顾小波和工人推到了浅水区，狗狗获救了，但是主人却失去了生命。 金毛获救后，意识到主人不见了，它很伤心不再吃任何东西，一直在被水淹没的码头平台上寻找，并不时面向江面发出哀鸣，任凭人们怎么呼叫和驱赶，它都不愿离开江边。 也许西西并不知道主人是因为它而死，但是主人的离开，让它的心情非常痛苦。我们不能责怪西西，悲剧是谁都不愿看到的，包括狗狗在内。如果它知道会是这样的结局，可能宁愿选择自己去死。这位爱狗少年的举动非常伟大，但是大家如果遇到这种情况，也要选择一个稳妥的方式进行救助，或者找其他人帮忙。千万不要自己一个人在不知情况下就做这么危险的事情。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Nowadays, more and more people are keeping pets. Living with dogs, one will experience many things, happy, angry, and sad. A dog's life span is only a mere ten plus years. Every owner thinking about their pet leaving them will feel very sad, even tears streaming down their face. But in the world of dogs, they do not want you to leave. Perhaps they never even consider that you might leave before them... 17-year-old boy Gu Xiaobo raised a big Golden Retriever named Xixi. It was this young boy who, for the sake of the dog, sacrificed his own life. This unfortunate accident was something no one had anticipated. Gu Xiaobo, as usual, was playing by the river with Xixi. The river was swift at that time, and the dog accidentally got caught in the current. The young master, desperate to save his dog, jumped into the river to rescue his beloved pet, but he was also swept away by the river. Seeing the critical situation, several workers on the shore jumped in to pull Gu Xiaobo out. Just as they were about to grab him, the big dog, who had been struggling not far away in the water, suddenly rushed over and extended its front paws to the workers and Gu Xiaobo's shoulders. Due to the dog's heavy body, it pushed both of them into the water. At that moment, people on a cargo ship downstream, about a dozen meters away, threw life jackets into the river, but Gu Xiaobo did not grab onto them. Gu Xiaobo quickly disappeared on the surface of the river, while the workers who had entered the water to rescue him grabbed onto the back of a cargo ship and were rescued when their colleagues arrived. The Golden Retriever pushed Gu Xiaobo and the workers into the shallow water area. The dog was saved, but the owner lost his life. After being rescued, the Golden Retriever realized its owner was missing. It was very sad and refused to eat anything, constantly searching on the flooded dock platform, occasionally facing the river and wailing. No matter how people called or drove it away, it refused to leave the riverbank. Perhaps Xixi did not know that its owner died because of it, but the departure of the owner made it very painful. We cannot blame Xixi. No one wants to see such a tragedy, including the dog. If it knew it would end like this, it might have chosen to die instead. The actions of this dog-loving young man were very noble, but if anyone encounters such a situation, they should choose a safe way to rescue, or seek help from others. Never do such dangerous things alone without knowing the situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>我是一粒稻谷，2016年10月16日是我们粮食界盛大的日子——“世界粮食日”。今年是我们第36个纪念日了，在这个星球上，我是粮食界的一员，大豆、小麦、荞麦、燕麦、红高粱......都是我的亲朋好友。在人类的认知中，有人把我们当作植物，有人把我们当作田野里的风景，有人把我当作饿肚子时候的填充物。我们一直很骄傲，因为我们是粮食家族的一份子。对我们而言，我们是自然的恩赐，是大地的精灵，更是生命的图腾。每一种粮食，都经过阳光沐浴和风雨洗礼，经过农民的辛苦栽培，方能孕育出美味。然而，就在你大快朵颐，或是丢掉吃不完的饭菜的时候，就在这个地球上的很多地方，有许许多多的人还在忍受着饥饿的折磨。家住北京的小云主食常是米饭，他偏爱泰国大米。便利的交通和贸易使得他能够轻松在超市购买到物美价廉的泰国香米。2015年，中国粮食总产量达12429亿斤，但是仍无法满足国内粮食的需求，目前测算去年粮食总需求12800亿斤以上，大约还有400亿斤的缺口。盛产稻谷的东南亚是我国重要的大米进口地。 ↑泰国大米泰国清迈的通差今天的主食也是大米，然而他就没有那么好的心情了。去年他还是湄公河边的一个农民，今年却因为旱灾变卖了土地到城市寻求生存，以稻米和水果为主的农作物产量都遭受打击。为确保为各个省府农业及曼谷居民供水的水库能够维持一定的储水量，泰国政府持续呼吁稻农避免种植包括稻米在内的耗水量大的作物。 ↑一名泰国农民在干旱的稻田间行走美国加州的农民鲍勃在田间采收蔬菜。为了让芹菜能够以更好的卖相刚好装进超市的塑料袋，他在收割时把每棵芹菜都切一半扔掉。美国消费者不愿意吃那些“不完美”的水果和蔬菜。美国人几乎扔掉了和他们吃的一样多的食物，最新调查显示，全球范围内，美国可谓是浪费食物状况最严重的国家，将近三分之一的美国人浪费了4300亿磅的食物。 ↑美国“完美的”蔬菜货架在巴西，里约热内卢贫民区的桑托斯还在为温饱问题发愁，减价处理的不新鲜蔬果帮了他大忙。距离贫民区不到750米的里约热内卢马拉卡纳体育场在两个月前还在举办盛大的奥运会。据估计，里约有超过20%的人口生活在贫民区。巴西政府已经花费了数亿美元举办世界杯和奥运会，但却还没能为贫民区的居民解决粮食问题。 ↑警察控制的里约贫民区在南部非洲，饥饿仍然是常态。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>I am a grain of rice. October 16, 2016 is a grand day in our food world - "World Food Day". This year marks our 36th anniversary. On this planet, I am a member of the food world, soybeans, wheat, buckwheat, oats, sorghum... are all my relatives and friends. In human cognition, some people regard us as plants, some people see us as scenery in the fields, and some people consider me as a filler when they are hungry. We have always been proud because we are part of the food family. For us, we are a gift of nature, the spirit of the earth, and even the totem of life. Every kind of grain, after being bathed in sunlight and baptized by wind and rain, and after being diligently cultivated by farmers, can produce delicious food. However, while you are enjoying your meal or throwing away uneaten food, in many places on this planet, many people are still suffering from hunger. Xiao Yun, who lives in Beijing, often eats rice as his staple food, and he prefers Thai rice. Convenient transportation and trade allow him to easily buy high-quality and inexpensive Thai fragrant rice at supermarkets. In 2015, China's total grain output reached 1.2429 trillion catties, but it still cannot meet the domestic demand for food. Currently, it is estimated that the total demand for food last year exceeded 1.28 trillion catties, with a gap of approximately 40 billion catties. Southeast Asia, which produces a lot of rice, is an important rice importing region for China. ↑ Thai rice Thai Cha in Chiang Mai, Thailand, today's staple food is also rice, but he is not in a good mood. Last year, he was a farmer by the Mekong River, but this year, he sold his land due to drought and moved to the city to seek survival. Crops such as rice and fruits have been affected by the drought. To ensure that the reservoirs that supply water to the provinces and residents of Bangkok can maintain a certain amount of water storage, the Thai government continues to urge rice farmers to avoid planting water-intensive crops, including rice. ↑ A Thai farmer walks through a dry rice field In California, USA, farmer Bob harvests vegetables in the field. In order to make celery fit perfectly into plastic bags in supermarkets for better presentation, he cuts each celery in half when harvesting and throws away the other half. American consumers do not want to eat "imperfect" fruits and vegetables. Americans waste almost as much food as they eat. The latest survey shows that globally, the United States is the country with the most serious food waste situation, with nearly one-third of Americans wasting 430 billion pounds of food. ↑ "Perfect" vegetable shelves in the US In Brazil, Santos in the slums of Rio de Janeiro is still worried about food shortages, and discounted not-so-fresh fruits and vegetables have helped him a lot. Less than 750 meters away from the slums, the Maracanã Stadium in Rio de Janeiro was hosting the grand Olympics just two months ago. It is estimated that over 20% of Rio's population lives in slums. The Brazilian government has spent billions of dollars hosting the World Cup and the Olympics, but has not been able to solve the food problems of slum residents. ↑ Police-controlled slums in Rio In southern Africa, hunger is still a common occurrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>本文由现货分析师'辉财聚金'梳理编辑，更多现货金融投资资讯可添加本人威//信：HC88820获取【导读】本周五(10月28日)石油输出国组织(OPEC)在维也纳举行的会谈最终未能达成任何协议，伊拉克和伊朗拒绝冻产，限产协议前景蒙上阴影重挫了投资者信心。 两伊拒绝冻产 OPEC会议陷僵局OPEC专家与俄罗斯等非OPEC产油国同行在本周五开启了为期两天的谈判，旨在限制产量以抑制全球供应过剩局面。作为OPEC的第二大产油国，伊拉克本周亦表示将不会减产，并希望能从任何减产协议中被豁免，使其能够以产油利润打击恐怖组织伊斯兰国组织(ISIS)OPEC消息人士周五晚些时候表示，官员们尚未就减产计划细节达成协议，伊朗反对这一举动。据推特消息，周六凌晨会议结束时OPEC未达成协议。OPEC原油出口创历史新高最新数据显示，OPEC的原油出口达到了2900万桶/日，创下历史纪录新高。真正对原油供求产生影响的是各国的原油出口量而并非原油产量，这是因为各国的原油产量只有通过出口才能在国际市场上参与交易，对供应端产生影响，因此这一数据的走高引起了诸多投资者的担忧。根据Clipperdata公司对OPEC今年1月迄今的原油出口量看追踪统计显示，之前OPEC年内出口峰值为2700万桶/日，而10月下半月开始突然发力，一路攀升至2900万桶/日，其中贡献最大的正是沙特，该国最新原油出口创下了840万桶/日的纪录新高，这增加了市场对沙特高喊减产背后真实意图的怀疑。 纽约原油期货周五下跌2.1%。纽约商业交易所，12月交割的WTI期货合约下跌1.02美元，至每桶48.70美元，创下10月4日以来最低收盘价。一周跌幅为4.2%。在伦敦ICE欧洲期货交易所，12月份交割的布伦特原油下跌76美分，报每桶49.71美元，为9月30日以来最低收盘；本周累计下跌4%。布伦特原油较WTI原油溢价1.01美元。据华尔街日报援引消息人士报道，称伊拉克和伊朗拒绝冻产。OPEC的技术会议陷入僵局，因为伊拉克和伊朗对数据有争议。伊拉克和伊朗称OPEC低估了他们的产油量。 原油暴跌多单被套怎么办？如何解套？--------套单者，实行之逆。</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>This article was compiled and edited by the spot analyst 'Huicaijujin'. For more information on spot financial investment, you can add the WeChat account: HC88820 for access. [Introduction] On Friday (October 28th), the meeting held in Vienna by the Organization of the Petroleum Exporting Countries (OPEC) failed to reach any agreement. Iraq and Iran refused to freeze production, casting a shadow over the prospects of the production cut agreement and severely denting investor confidence. Iraq and Iran refuse to freeze production, OPEC meeting deadlocked. OPEC experts, along with non-OPEC oil-producing countries such as Russia, began a two-day negotiation this Friday aimed at limiting production to curb global oversupply. As the second-largest oil-producing country in OPEC, Iraq also stated this week that it will not cut production and hopes to be exempted from any production cut agreement, allowing it to use oil profits to combat the terrorist organization ISIS. OPEC sources said late Friday that officials had not reached an agreement on the details of the production cut plan, with Iran opposing the move. According to Twitter messages, no agreement was reached by OPEC when the meeting ended early Saturday morning. OPEC's crude oil exports hit a record high. The latest data shows that OPEC's crude oil exports reached 29 million barrels per day, hitting a new record high. What truly affects the supply and demand of crude oil is the amount of crude oil exports from each country rather than the production volume. This is because a country's crude oil production can only impact the supply side when it is traded on the international market through exports. Therefore, the increase in this data has raised concerns among many investors. According to Clipperdata's tracking statistics on OPEC's crude oil exports from January to the present year, the previous peak of OPEC's annual exports was 27 million barrels per day. However, starting from the second half of October, it suddenly surged, climbing all the way to 29 million barrels per day. The biggest contributor to this increase is Saudi Arabia, with the country's latest crude oil exports hitting a record high of 8.4 million barrels per day, raising doubts in the market about the true intentions behind Saudi's calls for production cuts. New York crude oil futures fell by 2.1% on Friday. On the New York Mercantile Exchange, the WTI futures contract for December delivery fell by $1.02 to $48.70 per barrel, marking the lowest closing price since October 4th. The weekly decline was 4.2%. On the Intercontinental Exchange in London, Brent crude for December delivery fell by 76 cents to $49.71 per barrel, the lowest closing price since September 30th, with a cumulative decline of 4% for the week. Brent crude has a premium of $1.01 over WTI crude. According to sources cited by The Wall Street Journal, Iraq and Iran have refused to freeze production. The technical meeting of OPEC is deadlocked as Iraq and Iran dispute the data. Iraq and Iran claim that OPEC has underestimated their oil production. What should you do if you are trapped in a long position due to the sharp drop in crude oil prices? How to break free from the trap? - Those who are trapped should act in the opposite way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10月27日中午广东东莞市长安镇乌沙环南路路段一名男子死在停在路边的运钞车旁边网传该男子曾拿砖头追运钞车数百米后被运钞车押运员开枪打死这是要抢劫运钞车吗？ 东莞市长安镇政府针对此事通报称：一辆押款车执行押运任务遭男子黄某用石头、水泥块等物追砸车辆导致车辆玻璃破损车内押运员多次劝阻无效后开枪射击导致其受伤倒地黄某经抢救无效死亡 这名被击毙的死者是在东莞务工的江西人！！！事情的起初所有的风头所向全是指责这位“板砖哥”运钞车也敢砸自寻死路！ 这位江西男子真的是在抢劫？ 这是东莞是长安公安分局的警情通报里面没有任何一个字眼涉及到抢劫！！！我们再来看看 事发后，东莞市骏安押运有限公司发布情况说明称，事发该公司一辆押运车执行押运任务时，押运车遭遇一名男子对车辆右侧玻璃猛烈敲打，见此情形，司机立即把押运车辆驶往前方一警务室，但该男子一直拿着砖头追赶连续砸车，车辆右侧玻璃被严重砸裂。 说明称，车上护卫人员只得打开射击窗口大声警告该男子，要求其停止袭击车辆。但是，该男子一直不予理睬，继续疯狂砸车窗，押运人员人身及押运财产安全受到严重威胁。在多次警告无效、情况十分危急下，护卫人员使用防暴枪(橡胶子弹)鸣枪示警，肇事男子中弹倒地。 该公司发布的情况也未提到男子实施了抢劫行为那么什么情况下押运员可以使用枪支呢？ 小编了解到，对于押运人员何时使用枪支，《专职守护押运人员枪支使用管理条例》第五条规定：专职守护、押运人员执行守护、押运任务时，能够以其他手段保护守护目标、押运物品安全的，不得使用枪支;确有必要使用枪支的，应当以保护守护目标、押运物品不被侵害为目的，并尽量避免或者减少人员伤亡、财产损失。 专职守护、押运人员执行守护、押运任务时，遇有守护目标、押运物品受到暴力袭击或者有受到暴力袭击的紧迫危险的;专职守护、押运人员受到暴力袭击危及生命安全或者所携带的枪支弹药受到抢夺、抢劫的情况，不使用枪支不足以制止暴力犯罪行为的，可以使用枪支。</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>At noon on October 27th, in Chang'an Town, Dongguan City, Guangdong Province, a man died on the section of Wusha South Ring Road next to a cash transport vehicle parked on the roadside. It was rumored online that the man had chased the cash transport vehicle with a brick for hundreds of meters before being shot dead by the security guard on the vehicle. Was this an attempted robbery of the cash transport vehicle? In response to this incident, the Chang'an Town Government of Dongguan City stated: During a cash transport mission, a man named Huang used bricks, cement blocks, and other objects to chase and smash the vehicle, causing damage to the vehicle's windows. Despite repeated warnings from the security guard inside the vehicle, the man continued his attack, leading to the guard firing shots that resulted in the man being injured and later dying after unsuccessful rescue efforts. The deceased man who was shot is a worker from Jiangxi working in Dongguan!!! Initially, all the attention was focused on blaming this "brick-wielding guy" who dared to smash the cash transport vehicle, seemingly seeking his own death! Was this man from Jiangxi really attempting a robbery? In the police report from the Chang'an Public Security Sub-Bureau in Dongguan, there was no mention of robbery whatsoever!!! Let's take a closer look. After the incident, Jun'an Security Transport Co., Ltd. in Dongguan issued a statement explaining that during a cash transport mission, one of their vehicles was violently attacked by a man who repeatedly smashed the right side windows of the vehicle with bricks. Upon seeing this, the driver immediately drove the vehicle to a nearby police station, but the man continued to chase and smash the vehicle with bricks, causing severe damage to the windows on the right side. The statement mentioned that the security personnel in the vehicle had no choice but to open the shooting window and loudly warn the man to stop attacking the vehicle. However, the man ignored the warnings and continued his frenzied attacks on the vehicle windows, posing a serious threat to the safety of the security personnel and the cash being transported. After multiple ineffective warnings and in a highly dangerous situation, the security personnel fired warning shots using rubber bullets from the riot gun, causing the man to fall to the ground after being hit. The statement released by the company also did not mention any robbery committed by the man. So, under what circumstances can security guards use firearms? According to the "Regulations on the Use of Firearms by Full-time Guard and Escort Personnel," Article 5 stipulates that when full-time guard and escort personnel are able to protect the guarded targets and transported items using other means during guard and escort missions, firearms should not be used. If the use of firearms is deemed necessary, it should be aimed at protecting the guarded targets and transported items from harm, while minimizing casualties and property losses. When full-time guard and escort personnel encounter violent attacks on the guarded targets or transported items, or face imminent danger of violent attacks, and when their lives are threatened by violent attacks or their firearms and ammunition are at risk of being seized or robbed, and if the situation cannot be resolved without the use of firearms to stop violent criminal activities, firearms can be used.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>【概要】“接棒”傅政华曾处理河南民警酒后摔婴案 王小洪，汉族，1957年7月生，福建福州人，1974年7月参加工作，1982年12月加入中国共产党，本科学历。北京晨报讯（记者邹乐）昨日下午，北京市十四届人大常委会第十八次会议表决通过人事任免事项。经过无记名投票，王小洪全票当选北京市副市长兼公安局局长，免去傅政华的北京市公安局局长职务。至此，北京市政府领导班子恢复本届人大一次会议时的“一正九副”的格局。常务副市长李士祥在受王安顺市长委托对任免议案作说明时说，王小洪政治敏感性和大局意识强，他处事沉稳、为人谦和，以身作则，要求自己比较严格。在重大问题上头脑清醒，熟悉公安业务，处理复杂问题和突发事件的能力较强。2013年厦门公交车纵火案，王小洪第一时间赶赴现场，妥善处置并及时公布案情。2013年河南林州民警摔婴案发生后，王小洪严格执法执纪，严肃处理。王小洪还严厉打击涉黑团伙，曾打掉了郑州最大的“皇家一号”国际娱乐会所。</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>【Summary】"Taking over" Fu Zhenghua, who once handled the case of a Henan police officer dropping a baby after drinking. Wang Xiaohong, of Han nationality, born in July 1957 in Fuzhou, Fujian Province, started working in July 1974, joined the Communist Party of China in December 1982, and holds a bachelor's degree. Beijing Morning Post (Reporter Zou Le) reported yesterday afternoon that the 18th meeting of the 14th Beijing Municipal People's Congress Standing Committee voted on personnel appointments and removals. Through anonymous voting, Wang Xiaohong was unanimously elected as the Deputy Mayor of Beijing and Director of the Public Security Bureau, relieving Fu Zhenghua of his position as Director of the Beijing Municipal Public Security Bureau. With this, the leadership team of the Beijing municipal government has reverted to the "one mayor and nine deputy mayors" structure from the first meeting of this People's Congress. Deputy Mayor Li Shixiang, on behalf of Mayor Wang Anshun, explained the appointment and removal proposal, stating that Wang Xiaohong is politically sensitive, has a strong sense of the overall situation, handles matters calmly, is modest, leads by example, and has strict self-requirements. He is clear-headed on major issues, familiar with public security operations, and has a strong ability to handle complex issues and emergencies. In 2013, during the Xiamen bus arson case, Wang Xiaohong rushed to the scene for proper handling and timely disclosure of the case. After the 2013 case of a police officer dropping a baby in Linzhou, Henan Province, Wang Xiaohong strictly enforced the law and discipline and dealt with it seriously. Wang Xiaohong also cracked down severely on criminal gangs and once dismantled the largest "Royal No. 1" international entertainment club in Zhengzhou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>娱乐圈里有几位女星是我觉得非常遗憾去整了容的，其中一个就是霍思燕。虽然有粉丝一直在说霍思燕没有整容，但是整个人的气质与以前真的大大不同，曾经的清新温婉，被各种性感甚至有些搏出位的野心取缔，尤其在2011年跟黄奕公开对骂之后，这个我曾经着迷的清纯秀丽的美人儿，就渐渐消失不见了。 但今天还是来回忆下霍思燕曾经带给我们的惊艳时光吧。最早开始被霍思燕惊艳是在《三少爷的剑》里的纪情，2000年，才20岁的霍思燕，还有些婴儿肥，但温柔的扮相非常符合剧中看淡武林纷争的角色。（这剧里还有俞飞鸿、张静初等美女） 之后霍思燕也演了许多电视剧角色，但真正让她走红还是2003年《少年天子》里的董鄂妃，乌云珠。在潘虹、何赛飞、郝蕾等众多美人中，霍思燕饰演的乌云珠以端庄清纯，婉约秀丽的形象，成为剧里最让人瞩目的焦点。 满脸的胶原蛋白，简约的空气刘海（话说，我还是觉得我们中国古装的空气刘海好看），一低头，就是徐志摩诗里那不胜凉风的娇羞啊。 这一泪的楚楚动人样儿，真真是我见犹怜啊。 爱慕皇帝已久却阴差阳错嫁给了顺治弟弟的乌云珠第一次近距离见到皇帝时，满眼深情，泪流满面，港真，这样才貌双全的美人，别说顺治爱的无法自拔，作为女人，我也爱啊。 后面被顺治召见聊天，开心的笑，更是春风十里。 2005年，闹腾神话喜剧《欢天喜地七仙女》受到很多同学的追捧，虽然剧中衣服都花花绿绿，但是七个仙女都颜值出众，霍思燕的紫儿室友还买了贴画。 萌萌哒~ 2006年，翻拍的青年偶像剧版《聊斋》你一定不陌生吧，汇聚了林志颖、李冰冰、杨幂、胡歌、叶璇、孙耀威、曾黎、杨丞琳等等偶像，霍思燕是《小谢与秋容》单元剧里的秋容（唐宁饰演的小谢则非常可爱），身世悲苦，没有小谢活泼，但撑着红纸伞的亮相还是很惊艳啊。 2008年的跨越末清到民国初期的《最后的格格》里，发现，霍思燕真的很适合空气刘海配置的格格扮相，就算是整个打扮非常素朴，也是美得不像话。 稍微装饰一下就明丽起来，真美女从来不需要那么多华服头饰浓妆来衬托啊，越是素妆越能体现本身的美丽（《人龙传说》里的小鱼也是）。 2009年，高考完，在家猛的刷了几天的《玫瑰江湖》，这剧也是孙菲菲的颜值巅峰时期吧。钟汉良和何晟铭分别是那个年代的项羽和刘邦，还有帅哥陈键锋，可谓是颜值高又有剧情的剧（当年的于正还没有瓦特）。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>In the entertainment industry, there are several female stars that I feel very regretful for having undergone plastic surgery, and one of them is Huo Siyan. Although some fans have been saying that Huo Siyan did not have plastic surgery, the overall aura of the person is really different from before. The once fresh and gentle image has been replaced by various sexy and even somewhat ambitious styles, especially after the public quarrel with Huang Yi in 2011. The pure and beautiful girl that I used to be fascinated with has gradually disappeared. But today, let's reminisce about the stunning moments that Huo Siyan once brought us. The earliest time I was amazed by Huo Siyan was in the role of Ji Qing in "The Third Master's Sword". In the year 2000, at the age of only 20, Huo Siyan still had some baby fat, but her gentle appearance was very suitable for the role in the drama that portrayed indifference to the martial arts world. (This drama also featured beauties like Yu Feihong, Zhang Jingchu, etc.) Later on, Huo Siyan played many roles in TV dramas, but it was really in 2003, in the role of Dong Efei, Wuyun Zhu in "The Young Emperor", that she became famous. Among many beauties like Pan Hong, He Saifei, and Hao Lei, the character Wuyun Zhu played by Huo Siyan, with her dignified and pure, gentle and beautiful image, became the most eye-catching focus in the drama. With a face full of collagen, a simple air bangs hairstyle (by the way, I still think that the air bangs hairstyle in our Chinese ancient costumes looks good), a slight bow, and it's like the shy and delicate appearance described in Xu Zhimo's poem. This tearful and charming appearance is truly pitiful to see. Having admired the emperor for a long time but ended up marrying Shunzhi's younger brother by mistake, when Wuyun Zhu saw the emperor up close for the first time, her eyes were full of affection, tears streaming down her face. Honestly, such a beauty with both talent and appearance, not to mention Shunzhi's inability to extricate himself, as a woman, I also love it. Later, when summoned by Shunzhi for a chat, she smiled happily, which was even more delightful. In 2005, the lively mythological comedy "Happy Seven Fairies" was highly praised by many classmates. Although the costumes in the drama were colorful, all seven fairies were outstanding in appearance, and Huo Siyan's character, Zier's roommate, even bought stickers. So cute~ In 2006, the remake of the youth idol drama "Liao Zhai" must be familiar to you, which brought together idols like Jimmy Lin, Li Bingbing, Yang Mi, Hu Ge, Ye Xuan, Sun Yao Wei, Zeng Li, Rainie Yang, etc. Huo Siyan played Qiu Rong in the segment "Xiao Xie and Qiu Rong" (Tang Ning played the very cute Xiao Xie), with a tragic background, not as lively as Xiao Xie, but her appearance with a red paper umbrella was still very stunning. In the drama "The Last Princess" in 2008, spanning from the late Qing Dynasty to the early Republic of China, it was discovered that Huo Siyan really suited the appearance of a princess with air bangs. Even if the whole outfit was very plain, she was unbelievably beautiful. A little decoration made her look even more radiant. Truly beautiful women never need so many elaborate costumes, headpieces, or heavy makeup to set off their beauty. The more simple the makeup, the more it can reflect their natural beauty (like the character Xiaoyu in "The Legend of the Dragon"). In 2009, after finishing the college entrance examination, I binge-watched "Rose Martial World" at home for a few days. This drama was also the peak period of Sun Feifei's appearance. Zhong Hanliang and He Shengming respectively played Xiang Yu and Liu Bang of that era, and there was also the handsome Chen Jianfeng. It can be said that it was a drama with high appearance value and a good plot (back then, Yu Zheng had not yet fallen from grace).</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>最近盆友圈和微博被“蓝瘦”、“香菇”两个词刷屏了，难道是什么新型农产品?没想到探究后发现，“蓝瘦”和“香菇”源于广西一男孩的失恋视频，想表达的是难受、想哭。纳尼，这是“广普”吗? 不仅广大网友开始了造句，连明星也加入了进来，颖儿前些天因病住院微博中也将这两个大热词汇进行了活学活用。她在微博中说到：“前两天突然急性肠胃炎进了医院，蓝瘦、香菇……”看来已经掌握了使用精髓，那你呢，学会了吗? 除了广西普通话之外，咱老陕的方言中也有不少“外行人”听不懂词语，下面让我细细道来。“咥活”吃，西安人把吃饭叫作咥饭。“咥”也是古汉语，辞海中释义，咥：咬。《易。履》：“履虎尾，不咥人，亨。”Exp.奏!咥泡馍气。(走，吃泡馍去) “桥舞”在桥上舞蹈?NO!其实想说的是跳舞。Exp.让我们尽情的带着镣铐桥舞吧。 “皮孩”其实想说的是皮鞋。Exp.哦，千呐，你的皮孩咋窝么脏(哦，天呐，你的皮鞋怎么那么脏) “袅千”意指聊天，陕西人N，L有时会区分不清。Exp.来，童鞋，我们来袅袅千。(来，同学，我们来聊聊天。) “斗车”不是能装一斗东西的车，而是堵车。Exp.你咋慢成马了。(你咋这么慢。)哎呀，路上斗车呢。(哎呀，路上堵车呢。) “木乱”(音：mu牟)，表示焦躁，心绪不宁，很讨人厌。Exp. 你奏木乱很!起，辟远!(你就讨厌的很，躲远点。) “小麦”不是粮食，是姑娘。意指小妹。Exp. 小麦，你来一哈。(小妹，你来一下。) “来千béi银”蓝天白云Exp.哦，看远处的千，是窝么滴来高处的银，是窝么滴béi(哦，看，远处的天是那么的蓝。远处的云是那么的白。) “霍匪”标准的普通话，跟我念，喝～水～。Exp.来来来，进屋霍点匪嘛。(来来来，进屋喝点水嘛。) “打见话”其实是打电话。Exp.你给鸡鸡师傅打个见话，看他到哪了。(你给滴滴师傅打个电话，看他到哪了。) 造句时间：今天的千是窝么滴蓝，银是窝么滴白，额穿着额的新皮孩去广场桥舞。没想到遇到了一个小麦，她踩脏了我的新皮孩非要请我咥活表示哈歉意，我嫌木乱就说去霍点匪得了。居然遇到了斗车，在车上我们交换了号码，约好下次再打见话袅天。你读懂了吗?陕西人就能与陕普沟通无忧?你可能想的有点多。</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Recently, the terms "blue thin" and "mushroom" have been flooding Moments and Weibo. Could it be some new type of agricultural product? Unexpectedly, after investigating, it was found that "blue thin" and "mushroom" originated from a video of a boy in Guangxi experiencing a breakup, intending to express feeling uncomfortable and wanting to cry. What on earth, is this "Guangxi dialect"? Not only have a large number of netizens started to construct sentences, even celebrities have joined in. Ying Er, who was hospitalized due to illness a few days ago, also skillfully used these two hot terms on Weibo. She wrote, "A few days ago, I suddenly got acute gastroenteritis and was hospitalized, feeling blue thin, mushroom..." It seems she has already mastered the essence of using them. How about you, have you learned it? Apart from the Guangxi dialect, there are also many words in our Shaanxi dialect that "outsiders" may not understand. Let me explain them in detail. "Dī huó" means eating, Xi'an people call eating "dī fàn". "Dī" is also ancient Chinese, with the definition in the dictionary, "dī: bite." From the Book of Changes: "Step on the tiger's tail, do not bite people, auspicious." Exp. Let's go, eat bubble pancake. "Qiáo wǔ" dancing on the bridge? NO! Actually means dancing. Exp. Let's dance freely with shackles on. "Pí hái" actually means leather shoes. Exp. Oh, my, why are your leather shoes so dirty? "Niǎo qiān" means chatting, sometimes Shaanxi people cannot distinguish N and L. Exp. Come on, buddy, let's chat. "Dòu chē" is not a car that can hold a bucket of things, but traffic jam. Exp. Why are you so slow? Oh no, there's a traffic jam on the road. "Mù luàn" (pronounced: mu móu), means restless, irritable, very annoying. Exp. You are so annoying! Stay away! "Xiǎo mài" is not grain, but a girl. Refers to a young girl. Exp. Little sister, come here. "Lái qiān bèi yín" blue sky and white clouds. Exp. Oh, look at the distant sky, it's so blue. The clouds from high above are so white. "Huò fěi" standard Mandarin, say it with me, drink~ water~. Exp. Come on, come in and have a drink. "Dǎ jiàn huà" actually means making a phone call. Exp. Give a call to the Didi driver to see where he is. Sentence-making time: Today the sky is so blue, the clouds are so white, I wore my new leather shoes to the square to dance. Unexpectedly, I met a girl, she dirtied my new leather shoes and insisted on inviting me to eat to apologize. I found her annoying and said let's have a drink. I unexpectedly encountered a traffic jam, exchanged numbers on the car, and agreed to call each other next time. Did you understand? Can Shaanxi people communicate effortlessly with Shaanxi dialect? You might be thinking too much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国共产党成立95年来，无数共产党员，不负肩上的那一份责任和荣光，书写了一部又一部可歌可泣的史诗。今天，让我们跟随英雄们的脚步，重温党章中那些让人振聋发聩的精彩语句！ 【记诵重点1】《党章》:坚持全心全意为人民服务。党除了工人阶级和最广大人民群众的利益，没有自己特殊的利益。党在任何时候都把群众利益放在第一位，同群众同甘共苦，保持最密切的联系，坚持权为民所用、情为民所系、利为民所谋，不允许任何党员脱离群众，凌驾于群众之上。 【记诵重点2】《党章》：中国共产党党员必须全心全意为人民服务，不惜牺牲个人的一切，为实现共产主义奋斗终身。 【记诵重点3】《党章》：党和人民的利益高于一切，个人利益服从党和人民的利益，吃苦在前，享受在后，克己奉公，多做贡献。《党章》：自觉遵守党的纪律，模范遵守国家的法律法规，严格保守党和国家的秘密，执行党的决定，服从组织分配，积极完成党的任务。 【记诵重点4】《党章》：发扬社会主义新风尚，带头实践社会主义荣辱观，提倡共产主义道德，为了保护国家和人民的利益，在一切困难和危险的时刻挺身而出，英勇斗争，不怕牺牲。 【记诵重点5】《党章》：预备党员必须面向党旗进行入党宣誓。誓词如下：我志愿加入中国共产党，拥护党的纲领，遵守党的章程，履行党员义务，执行党的决定，严守党的纪律，保守党的秘密，对党忠诚，积极工作，为共产主义奋斗终身，随时准备为党和人民牺牲一切，永不叛党。 【记诵重点6】《党章》：密切联系群众，向群众宣传党的主张，遇事同群众商量，及时向党反映群众的意见和要求，维护群众的正当利益。 【记诵重点7】《党章》：中国共产党是中国工人阶级的先锋队，同时是中国人民和中华民族的先锋队，是中国特色社会主义事业的领导核心，代表中国先进生产力的发展要求，代表中国先进文化的前进方向，代表中国最广大人民的根本利益。党的最高理想和最终目标是实现共产主义。 【记诵重点8】《党章》：党的干部是党的事业的骨干，是人民的公仆。党按照德才兼备、以德为先的原则选拔干部，坚持五湖四海、任人唯贤，反对任人唯亲，努力实现干部队伍的革命化、年轻化、知识化、专业化。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>In the 95 years since the founding of the Communist Party of China, countless Party members, living up to the responsibility and glory on their shoulders, have written one epic after another that is moving and inspiring. Today, let us follow in the footsteps of these heroes and revisit the magnificent statements in the Party Constitution that are deafeningly powerful!
+【Key Point 1】"Party Constitution": Adhere to wholeheartedly serving the people. The Party has no special interests other than the interests of the working class and the vast majority of the people. The Party always prioritizes the interests of the masses, shares joys and sorrows with them, maintains the closest ties, insists on using power for the people, being emotionally attached to the people, and seeking benefits for the people. It does not allow any Party member to detach from the masses or act above them.
+【Key Point 2】"Party Constitution": Chinese Communist Party members must wholeheartedly serve the people, be willing to sacrifice everything for the realization of communism, and strive for it throughout their lives.
+【Key Point 3】"Party Constitution": The interests of the Party and the people are above all else, personal interests must be subordinate to the interests of the Party and the people. Endure hardships first, enjoy later, practice self-discipline and dedication, and make more contributions. "Party Constitution": Consciously abide by the Party's discipline, model compliance with the country's laws and regulations, strictly keep the Party and the country's secrets, implement the Party's decisions, obey organizational arrangements, and actively fulfill the Party's tasks.
+【Key Point 4】"Party Constitution": Promote the new socialist trends, take the lead in practicing socialist views on honor and disgrace, advocate communist ethics, and bravely fight to protect the interests of the country and the people in all difficulties and dangers, unafraid of sacrifice.
+【Key Point 5】"Party Constitution": Probationary Party members must take the Party oath facing the Party flag. The oath is as follows: "I voluntarily join the Communist Party of China, uphold the Party's principles, abide by the Party's constitution, fulfill the duties of Party members, implement the Party's decisions, strictly observe the Party's discipline, keep the Party's secrets, be loyal to the Party, work actively, strive for communism throughout my life, be ready to sacrifice everything for the Party and the people at any time, and never betray the Party."
+【Key Point 6】"Party Constitution": Maintain close ties with the masses, promote the Party's propositions to the masses, consult with the masses on matters, promptly reflect the opinions and demands of the masses to the Party, and safeguard the legitimate interests of the masses.
+【Key Point 7】"Party Constitution": The Communist Party of China is the vanguard of the Chinese working class, as well as the vanguard of the Chinese people and the Chinese nation. It is the leading core of the cause of socialism with Chinese characteristics, representing the development requirements of China's advanced productive forces, the direction of China's advanced culture, and the fundamental interests of the vast majority of the Chinese people. The Party's highest ideal and ultimate goal is to achieve communism.
+【Key Point 8】"Party Constitution": Party cadres are the backbone of the Party's cause and servants of the people. The Party selects cadres based on the principle of both virtue and talent, giving priority to virtue, adheres to the principle of selecting talents from all walks of life, opposes nepotism, and strives to achieve the revolutionization, youthfulness, knowledge, and professionalism of the cadre team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>说到养血管，很多中老年朋友都不会陌生，很多慢性病就是由于血管出问题才导致的，如果没有健康的血管，人体就像一片没有水灌溉的庄稼，会慢慢枯萎。如果血管出了问题，几乎全身都会有警报。血管出问题，全身拉“警报”眼睛模糊：可能是眼底血管腿疼跛行：可能是下肢血管胸痛胸闷：可能是心脏问题经常晕倒：可能是脑血管问题好血管三个标准：韧、滑、顺韧 好的血管有弹性且柔韧。但血管随着年龄的增大，一般不可避免地多多少少会变硬变脆，失去弹性。血管的韧性变差，就会造成控制血压的能力变差，心脑血管疾病发生的风险也越来越大。所以，好的血管首先要有弹性，这就好比橡皮筋一样，失去了弹性，其功能也就随之减弱。滑血管就像软水管，好的水管内壁，应该光滑通畅。如果将好血管和“生了病”的血管放在你面前，你会发现，好的血管看上去特别光滑。动脉血管富有活力，管壁十分光滑，看不到什么杂质，这种血管输送血液的能力也最强。但“生了病”的血管，其管道内壁就被各种“垃圾”占据，形成如同黄色小米粥样的斑块，久而久之血液流动受阻，最终因缺血引发多种疾病。顺 其实如果达到前面“韧”和“滑”两点，这第三点“顺”也基本没有问题了。我们说的顺，一般指的是动脉，动脉输送血液运达全身，血管通畅，血液流量就越大，供应到全身各处的营养也就增多。血管通畅，血流快，新陈代谢的速度也较快。上年纪后即便血脂稠，也比较不容易堵塞，被心脑血管疾病找上的风险更低；冬天更不容易感到体寒，手脚冰凉等这些食物个个都是护血管高手 小白菜：保持血管弹性。小白菜中含有大量粗纤维，可防止血浆胆固醇形成，促使胆固醇代谢物胆酸排出体外，减少动脉粥样硬化的形成，保持血管弹性。菜花：血管清理剂。菜花不但能预防呼吸道疾病，还是一种非常好的血管清理剂。芥蓝：软化血管。芥蓝具有降低胆固醇，软化血管，预防心脏病等功效。西兰花：血管清理剂。西兰花含有丰富的类黄酮，可以防止感染，还是最好的血管清理剂，能阻止胆固醇氧化，防止血小板凝结，减少心脏病与中风的危险。西红柿：抗氧化。西红柿可提高机体氧化能力，消除自由基等体内垃圾，保护血管弹性，预防血栓形成。茄子：增强血管弹性。茄子含丰富的维生素P，能软化血管，还可增强血管的弹性，降低毛细血管通透性，能防止毛细血管出血。胡萝卜：排出毒素。胡萝卜是有效的排汞食物，有效降低血液中汞离子的浓度，促进血液循环，加速毒素排出。冬瓜：预防动脉硬化。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>When it comes to nourishing blood vessels, many middle-aged and elderly friends are no strangers. Many chronic diseases are caused by problems with blood vessels. Without healthy blood vessels, the human body is like a crop without irrigation, slowly withering. If there are problems with blood vessels, almost the entire body will sound the alarm. When blood vessels have problems, the whole body sends out "alarms": blurred vision may indicate problems with retinal blood vessels; leg pain and limping may indicate issues with lower limb blood vessels; chest pain and tightness may indicate heart problems; frequent fainting may indicate brain blood vessel issues. Good blood vessels have three standards: toughness, smoothness, and smoothness. Toughness means good blood vessels are elastic and flexible. However, as blood vessels age, they inevitably become somewhat harder and more brittle, losing their elasticity. A decrease in blood vessel toughness leads to a decrease in the ability to control blood pressure, and the risk of cardiovascular and cerebrovascular diseases increases. Therefore, good blood vessels must first be elastic, like a rubber band that loses its elasticity and weakens its function. Smooth blood vessels are like soft water pipes, with the inner walls of good blood vessels being smooth and unobstructed. If you were to compare healthy blood vessels with "diseased" blood vessels, you would find that healthy blood vessels look particularly smooth. Arterial blood vessels are vibrant, with very smooth walls and no impurities visible, making them the most efficient at transporting blood. However, in "diseased" blood vessels, the inner walls are occupied by various "garbage," forming plaque-like deposits resembling yellow millet porridge. Over time, blood flow is obstructed, ultimately leading to various diseases due to ischemia. Smoothness: In fact, if the first two points of "toughness" and "smoothness" are achieved, the third point of "smoothness" is basically not a problem. When we talk about smoothness, we generally refer to arteries, which transport blood throughout the body. The smoother the blood vessels, the greater the blood flow, and the more nutrients supplied to all parts of the body. Smooth blood vessels with fast blood flow also have a faster metabolism. Even in old age, with thick blood lipids, it is less likely to block, reducing the risk of cardiovascular and cerebrovascular diseases finding you. These foods are all experts in protecting blood vessels: Baby bok choy: Maintains blood vessel elasticity. Baby bok choy contains a large amount of dietary fiber, which prevents the formation of plasma cholesterol, promotes the excretion of cholesterol metabolites bile acids, reduces the formation of atherosclerosis, and maintains blood vessel elasticity. Cauliflower: Blood vessel cleanser. Cauliflower not only prevents respiratory diseases but is also an excellent blood vessel cleanser. Chinese broccoli: Softens blood vessels. Chinese broccoli can lower cholesterol, soften blood vessels, and prevent heart disease. Broccoli: Blood vessel cleanser. Broccoli is rich in flavonoids, which can prevent infections and is the best blood vessel cleanser, preventing cholesterol oxidation, preventing platelet aggregation, and reducing the risk of heart disease and stroke. Tomatoes: Antioxidant. Tomatoes can improve the body's oxidation capacity, eliminate free radicals and other internal waste, protect blood vessel elasticity, prevent thrombosis. Eggplant: Enhances blood vessel elasticity. Eggplant is rich in vitamin P, which can soften blood vessels, enhance blood vessel elasticity, reduce capillary permeability, prevent capillary bleeding. Carrots: Detoxifies. Carrots are effective in removing mercury from the body, reducing the concentration of mercury ions in the blood, promoting blood circulation, and accelerating toxin excretion. Winter melon: Prevents arteriosclerosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 在线三定律，可以帮你去判断一个新生事物是否符合未来。在我看来，在线社会会带来一系列新的社会关系，包括新工作、新机构、新家庭、新婚姻、新友谊、新消费，原因简单而又神秘：它们与互联网连接到了一起。在数字化时代，著名的摩尔定律对整个产业（不仅仅是半导体）未来走向的判断起着非常重要的作用。如今，我们迎来了在线世界，有不同的规律需要我们去探索，我们要用不同的方法认识这个世界。对我们来说，在线后的互联网、数据和计算有三个基本定律要遵守。定律一：每一个比特都在互联网上世间万物，你可以说它是原子状态，也可以说它是比特状态。比特，可以被理解为物理上所说的对象。其实定义无所谓，反正它的最终状态一定要在线，这样一来，世间万物就通过比特连接在一起了。哪怕是一棵树，你也可以人工地给它做个标记，这个标记会使得树被纳入在线系统。只有依附于在线系统实现发展，原子与比特才是未来的状态。IPv6协议的地址长度为128位，相比IPv4协议的32位数字，它能为世界上每一粒沙子都分配一个IP地址，好像专门为在线设计。定律二：每个比特都可以在互联网上流动如果离线世界没有太阳、石油、风力等能源，是运转不起来的。而数据是让整个在线系统能够焕发生机的一种能量，是系统运作的重要基础。每个比特所代表的数据必须是流动的，这是使在线系统充满活力的源泉。如果在线系统没有了数据流动，那就一定会退化为离线系统。一旦没有了数据流动，也就是说你与别人的交换越来越少，这意味着你已经快要离线了。我再强调一遍，在线系统不是因为连上网络就叫在线了，只有进行数据流动才是在线系统。就像一条公路，哪怕全部铺上柏油，10 年没人走路，野草照样会长出来。退化总是在无意中悄无声息地出现。为什么我反对私有云，本质上来说，私有云就是数据不流通，只在自己内部做循环，人们必须在一个晦涩、虚假而且封闭的系统内，看着数据流动， 却忘了数据流动天生就该服务于全社会的需求。私有云是美国在线式的互联网，而今天我们将互联网称之为互联网而非美国在线。真正的流动，必须是在互联网而不是局域网内流动。有时我会和人讲，如果你一定要强调大数据，那请记住大指的是互联网的大，把东西封闭在自己的公司里是没有前途的，数据在互联网上流动比在局域网里产生的价值要多得多。这个道理很浅显，但不见得每个人都明白。局域网和互联网是很好区分的。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>The three laws of online can help you determine whether a new thing is in line with the future. In my opinion, the online society will bring a series of new social relationships, including new jobs, new institutions, new families, new marriages, new friendships, and new consumption, for a simple yet mysterious reason: they are connected to the Internet. In the digital age, the famous Moore's Law plays a very important role in predicting the future direction of the entire industry (not just semiconductors). Now, we are entering the online world, where different rules need to be explored, and we need to understand this world in different ways. For us, there are three basic laws of the post-online Internet, data, and computing that must be followed. Law one: every bit is connected to everything in the world on the Internet, you can call it an atomic state, or you can call it a bit state. A bit can be understood as an object in the physical sense. In fact, the definition doesn't matter, as long as its final state must be online, so that everything in the world is connected through bits. Even a tree, you can artificially mark it, and this mark will make the tree part of the online system. Only by attaching to the online system can atoms and bits be the future state. The address length of the IPv6 protocol is 128 bits, compared to the 32-bit numbers of the IPv4 protocol, it can assign an IP address to every grain of sand in the world, as if designed specifically for online use. Law two: every bit can flow on the Internet. If the offline world lacks energy sources such as the sun, oil, wind, etc., it cannot operate. Data is a kind of energy that allows the entire online system to thrive and is an important foundation for the system to operate. The data represented by each bit must flow, which is the source of vitality that makes the online system vibrant. If the data flow in the online system stops, it will definitely degenerate into an offline system. Once the data flow stops, meaning that your exchanges with others are decreasing, it means you are about to go offline. I emphasize again, being online does not mean being connected to the network, only data flow is considered an online system. Just like a road, even if it is all paved with asphalt, if no one walks on it for 10 years, weeds will still grow. Degradation always appears silently and unintentionally. Why do I oppose private clouds? Essentially, private clouds mean that data does not flow, it only circulates internally, and people must watch the data flow in a cryptic, false, and closed system, forgetting that data flow should naturally serve the needs of the entire society. Private clouds are like the American online-style Internet, while today we call it the Internet, not the American online. Real flow must occur on the Internet, not within a local area network. Sometimes I tell people, if you must emphasize big data, then remember that big refers to the vastness of the Internet. There is no future in keeping things closed within your company; the value generated by data flowing on the Internet is much greater than that generated within a local area network. This principle is simple, but not everyone understands it. Local area networks and the Internet are easily distinguishable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>卫生间的风水大家有没有注意过呢，其实卫生间的风水也是有讲究哦。人有三急，上厕所是其一，说明厕所的重要性。那么，对于生活中的这个必需品，厕所风水禁忌和化解方法有哪些？小编将在本文为大家介绍。 一、厕所忌在家中心，因为中心是屋子的中宫，屋子的中间是一个非常重要的地方，主要用来做客厅或者卧室，但千万不能做厕所，因为会被污染的，影响家中财运。二、卫生间是湿气最重，空气质量最差，采光最不充足的地方。而且卫生间还是是藏污纳垢之地，从家居风水学的角度来说，是不宜将卫生间改成客房的。若是将卫生间改成睡房，则会因为空间采光不足而滋生细菌，对居住者的健康非常不利，容易导致家中人士经常身体抱恙。可以改成储蓄间来放一些杂物。 三、从风水上来说，厨房的炉灶属火，而卫生间属水，水来克火。如果卫生间和厨房相邻或者正相对，不仅会影响家人健康，对心脏、血液、视力也极为不利，家人脾气急躁，缺乏耐心，易发生口舌是非，矛盾重重，在外则多受排挤、诋毁之苦，事业难有晋升机会。四、卫生间门不可冲神位、祖先神位，会犯小人。多打开卫生间的窗户，让卫生间的污浊之气稀释到大气中去，这样可以中和掉一些不好的磁场。 五、一些别墅建筑或是一些复合式住宅，居住者在装修时，往往只考虑楼层平面内各房间之间的搭配，而忽视了上下楼层之间的关系。而在"家相学"中，上下层之间的关系也是非常重要的，比如浴厕压在进门口之上就是糟糕之极的宅相。六、卫生间是污秽处理之地，要适当营造光亮干洁的环境，所以在卫生间可以摆放些简约小画等清新自然的摆设，美化环境心情。马桶作为如厕的器具，其位置很有讲究，如果布置不当，则易导致诸多不顺，不能对着床头等地方。 郭易申说的有没有记住呢，宁可信其有，不可信其无哦！www.zhouyizhanbu.com周易占卜提供。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Has anyone paid attention to the feng shui of the bathroom? In fact, the feng shui of the bathroom is also very particular. People have three urgencies, going to the bathroom is one of them, indicating the importance of the toilet. So, what are the taboos and solutions for the feng shui of the toilet in daily life? The editor will introduce them to you in this article. 
+1. The toilet should not be located in the center of the house, because the center is the central palace of the house, a very important place mainly used for the living room or bedroom, but it should never be a toilet, as it will be contaminated and affect the family's wealth. 
+2. The bathroom is the most humid, with the worst air quality and least adequate lighting. Moreover, the bathroom is a place where dirt and filth accumulate. From the perspective of home feng shui, it is not suitable to convert the bathroom into a guest room. If the bathroom is converted into a bedroom, it will breed bacteria due to insufficient natural light, which is very detrimental to the health of the residents, leading to frequent illnesses. It can be converted into a storage room to store miscellaneous items. 
+3. From a feng shui perspective, the kitchen stove belongs to fire, while the bathroom belongs to water, and water restrains fire. If the bathroom and kitchen are adjacent or directly opposite, it will not only affect the health of the family, but also be extremely detrimental to the heart, blood, and eyesight. Family members will be irritable, impatient, prone to disputes, conflicts, and face difficulties in career advancement. 
+4. The bathroom door should not face the position of gods or ancestors, as it will offend malicious spirits. Keep the bathroom window open more often to let the impure air in the bathroom dilute into the atmosphere, neutralizing some negative magnetic fields. 
+5. In some villa buildings or complex residential buildings, residents often only consider the layout of rooms within the same floor during decoration, neglecting the relationship between upper and lower floors. In "home feng shui," the relationship between upper and lower floors is also very important. For example, having the bathroom directly above the entrance is a very bad home feng shui. 
+6. The bathroom is a place for handling filth, so it should be kept bright and clean. Therefore, some simple and fresh decorations like small paintings can be placed in the bathroom to beautify the environment and mood. The toilet, as a tool for relieving oneself, should be carefully positioned to avoid causing various disturbances, such as not facing the head of the bed. 
+Have you remembered what Guo Yishen said? It's better to believe it than to doubt it! www.zhouyizhanbu.com provides Zhouyi divination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>中新网5月28日电 据新加坡《联合早报》28日报道，印度总理莫迪促请巴基斯坦镇压其境内的激进分子，禁止这些激进分子从巴国领土对印度发动袭击。莫迪27日在新德里一所宫邸同巴基斯坦总理谢里夫会面，两人会前在宫邸外的台阶对媒体微笑握手，之后才入内展开近一小时的会谈。印度外交秘书苏詹塔星在会后告诉记者：“总理(向谢里夫)强调我们对恐怖组织活动的关注。他阐明，巴基斯坦须遵守承诺，防止其领土和所控制的领土，被用来对印度展开恐怖袭击。”苏詹塔星称：“我们希望同巴基斯坦建立和平与友善关系，但要建立这样的关系，终止恐怖和暴力事件的发生是重要的。”在此次会谈中，莫迪向谢里夫表示，印巴两国应放下双方的政治分歧，立即朝建立正常化关系迈进。苏詹塔星说：“双方就贸易课题进行了讨论。我们向巴方指出，我们已做好恢复贸易与经济关系正常化的万全准备。两国总理都同意，应尽快做到这点。”谢里夫接受《印度斯坦时报》访问时则指出，莫迪以压倒性胜利赢得大选，对巴基斯坦来说是个绝佳的机会。谢里夫在27日刊登的访谈中说：“我们获得一个历史性时刻来开启新的篇章。莫迪领导的新政府获得强有力的委托，我期待和印度重新建立我同瓦杰帕伊在1999年几乎达致的正常化关系。”1999年，时任印度总理瓦杰帕伊搭乘巴士前往巴基斯坦城市拉合尔同谢里夫签署和平协议，但两国在三个月后又为了克什米尔问题而几乎开战。莫迪同谢里夫会面前，也宣布其精简的内阁阵容。新内阁有45名部长，加上莫迪共46人，这比卸任总理曼莫汉星领导的71人内阁少了25人。莫迪的新政府强调由一位内阁部长主导几个相关部门，希望能突破决策上的瓶颈，以免拖累印度的经济增长。人民党最资深的女领导人史瓦拉吉(Sushma Swaraj)如外界所料出任外长一职，人民党主席拉杰纳特星(Rajnath Singh)则是新内政部长。61岁的律师贾特里(Arun Jaitley)成为莫迪之下最有权势的人，兼任财政和国防部长。贾特里告诉记者：“我知道，我是在一个极具挑战性的时刻接棒，特别是现在有必要重振(投资者)对印度经济的信心。我们必须恢复经济增速、遏制通胀，同时聚焦于财政整顿。”贾特里将于7月公布他上任后的首个预算案。他说：“政权更迭本身就已经向国际社会和国内投资者发出强烈(重振信心的)信息。”</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency reported on May 28th that according to Singapore's "Straits Times," Indian Prime Minister Modi urged Pakistan to crack down on radical elements within its borders and prevent these radicals from launching attacks on India from Pakistani territory. Modi met with Pakistani Prime Minister Sharif at a palace in New Delhi on the 27th. Before the meeting, the two leaders smiled and shook hands on the steps outside the palace for the media, then proceeded inside for a meeting that lasted nearly an hour. Indian Foreign Secretary Sujatha Singh told reporters after the meeting, "The Prime Minister (Modi) emphasized our concerns about terrorist activities. He made it clear that Pakistan must fulfill its commitments to prevent its territory and territories under its control from being used to launch terrorist attacks on India." Singh said, "We hope to establish peaceful and friendly relations with Pakistan, but to do so, it is important to end the occurrence of terrorist and violent incidents." During the meeting, Modi told Sharif that India and Pakistan should set aside their political differences and move towards normalization of relations immediately. Singh said, "Both sides discussed trade issues. We pointed out to the Pakistani side that we are ready to fully restore normal trade and economic relations. Both Prime Ministers agreed that this should be done as soon as possible." Sharif, in an interview with "The Hindustan Times," pointed out that Modi's landslide victory in the elections presents a great opportunity for Pakistan. In the interview published on the 27th, Sharif said, "We have a historic moment to open a new chapter. The new government led by Modi has a strong mandate, and I look forward to re-establishing the normalization of relations that I almost achieved with Vajpayee in 1999." In 1999, then-Indian Prime Minister Vajpayee traveled to the Pakistani city of Lahore by bus to sign a peace agreement with Sharif, but the two countries almost went to war three months later over the Kashmir issue. Before the meeting between Modi and Sharif, Modi also announced his streamlined cabinet lineup. The new cabinet has 45 ministers, plus Modi, totaling 46 people, which is 25 fewer than the 71-member cabinet led by former Prime Minister Manmohan Singh. Modi's new government emphasizes having one cabinet minister lead several related departments in order to break through decision-making bottlenecks and avoid hindering India's economic growth. The most senior female leader of the People's Party, Sushma Swaraj, was appointed as the Foreign Minister, as expected by the public, while the party's president, Rajnath Singh, became the new Minister of Home Affairs. 61-year-old lawyer Arun Jaitley became the most powerful figure under Modi, serving as both the Finance and Defense Minister. Jaitley told reporters, "I know that I am taking over at an extremely challenging time, especially now when it is necessary to restore confidence in the Indian economy. We must restore economic growth, curb inflation, and focus on fiscal consolidation." Jaitley will announce his first budget after taking office in July. He said, "The change in government itself has sent a strong message to the international community and domestic investors to boost confidence."</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>城市公交线路和站点主要依据居民的出行需求以及客流量来制定，根据公交线网的规划，公交公司之后会适时对公交线路进行调整和优化。近日，银川市公共交通公司对外发布公告，将对19路、20路、501路和502路公交线路进行调整，现在开始面向社会广泛征集意见。 随着银川市金凤区大阅城及阅海万家F、G区投入使用，为有效利用公交场站优势，合理搭建公交线网，同时填补大连路以东德胜花园区域住宅社区的公交空白，银川市公共交通公司拟对公交19路、20路、501路、520路运行路线进行优化调整。拟定调整方案具体为：调整方案● 现运行路线：览山公园—原路线—大连路—尹家渠街—一号路—正源街—贺兰山路—凤凰街—济慈巷—天平街—北京路—原路线—公交公司● 拟调整为：览山公园—原路线—大连路—规划路—阅欣路—尹家渠街—一号路—正源街—贺兰山路—凤凰街—北京路—恢复原路线—公交公司站点设置● 拟取消5站：阅海万家E区、银川九中阅海分校、海宝龙幼儿园、海宝东站、海宝西站。● 拟新增5站：宁夏阅海养老中心、阅海万家F1区东门、大阅城?中街、阅欣路正源街口、银川市一幼。 温馨提示：可以点开看大图哦19路调整方案● 现运行路线：西湖苑—正源北街—康平路—凤凰街—治平路—民族南街—长城路—玉皇阁南街—新华东街—友爱街—友爱公交车场；● 线路拟调整为：景安公交首末站—凤凰街—阅福路—四号路—阅欣路—正源街—康平路—凤凰街—宝湖路—民族街—凤凰街—六盘山路—金凤十三街—金凤十六街—李银路—高桥公交首末站站点设置● 取消站点24个：凤凰街宝湖路口（路西）、星光华西门、星光小区、一中、民族街修业路口、南园小区、长城路民族街口、长城路永安巷口、南关清真寺、商城东、新华街玉皇阁街口、新华街中山街口、南门广场、建发城市花园、兴庆区四小、高台小区、新华街丽景街口、金茂建材城、新中川瓷砖城、丽水家园东、友爱街解放街口、在水一方东、友爱街北京路口、友爱公交车场。●新增站点11个：景安公交首末站、凤凰街阅福路口、阅海万家F3区、阅欣路正源街口、保伏桥东、凤凰街林华巷口、凤凰街六盘山路口、高桥家园、景湖万家、中海城、高桥公交首末站。 温馨提示：可以点开看大图哦20路 调整方案● 现运行路线：金凤凰公交车场—原路线—北京路—凤凰街—上海路—原路线—北塔文化广场。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>City bus routes and stops are mainly formulated based on residents' travel needs and passenger flow. According to the planning of the bus network, the bus company will adjust and optimize bus routes in a timely manner. Recently, the Yinchuan Public Transport Company issued a public announcement to adjust bus routes 19, 20, 501, and 502, and now they are starting to widely solicit opinions from the public. With the opening of Dayue City and Yuehai Wanjia F, G areas in Jinfeng District, Yinchuan City, in order to effectively utilize the advantages of bus stations and build a reasonable bus network, while filling the public transport gap in the residential communities east of Dalian Road in Desheng Huayuan area, Yinchuan Public Transport Company plans to optimize and adjust the operation routes of bus routes 19, 20, 501, and 520. The proposed adjustment plan is as follows: Adjustment Plan: ● Current route: Lanshan Park—original route—Dalian Road—Yinjiaqu Street—No. 1 Road—Zhengyuan Street—Helanshan Road—Fenghuang Street—Jici Lane—Tianping Street—Beijing Road—original route—Bus Company ● Proposed adjustment: Lanshan Park—original route—Dalian Road—Planned Road—Yue Xin Road—Yinjiaqu Street—No. 1 Road—Zhengyuan Street—Helanshan Road—Fenghuang Street—Beijing Road—Restore the original route—Bus Company Station Settings: ● Proposed cancellation of 5 stations: Yuehai Wanjia E District, Yinchuan Jiuzhong Yuehai Branch School, Haibaolong Kindergarten, Haibao East Station, Haibao West Station. ● Proposed addition of 5 stations: Ningxia Yuehai Elderly Care Center, Yuehai Wanjia F1 District East Gate, Dayue City Middle Street, Yue Xin Road Zhengyuan Street Intersection, Yinchuan First Kindergarten. Friendly reminder: You can click to view the map. Route 19 Adjustment Plan: ● Current route: Xihu Yuan—Zhengyuan North Street—Kangping Road—Fenghuang Street—Zhiping Road—Minzu South Street—Changcheng Road—Yuhuangge South Street—Xinhua East Street—Youai Street—Youai Bus Depot; ● Proposed route adjustment: Jing'an Bus Terminal—Fenghuang Street—Yuefu Road—No. 4 Road—Yue Xin Road—Zhengyuan Street—Kangping Road—Fenghuang Street—Baohu Road—Minzu Street—Fenghuang Street—Liupanshan Road—Jinfeng 13th Street—Jinfeng 16th Street—Li Yin Road—Gaoqiao Bus Terminal Station Settings: ● 24 stations to be canceled: Fenghuang Street Baohu Road Intersection (west side of the road), Xingguang Huaxi Gate, Xingguang Community, No. 1 Middle School, Minzu Street Xiye Road Intersection, Nanyuan Community, Changcheng Road Minzu Street Intersection, Changcheng Road Yong'an Lane Intersection, Nanguan Mosque, Shangcheng East, Xinhua Street Yuhuangge Street Intersection, Xinhua Street Zhongshan Street Intersection, Nanmen Square, Jianfa City Garden, Xingqing District Fourth Primary School, Gaotai Community, Xinhua Street Lijing Street Intersection, Jinmao Building Materials City, Xinzhongchuan Ceramic Tile City, Lishui Jiayuan East, Youai Street Jiefang Street Intersection, Zai Shui Yifang East, Youai Street Beijing Road Intersection, Youai Bus Depot. ● Addition of 11 stations: Jing'an Bus Terminal, Fenghuang Street Yuefu Road Intersection, Yuehai Wanjia F3 District, Yue Xin Road Zhengyuan Street Intersection, Baofuqiao East, Fenghuang Street Linhua Lane Intersection, Fenghuang Street Liupanshan Road Intersection, Gaoqiao Jiayuan, Jinghu Wanjia, Zhonghai City, Gaoqiao Bus Terminal. Friendly reminder: You can click to view the map. Route 20 Adjustment Plan: ● Current route: Jinfenghuang Bus Depot—original route—Beijing Road—Fenghuang Street—Shanghai Road—original route—North Tower Cultural Square.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>不会编段子的翻译不是好的字幕组古人云：“学好数理化，装逼全天下”然而走遍天下的前提是你得过四六级所以我一直很佩服那些靠外语吃饭的人比如说，字幕组日本网友把中国的字幕组理解为山口组一样的黑社会组织“原来中国的黑帮还兼职翻译片子！”然而恰恰相反有些字幕组，让人感觉：这特喵的是谁家入错行的段子手吧！▼很风情~ ▼很任性~ ▼很强势~ ▼很懂娱乐圈~ ▼很接地气~ ▼大家英语都很好啊~ ▼顶楼上 ▼这种字幕普通的逗逼也是驾驭不了 ▼全世界都在看CCTV1 ▼跟我念，阿（脑）司（残）匹（片）林 ▼这个我真笑了哈哈哈哈哈哈哈哈哈 ▼真·直译 ▼这也是破罐破摔了 ▼给你打字的后期会砍死你的... 今年应该改成：像马蓉那样的？ ▼what？！ ▼导演太胖会影响收视系列QAQ ▼这么一哼哼还挺带感 ▼百度给你多少贊助？ 字幕组你们是认真在翻译吗？？？ 版权声明：资料来源于互联网，我们只为了分享有价值的内容，与商业利益无关。如作品内容、版权侵害到您的利益，请联系我方处理，非常感谢。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Those who can't come up with jokes are not good subtitle groups. As the ancients said, "Master mathematics, physics, and chemistry, and you can impress the whole world." However, the prerequisite for traveling around the world is passing the CET-4 and CET-6 exams. So, I have always admired those who make a living by speaking foreign languages. For example, Japanese netizens mistakenly interpret Chinese subtitle groups as the Yamaguchi-gumi, a yakuza organization. "So, the Chinese gangsters are also doing translation work on the side!" However, on the contrary, some subtitle groups make people feel: "Who let these amateurs in the industry of writing jokes!" ▼ Very stylish~ ▼ Very wilful~ ▼ Very assertive~ ▼ Very knowledgeable about the entertainment industry~ ▼ Very down-to-earth~ ▼ Everyone's English is so good~ ▼ Upstairs is right ▼ Even ordinary humor can't handle these subtitles ▼ The whole world is watching CCTV1 ▼ Repeat after me, A (brain) Si (disabled) Pi (pills) Lin ▼ I really laughed at this hahaha ▼ Literal translation ▼ This is just throwing caution to the wind ▼ The post-production team that types this will kill you... This year should be changed to: like Ma Rong? ▼ What?! ▼ If the director is too fat, it will affect the viewership series QAQ ▼ This humming is quite emotional ▼ How much sponsorship did Baidu give you? Subtitle group, are you translating seriously??? Copyright statement: The information comes from the internet, and we only aim to share valuable content without commercial interests. If the content or copyright of the work infringes on your interests, please contact us for resolution. Thank you very much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>今年是中国工农红军长征胜利80周年。68个老区县、52个苏区县、15万人参加红军、4.2万烈士血沃中华，作为中央苏区的半壁江山、反围剿的主战场、长征的出发点之一，福建为中央苏区的发展、红军的壮大乃至中国人民的解放事业作出巨大的奉献和牺牲。福建省广播影视集团新闻中心、新闻频道、和公共频道，联合推出大型特别系列节目《2016福建苏区行》，回顾福建儿女在土地革命时期为苏区和红军的发展壮大立下的丰功伟绩，缅怀为了新中国抛头颅、撒热血的八闽英烈，探索新常态下苏区县域经济转型升级之路。2014年4月，国家发改委发布《赣闽粤原中央苏区振兴发展规划》，正式将安溪、南安、永春、德化四个县纳入实施范围，说起来，泉州距离我们印象中的中央苏区还是蛮有一段距离的。那么，国家为什么会给予这样的待遇？在当地发生过什么样的红色故事？如今，当地又有什么样的变化发展呢？今天就跟随我们[2016·福建苏区行]前方摄制组，一起走进泉州的安溪、南安、永春和德化苏区吧。↓↓↓（节目视频建议在wifi下观看）“无与伦比的革命壮举值得我们铭记取之不尽的精神宝库值得我们代代相传敬请关注大型特别系列节目《2016福建苏区行》” ︱来源：福建新闻频道《新闻午报》，播出时间：每天12：00—13：00；公共频道《福建农村新闻联播》 ︱欢迎转发，转载请注明出处“福建新闻频道”</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>This year marks the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March. 68 old revolutionary base counties, 52 Soviet revolutionary base counties, 150,000 people joined the Red Army, 42,000 martyrs shed their blood for China. As one of the main battlefields against encirclement and suppression, a starting point of the Long March, and a significant part of the Central Soviet Area, Fujian made great contributions and sacrifices for the development of the Central Soviet Area, the growth of the Red Army, and the liberation of the Chinese people. Fujian Provincial Radio, Film and Television Group's News Center, News Channel, and Public Channel jointly launched a large special series program "2016 Fujian Soviet Area Tour", reviewing the outstanding achievements of Fujian people during the land revolution period in supporting the development of the Soviet Area and the Red Army, commemorating the heroes who sacrificed for the New China, and exploring the path of economic transformation and upgrading of the Soviet revolutionary base counties under the new normal. In April 2014, the National Development and Reform Commission issued the "Revitalization and Development Plan for the Original Central Soviet Area of Jiangxi, Fujian, and Guangdong", officially including Anxi, Nan'an, Yongchun, and Dehua counties in the implementation scope. Speaking of it, Quanzhou is still quite a distance from the Central Soviet Area in our impression. So why did the country give such treatment? What kind of red stories have happened locally? What changes and developments are taking place now? Today, follow the advance filming team of "2016 Fujian Soviet Area Tour" and step into the Soviet revolutionary base areas of Anxi, Nan'an, Yongchun, and Dehua in Quanzhou together. ↓↓↓ (It is recommended to watch the program video under WiFi) "The unparalleled revolutionary feat is worth remembering, the inexhaustible spiritual treasure is worth passing down from generation to generation. Please pay attention to the large special series program '2016 Fujian Soviet Area Tour'." | Source: Fujian News Channel "News at Noon", broadcast time: 12:00-13:00 every day; Public Channel "Fujian Rural News Broadcast" | Welcome to repost, please indicate the source "Fujian News Channel"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>网站拒还购地款上网买了美国一块土地，交付时却发现土地被调了包，要求更换土地或退款却被拒绝。无奈之下，小静（化名）将搜房网和中介公司告上了法庭。记者昨天从海淀法院获悉，该案正在审理中。购美国土地被调包原告小静诉称，2013年8月初，自己在搜房网上看到一则“惊艳亮相Let’go!到美国当地主”的土地团购广告，广告显示：“搜房独家惊爆特惠。1万元抵6万元”。小静一下产生了兴趣，便与搜房网联系，按照搜房网的要求在《搜房网购房优惠服务说明》、《搜房优惠购房确认函》签名，同时向对方支付服务费1万元人民币，由怡然居客公司出具了收款发票。《确认函》上显示，小静可在购买佛州土地时优惠6万元。在搜房网工作人员的指导下，小静最终选定了位于格林布尔一块编号为20-18号的土地并签订了购买协议，支付购地价款27766美元。之后小静收到了一位姓赵的工作人员发来的电子邮件，称她已成为美国土地业主，将地契寄出，还在该电子邮件中附了“美国政府网站土地产权备案证明”。但小静发现，“备案证明”上显示的土地不是购买的20-18号土地，而是编号为38-3号的土地。小静调查后发现，38-3号的土地评估价仅是2300美元。小静立即与搜房网和赵某联系，要求对方说明理由并按购买协议提供土地。赵某此时又提出可以再免费赠送一块1500平方米土地作为补偿，搜房网也劝小静“中国人不要为难中国人”，并均拒绝更换土地或退还购地款及服务费。搜房网隐瞒交易环节小静上网查询发现，从搜房网上所获的很多信息均是虚假的，首先是美国卖地方没有合法的卖地资格，搜房网提供的购地协议中，卖方是“Avazio土地信托”，但在网上查询不到该信托公司的任何信息。其次，20-18号土地是归“格林布尔利哈伊分局”所有，根本不归搜房网提供的美国卖地方所有。同时，就连自己所选的20-18号土地，公允价值也仅为2000美元。小静进一步了解到，根据美国土地交易流程，在美国律师行代办购地手续并取得地契（土地证）后，应将地契寄回国内，由买方签字确认后寄回美国律师行。但搜房网提供的《土地交易流程》，并没有该关键步骤，而搜房网明知土地交易流程，却故意隐瞒该重要环节，且赵某邮寄的38-3号土地地契也被篡改过。</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>The website refused to return the land purchase payment and bought a piece of land in the United States online. However, upon delivery, it was discovered that the land had been switched. The request for a land exchange or refund was rejected. In desperation, Xiao Jing (alias) sued SouFun website and the intermediary company in court. Yesterday, the reporter learned from Haidian Court that the case is currently under trial. The plaintiff Xiao Jing, who purchased the land in the United States and found it switched, claimed that in early August 2013, she saw a land group purchase advertisement on SouFun website titled "Stunning appearance Let’go! Become a local landlord in the United States," which stated: "Exclusive shocking discount by SouFun. 10,000 yuan for 60,000 yuan." Xiao Jing became interested and contacted SouFun website. According to the requirements of SouFun website, she signed the "SouFun Website House Purchase Discount Service Description" and "SouFun Discount House Purchase Confirmation Letter," and paid a service fee of 10,000 RMB to the other party. A receipt was issued by the Yiranju Company. The "Confirmation Letter" indicated that Xiao Jing could enjoy a 60,000 yuan discount when purchasing land in Florida. With the guidance of SouFun website staff, Xiao Jing finally selected a piece of land numbered 20-18 in Greenburr and signed a purchase agreement, paying the land purchase price of 27,766 USD. Later, Xiao Jing received an email from a staff member named Zhao, stating that she had become the owner of the American land, and the land deed was sent out. The email also attached a "Certificate of Land Ownership Registration" from the U.S. government website. However, Xiao Jing found that the land shown on the "registration certificate" was not the purchased 20-18 land but the land numbered 38-3. After investigating, Xiao Jing found that the assessed value of the 38-3 land was only 2,300 USD. Xiao Jing immediately contacted SouFun website and Zhao, requesting an explanation and the provision of the land according to the purchase agreement. At this point, Zhao proposed to give an additional 1,500 square meters of land as compensation for free, and SouFun website advised Xiao Jing not to make things difficult for fellow Chinese, and both refused to exchange the land or refund the land purchase payment and service fee. SouFun website concealed the transaction process. Xiao Jing found through online searches that much of the information obtained from SouFun website was false. Firstly, the American seller did not have a legal selling qualification. In the land purchase agreement provided by SouFun website, the seller was "Avazio Land Trust," but no information about this trust company could be found online. Secondly, the 20-18 land belonged to the "Greenburr-Lihai Sub-bureau" and not to the American seller provided by SouFun website. Moreover, even the selected 20-18 land had a fair value of only 2,000 USD. Xiao Jing further learned that according to the American land transaction process, after the law firm in the United States handles the land purchase procedures and obtains the land deed, it should be sent back to China for the buyer's signature confirmation before being sent back to the American law firm. However, the "Land Transaction Process" provided by SouFun website did not include this crucial step, and SouFun website deliberately concealed this important process, and the land deed for the 38-3 land sent by Zhao was also tampered with.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7月26日，国内领先的数字地图内容、导航和位置服务提供商高德地图在京举行“高德，我的互联网世界底图——AMAPInside”战略发布会。会上，高德开放平台宣布AMAPInside战略，欲把开放平台的能力、服务以及一流的技术与更多移动应用相结合，将高德地图开放平台打造成更多应用共同的“互联网世界底图”。高德地图副总裁田密介绍称，“AMAP Inside就是高德开放平台所提供的专业服务，包含地图、定位、导航、搜索、路径规划、室内地图等。通过各个第三方移动应用，高德的AMAP Inside每天为千千万万互联网用户提供服务。”目前，高德开放平台已服务超过30万移动应用，包括新浪微博、神州租车等3万多家国内知名互联网厂商采用高德地图开放平台的服务来支持其互联网地图位置业务。AMAP Inside：打造互联网世界底图高德开放平台是国内技术领先的LBS服务提供商，拥有先进的数据融合技术和海量的数据处理能力，日均处理定位请求及路径规划数百亿次，服务已经渗透到互联网生活的每一个角落。田密讲到，“AMAP Inside目标是要打造一个有价值的互联网世界底图，给产品一个“商标认证”，把高德开放平台的能力和服务以及一流的技术支持‘烙’在产品上，给用户以相应的服务与体验。” 高德是目前市场上为数不多的具备完整基因的互联网地图厂商，在上半身“产品”和下半身“数据”两个赢取用户的决定性层面都极具竞争力。行业报告显示，在地图数据生产上，高德与四维图新是市场上绝对的双寡头，共同占据了90%以上的份额。而在面对大众用户的手机地图产品市场上，高德地图也处于行业前列。正是由于高德拥有业内最顶尖专业的资质、数据和产品技术能力，高德开放平台才能够提供覆盖“工具+数据+服务”全系列的AMAP Inside服务能力。高德地图开放平台总经理童遥在发布会现场表示：“除了大家平时使用的高德地图之外，其实还有一个大家看不到的‘高德’，就是高德开放平台提供的服务。高德开放平台任务就是将高德地图最专业的定位、地图、导航等位置能力和LBS服务开放出来，供合作伙伴和开发者使用，也就是我们今天给大家介绍的AMAP Inside。这些能力加码到移动应用上，才能帮助应用为用户提供优秀的使用体验。</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>On July 26th, the leading domestic digital map content, navigation, and location service provider Amap held the strategic launch event "Amap, My Internet World Basemap - AMAPInside" in Beijing. During the event, Amap Open Platform announced the AMAPInside strategy, aiming to integrate the capabilities, services, and top-notch technology of the open platform with more mobile applications, transforming the Amap Open Platform into a common "Internet world basemap" for various applications. Tian Mi, Vice President of Amap, introduced that "AMAP Inside" is the professional service provided by Amap Open Platform, including maps, positioning, navigation, search, route planning, indoor maps, etc. Through various third-party mobile applications, Amap's AMAP Inside provides services to millions of Internet users every day. Currently, the Amap Open Platform has served over 300,000 mobile applications, including more than 30,000 well-known domestic Internet companies such as Sina Weibo and Shenzhou Car Rental, which have adopted Amap Open Platform services to support their Internet map location business. AMAP Inside: Building the Internet World Basemap Amap Open Platform is a leading domestic LBS service provider with advanced data fusion technology and massive data processing capabilities, handling hundreds of billions of positioning requests and route planning daily, penetrating every corner of Internet life. Tian Mi mentioned, "The goal of AMAP Inside is to create a valuable Internet world basemap, give products a 'brand certification,' embed the capabilities, services, and top-notch technology of Amap Open Platform in the products, and provide users with corresponding services and experiences." Amap is one of the few Internet map vendors in the market with complete genes, extremely competitive in both the "product" and "data" aspects that determine user acquisition. Industry reports show that in map data production, Amap and NavInfo are the absolute duopoly in the market, jointly occupying over 90% of the market share. In the mobile map product market for the general public, Amap is also at the forefront of the industry. It is precisely because Amap possesses the industry's top-notch qualifications, data, and product technology capabilities that the Amap Open Platform can provide a full range of AMAP Inside service capabilities covering "tools + data + services." Tong Yao, General Manager of Amap Open Platform, stated at the event, "In addition to the Amap that everyone uses in their daily lives, there is actually an 'Amap' that you cannot see, which is the service provided by the Amap Open Platform. The mission of the Amap Open Platform is to open up Amap's most professional positioning, mapping, navigation, and location capabilities and LBS services for partners and developers to use, which is what we are introducing to you today as AMAP Inside. Only by integrating these capabilities into mobile applications can applications help provide users with excellent user experiences."</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 为纪念中国工农红军长征胜利80周年，大力弘扬伟大的长征精神，进一步推动“两学一做”学习教育开展，广西各地深入开展纪念红军长征胜利80周年系列活动。各市县及各相关部门开展主题鲜明、内容丰富的纪念活动，弘扬长征精神，传承红色文化，培育红色后代，让红色精神代代相传。广西举行纪念红军长征胜利80周年座谈会10月18日上午，广西纪念红军长征胜利80周年敬献花篮仪式在兴安县举行。自治区及南部战区陆军领导彭清华、陈武、刘小午、陈际瓦等来到湘江战役纪念园，向革命烈士敬献花篮，深情回顾红军长征的历史壮举，深切缅怀革命先辈的丰功伟绩。记者 黄克 邓华 摄今年是中国工农红军长征胜利80周年。10月18日，自治区党委、政府、广西军区在兴安县举行纪念红军长征胜利80周年座谈会和敬献花篮仪式，深情回顾红军长征的历史壮举，深切缅怀革命先辈的丰功伟绩，号召全区各族人民弘扬伟大的长征精神，不忘初心、继续前进，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦而努力奋斗。自治区党委书记、自治区人大常委会主任彭清华出席并讲话，自治区主席陈武主持会议，南部战区陆军司令员刘小午、自治区政协主席陈际瓦、广西军区政委姜英宇出席纪念活动。（来源：广西日报） 详细》》广西举行纪念红军长征胜利80周年文艺演出十月二十日晚，广西纪念中国工农红军长征胜利八十周年文艺演出《红色征程》在南宁剧场举行。自治区党委书记彭清华、自治区主席陈武、南部战区陆军司令员刘小午、南部战区陆军政委白吕、自治区政协主席陈际瓦、广西军区司令员肖运洪等，与首府一千五百多名观众一起观看演出。记者 梁凯昌 摄不忘初心，弘扬伟大长征精神；继续前进，加快实现“两个建成”。10月20日晚，广西纪念中国工农红军长征胜利80周年文艺演出《红色征程》在南宁剧场举行。自治区党委书记彭清华、自治区主席陈武、南部战区陆军司令员刘小午、南部战区陆军政委白吕、自治区政协主席陈际瓦、广西军区司令员肖运洪等，与首府1500多名观众一起观看演出。</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>To commemorate the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March, vigorously promote the great spirit of the Long March, further advance the "Two Studies, One Action" learning and education campaign, various regions in Guangxi have carried out a series of activities to commemorate the 80th anniversary of the Red Army's Long March victory. Cities, counties, and relevant departments have organized commemorative activities with distinct themes and rich content, promoting the spirit of the Long March, inheriting the red culture, nurturing the descendants of the revolution, and passing on the revolutionary spirit from generation to generation. Guangxi held a symposium to commemorate the 80th anniversary of the Red Army's Long March victory on the morning of October 18. The ceremony to lay wreaths in commemoration of the 80th anniversary of the Red Army's Long March victory was held in Xing'an County. Leaders of the Autonomous Region and the Southern Theater Command Army, including Peng Qinghua, Chen Wu, Liu Xiaowu, and Chen Jiwa, visited the Xiangjiang Battle Memorial Park to lay wreaths in tribute to the revolutionary martyrs, emotionally reviewing the historic feat of the Red Army's Long March, and deeply commemorating the achievements of the revolutionary predecessors. Reporters Huang Ke and Deng Hua captured the event. This year marks the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March. On October 18, the Party Committee, Government, and Guangxi Military Region of the Autonomous Region held a symposium and wreath-laying ceremony in Xing'an County to emotionally review the historic feat of the Red Army's Long March, deeply commemorate the achievements of the revolutionary predecessors, and call on people of all ethnic groups in the region to promote the great spirit of the Long March, not forget their original aspirations, continue to move forward, and strive to achieve the two centenary goals and realize the Chinese Dream of the great rejuvenation of the Chinese nation. Peng Qinghua, Secretary of the Party Committee of the Autonomous Region and Director of the Standing Committee of the People's Congress of the Autonomous Region, attended and spoke at the event, while Chen Wu, Chairman of the Autonomous Region, presided over the meeting. Liu Xiaowu, Commander of the Southern Theater Command Army, Chen Jiwa, Chairman of the Autonomous Region Political Consultative Conference, and Jiang Yingyu, Political Commissar of the Guangxi Military Region, attended the commemorative activities. (Source: Guangxi Daily) Details》》 Guangxi held a literary performance to commemorate the 80th anniversary of the Red Army's Long March victory On the evening of October 20, a literary performance titled "Red Journey" commemorating the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March was held at the Nanning Theater in Guangxi. Peng Qinghua, Secretary of the Party Committee of the Autonomous Region, Chen Wu, Chairman of the Autonomous Region, Liu Xiaowu, Commander of the Southern Theater Command Army, Bai Lv, Political Commissar of the Southern Theater Command Army, Chen Jiwa, Chairman of the Autonomous Region Political Consultative Conference, and Xiao Yunhong, Commander of the Guangxi Military Region, along with over 1,500 audience members from the capital, attended the performance. Reporter Liang Kaichang captured the event. Remembering the original aspirations, promoting the great spirit of the Long March; continuing to move forward, accelerating the realization of the "Two Centenary Goals." On the evening of October 20, Guangxi held a literary performance titled "Red Journey" commemorating the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March at the Nanning Theater. Peng Qinghua, Secretary of the Party Committee of the Autonomous Region, Chen Wu, Chairman of the Autonomous Region, Liu Xiaowu, Commander of the Southern Theater Command Army, Bai Lv, Political Commissar of the Southern Theater Command Army, Chen Jiwa, Chairman of the Autonomous Region Political Consultative Conference, and Xiao Yunhong, Commander of the Guangxi Military Region, along with over 1,500 audience members from the capital, attended the performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>航班延误补偿方案须公布航班正常管理规定征意见遇天气、突发事件延误费用旅客自理近年来，航班延误饱受诟病，这也导致了乘客和航空公司的矛盾不断升级。昨天，中国民用航空局在官方网站公布《航班正常管理规定》（征求意见稿）。意见稿明确提出，航空公司应制定并对社会公布航班延误经济补偿方案，方案中应明确是否对航班延误进行补偿，补偿的范围、条件、标准等内容。航空公司在航班延误时如未按照规定处理，则将面临最高10万元的罚款。本规定自2014年10月30日起施行。机坪延误超2小时须提供饮食关舱门后旅客常常会遇到被告知因流量控制或者其他原因，飞机正在等待塔台通知，起飞时间待定。被“憋”在机舱中的感觉十分难受，而漫长的等待更让旅客不满。昨天公布的意见稿明确提出，“机坪长时间延误”是指航班飞机关舱门后至起飞前或降落后至开舱门前，旅客在航空器内等待超过或包括 3小时的情况。在此等待过程中，机组应该做些什么呢？意见稿明确，机组应每 30 分钟向旅客告知一次航班动态信息，包括延误原因、预计延误时间等。机坪延误超过 2小时（含），机组应为客舱内旅客提供饮用水和食品。意见指出，如果航空公司未按要求进行机坪长时间延误处置的、未能按要求提供航班延误旅客服务的，未按要求进行大面积航班延误处置的，有以上行为之一，由民航地区管理局责令改正，并处2万元以上10万元以下罚款。天气、突发事件等因素延误费用旅客自理征求意见稿提出，由于机务维护、航班调配、机组等航空公司自身原因，造成航班在始发地延误或取消，航空公司应当向旅客提供餐食或住宿等服务。由于天气、突发事件、空中交通管制、安检以及旅客等非航空公司原因，造成航班在始发地延误或取消，航空公司应协助旅客安排餐食和住宿，费用由旅客自理。航班在经停地延误或取消，无论何种原因，航空公司均应负责向经停旅客提供餐食或住宿服务。延误后航空公司经济补偿须公布发生延误后经济补偿金额是多少？怎么补？这个问题十分困扰旅客。现在的情况是，延误发生后旅客和航空公司在金额上相互扯皮，更有旅客狮子大开口，不达到要求的金额拒绝登机或者下机，旅客的“霸机”行为时有发生。对此，意见明确指出，航空公司应制定并对社会公布航班延误经济补偿方案，方案中应明确是否对航班延误进行补偿，补偿的范围、条件、标准等内容。</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Flight delay compensation plans must publish flight normal management regulations soliciting opinions on weather, unforeseen events, delay costs passengers self-care In recent years, flight delays have been widely criticized, leading to escalating conflicts between passengers and airlines. Yesterday, the Civil Aviation Administration of China announced the "Flight Normal Management Regulations" (draft for soliciting opinions) on its official website. The draft clearly states that airlines should formulate and publicly announce economic compensation plans for flight delays to the society, specifying whether compensation will be provided for flight delays, the scope, conditions, standards, and other contents of the compensation. Airlines that fail to handle flight delays according to regulations will face fines of up to 100,000 yuan. This regulation will be implemented starting from October 30, 2014. Providing food and closing the cabin door after a delay of more than 2 hours on the apron Passengers are often informed that the plane is waiting for tower notification due to traffic control or other reasons, and the takeoff time is uncertain after the cabin door is closed. The feeling of being "stuck" in the cabin is very uncomfortable, and the long wait makes passengers even more dissatisfied. The opinions published yesterday clearly state that "long apron delay" refers to situations where passengers wait inside the aircraft for more than or including 3 hours from when the cabin door is closed before takeoff or from landing until the cabin door is opened. What should the crew do during this waiting process? The draft specifies that the crew should inform passengers of the flight status every 30 minutes, including the reasons for the delay and the estimated delay time. If the apron delay exceeds 2 hours (inclusive), the crew should provide drinking water and food for passengers in the cabin. The opinions point out that if an airline fails to handle long apron delays as required, fails to provide delayed flight passenger services as required, or fails to handle large-scale flight delays as required, and exhibits any of the above behaviors, the Civil Aviation Administration will order corrections and impose fines ranging from 20,000 to 100,000 yuan. Delay costs due to weather, unforeseen events, etc., passengers self-care The draft solicits opinions on the fact that if a flight is delayed or canceled at the origin due to the airline's own reasons such as aircraft maintenance, flight scheduling, crew, etc., the airline should provide meals or accommodation services to passengers. If a flight is delayed or canceled at the origin due to reasons beyond the airline's control such as weather, unforeseen events, air traffic control, security checks, or passengers, the airline should assist passengers in arranging meals and accommodation, with costs borne by the passengers. If a flight is delayed or canceled at a stopover, regardless of the reason, the airline should be responsible for providing meals or accommodation services to passengers at the stopover. Economic compensation by airlines after delays must be disclosed How much is the economic compensation after a delay? How is it compensated? This issue greatly troubles passengers. Currently, after a delay occurs, passengers and airlines often haggle over the amount of compensation, with some passengers demanding unreasonably high amounts and refusing to board or disembark if their demands are not met, leading to instances of passengers behaving unreasonably. In response to this, the opinions clearly state that airlines should formulate and publicly announce economic compensation plans for flight delays, specifying whether compensation will be provided for flight delays, the scope, conditions, standards, and other contents of the compensation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>人能走多远?这话不要问双脚，而是要问志向，人能攀登多高?这话不要问身躯，而是要问意志，人能盈利多少?这话不要问双手，而是要问易经，人能看多远?这话不要问眼睛，而是要问胸襟。美原油技术面分析:际原油价格日内震荡下行，最低下探50.48美元。日内油价走弱的主要原油是部分多头的获利了结，隔夜EIA库存数据意外大减，OPEC准备减产等利好消息被市场消化完全后，油价迎来了回调，不过中线来看，美油关注50美元整数关口附近的支撑，若该位置支撑完好，油价仍有较大机会重拾涨势。原油方面因多头获利回吐及美元走强，原油价格依旧承压下跌，日线上目前收阴，布林带开口向上运行，短周期MA5日均线、MA10日均线沾合运行至50.6一线形成支撑，MACD指标0轴上方延续金叉运行，走势放缓，红色能量柱放量，指标呈中性；4小时线油价承压回落，K线运行于布林带中轨上方，布林带开口运行，短周期MA5、MA10于51.2一线欲交死叉，MA30日均线运行至50.6一线，形成回落支撑，附图MACD指标0轴上方交金叉运行，红色能量柱缩量运行，指标偏弱；综合分析来看，油价目前承压下跌，50.6一线也是前面高点位置，晏菡建议投资者重点关注此位置的得失情况。操作上严格带好止损，控制好仓位。原油操作建议：1、现货原油回落50.2做多，止损0.3，目标51.0；2、现货原油上方触及51.4做空，止损0.3，目标50.6；白银技术面分析：白银震荡没完没了，不过总体走势渐渐往震荡上行在发展，下方的支撑一直没破，但是不断在试探上方压制。虽然有上破的迹象但是不得不承认白银17.8-18美元的压制是比较强的，依托这个位置做空是不错的选择，至于多单的话回调力度如果充足，能得到比较大的利润空间的情况下再去考虑，晚间关注加拿大利率决议及美国经济状况褐皮书。接下来白银走势也与黄金一样，还有反弹需求，不过总体来看，白银反弹会比黄金弱，白银18阻力就够了。这个点是前面下跌的二次反弹点，对于白银来说这个阻力就可以了，而且现在距离17.8阻力还有一段呢。白银17.8突破的可能性也比较大。</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>How far can a person go? Don't ask the feet, ask the aspiration; How high can a person climb? Don't ask the body, ask the will; How much profit can a person make? Don't ask the hands, ask the Book of Changes; How far can a person see? Don't ask the eyes, ask the breadth of mind. Technical analysis of US crude oil: International crude oil prices fluctuated downward during the day, with a minimum probing of $50.48. The main reason for the weakening of oil prices during the day was the profit-taking by some bulls. After the market fully digested the unexpectedly large decrease in EIA inventory data overnight, as well as the positive news of OPEC preparing to cut production, oil prices experienced a rebound. However, from a medium-term perspective, attention should be paid to the support near the $50 integer level for US oil. If this support holds up well, there is still a good chance for oil prices to resume their upward trend. On the crude oil side, due to profit-taking by bulls and a stronger US dollar, crude oil prices continue to be under pressure and are currently closing lower on the daily chart. The Bollinger Bands are widening upwards, with the short-term MA5 and MA10 converging and running along the support line at around 50.6. The MACD indicator is running above the zero axis in a continued golden cross, showing a slowing trend with increasing red energy bars, indicating a neutral stance. On the 4-hour chart, oil prices are under pressure to fall back, with the candlesticks running above the middle band of the Bollinger Bands. The short-term MA5 and MA10 are about to form a death cross at around 51.2, with the MA30 running along the support line at 50.6. The MACD indicator on the attached chart is running above the zero axis in a golden cross, with decreasing red energy bars, indicating a weak stance. In summary, oil prices are currently under pressure to fall, and the 50.6 level is also a previous high point. It is recommended that investors pay close attention to the situation at this level. Strictly manage stop-loss and control positions. Crude oil trading recommendations: 1. Buy spot crude oil at 50.2, stop loss at 0.3, target at 51.0; 2. Short spot crude oil when it reaches 51.4, stop loss at 0.3, target at 50.6. Technical analysis of silver: Silver continues to oscillate endlessly, but the overall trend is gradually moving towards an upward oscillation. The support below has not been broken, but there is constant testing of the resistance above. Although there are signs of a breakthrough, it must be acknowledged that the resistance at $17.8-18 for silver is relatively strong. Shorting at this level is a good choice. As for long positions, if there is sufficient retracement momentum and a considerable profit space, then consider it. Pay attention to the Canadian interest rate decision and the US economic situation Brown Book in the evening. The future trend of silver is similar to gold, with a demand for rebound, but overall, the rebound of silver will be weaker than gold, and the resistance at 18 for silver is sufficient. This point is the second rebound point after the previous decline. For silver, this resistance is enough, and there is still a distance from the 17.8 resistance. The possibility of breaking through 17.8 for silver is also relatively high.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>8月24日，中国银监会召开了新闻发布会，正式对外发布《网络借贷信息中介机构业务活动管理暂行办法》。10月13日，《互联网金融风险专项整治工作实施方案》经国务院同意，下发各省、自治区、直辖市人民政府，国务院各部委、各直属机构执行。从国家政策来看，对行业的监管力度日趋加大，扶优抑劣，清理整顿成为了行业的主题。在这种大环境的趋势下，不少平台打起了退堂鼓，即便留下来的平台，也对自己的标的信息遮遮掩掩，避而不谈。前几天某平台的标的信息被扒出来，平台非但不正面回复问题，反而将焦点引往他方。实际上，国家出台的政策法规，对所有平台都留有为期十二个月的整改期，并不是要求现在所有平台就必须符合规定的要求。有则改之，无则加勉，只要没有触及红线，正面全体出借人、监管机构、甚至社会大众的监督，无疑会有利于平台的发展。昨日，国内知名平台宜贷网采用了最彻底的方式向自己开炮！通过行业媒体以在线视频直播的方式，合并全国5个城市的公司向全体出借人展示了抽取的标的资料。选取的方式多样，有出借人自选、现场随机抽取，甚至彩票中奖号码等较为特别的方式，其目的是达到真正的随机，真正的公开公正。虽然直播视频由于访问人数过多有些卡顿，直播质量也不算上乘，但是这种敢于向自己开炮的精神是值得我们称赞的。 敢于向自己开炮，扒开自己的标的信息资料给广大的投资人看，这需要极大的自信与勇气。毕竟在过去一段时间的经营过程中，每个平台都经历过摸索和尝试的过程，难免会遇到与《暂行办法》有抵触的情况。随着《暂行办法》的落地，穿透式监管的要求，必然会让平台的信息更加透明化。遮掩不是办法，公开、透明的信息披露方式才是平台走向健康化、正常化发展的必由之路。</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>On August 24th, the China Banking Regulatory Commission held a press conference, officially releasing the "Interim Measures for the Administration of Business Activities of Online Lending Information Intermediaries." On October 13th, the "Special Rectification Work Plan for Internet Financial Risks" was approved by the State Council and issued to the people's governments of provinces, autonomous regions, and municipalities directly under the central government, as well as ministries and directly affiliated institutions of the State Council for implementation. From the perspective of national policies, the regulatory intensity on the industry is increasing, supporting the good and suppressing the bad, and cleaning up and rectifying has become the theme of the industry. In this trend of the overall environment, many platforms have begun to retreat. Even the platforms that remain are evasive about their target information, avoiding discussion. A few days ago, the target information of a certain platform was exposed. Instead of directly addressing the issue, the platform diverted the focus elsewhere. In fact, the policies and regulations issued by the government provide all platforms with a twelve-month rectification period, not requiring all platforms to immediately comply with the specified requirements. Whether there are issues, they should be rectified; if not, efforts should be made. As long as the red line is not crossed, the supervision from all lenders, regulatory authorities, and even the general public undoubtedly benefits the development of the platform. Yesterday, a well-known domestic platform, Yidai.com, took the most thorough approach to criticize itself! Through industry media, they live-streamed the extraction of target data from companies in five cities nationwide to all lenders. The selection methods were diverse, including lenders' self-selection, on-site random selection, and even special methods like lottery winning numbers, all aimed at achieving true randomness and transparency. Although the live video was a bit laggy due to the high number of viewers and the quality was not top-notch, the spirit of daring to criticize oneself is commendable. Daring to expose their target information to investors requires great confidence and courage. After all, in the past period of operation, each platform has gone through a process of exploration and trial, inevitably encountering situations that conflict with the "Interim Measures." With the implementation of the "Interim Measures" and the requirement for thorough regulatory oversight, platforms' information will inevitably become more transparent. Concealment is not the solution; open and transparent information disclosure is the only way for platforms to move towards healthy and normal development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>本报讯（记者王利强）忻州市直一部门的工作会上，部门负责人讲春节期间的纪律要求时，只简单说了一句：“别自己不检点，让群众检点住。”群众能检点干部？是的。一段时间以来，自从有了“四风随手拍”，忻州市民只要手机“咔嚓”一声“立此存照”，一些干部的违规行为便无处遁形。目前，是没有问题，还是没有发现问题，成了摆在执纪者面前的一个问题。仅去年，忻州市处理违反八项规定干部就有170人。然而，纪检监察部门在查办案件中发现，虽然落实中央八项规定、狠刹“四风”以来，党风政风为之一新，却依然存在“嘴上说一套背后做一套”的现象，尤其是“四风”问题出现了变异，变得更为隐蔽，更不易觉察。针对这种新情况，市纪委坚持一个节点一个节点紧抓具体问题不放松的同时创新手段，于去年12月1日正式上线主打群众路线的微信平台“四风随手拍”，并在全市范围内广而告之，鼓励干部群众用手机、相机、摄像机等设备，随手拍随时晒。拍摄者只需配上百字以内的文字，说明拍摄的时间、地点和基本情况即可，通过手机微信和APP，直通市纪委。有了“四风随手拍”这个问题揭露机制，增加了反腐“流量”。此法运行几个月来，市纪委已收到举报163件。忻州市纪委党风政风监督室24小时内一一予以首次回复，对属于政府职能部门的举报件，建议举报人向有关部门反映，对属于市纪委受理的举报件则回复已受理，其中属于“四风”问题的，5-15天内回复详细的处理结果，不属于 “四风”问题的举报件转交信访室处理，并将最终处理结果回复举报人。这163件举报件中，属于“四风”问题的有65件，除查否22件、落实整改16件外，查实的27件中，给予党纪政纪处分12人，组织处理20人，其中2人免职，1人开除。记者注意到，去年12月份正值农村两委换届，举报乡村干部选举期间大吃二喝、程序不公的内容居多，而到了今年1月份，该市深入排查“吃空饷”问题，反映“吃空饷”的举报件又占了首位。忻州市纪委党风政风监督室负责人说，高压的制度威慑和便捷的举报通道结合，释放了群众高涨的反腐热情，现在依靠群众“四风随手拍”，不仅发现问题及时，而且有图有真相，解决了之前诸如公车私用、大吃大喝等问题的取证难，为“反四风”高压电网输入了源源不断的充沛电力。</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>In a work meeting of a department directly under the government of Xinzhou City, when the department head talked about the discipline requirements during the Spring Festival, he simply said, "Don't be undisciplined yourself, let the masses discipline you." Can the masses discipline cadres? Yes. For some time now, since the implementation of the "four forms of decadence at your fingertips," as long as Xinzhou citizens snap a photo with their phones, some cadres' violations are exposed. Currently, whether there are no problems or problems have not been discovered has become a question facing the disciplinary authorities. Just last year, Xinzhou City dealt with 170 cadres who violated the eight regulations. However, the discipline inspection and supervision department found in handling cases that although the implementation of the central eight regulations and the crackdown on the "four forms of decadence" have brought about a new atmosphere in the Party and government, there still exists the phenomenon of saying one thing and doing another, especially the "four forms of decadence" have become more concealed and harder to detect. In response to this new situation, the Municipal Discipline Inspection Commission insists on grasping specific problems without relaxation, and innovates means. On December 1st last year, it officially launched the WeChat platform "Four Forms of Decadence at Your Fingertips" that focuses on the mass line, and publicized it throughout the city, encouraging cadres and the masses to use mobile phones, cameras, camcorders, and other devices to snap and share at any time. The photographer only needs to add a brief description of no more than one hundred words, stating the time, place, and basic situation of the photo. Through mobile WeChat and the app, it directly connects to the Municipal Discipline Inspection Commission. With this mechanism of exposing problems through "Four Forms of Decadence at Your Fingertips," the anti-corruption "traffic" has increased. In the operation of this method for several months, the Municipal Discipline Inspection Commission has received 163 reports. The Party and government discipline supervision office of Xinzhou City Discipline Inspection Commission replied to each report within 24 hours for the first time. For reports belonging to government functional departments, the reporters were advised to report to the relevant departments. For reports accepted by the Municipal Discipline Inspection Commission, a reply was sent confirming the acceptance. For reports related to the "four forms of decadence," detailed handling results were provided within 5-15 days. Reports not related to the "four forms of decadence" were transferred to the petition office for processing, and the final handling results were replied to the reporters. Among the 163 reports, 65 were related to the "four forms of decadence." Apart from verifying 22 reports and implementing rectification in 16 cases, among the 27 cases that were verified, 12 individuals were disciplined according to Party and government regulations, and 20 individuals faced organizational actions, including 2 dismissals and 1 expulsion. It was noted that in December last year, during the rural two committees' turnover, most reports were about excessive eating and drinking and unfair procedures during the election of village cadres. However, in January this year, the city conducted a thorough investigation into the issue of "ghost workers," and reports reflecting "ghost workers" took the lead again. The person in charge of the Party and government discipline supervision office of Xinzhou City Discipline Inspection Commission said that the combination of high-pressure institutional deterrence and convenient reporting channels has unleashed the masses' strong enthusiasm for anti-corruption. Now, relying on the masses' "Four Forms of Decadence at Your Fingertips," not only are problems discovered in a timely manner, but there is also evidence, solving the previous difficulties in obtaining evidence for issues such as misuse of public vehicles and excessive eating and drinking, and continuously injecting abundant power into the high-voltage grid of "anti-four forms of decadence."</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>日常生活中有一些会直接影响行车安全的征兆却常常容易被忽略，结果导致意外。如果你的车出现以下8种情况之一，那就要赶紧去检查了！一、无论汽车的速度快慢，方向盘总是不停地抖动，这时首先要检查轮胎，如果正常，便要送到修理厂检查其他机械部分。 二、在直路行驶时，要经常转动方向盘才能保持直线行驶，这时应该看看车胎充气状况。修正后，如果毛病仍然存在，应该送到车厂检查修理。 三、汽车时速达80至100公里或更高速度时，汽车车身发生抖动，这时应迅速将车减速直至车身稳定为止，然后尽快将车送到修理厂检查四轮定位系统。四、当刹车时车有偏向一方行驶的倾向，而需要转动方向盘才能保持汽车直线停下来时，应尽快将车送到汽车修理厂检查。一般情况下，可以做出适当矫正，但如发生意外，会措手不及导致与迎面汽车相撞或撞着行人。 五、刹车时发觉后轮锁死、滑轮等现象，需要立即将汽车送到修理厂。因为在紧急情况下，汽车可能出现不规划滑轮毛病。六、排气管发出不规则的噪声时，应尽快检查排气系统。如果排气系统有毛病，废气中的一氧化碳会进入车内，很多地方都发生过司机中毒晕倒及死亡的例子。 七、汽车的转向及刹车警示灯十分重要。行车时如发觉其中一盏灯发生毛病，要用适当手势代替。如果路上其他汽车不能预先知道你的意图很容易发生撞车的危险。八、发觉方向盘有很多虚位，或在停车时方向盘仍然可以大幅度转动，应该马上把车送到修理厂，转向系统失去控制是十分危险的。 测测你的财商：向爸爸借了500，向妈妈借了500，买了双皮鞋用了970。剩下30元，还爸爸10块，还妈妈10块，自己剩下了10块，欠爸爸490，欠妈妈490，490+490=980。加上自己的10块=990。还有10块去哪里了呢？打开微信，关注微信号：aqxw66，回复“财商”即可知道答案啦！！</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>There are some signs in daily life that directly affect driving safety but are often easily overlooked, resulting in accidents. If your car experiences one of the following 8 situations, you should check it immediately! First, no matter how fast or slow the car is moving, the steering wheel keeps shaking continuously. In this case, first check the tires. If they are normal, take the car to a repair shop to check other mechanical parts. Second, when driving straight, you need to frequently turn the steering wheel to keep the car in a straight line. Check the tire inflation status. If the problem persists after correction, take the car to a repair shop for inspection and repair. Third, when the car shakes at speeds of 80 to 100 kilometers per hour or higher, quickly reduce speed until the car stabilizes, then promptly take it to a repair shop to check the four-wheel alignment system. Fourth, if the car tends to veer to one side when braking and you need to turn the steering wheel to keep the car straight, take the car to an auto repair shop as soon as possible. In general, appropriate adjustments can be made, but if an accident occurs, it may lead to a collision with oncoming vehicles or pedestrians. Fifth, if you notice the rear wheels locking or sliding when braking, immediately take the car to a repair shop. Because in emergency situations, the car may have uncontrolled sliding wheel issues. Sixth, if irregular noises come from the exhaust pipe, check the exhaust system promptly. If there is a problem with the exhaust system, carbon monoxide in the exhaust may enter the car, leading to cases of drivers being poisoned, fainting, and even dying in many places. Seventh, the steering and brake warning lights in the car are very important. If you notice a malfunction in one of the lights while driving, use appropriate hand signals instead. If other cars on the road cannot anticipate your intentions, it is easy to have a collision. Eighth, if you feel a lot of play in the steering wheel or it can still turn significantly when parking, immediately take the car to a repair shop, as losing control of the steering system is very dangerous. Test your financial intelligence: Borrowed 500 from dad, borrowed 500 from mom, bought a pair of leather shoes for 970. Left with 30 yuan, returned 10 yuan to dad, 10 yuan to mom, and kept 10 yuan for yourself. Owe dad 490, owe mom 490, 490 + 490 = 980. Add your own 10 yuan = 990. Where did the remaining 10 yuan go? Open WeChat, follow the WeChat account: aqxw66, reply "financial intelligence" to find out the answer!</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>作者：毛志杰（家庭教育并不难）在孩子班级微信群中，创意十足的班主任老师在微信群中建议家长：带着孩子看好电影，相信一部优秀的电影就是最好的语文熏陶！的确，每一部好电影都是经过很多优秀人才的演绎、制作、加工后才呈现在人们的面前，蕴涵着知识、哲理、趣味、幻想……，可以“润物细无声”地影响人的思维、观念、习惯、行为等各个方面。比起读书，电影似乎更能引起孩子们的兴趣。 有句话说“外行看热闹，内行看门道”，带孩子看电影的道理同样如此。只有正确的方法才能让电影对孩子的“影响和教育效果”发挥到最大。那么，怎么带孩子“看电影”才是最好的方式呢？记得几年前我带着还不到10岁的儿子去看一个科幻片《星际穿越》，看着里面的情节和对科学幻想的阐述，我很担心儿子是否能看懂，因为我自己都看迷糊了。但是，当我在转身看到儿子专注的表情时，发现他已经沉浸在了电影故事的情节中。出了影院，他绘声绘色地给我们讲解他自己的对虫洞等科学知识的理解和想象，并提出了许多令我们也难以回答的问题。即使多年以后，他还对这部电影的细节津津乐道。所以，根据我们的亲身感受认为，看电影也是有方法的： 1、 应有选择地带孩子看符合孩子特点的电影。他平时就爱读科学方面的书，一看到这样的科幻电影就会触发心底的灵感，甚至能起到引爆科学兴趣的作用。2、 家长要发现孩子潜在的特长，各种教育手段要围绕孩子的特长。比如孩子喜欢艺术，就多看些艺术类的书籍和电影；孩子喜欢音乐，就不妨看看“钢的琴”这样有音乐信息的影片；如果激励孩子的勇气和正义感，就可以看看张涵予和彭于晏的“湄公河行动”…… 正如孩子的班主任所说：孩子之间的差距之所以越来越大，在学校的影响因素是“课堂听讲、作业、自习”。那么，对于家长来说，家庭教育的主要项目就是：配合检查家庭作业、合理给孩子零花钱、控制网瘾，同时让孩子多课外书、看优秀的电影、开拓孩子眼界和思想。所以说，电影作为其中一项很好的家庭教育辅助手段就是一个“高级教师”，与其他家教方式相配合，就可以帮助家长培养出优秀的孩子！</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Author: Mao Zhijie (Family Education is Not Difficult) In the WeChat group of the children's class, the creative homeroom teacher suggested to parents in the WeChat group: take your children to watch good movies, believe that an excellent movie is the best cultural influence! Indeed, every good movie is presented to people after being interpreted, produced, and processed by many outstanding talents, containing knowledge, philosophy, fun, fantasy... It can silently influence people's thinking, concepts, habits, behaviors, and other aspects. Compared to reading, movies seem to be more able to arouse children's interest. There is a saying, "outsiders watch the excitement, insiders watch the doorway," the same applies to taking children to watch movies. Only the correct method can maximize the "impact and educational effect" of movies on children. So, what is the best way to take children to "watch movies"? I remember a few years ago when I took my son, who was not yet 10 years old, to watch a science fiction movie "Interstellar". I was worried whether my son could understand the plot and scientific imagination inside, as I myself was confused. However, when I turned around and saw my son's focused expression, I found that he was already immersed in the plot of the movie. After leaving the theater, he vividly explained his own understanding and imagination of scientific knowledge such as wormholes, and raised many questions that were difficult for us to answer. Even many years later, he still enthusiastically discusses the details of this movie. Therefore, based on our personal experience, we believe that there is a method to watching movies: 1. Selectively take children to watch movies that suit their characteristics. If he usually loves to read scientific books, seeing such science fiction movies will trigger inspiration from the bottom of his heart, and even ignite his interest in science. 2. Parents should discover children's potential talents, and all educational methods should revolve around the child's strengths. For example, if a child likes art, read more art books and watch art films; if a child likes music, consider watching films with music information like "The Piano"; if motivating a child's courage and sense of justice, you can watch films like "Operation Mekong" starring Zhang Hanyu and Eddie Peng... Just as the homeroom teacher said: the reason why the gap between children is getting bigger is due to the influence factors in school such as "listening in class, homework, self-study". Therefore, for parents, the main items of family education are: cooperating to check homework, giving children pocket money reasonably, controlling internet addiction, while letting children read more extracurricular books, watch excellent movies, broaden their horizons and thinking. Therefore, movies as one of the very good auxiliary means of family education is like an "advanced teacher", which, when combined with other forms of parental education, can help parents cultivate outstanding children!</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>原标题:《小时代4》暑期上映柯震东戏份被剪光 《小时代4》顾里顾源夫妇要分别了4月8日下午，全国院线看片暨市场研讨会在北京怀柔举行，乐视、恒业、博纳、万达、安乐等多家片方也纷纷亮出自家今年暑期档及国庆档主打的影片物料吸引影院方的关注，多部新片动态也得以曝光。受柯震东吸毒事件影响的《小时代4》将于暑期档亮相大银幕，柯震东将会“消失”。之前遭遇票房尴尬的吴宇森灾难大片《太平轮（下）》也将于暑期上映，并且下集将会由吴宇森的老友徐克进行重新剪辑。陆川版《鬼吹灯》亮出概念花絮，有望于国庆档上映。《破风》定档8月7日，《华丽上班族》将以3D格式6月12日登陆各大院线。而黄晓明为自己投资兼主演，并将于5月1日上映的爱情片《何以笙箫默》宣传也是蛮拼的，当日不但现身推介会现场拉票，放话称，假如影片过10亿，要请在座所有人参加他和Angela Baby的婚礼，当晚还宴请影院经理，推杯换盏间再度为自己的新片卖力宣传。《小时代4》暑期上映柯震东“消失”上周，记者多次打探《小时代4》动向，出品方乐视影业相关人员和宣传方麦特传媒负责人都表示对于柯震东戏份和上映日期还不知情。不过，也有知情人士向记者爆料，《小时代4》已经将柯震东戏份剪去，才得以公映。在推介会上，乐视影业营销副总裁黄紫燕一上场就开门见山，“《小时代4》最大的悬念就是柯震东到底还在不在？”在座的影院经理们听闻一阵哄笑。随后，黄紫燕虽未明确表示柯震东的戏份去留，不过，她说，“我很期待郭敬明怎么把顾里与顾源的爱情戏剪掉，然后又不露痕迹，不过我相信他能做得到。”而当日推介会上，黄紫燕也称，《小时代4》将于暑期公映。依照《小时代》系列前作地毯式的宣传，第四部终结篇也准备了充分的物料，黄紫燕表示，他们为《小时代4》拍摄了一部“十年情怀纪录片”，记录了《小时代》系列小说创作十年来，陪伴很多人走过的日子。这部纪录片将会和正片一起放映，以勾起读者粉丝最大程度的情怀。《太平轮（下）》徐克重新剪辑 有望暑期亮相吴宇森执导的史诗灾难大片《太平轮（上）》在2014年贺岁档之战中，票房口碑双双遭遇滑铁卢，而原定于2015年五一档上映的下集也迟迟未见动静。在推介会上，出品方乐视影业透露，《太平轮（下）》有望于暑期上映。</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Original title: "Tiny Times 4" to be released in summer, Ko Chen-tung's role completely cut. "Tiny Times 4" Gu Li and Gu Yuan couple are going to separate. On the afternoon of April 8th, the national cinema viewing and market research seminar was held in Huairou, Beijing. LeTV, Hengye, Bona, Wanda, Anle and other film companies also presented their own summer and National Day blockbusters' promotional materials to attract the attention of cinemas. Several new film projects were also unveiled. Influenced by Ko Chen-tung's drug scandal, "Tiny Times 4" will debut on the big screen in the summer, with Ko Chen-tung set to "disappear." The previously embarrassing box office disaster film "The Crossing: Part 2" directed by John Woo will also be released in the summer, and the next installment will be re-edited by John Woo's old friend Tsui Hark. Lu Chuan's version of "The Ghouls" revealed concept footage and is expected to be released during the National Day holiday. "To the Fore" is scheduled for August 7th, and "Office" will land in major cinemas in 3D format on June 12th. Huang Xiaoming, who invested in and starred in the romantic film "Silent Separation," set to premiere on May 1st, is also aggressively promoting it. He not only appeared at the promotional event that day to campaign, but also announced that if the film grosses over 1 billion, he will invite everyone present to his and Angela Baby's wedding. That night, he also hosted a banquet for cinema managers, once again energetically promoting his new film. "Tiny Times 4" to be released in summer, Ko Chen-tung "disappears." Last week, reporters inquired about the progress of "Tiny Times 4" multiple times, but both the producers from LeTV Pictures and the PR person from Matt Media said they were unaware of Ko Chen-tung's role and the release date. However, an insider revealed to reporters that Ko Chen-tung's role had been cut from "Tiny Times 4" in order for it to be released. At the promotional event, LeTV Pictures' Vice President of Marketing, Huang Ziyin, got straight to the point, "The biggest suspense of 'Tiny Times 4' is whether Ko Chen-tung is still in it or not?" The cinema managers present burst into laughter upon hearing this. Subsequently, although Huang Ziyin did not explicitly state whether Ko Chen-tung's role was retained, she said, "I am looking forward to how Guo Jingming cuts off the love story between Gu Li and Gu Yuan without a trace, but I believe he can do it." Huang Ziyin also announced at the promotional event that "Tiny Times 4" will be released in the summer. Following the carpet-style promotion of the previous films in the "Tiny Times" series, the fourth and final installment has also prepared ample materials. Huang Ziyin stated that they have filmed a "Ten Years of Sentimental Memories Documentary" for "Tiny Times 4," documenting the ten years of the creation of the "Tiny Times" series of novels, which have accompanied many people over the years. This documentary will be screened together with the main film to evoke the maximum sentiment of readers and fans. "The Crossing: Part 2" re-edited by Tsui Hark, expected to be released in summer. John Woo's epic disaster film "The Crossing: Part 1" suffered both at the box office and in reviews during the 2014 New Year's battle, and the sequel originally scheduled for the 2015 Labor Day holiday has been silent. At the promotional event, LeTV Pictures revealed that "The Crossing: Part 2" is expected to be released in the summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>鲁网淄博7月26日讯（记者齐征通讯员邹新慧）不少家长推着婴儿车出门都习惯随手将手机钱包等贵重物品放在婴儿车上，由于注意力大多都在孩子身上，就容易忽略放在婴儿车上的物品，这给了不法分子可乘之机。近日，市民李女士推着婴儿车在张店区某市场买菜，陈女士一边精心挑选着自己需要采购的蔬菜，一边时不时的看着婴儿车里的孩子，可没想到的是，只是一转过头的刹那，陈女士挂在婴儿车上的背包就不见了。原来，陈女士为图方便，将装有手机、钱包等物品的背包直接挂在婴儿车把上，陈女士这么粗心大意，难怪小偷容易得手。四处查找无果，李女士只得报警求助。对此，张店分局体育场派出所温馨提醒：家长们在带孩子逛街、买菜、外出游玩时，除了要将孩子看好在视线之内外，还要常备防盗意识，贵重物品随身携带。特别是用婴儿车带孩子出门时，车上尽量不要放贵重物品，如果有陌生人或可疑人员靠近时，应该马上注意查看自己的财物，以免给自己带来损失。</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lu Net Zibo News on July 26th (Reporter Qi Zheng Correspondent Zou Xinhui) Many parents pushing strollers out are accustomed to casually placing valuable items such as mobile phones and wallets on the stroller. Due to most of their attention being on the child, it is easy to overlook the items placed on the stroller, which gives criminals an opportunity. Recently, Ms. Li, a resident, was pushing a stroller to buy vegetables at a market in Zhangdian District. Ms. Chen carefully selected the vegetables she needed to purchase while occasionally glancing at the child in the stroller. Unexpectedly, in just a moment when she turned her head, Ms. Chen's backpack hanging on the stroller disappeared. It turned out that Ms. Chen, for the sake of convenience, directly hung the backpack containing items such as a mobile phone and wallet on the stroller handle. With such carelessness, it's no wonder the thief succeeded easily. After searching around with no results, Ms. Li had to seek help by reporting to the police. In response, the Sports Stadium Police Station of Zhangdian Sub-bureau kindly reminds: When parents take their children out for shopping, buying groceries, or going out to play, besides keeping an eye on the child within sight, they should also maintain a sense of theft prevention and carry valuable items with them. Especially when using a stroller to take the child out, try not to place valuable items on the stroller. If strangers or suspicious individuals approach, one should immediately check their belongings to avoid losses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国网财经7月20日讯广宇发展昨日晚间发布公告，称拟斥资80亿收购房地产业务资产，公司股票于今日开市起复牌，并于复牌当日开盘涨停，报8.81元。公告称，广宇发展拟以6.81元/股发行12.82亿股，作价87.29亿元收购鲁能集团、世纪恒美持有的重庆鲁能34.50%股权、宜宾鲁能65%股权、鲁能亘富100%股权、顺义新城100%股权及重庆鲁能英大30%股权；同时拟以不低于6.94元/股非公开发行股份配套募资不超过87.29亿元，扣除发行费用后将用于募集资金投资项目建设。资料显示，重庆鲁能、宜宾鲁能、鲁能亘富、顺义新城均是具有国家一级开发资质的房地产企业，主营业务为房地产开发、销售和服务；重庆鲁能英大是具有国家二级开发资质的房地产企业，主营业务为房地产开发、销售。根据未经审计的标的公司模拟合并财务数据，标的资产2015年末总资产为396.84亿元，净资产为60.71亿元；标的资产2015年度实现营业收入51.44亿元，归属于交易对方净利润6.06亿元。</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>On July 20th, China Net Finance reported that Guangyu Development announced last night that it plans to invest 8 billion yuan to acquire real estate business assets. The company's stock resumed trading today and opened at the daily limit up, reaching 8.81 yuan. The announcement stated that Guangyu Development plans to issue 1.282 billion shares at 6.81 yuan per share, with a total value of 8.729 billion yuan, to acquire 34.50% equity of Chongqing Luneng, 65% equity of Yibin Luneng, 100% equity of Luneng Genfu, 100% equity of Shunyi New Town, and 30% equity of Chongqing Luneng Yingda held by Luneng Group and Century Hengmei. At the same time, it plans to privately issue shares at no less than 6.94 yuan per share to raise funds of up to 8.729 billion yuan, which will be used for investment project construction after deducting issuance expenses. According to the data, Chongqing Luneng, Yibin Luneng, Luneng Genfu, and Shunyi New Town are real estate companies with national first-class development qualifications, mainly engaged in real estate development, sales, and services; Chongqing Luneng Yingda is a real estate company with national second-class development qualifications, mainly engaged in real estate development and sales. Based on the unaudited simulated consolidated financial data of the target companies, the total assets of the target assets at the end of 2015 were 39.684 billion yuan, with net assets of 6.071 billion yuan; the target assets achieved operating income of 5.144 billion yuan in 2015, with a net profit attributable to the counterparty of 606 million yuan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>今天下午，魅族在北京正式发布了新款智能手机MX6，定价1999元，相比上代MX5提高了200元.这款手机的一大看点就是全球首发搭载索尼IMX386传感器，该传感器为1200万像素，像素尺寸为1.25微米，采用F2.0大光圈，6P定制镜头，支持PDAF相位对焦. 其 实在外观上，魅族MX6延续了PRO 6的外观，同样是7.25mm机身，是史上最薄的魅族手机之一。配置方面，魅族MX6屏幕尺寸为5.5英寸，分辨率为1080P夏普LCD屏幕，搭载了联 发科Helio X20处理器，内存为4GB，机身存储空间32GB，前置800万像素+后置1200万像素摄像头（首发索尼定制IMX386传感器）。运行基于安卓 6.0打造的Flyme系统，电池容量3060mAh，支持12V/2A大功率快充，75分钟充满，待机表现和三星S7不相上下。魅族这次还为 mTouch带来了微信指纹支付功能，未来Flyme的全系列也将全面加入指纹支付功能。下面是来自微博网友从现场发来的魅族MX6手机实拍照片，大家一起来欣赏下。</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>This afternoon, Meizu officially launched the new smartphone MX6 in Beijing, priced at 1999 yuan, which is 200 yuan higher than the previous MX5. One of the highlights of this phone is the global debut of the Sony IMX386 sensor, which has 12 million pixels, a pixel size of 1.25 micrometers, an F2.0 large aperture, a 6P custom lens, and supports PDAF phase focusing. In terms of appearance, Meizu MX6 continues the design of the PRO 6, with a thickness of 7.25mm, making it one of the thinnest Meizu phones ever. In terms of specifications, the Meizu MX6 has a 5.5-inch screen with a resolution of 1080P Sharp LCD screen, equipped with the MediaTek Helio X20 processor, 4GB of RAM, 32GB of internal storage, an 8 million pixel front camera, and a 12 million pixel rear camera (featuring the Sony custom IMX386 sensor). It runs on the Flyme system based on Android 6.0, with a battery capacity of 3060mAh, supports 12V/2A high-power fast charging, can be fully charged in 75 minutes, and has standby performance comparable to the Samsung S7. Meizu has also introduced WeChat fingerprint payment function for mTouch this time, and in the future, the entire Flyme series will also fully integrate fingerprint payment function. Below are the real photos of the Meizu MX6 sent by netizens on Weibo from the scene, let's enjoy them together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “民以食为天”在深圳的初秋里能攻占你的胃的，犒劳你秋日里爱尝鲜、寂寞难耐味蕾的，只有海鲜了，没完没了，还能一次吃个够的，那就只有海鲜自助了。皮皮虾、肥蟹、生猛海鲜都已躺好，迈开腿，张开嘴，尽情享受吧~~1海港印象?海鲜自助火锅 餐厅环境大气干净！一共有有海鲜区域，日料区域、涮菜区域、炒菜区域、蒸锅区域、烧烤区域六个区域，在同等价位中性价比算是高的！ 海鲜种类很多，鲍鱼、贝类、皮皮虾、三文鱼、生蚝、扇贝....超爱他家的生蚝！处理的相当干净！满满都是肉啊~ 一口下去就是大写的满足！ ?价格：大众点评团购晚市118元?地址：摩尔城旁边东森商业大厦5楼2四海一家 这个餐厅设计很棒，餐台和用餐区都分开了，这样拿东西不会拥挤，更不会在吃饭的时候被拿食物的人打扰~ 超过20个系列800多款国际美食，巴西烤肉、日本刺身、铁板烧、港式腊......。哈根达斯是免费续杯的哦~绝对让你一次吃到爽！ ?人均：176元?地址：深南大道9028号益田假日广场3楼东侧3登喜路国际大酒店 环境高大上，收碟子也比较快！晚上用餐还有表演看，用餐体验很好。 琳琅满目的海鲜，很壮实而且肉质鲜美！！巧克力喷泉和曲奇是孩子们的最爱！ ?价格：大众点评团购午市168元，晚市228元?地址：宝田一路12号登喜路国际大酒店4百合酒店香榭里自助餐厅 香榭里西餐厅装饰高雅时尚，开放式厨房设计使美食制作过程尽收眼底，令人感受精美工艺带来的快乐。 虽然品种不算非常多，但是海鲜也很新鲜！必吃龙虾、海参、生蚝、扇贝和花蟹哦。 ?价格：大众点评团购午市128元，晚市198元?地址：布吉百鸽路百合酒店(布吉地铁站A出口旁)5三千·創作料理 昏黄的灯光给人一种沉稳舒适的感觉，顶上吊满了灯笼，是跟朋友小酌聊天的好去处。 主要刺身非常的新鲜，而且份量给足，生牛肉也非常好吃、绵软、新鲜，不会觉得腥！ ?价格：单人278元?地址：福华一路3号怡景中心城广场G层6中洲万豪南山尚膳自助餐 环境清静，四周是后海一片繁华景象，可以远远看到香港和福田的景色，很漂亮。 菜品分类清晰，摆放有层次，菜式精致，高档海鲜不限额；日本鱼生、寿司都比较有质感。</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>"Food is the most important thing for the people." In the early autumn of Shenzhen, the only thing that can conquer your stomach, reward your taste buds that crave freshness and cannot stand loneliness in the autumn days, is seafood. Endless and satisfying, the only option for a seafood feast is a seafood buffet. Peeled shrimp, fat crabs, and fresh seafood are all ready. Open your legs, open your mouth, and enjoy to your heart's content~~ 1. Harbor Impression Seafood Buffet Restaurant has a clean and spacious environment! There are six areas: seafood, Japanese cuisine, hot pot, stir-fry, steaming, and barbecue, all at a high cost performance in the same price range! There are many types of seafood, such as abalone, shellfish, peeled shrimp, salmon, oysters, scallops... I love their oysters! They are cleaned very well! Full of meat~ A bite is truly satisfying! Price: Dianping group purchase, 118 yuan for dinner. Address: 5th floor, East Sen Commercial Building, next to Moore City. This restaurant has a great design, with separate dining and serving areas, so you won't be crowded when getting food, and won't be disturbed by people taking food while eating~ Over 20 series of more than 800 international cuisines, Brazilian barbecue, Japanese sashimi, teppanyaki, Hong Kong-style wax... Haagen-Dazs is free refill~ Definitely let you eat to your heart's content! Average spending: 176 yuan. Address: 3rd floor, East side, Yitian Holiday Plaza, 9028 Shennan Avenue, 3 Dengxi Road, International Hotel. The environment is upscale, and the plates are collected relatively quickly! There are performances to watch during dinner in the evening, providing a great dining experience. A variety of seafood, robust and delicious!! Chocolate fountains and cookies are children's favorites! Price: Dianping group purchase, 168 yuan for lunch, 228 yuan for dinner. Address: 12 Baotian Road, 4 Baihe Hotel, Xiangsheli Buffet Restaurant. Xiangsheli Western Restaurant is elegantly and stylishly decorated, with an open kitchen design that allows you to see the food preparation process, bringing joy from exquisite craftsmanship. Although the variety is not very large, the seafood is very fresh! Must-try lobster, sea cucumber, oysters, scallops, and flower crabs. Price: Dianping group purchase, 128 yuan for lunch, 198 yuan for dinner. Address: Baihe Hotel, Baige Road, Buji (next to Buji Metro Station Exit A). Sanqian Creative Cuisine. The dim lighting gives a calm and comfortable feeling, with lanterns hanging from the top, making it a great place to chat with friends over drinks. The sashimi is very fresh, with generous portions, and the raw beef is also very delicious, tender, and fresh, without any fishy taste! Price: 278 yuan per person. Address: 6th floor, G layer, Yijing Center City Plaza, 3 Fuhua Road, 6 Middle Zhou Marriott Nanshan Shangshan Buffet. The environment is quiet, surrounded by a bustling scene of Hohai, with views of Hong Kong and Futian in the distance, very beautiful. The dishes are clearly classified, with a layered presentation, exquisite dishes, and high-end seafood without limits; Japanese sashimi and sushi are of high quality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3月28日，位于南庄的佛山市华夏明珠大酒店对外宣布，酒店已向佛山市旅游局申请撤销五星级旅游饭店资格。该酒店前身为新中源大酒店，于2005年开业，是佛山第二家五星级酒店，如今它也成为佛山首家“主动摘星”的五星级酒店。快速发布含糊应对华夏明珠大酒店前身是新中源大酒店，由本地陶企龙头之一的新中源陶瓷投资兴建，于2005年对外营业，2007年4月成为继佛山宾馆后第二家五星级酒店。2013年11月，另一家陶企大鳄——新明珠陶瓷集团控股了该酒店，并更名为华夏明珠大酒店。在公告中，酒店给出的撤星理由是“将闲置资源和浪费的设施重新利用、提高顾客使用率，让顾客得到更多实惠，同时为员工提供更多就业岗位。”关于“摘星”事件，目前记者已得到新明珠集团和佛山市旅游局的证实。佛山市旅游局行业管理科科长张倩明表示，目前已经收到该酒店的撤星申请，但酒店星级是由国家旅游局评定，因此需要一级一级上报审批。这也意味着，该酒店要真正“摘星”还要等上一段时间。而新明珠副总经理李重光则表示，主动撤星是对酒店业务重新定位后的决定。至于日后如何定位和规划，他则不愿多透露。有业内人士分析，酒店上周四才向旅游局提交了撤销申请，时隔两天就通过媒体公布，说是“要有个会议要接待，取消了五星级资格才能承接”，这种说法似乎太过巧合，而“闲置资源重新利用”的说法，似乎是暗示目前酒店入住率不高，需要通过撤星来降低成本，拓展市场。佛山并无酒店撤星潮张倩明表示，目前佛山有11家五星级酒店，暂时只收到华夏明珠大酒店一家五星酒店申请撤星，其他星级的酒店申请评星撤星情况处于正常状态，包括刚刚正式挂牌的顺德北滘的金茂华美达酒店，而恒安瑞士大酒店本月初已通过评审，很快就能升级为五星级酒店。事实上，除了这11家五星级酒店外，近年来众多高星级品牌酒店（四星以上标准）相继进驻佛山市场，例如希尔顿、索菲特、华美达等。这些酒店即便暂时没有评星，但品牌就摆在那，消费者照样会以四星级、五星级酒店来看待他们。“撤了星或许更利于接政府的单，但其实高星级酒店本应由长远的规划，最好不要随便撤星。另一方面，酒店应该开拓更多渠道，以此得以持续发展。”一位酒店业资深人士表示。记者了解到，无论是评星还是撤星，都不是想评就评，想撤就撤。</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>On March 28th, Foshan's Huaxia Mingzhu Hotel, located in Nanzhuang, announced to the public that it had applied to the Foshan Tourism Bureau to revoke its five-star hotel qualification. The hotel, formerly known as the New Zhongyuan Hotel, opened in 2005 and was the second five-star hotel in Foshan. It has now become the first five-star hotel in Foshan to "voluntarily give up its stars." The hotel was built by New Zhongyuan Ceramics, one of the leading local ceramic companies, and opened to the public in 2005, becoming the second five-star hotel in Foshan after Foshan Hotel in April 2007. In November 2013, another ceramic industry giant, New Mingzhu Ceramic Group, acquired the hotel and renamed it Huaxia Mingzhu Hotel. In the announcement, the hotel cited the reason for giving up its stars as "reusing idle resources and wasted facilities, increasing customer usage rates, providing customers with more benefits, and creating more job opportunities for employees." Regarding the "giving up stars" incident, reporters have confirmed with New Mingzhu Group and the Foshan Tourism Bureau. Zhang Qianming, the head of the Industry Management Department of the Foshan Tourism Bureau, stated that they have received the hotel's application to give up its stars, but hotel star ratings are determined by the National Tourism Administration, so it needs to be reported and approved step by step. This also means that the hotel will have to wait for some time before truly "giving up its stars." Li Chongguang, the Deputy General Manager of New Mingzhu, stated that giving up stars was a decision made after repositioning the hotel's business. As for future positioning and planning, he was not willing to reveal more. Some industry insiders analyzed that the hotel submitted the withdrawal application to the Tourism Bureau last Thursday, and just two days later, it was announced through the media, stating that "there was a meeting to be hosted, and the five-star qualification had to be canceled to accommodate it." This explanation seems too coincidental, and the statement about "reusing idle resources" seems to imply that the hotel's occupancy rate is not high at the moment, and they need to reduce costs and expand the market by giving up stars. Zhang Qianming stated that there is no trend of hotels giving up stars in Foshan. Currently, there are 11 five-star hotels in Foshan, and they have only received an application for star withdrawal from Huaxia Mingzhu Hotel. The evaluation and withdrawal of star ratings for other hotels are in normal status, including the recently officially listed Jinmao Huameida Hotel in Beijiao, Shunde. The Swissotel Foshan has passed the review at the beginning of this month and will soon be upgraded to a five-star hotel. In fact, besides these 11 five-star hotels, many high-star brand hotels (above four stars) have entered the Foshan market in recent years, such as Hilton, Sofitel, and Huameida. Even if these hotels have not been rated yet, their brands are there, and consumers still view them as four-star or five-star hotels. "Giving up stars may be more conducive to receiving government contracts, but high-star hotels should have long-term planning and should not give up stars easily. On the other hand, hotels should explore more channels to achieve sustainable development," said a senior hotel industry professional. Reporters learned that whether it is rating stars or giving up stars, it is not something that can be done at will.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>湘西网10月23日讯(团结报记者杨继东)日前，湖南省教育厅下发的通知显示，2017年少数民族高层次骨干人才研究生招生计划，全国计划招生5000人(硕士生4000人，博士生1000人)，其中下达给湖南省的硕士生招生计划为182人。博士生招生计划不下达到省。下达给湖南省的招生计划生源范围为：教育部明确的湘西自治州，张家界市所辖的桑植县、永定区、武陵源区，怀化市所辖的麻阳苗族自治县、新晃侗族自治县、芷江侗族自治县、靖州侗族苗族自治县、通道侗族自治县，永州市所辖的江华瑶族自治县，邵阳市所辖的城步苗族自治县。内地西藏班、新疆班学校、民族院校和少数民族预科培养基地。根据规定，该计划招生对象为：非在职考生(含应届毕业生)应为大学入学前本人户口及父母户口均在教育部明确的招生范围内的高中毕业生源;在职考生的工作单位和本人户口均在教育部明确的招生范围辖区内;内地西藏班、新疆班学校、民族院校和民族预科培养基地的在职教师和管理人员亦可报考，其报考限于《2017年“少数民族高层次骨干人才计划”名额分配表》中“其它”栏所列计划和学校;汉族考生应教育部明确的招生范围内工作3年以上，报名时仍在教育部明确的招生范围辖区内工作。据了解，该计划招生考试、报名时间与2017年全国研究生招生统一考试、报名时间同步。报名前需进行报考资格确认，时间为2016年10月10日至18日。湖南省确保在10月26日之前，所受理的资格确认考生名单公示完毕。</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Xiangxi Network News on October 23rd (Unity Daily reporter Yang Jidong): Recently, a notice issued by the Education Department of Hunan Province revealed that the 2017 enrollment plan for high-level talents of ethnic minorities includes a national plan to enroll 5000 students (4000 master's students and 1000 doctoral students), with 182 master's student enrollment plans allocated to Hunan Province. The doctoral student enrollment plan is not allocated to the province. The enrollment plan allocated to Hunan Province covers the following areas: Xiangxi Autonomous Prefecture specified by the Ministry of Education, Sangzhi County, Yongding District, and Wulingyuan District under the jurisdiction of Zhangjiajie City, Mayang Miao Autonomous County, Xinhua Dong Autonomous County, Zhijiang Dong Autonomous County, Jingzhou Dong Miao Autonomous County, and Tongdao Dong Autonomous County under the jurisdiction of Huaihua City, Jianghua Yao Autonomous County under the jurisdiction of Yongzhou City, and Chengbu Miao Autonomous County under the jurisdiction of Shaoyang City. In addition, it includes mainland Tibet class, Xinjiang class schools, ethnic colleges, and ethnic preparatory education bases. According to the regulations, the target enrollment for this plan includes: off-the-job candidates (including fresh graduates) must be high school graduates whose household registration and their parents' household registration are within the specified enrollment scope by the Ministry of Education before entering university; on-the-job candidates must work in units and have household registration within the specified enrollment scope by the Ministry of Education; on-the-job teachers and administrators from mainland Tibet class, Xinjiang class schools, ethnic colleges, and ethnic preparatory education bases can also apply, limited to the plans and schools listed in the "Other" column of the "2017 'Ethnic Minority High-level Talent Plan' Quota Allocation Table." Han candidates must have worked within the specified enrollment scope by the Ministry of Education for more than 3 years, and still be working within the specified enrollment scope when applying. It is understood that the enrollment examination and registration time for this plan will be synchronized with the national postgraduate enrollment unified examination and registration time in 2017. Prior to registration, qualification confirmation is required from October 10th to 18th, 2016. Hunan Province will ensure that the list of qualified candidates accepted for confirmation is publicly announced before October 26th.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>是他！ 是他!! 就是他！我们的郭靖、乔峰...黄日华！ 小时候看这些武侠剧总是如痴如醉，血脉喷张，看得也是一身正气，后来发现！原来这些经典武侠剧里的主演竟然都有同一个人！——黄日华！您知道吗？黄日华要来南昌啦！（请在WIFI观看） 韩美8周年8大整形美容项目 888元最后1天！最后1天!最后1天！认出图中全部南昌地标十字路口再减 250元！速来认购0791-88333888 【大侠来临 机会难得】看过一定要把好消息告诉给朋友！韩美整形源自韩国宫廷美容，打造纯韩整形神话!韩美品牌起源于14世纪高丽王朝的宫廷“美容道”。据史书记载：这种流传于韩国古代宫廷的“美容道”遵循道法自然、形性合一的养生美容理念。“美容道”坚信天然之氣相互交融，達到理想均衡，而自然與人則渾為一體，身心不可分割。其美容之法神秘而独特，一直深受历代皇族贵妃所喜爱。相传历史上赫赫有名的闵妃(即朝鲜王朝的明成皇后)在年过五旬时还颜如少女，肌不生皱、身姿卓越。其美容的秘诀正式这种韩国宫廷源远流传的“美容王道”。南昌人都在看在南昌，吃完这22个美食，换一个美好青春！江西八大名门姓氏，快来看看有没有你家！中秋小长假结束，公布5个消息！南昌人看了心情要好到爆！如果没有米粉，南昌会变成怎样？看完心都慌了…原来南昌才是世界级大城市中的第一奇葩！</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>It's him! It's him!! It's him! Our Guo Jing, Qiao Feng... Alex Man! When I was a child, watching these martial arts dramas always made me fascinated, blood boiling, watching with righteousness. Later I found out! It turns out that the main actors in these classic martial arts dramas are actually the same person! —— Alex Man! Do you know? Alex Man is coming to Nanchang! (Please watch on WIFI) Hanmei's 8th anniversary 8 major plastic surgery projects, 888 yuan, last day! Last day! Last day! Recognize all the Nanchang landmarks in the picture and get an extra 250 yuan off! Hurry to subscribe 0791-88333888 【The hero is coming, don't miss the opportunity】If you have watched it, be sure to tell your friends the good news! Hanmei Plastic Surgery originates from the Korean royal court beauty, creating a pure Korean plastic surgery myth! The Hanmei brand originated from the "Beauty Way" of the Goryeo Dynasty in the 14th century. According to historical records: this "Beauty Way" that spread in the ancient Korean royal court follows the concept of natural harmony, combining form and nature. The "Beauty Way" firmly believes in the mutual blending of natural energy to achieve ideal balance, where nature and humans are inseparable, body and mind are indivisible. Its beauty methods are mysterious and unique, and have always been loved by the royal concubines of all generations. It is said that the famous Queen Min (Queen Myeongseong of the Joseon Dynasty) was still as youthful as a girl in her fifties, with no wrinkles on her skin and an outstanding figure. The secret of her beauty is precisely this ancient Korean royal court "Beauty Way" that has been passed down for generations. Nanchang people are all watching in Nanchang, after eating these 22 delicacies, exchange for a beautiful youth! Jiangxi's eight famous surnames, come and see if your family is among them! After the Mid-Autumn Festival holiday, announce 5 pieces of news! Nanchang people will be in a great mood after reading them! What would Nanchang be like without rice noodles? After reading it, my heart is in a panic... It turns out that Nanchang is the number one weirdo among world-class cities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>葫芦具有福禄的谐音象征，自古以来就被当作招财纳福的吉祥物；据说在家里悬挂葫芦，能够带来好财运、居家平安健康。民间有“厝内一粒瓠，家内才会富”的说法，意思就是家家户户至少必须摆放一个葫芦，才能够招财致富，可见葫芦是居家必备的开运吉祥物。今天北京算命大师谢享霖老师为您讲解葫芦在风水中最常见的风水开运化煞作用： 1、化解横梁压顶横梁压顶也是室内最常见的煞气之一，所谓的横梁压顶就是室内屋顶上的横梁下方突出屋顶一块，下面要是正好处于睡床、沙发、梳化、餐桌、书桌的座位等有人的地方。这在风水上讲是不好的，容易使人在潜意识里有深受压迫的感觉，睡不踏实，容易做噩梦。对人精神系统产生一些不利的影响，严重的会造成性格上的偏差，产生孤僻症。而居住者又长时间在该处休息或工作，便会造成横梁压顶之局，造成身体痛症。化解方法：在该横梁上或两条大梁之间挂一个葫芦，便可以化解横梁压顶之弊。2、化解卫生间浊气我们都知道卫生间是产生浊气的地方，这本身就不好，若是卫生间处于家中几个重要的位置那就更加不好了。家中最重要的位置是西北方，这个方位是男主人和事业的方位，卫生间在这个方位当然于家中的男主人和事业不利了。西南方是女主人的方位，卫生间在这个位置当然于女主人的身体健康和事业不利了。东北方位是家中未来二十年的旺气方，主着一个家庭的旺气运势，这个方位有卫生间当然会影响到家中未来的运势了。正东方是男孩子的位置，这个方位上要是有卫生间的话当然于男孩子的身体和学习不利了。东南方是女孩子的位置，这个方位上要是有卫生间的话那就于女孩子的身体和学习不利了。因此家中的卫生间要是在上面所的位置的话，可以在上述的方位上挂一个开光的植物葫芦进行化解。3、化解流年煞气所谓的流年煞气，就是每一年中对我们不利的气场。也就是三元九运的流年飞星中五黄位和二黑位这二个方位。九宫飞星中的五黄星和二黑星等都和疾病有极大关系，也就是病气场，今年的五黄和二黑的位置是在西南方和东北方这二个方位。若是你家的卧室、书房、客厅的沙发或者是厨房在这五黄和二黑的位置上那就会对我们的身体造成不利的影响，严重的会生大病，这在我们看居家风水中是最常见的。而葫芦是医卜星相的象征，是盛载灵丹妙药的法器，专门能吸取秽煞之气，在化解“五黄大煞”、“二黑病符”这二个凶星有奇效，因此它可以化解五黄和二黑的煞气。</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>The gourd symbolizes blessings and prosperity due to its homophonic nature. It has long been regarded as a mascot for attracting wealth and blessings. It is said that hanging a gourd at home can bring good fortune, peace, and health to the household. There is a saying among the people that "a gourd inside the house will bring wealth," meaning that every household must at least place a gourd to attract wealth and prosperity. Therefore, the gourd is an essential auspicious item for bringing good luck at home. Today, Master Xie Xianglin, a renowned fortune teller in Beijing, will explain the most common feng shui effects of gourds in feng shui for enhancing luck and dispelling negative energy:
+1. Resolving the issue of beams pressing down: Beams pressing down is one of the most common negative energies indoors. It refers to a beam protruding below the ceiling inside a room, directly above areas where people sleep, sit on sofas, dine, work at desks, etc. In feng shui, this is considered unfavorable as it can make people feel oppressed subconsciously, leading to restless sleep and nightmares. It can have adverse effects on the mental state of individuals, potentially causing personality deviations and social withdrawal. Prolonged rest or work in such areas can lead to physical discomfort. The solution is to hang a gourd on the beam or between two large beams to resolve the issue of beams pressing down.
+2. Resolving the issue of stagnant energy in the bathroom: We all know that the bathroom is a place where stagnant energy accumulates, which is inherently unfavorable. If the bathroom is located in several important positions in the house, it is even more unfavorable. The most important positions in the house are the northwest, which is the position of the male head of the household and career. Having a bathroom in this position is detrimental to the male head of the household and his career. The southwest is the position of the female head of the household, and a bathroom in this location is detrimental to the health and career of the female head of the household. The northeast is the position of the future prosperity of the family for the next twenty years, and having a bathroom in this position can affect the future prosperity of the family. The east is the position of boys, and having a bathroom in this position is detrimental to the health and education of boys. The southeast is the position of girls, and having a bathroom in this position is detrimental to the health and education of girls. Therefore, if the bathroom is located in any of these positions, hanging a consecrated plant gourd in the respective direction can resolve the issue.
+3. Resolving the issue of annual negative energy: The so-called annual negative energy refers to the unfavorable energy field for us each year. This includes the Five Yellow and Two Black positions in the annual flying stars of the Nine Palaces. The Five Yellow and Two Black stars in the Nine Palaces are closely related to diseases, indicating a disease-prone area. This year, the Five Yellow and Two Black positions are in the southwest and northeast directions. If your bedroom, study, living room sofa, or kitchen are in these positions, it can have a detrimental effect on your health, potentially leading to serious illnesses, which is a common issue in home feng shui. The gourd symbolizes medical divination and is a vessel for miraculous medicine, capable of absorbing impure energy and effectively dispelling the negative effects of the "Five Yellow Disaster" and "Two Black Disease Symbol," making it effective in resolving the negative energy of the Five Yellow and Two Black stars.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>信息时报讯（记者谢奕娟）话剧迷们热捧的乌镇戏剧节于昨日在浙江乌镇火热开幕，对于因为各种原因只能“留守广州”的上班族戏迷来说，未来两周能在羊城看到什么话剧？其实，近期在广州上演的话剧，风格还是很多样的。喜欢喜剧的，可以到友谊剧院看开心麻花，《我叫白小飞》是麻花的最新作品；而喜欢看经典名著的，可以选择由史可、苗驰、郝光的知名演员联袂主演的《榆树下的欲望》；还可以去广州话剧阵地十三号剧院支持一下本土创作，移植自昆剧的《邯郸记》，是广州话剧艺术中心一年一度的“名著风”剧作。【惊悚喜剧】《我叫白小飞》重塑人气漫画IP时间：10月21~22日20:00，23日15:30场馆：友谊剧院票价：100/180/280/380/480/680/880元前不久韩国热演的电影《釜山行》将丧尸围攻人类的恐怖故事演绎得惊心动魄，而舞台剧《我叫白小飞》堪称是剧场版的《釜山行》，讲述了一个遭变异僵尸攻击而沦陷的城市中，人类的幸存者白小飞带领他的团队，与尸王集团浴血奋战的爆笑惊悚故事。《我叫白小飞》改编自七度鱼漫画《尸兄》，从2011年开始漫画连载，是国漫中的人气IP。作者七度鱼曾说这是“一部披着惊悚外衣的喜剧”，在改编的过程中，开心麻花则发挥了一贯得心应手的喜闹剧风格。《我叫白小飞》由麻花功勋艺人黄才伦导演，《李茶的姑妈》原班人马创作。舞台剧版完整保留了动漫中的主要人物，却将故事开场的时间线推到了与“尸王”决一死战的关键时刻，粉丝们在剧场看到的是他们熟悉的原著人物共同演绎的全新故事，舞台版不仅将漫画中两位素未谋面的女主角“小薇”和“小惠”安排在了同一时空里，还给出了一个动漫连载中尚未给出的结局。在人物塑造上，舞台剧中的“尸兄”是负责搞笑的：无论是尸王身边的近卫“尸巢F4”，还是被委以重任、穿越时空去刺杀白小飞的尸兄“无脸”，他们不仅无法致白小飞于死地，反而闹出了各种令人捧腹的笑料。开心麻花版《情歌王》14首歌曲联唱、《英雄联盟》、韩国BIGBANG组合……动漫、游戏、流行等元素高频混搭，制造了大量天马行空的喜剧效果。【戏曲移植】话剧版《邯郸记》演绎汤公戏曲名作时间：10月13~23日15:00/19:45场馆：广州话剧艺术中心13号剧院票价：112/160元《邯郸记》作为“临川四梦”中的最后一梦，也是汤显祖创作的最后一出剧作。</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Information Times News (Reporter Xie Yijuan) The Wuzhen Theatre Festival, which is highly sought after by drama enthusiasts, kicked off in Wuzhen, Zhejiang yesterday. For the office workers who can only "stay in Guangzhou" due to various reasons, what kind of dramas can they see in the next two weeks in the city? In fact, there are various styles of dramas being performed in Guangzhou recently. For those who like comedy, they can go to the Friendship Theatre to watch "Happy Mahua," with "My Name is Bai Xiaofei" being the latest work by Mahua; while those who enjoy watching classic masterpieces can choose "Desire Under the Elms" starring renowned actors Shi Ke, Miao Chi, and Hao Guang; they can also go to the local creation at the Guangzhou Theatre Zone 13 to support the adaptation of Kunqu Opera "Handan Memoirs," which is an annual "classic style" drama at the Guangzhou Drama Art Center.
+【Thrilling Comedy】"My Name is Bai Xiaofei" reshapes the popular comic IP
+Dates: October 21-22 at 20:00, October 23 at 15:30
+Venue: Friendship Theatre
+Ticket Price: 100/180/280/380/480/680/880 RMB
+Not long ago, the Korean movie "Train to Busan" portrayed the terrifying story of zombies besieging humans in a heart-pounding way. The stage play "My Name is Bai Xiaofei" can be considered as the theatrical version of "Train to Busan," telling a hilarious and thrilling story of Bai Xiaofei, a survivor leading his team to fight bloodily against the Zombie King group in a city overrun by mutated zombies. "My Name is Bai Xiaofei" is adapted from the comic "Zombie Brothers" by Seven Degrees Fish, serialized since 2011, and is a popular IP in Chinese comics. The author, Seven Degrees Fish, once said it is "a comedy disguised as a thriller." In the adaptation process, Happy Mahua has maintained its skillful style of comedy. "My Name is Bai Xiaofei" is directed by Huang Cailun, a distinguished artist from Mahua, with the original team of "Aunt Li's Tea" creating it. The stage play version retains the main characters from the comic but shifts the timeline to a crucial moment when they confront the "Zombie King," presenting fans with a completely new story jointly performed by familiar characters from the original work. In terms of character portrayal, the "Zombie Brothers" in the stage play are responsible for the humor: whether it's the "Zombie Nest F4" near the Zombie King or the "Faceless" zombie brother tasked with assassinating Bai Xiaofei across time and space, they not only fail to kill Bai Xiaofei but also create various hilarious situations. The Happy Mahua version of "Love Song King" features 14 songs, "League of Legends," the South Korean group BIGBANG, and other elements such as anime, games, and pop music, creating a plethora of whimsical comedy effects.
+【Opera Adaptation】Theatre version of "Handan Memoirs" interprets Tang Xianzu's opera masterpiece
+Dates: October 13-23 at 15:00/19:45
+Venue: Guangzhou Drama Art Center, Theatre 13
+Ticket Price: 112/160 RMB
+"Handan Memoirs" is the last dream in the "Four Dreams of Linchuan" and also the last play created by Tang Xianzu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>新华社惠灵顿７月２０日专电（记者宿亮）全球乳制品贸易平台２０日公布最新交易结果显示，最具指标意义的全脂奶粉交易价格略有上涨。全球乳制品贸易平台由以新西兰恒天然公司为首的国际乳制品卖家组成，一般每两周组织一次乳制品拍卖，买家遍及全球９０多个国家和地区，其拍卖价格直接影响全球乳制品定价。在最新一次拍卖中，全脂奶粉交易价格为每吨２０７９美元，相比上一次拍卖上涨１．９％。全脂奶粉价格是恒天然等大型乳制品企业决定原奶收购价的重要指标。而脱脂奶粉、黄油等乳制品价格在此次拍卖中均略有下滑。新西兰农业经济分析机构ＡｇｒｉＨＱ认为，欧盟目前已经针对当地陷入经营困境的农场启动了财政补贴政策，短期内对市场供需平衡优化有帮助，但长期来看可能导致国际乳制品市场供过于求。这一分析机构根据最新情况预计，２０１６年至２０１７年产奶季原奶出栏均价为每公斤４．４８新西兰元（约合３．１６美元）。先前有分析认为，每公斤５．２５新西兰元（约合３．７美元）的水平才能让新西兰奶农收支平衡。</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Wellington, July 20th (Reporter Su Liang) - The latest trading results released by the global dairy trade platform on the 20th showed a slight increase in the indicative full-fat milk powder trading price. The global dairy trade platform, composed of international dairy sellers led by New Zealand's Fonterra, generally organizes a dairy auction every two weeks, with buyers from over 90 countries and regions worldwide. The auction prices directly influence the global dairy pricing. In the latest auction, the trading price of full-fat milk powder was $2079 per ton, up 1.9% from the previous auction. The price of full-fat milk powder is an important indicator for large dairy companies like Fonterra to determine the purchase price of raw milk. However, skimmed milk powder, butter, and other dairy product prices all saw slight declines in this auction. AgriHQ, a New Zealand agricultural economic analysis agency, believes that the European Union has currently initiated financial subsidy policies for local farms facing operational difficulties, which may help optimize the market supply and demand balance in the short term but could lead to an oversupply in the international dairy market in the long run. Based on the latest situation, this analysis agency predicts that the average price of raw milk per kilogram for the 2016-2017 milking season will be $4.48 New Zealand dollars (approximately $3.16 USD). Previous analyses suggested that a level of $5.25 New Zealand dollars per kilogram (approximately $3.70 USD) is needed to balance the income and expenses of New Zealand dairy farmers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 刚刚过去的假期，对于家住渭南合阳县坊镇福德村二组的孙先生一家人来说，非常痛苦，因为家里三岁的女儿男男遇害了。 10月8号，当记者来到坊镇福德村二组的时候，村民还三三两两聚在一起，讨论男男遇害的这件事情。村民：“（娃被）关系好的领走了，领走以后几天没找到，找到的时候，娃已经死在包谷地里了。” 这个关系好的人是谁？事发当天，到底发生了什么呢？男男的妈妈：“我在邻居家里谝闲传，她叫出去说是到街上找你妈去，把娃带了出去……” 男男的妈妈说，十月一号，孩子被邻居王某带出去以后就再也没有回来。直到晚上，一家人感觉不对劲，才报了警。同时男男家人也发动全村人一起寻找，最终还是邻居王某发现了男男。男男妈妈：“人都觉得找不到了，凶手说再往前找一会，再往前找一会。凶手说你看那边红红的是个啥，好像是娃，到那边一看就是娃。” 然而让所有人没有想到的是，警方根据走访和村头监控，锁定的犯罪嫌疑人就是男男家邻居王某。目前王某已被警方拘留，案件正在进一步调查当中。男男的遭遇令人痛心，凶手为何要对这样一个小生命痛下杀手，希望警方调查清楚，给家人一个交代。来源|都市快报大家都在看他曾是救援队队长，却在酒后欲性侵俩姐妹，救人榔头成杀人凶器……西安一学生上学六年无学籍，老师索要五千元走关系，让其不要声张……只因家人一个动作，1岁婴儿全身染满病毒，或伴其一生！点击左下角阅读原文，精彩内容等你看哟，别忘点个ZAN~</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>The just-passed holiday was very painful for Mr. Sun and his family, who live in Fude Village, Ergroup, Fangzhen, Heyang County, Weinan. This is because their three-year-old daughter, Mannan, was murdered. On October 8th, when reporters arrived at Ergroup, Fude Village, Fangzhen, villagers were still gathering in small groups, discussing the incident of Mannan's murder. A villager said, "The one who had a good relationship took her away. She was missing for several days after being taken away. When she was found, she was already dead in the cornfield." Who was this person with a good relationship? What happened on the day of the incident? Mannan's mother said, "I was gossiping at a neighbor's house, and she called me out saying she was going to the street to find you, taking the child out..." Mannan's mother said that on October 1st, after the child was taken out by the neighbor Wang, she never returned. It wasn't until the evening that the family felt something was wrong and reported to the police. At the same time, Mannan's family mobilized the whole village to search, and eventually it was the neighbor Wang who found Mannan. Mannan's mother said, "Everyone thought she couldn't be found. The killer said to keep looking forward for a while, keep looking forward for a while. The killer said, 'Look over there, what's that red thing, it looks like a child,' and when they went over there, it was indeed the child." However, what surprised everyone was that the police, based on interviews and village surveillance, identified the suspect as Wang, the neighbor of Mannan's family. Currently, Wang has been detained by the police, and the case is under further investigation. Mannan's ordeal is heartbreaking. Why did the killer target such a young life? Hopefully, the police will investigate thoroughly and give the family an explanation. Source: Metropolitan Express.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>詹姆刚出场时那叫让人一个讨厌，骄傲、自恋不过确实长得还行。到史塔克家做客，在人家的地盘跟姐姐通奸，被布兰看到他把布兰推下去的时候应该是无所谓的，那是那时他对世界的态度。谁做上铁王座，他无所谓，自己被所有人骂，也无所谓。他嘲讽的看别人，嘲讽的看自己，世界骗了了他，他也冷眼看世界，然后埋了自己的心。詹姆背负着“弑君者”的名号，作为国王的保护者，最后确把国王杀了。简直就是叛徒，直到后面才知道，疯王要用野火烧了君临。詹姆背负着天下的骂名，保护了天下人。权游看到第二季 第三季，越来越了解其中的套路，从一开始觉得姐弟通奸简直太恶心了，到后面发现很多家族都是兄妹通婚以保证血统纯正。就像龙妈一直觉得自己会嫁给自己的哥哥一样。观众对他与瑟曦的感情变得越来越宽容。断手之后的詹姆接连遭遇了许多人生变故，首先当然是断手，。在维斯特洛大路上断手等于是丧失了用剑的能力，也就等于丧失了一切力量。在被俘逃亡途中，詹姆发现剥离了凯岩城，剥离了武力，他是多么的脆弱，于是他生平第一次用美人说起了弑君的真相。他认为弑君是解救君临的伟业（没想到却遭人唾弃。作为兰尼斯特的长子，孤傲的狮子，他自然不屑于人辩解。也被人误解至今。其次就是泰温被小恶魔杀害，凯冯的疏远。詹姆开始处理政务，同时也让哑巴骑士训练他用左手剑。更主要的是这时候詹姆开始反思他的人生，他对于瑟曦的感情。到了卷5，詹姆已经完全蜕变成另外一个人，为人幽默谦和，做事细致且留有余地，对待感情诚挚忠贞（瓦钢剑都可以相赠） ，内心细腻感性。 这样巨大的反差还不足以让人衷心的爱上他么。</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>When Jaime first appeared, he was annoying, arrogant, and narcissistic, but indeed quite good-looking. When he visited the Starks, he committed incest with his sister on their territory. When Bran saw him push Bran down, he was indifferent, that was his attitude towards the world at that time. He didn't care who sat on the Iron Throne, didn't care about being cursed by everyone. He mocked others, mocked himself, felt deceived by the world, looked at the world with cold eyes, and buried his heart. Jaime carried the title of "Kingslayer" and as the king's protector, he eventually killed the king. He was practically a traitor until later when he found out that the Mad King wanted to burn King's Landing with wildfire. Jaime bore the infamy of the world and protected the people. Watching "Game of Thrones" from season two to season three, one gradually understands the intricacies. Initially finding sibling incest disgusting, later realizing many families practice incest to maintain pure bloodlines. Just like Daenerys always thought she would marry her own brother. The audience became more tolerant of Jaime's relationship with Cersei. After losing his hand, Jaime faced many life-changing events, starting with losing his hand. Losing his hand on the road to King's Landing meant losing the ability to wield a sword, essentially losing all power. While fleeing captivity, Jaime realized he had been stripped of Casterly Rock, stripped of his strength, and how vulnerable he was. For the first time in his life, he spoke the truth about killing the king to a beautiful woman. He believed regicide was a noble act to save King's Landing (only to be scorned by others). As the eldest son of the Lannisters, the proud lion, he naturally disdained explaining himself to others and remains misunderstood to this day. Then, Tywin was murdered by the imp, and Kevan's estrangement. Jaime began to handle political affairs and had the mute knight train him to use a sword with his left hand. More importantly, this was when Jaime started to reflect on his life and his feelings for Cersei. By book five, Jaime had completely transformed into a different person, humorous, humble, meticulous, and emotionally sincere (even willing to give away his Valyrian steel sword). Such a huge transformation wasn't enough to make people sincerely fall in love with him?</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>请点击上面 免费订阅!两人的缘分是天注定的，今生的相见是前生几千次回眸换来的，今生相爱是前世几千次擦肩而过换来的，所以，两个人相爱是件很难得的事，这般缘深就该好好守护，不让缘分随风消散。恋爱是两个人的事，要守护一段感情，就要遵守一些禁忌，约束自己的行为。 恋爱禁忌1：把爱情的存在当成理所当然每当你觉得爱情即将理所当然步入永恒的时候，实际上恰恰是危机来临的暴风前夜。所以，情侣交往最忌讳的事，就是把爱情的存在当成理所当然的事。恋爱禁忌2：守住底牌恋人中觉得底牌亮的太快太早，就是最被动的那一方；认为从开始就恨不得掏心窝子的爱人多半是要被抛弃的，开的早就会变成开听的可乐，到后面气儿都没了。所以两个人藏着捂着自己的心意，让对方“猜”，最后大家都猜不透，也就分手了。心意还是得早点表明，早点看透，别去消磨爱情，爱情是最经不得消磨的东西。 恋爱禁忌3：没有个人空间两个人嚷嚷着没有各自空间，却不知道自己不给自己空间自然也给不了对方空间。恋爱禁忌4：算计老是去算计自己爱多或爱少，付出多或者付出少，算到这一步也就该算还有多少日子可以走了。恋爱禁忌5：打着爱的旗号伤害对方爱你，不是你伤害对方的理由，别举着爱的旗号，来解释自己自私和傻逼的行为，这样的话，爱你的人只会离你越来越远。 恋爱禁忌6：盯着缺点“金无赤足，人无完人”，别老盯着对方的缺点，越在意就会放大缺点，形成矛盾。多思安忍让和宽容，会让彼此感觉到舒服和幸福。恋爱禁忌7：不沟通把什么事情都藏着掖着，一声不吭的，谁都不是你肚子里的那条虫，能知道你心里想着什么。恋爱的时候，和恋人多点沟通，让对方明白你的心意和想法，才会让爱情变得简单、舒适。 恋爱禁忌8：改变对方老想着改变对方，把TA变成你想要的那个样子，但自己却还在原地踏步，谁会乐意干这般亏本的买卖。谈恋爱的时候，两个人多多少少都会有些改变，顺其自然就好，别太强硬地要求对方为你而改变。恋爱禁忌9：分手威胁别把分手天天挂在嘴边，会显得你不重视这段感情，对方也会被你的“分手威胁”搞得心灰意冷，到时候想挽回都晚了。恋爱禁忌10：不信任恋人之间最忌讳的还是不信任彼此，很多矛盾的起源就是不相信对方。对恋人多点信任，会给TA 一种被尊重的感觉，让恋爱变得轻松、温暖。</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Please click on the "Subscribe for Free" above! The fate of two people is predetermined by the heavens. The meeting in this life is the result of thousands of glances exchanged in past lives. The love in this life is the result of thousands of missed encounters in previous lives. Therefore, it is rare for two people to fall in love. Such a deep connection should be well guarded, not allowing fate to dissipate with the wind. Love is a matter between two people. To protect a relationship, one must abide by some taboos and restrain one's behavior. Love Taboo 1: Taking the existence of love for granted. Whenever you feel that love is about to naturally enter eternity, it is actually the eve of a crisis. Therefore, the most taboo thing in a relationship is to take the existence of love for granted. Love Taboo 2: Holding onto one's cards. If one reveals their cards too quickly and too early in a relationship, they are the passive one; those who are eager to bare their souls from the beginning are likely to be abandoned. So, both individuals should keep their intentions hidden, let the other "guess," and in the end, if no one can figure it out, they will break up. Intentions should be expressed early, seen through early, and not waste love, as love is something that cannot withstand erosion. Love Taboo 3: Lack of personal space. Two people clamoring about not having their own space, yet not realizing that by not giving themselves space, they naturally cannot give space to the other person. Love Taboo 4: Calculating. Constantly calculating whether one loves more or less, gives more or gives less, by this point, one should also calculate how many days are left. Love Taboo 5: Harming the other under the guise of love. Loving someone is not a reason to harm them. Do not use the banner of love to justify selfish and foolish behavior, as this will only push those who love you further away. Love Taboo 6: Focusing on flaws. "There is no perfect gold, and no perfect person." Do not always focus on the other person's flaws, the more you care, the more the flaws will be magnified, leading to conflicts. Thinking more, enduring, and being tolerant will make each other feel comfortable and happy. Love Taboo 7: Lack of communication. Keeping everything hidden and not saying a word, no one is a mind reader, no one can know what you are thinking. During a relationship, communicate more with your partner, so they understand your intentions and thoughts, making love simple and comfortable. Love Taboo 8: Trying to change the other person. Always wanting to change the other person, to make them into the person you desire, while you remain stagnant, who would willingly engage in such a losing deal. When in a relationship, both individuals will change to some extent, let it happen naturally, and do not forcefully demand the other to change for you. Love Taboo 9: Threatening to break up. Do not mention breaking up every day, as it will make it seem like you do not value the relationship, and the other person will be disheartened by your "breakup threats," making it too late to salvage the relationship. Love Taboo 10: Distrust. The biggest taboo between lovers is distrust. Many conflicts stem from not believing in each other. Trust your partner more, it will give them a sense of respect, making the relationship light and warm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>10月26日，瑞银发布《未来值得关注的九项颠覆性技术趋势》报告预测，到2020年，全球人工智能市场规模有望达到1200亿到1800亿美元之巨，而虚拟现实（VR）、增强现实（AR）、分享经济、人工智能、金融科技、汽车科技、工业IT、网络安全、医疗保健九大领域将成为未来技术发展趋势，并将有望成为创投热点。瑞银报告指出，近年来人工智能技术发展迅速，正处于弱人工智能向通用人工智能发展的关键阶段，未来农业、零售、制造业、金融、交通等众多行业将受到人工智能技术的巨大影响，并因之改变。瑞银报告预计，未来全球因人工智能而受到影响的工作岗位将多达5000万至7500万，但人工智能的应用并不会在全球范围内导致大规模失业，反而会因此创造出更多的创造性工作岗位。对于目前热门的VR和AR，瑞银预计，到2020年VR销量将达到3000万套，销售收入约90亿美元，如果产业发展顺利，乐观估计这一数字到2020年将达到200亿美元。瑞银同时指出，AR技术同样应用前景广泛。汽车科技同样有望成为下一个产业机会。瑞银指出，目前，平均每台汽车所采用的半导体价值已超过300美元，而同期的个人电脑约为150美元，智能手机和平板电脑约为50美元。而在短期内，平均每台汽车所采用的科技硬件和技术的价值还将增长一倍以上。瑞银对包括无人机、机器人、3D打印技术在内的工业IT领域同样看好。瑞银预测，未来新安装机器人数量将从2014年的23万，增长至2020年的40万。其中，中国到2020年将新增15万台左右，美国、欧洲、日韩等其他主要工业国的机器人需求量同样会稳步提升。（侯云龙）</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>On October 26, UBS released a report titled "Nine Disruptive Technology Trends Worth Watching in the Future," predicting that by 2020, the global artificial intelligence market is expected to reach a staggering $120 billion to $180 billion. Virtual Reality (VR), Augmented Reality (AR), sharing economy, artificial intelligence, financial technology, automotive technology, industrial IT, cybersecurity, and healthcare will become the future trends in technology development and are likely to become hotspots for venture capital. The UBS report points out that in recent years, artificial intelligence technology has been developing rapidly and is at a crucial stage of transitioning from weak AI to general AI. In the future, many industries such as agriculture, retail, manufacturing, finance, and transportation will be greatly impacted by artificial intelligence technology, leading to significant changes. The UBS report estimates that in the future, globally, 50 to 75 million jobs will be affected by artificial intelligence, but the application of artificial intelligence will not result in massive unemployment worldwide. Instead, it will create more creative job opportunities. Regarding the current popular VR and AR technologies, UBS predicts that by 2020, VR sales will reach 30 million units, generating approximately $9 billion in revenue. If the industry develops smoothly, optimistically, this number could reach $20 billion by 2020. UBS also points out that AR technology has equally broad application prospects. Automotive technology is also expected to be the next industry opportunity. UBS notes that currently, the average value of semiconductors used in each car exceeds $300, while personal computers are around $150, and smartphones and tablets are about $50. In the short term, the value of technology hardware and technology used in each car is expected to more than double. UBS is optimistic about the industrial IT sector, including drones, robots, and 3D printing technology. UBS predicts that the number of newly installed robots will increase from 230,000 in 2014 to 400,000 by 2020. By 2020, China is expected to add around 150,000 units, and the demand for robots in other major industrial countries such as the United States, Europe, Japan, and South Korea will also steadily increase. (Hou Yunlong)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>股票代码：601633股票简称：长城汽车公告编号：2014-027长城汽车股份有限公司董事会获得回购A股及H股一般性授权通知债权人第三次公告本公司及董事会全体成员保证公告内容不存在虚假记载、误导性陈述或者重大遗漏，并对其内容的真实、准确和完整承担个别及连带责任。长城汽车股份有限公司（以下简称“长城汽车”或“本公司”）于2014年5月9日召开2013年年度股东大会、2014年第一次H股类别股东会议及2014年第一次A股类别股东会议，授予本公司董事会一般性授权，一般性授权的详情如下：(1) 董事会获授权于有关期间按照中国主管证券事务的政府或监管机关、香港联交所、上海证券交易所或任何其他政府或监管机关的所有适用法律、法规及规例及╱或规定，行使本公司全部权力回购本公司已发行及在上海证券交易所上市的每股面值人民币1元的A股股票和本公司已发行及在香港联交所上市的每股面值人民币1元的H股股票；(2) 可在有关期间回购的A股股票总面值不得超过相关决议案在本公司年度股东大会及各类别股东会议获通过当日本公司已发行A股数量的10%。根据中国法律及法规，如果回购A股，即使本公司董事会获得上述一般性授权，仍需再次就回购A股的具体事项提请股东大会审议批准，但无须获得A股股东类别股东会议或H股股东类别股东会议审议批准。可在有关期间回购的本公司H股股票总面值不得超过相关决议案在本公司年度股东大会及各类别股东会议获通过当日本公司已发行H股数量的10%。“有关期间”指通过相关决议案当日起至下列最早时间止的期间：(i) 相关决议案通过后的下届年度股东大会大会结束时；(ii) 年度股东大会、H股股东类别股东会议及A股股东类别股东会议通过相关决议案后满十二个月时；(iii) 股东于股东大会以特别决议案、或股东于H股类别股东会议或A股类别股东会议以特别决议案撤回或更改相关特别决议案所给予授权当日。董事会执行上述回购后，本公司会注销所回购的A股或H股，而使本公司注册资本减少。因此，本公司根据《中华人民共和国公司法》、《公司章程》及其他相关法规发布本公告。自2014年5月9日向本公司债权人发出《长城汽车股份有限公司董事会获得回购A股及H股一般性授权通知债权人第一次公告》（以下简称“首次致债权人公告”），凡本公司债权人均可向本公司申报债权。</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Stock code: 601633 Stock abbreviation: Great Wall Motor Announcement No.: 2014-027 The Board of Directors of Great Wall Motor Company Limited has received the notification of general authorization for the repurchase of A shares and H shares. The third announcement to creditors. The company and all members of the board of directors guarantee that the announcement does not contain false records, misleading statements, or major omissions, and assume individual and joint liability for the truth, accuracy, and completeness of its contents. Great Wall Motor Company Limited (hereinafter referred to as "Great Wall Motor" or "the Company") held the 2013 Annual General Meeting of Shareholders, the 2014 First H Shareholders' Meeting, and the 2014 First A Shareholders' Meeting on May 9, 2014, granting the Board of Directors of the Company general authorization. The details of the general authorization are as follows: (1) The Board is authorized to repurchase all the issued A shares with a face value of RMB 1 per share listed on the Shanghai Stock Exchange and all the issued H shares with a face value of RMB 1 per share listed on the Hong Kong Stock Exchange during the relevant period in accordance with all applicable laws, regulations, rules, and/or provisions of the Chinese regulatory authorities, the Hong Kong Stock Exchange, the Shanghai Stock Exchange, or any other government or regulatory authority; (2) The total face value of A shares repurchased during the relevant period shall not exceed 10% of the total number of A shares issued by the Company on the day when the relevant resolution is passed at the Company's Annual General Meeting and various category shareholders' meetings. According to Chinese laws and regulations, even if the Board of Directors of the Company obtains the above-mentioned general authorization for repurchasing A shares, it still needs to submit the specific matters of repurchasing A shares to the shareholders' meeting for approval, but it does not need approval from the A shareholders' meeting or H shareholders' meeting. The total face value of the Company's H shares repurchased during the relevant period shall not exceed 10% of the total number of H shares issued by the Company on the day when the relevant resolution is passed at the Company's Annual General Meeting and various category shareholders' meetings. The "relevant period" refers to the period from the day when the relevant resolution is passed to the earliest of the following: (i) the end of the next Annual General Meeting of Shareholders after the relevant resolution is passed; (ii) twelve months after the Annual General Meeting, H Shareholders' Meeting, and A Shareholders' Meeting pass the relevant resolution; (iii) the day when the shareholders withdraw or amend the relevant special resolution at the shareholders' meeting by special resolution, or at the H Shareholders' Meeting or A Shareholders' Meeting. After the Board of Directors executes the repurchase as mentioned above, the Company will cancel the repurchased A shares or H shares, resulting in a reduction of the Company's registered capital. Therefore, the Company issues this announcement in accordance with the Company Law of the People's Republic of China, the Articles of Association, and other relevant regulations. Since May 9, 2014, the Company has issued the "First Notice to Creditors of Great Wall Motor Company Limited Board of Directors' General Authorization for Repurchase of A Shares and H Shares" (hereinafter referred to as the "First Notice to Creditors"), and all creditors of the Company can declare their claims to the Company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>在投资中最伟大和恐惧的力量都是时间。像巴菲特年化20%左右的收益率从单一年份看并不出彩，但如果把时间拉长才能感受到这种投资回报率的震撼感。过去十年全球最伟大的科技变革公司苹果，给投资者带来的年化收益率也“就”25%，正好十年上涨了十倍（经典的林奇十倍股）。许多人会说，这几年加杠杆炒房收益率会更高，但问题是加杠杆赌博的模式，遇到黑天鹅事件就会出现巨大回撤。关于黑天鹅，17世纪之前的欧洲人认为所有天鹅都是白色的，直到在澳大利亚发现了第一只黑天鹅，这个不可动摇的信念崩溃了。黑天鹅代表了不可预测的重大稀有事件，它在意料之外，却又改变一切。像2008年全球金融危机至今还影响着我们的生活，但在那之前谁能想到“大而不倒”的雷曼兄弟也会破产？像巴菲特这样的长期投资者之所以伟大是经历了无数次的金融黑天鹅。而在过去20年，全球金融市场也发生了9次重大的黑天鹅，每一次都足以改变许多人的命运。本文努力呈现过去20年最大的九次金融危机，希望对大家带来启示。1、亚洲金融危机亚洲金融危机从1997年7月开始，一系列的货币贬值，东亚和东南亚金融都受到冲击。这一次的黑天鹅事件从泰国泰铢贬值开始，在泰国政府宣布泰铢与美元脱钩，放弃固定汇率制，实行浮动汇率制。宣布当天泰铢就贬值了20%。这一危机的背后有着多方面的原因，既有泰国外汇政策不当的因素，也有国际游资的冲击。国际炒家横扫东南亚之后往东亚发展，每扫过一国，该国货币大幅贬值，马币林吉特、新加坡元、菲律宾比索、印尼盾等等无一幸免于难。这场金融危机使得大部分东亚货币贬值38%、国际股市暴跌60%、多国社会秩序陷入混乱、甚至政权更迭。最终国际货币基金组织提供救援贷款，对东亚各国实施经济救援和干预，才阻止了这一危机。 2、互联网泡沫破裂互联网泡沫起源于上世纪90年代，互联网相关的企业呈指数级增长。在1995年-2000年间，NASDAQ指数从1000点狂飙至5000多点，最终在2000年3月达到顶峰5048.62点。低利借款、廉价资产、市场过度自信和纯粹投机共同吹起了这次泡沫。风险投资家们争先恐后地投资每一个互联网相关的企业。这些企业烧钱圈地的商业模式决定了他们在几年内无法无法盈利，而投资者们却都忽略了这一基本面只顾盲目追捧，在这些企业上市第一天股价就可以翻三到四倍。2000年3月10日，戴尔、思科这样领头企业的股票突然出现了大量卖单，引起了投资者的恐慌。</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>In investing, the greatest and most fearful power is time. The annualized return of around 20% achieved by investors like Buffett may not seem outstanding in a single year, but it is only when time is extended that one can truly feel the impact of this investment return rate. Over the past decade, Apple, the greatest tech revolution company globally, has brought investors an annualized return of "just" 25%, which means it has increased tenfold in ten years (a classic Lynch ten-bagger). Many people may argue that leveraging in real estate in recent years could yield higher returns, but the problem is that leveraging is a gambling model, and encountering a black swan event could lead to significant drawdowns. Speaking of black swans, before the 17th century, Europeans believed all swans were white until the first black swan was discovered in Australia, shattering the unshakable belief. The black swan represents unpredictable major rare events that are beyond expectation yet change everything. For example, the global financial crisis of 2008 still affects our lives today, but who could have imagined that the "too big to fail" Lehman Brothers would go bankrupt before that? Great long-term investors like Buffett have experienced numerous financial black swan events. In the past 20 years, the global financial markets have also experienced nine major black swan events, each of which has been enough to change the fate of many people. This article strives to present the nine biggest financial crises of the past 20 years, hoping to bring enlightenment to everyone. 1. Asian Financial Crisis The Asian Financial Crisis began in July 1997, with a series of currency devaluations impacting both East Asia and Southeast Asia financially. This black swan event started with the devaluation of the Thai baht, as the Thai government announced the uncoupling of the baht from the US dollar, abandoning the fixed exchange rate system and adopting a floating exchange rate system. On the day of the announcement, the baht devalued by 20%. This crisis had various causes, including improper foreign exchange policies in Thailand and the impact of international speculative capital. After sweeping through Southeast Asia, international speculators moved on to East Asia, causing significant devaluations in the currencies of countries such as the Malaysian ringgit, Singapore dollar, Philippine peso, Indonesian rupiah, and more. This financial crisis led to a 38% devaluation of most East Asian currencies, a 60% plunge in international stock markets, social disorder in multiple countries, and even regime changes. Ultimately, the International Monetary Fund provided rescue loans and implemented economic assistance and interventions in East Asian countries to halt the crisis. 2. Dot-com Bubble Burst The dot-com bubble originated in the 1990s, with internet-related companies experiencing exponential growth. Between 1995 and 2000, the NASDAQ index surged from 1000 points to over 5000 points, reaching a peak of 5048.62 points in March 2000. Low-interest borrowing, cheap assets, market overconfidence, and pure speculation collectively fueled this bubble. Venture capitalists raced to invest in every internet-related company. The business model of these companies, which burned cash to expand, meant they could not turn a profit for several years, yet investors ignored this fundamental aspect and blindly pursued them. On the first day of these companies going public, their stock prices could triple or quadruple. On March 10, 2000, stocks of leading companies like Dell and Cisco suddenly saw a large number of sell orders, causing panic among investors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>随着携程的并购和整合的推进，去哪儿机票业务的重创以及酒店业务的收窄，其增速也迅速放缓；对去哪儿而言，过去的一年是流血和换血并行的一年。来源：新浪科技 余一10月19日，去哪儿就私有化交易达成最后合并协议，同意被远洋管理有限公司（Ocean Management Holdings）收购，对去哪儿的股权估值约为44.4亿美元。交易完成后，远洋管理有限公司、携程及其他Rollover股东将成为公司实益拥有人。预计交易将于2017年上半年完成。这个时间点，距离携程宣布与百度达成股权置换交易，几乎刚好一年的时间。去年10月26日，携程宣布与百度达成股权置换交易。百度将通过此交易完成前拥有的178，702，519股去哪儿网A类普通股和11，450，000股去哪儿B类普通股置换成11，488，381股携程增发的普通股。交易完成后，百度将拥有携程普通股可代表约25%的携程总投票权，携程将拥有约45%的去哪儿总投票权。对于企业发展而言，合并是把双刃剑。老大合并老二，有的借此一统江湖，有的却在失去对手后，放松警惕被新人挑下马来。除此之外，内部两个团队之间的整合和重新定位，也是至关重要的议题，合并从来都不是结束，而是开始。从携程的角度而言，收购的目的基本上都实现了，消灭了一个强有力的对手，放缓的营收增速、盈利在并购之后得以掩盖，回归A股有了一个好的运作对象。另外在对抗新美大上，也不必由自己站在第一线。但对于去哪儿而言，过去一年却是流血的一年，管理层的集体出走和接下来的高层、中层换血，都给去哪儿的发展带来了不确定性，面对航企的无力表现和这种变动有着一定关系。两大支柱板块，机票业务和酒店业务过去一年都饱受冲击，巨额亏损依旧。好的情况是亏损和成本都在收窄。快速换血作为被并购方，人员变动和换血无法避免。和其他被并购的企业相比，去哪儿在换血上速度更快，力度也更坚决，这也让去哪儿在整合上推进更快，但是人员的流失和变动也让去哪儿在过去一年中面对市场形势的变化有些无力。在股权置换协议公布的同时，去哪儿董事会就进行了改组，携程董事会主席兼首席执行官梁建章和联合总裁兼首席运营官孙洁在内的四位携程高管，将被任命为去哪儿董事会董事。</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>With the advancement of Ctrip's mergers and integration, Qunar's air ticket business has been severely impacted and its hotel business has narrowed, leading to a rapid slowdown in its growth. For Qunar, the past year was a year of both bleeding and changing blood. Source: Sina Technology. On October 19, Yuyi, Qunar reached a final merger agreement for privatization, agreeing to be acquired by Ocean Management Holdings, with an estimated valuation of about $4.4 billion. After the completion of the transaction, Ocean Management Holdings, Ctrip, and other Rollover shareholders will become the beneficial owners of the company. The transaction is expected to be completed in the first half of 2017. At this time, it is almost exactly one year since Ctrip announced a share swap agreement with Baidu. On October 26 last year, Ctrip announced a share swap agreement with Baidu. Through this transaction, Baidu exchanged its previously held 178,702,519 Class A common shares and 11,450,000 Class B common shares of Qunar for 11,488,381 newly issued common shares of Ctrip. After the transaction, Baidu will hold Ctrip common shares representing approximately 25% of Ctrip's total voting rights, while Ctrip will hold about 45% of Qunar's total voting rights. For corporate development, mergers are a double-edged sword. The merger of the leader with the runner-up may lead to dominance in the industry for some, while others may relax their vigilance after losing their competitors and be overtaken by newcomers. In addition, the integration and repositioning between the two internal teams are also crucial issues. Mergers are never an end but a beginning. From Ctrip's perspective, the purpose of the acquisition has basically been achieved: eliminating a strong competitor, covering the slowed revenue growth and profit after the merger, and having a good target for A-share return. Furthermore, in the face of New Meituan, there is no need to stand on the front line. However, for Qunar, the past year has been a year of bleeding. The collective departure of the management team and the subsequent high-level and mid-level changes have brought uncertainty to Qunar's development, which is related to the weak performance against airlines and these changes. The two main sectors, air ticket business and hotel business, have been severely impacted over the past year, with huge losses still present. The positive aspect is that losses and costs are narrowing. As the acquired party, rapid turnover and blood change in personnel are inevitable. Compared with other acquired companies, Qunar has a faster pace and more resolute efforts in personnel changes, which also accelerates the integration of Qunar. However, the loss and turnover of personnel have made Qunar somewhat powerless in facing market changes over the past year. Along with the announcement of the share swap agreement, the Qunar board of directors underwent a reshuffle, with four Ctrip executives, including Ctrip's Chairman and CEO Liang Jianzhang and Co-President and COO Sun Jie, being appointed as directors of the Qunar board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>属蛇属蛇的人，内心非常强大，才智过人，不怕吃苦，在事业上非常的努力卖力，工作狂型，拼命赚钱，拼命爬上去，一般都能成为土豪级的人物，也算是他们那么努力的成果，他们花钱非常大方，土豪方式。 属龙属龙的人，生来富贵，带着财运，含着金钥匙出生的，性格又非常的好，他们就没有什么事不舍得买的，只要喜欢，立马买下来，非常阔气，非常大款，土豪作风很强，这辈子财大气粗，就是有钱。 属鸡属鸡的人，眼光是极其的犀利，总能发现当下最赚钱的商机，总是走在别人前面发财，他们不甘比别人差，所有都要好的，吃的用的住的都得奢侈，赚的多，消费也大，喜欢别人向他们投来羡慕的眼光，十顶十的土豪。 老师weixin：18226745268</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>People born in the Year of the Snake are very strong and highly intelligent. They are not afraid of hardship and work very hard in their careers. They are workaholics, striving to make money and climb to the top. They usually become wealthy individuals and are known for their generous spending habits, living like tycoons.
+People born in the Year of the Dragon are born with wealth and good fortune. They are naturally generous and willing to buy anything they like without hesitation. They are extravagant and wealthy, displaying a tycoon-like style throughout their lives, as they are rich.
+People born in the Year of the Rooster have a sharp eye for lucrative business opportunities. They always manage to spot the most profitable ventures and get rich ahead of others. They refuse to be inferior to anyone and pursue a luxurious lifestyle in everything they do - from food to accommodation. They earn a lot, spend a lot, and enjoy the envy of others, truly embodying the spirit of a tycoon. Contact teacher on WeChat: 18226745268.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>今年以来，沈阳警方陆续接到群众报案，一伙不法分子以办理购车零首付贷款为名实施诈骗，被骗群众损失资金累计达数百万余元。该犯罪团伙以开设贷款中介公司为幌子，诱骗被害人签订协议，再假冒被害人与正规信托公司签订贷款协议，进而骗得钱款。接到报案后，皇姑警方组织开展调查取证，逐渐摸清了该犯罪团伙的组织结构。9月7日，民警将涉嫌诈骗的犯罪嫌疑人孙某、康某、刘某等7人抓获，并扣押了大量赃款，目前案件正在进一步审理中。沈阳市公安局自从开展“破现案、攻积案、清逃犯”专项行动以来，已取得了显著成效。据统计，今年以来，全市刑事警情同比下降23.59%，刑事案件发案同比下降15.3%，侵财类案件发案同比下降14%。抓获各类网上在逃人员1376名，其中，公安部B级逃犯1名、省督捕逃犯21名。打掉电信网络新型犯罪团伙23个、铲除窝点21个，抓获犯罪嫌疑人460人。全市电信诈骗案件发案、损失金额分别同比下降34.1%和43.5%，为群众挽回经济损失1450万元。</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Since the beginning of this year, the Shenyang police have successively received reports from the public. A group of criminals committed fraud under the guise of handling zero down payment car loans, causing the victims to lose a total of millions of yuan. The criminal gang used the guise of operating a loan intermediary company to deceive victims into signing agreements, then impersonated the victims to sign loan agreements with legitimate trust companies, thus obtaining money through deception. After receiving the reports, the Huanggu police organized investigations and evidence collection, gradually uncovering the organizational structure of the criminal gang. On September 7, the police arrested 7 suspects including Sun, Kang, and Liu, who were suspected of fraud, and seized a large amount of illicit money. Currently, the case is under further trial. Since the launch of the special operation "Crackdown on Immediate Cases, Attack on Accumulated Cases, and Clearing of Fugitives" by the Shenyang Public Security Bureau, significant results have been achieved. According to statistics, compared to the same period last year, the city's criminal police cases have decreased by 23.59%, criminal cases have decreased by 15.3%, and financial crime cases have decreased by 14%. 1376 online fugitives of all kinds have been captured, including 1 Class B fugitive from the Ministry of Public Security and 21 provincial fugitives. 23 new types of telecommunications network criminal gangs have been dismantled, 21 dens have been eradicated, and 460 criminal suspects have been arrested. The number of telecommunications fraud cases and the amount of losses in the city have decreased by 34.1% and 43.5% respectively compared to the same period last year, saving the public economic losses of 14.5 million yuan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>我是在廣州工作的台灣人註冊天涯的目的也就是上班有空的時候上來看看故事打發時間有時候也會來台版看看我比較喜歡看的就是去台灣旅遊的遊記看到人家喜歡台灣的好自己也有點與有榮焉但是每次看到台灣人來這裡發優越帖我就很悲哀我估計來發帖的都是沒當過兵沒出過國不懂人情事故的小鬼來發帖的目的是什麼想羞辱別人?做你生活中不敢做的事?每個帖發出來哪一個不是被羞辱的灰頭土臉的是的台灣以前對大陸很有優勢到現在來講還是有一些地方比較好那有怎樣已經被大陸超越的地方不是也一大堆嗎大陸的勞工保護比台灣好很多最低工資都是由政府主導提升雖然是強制性的造成一些產業外移中產階級的收入已經跟大陸差不多了基層人員超越台灣估計也就十年左右的事我收入在五十萬RMB左右以我38歲的年紀在我台灣的同學中已經是整片橫掃了(除了一個家裡有錢的少爺跟一個做保險的中區處長)但是在廣州這裡在我的公司內在我小區認識的人在接觸的廠商跟我差不多年紀的老闆完全沒有優越感可言也就是一個打工的而已每次回台灣看到我兒子我都在想他們下一代的競爭力在哪裡來這裡發帖的小鬼你們的競爭力又在哪裡何必做這些悲哀可笑的事呢多出國看看多謙虛學習你才會有競爭力天涯客户端下载</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>I am a Taiwanese working in Guangzhou. The purpose of registering on Tianya is to come and read stories during my free time at work. Sometimes I also visit the Taiwan version. What I prefer to read are travelogues about traveling to Taiwan. When I see others loving Taiwan, I also feel a sense of pride. However, I feel very sad every time I see Taiwanese people posting superior posts here. I estimate that those who come to post have never served in the military, never been abroad, and do not understand human affairs. What is the purpose of posting? Do they want to humiliate others? Do things they dare not do in their lives? Every post that is made, isn't it all about humiliating others? Yes, Taiwan used to have many advantages over the mainland, but now there are still some areas that are better. However, there are also many areas where the mainland has surpassed Taiwan. Labor protection in the mainland is much better than in Taiwan. Even the minimum wage is government-led and increasing. Although it is mandatory, it has caused some industries to move overseas. The income of the middle class is already similar to that of the mainland. It will probably take about ten years for grassroots personnel to surpass Taiwan. My income is around 500,000 RMB. At the age of 38, among my classmates in Taiwan, I am already leading the pack (except for a wealthy young master and a regional director of an insurance company). However, here in Guangzhou, within my company, among the people I know in my community, and the bosses of companies I interact with who are around my age, there is no sense of superiority at all. I am just an ordinary worker. Every time I go back to Taiwan and see my son, I think about where their competitiveness lies in the next generation. For those little ghosts who come here to post, where is your competitiveness? Why bother doing these sad and ridiculous things? Travel more, be humble, and learn. Only then will you have competitiveness. Download the Tianya app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>双11临近，各家电商平台正在跃跃欲试，今天，商君给大家推荐一篇干货，从视觉营销的角度来讲讲，什么样的视觉效果和文案可以打动顾客，把商品塞满用户购物车。视觉营销的核心是什么？视觉是极具目的性的，并不是简单的一个美，而是信息的传递。信息传达到位自然就会有美感。 所谓的纯美感，在整个视觉营销体系中不足30%。做好视觉营销需要权衡时间、信息、审美和细节重要程度排序：第一， 时间：随着信息传播速度的提升，时间更快了。重要程度排序：第二， 信息：信息嘈杂的时代，只有看得懂、吸引人、看得完的信息才可以快速传达给用户重要程度排序：第三和第四， 审美与细节：每个人有每个人的审美。但作为视觉营销来讲，我们要去找出一个大体的方向，让这个东西有一个标准去审核。除此之外，我们需要注意的一些点：1.左侧先被阅读2.右侧先被点击3.一次跳转会损失33%的流量4.一屏最多只能有3个重点，当你的信息量太大的时候，用户本身会产生抵触心理。想要你的产品卖到爆？以下这4个营销套路，曾让无数产品爆红，你确定不要试试？为产品讲一个故事为产品赋予更多的话题性和故事，不仅仅会增加用户对于产品和品牌的信任感，更加可以强化使用场景，自然更容易引起传播和口碑发酵。故事的另外一个功能是能够增强产品的温度感，拉近产品和用户的距离，同时让产品变得更为可信。用好KOL意见领袖的影响不容小觑，社交网络日益发达，意见领袖能很方便地与粉丝们即时互动，他们能很快拉起消费者对于产品的期待。当下最流行的粉丝经济，每一个意见领袖都能号召起一大波的粉丝，这些粉丝又会互相传播，影响到周边的人，逐渐形成爆发式的口碑效应。控制节奏，营造用户的饥饿感营造饥饿感可以采取不同的策略：预售、排队、抽签、限量、线上线下差异化……营销节奏感凸显。在产品打磨和故事营造到位的基础上，保持用户的饥饿感，将为产品带来持续的吸引力。找到合适的品牌，玩转跨界营销跨界整合营销，用品牌捆绑的方式，通常是个双赢的结局。跨界本身就是新闻点，具有传播性。而且跨界的2种产品，2个品牌，的精准粉丝用户，双向获取信息，达到双重传播的效果。“双赢”是跨界营销的标杆，成功地互相借势可以起到1+12的效果。商君幽默产品：卖手机买家：有人吗？卖家：不好意思，我只卖手机！</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Double 11 is approaching, various e-commerce platforms are eager to try. Today, Shang Jun recommends a dry article to everyone, talking from the perspective of visual marketing about what kind of visual effects and copy can impress customers and fill their shopping carts with products. The core of visual marketing is what? Visual is highly purposeful, not just a simple beauty, but the transmission of information. When the information is conveyed properly, beauty naturally emerges. The so-called pure beauty accounts for less than 30% in the entire visual marketing system. To do visual marketing well, one needs to balance the importance of time, information, aesthetics, and details in the following order: First, time: with the increase in the speed of information dissemination, time has become faster. Importance ranking: Second, information: in this noisy era of information, only information that is understandable, attractive, and can be fully read can be quickly conveyed to users. Importance ranking: Third and Fourth, aesthetics and details: everyone has their own aesthetics. But in terms of visual marketing, we need to find a general direction to establish a standard for reviewing things. In addition, some points to note: 1. The left side is read first. 2. The right side is clicked first. 3. A single jump will lose 33% of traffic. 4. There can only be a maximum of 3 key points on one screen. When your information is too much, users themselves will generate resistance. Want your product to sell like hotcakes? The following 4 marketing tricks have made countless products bestsellers. Are you sure you don't want to try? Tell a story for the product, give the product more topicality and story, not only will increase the user's trust in the product and brand, but also strengthen the usage scenario, making it easier to spread and ferment word of mouth. Another function of the story is to enhance the warmth of the product, bring the product closer to the user, and make the product more credible. Make good use of KOL (Key Opinion Leaders). The influence of KOLs is not to be underestimated. With the increasingly developed social networks, KOLs can easily interact with their fans in real-time, quickly raising consumers' expectations for the product. The most popular fan economy nowadays, each KOL can attract a large number of fans, and these fans will spread to each other, influencing people around them, gradually forming an explosive word-of-mouth effect. Control the rhythm, create a sense of hunger for users. Creating a sense of hunger can be done through different strategies: pre-sale, queuing, lottery, limited edition, online-offline differentiation... Highlight the sense of marketing rhythm. Based on the well-polished product and story creation, maintaining the user's hunger will bring continuous attractiveness to the product. Find the right brand, play with cross-border marketing. Cross-border integrated marketing, usually a win-win outcome through brand bundling. Cross-border itself is a news point, with communicability. Moreover, the precise fan users of the two cross-border products and brands obtain information in both directions, achieving a double dissemination effect. "Win-win" is the benchmark of cross-border marketing, successfully leveraging each other can have a 1+12 effect. Shang Jun's humorous product: Selling phones. Buyer: Anyone there? Seller: Sorry, I only sell phones!</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>据河北省纪委消息：日前，经河北省委批准，河北省纪委对邢台市委原副书记赵常福严重违纪问题进行了立案审查。经查，赵常福违反政治纪律，对抗组织审查；违反组织纪律，不如实报告个人有关事项，利用职务上的便利在干部选拔任用方面为他人谋取利益并收受财物，利用职权和职务上的影响为他人在干部录用等方面谋取利益，违规办理因私出国（境）证件并多次未经批准出入国（边）境；违反廉洁纪律，收受礼品、礼金，接受私营企业主出资的活动安排；违反生活纪律，与他人发生不正当性关系；违反国家法律法规规定，利用职务上的便利在企业经营方面为他人谋取利益并收受财物。且在党的十八大后仍不收敛、不收手。其中利用职务上的便利为他人谋取利益并收受财物等问题涉嫌犯罪。经省纪委常委会议研究并报省委批准，决定给予赵常福开除党籍、开除公职处分；收缴其违纪所得；将其涉嫌犯罪问题、线索及所涉款物移送司法机关依法处理。（河北省纪委）作者：河北省纪委来源中央纪委监察部网站)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>According to the Hebei Provincial Commission for Discipline Inspection, recently, with the approval of the Hebei Provincial Party Committee, the Hebei Provincial Commission for Discipline Inspection initiated an investigation into the serious disciplinary violations of Zhao Changfu, former Deputy Secretary of the Xingtai Municipal Party Committee. Through the investigation, it was found that Zhao Changfu violated political discipline by resisting organizational review; violated organizational discipline by not truthfully reporting personal matters, using his position to seek benefits for others in cadre selection and appointment, accepting gifts and money, engaging in improper sexual relationships with others, and using his position for personal gain in business operations, among other violations. The investigation also revealed suspicions of criminal activities related to seeking benefits for others and accepting bribes. After deliberation at a meeting of the provincial commission's standing committee and approval by the provincial party committee, it was decided to expel Zhao Changfu from the Party, remove him from public office, confiscate his ill-gotten gains, and transfer the suspected criminal issues, clues, and involved funds to judicial authorities for legal processing. (Hebei Provincial Commission for Discipline Inspection, Author: Hebei Provincial Commission for Discipline Inspection, Source: Central Commission for Discipline Inspection and National Supervision Department website)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>肌张力障碍(Dystonia)是一组疾病的总称，表现为骨骼肌张力的病理性改变。患者的肌肉张力有时很高，有时很低，有时只影响局部某个肌肉或肌肉群，有时影响全身。肌张力障碍临床上表现为颈部、四肢、躯干甚至是全身的剧烈、不自主的扭转，其中最具特征性的一种称为扭转痉挛。包括颈部扭转、躯干的胸腰扭转、上下肢扭转、手足的过伸或过曲，通常以身体的长轴为中心。其扭转动作往往十分缓慢，间歇重复出现。一、发病原因多数的肌张力障碍病因并不清楚，少数可有家族遗传史，儿童和少年发病的扭转痉挛可能存在基因遗传问题。此外，很多疾病可能在临床上导致继发性肌张力障碍，如新生儿的脑损伤，黄疸，窒息，脑炎，脑血管病，中毒性脑病等等。与原发性肌张力障碍相比，这类病人症状更为复杂多样，可能伴随有偏瘫，舞蹈样动作，小脑平衡障碍，智力或情感方面的问题。CT与磁共振检查也会有一些特征性的表现。二、分类与临床表现1、肌张力障碍有如下几种分类方法：(1)根据患病的部位，分为眼睑痉挛、颅面部肌张力障碍、痉挛性构音障碍、痉挛性斜颈、书写痉挛、偏身性肌张力障碍以及全身性肌张力障碍。(2)根据发病的原因，分为原发性(即病因不清楚的)和继发性肌张力障碍。后者常见于中毒、外伤、脑炎、肿瘤及代谢异常导致的患者运动功能障碍。(3)按发病时的年龄可分为儿童型、少年型与成年型肌张力障碍。儿童期起病的往往会导致全身性肌张力障碍。2、扭转痉挛：有全身轴线方向的不随意性扭转的肌张力障碍是最为多见的表现形式，称为扭转痉挛，也是全身性肌张力障碍的典型类型，临床上表现为颈部、四肢、躯干甚至是全身的剧烈、不自主的扭转，手足的过伸或过曲，通常以身体的长轴为中心。其扭转动作往往十分缓慢，间歇重复出现。正常情况下我们完成一个动作，会有一组肌肉收缩而另一组对应的肌肉放松。对于扭转痉挛病人，这种肌肉自觉遵循的收缩与放松的程序被打乱了，代之以某些肌肉持续的紧张收缩，即便在安静状态下也是如此。病人常见的表现是：站立时头向一侧扭，肩背向后仰，一只胳膊向前伸，一只向后伸，两膝向内弯曲，两脚分得很开以保持平衡，或者伴有足内翻，足底不能完全着地。平躺时身体会呈弓形，靠肩与臀支撑，有的只能俯卧在床上。时间久了某些部位肌肉可能异常肥厚，关节也会挛缩变形。病人睡着后症状会消失。扭转痉挛也有原发性与继发性之分别。原发性以年轻人多见，有遗传倾向，CT与磁共振通常看不到明显的病变。</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Dystonia is a general term for a group of diseases characterized by pathological changes in skeletal muscle tone. Patients' muscle tone can be high or low at times, affecting either a specific muscle or muscle group locally, or the entire body. Clinically, dystonia manifests as severe, involuntary twisting of the neck, limbs, trunk, or even the whole body, with one of the most characteristic types being called twisting spasms. This includes neck twisting, chest and waist twisting of the trunk, twisting of the upper and lower limbs, hyperextension or hyperflexion of the hands and feet, typically centered around the body's long axis. The twisting movements are often very slow and intermittently repetitive. 
+1. The causes of most cases of dystonia are unclear, with a few having a family history of inheritance. In children and adolescents with twisting spasms, there may be genetic issues. Additionally, many diseases may clinically lead to secondary dystonia, such as brain damage in newborns, jaundice, suffocation, encephalitis, cerebrovascular disease, toxic encephalopathy, and so on. Compared to primary dystonia, these patients' symptoms are more complex and diverse, possibly accompanied by hemiplegia, choreiform movements, cerebellar balance disorders, intellectual or emotional problems. CT and MRI scans may also show some characteristic features.
+2. Classification and Clinical Manifestations:
+   1) Dystonia can be classified in the following ways:
+      - Based on the affected parts, it is divided into blepharospasm, craniofacial dystonia, spasmodic dysphonia, spasmodic torticollis, writer's cramp, focal dystonia, and generalized dystonia.
+      - Based on the causes, it is divided into primary (i.e., unknown causes) and secondary dystonia. The latter is common in patients with movement disorders due to poisoning, trauma, encephalitis, tumors, and metabolic abnormalities.
+      - According to the age of onset, it can be divided into childhood, adolescent, and adult-onset dystonia. Onset in childhood often leads to generalized dystonia.
+   2) Twisting spasms: The most common form of dystonia is the involuntary twisting of the body's axis, known as twisting spasms, which is also a typical type of generalized dystonia. Clinically, it presents as severe, involuntary twisting of the neck, limbs, trunk, or even the whole body, hyperextension or hyperflexion of the hands and feet, typically centered around the body's long axis. The twisting movements are often very slow and intermittently repetitive. In normal circumstances, when we perform an action, one group of muscles contracts while the corresponding group relaxes. For patients with twisting spasms, this voluntary contraction and relaxation sequence of muscles is disrupted, replaced by continuous tension and contraction of certain muscles, even in a resting state. Common manifestations include twisting of the head to one side while standing, arching of the back, one arm extended forward and the other backward, knees bent inward, wide stance to maintain balance, or with foot inversion and inability to fully touch the ground. When lying down, the body may arch, supported by the shoulders and hips, and some may only be able to lie prone on the bed. Over time, muscles in certain areas may become abnormally thick, and joints may contract and deform. Symptoms disappear when the patient falls asleep. Twisting spasms can also be classified as primary or secondary, with primary cases being more common in young people, having a genetic predisposition, and usually not showing obvious lesions on CT or MRI scans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 由海南省文化广电出版体育厅、海南省旅游发展委员会、海口市人民政府及观澜湖集团共同主办的2016年观澜湖世界明星赛将于10月20日在海口观澜湖正式拉开帷幕。这是亚太地区惟一的跨界高球大赛，赛事将持续到10月23日，届时旅游卫视将对赛事进行全方位报道。据悉，今年周杰伦再度出席，迈克·道格拉斯也将一展球技、冯小刚、杨千嬅等都将出席本次明星赛。除了演艺界名人，NBA球星艾弗森和姚明、曼联中场大师斯科尔斯、大卫·梅、李·夏普和德怀特·约克；前利物浦的射手罗比·富勒、加里·麦卡利斯特和路易斯·加西亚等体育界名人都将出席，展示他们的跨界本领。 当喜爱篮球的周杰伦在艾弗森和姚明面前投篮；艾弗森和姚明比拼高尔夫；冯小刚、王志文和迈克·道格拉斯不比演技比果岭挥杆……种种你能想到的跨界和混搭，均能在海口观澜湖一网打尽。本届明星赛分别在第10洞、14洞和17洞设立了趣味网球、足球和篮球三大环节，届时所有路过这些球洞的参赛球员、明星都有机会露一手。除了跨界高尔夫球赛，比赛期间还将举办中国电影投资高峰论坛、世界足球巨星友谊赛等其他活动。旅游卫视作为观澜湖世界明星赛的重要合作伙伴，已连续三年报道观澜湖世界明星赛赛事。10月20日-23日，旅游卫视将由电视、旅游网视、新媒体等多个平台进行全媒体播出报道，轮番播出资讯、专题节目。旅游卫视官方微博、旅游网视还将同步直播明星红毯环节。</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>The 2016 Mission Hills World Celebrity Pro-Am, co-hosted by the Department of Culture, Radio, Television, Press and Publication of Hainan Province, the Hainan Provincial Tourism Development Committee, the People's Government of Haikou City, and the Mission Hills Group, will officially kick off at Mission Hills Haikou on October 20. This is the only cross-border golf tournament in the Asia-Pacific region. The event will run until October 23, and it will be comprehensively covered by Travel Channel. It is reported that Jay Chou will attend again this year, along with Michael Douglas showcasing his golf skills, Feng Xiaogang, Miriam Yeung, and other celebrities. In addition to entertainment industry figures, NBA stars Allen Iverson and Yao Ming, Manchester United midfielder Paul Scholes, David May, Lee Sharpe, and Dwight Yorke; former Liverpool strikers Robbie Fowler, Gary McAllister, and Luis Garcia, among other sports celebrities, will also attend to demonstrate their cross-border abilities. Imagine Jay Chou, a basketball enthusiast, shooting hoops in front of Iverson and Yao Ming; Iverson and Yao Ming competing in golf; Feng Xiaogang, Wang Zhiwen, and Michael Douglas not comparing acting skills but swinging on the fairway... All kinds of cross-border and mix-and-match activities you can think of will be showcased at Mission Hills Haikou. This year's event will feature fun tennis, soccer, and basketball activities at the 10th, 14th, and 17th holes, giving all participating players and celebrities passing through these holes a chance to show off their skills. In addition to the cross-border golf tournament, other activities such as the China Film Investment Summit and the World Football Superstars Friendly Match will also be held during the competition. As an important partner of the Mission Hills World Celebrity Pro-Am, Travel Channel has been covering the event for three consecutive years. From October 20 to 23, Travel Channel will broadcast the event through various platforms such as television, travel web TV, and new media, airing news and special programs. The official Weibo account of Travel Channel and the travel web TV will also live stream the celebrity red carpet event simultaneously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 讲道理千万别把火花不当魔兽德怀特霍华德那可是曾经单换詹姆斯的男人 11分19篮板外加3个盖帽面对昔日的替补戈塔特魔兽给小弟做了很好的示范内线，就他妈该这么打！ 好的内线要会补篮暴扣 好的内线一定要会强前场板 好的内线要打的对方中锋怀疑人生 赢下比赛后霍华德又如孩子一般笑了起来回家的感觉真好 反观今夏放走魔兽的火箭面对接连痛失科比和阿联的湖人防守端被打成了筛子拥有魔兽的火箭，是空气防守没有魔兽的火箭，是窒息防守连空气都没了... 辗转湖人和火箭霍华德跌跌撞撞谁能想到曾经的魔兽有多么可怕 看看07年的这个视频吧这不过是他单月的十佳球却足够一个内线做成生涯集锦了他是全明星历史票王3150181张投票的记录甚至詹姆斯和科比都未能打破 他重振了NBA扣篮大赛那个集创意和难度为一体的超人表演仿佛在向世人宣布大个子扣篮可以很血腥大个子扣篮还可以很好看 他贵为04年的状元带领魔术走上了复兴之路连续三年的最佳防守球员每年篮板王和盖帽王拿到手软奥运冠军，全明星，还有最佳一阵 魔登时代的火箭杀进了西决可早在7年前的奥兰多他就品尝过总决赛的滋味 可是.....从转会湖人开始魔兽就告别了顶级球星的行列 他不愿意和纳什挡拆他不喜欢科比那偏执的性格他一直被伤病苦苦折磨他在最贪玩的年龄遇到了科比却在最想赢球的年龄遇到了夜店登 还在跟卡戴珊厮混的哈登坚定执行XJBD战术的火箭没有球权的霍华德生生从基石变成了蓝领 这种生猛的场景从曾今的不足为奇变成了如今的让人大吃一惊 曾今像个孩子一般的魔兽在休斯敦却悄悄地没了踪影勇士压垮了火箭的最后一根稻草霍华德最后给了一个拥抱挥手道别 很明显，霍华德真的想家了从季前赛开始火花就仿佛在宣布曾经的第一中锋要回来了熟悉的顶板大帽 更加残暴的遮天蔽日 这脚步和力量很“魔兽” 他甚至以身作则，为了救球冲出场外 我们期待魔兽重回巅峰我们期待30岁的霍华德还能称霸内线我们期待再次看到那个笑的像个孩子一样的火花一起回顾一下曾经魔兽曾经残暴的表现吧长按二维码关注“球迷王”这里有你喜爱的球迷故事这里有你感动的球迷情怀</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>To be honest, never underestimate the spark, Dwight Howard, who was once a man who was traded for LeBron James. With 11 points, 19 rebounds, and 3 blocks, facing his former backup Gortat, the Beast showed a great demonstration of playing in the paint. That's how you should play! A good big man should be able to grab offensive rebounds and make powerful dunks. A good big man must dominate the offensive boards. A good big man should make the opposing center question his life choices. After winning the game, Howard smiled like a child, feeling good to go back home.
+On the contrary, the Rockets, who let go of the Beast this summer, faced a Lakers team that had consecutively lost Kobe and Yi Jianlian, and their defense was like a sieve. With the Beast, the Rockets had an airy defense; without the Beast, it was suffocating defense, where even the air was gone. 
+Howard, who has traveled between the Lakers and the Rockets, stumbled unexpectedly. Who could have imagined how terrifying the former Beast was. Look at this video from 2007; it's just his top ten plays of the month, but it's enough to make a career highlight reel for a big man. He is the all-time leader in All-Star voting history with 3,150,181 votes, a record even LeBron James and Kobe Bryant couldn't break. He revived the NBA Slam Dunk Contest, with a performance that combined creativity and difficulty, as if announcing to the world that big men's dunks can be bloody and beautiful.
+As the first overall pick in 2004, he led the Magic to a revival, winning the Defensive Player of the Year award for three consecutive years, leading in rebounds and blocks each year. He won an Olympic gold medal, made multiple All-Star appearances, and was named to the All-NBA First Team. In the McGrady era, the Rockets made it to the Western Conference Finals, but seven years earlier in Orlando, he had already tasted the NBA Finals.
+However, since joining the Lakers, the Beast bid farewell to the ranks of top stars. He didn't want to run pick-and-rolls with Nash, didn't like Kobe's paranoid personality, and was plagued by injuries. In his most playful age, he met Kobe, and in his most competitive age, he encountered nightclubbing Harden, who was hanging out with Kardashian. The Rockets, firmly executing the XJBD tactic without ball rights, turned Howard from a cornerstone into a blue-collar worker.
+This fierce scene, once surprising, has now become shocking. The Beast, who used to be like a child, quietly disappeared in Houston. The Warriors crushed the Rockets' last straw, and Howard gave a hug and waved goodbye. Clearly, Howard really missed home. Since the preseason, the spark seemed to be announcing the return of the former top center, with familiar blocks and more brutal rim protection. The footwork and power are very "Beast-like." He even led by example, rushing out of bounds to save the ball. We look forward to the Beast returning to his peak, to 30-year-old Howard dominating the paint, and to seeing that childlike spark again. Let's review the former Beast's brutal performances together. Scan the QR code to follow "King of Fans" for your favorite fan stories and touching fan emotions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 起火中餐馆（图：澳洲《星岛日报》）中新网4月12日电据澳洲《星岛日报》报道，澳洲黄金海岸一家中餐馆日前发生火灾，老板幸亏获一位反应迅速的邻居救助，保住一命。宽海滩(Broadbeach)区居民马蒂斯(John Marties)正坐在他住宅的阳台时，看到浓烟从楼下的中餐馆内冒出。马蒂斯不顾个人安危跑下楼，冲入黄金海岸公路(Gold Coast Hwy)边上的小餐馆内，看到店主被浓烟包围，正企图用一只已喷光的灭火器应对火势。马蒂斯说：“我在军队时有遇到火灾的安全和营救经验，因此我知道应注意观察什么和做什么。”马蒂斯称，消防员在他们跑出来几分钟后就赶到，阻止了火势蔓延，并在10分钟内扑灭大火。警队专家正调查餐馆起火的原因，初步认为可能与餐馆的油炸锅有关。当地消防站发言人说，有6部消防车和21名消防员在几分钟之内赶到现场，迅速扑灭大火，成功阻止它向整栋综合楼蔓延。中餐馆老板因吸入浓烟，被救护人员送入黄金海岸大学医院治疗。</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Fire in Chinese restaurant (Photo: Australia's "Sing Tao Daily") China News Network, April 12th - According to Australia's "Sing Tao Daily", a fire broke out in a Chinese restaurant on the Gold Coast in Australia recently. Fortunately, the owner was saved by a quick-thinking neighbor, thus saving his life. John Marties, a resident of Broadbeach, was sitting on the balcony of his residence when he saw thick smoke coming out from the Chinese restaurant downstairs. Marties disregarded his own safety, ran downstairs, and rushed into the small restaurant next to the Gold Coast Highway, where he saw the owner surrounded by thick smoke, trying to deal with the fire with an extinguisher that had run out of spray. Marties said, "I have encountered fire safety and rescue experiences in the military, so I knew what to observe and what to do." Marties mentioned that firefighters arrived a few minutes after they ran out, stopped the fire from spreading, and extinguished the blaze within 10 minutes. Police experts are investigating the cause of the fire at the restaurant, preliminarily suspecting it may be related to the restaurant's deep fryer. A spokesperson for the local fire station said that six fire trucks and 21 firefighters arrived at the scene within minutes and quickly extinguished the fire, successfully preventing it from spreading to the entire building complex. The owner of the Chinese restaurant was sent to the Gold Coast University Hospital for treatment after inhaling thick smoke.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 听说爱情有四个阶段，熬过去就会永远在一起。有位心理学家曾写道，一个成熟称得上真爱的恋情必须经过四个阶段，那就是：共存、反依赖、怀疑、共生，之间转换所需的时间不一定，因人而易。 第一个阶段：共存。这是热恋时期，不论何时何地总希望能腻在一起。第二个阶段：反依赖。一方想多一点时间做自己想做的事，这时另一方就会感到被冷落，总是因为一点小事去计较和数落。第三个阶段：怀疑。这是第二个阶段的延续，要求更多独立自主的时间，总是觉得对自己不好了，没以前爱自己了。第四个阶段：共生。这时新的相处之道成形，你们已经成为最亲密的人。你们在一起相互扶持、一起开创属于你们人生。你们在一起不会互相牵绊，而会互相成长。他（她）就像是你的亲人。 但是，好多人都通不过第二或第三阶段，选择分手。其实很多事只要好好沟通就会没事，可是想太多和任性就是无法避免。世界上遇到唯一的你多么不容易，能不能不要轻言放弃。你发现了吗？你们本没有相同之处，外表不相像，性格也是南辕北辙，但是相爱然后在一起，日复一日，年复一年，你会惊讶你的眼睛竟有点像他的眼睛。他的微笑竟也有点像你的微笑。你们走路的步伐变得相似。你们说话的语气也愈来愈像。你们爱喝同一杯饮料。你们的口头禅变得一样。你们总能猜到对方下一句话是什么。原来我们会变成我们所爱的人。 你在不知不觉中让他改掉了他爱皱眉的坏习惯。这个改变，或许连他自己也不曾察觉。他在不知不觉中让你变得做事不再马马虎虎。你差点认不出自己。会在不知不觉中逐渐变成对方理想中的人，这种改变，绝对不是刻意的。两个人相处时间越久，气质也越相近，有一天，你惊讶地发现，这样的你们多么默契。或许再也遇不到这样的感情。深深爱着一个人的时候，你原来真的会一点一点失去自己，可是为什么你还会觉得快乐呢。大概是因为你在失去的同时，也赚了，你把他的气质和他的微笑都赚回来了。朋友，你们走到哪个阶段了？ 世界上遇到唯一的你多么不容易，能不能不要轻言放弃。能不能一直走下去。请不要说下辈子，我多怕下辈子再遇不到你。所以就这辈子，就让我们一直在一起走下去。</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>I heard that love has four stages, and if you can get through them, you will be together forever. A psychologist once wrote that a mature love must go through four stages, which are: coexistence, counter-dependency, doubt, and symbiosis. The time required for the transition between them may vary, depending on the individual. The first stage: coexistence. This is the period of passionate love, always wanting to be together no matter when or where. The second stage: counter-dependency. One party wants more time to do what they want, while the other feels neglected, always nitpicking over trivial matters. The third stage: doubt. This is a continuation of the second stage, demanding more independent time, always feeling that they are not treating themselves well, not loving themselves as before. The fourth stage: symbiosis. At this point, a new way of being together is formed, and you have become the closest people to each other. You support each other, create your life together, and grow together. You don't hold each other back but help each other grow. He (she) is like your family. However, many people cannot get through the second or third stage and choose to break up. In fact, many things can be resolved through good communication, but overthinking and stubbornness are unavoidable. It's not easy to meet the one and only in the world, can we not give up easily? Have you noticed? You didn't have much in common, didn't look alike, and had completely different personalities, but you fell in love and stayed together. Day after day, year after year, you will be surprised to find that your eyes are a bit like his eyes. His smile is a bit like yours. Your steps become similar. The tone of your speech becomes more alike. You love to drink the same beverage. Your catchphrases become the same. You can always guess what the other will say next. It turns out we become the person we love. Unconsciously, you made him give up his habit of frowning. This change, perhaps even he didn't notice. Unconsciously, he made you become more meticulous in your actions. You almost didn't recognize yourself. Gradually, you will unconsciously become the ideal person for each other, this change is definitely not deliberate. The longer two people are together, the more similar their temperament becomes. One day, you will be surprised to find how well you understand each other. Perhaps you will never encounter such a feeling again. When you deeply love someone, you will gradually lose yourself, but why do you still feel happy? Probably because while losing, you also gain - you have gained his temperament and his smile back. Friend, which stage have you reached? It's not easy to meet the one and only in the world, can we not give up easily? Can we keep going on together? Please don't talk about the next life, I'm afraid I won't meet you again in the next life. So, in this life, let's keep walking together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 众星昨日送别笑林 众星昨日送别笑林董浩在追悼会现场失声痛哭相声演员笑林于3月23日凌晨2点因白血病在北京去世，享年59岁。27日10时，笑林的追悼会在北京八宝山公墓举行。“为人六十载敦厚笃实，从艺四十年笑融曲中”。这是姜昆为送别师弟笑林手写的挽联，悬挂在昨日的追悼会现场。昨日到追悼会现场送笑林最后一程的有众多圈内好友，赵保乐、孟凡贵、李金斗、李嘉存、石富宽、石小杰、董浩、刘兰芳、甲丁等悉数到场，表达对这位好友的沉痛悼念。不久前刚刚参加过袁阔成追悼会的评书大师刘兰芳也特地赶来参加笑林追悼会。她说：“笑林相声说得好，人品也好，是曲艺界不可多得的人才。他的离开是一大损失。他擅长的柳活现在会的人已经不多了，希望能传承下去。”对于好友接连逝去，刘兰芳非常痛心：“袁老是高寿，笑林这么年轻就去世太可惜了。”来到追悼会现场的董浩一度痛哭失控，他在随后告诉记者：“我和笑林是发小，北京三中一个年级的。笑林在我们同学里身体算很好的，注意锻炼，打篮球，打高尔夫，没想到这么突然就走了。人生无常啊，我这两天心情一直很不好。”</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Yesterday, a group of stars bid farewell to Xiaolin. Dong Hao, at the memorial service, couldn't hold back his tears and wept. Comedian Xiaolin passed away in Beijing at 2 a.m. on March 23 due to leukemia at the age of 59. At 10 a.m. on the 27th, Xiaolin's memorial service was held at Babaoshan Cemetery in Beijing. "For sixty years, he was honest and sincere, and for forty years, he blended laughter into his performances." This is the elegiac couplet handwritten by Jiang Kun to bid farewell to his junior brother Xiaolin, hanging at the memorial service yesterday. Many friends from the circle came to accompany Xiaolin on his final journey at the memorial service yesterday, including Zhao BaoLe, Meng FanGui, Li JinDou, Li JiaCun, Shi FuKuan, Shi XiaoJie, Dong Hao, Liu LanFang, Jia Ding, and others, all expressing deep mourning for their good friend. Liu LanFang, a master storyteller who had recently attended Yuan Kuocheng's memorial service, also came specifically to attend Xiaolin's memorial service. She said, "Xiaolin was good at cross-talk, had a good character, and was a rare talent in the traditional Chinese performing arts world. His departure is a great loss. There are not many people left who are skilled in the kind of cross-talk he excelled in. I hope it can be passed down." Liu LanFang was deeply saddened by the consecutive losses of her friends, saying, "Yuan Laoshi lived to a ripe old age, it's such a pity that Xiaolin passed away at such a young age." Dong Hao, who was at the memorial service, was overwhelmed with grief at one point. He later told reporters, "Xiaolin and I were childhood friends, in the same grade at Beijing No. 3 Middle School. Xiaolin was considered quite healthy among our classmates, paying attention to exercise, playing basketball, playing golf. I didn't expect him to leave so suddenly. Life is so unpredictable. I've been feeling very bad these past few days."</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>中新网平潭10月16日电16日，平潭综合实验区公安局对外通报称，15日，该局经过连续七天昼夜奋战，成功破获了“10.8”故意杀人案。警方称，案发10月8日6时许，平潭公安局110指挥中心接群众报警称，在岚城乡深坞田间小道发现一具被焚烧的尸体。接警后，平潭警方迅速启动命案侦破机制，区局领导第一时间赶赴现场，组织刑侦等部门民警开展现场勘查、调查访问等侦查工作;省公安厅也高度重视，迅速派出刑侦、技术部门专家奔赴现场指导命案侦破工作;同时，平潭警方向全省公安机关发出协查通报，向全社会发布悬赏通告，全面征集破案线索。10月12日晚，经省公安厅、福州、平潭等警方的刑侦、技术多个部门的协作和努力，案件侦查取得重大突破，确定被害人的身份为平潭籍的失踪人员念某(女，42岁)。循线侦查，专案民警迅速锁定了犯罪嫌疑人翟某(男，43岁，河南兰考县人，系被害人念某的再婚丈夫)。10月15日凌晨零时许，在广东警方的配合下，专案组在广东省广州市南沙区大岗镇一工棚内抓获犯罪嫌疑人翟某。经审查，犯罪嫌疑人翟某交代了其于10月7日因琐事与被害人念某吵架，为泄愤将其杀害，并于当晚将尸体运至平潭岚城乡中湖村深坞田间小道进行焚烧灭迹的犯罪事实。目前，案件还在进一步审理中。</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>On October 16, Xinhua News Agency reported that on the 16th, the Pingtan Comprehensive Experimental Zone Public Security Bureau announced that on the 15th, after seven consecutive days and nights of hard work, they successfully solved the intentional homicide case that occurred on "October 8". The police stated that at around 6 o'clock on October 8, the 110 Command Center of the Pingtan Public Security Bureau received a report from the public that a burnt body was found in a field path in Shanwu Village, Lancheng Township. After receiving the report, the Pingtan police quickly initiated the mechanism for solving major cases, with leaders of the district bureau rushing to the scene for on-site investigation and organizing criminal investigation and other departments to conduct on-site inspections, interviews, and other investigative work; the Provincial Public Security Department also attached great importance to the case, promptly sending criminal investigation and technical experts to the scene to guide the investigation of the case; at the same time, the Pingtan police issued a cooperation notice to public security organs throughout the province, and issued a reward notice to the whole society, comprehensively collecting clues to solve the case. On the evening of October 12, with the cooperation and efforts of the criminal investigation and technical departments of the Provincial Public Security Department, Fuzhou, Pingtan, and other police forces, a major breakthrough was made in the case, and the identity of the victim was confirmed to be Nian (female, 42 years old) from Pingtan who had been missing. Through line investigation, the specialized police quickly identified the suspect Zhai (male, 43 years old, from Lankao County, Henan, the remarried husband of the victim Nian) as the criminal suspect. In the early hours of October 15, with the cooperation of the Guangdong police, the task force arrested the criminal suspect Zhai in a workshop in Dagang Town, Nansha District, Guangzhou City, Guangdong Province. Upon interrogation, the criminal suspect Zhai confessed that on October 7, he had a quarrel with the victim Nian over trivial matters, killed her out of anger, and transported the body to the field path in Zhonghu Village, Lancheng Township, Pingtan, for incineration and destruction that same night. Currently, the case is still under further trial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 鲁网淄博10月20日讯（通讯员马超曹鸣）10月18日，由山东省教育厅主办，山东教育卫视、淄博市教育局、淄博高新技术产业开发区管理委员会承办的淄博高新区“体彩杯”中小学素质教育展示暨“中国梦校园情”中小学生艺术节展演活动，在高新区先进陶瓷科技园举行。来自高新区14所学校的700名中小学生，表演了舞蹈、合唱、快板、五音戏等23个节目。高新区实验中学演出集体舞《盛世华章》作为开场舞把气氛推上了高潮。节目异彩纷呈，深受到师生的喜爱和赞赏。活动旨在进一步提高全区中小学素质教育水平，整体推进学校艺术教育普及，交流艺术教育开展情况，总结艺术教育工作的好经验、好做法。整个活动的策划、编导、舞美灯光音响、录制由山东教育卫视和北京世纪中景团队全程打造。各参与工种均是国家级的顶尖人才，代表央视的水平，其中大部分编导均是参与数届奥运会的节目编排，舞美灯光音响承担央视的大型晚会，录制团队也是参与央视晚会及数届奥运会的大型录制及转播。此外，山东教育电视台派出执行和录制团队对现场展演活动进行录制，经过统一包装和制作后，10月22日晚7:30在山东教育卫视播出。据悉，在发展经济的同时，高新区始终把教育摆在优先发展的战略地位。在当前经济形势严峻、财政收入增幅困难的情况下，工委、管委依然把发展教育作为最大的民生工程。几年来，从改善办学条件到促进教育体制机制改革，从实施“三名工程”到落实“县管校聘”政策，从一系列惠民政策到提升群众满意度，高新区教育的面貌焕然一新。艺术教育作为素质教育的重要方面，高新区始终将其作为提升教育品质的重要一环。从提升学校文化内涵到专业教师队伍配备，从科学开展艺术课程到“个性化教育”的发展体系，从丰富多彩的活动到彰显学校特色的品牌项目，高新区艺术教育的发展如火如荼。目前，剪纸、陶艺、民俗画、书法、数字美术等项目，在区内广泛开展，受到家长和社会的好评。今后，高新区将继续加大对艺术教育的投入力度。同时，发挥艺术教育对于立德树人的重要作用，培养学生感受美、表现美、鉴赏美、创造美的能力，引领学生树立正确的审美观念，陶冶高尚的道德情操。融合淄博当地的文化特色和现代化教育思维，开发具有文化传统和地域特色的校本课程，将培养高素质的未来人才，作为我们不懈追求的目标。</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lu Net Zibo, October 20th (Reporter Ma Chao Ming) On October 18th, the Zibo High-tech Zone "Sports Lottery Cup" primary and secondary school quality education exhibition and "Chinese Dream Campus Love" primary and secondary school student art festival performance event, hosted by the Shandong Provincial Department of Education, and organized by Shandong Education TV, Zibo City Education Bureau, and Zibo High-tech Industrial Development Zone Management Committee, was held at the Advanced Ceramic Technology Park in the High-tech Zone. 700 primary and secondary school students from 14 schools in the High-tech Zone performed 23 programs including dance, chorus, fast-paced storytelling, and traditional Chinese instrumental music. The collective dance performance "Splendid Chapter of the Flourishing Age" by the Experimental Middle School of the High-tech Zone set the tone for the event and brought the atmosphere to a climax. The diverse programs were well-received and appreciated by teachers and students. The event aims to further improve the overall quality of primary and secondary school education in the region, promote the popularization of art education in schools, exchange experiences in art education, and summarize successful practices in art education. The entire event was planned, directed, and produced by Shandong Education TV and the Beijing Century Mid-Scene team. All participating professionals are top talents at the national level, representing the standards of CCTV. Most of the directors have been involved in the program planning for several Olympic Games, the stage design and lighting team has worked on large-scale CCTV galas, and the recording team has been involved in the recording and broadcasting of CCTV galas and multiple Olympic Games. In addition, the Shandong Education TV dispatched an execution and recording team to record the live performance activities, which will be broadcast on Shandong Education TV at 7:30 pm on October 22nd after unified packaging and production. It is reported that while developing the economy, the High-tech Zone has always prioritized education in its strategic development. In the current situation of severe economic conditions and difficulties in increasing fiscal revenue, the working committee and management committee still regard the development of education as the most important livelihood project. Over the past few years, from improving school conditions to promoting reforms in the education system, from implementing the "Three Names Project" to implementing the policy of "county-managed schools hiring teachers," from a series of pro-people policies to enhancing public satisfaction, the face of education in the High-tech Zone has been completely renewed. As an important aspect of quality education, art education has always been regarded by the High-tech Zone as an important part of enhancing the quality of education. From enhancing the cultural connotation of schools to the deployment of professional teaching staff, from the scientific implementation of art courses to the development system of "personalized education," from a variety of activities to showcasing branded projects that highlight the school's characteristics, the development of art education in the High-tech Zone is flourishing. Currently, projects such as paper cutting, pottery, folk painting, calligraphy, and digital art are widely carried out in the region, receiving praise from parents and society. In the future, the High-tech Zone will continue to increase its investment in art education. At the same time, it will leverage the important role of art education in cultivating students' moral character, nurturing their ability to appreciate, express, discern, and create beauty, guiding students to establish correct aesthetic concepts, and cultivating noble moral sentiments. By integrating Zibo's local cultural characteristics with modern educational thinking, developing school-based courses with cultural traditions and regional characteristics, the High-tech Zone aims to cultivate high-quality future talents as an unremitting pursuit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>身边好多同事都超爱吃日料但日料自助什么的没有300块吃不到满意的还好这位日本留学生朋友开了一张餐厅list这些都是学生们经常去打牙祭的平价美味今天都贡献给大家啦秋井の刺身 图片@媛博雅@雪魅魅丶@西西地主@G-dragon涛小涛菜单都是带有图片的、免费的茶水是白桃乌龙这些小细节就足以看出老板的诚意，每一道菜都带着事物原本的新鲜送到面前，三文鱼肥美的口感带着冰凉的芥末融化在嘴里，老板人还特别好，跟你聊得来了还经常送菜品品尝，整体的氛围很轻松。【美味区域】汉中路迎春里5幢彤德莱火锅对面，4栋107号【人均】80元一郎の料理 图片@爱吃肉的小母牛@烟雨中。@突然好想吃东西男孩@小玉_nj@sunshine128店里环境清幽，满满的日式氛围。土豆泥是他家的特色，从造型到口味都给人惊喜，三文鱼非常新鲜，摆盘也很好看，让人一口接一口，完全停不下来。寿喜锅的份量很足，若是你不喜欢鸡蛋可以换成芥末酱，芥末酱是店家自制的，味道不冲，正好够味道。【美味区域】牌楼巷怡景小区内(五台山牌楼巷)【人均】81元深夜屋里食堂 图片@kim_WY@宇宙无敌美少兔@Melissa媛@梨咯咯咯真正的深夜食堂，一直营业到早上的3点，像是日剧《深夜食堂》一样，木质的桌椅，整个环境都给人一种安静舒适的感觉、赏心悦目。关键是那么晚，材料还是很新鲜，寿司也是棒棒哒，日料一向都是是很注重材料的质量的。有些菜需要预约，还可以私人订制！是不是觉得逼格超高的，而且就算是凌晨了食客仍然络绎不绝。寿喜锅里的牛肉很嫩，蔬菜也很多，一个锅完全足够两个人吃到嗨。【美味区域】中山北路215号中商万豪大楼102室(近温莎KTV)【人均】93元松膳日本料理·炭火烤肉 图片@尛珥垛@水晶人鱼@親12吻20魚这是一家日式的烤肉店，有定位学生的非常实惠又美味的团购套餐，又有很有品质的进口澳洲和牛肉，二楼还有小包间，简单舒适，最好的一点是排烟很好，基本没有烤肉的油烟味。如果有要求可以让店员全程帮忙烤肉，安心坐等吃就好啦，他家的牛舌都是自己腌制的，口味很独特，牛小排和牛五花的肉都超级嫩，肉食主义者吃的超爽。【美味区域】康桥圣菲仙林文范路9号4-106(中国电信旁边)【人均】111元长野料理 图片@浣熊帮帮忙。</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Many colleagues around me love Japanese food, but they can't be satisfied with Japanese buffet under 300 RMB. Fortunately, a Japanese exchange student friend opened a restaurant list where students often go to enjoy affordable and delicious food. Today, I will share with you all. Akii no sashimi. The menu includes pictures, and complimentary tea is white peach oolong. These small details are enough to show the boss's sincerity. Each dish is presented fresh in front of you. The rich taste of salmon melts in your mouth with the coolness of wasabi. The boss is very friendly and often sends complimentary dishes for tasting. The overall atmosphere is very relaxed. [Delicious Area] Building 5, Yingchunli, Hanzhong Road, opposite Tongdelai Hot Pot, No. 107, Building 4. [Average Price] 80 RMB. Ichiro's cuisine. The environment in the restaurant is quiet and full of Japanese atmosphere. Their mashed potatoes are a specialty, surprising in both appearance and taste. The salmon is very fresh and beautifully presented, making it irresistible. The portion of sukiyaki is generous. If you don't like eggs, you can replace them with wasabi sauce, which is homemade by the restaurant and just right in flavor. [Delicious Area] Yijing Community in Pailou Lane (Wutai Mountain Pailou Lane). [Average Price] 81 RMB. Late Night Canteen. A real late-night canteen, open until 3 a.m., just like the Japanese drama "Midnight Diner." Wooden tables and chairs create a quiet and comfortable environment. The ingredients are still fresh late at night, and the sushi is excellent. Japanese cuisine has always emphasized the quality of ingredients. Some dishes require reservations and can even be customized! Isn't it high-end? Even in the early hours, customers continue to come. The beef in the sukiyaki is tender, with plenty of vegetables. One pot is enough for two people to enjoy. [Delicious Area] Room 102, Zhongshang Wanhao Building, 215 Zhongshan North Road (near Windsor KTV). [Average Price] 93 RMB. Matsuzen Japanese Cuisine &amp; Charcoal Grilled Meat. This is a Japanese barbecue restaurant with very affordable and delicious group meal deals tailored for students. They also offer high-quality imported Australian Wagyu beef. There are private rooms on the second floor, simple and comfortable. The best part is that the smoke extraction is very good, so there is almost no smell of barbecue smoke. If you wish, the staff can help grill the meat throughout, allowing you to sit back and enjoy. Their beef tongue is marinated in-house and has a unique taste. The beef short ribs and beef belly are super tender, making meat lovers very happy. [Delicious Area] 4-106, No. 9, Wenfan Road, Kangqiao Shengfei Xianlin (next to China Telecom). [Average Price] 111 RMB. Nagano Cuisine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>新华社西宁7月19日体育专电（记者李琳海 郑直）19日，2016年玉树漂流世界杯在青海省玉树藏族自治州巴塘河赛道拉开序幕，各国漂流健儿将在为期三天的比赛中展开角逐。据了解，该项赛事吸引了来自中国、英国、新西兰、捷克、哥斯达黎加等10个国家和地区的16支参赛队伍共计100多名运动员，他们将在海拔4000米的高原上展开角逐。此外，国际漂流联合会选派的8名裁判员、中国极限运动协会抽调的12名辅助裁判和10名漂流救生员，将共同协助选手们完成竞赛。玉树漂流世界杯巴塘河赛道位于玉树市新寨街道办卡孜村，全长7.5千米，公路里程为6.7千米。赛道两端分别为卡孜码头和金沙江码头，中途另设章陀码头和坎果码头。国家体育总局水上运动管理中心主任李全海说，通过本次漂流世界杯，希望能唤起社会各界重新回归自然、拥抱健康、环保生活的理念。“本次国际赛事的引入，带给玉树与世界首次握手的契机，也给世界搭建了一条以体育赛事为媒介，深入解玉树城市魅力的通道。”玉树州委书记吴德军说。本次赛事由国际漂流联合会主办，国家体育总局水上运动管理中心、中国极限运动协会、青海体育局和玉树市政府承办。</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency Xining, July 19th Sports Special (Reporter Li Linhai Zheng Zhi) On the 19th, the 2016 Yushu Drifting World Cup kicked off at the Batang River track in Yushu Tibetan Autonomous Prefecture, Qinghai Province. Athletes from various countries will compete in the three-day competition. It is understood that the event has attracted a total of more than 100 athletes from 16 participating teams from 10 countries and regions including China, the United Kingdom, New Zealand, the Czech Republic, and Costa Rica. They will compete at an altitude of 4000 meters on the plateau. In addition, 8 referees selected by the International Drifting Federation, 12 assistant referees and 10 drifting lifeguards selected by the China Extreme Sports Association will assist the athletes in completing the competition. The Batang River track of the Yushu Drifting World Cup is located in Kazi Village, Xinzhai Street Office, Yushu City, with a total length of 7.5 kilometers and a road distance of 6.7 kilometers. The track is equipped with Kazi Wharf and Jinsha River Wharf at both ends, and Zhantuo Wharf and Kanggu Wharf are set up midway. Li Quanhai, Director of the Water Sports Management Center of the General Administration of Sports of China, said that through this Drifting World Cup, he hopes to awaken the concept of society returning to nature, embracing a healthy and environmentally friendly lifestyle. "The introduction of this international event brings the opportunity for Yushu to shake hands with the world for the first time, and also provides a channel for the world to deeply understand the charm of Yushu city through sports events." said Wu Dejun, Secretary of the Yushu Prefectural Committee. This event is hosted by the International Drifting Federation, and organized by the Water Sports Management Center of the General Administration of Sports of China, the China Extreme Sports Association, the Qinghai Sports Bureau, and the Yushu Municipal Government.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 最近，不少小伙伴都说这条命是空调给的。 但是夏天开空调，一定要小心。不要忘了做这件事，否则后果不堪设想。 悲剧！一家三口不幸身亡7月18日早上6时许，九江市浔阳区三里街一居民报警称家人昏迷不醒，疑似煤气中毒，并拨打了120急救中心电话。三里街派出所民警和九江120急救中心医护人员赶到现场后，将昏迷的一名母亲大人和二名小孩送到九江市解放军第171医院进行抢救。当记者赶到171医院急救中心，该院一医护人员告诉记者，“早上送来抢救的三人均已不幸身亡，已运到殡仪馆了。”三人中，一个为12岁大的女孩，一个仅为7个月大的男婴。 有知情者表示，“可能是煤气泄漏到空调房了，房间又关着，所以妈妈和孩子都中毒了。” （图片来自掌中九江）目前，公安部门已介入调查，具体死亡原因待警方核查。夏天，在空调房一定要注意的事！空调间不要闭塞，需要常换空气！↓↓↓夏天出现一氧化碳中毒很少见，一般冬天人们在屋内烤火取暖时多发。由于夏天的气温升高，在房间里面开空调是十分普遍的情况，但是在使用空调时，一定要注意通风换气。在关紧房门和窗户的房间里面，空调在一个相对封闭的环境里面工作，空气质量实际上比我们想象得更差。空调工作一阶段之后，需要开窗换气，保证室内空气的新鲜。如果家中有老人孩子或者体弱多病者，更要谨慎使用空调，避免浑浊的空气诱发疾病；如果家中有感冒、肺部疾病等呼吸道疾病的病人，一定要保持空气流通，避免病菌在封闭空间内传播。 ↓↓↓一家七口吹空调一氧化碳中毒今年7月9日，汕头潮阳区西胪全镇大范围停电，在西胪后埔社区有一家人，因为天气太热，无法忍受，于是用发电机带动电器空调。可意想不到的是，因一氧化碳中毒，一家七口人被送到汕头医院进行抢救。为何会中毒？竟然是因为发电机在室内，门窗紧闭导致发电机释放的一氧化碳无法排出，在屋内一家七口在毫不知情下渐渐中毒。▼事故视频▼不仅是在家里吹空调在车上大家也喜欢开着空调你也一定要注意近期发生的车上吹空调中毒事故●2016年6月，苏州37岁的冉先生，因为一直在车里开着空调睡觉，等到第二天，被人发现的时候，他已无生命体征。●2016年7月，广州的谭师傅出门办事，因为下过大雨，路上还有积水，路况非常不好，一直堵车，于是就一直在路面吹着空调堵了2个小时，随后就晕过去了。堵在旁边的车辆看着车里面的情况不对，立马拨打120，最后还是没抢救过来，中毒身亡了。</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Recently, many friends have been saying that this life was given by the air conditioner. However, in the summer when using the air conditioner, one must be careful. Do not forget to do this thing, otherwise the consequences would be unimaginable. Tragedy! A family of three tragically died around 6 a.m. on July 18th in Sanli Street, Xunyang District, Jiujiang City. A resident called the police reporting that the family was unconscious and suspected of carbon monoxide poisoning, and dialed 120 for emergency medical assistance. After the police officers from Sanli Street Police Station and medical staff from Jiujiang 120 Emergency Center arrived at the scene, they rushed the unconscious mother and two children to the 171st Hospital of the People's Liberation Army in Jiujiang for rescue. When the reporter arrived at the emergency center of the 171st Hospital, a medical staff member told the reporter, "The three people who were brought in for rescue this morning have unfortunately passed away and have been taken to the funeral home." Among the three, one was a 12-year-old girl and the other was a 7-month-old baby boy. An informant said, "It may be that gas leaked into the air-conditioned room, and the room was closed, so the mother and children were poisoned." (Photo from Palm Jiujiang) Currently, the public security department has intervened in the investigation, and the specific cause of death is pending verification by the police. In the summer, there are certain things to pay attention to in air-conditioned rooms! Do not seal off the air-conditioned room, and ensure regular air circulation! ↓↓↓ Carbon monoxide poisoning is rare in the summer, and it mostly occurs during the winter when people are indoors heating by fire. Due to the rising temperatures in the summer, it is very common to use air conditioning indoors. However, when using air conditioning, it is essential to pay attention to ventilation. In rooms where doors and windows are tightly closed, the air conditioner operates in a relatively enclosed environment, resulting in poorer air quality than we imagine. After the air conditioner has been running for a while, it is necessary to open the windows for ventilation to ensure fresh indoor air. If there are elderly people, children, or individuals with weak health at home, extra caution should be taken when using air conditioning to avoid the onset of diseases caused by stale air; if there are patients with colds, lung diseases, or other respiratory diseases at home, it is crucial to maintain air circulation to prevent the spread of germs in enclosed spaces. ↓↓↓ A family of seven suffered carbon monoxide poisoning from using air conditioning On July 9th this year, a large-scale power outage occurred in Xilun Town, Chaoyang District, Shantou. In the Xilun Houpu community, a family used a generator to power their air conditioner because of the unbearable heat. Unexpectedly, due to carbon monoxide poisoning, the entire family of seven was rushed to the hospital in Shantou for emergency treatment. Why did they get poisoned? It turned out that the generator was placed indoors, and with the doors and windows tightly closed, the carbon monoxide released by the generator could not be expelled. As a result, the family of seven gradually suffered from poisoning without realizing it. ▼ Video of the incident ▼ Not only at home using air conditioning, but also when driving, many people like to turn on the air conditioner. You must also pay attention to recent incidents of carbon monoxide poisoning from using air conditioning in cars. ● In June 2016, Mr. Ran, 37 years old from Suzhou, slept in his car with the air conditioner on all night. When he was found the next day, he had no signs of life. ● In July 2016, Master Tan from Guangzhou went out for errands. Due to heavy rain and poor road conditions, he was stuck in traffic for two hours with the air conditioner on. He then passed out. The drivers in the nearby cars noticed something was wrong and immediately called 120, but unfortunately, he did not survive the poisoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>导语:一图看懂医生的离职成本来源：医学界智库近日中山大学附属第一医院东院儿科急诊开诊时间由24小时调整为早7:50至晚23:00。对此，院方的官方解释是“儿科医生缺乏”。据广州日报消息，近日该院的21名儿科医生中，有6名离职，其中4名皆被民营医院高薪“挖角”。在商业企业中，员工的离职成本大约是这位员工年薪的150%。核心人才的流失，至少有2个月的新员工招聘期、3个月的适应期，6个月的融入期；此外，还有相当于4个月工资的招聘费用，超过40%的失败率。更为恐怖的是，一个员工离职会引起大约3个员工产生离职的想法。根据医米调研的报告，有74.9%的医生有过辞职的念头，而有36.7%的医生有过离职的经历。薪酬收入不高、工作强度大、紧张的医患关系是医生离职的最主要原因。那对于医院而言，一名医生的离职成本有多高呢？医学界智库从人力资源管理的角度来尝试解答这个问题。（点击图片可看大图） 注：部分成本比例核算依据来自相关领域实践调查法与量化估计法研究想和界友们一起分享您对医院管理和产业政策等方面的经验和心得？请投至yxjzhiku@126.com，期待您的来稿。</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Introduction: Understand the doctor's resignation cost in one picture Source: Medical Industry Think Tank Recently, the pediatric emergency department of the East Hospital of the First Affiliated Hospital of Sun Yat-sen University adjusted its opening hours from 24 hours to 7:50 in the morning to 23:00 at night. The official explanation from the hospital is "a lack of pediatric doctors." According to Guangzhou Daily, among the 21 pediatric doctors in the hospital, 6 have resigned, with 4 of them being poached by private hospitals offering higher salaries. In commercial enterprises, the resignation cost of an employee is approximately 150% of the employee's annual salary. The loss of core talents involves at least a 2-month recruitment period for new employees, a 3-month adaptation period, and a 6-month integration period; in addition, there are recruitment costs equivalent to 4 months' salary, with a failure rate exceeding 40%. What's even more terrifying is that one employee's resignation can trigger about 3 other employees to consider resigning. According to a survey by YiMi, 74.9% of doctors have had thoughts of resigning, and 36.7% have experienced resigning. Low salary income, high work intensity, and tense doctor-patient relationships are the main reasons for doctors' resignations. So, how high is the resignation cost for a hospital when a doctor leaves? The Medical Industry Think Tank attempts to answer this question from the perspective of human resource management. (Click on the image to view a larger version) Note: Some cost ratios are calculated based on relevant field practice surveys and quantitative estimation research. Would you like to share your experiences and insights on hospital management and industrial policies with us and our industry friends? Please submit your contributions to yxjzhiku@126.com. We look forward to hearing from you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>【搜狐汽车合肥站报道】10月22号，"锋芒再现，全系盛惠"长安铃木锋驭节油赛决赛暨安徽区域厂家团购会在"大湖名城"合肥圆满落幕。 从加油、统计油量到最后的封油箱，长安铃木锋驭节油赛总决赛迅速进入"备战状态"，参赛选手热情高涨，积极投入到比赛当中。 长安铃木的"老司机"们今天不开玩笑，只开锋驭，群雄逐"路"，剑指巢湖，挑战百公里最低油耗。虽不是一场拼速度的飙车，但是肾上腺素仍未缺少。这是一场速度变技术，油门变油表之间的比拼。环绕美丽的巢湖，长安铃木锋驭用节油的实力在巢湖边记下浓墨重彩的一笔！ 经过2小时的激烈角逐，节油赛总决赛完美收官，16名节油高手顺利返程，谁是节油冠军，油表数据来说话。最终来自合肥的韦玮和王军刚先生，分别荣获锋驭节油赛总决赛手动档和自动档组的节油赛冠军，成功将节油赛冠军大奖无人机收入囊中！16组参赛选手百公里平均油耗4.12升，这是参赛选手的节油实力，更是长安铃木的节油实力！ 在节油赛选手进行激烈角逐的同时，长安铃木安徽区域厂家团购会也在如火如荼的进行当中。本次长安铃木安徽区域厂家团购会限时抢购两小时，现场人气爆棚，购车主们情绪高涨。 活动伊始，微信红包慷慨开抢，维特拉城市音乐节冠军朱斌倾情献唱，老主顾上台真诚分享用车体验。虽已深秋，却依旧倍感温暖！ 订车金财神、精致原厂车模等精美礼品熠熠生辉，坐等被领，订车主笑靥如花。现场更有阶梯式购车优惠政策，钜惠到底，诚意满满。 团购会开抢后，现场订车数量不断飙升，终极大奖iPhone 7、小米平衡车等豪华大奖的派送，成功刺激现场准车主们果断下订，最终实现订车总数达到102台！这是长安铃木全员努力的结果，更是购车主们对长安铃木无限的信任与支持！这是一场团购会，更是一场感恩会！ 已拥有现在的光明，仍需要前路的奋进，方可创造未来更大的辉煌！长安铃木，我们一直在努力……</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>【Sohu Auto Hefei Station Report】On October 22nd, the "Sharpness Reappears, Full Series Benefits" Changan Suzuki Fengyu Fuel-saving Competition Finals and Anhui Regional Manufacturer Group Buying Event concluded successfully at "Dahu Mingcheng" in Hefei. From refueling, calculating fuel consumption to the final sealing of the fuel tank, the Changan Suzuki Fengyu Fuel-saving Competition Finals quickly entered the "preparation state", with enthusiastic participants actively engaging in the competition. The "veteran drivers" of Changan Suzuki were not joking around today, only driving the Fengyu, competing against each other towards Chaohu, aiming for the challenge of the lowest fuel consumption over one hundred kilometers. Although not a speed racing competition, adrenaline was still not lacking. This was a competition between speed and technique, between the throttle and the fuel gauge. Surrounded by the beautiful Chaohu, Changan Suzuki Fengyu showcased its fuel-saving strength with a remarkable performance by the lakeside! After 2 hours of intense competition, the Fuel-saving Competition Finals ended perfectly, and the 16 fuel-saving experts returned smoothly. Who is the fuel-saving champion will be determined by the fuel gauge data. In the end, Mr. Wei Wei and Mr. Wang Jungang from Hefei respectively won the Fuel-saving Competition Finals in the manual and automatic transmission categories, successfully securing the grand prize of the fuel-saving competition - a drone! The average fuel consumption of the 16 participants over one hundred kilometers was 4.12 liters, showcasing not only the participants' fuel-saving abilities but also Changan Suzuki's fuel-saving capabilities! While the fuel-saving competition was in full swing, the Changan Suzuki Anhui Regional Manufacturer Group Buying Event was also underway. The event lasted for two hours, with a lively atmosphere and enthusiastic car buyers. At the beginning of the event, WeChat red envelopes were generously distributed, and the Vitara City Music Festival champion Zhu Bin performed passionately, while loyal customers sincerely shared their car experiences on stage. Despite the deep autumn, warmth was still felt all around! Booking gold god of wealth, exquisite original factory car models, and other exquisite gifts shone brightly, waiting to be claimed, bringing smiles to the faces of the car buyers. There were also tiered purchase discounts at the event, with generous offers and full sincerity. After the group buying event started, the number of bookings continued to soar, and the distribution of ultimate prizes such as iPhone 7 and Xiaomi balance scooters successfully prompted prospective car owners to make decisive bookings, ultimately achieving a total of 102 bookings! This was the result of the collective efforts of Changan Suzuki's staff and the unlimited trust and support from the car buyers! This was not just a group buying event but also a gratitude event! Having the brightness of the present, we still need to strive forward on the road ahead to create an even brighter future! Changan Suzuki, we have been working hard...</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>编者按：昨日，创业板指高开高走，强劲上涨，盘中创出2048.3点的历史新高，最终收于2045.32点，上涨50.93点，涨幅达2.55%，累计资金净流入达18.7亿元。其中，有21只个股实现涨停。对此，分析人士认为，本轮创业板指屡创新高的主要利好因素有三方面，一是，创业板公司业绩的出色表现，营业收入和净利润增长均创近三年新高；二是，创业板顺应了中国经济转型升级的需要，已经成为经济增长新引擎；三是，深港通初期将选择部分市值大、业绩优、成交活跃、新兴行业为主的创业板股票作为标的股。统计显示，今年以来创业板指累计涨幅达38.97%，同期，有135只创业板个股跑赢创业板指。而这些牛股主要集中在计算机（36家）、医药生物（15家）、传媒（13家）等三行业。今日本版特对创业板牛股集中的行业进行分析研究，以供投资者参考。计算机 6只个股今年以来股价翻番据《证券日报》市场研究中心统计显示，在创业板内64只计算机股中，今年以来跑赢创业板指同期累计涨幅的个股有38只（剔除今年以来上市新股）。其中，银之杰、汉得信息、鼎捷软件、安硕信息、新国都、数字政通等7只个股今年以来股价均实现翻番，累计涨幅分别达到137.03%、134.49%、109.72%、107.06%、101.98%和101.97%。资金流向方面，在这38只个股中，本周以来共有21只个股实现大单资金净流入，累计吸金75284.33万元。其中，立思辰（16186.56万元）、卫宁软件（15571.56万元）、汉得信息（9017.53万元）、赢时胜（8363.07万元）、海兰信（4053.97万元）、东方国信（3187.06万元）、新开普（2839.12万元）、蓝盾股份（2823.74万元）和东方网力（2606.88万元）等个股期间累计大单资金净流入均超过2000万元，短期资金面比较充裕，值得关注。从业绩角度来看，截至昨日，已有63家公司披露了年报业绩预告，其中，有50家公司业绩预喜，占比79.37%，华力创通、朗科科技、旋极信息、同花顺、中威电子、美亚柏科、银之杰、长亮科技、世纪瑞尔等9家公司均预计2014年净利润同比实现翻番增长。投资机会方面，华泰证券表示，建议关注行业内受益政策或事件驱动的细分领域优质龙头股，首先，计算机行业与政府投资最直接相关的细分领域，推荐标的：数字政通、飞利信、银江股份。</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Editor's Note: Yesterday, the ChiNext Index opened high and continued to rise, hitting a historical high of 2048.3 points during the trading session, and ultimately closing at 2045.32 points, up 50.93 points, with a gain of 2.55%. The net capital inflow totaled 1.87 billion yuan. Among them, 21 stocks hit the daily limit. Analysts believe that the three main positive factors driving the repeated highs of the ChiNext Index in this round are: first, outstanding performance of ChiNext-listed companies, with operating income and net profit reaching new highs in nearly three years; second, ChiNext has met the needs of China's economic transformation and upgrade, becoming a new engine for economic growth; third, the early stage of the Shenzhen-Hong Kong Stock Connect will select ChiNext stocks with large market capitalization, excellent performance, active trading, and emerging industries as target stocks. Statistics show that the ChiNext Index has accumulated a 38.97% increase so far this year, with 135 ChiNext stocks outperforming the index during the same period. These outperforming stocks are mainly concentrated in three industries: computers (36 companies), pharmaceuticals and biotechnology (15 companies), and media (13 companies). Today, this section will analyze and study the industries where the ChiNext outperforming stocks are concentrated for investors' reference. Six computer stocks have doubled in price this year. According to statistics from the Securities Daily Market Research Center, among the 64 computer stocks on the ChiNext, 38 stocks have outperformed the ChiNext Index in terms of cumulative increase since the beginning of this year (excluding newly listed stocks this year). Among them, seven stocks including Yinzhi Jie, Hand Information, Dingjie Software, Anshuo Information, New Guodu, and Digital Zhengtong have doubled in price this year, with cumulative gains of 137.03%, 134.49%, 109.72%, 107.06%, 101.98%, and 101.97%, respectively. In terms of fund flows, among these 38 stocks, 21 stocks have seen large net inflows of funds this week, attracting a total of 752.8433 million yuan. Among them, Lisichen (161.8656 million yuan), Weining Software (155.7156 million yuan), Hand Information (90.1753 million yuan), Yingshisheng (83.6307 million yuan), Hailanxin (40.5397 million yuan), Dongfang Guoxin (31.8706 million yuan), Xinkai Pu (28.3912 million yuan), Landun Shares (28.2374 million yuan), and Dongfang Netforce (26.0688 million yuan) have all accumulated large net inflows of funds exceeding 20 million yuan during the period, indicating relatively abundant short-term liquidity and deserving attention. From a performance perspective, as of yesterday, 63 companies have disclosed their annual performance forecasts, with 50 companies expecting positive results, accounting for 79.37%. Nine companies, including Hualichuangtong, Langke Technology, Xuanji Information, Tonghuashun, Zhongwei Electronics, Meiya Baike, Yinzhi Jie, Changliang Technology, and Century Ruier, are expected to double their net profits in 2014 compared to the previous year. In terms of investment opportunities, Huatai Securities suggests focusing on high-quality leading stocks in sub-sectors that benefit from industry-specific policies or event-driven factors. Firstly, the sub-sectors of the computer industry most directly related to government investment are recommended targets: Digital Zhengtong, Feilixin, and Yinjiang Shares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>激情闪耀，决胜场外！四年一度的盛宴，六十亿人的热情，只看球怎能尽兴？东风悦达在这个激情六月邀您一起共享"世界杯桑巴狂欢派对"！ 尊享全场车型最低价及豪华礼包，同时伴有美食美酒助威世界杯6月15日到苍南冠亚4S店抢购东风悦达起亚世界杯球迷特供车型，享受狂野特惠；尽情玩转世界杯，赢取丰富的精美礼品！6月15日当天下午15：00－17：00闭店两小时，不仅按揭O风险金，0手续费，低首付，更有厂家直接支援的"钜风"行动。17：00后专营店还有烧烤、啤酒、游戏伴你欣赏精彩赛事。"钜风"一：购起亚全系车型可获赠送上世界杯大礼包。"钜风"二：购买智跑可获赠智先锋四件套的大礼包；"钜风"三：购买狮跑可享受拓界装备+汽车隔热膜的大礼包；"钜风"四：购秀尔可获赠外观七件套或车身贴一套；"钜风"五：而购买新福瑞迪的用户则可享受世界杯专享价的惊喜； 激情难挡的6月，让东风悦达起亚的这份心动优惠与贴心关爱，为你在酷暑盛夏里带来劲爽体验！还等什么，快来一起狂欢吧！</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Passion shines, victory beyond the field! The quadrennial feast, the enthusiasm of six billion people, how can one fully enjoy just by watching the game? Dongfeng Yueda invites you to share the "World Cup Samba Carnival Party" in this passionate June! Enjoy the lowest prices for all models and luxurious gift packages, while enjoying delicious food and wine to cheer for the World Cup. On June 15th, rush to the Cangnan Guanya 4S store to purchase the special World Cup fan models of Dongfeng Yueda Kia, and enjoy wild discounts; have fun with the World Cup and win exquisite gifts! On June 15th, the store will be closed for two hours from 15:00 to 17:00. Not only will there be no risk deposit for mortgages, zero handling fees, low down payments, but also the manufacturer's direct support for the "Jufeng" action. After 17:00, the exclusive store will also have barbecue, beer, and games for you to enjoy the exciting matches. "Jufeng" One: Purchasing any Kia model will receive a special World Cup gift package. "Jufeng" Two: Purchasing the Sportage will receive a gift package of four pieces of Smart Pioneer set. "Jufeng" Three: Purchasing the KX3 will enjoy a gift package of off-road equipment + car heat insulation film. "Jufeng" Four: Purchasing the Xiu'er will receive a gift package of seven exterior pieces or a set of car body stickers. "Jufeng" Five: Users who purchase the new Forte will enjoy a surprising exclusive price for the World Cup. In this unstoppable June of passion, let the heart-pounding discounts and caring from Dongfeng Yueda Kia bring you a refreshing experience in the hot summer! What are you waiting for? Come and join the carnival together!</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>阿斯利康公司正雄心勃勃的向着自己的宏伟目标前进。公司的研发部门正在进行的临床三期研究共有14个，其中8-10个药物预计将于未来两年内被批准上市。为了实现公司营收年平均两位数的增长，阿斯利康公司着力将公司的肿瘤研发部门打造为继心脏病药物Brilinta、糖尿病药物、呼吸系统疾病疗法、新兴市场和日本市场之后的第六大公司支柱。然而，最近FDA下属专家委员会关于公司开发的治疗糖尿病药物Oglyza的态度或使公司的既定计划遇到重大阻碍。FDA下属的专家委员会在审核了阿斯利康公司提交的治疗糖尿病药物Onglyza之后，表达了对其安全性的疑虑。Onglyza是阿斯利康公司在糖尿病领域的一项重点项目。在FDA的这项简短声明中，专家对这种DPP-4抑制剂类药物的安全性表示疑虑。现有研究数据表明服用这种药物的患者死亡率有所增加，特别是这种药物可能会增加患者出现心力衰竭的风险。而另一方面，专家在审核了Takeda的类似药物Nesina后，却未发现相似风险。FDA预计将于本月的14号对这两种药物分别进行评审。而此次FDA发布的这一简短声明无疑打击了投资者的信心，阿斯利康公司的股价下跌近2%。更严重的是，这一结果或许会直接影响到整个DPP-4抑制剂药物市场的前景。而这一情况也使人很难不联想到默沙东的同类药物Januvia，公司目前已经完成了这一药物的临床数据分析，并预计将于今年夏天公布结果。如果Januvia也被发现又严重的心脏病风险，那么毫无疑问，曾经炙手可热的DPP-4抑制剂糖尿病药物市场将风光不再;反之，这种副作用可能仅仅是阿斯利康公司的个例，Januvia等其他DPP-4药物将更受市场追捧。二肽基肽酶-4(DipeptidylPeptidase4，DPP-4)是一种通过提高自身肌体能力控制血糖水平的新型治疗2型糖尿病药物，可用作单一治疗药物，也可与其它口服降糖药联用。其作用机制独特，具有不产生低血糖、不引起体重增加，以及副作用小等独特优势，引起胃肠道不良反应的发生率亦很低。</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>AstraZeneca is ambitiously moving towards its grand goals. The company's R&amp;D department is conducting a total of 14 Phase III clinical trials, with 8-10 drugs expected to be approved for market in the next two years. In order to achieve an average annual revenue growth rate in double digits, AstraZeneca is focusing on building its oncology R&amp;D department as the sixth major pillar of the company, following heart drug Brilinta, diabetes drugs, respiratory disease therapies, emerging markets, and the Japanese market. However, a recent attitude from an FDA advisory committee regarding Onglyza, a diabetes drug developed by the company, may pose a significant obstacle to the company's established plans. The FDA advisory committee expressed concerns about the safety of Onglyza, a key project in AstraZeneca's diabetes field. In a brief statement from the FDA, experts raised doubts about the safety of this DPP-4 inhibitor class drug. Existing research data suggests an increased mortality rate in patients taking this drug, particularly with a potential risk of heart failure. On the other hand, experts did not find similar risks after reviewing a similar drug, Nesina, developed by Takeda. The FDA is expected to review these two drugs separately on the 14th of this month. This brief statement from the FDA undoubtedly shook investor confidence, leading to a nearly 2% drop in AstraZeneca's stock price. More significantly, this outcome may directly impact the prospects of the entire DPP-4 inhibitor drug market. This situation also inevitably brings to mind Merck's similar drug Januvia, for which the company has completed clinical data analysis and is expected to announce results this summer. If Januvia is also found to have serious heart risks, undoubtedly, the once popular DPP-4 inhibitor diabetes drug market will lose its luster; conversely, this side effect may be specific to AstraZeneca, and other DPP-4 drugs like Januvia will be more sought after in the market. Dipeptidyl Peptidase-4 (DPP-4) is a novel type 2 diabetes treatment that controls blood sugar levels by enhancing the body's own ability. It can be used as a monotherapy or in combination with other oral hypoglycemic drugs. Its unique mechanism of action offers advantages such as no risk of hypoglycemia, no weight gain, and minimal side effects, with a low incidence of gastrointestinal adverse reactions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>中新社成都4月3日电(付敬懿)2015年首届国际网联青少年大师赛3日在四川成都拉开帷幕。揭幕战中，女单头号种子、中国选手徐诗霖以两个6比3直落两盘战胜西班牙选手贝尔索娃·扎多诺，取得首场胜利。国际网联青少年大师赛是国际网球联合会(ITF)在其成立一百周年之际，为推动世界青少年网球运动发展而创办的全新顶级网球赛事，是国际网联主办的最高规格青少年网球赛事，参赛者为当年世界排名前8的青年男女选手。当日下午比赛中，徐诗霖开局并不顺利，让扎多诺取得局分2比0的领先。随着比赛深入，徐诗霖逐渐掌控局面，以6比3赢得第一盘的胜利。第二盘前两局中，占据优势的徐诗霖打得有些乱，再次让扎多诺取得2比0的领先。好在徐诗霖没有给对手翻盘的机会，最终以6比3拿下第二盘。“很想尽快进入比赛节奏，因此两盘比赛的开局打得都有些乱。”获得首战胜利的徐诗霖在赛后表示，本次比赛的每位对手都很强，之前也都交过手，碰到谁都会最努力去打。此次首届国际网联青少年大师赛，徐诗霖以2014年年终青少年排名第一的身份，获得首届青少年大师赛头号种子身份，被寄予厚望。她表示，如果能成为国际网联历史上首位青少年大师，也算转向成人赛的一个好兆头。“今年只参加青少年大师赛以及大满贯的青少年比赛，我渴望尽快参加到成人WTA比赛中去。”徐诗霖1998年出生在广东，9岁时被当网球教练的父亲送到美国，11岁时拿到美国国际网球学校的奖学金。2014年，徐诗霖在南京青奥会夺得女单冠军，逐渐为人所识。</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CHENGDU, April 3 (Xinhua) - The inaugural International Tennis Federation (ITF) Junior Masters, organized by the International Tennis Federation (ITF) to promote the development of youth tennis worldwide on the occasion of its centenary, kicked off in Chengdu, Sichuan Province on the 3rd. In the opening match, the top seed in the women's singles, Chinese player Xu Shilin, defeated Spanish player Belsova Zadono in straight sets with scores of 6-3, securing her first victory. The International Tennis Federation Junior Masters is a brand-new top-level tennis event established by the ITF to promote the development of youth tennis worldwide. It is the highest-level youth tennis event hosted by the ITF, featuring the top 8 young male and female players in the world rankings for that year. In the afternoon match on the same day, Xu Shilin did not have a smooth start, allowing Zadono to take a 2-0 lead in games. As the match progressed, Xu Shilin gradually took control and won the first set 6-3. In the first two games of the second set, Xu Shilin, who had the advantage, played a bit erratically, allowing Zadono to take a 2-0 lead again. Fortunately, Xu Shilin did not give her opponent a chance to turn the tables and eventually won the second set 6-3. "I really wanted to get into the rhythm of the match quickly, so the start of both sets was a bit messy," said Xu Shilin, who won her first match. She added that all her opponents in this competition are strong, and she has faced them before. She will give her best effort against anyone she faces. As the top seed in the inaugural ITF Junior Masters, Xu Shilin, who finished the year 2014 as the top-ranked junior player, is highly anticipated. She expressed her hope to become the first junior master in ITF history, which would be a good sign for her transition to adult tournaments. "This year, I will only participate in junior master tournaments and junior Grand Slam events. I am eager to compete in adult WTA tournaments as soon as possible." Born in Guangdong in 1998, Xu Shilin was sent to the United States by her father, a tennis coach, at the age of 9. At the age of 11, she received a scholarship from an international tennis school in the United States. In 2014, Xu Shilin won the singles championship at the Nanjing Youth Olympic Games, gradually gaining recognition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>在美国大多数城市开车摁喇叭是明令禁止的行为，催促其他车辆快行而按喇叭也易遭他人反感，碰上暴脾气的车主，被回敬几句还是小意思，情况严重的甚至引来杀身之祸。美国休斯顿北部郊区近日就发生这样一起血案，一位女司机在开车途中对一辆白色 SUV 按喇叭，对方开车尾随至其汽车右边，伸出一支枪将其爆头。中枪后，女司机将汽车开到 45 号洲际公路一边，拨打 911 电话报警。幸运的是，女司机目前伤势已基本稳定正在医院接受康复治疗，但女司机丈夫还是心有余悸，称妻子能够幸存就是一个奇迹。 据警方披露，开枪射击女司机的是一名戴蓝色帽子的男子，警方呼吁市民积极提供线索，但也警告，不要同嫌犯过多接触，甚至不要多看他一眼。不排除男子患有暴躁症等精神性疾病。开车鸣笛不算违法行为，但开车不鸣笛是文明开车所倡导的，交管部门通常也会在繁华路口树立“禁止鸣笛”警示标志，但在国内，不管是车主或路人素质太差，还是出自善意的提醒，鸣笛现象很普遍。深圳机场 301 事故，在深圳交警出面辟谣前，对于奔驰女车主开车突然失控的原因，网传是因后方车辆突然多次鸣笛让其情绪紧张所致。在评论的网友中，不少人就从亲身体验的角度表达了对这种行为的鄙视和痛恨。此外，媒体曾报道过这样一个案例，一位大学老师因一位老人挡道，摁了两次喇叭提醒其让道，前两次老人没反应，老师就又摁了一次，这次老人往旁边让了让，但教师将车开到前方时，老人手里的儿童车也砸到了自己的车上。教师下车查看车损情况，老人几次想砸车被阻止后，干脆扒掉了老师的衣服和裤子，老师长裤没保住，内裤也被扯了下来，可谓斯文扫地，闹尽了笑话。事后媒体就此事征集网友意见，大部分人虽认为老人倚老卖老，行为太过，但也支持是大学老师错误在先，不该在闹市多次鸣喇叭。除了鸣喇叭，车主在日常开车时其实还有许多小细节需要遵守，这里小编就为大家简单盘点一番：1、礼让行人 在国外，法律规定行人具有绝对的路权，从来只有车让人，没有人让车，如果你和行人抢道，等待你的将不仅是高额罚款，严重的还可能会有牢狱之灾。而在中国，除了在斑马线有这样的规定，在其他路段车主和行人抢道的情况可不少见，虽然乱冲乱撞的行人确实让人头疼，更不用说经典的中国式过马路，但在安全性保障方面，车主相比行人确实更占优势，从这方面来说，车主不妨更宽容一些，多些礼让，多些善意。</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>In most cities in the United States, honking while driving is strictly prohibited. Honking to urge other vehicles to move faster is also likely to be met with disapproval. Encountering a driver with a bad temper, being responded to with a few words is minor, but in serious cases, it may even lead to fatal consequences. Recently, a bloody incident occurred in the northern suburbs of Houston, where a female driver honked at a white SUV while driving. The other party followed her car to the right side, extended a gun, and shot her in the head. After being shot, the female driver pulled over to the side of Interstate 45 and called 911 to report the incident. Fortunately, the female driver's injuries are now stable and she is receiving treatment in the hospital. However, her husband is still traumatized, calling his wife's survival a miracle. According to the police, the man who shot the female driver was wearing a blue hat. The police are urging citizens to provide clues actively, but also warning not to have too much contact with the suspect, and not even to look at him more. It is not ruled out that the man may suffer from mental illnesses such as irritability. Honking while driving is not considered illegal, but driving without honking is advocated for civilized driving. Traffic management departments usually set up "No Honking" warning signs at busy intersections. However, in China, whether it is due to poor quality of car owners or pedestrians, or out of well-intentioned reminders, honking is very common. Before the Shenzhen Airport 301 incident was clarified by the Shenzhen traffic police, the reason for the sudden loss of control by the Mercedes-Benz female driver was rumored on the internet to be due to the repeated honking from the vehicles behind, causing her to become nervous. Among the commenters, many expressed their disdain and hatred for such behavior from their own experiences. In addition, the media once reported a case where a university teacher honked twice to remind an elderly person blocking the road to make way. The elderly person did not respond the first two times, so the teacher honked again. This time, the elderly person moved aside, but when the teacher drove past, the child's stroller in the elderly person's hand hit the teacher's car. When the teacher got out of the car to check the damage, after the elderly person was stopped from trying to hit the car several times, he simply tore off the teacher's clothes and pants. The teacher's trousers did not hold up, and even the underwear was pulled down, causing embarrassment and making a joke out of the situation. Afterwards, the media collected opinions from netizens on the incident. Although most people believed that the elderly person was being unreasonable and their behavior was excessive, they also supported that the university teacher was wrong first and should not have honked multiple times in a busy area. In addition to honking, there are many small details that car owners need to follow in their daily driving. Here, the editor will briefly list a few for everyone: 1. Yield to pedestrians. In foreign countries, the law stipulates that pedestrians have absolute right of way. It has always been a case of cars giving way to pedestrians, not the other way around. If you compete with pedestrians for the road, what awaits you will not only be a hefty fine, but in severe cases, you may even face imprisonment. In China, apart from the rules at zebra crossings, situations where car owners and pedestrians compete for the road are not uncommon. Although pedestrians who jaywalk and cause chaos can indeed be headache-inducing, not to mention the classic Chinese way of crossing the road, in terms of safety, car owners do have the upper hand compared to pedestrians. From this perspective, car owners may as well be more tolerant, show more courtesy, and more goodwill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2016年10月29日，江淮旗下全能商务MPV瑞风M4在太原晋祠国宾馆正式上市，售价区间为9.98-12.98万元。有着“自由空间、智能高效、安全舒适、全能商务”核心优势的瑞风M4被视作是江淮旗下畅销十五年之久的“瑞风”系列MPV的最新力作，在继承了后者的口碑和品质积淀之外，进一步全面升级产品力。瑞风M4的上市，有望打破现有的MPV市场竞争格局，引领MPV市场进入价值竞争新时代。 上市发布会当天，停车场的实车展示，会场门口的模特与M4亲密接触，都足以展现瑞风M4的卓越。活动开场便引起到场嘉宾的惊呼声，更有老车主分享受TA们与瑞风M4的故事，TA们有个共同的心声就是：每一次收获的喜悦、收获总离不开瑞风的相伴。 与时代共前行 十五年瑞风MPV演绎公商务经典在国内MPV市场，“瑞风”二字可以说是经典好车的代表。自2002年推出以来，江淮瑞风MPV就伴随着中国经济发展的步伐一路向前。历经时代变迁，瑞风MPV也在持续升级，并凭借优秀的品质与空间表现获得越来越多消费者的青睐。而瑞风MPV的用户群体，也成为了过去十五年中国经济发展的重要贡献者，与瑞风MPV一同见证了时代的腾飞。在助力一代又一代筑梦者实现事业蓝图的过程中，与时俱进、追求卓越已深深植入瑞风MPV的基因。而随着时代大潮进入新的河道，消费升级成为不可逆转的主流，瑞风MPV的不断进化也从量变转入质变。江淮基于长达十五年深耕MPV市场的洞察，及时捕捉了消费者对于公商务用车需求升级的趋势，并隆重推出全新车型瑞风M4，更好地契合了新时代背景下的用户需求。 自由空间 智能商务 瑞风M4价值升华有着十五年70万用户的深厚积淀，使“MPV制造专家”江淮对市场需求的动态把握更为精准。瑞风M4作为“瑞风MPV”金字招牌的继承者，在公商务用车的多元需求都进行了针对性的满足，以“全能商务MPV”的实力为消费者提供高价值的选择。为满足时下商务人士对“时尚简约、商务韵致”的需求，瑞风M4坚持用超高品质标准打造，外观造型上更具商务质感和商务档次，简约大方的内饰风格符合时下商务用车审美潮流。 瑞风MPV家族的空间优势在瑞风M4身上展现得更为突出，基于大尺寸车身的特质，座椅组合方式多达20种、储物空间多达36处，还有足可容纳6只24寸箱子的超大后备箱，提供了极大的空间自由度。 针对新时代的公商务用车场景，瑞风M4尤为注重智能舒适和安全体验。</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>On October 29, 2016, JAC's versatile business MPV, Ruifeng M4, was officially launched at the Jinxi State Guesthouse in Taiyuan, with a price range of 9.98-12.98 million yuan. With core advantages of "freedom of space, intelligent efficiency, safety and comfort, versatile business," Ruifeng M4 is considered the latest masterpiece of the "Ruifeng" series MPV, which has been a bestseller under JAC for fifteen years. In addition to inheriting the reputation and quality of its predecessor, Ruifeng M4 further comprehensively upgrades its product strength. The launch of Ruifeng M4 is expected to break the existing MPV market competition pattern and lead the MPV market into a new era of value competition. On the day of the launch event, the real car display in the parking lot and the models interacting closely with the M4 at the entrance of the venue were enough to demonstrate the excellence of Ruifeng M4. The opening of the event immediately drew exclamations from the guests present, and there were also old car owners sharing their stories with Ruifeng M4, all echoing a common sentiment: every joy they have gained cannot be separated from the companionship of Ruifeng. Moving forward with the times, for fifteen years, Ruifeng MPV has interpreted the classic of public and business affairs in the domestic MPV market. The word "Ruifeng" can be said to represent classic good cars. Since its launch in 2002, JAC Ruifeng MPV has been advancing with the pace of China's economic development. Through the changes of the times, Ruifeng MPV has continued to upgrade, and with its excellent quality and spatial performance, it has gained more and more favor from consumers. The user group of Ruifeng MPV has also become an important contributor to China's economic development over the past fifteen years, witnessing the take-off of the times together with Ruifeng MPV. In the process of helping generations of dream builders realize their career blueprints, the pursuit of progress and excellence has been deeply ingrained in the genes of Ruifeng MPV. As the tide of the times enters a new channel and consumption upgrade becomes an irreversible trend, the continuous evolution of Ruifeng MPV has shifted from quantitative to qualitative changes. Based on insights gained from fifteen years of deep cultivation in the MPV market, JAC has timely captured the trend of consumers' upgrading demands for public and business vehicles, and grandly launched the new model Ruifeng M4, better catering to the needs of users in the new era. Freedom of space, intelligent business, Ruifeng M4's value sublimation has a profound accumulation of 700,000 users over fifteen years, making JAC, the "MPV manufacturing expert," more accurately grasp the dynamic market demand. As the successor of the "Ruifeng MPV" gold signboard, Ruifeng M4 has targeted the diverse needs of public and business vehicles, providing consumers with high-value choices as a "versatile business MPV." To meet the current demands of business people for "fashionable simplicity and business elegance," Ruifeng M4 insists on creating with ultra-high quality standards, with an exterior design that exudes a sense of business and class, and a simple and generous interior style that conforms to the aesthetic trend of current business vehicles. The spatial advantages of the Ruifeng MPV family are more prominent in Ruifeng M4, with up to 20 seat combinations, 36 storage spaces, and an oversized trunk that can accommodate up to 6 24-inch suitcases, providing great spatial freedom. For the new era of public and business vehicle scenarios, Ruifeng M4 pays special attention to intelligent comfort and safety experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>衡水新闻网－衡水日报讯（记者李雅洁）7月22日至23日，衡水市委常委、组织部长陈学民就防汛工作到桃城区进行检查指导，现场察看了滏阳新河侯庄节制闸、滏阳新河北堤、滏东排河，详细了解泄洪情况，检查防汛值守备勤工作，对入汛以来的防汛情况进行深入了解，并就做好当前防汛工作提出具体要求。陈学民指出，当前我市已全面进入主汛期，特别是近期降雨强度大，且受上游水库分流泄洪影响，防汛形势十分严峻。各级各部门要做到思想认识到位，站在全市经济社会发展和人民群众生命财产安全的高度，充分认识做好防汛工作的重要性，坚决克服麻痹思想和侥幸心理。要制定好应急预案，切实按照习近平总书记关于防汛工作的六点要求和市委决策部署，采取有效措施，科学应对漫堤、内涝等可能发生的情况，确保各项工作万无一失。要把责任落实到位，任务具体到人，大堤每一段都要有人巡查，做到24小时值守。要密切关注汛情变化，及时与上级指挥部门沟通联系，随时汇报我市泄洪防汛情况，为上级决策部署提供科学参考。物资人员准备要到位，物资品种、调运车辆备足备充分，人员保持信息畅通、随时待命，关键时候冲得上去，确保顺利度过汛期。</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Hengshui News Network - Hengshui Daily News (Reporter Li Yajie) From July 22nd to 23rd, Chen Xuemin, member of the Standing Committee of the Hengshui Municipal Party Committee and Minister of Organization, conducted inspections and guidance on flood prevention work in Taocheng District. He conducted on-site inspections at Houzhuang Regulating Gate of Fuyang New River, the north dike of Fuyang New River, and Fudong Drainage Canal, thoroughly understood the flood discharge situation, inspected flood prevention duty and vigilance work, deeply understood the flood prevention situation since the beginning of the flood season, and made specific requirements for the current flood prevention work. Chen Xuemin pointed out that our city has fully entered the main flood season, especially with recent heavy rainfall and the impact of flood discharge from upstream reservoirs, the flood prevention situation is very severe. All levels of departments must have a correct understanding, stand at the height of the city's economic and social development and the safety of people's lives and property, fully realize the importance of doing a good job in flood prevention, resolutely overcome any complacency and luck mentality. Emergency plans must be formulated, effectively implement the six requirements of General Secretary Xi Jinping on flood prevention work and the decisions and deployments of the Municipal Party Committee, take effective measures, scientifically respond to possible situations such as embankment breaches and waterlogging, ensure that all work is foolproof. Responsibilities must be implemented, tasks must be assigned to specific individuals, every section of the embankment must be patrolled by personnel, ensuring 24-hour vigilance. Pay close attention to changes in flood situations, communicate and report the city's flood prevention situation to higher-level command departments in a timely manner, provide scientific references for higher-level decision-making and deployments. Material and personnel preparations must be in place, with sufficient variety of materials, adequate transportation vehicles, personnel maintaining smooth communication, ready at all times, and able to respond promptly during critical moments to ensure a smooth passage through the flood season.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>他是流行乐坛重量级的人物他是全中国最出色的当代作曲家之一他是内地流行音乐界、名副其实的“跨界音乐大师”——李海鹰他创作的《弯弯的月亮》风靡全球华人音乐界 SURPRISE10月22日下午3点，由成都市文联、《国家大剧院》杂志社主办，成都经典汇文化传播有限公司承办的大型公益类《经典艺术名家讲坛》第十三期将在经典汇.艺术剧场举办。届时，将由当代流行音乐跨界大师、著名作曲家——李海鹰带领听众一起开启美妙音乐之旅！（文末有福利） 李海鹰1954年生于广州。他从小喜欢音乐，很早就显露出音乐才华。1970年，他才16 岁就进入广州粤剧团，当上了小提琴手兼创作员。5年以后，他成为中国海军南海舰队政治部文工团的小提琴手兼创作员。1982年底到1997年3月，他在广东音乐曲艺团当创作员。从1997年4月起，他担任了广东电视台的音乐总监。他著有多个作品：《我不想说》、《弯弯的月亮》、《七子之歌》，电影《鬼子来了》，电视剧《亮剑》配乐。---李海鹰简介李海鹰主要歌曲创作年表1. 《梦江南》1986年——朱晓琳唱片专辑主打歌。2. 《梅花雪》1987年——杨钰莹唱片专辑。3.《弯弯的月亮》1989年——央视第一部电视音乐片(MTV)《大地情语》。刘欢成名曲。1991年——作曲家首度与香港唱片公司合作，由吕方演唱国语及粤语版。4.《走四方》1993年——电视连续剧《一路黄昏》主题歌。韩磊成名曲。歌曲表现了上世纪八九十年代，随着社会的发展开始的全国人口大流动。5. 《花落花开》1993年——电视连续剧《花落花开》主题歌。刘欢演唱。6.《过河》1996年——央视1996春节晚会。潘长江代表作。7. 《七子之歌》1999年——央视纪录片《澳门岁月》主题歌。1999年澳门回归48小时直播唯一主题音乐。8. 《跨越九九》1999年——央视元旦晚会。蔡国庆、井冈山、林依轮演唱。9. 音乐剧《寒号鸟》2000年——获全国第四届优秀儿童剧展演“优秀剧目奖”、中宣部“五个一工程奖”、文化部“第十届文华奖新剧目奖”、韩国国际青少年艺术节唯一“荣誉奖”。杭州越剧院演出。10. 《千年钟声》2000年——央视2000年元旦晚会主题歌。刘欢演唱。11. 《少年英雄小哪吒》2004年——CCTV52集动画电视连续剧《哪吒》片尾主题歌。 12. 《爱如空气》2005年——电视连续剧《幸福像花儿一样》主题歌及音乐。</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>He is a heavyweight figure in the pop music industry. He is one of the most outstanding contemporary composers in China. He is Li Haiying, a true "cross-border music master" in the mainland pop music scene. His creation "Curved Moon" has swept the global Chinese music scene. SURPRISE On the afternoon of October 22nd, the 13th large-scale public welfare "Classic Art Masters Lecture Hall" organized by Chengdu Literary Federation and "National Grand Theater" magazine, and hosted by Chengdu Classic Exchange Cultural Communication Co., Ltd. will be held at the Classic Exchange Art Theater. At that time, contemporary pop music cross-border master and renowned composer Li Haiying will lead the audience to embark on a wonderful musical journey together! (There are benefits at the end of the article) Li Haiying was born in Guangzhou in 1954. He has loved music since he was young and showed musical talent at an early age. In 1970, at the age of 16, he joined the Guangzhou Cantonese Opera Troupe as a violinist and composer. Five years later, he became a violinist and composer in the Political Department Art Troupe of the South Sea Fleet of the Chinese Navy. From the end of 1982 to March 1997, he worked as a composer in the Guangdong Music and Opera Troupe. Since April 1997, he has served as the music director of Guangdong TV Station. He has created many works such as "I Don't Want to Say", "Curved Moon", "Song of Seven Sons", the movie "Devils on the Doorstep", and the TV series "The Bright Sword" soundtrack. ---Li Haiying's Profile Li Haiying's main song creation timeline: 1. "Dream of Jiangnan" in 1986 - Zhu Xiaolin's album title track. 2. "Plum Blossom Snow" in 1987 - Yang Yuying's album. 3. "Curved Moon" in 1989 - the first TV music video (MTV) "Earthly Love Language" on CCTV. Liu Huan's famous song. In 1991, the composer cooperated with a Hong Kong record company for the first time, and it was sung in Mandarin and Cantonese by Lu Fang. 4. "Traveling in All Directions" in 1993 - theme song of the TV series "Twilight All the Way". Han Lei's famous song. The song reflects the large-scale population movement in the late 1980s and 1990s with the development of society. 5. "Flowers Falling and Blooming" in 1993 - theme song of the TV series "Flowers Falling and Blooming". Sung by Liu Huan. 6. "Crossing the River" in 1996 - CCTV 1996 Spring Festival Gala. Pan Changjiang's representative work. 7. "Song of Seven Sons" in 1999 - theme song of the CCTV documentary "Years in Macau". The only theme music for the 48-hour live broadcast of Macau's return in 1999. 8. "Crossing the Ninety-Nine" in 1999 - CCTV New Year's Gala. Sung by Cai Guoqing, Jinggangshan, and Lin Yilun. 9. Musical "Cold Bird" in 2000 - won the "Excellent Play Award" at the 4th National Children's Drama Exhibition, the "Five One Project Award" of the Central Propaganda Department, the "10th Wenhua Award for New Plays" of the Ministry of Culture, and the only "Honorary Award" at the South Korea International Youth Arts Festival. Performed at the Hangzhou Yue Opera Theater. 10. "Thousand-Year Bell Sound" in 2000 - theme song of CCTV's 2000 New Year's Gala. Sung by Liu Huan. 11. "Young Hero Nezha" in 2004 - end theme song of the 52-episode animated TV series "Nezha" on CCTV. 12. "Love Like Air" in 2005 - theme song and music of the TV series "Happiness is Like a Flower".</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>第28届中国(佛山)国际陶瓷及卫浴博览交易会(以下简称“陶博会”)已火热开幕。陶瓷行业各大品牌纷纷登台竞技，通过该舞台展示世界建陶最新、最先进的产品和技术。敢为人先创新不止作为此次陶博会期间的一大亮点，东鹏瓷砖2016年度新品发布会于19日下午在中国陶瓷总部基地隆重举行。此次发布会高端云集，吸引了数百位行业权威专家、国际设计大师及权威媒体的关注，一同展开思想的碰撞、智慧的交锋，可谓是行业的一场饕餮盛宴。发布会上，中国建筑卫生陶瓷协会会长叶向阳先生对东鹏开拓进取的精神和创新的产品技术表达了充分的认可，叶会长说：“我对东鹏的开拓创新精神和取得的骄人业绩深感由衷的高兴，并对东鹏的未来发展充满期待，充满信心！” 东鹏集团董事长何新明亲自挂帅发表了一番激情澎湃的新品主题演讲，何新明回顾了东鹏诞生以来的重大创新历程，从金花米黄、天山石、洞石到世界之美，每一次创新都让行业轰动，每一个创新产品，都让行业争相模仿。何新明指出，创新是东鹏的基因，敢为人先，是东鹏赖以发展壮大最核心的竞争力。只有不断创新，才能为品牌持续注入生命力；只有不断创新，才能让中国陶瓷赢得世界尊重。三大新品 颠覆来袭好产品成就品牌领先地位，好产品就是品牌领先的风口。新品发布环节，何新明向行业展示了东鹏2016年的三大创新成果。 1.原石2.0+ 喷墨渗花领域新突破2015年，东鹏突破技术壁垒，率先进入喷墨渗花领域，领先推出原石品类，引领行业新一波创新潮流。此次重点发布的原石2.0+，是原石品类的大升级，实现了天然石材的随机纹理和通体质感，同时防污、耐磨、防滑性能大幅提升，是新一代的全能王。何新明指出，纵观国内外的建陶行业，喷墨渗花产品已成为下一个风口，东鹏在这个领域已经抢占先机，销量最高、产能最大、技术最成熟、推广最迅速、终端销售最火爆，这都是东鹏原石特有的标签。原石2.0+，将继续扩大领先优势，持续引领行业创新发展。2.干法制粉取得颠覆性创新会上何新明回顾了东鹏在干法制粉领域走过的历程，历时三年，破除艰难险阻无数，在东鹏山东基地验收成功。这是一件振奋人心的好事，有了干法制粉技术的成功经验，东鹏将面向行业全面普及，为有需求的企业提供全方位的技术支持。</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>The 28th China (Foshan) International Ceramic and Bathroom Fair (hereinafter referred to as "Ceramics Fair") has opened hotly. Major brands in the ceramic industry have taken the stage one after another to showcase the latest and most advanced products and technologies in the world of architectural ceramics. Innovation as a highlight during this Ceramics Fair, Dongpeng Ceramics' 2016 new product launch was grandly held on the afternoon of the 19th at the China Ceramics Headquarters Base. This launch attracted hundreds of industry authoritative experts, international design masters, and authoritative media, sparking collisions of ideas and clashes of wisdom, making it a veritable feast for the industry. At the launch, Mr. Ye Xiangyang, President of the China Building Sanitary Ceramics Association, expressed full recognition of Dongpeng's pioneering spirit and innovative product technology, saying, "I am sincerely delighted by Dongpeng's pioneering innovation spirit and remarkable achievements, and I am full of expectations and confidence in Dongpeng's future development!" Dongpeng Group's Chairman He Xinming personally led the way and delivered a passionate and inspiring keynote speech on the new products. He Xinming reviewed the significant innovation journey of Dongpeng since its inception, from Golden Flower Beige, Tianshan Stone, and Cave Stone to the beauty of the world, each innovation causing a sensation in the industry, and each innovative product being imitated by the industry. He Xinming pointed out that innovation is Dongpeng's gene, and being a pioneer is the core competitiveness for Dongpeng's development and growth. Only through continuous innovation can vitality be continuously injected into the brand; only through continuous innovation can Chinese ceramics win respect from the world. Three major new products are coming to lead the brand's leading position, and good products are the wind vane for leading brands. During the new product launch, He Xinming showcased Dongpeng's three major innovative achievements in 2016 to the industry. 1. Original Stone 2.0+: A new breakthrough in inkjet penetration flower field. In 2015, Dongpeng broke through technological barriers, leading the way into the inkjet penetration flower field, and took the lead in launching the Original Stone category, leading a new wave of innovation in the industry. The highlighted Original Stone 2.0+ is a major upgrade of the Original Stone category, achieving the random texture and overall texture of natural stone, while significantly improving anti-fouling, wear resistance, and anti-slip properties, making it a new generation of all-around king. He Xinming pointed out that looking at the ceramic industry at home and abroad, inkjet penetration flower products have become the next trend, and Dongpeng has taken the lead in this field, with the highest sales volume, largest production capacity, most mature technology, fastest promotion, and hottest terminal sales, all of which are unique labels of Dongpeng's Original Stone. Original Stone 2.0+ will continue to expand its leading advantage and continuously lead the industry's innovative development. 2. Revolutionary innovation in dry powder production. He Xinming reviewed Dongpeng's journey in the field of dry powder production at the meeting, which took three years to overcome numerous difficulties and was successfully accepted at Dongpeng's Shandong base. This is an exciting development. With the successful experience of dry powder production technology, Dongpeng will comprehensively promote it to the industry and provide all-round technical support to enterprises in need.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>四川在线消息(何浩源记者江芸涵)7月19日，“黄金海岸嗨乐课堂：中国学生大使招募赛”颁奖仪式在成都举行，12名优胜者将于7月23日晚上8点从成都出发，到澳大利亚黄金海岸市免费游学。游学的期限为两周，期间，黄金海岸教育局和相关合作方将负责提供免费英语及学术课程、免费往返商务舱国际机票、免费食宿和免费周末度假休闲精彩体验。据了解，该活动2015年11月正式启动，吸引了来自高校、职业院校、中学在内的1500多位同学的积极参加，经过层层筛选、电话复试和视频面试，2016年2月11日最终确定了12位优胜者，这些优胜者主要来自成都的学校。成都与澳大利亚黄金海岸市于2014年10月建立友好合作关系，2015年7月，成都教育局与澳大利亚黄金海岸市教育推广署签定了协议，致力于推进黄金海岸教育市针对成都学生开展游学竞赛活动。本次招募赛是两市教育交流推广活动之一，也是黄金海岸教育局“中国遇上黄金海岸：教育知行”系列活动的第一个项目。黄金海岸仍将继续为中国学生提供了解黄金海岸、体验黄金海岸的机会，感兴趣的同学可以关注黄金海岸官方微信“留学黄金海岸：studygc”，或者关注黄金海岸的官方微博：http://weibo.com/studygc。</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sichuan Online News (Reporter He Haoyuan, Jiang Yunhan) On July 19th, the award ceremony of "Gold Coast Fun Classroom: Chinese Student Ambassador Recruitment Competition" was held in Chengdu. Twelve winners will depart from Chengdu at 8 p.m. on July 23rd to study abroad for free in Gold Coast, Australia. The study period will be two weeks. During this time, the Gold Coast Education Bureau and related partners will provide free English and academic courses, free round-trip business class international air tickets, free accommodation and meals, and free weekend leisure experiences. It is understood that the event was officially launched in November 2015, attracting more than 1,500 students from universities, vocational colleges, and high schools to actively participate. After layers of selection, phone interviews, and video interviews, 12 winners were finally confirmed on February 11, 2016. These winners are mainly from schools in Chengdu. Chengdu established a friendly cooperation relationship with Gold Coast, Australia in October 2014. In July 2015, the Chengdu Education Bureau and the Education Promotion Bureau of Gold Coast, Australia signed an agreement to promote study tours for Chengdu students in Gold Coast. This recruitment competition is one of the educational exchange and promotion activities between the two cities, and also the first project of the Gold Coast Education Bureau's "China Meets Gold Coast: Education in Action" series of activities. Gold Coast will continue to provide opportunities for Chinese students to learn about and experience Gold Coast. Interested students can follow the official WeChat account of Gold Coast "Study Gold Coast: studygc" or follow Gold Coast's official Weibo account: http://weibo.com/studygc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 每日提示：买进口商品更实惠，还能赚钱！??违章免费查询、快速代办点这里??奔驰C200（1.8T手自一体）汕头户，2010年3月上牌，香槟色，手自一体，天窗，Cd，前排座椅电动调节，8气囊，电动玻璃升降，电动后视折叠镜，多功能方向盘，皮座，驻车测距，一手车，年审至2017年3月。车主开价：14.8万联系电话：13809659643 长按下方二维码有惊喜~== 关于我们 ==汕头河东狮，专注二手车领域15年，以“不赚差价”的二手车经纪模式，将差价让利给买卖双方。汕头二手车门户公众平台功能：每天发布最新二手车信息 | 专人汽车评估 | 大量二手车信息查询 | 违章查询 | 年票查询 | 车船税查询 | 汽车资讯 |微信公众账号：hdscar关注微信，每天提供最新二手车信息，汽车违章查询。</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Daily Tip: Buying imported goods is more cost-effective and can even make money! ?? Free query for traffic violations, quick agency service click here ?? Mercedes-Benz C200 (1.8T automatic manual integration) Shantou household, registered in March 2010, champagne color, automatic manual integration, sunroof, CD, front seat electric adjustment, 8 airbags, power windows, electric folding mirrors, multifunction steering wheel, leather seats, parking distance control, one-owner car, annual inspection valid until March 2017. Owner's asking price: 148,000 yuan Contact number: 13809659643 Long press the QR code below for surprises~== About Us == Shantou Hedong Lion, focusing on the field of used cars for 15 years, with a second-hand car brokerage model of "no profit margin", passing on the profit margin to both buyers and sellers. Shantou's second-hand car portal public platform functions: daily release of the latest used car information | professional car assessment | extensive used car information query | violation query | annual ticket query | vehicle and vessel tax query | car news | WeChat public account: hdscar Follow WeChat for daily updates on the latest used car information and car violation queries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>要保证我们吃的食物是本地有机作物并不总是一件容易的事，在非常需要作物生长空间的大城市尤为如此。FreightFarms和Cropbox等公司已经想出了解决办法。他们将集装箱改造成了农场。我们曾见过各种用途的集装箱，也听过集装箱农场这个概念。Freight Farms和Cropbox等公司将这一概念付诸实践。 这种集装箱的共同开发者中还包括专门研究溶液培养技术的公司，这种技术利用矿物质而非土壤来培养作物。这意味着作物的产量将不再受到天气的影响，作物生长的环境也可由人来定制。据Cropbox透露，这类系统比起传统种植方法，可节省百分之90的水。这种集装箱农场中还会安装LED灯，比起其它光照方法，这种方法也更有利。一般说来，Freight Farms公司生产的每个集装箱平均每年需消耗3万千瓦时的电量。Freight Farms和Cropbox公司均会为用户提供手机APP，用户可通过这个程序来控制集装箱中的环境。类似于水、空气质量和和温度也能被该程序监测到，并通过智能手机进行调控。 Freight Farms公司生产的集装箱为植物的不同生长阶段设计了指定空间，其中包括2500株植物从萌发到生长到幼苗的空间以及256个能容纳4500多株成熟植物的垂直塔。与此同时，Cropbox表示他们生产的集装箱能容纳3000株植物。客户可只购买一个集装箱，集装箱的优势之一在于它们可堆叠。这意味着人们可在堆叠的农场里创造高密度及高产的农场。Freight Farms公司自2010年就在研发集装箱农场，直到最近他们才推出最新版本的集装箱农场。这种集装箱的售价为7.6万美元起，顾客可选择贷款。而Cropbox公司的集装箱每个售价49347美元，顾客也可选择以999美元一个月的价格租赁。</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Ensuring that the food we eat comes from local organic crops is not always an easy task, especially in densely populated cities where crop growing space is highly needed. Companies like Freight Farms and Cropbox have come up with a solution by transforming shipping containers into farms. We have seen shipping containers used for various purposes and heard of the concept of container farms. Freight Farms and Cropbox, among others, have put this concept into practice. Among the developers of these containers are companies specializing in hydroponic technology, which uses minerals instead of soil to grow crops. This means that crop yields will no longer be affected by weather conditions, and the crop growing environment can be customized by humans. According to Cropbox, such systems can save up to 90% of water compared to traditional planting methods. LED lights are also installed in these container farms, which are more advantageous than other lighting methods. On average, each container produced by Freight Farms consumes 30,000 kilowatt-hours of electricity per year. Both Freight Farms and Cropbox provide users with a mobile app through which they can control the environment inside the container. Parameters such as water, air quality, and temperature can be monitored and adjusted through the smartphone app. Freight Farms' containers are designed with designated spaces for different stages of plant growth, including room for 2,500 plants from germination to seedlings and 256 vertical towers that can accommodate over 4,500 mature plants. Meanwhile, Cropbox states that their containers can hold 3,000 plants. Customers can purchase a single container, and one of the advantages of these containers is that they are stackable. This means that people can create high-density and high-yield farms in stacked farms. Freight Farms has been developing container farms since 2010, and they recently launched the latest version of container farms. The price of these containers starts at $76,000, with the option for customers to choose financing. Cropbox's containers are priced at $49,347 each, and customers can also choose to lease them for $999 per month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1、昨晚舍友洗澡回来，头发湿漉漉的，却不顾一切和我们谈天说地，说到高兴处，不禁错拿刚换下的红内裤擦拭头发。发现之后略显尴尬，欲换毛巾继续，可是脑子一抽，又拿起一条内裤，为了掩饰，他说这条是刚买的，没穿过呢，反正我是不知道，毕竟我不在意这些…… 2、我爷爷这些天，对隔壁得李奶奶，大献殷勤，甜言蜜语，糖衣炮弹，整个小区都知道了，搞得李奶奶的儿子，跑到我家抱怨，区里举行广场舞比赛，你家老爷子，为了能参赛，一直缠着我妈，你们也不管管!我爹一听，肺都气炸了，桌子一拍，丢人，不争气，跑那么勤快，竟然只是为了能参赛，这事儿必须管!! 3、媳妇:“老公，你干什么呢?”LZ:“和朋友聊天呢!”媳妇:“男的女的啊?”LZ:“不是女的，放心吧!男的”媳妇:“老公不然你还是和女的聊吧，你如果被女的拐跑了，我有信心在把你拐回来。如果你被一个男的拐跑了，我真一点信心都没有啊!” 4、上个月，嫂子二胎生个闺女，我哥和嫂子都喜欢的不得了，二人天天围着闺女转，小侄子有点情绪。昨天老妈去学校没接到人，全家出动，最后在学校附近找到了跟班上一个女生手拉手的小侄。原来那个小女孩家里添了个弟弟，父母也忽略了她，俩小家伙觉得大人们不爱他们了，决定一起私奔。。。。 5、一哥们马大哈，那年他哥结婚，到了日子，他买了广州到湖北老家的卧铺汽车车票，啥也没准备就上车走了。啥也没准备，衣服也没说多带一件，就穿着长袖T恤七分裤，脚踩一双沙滩鞋。第二天早晨到了镇上，车门拉开，沙滩鞋一脚踩下去，踩在雪地里…… 6、四岁的小外甥说:“舅舅，我把压岁钱放你这里存着吧，我爸老拿我钱买烟抽!”我说:“难道你就不怕舅舅拿你钱打酒喝吗?”小外甥说:“不怕!我可以告你!这不算大义灭亲!” 7、〝冰冰，你以后不要跟小雨在一起玩了。〞〝为什么呀，妈?〞〝她那么漂亮，你那么丑，你跟她在一起玩，还怎么能找得到男朋友。〞〝可是…妈，你上次还在张叔面前夸我漂亮的呀。〞〝那还不是因为你张叔一只眼失明，另一眼老花嘛…〞 8、我问闺蜜：“路痴是什么样的体验?”闺蜜：“大王都不敢让我去巡山，怕我回不来!” 9、昨晚去约pao，TT用了60，开房用了300，我提出AA制，正好每个人60。</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1. Last night, my roommate came back from taking a shower with wet hair, but disregarded everything and chatted with us. When he got excited, he couldn't help but mistakenly use his just removed red underwear to wipe his hair. After realizing this, he felt a bit embarrassed. He wanted to continue by changing to a towel, but his mind went blank, and he picked up another pair of underwear. To cover up, he said this pair was just bought and never worn, anyway I didn't know, after all, I don't care about these things... 
+2. These days, my grandpa has been very attentive to Mrs. Li next door, using sweet words and flattery. The whole neighborhood knows about it, making Mrs. Li's son come to my house to complain. The community is holding a square dance competition, and your grandpa has been pestering my mom to participate. You guys don't care! When my dad heard this, he was furious, slammed the table, saying it's embarrassing and shameful to be so diligent just to participate in the competition, this matter must be addressed!!
+3. Wife: "Honey, what are you doing?" Me: "Chatting with friends!" Wife: "Are they male or female?" Me: "Not female, don't worry! Male." Wife: "Honey, then you'd better chat with females. If a woman kidnaps you, I have confidence in getting you back. If a man kidnaps you, I really have no confidence at all!"
+4. Last month, my sister-in-law gave birth to a daughter for the second child. My brother and sister-in-law both love her very much, and they revolve around the daughter every day, making my nephew a bit emotional. Yesterday, my mom didn't find anyone to pick up at school, the whole family went out to search, and finally found my nephew holding hands with a girl from his class near the school. It turned out that the girl's family had a new baby boy, and her parents neglected her too. The two kids felt unloved by the adults and decided to elope together...
+5. A buddy of mine is so careless. When his brother got married that year, on the wedding day, he bought a sleeper bus ticket from Guangzhou to their hometown in Hubei, got on the bus without any preparation. He didn't prepare anything, didn't even bring an extra piece of clothing, just wore a long-sleeved T-shirt and cropped pants, with a pair of flip-flops on his feet. The next morning when they arrived in town, he stepped out of the bus, and his flip-flop landed in the snow...
+6. My four-year-old nephew said, "Uncle, I'll leave my lucky money with you, my dad always takes my money to buy cigarettes!" I said, "Aren't you afraid that I'll take your money to buy alcohol?" My nephew said, "No! I can report you! This is not considered filial piety!"
+7. "Bingbing, don't play with Xiaoyu in the future." "Why, Mom?" "She's so pretty, and you're so ugly. If you play with her, how can you find a boyfriend?" "But... Mom, you praised me for being pretty in front of Uncle Zhang last time." "That's because Uncle Zhang is blind in one eye and has presbyopia in the other eye..."
+8. I asked my best friend, "What's it like to be directionally challenged?" My friend replied, "Even the king doesn't dare to let me go mountain patrolling, afraid I won't come back!"
+9. Last night, when I went out for a run, I spent 60 on transportation, 300 on a hotel room. I suggested splitting the bill equally, which turned out to be 60 each.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>iPhone7的外形看够了，不妨再来看看iPhone7Plus和iPhone7Pro，三款新品放在一个画面中，是多么的美啊！现在有网友送出了一组iPhone7的新模型图，比较惊人的地方是，一同出镜的竟然还有iPhone7Plus和iPhone7Pro，三者看起来还是有少许区别的。从正面来看，三款iPhone基本一致，只是大小的区别。7 Plus和7 Pro正面看不出区别，而iPhone 7和7 Plus背部设计基本保持相同。 着重要说的有两点，iPhone 7 Pro才提供双摄像头，且底部有智能连接器（Smart Connecto），其双摄像头也是类似7和7 Plus上的火山口造型。三者看起来与之前曝光的细节和谍照都高度相似，但唯一个让人怀疑的地方是，三者背后竟然都带有“S”，这是要跳过iPhone 7，直接上iPhone 8的意思吗？看了这组图之后，是不是更加坚定了你必买iPhone 7 Pro的决心啊？当然按照这个趋势来看，7 Pro必然售价更贵，应该是iPhone 7系列的皇帝版了！</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Having seen enough of the appearance of iPhone 7, why not take a look at iPhone 7 Plus and iPhone 7 Pro as well? The three new models placed together in one frame look so beautiful! Now, some netizens have released a set of new model images of iPhone 7. The astonishing part is that iPhone 7 Plus and iPhone 7 Pro are also featured together, and there are slight differences among the three. From the front view, the three iPhones are basically the same, only differing in size. The front view of 7 Plus and 7 Pro shows no difference, while the back design of iPhone 7 and 7 Plus remains mostly the same. Two key points to emphasize are that iPhone 7 Pro offers dual cameras and a Smart Connector at the bottom, with the dual cameras having a volcano-like design similar to that on 7 and 7 Plus. The three models appear highly similar to the previously exposed details and spy photos, but the one suspicious aspect is that all three have an "S" on the back. Does this mean skipping iPhone 7 and going straight to iPhone 8? After seeing this set of images, does it strengthen your determination to buy iPhone 7 Pro? Of course, following this trend, 7 Pro will undoubtedly be more expensive, likely becoming the emperor version of the iPhone 7 series!</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>中新网成都7月26日电 (记者安源)记者今天从四川省检察院召开的新闻发布上会获悉，2016年1—6月，四川全省检察机关共立案侦查惠农扶贫领域职务犯罪454人，其中，涉嫌贪污贿赂犯罪418人，涉嫌渎职侵权犯罪36人。从整体上看，惠农扶贫领域职务犯罪仍然呈现易发多发态势，其蔓延势头尚未根本遏制。从本次通报的案件来看呈现五大特点：(一)主要为贪污、受贿犯罪。惠农扶贫领域职务犯罪多属贪利型犯罪，以虚报冒领等方式直接侵吞、挪用款物情况比较突出。立案侦查的454人中，涉嫌贪污的占44.93%；涉嫌受贿的占34.14%；涉嫌行贿的占5.27%；涉嫌滥用职权的占4.85%；涉嫌玩忽职守的占2.86%；涉嫌挪用公款的占1.54%。(二)乡镇站所和农村基层自治组织工作人员犯罪较为突出。所立案件中，县级以上党政机关工作人员占19.82%；乡镇党政机关、站所工作人员占20.48%；农村“两委”人员占46.04%；其他人员占13.66%。(三)涉案金额普遍不大但社会危害较大。立案查办涉嫌贪污贿赂犯罪的418人中，涉案金额不满5万的占11.72%；5万以上不满20万的占44.02%；20万以上不满100万的占37.08%；100万以上不满500万的占6.46%；500万以上的3人。由于截留侵吞的大多数是贫困群众甚至是低保户的“救命钱”，给原本贫困的群众生活带来重大影响，社会危害性较大。(四)共同犯罪占较大比重。惠农扶贫领域职务犯罪涉案人员为了获取非法利益，常相互勾结、欺上瞒下、合伙作案，群体腐败现象屡见不鲜。立案侦查的454人中，共同犯罪占50.88%，主要表现为：村基层组织人员与上级职能部门的公职人员串通，村党支部书记、村委会主任与村会计串通，党政机关工作人员或农村“两委”人员与村民、承销商、承包商串通，共谋利益，中饱私囊。(五)犯罪领域主要集中在农村基础设施建设、农村土地资源开发利用、惠农扶贫财政补贴资金、社保优抚、灾后重建扶持、农村义务教育等环节。立案侦查的454人中，涉及农村基础设施建设环节的占24.45%，涉及农村土地资源开发利用环节的占23.79%，涉及惠农扶贫财政补贴资金环节的占16.52%，涉及社保优抚环节的占7.05%，涉及灾后重建扶持环节的占6.39%，涉及农村义务教育环节的占5.95%。作者：安源</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Chengdu, July 26 (Xinhua) - Today, reporters learned from a press conference held by the Sichuan Provincial Procuratorate that from January to June 2016, a total of 454 people in the province were investigated and prosecuted for duty-related crimes in the field of agricultural and poverty alleviation. Among them, 418 were suspected of embezzlement and bribery, and 36 were suspected of dereliction of duty and infringement. Overall, duty-related crimes in the field of agricultural and poverty alleviation still show a trend of being easily committed and widespread, and the momentum has not been fundamentally curbed. The cases reported this time show five main characteristics: (1) mainly involving embezzlement and bribery crimes. Duty-related crimes in the field of agricultural and poverty alleviation are mostly profit-driven crimes, with a prominent situation of direct embezzlement and misappropriation through methods such as false reporting and fraudulent claims. Among the 454 people under investigation, those suspected of embezzlement accounted for 44.93%; those suspected of bribery accounted for 34.14%; those suspected of bribery accounted for 5.27%; those suspected of abuse of power accounted for 4.85%; those suspected of dereliction of duty accounted for 2.86%; and those suspected of misappropriation of public funds accounted for 1.54%. (2) Crimes by staff in township stations and grassroots rural autonomous organizations are more prominent. Among the cases filed, staff from county-level and higher party and government agencies accounted for 19.82%; staff from township party and government agencies and stations accounted for 20.48%; rural "two committees" members accounted for 46.04%; and other personnel accounted for 13.66%. (3) The amounts involved in the cases are generally not large but have a significant social impact. Among the 418 people investigated for embezzlement and bribery crimes, 11.72% involved amounts of less than 50,000; 44.02% involved amounts between 50,000 and less than 200,000; 37.08% involved amounts between 200,000 and less than 1 million; 6.46% involved amounts between 1 million and less than 5 million; and 3 individuals involved amounts over 5 million. Since most of the diverted and embezzled funds are the "life-saving money" of poor people, including even those receiving subsistence allowances, they have a significant impact on the lives of the originally impoverished people, posing a great social harm. (4) Joint crimes account for a significant proportion. In order to gain illegal benefits, personnel involved in duty-related crimes in the field of agricultural and poverty alleviation often collude, deceive, and commit crimes together, with group corruption being common. Among the 454 people under investigation, joint crimes accounted for 50.88%, mainly manifested as collusion between grassroots organizational personnel and superiors in functional departments, collusion between village party branch secretaries, village committee directors, and village accountants, collusion between party and government agency staff or rural "two committees" members and villagers, subcontractors, and contractors to conspire for personal gain. (5) The crimes mainly focus on rural infrastructure construction, rural land resource development and utilization, financial subsidies for agricultural and poverty alleviation, social security and preferential treatment, post-disaster reconstruction support, and rural compulsory education. Among the 454 people under investigation, 24.45% were involved in rural infrastructure construction, 23.79% were involved in rural land resource development and utilization, 16.52% were involved in financial subsidies for agricultural and poverty alleviation, 7.05% were involved in social security and preferential treatment, 6.39% were involved in post-disaster reconstruction support, and 5.95% were involved in rural compulsory education. By: An Yuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>很多女生都反映，跟某些男生聊天，分分钟都要原谅他200次才能继续聊下去。到本文末尾挑战-史上最强IQ测试题，你敢挑战吗？值此春暖花开，正是万物发……芽的季节。如何搭讪女生，想来是个十分重要的问题。不管为了人生大事还是家庭和睦，不妨都来看看聊天时男生哪句话会踩到女生雷区。1.不说了。没意思。（再配下面这个动作） 2.你要这么说我也没办法 3.“你们女生”系列： 你们女生都信星座吧？ 你们女生都爱逛街吧？ 你们女生都爱看韩剧/娱乐节目吧？ 你们女生…… 4.不熟的男生开带颜色的玩笑。（比如：你的胸蛮大的，衣服会紧吗？） 5.“你怎么连这个都不知道” 6.难怪你这么不讨男生喜欢 7.你为什么不理我？有什么不开心的事情吗？ 8.我觉得现在的女孩子总有点娇气/现在的女人都很现实（不要假装自己阅女无数，拜托拜托） 娇气不对，现实也不对！ 9. 女人真是麻烦 / 哎呀女孩子就是小气，玩笑都开不起。女生们回想下，每逢此时，是不是很想一巴掌甩对方脸上，有木有？ 10. 不能跟女人讲逻辑，女人都是感性动物。 11.你得让我有面子 12.我没钱你会爱我吗？13.好像是为你好，可听着让人炸毛： 你这么吃不怕胖啊——吃货女子准准的雷区，你这么说，我是吃还是不吃！不吃舍不得，吃得又心慌！ 我觉得你挺好的，为什么没对象呢？ 14.虽然你胖，但我不会嫌弃你——（女生内心：老娘还没嫌弃你呢） 15.最后，奉上两则找女生聊天的错误示范： 女：最近练车练的好累，寝室人都说我瘦了！ 男：没发现啊！倒是觉得你矮了不少！ 只看到矮，不管胖瘦，呵呵 男：早上吃的什么 女：……粥 男：中午吃的什么 我：……食堂 男：问你吃的什么呢 女：……饭 男：菜呢？光吃米饭啊？ 女：…… ——会不会聊天，就问一天吃的什么，问完还要加一句，吃这么多不怕胖啊。___________趣味IQ测试题：答案有些恐怖，慎入！电梯最多能乘坐10人，你正好是第10个，走进电梯后却超重了，你只好走出电梯，电梯门关上后，你想到了一件恐怖的事情，立即报警。 请问，怎么回事?提示1：当时是夏天，电梯里9人有男有女，没有孕妇，没有胖子，没有宠物。提示2：电梯顶部没有尸体。提示3：没有人携带拉杆箱之类可抛尸的。</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Many girls have reflected that when chatting with certain boys, they have to forgive him 200 times per minute in order to continue the conversation. By the end of this article, there is a challenge - the strongest IQ test in history. Do you dare to take the challenge? At this time when spring is warm and flowers are blooming, it is the season when all things are budding. How to start a conversation with a girl seems to be a very important question. Whether it's for major life events or family harmony, it might be helpful to see which sentences spoken by boys during conversations will touch upon girls' sensitive areas. 1. "I'm out. It's boring." (accompanied by the following action) 2. "If you say so, I can't help it." 3. "You girls" series: Do you girls all believe in horoscopes? Do you girls all love shopping? Do you girls all love watching Korean dramas/entertainment shows? You girls... 4. Unfamiliar boys making jokes with sexual innuendos. (For example: "Your chest is quite big, will your clothes be tight?") 5. "How come you don't even know this?" 6. "No wonder you're not liked by boys." 7. "Why are you ignoring me? Is there something bothering you?" 8. "I think girls nowadays are a bit delicate/nowadays women are very practical." (Don't pretend to have read countless women, please.) Being delicate is not right, being practical is not right! 9. "Women are really troublesome/Oh, girls are so petty, can't even take a joke." Girls, think back, at times like this, don't you feel like slapping the other person in the face, right? 10. "You can't reason with women, women are emotional creatures." 11. "You have to give me face." 12. "If I have no money, will you still love me?" 13. "It seems like it's for your own good, but it sounds annoying: You eat so much, aren't you afraid of getting fat?" - A definite sensitive area for foodie girls, when you say this, should I eat or not? I don't want to give up eating, but eating makes me anxious! "I think you're pretty good, why don't you have a partner?" 14. "Although you're fat, I won't dislike you." - (Girl's inner thoughts: I haven't disliked you yet) 15. Finally, here are two examples of how not to chat with a girl: Girl: "I've been practicing driving recently and it's so tiring, my roommates all say I've lost weight!" Boy: "I didn't notice! But I feel like you've gotten a lot shorter!" Only saw the shortness, regardless of weight loss or gain, hehe Boy: "What did you have for breakfast?" Girl: "...Porridge." Boy: "What about lunch?" Girl: "...Cafeteria." Boy: "I asked what you ate." Girl: "...Rice." Boy: "What about the dishes? Just eating rice?" Girl: "... - Can you chat by asking what someone ate all day, and after asking, add a sentence, 'Aren't you afraid of getting fat eating so much?' ___________ Fun IQ test question: The answer is a bit scary, enter with caution! The elevator can only carry up to 10 people, and you happen to be the 10th person. After entering the elevator, it becomes overweight, so you have to step out. After the elevator doors close, you think of something terrifying and immediately call the police. What happened? Hint 1: It was summer at the time, there were 9 people in the elevator, both men and women, no pregnant women, no overweight people, no pets. Hint 2: There is no body at the top of the elevator. Hint 3: No one was carrying a suitcase or anything that could contain a body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>B06版14日上午，内蒙古自治区高级人民法院依法公开开庭审理了上诉人（原审被告人）赵志红犯抢劫罪、盗窃罪的事实部分。对于赵志红犯故意杀人罪、强奸罪的事实部分及相关的抢劫罪事实部分，因涉及个人隐私，依照《中华人民共和国刑事诉讼法》第183条的规定，将不公开开庭审理。公开审理抢劫、盗窃犯罪14日上午的法庭审理，主要针对赵志红一起抢劫犯罪、两起盗窃犯罪进行了审理，即呼和浩特市中级人民法院一审判决认定的赵志红于1996年5月19日傍晚，到呼和浩特市新城区某小区对下班回家的池某某进行抢劫的犯罪事实；1998年11月13日下午、2000年3月4日下午，赵志红先后在呼和浩特市新城区撬门进入王某某、郭某某家，盗窃现金共计2980元的犯罪事实。在14日上午的公开审理中，包括呼格吉勒图父母、人大代表、政协委员、人民陪审员、各界群众及媒体记者共60余人旁听了庭审。赵志红9年坚持自己是真凶自2005年至今，赵志红到案后的9年多时间里，始终坚持自己为“4·9女尸案”的真凶。赵志红此举是否可认定为立功情节，并依法从轻处理？内蒙古自治区高级人民法院一相关人士向记者分析称，赵在九年中没有一次翻供，坚持自己是真凶的行为，确实对纠正呼格吉勒图冤案、侦破“4·9女尸案”发挥了重要的作用。但根据我国法律规定，赵志红的这个行为应定性为坦白情节，而不是立功。而且，赵志红的坦白情节只适用于“4·9女尸案”这一个案件，而在1996年4月至2005年7月间，赵志红在内蒙古自治区呼和浩特、乌兰察布两地连续实施故意杀人、强奸、抢劫、盗窃犯罪共计21起。赵志红的坦白情节不适用于除“4·9女尸案”以外的其他案件，对于他的最终量刑，法院、检察院需要综合考虑、衡量。该人士表示，他个人分析认为，赵志红的坦白情节尚不足以抵消他的死刑判决。追访赵志红母亲 就算判了死刑也不替他收尸昨天上午，儿子两次庭审都未参加的赵志红母亲刘爱女声音沙哑地告诉记者，“自从儿子被抓以后，为了怕再受刺激，就不想关心审判的事情，儿子上诉的事我都不知道。”她还称，“此时我心里很难过，法院虽然没当庭判他死刑，但我认为他最后肯定活不成，因为他作恶太多罪有应得。我没啥说的，我相信法院的判决是公正的，因为我相信法律。”说起对儿子的恨，她语气里同时也透着无奈，“我生了他的人，但我管不住他的心。他犯罪了，我难过得很，但我也没办法。</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>On the morning of the 14th of B06, the Inner Mongolia Autonomous Region Higher People's Court publicly held a court session to hear the facts of the appellant (the original defendant) Zhao Zhihong's involvement in the crimes of robbery and theft. Regarding the facts of Zhao Zhihong's intentional homicide and rape, as well as related parts of the robbery, due to privacy concerns, in accordance with Article 183 of the Criminal Procedure Law of the People's Republic of China, the court session will not be open to the public. The open trial on the morning of the 14th focused on the trial of Zhao Zhihong for one robbery crime and two theft crimes, specifically the crime where Zhao Zhihong was convicted of robbing Chi on the evening of May 19, 1996, in a residential area in Xincheng District of Hohhot; and the crimes of breaking into the homes of Wang and Guo in Xincheng District of Hohhot on the afternoons of November 13, 1998, and March 4, 2000, respectively, stealing a total of 2980 yuan in cash. During the open trial on the morning of the 14th, more than 60 people, including the parents of Huugjilt, deputies to the People's Congress, members of the CPPCC, people's jurors, representatives from various sectors, and media reporters, attended the court session. Zhao Zhihong has insisted for 9 years that he is the real culprit. Since Zhao Zhihong was arrested in 2005, he has consistently claimed to be the real culprit in the "4.9 female corpse case". Can Zhao Zhihong's behavior be considered as meritorious and be treated leniently according to the law? A relevant person from the Inner Mongolia Autonomous Region Higher People's Court analyzed to reporters that Zhao's behavior of not changing his statement for nine years and insisting on being the real culprit has indeed played an important role in correcting the wrongful conviction of Huugjilt and solving the "4.9 female corpse case". However, according to the laws of our country, Zhao Zhihong's behavior should be classified as a confession rather than a meritorious act. Furthermore, Zhao Zhihong's confession only applies to the "4.9 female corpse case", and between April 1996 and July 2005, Zhao Zhihong committed a total of 21 intentional homicides, rapes, robberies, and thefts in Hohhot and Ulanqab in Inner Mongolia Autonomous Region. Zhao Zhihong's confession does not apply to cases other than the "4.9 female corpse case", and for his final sentencing, the court and the procuratorate need to consider and weigh various factors. The person stated that in his personal analysis, Zhao Zhihong's confession is not enough to offset his death sentence. Interviewing Zhao Zhihong's mother: Even if he is sentenced to death, she will not claim his body. Yesterday morning, Zhao Zhihong's mother, Liu Aini, whose son did not attend the court session twice, hoarsely told reporters, "Since my son was arrested, I have been avoiding getting involved in the trial proceedings for fear of further emotional distress. I don't even know about his appeal." She also said, "I am very sad at this moment. Although the court did not sentence him to death on the spot, I believe he will not survive in the end because he has committed too many crimes and deserves punishment. I have nothing more to say. I believe the court's judgment is fair because I believe in the law." When talking about her hatred towards her son, she also expressed helplessness in her tone, "I gave birth to him, but I cannot control his heart. I am very sad that he committed crimes, but I can't do anything about it."</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4月4日，河北新河县三街小学的学生向董振堂烈士铜像敬献花篮。当日，河北省新河县许多干部群众和中小学生来到董振堂纪念馆祭扫，瞻仰董振堂铜像，参观董振堂事迹陈列馆，接受爱国主义教育和革命传统教育。新华社记者杨世尧摄中国兰州网4月5日消息 又到一年清明时。在中国人民抗日战争暨世界反法西斯战争胜利70周年的特殊年份里，让我们奉上清酒一杯、鲜花一捧，向先烈献祭，为英雄而歌。历史，总是在重要的时刻更能给人以反思与启迪。70年光阴荏苒，苦难的抗争、胜利的荣光早已熔铸为国家的集体记忆，时至今日依旧激荡着亿万人民的家国情怀、报国之志。“慎终追远，民德归厚矣。”祭奠，寄托着中国人对亲友的怀念、对先祖的感恩，更是为了在追忆中获得智慧，给生者以启示，为前行聚力量。此刻，在这个特殊的时间节点，向那些在民族危亡之际挺身而出、英勇而战的先烈致以深切缅怀，尤其具有深沉而厚重的历史意义。“愿以我血献后土，换得神州永太平”。北京人民英雄纪念碑，南京大屠杀纪念馆，沈阳观陵山公墓，云南国殇墓园…………大江南北、长城内外，每一处烈士陵园、纪念馆、纪念碑，无不镌刻着一个国家和民族为独立解放付出的巨大牺牲。面对穷凶极恶、无比残暴的日本侵略者，举国上下同仇敌忾、视死如归，以3500万军民伤亡的惨重代价写下气壮山河的正义史诗，向世界展示了中国人民决不向侵略者低头的铮铮铁骨和民族血性。一个自强不息的民族，必有其独特的精神品格。百年以降，中国人民为争取民族独立和解放进行的一系列抗争，亦是民族觉醒和精神升华的历史进程。抗日战争的彻底胜利，一举扭转了抵御外侮屡战屡败的局面，成为中华民族从苦难迈向辉煌的伟大转折。在这场长达14年的殊死抗争中，天下兴亡、匹夫有责的爱国情怀，视死如归、宁死不屈的民族气节，不畏强暴、血战到底的英雄气概，百折不挠、坚忍不拔的必胜信念，熔炼成伟大的抗战精神，开启了一个民族从胜利走向新的胜利的伟大征程。一个以弱胜强的国家，必有其强大的精神支柱。面对现代化武器装备起来的日本侵略者，我四万万同胞团结在中国共产党倡导并积极推动的抗日民族统一战线旗帜下，不分党派、无论阶层，地不分南北，人无分老幼，众志成城、共御外侮，为民族而战，为祖国而战，为尊严而战，谱写了惊天地、泣鬼神的爱国主义篇章。在中华民族反抗外敌的历史上，从来没有像抗日战争这样，民族觉醒如此深刻，社会动员如此广泛，战斗意志如此坚强。</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>On April 4th, students from Sanjie Primary School in Xinhexian County, Hebei, presented flower baskets to the statue of martyr Dong Zhentang. On that day, many cadres, masses, and primary and secondary school students from Xinhexian County, Hebei, came to the Dong Zhentang Memorial Hall to pay respects, view the statue of Dong Zhentang, visit the exhibition hall showcasing Dong Zhentang's deeds, receive education on patriotism and revolutionary traditions. Xinhua News Agency reporter Yang Shiya captured the scene. On April 5th, the news from China Lanzhou Network announced the arrival of the Qingming Festival. In this special year marking the 70th anniversary of the victory of the Chinese People's War of Resistance Against Japanese Aggression and the World Anti-Fascist War, let us offer a cup of liquor and a bunch of flowers, pay tribute to the martyrs, and sing for the heroes. History always provides reflection and enlightenment at crucial moments. Seventy years have passed, the struggles of hardship and the glory of victory have long been integrated into the collective memory of the nation, still stirring the patriotic and revolutionary spirit of hundreds of millions of people. "Honoring the past and cherishing the memory, the virtues of the people return to their roots." Commemoration embodies the Chinese people's nostalgia for their loved ones and gratitude to their ancestors, seeking wisdom through reminiscence, providing enlightenment to the living, and gathering strength for progress. At this moment, in this special time, paying deep respects to the martyrs who bravely fought for the nation's survival, especially holds profound and weighty historical significance. "I wish to offer my blood to the land in exchange for eternal peace for the nation." From the Monument to the People's Heroes in Beijing, the Memorial Hall of the Victims in Nanjing Massacre, the Shenyang Guanlingshan Public Cemetery, to the Yunnan National Martyrs Cemetery... from north to south, inside and outside the Great Wall, every martyr's cemetery, memorial hall, and monument engrave the enormous sacrifices made by the country and the nation for independence and liberation. Faced with the extremely brutal Japanese aggressors, the entire nation united in a common hatred and determination, willing to sacrifice their lives, writing a majestic epic of justice with the heavy toll of 35 million military and civilian casualties, showcasing the unyielding spirit and national character of the Chinese people who never bow down to aggressors. A nation that never stops striving will have its unique spiritual character. Over the past century, the series of struggles conducted by the Chinese people for national independence and liberation also represent the historical process of national awakening and spiritual elevation. The complete victory of the War of Resistance Against Japanese Aggression completely reversed the situation of repeated defeats in resisting foreign aggression, marking a great turning point for the Chinese nation from suffering to glory. In this 14-year-long life-and-death struggle, the patriotic sentiments of "the rise and fall of the world concerns everyone" and the national integrity of "willing to die rather than surrender," the heroic spirit of fearlessness and fighting to the end, the perseverance and unwavering belief in victory, melted into the great spirit of the resistance war, opening up a great journey for the nation from victory to new victories. A country that triumphs over the strong with the weak will have its strong spiritual support. Faced with the modernized Japanese aggressors armed to the teeth, forty million compatriots united under the banner of the Anti-Japanese National United Front advocated and actively promoted by the Communist Party of China, regardless of party affiliation or social class, without distinction of region or age, stood united, repelled foreign aggression together, fought for the nation, fought for the motherland, fought for dignity, composing a patriotic chapter that shook the heavens and moved the spirits. In the history of the Chinese nation's resistance against foreign enemies, there has never been a moment like the War of Resistance Against Japanese Aggression, where national awakening was so profound, social mobilization so extensive, and fighting spirit so strong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>上周日我们度过了秋季的最后一个节气——霜降，叨姐才反应过来我们已经是在过冬了！是不是还有好多人，没准备好过冬的衣服。 冬季天气寒冷干燥，使人觉得鼻、咽部干燥，皮肤干燥、容易上火。养生保健尤为重要。那这个节气该吃什么水果蔬菜呢？ 山楂 俗话说：“欲得长生，肠中常清”。膳食纤维是身体的“肠道清道夫”，充足的膳食纤维可以促进肠道的蠕动和消化腺的分泌，有利于食肠的消化和废物的排泄，促进体内的物质代谢。果胶具有降低胆固醇和血糖、预防胆结石形成的功效。梨子 素有百果之宗佳誉的梨，性微寒，味甘，能生津止渴，润燥化痰，润肠通便。梨含有丰富的糖分和维生素，有润肺生津、止咳化痰、养血生肌、清肺去燥、滋养肠胃等功能，还有降低血压、清热镇静、保肝和帮助消化的作用。石榴 很多人都比较喜欢吃石榴，不仅是因为口味酸甜，而且颜色鲜艳。就算是加工成饮料也十分受人喜欢。当然，石榴的营养价值也是很高的，专家表示，十六中富含多种人体所需的营养成分、维生素、有机酸、蛋白质、脂肪和多种矿物质，而其中的维生素含量比苹果还要高出1-2倍。香蕉 香蕉香糯可口，含有丰富的维生素、食物纤维和钾、镁、钠等矿物质，能有效维护皮肤、毛发的健康，可以预防中风和高血压。同时，有镇定安眠，润肠通便，润肺止咳、清热解毒，助消化和滋补的作用，对减肥也相当有效。桔子 桔子含水量高、营养丰富，含大量维生素C、枸橼酸及葡萄糖等十余种营养物质。食用得当，能补益肌体，特别对患有慢性肝炎和高血压患者，多吃蜜桔可以提高肝脏解毒作用，加速胆固醇转化，防止动脉硬化。柚子 柚子是秋季成熟的水果，因为它皮厚耐藏，等到这样寒冷的冬季来吃是理想的选择，柚子有“天然水果罐头”之称。它含有非常丰富的蛋白质、有机酸、维生素以及钙、磷、镁、钠等人体必需的元素，这是其他水果所难以比拟的。栗子 栗子含有较多的碳水化合物，蛋白质和脂肪较少。此外还含有胡萝卜素、核黄素、抗坏血酸等多种维生素。栗子所含的多不饱和脂肪酸和维生素、矿物质能防治高血压、冠心病、骨质疏松等，同时也能抗衰老。荸荠 荸荠，又叫马蹄，有“地下雪梨”的美誉。荸荠性味甘寒，有清肺利咽、化湿祛痰等功效，对预防秋燥咳嗽、咽喉不适、口干欲饮等症有一定效果。与莲藕榨汁共饮效果更佳。但荸荠不易消化，脾胃虚寒、消化功能较差者及儿童、老人不宜多吃。生吃前一定要去皮或洗净。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Last Sunday we experienced the last solar term of autumn - Frost's Descent. It wasn't until then that I realized winter had arrived! Perhaps many people are not prepared with winter clothes. The cold and dry weather in winter makes the nose and throat feel dry, the skin dry, and easily leads to internal heat. Health preservation is particularly important. So, what fruits and vegetables should we eat during this solar term? 
+Hawthorn: As the saying goes, "To live a long life, keep your intestines clean." Dietary fiber is the "cleaner" of the body's intestines. Adequate dietary fiber can promote intestinal peristalsis and secretion of digestive glands, facilitating digestion and waste excretion, and promoting material metabolism in the body. Pectin can help lower cholesterol and blood sugar, and prevent gallstone formation.
+Pear: The pear, known as the "king of hundred fruits," is slightly cold in nature and sweet in taste. It can generate fluids, relieve thirst, moisten dryness, resolve phlegm, and promote bowel movements. Pears are rich in sugars and vitamins, with functions such as moistening the lungs, relieving coughs, nourishing blood and muscles, clearing the lungs, nourishing the stomach and intestines, lowering blood pressure, clearing heat, calming the liver, and aiding digestion.
+Pomegranate: Many people enjoy eating pomegranates not only for their sweet and sour taste but also for their bright color. Pomegranates are highly nutritious, containing a variety of essential nutrients for the body, such as vitamins, organic acids, proteins, fats, and minerals. The vitamin content in pomegranates is 1-2 times higher than that in apples.
+Banana: Bananas are fragrant, sticky, and delicious, rich in vitamins, dietary fiber, potassium, magnesium, sodium, and other minerals. They can effectively maintain the health of the skin and hair, prevent strokes and high blood pressure, have calming and sedative effects, moisten the intestines, relieve coughs, clear heat, detoxify, aid digestion, nourish, and are quite effective for weight loss.
+Orange: Oranges are high in water content and rich in nutrients, containing a large amount of vitamin C, citric acid, glucose, and more than ten other nutrients. When consumed properly, oranges can nourish the body, especially benefiting those with chronic hepatitis and hypertension. Eating honey oranges can enhance liver detoxification, accelerate cholesterol conversion, and prevent arteriosclerosis.
+Grapefruit: Grapefruits ripen in autumn and are ideal for consumption in the cold winter due to their thick skin. Grapefruits are known as "natural canned fruits." They are very rich in protein, organic acids, vitamins, as well as essential elements for the human body such as calcium, phosphorus, magnesium, and sodium, which are unmatched by other fruits.
+Chestnut: Chestnuts are rich in carbohydrates, low in protein and fat, and contain various vitamins such as carotene, riboflavin, and ascorbic acid. The unsaturated fatty acids, vitamins, and minerals in chestnuts can prevent and treat hypertension, coronary heart disease, osteoporosis, and also have anti-aging effects.
+Water chestnut: Water chestnuts, also known as water caltrops, are praised as the "underground snow pear." Water chestnuts are sweet and cold in nature, with the effects of clearing the lungs, benefiting the throat, resolving dampness, and eliminating phlegm. They have a certain effect on preventing autumn dry cough, throat discomfort, dry mouth, and thirst. It is more effective to drink water chestnut juice with lotus root juice. However, water chestnuts are not easily digested, so they are not suitable for those with weak spleen and stomach, poor digestion, children, and the elderly. Before eating raw, be sure to peel or wash them thoroughly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>目前，高校学生是不少用人单位的重要人力资源，但学生实习遭遇侵权的事件也频频发生。相对于用人单位，实习生大多处于弱势地位，容易受到不公平对待，沦为廉价劳动力、“背锅侠”等。上周，中国青年报社社会调查中心通过问卷网，对2000名高校学生进行的一项调查显示，在有过实习经历的受访高校学生中，71.3%的人遭遇过不公平对待。（10月25日 中国青年网）为了增加工作经验，获得学以致用和锻炼的机会，绝大多数高校学生都会选择实习。有些高校把专业实习作为一门必修课程，赋予相应的学分，为了加强对学生的管理，使专业实习更有针对性，一些学校会统一帮学生联系合作单位，以此帮助学生更好地检验学识、积累经验、了解社会。而现实是，学生在实习期间被侵权的现象时有发生。一些用人单位把实习生看作廉价劳动力，认为学生没有社会经验，可以加以“充分利用”，在安排与实习生专业对口的工作之余，也常常会临时交给他们一些额外的任务。许多实习生迫于学校课业的安排，为了拿到实习课程的学分，不得已只能服从，更不敢以法律武器维权，加上对于一些小事上职场老员工欺负新人的情况，法律中无从界定，实习生也就只能忍气吞声。也有部分实习生确实存在思想上不重视的情况，认为实习不算正式工作，自己做不好还有正式员工兜底，因而工作懒散，不负责任，给工作节奏紧凑的企业造成一定的麻烦。实习学生大都缺乏社会经验，用人单位接收实习生，是承担社会责任的表现。良好的实习对两者都有非常重要的意义。学校作为给学生介绍实习单位的一方，应该积极介入，积极促进实习双方达成和谐的关系。首先可以通过督促双方签订短期劳动合同的方式，使整个实习过程中双方的权责更加明确。其次，要加强对实习企业的筛选，对企业资质和实习效果进行评估，在学生实习的过程中，要全程联系、指导，避免发生学生被侵权的现象。再次，更要加强对学生的教育，强化责任意识，让他们认识到实习不单单是为了拿学分，而是从校园走向社会的过渡，一定要加以重视。学生实习被侵权，无论是企业的过错还是学生的沉默，学校都有着不可推卸的责任，作为培养学生的一方，必须引起重视，成为学生实习过程中为其保驾护航的“靠山”，让实习真正成为新的人才理论学习与实践之间的桥梁。（梁恬）</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Currently, college students are important human resources for many employers, but incidents of internship infringement occur frequently. Compared to employers, interns are mostly in a disadvantaged position, easily subjected to unfair treatment, and can become cheap labor or scapegoats. Last week, a survey conducted by the Social Survey Center of the China Youth Daily through an online questionnaire revealed that among 2000 college students who had internship experience, 71.3% of them had encountered unfair treatment. (October 25, China Youth Daily) 
+In order to gain work experience, apply what they have learned, and develop their skills, the vast majority of college students choose to intern. Some universities make professional internships a compulsory course, granting corresponding credits. To enhance student management and make professional internships more targeted, some schools will help students connect with cooperating units to help students better test their knowledge, accumulate experience, and understand society. However, the reality is that incidents of interns being infringed upon during internships are not uncommon. Some employers view interns as cheap labor, believing that students lack social experience and can be "fully utilized." In addition to assigning interns tasks related to their professional field, employers often give them additional tasks. Many interns, due to the arrangement of school courses, have no choice but to comply in order to earn internship credits. They dare not use legal means to protect their rights. In addition, faced with situations where veteran employees bully newcomers over trivial matters, which are not clearly defined in the law, interns can only endure silently. 
+There are also cases where some interns do not take their internship seriously, thinking that internships are not formal jobs and that they can rely on regular employees to cover for them if they do not perform well. As a result, they work lazily and irresponsibly, causing trouble for companies with tight work schedules. Most interns lack social experience. Employers accepting interns are demonstrating social responsibility. A good internship is of great significance to both parties. Schools, as the party introducing internship units to students, should actively intervene and promote a harmonious relationship between interns and employers. First, by urging both parties to sign short-term labor contracts to clarify the rights and responsibilities throughout the internship process. Secondly, it is necessary to strengthen the selection of internship companies, evaluate their qualifications and the effectiveness of internships, maintain continuous contact and guidance during the internship to prevent interns from being infringed upon. Furthermore, it is important to enhance the education of students, strengthen their sense of responsibility, and make them realize that internships are not just for credits, but a transition from campus to society that must be taken seriously. 
+Whether internship infringement is due to the fault of the company or the silence of the student, the school has an undeniable responsibility. As a party responsible for student development, it must be taken seriously and become a "backbone" that safeguards students during the internship process, making internships truly a bridge between theoretical learning and practical application for new talents. (Liang Tian)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>根据《献血法》关于开展无偿献血表彰工作的规定，2009年，原卫生部、中国红十字会总会、解放军总后勤部卫生部联合发布《全国无偿献血表彰奖励办法（2009年修订）》。为进一步营造无偿献血良好社会氛围，拓展无偿献血招募工作模式，鼓励更多单位和个人参与无偿献血活动，在听取相关卫生计生行政部门、血液管理专家、法律专家及献血者意见的基础上，国家卫生计生委医政医管局、中国红十字会总会赈济救护部、总后勤部卫生部医疗管理局经过商议，决定对《全国无偿献血表彰奖励办法（2009年修订）》部分条款进行修订，印发《全国无偿献血表彰奖励办法（2014年修订）》。现将有关情况说明如下：一、修订背景和基本思路《献血法》实施后，我国建立了无偿献血制度，在几年之内实现了从有偿献血向无偿献血的平稳过渡，完成了西方国家需要二十年以上的发展道路，血液供应能力不断增强，血液安全得到较好保障。1998年，全国无偿献血人次仅为5万，2013年，已达1278万。近年来，随着医疗保障水平不断提高，人民群众看病就医呈现“井喷式”增长。2012年，全国诊疗人次达68.9亿人次，入院人次达到1.78亿人，分别比上年增长9.9%和16.4%；而同期无偿献血人次仅增长1.92%，明显滞后于临床医疗发展的需要。保障临床用血需求，需要营造无偿献血良好社会氛围，鼓励更多单位和个人参与无偿献血活动。《全国无偿献血表彰奖励办法（2009年修订）》实施以来，对于鼓励社会公众参加无偿献血发挥了积极作用，同时，对无偿献血宣传、团体无偿献血组织动员的激励存在不足，因此，本次修订工作，增加对无偿献血宣传、组织员工参加无偿献血的。二、修订内容（一）将原第七条中的“单位奖”的评奖标准由捐款、捐物调整为组织员工开展团体自愿无偿献血。团体自愿无偿献血是无偿献血招募方式的重要组成部分，对于保障临床用血供应和血液安全有重要意义。目前，我国的无偿献血招募工作进入发展平台期，在保持街头自愿无偿献血稳步发展的同时，加大团体献血的工作力度，可以进一步提高血液供应的能力。近年来，我委大力推进团体自愿无偿献血工作，并取得积极进展。与2012年相比，2013年全国无偿献血人次增长1.75%，其中，团体无偿献血人次数增长12%。为鼓励更多单位组织自愿无偿献血工作，在本次表彰办法修订中，增加了单位组织团体无偿献血的有关奖项，并在基本标准中，统筹考虑了单位的规模。</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>According to the provisions of the Blood Donation Law on commending voluntary blood donation work, in 2009, the former Ministry of Health, the Red Cross Society of China, and the Health Department of the People's Liberation Army jointly issued the "National Commendation and Reward Measures for Voluntary Blood Donation (Revised in 2009)". In order to further create a good social atmosphere for voluntary blood donation, expand the recruitment model for voluntary blood donation, and encourage more units and individuals to participate in voluntary blood donation activities, after consulting with relevant health and family planning administrative departments, blood management experts, legal experts, and blood donors, the National Health and Family Planning Commission's Medical Administration and Medical Management Bureau, the Red Cross Society of China's Relief and Medical Assistance Department, and the Health Department of the General Logistics Department of the People's Liberation Army deliberated and decided to revise some clauses of the "National Commendation and Reward Measures for Voluntary Blood Donation (Revised in 2009)" and issue the "National Commendation and Reward Measures for Voluntary Blood Donation (Revised in 2014)". The relevant situation is explained as follows: 
+1. Background and Basic Ideas for Revision: After the implementation of the Blood Donation Law, China established a system of voluntary blood donation, achieving a smooth transition from paid blood donation to voluntary blood donation within a few years, completing a development path that Western countries need more than twenty years to accomplish. The blood supply capacity has been continuously enhanced, and blood safety has been well guaranteed. In 1998, the number of voluntary blood donations nationwide was only 50,000, and by 2013, it had reached 12.78 million. In recent years, with the continuous improvement of medical security levels, the number of medical visits by the people has shown explosive growth. In 2012, the total number of medical visits nationwide reached 6.89 billion, with 178 million hospital admissions, representing an increase of 9.9% and 16.4% respectively over the previous year. However, during the same period, the number of voluntary blood donations only increased by 1.92%, significantly lagging behind the needs of clinical medical development. To ensure the clinical blood demand, it is necessary to create a good social atmosphere for voluntary blood donation and encourage more units and individuals to participate in voluntary blood donation activities. Since the implementation of the "National Commendation and Reward Measures for Voluntary Blood Donation (Revised in 2009)", it has played a positive role in encouraging the public to participate in voluntary blood donation. However, there are shortcomings in incentives for voluntary blood donation promotion and mobilization of group voluntary blood donation organizations. Therefore, in this revision, incentives for voluntary blood donation promotion and organizing employees to participate in voluntary blood donation have been added.
+2. Revision Content: 
+- The evaluation criteria for "Unit Awards" in Article 7 have been adjusted from donations and contributions to organizing employees to carry out group voluntary blood donation. Group voluntary blood donation is an important part of the voluntary blood donation recruitment method and is of great significance for ensuring the blood supply for clinical use and blood safety. Currently, China's voluntary blood donation recruitment work has entered a platform period of development. While maintaining the steady development of voluntary blood donation on the streets, increasing efforts in group blood donation work can further enhance the blood supply capacity. In recent years, the National Health and Family Planning Commission has vigorously promoted group voluntary blood donation work and made positive progress. Compared to 2012, the number of voluntary blood donations nationwide increased by 1.75% in 2013, with the number of group voluntary blood donations increasing by 12%. To encourage more units to organize voluntary blood donation work, relevant awards for organizing group voluntary blood donation by units have been added in this revision of the commendation measures, and the scale of the units has been taken into consideration in the basic criteria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2015年3月30日上午召开的市六届人大常委会第五十二次主任会议透露，两地人大的对接思路是“建立三个联系面、突出一个着力点”，并将开展大气污染区域联防联控监督工作的探讨交流。清远和广州两地人大层面对接工作有望在4月启动。会议文件《关于“广清一体化”人大层面工作对接和今年对接任务安排》显示，“广清一体化”是珠三角地区带动粤东西北地区发展的具体实践，对促进粤东西北地区振兴发展、加快广东区域协调发展具有重要的示范意义。一年多来，两地坚持以“广清一体化”为引领，突出围绕交通基础设施建设、中心城区扩容提质、产业园区扩能增效“三大抓手”，多次召开党政联席会议，全方位开展对口帮扶工作，广清一体化得以全面加速。根据安排，两地人大常委会将建立市人大常委会领导联系会议制度(原则上一年1至2次)、人大工作委员会工作对口交流机制和人大代表交流调研机制。同时，建立人大常委会履行职能合作促进“广清一体化”战略实施的协调推进机制。4月份，市人大常委会相关领导将带队前往广州市人大常委会拜会，商讨有关对接事宜。随后，将正式展开对接工作序幕。在工作对接中，清远市人大常委会将前往广州市人大常委会，开展依法治市、立法、人大宣传和理论研究等工作交流，并开展大气污染区域联防联控监督工作的探讨交流。同时，由广清两地人大常委会分别组织当地的省人大代表，围绕“广清一体化”的产业、交通、重大项目、对口帮扶等方面进行视察。本次会议还审议通过了《清远市人民代表代会常务委员会听取内设机构年度工作报告制度》、《清远市人民代表代会常务委员会机关会务办理制度》，讨论了《市六届人大五次会议代表建议重点督办工作计划》、《市人大常委会主任会议组成人员2015年联系市人大代表工作方案》(草案)等其他事项。会议由市人大常委会党组书记、常务副主任梁建文主持，副主任温镜潮、邓三妹、林文钊、龙伙灵、郑远平，秘书长张思成等出席了会议。市人大常委会副秘书长及各委办负责人列席了会议。市人大常委会4件重点督办建议出炉 完善市区公交站点建议将被重点督办市六届人大常委会第五十二次主任会议审议通过了《市六届人大五次会议代表建议重点督办工作计划》，明确将建立和完善我市生态公益林配套补偿政策、完善市区公交站点、要求市财政加大对新农村公路建设投入力度、加强乡镇卫生院建设等4件建议列为2015年重点督办建议。</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>The 52nd meeting of the Standing Committee of the Sixth People's Congress of the city held on the morning of March 30, 2015 revealed that the approach to connecting the two local People's Congresses is to "establish three contact points, highlight one focus point," and will carry out discussions and exchanges on the supervision of regional joint prevention and control of air pollution. The coordination work between the People's Congresses of Qingyuan and Guangzhou is expected to start in April. The meeting document "Arrangements for the Work Coordination and Tasks of the People's Congress at the Qingyuan-Guangzhou Integration Level and this Year's Coordination" shows that "Guangqing Integration" is a specific practice to drive the development of the eastern and northern regions of Guangdong Province by the Pearl River Delta region, which has important demonstrative significance for promoting the revitalization and development of the eastern and northern regions of Guangdong and accelerating the coordinated development of the Guangdong region. For over a year, the two places have adhered to the guidance of "Guangqing Integration," focusing on three key areas: the construction of transportation infrastructure, expansion and improvement of the central urban area, and enhancing the capacity and efficiency of industrial parks. They have held several joint meetings of the party and government, carried out comprehensive paired assistance work, and the Guangqing Integration has been accelerating comprehensively. According to the arrangements, the Standing Committee of the People's Congress of the two places will establish a system of leadership contact meetings of the Standing Committee of the People's Congress of the city (generally 1 to 2 times a year), a mechanism for exchange of work between the working committees of the People's Congress, and a mechanism for exchange and research by the representatives of the People's Congress. At the same time, they will establish a coordination and promotion mechanism for the implementation of the "Guangqing Integration" strategy by the Standing Committee of the People's Congress. In April, relevant leaders of the Standing Committee of the People's Congress of the city will lead a delegation to visit the Standing Committee of the People's Congress of Guangzhou to discuss relevant coordination matters. Subsequently, the official start of the coordination work will be launched. In the coordination work, the Standing Committee of the People's Congress of Qingyuan will go to the Standing Committee of the People's Congress of Guangzhou to carry out work exchanges such as governing the city according to law, legislation, propaganda of the People's Congress, and theoretical research, and to conduct discussions and exchanges on the supervision of regional joint prevention and control of air pollution. At the same time, the People's Congress Standing Committees of Guangzhou and Qingyuan will respectively organize local provincial representatives to conduct inspections on aspects such as industries, transportation, major projects, and paired assistance related to "Guangqing Integration." The meeting also reviewed and approved the "Annual Work Report System for Internal Institutions of the Standing Committee of the Qingyuan Municipal People's Congress" and the "Office Meeting Handling System of the Standing Committee of the Qingyuan Municipal People's Congress," and discussed other matters such as the "Work Plan for Key Supervision and Implementation of Representative Suggestions of the Fifth Session of the Sixth People's Congress of the city" and the "Work Plan for Contacting Representatives of the Standing Committee of the People's Congress of the city in 2015" (draft). The meeting was chaired by Liang Jianwen, Secretary of the Party Group and Executive Deputy Director of the Standing Committee of the People's Congress of the city, and attended by Deputy Directors Wen Jingchao, Deng Sanmei, Lin Wenzhao, Long Huoling, Zheng Yuanping, and Secretary-General Zhang Sicheng. Deputy Secretary-General of the Standing Committee of the People's Congress of the city and heads of various committees attended the meeting. The Standing Committee of the People's Congress of the city released 4 key supervision proposals, with the proposal to improve the city's public transportation stations being designated as a key supervision item.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>中新网4月10日电 据外媒报道，2名在2012年的“珊迪”飓风中失去了一切的纽约人，在3年后已结为夫妻，此外，他们还中了大奖，并计划用这笔奖金购买了他们梦想中的房子。3年前的10月29号，因为“珊迪”飓风来袭，丹尼斯·克劳斯失去了他在布鲁克林的家，在同一天，玛丽安·达诺失去了她在史丹顿岛的家。之后，在慈善组织的帮助下，两人都搬到了康州，他们住在新米尔福德县的不同流动房屋内，在那里，他们参加了同一个教堂，并相爱了。日前，克劳斯和达诺来到康州的彩票办公室，领走了这笔约25万美元的大奖。康州彩票办公室表示，这张获奖彩票是去年10月在当天一家加油站卖出的。克劳斯说，他们之所以等了这么久才来领取彩票的原因是，幸福来得太突然，他们担心又会失去一切。达诺则表示，当她告诉克劳斯他们中奖的时候，克劳斯完全不敢相信，以为这是个玩笑。现在，这对夫妻正计划用这笔钱在新米尔福德县买个新房子，克劳斯说：“这笔奖金足够我们付首付，之后我们还必须靠自己付完全款，但这将是我们的梦想之屋，我们在"珊迪"中失去了一切，现在我们的一切将重新开始。”</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>According to foreign media reports on April 10, two New Yorkers who lost everything in Hurricane Sandy in 2012 have become a couple three years later. In addition, they won a big prize and plan to use the money to buy their dream house. On October 29, three years ago, Dennis Klaus lost his home in Brooklyn due to Hurricane Sandy, while on the same day, Maryann Danno lost her home on Staten Island. With the help of a charity organization, the two moved to Connecticut and lived in different mobile homes in New Milford County. There, they attended the same church and fell in love. Recently, Klaus and Danno went to the lottery office in Connecticut and claimed the prize of about $250,000. The Connecticut Lottery Office stated that the winning ticket was sold at a gas station on the same day last October. Klaus said the reason they waited so long to claim the ticket was that happiness came too suddenly, and they were afraid of losing everything again. Danno said that when she told Klaus they had won, he couldn't believe it and thought it was a joke. Now, the couple plans to use the money to buy a new house in New Milford County. Klaus said, "This prize is enough for us to make a down payment. We will have to pay the rest on our own, but this will be our dream home. We lost everything in 'Sandy,' and now everything will start anew for us."</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>养生之道网：怎么在海边钓鱼？海边钓鱼需要什么装备？海钓和淡水钓有着很大区别，习惯在河边钓鱼的可能会不清楚怎么在海边钓鱼，下面为您总结海边钓鱼需要什么装备，看看吧。海钓和淡水钓有着很大区别，那么怎么在海边钓鱼，海边钓鱼需要什么装备呢？①竿袋可以装钓竿、抄网、打窝勺、网头、海钓轮等等物件，新手入门，如果你之前有淡水钓竿包的话，也可以先用之前的竿包的，不过，淡水钓的竿包和矶竿包很大的区别在于防磨损了，因为礁石的磨损实在是太厉害了，普通帆布淡水竿袋，几次就会坏的。②钓竿5米3的矶钓竿最起码需要一把了，选择1.5号的最合适了，价格200元以内的竿现在也不少，不过品质都比较一般了，新手入门也无所谓了。好点的可以选择价格在500左右的竿，入门竿以后做备用也是个不错的选择。 ③饶线轮建议使用2000～3000的饶线轮，选择金属轴承的海钓专用轮即可（防海水），从几十元到几千元的都有了，关键是顺滑些就好，带手刹的属于高档的，新手可以暂不考虑的。④钓线钓线选择比较柔软的做主线为佳，价格在50～80左右一盘的都不错，150米的，当然，如果你之前有淡水用的线，也可以先使用，但是，淡水尼龙线，如果下海后，会变硬变脆的，使用过之后最好用淡水清洗了，线号选择3～4号就可以。⑤子线子线建议使用碳线，这个对起鱼的影响比较大，建议使用比较好的线了，伽玛的雷霆线也是个不错的选择，2号线即可，价格在40～60元左右一盘。⑥阿波新手的话，阿波选2个就好，2B和6B的就可以了，阿波的号数以B来算，号数越大，浮力也越大，可以理解成与淡水浮标的号数一样，6号漂就比1号的浮力大，但是，灵敏度相对而言也会差。⑦抄网如果你只是尝试和体验，建议就不要买抄网了，海钓抄网的价格普遍都比较高，低档的也要好几百元一套的，400～500一套的抄网其实都不错，而且，如果操作不当的话，抄网比较容易损耗了。⑧打窝桶＋打窝勺这个作为新手不一定必备的，你跟着朋友去的话，海钓的应该都有，可以让朋友帮你打窝就好，这样自己就不需要带打窝桶了。当然，你也可以使用淡水钓的折叠装鱼箱，20～30元一个，只是比较容易损耗。⑨软冰箱软冰箱现在的价格并不算太高了，作为新手的话，找个旅行袋代替也可以，唯一和软冰箱区别在于没有保温作用而已，当然，如果你不怕重的话，直接带上淡水冰箱用途一样了。</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Health Preservation Network: How to fish by the sea? What equipment is needed for fishing by the sea? There is a big difference between sea fishing and freshwater fishing. Those who are used to fishing by the river may not know how to fish by the sea. Here is a summary of the equipment needed for sea fishing. Sea fishing and freshwater fishing are quite different, so what equipment is needed for fishing by the sea? ① A rod bag can hold fishing rods, landing nets, baiting spoons, fishing reel heads, sea fishing reels, and other items. For beginners, if you have a freshwater fishing rod bag, you can also use it temporarily. However, the main difference between a freshwater rod bag and a shore rod bag is the abrasion resistance, as the abrasion from rocks is severe. A regular canvas freshwater rod bag will wear out quickly due to this. ② For a 5.3-meter shore fishing rod, at least a 1.5-meter one is needed. There are many rods priced under 200 yuan, but their quality is average. Beginners can start with these. Better quality rods priced around 500 yuan are also available, which can be kept as backup after gaining experience. ③ For the fishing reel, it is recommended to use a 2000-3000 size reel with metal bearings designed for sea fishing (waterproof). Prices range from tens to thousands of yuan, but the key is smoothness. Reels with a hand brake are considered high-end and can be skipped by beginners. ④ For the fishing line, a softer mainline is preferred, priced around 50-80 yuan per spool of 150 meters. If you have used freshwater lines before, they can be used temporarily. However, freshwater nylon lines will become hard and brittle after saltwater exposure. It is best to wash them with freshwater after use. Choose line sizes 3-4. ⑤ For the leader line, carbon lines are recommended as they have a significant impact on hooking fish. Gamma Thunder line is a good choice, with 2 sizes being sufficient, priced around 40-60 yuan per spool. ⑥ For the float, beginners can start with 2 floats, 2B and 6B. The number of a float indicates its buoyancy, similar to freshwater floats. A higher number means greater buoyancy but lower sensitivity. ⑦ Landing nets are not essential for beginners who are just trying out. Sea fishing landing nets are relatively expensive, with sets priced at several hundred yuan. Sets priced at 400-500 yuan are good, but they are prone to wear and tear if mishandled. ⑧ Bait bucket + baiting spoon may not be necessary for beginners. If you go fishing with friends, they should have these tools. You can ask your friends to help with baiting, so you don't need to bring a bait bucket. Alternatively, you can use a collapsible fish box for freshwater fishing, priced at 20-30 yuan each, but they are prone to wear and tear. ⑨ Soft cooler bags are not too expensive now. For beginners, using a travel bag as a substitute is also acceptable. The only difference between a soft cooler bag and a regular cooler is the lack of insulation. If weight is not an issue, you can directly use a freshwater cooler for the same purpose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>昨天上午，第四届国际（乐清）物联网传感器技术与应用高峰论坛开幕。来自国内以及美国、日本、德国等国家和地区的传感技术行业领军人物、专家学者齐聚一堂，将就物联网核心技术和创新发展等主题进行广泛研讨。市委书记徐立毅出席论坛并致辞。物联网是继计算机、互联网之后的第三次信息技术革命。传感器作为获取信息和数据的源头，是信息系统中不可或缺的基础部分，对产业转型升级和培育新的产业模式起着重要作用。作为传感技术领域最权威的高峰论坛，国际物联网传感器技术与应用高峰论坛此前已在杭州等地举办三届。为期两天的论坛，将就推进物联网核心技术产业化、物联网创新应用、传感器产业化创新发展途径等方面展开研讨。据了解，目前，乐清物联网产业集群已初具规模，以正泰集团为代表的一批领军企业已在传感器芯片设计制造、应用开发、系统集成以及网络运营服务等方面形成一定的领先优势。论坛开幕式上，正泰（乐清）科技创新创业园暨传感科技产业园项目正式启动。此外，现代传感器技术与应用产学研项目等25个产业投资项目现场签约。徐立毅在致辞中说，物联网与传感技术的研发应用，是制造业发展的大势所趋，是提高产品供给质量的重要途径，是提升产业核心竞争力的必由之路。温州发展物联网，具有良好的产业基础，具有旺盛的现实需求。温州将以深化供给侧结构性改革为动力，紧紧把握全球新一轮产业变革的“脉动”，抓住我国实施“中国制造2025”和“互联网+”的战略机遇，把发展物联网产业摆上重要的位置，积极打造“机器换人”“数字车间”“智能工厂”等示范项目，努力建设物联网特色产业示范基地。（来源：温州网）</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Yesterday morning, the 4th International (Yueqing) Internet of Things Sensor Technology and Application Summit Forum opened. Leading figures and experts from the sensor technology industry in China, as well as from countries and regions such as the United States, Japan, and Germany, gathered together to conduct extensive discussions on topics such as core technologies and innovative developments in the Internet of Things. Xu Liyi, the Secretary of the Municipal Party Committee, attended the forum and delivered a speech. The Internet of Things is the third information technology revolution following computers and the internet. Sensors, as the source of information and data acquisition, are an indispensable basic component of information systems and play an important role in industrial transformation and the cultivation of new industrial models. As the most authoritative summit forum in the field of sensor technology, the International Internet of Things Sensor Technology and Application Summit Forum has been held in Hangzhou and other places for three sessions. The two-day forum will focus on promoting the industrialization of core Internet of Things technologies, innovative applications of the Internet of Things, and innovative development paths for sensor industrialization. It is understood that the Internet of Things industry cluster in Yueqing has taken shape, and a group of leading enterprises represented by Chint Group have formed a certain leading advantage in sensor chip design and manufacturing, application development, system integration, and network operation services. At the opening ceremony of the forum, the Chint (Yueqing) Science and Technology Innovation and Entrepreneurship Park and Sensor Technology Industrial Park project was officially launched. In addition, 25 industrial investment projects including modern sensor technology and application industry-university-research projects were signed on-site. Xu Liyi stated in his speech that the research and application of the Internet of Things and sensor technology are the general trend of manufacturing industry development, an important way to improve the quality of product supply, and a necessary path to enhance the core competitiveness of industries. Wenzhou has a good industrial foundation and strong practical demand for the development of the Internet of Things. Wenzhou will take deepening the supply-side structural reform as the driving force, closely grasp the "pulse" of the new round of global industrial revolution, seize the strategic opportunities of implementing "Made in China 2025" and "Internet Plus" in China, give high importance to the development of the Internet of Things industry, actively create demonstration projects such as "machines replacing humans," "digital workshops," and "smart factories," and strive to build a demonstration base for the Internet of Things characteristic industries. (Source: Wenzhou Net)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>作为西藏纪念“3·23世界气象日”活动重要内容之一，3月23日《大气科学名词》（汉藏对照本）在西藏拉萨首发，填补了大气科学藏文名词术语研究的空白，实现了大气科学藏文言术语的规范化和标准化。据悉，《大气科学名词》汉藏对照本，翻译自《大气科学名词》汉语版第三版，包含了大气、大气探测、天气学、气候学、应用气象学等八大类，共2401词条。每个词条都用汉语书写，藏语释义注解，汉藏对照，其附录还使用了藏汉英三语。这些名词均为科研、教学、生产以及新闻出版等领域使用的大气科学规范名词。 《大气科学名词》(汉藏对照)编译委员会主任、原西藏自治区气象局局长索朗多吉介绍，该书由西藏多位长期从事藏语文翻译工作人员和气象专家组成，2011年完成初步翻译工作，2014年底作为由西藏气象学会承担的自治区科协2013年《科普能力》建设项目完成翻译审定、编印工作，并于日前由西藏人民出版社正式出版发行。他说，相信这本书的出版发行，会对提高西藏科技发展，特别是大气科学的普及将起到很好的作用。西藏自治区气象局党组书记王鹏祥说，作为纪念世界气象日的献礼，该书的出版发行，不仅实现了大气科学藏语术语的规范化和标准化，同时，对提升青藏高原气象防灾减灾、应对气候变化和生态文明科技知识普及能力将起到重要的推动作用。西藏自治区科协副主席普布说，该书具有鲜明的民族特色，在经济全球化、社会信息化的背景下，对如何吸收藏民族传统科技文化精髓，提高大气科学知识在藏民族间的传播普及，增进民族气象科技交流，繁荣少数民族科技气象科技图书将会起到很好的作用。</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>As one of the important contents of the activities commemorating "World Meteorological Day 3·23" in Tibet, the "Dictionary of Atmospheric Science Terms" (Chinese-Tibetan version) was first launched in Lhasa, Tibet on March 23, filling the gap in the research of Tibetan terms in atmospheric science and achieving the standardization and standardization of Tibetan terms in atmospheric science. It is reported that the "Dictionary of Atmospheric Science Terms" Chinese-Tibetan version is a translation of the third edition of the Chinese version of the "Dictionary of Atmospheric Science Terms", containing eight categories including atmosphere, atmospheric detection, meteorology, climatology, applied meteorology, etc., with a total of 2401 entries. Each entry is written in Chinese, with Tibetan explanations, Chinese-Tibetan translations, and the appendix also uses Tibetan-Chinese-English trilingual. These terms are standardized terms in atmospheric science used in the fields of scientific research, teaching, production, and news publishing. Sonam Dorje, Director of the Translation Committee of the "Dictionary of Atmospheric Science Terms" (Chinese-Tibetan version) and former Director of the Tibet Autonomous Region Meteorological Bureau, introduced that the book was compiled by several Tibetan language translators and meteorological experts in Tibet who have been engaged in Tibetan language translation work for a long time. The initial translation work was completed in 2011, and at the end of 2014, the translation approval and printing work was completed as part of the "Science Popularization Capability" construction project undertaken by the Tibet Meteorological Society on behalf of the Autonomous Region Science Association, and it was officially published and distributed by the Tibet People's Publishing House recently. He said that he believes that the publication and distribution of this book will play a very good role in promoting the development of science and technology in Tibet, especially the popularization of atmospheric science. Wang Pengxiang, Secretary of the Party Committee of the Tibet Autonomous Region Meteorological Bureau, said that as a gift to commemorate World Meteorological Day, the publication and distribution of this book not only achieved the standardization and standardization of Tibetan terms in atmospheric science but also played an important role in enhancing the disaster prevention and reduction, climate change response, and the popularization of ecological civilization and scientific and technological knowledge on the Qinghai-Tibet Plateau. Pubu, Vice Chairman of the Tibet Autonomous Region Science Association, said that the book has a distinct national characteristic. Against the background of economic globalization and social informatization, it will play a very good role in how to absorb the essence of traditional Tibetan science and technology culture, improve the dissemination and popularization of atmospheric science knowledge among Tibetan ethnic groups, enhance the exchange of national meteorological science and technology, and promote the prosperity of minority nationalities in science and technology meteorological books.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>被解聘员工通过诉讼讨要赔偿，法院下达《强制执行通知书》，单位却只愿按判决金额的80%赔偿。昨日，市民陆先生(化名)致电本报新闻热线投诉：“强制执行为何还能打8折？”陆先生说，2000年起，他在青山区武钢兴达经济发展责任有限公司担任保安，去年3月份，因经营困难，公司陆续将包括他在内的多名保安解聘，拖欠部分社保、加班费未予结清。讨要未果，陆先生等人将公司起诉至青山区法院。去年7月份，青山区法院判决兴达公司赔偿陆先生在内的5名员工社保、加班费等共计4万余元。随后，市劳动人事争议仲裁委员会下达《仲裁裁决书》，裁决兴达公司按照法院判决给予赔偿。然而，仲裁报告递至青山区法院后，兴达公司迟迟未予赔偿。无奈之下，陆先生等人只好向法院递交《强制执行申请书》。今年1月份，法院向兴达公司下达《强制执行通知书》，要求兴达公司赔偿欠款4万余元。陆先生满心欢喜，以为欠款能立即到位，没想到一拖又是几个月。半个月前，兴达公司一胡姓经理与陆先生等人协商称，如果同意只收欠款的80%，公司可以立即支付，不然就只能等待。“强制执行还能打8折？”陆先生等人无法接受。昨日，记者多次致电兴达公司，工作人员均表示不知情，并拒绝提供胡姓经理联系方式。随后，记者与该公司负责此案件的余姓律师取得联系。“公司经营出现困难，正与解聘员工积极协商赔偿。”余律师称，由于等待赔偿的员工还有数十名，陆先生等人的赔偿暂时无法到位。为何提出赔付80%？“这是《强制执行通知书》下达后的执行和解环节。”余律师说，如果双方各退一步，公司能减轻赔偿压力，员工也能尽快拿到欠款。律师观点陆先生可不接受执行和解何为执行和解？湖北普明律师事务所律师邱华介绍，执行和解，指在法院执行过程中，双方当事人经过自愿协商达成协议，结束执行程序的活动。案例中，《强制执行通知书》下达后，兴达公司与陆先生等人协商80%赔偿，属于执行和解的一种形式，是法律赋予兴达公司的权利。“公司有权提出和解，陆先生也有权不接受和解。”邱华说，执行和解遵循自愿原则，陆先生不接受和解，仍应按100%赔偿。若兴达公司拒不履行赔偿，法院可通过冻结银行账户、拍卖财产等方式完成执行。</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Dismissed employees seek compensation through litigation, and the court issues a "Forced Execution Notice." The company is only willing to compensate 80% of the judgment amount. Yesterday, Mr. Lu, a citizen who called the newspaper hotline to complain, said, "Why can forced execution be discounted?" Mr. Lu said that since 2000, he had been working as a security guard at Qing Shan District Wugang Xingda Economic Development Co., Ltd. Last March, due to operational difficulties, the company gradually dismissed several security guards, including him, and failed to settle some social security and overtime pay. After unsuccessful demands, Mr. Lu and others sued the company in Qing Shan District Court. In July last year, Qing Shan District Court ruled that Xingda Company should compensate Mr. Lu and four other employees a total of over 40,000 yuan for social security and overtime pay. Subsequently, the Labor Dispute Arbitration Committee issued an "Arbitration Award," ruling that Xingda Company should compensate according to the court's judgment. However, after the arbitration report was submitted to Qing Shan District Court, Xingda Company delayed the compensation. Helpless, Mr. Lu and others had to submit an "Application for Forced Execution" to the court. In January this year, the court issued a "Forced Execution Notice" to Xingda Company, demanding payment of over 40,000 yuan in arrears. Mr. Lu was overjoyed, thinking the payment would be made immediately, but it dragged on for several more months. Half a month ago, a manager surnamed Hu from Xingda Company negotiated with Mr. Lu and others, proposing immediate payment if they agreed to accept only 80% of the arrears, or else they would have to wait. "Can forced execution be discounted?" Mr. Lu and others could not accept this. Yesterday, the reporter called Xingda Company several times, and the staff all claimed to be unaware and refused to provide the contact information of Manager Hu. Subsequently, the reporter contacted Lawyer Yu, who was in charge of the case at the company. "The company is actively negotiating compensation with dismissed employees due to operational difficulties," Lawyer Yu said. As there are still dozens of employees waiting for compensation, Mr. Lu and others' compensation cannot be made at the moment. Why propose to pay 80%? "This is part of the execution and settlement process after the 'Forced Execution Notice' is issued," Lawyer Yu said. If both sides compromise, the company can reduce the compensation pressure, and employees can receive the arrears sooner. Why not accept the settlement? What is execution and settlement? Lawyer Qiu Hua from Hubei Puming Law Firm explained that execution and settlement refer to the voluntary negotiation between the parties to reach an agreement during the court's execution process to end the execution proceedings. In this case, after the "Forced Execution Notice" was issued, Xingda Company negotiated with Mr. Lu and others for an 80% compensation, which is a form of execution and settlement granted by law to Xingda Company. "The company has the right to propose a settlement, and Mr. Lu also has the right to reject it," Qiu Hua said. Execution and settlement follow the principle of voluntariness, and if Mr. Lu does not accept the settlement, he should still be compensated 100%. If Xingda Company refuses to pay compensation, the court can complete the execution by freezing bank accounts, auctioning property, and other means.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>我们基本上每天都吃馒头，但大批量的馒头是怎么生产出来的呢？今天，我们德州日报小记者走进山东省芳冠食品有限公司，参观放心馒头的生产过程。一个叔叔热情地接待了我们，他先带我们从参观通道走了一圈，我看到墙壁上挂了很多“芳冠”馒头的种类，有圆馒头、椒盐花卷、稻香黑米馒头、双色奶油馒头、奶油佛手卷……没想到馒头有这么多种类。 “大家平时吃的馒头大都是靠经验掌控和面、温度、发酵等过程，容易受到天气及室内温度的影响。而‘芳冠’馒头是由工业智能化生产线生产而成，从和面、压面、成型、发酵到蒸制各个环节全部采用微电脑数控技术控制，全自动流水线包装，车间温度常年恒温，因此馒头不易发霉变质。 ”叔叔告诉我们，这样保证了馒头制作过程的卫生。接着，叔叔带我们来到馒头蒸房，只见里面有4个两米多高的机器，“这叫蒸车，每辆蒸车能放900个馒头，25分钟就可以蒸熟。 ”叔叔说道。不一会儿，一车车热气腾腾的馒头就出笼了，一屋子都是馒头的香味。 “我们的馒头可是有专属印记的。 ”说着，叔叔拿起一个馒头，只见馒头下面印着“芳冠”两个字。 “从小麦收割到制作成面粉，再到做成馒头，每个步骤都有专人检测，保证不含任何添加剂，吃着放心。 ”临走时，叔叔送了我们每人两个馒头，我迫不及待地吃了一口，甜甜的，真好吃。这是我第一次看到馒头的生产过程，而且让我学到了很多书本里学不到的知识。□麒麟小学 孔伟森</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>We basically eat steamed buns every day, but how are large quantities of steamed buns produced? Today, we, the little reporters from the Dezhou Daily, visited Shandong Fangguan Food Co., Ltd. to observe the production process of "Fangguan" steamed buns. A man warmly welcomed us. He first took us on a tour through the visitation passage, and I saw many types of "Fangguan" steamed buns hanging on the walls, such as round steamed buns, salt and pepper rolls, fragrant black rice steamed buns, two-color cream steamed buns, cream palm-leaf rolls... I didn't expect there were so many types of steamed buns.
+"Most of the steamed buns we usually eat are controlled by experience in terms of kneading, temperature, fermentation, etc., and are easily affected by weather and indoor temperature. However, 'Fangguan' steamed buns are produced by an industrial intelligent production line. From kneading, pressing, shaping, fermentation to steaming, all processes are controlled by microcomputer numerical control technology, with fully automated assembly line packaging, and the workshop temperature is kept constant throughout the year, so the steamed buns are not easily moldy or spoiled," the man told us, ensuring the hygiene of the steamed bun production process.
+Then, the man took us to the steamed bun steaming room, where there were four machines over two meters high inside. "These are called steamers. Each steamer can hold 900 steamed buns, and they can be steamed ready in 25 minutes," the man said. Soon, steaming hot steamed buns were coming out one after another, filling the room with the fragrance of steamed buns.
+"Our steamed buns have exclusive imprints," the man said, picking up a steamed bun with the words "Fangguan" imprinted on the bottom. "From wheat harvesting to making flour, and then to making steamed buns, each step is inspected by a dedicated person to ensure that no additives are included, so you can eat them with peace of mind."
+As we were leaving, the man gave each of us two steamed buns. I couldn't wait and took a bite. They were sweet and delicious. This was the first time I had seen the production process of steamed buns, and I learned a lot of knowledge that cannot be found in books. - Kong Weisen, Qilin Elementary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今年不知道为什么特别喜欢翻拍，最近就有《射雕英雄传》、《梁山伯与祝英台》、《新白娘子传奇》等电视剧。 还有现在马上要拍摄的《梁山伯与祝英台》，这部电视剧更是翻拍的。因为这部《梁山伯与祝英台》之中的女主角祝英台就是让一个男生来出演，是很多网友都知道的网络红人小灿。不知道大家能不能接受让一个男生来出演祝英台了。除了《梁山伯与祝英台》要被翻拍，马上《新白娘子传奇》也是要开始拍摄了。现在网上已经曝出来女主角白素贞，而女二号小青是由张馨予来出演。其中男主角许仙还没有确定谁来出演，只是有网友称会是鹿晗来出演许仙。不管怎么说大家不是关心谁来出演，而且关心他们的演技如何了。前段时候在网上热播的《小戏骨白娘子传奇》，大家应该大家都是看过了吧。 这部《小戏骨白娘子传奇》里面没有什么的当红小花旦，也不是什么大投资，有的只是一帮没有上过专业课的小孩。可就是这样的一部电视剧，非但没有受到大家的吐槽。反而这部电视剧在网上受到了大家的认可，剧中的主演们虽然是小孩。可是戏中的演技却比现在的很多明星还要好。 有网友指出这版的《小戏骨白娘子传奇》比湖南卫视播出的《诛仙青云志》等这些电视剧好看多了。现在又开拍翻拍其实不管谁来出演，难道她们的颜值高了大家就会认可吗？大家应该还是看演技了吧！虽然很多的网友都吐槽张檬因为整容了，一脸的僵硬。可是张檬的演技还是挺不错的了。 还有女二号小青是由张馨予来出演，虽然张馨予在娱乐圈的口碑不太好。可是大家也是看的到她的演技，在于正版的《神雕侠侣》之中她出演的李莫愁就刻画的挺好的。 她也因为这部电视剧算粉无数。只是大家能不能接受这么美艳的小青了？还有现在都没有定下来的许仙，不知道大家觉得谁合适了？ 虽然现在网上很多网友都希望鹿晗来出演许仙，可是大家觉得鹿晗的演技能胜任许仙吗？而且鹿晗的形象适合出演许仙吗？还有网友觉得黄轩比较适合出演许仙，因为黄轩身上有与身俱来的书卷气息，就不知道大家觉得谁更加适合了出演许仙了。 不知道大家觉得张檬、张馨予出演《新白娘子传奇》合适吗？[责任编辑:陶媛]</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>This year, for some reason, I particularly like remakes. Recently, there have been TV dramas such as "The Legend of the Condor Heroes", "Liang Shanbo and Zhu Yingtai", and "The Legend of White Snake". Also, the upcoming remake of "Liang Shanbo and Zhu Yingtai" is in the works. The female lead Zhu Yingtai in this drama is going to be played by a male actor, the well-known internet celebrity Xiao Can. I wonder if everyone can accept a male actor playing Zhu Yingtai. Apart from "Liang Shanbo and Zhu Yingtai" being remade, the filming of "The Legend of White Snake" is also about to begin. The female lead Bai Suzhen has already been revealed online, and the role of Xiao Qing will be played by Zhang Xinyu. The male lead Xu Xian has not been confirmed yet, but some netizens claim that Lu Han will play Xu Xian. Regardless of who plays the roles, what everyone cares about is their acting skills. 
+Some time ago, the popular online drama "Little Actor White Snake" was widely watched. In this drama, there are no A-list actresses or big investments, just a group of kids who have not taken any professional acting classes. Surprisingly, this drama did not receive much criticism but rather gained recognition online. Although the actors are children, their acting skills are even better than many current stars. Some netizens pointed out that this version of "Little Actor White Snake" is much better than TV dramas like "Noble Aspirations" aired on Hunan TV. Now, with the trend of remakes, regardless of who plays the roles, will everyone accept them just because of their looks? Perhaps we should focus on their acting skills! Although many netizens criticize Zhang Meng for having plastic surgery and looking stiff, her acting skills are still quite good. 
+Furthermore, the role of Xiao Qing will be played by Zhang Xinyu. Although Zhang Xinyu's reputation in the entertainment industry is not very good, her acting skills are still recognized. In the TV series "The Return of the Condor Heroes" produced by Yu Zheng, her portrayal of Li Mochou was quite good. She has gained numerous fans because of this drama. However, can everyone accept such a glamorous Xiao Qing? As for the role of Xu Xian, which has not been decided yet, who do you think is suitable? Although many netizens hope that Lu Han will play Xu Xian, do you think Lu Han's acting skills are suitable for the role? Is Lu Han's image suitable for playing Xu Xian? Some netizens think Huang Xuan is more suitable to play Xu Xian because he naturally exudes a scholarly aura. Who do you think is more suitable to play Xu Xian? 
+Do you think Zhang Meng and Zhang Xinyu are suitable to play in "The Legend of White Snake"? [Editor: Tao Yuan]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 一般情况下，孩子更喜欢用明快而丰富的颜色，而我们常常也会发现孩子们在使用24色橡皮泥、36色绘画水笔等多色工具时，总有一两种色彩会早早地用完，这就说明大部分的孩子都有自己无意识的色彩偏好，了解这种偏好对研究孩子的心理具有非常重要的意义。对颜色的无意识选择说出了孩子内心的秘密、孩子的深层个性与特征。孩子越是极端地热爱某一种颜色，他的个性往往越突出，这种个性也常常是他优点或缺点产生的源头。掌握了色彩心理，父母对孩子的引导可以更加准确，也可以运用简单有效的颜色疗法，对孩子的某些极端个性加以矫正。喜欢同一种颜色的人大多有着相同的行为模式和思考方式，喜好不同颜色的孩子反应是不同的：以下是7种不同的色彩对应的性格特点：但也可能发现，宝宝的性格是复杂的，而非单一色彩。偏爱橙色与红色的孩子---热情红色的孩子天真烂漫，极具魅力，非常喜欢与人交往。要知道你红色的孩子生来就无忧无虑，风趣幽默又精力充沛。但却没什么组织能力又容易忘记指示。红色孩子喜欢讲故事，又渴望马上得到别人的回应。因此，他们常会夸大事实，他们对每一个经手的新事情都非常感兴趣。但他们对自己做的事情只是三分钟的热度，一碰到看起来更有趣的，就会很容易放弃先前的追求。因此，红色孩子有两面性，一面是很容易交上朋友，另一方面因为太自我也容易与朋友不欢而散。教养之道：给他们一定的职责和决定空间。带他出去时，最好让他来决定一些事情，如“我们买哪个好呀?我们一起来挑选好不好?”会让其很有成就感。生活中，只要多使用淡一点的红色或让人冷静的红色，可以弥补性格中的缺点。实际上，过多地穿红色衣服，对身体也不好，如能适当调整红色面积的比例，则可以收到一举两得的效果。绿色孩子---和平绿色的孩子很容易相处，“温和、谦和、平和”三和一体。多数时候你叫他们做啥他们就做啥。但他们并不愿意做额外的工作。 尽管如此，平和的绿色通常被人称作乖乖女乖乖男的典范，这种听话的孩子，若在小时候，即使你跑去沃尔玛购物，把他一个人扔在车上半小时，他也足够可以怡然自得地坐在车里用他特有的安静方式玩耍，你绝不用担心会出什么事。不像黄色的孩子，说好十分钟你出来，不到五分钟，自己已经要爬出来了。如果你有绿色的孩子，那养起来再容易不过，因为他不想惹麻烦，这种孩子一直安安静静，她们很容易满足，擅长让别人感觉舒适，从不尝试去改变他人。</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>In general, children prefer bright and rich colors. We often find that when children use multi-color tools such as 24-color clay or 36-color painting markers, one or two colors are used up early, indicating that most children have their own unconscious color preferences. Understanding these preferences is of great significance for studying children's psychology. The unconscious choice of colors reveals the secrets of children's inner world, their deep-seated personalities, and characteristics. The more extreme a child's love for a certain color, the more prominent their personality tends to be, which is often the root of their strengths or weaknesses. By mastering color psychology, parents can guide their children more accurately and apply simple and effective color therapy to correct certain extreme personalities in children. People who like the same color mostly have similar behavior patterns and ways of thinking. Children who prefer different colors have different reactions. Here are the personality traits corresponding to 7 different colors: However, it may also be found that a child's personality is complex, not just based on a single color. Children who prefer orange and red colors - passionate red children are innocent and romantic, charming, and very sociable. You should know that your red child is born carefree, witty, humorous, and energetic. However, they lack organizational skills and tend to forget instructions easily. Red children like to tell stories and crave immediate responses from others. Therefore, they often exaggerate facts and are very interested in every new thing they encounter. But they only have a fleeting interest in what they do themselves. Once they come across something that seems more interesting, they will easily give up their previous pursuits. Therefore, red children have a dual nature - on one hand, they make friends easily, but on the other hand, they can also easily fall out with friends due to their self-centeredness. Parenting approach: Give them certain responsibilities and decision-making space. When taking them out, it's best to let them make some decisions, such as "Which one should we buy? Let's pick together, okay?" This will give them a sense of accomplishment. In daily life, using lighter or calming shades of red can compensate for the shortcomings in their personality. In fact, wearing too much red clothing is not good for the body. Adjusting the proportion of red in their environment appropriately can have a dual benefit. Green children - peaceful green children are easy to get along with, embodying "gentle, modest, and peaceful" qualities. Most of the time, they will do as you ask. However, they are not willing to do extra work. Nevertheless, peaceful green children are often seen as the epitome of obedient children. If you have a green child, raising them is easy because they don't want to cause trouble. These children are always calm and content, easily satisfied, good at making others feel comfortable, and never try to change others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 阅读本文前，请您先点击本文上面的蓝色字体“每天教您弄头发”再点击“关注”，这样您就可以继续免费收到文章了。每天都有分享。完全是免费订阅，请放心关注！ 年轻时的努力奋斗，无非就是为了老有所依，自己的子孙后代也能过上好日子，但对于多数人来说，财来财去有如镜花水月，真正到了需要用钱的年纪，留在手上的钱也所剩无几。但也有的人福气旺盛，命里越老越有钱花，在12生肖中，谁拥有这样的命运呢？一起看看吧！虎 虎年生人，贵气旺盛，他们的一生不会平凡或是虚度，而是饱经历练，终成大器。随着年纪的增长，属虎的人生意头脑愈发好，中年经商可得富贵，而长期积累下来的社会人脉也是非常有价值的，多受人崇拜和尊敬的他们，年纪渐长，威望也在增长，所以“得道者多助”，越老越有人帮，越不缺钱花，特别是出生在1962年的“金箔虎”，越老越有福，老来常有喜。猴 猴年生人，灵巧机敏，事业生意创意极多，赚钱门路条条通，所以不用等到他们年纪大，他们就能比同龄人赚到更多的钱。但是不可否认，属猴的人得等到相对成熟一些的年纪才能学会如何珍惜金钱，年轻时的他们会赚钱，更会花钱，有时候钱在他们手中还没焐热就被花掉了，所以当学会了开源节流，属猴的人就会越老越不缺钱花，社交圈里也处处是偏财。特别是出生于1980年的“食果猴”他们的脑子永远不会生锈，这就会使他们整个后半生都不缺钱花。狗 狗年生人，性格稳重而踏实，和属猴的人十分不同，他们可以用自己一生的积累来换取中晚年的富贵，很多属狗的人过日子非常之省，不管一分钱还是一角钱，统统把住自己的口袋，时常修身养性，克制自己的消费欲，就是为了让自己的未来老有所依。所以属狗的人多数是很可靠，也很有远见的人，随着年纪的增长，存下来的钱也就慢慢显示出它们的作用，让属狗人老来不缺钱花的，不是别人，就是他们自己。特别是出生在1970年的“钏金狗”，越老越有“金运”。马 马年生人，人生最辉煌得意的时光，不会在他们30岁之前，真正的富贵会在他们的35岁后，特别是37岁那年的羊年，“金帛星”入库，是财运当头的一年，从此开始，属马的人事业运才会渐渐有所起色，事业由虚转实，机遇连连，直到中年、老年他们都不会差钱花。不变的乐观个性和遇事越挫越勇的性格伴随着属马人的终身，因此富贵命也将伴随着他们，待需“老有所依”之时，让他们能度过一个安详富足的中晚年。</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Before reading this article, please click on the blue font "Everyday Teach You How to Do Hair" above this article and then click "Follow", so you can continue to receive articles for free. Sharing every day. It is completely free subscription, please feel free to follow! The efforts and struggles of youth are nothing more than to have something to rely on in old age, so that their own descendants can also live a good life. However, for most people, money comes and goes like a fleeting shadow, and when they really need money, there is little left in their hands. But some people are blessed with good fortune, and the older they get, the more money they have to spend. In the twelve zodiac signs, who has such a fate? Let's take a look together! 
+Tiger: People born in the year of the Tiger have a noble and prosperous aura. Their lives will not be ordinary or wasted, but will be full of experiences and eventually become great. As they grow older, those born in the year of the Tiger have better business acumen, and they can become wealthy through business in middle age. The long-term accumulation of social connections is also very valuable. They are admired and respected by many people. As they age, their prestige grows, so "those who follow the Dao will have many helpers." The older they get, the more people will help them, and they will not lack money to spend. Especially for those born in 1962, the "Golden Tiger," the older they get, the more blessings they will have, and they will often have joy in their old age.
+Monkey: People born in the year of the Monkey are clever and resourceful, with many business and creative ideas. They have various ways to make money, so they can earn more money than their peers without having to wait until they are older. However, it cannot be denied that those born in the year of the Monkey have to wait until a relatively mature age to learn how to cherish money. When they are young, they can earn money, but they also spend money. Sometimes the money in their hands is spent before it even warms up. So when they learn to be thrifty, those born in the year of the Monkey will not lack money to spend as they get older, and there will be unexpected financial gains in their social circles. Especially for those born in 1980, the "Fruit Monkey," their minds will never rust, which will make them not lack money to spend throughout their later years.
+Dog: People born in the year of the Dog are stable and practical. Unlike those born in the year of the Monkey, they can exchange their lifelong accumulation for wealth in their middle and later years. Many people born in the year of the Dog live very frugally, holding onto every penny, always restraining their spending desires, in order to have something to rely on in their old age. Therefore, people born in the year of the Dog are mostly reliable and far-sighted. As they age, the money they save will gradually show its value, allowing those born in the year of the Dog to not lack money to spend in their old age, either with the help of others or by their own means. Especially for those born in 1970, the "Golden Dog," the older they get, the more "golden luck" they will have.
+Horse: People born in the year of the Horse will not experience the most brilliant and successful time of their lives before the age of 30. True wealth and prosperity will come after they turn 35, especially in the year of the Sheep when they are 37. The year when the "Golden Silk Star" enters, it is a year of financial fortune. From then on, the career of those born in the year of the Horse will gradually improve, opportunities will come one after another, and they will not lack money to spend until middle age and old age. Their unchanging optimistic personality and the character of becoming more courageous in the face of setbacks will accompany those born in the year of the Horse throughout their lives. Therefore, wealth and prosperity will also accompany them. When the time comes to "have something to rely on in old age," they will be able to spend a peaceful and prosperous middle and later years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 孩子到了毕业班，许多家长的心就悬了起来，担心孩子成绩不好，还会不会有大的发展，也想知道自己能为孩子做些什么？平时需要注意什么？今天就听听专家怎么说。 专家说 孩子到了毕业班，最后一年关键时刻的拼搏，的确是个让家长们牵肠挂肚的事。那么，在这个关键时刻应该注意什么问题呢？我们先谈谈初三一年孩子还能不能有很好的发展的问题。我认识的一个男孩，初二时还是个很不起眼的学生，成绩在中游偏下，老师们对他也没抱多大的希望。可是，初三开始不久，老师们发现了他的发展势头，只见他的成绩一个劲儿地往上窜，最后以优秀的成绩考入重点高中，到高中后成绩还在继续上升。这种在毕业班的一年中有较大发展的学生，在小学和初高中都经常出现。这是为什么呢？心理学及人才学的研究认为，大脑的潜能是非常大的，通常人们只用了大脑潜能的7%～10%左右。也就是说，人脑的140～170亿个神经细胞，数量虽然庞大，可平时却大部分都闲置着，这就使我们大多数人脑力的90%左右处于潜伏状态，这也是我们大多数人都是平常人的缘故。可是，一旦谁的发展过程中具备了较好的主客观的条件，就会使大脑的潜能得到较多开发，表现出较强的能力。在毕业班生活这个外因的作用下，孩子们的内因也处于变化的好时机。因此，我们对进了毕业班的孩子的发展应该充满希望。那么，家长该怎样做才有利于孩子最后一年的发展呢？ 1 给动力 我的大女儿读初三的时候，电脑中记录着我们父女开学前的一段对话——爸爸：女儿，明天就要开学了，你将投入一场真正的持久战。一年，是需要点持之以恒的精神的。这一年对你意味着什么？意味着一生的命运。人一辈子的路很长，但关键处就那么几步。现在你就走到了最关键的一步。这一步好比一个十字路口，你怎样选择，将决定你今后的人生道路的走向。你曾经经历过一些失败，你又由失败走向了前进，这是令人欣慰的。但这次你不能等失败以后再前进，因为现实怕是不再给你这样的机会了。所以，你只有牢牢抓住这一决定命运的关键一步，你才会拥有属于你自己的美好的未来。爸爸知道你有足够的能力把握自己的命运，有坚定的信心创造自己的美好未来。你的命运在你自己的手上，只有你自己才能描绘你的未来。你一定能好好把握这一年中的每一天。 女儿：爸爸，女儿已经清楚这一年的重要。用我们有些同学的话说，“再苦再累就还一年”。都读了这么多年了，不就是为了这最后一年的拼搏吗？这一年不容我失败，我只能不断前进。</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>When children reach their final year of school, many parents start to worry about their children's academic performance and future prospects. They also wonder what they can do to help their children and what they should pay attention to in their daily lives. Today, let's listen to what the experts have to say.
+The expert said that when children reach their final year of school, it is indeed a critical moment that causes parents a lot of anxiety. So, what should be paid attention to during this crucial period? Let's first talk about whether children in the ninth grade can still have good development. I know a boy who was quite an average student in the eighth grade, with grades in the middle to lower range, and teachers did not have high hopes for him. However, shortly after starting the ninth grade, teachers noticed his momentum of development. His grades kept improving steadily, and he eventually entered a prestigious high school with outstanding results. His academic performance continued to rise in high school. Students who show significant development in their final year of school are often seen in elementary and middle schools. Why is this so? Studies in psychology and talent development suggest that the potential of the brain is enormous, with people typically using only about 7% to 10% of its capacity. In other words, although the brain has around 140 to 170 billion neurons, most of them remain idle most of the time, resulting in about 90% of our brainpower lying dormant. This is why most of us are just ordinary people. However, once someone's development process possesses favorable conditions, it can unlock more of the brain's potential, showcasing stronger abilities. Under the external influence of life in the final year of school, the internal factors of children are also in a favorable state of change. Therefore, we should be hopeful about the development of children in their final year of school. So, what can parents do to facilitate their children's development in the last year?
+1. Provide motivation: When my eldest daughter was in the ninth grade, there was a conversation recorded in our computer before the start of the school year - Dad: Daughter, school starts tomorrow, and you are about to embark on a real endurance battle. A year requires perseverance. What does this year mean to you? It means your lifelong destiny. Life is long, but there are only a few crucial steps. You are now at the most critical step. This step is like a crossroads, and how you choose will determine the direction of your future life. You have experienced some failures, and you have moved forward from them, which is gratifying. But this time, you cannot wait for failure to push you forward because reality may not give you another chance. Therefore, you must firmly grasp this crucial step that determines your destiny, so you can have a bright future of your own. Dad knows that you have the ability to control your destiny and the confidence to create a bright future for yourself. Your destiny is in your hands, and only you can paint your future. You will surely make the most of every day in this year.
+Daughter: Dad, I already understand the importance of this year. As some of our classmates say, "No matter how tough or tiring it is, it's just one more year." We have been studying for so many years, isn't it all for the struggle in this final year? I cannot afford to fail this year; I can only keep moving forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>创立于1971年的星巴克，发展了十六年，年销售额才达到130万美元，1987年公司被创始人卖给了前雇员HowardSchultz后，仅仅过了五年时间，到1992年星巴克公司上市时，年销售额已经达到了7350万美元，在此后的24年里，星巴克销售额已经增长了整整 260倍，达到192亿美元。一家客单价只有5美元的餐饮企业，如何在经历了数十年连续的高速增长后继续维持成长的势头？《华丽志》从星巴克的两份ppt中找到了答案。 在今年9月“高盛全球零售大会”和去年11月“摩根斯坦利全球零售大会”上，星巴克首席财务官 Scott Maw 陆续总结了星巴克继续成长的七大动力： 与伙伴共赢 提升咖啡品质 增加门店数量和种类 创造新的消费场景 鼓励在家享用星巴克 推广茶饮料 Teavana 推动数字化应用 与伙伴共赢星巴克的连锁店遍布全球 65个国家以上，为了适应当地文化，星巴克给员工提供了多项福利。在美国，星巴克为员工提供全额或部分大学学费； 在英国，公司为员工推出了住房贷款方案。2016年初在成都举行的中国员工家属交流会上，星巴克宣布了多项新政：全职咖啡师和值班主管享受住房补贴；服务十年及以上的员工享受长达 12个月的无薪假期。 增加门店数量星巴克门店分为直营店和特许经营店。根据2015财年报告，星巴克前三大市场美国、中国、日本的直营店数量分别为7559、1026、1073，特许经营店分别为4962、785、58。而2016财年这三大市场直营店数量预计将达到 7882、1272、1137。2016财年三大市场单店年销售额（AUV）预计分别为160万美元、84万美元、120万美元，而新增门店第一年销售额分别为140万美元、62.4万美元、110万美元，而新增门店的投资回报率分别为61%、64%、55%，中国市场最高。星巴克在本周三任命王静瑛（Belinda Wong）为星巴克中国第一任 CEO，并计划在 2021年之前将门店数量增加至 5000家，是现在门店数量的两倍以上。这也意味着，未来五年内，每年都要新开约 500家门店。值得一提的是，在2007财年，新增的2500家门店中70%在美国，而在2016财年新增的1800家门店中70%都将在北美之外，尤其是中国和日本。</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Founded in 1971, Starbucks took sixteen years to achieve an annual sales of $1.3 million. In 1987, the company was sold by its founder to former employee Howard Schultz. Just five years later, by the time Starbucks went public in 1992, its annual sales had reached $73.5 million. Over the following 24 years, Starbucks' sales increased by a staggering 260 times, reaching $19.2 billion. How can a catering company with an average customer spending of only $5 maintain its growth momentum after decades of rapid expansion? "The Magnificent Ambition" found the answer in two PowerPoint presentations from Starbucks. At the "Goldman Sachs Global Retail Conference" in September this year and the "Morgan Stanley Global Retail Conference" in November last year, Starbucks CFO Scott Maw summarized seven key drivers for Starbucks' continued growth: Win-win partnerships, improving coffee quality, increasing the number and types of stores, creating new consumption scenarios, encouraging at-home Starbucks consumption, promoting Teavana tea beverages, and driving digital applications. 
+Win-win partnerships: Starbucks' chain stores are spread across more than 65 countries worldwide. To adapt to local cultures, Starbucks provides employees with various benefits. In the United States, Starbucks offers full or partial tuition coverage for employees; in the UK, the company has introduced a housing loan scheme for employees. At a family exchange meeting for Chinese employees held in Chengdu at the beginning of 2016, Starbucks announced several new policies: Full-time baristas and shift supervisors receive housing subsidies; employees with ten years or more of service are entitled to up to 12 months of unpaid leave. 
+Increasing the number of stores: Starbucks stores are divided into company-operated stores and licensed stores. According to the 2015 fiscal year report, the number of company-operated stores in Starbucks' top three markets - the United States, China, and Japan - were 7,559, 1,026, and 1,073 respectively, while licensed stores were 4,962, 785, and 58 respectively. In the 2016 fiscal year, the number of company-operated stores in these three major markets is expected to reach 7,882, 1,272, and 1,137. The estimated average unit volume (AUV) for a single store in these three major markets in the 2016 fiscal year is $1.6 million, $840,000, and $1.2 million respectively, with the first-year sales of new stores expected to be $1.4 million, $624,000, and $1.1 million respectively, and the return on investment for new stores being 61%, 64%, and 55% respectively, with China having the highest rate. Starbucks appointed Belinda Wong as the first CEO of Starbucks China this Wednesday and plans to increase the number of stores to 5,000 by 2021, more than double the current number of stores. This also means that in the next five years, approximately 500 new stores will be opened each year. It is worth mentioning that in the 2007 fiscal year, 70% of the 2,500 new stores were in the United States, while in the 2016 fiscal year, 70% of the 1,800 new stores will be outside of North America, especially in China and Japan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>原标题：分管单位公款吃喝阳江副市长被警告省纪委通报7起党风廉政建设责任追究典型案件153名干部受党纪政纪处分广州日报讯(记者林洪浩通讯员粤纪宣)广东省纪委南粤清风网4月12日通报，十八届三中全会以来，有少数地方和单位，党委主体责任意识不强、落实不力，纪委监督责任聚焦不够、履职不够到位，以致违纪违法问题不同程度地存在，有的造成不良社会影响。去年以来，全省共有153名党政领导干部因履行党风廉政建设主体责任、监督责任不力受到党纪政纪处分。省纪委同时通报了其中查处的7起党风廉政建设责任追究典型案件。阳江一副市长被警告后又因收红包被行政撤职阳江市原副市长陈芝岳、阳江市国土资源局纪检组组长许华因市国土资源局违规公款吃喝等问题受到责任追究。2013年，阳江市国土资源局及下属7个事业单位多次发生公款大吃大喝、公款送礼、发节日费、转嫁接待费用等严重违纪问题，原局长利庆佳等10名直接责任人员分别受到党纪政纪处分并退赔违规占用和超支消费的公款。阳江市原副市长陈芝岳分管该局工作，履行主体责任不力，受到行政警告处分(2015年4月，又因收受红包礼金等问题受到行政撤职处分)；阳江市国土资源局纪检组组长许华履行监督责任不力，受到党内警告处分。两单位组织公款旅游党委纪委领导被追责广东电网公司佛山顺德供电局党委书记潘湛荣、纪委书记左婧因单位公款旅游问题受到责任追究。2013年10月至2014年1月，佛山顺德供电局所属单位工会分会发生公款组织员工外出旅游、违反财经纪律等问题。佛山顺德供电局党委书记、副局长潘湛荣履行主体责任不力，受到党内警告处分；佛山顺德供电局纪委书记、工会主席、副局长左婧履行监督责任不力，受到党内警告处分。同样因公款旅游问题受到责任追究的还有广东省明华机械有限公司韶关分公司党委副书记、纪委书记廖秀芳。2013年7月和2014年7月，广东省明华机械有限公司韶关分公司党委副书记、工会主席李汝雄先后两次组织公司党员公款旅游，李汝雄对此负有直接责任受到党内警告处分。分公司党委副书记、纪委书记廖秀芳履行监督责任不力，受到党内警告处分。下属违纪三名官员被追责肇庆市怀集县蓝钟镇党委委员、副镇长林维年因下属侵占救灾补贴问题受到责任追究。2013年，蓝钟镇政府社会事务办主任徐斌利用职务便利先后向该镇三名“全倒户”索要(侵占)钱款，徐斌被开除公职，并移送检察机关依法查处。</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Original Title: Deputy Mayor of Yangjiang Warned for Using Public Funds for Banquets, Guangdong Provincial Commission for Discipline Inspection Warns 7 Typical Cases of Party Conduct and Integrity Responsibility Pursuit, 153 Cadres Disciplined
+Guangzhou Daily News (Reporter Lin Honghao, Correspondent Yue Ji Xuan) Guangdong Provincial Commission for Discipline Inspection's Nan Yue Qing Feng Network announced on April 12 that since the Third Plenary Session of the Eighteenth Central Committee, a few localities and units have weak awareness of the Party committee's main responsibility, inadequate implementation, insufficient focus and performance of the supervisory responsibilities of the discipline inspection commission, resulting in varying degrees of disciplinary and legal violations, some of which have caused adverse social impacts. Since last year, a total of 153 party and government leading cadres in the province have been disciplined for their inadequate performance of the main responsibility for building a clean government and supervisory responsibilities. The Provincial Commission for Discipline Inspection also announced 7 typical cases of party conduct and integrity responsibility pursuit that were investigated. After being warned, a deputy mayor of Yangjiang was administratively removed from office for accepting red envelopes. Chen Zhiyue, former deputy mayor of Yangjiang, and Xu Hua, head of the Discipline Inspection Group of the Yangjiang City Land and Resources Bureau, were held accountable for issues related to the improper use of public funds for banquets at the city's Land and Resources Bureau. In 2013, the Yangjiang City Land and Resources Bureau and its seven subordinate units repeatedly committed serious disciplinary violations such as extravagant banquets at public expense, giving gifts with public funds, issuing holiday allowances, transferring reception expenses, etc. The former director Li Qingjia and 10 other directly responsible personnel were disciplined for violating party and government discipline and were required to return the public funds used improperly and overspent. Chen Zhiyue, the former deputy mayor of Yangjiang, who was in charge of the bureau's work, failed to fulfill his main responsibilities and was given an administrative warning (in April 2015, he was further administratively removed from office for accepting red envelopes and gifts). Xu Hua, head of the Discipline Inspection Group of the Yangjiang City Land and Resources Bureau, failed to fulfill his supervisory responsibilities and was given an internal party warning. Party and Discipline Inspection leaders of two units were held accountable for organizing public-funded tours. Pan Zhanrong, secretary of the Party Committee, and Zuo Jing, secretary of the Discipline Inspection Commission of the Foshan Shunde Power Supply Bureau of Guangdong Power Grid Company, were held accountable for issues related to public-funded tours. From October 2013 to January 2014, the unit's trade union branch of the Foshan Shunde Power Supply Bureau organized staff outings with public funds, violating financial discipline, etc. Pan Zhanrong, secretary of the Party Committee and deputy director of the Foshan Shunde Power Supply Bureau, failed to fulfill his main responsibilities and was given an internal party warning; Zuo Jing, secretary of the Discipline Inspection Commission, chairman of the trade union, and deputy director of the Foshan Shunde Power Supply Bureau, failed to fulfill his supervisory responsibilities and was given an internal party warning. Also held accountable for issues related to public-funded tours was Liao Xiufang, deputy secretary of the Party Committee and secretary of the Discipline Inspection Commission of Shaoguan Branch of Guangdong Minghua Machinery Co., Ltd. In July 2013 and July 2014, Li Ruxiong, deputy secretary of the Party Committee and chairman of the trade union of the Shaoguan Branch of Guangdong Minghua Machinery Co., Ltd., organized company members for public-funded tours twice. Li Ruxiong was directly responsible for this and was given an internal party warning. Liao Xiufang, deputy secretary of the Party Committee and secretary of the Discipline Inspection Commission of the branch, failed to fulfill her supervisory responsibilities and was given an internal party warning. Three officials under them were held accountable for disciplinary violations. Lin Weinian, member of the Party Committee and deputy mayor of Lanzhong Town, Huaiji County, Zhaoqing City, was held accountable for issues related to subordinates misappropriating disaster relief subsidies. In 2013, Xu Bin, director of the Social Affairs Office of Lanzhong Town Government, took advantage of his position to extort money from three "fully collapsed households" in the town. Xu Bin was dismissed from public office and transferred to the procuratorial organ for investigation and handling according to law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>在死去4年之后，2016年5月27日，九泉之下的祁锦坤获得无罪判决。10年前，因为两笔分别为60万元、100万元的贷款，湖南湘潭民企老板祁锦坤的湘潭县锦坤铸造有限公司（以下简称“锦坤公司”）先被银行告上法庭要求还钱，随后其个人又被公安部门立为刑事案件侦办。同一案情在法院民事判决祁锦坤的公司还钱之后，同一法院又以贷款诈骗罪判处其个人10年有期徒刑。服刑中，祁锦坤两次向市、省两级法院申诉喊冤，最终仍以有罪之身死于肺癌。死后4年，迟来的的无罪判决却揭示出惊人真相：60万元和100万元的两笔贷款都有抵押，且非重复抵押；100万元的贷款还有人担保，在祁被判有罪的半年前，100万元贷款本金已经由担保人偿还。原审判决遗漏了保证人连带担保、贷款已归还的关键事实。2016年6月、9月，祁锦坤的家属分别向市县两级法院申请国家赔偿。在此过程中，家属发现这100万元债权的谜团：既然100万元贷款早已归还，为何后来民事执行终结时，法院又向银行发放债权凭证？这多出来的100万债权哪去了？两笔贷款，从民事到刑事2003年8月，不到40岁的湘潭人祁锦坤在攒下一些积蓄和资源后，把原湘潭县铸造厂的机器设备和厂房租下，成立锦坤公司，他自己任法定代表人。随后，在承诺安置职工的情况下，祁锦坤仅以55万余元的优惠价，“盘下”长沙锻压机床有限公司部分设备、工装。同时，祁锦坤拥有一份盖有长沙锻压机床有限公司真实印章的价值400万余元的资产移交清单。相关民事判决书显示，2006年11月16日，锦坤公司因欠银行借款，连续惹上两场官司：湘潭县农村信用合作联社向湘潭县人民法院起诉，追讨两笔分别为132.5万元、60万元的借款及相关利息。立案当天，湘潭县法院应湘潭县农村信用合作联社申请，对锦坤公司相关资产进行了查封。此时，祁锦坤和他的妻子欧阳敏突然失踪了。按照2016年改判无罪的判决书的说法，祁当年的失踪是因为无力归还贷款及私人借款。祁锦坤的弟弟祁金湘则回忆说，“公司的财产至少值400多万，他们当时主要是为了躲高利贷，大约90万元左右，同时也是想办法去广西那边融资。”而随后，2006年11月28日，湘潭市商业银行也向湘潭县法院起诉，向锦坤公司追讨100万元贷款及相关利息。但在民事起诉一个月之后、贷款到期的次日，湘潭市商业银行又以祁锦坤涉嫌合同诈骗，向湘潭市公安局报案。</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>After four years of death, on May 27, 2016, Qi Jinkun, who was buried in the netherworld, was acquitted. Ten years ago, due to two loans of 600,000 yuan and 1 million yuan respectively, Qi Jinkun, the private entrepreneur of Xiangtan County, Hunan Province, and his Xiangtan County Jinkun Foundry Co., Ltd. (hereinafter referred to as "Jinkun Company") were first sued by the bank to repay the money. Subsequently, he was investigated for a criminal case by the public security department. The same court first ruled in a civil case that Qi Jinkun's company should repay the money, and then the same court sentenced him to 10 years in prison for loan fraud. While serving his sentence, Qi Jinkun appealed twice to the municipal and provincial courts, but still died of lung cancer with a guilty verdict. Four years after his death, the belated acquittal revealed a shocking truth: both loans of 600,000 yuan and 1 million yuan were secured, and the collateral was not duplicated; the 1 million yuan loan was also guaranteed, and six months before Qi was convicted, the principal of the 1 million yuan loan had been repaid by the guarantor. The original judgment omitted key facts such as joint guarantee by the guarantor and the repayment of the loan. In June and September 2016, Qi Jinkun's family members separately applied for state compensation to the municipal and county courts. During this process, the family discovered the mystery of the 1 million yuan debt: since the 1 million yuan loan had already been repaid, why did the court issue a debt certificate to the bank when the civil execution ended later? Where did the extra 1 million debt go? Two loans, from civil to criminal. In August 2003, Qi Jinkun, a Xiangtan native under 40 years old, after accumulating some savings and resources, rented the machinery and factory of the original Xiangtan County Foundry, and established Jinkun Company, with himself as the legal representative. Subsequently, under the condition of promising to resettle the workers, Qi Jinkun acquired part of the equipment and fixtures of Changsha Forging Machine Tool Co., Ltd. at a discounted price of over 550,000 yuan. At the same time, Qi Jinkun possessed an asset transfer list worth over 4 million yuan with the genuine seal of Changsha Forging Machine Tool Co., Ltd. According to the relevant civil judgment, on November 16, 2006, Jinkun Company was sued by the Xiangtan County Rural Credit Cooperative Union to recover two loans of 1.325 million yuan and 600,000 yuan, and related interest, due to bank borrowing. On the same day the case was filed, the Xiangtan County Court, at the request of the Xiangtan County Rural Credit Cooperative Union, sealed the relevant assets of Jinkun Company. At this time, Qi Jinkun and his wife Ouyang Min suddenly disappeared. According to the judgment that acquitted him in 2016, Qi's disappearance at that time was due to his inability to repay the loans and private borrowings. Qi Jinkun's younger brother, Qi Jinxiang, recalled, "The company's assets were worth at least over 4 million yuan. At that time, they mainly wanted to avoid high-interest loans, around 900,000 yuan, and also sought financing in Guangxi." Subsequently, on November 28, 2006, the Xiangtan City Commercial Bank also sued the Xiangtan County Court to recover 1 million yuan in loans and related interest from Jinkun Company. However, one month after the civil lawsuit was filed and the day after the loan matured, the Xiangtan City Commercial Bank reported to the Xiangtan City Public Security Bureau that Qi Jinkun was suspected of contract fraud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>之前张全更多的是去研究微商如何去做营销，这套方案其实很简单，就那几个方面，每天坚持的去做好就可以了。对于一些新的技巧，我们也在坚持学习，只要有好的方法会第一时间分享到团队，做到精益求精，现在主要的方向是和大咖们学习研究如何的去带团队。今天去学习了一个微营销的课程，学习其实就是一个装水倒水的过程，今天张全又来倒水了。之前张全和大家分享过，其实微商就是一个引导消费的过程，对于消费市场的问题，今天又吸收了很多，至于方法和技巧上，这几天我会整理出来在团队中做个分享。大家都知道无论是传统行业还是传统电商，现在都在改革，走向移动端，为什么大家要把模式与运营重点都放到这方面呢，其实里面有一个很深、也很简单的原理。以前是是卖方市场，你能生产自行车，你说了算。如果客户想买，你就让对方排队来购买，如果不想买就一边去。那个时代是卖方说了算！现在是买方市场，自行车，消费者去购买，一大堆的牌子，每个产品都有自己的优势，消费者来选择，买方市场消费者说了算，他们喜欢什么我们就要生产什么。消费者按现在的话来讲就是用户！所以，你所有的都要围绕以用户为核心！因为不满足用户的需求，现在卖方太多，你的竞争对手就会满足用户的需求，就把你干掉了！所以：用户在哪里，商人就要去哪里！举例：我们小区附近，以前有2家餐馆。A提供外卖服务，而且还跟美团等外卖合作。B就是不提供外卖服务，其实B的面积比A大，各方面条件都比A好。B觉得吃饭嘛，就过来店子吃。也不跟美团等合作。但B不知道，消费者习惯开始变化了。很多年轻人、上班一族，就是不想走过去吃饭。就是想叫外卖！慢慢的，A的生意越来越好！最后B就被A干掉了，B最后的门面转让了。当B想改变的时候已经晚了，消费者已经习惯了A，习惯了叫A的外卖。以前的消费习惯是吃饭，走去路边看看哪家环境好，哪家有特色。现在的习惯是，首先拿出手机看看哪家环境好，哪家有特色，哪家有优惠券，习惯已经改变了。用个比喻来讲。大家都在大马路上走，也都喜欢走大马路。然后你让你的用户走旁边的山路。说：来，你过来，走山路有更好的！可以喝到水哦！即使你的用户去走山路了，或许走一段后，他又回到了大马路上，因为大马路都舒坦啊。这个时候，你可能以为没什么。你心想：反正你要喝水嘛！你还是要走到山路我这边来买水。但你忘记了，现在竞争对手是非常多的！突然有一天，你的竞争对手，也跑上了马路。</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Previously, Zhang Quan focused more on studying how to do marketing in WeChat business. This set of solutions is actually very simple, just those few aspects, as long as you persist in doing well every day. For some new techniques, we are also persistently learning. As long as there are good methods, we will share them with the team for the first time, striving for perfection. The main direction now is to learn from the big shots how to lead a team. Today, I attended a course on WeChat marketing. Learning is actually a process of pouring water back and forth, and today Zhang Quan is pouring water again. Previously, Zhang Quan shared with everyone that WeChat business is actually a process of guiding consumption. As for the problems in the consumer market, I absorbed a lot today. As for methods and techniques, I will organize them in the next few days and share them with the team. Everyone knows that whether it is a traditional industry or traditional e-commerce, they are now reforming and moving towards the mobile end. Why do people focus on this aspect in terms of model and operation? In fact, there is a very deep and simple principle behind it. It used to be a seller's market, you could produce bicycles, and you had the final say. If a customer wanted to buy, you made them line up to purchase, if they didn't want to buy, they could leave. That era was dominated by the sellers! Now it's a buyer's market, consumers go to buy bicycles, there are a bunch of brands, each product has its own advantages, consumers choose, in the buyer's market, consumers have the final say, we produce what they like. Consumers are now referred to as users! So, everything you do should revolve around the user! Because if you don't meet the needs of users, there are too many sellers now, and your competitors will meet the needs of users and eliminate you! So: where the users are, the merchants should go there! For example: near our community, there used to be 2 restaurants. A provided delivery service and also cooperated with platforms like Meituan for delivery. B did not provide delivery service, even though B's area was larger than A's, and all conditions were better than A's. B thought that people would come to the restaurant to eat. They also did not cooperate with platforms like Meituan. But B didn't know that consumer habits were changing. Many young people and office workers just didn't want to walk over to eat. They wanted to order delivery! Gradually, A's business got better and better! In the end, B was taken down by A, and B's storefront was transferred. When B wanted to change, it was too late, consumers were already used to A, used to ordering A's delivery. The previous consumer habit was to eat, walk to the roadside to see which environment was good, which had characteristics. The current habit is to first take out the phone to see which environment is good, which has characteristics, which has coupons, the habit has changed. To use a metaphor, everyone is walking on the main road and likes to walk on the main road. Then you ask your users to take the side mountain road. Saying: Come, come over here, walking on the mountain road is better! You can drink water! Even if your users go on the mountain road, maybe after a while, they return to the main road because the main road is comfortable. At this point, you might think it's nothing. You think: Anyway, you want to drink water! You still have to come to my side on the mountain road to buy water. But you forget, now there are many competitors! Suddenly one day, your competitor also runs onto the main road.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>中新网西宁3月31日电 (孙睿)“在今年启动的青海省综合医改试点工作中，城乡居民医保筹资标准从510元提高到550元。”青海省卫生计生委体改处副处长张守顺31日接受中新网记者采访时说。2014年国家卫计委协调江苏、安徽、福建、青海四省份研究制定省级医改综合试点方案，2015年青海省综合医改试点方案已经国家批准并于2月10日启动。在实施一个月以来，青海省在改革着力点上，以推进全面深化公立医院改革、健全完善分级诊疗制度、加快医保支付方式改革为重点，明确统筹推进34项具体改革任务。张守顺对中新网记者说，青海是中国欠发达地区，新医改以来，其医保筹资标准和保障水平、城乡居民大病医疗保险、推行“先住院后结算”医疗服务模式等多项改革工作均走在了全国前列。其中，位居西北第一、全国第三的城乡居民医保筹资标准达到510元。而在今年启动的青海省综合医改试点工作中，青海稳步提高城乡居民医保筹资标准和保障水平，提高医保统筹层次，加强医保精细化管理，着力在医保支付方式改革、医疗费用异地即时结算等方面取得新的突破。城乡居民医保筹资标准稳步从510元提高到550元，城乡居民医保政策范围内住院费用支付比例达到78%，城乡居民医保参保率巩固在98%以上，位居全国前列。同时，青海逐步提高基本医保的统筹层次，力争在2015年年底对青海全省城乡居民医保统一实行市州级统筹；加快推进医保多种复合型付费方式；完善大病保险及医疗救助制度，提高疾病应急救助基金的使用效益。</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Xining, March 31st (Sun Rui) - "In the comprehensive medical reform pilot work launched in Qinghai Province this year, the funding standard for urban and rural residents' medical insurance has been raised from 510 yuan to 550 yuan," said Zhang Shoushun, Deputy Director of the Health and Family Planning Commission of Qinghai Province's Institutional Reform Department, in an interview with Xinhua News Agency reporters on the 31st. In 2014, the National Health and Family Planning Commission coordinated with Jiangsu, Anhui, Fujian, and Qinghai to research and formulate provincial comprehensive medical reform pilot programs. The Qinghai Province comprehensive medical reform pilot program was approved by the country in 2015 and launched on February 10th. Since its implementation a month ago, Qinghai Province has focused on promoting comprehensive reforms in public hospitals, improving the tiered diagnosis and treatment system, and accelerating the reform of medical insurance payment methods. It has identified and promoted 34 specific reform tasks. Zhang Shoushun told Xinhua News Agency reporters that Qinghai is an underdeveloped area in China. Since the new medical reform, its medical insurance funding standards and guarantee level, major illness medical insurance for urban and rural residents, and the implementation of the "hospitalization first, settlement later" medical service model have all been at the forefront of the country. Among them, the funding standard for urban and rural residents' medical insurance, ranking first in the northwest and third nationwide, has reached 510 yuan. In the comprehensive medical reform pilot work launched in Qinghai Province this year, Qinghai has steadily increased the funding standard and guarantee level for urban and rural residents' medical insurance, raised the level of overall medical insurance coordination, strengthened refined management of medical insurance, and made new breakthroughs in medical insurance payment reform and immediate settlement of medical expenses across regions. The funding standard for urban and rural residents' medical insurance has steadily increased from 510 yuan to 550 yuan. The payment ratio for hospitalization expenses within the scope of urban and rural residents' medical insurance policies has reached 78%, and the participation rate in urban and rural residents' medical insurance has remained above 98%, ranking among the top in the country. At the same time, Qinghai is gradually increasing the overall level of basic medical insurance, striving to implement city and prefecture-level overall coordination for urban and rural residents' medical insurance throughout Qinghai Province by the end of 2015; accelerating the promotion of multiple compound payment methods for medical insurance; improving the major illness insurance and medical assistance system, and enhancing the efficiency of the use of emergency disease assistance funds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>【摘要】3月31日晚上，刚刚在泰国举行完婚礼的伊能静与秦昊，在北京举办婚宴与圈内好友分享新婚喜悦。”伊能静表示当天的婚宴由在北京时间比较久的秦昊来负责，“男主外女主内，菜、酒、布置我负责，宾客、招待还有买单他负责”。 图片来源：伊能静微博3月31日晚上，刚刚在泰国举行完婚礼的伊能静与秦昊，在北京举办婚宴与圈内好友分享新婚喜悦。高圆圆、娄烨、王小帅、陈乔恩、李静、张梓琳、任泉等艺人陆续到场。新婚夫妻在稍晚时候出门接受群访，秦昊负责讲话，而伊能静甜蜜仰视秦昊。二人应媒体要求羞涩亲吻鼻尖。对于生子问题，秦昊和伊能静闭口不谈，工作人员也直接制止提问。当嘉宾们几乎都已经入场之后，秦昊和伊能静出门接受了媒体的采访。秦昊表示：“谢谢你们，我们会好好的。其实今天就是一个私人的聚会，大家一起聚一聚，我觉得我们重要的时刻要跟大家分享一下，不是什么婚礼，就是一个Party。”伊能静表示当天的婚宴由在北京时间比较久的秦昊来负责，“男主外女主内，菜、酒、布置我负责，宾客、招待还有买单他负责”。伊能静边说边笑，头下意识地向秦昊靠过去，小女人气质十足。秦昊透露接下来要在沈阳家里请亲戚朋友，“这个可能我们就没有那么辛苦了，该拍戏该工作，该养身体……”说着低头用手拍了一下伊能静的肚子，伊能静害羞笑着将头埋在秦昊身后。一心以婚姻为生活重点的伊能静还透露自己4月份之后就将停工持家，“我小时候的梦想就是嫁人，大家都知道我是爱大过天嘛，我觉得现在的生活就是我想要的”。</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>【Abstract】On the evening of March 31st, newlyweds Ruby Lin and Wallace Huo, who had just held their wedding in Thailand, hosted a wedding banquet in Beijing to share their joy with friends in the circle. Ruby Lin stated that Wallace Huo, who has been in Beijing for a long time, was in charge of the banquet that day. "The man takes care of external affairs, while the woman takes care of internal affairs. I am responsible for the food, drinks, and decorations, while he is responsible for the guests, hospitality, and the bill." Photo source: Ruby Lin's Weibo On the evening of March 31st, Ruby Lin and Wallace Huo, who had just held their wedding in Thailand, hosted a wedding banquet in Beijing to share their joy with friends in the circle. Celebrities such as Gao Yuanyuan, Lou Ye, Wang Xiaoshuai, Joe Chen, Li Jing, Zhang Zilin, and Ren Quan arrived successively. The newlyweds later went out to accept interviews from the media. Wallace Huo was responsible for speaking, while Ruby Lin sweetly looked up at him. The couple shyly kissed each other's noses as requested by the media. When almost all the guests had arrived, Wallace Huo and Ruby Lin went out to be interviewed by the media. Wallace Huo said, "Thank you all, we will be fine. Actually, today is just a private gathering. We are here to get together. I think we should share our important moments with everyone. It's not a wedding, it's just a party." Ruby Lin mentioned that Wallace Huo, who has been in Beijing for a long time, was in charge of the banquet that day. "The man takes care of external affairs, while the woman takes care of internal affairs. I am responsible for the food, drinks, and decorations, while he is responsible for the guests, hospitality, and the bill." Ruby Lin smiled as she spoke, subconsciously leaning towards Wallace Huo, exuding a charming feminine charm. Wallace Huo revealed that they would invite relatives and friends to their home in Shenyang next. "This might not be as hard for us. We will work, act, take care of our health..." He then lowered his head and gently patted Ruby Lin's belly, making her blush and bury her head behind Wallace Huo. Ruby Lin, who prioritizes marriage in her life, also revealed that she would stop working and focus on managing the household after April. "My childhood dream was to get married. Everyone knows that I love passionately. I think the life I have now is what I want."</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 携手姚星彤出演《土豪520》晨报讯（记者杨莲洁）观众还没有从《爸爸去哪儿》真人秀中回过神来，“奶爸”吴镇宇又变身为内地的“霸道壕叔”了。陈可辛监制、香港先锋导演林爱华执导的爱情喜剧电影《土豪520》定于5月20日上映，吴镇宇在片中出演狂追海归女姚星彤的内地土豪叔。吴镇宇表示，他希望为土豪正名，因为大多数富一代都是靠才智和努力成为土豪的，绝非拼爹的富二代可比。据导演林爱华介绍，《土豪520》将讲述富有却不开心的土豪吴镇宇爱上呆萌“海龟女”姚星彤，并由此引发的一系列啼笑皆非状况的故事。片中吴镇宇首次出演内地的“霸道壕叔”，难免会穿着金光闪闪衣服在镜头前晃来晃去。吴镇宇却表示，这是土豪的一面，电影中将展现土豪更多不为人知的性格和特点。“不是有钱的就是土豪。富一代要努力创业，靠脑子和努力挣钱，才能成为土豪。不像富二代靠父辈的努力生下来就有钱。”导演林爱华也赞同吴镇宇的观点，她也希望制作一部展现土豪更多面的电影。当然，不少观众感兴趣的土豪“豪”的一面，电影也会有所展示。据悉，片方在拍摄过程中动用了飞机、坦克、游艇等巨型道具，并远赴意大利七个城市多处豪宅庄园取景，目的就是在片中全方位展现土豪的奢华生活，满足观众的好奇心。</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Joining hands with Yao Xingtong to star in "Rich Man 520" Morning News (Reporter Yang Lianjie), the audience has not yet recovered from the reality show "Where Are We Going, Dad?", "Daddy" Wu Zhenyu has transformed into the mainland's "domineering rich uncle" again. Produced by Chen Kexin and directed by Hong Kong avant-garde director Lin Aihua, the romantic comedy film "Rich Man 520" is scheduled to be released on May 20th. Wu Zhenyu plays the role of a mainland rich uncle who passionately pursues the returning overseas graduate Yao Xingtong in the film. Wu Zhenyu said he hopes to clear the name of the rich, as most wealthy people rely on intelligence and hard work to become rich, far from the comparison of the second-generation rich who rely on their parents. According to director Lin Aihua, "Rich Man 520" will tell the story of the wealthy but unhappy rich man Wu Zhenyu falling in love with the silly "sea turtle girl" Yao Xingtong, leading to a series of comical and touching situations. In the film, Wu Zhenyu plays the role of a "domineering rich uncle" in the mainland for the first time, inevitably parading in flashy clothes in front of the camera. However, Wu Zhenyu stated that this is just one side of the rich, and the movie will show more unknown characteristics and traits of the rich. "Not everyone with money is a rich man. The wealthy need to work hard, rely on their brains and efforts to make money to become rich. Unlike the second-generation rich who are born rich through their parents' efforts." Director Lin Aihua also agrees with Wu Zhenyu's point of view and hopes to produce a film that showcases more aspects of the rich. Of course, the film will also showcase the luxurious side of the rich that many viewers are interested in. It is reported that during the filming process, the production team used giant props such as airplanes, tanks, and yachts, and traveled to seven cities in Italy to shoot in multiple luxury mansions, aiming to fully showcase the luxurious life of the rich in the film and satisfy the audience's curiosity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>宝贝妈咪在网上看到过很多国内的教育学家以及语言学家们的观点，认为小朋友学习双语的时间不宜过早，至少要等到孩子们掌握了一门语言之后再学习第二门语言，避免得陇望蜀最后顾此失彼。可事实上真的是这样么？先说几个身边的例子：宝贝妈咪周围不乏混血儿，他们小时候很有一些能够熟练地讲中文--英文；英文--西班牙文；德文--中文--英文，这完全基于他们的父母是说哪种母语的。但上学后如果孩子不再继续跟父母说母语，很快大家就只会说英语了，因为没有语言环境。从身边发生的实例来看，小朋友实在没必要一定要先学好一种语言，再去学习第二种。 科学家证明，孩子学语言，一岁前最有“天赋”宝贝妈咪本人是学生物的，对语言学习一知半解，对教育的理解也仅限于和自家宝贝斗智斗勇，不过仅从生物学的角度来说，人类大脑的发育进度却是和国内语言学家们的经验相反。近年来美国华盛顿大学的学习与脑科学研究所一直致力于婴幼儿的双语学习能力研究，他们发现与语言学家们的观点相反，事实上孩子越小，接受双语，甚至三语的能力越强，而这种“广谱”的语言学习能力在小宝宝一岁以前是最强的，过了一岁的生日以后他们的这种语言“天赋”能力就开始下降。所以，在小宝贝还没学会说话的时候就让他们接受双语环境的熏陶，等他们开始牙牙学语，蹒跚学步的时候就可以熟练的在双语环境中转换语种，同时语言的表达能力也会相应地变强。华盛顿大学的科学家们指出，相对于生活在一种语言家庭的婴儿，双语家庭环境中生活的宝宝，他们的大脑保持对不同语系的语言灵敏度时间更长一些，特别是在那些善于和宝宝交流的家庭中的孩子，他们的语言能力就更强一些，掌握的词汇量也更大。这篇报道最终发表于2011年的《语言学》期刊，这是科学家们第一次测量婴儿期宝宝的大脑发育，并将孩子们所处的语言环境与说话能力联系起来。可以想象能说双语宝宝大脑一定很灵活，对每件事物在认知上双语宝宝都知道是两个名称，而他们可以在双语间互换，这对宝宝的大脑来说增加了锻炼的机会，对大脑发育的益处也是可以想见的。不仅如此，华盛顿大学的研究人员在此之前的研究结果证明，只接触一种语言的宝宝在8个月到10个月大的时候分辨母语语音方面能力会日益增强，但与此同时，分辨外语语音的能力却减弱了。也就是说，小宝贝的语言全能性在一岁以前最强，随着孩子的长大，他们对熟悉的语言接受优先，慢慢的学习其他语言的能力就逐渐下降了。</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>The baby mommy has seen many viewpoints from domestic education experts and linguists online, believing that it is not advisable for children to learn two languages too early. They should wait until they have mastered one language before learning a second one, to avoid being distracted and losing focus. But is it really like this in reality? Let's start with a few examples around us: The baby mommy is surrounded by many mixed-race children who were able to fluently speak Chinese-English, English-Spanish, German-Chinese-English when they were young, based entirely on which language their parents spoke. However, if children stop speaking their mother tongue with their parents after starting school, soon everyone will only speak English because there is no language environment. From the examples around us, it is not necessary for children to have to learn one language well before learning a second one. Scientists have proven that children have the most "talent" for learning languages before the age of one. The baby mommy herself studies biology and has limited knowledge of language learning and education, but from a biological perspective, the development of the human brain actually contradicts the experiences of domestic linguists. In recent years, the Learning and Brain Sciences Institute at the University of Washington in the United States has been dedicated to researching the bilingual learning abilities of infants and young children. They found that contrary to the views of linguists, in fact, the younger the child, the stronger their ability to learn two or even three languages. This "broad-spectrum" language learning ability is strongest in babies under one year old, and after their first birthday, this "talent" for language begins to decline. Therefore, before babies learn to speak, expose them to a bilingual environment. When they start babbling and taking their first steps, they can proficiently switch between languages in a bilingual environment, and their language expression abilities will also correspondingly strengthen. Scientists at the University of Washington point out that compared to babies living in a single-language household, babies in bilingual environments maintain sensitivity to languages from different language families for a longer period of time. Especially in families that are good at communicating with babies, their language abilities are stronger, and their vocabulary is larger. This report was finally published in the journal "Linguistics" in 2011, marking the first time scientists have measured the brain development of infants and linked the language environment in which children are raised to their speaking abilities. It can be imagined that babies who can speak two languages must have very agile brains. Bilingual babies know two names for each object in terms of cognition and can interchange between the two languages, providing more opportunities for brain exercise and visible benefits for brain development. Furthermore, researchers at the University of Washington have previously proven that babies who are exposed to only one language have an increasing ability to distinguish native language sounds between 8 and 10 months old, but at the same time, their ability to distinguish foreign language sounds weakens. In other words, the linguistic versatility of babies is strongest before the age of one. As children grow older, their preference for familiar languages increases, and their ability to learn other languages gradually decreases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 《中国好舞蹈》金星组考核本周揭幕-&amp;nbsp;铁面导师首度荧屏落泪 金星渤海早报上海专电（记者杜琳）今晚，《中国好舞蹈》将迎来三大导师阵营的最后一场考核战—“星之队”金星战队导师考核专场。在前天下午举办的看片会上，记者先睹了本期的主要内容。面对残酷的赛制，向来铁面的金星在面临抉择时，也在荧屏上首度哽咽，流露出脆弱的一面。向来以“铁面无私”著称的金星无疑是《中国好舞蹈》三位导师中最严格的一位，她点评犀利、不留情面。但就在本周的金星导师考核专场中，金星在第一轮按下碎票机按钮后就按捺不住心中的不舍，欲强装镇定的她本想以微笑带过，却被方俊逮个正着：“今天看到金老师流泪了，金老师跟我说，她不会流泪，但今天是她第一次哭。”金星的本场考核，还请到了中美舞林最受欢迎的舞者齐来助阵。其中金星的梦想导师Russell是美国《舞林争霸》第六季的年度总冠军，他不仅在导师席上给金星选人的建议，在训练营里，他也担任了编舞工作，帮队内的一对街舞女孩编排了一支野性十足的作品。而去年《舞林争霸》的冠军张傲月也为刘子玥和白玛次仁编了“初恋”之舞，为张娅姝和周丽君编了“尤物”之舞，都成为这个舞台上的经典作品。张傲月也在开场舞中亲自登台献舞，用他的舞蹈跳出了和学员们几周朝夕相处的不舍之情。舞蹈中，他的手不慎被舞台上残留的拉丁舞衣上的水钻划破，血流不止，但是这依然没有影响他的完美发挥。如果说海清的北京训练营是帅哥扎堆儿，那么金星的上海训练营则是美女如云，本季《中国好舞蹈》最漂亮的女舞者都被金姐收入麾下。其中，来自成都的张娅姝和上海“嗲妹妹”周丽君更是金星在炫舞阶段就尤其欣赏的两位女舞者，本周的考核中，金星特意将两人放在一组，以“尤物”为题，让她们盛放出最美的舞姿。周丽君和张娅姝一登台就分别以白蛇和青蛇的造型惊艳观众，舞蹈过半，两人突然站上凳子，背对观众脱下外袍，露出里面贴身裁剪的旗袍，一瞬间由《青蛇》穿越到《夜上海》。郭富城认为这支双人舞完全把两个人各具风格的美发挥了出来，“你们用舞蹈把尤物两个字都表现了出来，当你们在跳上凳子脱衣服的时候，我真的头晕了。”台下的男人纷纷被两位尤物晃了神，金星眼神中流露出无限骄傲。金星透露，两人的衣着服饰，从布料到设计都是她亲手操办的。“旗袍的面料是我亲自开车上街买的，我对她们俩倾注了很多的感情，而这段舞蹈，她们完成得非常好。</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>"Good Dance of China" Venus Group Assessment Unveiled this Week - Iron-faced Mentor Tears Up on Screen for the First Time
+Shanghai Special Report by Venus Bohai Evening News (Reporter Du Lin) - Tonight, "Good Dance of China" will usher in the final assessment battle of the three major mentor camps - the "Star Team" Venus Team Mentor Assessment Special. At the screening meeting held the day before yesterday afternoon, the reporter got a glimpse of the main content of this episode. Faced with the brutal competition format, Venus, who has always been known for her iron-faced demeanor, also choked up for the first time on screen when faced with making a choice, revealing a vulnerable side. Venus, who has always been known for her "selfless iron-faced" reputation, is undoubtedly the strictest of the three mentors of "Good Dance of China". Her critiques are sharp and unforgiving. However, in this week's Venus Mentor Assessment Special, after pressing the button of the shredder in the first round, Venus could not hold back her reluctance. She wanted to pass it off with a smile, but was caught off guard by Fang Jun: "Today I saw Teacher Venus shed tears. Teacher Venus told me that she wouldn't cry, but today is the first time she cried." For her assessment this time, Venus also invited the most popular dancer in the Sino-American dance world, Qi, to assist. Among them, Venus's dream mentor, Russell, was the annual champion of the sixth season of the American "Dance War". Not only did he give advice to Venus in the mentor's seat, but he also took on the role of choreographer in the training camp, helping a pair of street dance girls in the team to choreograph a wild piece. Last year's "Dance War" champion, Zhang Aoyue, also choreographed a "First Love" dance for Liu Ziyue and Bai Ma Ciren, and a "Seductress" dance for Zhang Yashu and Zhou Lijun, both becoming classic works on this stage. Zhang Aoyue also personally took the stage in the opening dance, expressing his reluctance to part ways with the students he had been with day and night for weeks through his dance. In the dance, his hand was accidentally scratched by the rhinestones left on the Latin dance costume on the stage, blood flowed, but this did not affect his perfect performance. If Hai Qing's Beijing training camp is a gathering of handsome men, then Venus's Shanghai training camp is full of beauties, with the most beautiful female dancers of this season's "Good Dance of China" all under Venus's wing. Among them, Zhang Yashu from Chengdu and Shanghai's "Coquettish Sister" Zhou Lijun are two female dancers that Venus especially appreciates in the dazzling dance stage. In this week's assessment, Venus deliberately placed the two of them in a group, with the theme of "Seductress", allowing them to show off their most beautiful dance moves. Zhou Lijun and Zhang Yashu stunned the audience with the appearances of the White Snake and the Green Snake as soon as they took the stage. Halfway through the dance, the two suddenly stood on chairs, turned their backs to the audience, took off their outer robes, revealing the close-fitting cheongsams underneath, instantly transitioning from "Green Snake" to "Shanghai Nights". Aaron Kwok believed that this duet fully showcased the individual styles of the two, "You both used dance to embody the essence of 'Seductress'. When you were dancing on the chairs and taking off your clothes, I really felt dizzy." The men in the audience were all dazzled by the two seductresses, and Venus's eyes revealed infinite pride. Venus revealed that she personally handled the clothing and fabrics of the two, from the materials to the design. "I personally drove to buy the fabric for the cheongsam. I poured a lot of emotions into them, and they did very well in this dance."</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>男人四十一枝花，女人四十豆腐渣女人年纪大了有皱纹，男人年过四十就发福此话说真也真，说假也假不过你看人家赵雅芝年轻的时候这样 哇哦，美若天仙现在这样，可事实上她已经60多岁了 原来有些东西真的跟年纪无关，给跪再看看身边很多同龄人又有几个能做到像不老女神这样的当然，在中国有一个神奇的舞种大叔大妈钟爱款——广场舞的确很销魂额是啊，对于大多数的老人而言练练太极、跳跳广场舞就是极大地进步和追求了然而一位来自广州的94岁老人却不这么想“这些都太小儿科、太柔和了我喜欢刺激”于是，他选择了健身 说他九十几岁我可以相信但说他九十多岁还能拿的起杠铃做的了力量健身器材的运动我就有点蒙圈，难道骨质没疏松锻炼起来不会嘎嘣脆嘛 谁都不能一口吃成个胖子，原来这位高龄老人叫沈华，退休之后他就开始带孙子，等到孙子上小学了，自己已经七十几岁。慢慢地就开始考虑生老病死这些问题。机缘巧合之下看到一本有关于健身的书，称：多运动、血液循环、延缓衰老。 这一练便停不下来了，虽然老人承认现在的体能已经大不如从前，但坦言：自己健身不为竞争、不追逐极限，只为强身健体。 同样值得人称赞的还有一位七十多岁的老人白金芹别看她满头的银发，但却有着一身强健的肌肉从2005年开始，她就开始健身至今已坚持11年 她说年轻的时候经常生病但乐观的精神和坚持不懈的运动让她赶走疾病成为了大家眼中的“小白”——名副其实的时尚健康奶奶 没有对比就没有伤害 瞧瞧这气质，果然健了身的气场就是不一样千万别仗着自己年轻就荒废时间到老了才发现原来身体这么虚所以看了这些，你还要继续懒惰下去吗任何事情只要自己想做，什么时候都不会晚浑浑噩噩的过下去还是成为气质女神赵雅芝、时尚男神沈华这都是你的选择</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>A man at forty is like a flower, a woman at forty is like tofu dregs. Women get wrinkles as they age, men gain weight after forty. This saying is indeed true, but look at someone like Zhao Yazhi when she was young, wow, as beautiful as a celestial being. Now, she is over 60 years old. It turns out that some things really have nothing to do with age. Take a look around at many people of the same age, how many can achieve the ageless goddess status like her? Of course, in China, there is a magical dance style beloved by uncles and aunties - square dancing, which is truly enchanting. Yes, for most elderly people, practicing Tai Chi and dancing square dance is a great progress and pursuit. However, a 94-year-old man from Guangzhou thinks differently, "These are all too childish, too gentle. I like excitement." So, he chose to work out. I can believe that he is in his nineties, but to say that he can still lift dumbbells and do strength training exercises in his nineties, I am a bit puzzled. Won't his bones be brittle without osteoporosis? No one becomes fat in one bite. This elderly man is called Shen Hua. After retiring, he started taking care of his grandson. By the time his grandson started elementary school, he was already in his seventies. Slowly, he began to consider issues of life and death. By chance, he came across a book about fitness, which said: more exercise, better blood circulation, and delayed aging. He couldn't stop exercising after that. Although the elderly man admits that his physical fitness is not as good as before, he frankly says: he exercises not for competition, not to chase limits, but only to stay healthy. Another commendable elderly person is Bai Jinqin, who is in her seventies. Despite her silver hair, she has strong muscles. Since 2005, she has been working out and has been consistent for 11 years. She said that when she was young, she often fell ill, but her optimistic spirit and persistent exercise helped her ward off diseases, becoming known as "Little Bai" in everyone's eyes - a truly fashionable and healthy grandma. Without comparison, there is no harm. Look at this temperament, indeed, the aura of a fit body is different. Don't waste time just because you are young, only to realize how fragile your body is when you are old. So after seeing all this, will you continue to be lazy? Anything you want to do, it's never too late. Whether you continue to drift aimlessly or become a stylish goddess like Zhao Yazhi or a fashionable god like Shen Hua, it's all up to you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>7.26早评：天然气、白银行情分析操作建议及解套方案消息面：美联储加息预期升温上周三，耶伦大妈的一句，所有大宗商品齐齐下跌，美联储认为，英国退欧公投的影响已经被时间消化，美国非农数据良好，年内适合两次加息。美元断线走强，打压大宗商品。白银一反震荡局面，日内受挫。欧洲央行维持利率不变上周四晚间德拉基表示，欧洲央行维持利率水平不变，且预计会长期延续低利率的政策。而如果需要，量化宽松政策或会得到延长。若有必要，欧洲央行将会动用所有工具。随后欧元兑美元大幅震荡，带动美元指数也上蹿下跳。天然气行情分析：四小时图看，BOLL开口扩散，行情在中轨上方一路回踩，当前K线收成十字星，MACD快慢线收拢，红色能量柱逐渐缩量，KDJ三线向下发散预计今晚还有波下跌，重点关注支撑为4950一线，操作策略上建议以高空为主。1、上方反弹至5060附近布局空单，目标4980附近，止损502、下方下跌至4920附近可以轻仓做多，目标5020附近，止损50白银行情分析：昨日白银亚欧盘单边震荡走势，美盘时段反弹冲高，从四小时图来看，布林带开口有下行趋势，K线粘连于布林中轨运行，受阻与MA120指标线，MA5、MA10、MA20均线穿插发散，白银价格在此区间延缓上涨行情。小时看因受布林带上轨压力强劲回调走震荡，重点关注下方4060，上方4100；1、建议4110-4120做空，止损20个点，目标4060-4040；2、建议4050附近做多，止损20个点，目标4090-4100；解套操作：1、套牢时，根据图表分析，如果所买入的价位处在高位必须立即止损。2、如果所买入的价位处在中位，可以依据当时的情况暂时观望，以求的解套离场或者逢高减仓降低损失。3、如果所买入的价位处在低位，则不必急于止损，应该在所买入的价位下跌企稳之后，在重要的支撑位敢于低位补仓，摊薄成本，降低均价，在接下来的反弹行情中将高位套牢的仓位一同救出来。4、如果所买入的价位的处在上升趋势，则不必止损，耐心地持有一段时间，必然会解套，甚至还会有较大盈利的可能。时刻牢记：闻道有先后，术业有专攻。真诚合作，互利共赢！你赢，我陪你君临天下，看一场盛世繁华；你输，我陪你左右，伴你东山再起！你有敢进来的魄力，我就有让你赚钱的实力，没有华丽的语言，一切拿数据说话，实力打造精典，成功绝非偶然！顶一下</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Morning review on July 26: Analysis and operational suggestions for natural gas and silver market sentiment, as well as solutions to resolve positions. News: The expectation of a Fed rate hike heated up last Wednesday. A comment from Janet Yellen caused a simultaneous drop in all major commodities. The Fed believes that the impact of the UK's Brexit referendum has been digested over time, and the US non-farm data is good, making it suitable for two rate hikes this year. The US dollar strengthened, suppressing major commodities. Silver, contrary to its previous volatility, fell during the day. The European Central Bank maintained interest rates unchanged last Thursday night. Draghi stated that the ECB will keep interest rates unchanged and is expected to continue its policy of low interest rates in the long term. If necessary, quantitative easing policies may be extended. If needed, the ECB will use all tools available. Subsequently, the euro against the dollar fluctuated significantly, leading to volatility in the US dollar index. Natural gas market analysis: Looking at the four-hour chart, the Bollinger Bands are widening, with the market retracing above the midline all the way. The current candlestick forms a doji, the MACD fast and slow lines are converging, the red energy bars are gradually decreasing, and the KDJ three lines are diverging downwards, indicating an expected downward trend tonight. The key support to watch is around 4950, and the suggested operational strategy is mainly short. 1. Place short positions near 5060 on rebounds, with a target near 4980 and a stop loss at 502. 2. Going long with a light position near 4920 on a decline, with a target near 5020 and a stop loss at 50. Silver market analysis: Silver showed unilateral volatility during the Asia-Europe session yesterday, with a rebound and high during the US session. Looking at the four-hour chart, the Bollinger Bands show a downward trend, with candlesticks sticking to the midline of the Bollinger Bands, being resisted by the MA120 indicator line, and the MA5, MA10, and MA20 moving averages intersecting and diverging. Silver prices are slowing down in this range. Hourly observations show strong retracements due to the strong pressure from the upper Bollinger Band, focusing on 4060 below and 4100 above. 1. Suggest going short at 4110-4120, with a 20-point stop loss, and a target of 4060-4040. 2. Suggest going long near 4050, with a 20-point stop loss, and a target of 4090-4100. Position resolution: 1. When trapped, based on chart analysis, if the buying price is at a high level, stop loss must be implemented immediately. 2. If the buying price is at a mid-level, temporary observation based on the situation is recommended to exit the position or reduce the position on rallies to minimize losses. 3. If the buying price is at a low level, there is no need to rush to stop loss. After the buying price stabilizes after a decline, dare to add positions at the low level at important support levels to dilute the cost, lower the average price, and rescue the trapped positions in the subsequent rebound market. 4. If the buying price is in an uptrend, there is no need for a stop loss. Hold patiently for a period of time, and the position will inevitably be resolved, and there may even be a possibility of significant profits. Always remember: there is a sequence to learning, and expertise requires specialization. Sincere cooperation leads to mutual benefit and win-win results! If you win, I will accompany you to rule the world and witness a prosperous era; if you lose, I will stand by your side to help you rise again! If you have the courage to enter, I have the ability to help you make money. Without fancy language, let the data speak for itself. Strength creates classics, and success is not accidental! Like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HiEverybodyWearefamily 告诉大家一个好消息。女性之声新媒矩阵初具规模了。经过近两周的紧张工作，指数君和同事们已经把全国地市级妇联系统的微信公号全部纳入了。大家庭的幸福感暖暖滴。 在本期排行榜后，指数君再详细跟您聊聊咱们公号大家庭的那些事儿～～～ 继省级公号矩阵完成后，指数君的同事们就开始对地市级公号进行梳理了。截至今天，全国妇联系统已开通公号的地市级共有368个地区。他们都在这里呢～～ 以 浙江为例，她们是酱紫滴～～～（请注意上面按钮，进入页面按钮会变成粉色呦） 增幅速度好快一直关心指数君的朋友都知道，前段时间我们推出了地市级公号50强的排行榜（详见中国妇女报微信号fnb198410）。当时我们收录了237个地市级的活跃公号，在全国妇联召开新媒体工作推进会后，大家都很重视，新增了131个公号，增幅35%。覆盖地区很广此次入驻“新媒矩阵”，指数君预计到会有一些新增公号，但万万没想到会增加这么多。我们统计了一下我国的地市级单位，发现已开通的地区在全国已达到82%。地市全部开通的省份已达1/3其中，上海、安徽、甘肃、贵州、陕西、黑龙江、内蒙古、天津、浙江、广西等10个省、直辖市、自治区的全部地市级单位均已开通微信公众号。 指数君的葵花点赞手在这里。最后，还是最重要的那三句话：如果哪位小伙伴觉得指数君做的好，别忘了点赞呦！ 当然，我们也是刚刚开始做，还有很多东东想得不够周到，您可以通过公号的留言窗口给指数君留言，我们会更加努力的。 另外，如果您想为您所在的省市私人定制一样的“指数君”，也可通过留言方式，告诉我们。指数君将为您赴汤蹈火、在所不辞！ 推荐阅读推荐 | 要么健身要么读书，别再说无聊推荐 | 让你的家干净，再干净~非常有用推荐 | 太可惜！那些被我们扔掉的垃圾竟是“宝贝”！来源/中国妇女报 中华女性网作者/中国妇女报 中华女性网记者 谢威制图/李凌霄 编辑/吴苏锦 见习美编/李凌霄</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>HiEverybodyWearefamily has good news to share with everyone. The women's voice new media matrix is taking shape. After nearly two weeks of intense work, the Index Jun and colleagues have successfully integrated all the city-level women's contact systems' WeChat official accounts. The warmth of the big family is heartwarming. In the ranking list of this issue, Index Jun will chat with you in detail about the matters of our official account family~~~ After completing the provincial-level official account matrix, Index Jun's colleagues began to sort out the city-level official accounts. As of today, there are a total of 368 city-level areas nationwide that have opened official accounts in the women's contact system. They are all here~~~ Taking Zhejiang as an example, they are like this~~~ (Please pay attention to the button above, the enter page button will turn pink) The growth rate is very fast. Friends who have been concerned about Index Jun know that some time ago we released the ranking list of the top 50 city-level official accounts (see the WeChat account of China Women's News fnb198410). At that time, we included 237 active city-level official accounts. After the All-China Women's Federation held a new media work promotion meeting, everyone paid great attention, and 131 new official accounts were added, an increase of 35%. The coverage is very extensive. In this entry into the "new media matrix," Index Jun expected to have some new official accounts, but never expected to increase so many. We counted the city-level units in China and found that the areas that have opened accounts have reached 82% nationwide. One-third of the provinces where all cities have opened accounts, including Shanghai, Anhui, Gansu, Guizhou, Shaanxi, Heilongjiang, Inner Mongolia, Tianjin, Zhejiang, Guangxi, and other 10 provinces, municipalities, and autonomous regions, have all opened WeChat official accounts for all city-level units. Index Jun's sunflower likes are here. Finally, the most important three sentences: If any friend thinks Index Jun is doing well, don't forget to like it! Of course, we are just getting started, and there are still many things we haven't thought through. You can leave a message for Index Jun through the comment window of the official account, and we will work even harder. In addition, if you want a "Index Jun" customized for your province or city, you can also tell us through messages. Index Jun will go through fire and water for you without hesitation! Recommended reading recommendation | Either exercise or study, stop saying it's boring recommendation | Keep your home clean, even cleaner~ very useful recommendation | It's a pity! The trash we throw away turns out to be "treasures"! Source/China Women's News Chinese Women's Network Author/China Women's News Chinese Women's Network Journalist Xie Wei Chart/Li Lingxiao Editor/Wu Sujin Intern Editor/Li Lingxiao</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 北京时间10月23日19点35分，2016赛季中超联赛第28轮一场焦点大战将在天河体育中心打响，广州恒大坐镇主场迎战延边富德。乐视体育将对本场比赛进行现场直播，欢迎球迷们准时收看。【点击进入直播】球队近况广州恒大本赛季提前在亚冠中出局，这是他们把全部的精力都放到了国内赛场上。没有了亚冠分心，他们在中超和足协杯上踢得如鱼得水。联赛积分榜一直位列榜首，27轮比赛过后18胜6平3负积60分。今年重新重视足协杯的他们也一路杀进了决赛，将与江苏苏宁争夺最终的冠军。升班马延边富德的首个中超赛季表现不太稳定，在一波四连胜过后，他们最近7轮比赛仅仅取得了一场胜利。目前以9胜5平13负积32分的战绩排名积分榜第12位。他们领先降级区仅有6分，还没有完全摆脱降级的危险。交锋纪录广州与延边中超、中甲交锋9次，广州6胜3平保持不败，而且广州主场4战延边3胜1平，近3次交锋全部获胜。本赛季首回合，恒大在客场1-1与延边战平。恒大不败即可提前夺冠没有了亚冠赛场的分心，广州恒大在今年的中超赛场上表现得更加稳定，27轮比赛过后积分已经达到了60分。由于本轮比赛中，江苏苏宁在客场与重庆力帆战平，恒大只要在与延边富德比赛中保持不败，就能将领先第二名的优势增加到至少7分。而这场比赛过后，联赛只剩下了两轮。这也意味着，恒大有望今晚在主场提前夺冠，实现中超六连霸的伟业。但如果恒大主场不敌延边，冠军悬念还得延续到下轮。 恒大信心十足在赛前的新闻发布会上，恒大主帅斯科拉里表示：“球队最近情况非常不错，经过一周的调整，球员状态都很好，而且受伤的李学鹏也已经伤愈复出，在人员上更显得充裕。”从这段话中不难看出，广州恒大全队上下还是非常有信心能够拿下这场比赛。延边仍有保级压力由于最近7轮比赛仅仅取得了一场胜利，延边富德的积分还停留在32分，距离33分的安全线还有1分。本轮亚泰、永昌都有全取3分的可能，因此延边并没有完全摆脱降级的威胁。虽然客场挑战恒大想要拿分比较困难，但对于目前的延边来说，他们只要放手一搏这一条路可走。</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>At 19:35 on October 23, Beijing time, a key match of the 28th round of the 2016 Chinese Super League will kick off at the Tianhe Sports Center. Guangzhou Evergrande will host Yanbian Fude. LeSports will broadcast the game live on site. Fans are welcome to watch on time. 【Click here to enter the live broadcast】. 
+Team situation: Guangzhou Evergrande was eliminated early in the AFC Champions League this season, focusing all their energy on domestic competitions. Without the distraction of the AFC Champions League, they have performed excellently in the Chinese Super League and the FA Cup. They have been leading the league standings, with 18 wins, 6 draws, 3 losses, and 60 points after 27 rounds. They have also made it to the final of the FA Cup and will compete with Jiangsu Suning for the championship. 
+Promoted team Yanbian Fude's first season in the Chinese Super League has been somewhat unstable. After a four-game winning streak, they have only managed one victory in the last 7 matches. Currently, with 9 wins, 5 draws, 13 losses, and 32 points, they are in 12th place in the standings. They are only 6 points ahead of the relegation zone and have not completely avoided the danger of relegation. 
+Head-to-head record: Guangzhou and Yanbian have met 9 times in the Chinese Super League and China League One, with Guangzhou winning 6 and drawing 3, remaining unbeaten. In the 4 home games against Yanbian, Guangzhou has won 3 and drawn 1, winning all of the last 3 encounters. In the first leg of this season, Evergrande drew 1-1 with Yanbian away. 
+Evergrande can clinch the title undefeated: Without the distraction of the AFC Champions League, Guangzhou Evergrande has shown more stability in this year's Chinese Super League. With 60 points after 27 rounds, they have a chance to secure the title early tonight. If they avoid defeat against Yanbian Fude and Jiangsu Suning draw with Chongqing Lifan in this round, Evergrande will increase their lead to at least 7 points. After this match, there are only two rounds left in the league. This means that Evergrande is likely to clinch the title at home tonight and achieve a sixth consecutive Chinese Super League title. However, if Evergrande loses to Yanbian at home, the suspense of the championship will continue to the next round. 
+Evergrande is confident: At the pre-match press conference, Evergrande coach Scolari said, "The team is in very good shape recently. After a week of adjustments, the players are in good condition, and the injured Li Xuepeng has recovered and returned, making the squad more abundant." From this statement, it is clear that Guangzhou Evergrande is very confident in winning this match. 
+Yanbian still under pressure to avoid relegation: With only one victory in the last 7 matches, Yanbian Fude remains at 32 points, just 1 point away from the safety line of 33 points. This round, both Changchun Yatai and Chongqing Lifan have the potential to win all 3 points, so Yanbian has not completely escaped the threat of relegation. Although it is challenging for them to earn points against Evergrande away, for the current Yanbian team, they can only take the path of giving their best shot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 最新版钱江新城灯光秀时间表出炉！ 市钱江新城管委会消息，钱江新城主题灯光秀从2016年10月18日（周二）开始常态化播放，时间为每周二、五、六晚上18:30、19:30各一场。今晚有灯光秀吗？灯光秀以后还会有吗？钱江新城的灯光秀绝对是杭州的“网红”景观，每天都有人打听灯光秀的播放时间。今年9月中秋节前，杭州曾发布预告，从9月14日到10月7日，杭州城区各景点的灯光秀、音乐喷泉每天正常演出。“十一”长假后，这些灯光秀的播放时间，又成了市民和游客较为关心的问题。根据钱江新城管委会发布的最新公告，10月17日前灯光秀还是每晚都有的；10月18日开始，每周播放三晚，每晚放两场。 钱江新城的灯光秀时间调整了，其他区域的灯光秀、音乐喷泉是不是也要制定常规播放时间了？武林广场管委会昨天回复，武林灯光秀和音乐喷泉的时间暂时还不变，裸眼3D灯光秀播放时间还是每晚20：00，八少女音乐喷泉的演出时间是每晚19:30、20:30。 西湖音乐喷泉的播放时间，近日已从国庆期间的每天三场，调整为每晚两场，时间分别是19:00和20:00。 运河岸边的景观灯跟沿线运河桥的景观灯，目前和路灯同步开启，周一到周五亮灯时间为19:10—21:30，周末为19:10-22:30。 不过，杭州市城管委相关工作人员今天表示，杭州城区常态化景观灯亮灯方案即将发布，可能会对现有部分景观灯的开启时间有所调整。 除此之外，杭州市公交集团消息，将国博专线假日游9线首班时间提前至8：30，使其与杭州国际博览中心的开放时间（9：00）相对应，末班时间调整为20：00，与钱江新城灯光秀（18：30、19：30）演出时间更为一致。线路走向也有调整↓ 在这里小编温馨提醒：大家不用扎堆儿看人海了，记好时间，安排好行程，慢慢来。文明观赏，注意安全哦！▍来源：都市快报（dskbdskb）、@杭州市公交集团、市钱江新城管委会、杭州发布（版权归原作者所有，如有侵权，请联系删除）▍编辑：杭城（hang3d）</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>The latest schedule of the Qianjiang New City light show is out! According to the Qianjiang New City Management Committee, the themed light show in Qianjiang New City will be played regularly starting from October 18, 2016 (Tuesday), with shows every Tuesday, Friday, and Saturday at 18:30 and 19:30. Is there a light show tonight? Will there be light shows in the future? The light show in Qianjiang New City is definitely a popular scenic spot in Hangzhou, with people inquiring about the showtime every day. Before the Mid-Autumn Festival in September this year, Hangzhou had announced that from September 14 to October 7, the light shows and musical fountains at various attractions in the city would perform daily. After the National Day holiday, the showtimes of these light shows became a concern for residents and tourists. According to the latest announcement from the Qianjiang New City Management Committee, there will be light shows every night until October 17; starting from October 18, there will be three shows per week, with two shows each night. The timing of the light show in Qianjiang New City has been adjusted, will other areas' light shows and musical fountains also establish regular showtimes? The Wulin Square Management Committee replied yesterday that the timing of the Wulin light show and musical fountain remains unchanged for now, with the naked-eye 3D light show playing every night at 20:00, and the Eight Fairies Musical Fountain performing at 19:30 and 20:30 each night. The performance times of the West Lake Musical Fountain have recently been adjusted from three shows per day during the National Day period to two shows per night at 19:00 and 20:00. The scenic lights along the canal banks and canal bridges are currently synchronized with street lights, shining from 19:10 to 21:30 on weekdays and from 19:10 to 22:30 on weekends. However, the relevant staff of the Hangzhou Urban Management Committee stated today that a plan for the regular operation of urban landscape lights in Hangzhou will soon be released, which may involve some adjustments to the opening times of existing landscape lights. In addition, the Hangzhou Public Transport Group announced that the first bus of the National Expo Special Line 9 will depart at 8:30 on holidays, aligning with the opening time of the Hangzhou International Expo Center (9:00), and the last bus will be adjusted to 20:00 to better match the showtimes of the Qianjiang New City light show (18:30, 19:30). There are also adjustments to the route direction ↓ Here, the editor kindly reminds everyone: no need to crowd to watch the show, remember the times, plan your itinerary, take it easy. Enjoy the show in a civilized manner and stay safe! ▍Source: Urban Express (dskbdskb), @Hangzhou Public Transport Group, Qianjiang New City Management Committee, Hangzhou Release (copyright belongs to the original author, please contact for deletion if there is any infringement) ▍Editor: Hangcheng (hang3d)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>第一现场当然短期的调整并不意味着行情的结束，贯穿四季度的主要机会，还是会在高送转、债转股、股权转让还有壳资源，央企改革里面展开，如果有调整那减仓之后的资金可以得到更低的价位来介入，对于空仓资金调整正好是介入的机会，选好财富哥给大家讲的这些方向，四季度收个红包应该说问题不大。最后祝大家周末愉快，下周再见！国务院出台了对于互联网金融的监管意见，其中重点提到对于房地产违规资金的监管，这种态势同去年的股市监管很有点类似，对于配资、杠杆、融资进行全面的清查，最终导致的结果大家都看见了，三轮股灾。而清查房地产违规资金据说已经开始影响到房地产销售了，现在的售楼处销售都这么回答客户问题，凡事不可矫枉过正，否则真的要小心股灾的麻烦在楼市重现。 想想做个售楼的真心不容易，卖个楼还要躲躲藏藏的。再回到今天的市场，指数在今天呈现出V形反转的走势，财富哥在昨天也是重点建议大家要关注可能到来的回调，但下午中国联通、中化国际、际华集团等央企的崛起确实有些意想不到，这些大盘股顽强的把指数拉了起来，收盘居然还翻了红。但财富哥仍然不改要减一些仓位的观点，为什么？其一、今天没有新的热点，债转股的龙头海德股份倒掉，新的热点没出现；其二、虽然指数是在央企改革概念的拉抬下下午重新翻红，但成交量并没有有效扩大，并且央企改革的个股都是盘子很大，市值偏高的品种，对于市场号召力有限；其三、上证已经连续出现七连阳，算是下半年最好的成绩，连番上涨之后，调整的压力已然临近。盘面上来看，有消息称，中国政府计划将中化集团与中国化工集团合并为一家集团，这带动了市场对于中化国际、际华集团等个股的炒作，这一新热点也是把指数重新带起来的最重要动能。但财富哥对它们的持续性还是存疑的。同时高送转这块，川金诺、昊志机电、全志科技均是冲高回落走势，老牌妖股洪汇新材算是扛得住的，尾盘依然杠杠的涨停，三夫户外在温州帮的操作之下封上涨停板，其它的确实没有太多的亮点。最后一个值得关注的热点是，前期强势股在今天的超跌反弹表现，像名家汇、科恒股份、天润数娱都是封上涨停的回光返照走势。这类个股的表现不具有持续性，也没有太大的参与性。</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>The first scene, of course, short-term adjustments do not mean the end of the market. The main opportunities throughout the fourth quarter will still revolve around high stock dividends, debt-to-equity swaps, equity transfers, and shell resources, as well as the reform of central enterprises. If there is an adjustment, funds after reducing positions can enter at lower prices. For funds that are empty, the adjustment is just the opportunity to enter. Choosing the directions that Wealth Brother talked about for everyone, wrapping up a red envelope in the fourth quarter should not be a big problem. Finally, I wish you all a happy weekend and see you next week! The State Council has issued regulatory opinions on internet finance, with a key focus on regulating illegal funds in real estate. This trend is somewhat similar to last year's stock market regulation, with comprehensive investigations into margin trading, leverage, and financing, ultimately resulting in the three rounds of stock market crashes that everyone witnessed. It is said that the investigation of illegal funds in real estate has already begun to affect real estate sales. Sales offices now answer customer questions in this way. One must not overcorrect in everything, otherwise the troubles of a stock market crash may reappear in the real estate market. It's not easy to be a salesperson at a sales office, having to hide while selling a property. Returning to today's market, the index showed a V-shaped reversal trend today. Wealth Brother also emphasized yesterday that everyone should pay attention to the possible correction that may come. However, the unexpected rise of central enterprises such as China Unicom, Sinochem International, and Jiuhua Group in the afternoon was indeed surprising. These large-cap stocks stubbornly lifted the index, and it even turned red at the close. However, Wealth Brother still maintains the view of reducing some positions. Why? First, there was no new hot spot today. The leader of debt-to-equity swaps, Hyde shares, fell, and a new hot spot did not emerge. Second, although the index rebounded in the afternoon under the concept of central enterprise reform, the trading volume did not effectively expand, and the individual stocks of central enterprise reform have large market capitalization and high valuations, limiting their market appeal. Third, the Shanghai Composite Index has seen seven consecutive rises, which is considered the best performance in the second half of the year. After the continuous rise, the pressure of adjustment is approaching. Looking at the market, there are reports that the Chinese government plans to merge Sinochem Group with China National Chemical Corporation into one group, driving speculation in stocks such as Sinochem International and Jiuhua Group. This new hot spot is the most important driving force for lifting the index again. However, Wealth Brother still doubts their sustainability. At the same time, in the area of high stock dividends, Chuangjinuo, Haozhi Electromechanical, and Allwinner Technology all showed a trend of rising and falling after reaching highs, while the old demon stock Honghui New Materials managed to hold on, closing limit up at the end of the day. Sanfu Outdoor, under the operation of Wenzhou Bang, also hit the limit up board, while others indeed did not have many highlights. The last hot spot worth paying attention to is the overbought rebound performance of previously strong stocks today, such as Mingjia Hui, Keheng Shares, and Tianrun Entertainment, all showing a trend of limit up after a rebound. The performance of these stocks is not sustainable and does not have much participation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>巷报头条·关注小区生活垃圾——“去现场调查、尽快清理”，给个时间表居民的心里才踏实春天来了，可小区里或通往小区的必经之路上堆满了大量生活垃圾，空气中弥散着恶臭味，那该多添堵？日前，陆续有住在长安区西古城新区、桥西区南长街64号院以及长安区棉三生活区的居民向本报报料称，他们一出门就与又脏又臭、堆积许久的生活垃圾“邂逅”，好心情一扫而光。□文/图社区记者卞静杜慧通讯员蒋璇张开文隋欣伟现场一：小区垃圾倒路边堆了两米高17日上午，记者来到胜利大街与四水厂路交口，沿着这条路一路东行，经过西古城新区小区后大约300米处，路北侧堆积着一大堆生活垃圾，面积约有30多平方米，足足有2米多高，酷似一座“小山”。还未走近，就能闻到“垃圾山”散发出来的一股酸腐味道。走近后记者看到，在这座“垃圾山”中，不仅混杂着残羹剩饭、破塑料袋、废旧衣物、酒瓶等各种生活垃圾，还有一大捆枯树枝扔在旁边。有的垃圾袋上落满了尘土，看得出已积存了许久。一只野狗慢悠悠走到垃圾堆旁，埋头从里面捡食物吃。与这个景象对比强烈的是，在“垃圾山”旁的小树上挂着一个黄木板牌子，上面用黑色笔写着，“禁止倒垃圾，违者重罚。”骑车恰好从这里经过的西古城新区居民任先生告诉记者，这些垃圾都是物业倒的。他说，大约从过年开始，不知为何原因，物业每天都用三轮车把小区里的生活垃圾拉来倒在这，就在记者赶到约一个小时前，物业刚刚倒了一车。“只是往这里倒，不见有人拉走，日积月累，便堆成了山。”居民白女士说，她每天都要走这条路，每次经过“垃圾山”都得捂着鼻子，太臭了！而且一刮风，垃圾袋还会被吹得在空中飞舞，有一次她就被一个脏脏的垃圾袋打到脸，腻歪极了。“实在是又脏又臭，一出小区就能看到垃圾山，你说我们得啥心情？”白女士说，现在天气一天比一天暖和，她担心垃圾久久不清理，天热的时候会更臭，还会招来蚊蝇老鼠，滋生病菌。另一位由此经过的居民则称：“听说是之前的工人不干了，一时间没人掏送垃圾了！”回复：采访当天，记者来到位于西古城新区小区里的物业公司，一位工作人员称，负责人不在，她也不清楚具体为何要将小区的生活垃圾倒在路边。但她表示，垃圾只是暂时存放，物业会尽快清理走。当记者询问，准备何时清理时，她回答，“具体时间说不清，但会尽快的。”现场二：小区垃圾清理不及时好郁闷桥西区南长街64号院是个老居民区，小区仅有一栋多层住宅楼。</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Headline of Lane Newspaper: Focus on Community Household Waste - "Conduct on-site investigations, clean up as soon as possible." Only with a timetable in mind can residents feel at ease. Spring has arrived, but the community or the roads leading to the community are filled with a large amount of household waste, emitting a foul smell in the air. How frustrating is this? Recently, residents living in Xigucheng New District, Nan Chang Street No. 64 Courtyard in Qiaoxi District, and the Mian San Community in Chang'an District have reported to this newspaper that as soon as they step out, they encounter dirty and smelly, long-accumulated household waste, which completely ruins their good mood. Text/Photo: Community Journalist Bian Jing, Du Hui, Correspondents Jiang Xuan, Zhang Kaiwen, Sui Xinwei. Scene One: Household waste piled on the roadside, reaching a height of two meters. On the morning of the 17th, the reporter arrived at the intersection of Shengli Street and Sishuichang Road. Heading east along this road, after passing the Xigucheng New District community about 300 meters to the north side of the road, there is a large pile of household waste covering an area of more than 30 square meters, reaching over 2 meters in height, resembling a "small mountain". Even before approaching, one can smell the sour and rotten odor emanating from the "garbage mountain". Upon closer inspection, the reporter saw that within this "garbage mountain", there were not only leftovers, broken plastic bags, old clothes, wine bottles, and various household waste, but also a large bundle of dry branches thrown on the side. Some garbage bags were covered in dust, indicating that they had been accumulated for a long time. A stray dog leisurely walked to the pile of garbage, burying its head to pick and eat food from it. In stark contrast to this scene, there was a yellow wooden sign hanging on a small tree next to the "garbage mountain", with "No dumping of garbage, violators will be heavily fined" written in black. Mr. Ren, a resident of Xigucheng New District who happened to pass by on a bike, told the reporter that this garbage was all dumped by the property management. He said that starting from the Chinese New Year, for some unknown reason, the property management has been using tricycles to dump the community's household waste here every day. Just about an hour before the reporter arrived, the property management had just dumped a load here. "They just dump it here, and no one seems to take it away. Over time, it has piled up like a mountain." A resident, Ms. Bai, said that she has to walk this road every day, and every time she passes the "garbage mountain", she has to cover her nose because it's too smelly! Moreover, when the wind blows, the garbage bags will be blown into the air, dancing around. Once, a dirty garbage bag hit her face, which was extremely disgusting. "It's really dirty and smelly. As soon as we leave the community, we can see the garbage mountain. How can we be in a good mood?" Ms. Bai said that as the weather gets warmer day by day, she is worried that if the garbage is not cleared for a long time, it will become even smellier in the heat, attracting mosquitoes, flies, and rats, breeding bacteria. Another resident who passed by here said, "I heard that the previous workers quit, and for a while, no one is taking the garbage away!" Response: On the day of the interview, the reporter went to the property management company located in Xigucheng New District community. A staff member said that the person in charge was not present, and she was not sure why the community's household waste was being dumped on the roadside. However, she stated that the garbage was only temporarily stored, and the property management would clean it up as soon as possible. When asked when they planned to clean it up, she replied, "I can't give a specific time, but it will be done as soon as possible." Scene Two: Delayed cleaning of community waste causes frustration. No. 64 Courtyard on Nan Chang Street in Qiaoxi District is an old residential area with only one multi-story residential building in the community.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>中新网宁德3月30日电 (缪田坡叶茂)因琐事发生口角，福建霞浦县的黄某某推了对方一把，致其两个牙齿损伤，不仅赔了7万元人民币，还领了刑罚。霞浦县法院30日披露，以故意伤害罪判处黄某某拘役4个月。法院审理查明：2014年9月6日凌晨1时许，霞浦县三沙镇一KTV包厢内，因黄某某拒绝帮已喝醉的郑某某拿冰镇啤酒，双方发生争吵。被劝开后，双方在包厢内的卫生间过道口再次发生争吵。随即，黄某某用手推了郑某某一把，致其向前倒地，右前额裂伤，左上第一颗牙齿、右上第一颗牙齿折冠露髓。经霞浦县公安局物证鉴定室法医学人体损伤程度检验鉴定，郑某某的伤情为轻伤二级。2014年10月1日，黄某某经公安机关通知到案。案发后，黄某某已赔偿郑某某经济损失1万元。法院审理期间，黄某某又赔偿郑某某经济损失6万元，取得郑某某的谅解。法院审理认为，黄某某因琐事而故意殴打他人身体，致一人轻伤，其行为已构成故意伤害罪。黄某某在尚未受到讯问、未被采取强制措施时，经通知到霞浦县公安局接受调查，应视为自动投案，且其到案后如实供述自己的罪行，是自首，依法可从轻处罚。黄某某在案发后已赔偿郑某某经济损失，并已取得郑某某谅解，可酌情予以从轻处罚。据此，法院作出上述判决。</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Ningde, March 30th (Miao Tianpo Ye Mao) Due to a trivial matter, a person named Huang in Xiapu County, Fujian Province, pushed the other party, causing damage to two teeth, not only compensating 70,000 yuan, but also receiving a criminal penalty. The Xiapu County Court disclosed on the 30th that Huang was sentenced to 4 months of detention for the crime of intentional injury. The court found in the trial: At around 1 a.m. on September 6, 2014, in a KTV private room in Sansha Town, Xiapu County, Huang refused to help the already drunk Zheng get an iced beer, leading to an argument between the two. After being persuaded to leave, the two had another argument in the aisle outside the restroom in the private room. Subsequently, Huang pushed Zheng, causing him to fall forward, with a laceration on his right forehead, and the crowns of the first upper left and right teeth exposed. According to the forensic examination of the degree of human body injury conducted by the forensic medicine department of the Xiapu County Public Security Bureau, Zheng's injury was classified as a second-degree minor injury. On October 1, 2014, Huang was notified to appear by the public security organs. After the incident, Huang had compensated Zheng for economic losses of 10,000 yuan. During the trial, Huang compensated Zheng for economic losses of 60,000 yuan again and obtained Zheng's forgiveness. The court held that Huang intentionally assaulted another person due to a trivial matter, causing minor injuries to one person, constituting the crime of intentional injury. Huang voluntarily surrendered himself to the Xiapu County Public Security Bureau for investigation before being interrogated or subjected to coercive measures, which should be considered as voluntarily surrendering, and after confessing to his own crime truthfully upon appearing, it was considered as voluntary surrender, and he could be punished more leniently according to the law. Huang had compensated Zheng for economic losses after the incident and obtained Zheng's forgiveness, so a more lenient punishment could be considered. Based on this, the court made the above judgment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国桥牌协会副主席徐双未宣布开赛10月25日，作为中国海南桥牌节正赛之一的“金泰·南燕湾杯”公开双人赛开赛，共有93对选手参赛。中国桥牌协会副主席徐双未出席开赛仪式并宣布开赛。 海南金泰旅业开发有限公司副总经理 毕少华致辞出席开赛仪式的嘉宾还有国家体育总局棋牌运动管理中心桥牌部主任、中国桥牌协会秘书长郭玉军，海南南山文化旅游开发有限公司总裁关鹏，海南省桥牌协会会长朱清峰，海南金泰旅业开发有限公司副总经理毕少华致辞，国家体育总局棋牌运动管理中心桥牌部副主任、中国桥牌协会副秘书长王建新主持开赛仪式。 国家体育总局棋牌运动管理中心桥牌部副主任、中国桥牌协会副秘书长 王建新主持开赛仪式比赛共进行5节，其中预赛3节，决赛2节，取预赛前48对进入决赛。值得一提的是有8名外国选手参赛，分别来自新加坡、英格兰、马来西亚等国家。</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>The Vice Chairman of the Chinese Bridge Association, Xu Shuang, did not announce the opening of the competition on October 25th. The "Golden Thai · Nanyan Bay Cup" public doubles event, one of the main events of the China Hainan Bridge Festival, started with 93 pairs of players participating. Xu Shuang, Vice Chairman of the Chinese Bridge Association, was absent from the opening ceremony and did not announce the start of the competition. Bi Shaohua, Deputy General Manager of Hainan Jintai Tourism Development Co., Ltd., delivered a speech at the opening ceremony. Other guests present at the opening ceremony included Guo Yujun, Director of the Bridge Department of the Chess and Card Sports Management Center of the General Administration of Sport of China and Secretary General of the Chinese Bridge Association, Guan Peng, President of Hainan Nanshan Cultural Tourism Development Co., Ltd., Zhu Qingfeng, President of Hainan Bridge Association, and Bi Shaohua, Deputy General Manager of Hainan Jintai Tourism Development Co., Ltd. The opening ceremony was hosted by Wang Jianxin, Deputy Director of the Bridge Department of the Chess and Card Sports Management Center of the General Administration of Sport of China and Vice Secretary General of the Chinese Bridge Association. The competition consisted of 5 sessions, including 3 preliminary rounds and 2 finals, with the top 48 pairs from the preliminaries advancing to the finals. It is worth mentioning that there were 8 foreign players participating, from countries such as Singapore, England, and Malaysia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>辽宁人肿瘤死因前5位为肺、肝、结直肠、胃、食管等5种癌全国肿瘤防治宣传周科学抗癌关爱生命本报讯（华商晨报掌中沈阳客户端记者杨薇）我省城市居民肿瘤死亡前5位死因分别为肺癌、肝癌、结直肠癌、胃癌和食管癌，占恶性肿瘤死因的87.8%。4月15日~21日是全国肿瘤防治周，昨日，记者独家专访辽宁省肿瘤防治办公室副主任邢晓静，邢晓静针对辽宁肿瘤情况做了详细说明。在《2012中国肿瘤登记年报》采样的31个城市肿瘤登记地区中，丹东成为肺癌死亡率最高的城市。恶性肿瘤成我省居民第二大死亡原因今年1月，辽宁省卫生和计划生育委员会发布了《辽宁省2013年度卫生计生与人群健康状况报告》。报告指出2013年辽宁省城市及农村居民的恶性肿瘤死亡粗率达217.2/10万、166.4/10万，分别占居民死亡率的26.7%和24.6%，占全部17大类疾病的第二位。2013年辽宁省城乡居民前5位恶性肿瘤死因相同，顺位略有不同。城市居民肿瘤死亡前5位死因为肺癌、肝癌、结直肠癌、胃癌和食管癌；农村前5位死因肺癌、肝癌、胃癌、结直肠癌和食管癌，分别占据恶性肿瘤死因的87.8%、87.5%。31城市采样丹东居民肺癌死亡率最高在《辽宁省2013年度卫生计生与人群健康状况报告》能够看到我省人民的健康水平，那么对比全国数据来看，辽宁处于什么水平呢？邢晓静表示，这就需要从《2012中国肿瘤登记年报》中寻找答案。肺癌是辽宁男性恶性肿瘤发病率的第1位，女性第2位，40岁以后随年龄逐渐升高，80岁以后有所下降。在《2012中国肿瘤登记年报》所采样的31个城市肿瘤登记地区中，男性肺癌死亡率，辽宁的丹东、本溪分别占据了第1和第3的位置，女性肺癌死亡率，辽宁的丹东、本溪分别占据了第1和第2的位置。41个农村肿瘤登记地区中，男女性肺癌标化发病率最高的均为东港市，56.66/10万，42.49/10万。丹东、本溪分别占据了第1和第3的位置，女性肺癌死亡率，辽宁的丹东、本溪分别占据了第1和第2的位置。乳腺癌位居辽宁女性恶性肿瘤发病的第一位，25岁后呈现上升趋势，发病峰值在55~59岁之间。在《2012中国肿瘤登记年报》所采样的31个城市肿瘤登记地区中，女性乳腺癌标化发病率最高的为广州市，其次是大连和丹东，死亡率最高的是连云港市区，其次为广州市和丹东市。</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>The top 5 causes of cancer deaths in Liaoning Province are lung cancer, liver cancer, colorectal cancer, stomach cancer, and esophageal cancer. The National Cancer Prevention and Control Week promotes scientific anti-cancer measures and caring for life. According to the Liaoning Provincial Office of Cancer Prevention and Control Deputy Director Xing Xiaojing, the top 5 causes of cancer deaths among urban residents in our province are lung cancer, liver cancer, colorectal cancer, stomach cancer, and esophageal cancer, accounting for 87.8% of malignant tumor deaths. From April 15th to 21st is the National Cancer Prevention and Control Week. In the "2012 China Cancer Registration Annual Report" sampling 31 cities with cancer registration areas, Dandong has the highest lung cancer death rate. Malignant tumors are the second leading cause of death among residents in our province. In January of this year, the Liaoning Provincial Health and Family Planning Commission released the "Liaoning Province 2013 Annual Health and Family Planning and Population Health Status Report." The report pointed out that in 2013, the crude mortality rates of malignant tumors among urban and rural residents in Liaoning Province were 217.2/100,000 and 166.4/100,000, accounting for 26.7% and 24.6% of the mortality rates of residents, respectively, ranking second among all 17 major disease categories. The top 5 causes of malignant tumors for urban and rural residents in Liaoning Province in 2013 were the same but with slight differences in ranking. The top 5 causes of cancer deaths among urban residents were lung cancer, liver cancer, colorectal cancer, stomach cancer, and esophageal cancer; while among rural residents were lung cancer, liver cancer, stomach cancer, colorectal cancer, and esophageal cancer, accounting for 87.8% and 87.5% of malignant tumor deaths, respectively. Among the 31 sampled cities, Dandong residents had the highest lung cancer death rate. The "Liaoning Province 2013 Annual Health and Family Planning and Population Health Status Report" provides an overview of the health status of our province's people. So, how does Liaoning compare to national data? Xing Xiaojing said that this requires finding answers from the "2012 China Cancer Registration Annual Report." Lung cancer ranks first in the incidence rate of malignant tumors among men in Liaoning, and second among women, gradually increasing after the age of 40 and decreasing after the age of 80. Among the 31 cities with cancer registration areas sampled in the "2012 China Cancer Registration Annual Report," Dandong and Benxi in Liaoning respectively ranked first and third in male lung cancer mortality rates, and Dandong and Benxi in Liaoning respectively ranked first and second in female lung cancer mortality rates. Among the 41 rural cancer registration areas, the standardized incidence rates of male and female lung cancer were highest in Donggang City, at 56.66/100,000 and 42.49/100,000, respectively. Dandong and Benxi respectively ranked first and third in male lung cancer mortality rates, and Dandong and Benxi in Liaoning respectively ranked first and second in female lung cancer mortality rates. Breast cancer ranks first in the incidence of malignant tumors among women in Liaoning, showing an increasing trend after the age of 25, with the peak incidence between 55 and 59 years old. Among the 31 cities with cancer registration areas sampled in the "2012 China Cancer Registration Annual Report," the standardized incidence rate of female breast cancer was highest in Guangzhou, followed by Dalian and Dandong, and the highest mortality rate was in Lianyungang, followed by Guangzhou and Dandong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>低空飞行观察”(low-A-O)由资深金融人士和航空飞行爱好者共同运营。定位：精致-细节-延伸，从E视角解读中国低空开放的步伐，见证低空时代，致力于打造低空飞行爱好者的低空飞行E-1俱乐部！关注:通航、军事、飞行爱好、E-金融视角下的低空信息、欢迎实名互粉。如果觉得不错，请转发推荐好友关注“低空飞行观察”（low-A-O）据英国《每日邮报》报道，1936年12月爱德华八世宣布与沃利斯·辛普森的结婚计划，但是遭到整个王室、教会和首相的强烈反对。由于辛普森夫人之前有过一次婚姻，为此爱德华和辛普森的婚姻遭到当时英国政府及民众的反对。若爱德华不顾政府意见，那么政府内阁将辞职，继而可能引发一场立宪危机。于是，这位历史上赫赫有名的温莎公爵便计划搭乘私人飞机逃离英国前往苏黎世，并有一架飞机专门负责运输温莎公爵的行李和其随从人员。据悉，在爱德华还是威尔士亲王时，他就已学习飞行并购买了王室的第一架飞机用以日常使用。1936年时，爱德华接收了一架注册号为G-ADDD的德哈维兰迅龙作为其私人飞机。该飞机运行基地位于亨顿机场，从该机场出发可在一天内轻松抵达瑞士。 图：1927年爱德华八世身着飞行员服装 图片来自：Desin Pics Inc/REX/Shutterstock若爱德华真的逃离英国，英国也必将陷入危机。最后，为了迎娶辛普森，爱德华选择退位。至此，乘坐私人飞机逃离英国的计划搁浅。------------------------------------------低空飞行观察（low-A-O）感谢您的持续关注和支持，我们也在摸索见证中成长，E-1版网络相关体验正在开发中，如您有好的想法或思路可以联系我们小编（tomorrow_whan），期待您的参与！让我们一起见证低空时代，实现我们的飞行梦想！</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>"Low Altitude Observation" (low-A-O) is jointly operated by senior financial professionals and aviation enthusiasts. Positioning: exquisite - detail - extension, interpreting the pace of China's low-altitude opening from an E perspective, witnessing the low-altitude era, and dedicated to building the E-1 club for low-altitude aviation enthusiasts! Focus: general aviation, military, aviation enthusiasts, low-altitude information from the E-financial perspective, welcome real-name mutual follow. If you think it's good, please repost and recommend friends to follow "Low Altitude Observation" (low-A-O). According to the British Daily Mail, in December 1936, King Edward VIII announced his marriage plan with Wallis Simpson, but faced strong opposition from the entire royal family, the church, and the Prime Minister. Due to Mrs. Simpson's previous marriage, Edward and Simpson's marriage was opposed by the British government and the public at that time. If Edward disregarded the government's opinion, the Cabinet would resign, which could lead to a constitutional crisis. Therefore, the famous Duke of Windsor in history planned to escape from England to Zurich by private plane, with a plane specially transporting the Duke's luggage and entourage. It is reported that when Edward was still the Prince of Wales, he had already learned to fly and purchased the royal family's first plane for daily use. In 1936, Edward received a De Havilland Dragon Rapide with the registration number G-ADDD as his private plane. The aircraft's operating base was at Heston Airport, from where it could easily reach Switzerland in a day. Image: King Edward VIII in pilot uniform in 1927. Image source: Desin Pics Inc/REX/Shutterstock. If Edward really fled England, the country would also fall into crisis. Finally, in order to marry Simpson, Edward chose to abdicate. Thus, the plan to escape England by private plane was shelved. ------------------------------------------ "Low Altitude Observation" (low-A-O) thanks you for your continued attention and support. We are also growing through witnessing and exploring. The E-1 version of the network-related experience is under development. If you have good ideas or suggestions, you can contact our editor (tomorrow_whan). We look forward to your participation! Let's witness the low-altitude era together and realize our flying dreams!</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 阴道炎是女性常见的妇科疾病，女性的生活中，应该做好一系列的保健工作，才能保证身体的健康。专家提醒：预防阴道炎，女性应该要特别“控糖”。念珠菌性阴道炎是妇科常见病、多发病，它是由白色念珠菌引起的，以阴道瘙痒、灼痛、豆渣样白带为主要特征。此病易复发，是目前妇科中常见的顽固性疾病。若一年内发作次数在4次或4次以上，则称为复发性念珠菌性阴道炎，专家表示，导致复发的因素非常广泛，如不良卫生习惯、过度冲洗阴道、内裤过于紧身、治疗不彻底、免疫力低下等等。阴道炎复发还跟进食、用药有关。念珠菌性阴道炎女患者们限制过度糖类食品摄入，因为甜食会增加阴道细胞、分泌物中的含糖量，这样的环境利于念珠菌的生长、繁殖。糖尿病患者、长期使用广谱抗生素、皮质类激素、免疫抑制剂、放疗药物和化疗药物等，会使人体免疫功能降低，导致阴道菌群失调，引起念珠菌性阴道炎反复发作，迁延不愈。这类阴道炎复发者就应该积极配合医生治疗原发病如糖尿病;正确合理应用抗生素;不滥用激素类药物。治疗不彻底也是念珠菌性阴道炎复发的常见原因，念珠菌可以侵犯至黏膜或上皮层的深部，如用药不足，方法不当或用药时间不够长，菌丝依然存在。患者们要按医嘱用药，用药足疗程，不自行停药。在用药期间，晚上冲洗完阴道与外阴、局部上完药后，可躺卧床上，分开两腿，使外阴裸露，通风透气，每天1小时。上述内容是关于预防阴道炎的相关介绍，希望朋友们多多进行学习了解，望广大患者朋友可以早日康复。建议大家在日常生活中多加注意。</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Vaginitis is a common gynecological disease in women. In women's lives, a series of health care measures should be taken to ensure the health of the body. Experts remind: to prevent vaginitis, women should pay special attention to "controlling sugar." Candida vaginitis is a common and frequently-occurring gynecological disease, caused by Candida albicans, characterized mainly by vaginal itching, burning, and curd-like vaginal discharge. This disease is prone to recurrence and is a common stubborn disease in gynecology. If the number of occurrences within a year is 4 times or more, it is called recurrent candida vaginitis. Experts indicate that the factors leading to recurrence are very extensive, such as poor hygiene habits, excessive vaginal douching, overly tight underwear, incomplete treatment, and low immunity, among others. Recurrence of vaginitis is also related to diet and medication. Female patients with candida vaginitis should limit the intake of sugary foods, as sweets can increase the sugar content in vaginal cells and secretions, creating an environment conducive to the growth and reproduction of Candida. Diabetic patients, long-term use of broad-spectrum antibiotics, corticosteroids, immunosuppressants, radiotherapy drugs, and chemotherapy drugs can lower the body's immune function, leading to imbalance of vaginal flora, causing recurrent candida vaginitis that is prolonged and difficult to heal. Such recurrent vaginitis patients should actively cooperate with doctors to treat the underlying diseases such as diabetes; correctly and reasonably use antibiotics; and avoid the misuse of steroid medications. Inadequate treatment is also a common cause of recurrent candida vaginitis. Candida can invade deep into the mucosa or epithelial layers. If the medication is insufficient, the method is improper, or the duration of medication is not long enough, the hyphae may still exist. Patients should take medication as prescribed, complete the full course of treatment, and not discontinue medication on their own. During the medication period, after rinsing the vagina and external genitalia at night and applying the medication locally, patients can lie down, spread their legs apart, expose the external genitalia, ventilate and air out for 1 hour every day. The above content is related to the prevention of vaginitis. We hope that friends can learn more about it, and we hope that patients can recover soon. It is recommended that everyone pay more attention in their daily lives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>胃癌现在有胃病的人很多，尤其是年轻人。这几年，医生们有个很强烈的感受：年轻人患胃病、胃癌的人数在增多。最近，一医院就连续接诊了3例被确诊胃癌的年轻人，年纪最小的才17岁。除了未病先防，警惕胃癌找上门，中医院的专家们还和记者分享了他们平时养胃护胃的十条经验。三个年轻人接连被查出胃癌?年仅17，患胃癌 ?最年轻的是一个17岁的杭州高中男生。虽然没有家族史，但平时学习压力挺大，吃饭也不规律，两三年前就感觉胃痛胃胀。前段时间做检查，他被确诊为胃癌中晚期，而且失去手术机会。衢州人小林，今年25岁。被确诊胃癌时，她很后悔此前在胃不适时没及时就医。30多岁的陈女士准备怀二胎，怕自己再出现反胃症状，到医院检查，竟查出早期胃癌。胃癌一直是我国的高发癌症我国胃癌发病率占全世界的42%，并且近5年来，19岁至35岁年轻人胃癌发病率比30年前翻了一番。虽然胃癌发病呈年轻化趋势，但很多年轻人并没有意识到这一点。最近，省中医院就连续接诊了3个患了胃癌的年轻人。程向东教授分析，除遗传因素外，年轻人患胃癌主要是受到长期熬夜、饮食不规律、精神压力大等不良生活习惯影响。一些年轻人不仅喝酒吸烟，还喜欢吃烧烤、腌制食物，口味吃得辛辣、咸。长此以往，胃炎、胃溃疡等胃病容易找上门，增加胃癌发病风险。另外，多数年轻患者不愿做胃镜，导致早期胃癌检出率低。胃癌隐藏性很好容易被忽略研究显示，胃癌早期发现后，未发生淋巴结转移患者5年生存率高达90%左右，甚至更高。而一旦发生了淋巴结转移，无论何种治疗方式，患者5年生存率只有20%左右。因此，胃癌的早期发现非常关键。但胃癌隐藏性很好，很多早期胃癌患者没有不适感，即便有症状，也认为只是胃病。“只要感觉胃部不舒服，就应及时就诊。研究证实，每年做一次胃镜检查的人群，胃癌发病率较低。”浙江省中医院消化内科张烁副主任医师提醒，尤其是慢性胃炎、胃溃疡患者，更要注意按时回访。目前，胃癌的早期确诊主要有三种手段。一是幽门螺杆菌检查，它与胃癌发病率关系密切；二是血液中的胃蛋白酶原检查，主要是监测胃黏膜状态；三是胃镜检查。对于检查，程向东教授建议，35岁至40岁的人群可以开始做胃镜，一到两年做一次。如果是有家族癌症史特别是胃癌史、爱吃腌制食品、饮食不规律、长期患有胃溃疡或胃炎的人，更要重视。“还有一点，胃病症状很相似，一定要先明确诊断，再对症下药。盲目吃药不仅容易掩盖症状，还会耽误治疗。</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>There are many people with stomach diseases, especially young people, suffering from stomach cancer now. In recent years, doctors have a strong feeling that the number of young people with stomach diseases and stomach cancer is increasing. Recently, a hospital consecutively diagnosed 3 young people with stomach cancer, the youngest being only 17 years old. In addition to prevention before illness, being alert to stomach cancer, experts from Chinese hospitals also shared their ten experiences of stomach care and protection with journalists. Three young people were diagnosed with stomach cancer in succession? The youngest was a 17-year-old high school student from Hangzhou. Although he had no family history, he had a lot of study pressure and irregular eating habits. He had been feeling stomach pain and bloating two or three years ago. After a recent examination, he was diagnosed with advanced stomach cancer and missed the chance for surgery. Xiao Lin from Quzhou, 25 years old this year, regretted not seeking medical attention promptly when she felt uncomfortable in her stomach before being diagnosed with stomach cancer. Ms. Chen in her thirties, preparing for her second child, was afraid of experiencing reflux symptoms again. She went to the hospital for a check-up and was unexpectedly diagnosed with early-stage stomach cancer. Stomach cancer has always been a high-incidence cancer in China, with China's stomach cancer incidence accounting for 42% of the world's total, and in the past five years, the incidence of stomach cancer in young people aged 19 to 35 has doubled compared to 30 years ago. Although the incidence of stomach cancer is trending towards a younger age group, many young people are not aware of this. Recently, a provincial Chinese hospital consecutively diagnosed three young people with stomach cancer. Professor Cheng Xiangdong analyzed that besides genetic factors, the main reason young people get stomach cancer is due to long-term staying up late, irregular diet, and high mental stress. Some young people not only drink and smoke but also enjoy eating barbecue, pickled foods, and spicy and salty foods. Over time, gastritis, stomach ulcers, and other stomach diseases are more likely to occur, increasing the risk of stomach cancer. In addition, most young patients are unwilling to undergo gastroscopy, leading to a low rate of early detection of stomach cancer. Stomach cancer is well hidden and easily overlooked. Research shows that once stomach cancer is detected early, the 5-year survival rate for patients without lymph node metastasis is around 90% or even higher. However, once lymph node metastasis occurs, regardless of the treatment method, the 5-year survival rate for patients is only around 20%. Therefore, early detection of stomach cancer is crucial. However, stomach cancer is well hidden, and many early stomach cancer patients do not feel discomfort. Even if there are symptoms, they may think it is just a stomach disease. "As long as you feel uncomfortable in your stomach, you should seek medical attention promptly. Studies have shown that people who undergo gastroscopy once a year have a lower incidence of stomach cancer." Dr. Zhang Shuo, Deputy Chief Physician of the Digestive Department of Zhejiang Provincial Hospital of Traditional Chinese Medicine, reminded that especially for patients with chronic gastritis and stomach ulcers, timely follow-up is essential. Currently, there are three main methods for early diagnosis of stomach cancer. The first is Helicobacter pylori testing, which is closely related to the incidence of stomach cancer; the second is checking for gastric protease in the blood, mainly to monitor the status of the gastric mucosa; and the third is gastroscopy. For examinations, Professor Cheng Xiangdong suggests that people aged 35 to 40 can start undergoing gastroscopy every one to two years. Those with a family history of cancer, especially stomach cancer, a preference for pickled foods, irregular eating habits, or long-term gastric ulcers or gastritis, should pay more attention. "Another point is that the symptoms of stomach diseases are very similar, so a clear diagnosis must be made before treating the symptoms. Blindly taking medication not only easily masks the symptoms but also delays treatment."</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>从湄公河行动看无人机在警用领域的智能应用说起近日的最热影片，非国产佳作《湄公河行动》莫属。截至目前，该片凭借口碑发酵票房逆袭增长直指7亿大关，成为今年国庆档电影市场的一抹亮色。 细究起该片火热的原因，“为正义而战”的正能量基调、实力派演员的倾情演绎、“根据真实案件改编”的情感基础等，都是推动佳作产生的重要因素。除此之外，高科技枪械装备的运用亦成为不可忽视的原因，这其中，当属无人机的精彩亮相最为吸引人眼球。湄公河行动的重头戏就是这架狂拽炫酷的无人机，不少网友观影后表示，乍一看以为是一个会飞的军用水壶。只是，在用途上可就值得称道了，低空飞行、自主壁障，还能在鳞次栉比的楼房、电线间穿梭自如，多次为硬汉们开道、勘查敌情，成为英雄们最强的作战助手。那么，关键问题来了，这款无人机到底是谁家的? 值得注意的是，这种立式造型的无人机确实非常罕见，影片中的无人机，通过目测判断为单轴单旋翼，但真正的无人机应该不会这么设计因为单旋翼无法解决自旋问题，片子里的无人机应该说是一种虚构想象中的存在。但不可否认的是，这种被认为是科幻想象级存在的无人机在现实生活中并不是没有原形。国内一家专门做无人机的公司博瑞云飞便推出了一款便携的立式无人机，不同的是在立式机身的基础上做成了目前主流小型无人机采用的多轴旋翼解决方案，而且机臂一样可以折叠。博瑞云飞工业级的无人机叫云将X-airman，从网上曝光的图片看湄公河行动里的立式绿色机身应该直接参考了这版云将的设计，远看几乎一毛一样，只是旋翼方式又借鉴了Sprite的单轴，不过把人家的双旋翼改成了单旋翼。 不同于传统工业级无人机“傻大黑粗”的形象，博瑞云飞的云将系无人机，在极致便携小巧的机身上造出了最小的全行业应用专业无人机，还首次在如此小巧的机身上实现挂载和拓展功能，如红外，VR全景，三维扫描等。 除工业领域的云将外，博瑞云飞打造的消费民用级别无人机叫云童AIROBOY，就像个矿泉水瓶那么大，是折叠四旋翼的设计。不同于云将定位于工业用途，云童更倾向于民用，旅行、户外、运动等，适合爱玩、会玩的人群。除了摄影摄像、图传等功能之外，云童最大的特点是小巧便携，还能够挂载和功能拓展，能够满足户外出行用途。在9月底刚刚结束的云童无人机天使用户招募活动上，1000个云童无人机购买资格在短短一天内即抢购一空，这在无人机市场亦是比较好的成绩。</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Starting from the recent hit movie "Operation Mekong," the intelligent application of drones in law enforcement can be seen. As the hottest non-domestic film recently, "Operation Mekong" has stood out. Up to now, with the word-of-mouth fermentation, the box office has surged towards the 700 million mark, becoming a bright spot in this year's National Day film market. Looking closely at the reasons for the film's popularity, the positive energy tone of "fighting for justice," the passionate performances of powerful actors, and the emotional foundation of being "based on a true case" are all important factors that have driven the creation of this excellent work. In addition, the use of high-tech firearms and equipment is also an undeniable reason, among which the brilliant appearance of drones is the most eye-catching. The highlight of "Operation Mekong" is this cool and stylish drone, which many netizens thought at first glance was a flying military kettle. However, its worth praising for its practical uses, such as low-altitude flight, autonomous obstacle avoidance, and the ability to shuttle freely among densely packed buildings and power lines, multiple times clearing the way for the tough guys and scouting the enemy, becoming the strongest combat assistant for the heroes. So, the key question arises, whose drone is this exactly? It is worth noting that this vertical-shaped drone is indeed very rare. The drone in the movie, judged by visual inspection, is a single-axis single rotor, but a real drone should not be designed like this because a single rotor cannot solve the spinning problem. The drone in the movie should be considered as an imaginary existence. However, it is undeniable that this drone, which is considered a science fiction-level existence, does have a prototype in real life. A domestic company specializing in drones, Borui Yunfei, has launched a portable vertical drone. Different from the traditional industrial-grade drones' "big, black, and bulky" image, Borui Yunfei's Yun X-airman is the smallest professional drone in the industry, with the most extreme portability and compact body, and for the first time, it achieves mounting and expansion functions on such a small body, such as infrared, VR panoramic view, and 3D scanning. In addition to the industrial-grade Yun X-airman in the industrial field, Borui Yunfei has also created a consumer-grade drone called Yun Tong AIROBOY, which is as small as a mineral water bottle and designed with a foldable four-rotor. Different from Yun X-airman's positioning for industrial use, Yun Tong is more inclined towards consumer use, suitable for travel, outdoor activities, sports, and for people who love to play and are tech-savvy. In addition to functions such as photography, videography, and image transmission, the biggest feature of Yun Tong is its small and portable size, and it can also be mounted and functionally expanded to meet outdoor travel needs. At the end of September, the Yun Tong drone angel user recruitment event just ended, and the qualification to purchase 1000 Yun Tong drones was sold out in just one day, which is also a good result in the drone market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>新华网北京6月21日电（记者王子正）热情奔放的摇滚、冷艳高贵的爵士、清新脱俗的乡村乐、朗朗上口的流行乐……21日，北京的音乐爱好者们在这一年中白日最长的一天，尽情地享受着一场“国际范”十足的音乐盛宴。源自法国的夏至音乐日当天在北京开幕。这是北京迎来的第三个夏至音乐日，法国、中国以及国际乐队以北京鼓楼一带为根据地，在全城的舞台上刮起音乐旋风，将“全民音乐”的概念体现得淋漓尽致。当天下午在位于朝阳公园附近的一处露天舞台，几百名音乐爱好者齐聚在这里的音乐日现场。记者在现场看到，国内国外的观众们在草坪享受着阳光、美酒与音乐，台上乐队的精彩演出不时迎来热情的喝彩声。此次北京的夏至音乐日由北京法国青年商会组织。商会主席艾利接受记者采访时介绍说，音乐日当天将有近60个来自全世界的乐队和歌手在全城30个酒吧展开音乐狂欢，“音乐的热浪将席卷整个北京城”。晚上6点，法国著名的爵士钢琴家皮埃尔在位于南锣鼓巷的一家露天酒吧里开始了演奏。现场，他和搭档用钢琴和二胡一起表演，将中国传统音乐与爵士乐完美融合，时而凄婉优美、时而细腻温柔，许多专程赶来的中外友人听得如痴如醉。在北京生活了8年的皮埃尔对记者说，这是他第二次参加夏至音乐日，对于他来说音乐节就是与朋友们的“一次狂欢”。“这样国际化的音乐日也将让北京市民们更好地了解外国形式多样的音乐”，他说。据音乐日组织者介绍，夏至音乐节素有“跨越国界、语言和文字障碍的节日”之称，而且以“免费”为特色让全民融入其中。当晚来到鼓楼附近一家酒吧观看演出的北京市民郭小姐说：“音乐节从法国来到北京，让热爱音乐的普通人不花钱就能享受各种音乐类型的表演，让我们可以领略来自法国等异域的文化”。据了解，夏至音乐日最初是由时任法国文化部长的雅克·朗于1982年创立于巴黎，旨在呈现形式多样的音乐。每年6月21日，专业音乐家或业余爱好者，不论年纪，均被邀请走上街头进行演出。夏至音乐日目前已扩展至全球100多个国家。近年来，中国的北京、武汉、上海、成都等地也加入了这项音乐盛事的阵营。</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Beijing, June 21st (by Wang Zizheng) Enthusiastic rock, elegant jazz, refreshing country music, catchy pop music... On the longest day of the year in Beijing, music lovers enjoyed a truly international music feast. The Summer Solstice Music Day from France kicked off in Beijing on the same day. This is the third Summer Solstice Music Day welcomed by Beijing, where French, Chinese, and international bands, based around the Drum Tower area, stirred up a musical whirlwind across the city, embodying the concept of "music for all." In the afternoon, at an outdoor stage near Chaoyang Park, hundreds of music lovers gathered for the music day event. Reporters on the scene saw domestic and foreign audiences enjoying the sun, wine, and music on the lawn, while the fantastic performances of the bands on stage were greeted with enthusiastic applause. The Beijing Summer Solstice Music Day was organized by the Beijing French Youth Chamber of Commerce. The Chamber's president, Eli, explained in an interview with reporters that nearly 60 bands and singers from around the world would perform in 30 bars across the city, igniting a music frenzy that would sweep through Beijing. At 6 p.m., the famous French jazz pianist Pierre began his performance at an outdoor bar in Nanluoguxiang. He and his partner performed together with a piano and erhu, perfectly blending Chinese traditional music with jazz, sometimes poignant and beautiful, sometimes delicate and gentle, leaving many Chinese and foreign friends who came specifically for the event enthralled. Pierre, who has lived in Beijing for 8 years, told reporters that this was his second time participating in the Summer Solstice Music Day, which, for him, was a "celebration with friends." "This international music day will also help Beijing residents better understand the diverse forms of foreign music," he said. According to the organizers of the music day, the Summer Solstice Music Festival is known as a "festival that transcends national borders, languages, and barriers," and its "free" feature allows everyone to participate. Miss Guo, a Beijing resident who came to watch the performance at a bar near the Drum Tower that evening, said, "The music festival coming from France to Beijing allows ordinary people who love music to enjoy performances of various music genres without spending money, enabling us to appreciate cultures from exotic places like France." It is understood that the Summer Solstice Music Day was initially founded in Paris in 1982 by the then French Minister of Culture, Jack Lang, aiming to showcase diverse forms of music. Every June 21st, professional musicians or amateur enthusiasts of all ages are invited to perform on the streets. The Summer Solstice Music Day has now expanded to over 100 countries worldwide. In recent years, cities in China such as Beijing, Wuhan, Shanghai, and Chengdu have also joined this music extravaganza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>来源：数据猿作者：檀润洋SaaS是SoftwareasaService（软件即服务）的简称，这是一种全新的软件服务模式，主要面向企业级客户。这两年SaaS行业发展迅速，随之爆发的还有一个“客户成功”的概念。一、没有客户成功SaaS将会怎样？SaaS企业获取新客户的成本较高，需要市场、销售、客服多部门协同配合，而且周期长。获取客户后，客户按照使用时间、功能定期付费；如果客户付费使用周期短的话很可能入不敷出。 图1：随着收入增长，流失金额越来越大以一个年收入1000W的SaaS企业为例，假设客户流失率是10%，那就是100W的收入损失。当这家企业发展壮大年收入1亿的时候，10%的流失率意味着每年1000W的收入流失；如果只靠销售团队新订单来补上这块缺口的话，企业的压力会非常大。正是因为这些特点，SaaS企业需要客户持续使用我们的产品，降低流失、提高留存。从产品上来说，SaaS产品需要满足用户业务需求、并且体验良好。从运营的角度来说，SaaS企业要熟悉客户业务需要、安排专门的工作人员提供有价值的指导服务，而这些人就是我们今天要介绍的“客户成功经理”。二、客户成功经理是做什么的？（一）客户成功经理的职责客户成功经理（Customer Success Manager ， 以下简称CSM），顾名思义，就是帮助付费客户在所在领域取得成功的负责人。若客户购买我们的产品服务是为了增加新用户，那么CSM对这家客户的职责就是帮助客户实现上述拉新目标。只有帮助客户实现了他们的目标，我们才能实现自己的目标－－让客户增购续购，长久地使用我们的产品。（二）客户成功经理的特点不同于客户服务或者技术支持部门，客户成功经理具有三个显著的特点：收益导向性，行为主动和高预测分析能力。收益导向性：从财务层面讲，CSM肩负着营收的使命。一般而言，一家成熟的SaaS企业约70%的收入来于老客户续约。所以CSM应该服务好客户，不断筛选优质客户，促进客户续约、增购。主动性：客户服务、技术支持基本上是被动式响应，等客户有问题并找上门来的时候给予帮助，充当的是“救火队”的角色。而CSM需要通过数据分析主动发现哪些客户需要帮助，并主动关怀。分析能力：CSM需要较高的数据分析能力，通过数据来判断哪些客户有流失的可能性，提前介入干预、避免客户流失；抑或是发现高级客户，促进增购、续约。</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Source: Data Ape Author: Tan Runyang
+SaaS is the abbreviation of Software as a Service, which is a new software service model mainly targeting enterprise-level customers. In recent years, the SaaS industry has developed rapidly, accompanied by the emergence of the concept of "customer success." 
+1. What will happen if there is no customer success in SaaS? SaaS companies incur high costs in acquiring new customers, requiring collaboration among multiple departments such as marketing, sales, and customer service, with a long cycle. After acquiring customers, they pay regularly based on their usage time and features; if customers have a short payment cycle, it is likely that the revenue will not cover the costs. Figure 1: As revenue grows, the amount lost due to churn increases. Taking a SaaS company with an annual revenue of 10 million as an example, assuming a churn rate of 10%, this means a loss of 1 million in revenue. When this company grows to an annual revenue of 100 million, a 10% churn rate implies an annual revenue loss of 10 million; if the company relies solely on new orders from the sales team to make up for this gap, the pressure on the company will be immense. It is precisely because of these characteristics that SaaS companies need customers to continue using their products, reduce churn, and increase retention. From a product perspective, SaaS products need to meet user business needs and provide a good user experience. From an operational perspective, SaaS companies need to understand customer business needs, allocate specialized staff to provide valuable guidance services, and these people are what we are introducing today as "customer success managers."
+2. What do customer success managers do? (1) Responsibilities of Customer Success Managers Customer Success Managers (CSMs), as the name suggests, are responsible for helping paying customers succeed in their respective fields. If a customer purchases our product and service to acquire new users, then the responsibility of the CSM for this customer is to help them achieve the above-mentioned user acquisition goals. Only by helping customers achieve their goals can we achieve our own goals - to increase customer purchases and long-term use of our products. (2) Characteristics of Customer Success Managers Different from customer service or technical support departments, customer success managers have three distinct characteristics: revenue orientation, proactive behavior, and high predictive analysis capabilities. Revenue orientation: From a financial perspective, CSMs are tasked with revenue generation. Generally speaking, about 70% of revenue for a mature SaaS company comes from renewals by existing customers. Therefore, CSMs should serve customers well, continuously identify high-quality customers, promote customer renewals, and increase purchases. Proactiveness: Customer service and technical support are essentially reactive, providing assistance when customers have problems and come seeking help, acting as a "firefighting team." In contrast, CSMs need to proactively identify which customers need help through data analysis and provide proactive care. Analytical skills: CSMs need strong data analysis skills to determine which customers are at risk of churn, intervene early to prevent churn, or identify high-value customers to promote additional purchases and renewals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>16日上午，神舟十一号载人飞行任务新闻发布会在甘肃酒泉卫星发射中心举行。据介绍，经空间实验室飞行任务总指挥部研究决定，神舟十一号载人飞船将于10月17日7时30分发射，飞行乘组由航天员景海鹏和陈冬组成，景海鹏担任指令长。神舟十一号载人飞船将于10月17日发射 神舟十一号载人飞行任务新闻发布会在酒泉举行。新华社记者 李刚 摄航天员景海鹏参加过神舟七号、神舟九号载人飞行任务，航天员陈冬是首次参加载人飞行任务。 神舟十一号航天员景海鹏 神舟十一号航天员陈冬技术支持参加任务的酒泉发射场、测控通信和着陆场等系统与神舟十号飞行任务状态基本一致。为进一步提高安全性、可靠性和适应本次飞行任务的具体要求，神舟十一号飞船和长征二号F遥十一火箭分别进行了部分技术状态更改。任务的主要目的一是为天宫二号空间实验室在轨运营提供人员和物资天地往返运输服务，考核验证空间站运行轨道的交会对接和载人飞船返回技术；二是与天宫二号空间实验室对接形成组合体，进行航天员中期驻留，考核组合体对航天员生活、工作和健康的保障能力，以及航天员执行飞行任务的能力；三是开展有人参与的航天医学实验、空间科学实验、在轨维修等技术试验，以及科普活动。四项措施保障执行神舟十一号任务的2名航天员计划在轨飞行33天，将从四个方面采取措施保障他们健康生活、高效工作。一是医监医保方面。飞行期间将综合利用医疗问询、基本生理指标检查、尿常规检测，以及心肺功能检查等手段，定期对航天员实施健康状态评估；更加注重加强舱内微生物控制，并配置了预防治疗药品和有关医疗器械，来确保飞行期间航天员的健康。二是失重生理效应防护方面。配备了防护装备和锻炼设备，尽可能降低失重给航天员带来的不利影响。比如：使用套带，解决飞行初期出现的头晕、鼻塞等不适反应；通过使用拉力器和自行车锻炼、穿着企鹅服工作，对心肺功能下降、肌肉萎缩和骨丢失等进行综合防护。三是营养健康保障方面。这次任务进一步丰富了航天食品，种类有近百种，食谱周期达到5天，膳食结构更加科学；同时还考虑了个性化需求，增强了食品感官接受性，任务期经过了航天员的试吃，他们还是比较满意的。四是心理支持方面。针对本次任务在轨飞行时间长的特点，将加大飞行期间对航天员的心理支持力度。在专业心理医生支持、亲情交流、航天员团队支持等基础上，进一步完善了技术支持手段。</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>On the morning of the 16th, the press conference for the Shenzhou-11 manned spaceflight mission was held at the Jiuquan Satellite Launch Center in Gansu. According to the introduction, as decided by the Space Laboratory Flight Mission Headquarters, the Shenzhou-11 manned spacecraft will be launched at 7:30 on October 17th, with the flight crew composed of astronauts Jing Haipeng and Chen Dong, with Jing Haipeng serving as the commander. The Shenzhou-11 manned spacecraft will be launched on October 17th, and the press conference for the Shenzhou-11 manned spaceflight mission will be held in Jiuquan. Xinhua News Agency reporter Li Gang photographed astronaut Jing Haipeng who has participated in the Shenzhou-7 and Shenzhou-9 manned spaceflight missions, while astronaut Chen Dong is participating in a manned spaceflight mission for the first time. The technical support for astronauts Jing Haipeng and Chen Dong participating in the Shenzhou-11 mission is similar to the systems of the Jiuquan launch site, telemetry and control communication, and landing site used in the Shenzhou-10 mission. In order to further enhance the safety, reliability, and meet the specific requirements of this flight mission, the Shenzhou-11 spacecraft and the Long March II-F Y11 rocket have undergone some technical modifications. The main objectives of the mission are: firstly, to provide personnel and material transportation services between the Tiangong-2 space laboratory and Earth, to verify the rendezvous and docking of the space station's orbit and the return technology of manned spacecraft; secondly, to dock with the Tiangong-2 space laboratory to form a complex, conduct mid-term astronaut stays, assess the ability of the complex to ensure the astronauts' life, work, and health, as well as the astronauts' ability to perform flight missions; thirdly, to carry out manned space medical experiments, space science experiments, in-orbit maintenance and other technical tests, as well as science popularization activities. Four measures have been taken to ensure the two astronauts of the Shenzhou-11 mission plan to stay in orbit for 33 days, taking measures from four aspects to ensure their health and efficient work. Firstly, in terms of medical monitoring and protection, during the flight, a comprehensive health assessment of the astronauts will be conducted regularly using medical inquiries, basic physiological index checks, urine routine tests, and cardiopulmonary function checks; more emphasis will be placed on strengthening microbial control in the cabin, and preventive treatment drugs and related medical equipment have been provided to ensure the astronauts' health during the flight. Secondly, in terms of protection against the physiological effects of weightlessness, protective equipment and exercise equipment have been provided to minimize the adverse effects of weightlessness on the astronauts. For example, using straps to address discomfort such as dizziness and nasal congestion in the early stages of the flight; comprehensive protection against decreased cardiopulmonary function, muscle atrophy, and bone loss through the use of tensioners and bicycles for exercise, and wearing penguin suits for work. Thirdly, in terms of nutritional health support, this mission has further enriched space food, with nearly a hundred varieties and a menu cycle of 5 days, making the dietary structure more scientific; personalized needs have also been considered, enhancing the acceptability of food, and after the astronauts' taste tests during the mission period, they were quite satisfied. Fourthly, in terms of psychological support, given the long duration of the in-orbit flight for this mission, efforts will be made to increase psychological support for the astronauts during the flight. Building on professional psychological support, family communication, and astronaut team support, further improvements have been made in technical support methods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>10月13日，由中央财经领导小组办公室、住房城乡建设部、国家发改委联合主办的特色小(城)镇建设工作经验交流会在杭州召开，会上公布了第一批中国特色小镇名单，我省4个镇上榜。开展特色小镇建设旨在牢固树立和贯彻落实创新、协调、绿色、开放、共享的发展理念，充分发挥市场主体作用，通过培育特色鲜明、产业发展、绿色生态、美丽宜居的特色小镇，探索小镇建设健康发展之路，促进经济转型升级，推动新型城镇化和新农村建设。到2020年，全国将培育1000个左右各具特色、富有活力的休闲旅游、商贸物流、现代制造、教育科技、传统文化、美丽宜居等特色小镇，引领带动全国小城镇建设，不断提高建设水平和发展质量。住房城乡建设部要求，培育的特色小镇必须具备特色鲜明的产业形态、和谐宜居的美丽环境，彰显特色的传统文化，拥有便捷完善的设施服务以及充满活力的体制机制。据悉，全国共有127个镇入选第一批中国特色小镇。我省上榜的4个镇分別是焦作市温县赵堡镇、许昌市禹州市神垕镇、南阳市西峡县太平镇、驻马店市确山县竹沟镇 。 (金水河客户端)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>On October 13th, the Experience Exchange Meeting on the Construction of Featured Small (Urban) Towns, jointly organized by the Office of the Central Leading Group for Financial and Economic Affairs, the Ministry of Housing and Urban-Rural Development, and the National Development and Reform Commission, was held in Hangzhou. At the meeting, the first batch of Chinese featured small towns list was announced, with 4 towns from our province making the list. The purpose of developing featured small towns is to firmly establish and implement the development concept of innovation, coordination, greenness, openness, and sharing, fully leverage the role of market entities, cultivate distinctive, industry-driven, green ecological, and beautiful livable featured small towns, explore a healthy development path for town construction, promote economic transformation and upgrading, and drive new urbanization and rural construction. By 2020, approximately 1000 distinctive and vibrant featured small towns focusing on leisure tourism, commercial logistics, modern manufacturing, education technology, traditional culture, and beautiful livability will be cultivated nationwide, leading and driving the construction of small towns across the country, continuously improving the level of construction and development quality. The Ministry of Housing and Urban-Rural Development requires that the cultivated featured small towns must have distinct industrial forms, harmonious and livable beautiful environments, showcase distinctive traditional culture, possess convenient and comprehensive facilities and services, and have vibrant institutional mechanisms. It is reported that a total of 127 towns nationwide were selected as the first batch of Chinese featured small towns. The 4 towns from our province on the list are Zhaobao Town, Wen County, Jiaozuo City, Shenhou Town, Yuzhou City, Xuchang City, Taiping Town, Xixia County, Nanyang City, and Zhugou Town, Queshan County, Zhumadian City. (Jinshuihe Client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>按照“和爸爸妈妈一起长大”——2016年常州市亲子阅读体验推广计划安排，昨天，9个阅读点发布本周末的亲子阅读活动安排，欢迎家长报名。中国邮政集团公司常州市泰山支局阅读点这次的绘本是《神奇的糖果店》。故事讲述的是，小猪走进“神奇糖果店”，试吃了各式各样的神奇糖果，有大力士糖果、还有可以隐身的糖果……还有吃了就能变成大灰狼的糖果呢！吃了神奇糖果后，小猪伪装成大灰狼到处恶作剧，正当他得意得哈哈大笑时，真正的大灰狼却突然出现了……天哪，小猪该怎么办？他会遇到危险吗？神奇的糖果又会起到怎样的神奇效果呢？宫西达也笔下的故事总是充满别样的幽默与快乐，他创作的绘本都深受读者的喜爱，具有独特的个性，带给孩子不同的故事感受。具体报名方式，家长可以就近选择阅读点，下载手机客户端“享去”报名参与。刘国庆2016年7月第四周亲子阅读活动安排时间 阅读点 地点 内容 可安排 所在 报名人数 区域 通道7月24日 江苏卓艺文化 常州市钟楼区 《我的幸运一天》 60 荷花池街道 享去13:00起 培训有限公司 健身路12号机关房产大楼5楼7月23日 新华书店 常州市南大街 《蛤蟆爷爷的秘诀》 40 钟楼区南大街街道 享去13:00起 少儿厅 三楼新华书店7月23日 新华书店 新华书店常武购书中心 《老鼠娶新娘》 60 天宁区天宁街道 享去9:30起 青果书屋 和平北路130号7月24日 三益书屋 新北区龙锦路百草苑小区 《野兔盖房子》 40 三井街道府田社区 享去9:30起 6号楼三楼7月24日 书式生活 常州市吾悦国际广场 绘本阅读 30 钟楼区南大街街道 享去13：30起 A座2层237-238 《我做哥哥了》7月24日 中央花园 常州市晋陵中路 绘本阅读 40 中央花园社区 享去9:00起 机关幼儿园 633号3-1幢 《我家是动物园》7月24日 中国邮政集团公司 常州市钟楼经开区 《艾玛与风》 30 钟楼区北港街道 享去9:00起 常州市北港支局 水杉路御源林城163号7月23日 中国邮政集团公司 常州市新北区 《神奇的糖果店》） 30 新北区三井街道 享去10：00起 常州市泰山支局 太湖中路27号7月24日 武进图书馆 常州市武进区 《我是霸王龙》 30 府北社区 享去14:30起 延政中大道65号 创意绘本的阅读和制作</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>According to the "Growing Up with Mom and Dad" - 2016 Changzhou Parent-Child Reading Experience Promotion Plan, yesterday, 9 reading spots announced the schedule for this weekend's parent-child reading activities, welcoming parents to sign up. The reading spot of China Post Group Changzhou Taishan Branch this time will feature the picture book "The Magical Candy Store". The story tells about a little pig who enters the "Magical Candy Store", tries various magical candies, such as the strongman candy, the invisible candy... and even a candy that can turn you into a big bad wolf! After eating the magical candies, the little pig disguises himself as a big bad wolf to play pranks everywhere. Just as he is laughing triumphantly, the real big bad wolf suddenly appears... Oh my, what should the little pig do? Will he encounter danger? What magical effects will the magical candies have? The stories by Gong Xida are always full of unique humor and joy, his picture books are deeply loved by readers, with a distinctive personality, bringing children different story experiences. For specific registration methods, parents can choose the nearest reading spot and sign up to participate by downloading the mobile app "EnjoyGo". Liu Guoqing's 4th week of July 2016 parent-child reading activity schedule Time Reading Spot Location Content Can Arrange Number of Participants Area Channel July 24 Jiangsu Zhuoyi Culture Changzhou Zhonglou District "My Lucky Day" 60 Hehuachi Street EnjoyGo 13:00 Training Co., Ltd. No. 12 Jianshin Road, 5th Floor, Office Building July 23 Xinhua Bookstore Changzhou Nanda Street "Grandpa Toad's Secret" 40 Zhonglou District Nanda Street EnjoyGo 13:00 Children's Hall, 3rd Floor Xinhua Bookstore July 23 Xinhua Bookstore Xinhua Bookstore Changwu Shopping Center "The Mouse's Wedding" 60 Tianning District Tianning Street EnjoyGo 9:30 Qingguo Bookstore No. 130 Heping North Road July 24 Sanyi Bookstore Xinbei District Longjin Road Baicao Garden Community "The Rabbit Builds a House" 40 Sanjing Street, Futing Community EnjoyGo 9:30 Building 6, 3rd Floor July 24 Bookish Life Changzhou Wuyue International Plaza Picture Book Reading 30 Zhonglou District Nanda Street EnjoyGo 13:30 Block A, 2nd Floor, 237-238 "I'm a Big Brother Now" July 24 Central Garden Changzhou Jinling Middle Road Picture Book Reading 40 Central Garden Community EnjoyGo 9:00 Kindergarten No. 633, Building 3-1 "My Family is a Zoo" July 24 China Post Group Changzhou Zhonglou Economic Development Zone "Emma and the Wind" 30 Zhonglou District Beigang Street EnjoyGo 9:00 Changzhou Beigang Sub-bureau No. 163 Yuyuan Lincheng, Shuishan Road July 23 China Post Group Changzhou Xinbei District "The Magical Candy Store" 30 Xinbei District Sanjing Street EnjoyGo 10:00 Changzhou Taishan Sub-bureau No. 27 Taihu Middle Road July 24 Wujin Library Changzhou Wujin District "I'm a Tyrannosaurus Rex" 30 Fubei Community EnjoyGo 14:30 No. 65 Yanzheng Zhongda Avenue Creative picture book reading and production.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>上帝宠爱的1994年：1.《这个杀手不太冷》（1994年） @陈小喵记得在影片的开始，Matilda问Leon：“人生好辛苦，还是长大就好了？”Leon简单地回答：“一直如此。”一直如此啊。2. 《东邪西毒》（1994 年） @vivian 用武功来譬喻人心是《东邪西毒》的高明之处。3. 《肖申克救赎》（1994 年） @aratana 看了这部电影以后，我固执地相信了电影能够带来的一样感受，叫幸福。这幸福感在那一瞬间击中了我的全身——当安迪从肮脏的管道中逃出生天的那一瞬间，我不明所以、全身无力、无法言语。4. 《国产零零漆》（1994 年） @安东 仗义每从屠狗辈，负心最是读书人。5. 《低俗小说》（1994 年） @梅斯布 影片中各个段落的不分首尾，互补结构，开头和结尾相连等等。这样的结构，在本部电影中，被导演用来暗示暴力故事的周而复始，不断出现。也就是说在现实中类似影片中的情节总在发生，永不停歇。6. 《重庆森林》（1994 年） @眠去 失恋的人不要看重庆森林，但不是失恋的人又怎么能看得懂重庆森林。7. 《四个婚礼一个葬礼》（1994 年） @vcbear 憨豆先生客串了个口齿不清满嘴吐槽的婚礼神父，那一段仔细听英文单词，恶搞得还真满有乐趣的。8. 《饮食男女》（1994 年） @贝塔先生 面对纷繁复杂的生活，我自己也认为其实许多时候仅仅有爱是不够的。但我们为什么总乐意自己折磨自己，找出那么多加法题，非得告诉自己说，太他妈复杂了，太他妈失败了，太他妈琐碎了。那些千万个理由无非是给自己一个“逼不得已，委曲求全，乃至退而求其次的崇高伟大”的自我安慰。9. 《变相怪杰》（1994 年） @笑儿 总是有这么一些人类，需要靠着幼稚的卡通片来减压。表情夸张的泡妞，毫无顾忌的砸东西，一边耍帅一边抢银行？更或者是，把那些对自己态度恶劣的人狠狠的修理一番。但是这在现实社会都是那么的不切实际，因为我们这些小草根需要安安分分的在这个残酷的社会生存。10. 《狮子王》（1994 年） @FF 狮子王不光能让我们回到童年一次，还能让我们重新成长一次。哪怕只是问候一下十六年前的自己，也是好的。11. 《红玫瑰白玫瑰》（1994 年） @lemon 说女人痴迷说女人傻或是看不透，时间长短过后，谁都看出身边男人的自私懦弱。可是她们有自己的心，由他，由它。</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>God's favored year of 1994: 1. "Léon: The Professional" (1994) @Chen Xiaomiao remembers in the beginning of the film, Matilda asked Léon, "Is life really hard, or is it better to grow up?" Léon simply replied, "Always like this." Always like this. 2. "Ashes of Time" (1994) @Vivian using martial arts to metaphorize the human heart is the brilliance of "Ashes of Time." 3. "The Shawshank Redemption" (1994) @Aratana after watching this movie, I stubbornly believed in the feeling that movies can bring, called happiness. This sense of happiness hit me all over in that moment—when Andy escaped from the dirty sewer, I was confused, powerless, and speechless. 4. "To Live" (1994) @Antong righteousness always comes from the dog-slaughtering crowd, and the most unfaithful are the literati. 5. "Pulp Fiction" (1994) @Meisibu the non-linear structure of the film, with segments that do not follow a chronological order, complement each other, and connect the beginning and the end. This structure, in this film, is used by the director to imply the cyclical nature of violent stories, constantly repeating. In other words, similar events to those in the film always happen in reality, never stopping. 6. "Chungking Express" (1994) @Mianqu people who are heartbroken should not watch "Chungking Express," but how can those who are not heartbroken understand "Chungking Express"? 7. "Four Weddings and a Funeral" (1994) @VCBear Mr. Bean made a cameo as a wedding priest with unclear pronunciation and full of sarcasm, listening carefully to English words in that segment was quite enjoyable. 8. "Eat Drink Man Woman" (1994) @Mr. Beta facing the complicated and chaotic life, I also believe that love alone is often not enough. But why are we always willing to torture ourselves, find so many additional problems, and insist on telling ourselves, "It's too damn complicated, too damn failed, too damn trivial." Those countless reasons are nothing but self-consolation for giving oneself a "no choice but to compromise, even to seek second best, noble and great" excuse. 9. "The Mask" (1994) @Xiao'er there are always some people who need to relieve stress by watching childish cartoons. Exaggerated flirting, smashing things without hesitation, looking cool while robbing a bank? Or maybe, giving a good beating to those who treat you badly. But in reality, all of this is so unrealistic, because us common folks need to survive peacefully in this cruel society. 10. "The Lion King" (1994) @FF "The Lion King" not only allows us to revisit our childhood, but also enables us to grow up again. Even if it's just to say hello to ourselves sixteen years ago, it's still good. 11. "Red Rose, White Rose" (1994) @Lemon saying women are obsessed, silly, or incomprehensible, after a long time, everyone can see the selfishness and weakness of the men around them. But they have their own hearts, by him, by it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>本报记者吕红星摄■本报记者吕红星城镇化是缩小贫困差距的重要方式，也是刺激内需的重要方式。在中国发展高层论坛2015经济峰会“创新驱动的新型城镇化”分论坛上，与会者普遍认为，中国推进城镇化，一定要有创新，走出一条创新驱动的新型城镇化。避免单向城镇化人口要有弹性流动国务院参事仇保兴认为，创新驱动的中国城镇化，有以下几点值得特别注意：第一，要避开把人口更多地集中在大城市里。中国的城镇化应该走一条大中小城市协调发展的路子。当前一个很重要的问题是，要改善小城市、小城镇的人居环境、教育和医疗卫生条件。第二，城镇化与机动化是相伴随的，要保持高密度的城市发展，而不能使城市的密度下降。相应的，土地制度改革包括城乡规划制度的改革、用地制度的改革等都要服从于这一特点。第三，建筑必须是节能的建筑、绿色的建筑。政府要出台强制性措施，保证到2020年有一半达到绿色建筑的标准。第四，要加强对自然遗产、文化遗产的保护。在城镇化过程中，中国每年消耗的水泥占世界的50％，钢材占35％，自然遗产、文化遗产一旦被推倒，将无法重建。第五，要避免单向城镇化。农村人口单向涌入城市，这种“有去无回”的城镇化模式是无益的。世界上许多发展中国家的城镇化都是单向城镇化，中国要避免这一点，要使人口在城乡之间自由流动，弹性流动，这就是创新。“2008年金融危机来袭，中国沿海劳动力岗位损失了6000万个。这些农民工大部分都回到了乡里，使得农产品的精耕细作上了一个水平。金融危机恢复以后，农民工逐步从乡间又转移到城市。我认为，这种弹性结构对中国这样一个人口大国来说是非常重要的。”仇保兴说。房企应主动适应新型城镇化趋势“房地产企业应更加主动地适应城镇化、信息化的趋势，加强商业模式的改革创新，逐渐从满足单一的住房需求，向满足多样化的需求过渡。”绿地集团董事长张玉良说。张玉良认为，在新常态下，新型城镇化发生了很多外部变化，城镇化到底怎么做，不仅关系到中国经济社会的进一步发展，同样关系到全球的经济社会发展。如何以创新来驱动新型城镇化建设？张玉良提了四点建议：第一，应该更加强调以人为核心的新型城镇化，而不是简单地把人来回搬。第二，应该更加注重产业和城市的融合。有居住的地方，必然需要就业，如果没有好的就业，这种转移是不健康的。转移过程中还需要生活、工作配套设施。设施的完备以及设施标准的不断提升，都非常重要。</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Reporter Lv Hongxing photo ■ Reporter Lv Hongxing Urbanization is an important way to narrow the poverty gap and also an important way to stimulate domestic demand. At the 2015 China Development High-Level Forum Economic Summit's sub-forum on "Innovation-Driven New Urbanization," participants generally believed that China's advancement of urbanization must be innovative, paving the way for an innovation-driven new urbanization. To avoid one-way urbanization, population must have flexible mobility. Qiu Baoxing, a counselor to the State Council, believes that the innovation-driven urbanization in China should pay special attention to the following points: First, it should avoid concentrating more population in large cities. China's urbanization should follow a path of coordinated development among large, medium, and small cities. Currently, an important issue is to improve the living environment, education, and healthcare conditions in small towns and cities. Second, urbanization and motorization go hand in hand, maintaining high-density urban development rather than decreasing urban density. Correspondingly, land system reforms including urban and rural planning system reforms, land use system reforms, etc., should adhere to this characteristic. Third, buildings must be energy-efficient and green. The government should introduce mandatory measures to ensure that by 2020, half of the buildings meet green building standards. Fourth, there should be enhanced protection of natural and cultural heritage. During the urbanization process, China consumes 50% of the world's cement and 35% of steel annually. Once natural and cultural heritage is destroyed, it cannot be rebuilt. Fifth, one-way urbanization should be avoided. The influx of rural population into cities without return, this "one-way" urbanization model is not beneficial. Many developing countries in the world have adopted one-way urbanization, but China should avoid this and allow population to freely and flexibly move between urban and rural areas, which is innovation. "When the 2008 financial crisis hit, 60 million labor positions were lost in China's coastal areas. Most of these migrant workers returned to their hometowns, leading to a higher level of refined farming. After the financial crisis recovery, migrant workers gradually moved back to cities from rural areas. I believe this flexible structure is very important for China as a populous country," Qiu Baoxing said. Real estate companies should proactively adapt to the trend of new urbanization "Real estate companies should more actively adapt to the trends of urbanization and informatization, strengthen the reform and innovation of business models, gradually transition from meeting single housing needs to meeting diversified needs," said Zhang Yuliang, Chairman of Greenland Group. Zhang Yuliang believes that under the new normal, many external changes have occurred in new urbanization. How to drive the construction of new urbanization through innovation? Zhang Yuliang made four suggestions: First, there should be a stronger emphasis on people-centered new urbanization, rather than simply moving people back and forth. Second, there should be more focus on the integration of industry and cities. Places to live will inevitably need employment, and without good employment, this migration is unhealthy. During the migration process, living and working supporting facilities are also needed. The completeness of facilities and the continuous improvement of facility standards are both very important.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>全国国有企业党的建设工作会议10月10日至11日在北京召开。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。习近平：坚定不移把国有企业做强做优做大他强调，要通过加强和完善党对国有企业的领导、加强和改进国有企业党的建设，使国有企业成为党和国家最可信赖的依靠力量，成为坚决贯彻执行党中央决策部署的重要力量，成为贯彻新发展理念、全面深化改革的重要力量，成为实施“走出去”战略、“一带一路”建设等重大战略的重要力量，成为壮大综合国力、促进经济社会发展、保障和改善民生的重要力量，成为我们党赢得具有许多新的历史特点的伟大斗争胜利的重要力量。要坚持有利于国有资产保值增值、有利于提高国有经济竞争力、有利于放大国有资本功能的方针，推动国有企业深化改革、提高经营管理水平，加强国有资产监管，坚定不移把国有企业做强做优做大。 中共中央政治局常委、中央书记处书记刘云山作总结讲话。中共中央政治局常委王岐山、张高丽出席会议。习近平：坚持党对国有企业的领导不动摇习近平在讲话中强调，国有企业是中国特色社会主义的重要物质基础和政治基础，是我们党执政兴国的重要支柱和依靠力量。新中国成立以来特别是改革开放以来，国有企业发展取得巨大成就。我国国有企业为我国经济社会发展、科技进步、国防建设、民生改善作出了历史性贡献，功勋卓著，功不可没。习近平指出，坚持党的领导、加强党的建设，是我国国有企业的光荣传统，是国有企业的“根”和“魂”，是我国国有企业的独特优势。新形势下，国有企业坚持党的领导、加强党的建设，总的要求是：坚持党要管党、从严治党，紧紧围绕全面解决党的领导、党的建设弱化、淡化、虚化、边缘化问题，坚持党对国有企业的领导不动摇，发挥企业党组织的领导核心和政治核心作用，保证党和国家方针政策、重大部署在国有企业贯彻执行；坚持服务生产经营不偏离，把提高企业效益、增强企业竞争实力、实现国有资产保值增值作为国有企业党组织工作的出发点和落脚点，以企业改革发展成果检验党组织的工作和战斗力；坚持党组织对国有企业选人用人的领导和把关作用不能变，着力培养一支宏大的高素质企业领导人员队伍；坚持建强国有企业基层党组织不放松，确保企业发展到哪里、党的建设就跟进到哪里、党支部的战斗堡垒作用就体现在哪里，为做强做优做大国有企业提供坚强组织保证。</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>The national state-owned enterprise party building work conference was held in Beijing from October 10th to 11th. Xi Jinping, General Secretary of the Communist Party of China, President of the country, and Chairman of the Central Military Commission, attended the meeting and delivered an important speech. Xi Jinping emphasized that we must resolutely make state-owned enterprises stronger, better, and bigger. He stressed the need to strengthen and improve the Party's leadership over state-owned enterprises, strengthen and improve the construction of the Party within state-owned enterprises, making them the most reliable support for the Party and the country, an important force in resolutely implementing the decisions and deployments of the Party Central Committee, a key force in implementing the new development concept and deepening reform comprehensively, a significant force in implementing major strategies such as the "Going Global" strategy and the construction of the "Belt and Road," and a crucial force in enhancing comprehensive national strength, promoting economic and social development, and ensuring and improving people's well-being, becoming an important force for our Party to win great victories in the struggle with many new historical features. We must adhere to the principles that are conducive to maintaining and increasing the value of state-owned assets, enhancing the competitiveness of the state-owned economy, and maximizing the function of state-owned capital, promoting deepening reforms in state-owned enterprises, improving their operational and management levels, strengthening supervision of state-owned assets, and resolutely making state-owned enterprises stronger, better, and bigger. Liu Yunshan, member of the Political Bureau Standing Committee of the CPC Central Committee and Secretary of the Secretariat, delivered a concluding speech. Wang Qishan and Zhang Gaoli, members of the Political Bureau Standing Committee of the CPC Central Committee, attended the meeting. Xi Jinping stressed the unwavering leadership of the Party over state-owned enterprises. Xi Jinping emphasized in his speech that state-owned enterprises are an important material and political foundation of socialism with Chinese characteristics, an important pillar and reliance for our Party to govern and rejuvenate the country. Since the founding of the People's Republic of China, especially since the reform and opening up, state-owned enterprises have made tremendous achievements in development. Our state-owned enterprises have made historic contributions to the economic and social development, scientific and technological progress, national defense construction, and improvement of people's livelihood in our country, with outstanding merits and undeniable contributions. Xi Jinping pointed out that adhering to the Party's leadership and strengthening Party building are the glorious traditions of our state-owned enterprises, the "roots" and "soul" of state-owned enterprises, and the unique advantages of our state-owned enterprises. In the new situation, the general requirements for state-owned enterprises to adhere to the Party's leadership and strengthen Party building are: to adhere to the Party's leadership, strictly govern the Party, closely focus on comprehensively addressing the weakening, dilution, virtualization, and marginalization of the Party's leadership and Party building issues, unwaveringly uphold the Party's leadership over state-owned enterprises, play the leading and political core role of enterprise Party organizations, ensure the implementation of Party and state policies and major deployments in state-owned enterprises; to adhere to serving production and operation without deviation, taking the improvement of enterprise efficiency, enhancement of enterprise competitiveness, and realization of the value preservation and appreciation of state-owned assets as the starting point and foothold of the work of state-owned enterprise Party organizations, using the achievements of enterprise reform and development to test the work and combat effectiveness of Party organizations; to adhere to the leadership and gatekeeping role of Party organizations in the selection and appointment of personnel in state-owned enterprises, focusing on cultivating a large number of high-quality enterprise leaders; to adhere to strengthening the grassroots Party organizations of state-owned enterprises without relaxation, ensuring that wherever the enterprise develops, Party building follows, and the fighting fortress role of Party branches is reflected, providing a strong organizational guarantee for making state-owned enterprises stronger, better, and bigger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>搜狐体育讯北京时间6月18日19时30分，由佩兰挂帅的中国男足在沈阳五里河奥体中心迎来首秀表演，凭借着于汉超和高迪的进球，中国男足以2比0战胜马其顿男足。纵观佩家军的整场表现，虽然取得胜利难能可贵，但是由于球员间的配合生疏，攻无核、守无魂显得尤为突出，而由梅方和张琳芃组成的恒大中卫组合也多次令后防险象环生。从6月10日香河集中完毕，到今晚迎来佩家军首秀，短短8天时间的准备期，可比2月26日上任的国足主帅佩兰用三个选人敲定50人大名单少了很多，而配合生疏恰恰成为了佩家军首秀表现被制约的主要原因，毕竟在首发11人中，廖力生、任航、蔡惠康、陈子介等多达半数球员都是首次入选国家队首发，更有甚至还是第一次代表国家队比赛，因此造成佩家军首秀攻无核、守无魂也就不难理解。本场比赛中，佩兰派出了4231阵型，其中来自贵州人和的陈子介出任中国男足的锋线单箭头，郜林出任影子前锋，于汉超居左，廖力生居右，组织进攻的重任落在了这三名广州恒大球员身上。虽然于汉超名义上是广州恒大球员，可是由于刚刚在二次转会期加盟广州恒大，尚未与广州恒大进行过合练的他在前场与廖力生和郜林的配合上也少得可怜，多数情况下他则孤身一人选择突破再伺机传中或者射门；本场比赛是廖力生在国家队的首秀，可以说被佩兰派在右路的他除了上半场第29分钟给郜林在右路送出精妙传中外，本场比赛他也再无亮点，在右路的攻防上远没有右后卫张呈栋抢眼；可以说在4231体系中，郜林所在的影子前锋除了伺机抢第二落点补射外，更多的则要承担球队组织重任，可是在今天的比赛中，郜林却没有完成这样的重任。如果说恒大的前场进攻线配合欠默契的话，那么由张琳芃和梅方搭档的恒大中卫组合也差点害了恒大门将曾诚。上半场比赛进行至第42分钟时，纳杰德诺芙在大禁区前送出精妙直塞球，托多夫斯基接球后完成劲射，负责盯防梅方和张琳芃却站在原地一动未动，目睹了曾诚凭借一己之力将射门扑出底线。而在第67分钟，马其顿中路渗透中形成威胁攻势，托多夫斯基一脚触球将球恰恰打到了中路梅方和张琳芃的空档，跟上的丹尼尔攻门，曾诚再次力挽狂澜。</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Sohu Sports News: At 19:30 on June 18th Beijing time, under the leadership of Perrin, the Chinese men's football team had their debut performance at the Wulihe Olympic Sports Center in Shenyang. With goals from Yu Hanchao and Gao Di, the Chinese men's football team defeated the Macedonian men's team 2-0. Looking at the overall performance of Perrin's team, although the victory is commendable, the lack of coordination among players, the lack of attacking core, and the lack of defensive spirit were particularly prominent. The central defense combination of Meifang and Zhang Linpeng from Guangzhou Evergrande also caused numerous dangerous situations in the defense. From the completion of the training camp in Xianghe on June 10th to tonight's debut of Perrin's team, the preparation period of only 8 days is much shorter compared to when Perrin took office on February 26th and finalized a 50-player list with three selections. The lack of coordination due to the short preparation period has become the main reason restricting the performance of Perrin's team in their debut. After all, in the starting lineup, half of the players such as Liao Lisheng, Ren Hang, Cai Huikang, and Chen Zijie were selected for the national team for the first time, and for some, it was their first time representing the national team in a match. Therefore, it is not difficult to understand why Perrin's team showed a lack of attacking core and defensive spirit in their debut. In this match, Perrin deployed a 4231 formation, with Chen Zijie from Guizhou Hengfeng playing as the lone striker for the Chinese men's team, Gao Lin as the shadow striker, Yu Hanchao on the left, and Liao Lisheng on the right. The responsibility of organizing the attack fell on these three Guangzhou Evergrande players. Although Yu Hanchao is nominally a Guangzhou Evergrande player, due to his recent transfer to the team during the second transfer window, he has not had much time to practice with Guangzhou Evergrande. In most cases, he was left alone to dribble and then look for opportunities to cross or shoot. This match was Liao Lisheng's debut in the national team. Apart from a brilliant cross to Gao Lin on the right in the 29th minute of the first half, he did not have any other highlights in this match. His performance in attack and defense on the right was far less impressive than the right-back Zhang Chengdong. In the 4231 system, Gao Lin, as the shadow striker, not only had to seize opportunities for second balls and follow-up shots but also had to bear more of the team's organizing responsibilities. However, in today's match, Gao Lin did not fulfill this role. If the lack of coordination in Guangzhou's front line attack was evident, then the central defense combination of Guangzhou Evergrande, consisting of Zhang Linpeng and Meifang, almost caused trouble for the Guangzhou goalkeeper Zeng Cheng. In the 42nd minute of the first half, Najdenov sent a precise through ball in front of the penalty area, and Todovski took a powerful shot after receiving the ball. However, the defenders responsible for marking Meifang and Zhang Linpeng stood still and watched as Zeng Cheng single-handedly pushed the shot out for a corner. In the 67th minute, Macedonia penetrated through the middle and formed a threatening attack. Todovski's touch sent the ball right into the gap between Meifang and Zhang Linpeng in the middle, and Daniel followed up with a shot, but Zeng Cheng once again saved the day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>电影版《咱们结婚吧》近日曝光终极海报，其中四位女主的一些服饰和发型也被曝光，她们分别代表了四种不同的女人，那么你到底喜欢谁呢？今天小编就为大家带来刘涛、高圆圆、郭碧婷、陈意涵四位女主的发型图片，看看你最喜欢谁吧！ 《咱们结婚吧》刘涛发型图片国民媳妇刘涛端庄温婉的气质是其他女星所没有的，剧中服帖盘发造型彰显淑女气质，很好的展现了成熟女性的美丽，同时还有OL时尚干练一面，加上她那精致五官的和好肌肤，简直美的无人能及。 《咱们结婚吧》高圆圆发型图片高圆圆的一头黑发可算是她的标志了，超级养眼的三七分发型不仅完美展现黄金比例，非常的显脸小，同时简单造型飘逸的刘海，加上微微卷翘的发丝，将发丝随意的侧披在肩头，简直女人味爆表。 《咱们结婚吧》郭碧婷发型图片壁花女神郭碧婷，一头中分长直发可是文艺女神的标配，小清新范的穿搭造型也是她的一大亮点，及腰的长发就这样随意的披下来，展现出她甜美清纯的气质，不仅十分甜美养眼，更是瞬间秒杀无数宅男。 《咱们结婚吧》陈意涵发型图片童颜美女陈意涵，斜刘海很好的修饰了的小圆脸，可爱甜美更时尚，扎上一个马尾辫，或者是盘起来，加上她穿上制服，犹如上演了一场制服诱惑秀，或清新可爱，或清新甜美，简直颜值爆表。================= 拿微信扫我，每天收更多化妆小知识！</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>The movie version of "Let's Get Married" recently exposed the ultimate poster, in which some costumes and hairstyles of the four female leads were also revealed. They represent four different types of women. So, who do you really like? Today, the editor brings you hairstyle pictures of Liu Tao, Gao Yuanyuan, Guo Biting, and Chen Yihan, to see who you like the most!
+In "Let's Get Married," Liu Tao's hairstyle picture shows that the national daughter-in-law Liu Tao has a dignified and gentle temperament that other female stars do not have. The sleek updo hairstyle in the drama highlights her ladylike temperament, showcasing the beauty of mature women. At the same time, she also shows a fashionable and capable side of an office lady. Coupled with her delicate features and good skin, she is simply incomparably beautiful.
+In "Let's Get Married," Gao Yuanyuan's hairstyle picture shows that Gao Yuanyuan's black hair is her signature. The super eye-catching three-seven split hairstyle not only perfectly displays the golden ratio, making her face look small, but also the simple and elegant styling of the bangs, along with slightly curled hair, casually draped over her shoulders, exuding an extreme femininity.
+In "Let's Get Married," Guo Biting's hairstyle picture shows that the wallflower goddess Guo Biting, with her straight middle-parted long hair, is the standard for an artistic goddess. Her fresh and literary style of dressing is also a major highlight. Her waist-length hair is casually let down, showcasing her sweet and pure temperament. Not only is she very sweet and eye-catching, but she also instantly captures the hearts of countless otaku.
+In "Let's Get Married," Chen Yihan's hairstyle picture shows that the youthful beauty Chen Yihan, with her side-swept bangs, beautifully complements her small round face, making her cute and sweet yet stylish. Tying up a ponytail or putting it up, combined with her wearing a uniform, is like staging a uniform temptation show, either fresh and cute or fresh and sweet, her beauty is simply off the charts. ================= Scan me with WeChat and receive more makeup tips every day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>新华网上海3月31日电（吴振东、王子涛）在第20个全国中小学生“安全教育日”来临之时，中国教育学会和上海市教委正式签约共建安全教育实验区，双方将合作建设安全教育信息化平台，开展基于该平台的安全教育专项活动。据悉，上海将先行推出黄浦、嘉定二区作为试点，对平台提供的安全教育信息进行本土化梳理，并逐步在全市范围推进此项工作。全国中小学生“安全教育日”于1996年起设立，定为每年3月份最后一周的星期一。“安全教育日”旨在全面深入推动中小学安全教育工作，降低中小学生各类伤亡事故的发生率，切实做好中小学生的安全保护工作，促进学生健康成长。在上海，通过近年来的制度设计、教材建设、基地建设等工作，较为完善的公共安全教育体系已经构建。2013年，上海市教委制订《上海市实施中小学公共安全教育指导意见》，明确了中小学校公共安全教育课时设置、教材资源、网络资源、实践基地等内容。目前，《上海市中小学生公共安全行为指南》教材已基本覆盖义务教育阶段学生。2015年，上海市教委将免费为高中生配送该教材，使教材在中小学生中全覆盖。另悉，上海市目前正在建设和完善“中小学公共安全教育网”和“中小学生专题教育网”。沪教委将积极推进位于“东方绿舟”的上海市公共安全教育实训基地建设，同时在部分区县中小学试点建设若干“消防安全”、“现场急救”体验基地，并向周边学校辐射，共享安全教育资源。</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Shanghai, March 31st (by Wu Zhendong, Wang Zitao) - As the 20th National Primary and Secondary School Students' "Safety Education Day" approaches, the China Education Association and the Shanghai Municipal Education Commission have officially signed an agreement to jointly build a safety education experimental zone. The two parties will cooperate to construct a safety education informatization platform and carry out special safety education activities based on this platform. It is reported that Shanghai will first launch the Huangpu and Jiading districts as pilot areas to localize and sort out the safety education information provided by the platform, and gradually promote this work throughout the city. The National Primary and Secondary School Students' "Safety Education Day" was established in 1996 and is set on the last week of March every year, on Monday. The "Safety Education Day" aims to comprehensively promote safety education in primary and secondary schools, reduce the occurrence rate of various accidents involving primary and secondary school students, effectively protect the safety of primary and secondary school students, and promote their healthy growth. In Shanghai, through recent work on system design, textbook development, and base construction, a relatively complete public safety education system has been established. In 2013, the Shanghai Municipal Education Commission formulated the "Guiding Opinions on Implementing Public Safety Education in Primary and Secondary Schools in Shanghai," which clarified the setting of public safety education class hours, textbook resources, network resources, practice bases, and other contents for primary and secondary schools. Currently, the textbook "Shanghai Primary and Secondary School Students' Public Safety Behavior Guide" has basically covered students in compulsory education stage. In 2015, the Shanghai Municipal Education Commission will distribute this textbook for free to high school students, achieving full coverage among primary and secondary school students. It is also known that Shanghai is currently constructing and improving the "Public Safety Education Network for Primary and Secondary Schools" and the "Special Education Network for Primary and Secondary School Students." The Shanghai Education Commission will actively promote the construction of the Shanghai Public Safety Education Training Base located in the "Oriental Green Ark," while piloting the construction of several "Fire Safety" and "On-Site First Aid" experience bases in some districts and counties for primary and secondary schools, radiating to surrounding schools to share safety education resources.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>中新网3月26日电据外媒报道，法国总统奥朗德的办公室称，奥朗德将于29日前往突尼斯，参加突尼斯博物馆遇袭后举行的“反恐怖主义游行”。奥朗德在爱丽舍宫的办公室称，应突尼斯总统埃塞卜西的邀请，奥朗德将前往突尼斯参与由突尼斯当局组织的游行。18日，伪装成士兵的武装分子袭击了突尼斯首都巴尔多博物馆。突尼斯卫生部长萨德·艾迪19日称，袭击事件共造成23人死亡，包括18名外国游客和5名突尼斯人，另有两名武装分子被击毙。19日，极端组织“伊斯兰国”(IS)声称对发生在突尼斯巴尔多博物馆的袭击事件负责，并宣称“这只是开始”。24日，出于安全考虑，原计划于当天重开突尼斯巴尔多博物馆，推迟了重新开放的计划，但原定的重开仪式照常进行。</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>According to foreign media reports on March 26th, the office of French President Hollande stated that Hollande will visit Tunisia before the 29th to participate in the "anti-terrorism march" held after the attack on the Bardo Museum in Tunisia. Hollande's office at the Elysee Palace stated that, at the invitation of Tunisian President Essebsi, Hollande will go to Tunisia to participate in the march organized by the Tunisian authorities. On the 18th, armed militants disguised as soldiers attacked the Bardo Museum in the Tunisian capital. Tunisian Health Minister Said Aidi stated on the 19th that the attack resulted in a total of 23 deaths, including 18 foreign tourists and 5 Tunisians, with two militants being killed. On the 19th, the extremist group "Islamic State" (IS) claimed responsibility for the attack at the Bardo Museum in Tunisia and declared "this is just the beginning." On the 24th, due to security concerns, the reopening of the Bardo Museum in Tunisia, which was originally planned for that day, was postponed, but the original reopening ceremony proceeded as scheduled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>种子标签二维码追溯系统是基于农业部文件要求进行开发的，主要包括了企业信息管理、品种管理、商品管理及商品包装袋二维码生成管理、商品包装管理、商品发货管理五大模块。1.蔬菜种子标签二维码的信息怎样制作才算合格?按照政策规定，二维码具有唯一性，包含品牌名称、生产经营者名称或进口商名称、单元识别代码、追溯网址四项信息。也就是说，这些信息区别了每一个二维码的差异，至于每一项的信息如何编辑，就看每个企业的具体情况了。2.企业有能力自行制作二维码吗?上百万个包装袋“一袋一码”如何实现?目前，市面上有专门的二维码生成、喷印一体化设备，购买后，供应商会有专人部署、培训，据了解，平台、设备的运用容易掌握。以喷码来说，目前的喷码设备是把喷码机装在印刷机上，在快速印刷的同时，同速度快速喷码，即在线赋码，喷码适应于目前包装行业各种材质。3.制作蔬菜种子标签二维码溯源系统应该找谁？赢在移动的蔬菜种子二维码标签溯源系统利用先进的物联网技术、自动控制技术、自动识别技术、互联网技术和专业的工具，通过二维码对单个产品赋予唯一身份证，实现一件一码，对种子产品的生产、仓储、物流运输、市场巡检及消费等环节进行数据采集跟踪，实现产品生产环节、仓储环节、销售环节、流通环节和服务环节的全生命周期管理。亮点一：系统界面简洁，可视化操作性强简洁、美观的系统界面，简单、方便的操作方式，合理、人性化的设置，给客户在使用的过程中带来完美体验。亮点二：二维码生成、包装、库存管理一体化，有效降低企业管理成本从追溯二维码的生成到剩余库存的管理，从包装的使用到发货管理，一体化的系统管理，降低了纸质记录与文档记录由于时间的推移导致遗失的风险，同时加强企业人力管理的工作效率，有效降低管理成本。蔬菜种子溯源系统，种子标签二维码溯源系统开发，微信/电话咨询：156-2272-1962</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>The seed tag QR code traceability system is developed based on the requirements of the Ministry of Agriculture documents, mainly including five modules: enterprise information management, variety management, commodity management, QR code generation management for commodity packaging bags, commodity packaging management, and commodity shipment management. 1. How to make the information of vegetable seed tag QR code qualified? According to the policy regulations, the QR code should be unique, containing four pieces of information: brand name, producer or importer name, unit identification code, and traceability website. In other words, these information differentiate each QR code, and how to edit each piece of information depends on the specific situation of each enterprise. 2. Is the enterprise capable of making QR codes by itself? How to achieve "one bag, one code" for millions of packaging bags? Currently, there are specialized QR code generation and printing integrated equipment on the market. After purchasing, the supplier will deploy and train personnel. It is understood that the platform and equipment are easy to master. In terms of coding, the current coding equipment is installed on the printing machine, which can quickly print and code at the same speed, that is, online coding. Coding is suitable for various materials in the packaging industry. 3. Who should be contacted to develop the vegetable seed tag QR code traceability system? The vegetable seed QR code traceability system that leads in mobile uses advanced Internet of Things technology, automatic control technology, automatic identification technology, Internet technology, and professional tools. It assigns a unique identity to each product through a QR code, achieving one code for one item. It collects and tracks data on the production, warehousing, logistics transportation, market inspections, and consumption of seed products, realizing the full life cycle management of product production, warehousing, sales, circulation, and service. Highlight one: The system interface is simple and visually strong. The simple and beautiful system interface, easy and convenient operation, reasonable and user-friendly settings bring a perfect experience to customers during use. Highlight two: Integrated QR code generation, packaging, and inventory management effectively reduce enterprise management costs. From generating traceability QR codes to managing remaining inventory, from using packaging to managing shipments, integrated system management reduces the risk of loss due to the passage of time of paper and document records, while enhancing the efficiency of enterprise personnel management and effectively reducing management costs. For the development of vegetable seed traceability system and seed tag QR code traceability system, please contact via WeChat/phone: 156-2272-1962.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 关注”创答网”，每日收获难题解析，经验分享，经典案例，动态资讯，商业智慧，人生感悟等有助于创新创业和人生成长的精彩好文。 很多人谈及创业，言必提马云、刘强东也把他们作为自己创业路上的目标。更会自然而然的想：创业，就要玩个大的。我们暂且不提眼光、格局、能力、资源上的差距，光是在“运气”这个环节上差的就不是一点半点。也许对于大多数人来讲，每日上班下班拿点工资都是不能满足自己的需求的，还不如自己创业，胜负盈亏都是自己的，用自己的双手创造想要的生活。话又说回来，究竟创业难不难？ 难！为什么难，为什么那么多人失败了，为什么那么多人亏得血本无归！ 实际上，创业并不难，难的是如何去发现商机，是如何着手运营管理，是如何选择一个好行业。福顺餐饮经历了十年磨练，不断完善创新，努力进取，造就了众多加盟商的成功案例。你说你不信？ 我们用事实说话。三年前，孔女士还在江苏的一个工厂打工，月薪3千，过着一成不变的日子，尚能温饱且乏味。不满足于现状的她决定创业，用自己的双手创造出一片新天地。于是她毅然辞去工作，出去考察市场寻找商机，找了许久都没有头目，甚至于问自己当出的决定正确吗？直到偶然的一次机会，跟朋友一起去了一家焖锅店。孔女士突然眼前一亮，这种焖锅全部现场操作，干净卫生，而且周遭的环境都十分优雅安静，倒不如投身餐饮业。几经周折，她来到了和福顺，经过了一系列的考察研究，她觉得自己就应该做这样一款集安静整洁与养生膳食为一体的焖锅。 事实上，孔女士对于餐饮行业一无所知，甚至于问她想在哪个城市开店都不清楚，因此，经过和福顺餐饮拓展团队研究后决定，无论如何不能让这位女士对餐饮失望，一定要帮助他做好最万全的准备。公司专业的选址团队经过一系列的调查研究评估，孔女士也在考察一番之后选择了周口市商水县香山购物广场一间使用面积达到 220平的店铺。完全听取公司意见并在公司协助下开始营业，日营业额达到1万左右，并在公司指导下开始了社群粉丝营销。不仅收回了当初的成本开始盈利，而且也实现了自己的梦想。 今年7月孔总与一位粉丝合资了第二家店，但苦于分身乏术不能同时运营两家店于是向总部发出求助，公司立即派出一位店长协助孔总进行门店管理，一切都在向更好的方向发展着......今年，孔总为了答谢长期以来粉丝的支持决定在10月15日举办500人左右的大型粉丝答谢会。</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Follow "Chuangda Net" and get daily difficult problem analysis, experience sharing, classic cases, dynamic information, business wisdom, life insights, and other wonderful articles that contribute to innovation, entrepreneurship, and personal growth. Many people talk about entrepreneurship, always mentioning Ma Yun and Liu Qiangdong as their goals on the entrepreneurial path. Naturally, they also think: when starting a business, one must aim big. Let's not talk about the gaps in vision, scope, ability, and resources for now, just the difference in "luck" is not insignificant. Perhaps for most people, working day in and day out for a salary is not enough to meet their needs. It's better to start a business, where wins and losses are all in your hands, creating the life you want with your own hands. But then again, is entrepreneurship difficult? Yes! Why is it difficult? Why do so many people fail, why do so many people end up losing everything? In fact, entrepreneurship is not difficult, what's difficult is how to discover business opportunities, how to operate and manage, and how to choose a good industry. Fushun Catering has gone through ten years of tempering, constantly improving innovation, striving for progress, and creating numerous successful cases for franchisees. You say you don't believe it? We speak with facts. Three years ago, Ms. Kong was working in a factory in Jiangsu, earning a monthly salary of 3,000, living a monotonous life, barely making ends meet. Dissatisfied with the status quo, she decided to start a business, creating a new world with her own hands. So she resolutely quit her job, went out to explore the market for business opportunities, searched for a long time without any direction, even questioning whether her decision was correct. It wasn't until a chance encounter, when she went to a braised pot restaurant with a friend. Ms. Kong suddenly saw the light, the braised pots were all prepared on-site, clean and hygienic, and the surroundings were elegant and quiet, she decided to venture into the catering industry. After many twists and turns, she came to Fushun, after a series of investigations and studies, she felt that she should create a braised pot that combines quiet cleanliness and healthy diet. In fact, Ms. Kong knew nothing about the catering industry, she didn't even know which city she wanted to open a store in. Therefore, after studying with the Fushun Catering expansion team, she decided that she must not disappoint this lady in terms of catering, and must help her make the most comprehensive preparations. The company's professional site selection team conducted a series of investigations and assessments, and after Ms. Kong's inspection, she chose a store with a usable area of 220 square meters in Xiangshan Shopping Plaza in Shangshui County, Zhoukou City. Completely following the company's advice and with the company's assistance, she started operating, with a daily turnover of around 10,000, and under the company's guidance, she started social media fan marketing. Not only did she recoup her initial costs and start making profits, but she also realized her dream. In July this year, Ms. Kong and a fan jointly invested in a second store, but due to being unable to manage both stores at the same time, she sought help from the headquarters. The company immediately sent a store manager to assist Ms. Kong in store management, and everything is developing towards a better direction... This year, to thank the long-time support of fans, Ms. Kong decided to hold a large fan appreciation event with around 500 people on October 15th.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>10月9日，著名移动医疗企业春雨医生创始人张锐遗体告别仪式在北京八宝山举行，近千人到场送行。张锐于10月5日因心肌梗死突然辞世，享年44岁。其妻10月11日晚发表题为《一个人，和他的爱》（点击标题查看原文）的悼文，回忆了两人的情感历程，以及张锐的创业过程，悲伤的同时，也展现了她对丈夫深深的爱，感动了数十万人。作为春雨医生的创始人，张锐的突然离世震惊了业内。人们在扼腕叹息的同时，也在思考，春雨将走向何方？移动医疗会走向何方？从2015年下半年开始，“保险”是张锐经常谈到的词语，可以说，之前并不了解保险的张锐在这一年恶补了许多保险知识，他曾经宣称“保险才是这个产业链里面真正的和最终的有效的支付方。”创业：不惜粉身碎骨张锐，中国人民大学生物学学士，新闻学硕士，曾任《京华时报》新闻中心主任、网易副总编辑。2011年离职创办移动医疗企业春雨医生。记者第一次听张锐演讲是在2015年年初互联网医疗中国会举办的“重构医疗生态”高峰论坛上，他穿着休闲服，是跑上讲台的。张锐的演讲激情澎湃，他表示，自己最喜欢的时代是“大航海时代”，在那个时代里人们不知道地球是方是圆。但在巨大利益冲击下，一代一代人组织马队穿过欧亚大陆，把货物从东方运到西方，非常危险。张锐说，这时有冒险者站出来，说给我钱我去组织一个船队，我不往东走，我往西走，我走海运，请相信我，从西边一定能到达遥远的东方。“冒险家找葡萄牙和西班牙皇室要钱，就像今天创业公司在找资本市场要钱一样；他们在找葡萄牙和西班牙王室要人，就像我们在寻求政府的资助一样，然后这些冒险者启程了。”张锐说，“他们叫哥伦布、他们叫麦哲伦、他们叫达伽马，他们开启了大航海时代。这就是了不起的冒险家，这是那个时代的科技创业者。”无疑，张锐希望自己能成为互联网医疗这一时代中的“哥伦布”和“麦哲伦”。张锐身边的朋友评价说，张锐是带着情怀去创业的，他看重梦想，并想努力去实现它。曾与张锐共事的一位媒体人表示，张锐是带着新闻人“飞蛾扑火”、不惜粉身碎骨的劲儿在创业。在人们眼里，这种状态叫“创业精神”，是断绝一切退路、置之死地而后生的决心。创业者张锐曾坦陈自己很焦虑，常常因为担心资金链断裂寝食难安。但他总是鼓励自己，春雨解决了那么多医疗痛点，有价值，一定能找出一条可持续的发展道路。面对质疑，他表示，在事业未竟之前，许多创业者都会被人认为是疯子。</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>On October 9th, the farewell ceremony for the founder of the well-known mobile medical company Chunyu Yisheng, Zhang Rui, was held at Babaoshan in Beijing, with nearly a thousand people attending to bid farewell. Zhang Rui passed away suddenly on October 5th due to a heart attack at the age of 44. On the evening of October 11th, his wife published a eulogy titled "A Person, and His Love," recalling their emotional journey and Zhang Rui's entrepreneurial process. Amidst the sorrow, she also revealed her deep love for her husband, moving hundreds of thousands of people. As the founder of Chunyu Yisheng, Zhang Rui's sudden passing shocked the industry. While people lamented his loss, they also pondered the future direction of Chunyu Yisheng and mobile healthcare. Since the second half of 2015, "insurance" was a word Zhang Rui often mentioned. It can be said that Zhang Rui, who previously had little understanding of insurance, immersed himself in insurance knowledge that year. He once declared, "Insurance is the real and ultimate effective payer in this industry chain." Entrepreneurship: Zhang Rui, a Bachelor of Biology from Renmin University of China and a Master of Journalism, formerly served as the Director of the News Center at Jinghua Times and Deputy Editor-in-Chief of NetEase. He resigned in 2011 to establish the mobile medical company Chunyu Yisheng. The first time the reporter heard Zhang Rui speak was at the "Reconstructing Medical Ecology" summit forum held at the beginning of 2015 during the Internet Healthcare China Conference. He was casually dressed and ran onto the stage. Zhang Rui's speech was passionate; he mentioned that his favorite era was the "Age of Discovery," where people did not know if the earth was flat or round. Driven by immense profits, generations organized horse caravans to transport goods from the East to the West, which was very dangerous. Zhang Rui said that at that time, adventurers stepped forward, saying, "Give me money, and I will organize a fleet. I won't go east, I will go west, I will go by sea. Please trust me, we will definitely reach the distant East from the West." "Adventurers asked the Portuguese and Spanish royal families for money, just like today's entrepreneurial companies seeking funds from the capital market; they asked the Portuguese and Spanish royal families for people, just like we seek government assistance. Then these adventurers set off." Zhang Rui said, "They were called Columbus, they were called Magellan, they were called Vasco da Gama, they ushered in the Age of Discovery. These were remarkable adventurers, the technological entrepreneurs of that era." Undoubtedly, Zhang Rui hoped to become the "Columbus" and "Magellan" of the Internet healthcare era. A friend of Zhang Rui's commented that he embarked on entrepreneurship with passion, valuing dreams and striving to achieve them. A media person who had worked with Zhang Rui said that he pursued entrepreneurship with the spirit of a journalist, willing to sacrifice everything. In the eyes of many, this state is called "entrepreneurial spirit," a determination to cut off all retreats and face death before gaining new life. Zhang Rui once admitted that he was very anxious, often losing sleep due to worries about the financial chain breaking. However, he always encouraged himself, believing that Chunyu Yisheng had solved many medical pain points, was valuable, and would surely find a sustainable development path. In the face of doubts, he stated that until the career is completed, many entrepreneurs are considered crazy by others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>金炳健(特邀韩籍专家)金炳健，北京艺星医疗美容医院特邀坐诊专家，韩籍整形权威，毕业于韩国首尔大学医学博士，从事整形美容工作二十余年，主攻眼鼻整形，韩式精细化整形杰出代表。 中文名：金炳健职业：北京艺星医疗美容医院特邀坐诊专家毕业院校：韩国首尔大学主要成就：大韩整形外科开院医协议会规划理事性别：男擅长：双眼皮、开眼角、上睑下垂矫正、双眼皮修复、假体隆鼻、注射隆鼻等。目录1 个人简介2 主要荣誉3 专家介绍4 擅长项目个人简介韩式精细化整形杰出代表在韩国，每一位称得上“专家”的整形美容医生，必须历经漫长的“锤炼”过程——6年的专业学习，2年的对应科室实习经历，3年独立操作手术并且取得满意成果。金炳健传承韩式精细精髓，带着高端整形美容技术的精粹，为每一个中国求美者而来。主要荣誉大韩整形外科开院医协议会规划理事首尔大学医院整形外科专任医师首尔白医院整形外科部门科长仁济大学校医学部整形外科教授韩国BK整形外科医院院长北京艺星医疗美容医院特邀坐诊专家专家介绍金炳健博士，北京艺星医疗美容医院特邀坐诊专家，韩籍整形权威，毕业于韩国首尔大学医学博士，从事整形美容工作二十余年，主攻眼鼻整形http://www.dydts.com/。凭借其传承着纯韩整形技艺的精髓、时尚高端的审美、丰富的临床实践经验，已成功地为不计其数的爱美者实施过双眼皮、开眼角、复杂双眼皮修复、假体隆鼻、自体耳软骨隆鼻、鼻综合整形等整形美容手术，均取得满意效果。金炳键博士发明了不脱落的”单结扎法双眼皮术式”。目前，很多韩国整形医生将他这一发明在韩国全面推广，并在临床上普及应用。他做过眼部综合整形的顾客，在术后不但疤痕不明显，而且眼睛神韵会增色不少，深受广大爱美人士的喜爱和赞誉。金炳健博士在韩国有“韩星缔造者”的美誉，曾参与众多整形外科手术的研究，受到韩国众多明星的青睐。至今仍是许多当红韩星的御用整形专家。擅长项目双眼皮、开眼角、上睑下垂矫正、复杂双眼皮修复、假体隆鼻、自体耳软骨隆鼻、misko隆鼻、综合鼻整形等。金炳健博士，大韩整形外科开院医协议会规划理事。从事整形美容工作二十余年，主攻眼鼻整形。已成功地为众多爱美者实施过眼部整形、鼻部整形，均取得满意效果。曾在国际整形整形高峰论坛中发表《论韩国外科整形未来趋势》PPT，引起国际前沿整形大师的高度注意。</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Jin Bingjian (Invited Korean Expert) Jin Bingjian, a specially invited consulting expert at Beijing Yixing Medical Beauty Hospital, is a Korean authority in plastic surgery. He graduated with a medical doctorate from Seoul National University in Korea and has been engaged in plastic surgery for over twenty years, specializing in eye and nose surgeries, and is an outstanding representative of refined Korean-style plastic surgery. Chinese Name: Jin Bingjian Profession: Specially invited consulting expert at Beijing Yixing Medical Beauty Hospital Alma Mater: Seoul National University in Korea Major Achievements: Planning Director of the Korean Plastic Surgery Hospital Association Gender: Male Specialties: Double eyelid surgery, lateral canthoplasty, correction of ptosis, double eyelid repair, nasal augmentation with implants, nasal augmentation with injections, etc. Personal Profile Outstanding Representative of Refined Korean-style Plastic Surgery In Korea, every plastic surgeon who can be called an "expert" must undergo a long process of "tempering" - 6 years of professional study, 2 years of internship in the corresponding department, 3 years of independent surgery operations with satisfactory results. Jin Bingjian inherits the essence of refined Korean-style plastic surgery, bringing the essence of high-end plastic surgery techniques to every beauty seeker in China. Major Honors Planning Director of the Korean Plastic Surgery Hospital Association Attending Physician in the Department of Plastic Surgery at Seoul National University Hospital Head of the Department of Plastic Surgery at Seoul White Hospital Professor of Plastic Surgery at Inje University School of Medicine Director of BK Plastic Surgery Hospital in Korea Specially Invited Consulting Expert at Beijing Yixing Medical Beauty Hospital Expert Introduction Dr. Jin Bingjian, a specially invited consulting expert at Beijing Yixing Medical Beauty Hospital, is a Korean authority in plastic surgery. He graduated with a medical doctorate from Seoul National University in Korea and has been engaged in plastic surgery for over twenty years, specializing in eye and nose surgeries. With the essence of pure Korean plastic surgery techniques, fashionable high-end aesthetics, and rich clinical experience, he has successfully performed numerous plastic surgery procedures such as double eyelid surgery, lateral canthoplasty, complex double eyelid repair, nasal augmentation with implants, autologous ear cartilage rhinoplasty, and comprehensive nasal reshaping, all with satisfactory results. Dr. Jin Bingjian invented the "non-dropping single-knot double eyelid surgery technique." Currently, many Korean plastic surgeons are promoting this invention nationwide and applying it extensively in clinical practice. Customers who have undergone comprehensive eye plastic surgery by Dr. Jin not only have inconspicuous scars postoperatively, but also have significantly improved eye charm, earning him the love and praise of numerous beauty enthusiasts. Dr. Jin Bingjian is known as the "creator of Korean stars" in Korea and has participated in research on numerous plastic surgery procedures, being favored by many Korean celebrities. He remains the designated plastic surgery expert for many current Korean stars. Specialties Double eyelid surgery, lateral canthoplasty, correction of ptosis, complex double eyelid repair, nasal augmentation with implants, autologous ear cartilage rhinoplasty, Misko rhinoplasty, comprehensive nasal reshaping, etc. Dr. Jin Bingjian, Planning Director of the Korean Plastic Surgery Hospital Association, has been engaged in plastic surgery for over twenty years, specializing in eye and nose surgeries. He has successfully performed eye and nose plastic surgeries for numerous beauty seekers with satisfactory results. He presented a PowerPoint titled "On the Future Trends of Korean Surgical Plastic Surgery" at the International Plastic Surgery Summit, attracting high attention from international leading plastic surgeons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>新华网巴西利亚3月26日电（记者刘彤 杨江玲）巴西中央银行26日发布季度报告预测，今年巴西通货膨胀将达到7.8%，国内生产总值（GDP）会萎缩0.5%。今年2月巴西通胀上升7.7%，为2005年以来最高。报告认为：“通胀还会在短期内继续攀升，并在全年维持在一个较高水平”。这意味着，今年巴西通胀水平将突破6.5%的管理目标上限，这与巴西央行此前说法大相径庭。巴西央行行长亚历山大·通比尼日前在国会作证时表示，今年通胀将控制在管理目标范围之内。巴西实施通胀目标管理制度，政府为今年设置的目标为4.5%，允许上下浮动两个百分点。此外，报告认为，继去年GDP可能下滑0.1%之后，今年还将继续萎缩0.5%。据悉，巴西地理统计局27日将正式对外公布去年经济增长数据。分析人士普遍预测，在经历三年微弱增长之后，2014年巴西经济已陷入停滞，通胀率升至6.41%，外贸也出现逆差。</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Brasília, March 26 (Reporters Liu Tong and Yang Jiangling) - The Central Bank of Brazil released a quarterly report on the 26th predicting that this year Brazil's inflation will reach 7.8%, and the Gross Domestic Product (GDP) will shrink by 0.5%. In February of this year, Brazil's inflation rose by 7.7%, the highest since 2005. The report believes: "Inflation will continue to rise in the short term and will remain at a relatively high level throughout the year." This means that Brazil's inflation level this year will exceed the upper limit of 6.5%, a stark contrast to the previous statement by the Central Bank of Brazil. Alexandre Tombini, President of the Central Bank of Brazil, stated in Congress recently that inflation this year will be controlled within the target range. Brazil implements an inflation target management system, with the government setting a target of 4.5% for this year, allowing for a fluctuation of two percentage points above or below. In addition, the report suggests that after a possible 0.1% decline in GDP last year, it will further shrink by 0.5% this year. It is reported that the Brazilian Institute of Geography and Statistics will officially announce last year's economic growth data on the 27th. Analysts generally predict that after three years of weak growth, the Brazilian economy entered a stagnation phase in 2014, with an inflation rate of 6.41% and a trade deficit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>7月26日11时，由妮东科技出品，芬兰正版授权FPS手游《反恐精英之枪王对决》正式开启不删档内测，黄金M4A1等豪礼登陆就送。游戏内还将开展枪王公会巅峰之战活动，不仅有海量充值卡与丰富游戏道具及周边奖励外，还将邀请美女主播现场助阵。这一次，为激情而战！ 十六年经典回归，再续手游FPS辉煌！作为芬兰正版的《反恐精英之枪王对决》手游，最大程度还原端游的极致枪战体验，各式经典枪支和数十张游戏地图完美复刻，再续十六年的反恐情谊。再加上逼真的战场画面感和音效，可谓是FPS类手游的巅峰之作！ 首款适配VR游戏，打造最强沉浸体验《反恐精英之枪王对决》致力于让玩家们重温曾经的游戏乐趣，创新性的引入了虚拟现实技术（VR模式），颠覆了传统的手游FPS体验。玩家可以通过佩戴VR眼镜，感受最身临其境的战争实景，营造最强沉浸感的枪战体验！ 6V6实时竞技匹配，多种游戏玩法嗨翻天《反恐精英之枪王对决》独创6V6实时竞技对战模式，更有史无前例的12人混战，挑战移动设备性能极限。生化、夺枪、武器模式等多种游戏玩法，还原端游的完美体验，让移动枪战更加刺激更加好玩。 《反恐精英之枪王对决》真正的掌上反恐，芬兰正版手游，7月26日不删档内测经典回归，现在登录就送黄金M4A1。首款VR射击手游，各类经典枪支复刻，多种游戏模式想战就战，带给你最极致的射击快感！九游独家活动1、登录即送代金券！7月26日0:00－7月31日23:59登录首日即可获得5元代金券（充值6元时可用）累计登录2天可获得10元代金券奖励（充值20元时可用）2、登录送枪7月25日18:00－7月27日23:59活动期间，登录游戏，即可获得九游冰蓝套装礼包（AK47-冰蓝（1天）*1、沙漠之鹰-冰蓝*1）点我下载体验《反恐精英之枪王对决》交易猫专业的手游交易平台http://jiaoyimao.com/芬兰正版反恐手游</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>At 11:00 on July 26, produced by Nidong Technology and officially launched by the Finnish genuine authorized FPS mobile game "Counter-Strike Gun King Showdown" began its non-deleted closed beta test, with gifts such as the Golden M4A1 available upon login. The game will also hold the Gun King Guild Peak Battle event, offering massive recharge cards, abundant in-game props, peripheral rewards, and inviting beautiful female anchors to assist on-site. This time, fight for passion! The classic returns after sixteen years, continuing the glory of mobile FPS gaming! As a Finnish genuine version of "Counter-Strike Gun King Showdown" mobile game, it maximally restores the ultimate gunfight experience of the PC version, perfectly replicating various classic firearms and dozens of game maps, continuing the sixteen-year anti-terrorism friendship. Combined with realistic battlefield visuals and sound effects, it can be said to be the pinnacle work of FPS mobile games! The first VR-adapted game, creating the most immersive experience "Counter-Strike Gun King Showdown" is committed to allowing players to relive the joy of the game, innovatively introducing virtual reality technology (VR mode), subverting the traditional mobile FPS experience. Players can wear VR glasses to experience the most realistic war scenes, creating the most immersive gunfight experience! 6V6 real-time competitive matchmaking, various gameplay modes to keep you excited "Counter-Strike Gun King Showdown" features the original 6V6 real-time competitive battle mode, unprecedented 12-player free-for-all battles, challenging the performance limits of mobile devices. Various game modes such as Biochemical, Gun Snatch, and Weapon Mode recreate the perfect experience of the PC version, making mobile gunfights more exciting and fun. "Counter-Strike Gun King Showdown" is the true handheld anti-terrorism game, a Finnish genuine mobile game. The classic returns in the non-deleted closed beta test on July 26th, and logging in now will get you the Golden M4A1. As the first VR shooting mobile game, with various classic firearms replicated, and multiple game modes for you to engage in battles, it brings you the ultimate shooting pleasure! Exclusive activities from 9Game: 1. Login to receive vouchers! From 0:00 on July 26 to 23:59 on July 31, logging in on the first day will get you a 5 yuan voucher (usable when recharging 6 yuan), and logging in for 2 days accumulatively will reward you with a 10 yuan voucher (usable when recharging 20 yuan). 2. Login to receive guns! From 18:00 on July 25 to 23:59 on July 27, during the event period, logging into the game will get you the 9Game Ice Blue Set gift pack (AK47-Ice Blue (1 day) * 1, Desert Eagle-Ice Blue * 1). Click here to download and experience "Counter-Strike Gun King Showdown". Trade Cat is a professional mobile game trading platform: http://jiaoyimao.com/ Finnish genuine anti-terrorism mobile game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 本文作者：华商韬略丨华商名人堂毕亚军2005年7月，NBA明星詹姆斯（LeBronJames）明知故问：Nike诞生于哪一年？得到意料中的答案后，他掏出一只1972年的劳力士手表送给了奈特。奈特接过表一看，那上面刻着：“谢谢你对我赌一把。”不是天生的酷，而是天生的乖在2016年《福布斯》全球富豪榜上，78岁菲尔?奈特（PhilKnight）以244亿美元身价位居全球第24位。总是戴墨镜炫酷示人的他，还被称为财富500强里最古怪的领导人，但他也有过菜鸟的懵懂与青涩岁月，甚至连菜鸟都算不上。那是1962年，手握斯坦福MBA学位回家待业的曾一度陷入深深的迷茫：想要出人头地，但却了无方向，甚至连什么算是成功也不知道。没抽过一根烟，没碰过一次毒品，没打破一条规定，更别说犯法，甚至没交过女友。他说自己是1960年代全美唯一一个循规蹈矩、未曾叛逆的人，但这并没有什么用。站上前进社会的门槛上，除了是个听话的乖孩子，他“说不上来自己到底是什么样的人，也不知道未来可能变成什么样的人。”甚至，他还不如读大学时目标清晰。那时，他一心一意想要成为一名顶尖运动员，尝试过棒球和长跑，从小学到大学一直在努力。不幸的是，棒球读到高中就被校队淘汰了，长跑曾参加过家乡俄勒冈州的州级田径赛而且4年3次获奖，但要跑上世界舞台却是想都不敢想。 +老爹看到了他的迷茫，但也没有更好的办法，只能给他一张支票，让他到外面闯闯。兜兜转转的旅途中，他去过日本，做过销售员，售卖大百科全书和证券基金，但因总是心有千言万语临了了却还是话说不漂亮，最终业绩惨淡，黯然再回乡。重新睡在儿时的床上，奈特开始听到内心的声音：“希望人生有意义、有目的……最重要的是，与众不同，而且不想输。”并反复追问：有没有可能不当运动员也能经历和运动员一样的感受？有没有可能热爱某项工作到甚至把它视为竞赛？反复的追问中，他想起自己在斯坦福的毕业论文。老师给他们一个题目：请设想你要创办一家公司，然后描绘出创立它的逻辑和目标。热爱跑步，并对鞋子有所研究的奈特提出的构想是——利用日本廉价劳动力生产高质量运动鞋，打败在美国市场占据主导地位的德国运动鞋。为什么我不亲自实践这个跟赛跑如此紧密的构想呢？几个彻夜难眠之后，仿佛拨云见日的奈特从内心认定：“这才是我真正想做的事情。” 一个赛道loser的曲线追梦传奇由此开始。</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>The author of this article, Bi Yajun from Huashang Taolue | Huashang Hall of Fame, in July 2005, NBA star LeBron James knowingly asked: In which year was Nike founded? After receiving the expected answer, he took out a Rolex watch from 1972 and gave it to Knight. Knight took the watch and saw the inscription on it: "Thank you for taking a gamble on me." Not born cool, but born obedient. In 2016, 78-year-old Phil Knight ranked 24th on the Forbes Global Billionaires List with a net worth of $24.4 billion. Always cool with sunglasses, he is also known as the quirkiest leader among the Fortune 500, but he also had a naive and green period, not even considered a rookie. It was in 1962 when he returned home with a Stanford MBA degree and fell into deep confusion: wanting to stand out, but directionless, not even knowing what success meant. He never smoked a cigarette, never touched drugs, never broke a rule, let alone committed a crime, or even had a girlfriend. He described himself as the only person in America in the 1960s who followed the rules and never rebelled, but it was of no use. Standing at the threshold of advancing in society, besides being a obedient child, he "couldn't say what kind of person he was, and didn't know what kind of person he might become in the future." He was even less clear than when he was in college. At that time, he was single-mindedly determined to become a top athlete, trying baseball and long-distance running, striving from elementary school to college. Unfortunately, he was eliminated from the baseball team in high school, and although he participated in the state track and field competitions in his hometown of Oregon and won awards 3 out of 4 years, he didn't dare to dream of running on the world stage. +His father saw his confusion, but had no better solution, so he gave him a check to go out and explore. During his wandering journey, he went to Japan, worked as a salesman, selling encyclopedias and securities, but because he always had a thousand words in his heart but couldn't express them eloquently, his performance was dismal, and he returned home in disappointment. Sleeping again in his childhood bed, Knight began to hear the voice inside him: "I hope life has meaning and purpose... Most importantly, to be different and not to lose." And he repeatedly asked himself: Is it possible to experience the same feelings as an athlete without being one? Is it possible to love a job so much that it feels like a competition? In his repeated questioning, he remembered his graduation thesis at Stanford. The teacher gave them a topic: Imagine you are starting a company, and then describe the logic and goals of establishing it. Knight, who loved running and had some knowledge of shoes, proposed an idea - to use cheap Japanese labor to produce high-quality athletic shoes, to defeat the dominant German sports shoes in the American market. Why don't I personally practice this idea so closely related to running? After several sleepless nights, Knight, as if seeing the light through the clouds, internally affirmed: "This is what I really want to do." Thus began the legendary journey of a loser on the track chasing dreams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 昨日，记者从市外经贸局获悉，近日，由国家商务部、工业和信息化部、环境保护部、交通运输部、海关总署、质检总局、认监委七部门正式批复同意大连市在保税区开展汽车平行进口试点。我市成为继上海、天津、福建、广东四个自贸区之外，第二批获准开展汽车平行进口的试点城市。未来大连口岸有望年进口3万辆汽车，交易额180亿元，巨大的贸易额带来的是规模庞大的物流量，有利于推动大连国际航运中心、贸易中心的发展。 所谓“平行进口汽车”，是指从除总经销商以外的其它进口商从原产地进口的汽车，与国内授权经销渠道“平行”，由于免去中间环节，此类汽车一般市场售价较低。平行进口车是合法产品，同样经过3C认证进入国内市场，只是批量较小。平行进口车辆价格优势突出，有利于打破行业垄断，让消费者感受到实在的好处。记者 | 仰山编辑 | 王萌萌 王剑</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Yesterday, it was learned from the Municipal Foreign Trade and Economic Cooperation Bureau that recently, seven departments including the Ministry of Commerce, the Ministry of Industry and Information Technology, the Ministry of Environmental Protection, the Ministry of Transport, the General Administration of Customs, the General Administration of Quality Supervision, Inspection and Quarantine, and the Certification and Accreditation Administration have officially approved Dalian to carry out a pilot project for parallel imported cars in the bonded zone. Our city has become the second batch of pilot cities approved for parallel imported cars, following Shanghai, Tianjin, Fujian, and Guangdong Free Trade Zones. In the future, Dalian Port is expected to import 30,000 cars annually, with a transaction value of 18 billion yuan. The huge trade volume will bring a large amount of logistics, which is conducive to promoting the development of Dalian as an international shipping center and trade center. The so-called "parallel imported cars" refer to cars imported from the country of origin by importers other than the general distributor, parallel to the authorized distribution channels in the domestic market. Due to the elimination of intermediate links, such cars generally have lower market prices. Parallel imported cars are legal products, also entering the domestic market after 3C certification, but in smaller quantities. The price advantage of parallel imported cars is prominent, which is conducive to breaking industry monopolies and allowing consumers to feel tangible benefits. Journalist | Yangshan Editor | Wang Mengmeng Wang Jian</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 南沙邮轮码头初步规划图。广州日报记者黎旭阳摄 今年1月，广州南沙港迎来首批邮轮旅游游客。广州日报记者庄小龙摄皇家加勒比“海洋赞礼号”预计今年10月底开始停靠南沙港，歌诗达邮轮也即将在11月派出“幸运号”开通南沙母港航线，而云顶香港集团则抢在11月以南沙港作为母港完成全亚洲顶级豪华的巨无霸邮轮“云顶梦号”处女首航……今年以来，广州邮轮经济呈现“井喷”式增长，依靠华南地区国际综合交通枢纽和国际航运港口中心的巨大优势，以及优良的旅游设施配套和市场基础，国际国内邮轮巨头纷纷抢滩进驻，以南沙港作为母港。广州市委、市政府一直把发展建设南沙国际邮轮母港、发展邮轮经济作为国际航运中心建设的重要内容加以推进。广州作为具有国际影响力的旅游目的地、集散地和客源地，邮轮旅游市场需求旺盛，邮轮经济发展潜力巨大，特别是不久的将来，当南沙邮轮母港项目建成投入使用后，国际国内巨型豪华邮轮还将纷至沓来。文/广州日报记者全杰 实习生张中天数据显示，自今年年初丽星邮轮“处女星号”在广州南沙港起航半年来，广州已经累计运营出入境邮轮102航次、接待出入境旅客超16万人次，成为全国旅客规模第二大邮轮城市。预计全年可达200航次、超25万人次。邮轮玩法升级国际邮轮巨头纷纷抢滩南沙在刚过去的周末，记者在南沙港看到：前来港口登上邮轮出发的游客中，除了操着地道粤语的本地“老广”外，还有自驾粤T、粤S、粤J等牌照私家车的珠三角城市游客，他们将私家车停靠在港口停车场，将行李交付托运，一家大小轻松上船。此外，还有来自江西、湖南、广西等地的游客，他们搭乘高铁来到广州后，换乘旅游大巴抵达南沙港。广州邮轮业发展形势喜人。邮轮公司持续“加码”，增加邮轮航次数量，母港邮轮产品的覆盖面更广，加上周五出发的三天两晚香港之旅、周日出发的六天五晚下龙湾-岘港-三亚之旅等航次常规化运营，越来越多游客热衷于尝试这种从“家门口”出发的邮轮旅行模式。从丽星邮轮“处女星号”开始，到如今的全亚洲顶级的星梦邮轮“云顶梦号”即将莅临，“老广”的邮轮游从入门级已经飙升至国际豪华级，邮轮不断升级，玩法层出不穷，欢乐指数爆灯。可以预见的是，目前广州邮轮游尚处于市场爆发的开始，在南沙港开通母港之后，国际国内各大邮轮公司就已经将目光集中在此，争相通过各种渠道，渴望尽快在这个处于华南中心的邮轮母港抢占一席之位。</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Nansha Cruise Terminal Preliminary Plan. Photo by Li Xuyang, a reporter from Guangzhou Daily. In January this year, the first group of cruise tourists arrived at Nansha Port in Guangzhou. Photo by Zhuang Xiaolong, a reporter from Guangzhou Daily. Royal Caribbean's "Ovation of the Seas" is expected to start docking at Nansha Port at the end of October this year. Costa Cruises is also set to launch the "Fortune" from Nansha Port in November. Meanwhile, Genting Hong Kong Group will debut the top luxury mega cruise ship "Genting Dream" from Nansha Port in November, establishing it as the homeport for the whole of Asia. Since the beginning of this year, Guangzhou's cruise economy has shown explosive growth, relying on the huge advantages of being an international comprehensive transportation hub in South China and an international shipping port center, as well as excellent tourism facilities and market foundation. International and domestic cruise giants have rushed to establish themselves at Nansha Port as their homeport. The Guangzhou Municipal Party Committee and Government have been promoting the development of Nansha International Cruise Homeport and the cruise economy as an important part of the construction of an international shipping center. As a tourist destination, hub, and source market with international influence, Guangzhou has a strong demand in the cruise tourism market, and the development potential of the cruise economy is enormous. Especially in the near future, when the Nansha Cruise Homeport project is completed and put into use, international and domestic giant luxury cruise ships will flock in. By Guangzhou Daily reporter Quan Jie and intern Zhang Zhongtian. Data shows that since the maiden voyage of Star Cruises' "Virgo" from Nansha Port in Guangzhou six months ago, Guangzhou has operated a total of 102 inbound and outbound cruises, receiving over 160,000 passengers, making it the second largest cruise city in the country in terms of passenger volume. It is expected to reach 200 cruises and over 250,000 passengers for the whole year. Cruise experiences are being upgraded, and international cruise giants are rushing to Nansha. Last weekend, reporters at Nansha Port saw that among the tourists boarding the cruise ship at the port, in addition to local Cantonese-speaking "old Guangzhou" residents, there were also tourists from cities in the Pearl River Delta region with license plates such as Guangdong T, Guangdong S, and Guangdong J, who parked their private cars in the port's parking lot and checked in their luggage before boarding the ship with ease. In addition, there were tourists from Jiangxi, Hunan, Guangxi, and other places who arrived in Guangzhou by high-speed rail and then transferred to tourist buses to reach Nansha Port. The development of Guangzhou's cruise industry is promising. Cruise companies are continuously increasing the number of cruise trips, expanding the coverage of homeport cruise products. With regular operations such as the three-day, two-night trip to Hong Kong departing on Fridays and the six-day, five-night trip to Halong Bay - Danang - Sanya departing on Sundays, more and more tourists are eager to try this cruise travel mode starting from their "doorstep." From Star Cruises' "Virgo" to the upcoming top-class Asian cruise ship "Genting Dream" by Star Cruises, the cruise experience for "old Guangzhou" residents has escalated from entry-level to international luxury level. As cruises continue to upgrade and new play options emerge, the fun factor is off the charts. It is foreseeable that the current boom in Guangzhou's cruise tourism is just the beginning. After the opening of the homeport in Nansha Port, major international and domestic cruise companies have already set their sights on this location in South China, eagerly seeking to secure a position through various channels as soon as possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>点击上方“禅城安监”获取更多安全知识！安监周报又跟大家见面啦！本周，禅城区安责险项目正式启动。戳禅城区召开第四季度安全生产工作暨安责险项目启动会议，你还不知道安责险是个啥？回顾。本周，禅城区安委办相关单位安全检查情况如下（拉动查看完整图文））：10月24日下午，禅城区市场监督局（质监）对佛山市禅城区南庄镇永威陶瓷机械厂进行特种设备安全检查，现场对设备登记情况进行了核对。 10月25日，区公资办安全督查组继续到盈康公司码头拆迁项目施工现场，协助盈康公司对码头拆迁项目进行安全巡查，督促施工方安全文明施工；并做好施工现场的安全防护措施。 10月25日下午，禅城区市场监督局（质监）对广东广业深通燃气有限公司佛山禅城分公司进行特种设备安全检查，该单位主要对公交车进行天然气充装，现场抽查了充装人员持证情况，日常安全培训及应急演练等资料。 10月26日，禅城区安监局副局长高伟镜带队检查健涂宝化工和皇冠化工.有限公司安全生产情况。 10月26日，公资系统安全生产督查组到区城建公司所属沙岗陶瓷批发市场进行安全隐患检查，检查暂未发现异常。 10月26日下午，禅城区召开第四季度安全生产工作暨安责险项目启动会议。会上，禅城区安全生产监督管理局、江泰保险经纪公司、中标保险公司三方签订了安责险统保示范项目框架协议，标志着禅城区安责险项目的正式启动。 10月27日，张槎安监分局加强执法检查的力度。 10月27日上午，南庄镇安委办组织安监、消防、城建、经促、卫计、执法等部门对罗南村及隆庆工业区进行安全生产综合整治预验收。检查组通过现场检查、抽查资料方式对十大验收项目进行打分，并提出了整改意见，要求罗南村尽快完善档案资料、督促企业做好安全文化建设，确保通过上级部门的验收。 10月27日，公资系统安全生产督查组到油库码头拆迁项目施工现场，继续协助区盈康公司对油库码头拆迁项目进行安全巡查，督促施工方安全文明施工；并做好施工现场的安全防护措施。 10月27日下午，禅城区市场监督局（质监）对佛山出入境检验检疫局检验综合技术中心进行特种设备安全检查。 10月28日上午，佛山市国际安全社区创建工作经验交流会暨1＋x儿童安全大使项目颁奖典礼在里水镇政府隆重举行，佛山市安全监管局魏钰局长、禅城区安全监管局邓剑波局长、其他各区安全监管局负责同志、各镇街道分局负责同志以及里水儿童安全大使等参加了此次颁奖典礼活动。</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Click on "Chancheng Safety Supervision" above to get more safety knowledge! The safety supervision weekly report is here again! This week, the safety responsibility insurance project in Chancheng District officially started. Chancheng District held a meeting to launch the safety responsibility insurance project in the fourth quarter. Don't know what safety responsibility insurance is? Review it. This week, the Chancheng District Safety Commission Office conducted safety inspections on related units as follows (pull to view the complete text and images): On the afternoon of October 24, the Chancheng District Market Supervision Bureau (Quality Inspection) conducted a special equipment safety inspection at Yongwei Ceramic Machinery Factory in Nanzhuang Town, Chancheng District, Foshan City, and checked the equipment registration on site. On October 25, the District Public Resources Office safety inspection team continued to the construction site of the Yingkang Company pier demolition project, assisted the Yingkang Company in conducting safety inspections on the pier demolition project, urged the construction party to carry out safe and civilized construction, and implemented safety protection measures at the construction site. In the afternoon of October 25, the Chancheng District Market Supervision Bureau (Quality Inspection) conducted a special equipment safety inspection at the Foshan Chancheng Branch of Guangdong Guangye Shentong Gas Co., Ltd., which mainly fills natural gas for buses. On-site spot checks were conducted on the certification status of the filling personnel, daily safety training, and emergency drills. On October 26, Gao Weijing, Deputy Director of the Chancheng District Safety Supervision Bureau, led a team to inspect the safety production of Jiantubao Chemical and Huangguan Chemical Co., Ltd. On October 26, the safety production inspection team of the Public Resources System conducted a safety hazard inspection at the Shagang Ceramic Wholesale Market under the Chancheng Urban Construction Company, and no abnormalities were found during the inspection. In the afternoon of October 26, Chancheng District held a meeting to launch the safety production work and safety responsibility insurance project in the fourth quarter. At the meeting, the Chancheng District Safety Production Supervision and Management Bureau, Jiangtai Insurance Brokerage Company, and Zhongbiao Insurance Company signed a framework agreement for the demonstration project of safety responsibility insurance, marking the official start of the safety responsibility insurance project in Chancheng District. On October 27, Zhangcha Safety Supervision Sub-bureau strengthened law enforcement inspections. In the morning of October 27, the Nanzhuang Town Safety Commission Office organized safety supervision, fire protection, urban construction, economic promotion, health, law enforcement, and other departments to conduct a comprehensive inspection and pre-acceptance of safety production in Luonan Village and Longqing Industrial Zone. The inspection team scored the top ten acceptance projects through on-site inspections and random checks, and put forward rectification opinions, requiring Luonan Village to improve file information as soon as possible, urge enterprises to do a good job in safety culture construction, and ensure acceptance by superior departments. On October 27, the safety production inspection team of the Public Resources System continued to assist the Yingkang Company in conducting safety inspections on the oil depot pier demolition project construction site, urging the construction party to carry out safe and civilized construction, and implementing safety protection measures at the construction site. In the afternoon of October 27, the Chancheng District Market Supervision Bureau (Quality Inspection) conducted a special equipment safety inspection at the Foshan Entry-Exit Inspection and Quarantine Bureau Inspection Comprehensive Technology Center. On the morning of October 28, the Foshan International Safety Community Creation Work Experience Exchange Meeting and the 1+x Children's Safety Ambassador Project Award Ceremony were grandly held at the Lishui Town Government. Wei Yu, Director of the Foshan Safety Supervision Bureau, Deng Jianbo, Director of the Chancheng District Safety Supervision Bureau, responsible comrades from other district safety supervision bureaus, responsible comrades from various town street police stations, and Lishui Children's Safety Ambassadors attended the award ceremony.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 北京时间7月20日，据ESPN报道，有消息源称，火箭球员哈登早知道杜兰特今夏不会选择火箭队，据悉，哈登也把这一信息告诉了球队高层，最终火箭也提前放弃了追逐杜兰特的计划。今年休赛期，杜兰特无疑是最重磅的自由球员之一，包括湖人、凯尔特人、火箭等球队都曾对其有意，最终杜兰特选择加盟勇士。毫无疑问，在杜兰特还未成为自由球员之前，火箭方面就将其视为今夏球队引援的头号目标，同时火箭还希望利用哈登与杜兰特的良好关系作为一大卖点来追逐杜兰特。据悉，杜兰特和哈登在今夏曾在菲尼克斯一起训练将近一个星期。有消息人士透露，在此期间，杜兰特曾告诉哈登，自己并不会加盟火箭，同时也将选择范围缩小至雷霆和勇士之间，而凯尔特人的机会并不是太大。据该消息源称，杜兰特表示愿意给火箭见面的机会，不过最终哈登将这一消息告诉了火箭高层，因此最终火箭总经理莫雷以及其他管理层人员也决定球队提前放弃追逐杜兰特的计划。尽管火箭最终没有得到杜兰特，同时还失去了像霍华德这样的实力派内线，但是球队今夏并非毫无收获。从此前情况来看，火箭不仅与核心哈登续约，并且还引进了像安德森以及戈登这样的球员，而从技术特点来看，安德森和戈登都很适合火箭主帅德安东尼的战术体系。值得一提的是，火箭今夏先是签下了安德森，之后据安德森透露，自己首先打电话给戈登，表达了希望一起联手的意愿，两人上赛季在效力鹈鹕期间也是队友。“当我做出承诺加盟火箭之后，他是我第一个打电话通知的人，”安德森说道，“我希望他也能一起来。我喜欢戈登。他是一位很不错的人。”（浮云）</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>On July 20th Beijing time, according to ESPN, sources revealed that Rockets player Harden had early knowledge that Durant would not choose the Rockets this summer. Reportedly, Harden also informed the team's top management of this information, leading to the Rockets prematurely abandoning their pursuit of Durant. This offseason, Durant was undoubtedly one of the most high-profile free agents, with teams like the Lakers, Celtics, and Rockets expressing interest. Ultimately, Durant chose to join the Warriors. Without a doubt, even before Durant became a free agent, the Rockets considered him their top target for summer acquisitions, hoping to leverage Harden's good relationship with Durant as a major selling point in their pursuit. It was reported that Durant and Harden trained together in Phoenix for nearly a week this summer. Sources revealed that during this time, Durant informed Harden that he would not be joining the Rockets, narrowing his choices down to the Thunder and the Warriors, with the Celtics having less of a chance. Durant expressed willingness to meet with the Rockets, but ultimately Harden relayed this information to the Rockets' top management, leading General Manager Morey and other executives to decide to prematurely abandon the pursuit of Durant. Despite not landing Durant and losing a strong inside presence like Howard, the Rockets did not come away empty-handed this summer. Based on previous situations, the Rockets not only re-signed core player Harden but also brought in players like Anderson and Gordon, who are well-suited to Coach D'Antoni's tactical system. It is worth mentioning that the Rockets first signed Anderson this summer, and later, according to Anderson, he personally called Gordon expressing his desire to team up, as they were teammates during their time with the Pelicans last season. "After I committed to joining the Rockets, he was the first person I called to inform," Anderson said. "I hope he can come too. I like Gordon. He is a really nice guy." (Fuyun)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>中新网6月17日电 据台湾《中国时报》报道，台湾桃园县一位33岁的吴姓男子，原本要与妻子迎接新生命诞生，但他本月3日借故离家出走后失联。15日警方在一处偏避坡坎，发现吴男驾驶的银色轿车及肿胀发黑的遗体。吴男被发现陈尸在新买的轿车内，家属难以置信。吴父难过地表示，儿子生前从未抱怨工作不顺、经济状况不佳或感情等问题，尤其失踪前，媳妇才正要临盆，吴男也说期待小孩出生。为何选择离家寻短？家人百思不解。吴父说，儿子本月3日晚间7时许外出，说是要去跑步健身，结果彻夜未归。媳妇惊觉有异，担心发生意外，隔天一早挺着大肚子向警方报案，岂料等待10多天，最后却接获噩耗。警方表示，男子被发现时，身着深色上衣及红色短裤，脚上穿着布鞋，穿着就像外出运动，而发现时，男子身体明显肿胀，并长蛆，分析死亡至少5天以上。警方说，男子未留遗书，轿车内的副驾驶座则发现炭火焚烧痕迹及一瓶喝了1/4的高粱酒。经法医相验后，认为自杀的可能性大。至于真正原因，检方还要进一步了解厘清。</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">According to Taiwan's "China Times" report on June 17th, a 33-year-old man surnamed Wu from Taoyuan County, Taiwan, was originally supposed to welcome the birth of a new life with his wife. However, he went missing after leaving home on the 3rd of this month under the pretext of an excuse. On the 15th, the police found Wu's silver car and a swollen and blackened body in a secluded slope. Wu's body was found lying in the newly purchased car, leaving his family in disbelief. Wu's father expressed his sorrow, saying that his son had never complained about work, financial difficulties, or relationship issues before. Especially before his disappearance, his wife was about to give birth, and Wu had expressed his anticipation for the birth of their child. Why did he choose to leave home and seek a tragic end? His family is puzzled. Wu's father said that on the evening of the 3rd of this month, his son went out around 7 p.m., saying he was going for a run, but he did not return all night. His </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>导语|人民币是被人“牵着手”领着贬值的。最近股市里的“人民币贬值概念股”和“PPP概念股”，未来将有投资机会，值得关注。今天，两个大消息！今天，有两个经济方面的消息值得高度关注，而且都与数字有关。1、人民币中间价创6年来新低最近三天，人民币中间价连续创下6年来新低。今日人民币兑美元中间价又下调了160点至6.7258元，创2010年9月14日来新低。很多人看到这则新闻，可能一掠而过，没有细想什么：不就是人民币贬值了吗？是贬值了，这次不是离岸价连续创新低，也不是在岸价连续创新低，而是中间价！这意味着，人民币是被人“牵着手”领着贬值的。人民币有三个价格：中间价是上海的外汇交易中心每天开盘前给出的参考价，有其复杂的计算方式，一般认为带有官方指导价的性质；在岸价，就是外汇交易市场里成交的价格，它只能围绕中间价上下波动各2个百分点。离岸价，是海外市场的交易价格，被认为更接近市场价。所以，这轮人民币的贬值方式，耐人寻味。 上图是美元对人民币在岸价日K线，最近三天大幅上涨意味着人民币在贬值。 上图是美元对人民币在岸价周K线，其中左侧最大的贬值（上涨）就是股灾救市造成的，第二波贬值是冲刺SDR成功后出现的，第三波贬值出现在今年5月到7月，最新一波贬值是纳入SDR后出现的。 上图是美元对人民币在岸价月K线图，可以看出最近6年的基本走势。其实早在国庆黄金周之前，本专栏就多次提醒大家，节后人民币可能出现贬值。当时，一向言辞谨慎的主流经济学家樊纲（同时也是央行货币委员会委员），也两次公开表态，希望人民币贬值。那么，人民币将贬到什么时候才能止住？我的看法是，在年内跟美元汇率很难突破7。未来的贬值幅度，看每年广义货币M2增速比GDP增速高多少。高出来的部分，就是超发的部分，早晚需要贬下去。现在看来，美联储在北京时间12月15日凌晨宣布加息已经比较确定，所以人民币未来仍然会保持弱势。为了不刺激人民币进一步贬值的预期，在年底之前货币政策很难变得更宽松。事实上，周小川最近在美国表态，未来将收紧信贷增长。人民币贬值压力，在未来两年都不会小。如何克服这种压力？第一，是适当贬值，硬挺着只会有害，让热钱觉得逃跑有意义。第二，是制造人民币资产赚钱机会，如果做不到，只能大幅收紧外汇管制。有读者说，换了美元才发现，在国内没有什么投资机会，利息也不高。这就对了，这就是管理层有意制造的局面，否则大家都去换了。</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Introduction | The Renminbi is being led to depreciate by someone "holding hands". Recently, in the stock market, there are "Renminbi depreciation concept stocks" and "PPP concept stocks", which will have investment opportunities in the future and are worth paying attention to. Today, two major news! Today, there are two economic news worth highly attention, and both are related to numbers. 1. The Renminbi central parity rate hit a new low in 6 years. In the past three days, the Renminbi central parity rate has continuously hit a new low in 6 years. Today, the Renminbi against the US dollar central parity rate was lowered by 160 points to 6.7258 yuan, hitting a new low since September 14, 2010. Many people may have glanced over this news without much thought: Isn't it just the Renminbi depreciating? Yes, it is depreciating, but this time it is not the offshore rate continuously hitting new lows, nor the onshore rate continuously hitting new lows, but the central parity rate! This means that the Renminbi is being led to depreciate by someone "holding hands". The Renminbi has three prices: the central parity rate is the reference price given by the Shanghai Foreign Exchange Trading Center before the opening every day, with its complex calculation method, generally considered to have the nature of an official guidance price; the onshore rate is the price traded in the foreign exchange market, which can only fluctuate around the central parity rate by 2 percentage points up and down. The offshore rate is the trading price in the overseas market, considered to be closer to the market price. Therefore, the way the Renminbi is depreciating this time is intriguing. The first image shows the daily K-line of the US dollar against the Renminbi onshore rate, the recent sharp rise in the past three days indicates the Renminbi is depreciating. The second image shows the weekly K-line of the US dollar against the Renminbi onshore rate, with the largest depreciation (rise) on the left caused by the stock market crash rescue, the second wave of depreciation occurred after the successful sprint for SDR, the third wave of depreciation occurred from May to July this year, and the latest wave of depreciation occurred after being included in the SDR. The third image shows the monthly K-line chart of the US dollar against the Renminbi onshore rate, showing the basic trend of the past 6 years. In fact, even before the National Day Golden Week, this column had reminded everyone many times that the Renminbi might depreciate after the holiday. At that time, mainstream economist Fan Gang (also a member of the Monetary Policy Committee of the People's Bank of China), who had always been cautious in his words, publicly expressed twice his hope for Renminbi depreciation. So, when will the Renminbi stop depreciating? In my opinion, it is unlikely to break through 7 against the US dollar within the year. The extent of future depreciation depends on how much higher the broad money supply M2 growth rate is compared to the GDP growth rate each year. The excess part is the over-issuance part, which will need to depreciate sooner or later. Now it seems that the Federal Reserve's announcement of a rate hike on December 15 Beijing time is quite certain, so the Renminbi will continue to be weak in the future. In order not to stimulate further expectations of Renminbi depreciation, it will be difficult for monetary policy to become more accommodative before the end of the year. In fact, Zhou Xiaochuan recently stated in the United States that credit growth will be tightened in the future. The pressure for Renminbi depreciation will not be small in the next two years. How to overcome this pressure? First, it is appropriate depreciation. Stubbornly holding on will only be harmful, making hot money feel it makes sense to flee. Second, it is to create opportunities for Renminbi assets to make money. If this cannot be achieved, there will only be a significant tightening of foreign exchange controls. Some readers have said that after switching to the US dollar, they found that there are not many investment opportunities in China, and the interest rates are not high. That's right, this is the situation intentionally created by the authorities, otherwise everyone would have switched.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>目录/Content1、本日电新行情2、重点公司公告3、核心行业新闻4、每日更新--三季报汇总 1.电新行情——10月18日（周二） 【上证综指】（+1.40%）【深证成指】（+1.37%）【创业板指】（+1.40%）【电力设备指数-中信】（+2.04%）【电气设备指数-申万】（+1.91%）板块涨幅TOP5【东北电气】（+10.03%）【佳电股份】（+9.96%）【金利华电】（+9.06%）【白云电器】（+8.68%）【大连电瓷】（+8.15%）板块跌幅TOP5【电科院】（-5.54%）【万里股份】（-1.34%）【风范股份】（-0.69%）【太阳电缆】（-0.34%）【旭光股份】（0.00%）2.重点公司公告新能源车【中国海诚】三季报：2016年1-9月实现营业收入32.95亿元，+6.15%YOY，归母净利8049.6万元，-51.51%YOY；3Q实现营收9.58亿元，+2.64%YOY，归母净利-1263.33万元。EPS为-0.03元。【通合科技】三季报：2016年1-9月实现营业收入1.39亿元，+32.38%YOY，归母净利2713.24万元，+3.36%YOY；3Q实现营收5195.7万元，+18.72%YOY，归母净利+837.08万元，-15.44%YOY。EPS为0.1元。【拓邦股份】收购：拟使用自有资金1.2亿元收购王昌、苏菠、林健永等33名自然人合计持有的深圳合信达100%股权。标的公司主营智能控制器、温控器及暖通行业控制系统的研发、生产与销售等业务。新能源发电【太阳能】三季报：2016年1-9月实现营业收入28.35亿元，+24.33%YOY，归母净利1.87亿元，+35.73%YOY；3Q实现营收7.03亿元，+3.48%YOY，归母净利+4.08万元，+4.22%YOY。EPS为0.14元。【哈空调】政府补助：收到黑龙江省2015年度重点困难企业流贷贴息政策资金761.00万元。【中国核电】前三季度发电量：累计发电量641.30亿千瓦时，同比增长12.82%。电力设备【银河生物】非公开发行公司债+转让：①发行总规模不超过8亿元，首期不超过4亿元。募集资金用于新项目投资、股权投资或收购资产等。</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Table of Contents
+1. Daily Electricity Market Update
+2. Key Company Announcements
+3. Core Industry News
+4. Daily Update - Third Quarter Report Summary
+1. Daily Electricity Market Update - October 18th (Tuesday)
+【Shanghai Composite Index】(+1.40%)
+【Shenzhen Component Index】(+1.37%)
+【ChiNext Index】(+1.40%)
+【Power Equipment Index - CITIC】(+2.04%)
+【Electrical Equipment Index - Shenwan】(+1.91%)
+Top 5 Sector Gainers
+【Northeast Electric】(+10.03%)
+【Jiadian Share】(+9.96%)
+【Jinli Huadian】(+9.06%)
+【Baiyun Electric】(+8.68%)
+【Dalian Electric Porcelain】(+8.15%)
+Top 5 Sector Losers
+【China Electric Power Research Institute】(-5.54%)
+【Wanli Share】(-1.34%)
+【Fengfan Share】(-0.69%)
+【Sun Cable】(-0.34%)
+【Xuguang Share】(0.00%)
+2. Key Company Announcements
+New Energy Vehicles
+【China Haicheng】Third Quarter Report: Achieved operating income of 3.295 billion yuan from January to September 2016, a YoY increase of 6.15%, with a net profit attributable to the parent company of 80.496 million yuan, a YoY decrease of 51.51%; Q3 achieved revenue of 958 million yuan, a YoY increase of 2.64%, with a net loss attributable to the parent company of 12.6333 million yuan. EPS is -0.03 yuan.
+【Tonghe Technology】Third Quarter Report: Achieved operating income of 139 million yuan from January to September 2016, a YoY increase of 32.38%, with a net profit attributable to the parent company of 27.1324 million yuan, a YoY increase of 3.36%; Q3 achieved revenue of 51.957 million yuan, a YoY increase of 18.72%, with a net profit attributable to the parent company of 8.3708 million yuan, a YoY decrease of 15.44%. EPS is 0.1 yuan.
+【Tuobang Share】Acquisition: Intends to use its own funds of 120 million yuan to acquire 100% equity of Shenzhen Hexinda held by 33 natural persons including Wang Chang, Su Bo, and Lin Jianyong. The target company is mainly engaged in the research, development, production, and sales of intelligent controllers, thermostats, and HVAC control systems.
+New Energy Generation
+【Solar Energy】Third Quarter Report: Achieved operating income of 2.835 billion yuan from January to September 2016, a YoY increase of 24.33%, with a net profit attributable to the parent company of 187 million yuan, a YoY increase of 35.73%; Q3 achieved revenue of 703 million yuan, a YoY increase of 3.48%, with a net profit attributable to the parent company of 40,800 yuan, a YoY increase of 4.22%. EPS is 0.14 yuan.
+【Haier Air Conditioning】Government Subsidy: Received 7.61 million yuan in funding from Heilongjiang Province's 2015 key difficult enterprise loan interest subsidy policy.
+【China Nuclear Power】Power Generation in the First Three Quarters: Accumulated power generation of 64.13 billion kilowatt-hours, a YoY increase of 12.82%.
+Power Equipment
+【Galaxy Biology】Non-public Issuance of Corporate Bonds + Transfer: ① The total issuance size does not exceed 800 million yuan, with the first phase not exceeding 400 million yuan. The raised funds will be used for new project investments, equity investments, or asset acquisitions, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 竞彩足球周四024:维也纳快速VS森索罗比赛时间：2016-10-21星期五3：05亚洲盘口：1.01平手/半球0.85平均指数：2.283.302.95维也纳快速在小组赛前两轮取得一胜一负，暂列小组第三。球队在此前一段时间的状态十分出色，但近期出现严重下滑，各项赛事近四场仅有两平两负。不过球队在主场较为强势，赛季至今的各项赛事八个主场取得五胜两平一负；而森索罗在小组赛前两轮同样取得一胜一负，目前暂列小组第二。球队最近的成绩十分不稳定，主要源于其糟糕作客成绩，各项赛事近四个客场均告失利，期间场均失掉三球，后防线简直不堪一击，此番挑战实力不俗的维也纳快速，前景堪忧。维也纳快速本赛季在奥甲的表现一般，目前暂列联赛第五位，而森索罗本赛季在意甲的发挥同样一般，目前暂列中游，不过意甲水平毕竟要比奥甲高出不少，实力上维也纳快速难以相提并论;即时盘口为主让平半中水，庄家此举实乃阻上。欧赔方面，伟德和威廉希尔均是独降胜赔，对主队的支持十分到位，加上森索罗糟糕的作客成绩，此役维也纳快速可看高一线。竞彩胜平负推荐：31竞彩足球周四008 : 利贝雷茨 VS 佛罗伦萨比赛时间：2016-10-21 星期五 1：00亚洲盘口：1.05 受半球 0.81平均指数：4.10 3.60 1.78利贝雷茨在欧霸杯小组赛前两轮取得一平一负，暂列小组第三，出线形势岌岌可危。不过球队近期表现提升明显，各项赛事近三场取得两胜一平，期间只有一个失球，场均打进2.33球，攻防两端都相当抢眼;而佛罗伦萨在小组赛前两轮取得一胜一平，暂列小组第一，形势大好。不过球队近期在联赛中表现较为糟糕，近四轮联赛仅有三平一负，陷入不胜的尴尬局面。加上球队赛季至今四个客场依然是难求一胜，作客成绩令人失望，此番挑战近期回勇的利贝雷茨，必定是荆棘满途。利贝雷茨本赛季在捷甲开局不佳，暂时排名联赛倒数第三位，而佛罗伦萨本赛季在意甲同样未有达到预期，目前暂列联赛中下游。不过意甲水平要比捷甲高出几个档次，实力上佛罗伦萨要高出不少;今场客队作出半球的让步，上盘保持低水区间，考虑到佛罗伦萨实力上的优势，而且对欧霸杯颇为重视，此举或意在减轻赔付压力，结合欧赔调整倾向客队，此役佛罗伦萨有望斩获三分。竞彩胜平负推荐：10</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Thursday's 024: Vienna Rapid vs. Senso Rovigo match time: Friday, October 21, 2016, 3:05 Asia Handicap: 1.01 Draw/half ball 0.85 Average odds: 2.28 3.30 2.95 Vienna Rapid won one and lost one in the first two rounds of the group stage, currently ranking third in the group. The team was in excellent form some time ago, but has recently experienced a significant decline, with only two draws and two losses in the last four matches. However, the team is strong at home, with five wins, two draws, and one loss in eight home matches this season. Senso Rovigo also won one and lost one in the first two rounds of the group stage, currently ranking second in the group. The team's recent performance has been very unstable, mainly due to its poor away record. In the last four away matches, they have all been defeated, conceding an average of three goals per game. Their defense is simply vulnerable. Facing the strong Vienna Rapid, the outlook is worrying. Vienna Rapid's performance in the Austrian Bundesliga this season has been average, currently ranking fifth in the league. Similarly, Senso Rovigo's performance in the Italian Serie A this season has been average, currently in the mid-table. However, the Serie A level is significantly higher than the Austrian Bundesliga, making it difficult to compare the strengths of Vienna Rapid. The current handicap is in favor of the home team, indicating the bookmakers' intention to block the upper side. In terms of European odds, both Betway and William Hill have significantly lowered the odds for a home win, showing strong support for the home team. Considering Senso Rovigo's poor away record, Vienna Rapid seems to have the upper hand in this match. Prediction: 31
+Thursday's 008: Liberec vs. Fiorentina match time: Friday, October 21, 2016, 1:00 Asia Handicap: 1.05 Under half ball 0.81 Average odds: 4.10 3.60 1.78 Liberec drew one and lost one in the first two rounds of the Europa League group stage, currently ranking third in the group, facing a precarious situation to advance. However, the team's recent performance has significantly improved, with two wins and one draw in the last three matches, conceding only one goal and scoring an average of 2.33 goals per game, showing impressive performance on both ends of attack and defense. Fiorentina won one and drew one in the first two rounds of the group stage, currently leading the group. However, the team has been performing poorly in the league recently, with only three draws and one loss in the last four league matches, stuck in a winless situation. With four away matches this season without a single win, their away record is disappointing. Facing Liberec, who has recently regained form, Fiorentina is expected to face challenges. Liberec has had a poor start in the Czech First League this season, currently ranking third from the bottom, while Fiorentina has not met expectations in the Serie A this season, currently in the lower half of the league. However, the Serie A level is several levels higher than the Czech First League, indicating Fiorentina's superiority. The away team is given a half ball handicap with low odds in favor of the over, considering Fiorentina's strength advantage and their focus on the Europa League. This move may be aimed at reducing payout pressure. Combined with the adjustment of European odds favoring the away team, Fiorentina is expected to secure three points in this match. Prediction: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 英足总关于组建英国队参加2016年里约奥运会的提议被否决了。英足总希望组建英国奥运男足和女足参赛，但遭到了其他足协的反对。英足总之前在周一写信给苏格兰，威尔士和北爱尔兰足协，告知他们这项提议。英国奥运男足和女足都参加了2012年伦敦奥运会，但都在1/4决赛被淘汰。国际足联副主席博伊斯之前告知英国方面，只有各足协都同意，才能以英国国奥队参加奥运会。苏格兰足协担心英国队会对他们的独立地位造成影响，他们表示只有2012年是一次特例。据说英足总太低估了其他足协的感受。威尔士足协主席休斯表示第一次听到这个计划时，他很不开心。尽管遭到了苏格兰，威尔士和北爱尔兰的强烈反对，但是在2012年，有5名威尔士球员入选了英国队，2名苏格兰球员入选了英国女足。</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>The proposal by the English Football Association to form a British team to participate in the 2016 Rio Olympics has been rejected. The English Football Association hoped to form British men's and women's Olympic football teams, but faced opposition from other football associations. The English Football Association had previously written to the Scottish, Welsh, and Northern Irish football associations on Monday to inform them of this proposal. Both the British men's and women's Olympic football teams participated in the 2012 London Olympics, but were eliminated in the quarter-finals. The Vice President of FIFA, Boyce, had previously informed the British side that only if all football associations agreed could a British national team participate in the Olympics. The Scottish Football Association was concerned that the British team would affect their independent status, stating that 2012 was a one-time exception. It is said that the English Football Association underestimated the feelings of the other football associations. The President of the Welsh Football Association, Hughes, said he was very unhappy when he first heard about this plan. Despite strong opposition from Scotland, Wales, and Northern Ireland, in 2012, five Welsh players were selected for the British team, and two Scottish players were selected for the British women's team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>促销时间：2016.10.13-2016.11.12日前，搜狐汽车上海编辑从上海起亚经销商(上海尚德汽车销售服务有限公司)处了解到，店内起亚K5火热开售，购K5部分车款优惠2.5万元，现车充足。感兴趣的朋友可致电咨询详情，免费电话400-890-8009转3193。具体车型优惠政策如下： 指导价 现价 询价 2.0L 自动GL 15.98万 13.48万 询价 2.0L 自动GLS 16.48万 13.98万 询价 2.0L 自动LUX 17.58万 15.08万 询价 2.0L 自动PRM 19.28万 16.78万 询价 1.6T 自动GLS 16.98万 14.48万 询价 1.6T 自动LUX 18.08万 15.58万 询价 1.6T 自动PRM 19.78万 17.28万 询价 2.0T 自动LUX 20.98万 18.48万 询价 2.0T 自动PRM 23.98万 21.48万 询价 查看更多降价信息请进 降价栏目首页 起亚K5 【综述】起亚K5是东风悦达起亚旗下的一款中高级轿车，时尚前卫的造型一经上市便吸引了众多消费者的眼球，完美流畅的车身线条为K5增添了时尚动感，超炫的轮毂造型风格偏于运动，整体性能表现也比较不错，相对于上市时坚挺的定价，目前各地经销商纷纷推出了不同形式和幅度的购车优惠，K5的销售形势有所改善。 【优点】外观漂亮动感，内饰简洁运动，安全配置丰富实用，保养费用较为合理。【缺点】低转速时动力较差，行车噪音较大，头部空间紧凑，舒适度一般，燃油性较差。（信息来源：上海 信息员刘莹） 【温馨提示】在4S店购车时，如果提及搜狐汽车，您将享受到上海地区经销商更优质的服务。声明：此价格为经销商个体行为，不代表全部经销商。由于市场价格变化多端，文中所报价格仅供参考。本文系搜狐汽车独家稿件，版权归搜狐汽车所有，未经许可，不得转载。一经发现，必将追究。</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Promotion period: From October 13, 2016 to November 12, 2016, the Sohu Auto Shanghai editor learned from the Shanghai Kia dealer (Shanghai Shangde Auto Sales Service Co., Ltd.) that the Kia K5 is now hot on sale in the store, with a discount of 25,000 yuan for some K5 models, and there is sufficient stock available. Interested friends can call for details at the toll-free number 400-890-8009 ext. 3193. The specific models and discount policies are as follows: Guide Price Current Price Inquiry 2.0L Automatic GL 159,800 yuan 134,800 yuan Inquiry 2.0L Automatic GLS 164,800 yuan 139,800 yuan Inquiry 2.0L Automatic LUX 175,800 yuan 150,800 yuan Inquiry 2.0L Automatic PRM 192,800 yuan 167,800 yuan Inquiry 1.6T Automatic GLS 169,800 yuan 144,800 yuan Inquiry 1.6T Automatic LUX 180,800 yuan 155,800 yuan Inquiry 1.6T Automatic PRM 197,800 yuan 172,800 yuan Inquiry 2.0T Automatic LUX 209,800 yuan 184,800 yuan Inquiry 2.0T Automatic PRM 239,800 yuan 214,800 yuan Inquiry For more price reduction information, please visit the price reduction section homepage Kia K5 [Overview] The Kia K5 is a mid-to-high-end sedan under Dongfeng Yueda Kia. Its stylish and avant-garde design has attracted many consumers since its launch. The perfect and smooth body lines add a fashionable and dynamic touch to the K5. The super cool wheel hub styling leans towards sporty, and the overall performance is also quite good. Compared to the firm pricing at launch, dealers across the country have introduced different forms and levels of car purchase discounts, improving the sales situation of the K5. [Advantages] Beautiful and dynamic appearance, simple and sporty interior, rich and practical safety features, reasonable maintenance costs. [Disadvantages] Poor power at low speeds, high driving noise, compact head space, average comfort, poor fuel economy. (Source: Shanghai Information Officer Liu Ying) [Friendly Reminder] When purchasing a car at a 4S store, if you mention Sohu Auto, you will enjoy better service from dealers in the Shanghai area. Disclaimer: This price is the individual behavior of the dealer and does not represent all dealers. Due to the fluctuating market prices, the prices reported in this article are for reference only. This article is an exclusive manuscript of Sohu Auto, and the copyright belongs to Sohu Auto. Without permission, reprinting is prohibited. Once discovered, it will be pursued.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>新加坡闻讯者报网站报道称，2015年国际政治的话题是新冷战，但前俄罗斯将军警告称，世界正处在“热战”的边缘，而不是“第二次冷战”。此外，他还“开玩笑”地用“将美国领土置于枪口之下”的言论，来威胁称第三次世界大战可能是与美国开战的最有效的方式。据报道，普京最近签署并颁布了一项新的军事政策，提议在与中国、印度和其他国家联合打造防御项目的基础上，扩大靠近欧洲的俄罗斯核武器防御系统。 前苏联领导人戈尔巴乔夫也警告称，乌克兰危机可能会导致第三次世界大战，并认为俄美之间有可能会爆发核战争。 前俄罗斯参谋长联席会议成员、陆军将军里奥尼德·埃瓦索夫(Leonid Ivashov)最近接受了《真理报》的采访，当被问及“非核威慑力”的问题时，他以“开玩笑”的方式做出了回应。“应当将美国领土置于枪口之下，以便能迅速采取行动。我们可以拿美联储当目标啊，当然了，我是在开玩笑。不过呢，玩笑里头也有真实的成分，因为一般说来，像这种金融寡头需要战争。”埃瓦索夫称，俄外交部应该对美国开展“作战任务”，要用经济方式来对其造成损害。他还特别强调要以石油供应和生活必需品为目标。不过，埃瓦索夫也认为，在类似拉美地区的战略要地部署核武器将会有更大的威慑力。 “将美国领土置于枪口之下，这才是美国人最害怕的。他们在导弹防御上投那么多钱，就是不想在自己的领土上开战。 他们乐意在任何地方开战，唯独不愿意在自己领土上开战。我们需要找些国家，来建个可以在美国领土上开战的团队，以免俄罗斯遭到攻击。这可能就是一个威慑因素。他们说了，俄罗斯联邦武装总参谋部和国防部已经在着手这项工作。”埃瓦索夫认为，关注俄罗斯的核武器是一个方面，同时也指出美国“连一枚弹道导弹也没有升级，也没有造新的导弹”。这导致了俄罗斯的核武器数量超过美国。按照美国2003年实施的政策，美国军方一直专注于用“宙斯盾”弹道导弹系统在战略要点部署高精度武器。 “因此，美国人计划在助推阶段来破坏我们弹道导弹。正是出于这一目的，他们建造了导弹防御系统。 ‘宙斯盾’系统禁用了所发射导弹的弹头功能。美国人在尽力弱化俄罗斯导弹的潜能，他们能获得成功。”他还认为，“一旦遭到非核武器的攻击，威胁到俄罗斯的生存和领土完整，俄罗斯就会先发制人地使用战术核武器。</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>According to reports from The Straits Times website in Singapore, the topic of international politics in 2015 was said to be a new Cold War, but a former Russian general warned that the world is on the edge of a "hot war," not a "second Cold War." Additionally, he "jokingly" made remarks about putting the United States under the gun, threatening that the most effective way to start the Third World War might be to go to war with the United States. It was reported that Putin recently signed and issued a new military policy, proposing to expand Russia's nuclear weapons defense system closer to Europe on the basis of joint defense projects with China, India, and other countries. Former Soviet leader Gorbachev also warned that the crisis in Ukraine could lead to the Third World War, suggesting that a nuclear war between Russia and the United States could erupt. Former member of the Russian General Staff and Army General Leonid Ivashov recently gave an interview to Pravda, where he responded "jokingly" to the question of "non-nuclear deterrence." "We should put the United States under the gun so that we can act quickly. We can target the Federal Reserve, of course, I'm joking. However, there is some truth in the joke, because generally, financial oligarchs like these need wars." Ivashov stated that the Russian Foreign Ministry should carry out "combat missions" against the United States and cause damage to it economically. He particularly emphasized targeting oil supplies and essential goods. However, Ivashov also believed that deploying nuclear weapons in strategic locations like in Latin America would have greater deterrence. "Putting the United States under the gun is what Americans fear the most. They spend so much money on missile defense because they don't want to go to war on their own soil. They are willing to go to war anywhere, just not on their own territory. We need to find some countries to build a team that can go to war on US soil, so that Russia won't be attacked. This could be a deterrent. They said the General Staff of the Armed Forces of the Russian Federation and the Ministry of Defense are already working on this." Ivashov believed that while focusing on Russia's nuclear weapons is one aspect, he also pointed out that the United States "has not upgraded a single ballistic missile or developed new missiles." This has led to Russia having more nuclear weapons than the United States. According to the policy implemented by the United States in 2003, the US military has been focusing on deploying high-precision weapons at strategic points using the "Zeus Shield" ballistic missile system. "Therefore, Americans plan to destroy our ballistic missiles during the boost phase. It is for this purpose that they have built a missile defense system. The 'Zeus Shield' system disables the warhead function of the launched missiles. Americans are trying to weaken the potential of Russian missiles, and they can succeed." He also believed that "once Russia is threatened with non-nuclear attacks that endanger its survival and territorial integrity, Russia will preemptively use tactical nuclear weapons."</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>本报记者马新通讯员马延芳上线半年的“海东市精准扶贫信息化服务平台”，今年更改为“青海省精准扶贫大数据平台”。这一改，平台涵盖的信息量骤增，不仅扩展了地域范围，还加大了数据的融合和共享力度。“目前来说，在全国科技系统中，只有青海研发搭建了精准扶贫的大数据平台。”作为技术支持单位的负责人，青海省科学技术信息研究所所长胡永强不无自豪地说。2015年10月，青海省科学技术信息研究所开始着手搭建精准扶贫平台。平台搭建之初，即设计了精准识别、精准服务、精准管理、精准评价的四精准构架。“国家扶贫办的平台里面，主要功能还是集中在统计方面，在精准识别上还比较简单。根据青海实际情况，我们又补充了很多内容。”胡永强打开平台界面，逐一向记者做起了介绍。在随意调取的贫困户信息中，记者看到了罗列详尽的个人信息，仅贫困户生产生活条件一栏，就列出了包括家庭收入、耕地情况等在内的48项具体内容，还在个人信息卡片中增设了现状照片，如实反映了贫困户的生产生活状况。截至目前，该平台已经录入了20多万贫困户的个人数据，并正在全省范围内逐步推进。集纳如此翔实的信息，产生的工作量可想而知。但事实上，这个系统上线并开始向下推的时候，并没有遭遇太大阻力；不仅如此，还深受基层人员的欢迎。“以前都是拿着纸笔采集信息，信息量大了以后，很多信息就容易被忽视。现在有了这个平台，我们到村入户，现场就可以采集到准确信息。掌握了贫困户的精准数据，我们下一步制定扶贫措施和产业规划就有了依据。” 民和回族土族自治县西沟乡凉坪村“第一书记”肖懋说。作为平台试点村，肖懋与其他试点村的“第一书记”们一样，用海量的数据开启了精准识别第一关。精准识别是精准扶贫的第一步，有了具体的实施对象，才能因户施策，做好精准服务。青海省精准扶贫大数据平台除了做好因户施策帮扶措施的数据记录外，还增加了信息化支撑下的产业指导服务。“产业扶贫是扶贫工作的根本，发展产业除了有资金问题之外，还有技术问题。搞技术是科技工作部门的强项。”胡永强对记者说。青海省精准扶贫大数据平台在构建中，融合了青海省农村信息化综合服务平台、农畜产品质量安全追溯平台和青海特色产品电子商务平台。分析贫困户致贫原因制订帮扶措施后，对有产业帮扶措施的贫困户，定时主动推送产业指导信息，跟踪追溯生产过程，再通过电子商务帮助解决产品销路，就成了青海省精准扶贫工作的一大亮点。</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Reporter Ma Xin and correspondent Ma Yanfang of this newspaper reported that after being online for half a year, the "Haidong City Precision Poverty Alleviation Informatization Service Platform" has been renamed to "Qinghai Province Precision Poverty Alleviation Big Data Platform" this year. With this change, the platform's information coverage has dramatically increased, expanding not only the geographical scope but also enhancing the integration and sharing of data. "Currently, in the national scientific and technological system, only Qinghai has developed a precision poverty alleviation big data platform," proudly stated Hu Yongqiang, director of the Qinghai Science and Technology Information Research Institute, as the head of the technical support unit. In October 2015, the Qinghai Science and Technology Information Research Institute began to build the precision poverty alleviation platform. At the beginning of the platform construction, a four-precision framework of precise identification, precise service, precise management, and precise evaluation was designed. "The platform of the State Council Leading Group Office of Poverty Alleviation mainly focuses on statistics, and the precise identification is relatively simple. According to the actual situation in Qinghai, we have added a lot of content," Hu Yongqiang said proudly as he opened the platform interface and introduced it to the reporter. In the randomly accessed information of impoverished households, the reporter saw a detailed list of personal information. In the column of the living and production conditions of impoverished households alone, 48 specific contents including family income and land situation were listed. Additionally, a current photo was added to the personal information card, truthfully reflecting the production and living conditions of impoverished households. Up to now, the platform has entered personal data of over 200,000 impoverished households and is gradually being promoted throughout the province. The workload generated by collecting such detailed information can be imagined. However, in fact, when this system was launched and started to be promoted, it did not encounter significant resistance; on the contrary, it was warmly welcomed by grassroots personnel. "In the past, information was collected with pen and paper. With the increase in information volume, many details were easily overlooked. Now with this platform, we can collect accurate information on-site when visiting households in the village. By mastering precise data of impoverished households, we have a basis for formulating poverty alleviation measures and industrial planning," said Xiao Mao, the "First Secretary" of Liangping Village, Xigou Township, Minhe Hui and Tu Autonomous County. As a pilot village for the platform, Xiao Mao, like other "First Secretaries" in pilot villages, used massive data to initiate the first step of precise identification. Precise identification is the first step of precise poverty alleviation. With specific implementation targets, targeted measures can be taken to provide precise services. In addition to recording data for targeted assistance measures, the Qinghai Province Precision Poverty Alleviation Big Data Platform also provides industrial guidance services supported by informatization. "Industrial poverty alleviation is the foundation of poverty alleviation work. In addition to financial issues, the development of industries also involves technical problems. Technology is the strength of the science and technology department," said Hu Yongqiang to the reporter. In the construction of the Qinghai Province Precision Poverty Alleviation Big Data Platform, it integrates the Qinghai Rural Informatization Comprehensive Service Platform, the Agricultural and Livestock Product Quality and Safety Traceability Platform, and the Qinghai Specialty Product E-commerce Platform. After analyzing the reasons for poverty among impoverished households and formulating assistance measures, for impoverished households with industrial assistance measures, timely industrial guidance information is actively pushed, production processes are tracked and traced, and product sales are solved through e-commerce, becoming a major highlight of Qinghai Province's precision poverty alleviation work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>郭玉琴山西日报记者郭玉琴报道：7月25日，记者从曲沃县新闻中心了解到，近日，该县地热能集中供热工程项目沃探1号井举行开工仪式。地热能由于其“节能、环保、可再生”等特点逐渐被人们所重视。该县的地热能集中供热工程项目总投资4亿多元，分三期实施，将利用3年时间，实现县城地热能集中供热全覆盖。位于该县乐昌中学东部的沃探1号井的开钻，可进一步查明该县地热田地质的详细情况，热水水温、水量等参数，为大规模开发中深层地热资源等提供科学依据和开发方案。近年来，曲沃县委、县政府按照实施三大战略，建设三大基地的总体思路，不断延伸扩展551011工程，全县工农城建、文化旅游、民生事业等各个领域都取得了显著成绩。特别是在实施城建靓县战略上，重点推进了涉及基础设施配套、服务功能提升、商住环境改善等工程项目的建设，城市面貌发生了日新月异的变化。该县从全县发展大局出发，顺应广大群众的殷切期盼，决定启动实施集中供热工程，具有显著的经济社会生态效益。</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Guo Yuqin, a reporter from Shanxi Daily, reported: On July 25th, the reporter learned from the news center of Quwo County that recently, the groundbreaking ceremony of the geothermal centralized heating project, Wotan No.1 Well, was held in the county. Geothermal energy is gradually being valued by people due to its characteristics such as "energy-saving, environmentally friendly, and renewable". The total investment of the geothermal centralized heating project in the county is over 400 million yuan, to be implemented in three phases. It will take three years to achieve full coverage of geothermal centralized heating in the county town. The drilling of Wotan No.1 Well, located in the east of Lechang Middle School in the county, can further investigate the detailed geological conditions of the geothermal field in the county, parameters such as hot water temperature, water volume, etc., and provide scientific basis and development plans for large-scale development of deep geothermal resources. In recent years, following the overall idea of implementing the three major strategies and constructing the three major bases, Quwo County Committee and County Government have continuously extended and expanded the "551011 Project". Significant achievements have been made in various fields such as agriculture, industry, urban construction, culture, tourism, and people's livelihood. Especially in the implementation of the strategy to build a beautiful county, the focus has been on promoting the construction of projects related to infrastructure supporting, service function improvement, and residential and commercial environment enhancement, leading to rapid changes in the urban appearance. Starting from the overall development of the county and in response to the earnest expectations of the masses, the decision to initiate the implementation of the centralized heating project has significant economic, social, and ecological benefits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>天山网讯（记者宋林遥报道）“3·15特别贡献奖”、“最美新疆人”、“诚实守信模范”这一个个荣誉让马马江·艾山剀力地平凡的人生更加精彩。他也因为做生意将诚信放至首位，多年替农民维权，成为农民心目中名副其实的“维权英雄。”马马江·艾山剀力地是克州乌恰县波斯坦铁列克乡的一名柯尔克孜族个体工商户，也是当地消费维权联络站站长，今年的3·15晚会被评为“维权英雄”。在他担任消费维权联络站站长的6年时间里，先后调解各类消费投诉纠纷600多起。他不仅替当地农民维权，在做生意时还把诚信放在第一位。2003年底，马马江·艾山剀力地发现自家售卖的洗衣粉是假冒伪劣产品。他立即发布致歉信，并将致歉信张贴在街道、村庄各个角落，向消费者承诺售出的假冒伪劣洗衣粉收回后一律全额退款。5天时间过去了，马马江·艾山剀力地就已收回已销售的90%洗衣粉，并退款2000多元给消费者。对此，周围的村民直竖大拇指夸赞。马马江·艾山剀力地2009年起担任波斯坦铁列克乡消费维权联络站站长，在诚信经营，帮村民维权的同时，还积极从事慈善事业。虽然他因为患小儿麻痹症导致半身残疾，不能正常行走只能坐在轮椅上。但他有一颗温暖所有人的爱心。十多年来，马马江·艾山剀力地为乡里的残疾学生及孤寡老人捐款6万多元，支助20多名贫困学生上学。此外，2003年马马江·艾山剀力地还购买3辆大型客运车，帮助改善乡里牧区的交通条件，坚持免费接送因为交通不便，每天往返乡里学校的学生们，累计为学生节约60多万元的交通费。</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Tianshan Net News (Reporter Song Linyao reporting) The "3.15 Special Contribution Award", "Most Beautiful Xinjiang Person", and "Honest and Trustworthy Model" have made Ma Majiang Aishankaiti's ordinary life more exciting. He also prioritizes integrity in business, has been safeguarding the rights of farmers for many years, and has become a true "rights protection hero" in the hearts of farmers. Ma Majiang Aishankaiti is a Kyrgyz individual business owner from Botantielek Township, Wuchia County, Kizilsu Kirgiz Autonomous Prefecture. He is also the head of the local consumer rights protection liaison station and was honored as the "rights protection hero" at this year's 3.15 Gala. During his six years as the head of the consumer rights protection liaison station, he has successfully mediated over 600 consumer complaints and disputes. Not only does he protect the rights of local farmers, but he also prioritizes integrity in his business dealings. At the end of 2003, Ma Majiang Aishankaiti discovered that the laundry detergent he was selling was counterfeit. He immediately issued an apology letter, posted it in various corners of the streets and villages, and promised consumers a full refund for the counterfeit laundry detergent. Within 5 days, Ma Majiang Aishankaiti had already retrieved 90% of the sold laundry detergent and refunded over 2,000 yuan to consumers. The surrounding villagers praised him with thumbs up. Since 2009, Ma Majiang Aishankaiti has been serving as the head of the consumer rights protection liaison station in Botantielek Township, engaging in honest business practices, helping villagers protect their rights, and actively participating in charitable activities. Despite being partially disabled due to childhood polio and unable to walk normally, he can only sit in a wheelchair. However, he has a warm heart that touches everyone. For over a decade, Ma Majiang Aishankaiti has donated over 60,000 yuan to disabled students and elderly widows in the township, supporting over 20 impoverished students to attend school. In addition, in 2003, he purchased three large passenger buses to improve transportation conditions in the pastoral areas of the township, providing free transportation for students commuting to and from school due to transportation difficulties, saving over 600,000 yuan in transportation fees for students.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>千元手机用过后再也不想用的原因给孩子一个独立的房间这仅仅是让他走向独立的开始。宝宝可是个小大人，当然还是什么东西都有自己的比较好。宝宝年纪小，抵抗力低，如果和大人使用同一台洗衣机不可避免会细菌交叉，可宝宝还那么弱小哎……注重生活品质的妈妈们，内衣外衣要分开洗，男士女士衣服要分开洗，当然，大人与宝宝的衣服更要分开洗！所以，今天小编就推荐一款迷你洗衣机为宝宝的健康保驾护航！ 图片来源于网络松下（Panasonic） XQB28-P200W的桶干燥技术，利用内桶高速旋转产生的风来干燥内外桶，从而保持内外桶的清洁，避免了水渍残留，防止滋生霉菌。有效的控制了细菌。让宝宝的健康得到保证。 图片来源于网络松下（Panasonic） XQB28-P200W采用运动浸泡，更高洁净，节能的运动方式让洗涤剂充分溶解，对衣物进行高效浸泡，使洗涤剂与污渍进行充分反应，使衣物洁净更彻底。爱玩闹的宝宝常常弄得满身油渍、泥渍，有了松下XQB28-P200W就不用再担心啦！轻而易举，干干净净！ 图片来源于网络松下（Panasonic） XQB28-P200W采用高光面不锈钢内桶，耐腐蚀，耐氧化，日本进口双镜面高光不锈钢斜筋3内桶，提高脱水率，防止霉菌吸附，形成斜筋水流，令洗净比达到0.75，洁净力更强；耐腐蚀，耐氧化，使用寿命更长久！ 图片来源于网络迷你时尚外观，摆放方便！洗衣机采用绿白相间的塑料外壳，简约而大方，机身仅有不到8公分高和4公分见方的长宽，小巧身材不占地方，家庭摆放十分轻松，为您带来不一样的洗衣体验！ 图片来源于网络浓缩的都是精华！机型虽小，功能强大啊！你有没有中意它呢？</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>The reason why a thousand-yuan smartphone is no longer wanted after use is to give the child an independent room, which is just the beginning of his independence. The baby is like a little adult, of course, everything should have its own. The baby is young and has a low resistance. If using the same washing machine as adults, bacterial cross-contamination is inevitable, but the baby is still so weak... For moms who pay attention to quality of life, underwear and outerwear should be washed separately, men's and women's clothes should be washed separately, and of course, adults and baby clothes should be washed separately! Therefore, today the editor recommends a mini washing machine to escort the baby's health! The Panasonic XQB28-P200W uses bucket drying technology, using the wind generated by the high-speed rotation of the inner drum to dry the inner and outer drums, thereby keeping the inner and outer drums clean, avoiding water stains residue, and preventing mold growth. Effectively controls bacteria. Ensuring the baby's health. The Panasonic XQB28-P200W uses motion soaking for higher cleanliness, energy-saving motion method allows the detergent to dissolve fully, efficiently soaking the clothes, allowing the detergent to react fully with the stains, making the clothes cleaner. Playful babies often get oily and muddy stains all over, with the Panasonic XQB28-P200W, you don't have to worry anymore! Easy and clean! The Panasonic XQB28-P200W uses a high-gloss stainless steel inner drum, corrosion-resistant, oxidation-resistant, Japanese imported double-mirror high-gloss stainless steel diagonal rib 3 inner drum, improves dehydration rate, prevents mold adhesion, forms a diagonal rib water flow, achieving a cleaning ratio of 0.75, stronger cleaning power; corrosion-resistant, oxidation-resistant, longer service life! Mini and stylish appearance, convenient placement! The washing machine features a green and white plastic shell, simple and generous, with a body height of less than 8 cm and a length and width of less than 4 cm, compact and space-saving, easy to place in the home, bringing you a different laundry experience! Concentrated essence! Although the model is small, it is powerful! Do you like it?</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10月28日手游限免玩个够，每日魔方限免推荐游戏都是由小编精心挑选，曾经的收费游戏现在让你免费体验，保证让你爽个够。无限地牢Evolution!是一款复古风RPG养成小游戏，你的目标是挣钱发家致富!玩法很简单，两个角色配合打怪，手动释放技能，一层层地攻关。每攻下了一层都有一个小矮人在这挖金，给主人公升级属性和技能! 无限打砖块：Trixibrix是一款以休闲为主的打方块游戏，游戏中没有什么复杂的操作和困难的关卡，就是纯粹的打方块，只要还有生命值，就能一直打下去。玩法上与其他打方块游戏一样，手指移动平台来接球，然后让球弹上去打方块。 索尼克CD：Sonic CD是一款横版闯关类游戏，一路上收集金环道具，收集到 100 个就能够增加一条命，游戏里也会有一些辅助道具可以获得，不过一旦向前跑起来，角色的速度会很快，有时就啥都看不清了，所以需要跑跑停停最好，虽然动作快但是看起来好带感的感觉，碰到小怪辛辛苦苦收集的金环就会掉落一些，差不多两个普通关过后就会遇到一个 boss 关，游戏内还有一个时空隧道，可以去到未来或者过去。 以上就是手游限免玩个够今天给大家推荐的三款限免的游戏了。在今天给大家推荐的《无限地牢》、《无限打砖块》和《索尼克CD》这三款游戏中，无限地牢是一款RPG养成游戏，无限打砖块是一款打方块游戏，索尼克CD则是一款横版闯关游戏，对游戏感兴趣的玩家不妨下载试试。更多APP限免请戳我：10月27日手游限免玩个够：孔明锁与多人混乱10月26日手游限免玩个够：迷宫桌上四人足球</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>On October 28th, play to your heart's content with the limited-time free mobile games. The daily recommended games for free on the Rubik's Cube are carefully selected by the editor. Formerly paid games are now available for you to experience for free, ensuring you have a blast. "Infinite Dungeon Evolution!" is a retro-style RPG nurturing game where your goal is to make money and become rich! The gameplay is very simple, with two characters working together to fight monsters, manually releasing skills, and advancing through each level. After clearing each level, a dwarf will dig for gold, allowing the protagonist to upgrade attributes and skills! "Infinite Brick Breaker: Trixibrix" is a casual block-breaking game where there are no complex operations or difficult levels. As long as you have life points, you can keep playing. The gameplay is similar to other block-breaking games, where you move the platform with your finger to catch the ball and bounce it up to break the blocks. "Sonic CD" is a side-scrolling adventure game where you collect gold ring props along the way. Collecting 100 rings will grant you an extra life. There are also some auxiliary props to obtain in the game. However, once you start running forward, the character's speed will be very fast, sometimes making it hard to see clearly. Therefore, it's best to run and stop intermittently. Although the actions are fast, it gives a cool feeling. When encountering small monsters, some of the hard-earned gold rings may drop. After passing about two regular levels, you will encounter a boss level. There is also a time tunnel in the game that can take you to the future or the past. These are the three recommended free games in today's limited-time free mobile games. Among the three games recommended today, "Infinite Dungeon," "Infinite Brick Breaker," and "Sonic CD," "Infinite Dungeon" is an RPG nurturing game, "Infinite Brick Breaker" is a block-breaking game, and "Sonic CD" is a side-scrolling adventure game. Players interested in games may want to download and try them out. For more free apps, click here: October 27th Limited-time Free Mobile Games: Kong Ming Lock and Multiplayer Chaos; October 26th Limited-time Free Mobile Games: Maze Table Soccer for Four People.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PS：在国外，雪纳瑞被网友恶搞各种造型。其实呢，关于雪纳瑞造型的话，有以下10比较常见的造型哦！1:标准造型最常见的造型，通常大家所熟悉的标准造型很简单，只是将背部的毛发剃掉，留下四肢及裙脚，而头部只剩下白眉及胡子。造型优点：短毛的部位尽量剪短，与长毛的部位形成强烈对比，清爽中散发时尚感，保留腹部和四肢的毛发长度，看起来有如穿上小洋裙，突显它的俏丽外型，在隆重的场合有如优雅淑女，在户外活动则潇洒可人。造型不足：不是人人都爱大胡子造型，狗狗也一样。当眼睛上的长毛到眼皮下方，刺激双眼会也泪流，还有，嘴上长毛会沾满食物，连自己的毛发也吃进嘴巴里。2:清爽利落造型将狗狗全身的毛剃短，嘴部的毛发剪圆形，看起来很清爽又整齐，毛发不容易打结，洗澡后也比较快干。另外，将其尾部的毛剃掉，削短四条腿的毛发，因而很方便照顾。雪纳瑞犬是属梗类，造型都是刚硬而带自然，尤其是要突出头部及背部的线条，因此这两个部位须用四个不同长度的电剪来剪出特征。而身体两侧的侧线亦需以剪刀修剪顺服，令侧线看起来较自然。另外，四肢需剪成合比例的圆筒型，头部、眼眉及胡子需注重线条及长度。狗狗这个短毛造型，很适合爱打扮的主人，带它去不同场合可以穿不同类型的服装，看起来很sweet，可塑性很强。由于其毛发剪得很短，所以三个月才去修剪也行，最重要是常常梳理四条腿的毛发。3:小马装造型此造型也是大众所熟悉和喜爱的一种造型，有人亦称之为小毛驴造型，雪纳瑞犬的造型通常都是腹部留长毛，看起来像裙子，而脸上则留有胡子。它一定要剃背，否则毛太长会形成杂乱感。所以，将它的下巴毛发剪呈V字型，眼眉则斜剪呈尖形，而肩膀部位的毛发沿着毛流剪齐，看起来有穿裙的模样。由于这个造型保留其脸部、腹部和四条腿的毛发有一定的长度，因此建议主人每天都要梳毛一次，一个月修剪一次以维持长度。4:朋克造型这类造型主要着手于发饰和衣服的搭配，往往配以牛仔布料的衣服和鞋子，或者给宝宝梳起夸张另类的辫子等营造出轻松活泼，奇特乖张的欧美朋克街头风，某些有欧美朋克情结的耙耙麻麻可以尝试给孩子制作此造型，也不失可爱。5:贵妇或泰迪造型有些家长可能基于同时喜欢其它犬种的原因，会将家中宝贝进行造型混搭，比如将雪纳瑞的毛发进行卷烫，创造出类似贵妇或者泰迪等风格的造型，个人认为虽也不失情趣，但始终是背离了雪纳瑞本身的骨架风范，半柔半刚的风格或许是少数人的喜欢。</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>PS: Abroad, Schnauzers are spoofed by netizens in various styles. In fact, there are 10 common styles about Schnauzer styling! 1: Standard styling is the most common style. The standard styling that everyone is familiar with is very simple. It only shaves the hair on the back, leaving the four limbs and skirt feet, while the head only retains white eyebrows and beard. Styling advantages: The short hair parts are cut short as much as possible, forming a strong contrast with the long hair parts, exuding a fashionable feeling in a refreshing way. By retaining the length of the hair on the abdomen and limbs, it looks like wearing a little skirt, highlighting its lovely appearance. It looks like an elegant lady on formal occasions and a casual and charming lady during outdoor activities. Styling shortcomings: Not everyone loves the big beard style, and dogs are the same. When the long hair on the eyes reaches below the eyelids, it stimulates tears, and the long hair on the mouth will be covered with food, even eating their own hair. 2: Neat and tidy styling shaves the dog's entire body hair short, trims the hair on the mouth into a round shape, looks very refreshing and tidy, the hair is not easy to tangle, and dries relatively quickly after bathing. In addition, shave the hair on its tail, shorten the hair on the four legs, making it easy to care for. Schnauzers belong to the terrier category, and the styling is all about being stiff and natural, especially emphasizing the lines of the head and back. Therefore, these two parts need to be cut with four different lengths of electric clippers to create features. The side lines on both sides of the body also need to be trimmed with scissors to make them look more natural. In addition, the four limbs need to be cut into proportionate cylindrical shapes, and attention should be paid to the lines and length of the head, eyebrows, and beard. This short hair styling is very suitable for owners who love dressing up. You can dress it in different types of clothing for different occasions, looking very sweet and versatile. Since the hair is cut very short, it can be trimmed every three months, but it is most important to comb the hair on the four legs frequently. 3: Pony styling This styling is also a popular and beloved style. Some people also call it the pony styling. The styling of Schnauzers usually leaves long hair on the abdomen, resembling a skirt, while leaving a beard on the face. It must be shaved on the back, otherwise, the hair will be too long and look messy. Therefore, cut the hair on its chin into a V shape, cut the eyebrows diagonally into a pointed shape, and trim the hair on the shoulders along the hair flow to make it look like wearing a skirt. Since this styling retains a certain length of hair on the face, abdomen, and four legs, it is recommended that the owner comb the hair once a day and trim it once a month to maintain the length. 4: Punk styling This type of styling mainly focuses on the matching of accessories and clothing, often paired with denim clothing and shoes, or styling the baby's hair in exaggerated and alternative braids to create a relaxed, lively, and quirky European and American punk street style. Some moms with a punk vibe can try to create this style for their babies, which is also cute. 5: Aristocratic or Teddy styling Some parents may mix and match their beloved pets based on their love for other breeds, such as curling the hair of Schnauzers to create styles similar to aristocratic or Teddy styles. Personally, although it is also interesting, it always deviates from the Schnauzer's own skeletal style. The semi-soft and semi-hard style may be liked by a few people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>本文来自豆瓣网友:KY主创们首发于knowyourself微信公众号关注微信公众号“每日豆瓣”，回复“今晚我有空”，看看大家晚上都在看什么。选题采访/廉冬，香港中文大学在读，关心人类的情感和福祉。撰文 / KY主创今年是李洁结婚的第十年，她正在第二次起诉离婚，理由是自己的丈夫是同性恋。刚认识丈夫的时候，她觉得他“很安静、体贴、踏实，从不会和你吵架”，因此两人很快就结婚了，几个月后便怀了孕。但丈夫虽然对她很好，却有些不对劲：他很少在家里洗澡，但是身上不脏，手机定位里有在宾馆的记录；但是在李洁的直觉里，自己的丈夫“不会和一个女人开房”，因为他好像对女人并不感兴趣。后来，李洁逐渐发现另一些现象：丈夫似乎经常便血，厕所里擦过的卫生纸经常带着血；两人虽然有性生活，但是在性生活的过程中，丈夫从来不脱上衣，也不会触碰到她的上半身，这个过程似乎更像是机械性地完成任务。当李洁找到青岛大学医学院教授张北川咨询时，张北川告诉她，可以基本确定她的丈夫就是同性恋。像李洁这样的人，在中国被称为“同妻”。同妻特指与男同性恋进入合法的婚姻关系，本身为异性恋的女性，广义上也包括前同妻、同女友（刘冬唐魁玉，2014）。2015年，张北川主要根据《2013年中国统计年鉴》和潘绥铭2010年对中国成年人口的多层等概率性学抽样调查给出的相关数据，估测我国男同性恋者总人口极可能明显超过2100万，配偶是男同性恋的女性人口数约为1360万（张北川告诉KY，1360万是与初婚男同结婚的女性数量，如果算上有婚史的，应在1400万以上）。上海大学社会学系教授刘达临的估计是，在中国男同性恋者中，有90%以上的人会选择结婚，其中80%会进入婚姻或已经在婚内（张晔，2012）。然而，极少有同妻像李洁这样决心摆脱婚姻，大多数人在长达几年甚至几十年的人生中，和同性恋的丈夫维持着婚姻，维持着无性或者很少的、工具性的性生活。而无论是否离婚，她们都经历了人生中最困难的精神冲击、价值观和人生意义重塑的挑战。2011年，哈尔滨工业大学社会学系博士生导师唐魁玉的课题组开始将同妻作为一个弱势群体来进行研究。当时，他曾受到社会学家景天魁的鼓励，但对方同时也提出了质疑，认为同妻不是传统意义上的弱势群体。而唐魁玉认为，“相比残疾人等身体上的弱势群体，同妻更是心理上的弱势群体，她们心理痛苦、身心俱疲但不容易摆脱，困境特点明显。</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>This article is from a Douban user: KY creators first published on the WeChat public account "knowyourself". Follow the WeChat public account "Daily Douban", reply "I'm free tonight", and see what everyone is watching at night. The topic interview/conversation with Lian Dong, a student at the Chinese University of Hong Kong, who cares about human emotions and well-being. Written by / KY creators. This year is the tenth year of Li Jie's marriage. She is suing for divorce for the second time because her husband is gay. When she first met her husband, she thought he was "very quiet, considerate, and reliable, never arguing with you," so they quickly got married and she became pregnant a few months later. However, although her husband was very good to her, there were some odd things: he rarely showered at home, but his body was not dirty, and there were records of him being in hotels on his phone's location tracking. But in Li Jie's intuition, her husband "would not share a room with a woman" because he seemed uninterested in women. Later, Li Jie gradually discovered some other phenomena: her husband seemed to have frequent rectal bleeding, and the toilet paper wiped in the bathroom often had blood on it; although they had sexual intercourse, during the process, her husband never took off his shirt and never touched her upper body, making the process seem more like mechanically completing a task. When Li Jie consulted Professor Zhang Beichuan from Qingdao University Medical School, Zhang Beichuan told her that it could be basically confirmed that her husband is gay. People like Li Jie are called "straight wives" in China. "Straight wives" specifically refer to heterosexual women who enter into legal marriage relationships with gay men, and broadly include former straight wives and girlfriends (Liu Dong Tang Kuiyu, 2014). In 2015, based mainly on the "2013 China Statistical Yearbook" and the multi-layered probability sampling survey of the Chinese adult population conducted by Pan Suiming in 2010, Zhang Beichuan estimated that the total population of male homosexuals in China is likely to exceed 21 million, with the number of women whose spouses are gay men being approximately 13.6 million (Zhang Beichuan told KY that 13.6 million is the number of women who married gay men for the first time, and if those with a history of marriage are included, it should be over 14 million). Professor Liu Dalin from the Department of Sociology at Shanghai University estimated that more than 90% of gay men in China would choose to get married, with 80% entering into marriage or already in marriage (Zhang Ye, 2012). However, very few straight wives are as determined as Li Jie to break free from marriage. Most people, over many years or even decades of their lives, maintain a marriage with their gay husbands, maintaining a sexless or very limited, instrumental sexual life. Whether they divorce or not, they have experienced the most difficult mental shock in their lives, and the challenge of reshaping their values and life meanings. In 2011, the research group of Tang Kuiyu, a doctoral supervisor in the Department of Sociology at Harbin Institute of Technology, began to study straight wives as a vulnerable group. At that time, he was encouraged by the sociologist Jing Tiankui, but at the same time, he also raised doubts, believing that straight wives are not a vulnerable group in the traditional sense. However, Tang Kuiyu believes that "compared to physically vulnerable groups like disabled people, straight wives are more psychologically vulnerable, they are psychologically distressed, physically and mentally exhausted but not easily freed, with obvious characteristics of predicament."</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>本报讯（记者王建芳通讯员崔霞孙艳凌穆童）敬老、养老是中华民族的传统美德，俗话说“家有一老，如有一宝”，但是88岁高龄的王老太不仅没成为儿孙们眼中的宝，反而被置之不理。7个子女因为拆迁起了争执，谁也不愿意尽赡养义务。为了生活有个着落，也为了让子女常回家看看，王老太只得将子女诉至法院。近日，郑州市中原区法院须水法庭开庭审理了此案。为了达到审理一案、教育一片的目的，须水法庭特意将此案件的庭审搬至须水村的篮球场，以便群众现场观看、评判学法。7个子女不养娘老人无奈诉至法院今年88岁的王老太共生育8个子女，早在1967年，她的老伴儿便离开了人世，王老太一个人含辛茹苦地把8个孩子拉扯长大，现孩子们均已成家立业。1979年，王老太的三儿子陈三（化名）将母亲居住的三间老房子拆掉后又盖了一层半的新房，并将其中的一间石棉瓦房和一间厨房留给王老太居住。2013年下半年，桐树王村赶上拆迁，王老太的房屋被拆了，政府补偿了741平方米的安置房和每月5000多元的过渡费，可这些补偿王老太却分毫没有拿到，全都被陈三领走。王老太从此也没有了住所，大女儿看不下去，将母亲接到自己家里共同生活。都说“养儿防老”，王老太一共有5个儿子，可现在，5个儿子都拒绝赡养自己，甚至看都不愿意来看自己，无奈之下，王老太将5个儿子和除大女儿外的两个女儿起诉至法院，要求每人每月支付赡养费500元，每月至少探望自己两次，每次要陪伴自己不少于2个小时，同时要求陈三支付过渡费用及交付依法应当由其所有份额。庭审激辩矛头指向三儿子法庭上，当法官问王老太的子女们是否愿意赡养老人、是否同意之前的调解协议时，除了陈三之外的其他6个子女纷纷表示，他们并不是不愿意赡养老人，只是因为房屋拆迁时候补偿的房屋及过渡费分配不公，才导致了今天的局面。“分家时我什么都没有分，老三把我母亲的房子扒了，自己盖了房屋，还不让母亲住。”大儿子陈某忠说，宅基地原本就是母亲的，所以补偿房屋和过渡费也应该都给母亲。可陈三却坚持说宅基地就是他的。“我没有说不养母亲，我的宅基证是公家给我批的，分的房屋就是我的。母亲在我这儿住的34年，所有的费用都是我出的，补偿政策100平方米归老人我不同意。”陈三说母亲经常咒骂自己，因此自己不愿意再尽赡养义务。“老三虽然和母亲在一个院，但是单独立户，是他擅自把母亲的房子扒了盖了新房。</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>This report (by reporter Wang Jianfang, correspondents Cui Xia, Sun Yanling, Mu Tong) Respect for the elderly and supporting the elderly are traditional virtues of the Chinese nation. As the saying goes, "Having an elderly person at home is like having a treasure." However, 88-year-old Mrs. Wang has not become a treasure in the eyes of her children and grandchildren, but instead has been ignored. Her 7 children got into a dispute over demolition, and none of them were willing to fulfill their duty of support. In order to have a stable life and to encourage her children to visit more often, Mrs. Wang had no choice but to sue her children to court. Recently, the Xushui Court of Zhongyuan District in Zhengzhou held a trial for this case. In order to achieve the goal of trying a case and educating the public, the Xushui Court specifically moved the trial of this case to the basketball court in Xushui Village for the public to watch and learn about the law. Mrs. Wang, 88 years old this year, gave birth to 8 children. As early as 1967, her husband passed away, leaving Mrs. Wang to raise all 8 children on her own. Now, all her children are married and have careers. In 1979, Mrs. Wang's third son, Chen San (alias), demolished the three old houses where his mother lived and built a new one and left one asbestos-roofed room and a kitchen for Mrs. Wang to live in. In the second half of 2013, Tongshu Wang Village faced demolition, and Mrs. Wang's house was demolished. The government compensated her with a 741-square-meter resettlement house and over 5000 yuan in transitional fees per month. However, Mrs. Wang did not receive a penny of this compensation; it was all taken by Chen San. Since then, Mrs. Wang has been homeless. Her eldest daughter couldn't bear to see this and brought her mother to live with her. It is said that "raising children to prevent old age." Mrs. Wang has a total of 5 sons, but now, all 5 sons refuse to support her, and even refuse to visit her. Helpless, Mrs. Wang sued her 5 sons and two daughters (excluding the eldest daughter) to court, demanding each of them to pay a monthly support fee of 500 yuan, visit her at least twice a month, accompany her for no less than 2 hours each time, and also demanded Chen San to pay the transitional fees and deliver his share as required by law. Debates in court point to the third son During the court session, when the judge asked Mrs. Wang's children if they were willing to support their mother and if they agreed to the previous mediation agreement, except for Chen San, the other 6 children all expressed that they were not unwilling to support their mother. It was the unfair distribution of the compensation for the house and transitional fees during the demolition that led to the current situation. "When we divided the property, I didn't get anything. The third son demolished my mother's house, built a new one, and didn't allow my mother to live there," said the eldest son, Chen Mouzhong. The original homestead belonged to the mother, so the compensation for the house and transitional fees should all go to the mother. However, Chen San insisted that the homestead belonged to him. "I didn't say I wouldn't support my mother. The homestead certificate was issued to me by the government, and the house I built is mine. My mother has been living with me for 34 years, and I have paid for all the expenses. I disagree with the compensation policy of 100 square meters going to the elderly," Chen San said. He mentioned that his mother often cursed at him, so he was unwilling to fulfill his duty of support. "Although the third son and the mother live in the same courtyard, they have separate households. He demolished the mother's house and built a new one without permission."</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 教室里正在举行竞技麻将比赛；一局结束，裁判就用电脑记录下成绩。 竞技麻将比赛讲究礼仪，赛前需互相致意，赛中须保持肃静。说起麻将，很多人想起的市井中嘈杂尖锐的洗牌叫牌声，一边抖腿搓牌一边吹牛的大爷，输了牌念念叨叨的大妈……总之，麻将不是什么好事，是赌博陋习。然而，在广州，一群大学生“雀友”就是要“公然”在教室里开台打麻将，他们的目标是为竞技麻将“正名”。在这群“雀友”中，隐藏着不少被称为“雀士”的高手。比如麻将社团的创办人彭鸿志是“五段雀士”；社团中实力最强的邹丰泽则是“六段雀士”。名词解释：竞技麻将竞技麻将有相对统一的竞赛规则。如打出的牌需要在自己的“牌河”中摆放整齐，吃、碰和明杠时需标明取自哪一家，有加分的“红牌”，有特殊的和牌番种，采取轮庄制，麻将的尺寸较小。竞技麻将比赛讲究礼仪，比赛前需互相致意，比赛中保持赛场肃静，有特殊情况的低声咨询裁判员。术语行话：点炮：也叫“放铳”，自己打出别人所听之牌，从而使别人和牌。立直：凡手牌构成“门前清”的状态，可宣布立直（但不强制执行），立直后不能吃碰及换牌直至和牌。10月22日一早，华南农业大学教学楼内就拉开阵势，摆好麻将桌，引得围观者啧啧称奇：竟然有人公然在教室里打麻将？原来，这里正在举行今年华农“新生杯”竞技麻将比赛，与众不同的是：“迷你”尺寸的麻将，出牌、码牌整齐方正，洗牌、叫牌“静音模式”，一旁还有裁判巡逻、严肃监督。华农麻将社团的创办人、“五段雀士”彭鸿志坦言，创办竞技麻将社团曾受到不少质疑，希望通过努力，让所有人知道，竞技麻将不是市井赌博，不是休闲娱乐，而是一项与象棋围棋一样需要战术素养、培养思考能力的竞技项目。年轻的“雀友”们决心要为这项古老的“国粹”博弈游戏正名。竞技麻将大有学问在今年“新生杯”竞技麻将的比赛中，华南农业大学2011级毕业生彭鸿志专程从深圳回到母校。正是在他的努力下，华农竞技麻将社团从2人发展到30多人。“最早接触竞技麻将，是在高中时。”彭鸿志告诉记者，小时候，大人绝对不允许他接触麻将。直到读高中，他才在网上看到了第一场职业竞技麻将比赛，并发现里面大有学问。“竞技麻将的规则异常复杂，是一项结合了逻辑学、统计学、概率学等专业知识的活动。”就这样，彭鸿志开始练习竞技麻将，从菜鸟慢慢成长为现在的“五段雀士”。他说，与普通麻将动辄打通宵不同，这在竞技麻将看来是几乎不可能的事情。</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>A competitive mahjong competition is being held in the classroom; after each round, the referee records the scores using a computer. Competitive mahjong competitions emphasize etiquette, requiring players to greet each other before the match and maintain silence during the game. When it comes to mahjong, many people think of the noisy and sharp sounds of shuffling and calling tiles in the bustling streets, the grandpas boasting while shuffling tiles and shaking their legs, and the aunties who keep complaining after losing a game... In short, mahjong is not a good thing, it is a gambling habit. However, in Guangzhou, a group of university students who are mahjong enthusiasts insist on openly playing mahjong in the classroom, aiming to "legitimize" competitive mahjong. Among these "mahjong friends," there are many skilled players known as "mahjong masters." For example, the founder of the mahjong club, Peng Hongzhi, is a "5th dan mahjong master"; the strongest player in the club, Zou Fengze, is a "6th dan mahjong master." 
+Explanation of Terms: Competitive mahjong has relatively unified competition rules. For example, the discarded tiles need to be neatly placed in one's "tile river," when calling a tile or declaring a meld, it must be specified from which player it was taken, there are "red tiles" that earn extra points, there are special winning combinations, a round-robin system is adopted, and the mahjong tiles are relatively small. Competitive mahjong competitions emphasize etiquette, requiring players to greet each other before the match, maintain silence during the game, and consult the referee quietly in special situations. 
+Mahjong Jargon: Pointing out: also known as "giving a winning tile," it refers to playing a tile that allows another player to win. Ready hand: when a player's hand is in a "closed" state, they can declare a ready hand (but it is not mandatory), after declaring a ready hand, they cannot call tiles, declare melds, or exchange tiles until they win. 
+Early in the morning on October 22nd, the scene was set in the teaching building of South China Agricultural University, with mahjong tables set up, attracting onlookers who were amazed: someone was openly playing mahjong in the classroom? It turned out that this year's "Freshman Cup" competitive mahjong competition was being held here, with a unique feature: "miniature" mahjong tiles, neatly played and arranged, shuffling and calling tiles in "silent mode," with referees patrolling and supervising sternly. Peng Hongzhi, the founder of the mahjong club at South China Agricultural University and a "5th dan mahjong master," admitted that the establishment of a competitive mahjong club had faced many doubts, hoping that through efforts, everyone would know that competitive mahjong is not a street gambling activity, not leisure entertainment, but a competitive sport that requires tactical skills and the cultivation of thinking abilities, similar to chess and Go. The young "mahjong friends" are determined to restore the reputation of this ancient "national quintessence" game. Competitive mahjong is profound. In this year's "Freshman Cup" competitive mahjong competition, Peng Hongzhi, a 2011 graduate of South China Agricultural University, specially returned from Shenzhen to his alma mater. It was through his efforts that the competitive mahjong club at South China Agricultural University grew from 2 people to more than 30 people. "I first came into contact with competitive mahjong in high school," Peng Hongzhi told reporters. When he was young, adults absolutely did not allow him to play mahjong. It wasn't until high school that he saw his first professional competitive mahjong competition online and discovered that there was much to learn from it. "The rules of competitive mahjong are extremely complex, involving professional knowledge in logic, statistics, probability, and more." And so, Peng Hongzhi began practicing competitive mahjong, gradually growing from a novice to the "5th dan mahjong master" he is today. He said that unlike regular mahjong where people often play all night, this is almost impossible in competitive mahjong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 清朝光绪年间流通的货币之一。由两广总督张之洞率先引进英国铸币机器铸造银元和铜元，之后各省纷纷仿效。共有十九个省局铸造，除中央户部，地方省所铸铜元，皆在其正面上缘镌写省名。 光绪元宝”当十共十九个省局铸造。除中央户部，地方省所铸铜元，皆在其正面上缘镌写省名。计有：1户部；2北洋；12湖北；7江南；15河南；11湖南；14江西；9山东；8广东；5清江；6浙江；16江苏；13四川；10福建；17安徽；3吉林；4奉天；18广西；19新疆；20黑龙江，清末铜价剧涨，民间毁钱为铜，以获数倍之利，市面出现钱荒。广东因停铸制钱，市面制钱日乏，小额流通十分不便。为救钱荒，同时受香港铜元及外币影响，光绪26年6月，两广总督德寿与前总督李鸿章奏准广东仿香港铜仙铸造机制铜元。故清代机制铜元的铸造由广东伊始。继而福建、江苏、四川等省相继仿铸铜元，湖北省开我国铜元之先河，此后的五十年，铜元被大量制造，总数应上百亿枚，至今大量存世。故普通铜元价值不高。由于机制铜元较之方孔铜钱铸造精良，市商乐用，流通顺畅。次年，政府即谕令沿江沿海各省准许仿铸。尔后，全国各地纷纷开机铸造铜元。故当十铜元铸造地各异，这是区分不同当十铜元的最明显特征。1先后铸行过“光绪元宝”和“元绪重宝”，“光绪通宝”，通宝制钱铸于公元1875-1908年之间，钱重从开始的一钱逐步减至八分，最后减至六分，该钱书法为楷书，此外宝福局也铸过篆文钱，光绪通宝钱背文为满文记局名，也有星月纹，字有宝河、宝真、宝津、宝云、宝黔等，还有铭“千字文”者（即背穿上各见“千字文”中一字，为宇、宙、日、月、往来等字）。 2另外在戊子年（公元1888年）出过一种背穿左为“戊子”右为“河”字的戊子钱。光绪十五年，湖广总督张之洞在广东从英国购买的机器制造我国历史上第一批机制币，不再为方孔圆钱形状了，此后相继在各省推广实行，遂步取代了“方孔圆钱”。 3银币光绪元宝1898年发行，成色为91％。正面铸有铭文，顶部铸楷体“造币总厂”，底部铸“库平七钱二分”标识，中心直读“光绪元宝”四字，币中心还有四字直读体满文。银币背面外圈顶部“光绪年造”楷体铭文，余部用小号英文标准字体铭“大清帝国银币”字样，内圈铸有正面腾云五爪龙一只，品相稍嫌粗糙，其审美风格独持，钱币正面鲜然可见满汉文化的融合，而钱背却明确标示了西方文化的介入。钱币虽小，也可管窥社会文化一斑。</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>One of the currencies circulated during the Guangxu period of the Qing Dynasty. Governor Zhang Zhidong of Guangdong and Guangxi was the first to introduce British coinage machines to mint silver and copper coins, which were then imitated by various provinces. A total of nineteen provincial mints were established, with the name of the province engraved on the obverse of the copper coins minted by the central Ministry of Revenue and local provinces. The "Guangxu Yuanbao" was minted by a total of nineteen provincial mints. Except for the central Ministry of Revenue, the name of the province was engraved on the obverse of the copper coins minted by local provinces. They include: 1 Ministry of Revenue; 2 Beiyang; 12 Hubei; 7 Jiangnan; 15 Henan; 11 Hunan; 14 Jiangxi; 9 Shandong; 8 Guangdong; 5 Qingjiang; 6 Zhejiang; 16 Jiangsu; 13 Sichuan; 10 Fujian; 17 Anhui; 3 Jilin; 4 Fengtian; 18 Guangxi; 19 Xinjiang; 20 Heilongjiang. 
+During the late Qing Dynasty, the price of copper rose sharply, leading to a shortage of coins in circulation as people destroyed coins for their copper content to profit multiple times. Guangdong stopped minting coins, causing a shortage of small-denomination coins in circulation. To alleviate the coin shortage and under the influence of Hong Kong copper coins and foreign currencies, in June of the 26th year of Guangxu's reign, the governors of Guangdong and Guangxi, De Shou and the former governor Li Hongzhang, were granted permission to mint copper coins imitating Hong Kong's cash coins. Therefore, the minting of machine-struck copper coins in the Qing Dynasty began in Guangdong. Subsequently, Fujian, Jiangsu, Sichuan, and other provinces successively imitated the minting of copper coins. Hubei province pioneered the minting of copper coins in China, and in the following fifty years, a large number of copper coins were produced, with a total number reaching billions, many of which still exist today. Therefore, the common copper coins have a low value. Due to the superior quality of machine-struck copper coins compared to square-holed coins, they were widely accepted by merchants and circulated smoothly. The following year, the government ordered various provinces along the Yangtze River and the coast to allow imitation minting. Subsequently, provinces across the country began minting copper coins. Therefore, the minting locations of the copper coins vary, which is the most obvious feature distinguishing different copper coins. 
+1 "Guangxu Yuanbao" and "Yuanxu Chongbao" were minted successively. "Guangxu Tongbao" coins were minted between 1875 and 1908, with the weight gradually decreasing from one qian to eight fen, and finally to six fen. The calligraphy on these coins is regular script. In addition, the Baofu Bureau also minted seal script coins. The back of the Guangxu Tongbao coins is inscribed with Manchu characters indicating the mint name, and some have star and moon patterns, with characters such as Baohu, Baozhen, Baojin, Baoyun, and Baoqian, as well as those with the inscription "Thousand Character Classic" (each coin features a character from the "Thousand Character Classic" such as "universe," "sun," "moon," "coming and going," etc.). 2 In addition, in the year of Wuzi (1888), a type of Wuzi coin was issued with the characters "Wuzi" on the left and "He" on the right. In the fifteenth year of Guangxu's reign, Governor Zhang Zhidong of Hubei and Hunan purchased machines from England in Guangdong to produce the first batch of machine-struck coins in Chinese history. These coins no longer had the square hole in the center and were subsequently promoted and implemented in various provinces, gradually replacing the "square-holed coins." 
+3 The silver coin Guangxu Yuanbao was issued in 1898 with a fineness of 91%. The obverse side bears inscriptions, with the top in regular script "Made by the Central Mint," the bottom indicating "7 Mace and 2 Candareens," and the center reading "Guangxu Yuanbao" in Chinese characters, with four characters in Manchu script in the center of the coin. The reverse side of the silver coin has the inscription "Made in the Guangxu Reign" in regular script at the top of the outer circle, and the rest is inscribed with the words "Silver Coin of the Great Qing Empire" in small English standard font. The inner circle features a five-clawed dragon soaring in the center, with a slightly rough appearance. Its unique aesthetic style combines elements of both Manchu and Han cultures on the obverse, while clearly indicating the influence of Western culture on the reverse. Although small, coins can offer a glimpse into the social and cultural aspects of the time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>龙鳞纹是小叶紫檀中极为稀有的品种，表现为手感细腻，密度大，纹理如同青龙背部鳞片，层层叠叠，因此而得名。小叶紫檀龙鳞纹纹理排列紧密，给人荧光透底的感觉，棕眼很小，在小叶紫檀中占比不足千分之一。比金星更为稀有！小叶紫檀大多情况下会伴有牛毛纹一起出现，龙鳞纹紫檀的表现形式基本为两种，一种是看上去有点像水波纹的，另一种就是像木头被挤压过一样。龙鳞纹是瘿的一种表现形式，也就是说，一颗正常生长的紫檀树不会存在这样的纹理，这也是“龙鳞纹”较为稀少的原因。在紫檀中带有这种特征的部位经过长期的氧化与保养，光泽与通透度都会高于一般紫檀，属于紫檀中的上品，若得以正确的把玩和保养，常会达到预想不到的效果，异常绚丽漂亮！ 正因为小叶紫檀龙鳞纹质地细腻、纹理特殊、密度极高，盘玩的手感绝佳，在小叶紫檀中占比只有千分之一，稀有程度更胜金星。在紫檀业中被誉为最难求紫檀品种之一。所以，能有此一串足以让众人眼前一亮、羡慕不已。</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Dragon scale pattern is an extremely rare variety in small leaf purple sandalwood, characterized by delicate touch, high density, and texture resembling the scales on the back of a green dragon, layered and overlapping, hence the name. The dragon scale pattern in small leaf purple sandalwood is arranged closely, giving a fluorescent and transparent feeling, with very small brown eyes, accounting for less than one-thousandth in small leaf purple sandalwood. Even rarer than gold star! Small leaf purple sandalwood mostly appears with cow hair pattern, and the dragon scale pattern purple sandalwood basically presents in two forms, one looks somewhat like water ripples, and the other looks like wood being compressed. The dragon scale pattern is a manifestation of burl, which means a normally growing purple sandalwood tree would not have such a texture, which is also the reason why "dragon scale pattern" is relatively rare. The parts with this feature in purple sandalwood, after long-term oxidation and maintenance, will have a higher gloss and transparency than ordinary purple sandalwood, belonging to the top grade in purple sandalwood. If played and maintained correctly, it can often achieve unexpectedly beautiful effects, exceptionally gorgeous! Due to the delicate texture, unique texture, and extremely high density of the dragon scale pattern in small leaf purple sandalwood, the feel of playing is excellent, accounting for only one-thousandth in small leaf purple sandalwood, making it even rarer than gold star. It is hailed as one of the most difficult-to-find purple sandalwood varieties in the sandalwood industry. Therefore, having such a piece is enough to dazzle and envy everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>深圳婚纱摄影工作室美时国际全新升级，专注婚纱摄影领域的并不断创新，在深圳婚纱摄影行业中一直保持着-服务第一、质量第一、技术第一的地位，得到了广大消费者的认可，并逐渐发展成为目前深圳婚纱摄影行业的领军人物，深圳婚纱摄影工作室【美时国际】专业的摄影团队为您全程1对1服务、最优秀的化妆师为您量身定做最适合的妆容、全程定制，将用最专业的服务打造您完美的终身纪念，让您独享尊华的同时留下唯独仅有的纪念。美时国际将尽情的展现最真实的一面，拍出传神、经典、耐看、创意、简洁、唯美自然又不缺乏时尚感的作品，这些作品更将值得您永久珍藏。 从化妆、场景布局到最擅长的服装搭已，综合地展现出了美时国际的独特魅力。他们所巨持的对细节美的发现和创造，让深圳婚纱摄影工作室美时国际在打造目际化风格的同时，保持了新人最注重的唯美梦幻的浪漫情调。美时国际的镜头不想仅仅停留在将您和您内心中的自己诠释出来，深圳婚纱摄影美时国际聚集众多数年以上业内经验的技术老师、高端的品质、低端的价格、切实完善的服务来赢得顾客良好的口碑。新人们在美时国际可以依据自身个性特点和喜好，为自己量身选择自己喜欢的景点和风格，也可以选择原有的特色组合套系拍摄个性婚纱照，打造专属于新人们自己的更自然、更时尚、更有格调的婚纱照 。美时国际秉承着“人文时尚，以客为尊”的经营理念，专业拍照礼服灭菌洗涤处理作业让您穿的安心，一对一彩妆造型师、摄影师全程设计拍摄，让深圳婚纱摄影美时国际在短短的数年内赢得了新人们的赞许与信任。</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Shenzhen wedding photography studio Meishi International has been newly upgraded, focusing on the field of wedding photography and continuously innovating. It has always maintained a leading position in the Shenzhen wedding photography industry with the principles of service first, quality first, and technology first, gaining recognition from a wide range of consumers. Gradually, it has developed into a leading figure in the Shenzhen wedding photography industry. Meishi International, a professional photography team in Shenzhen wedding photography studio, provides you with one-on-one service throughout the process. The best makeup artist tailors the most suitable makeup for you, fully customized to create your perfect lifelong memory with the most professional service, allowing you to enjoy exclusive elegance while leaving behind unique memories. Meishi International will fully display the most authentic side, capturing vivid, classic, enduring, creative, simple, aesthetically pleasing, natural yet fashionable works, which are worth cherishing permanently. From makeup, scene layout to the most skilled clothing matching, it comprehensively showcases the unique charm of Meishi International. Their dedication to discovering and creating beauty in details allows Meishi International to maintain the romantic charm of beauty and fantasy that new couples value the most while creating a personalized style. Meishi International's lens not only interprets you and your inner self but also gathers numerous technical teachers with years of experience in the industry, high-end quality, affordable prices, and practical services to win customers' good reputation. At Meishi International, new couples can choose their favorite locations and styles based on their personality and preferences, or select existing unique package sets to create personalized wedding photos that are more natural, stylish, and tasteful. Meishi International adheres to the business philosophy of "humanistic fashion, customer-oriented," providing professional photography, sterilization, and washing of wedding dresses to ensure your peace of mind. With one-on-one makeup artists and photographers designing and shooting throughout the process, Meishi International has won the praise and trust of new couples in Shenzhen wedding photography in just a few years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 土豆 potato 眼下，正是土豆大批上市的时节。对于哈尔滨人来说，土豆是一种喜闻乐见的蔬菜，尤其是冬季最常备的美味，做法多多，各有所好。 ◆买土豆了吗？◆买多少土豆啊？◆买的啥土豆啊？◆放哪了？ 那么问题来了 你懂土豆吗？ 新晚报记者特意找来省农科院的专家闵凡祥，为大家详细的讲解土豆家族！ 哈尔滨土豆主要它哥仨 第一类是“克新13”，特点就是麻皮黄瓤，特别面，淀粉含量高适合炖着吃，因为产量高价格相对便宜，更加实惠。 这一类，做炖土豆美味至极！ -------------------- 第二类是“尤金885”，属于早熟品种，外形好看芽眼浅不易生芽，鲜食性品种，口感好，由于产量较低所以价格会高一些。 这一类，炒土豆丝首选！ ------------- 第三类是“荷兰15”“精品8号”这一系列，是中晚熟品种，价格不高不低，一般土豆形状比较长，特点是不爱回生。 这一类，炝土豆丝最合适！ 哈尔滨这样储存土豆 ★目前正是储存秋土豆的好时节。土豆储存环境最好是在2℃-5℃之间，湿度为90%。 ★很多家庭会把土豆存放在走廊或阳台里，这样的条件下土豆最多能保存1个月，之后就会发芽。所以他建议，不要过多购买。 ★在40斤一袋的土豆内放入2个苹果就能够更有效的抑制土豆发芽。 ★装土豆的袋子一定不能系得太紧。如果袋口太紧，里面的湿度、温度都会过高，导致土豆腐烂。 新晚报记者：那跃娜编辑：王川</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Potatoes are currently in season, and it is a time when a large quantity of potatoes are on the market. For people in Harbin, potatoes are a popular vegetable, especially in winter, with various delicious cooking methods to choose from. "Have you bought potatoes? How many potatoes did you buy? What kind of potatoes did you buy? Where did you put them?" So here comes the question: Do you understand potatoes? The Xinwen Evening News reporter specially invited expert Min Fanxiang from the Provincial Academy of Agricultural Sciences to give a detailed explanation of the potato family for everyone. In Harbin, there are mainly three types of potatoes. The first type is "Kexin 13," characterized by rough skin, yellow flesh, and high starch content, suitable for stewing due to its high yield and relatively low price, making it more affordable. This type is extremely delicious when stewed. The second type is "Eugene 885," an early-maturing variety with a good appearance, shallow eyes that are not prone to sprouting, and good taste for fresh consumption. Due to its lower yield, the price is relatively higher. This type is the first choice for making shredded potatoes. The third type includes "Holland 15" and "Boutique No. 8," which are mid-to-late maturing varieties with moderate prices. Generally, these potatoes are longer in shape and are not prone to sprouting. This type is most suitable for making stir-fried shredded potatoes. Harbin stores potatoes in the following way: ★ Now is the best time to store autumn potatoes. The ideal storage environment for potatoes is between 2°C and 5°C with a humidity of 90%. ★ Many families store potatoes in corridors or balconies, where potatoes can be stored for up to one month under these conditions before sprouting. Therefore, it is advised not to purchase too many at once. ★ Placing two apples in a 40-pound bag of potatoes can effectively inhibit sprouting. ★ The bag containing potatoes should not be tied too tightly. If the bag is sealed too tightly, the humidity and temperature inside will be too high, leading to rotting of the potatoes. Xinwen Evening News Reporter: Yue Na Editor: Wang Chuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>该文章源于Adidas文化店：运动磁场（www.52xie.com），转载请注明出处！ 著名NBA记者克雷格·萨格尔(CraigSager)由于总是穿着花哨的西装在场边采访NBA球员，而因此得名“彩装先生”。 而近期，NIKEiD 携手正在与病魔抗争的他，为 Sager Strong 基金会打造一款极具个人代表性的 Air Force 1 Low，该鞋限量仅 100 双，将会通过网络进行拍卖，拍卖所得善款将捐赠予 Sager Strong 基金会，帮助正在与白血病抗争的家庭。 本次双方基于 Nike 经典的 Air Force 1 Low 为蓝本，将 Craig Sager 职业生涯中的难忘瞬间通过 NIKEiD 的材质及设计诠释，成就了眼前这双颇似 “What The” 风格的独特花样鞋款。 运动磁场将会同步发售该款，喜欢的朋友可以及时关注磁场动态！</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>This article originates from Adidas Culture Store: Sports Magnet (www.52xie.com). Please indicate the source when reposting! The famous NBA reporter Craig Sager, known as "Mr. Colorful" for always wearing fancy suits to interview NBA players on the sidelines. Recently, NIKEiD collaborated with him, who is fighting against illness, to create a highly personalized Air Force 1 Low for the Sager Strong Foundation. These shoes are limited to only 100 pairs, which will be auctioned online. The proceeds from the auction will be donated to the Sager Strong Foundation to help families battling leukemia. Based on Nike's classic Air Force 1 Low, this collaboration interprets unforgettable moments from Craig Sager's career through NIKEiD's materials and design, creating a unique and eye-catching pair of shoes in a style reminiscent of "What The". Sports Magnet will also release this pair simultaneously, so friends who like it can stay tuned for updates from the magnet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>你敢不敢相信，Baby的一辆宝宝推车，就=买一辆BMW车！辣妈们的一支专属口红，就=买一辆车！而潮爸的一条品牌领带，也=买一辆车！超贴心的BMW金融礼遇，就是为时尚的你们量身定制！现在起，购置创新BMW2系旅行车即有多种金融方案供你选择，有了家庭，依然让你酷劲十足，又可轻松入手，可谓2全其美！ 悠贷"金"喜——超低月供，年度灵活还款日供低至17元，每天少喝一杯咖啡，BMW2系即刻开回家！不骗你，现在创新BMW2系旅行车首付比例40%，贷款分24期，更有每年一次的灵活还款，分摊期末尾款一次性还款压力，并且还款金额可以根据实际情况灵活调整，有效提高你的资金利用率，对于刚刚建立起家庭的你，既可以效优化你的开销，又可以自由自在容纳全家的幸福！ 以创新BMW2系旅行车218i为例，首付需支付94，760元，贷款24个月，每年进行一次年度还款，年度还款69，649元，月供低至499元，日供仅需17元！轻松效优化资金运用，每天一杯咖啡钱，即刻把创新BMW2系旅行车开回家，带着爱人孩子兜风！悦贷"金"喜——弹性尾款，想怎么还就怎么还你更倾向于稳定一些的贷款方式？BMW悦贷金融方案最懂你，除了让你享受低至20%起的首付之外，尾款还款方式的多样化，更可以让你灵活还款，从容购车没压力。</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Do you dare to believe that one of Baby's strollers equals buying a BMW car! A hot mom's exclusive lipstick equals buying a car! And a trendy dad's brand tie also equals buying a car! The super considerate BMW financial benefits are tailor-made for you fashionistas! Starting now, when you purchase the innovative BMW 2 Series Touring, there are multiple financial plans for you to choose from. Even with a family, you can still be cool and easily get your hands on it, truly a win-win situation! With the "Yue Dai" Joy - ultra-low monthly installment, flexible annual repayment, daily installment as low as 17 yuan, skip one cup of coffee a day, and the BMW 2 Series will be yours immediately! Not lying to you, now the innovative BMW 2 Series Touring has a down payment ratio of 40%, with a 24-month loan term, and an annual flexible repayment, spreading out the final payment pressure, and the repayment amount can be adjusted flexibly according to the actual situation, effectively improving your capital utilization rate. For those who have just started a family, it can optimize your expenses and accommodate your family's happiness freely! Taking the innovative BMW 2 Series Touring 218i as an example, a down payment of 94,760 yuan is required, with a 24-month loan term, an annual repayment of 69,649 yuan, monthly installment as low as 499 yuan, and a daily installment of only 17 yuan! Easily optimize the use of funds, with the money of a cup of coffee a day, you can immediately drive the innovative BMW 2 Series Touring back home, taking your loved ones for a ride! "Yue Dai" Joy - flexible final payment, pay back as you wish. Do you prefer a more stable loan method? BMW Yue Dai financial plan understands you the best, besides allowing you to enjoy a down payment as low as 20%, the diversity of final payment repayment methods can also allow you to repay flexibly, purchasing a car without pressure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>今年前6个月，金坛经济开发区完成工业开票销售233.8亿元，同比增长47.6%;完成公共财政预算收入8.9亿元，同比增长60%。两项主要经济指标增幅均领跑全省省级开发区。金坛经济开发区面积171.8平方公里，经过20多年发展，新能源、新材料、纺织服装、高端装备制造4大产业已初具规模。其中，由时匡大师及团队最新规划的78平方公里产业园区，对标苏州新加坡工业园，力争建成制造业新城。今年上半年，亿晶光电、晨风集团两大本土龙头企业不断加大研发投入，向价值链高端攀升，开票销售分别实现37.3%和25%的快速增长，带动光伏新能源和纺织服装两大行业整体向好。同时，常峰电力、恒方大高分子、艾贝服饰、旺达喷灌等拥有自主知识产权或自主品牌的企业，均实现100%以上的增幅。近几年，随着产业园扩容，大开发、大招商、大建设在金坛经济开发区已经显现。去年以来引进82个项目，已开工46个，其中18个竣工投产。总投资分别为85亿元和125亿元的众泰汽车、中航锂电两个重大项目先后落户金坛开发区，并刷新业界建设速度。众泰汽车经13个月建设周期后整车下线，今年上半年累计开票销售超过50亿元;今年1月开工的中航锂电项目，一期13.5万平方米厂房及配套建筑已全部封顶，11月15日首批产品即可下线。依托众泰汽车和中航锂电，金坛经济开发区正在加快建设区域领先的汽车零部件产业园和绿色电源科技产业园，通过重大项目集聚产业，形成对关联产业和项目的磁场效应。该区围绕汽车及零部件产业、绿色电源产业开展双产业链招商，瞄准北京、上海、珠三角及德国、韩国、日本等国内外重点区域，今年上半年新增签约项目30个。其中，亿元以上项目14个，10亿元以上项目两个，超过一半为汽车零部件和绿色电源双产业链项目。据金坛区委常委、金坛经济开发区党工委书记李皓介绍，金坛经济开发区不久前加入江苏和德国巴符州经济合作委员会，成为省内继太仓之后第二个全面参与全省对德合作的地区。目前，金坛经开区正在加强对德企业招引力度，在谈项目信息50多条，重点推进的德资项目10个，投资主体包括洗涤设备、半导体沉淀设备、整体厨具制造等领域的知名企业。</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>In the first six months of this year, Jintan Economic Development Zone achieved industrial invoiced sales of 23.38 billion yuan, a year-on-year increase of 47.6%; and completed public fiscal budget revenue of 890 million yuan, a year-on-year increase of 60%. Both of these two major economic indicators lead the province's provincial-level development zones in growth rate. With an area of 171.8 square kilometers, Jintan Economic Development Zone has developed over more than 20 years, and the four major industries of new energy, new materials, textile and apparel, and high-end equipment manufacturing have begun to take shape. Among them, the 78-square-kilometer industrial park newly planned by Master Shi Kuang and his team, benchmarking the Suzhou Industrial Park in Singapore, strives to build a new manufacturing city. In the first half of this year, two leading local companies, Yijing Optoelectronics and Chenfeng Group, have continuously increased their R&amp;D investment, aiming for high-end value chain advancement. Their invoiced sales achieved rapid growth of 37.3% and 25% respectively, driving the overall improvement of the photovoltaic new energy and textile and apparel industries. Meanwhile, enterprises with independent intellectual property rights or independent brands such as Changfeng Power, Hengfang Da High Polymer, Aibei Apparel, and Wanda Sprinkler have all achieved growth rates of over 100%. In recent years, with the expansion of the industrial park, large-scale development, investment attraction, and construction have emerged in Jintan Economic Development Zone. Since last year, 82 projects have been introduced, with 46 projects started, including 18 completed and put into operation. The two major projects of Zotye Auto and Zhonghang Lithium Battery, with total investments of 8.5 billion yuan and 12.5 billion yuan respectively, have settled in Jintan Development Zone, setting a new pace in the industry. After a construction period of 13 months, Zotye Auto's complete vehicle went offline, achieving invoiced sales of over 5 billion yuan in the first half of this year; the Zhonghang Lithium Battery project, which started construction in January, has completed the first phase of a 135,000-square-meter plant and supporting buildings, all of which will be capped by November 15th, and the first batch of products can go offline. Relying on Zotye Auto and Zhonghang Lithium Battery, Jintan Economic Development Zone is accelerating the construction of a leading regional automotive parts industrial park and green power technology industrial park, gathering industries through major projects to form a magnetic field effect on related industries and projects. The zone is attracting investment in the dual industrial chains of automotive and parts industry and green power industry, targeting key areas domestically and internationally such as Beijing, Shanghai, the Pearl River Delta, Germany, South Korea, and Japan. In the first half of this year, 30 new projects were signed, including 14 projects worth over 100 million yuan, two projects worth over 1 billion yuan, with more than half being dual-industry chain projects in automotive parts and green power. According to Li Hao, member of the Jintan District Committee and Secretary of the Party Working Committee of Jintan Economic Development Zone, the zone recently joined the Jiangsu and Baden-Württemberg Economic Cooperation Committee, becoming the second region in the province after Taicang to fully participate in the province's cooperation with Germany. Currently, Jintan Economic Development Zone is strengthening its attraction to German companies, with over 50 project information in discussions, focusing on promoting 10 German-funded projects, including well-known companies in areas such as washing equipment, semiconductor precipitation equipment, and integrated kitchenware manufacturing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>有这么一种说法：中国妈妈活得太累了！男性朋友们看到这句话，一定会嗤之以鼻，难道不是吗？女性要承担生育的痛苦，怀孕期间，妊娠反应会不停恶心呕吐，身体浮肿变形；生孩子的头两年，每天都紧绷神经，开不得半点小差，关于孩子的一切都亲力亲为，生怕有半点儿闪失；孩子慢慢长大，工作家务轮轴转，硬是把自己从娇滴滴的公主训练成了无所不能的女超人+大白的合体；为了不让孩子输在起跑线上，牺牲周末的休息时间，陪着孩子奔波在各种辅导班的路上；对了，还要忍受老公的不体贴，不陪伴，不帮忙…… 总之一句话，妈妈们不仅要上得厅堂下得厨房，照顾家庭，还得做一个独立的女性，有自己的事业。中国妈妈真的太勤快太累了！其实，我们完全可以不用二十四小时围着老公孩子转，完全可以不用把家务都揽在自己身上，我们可以试着让老公分担一下，让孩子学会独立。而且，偶尔“偷个懒”，不仅可以让自己更加轻松，还会让婚姻家庭更幸福。 ◆◆◆ 会偷懒的妈妈，孩子生活自理能力更强 勤劳的妈妈习惯包办孩子的一切，不管孩子多大，在她们眼里都是小孩，从头发丝到脚趾头都要照顾得妥妥当当才放心。这样的妈妈，时时刻刻都很忙很累。而且，妈妈太勤劳，孩子会有很强烈的依赖性。在妈妈包办下长大的孩子，习惯了衣来伸手饭来张口，生活自理能力极其差劲。勤劳的妈妈要学会适当地放手，凡是孩子力所能及的事，就不要再插手帮忙了。房间乱了，让他按照自己的想法整理；孩子想帮忙做家务，妈妈不要担心做不来，帮了倒忙再整理嘛；做完作业，妈妈不要着急替他检查，先让他自己检查一遍；收拾书包，让他自己准备第二天需要用到的书本、文具等。一个成功“偷懒”的妈妈，并不是说对孩子全然不管，而是“身懒心不懒”，冷眼旁观，该出手时再出手。妈妈会“偷懒”，孩子的生活自理能力会慢慢地提高，对妈妈的依赖也渐渐较少，妈妈们也会越来越轻松。 ◆◆◆ 会偷懒的妈妈，孩子的独立思考能力更强 孩子在学习中遇到问题向妈妈求助时，很多妈妈都会像“竹筒倒豆子”一样，把答案全部说出来。长此以往，孩子一旦遇见困难，就会认为“有妈妈在呢，什么也不用担心”，就不会想着依靠自己的力量去解决问题，而是等着父母出主意，想办法。在这个时候，“懒妈妈”的做法会更胜一筹。面对孩子的求助，懒妈妈会学着“示弱”，不会直接告诉孩子答案，而是鼓励孩子自己开动脑筋想问题，或者和孩子一起查阅书籍或借助网络解决问题。</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>There is such a saying: Chinese mothers live too tired! Male friends who see this sentence will surely sneer at it, isn't it? Women have to bear the pain of childbirth. During pregnancy, morning sickness and vomiting will not stop, the body swells and deforms; in the first two years of giving birth, nerves are tense every day, not allowing any slight mistakes, taking care of everything about the child personally, fearing any mishaps; as the child grows up slowly, the work and household chores keep rotating, turning oneself from a delicate princess into an all-capable female superhero + Baymax; in order not to let the child fall behind, sacrificing weekend rest time, accompanying the child to various tutoring classes; oh, also enduring the husband's lack of care, absence, and lack of help... In short, mothers not only have to handle household affairs, but also have to be an independent woman with her own career. Chinese mothers are really too diligent and tired! In fact, we can completely not revolve around our husbands and children 24 hours a day, we can completely not take all the housework upon ourselves, we can try to let the husband share some responsibilities, and let the child learn to be independent. Moreover, occasionally "slacking off" can not only make oneself more relaxed, but also make the marriage and family happier. ◆◆◆ Mothers who slack off will have children with stronger self-care abilities Diligent mothers are used to taking care of everything for their children. No matter how old the child is, in their eyes, they are still children, and everything from head to toe must be taken care of properly before they can relax. Such mothers are busy and tired all the time. Moreover, if mothers are too diligent, children will have a strong dependency. Children who grow up under the care of their mothers are used to having everything done for them, and their self-care abilities are extremely poor. Diligent mothers need to learn to let go appropriately. For things that children can handle on their own, they should not intervene anymore. If the room is messy, let them tidy it up according to their own ideas; if the child wants to help with housework, the mother should not worry that they can't do it, helping may do more harm than good; after finishing homework, the mother should not rush to check it for them, let them check it themselves first; when packing their school bag, let them prepare the books and stationery they will need for the next day. A successful "slacking off" mother does not mean completely neglecting the child, but rather being "lazy in action, not in heart," watching from a distance and intervening when necessary. When mothers "slack off," children's self-care abilities will gradually improve, their dependence on mothers will decrease, and mothers will become more and more relaxed. ◆◆◆ Mothers who slack off will have children with stronger independent thinking abilities When children encounter problems in their studies and seek help from their mothers, many mothers will give out the answers like "pouring beans from a bamboo tube." Over time, when children face difficulties, they will think, "Mom is here, so there is nothing to worry about," and will not think about relying on their own strength to solve the problem, but wait for their parents to come up with ideas and solutions. At this time, the approach of a "lazy mother" will be more effective. Faced with the child's request for help, a lazy mother will learn to "show weakness," not directly tell the child the answer, but encourage the child to think about the problem on their own, or look up information in books or online together to solve the problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>周三（10月26日）EIA再度来临，原油投资者是否做好赚钱的准备，下文中将分享5个赚钱契机，您不容错过。原油投资专栏特此提供。 第一阶段成功率80%：以EIA库存预期交易每当权威的分析师们发布EIA库存数据预期公告，很大机会会影响当时走势及行情，在预期值没有其他事件干预下，可适量按偏向做单。第二阶段成功率70%：以API库存交易API原油库存是美国石油协会每周二发布美国原油、汽油和蒸馏油库存的1600报告的原油库存水平，该数据显示现在有多少石油库存和产品。因此可以了解供应将持续多久，而且该数据按照产品和地区表示美国石油需求，监控美国原油生产和原油进口及成品油。该数据一般每周公布一次，公布时间为北京时间每周三凌晨04:30(冬令时为5:30)。虽然在权威性等方面有所欠缺，但一般可以认为API库存数据能在一定程度上提前反映EIA库存数据的结果，比如当API库存下降的情况下，EIA库存数据有一定概率也会显示下降，这时候，投资者可以根据较早公布的API库存数据变动，推测EIA库存数据的变动及相应的市场影响，提前做好仓位的部署。当然，两者不一致的情况也经常出现，投资者需多加注意市场变化，控制好仓位的止盈止损。 第三阶段成功率60%：EIA数据公布前 根据当日资金流向交易在EIA库存数据公布前夕，由于不确定性，市场心态一般都会趋于谨慎，但总会有先知先觉的资金能够提前洞察数据变化的细微迹象，从而预判原油价格未来的走势进行交易。当市场形成较大资金量且单边的资金流向时，会促使原油价格在库存数据公布前即已经发生较大幅度的变化。因此，根据当日资金流向进行交易也会是不错的选择。第四阶段成功率70%：EIA库存数据公布后 根据数据终值交易在EIA库存数据公布后，由于不确定性消除，市场心态会瞬间转为积极，资金会在第一时间判断出库存数据变化所反映的供求关系，从而作出交易决策。一般而言，当实际公布值大于分析师的预期值，即原油库存增加多于预期或缩减少于预期，对原油价格格是利空信号;反之，当实际公布值小于分析师的预期值，即原油库存增加少于预期或缩减多于预期，对原油价格是利多信号。投资者可根据利多利空信号相应进行交易做单。 第五阶段成功率80%：根据综合行情交易EIA库存数据毕竟只是影响原油价格走势的其中一个因素。</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>On Wednesday (October 26th), EIA is coming again. Are crude oil investors ready to make money? The following will share 5 money-making opportunities that you cannot miss. This is provided by the Crude Oil Investment Column. The first stage success rate is 80%: Trading based on EIA inventory expectations. Whenever authoritative analysts release EIA inventory data expectations, there is a high chance it will influence the trend and market at that time. In the absence of other intervening events, you can moderately place orders based on the expectations. The second stage success rate is 70%: Trading based on API inventory. API crude oil inventory is a report released by the American Petroleum Institute every Tuesday, showing the levels of US crude oil, gasoline, and distillate inventories. This data indicates the current oil inventory and products, helping understand how long the supply will last. It represents US oil demand by product and region, monitoring US crude oil production, imports, and refined oil products. This data is generally released once a week, at 04:30 Beijing time every Wednesday morning (5:30 during daylight saving time). Although lacking in authority, API inventory data can be considered to some extent as an early reflection of EIA inventory data results. For example, when API inventory decreases, there is a probability that EIA inventory data will also show a decrease. Investors can speculate on the changes in EIA inventory data and corresponding market impacts based on the earlier released API inventory data changes, preparing positions in advance. However, inconsistencies between the two often occur, so investors need to pay close attention to market changes and control their positions' profit and loss limits. The third stage success rate is 60%: Trading based on fund flows before EIA data release. On the eve of EIA inventory data release, due to uncertainty, the market sentiment tends to be cautious. However, there will always be funds that can foresee subtle signs of data changes, predicting future trends in crude oil prices and trading. When a significant amount of funds flow unilaterally in the market, it will cause significant changes in crude oil prices before the inventory data is released. Therefore, trading based on fund flows on the day can also be a good choice. The fourth stage success rate is 70%: Trading based on final data values after EIA inventory data release. After the EIA inventory data is released, as uncertainty is eliminated, market sentiment will instantly turn positive. Funds will immediately assess the supply-demand relationship reflected by the inventory data changes and make trading decisions. Generally, when the actual value is greater than analysts' expectations, indicating an increase in crude oil inventories more than expected or a decrease less than expected, it is a bearish signal for oil prices. Conversely, when the actual value is less than analysts' expectations, indicating an increase in crude oil inventories less than expected or a decrease more than expected, it is a bullish signal for oil prices. Investors can trade accordingly based on these signals. The fifth stage success rate is 80%: Trading based on comprehensive market conditions. After all, EIA inventory data is just one of the factors influencing crude oil price trends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>摘要旨在发现培养优秀网络安全技术人才。10月17日，南宁市首届网络安全攻防技术大赛启动仪式在广西大学举行。据悉，随着计算机网络技术的飞速发展，南宁网络安全也面临严峻挑战，需要培养网络安全技术优秀人才，以应对网络安全问题。南宁市首届网络安全攻防技术大赛旨在通过公开竞赛的方式，普及信息安全知识，培养专业技术人员创新精神，扩大网络安全爱好者的科学视野，引导网络安全爱好者使用信息安全技能，并通过大赛发现、培养优秀网络安全技术人才。大赛分初赛和决赛。11月5日至11月19日进行初赛，初赛采取在线过关筛选的方式，参赛人员报名审核通过后，通过分配的VPN指定账户和密码登录竞赛系统进行过关竞赛。初赛总分前20名将晋级决赛。决赛时间为11月27日，进入决赛的参与者在集中地点、限定时间内进行相互夺旗攻防比赛，按竞赛过程中攻防的综合成绩划分名次。本次竞赛面向广西区内具备一定网络安全技术的专业人才和爱好者、信息技术相关人员及在校大学生。有意者可在10月18日至10月31日登录南宁市网络安全攻防技术大赛官方网站（http://gxnn.sosec.net）下载报名表，按照要求填写相关内容后发送到指定的邮箱ldf_0123@163.com或77578790@163.com，可用个人、组团、单位名义报名参赛。（记者阮晓莹）标签:广西攻防南宁市大赛初赛竞赛网络安全</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>The abstract aims to discover and cultivate outstanding cybersecurity professionals. On October 17th, the opening ceremony of the first Network Security Attack and Defense Technical Competition in Nanning was held at Guangxi University. It is reported that with the rapid development of computer network technology, Nanning's cybersecurity is also facing severe challenges, requiring the cultivation of excellent cybersecurity professionals to address cybersecurity issues. The first Network Security Attack and Defense Technical Competition in Nanning aims to popularize information security knowledge, cultivate the innovative spirit of professional technical personnel, broaden the scientific vision of cybersecurity enthusiasts, guide cybersecurity enthusiasts in using information security skills, and discover and cultivate outstanding cybersecurity professionals through the competition. The competition is divided into preliminary and final rounds. The preliminary round will take place from November 5th to November 19th, using an online pass-through screening method. After the registration of participants is approved, they will log in to the competition system using the assigned VPN account and password to participate in the pass-through competition. The top 20 participants in the preliminary round will advance to the final round. The final round will be held on November 27th, where participants who have advanced will engage in flag-capturing attack and defense competition at a designated location within a specified time frame. Rankings will be based on the comprehensive performance of attack and defense during the competition. This competition is open to cybersecurity professionals and enthusiasts, IT-related personnel, and university students in Guangxi. Interested individuals can download the registration form from the official website of the Nanning Network Security Attack and Defense Technical Competition (http://gxnn.sosec.net) from October 18th to October 31st, fill in the required information as instructed, and send it to the designated email addresses ldf_0123@163.com or 77578790@163.com, for registration under personal, group, or organizational names. (Reporter: Ruan Xiaoying) Tags: Guangxi, Attack and Defense, Nanning, Competition, Preliminary Round, Contest, Cybersecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>现在p2p行业非常火热，这样是应了信息全球化的发展趋势，这种趋势我们不能否认，同时投资人也是选择继续关注，小编个人感觉与其关注不如去选择投资，钱在银行是永远不能升值的，据统计2014年人民币贬值率高达2.4%，也就是说10万元不存在银行，一年就要损失2肆零零元，如果存在银行一年的理财利息最多6%，一年的利息也就是赚3600元。如果把10万元拿出来投资收益会比这个高很多;前几年时间大家选择投资不动产，也有些许人活动一定的收益，可是现在不动产的前景也变得不是很明朗，大多人选择放弃，甚至有些人房产没办法**出现了“鬼城”的现象，现在网络金融白热化，有些人是不敢投资，有些人是不会选择投资网站，小编在这要说一句了，你的钱不投资永远只是那些钱还不断贬值，如果投资了赚的远远不止那些，你看着有钱人羡慕，不如自己付诸行动，这样不是更好么。为什么有这样一句话有钱人会越有钱，没钱人会越没钱，就是这样一个道理，有钱人敢投资，会投资，而没钱人眼光只保留在现在所有的资产里，不可能再有更大的发展，并且资本也会随着时间不断的消磨直至没有，这就是现在世人的悲哀。与其羡慕别人不如让别人羡慕你，你不相信某些新的平台，那为什么不能相信自己的投资的眼光呢。小编认为，有些大平台还不如小平台来的实在，大平台利率低，出现坏账的几率也非常大，虽然大平台实力大家有目共睹，可是真的出现坏账他们真的可以处理的好么;小平台却不一样，我们口中的小也不算小，几千万的注册资金只是相比那些几年的大平台来说稍微逊色一些，可是谁刚开始就是大平台，也是很不现实的东西，那我们就说说小平台的好处，大家想想，每个公司做平台是为了什么，他们就是看好了这个行业的发展趋势，他们愿意付出，愿意为我们服务，我们为什么不能相信他呢?世人千万种，只求一人行。每个人都有不一样的性格，现在出现一些p2p行业的情况并不代表其他新平台也会出现，设身处地的想一下，一个行业的新公司最重要的就是什么，肯定是企业形象和人民口碑，新平台1.利率高，给我们带来的收益高，福利太多了，大多数新平台福利在一个多星期以内根本不会停止，我们这几天的时间就能得到一年的利息多好，何乐而不为呢。2.安全性高，新平台也是为了长远发展，肯定是注重口碑，市场和形象，虽然高利率但是风险极小，也不会出现坏账，咱投资人追求的就是利益，这不就够了么。</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>The P2P industry is very hot now, which conforms to the trend of global information globalization. This trend cannot be denied. At the same time, investors also choose to continue to pay attention. Personally, I feel that instead of paying attention, it's better to choose to invest. Money in the bank can never appreciate. According to statistics, the depreciation rate of the RMB was as high as 2.4% in 2014. That means if 100,000 yuan is not in the bank, it will lose 2,400 yuan in a year. If it is in the bank, the maximum annual interest on financial management is only 6%, which means earning 3,600 yuan in interest in a year. If you take out 100,000 yuan for investment, the returns will be much higher than this. In the past few years, many people chose to invest in real estate, and some people made certain profits. But now the future of real estate has become uncertain, and most people choose to give up. Some properties even face the phenomenon of "ghost cities". Now internet finance is booming. Some people dare not invest, and some people do not choose to invest in websites. I want to say here that your money will only continue to depreciate if you don't invest it. If you invest, you will earn much more. You may envy the rich, but why not take action yourself? There is a saying that the rich get richer and the poor get poorer. This is the reason. The rich dare to invest and will invest, while the poor only keep their eyes on their current assets, which will not lead to further development. Capital will continue to be eroded over time until it is gone. This is the sadness of people nowadays. Instead of envying others, why not make others envy you? If you don't believe in some new platforms, why can't you believe in your own investment vision? I think that some large platforms are not as reliable as small platforms. Large platforms have low interest rates and a high probability of bad debts. Although the strength of large platforms is obvious to all, can they really handle bad debts well? Small platforms are different. When we say "small," it's not really small. The registered capital of tens of millions is just slightly inferior compared to those large platforms that have been established for several years. But who starts as a large platform right from the beginning? That's not realistic. Let's talk about the advantages of small platforms. Think about it, why do companies create platforms? They see the development trend of this industry, they are willing to invest, willing to serve us, why can't we trust them? There are thousands of people in the world, but only a few can succeed. Everyone has a different personality. The current situation in the P2P industry does not mean that other new platforms will also have problems. Put yourself in the shoes of a new company in an industry. What is most important? It must be the corporate image and public reputation. New platforms: 1. High interest rates bring us high returns and many benefits. Most new platforms' benefits will not stop within a week. We can get a year's interest in just a few days. Isn't that great? 2. High security. New platforms also focus on long-term development, emphasizing reputation, market, and image. Although they offer high interest rates, the risk is minimal, and bad debts will not occur. As investors, what we pursue is profit, isn't that enough?</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10月21日至23日，由中国健康促进基金会主办的第六届全国健康管理示范基地建设研讨会在安徽合肥举行。会上，举行了全国健康管理示范基地授牌仪式，温州市体检中心在全国众多医疗单位里脱颖而出，成功争创全国健康管理示范基地。据悉，通过此次评审的全国共有47家健康管理机构，其中，浙江省占三家，温州市体检中心是温州地区首家通过评审的市级专业体检医疗机构。 全国健康管理示范基地评选活动由中国健康促进基金会、中华医学会健康管理学分会、中国健康管理协会共同组织开展，评审活动是一个“以评促建、以评促改、评建并举、重在内涵”的过程，专家组的成员都是全国健康管理示范基地的知名专家，具有丰富的实践经验。除了根据《第六批全国健康管理示范基地现场考评细则》完成考察任务，专家组还给被考察单位带来了宝贵的经验、指出了不足之处和改进方法、交流了健康管理领域的前沿信息，起到了“传经送宝”的作用。温州市体检中心经过精心准备，顺利完成创建全国健康管理示范基地的申报、初审、复审、现场考察座谈、专家投票等各个环节，服务能力和环境得到评审委员会专家的一致认可和好评。 跻身国家级健康管理示范基地，是荣誉更是一种责任。温州市体检中心将以此为契机，坚定信心，积极创新健康管理服务模式和流程，安排专人进行健康教育、健康管理工作，依托温州市人民医院和市干部保健委的技术优势和现代化的诊疗设备优势开展健康体检，疑难病会诊和特需医疗服务，进一步做好干部保健工作，以优质的服务、一流的技术、一流的设施赢得社会的满意，满足不同人群多元化、多层次的健康需求。中心将发挥好示范基地的引领作用，推动全市健康管理产业的发展，真正起到“健康管理示范基地”的作用，为温州人民的健康保驾护航。 相关链接 营业时间：周一至周五：上午：7:30-11:30下午：13:30-16:30中午可领取体检报告周六及周日：上午：7:30-11:30下午：休息地点：温州大道1679号公交：乘坐21路、22路、61路、62路、91路、96路、130路、B101路到“ 市体检中心（吕家岸）” 站下。停车：地下室、院内均可免费停车。网上预约官网地址：www.wzstjzx.com预约电话：0577-88938688；0577-88938588温州市体检中心微信二维码</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>From October 21st to 23rd, the 6th National Health Management Demonstration Base Construction Seminar, hosted by the China Health Promotion Foundation, was held in Hefei, Anhui. During the event, the national health management demonstration base plaque award ceremony was held, and the Wenzhou Medical Examination Center stood out among many medical units nationwide, successfully striving to become a national health management demonstration base. It is reported that a total of 47 health management institutions across the country were selected through this evaluation, with Zhejiang Province accounting for three, and the Wenzhou Medical Examination Center being the first municipal professional medical institution in Wenzhou to pass the evaluation.
+The selection of national health management demonstration bases is organized jointly by the China Health Promotion Foundation, the Health Management Branch of the Chinese Medical Association, and the China Health Management Association. The evaluation activity is a process of "promoting construction through evaluation, promoting improvement through evaluation, integrating evaluation with construction, and focusing on connotation." The members of the expert group are well-known experts from national health management demonstration bases with rich practical experience. In addition to completing inspection tasks according to the "Detailed Evaluation Rules for the Sixth Batch of National Health Management Demonstration Bases," the expert group also brought valuable experiences to the units under inspection, pointed out shortcomings and improvement methods, exchanged cutting-edge information in the field of health management, playing a role in "passing on valuable knowledge." 
+After careful preparation, the Wenzhou Medical Examination Center successfully completed the application, preliminary review, reexamination, on-site inspection discussions, expert voting, and other links to establish a national health management demonstration base. Its service capabilities and environment received unanimous recognition and praise from the evaluation committee of experts. Becoming a national-level health management demonstration base is not only an honor but also a responsibility. The Wenzhou Medical Examination Center will take this as an opportunity to strengthen confidence, actively innovate health management service models and processes, arrange dedicated personnel for health education and health management work, rely on the technical advantages of Wenzhou People's Hospital and the modern diagnostic and treatment equipment advantages to carry out health check-ups, difficult disease consultations, and special medical services, further improve the health care for cadres, and win social satisfaction with high-quality services, top-notch technology, and facilities, meeting the diverse and multi-level health needs of different groups of people. The center will play a leading role as a demonstration base, promote the development of the city's health management industry, truly serve as a "health management demonstration base," and escort the health of the people of Wenzhou.
+Related Links
+Business Hours: Monday to Friday: Morning: 7:30-11:30, Afternoon: 13:30-16:30, Lunchtime for collecting medical reports
+Saturday and Sunday: Morning: 7:30-11:30, Afternoon: Rest
+Location: 1679 Wenzhou Avenue
+Public Transport: Take bus routes 21, 22, 61, 62, 91, 96, 130, B101 to the "Medical Examination Center (Lvjia'an)" stop.
+Parking: Free parking available in the basement and courtyard.
+Online Booking Official Website: www.wzstjzx.com
+Reservation Phone: 0577-88938688; 0577-88938588
+Wenzhou Medical Examination Center WeChat QR Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 民政部发布的数据显示，自2004年以来，我国离婚率连续10年递增；2012年全国共有310余万对夫妻办理离婚手续，离婚率增幅首次超过结婚率增幅，2013年攀升到350万对，比上年增长12.8%。婚姻是公民的权利，结婚、离婚是每个人的自由选择。然而，有相当一部分人的结婚或离婚过于功利化，而缺乏应有的道德感和责任担当。极端利己、有悖道德的婚姻往往给家庭、社会带来不同程度的伤痛和危害，特别是成为孩子心灵上不可承受之重。2011年，3.2万对；2012年，3.8万对；2013年，5.4万对……近年来，北京市的离婚人数逐年攀升，2013年同比增长42.6%。2014年，上海市共办理离婚登记53244对。因感情不和或破裂、性格不合等离婚的占总数的95%。2014年，江苏省共有837942对新人结婚，178899对夫妻离婚。与2013年相比，离婚人数增加2898对，即每3分钟就有一对夫妻分手。究竟是谁动了我们的婚姻？首先，观念变化、责任弱化、立法变革，导致“离婚脱敏”。从深层观念看，离婚问题凸显也折射出一部分人婚姻契约精神的淡化和婚姻家庭道德责任的弱化。其次，社交网络，成为婚恋麻烦制造者。调查发现，80后的离婚咨询中，多达一半以上的婚外情都与网络有关。第三，流动之变、独生一代等，动摇城乡“婚姻大厦”。因人口迁移、两地分居所导致的家庭亲和力减弱，夫妻关系受到严重影响。良好婚姻关系的延续，不仅仅在于物质基础，更在于夫妻双方的交流与沟通。婚姻专家指出，与国外夫妻相比，中国人的婚姻容易缺少以下7样东西——你是不是也一样？01. 缺亲昵中国夫妻大多羞涩，觉得亲昵是黏糊的表现。但研究显示，拥抱、亲吻等表达亲昵的动作，是婚姻的必需品。日本爱妻家协会就发起过一个拥抱妻子计划，要求丈夫每天给妻子几个拥抱，包括每天出门时的常规拥抱，在等车、等红绿灯时的伺机拥抱，从背后拥抱，搂着腰紧贴在一起的温情拥抱。 02. 缺情话有研究表明，夫妻间每天至少需要说3句情话，如我爱你、我想你等。美国休斯敦州立大学的一项研究还发现，对着爱人的左耳说甜言蜜语，更能打动对方。 03. 缺幽默幽默能化解、缓冲矛盾，消除隔阂。幽默包含了很多信息：爱妻子、哄妻子高兴、赞美。妻子接收到这些信息，心情自然多云转晴。 04. 缺欣赏中国人善于欣赏和表扬孩子，却习惯用挑剔的眼光看配偶。其中原因很多，但长此以往会伤了感情，破坏婚姻稳定。</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>The data released by the Ministry of Civil Affairs shows that since 2004, the divorce rate in China has been increasing continuously for 10 years. In 2012, more than 3.1 million couples nationwide went through divorce procedures, with the divorce rate increasing for the first time surpassing the marriage rate increase. In 2013, the number rose to 3.5 million couples, a 12.8% increase from the previous year. Marriage is a right of citizens, and getting married or divorced is the personal freedom of each individual. However, a considerable number of people treat marriage or divorce too utilitarianly, lacking the necessary sense of ethics and responsibility. Extremely selfish and morally contradictory marriages often bring varying degrees of pain and harm to families and society, especially becoming an unbearable burden on children's minds. In 2011, 32,000 couples; in 2012, 38,000 couples; in 2013, 54,000 couples... In recent years, the number of divorces in Beijing has been increasing year by year, with a 42.6% year-on-year increase in 2013. In 2014, Shanghai processed a total of 53,244 divorce registrations. 95% of the total divorces were due to reasons such as emotional discord, personality mismatch, etc. In 2014, Jiangsu Province had a total of 837,942 couples getting married, and 178,899 couples getting divorced. Compared to 2013, the number of divorces increased by 2,898 couples, which means one couple divorcing every 3 minutes. Who is really affecting our marriages? Firstly, changes in concepts, weakened responsibilities, and legislative reforms have led to a "desensitization to divorce." From a deeper perspective, the issue of divorce highlights the fading of the spirit of marriage contract and the weakening of moral responsibilities in some individuals. Secondly, social networks have become creators of marriage troubles. Surveys have found that in divorce consultations among the post-80s generation, more than half of extramarital affairs are related to the internet. Thirdly, changes in mobility, the generation of only children, etc., are shaking the "marriage building" in urban and rural areas. Weakened family cohesion due to population migration and living apart have seriously affected marital relationships. The continuation of a good marital relationship depends not only on material foundations but also on communication between the spouses. Marriage experts point out that compared to foreign couples, Chinese marriages tend to lack the following 7 things - do you also lack them? 01. Lack of intimacy: Most Chinese couples are shy and consider intimacy as clingy behavior. However, research shows that actions like hugging and kissing are essential for marriage. The Japan Aisai Association once initiated a "Hug Your Wife" program, requiring husbands to give their wives a few hugs every day, including routine hugs when leaving home, opportunistic hugs while waiting for transportation or traffic lights, hugs from behind, and warm hugs with close body contact. 02. Lack of sweet words: Studies have shown that couples need to say at least 3 sweet words to each other every day, such as "I love you" or "I miss you." A study from the University of Houston in the United States even found that saying sweet words into the partner's left ear can be more touching. 03. Lack of humor: Humor can resolve conflicts, buffer tensions, and eliminate barriers. Humor contains a lot of information: loving your wife, making her happy, praising her. When the wife receives these messages, her mood naturally brightens. 04. Lack of appreciation: Chinese people are good at appreciating and praising children but tend to look at their spouses with a critical eye. There are many reasons for this, but over time, it can hurt feelings and disrupt marital stability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今晚就是平安夜了，每年的这个时候，都是圣诞老人最忙的时候。带着全世界所有孩子的盼望，为他们送上新年的礼物。毫无疑问，圣诞老人是这个节日最受欢迎的人。你相信这个神秘的传说人物真的存在吗！他到底从何而来！现实中又该到何处去寻找他的足迹！ 哪里是传说中的圣诞老人故乡，多年来在西方国家一直是个悬案。直到1995年圣诞节前夕，当时的联合国秘书长加利将一封发给圣诞老人的节日贺卡寄往芬兰北部拉毕省的省会罗瓦涅米，这才使争论停止。因为加利的贺卡起到了一种盖棺定论的作用，联合国承认圣诞老人的故乡是芬兰的罗瓦涅米（Rovaniemi）。 圣诞老人故乡罗瓦涅米（Rovaniemi）北极圈以北还有土地吗？那儿会是什么样子呢？传说每年圣诞老人就是从这里坐着雪橇腾空出发，为全世界的孩子送去圣诞礼物。这里似乎只该是一个属于童话的世界。 罗瓦涅米是拉普兰德的首府，位于芬兰、挪威的北部，它有四分之三处在北极圈内，独特的极地风光和土著民族风情，以及圣诞老人的故乡使它成为旅游胜地。 每年10月进入冬季，一直要到第二年的5月份才开春，整个冬季长达8个月。在这里放眼望去，几乎全是森林、河流，而在冬季这些全被皑皑的白雪覆盖，冰清玉洁，一望无际，就像世外仙境。这样的环境也很符合圣诞老人的神秘气质。 这里到了冬至前后，人们可以亲身感受到极夜，可以看到24小时不灭的星光。到了夏至前后，人们又可以感受极昼，看到24小时不落的太阳。 清新的空气，纯净的旷野，质朴的民俗，使这里成为世界上仅剩下的为数不多的一片未被污染和破坏的土地。 圣诞老人村现实中的圣诞老人 闻名世界的圣诞老人村位于罗瓦涅米以北8公里市郊边缘处的北极圈上，自成一隅。通过高高的牌坊入口，赫然见到一条粗白线横躺地上，写着北纬66度33分。原来这线正是北极圈的分界线，过了这线以北的地方便属于北极范围。不少人在线上跳来跳去。在北极进进出出，十分有趣。 圣诞老人村是一组木建筑群，包括有正门的尖顶、餐厅、花圃、圣诞老人办公室、居所、邮局、购物商场、鹿园等。每年源源不断的游客从世界各地涌向这里，以一睹圣诞老人的风采为快。在圣诞老人村的礼品店里。港客可以买到带有芬兰特点。设计精美的礼品，馈赠亲朋好友。还可以得到一张跨越北极圈的证书。 圣诞老人每年要收数以百万封的从全世界各地发来的信件，而他也要和全世界的孩子保持密切联系，给他们一封一封地回信。</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Tonight is Christmas Eve. At this time every year, it is the busiest time for Santa Claus. Carrying the hopes of children all over the world, he delivers New Year gifts to them. Undoubtedly, Santa Claus is the most popular figure of this holiday. Do you believe in the existence of this mysterious legendary character? Where does he come from? And where in reality should one look for his footsteps? The hometown of Santa Claus in legend has been a mystery in Western countries for many years. It wasn't until the eve of Christmas in 1995 when the then United Nations Secretary-General, Kofi Annan, sent a holiday card addressed to Santa Claus to Rovaniemi, the provincial capital of Lapland in northern Finland, that the debate was settled. Annan's card played a decisive role, and the United Nations recognized Rovaniemi in Finland as the hometown of Santa Claus.
+Is there land beyond the Arctic Circle in Rovaniemi, the hometown of Santa Claus? What does it look like there? Legend has it that Santa Claus takes off from here on a sleigh every year to deliver Christmas gifts to children around the world. It seems to be a world belonging only to fairy tales. Rovaniemi is the capital of Lapland, located in the northern parts of Finland and Norway, with three-quarters of it lying within the Arctic Circle. Its unique polar landscapes, indigenous cultural characteristics, and being the hometown of Santa Claus make it a tourist destination.
+Entering winter in October and lasting until May of the following year, the entire winter season spans 8 months. Looking around here, it is almost all forests and rivers, covered in pure white snow during winter, pristine and vast, resembling a fairyland. Such an environment also suits the mysterious aura of Santa Claus. Around the winter solstice, people can experience the polar night and witness the starlight that never fades for 24 hours. Around the summer solstice, people can experience the midnight sun and see the sun that never sets for 24 hours.
+The fresh air, pure wilderness, and simple folk customs make this place one of the few remaining unpolluted and undamaged lands in the world. Santa Claus Village, the real-life Santa Claus, is located 8 kilometers north of Rovaniemi on the edge of the Arctic Circle, forming its own unique corner. Through a tall archway entrance, visitors will see a thick white line lying on the ground, indicating the Arctic Circle at 66 degrees 33 minutes north latitude. Many people jump around on the line, entering and exiting the Arctic, which is quite interesting.
+Santa Claus Village is a group of wooden buildings, including a main gate with a pointed roof, restaurants, gardens, Santa Claus's office, residence, post office, shopping mall, reindeer park, etc. Every year, a continuous stream of tourists from all over the world flock here to catch a glimpse of Santa Claus. In the gift shop at Santa Claus Village, visitors can buy exquisitely designed gifts with Finnish characteristics to give to their family and friends. They can also receive a certificate for crossing the Arctic Circle.
+Every year, Santa Claus receives millions of letters from all over the world, and he keeps in close contact with children worldwide, replying to their letters one by one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>新华网北京5月28日电 中央党的群众路线教育实践活动办公室近日发出通知，要求继续把整治“会所中的歪风”作为教育实践活动反“四风”重要内容，进一步明确整治范围和纪律要求，坚决刹住“会所中的歪风”。通知指出，这次整治的范围主要针对在历史建筑、公园等公共资源中实行会员制的会所、只对少数人开放的场所、违规出租经营的场所。各省（区、市）要制定工作方案，明确任务要求，落实责任单位，组织力量集中时间开展专项清理，切实解决存在的违法设立经营、侵占群众利益、助长奢靡之风、滋生腐败行为等问题。对设在历史建筑、公园等公共资源中的会所依法依规整治，杜绝历史建筑、公园等公共资源违法违规出租现象，建立健全加强监管的长效机制。通知明确，党员领导干部不得出入实行会员制、只有会员才能出入的会所或不向公众开放、只对少数人开放的餐饮服务、休闲娱乐、美容健身等场所。第二批教育实践活动中，要组织党员领导干部作出不出入私人会所、不接受和持有私人会所会员卡的公开承诺，并纳入对照检查的内容，在专题民主生活会上进行明示，自觉接受监督。对第一批教育实践活动中党员领导干部的承诺情况及整改落实、建章立制情况要进行回头看，发现问题坚决纠正。通知要求，中央和国务院有关部门要认真履行职责，与省区市密切配合、上下联动。公安、民政、住建、商务、文化、税务、工商、旅游、宗教工作等部门要在认真抓好本系统专项整治的同时，加强工作指导和政策研究，进一步健全完善监管制度，推动专项整治工作深入开展。各地区各部门各单位要强化监督检查，对党员领导干部违规出入私人会所的行为，一经发现，严肃查处；对典型问题通报曝光，以形成威慑，警示教育党员干部。</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Xinhua News Agency, Beijing, May 28th - The Office of the Central Party's Mass Line Education and Practice Campaign recently issued a notice, requiring to continue to take the rectification of the "unhealthy practices in clubs" as an important part of the education and practice campaign against the "four forms of decadence", further clarify the scope of rectification and disciplinary requirements, resolutely put an end to the "unhealthy practices in clubs". The notice pointed out that this rectification mainly targets clubs that implement membership systems in historical buildings, parks, and other public resources, places that are only open to a few people, and places that operate rentals in violation of regulations. Each province (autonomous region, municipality) should formulate work plans, clarify task requirements, assign responsibility units, organize forces to carry out special clean-up activities at a concentrated time, effectively address issues such as illegally established operations, encroachment on public interests, fostering extravagance, and breeding corrupt behaviors. Clubs located in historical buildings, parks, and other public resources shall be rectified in accordance with the law and regulations, putting an end to the illegal and irregular rental of historical buildings, parks, and other public resources, and establish a sound long-term mechanism for strengthening supervision. The notice specifies that Party members and leading cadres are not allowed to enter clubs that implement membership systems, are only accessible to members, or are not open to the public, as well as catering services, leisure and entertainment venues, beauty and fitness venues that are only open to a few people. In the second batch of education and practice activities, Party members and leading cadres should make public commitments not to enter private clubs, not to accept or hold private club membership cards, and this commitment should be included in the comparative inspections, explicitly discussed at thematic democratic life meetings, and consciously accept supervision. The commitments of Party members and leading cadres in the first batch of education and practice activities, as well as the rectification and establishment of regulations, should be reviewed, and any problems found should be corrected resolutely. The notice requires relevant departments of the Central Committee and the State Council to fulfill their duties conscientiously, closely cooperate with provinces, regions, and municipalities, and coordinate efforts from top to bottom. Departments such as public security, civil affairs, housing and urban-rural development, commerce, culture, taxation, industry and commerce, tourism, and religious affairs should strengthen work guidance and policy research while focusing on the special rectification within their systems, further improve supervision systems, and promote the in-depth implementation of the special rectification work. All regions, departments, and units should strengthen supervision and inspection. Any violations of Party members and leading cadres entering private clubs, once discovered, should be seriously investigated and dealt with; typical problems should be reported and exposed to form a deterrent, warning and educating Party members and cadres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>中新网重庆7月19日电（记者刘贤）2016年第二季度过去不久，作为中国六大老工业基地、中西部唯一直辖市的重庆，经济增长速度位于全国前列的记录已达十个季度。记者19日从重庆市经济和信息化委员会获悉，当地2016年上半年规模工业完成总产值10888亿元（人民币，下同），首次实现半年产值过万亿元。 _acK（{aid:1807，forMAT:0，mode:1，gid:1，serverBAseurl:"me.afp.chinanews.com/"}）;重庆有着厚实的工业基础，近年来更是从无到有地搭建起电子信息终端产业集群，支柱产业汽车制造的产量也跃居中国首位。从2016年上半年的数据分析，重庆延续着工业方面的优势：多个主要指标实现两位数增长。其中，规模工业增加值增长超一成，工业投资增长逾16%，前5月工业利润增长23.5%。规模工业半年破万亿，应归功于制造业。重庆市经济和信息化委员会提供的数据显示，2016年上半年，重庆制造业产值达10150亿元，占重庆市工业产值比重九成以上。身为老工业基地，重庆更注重调整产业结构，大举投入战略性新兴产业（爱基，净值，资讯）。上半年高端细分行业确有快速增长。高技术产业增加值增幅超过25%。支撑工业转型升级（爱基，净值，资讯）的高端细分行业如智能装备、电子元器件、医疗仪器设备等行业产值增幅均超40%。投资是经济发展的先行指标。对2016年上半年的规模工业运行分析，重庆市经济和信息化委员会认为投资逐步回升是主要特点之一。重庆上半年完成工业投资达2370亿元，占全社会固定资产投资的三分之一以上。其中，来自民间的投资占重庆市工业投资的七成。重庆市统计局副局长、新闻发言人张富民在当地上半年经济运行情况发布会上分析，重庆民间投资主要还是投向优势产业，如汽车产业、电子产业。而且民间投资主要领域是实体经济。他表示，投资是先行指标，可以反应未来经济发展的状况，因此预计下半年重庆市经济将保持平稳快速发展的态势。</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Chongqing, the only centrally administered municipality in the central and western regions of China and one of the six old industrial bases in the country, has achieved a leading economic growth rate for ten consecutive quarters. According to the Chongqing Municipal Commission of Economy and Information Technology, the total industrial output value in the first half of 2016 reached 1.0888 trillion yuan, surpassing 1 trillion yuan for the first time. With a solid industrial foundation, Chongqing has established an electronic information terminal industry cluster in recent years and has become the top producer of automobiles in China. In the first half of 2016, Chongqing continued to excel in the industrial sector, with several key indicators showing double-digit growth. The added value of large-scale industries increased by over 10%, industrial investment grew by more than 16%, and industrial profits in the first five months increased by 23.5%. The industrial output value exceeding 1 trillion yuan in the first half of the year can be attributed to the manufacturing industry. Data provided by the Chongqing Municipal Commission of Economy and Information Technology shows that the manufacturing industry in Chongqing achieved an output value of 1.015 trillion yuan, accounting for over 90% of the city's industrial output value. As an old industrial base, Chongqing is focusing on adjusting its industrial structure and investing heavily in strategic emerging industries. High-end niche industries have shown rapid growth in the first half of the year, with the value added of high-tech industries increasing by over 25%. High-end niche industries supporting industrial transformation and upgrading, such as intelligent equipment, electronic components, and medical equipment, have seen value added growth rates of over 40%. Investment is a leading indicator of economic development. The Chongqing Municipal Commission of Economy and Information Technology believes that the gradual recovery of investment is one of the main characteristics of the industrial operation in the first half of 2016. Chongqing completed industrial investments of 237 billion yuan in the first half of the year, accounting for more than one-third of the total fixed asset investment in the society. Private investments accounted for 70% of industrial investments in Chongqing. Zhang Fumin, Deputy Director and spokesperson of the Chongqing Municipal Bureau of Statistics, analyzed the local economic situation in the first half of the year at a press conference, stating that private investments in Chongqing are mainly directed towards advantageous industries such as the automobile and electronic industries, focusing on the real economy. He expressed that investment is a leading indicator that reflects the future economic development, therefore, it is expected that Chongqing's economy will maintain a stable and rapid development trend in the second half of the year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>京华时报制图谢瑶昨天上午，人社部举行第三季度新闻发布会。今年前9个月，全国城镇新增就业1067万人，提前完成了全年目标任务。截至9月底，全国共有辽宁、上海等9个地区调整了最低工资标准，平均增幅10.7%。此外，针对此前有报道称“北京等6个地区的医保基金支付不足半年”的说法，人社部新闻发言人李忠回应称，这种说法属于个别媒体的误读，除天津外，北京、湖北等其他5个地区的医保基金运行平稳，百姓报销没有问题。失业率三年来首次低于5%据人社部新闻发言人李忠介绍，今年1-9月，全国城镇新增就业1067万人，提前完成了全年1000万人的目标任务。三季度末，全国城镇登记失业率为4.04%，低于4.5%的年度调控目标。城镇失业人员再就业426万人。就业困难人员实现就业125万人，完成全年120万人的目标任务。李忠还在回答记者提问时介绍，从调查失业率来看，9月份31个大城市城镇调查失业率是低于5%，这也是自2013年6月以来第一次低于5%。从市场供求关系来看，据100个城市公共就业服务机构人力资源市场供求数据显示，在三季度市场求人倍率是1.10，反映了市场招聘岗位的供给数还是大于需求人数，说明市场岗位供求还是比较充裕的。将公告首批养老基金管理机构“社会保险覆盖范围持续扩大。”李忠说，截至9月底，全国基本养老、基本医疗、失业、工伤、生育保险参保人数分别为8.71亿人、6.98亿人、1.78亿人、2.16亿人、1.82亿人，分别比上年底增加1225万人、3247万人、506万人、187万人、397万人。1-9月，五项社会保险基金总收入为3.65万亿元，同比增长10.1%；总支出为3.17万亿元，同比增长12.5%。截至9月底，社会保障卡持卡人数9.39亿人。对于养老保险基金，李忠介绍，下一步，人社部将启动养老保险基金投资运营，组织第一批委托省份与社保基金会签订合同，公告第一批养老基金管理机构。落实职业年金基金管理暂行办法，完善合同指引、合同报备通知、信息披露、数据规范等操作性文件。修订企业年金基金管理机构资格认定办法。最近，关于养老保险个人账户的空账问题受到关注。有记者提问，个人空账会不会影响到参保人员以后的待遇领取？对此，李忠表示，我国养老保险制度经过20年的发展，已经趋于定型。</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Jinghua Daily Graphics Xie Yao Yesterday morning, the Ministry of Human Resources and Social Security held a press conference for the third quarter. In the first 9 months of this year, the country added 10.67 million new urban jobs, completing the annual target ahead of schedule. By the end of September, a total of 9 regions including Liaoning and Shanghai adjusted their minimum wage standards, with an average increase of 10.7%. In addition, in response to previous reports claiming that "the medical insurance funds in Beijing and 6 other regions were insufficient for half a year," Li Zhong, the spokesperson of the Ministry of Human Resources and Social Security, stated that this claim was a misinterpretation by individual media outlets. Apart from Tianjin, the medical insurance funds in Beijing, Hubei, and 5 other regions are running smoothly, and there are no issues with people's reimbursements. For the first time in three years, the unemployment rate is below 5%. According to Li Zhong, the spokesperson of the Ministry of Human Resources and Social Security, from January to September this year, the country added 10.67 million new urban jobs, exceeding the annual target of 10 million. At the end of the third quarter, the registered urban unemployment rate in the country was 4.04%, lower than the annual control target of 4.5%. 4.26 million urban unemployed people found new jobs. 1.25 million people facing employment difficulties were employed, completing the annual target of 1.2 million. Li Zhong also mentioned during the Q&amp;A session that based on the survey of the unemployment rate, in September, the urban unemployment rate in 31 major cities was below 5%, the first time it has been below 5% since June 2013. In terms of market supply and demand, according to data from 100 public employment service agencies in cities, the job vacancy rate in the market was 1.10 in the third quarter, reflecting that the supply of job positions in the market still exceeds the demand, indicating that the job market supply is relatively abundant. The first batch of pension fund management institutions will be announced, and "the coverage of social insurance continues to expand." Li Zhong stated that by the end of September, the number of participants in basic endowment insurance, basic medical insurance, unemployment insurance, work-related injury insurance, and maternity insurance were 871 million, 698 million, 178 million, 216 million, and 182 million respectively, with an increase of 12.25 million, 32.47 million, 5.06 million, 1.87 million, and 3.97 million compared to the end of the previous year. From January to September, the total income of the five social insurance funds was 3.65 trillion yuan, a year-on-year increase of 10.1%; the total expenditure was 3.17 trillion yuan, a year-on-year increase of 12.5%. By the end of September, the number of people holding social security cards was 939 million. Regarding the pension insurance fund, Li Zhong introduced that the Ministry of Human Resources and Social Security will initiate the investment and operation of the pension insurance fund next, organize the first batch of entrusted provinces to sign contracts with the Social Security Fund, and announce the first batch of pension fund management institutions. Implement the Interim Measures for the Management of Occupational Pension Funds, improve operational documents such as contract guidelines, contract filing notices, information disclosure, and data standards. Revise the qualification recognition methods for enterprise annuity fund management institutions. Recently, the issue of empty accounts in personal pension insurance accounts has attracted attention. When asked by a reporter whether empty accounts will affect the future benefits of insured persons, Li Zhong stated that China's pension insurance system, after 20 years of development, has become more mature.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>人社部25日召开第三季度新闻发布会，回应了一系列民生热点问题：目前养老金调整发放工作基本落实；养老金并轨进入实质性操作阶段；养老保险基金投资运营将于年内启动；20个省市实现了城乡居民医保的整合；9个地区调整了最低工资标准，平均增幅10.7%。养老金调整发放工作基本落实人社部、财政部今年4月份印发《关于2016年调整退休人员基本养老金的通知》，首次统筹安排机关事业单位与企业退休人员同步调整基本养老金，总体调整水平为2015年退休人员月人均基本养老金的6.5%左右。对于养老金调整的进展，人社部新闻发言人李忠透露，各省、自治区、直辖市都结合实际制定了具体的调整方案，报经人社部、财政部批准后正式发文实施。目前养老金调整发放工作基本落实，初步统计全国1亿多企业和机关事业单位退休人员的基本养老保险待遇得到了提高。记者注意到，目前多数地区已经对外公布了养老金具体调整方案，各地的调整方案普遍采取了定额调整、挂钩调整与适当倾斜相结合的调整办法。养老金并轨进入实质操作阶段2015年1月份，国务院印发《关于机关事业单位工作人员养老保险制度改革的决定》，养老金并轨正式启动，近4000万机关事业单位人员告别“免缴费”时代。对于养老金并轨的进展，李忠透露，这项改革正式出台后，去年各个省、自治区、直辖市和新疆生产建设兵团都出台了相应的实施办法，在京中央国家机关事业单位工作人员的养老保险制度改革工作也已经启动实施。李忠表示，为了进一步做好这项工作，今年以来进一步制定了实施细则、经办规程以及信息系统建设的指导意见等相关配套文件。目前，这项工作已经进入了实质性的操作阶段，全国绝大多数地区已经启动了参保缴费和待遇支付工作。养老金投资运营今年正式启动国务院2015年8月印发《基本养老保险基金投资管理办法》，解除了“养老金不能投资股市”的紧箍咒。对于养老金入市的进展，李忠表示，已经制定了相关方案，正在积极有序扎实地推进各项工作。下一步将在年内组织第一批委托省份与社保基金理事会签订合同。同时也会由社保基金理事会牵头组织评审委员会，优选出第一批养老基金管理机构，正式启动投资运营工作。“总之，我们会在确保安全的前提下，让老百姓的养命钱真正得到保值增值。”李忠说。9个地区调整最低工资标准李忠透露，截至9月底，全国共有辽宁、江苏、重庆、上海等9个地区调整了最低工资标准，平均增幅10.7%。</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>The Ministry of Human Resources and Social Security held a press conference for the third quarter on the 25th, responding to a series of hot issues concerning people's livelihood: the current adjustment and distribution of pension funds have been basically implemented; the integration of pension funds has entered a substantive operational stage; the investment operation of pension insurance funds will be launched within the year; 20 provinces and cities have achieved the integration of urban and rural residents' medical insurance; 9 regions have adjusted the minimum wage standards, with an average increase of 10.7%. The Ministry of Human Resources and Social Security and the Ministry of Finance issued the "Notice on Adjusting the Basic Pensions of Retired Personnel in 2016" in April this year, coordinating for the first time the simultaneous adjustment of basic pensions for retirees from government institutions and enterprises, with an overall adjustment level of around 6.5% of the average monthly basic pension for retirees in 2015. Regarding the progress of pension adjustments, Li Zhong, the spokesperson of the Ministry of Human Resources and Social Security, revealed that each province, autonomous region, and municipality has formulated specific adjustment plans based on actual conditions, which will be officially implemented after approval by the Ministry of Human Resources and Social Security and the Ministry of Finance. Currently, the basic work of adjusting and distributing pension funds has been basically implemented, and preliminary statistics show that the basic pension benefits for over 100 million retirees from enterprises and government institutions nationwide have been increased. It was noted that most regions have already announced specific pension adjustment plans, which generally combine fixed adjustments, linkage adjustments, and appropriately tilted adjustment methods. The integration of pension funds has entered the substantive operational stage. In January 2015, the State Council issued the "Decision on the Reform of the Pension Insurance System for Government Institutions and Institutions", officially launching the integration of pension funds, bidding farewell to the era of "exempt from payment" for nearly 40 million employees of government institutions and institutions. Regarding the progress of pension fund integration, Li Zhong disclosed that after the reform was officially introduced, last year, various provinces, autonomous regions, municipalities, and the Xinjiang Production and Construction Corps issued corresponding implementation measures, and the reform of the pension insurance system for employees of central state organs and institutions in Beijing has also been launched. Li Zhong stated that in order to further improve this work, detailed rules of implementation, operational procedures, and guidance on information system construction have been further formulated this year. Currently, this work has entered a substantive operational stage, and the vast majority of regions nationwide have initiated the work of contribution payment and benefit distribution. The investment operation of pension funds officially started this year. In August 2015, the State Council issued the "Management Measures for the Investment of Basic Pension Insurance Funds", lifting the restriction that "pension funds cannot be invested in the stock market." Regarding the progress of pension fund investment, Li Zhong stated that relevant plans have been formulated and various work is actively and orderly being promoted. The next step will be to organize the first batch of entrusted provinces to sign contracts with the Social Security Fund Council within the year. At the same time, the Social Security Fund Council will lead the organization of the evaluation committee to select the first batch of pension fund management institutions and officially launch the investment operation. "In short, we will ensure the safety and value appreciation of the people's life savings," Li Zhong said. 9 regions adjusted the minimum wage standards. Li Zhong revealed that as of the end of September, a total of 9 regions including Liaoning, Jiangsu, Chongqing, and Shanghai have adjusted the minimum wage standards, with an average increase of 10.7%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>本报讯（记者赵蝶）昨日，西南商报记者从四川省政府金融办获悉，为进一步指导四川金融生态环境建设工作，改善四川金融生态环境，促进经济金融协调发展。近日，中国人民银行成都分行、四川省人民政府金融办公室经过制定评价方案、设定评价体系、引入第三方征信机构、收集核实数据、客观测算评价等环节，完成了对全省178个参评县（区、市）2015年县域金融生态环境的评价工作。据了解，经过近4年在部分地区的重点推动，四川省金融生态环境建设工作取得了初步成效。2015年，面临国际国内复杂的经济环境，四川省金融业健康发展，良好的金融生态环境得以巩固提升。此次评价将四川省178个参评县（区、市）按照2014年GDP规模分成三个组别进行排名。在66个“GDP150亿元以上”组别前20名中，全国创建社会信用体系建设示范城市成都市和泸州市的县（区、市）占到60%，共12席，其中泸州市龙马潭区在GDP150亿元以上的县（区、市）小组中总分83.98、排名第一。四川省除个别县（区、市）得分较低外，其他县（区、市）金融环境评价得分整体不错。成都、泸州两市积极抢抓创建全国社会信用体系建设示范城市的契机，将信用体系建设与金融生态环境改善有机结合，切实推动银行、证券、保险等金融业信用信息的整合与共享，大力推进信用信息的应用，加大对金融欺诈、恶意逃废银行债务、虚假披露、内幕交易、制售假保单和骗保骗赔等违法失信行为的打击力度，以此有效改善了地区投融资环境，提高了金融服务的现代化、便利化和普惠化水平，夯实了地区发展的金融基础。</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>This report (by reporter Zhao Die) Yesterday, the Southwest Business Daily learned from the Financial Office of the Sichuan Provincial Government that in order to further guide the construction of Sichuan's financial ecological environment, improve the financial ecological environment of Sichuan, and promote the coordinated development of economy and finance, recently, the People's Bank of China Chengdu Branch and the Financial Office of the Sichuan Provincial People's Government have completed the evaluation of the county-level financial ecological environment in 178 participating counties (districts, cities) in 2015, after formulating evaluation plans, setting up evaluation systems, introducing third-party credit agencies, collecting and verifying data, and objectively calculating evaluations. It is understood that after nearly 4 years of focused promotion in some areas, Sichuan Province has achieved preliminary results in the construction of the financial ecological environment. In 2015, facing a complex economic environment both domestically and internationally, the financial industry in Sichuan Province developed healthily, and the good financial ecological environment was consolidated and improved. This evaluation ranked the 178 participating counties (districts, cities) in Sichuan Province into three groups based on the GDP scale in 2014. Among the top 20 in the group with GDP over 15 billion RMB, Chengdu and Luzhou, the two cities that have been designated as national demonstration cities for the construction of the social credit system, accounted for 60% of the counties (districts, cities), totaling 12 seats. Among them, Longmatan District in Luzhou City scored 83.98 and ranked first in the group with GDP over 15 billion RMB. Except for a few counties (districts, cities) with relatively low scores, the overall financial environment evaluation scores of other counties (districts, cities) in Sichuan Province are good. Chengdu and Luzhou actively seized the opportunity to create national demonstration cities for the construction of the social credit system, organically integrating credit system construction with the improvement of the financial ecological environment, effectively promoting the integration and sharing of credit information in the banking, securities, insurance, and other financial industries, vigorously advancing the application of credit information, intensifying efforts to combat illegal and dishonest acts such as financial fraud, malicious evasion of bank debts, false disclosures, insider trading, production and sale of fake insurance policies, and insurance fraud, thereby effectively improving the regional investment and financing environment, enhancing the modernization, convenience, and inclusiveness of financial services, and laying a solid foundation for the financial development of the region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>在精神健康已经成为当代社会一个严峻的公共健康问题的背景下，一些女性主义学者试图以女性主义视角分析精神残障的起因和应对，提出女性主义精神残障理论。这一理论是女性主义生命伦理学的一个新尝试。尽管它目前还处于襁褓之中，尚未形成完整的理论，但所提出的问题却引人深思。随着社会和文明的进步，各国的相关法律都规定残障人在政治、经济、文化、社会和家庭生活等方面享有同其他公民平等的权利，他们的公民权利和人格尊严受到法律的保护。然而事实上，残障人在社会现实生活中却受到不同程度的歧视和不公正待遇。在精神健康已经成为当代社会一个严峻的公共健康问题的背景下，一些女性主义学者试图以女性主义视角分析精神残障（psychiatric disability）的起因和应对，提出女性主义精神残障理论。精神残障与伤害和社会处境相关根据女性主义精神病学家的研究，精神残障大都与伤害有密切的关联。在临床就诊的精神疾病患者中，许多人是童年时代受虐待的幸存者。有50%~60%的住院患者和40%~60%的院外患者有童年时代遭受身体或性虐待的历史。早在19世纪末期，弗洛伊德就指出女性的癔病是由童年时代所受到的性虐待导致的。女性主义学者安德利亚·尼基（Andrea Nicki）也认为，精神疾病不仅与伤害和虐待相关，也与社会偏见、歧视和性别歧视、社会不公正、边缘化和贫困相关，也有证据表明，“精神疾病主要存在于女性、同性恋者、贫困者、失业者、无家可归者、身体残障者、边缘化者和老年人口中。”事实上，与伤害相关的精神疾病是精神世界对于心理压力的一种回应，如同癌症是身体对于不良环境所作出的反应一样。1972年，女性主义学者菲利斯·切斯勒在其经典著作《妇女与疯癫》一书中，也强调无论从本质上还是文字上看，女性的精神疾病都是女性无权无势，以及不能成功地改变这种局面的一种表达。女性的精神疾病既是对自己处境的一种抗议，也是想滞留在这种状态中的一种任性。这种看法会让人联想到女性写作中的“疯语”策略，既表达了对父权制的一种颠覆和反抗，也表达出女作家内心的自卑情绪。同样，一些相信精神疾病社会成因的女性主义学者还认为，社会和文化对于女性精神疾病患者的态度也会加剧她们的病情。西方文化自亚里士多德时代起就认为人是具有理性的、能够自我控制的、温和的与中庸的。</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Against the backdrop of mental health having become a serious public health issue in contemporary society, some feminist scholars attempt to analyze the causes and responses to psychiatric disabilities from a feminist perspective, proposing the feminist theory of psychiatric disabilities. This theory is a new attempt in feminist bioethics. Although it is still in its infancy and has not yet formed a complete theory, the questions it raises are thought-provoking. With the progress of society and civilization, relevant laws in various countries stipulate that disabled individuals have equal rights in politics, economics, culture, society, and family life as other citizens, and their civil rights and human dignity are protected by law. However, in reality, disabled individuals face varying degrees of discrimination and unfair treatment in their social lives.
+Against the backdrop of mental health having become a serious public health issue in contemporary society, some feminist scholars attempt to analyze the causes and responses to psychiatric disabilities. According to feminist psychiatrists, psychiatric disabilities are closely related to trauma and social situations. In clinical psychiatric patients, many are survivors of childhood abuse. 50% to 60% of inpatients and 40% to 60% of outpatients have a history of physical or sexual abuse in childhood. As early as the late 19th century, Freud pointed out that hysteria in women was caused by childhood sexual abuse. Feminist scholar Andrea Nicki also believes that mental illness is not only related to trauma and abuse, but also to social prejudices, discrimination, gender bias, social injustice, marginalization, and poverty. There is also evidence that "mental illness mainly exists in women, homosexuals, the poor, the unemployed, the homeless, the physically disabled, marginalized individuals, and the elderly." In fact, mental illnesses related to trauma are a response of the mind to psychological stress, just as cancer is a response of the body to adverse environments.
+In 1972, feminist scholar Phyllis Chesler emphasized in her classic work "Women and Madness" that women's mental illnesses are an expression of women's powerlessness and inability to successfully change this situation, both essentially and textually. Women's mental illnesses are both a protest against their own situation and a stubborn desire to remain in that state. This view is reminiscent of the "madness" strategy in women's writing, expressing both subversion and resistance to patriarchy, as well as the inner feelings of inferiority of female writers. Similarly, some feminist scholars who believe in the social causes of mental illness also argue that society and culture can exacerbate the conditions of female mental illness patients. Western culture has believed since the time of Aristotle that humans are rational, self-controlled, gentle, and moderate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>京华时报讯中国驻菲律宾大使馆近日再次提醒中国公民勿前往菲律宾三宝颜市、帕嘎蒂安市、哥打巴托市等高风险地区。中国驻菲大使馆最新发布的“风险提示与赴菲须知”信息称，近日，菲律宾南部伊沙贝尔市再次发生绑架案件。包括伊沙贝尔市在内的菲南部8市6镇，是菲政府确定的最高恐怖威胁风险地区。中国驻菲大使馆称，以上地区均可能发生爆炸、绑架、枪击、纵火等恐怖袭击案件。为确保安全，中国驻菲律宾大使馆提醒中国公民勿前往上述最高恐怖威胁风险地区，已在该地区的中国公民应采取严密安保措施并及早离开；中国公民应谨慎前往较高恐怖威胁风险地区，已在该地区的应采取有效安全防范措施，并避免前往人多复杂场所，避免夜间外出。遇紧急情况，请报警并联系中国驻菲使、领馆。大使馆：0063-9178972695驻宿务总领馆：0063-9175495614驻拉瓦格领事馆：0063-9178051226菲最高恐怖威胁风险地区三宝颜市(ZamboangaCity)、帕嘎蒂安市(PagadianCity)、哥打巴托市(CotabatoCity)塔古隆市(TacurongCity)、科嵘纳塔市(KoronadalCity)桑托斯将军市(GeneralSantosCity)、拉米坦市(LamitanCity)伊沙贝尔市(IsabelCity)马京达瑙省(MaguindanaoProvince)的安帕图安镇(AmpatuanTown)、布鲁安镇(BuluanTown)苏禄省(SuluProvince)的迪奥普-迪奥普镇(Tiop-TiopTown)霍洛镇(JoloTown)、因达南镇(IndananTown)、帕特库尔镇(PatkulTown)菲较高恐怖威胁风险地区菲律宾首都地区大马尼拉区(MetroManila(NCR))菲南部卡加颜德奥罗市(CagayanDeOroCity)、基塔巴湾市(KidapawanCity)中旅总社暂停赴越旅游业务为确保中国公民出境旅游的人身、财产安全，中旅总社昨天发表声明，中旅总社旗下128家分子公司近日将暂停销售赴越南旅游产品。中旅总社表示，将协助中旅总社在越旅游团队顺利返回国内。对于在中旅总社报名赴越南旅游的，如要求取消行程，中旅总社承诺全额退款。</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>The Beijing Times reported that the Chinese Embassy in the Philippines recently reminded Chinese citizens not to travel to high-risk areas such as Zamboanga City, Pagadian City, and Cotabato City in the Philippines. The latest "Risk Advisory and Travel Tips to the Philippines" issued by the Chinese Embassy in the Philippines stated that a kidnapping case occurred again in Isabela City in the southern part of the Philippines. The eight cities and six towns in the southern Philippines, including Isabela City, are identified by the Philippine government as the areas with the highest terrorist threat risk. The Chinese Embassy in the Philippines stated that these areas may experience terrorist attacks such as explosions, kidnappings, shootings, and arson. To ensure safety, the Chinese Embassy in the Philippines reminded Chinese citizens not to visit the aforementioned highest terrorist threat risk areas. Chinese citizens already in these areas should take strict security measures and leave early; Chinese citizens should be cautious when traveling to areas with relatively high terrorist threat risks, and those already there should take effective security precautions and avoid crowded and complex places, as well as refrain from going out at night. In case of emergencies, please call the police and contact the Chinese Embassy or Consulate in the Philippines. Embassy: 0063-9178972695 Consulate General in Cebu: 0063-9175495614 Consulate in Laoag: 0063-9178051226 The highest terrorist threat risk areas in the Philippines are Zamboanga City, Pagadian City, Cotabato City, Tacurong City, Koronadal City, General Santos City, Lamitan City, Isabel City, Ampatuan Town in Maguindanao Province, Buluan Town, Tiop-Tiop Town in Sulu Province, Jolo Town, Indanan Town, Patkul Town. Areas with relatively high terrorist threat risks in the Philippines include Metro Manila (NCR), Cagayan De Oro City, Kidapawan City. China Travel Service suspends travel to Vietnam. In order to ensure the personal and property safety of Chinese citizens traveling abroad, China Travel Service issued a statement yesterday, announcing the suspension of sales of travel products to Vietnam by its 128 subsidiary companies. China Travel Service stated that it will assist in the smooth return of travel groups in Vietnam to China. For those who have signed up for a trip to Vietnam through China Travel Service and wish to cancel their trip, China Travel Service promises a full refund.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 旺财旺丁风水，简单风水学而言，财丁指的是财富与子孙，旺则大发富贵，开枝散叶，子孙兴隆。谁都希望家中能够人丁兴旺，财运亨通，那么如何才能布置出旺财又旺丁的住宅风水呢？又不犯忌，损丁破财呢？别着急，下面就来为大家讲一讲居家风水最要注意的地方！1、天花板忌累赘客厅屋顶的天花板，高高在上，对于住宅风水来说，它是天的象征，因而相当重要。现代住宅普层高都在2.8米左右，如果屋顶再采用假天花来装饰，设计稍有不当，便会显得相当累一，有天塌下来的强烈压迫感，居者会压力过大。 2、玄关忌玻璃玄关之于家庭，有如咽喉之于人体，其风水作用是非常重要的。要最有效的发挥玄关的风水作用，必须重视玄关的组成部分在风水上的各种宜忌。玄关吊顶宜高不宜低：玄关处的吊顶若是太低，且有压迫感，这在风水上属于不吉之兆，象征这家人备受压迫掣肘，难有出头。此外，玄关的墙壁间格应下实上虚：面对大门的玄关，下半部宜以实墙作为根基，扎实稳重，而上半部则可用玻璃来装饰，以通透而不漏最理想。必须注意的是，不能使用镜面玻璃，会反射的镜子通常不可面向大门，因为家中财气将会被反射出去。 3、阳台忌杂物阳台是住宅纳气的重要通道，应尽量保持开阔明亮，种植物忌过密，将光线遮挡。位于西南方与东北方的阳台就不太适合种植植物，否则会给家人的肠胃与运程带来不良影响，西南方种植物，还会影响女主人的运程，东北方则会影响孩子的学业。 4、厕所浴室忌显眼传统的风水学理论，对厕所浴室的吉凶宜忌，除了指出要压在凶方之外，其他却很少提及，因而产生了不少附会的说法。到底厕所浴室有哪些需要注意的地方呢?卫生间位置应尽可能隐蔽，不能直对大门，大门对着卫生间门，主财帛不聚。卫生间不可设在走廊的尽头，这在风水上是大凶之兆，因为从卫生间溢出的湿气和秽气，会顺着走廊扩散到相邻的房间，自然不卫生，所以卫生间应设在走廊两旁，且卫生间内最好有窗。卫生间门与厨房门应注意门当户对，不可正对，卫生间与厨房一水一火，两门相对，是水火不容的败局。如果家中供有神位，则卫生间不可在神位后面，也不可以在神位的楼上的房间，以免亵渎神灵。 5. 定错太极点，神马都是浮云定好太极点是家居风水的基础，把吉祥物放在精准的方位才能化解灾劫。要确定太极点，首先要把平面户型图补成方形，找到几何中心点，最后把罗盘放上去，通过罗盘精确地定位各个方位。只有布局精准了，家居风水才能做好。</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Wealth and offspring in Feng Shui, in simple Feng Shui terms, refer to wealth and descendants. Prosperity means great wealth and prosperity, flourishing branches and leaves, and thriving offspring. Everyone hopes that their home can be prosperous with both descendants and wealth, and how to arrange a residence with prosperous wealth and offspring in Feng Shui without violating taboos and causing harm to descendants and loss of wealth? Don't worry, let me explain the most important points to pay attention to in home Feng Shui! 1. Ceiling taboo of burden The ceiling of the living room, high above, is a symbol of the sky and therefore quite important for residential Feng Shui. In modern residences, the standard ceiling height is around 2.8 meters. If a false ceiling is used for decoration, and the design is not appropriate, it may feel burdensome, giving a strong sense of pressure as if the sky is about to collapse, causing excessive stress on the occupants. 2. Entrance taboo of glass The entrance hall is like the throat of a human body for a family, and its Feng Shui effect is very important. To maximize the Feng Shui effect of the entrance hall, it is necessary to pay attention to the various taboos and requirements of the components of the entrance hall in Feng Shui. The ceiling of the entrance hall should be high, not low: if the ceiling of the entrance hall is too low and oppressive, it is considered an inauspicious sign in Feng Shui, symbolizing that the family is under great pressure and constraints, making it difficult to succeed. In addition, the wall space of the entrance hall should be solid at the bottom and empty at the top: facing the entrance door, the lower part of the entrance hall should have a solid wall as a foundation, stable and reliable, while the upper part can be decorated with glass for transparency without leakage, which is ideal. It is important not to use mirrored glass, as mirrors facing the entrance door will reflect the wealth energy out of the house. 3. Balcony taboo of clutter The balcony is an important channel for the residence to receive energy and should be kept open and bright, with plants not too densely packed to avoid blocking sunlight. Balconies located in the southwest and northeast are not suitable for planting plants, as it may have a negative impact on the family's digestive system and fortune. Planting in the southwest can also affect the hostess's fortune, while planting in the northeast can affect the child's academic performance. 4. Toilet and bathroom taboo of visibility According to traditional Feng Shui theory, apart from indicating that toilets and bathrooms should be located in unfavorable directions, there is little mention of their auspicious and inauspicious aspects, leading to various misconceptions. What are the important points to note about toilets and bathrooms? The toilet should be as concealed as possible, not directly facing the main door, as this will disperse the wealth energy. The toilet should not be located at the end of a corridor, as this is a sign of great misfortune in Feng Shui. The moisture and foul air from the toilet will spread through the corridor to adjacent rooms, making it unhygienic. Therefore, the toilet should be placed on either side of the corridor, and it is best to have a window in the toilet. The toilet door and the kitchen door should not directly face each other, as the toilet and kitchen represent water and fire respectively, and having the doors face each other is a sign of conflict. If there is a shrine in the house, the toilet should not be located behind the shrine or above the shrine's room to avoid disrespecting the deities. 5. Misplacing the Tai Chi point, everything else is secondary Determining the Tai Chi point is the foundation of home Feng Shui, and placing auspicious objects in precise locations can help ward off disasters. To determine the Tai Chi point, first square off the floor plan, find the geometric center, and then place a compass on it to accurately position each direction. Only with precise layout can good Feng Shui be achieved in the home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>IT之家讯距离微软正式开卖Surface3还有一个月时间，自从上周宣布后，微软针对这款搭载AtomX7处理器的Win8.1平板电脑已经放出几段商业广告视频，而最新的视频开始涉及到具体的场景，比如学生的教室。 微软Surface 3搭配电磁屏和手写触控笔，轻薄的机身俨然是为教育市场打造的，适合教师和学生装备。它可以在教室里各个场景下使用，学生绘图、记录课堂笔记，使用USB设备比如U盘，轻松携带到图书馆等。我们已经看到微软OneNote和Surface Pro 3正在教育市场变得成功，而Surface 3进一步降低了门槛，而且相比Surface Pro 3没有妥协。（via: WinBeta）下面是视频。</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>IT Home News: There is still one month left before Microsoft officially starts selling the Surface 3. Since the announcement last week, Microsoft has released several commercial advertisement videos for this Win8.1 tablet that is powered by an Atom X7 processor. The latest video now involves specific scenarios, such as a classroom setting. The Microsoft Surface 3, equipped with an electromagnetic screen and a handwriting touch pen, features a slim and lightweight body that is clearly tailored for the education market, suitable for teachers and students. It can be used in various classroom scenarios, allowing students to draw, take notes in class, use USB devices like flash drives, and easily carry it to the library, etc. We have already seen the success of Microsoft OneNote and Surface Pro 3 in the education market, and the Surface 3 further lowers the threshold, without compromising compared to the Surface Pro 3. (via: WinBeta) Below is the video.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 核心摘要亚洲基础设施投资银行多边临时秘书处秘书长金立群表示，到本月底，亚投行意向创始成员国数量会超过35个。根据金立群的表态来推算，在未来一周中，将有至少另外两个国家宣布申请加入亚投行。“目前来看，韩国、澳大利亚可能性最大，也不排除日本的可能性。”一位与亚投行接触密切的外交人士向21世纪经济报道表示。本报记者 张涵 北京报道3月24日，亚洲基础设施投资银行创始国申请程序进入最后一周，韩国、澳大利亚，甚至日本、美国均有要申请加入的传言。而根据中国官方披露的信息来推算，至少还有两个国家将在此期间申请加入。3月22日，亚洲基础设施投资银行多边临时秘书处秘书长金立群表示，到本月底，也就是申请成为亚投行创始国的截止日期，最终亚投行意向创始成员国数量会超过35个。根据此前财政部确认，截至目前亚投行意向创始成员国数量已达27个。3月12日英国申请加入，成为申请成为亚投行意向创始成员国中第一个西方大国。上周德国、法国、意大利、卢森堡、瑞士均宣布有意申请亚投行创始成员国资格，如以上各国的申请均获同意，则亚投行意向创始成员国数量将增至33个。根据亚投行临时秘书长金立群的表态来推算，在未来一周中，将有至少另外两个国家宣布加入。“目前来看，韩国、澳大利亚可能性最大，也不排除日本的可能性。”一位与亚投行接触密切的外交人士向21世纪经济报道表示。在各国媒体上，针对澳大利亚等国是否加入亚投行的争论仍然在继续，尤其集中于美国颇有影响力的亚洲国家。据澳大利亚《悉尼先驱晨报》3月20日的头版头条新闻报道称，澳大利亚政府已决定加入亚投行，澳方投资额尚未最终确定，可能在数亿至30亿美元之间。3月23日截至本报发稿，澳大利亚政府尚未正式宣布申请加入亚投行。而从韩国方面来看，上周，韩国媒体多次报道韩国已经决定加入，政府也多次出面否认媒体报道。3月21日，中国外交部长王毅在首尔会见韩国外长尹炳世，邀请韩国加入亚洲基础设施投资银行。而美国在亚太地区的盟友—日本也突然开始转变态度。据日本媒体报道，关于是否加入亚投行，日本政府开始现“迁就”论调。日方认为如果不加入亚投行，就有可能在与欧洲的竞争中面临不利局面。新加坡《联合早报》报道称，日本副首相兼财务大臣麻生太郎20日在内阁会议后的记者会上就中国主导筹建的亚投行表示，如果妥善的融资审查机制等得到确保，就不排除加入其中进行磋商的可能性。</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>The Secretary-General of the Multilateral Interim Secretariat of the Asian Infrastructure Investment Bank, Jin Liqun, stated that by the end of this month, the number of prospective founding member countries of the AIIB will exceed 35. Based on Jin Liqun's remarks, it can be inferred that in the coming week, at least two more countries will announce their intention to join the AIIB. "Currently, South Korea and Australia are the most likely, and the possibility of Japan cannot be ruled out," a diplomat closely involved with the AIIB told the 21st Century Business Herald. On March 24, the application process for founding members of the Asian Infrastructure Investment Bank entered its final week, with rumors circulating that South Korea, Australia, and even Japan and the United States are considering applying for membership. According to information disclosed by Chinese officials, at least two more countries are expected to apply during this period. On March 22, Jin Liqun, Secretary-General of the Multilateral Interim Secretariat of the Asian Infrastructure Investment Bank, stated that by the end of this month, which is the deadline for applying to become a founding member of the AIIB, the final number of prospective founding member countries will exceed 35. According to the Ministry of Finance, as of now, the number of prospective founding member countries of the AIIB has reached 27. On March 12, the United Kingdom applied for membership, becoming the first major Western country among the prospective founding member countries. Last week, Germany, France, Italy, Luxembourg, and Switzerland all announced their intention to apply for membership as prospective founding member countries of the AIIB. If the applications of these countries are approved, the number of prospective founding member countries of the AIIB will increase to 33. Based on the statement of Jin Liqun, Secretary-General of the AIIB Interim Secretariat, it can be inferred that in the coming week, at least two more countries will announce their intention to join. "Currently, South Korea and Australia are the most likely, and the possibility of Japan cannot be ruled out," a diplomat closely involved with the AIIB told the 21st Century Business Herald. Debates on whether countries like Australia will join the AIIB are still ongoing in various countries' media, especially among influential Asian countries with close ties to the United States. According to a headline news report in the Sydney Morning Herald on March 20, the Australian government has decided to join the AIIB, with the exact amount of Australian investment yet to be finalized, possibly ranging from hundreds of millions to 3 billion US dollars. As of the time of writing on March 23, the Australian government has not officially announced its application to join the AIIB. Regarding South Korea, last week, South Korean media reported multiple times that South Korea had decided to join, while the government repeatedly denied the media reports. On March 21, Chinese Foreign Minister Wang Yi met with South Korean Foreign Minister Yun Byung-se in Seoul and invited South Korea to join the Asian Infrastructure Investment Bank. Japan, a key ally of the United States in the Asia-Pacific region, has also suddenly begun to change its stance. According to Japanese media reports, the Japanese government has started to adopt a more accommodating attitude towards joining the AIIB. The Japanese side believes that not joining the AIIB could put them at a disadvantage in competition with Europe. The Straits Times reported that on March 20, Japanese Deputy Prime Minister and Finance Minister Taro Aso, at a press conference after a cabinet meeting, expressed that if proper financing review mechanisms are ensured, they do not rule out the possibility of engaging in consultations to join the AIIB led by China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>牛牛车网网友嘻嘻我的寳贝问：博瑞、雅阁我该怎么选？16万预算，家里人偏好合资车，但看了吉利拆博瑞的直播，感觉这车用料还不错。平常用车的话，个人对产品可靠度要求还是挺高的，不希望有太多小毛病。将来肯定会换车，所以折旧率也得考虑。听说自主车掉价快，这让我很纠结。不知大家对这两款车什么看法？希望能给个客观的购车建议。牛牛车网网友Y_Lee 答：放在以前，题主大概不会提出这个问题，16万预算买车，合资当然是首选。但吉利推出博瑞后，这个价位的市场开始有了变化。16万的博瑞不光是配置高上了天，外观用了新的设计语言后也很招人喜欢，更难能可贵的是，吉利把这车的行驶质感已经尽最大可能地调到了和合资品牌接近。有人说，博瑞把自主品牌B级车这块“天花板”捅了个洞。我觉得不为过。自主品牌能有如此出彩的产品，题主心动也就能够理解。那问题来了：16万的预算，到底是买雅阁还是博瑞？如果我没猜错，题主考虑花16万买雅阁，多半还是看中了本田品牌。这一点问题中也有具体描述。 日系品牌在中国没有德系那样受人推崇，想把量跑起来，简单直接的对策也就是搞大幅优惠来吸引消费者。长时间靠低价来维持销量，品牌价值肯定会受损。可不管怎么说，本田依旧是个海外品牌，而过去自主品牌不够争气的表现又让人们产生了抛离自主的惯性思维，其实直到现在这种算不上理性的想法仍然在左右着国人的购买行为。对于合资品牌的向往在大多数消费者心理都是个抹除不掉的情结，但凡合资车型价格低到自己心理可承受的水平，可以说会基本丧失对这款车的抵抗力。想想吧，16万就能入手主流合资品牌B级车，怎么看都像是捡了个大便宜好伐~每个人都有需求，题主的家人偏好合资车，虽然我不清楚购车决定权在谁手里，如果你自己也认同，目前看来，能让大家都高兴的也就是雅阁了。 关于品牌，我还想强调一点，看完这次的博瑞拆车直播，我能感觉到吉利对博瑞怀才不遇的无奈，这么多年消费者一直在带着有色眼镜看待自主品牌，对轻视的不满，吉利要把博瑞拆个精光来做“最有力”的回应，将一件件的隔音棉和钢板摆在人们面前才能证明博瑞是款有诚意的好车。有些急功近利的自我表现反而暴露出自己在品牌层面上的心虚。现在博瑞的月销量稳定在3000-4000辆，我拿5毛钱打赌，倘若吉利品牌再上一个台阶，够到韩系车的水平，月销量翻一番应该不成问题。———————————————————— 看是不是好车，要看它的实际表现。</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>NiuNiuCar.com user XiXi asked: Borui or Accord, how should I choose? With a budget of 160,000 yuan, my family prefers joint venture cars, but after watching the live broadcast of Geely disassembling the Borui, I feel that the materials used in this car are quite good. For daily use, I have a high requirement for product reliability and hope to avoid too many minor issues. I will definitely change cars in the future, so the depreciation rate also needs to be considered. I heard that domestic cars depreciate quickly, which makes me very conflicted. I wonder what everyone's opinion is on these two cars? I hope to receive an objective car buying advice. NiuNiuCar.com user Y_Lee replied: In the past, you probably wouldn't have asked this question. With a budget of 160,000 yuan to buy a car, joint venture brands are certainly the first choice. However, after Geely launched the Borui, the market in this price range has changed. The 160,000 yuan Borui not only has high configurations, but also has a new design language that is very appealing after the exterior makeover. What's even more commendable is that Geely has tried its best to bring the driving feel of this car as close as possible to that of joint venture brands. Some say that Borui has broken through the "ceiling" of domestic B-class cars. I think this statement is not an exaggeration. With such outstanding products from domestic brands, it's understandable why you are tempted. So, the question is: with a budget of 160,000 yuan, should you buy an Accord or a Borui? If I'm not mistaken, if you are considering spending 160,000 yuan on an Accord, you are probably more inclined towards the Honda brand. This specific point is also described in the question. Japanese brands are not as highly regarded in China as German brands. To boost sales, the simple and direct strategy is to offer large discounts to attract consumers. Relying on low prices for a long time will definitely damage the brand value. However, regardless of this, Honda is still a foreign brand. The past lackluster performance of domestic brands has led people to develop an inherent bias against them. Even now, this somewhat irrational thinking still influences Chinese consumers' purchasing behavior. The desire for joint venture brands is an indelible sentiment in the minds of most consumers. Once the price of a joint venture model falls within their acceptable range, it can be said that they will basically lose their resistance to buying that car. Just think, being able to get a mainstream joint venture B-class car for 160,000 yuan feels like a great deal, right? Everyone has their own needs, and your family prefers joint venture cars. Although I'm not sure who has the final say in the car purchase decision, if you also agree with this preference, currently, the Accord seems to be the one that will make everyone happy. Regarding brands, I would like to emphasize one point. After watching the live broadcast of the Borui disassembly, I can feel Geely's frustration with the underappreciation of the Borui over the years. Consumers have always viewed domestic brands with colored glasses and have been dissatisfied with the disdain. Geely had to completely disassemble the Borui to make the most powerful response, laying out each piece of soundproof cotton and steel plate to prove that the Borui is a sincere and good car. Some rushed self-expressions actually expose their insecurity at the brand level. Currently, the monthly sales of the Borui are stable at 3,000-4,000 units. I bet five cents that if the Geely brand reaches the level of Korean cars, doubling the monthly sales should not be a problem. ——————————————————— Whether a car is good or not depends on its actual performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>新文化讯（记者王帅）我们针对春季买房推出《2015年春季买房意愿》有奖调查问卷，了解您最真实的买房心声，为您梳理购房需求的同时，提供切实可行的购房建议，欢迎您积极参与，我们将从中随机抽取10名幸运读者奉上精美礼品，期待您的声音，感谢您的参与。参与方式渠道一：邮寄将本页调查问卷填写完整后剪下，直接邮寄至本报，请注明“2015年春季买房意愿调查问卷”，该问卷复印有效。邮寄地址：长春市南关区人民大街6906号新文化报社房产事业部。渠道二：邮箱参与者只需将15个调查问题的序号和选项前的字母编辑好，如“1a2b3c……13ad”，并附上姓名和联 系 方 式 ， 发 送 至 邮 箱 ：489506103@qq.com即可。渠道三：微信关注“新文化买房帮办”微信公共账号：ccmfbb，或扫描二维码，将15个调查问题的序号和选项前的字母编辑好，如“1a2b3c……13ad”并附上姓名和联系方式，发送至“新文化买房帮办”官方微信平台即可。特别提示以上问题必须填写完整才是有效问卷，方能参与抽奖。问卷收集时间截止到2015年4月17日，中奖结果将公布在4月21日楼市版，敬请关注。</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>New Culture News (Reporter Wang Shuai) We have launched a prize survey on "2015 Spring Home Buying Intentions" to understand your most genuine thoughts on buying a house in spring. While sorting out your housing needs, we will provide practical home buying advice. We welcome your active participation. We will randomly select 10 lucky readers to receive exquisite gifts. We look forward to hearing from you and thank you for your participation. 
+Participation Channel One: By mail, please fill out the survey on this page completely, cut it out, and send it directly to our newspaper. Please indicate "2015 Spring Home Buying Intentions Survey" on the envelope. Photocopies of the survey are valid. Mailing address: Real Estate Department of New Culture Newspaper, No. 6906, Renmin Street, Nanguan District, Changchun City. 
+Channel Two: By email, participants only need to edit the numbers of the 15 survey questions and the letters before the options, such as "1a2b3c…13ad," and provide their name and contact information, then send it to the email address: 489506103@qq.com. 
+Channel Three: On WeChat, follow "New Culture Home Buying Assistance" official account: ccmfbb, or scan the QR code. Edit the numbers of the 15 survey questions and the letters before the options, such as "1a2b3c…13ad," and provide your name and contact information, then send it to the official WeChat platform of "New Culture Home Buying Assistance." 
+Special Note: The above questions must be filled out completely to be considered a valid survey for participation in the lucky draw. The survey collection deadline is April 17, 2015. The results will be announced in the April 21 real estate section. Please stay tuned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>日前，国务院办公厅印发《关于大力发展装配式建筑的指导意见》（以下简称《指导意见》），确立了健全标准规范体系、创新装配式建筑设计和优化部品部件生产等八项主要任务。在国务院政策吹风会上，住房城乡建设部总工程师陈宜明介绍了大力发展装配式建筑的有关情况，并回答了记者提问。 从内容来看，此次出台的《指导意见》基本涵盖了发展装配式建筑发展所需的所有要素，部分要求直指近年来装配式建筑发展的痛点，业内人士拍手称快。同时，从吹风会上也可以看出，国家和行业主管部门对于推进装配式建筑发展有着清晰的策略，对于目前面临的问题也有着明确的解决方案和思路。可以说，《指导意见》的出台，一方面给推进装配式建筑发展的先行地区、企业吃了一颗“定心丸”，另一方面也给在转型升级面前犹疑不决的中小建筑企业指明了道路。当前，企业要明确的是，在宏观经济形势要求和国家的大力推动之下，建筑业生产方式大变革的趋势已然显现。认清“势”——装配式建筑推广势在必行众所周知，欧美等发达国家在上世纪就已经开启建筑产业现代化进程。据悉，英国等欧洲发达国家采用现代化手段建造建筑的比例约80%，日本、美国均达到70%以上。目前，我国建筑工业化率不足7%，建筑产业现代化仍处于初级阶段。现阶段，我国建筑工业化生产方式主要有3种：预制混凝土装配式建筑（PC 建筑）——以混凝土预制构件为主要构件，经装配、连接以及部分现浇而成的混凝土结构组合搭建起的建筑；钢结构建筑——钢结构为主体结构，结合工业化楼板及内外墙系统，形成完整的建筑体系，其优点是应用范围广、自重轻、节能环保；木结构装配建筑——因资源和环境条件所限，在全国范围内推广任重道远。根据规划，我国将力争用10年左右时间，使装配式建筑占新建建筑的比例达到30%。而根据陈宜明的描述，目前，我国装配式建筑占新建建筑的比例约为5%。要达到30%的目标，《指导意见》给出的方案是“以京津冀、长三角、珠三角三大城市群为重点推进地区，常住人口超过300万的其他城市为积极推进地区，其余城市为鼓励推进地区，因地制宜发展装配式混凝土结构、钢结构和现代木结构等装配式建筑”。陈宜明指出，三大城市群与常住人口超过300万城市建筑业总产值和新建建筑竣工面积的占比超过50%，其规模和产值占全国的一半以上，这是确保30%目标实现的基础。值得注意的是，《指导意见》抛弃了以往“一刀切”的模式，提出了“因地制宜”的发展战略。</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Recently, the General Office of the State Council issued the "Guiding Opinions on Vigorously Developing Prefabricated Buildings" (hereinafter referred to as the "Opinions"), establishing eight main tasks including improving the standard and normative system, innovating prefabricated building design, and optimizing the production of components. At a State Council policy briefing, Chen Yiming, Chief Engineer of the Ministry of Housing and Urban-Rural Development, introduced the relevant situation of vigorously developing prefabricated buildings and answered questions from reporters. From the content perspective, the "Opinions" issued this time basically cover all the elements needed for the development of prefabricated buildings, with some requirements directly addressing the pain points in the development of prefabricated buildings in recent years, which has been welcomed by industry insiders. At the same time, it can also be seen from the policy briefing that the state and industry regulatory authorities have a clear strategy for promoting the development of prefabricated buildings and have clear solutions and ideas for the current issues. It can be said that the issuance of the "Opinions" has not only reassured the pioneering regions and enterprises promoting the development of prefabricated buildings but also provided a clear direction for small and medium-sized construction enterprises hesitant in the face of transformation and upgrading. Currently, what companies need to be clear about is that under the requirements of the macroeconomic situation and the vigorous promotion by the country, the trend of a major transformation in the construction industry production methods has already emerged. Recognizing the trend that the promotion of prefabricated buildings is imperative is well known. Developed countries such as Europe and the United States began the modernization process of the construction industry in the last century. It is reported that the proportion of buildings constructed using modern methods in developed countries such as the UK in Europe is about 80%, while Japan and the United States have both exceeded 70%. Currently, the industrialization rate of construction in China is less than 7%, and the modernization of the construction industry is still in its early stages. At the current stage, there are mainly three types of industrialized construction methods in China: prefabricated concrete prefabricated buildings (PC buildings) - buildings constructed by assembling and connecting prefabricated concrete components and partially cast-in-place concrete structures; steel structure buildings - with steel structures as the main structure, combined with industrialized floor slabs and internal and external wall systems to form a complete building system, with the advantages of wide application range, light weight, energy saving, and environmental protection; wooden structure prefabricated buildings - due to limited resources and environmental conditions, the promotion of wooden structures nationwide still has a long way to go. According to the plan, China will strive to make prefabricated buildings account for 30% of new construction within about 10 years. According to Chen Yiming, the current proportion of prefabricated buildings in new construction in China is about 5%. To achieve the 30% target, the "Opinions" propose a plan to "focus on the Beijing-Tianjin-Hebei, Yangtze River Delta, and Pearl River Delta city clusters as key areas for promotion, other cities with a permanent population of over 3 million as actively promoted areas, and the remaining cities as encouraged areas, developing prefabricated concrete structures, steel structures, and modern wooden structures based on local conditions." Chen Yiming pointed out that the three major city clusters and cities with a permanent population of over 3 million account for over 50% of the total output value of the construction industry and the completed area of new construction, with their scale and output value accounting for more than half of the national total, which is the basis for ensuring the realization of the 30% target. It is worth noting that the "Opinions" have abandoned the previous "one-size-fits-all" approach and put forward a development strategy of "developing according to local conditions."</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>10月开始，人民币进入了贬值周期。 人民币中间价连刷6年新低，离岸人民币创两年半最长连跌纪录。10月12日，人民币对美元中间价报6.7258，下调160点，连续6个交易日调降，共下调了612点。人民币这样程度的暴跌是否正常？央行方面又有些什么回应？人民币将持续贬值吗？真实原因曝光！1、人民币失守，怎么看！事实上，人民币中间价失守6.7关口后，引发了市场关于人民币将持续贬值的猜测。而央行随后发文称，人民币对美元双边汇率继续按照以市场供求为基础、参考一篮子货币进行调节的机制有序运行。人民币汇率的波动还算正常，而且未来还将继续双向浮动。主要是因为中国经济并非美英偏金融型的国家，而是偏重制造业，在国内经济放缓的情况下，对出口更加重视，较低的汇率符合中国目前的经济需要。随着中国经济数据的好转，延续数年的资金外流趋势已经得到遏制，中国央行已经不需要维持高汇率来抑制资金外流。2、大跌原因曝光！节后人民币中间价大幅下跌是人民币加入SDR之前，市场积蓄的贬值压力的释放，这其中也有央行的默许甚至有意调节。而房地产市场的降温也为人民币汇率承压推波助澜。在美联储今年加息仍为大概率事件的背景下，人民币短期内可能还将继续走贬。同时，汇率的压力也会使得利率抬升，收益率曲线短端仍将是制约长端下行的重要因素。人民币贬值，那么房价会涨还是会跌？国庆期间，楼市出现多地限购政策调控，再加上人民币贬值，楼市是否会降温呢？大家都知道，人民币贬值势必会对楼市产生一定的影响。但是影响的幅度有多大，还是要看具体分析。首先楼价终究是由买卖双方决定的，先知先觉富人们的行动从来都是市场的决定力量，而不会是被楼市十几年涨价逼空逼疯的穷人所决定的。第二，在本币贬值本币房价是否下跌的问题上，还是要看是否会引发通货膨胀，这又跟一个国家生产生活资料的对外依赖度有一定的相关性。最重要的是，人民币贬值预期之下，大量资本外流，这将使央行注销大量由外汇占款而发行的人民币，即仅从外汇占款的角度而言，人民币流动性是缩减的。所以说到最后，在人民币对外升值时，对内贬值，主要表现为楼价上涨；在人民币对外贬值周期，对内则会升值，主要表现为楼价下跌。人民币的挺、贬、崩与中国楼市的涨、贬、崩有着微妙的逻辑关系。</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>In October, the Renminbi entered a devaluation cycle. The Renminbi central parity rate hit a 6-year low, and the offshore Renminbi experienced the longest continuous decline in two and a half years. On October 12th, the Renminbi's central parity rate against the US dollar was set at 6.7258, down 160 basis points, marking the 6th consecutive trading day of decline, with a total decrease of 612 basis points. Is such a sharp drop in the Renminbi normal? What response has the central bank made? Will the Renminbi continue to devalue? The real reasons are revealed! 1. The Renminbi's breach, how to interpret! After the Renminbi's central parity rate breached the 6.7 level, it triggered speculation in the market about the Renminbi's continued devaluation. Subsequently, the central bank issued a statement saying that the Renminbi's bilateral exchange rate against the US dollar will continue to be adjusted in an orderly manner based on market supply and demand, referencing a basket of currencies. The fluctuation in the Renminbi exchange rate is considered normal, and it will continue to float in both directions in the future. This is mainly because China's economy is not finance-oriented like the US and the UK, but rather manufacturing-oriented. Given the domestic economic slowdown, there is a greater emphasis on exports, and a lower exchange rate aligns with China's current economic needs. With the improvement in China's economic data, the trend of capital outflows over the past few years has been curbed, and the People's Bank of China no longer needs to maintain a high exchange rate to suppress capital outflows. 2. Reasons for the sharp decline revealed! The significant drop in the Renminbi's central parity rate after the holiday is the release of accumulated devaluation pressure in the market before the Renminbi's inclusion in the SDR basket, with the tacit or even intentional adjustment by the central bank. The cooling of the real estate market has also added pressure to the Renminbi exchange rate. Against the backdrop of the high probability of the Fed raising interest rates this year, the Renminbi may continue to devalue in the short term. At the same time, exchange rate pressure will lead to rising interest rates, and the short end of the yield curve will remain a key factor constraining the downward movement of the long end. If the Renminbi devalues, will property prices rise or fall? During the National Day holiday, many places implemented policies to control property purchases, coupled with the devaluation of the Renminbi, will the property market cool down? It is well known that the devaluation of the Renminbi will inevitably have a certain impact on the property market. However, the extent of the impact depends on specific analysis. Firstly, property prices are ultimately determined by both buyers and sellers, and the actions of wealthy individuals who are ahead of the curve have always been the driving force in the market, rather than being determined by poor people who have been squeezed out and driven crazy by the rising property market for over a decade. Secondly, when it comes to whether domestic currency devaluation will lead to a decline in domestic property prices, it depends on whether it will trigger inflation, which is somewhat related to the degree of a country's external dependence on production and living materials. Most importantly, under the expectation of Renminbi devaluation, a large amount of capital outflow will lead the central bank to cancel a significant amount of Renminbi issued through foreign exchange deposits. Therefore, in conclusion, when the Renminbi appreciates externally, it depreciates internally, mainly resulting in rising property prices; during a period of Renminbi devaluation externally, it appreciates internally, mainly leading to a decline in property prices. The rise, fall, and collapse of the Renminbi are intricately related to the rise, fall, and collapse of the Chinese property market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>日前，经中共中央批准，中共中央纪委对四川省政府原党组成员、副省长李成云严重违纪问题进行了立案审查。经查，李成云违反政治纪律，对抗组织审查；违反组织纪律，不按规定报告个人有关事项；违反廉洁纪律，违规持有非上市公司股份，利用职务上的便利在企业经营等方面为他人谋取利益并收受财物，涉嫌受贿犯罪；在国有企业改制中违规决策，涉嫌滥用职权犯罪。李成云身为党的高级领导干部，理想信念丧失，严重违反党的纪律，性质恶劣、情节严重。依据《中国共产党纪律处分条例》等有关规定，经中央纪委常委会议审议并 报中共中央批准，决定给予李成云开除党籍、开除公职处分；收缴其违纪所得；将其涉嫌犯罪问题、线索及所涉款物移送司法机关依法处理。据中央纪委监察部网站客户端</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Recently, with the approval of the Central Committee of the Communist Party of China, the Central Commission for Discipline Inspection of the Communist Party of China initiated a case review of the serious disciplinary violations of Li Chengyun, former member of the Party group and vice governor of the Sichuan Provincial Government. Through investigation, it was found that Li Chengyun violated political discipline by resisting organizational investigation; violated organizational discipline by not reporting personal matters as required; violated integrity discipline by illegally holding shares of non-listed companies, using his position for personal gain in business operations and accepting bribes, suspected of bribery crimes; made improper decisions in the restructuring of state-owned enterprises, suspected of abusing power. As a senior Party leader, Li Chengyun has lost his ideals and beliefs, seriously violated Party discipline, with a severe nature and serious circumstances. In accordance with relevant regulations such as the "Disciplinary Regulations of the Communist Party of China," after deliberation at a meeting of the Central Commission for Discipline Inspection and approval by the Central Committee of the Communist Party of China, it was decided to expel Li Chengyun from the Party, remove him from public office, confiscate his ill-gotten gains, and transfer the suspected criminal issues, clues, and involved funds to judicial authorities for legal processing. According to the website of the Central Commission for Discipline Inspection and Supervision Department.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>近日，天交所体育产业板高峰论坛在天津市政协俱乐部大礼堂隆重举行，同时天津星五洲体育发展股份有限公司联合天津股权交易所共同成立天交所体育产业板专家委员会并为首批五位体育产业专家颁发聘任书。 专家成员来自体育产业的不同细分领域，代表该领域顶尖的水平。他们分别是北京市东城区体育局副局长，东城区体育产业协会会长马力先生、北京龙潭湖国家级体育产业园董事，副总裁林育杰先生、天津财经大学商学院教授梁强博士、天津体育之光书画院秘书长史召环先生以及北京大成律师事务所合伙人李一先生。这些专家智库将为挂牌的体育企业提供全方面的辅导、咨询、策划与决策等服务。 东城区是北京市最早成立体育产业协会的城区，其成立的目的就是当好政府有关部门的参谋和助手，为体育企业搭建一个与政府管管部门沟通的平台，真正的祈祷桥梁和纽带的作用。马力会长针对中小微体育企业在发展中所面临的问题以及如何帮助他们与政府沟通有深刻的体会以及丰富的经验。林育杰先后从事过教师、行政官员，具有丰富的管理、策划、研究、运营经验。在国务院推出《关于加快发展体育产业促进体育消费的若干意见》后，在国家龙潭湖体育产业园召开了以“五万亿体育产业市场政策解读”为主题的沙龙。林育杰提出，“体育产业作为朝阳和绿色产业其未来的发展核心在全民健身，体育产业的发展要寄托于互联网创新和与健康产业、文化产业、金融业等其他行业的跨界融合。”突出了天交所推出体育板块的重要性和必要性。梁强博士作为天津财经大学商学院教授，产业经济学研究生导师，天津博观致远户外休闲研究与规划中心主任，在国内率先开展户外休闲领域学术研究与咨询策划工作，先后主持国家社科基金、教育部人文项目、国家旅游局项目、天津社科规划及后期资助项目等十余项。他认为我国体育产业发展迅速，但总体规模依然不大、活力不强，还存在一些体制机制问题。这些问题就需要专业的机构来帮助体育企业来完成。天津体育之光书画院是由天津本土退役运动员、教练员、体育工作者、体育爱好者为主体组建的。“体育之光”象征着体育将点燃教育、文化艺术等社会各个领域。史召环先生原天津足球队退役球员，1980年至2008年一直从事世乒赛、世体赛、奥运会、马拉松等大型体育赛事的组织工作。在任职天津市体育总会副秘书长期间，主要负责体育竞赛策划、执行、评估以及专业和业余青少年训练体制研究和推广。</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Recently, the Tianjin Sports Industry Summit Forum was grandly held at the Tianjin Municipal Committee of the Chinese People's Political Consultative Conference. At the same time, Tianjin Xingwuzhou Sports Development Co., Ltd. and Tianjin Equity Exchange jointly established the Tianjin Sports Exchange Sports Industry Board Expert Committee and issued appointment letters to the first five sports industry experts. The expert members come from different sub-fields of the sports industry, representing the top level in their respective fields. They are Mr. Ma Li, Deputy Director of the Dongcheng District Sports Bureau in Beijing and President of the Dongcheng District Sports Industry Association; Mr. Lin Yujie, Director and Vice President of the Longtan Lake National Sports Industry Park in Beijing; Dr. Liang Qiang, Professor at the School of Business of Tianjin University of Finance and Economics; Mr. Shi Zhaohuan, Secretary-General of the Tianjin Sports Light Calligraphy and Painting Academy; and Mr. Li Yi, Partner at Beijing Dacheng Law Firm. These expert think tanks will provide comprehensive guidance, consultation, planning, and decision-making services for listed sports enterprises. Dongcheng District is the first district in Beijing to establish a sports industry association, with the aim of serving as a consultant and assistant to government departments, providing a platform for communication between sports enterprises and government departments, and truly playing the role of a bridge and link. President Ma has a deep understanding and rich experience in addressing the problems faced by small and medium-sized sports enterprises in their development and how to help them communicate with the government. Lin Yujie has worked as a teacher and government official, with rich experience in management, planning, research, and operation. After the State Council issued the "Opinions on Accelerating the Development of the Sports Industry to Promote Sports Consumption," he held a salon with the theme "Interpreting the 5 Trillion Sports Industry Market Policy" at the National Longtan Lake Sports Industry Park. Lin Yujie proposed, "As a sunrise and green industry, the future development core of the sports industry lies in national fitness. The development of the sports industry should rely on Internet innovation and the cross-border integration with the health industry, cultural industry, financial industry, and other industries." This highlights the importance and necessity of the Tianjin Sports Exchange launching the sports sector. Dr. Liang Qiang, as a professor at the School of Business of Tianjin University of Finance and Economics and a supervisor of industrial economics graduate students, is the director of the Tianjin Boguan Zhiyuan Outdoor Leisure Research and Planning Center. He was the first in China to conduct academic research and consulting planning in the field of outdoor leisure, and has successively presided over more than ten projects including the National Social Science Fund, the Ministry of Education Humanities Project, the National Tourism Administration Project, and the Tianjin Social Science Planning and Post-funding Project. He believes that China's sports industry is developing rapidly, but the overall scale is still not large, lacks vitality, and there are still some institutional problems that need professional organizations to help sports enterprises address. The Tianjin Sports Light Calligraphy and Painting Academy was established by local retired athletes, coaches, sports workers, and sports enthusiasts in Tianjin. "Sports Light" symbolizes that sports will ignite education, culture, art, and other social fields. Mr. Shi Zhaohuan, a former retired player of the Tianjin football team, has been engaged in the organization of major sports events such as the World Table Tennis Championships, World Games, Olympics, and marathons from 1980 to 2008. During his tenure as Deputy Secretary-General of the Tianjin Sports Federation, he was mainly responsible for sports competition planning, execution, evaluation, as well as research and promotion of professional and amateur youth training systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>说实话，小编至今没有从十一假期里走出来！怎么过的就这！么！快！ 再过19天，2016就过完了你以为你的2016余额还有80天看来你还是tooyoungtoosimple实际上还有19天工作日你的2016就过完了！你又成功老一岁！ 10月份已经过去了12天这个月还剩13个工作日 11月份工作22天 12月份工作22天 一共57天平均每天工作8个小时一共456个小时合计19天 也就是说还有19天的工作时间就到2017年了！！！当然你也可以自我安慰只要19天上班时间你们就能回家过年了想想，一年一年过的更快！觉得什么也没干 对象找到了吗？肥减了吗？年初写在纸上的小目标都完成了吗？一张A4纸你能想到什么？来，一起看看这个↓↓↓一张纸，竟然说出了这些事......看完后，双眼湿润时间，就像捧在手里的沙子，悄无声息地就这么溜走了……不经意，我们就有了自己的家庭，有了孩子，再稍不留神，孩子能跑了......人生不过短短的900个月。画一个30×30的表格，一张A4纸就足够了。如果每过一个月，在一个格子里涂掉，全部人生就在这张纸上………如果你今年20岁，那么已经走完的人生如下： 如果你读完大学，你的人生就是这样的： 假设你和你的女朋友/男朋友谈了一场6个月的感情，它在这张纸上是这样的： 如果你是一位30岁上下的心力交瘁的上班族，你的人生是这样的： 假如你刚有了孩子，在孩子上幼儿园前，你能和他朝夕相处的日子是这样的： 在你的孩子考上大学离开家之前，你们大概能相处这么久： 假设我们的父母平均五十岁，他们的人生是这样的： 假如你们天天见面，你能陪伴他们的时间是这样的： 假如你们一个月见两次面，你能陪伴他们的时间就是这样的： 假如你们一年见一次面，就会是这样的： 看完是不是心里咯噔了一下？被量化的人生竟如此短暂。在忙碌的工作和生活中，我们是否应该静下心来，思考我们真正想要的生活，多多陪伴两鬓发白的父母，及成长中的孩子……看完之后，心里酸酸的……你呢？来源：楚天都市报、网络责编：大宝小贝</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>To be honest, the editor has not yet emerged from the National Day holiday! How did time pass by so quickly! In another 19 days, 2016 will be over. Do you think you still have 80 days left in your 2016 balance? It seems you are still too young and too simple. In fact, there are only 19 working days left in your 2016! You will be one year older again! October has already passed 12 days, leaving 13 working days this month. November has 22 working days, and December has 22 working days, totaling 57 days. Working an average of 8 hours a day, that's a total of 456 hours, equivalent to 19 days. This means there are only 19 working days left until 2017!!! Of course, you can console yourself that as long as you have 19 days of work, you can go home for the Chinese New Year. Think about it, the years pass by so quickly! Have you achieved anything? Have you found a partner? Have you lost weight? Have you accomplished the small goals you wrote down at the beginning of the year? What can you think of on a piece of A4 paper? Come on, let's take a look at this ↓↓↓ One piece of paper, unexpectedly mentioning all these things... After reading it, your eyes may become moist. Time slips away silently like sand in your hands... Before you know it, you have your own family, children, and if you are not careful, the children will grow up and leave... Life is only 900 months long. Draw a 30x30 grid, one piece of A4 paper is enough. If you mark off one square every month, your entire life will be on this piece of paper... If you are 20 years old this year, your life that has passed looks like this: If you have completed university, your life looks like this: Suppose you had a 6-month relationship with your girlfriend/boyfriend, it looks like this on the paper: If you are a tired office worker around 30 years old, your life looks like this: If you have just had a child, the days you can spend with them before they go to kindergarten look like this: Before your child goes to university and leaves home, you will probably have this much time together: Assuming our parents are around fifty years old, their lives look like this: If you see them every day, the time you can spend with them looks like this: If you see them twice a month, the time you can spend with them is like this: If you see them once a year, it will be like this: After reading this, did you feel a pang in your heart? Life, when quantified, seems so short. In the busy work and life, should we not calm down and think about the life we truly desire, spend more time with our aging parents and growing children... After reading this, your heart may feel a bit sour... How about you? Source: Chu Tian Urban Daily, Internet Editor: Big Treasure Little Bebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>据教外留学介绍，新加坡南洋理工大学作为一所科研密集型的国际化学府，其全方位教育着重的是培养学生的创新精神和国际视野，让学生在人文和科技方面都有相当的造诣，具备竞争优势，在全球市场上有更大的发展空间。新加坡南洋理工大学环境工程硕士学费为13970新币，亚洲文明研究硕士（传媒）学费总计10020新币，生物信息学硕士学费总计13970新币。 新加坡南洋理工大学环境工程硕士新加坡南洋理工大学环境工程硕士课程证书由新加坡南洋理工大学颁发，学制为12个月，开课时间为每年的8月，报名费100新币，学费总计13970新币。课程介绍：提供全面综合高品质的教学课程，让学生能够跟上不断变化的就业环境和面对全球环境可持续的挑战。让学生掌握高水准的专业技术以致让学生能在环境工程专业获得成功。让学生获得分析和创新思想，终身学习技能让学生提高自身的专业发展。课程安排：课程着重培训学生在环境工程方面的专业知识，与此同时，也加强了学生的企业管理技能，学生需要完成两个学期在环境工程专业的任一研究项目。 新加坡南洋理工大学亚洲文明研究硕士新加坡南洋理工大学亚洲文明研究硕士（传媒）课程证书由新加坡南洋理工大学颁发，学制为12个月，开课时间为每年的7月，报名费100新币，学费总计10020新币。中国对具有国际背景的传媒人才的渴求更甚于以往。近几年传媒行业的飞速发展，国内的新闻教育渐渐红火，相对而言，国外的传媒及传媒教育发展渐显成熟，吸引了众多有意在传媒行业发展的中国的学生把目光投向世界。新加坡南洋理工大学生物信息学硕士新加坡南洋理工大学生物信息学硕士课程证书由新加坡南洋理工大学颁发，学制为12个月，开课时间为每年的8月，报名费100新币，学费总计13970新币。生物医学科学是一门跨学科课程，学生在前两年的学习中应掌握有关正常生命过程中和疾病的全面知识，在最后一年，学生将花费至少一半的时间专攻三大专业中的其中一门。新加坡南洋理工大学的学术与科研课程致力于将教学与实践相结合，获得成功企业及行业领袖的鼎力支持，这些企业为南大提供丰厚的科研资金，与南大建立长期稳定的合作伙伴关系，并为南大学生提供在全球知名企业机构的实习机会。未来五年内，新加坡政府将注资24亿进一步发展 生物医学、环境与水务技术，以及互动与数码媒体科学，而这些都是南大的优势领域。</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>According to the introduction of overseas study by the university, Nanyang Technological University in Singapore, as a research-intensive international institution, focuses on cultivating students' innovative spirit and international perspective comprehensively. It aims to equip students with considerable achievements in both humanities and technology, giving them a competitive edge and greater development opportunities in the global market. The tuition fee for the Master of Environmental Engineering at Nanyang Technological University is 13,970 Singapore dollars, the total tuition fee for the Master of Arts in Asian Civilizations (Media) is 10,020 Singapore dollars, and the total tuition fee for the Master of Bioinformatics is 13,970 Singapore dollars. The Master of Environmental Engineering program at Nanyang Technological University issues a certificate, with a duration of 12 months, starting in August each year. The registration fee is 100 Singapore dollars, and the total tuition fee is 13,970 Singapore dollars. The program provides comprehensive and high-quality teaching courses to enable students to adapt to the constantly changing job market and face global environmental challenges sustainably. It aims to equip students with high-level professional skills for success in the field of environmental engineering, fostering analytical and innovative thinking, and enhancing lifelong learning skills for professional development. The course schedule focuses on training students in environmental engineering knowledge and enhancing their business management skills, requiring students to complete two semesters of research projects in the field of environmental engineering.
+The Master of Arts in Asian Civilizations at Nanyang Technological University, with a specialization in Media, issues a certificate with a duration of 12 months, starting in July each year. The registration fee is 100 Singapore dollars, and the total tuition fee is 10,020 Singapore dollars. There is a growing demand in China for media professionals with international backgrounds. In recent years, the rapid development of the media industry has led to a flourishing of journalism education in China, while overseas media and media education have matured, attracting many Chinese students interested in pursuing careers in the media industry to look globally. 
+The Master of Bioinformatics program at Nanyang Technological University issues a certificate, with a duration of 12 months, starting in August each year. The registration fee is 100 Singapore dollars, and the total tuition fee is 13,970 Singapore dollars. Biomedical science is an interdisciplinary course where students should acquire comprehensive knowledge about normal life processes and diseases in the first two years of study. In the final year, students will spend at least half of their time specializing in one of the three major disciplines. The academic and research programs at Nanyang Technological University aim to integrate teaching with practical experience, with strong support from successful enterprises and industry leaders. These enterprises provide generous research funding to the university, establishing long-term stable partnerships and offering internship opportunities for Nanyang Technological University students in globally renowned corporate institutions. Over the next five years, the Singapore government will invest 2.4 billion dollars to further develop biomedical, environmental and water technologies, as well as interactive and digital media sciences, all of which are Nanyang Technological University's areas of strength.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>耳环对于大部分女生来说可能是既熟悉又陌生的吧，因为很多女生对于耳环只是一知半解，那么从现在开始必须要对耳环有一定的了解，马上就是出游的时候，光准备漂亮的衣服是不够的哟，耳环也是必不可少的，会为你的衣服增光添彩，不需要多么拉风的大耳环，一款气质耳钉或者小耳环就可轻松搞定。韩国可爱甜美蝴蝶水钻石耳钉耳环防过敏女925纯银耳饰气质花朵 1、蝴蝶水钻石耳钉。 戴上去的时候是一朵小花的形状，取下来的时候就变成了一只美丽的蝴蝶。小编长这么大从来都没有戴过这样的耳钉，每次都是那种普通的不能在普通的耳钉了，十几年如一日，现在真的是戴够了，也该换换了。时尚气质耳钉女韩国防过敏纯银耳针甜美耳环珍珠耳坠日韩版饰品2、防过敏纯银耳针。 很多女生对于戴耳或钉耳环都会存在过敏的现象，但是现在有了这种纯银的耳钉就完全不用担心。有很多种款式，对于每一种都是小编想要的，因为小编没有戴过，重点还长得那么好看，正好不同的风格搭配不同的衣服。韩国小饰品耳骨夹耳扣假耳钉无耳洞耳环耳饰珍珠钻简约气质耳夹女3、简约气质耳骨夹。 看到这副耳钉的第一反应就是：哇塞，那些敢在耳骨上面打耳洞的妹纸真的是太有勇气了，因为小编也是有8个耳洞的，能够深深体会到打耳洞的痛，越往上面越痛，而且还难以护理，但是这个是耳夹哦，也就是假耳环。所以完全没问题。韩国甜美耳饰气质女珍珠耳钉耳环长款日韩个性简约耳坠小饰品批发4、甜美气质耳钉。 气质耳钉当然需要搭配有气质的衣服，两者结合相得益彰，比如搭配职业套装或者是长裙都非常不错的，参加晚间聚会的时候绝对是全场的女神呀，小编觉得每一款耳钉都非常的漂亮，各有各的美。防过敏纯银日韩版耳钉韩国女气质甜美长款耳坠珍珠花朵耳环后挂式5、珍珠花朵耳环。 这款耳钉果真是爆款，已经出现很多次了，而且也非常的漂亮，淑女范儿十足，非常适合去文艺片或者韩剧哦，小编 每次都是戴的那种大耳环，这种淑女风的从来都没有尝试过，这次是不是也该尝试一下了。925银耳针韩国韩版气质时尚新娘耳钉耳环耳饰耳扣坠女饰品6、925银玫瑰时尚耳钉。 这两朵花做的太逼真了，娇艳欲滴非常的饱满，上次去逛商场的时候自己也买了一对玫瑰花的耳环，跟这个是是属于同一种类型的，真的是特别漂亮。这就叫做红玫瑰与白玫瑰，如今红玫瑰已经在手，就缺那副白玫瑰了。Taimi Style 韩国不对称简约耳钉女气质 个性复古耳环百搭耳饰7、不对称个性复古耳环。</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Earrings may be both familiar and unfamiliar to most girls, because many girls only have a partial understanding of earrings. So, starting from now, it is necessary to have a certain understanding of earrings. When it's time to go out, just preparing beautiful clothes is not enough. Earrings are also essential and will add luster to your outfit. You don't need very trendy oversized earrings, a pair of elegant ear studs or small earrings can easily do the trick. Korean cute and sweet butterfly water diamond ear studs earrings, hypoallergenic female 925 sterling silver ear jewelry, elegant flower temperament. 1. Butterfly water diamond ear studs. When worn, it is in the shape of a small flower, but when taken off, it becomes a beautiful butterfly. I have never worn such earrings before, always the ordinary ones, day after day for over a decade, now I am really tired of them and it's time for a change. Fashion temperament ear studs for women, Korean hypoallergenic pure silver ear pins, sweet earrings, pearl ear drops, Korean style accessories. 2. Hypoallergenic pure silver ear pins. Many girls may have allergies when wearing earrings, but now with these pure silver ear studs, there is no need to worry at all. There are many styles, each of which I desire because I have never worn them before, and they look so good, perfect for matching different styles of clothing. Korean small accessories ear cuffs, clip-on earrings, no ear holes, earrings, ear jewelry, pearl diamond simple and elegant temperament ear clips for women. 3. Simple and elegant ear cuffs. The first reaction to seeing these ear studs is: Wow, those girls who dare to pierce their ear bones are really brave, because I have 8 ear piercings and can deeply feel the pain of piercing, the higher up, the more painful it is, and it is also difficult to care for. But this is an ear clip, a fake earring, so there is no problem at all. Korean sweet jewelry, elegant women's pearl ear studs, long Korean style personalized simple ear drops, small accessories wholesale. 4. Sweet temperament ear studs. Of course, temperament ear studs need to be matched with stylish clothes, the combination of the two is complementary. For example, they are very suitable for matching professional suits or long skirts, and they are definitely the goddess at evening gatherings. I think each pair of earrings is very beautiful, each with its own beauty. Hypoallergenic pure silver Korean style ear studs, Korean women's elegant and sweet long ear drops, pearl flower earrings with back hanging. 5. Pearl flower earrings. This pair of earrings is really popular, it has appeared many times and is very beautiful, full of ladylike style, very suitable for going to art films or Korean dramas. I always wear those big earrings, I have never tried this ladylike style before, maybe it's time to try it this time. 925 silver rose fashion ear studs, Korean style elegant and fashionable bride earrings, ear jewelry, ear clips, female accessories. 6. 925 silver rose fashion ear studs. These two flowers are made so lifelike, very full and vibrant. Last time when I went shopping, I also bought a pair of rose earrings, which belong to the same type as this one, they are really beautiful. This is called a red rose and a white rose, now that I have the red rose, I just need the pair of white roses. Taimi Style Korean asymmetric simple ear studs for women, stylish retro earrings, versatile ear jewelry. 7. Asymmetric stylish retro earrings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>大众CC最新价格变化表车型指导价(万元)现价(万元)优惠幅度优惠比例20151.8T双离合尊贵型25.2824.78降0.5万元降1.98%20152.0T双离合尊贵型26.7826.28降0.5万元降1.87%20151.8T 双离合 豪华型 26.88 26.38 降0.5万元 降1.86%2015 2.0T 双离合 豪华型 28.38 27.88 降0.5万元 降1.76%2015 2.0T 双离合 至尊型 30.38 29.88 降0.5万元 降1.65%2015 3.0L V6 FSI 34.28 33.78 降0.5万元 降1.46%2013 1.8T 双离合 尊贵型 25.28 24.78 降0.5万元 降1.98%2013 3.0L V6 FSI 34.28 33.78 降0.5万元 降1.46%莆田地区4S经销商 2015年3月24日行情保养方面：大众CC提供三年或10万公里的质保服务，以先到为准。店内建议每5000公里进行一次保养，根据保养科目不同，费用也不相同。更换机油机滤费用为400元左右，更换机油三滤费用为800元左右。具体价格以店内为准。 大众CC外观 大众CC细节图● 编辑点评：一汽-大众CC车顶的流线感很强，从A柱到后备厢的过渡自然一气呵成，以具有挑逗性的臀线进行收尾，不仅简洁而且柔美的感觉犹存，前脸进行了小手术，车大灯与进气格栅以及雾灯与下进气口都做了一体式设计，外观可以说是让人为之惊艳的。动力方面，一汽-大众CC搭载1.8升和2.0升两款涡轮增压发动机和3.0升自然吸气发动机，配合6速DSG和7速DSG两款变速器。注：汽车市场价格多变，文章内的价格信息为编辑在市场上采集到的当日实时价格，以当日为准。同时此价格是经销商的个体行为，所以文中价格仅供参考。另外，文中图片为车型资料图片，价格信息与图片拍摄地点无关。★ 点击了解莆田车市更多行情信息以上行情资讯是由汽车点评网莆田站为您提供。有意参加团购的网友请加入莆田汽车点评网QQ群：37439249。汽车点评网网友电话或通过汽车点评网团报名均可享受最低团购优惠价格。团购报名咨询热线：18059942239。[经销商名称]:福建奇奇工贸有限公司[经销商地址]:莆田市荔城区西天尾镇城涵西大道南面2068号[经销商电话]:0594-2889928[特别提示] 报上您是“汽车点评网用户”</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Volkswagen CC Latest Price Change Table Model Guide Price (10,000 RMB) Current Price (10,000 RMB) Discount Amount Discount Percentage 2015 1.8T DSG Luxury Model 25.28 24.78 Decrease by 0.5 10,000 RMB Decrease by 1.98% 2015 2.0T DSG Luxury Model 26.78 26.28 Decrease by 0.5 10,000 RMB Decrease by 1.87% 2015 1.8T DSG Deluxe Model 26.88 26.38 Decrease by 0.5 10,000 RMB Decrease by 1.86% 2015 2.0T DSG Deluxe Model 28.38 27.88 Decrease by 0.5 10,000 RMB Decrease by 1.76% 2015 2.0T DSG Supreme Model 30.38 29.88 Decrease by 0.5 10,000 RMB Decrease by 1.65% 2015 3.0L V6 FSI 34.28 33.78 Decrease by 0.5 10,000 RMB Decrease by 1.46% 2013 1.8T DSG Luxury Model 25.28 24.78 Decrease by 0.5 10,000 RMB Decrease by 1.98% 2013 3.0L V6 FSI 34.28 33.78 Decrease by 0.5 10,000 RMB Decrease by 1.46% In Putian area, 4S dealerships Maintenance: Volkswagen CC provides a three-year or 100,000-kilometer warranty service, whichever comes first. It is recommended to have maintenance every 5,000 kilometers at the dealership, with different costs depending on the maintenance items. The cost of changing engine oil and filter is around 400 RMB, and the cost of changing engine oil and three filters is around 800 RMB. Specific prices are subject to the dealership. Volkswagen CC Exterior Volkswagen CC Details ● Editor's Comment: The streamlined feeling of the roof of the FAW-Volkswagen CC is strong, with a natural transition from the A-pillar to the trunk, ending with a teasing hip line, which is not only simple but also retains a soft and beautiful feeling. The front face has undergone minor surgery, with the headlights, grille, fog lights, and lower air intake designed in a unified manner, making the appearance stunning. In terms of power, the FAW-Volkswagen CC is equipped with 1.8-liter and 2.0-liter turbocharged engines and a 3.0-liter naturally aspirated engine, paired with 6-speed DSG and 7-speed DSG transmissions. Note: Prices in the automotive market are subject to change. The price information in the article is the real-time price collected by the editor in the market on that day, subject to the actual day. Also, the prices are individual actions of dealers, so the prices in the article are for reference only. In addition, the pictures in the article are model information pictures, and the price information is not related to the location of the pictures. ★ Click to learn more about the Putian car market information The above market information is provided by the Putian station of Auto Review. Users who are interested in participating in group purchases, please join the Putian Auto Review QQ group: 37439249. Auto Review users can enjoy the lowest group purchase price by phone or group registration through Auto Review. Group purchase registration hotline: 18059942239. [Dealer Name]: Fujian Qiqi Trading Co., Ltd. [Dealer Address]: 2068 South of Chenghan West Avenue, Xitianwei Town, Licheng District, Putian City [Dealer Phone]: 0594-2889928 [Special Note] Please mention that you are a "Auto Review user"</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>一般来说，麻将是四人之间的博弈与对阵。在打牌的过程中，每个牌手都想克敌制胜，这才有看下家，防上家，盯对家的说法和打法。实际上，在实践中一个人要想控制其他三个人，不是件容易的事。真正有效的打法是既要克敌，又要克己。克己是要贯穿牌战始终的事，主要可以从以下几个方面入手：1克制贪心牌战中，贪心是打败战的共性特点。不屑食和，但求自摸，不屑小番，专心大牌，因此而丧失了正常的和牌机会，这都是贪心导致的后果。2克制急燥长时间不和牌，难免心情郁闷，情绪的波动会造成思路不清晰，在思路不清晰的情况下，时常会出错牌，留错牌，听错牌。一错再错，就会显得烦躁不安，这样下去情况会更糟。这时候即使有机会也抓不住，机会成了旁家的。所以，急燥不得。3克制急进越是不和牌，心理上越是急于和牌，这时，不论起手牌质量如何，都选择急进快打。这种时候，打出的牌总是被旁家吃碰杠，自己打出的牌成了旁家的铺路石。麻将经上有两句话，“下家牌好，不要快跑”，因为你跑得快，实际上是在给下家助跑；“牌背打不成，千万别争赢”，当自己牌背的时候，不占优势的时候，要克制自己，在克制的过程中寻找机会，不能已经头破血流了，还要去撞南墙，这未免有点极端冒进。4克制侥幸牌战的胜负，有技巧的成分，也有运气的成分。实战中经常出现这样情况，当牌势旺时，打出的什么牌都不闯祸；当牌势背时，打出一张熟牌也会点炮，打出一张生牌旁家也会杠。侥幸出牌是很多玩家的通病。麻将经上说“点炮有技巧，防大不防小”，这句话也可以理解为是侥幸出牌的底限。当你的牌大，牌好时，不防侥幸一闯，若你牌力不济，千万不能去冒险。总而言之，牌战中，管住别人不如管住自己，管住别人是技巧，管住自己是原则。从实战的意义上说，管住了自己，也就等于间接的管住了别人。 亲朋棋牌是四川本土知名棋牌游戏平台，致力于棋牌游戏研发运营十余载拥有本土语音及地道规则的超级斗地主、定张血战、扯旋、铁甲威龙等PC游戏；还有爽翻打地鼠、爽翻3D捕鱼、爽翻十点半等手游。免费下载游戏每天享受各种福利。亲朋棋牌，四川人自己的棋牌游戏平台。公众号完善中，亲们不急哈，到时每天给您们送！送！送！长按二维码一键识别关注</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Generally speaking, mahjong is a game and confrontation among four people. During the card game, each player wants to defeat the opponents, hence the sayings and strategies of observing the next player, guarding against the previous player, and focusing on the opposite player. In practice, it is not easy for one person to control the other three. The truly effective strategy is to both defeat the opponents and control oneself. Self-control is something that should be maintained throughout the game, and can mainly be approached from the following aspects: 1. Restraining greedy gameplay - Greediness is a common characteristic of losing battles. Disregarding small wins, only aiming for self-drawn wins, ignoring small scoring hands and focusing only on big hands, which leads to missing normal opportunities to win, all these are consequences of greediness. 2. Restraining impatience - Prolonged periods without winning can lead to frustration, and emotional fluctuations can result in unclear thinking, leading to making mistakes, discarding the wrong tiles, and misjudging the tiles. Making repeated mistakes can make one feel restless and anxious, worsening the situation. Even if there are opportunities, they cannot be seized, as the opportunities become the opponents'. Therefore, impatience should be avoided. 3. Restraining hastiness - The longer one goes without winning, the more eager they become to win, regardless of the quality of the starting hand, they choose to play hastily. In such situations, the tiles played are always taken by the opponents, and one's tiles become stepping stones for the opponents. There are two sayings in mahjong, "If the next player has good tiles, don't rush," because by rushing, you are actually helping the next player; "If your tiles are not suitable, never fight for a win," when your tiles are not advantageous, you should restrain yourself, search for opportunities during the restraint, and not rush into extreme actions. 4. Restraining luck-based gameplay outcomes - Winning or losing in mahjong involves both skill and luck. In actual games, situations often arise where when the tiles are favorable, no move leads to trouble; when the tiles are unfavorable, even playing a familiar tile can result in losing, and playing a new tile can lead to the opponents making a winning move. Relying on luck is a common problem for many players. In mahjong, it is said, "There is skill in avoiding losing, not just in winning," which can also be understood as the bottom line of relying on luck. When your tiles are strong and favorable, there is no need to worry about relying on luck, but if your tiles are weak, you should not take risks. In conclusion, in a game of mahjong, controlling oneself is more important than controlling others. Controlling others requires skill, while controlling oneself is a principle. From the perspective of practical gameplay, by controlling oneself, indirectly, one also controls others. Qinpeng Chess and Cards is a well-known local chess and card game platform in Sichuan, dedicated to the research and operation of chess and card games for more than a decade, offering local voice and authentic rules of games such as Super Landlord, Ding Zhang Blood Battle, Che Xuan, and Iron Armor Dragon on PC; as well as mobile games like Whack-a-Mole, Whack-a-Mole 3D Fishing, and Whack-a-Mole Twenty-One. Download games for free and enjoy various benefits every day. Qinpeng Chess and Cards, Sichuan's own chess and card game platform. The public account is being improved, so don't worry, we will bring you daily updates! Scan the QR code to follow us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>西楚网讯截至昨天，包裹在邮寄过程中破损、部分丢失的赵先生仍未收到中通快递的反馈。14日，他通过中通快递寄出一款全新超人玩偶、一张全球限量版海报及限量认证书。当天，赵先生发现收件快递员在朋友圈晒出多张疑似其玩偶的照片。16日，快件寄达后海报及海报认证书丢失，损失过万元。中通方面称，目前仍在对此事调查核实。 涉事快递员在朋友圈晒其与超人玩偶合影昨天，市民赵先生告诉京华时报记者，14日下午5点左右，他通过中通快递自北京朝阳区向河南洛阳的王先生发了一个快件，快件包括一款全新的超人玩偶、一张全球限量的签名版海报及海报认证书。“超人玩偶价值1250元左右，海报为全球限量版，上面有《变形金刚4》全体主演的亲笔签名。该海报以1999美元买进，还花了66美元的运费，目前在网上的售价达到了1万多元，还有升值空间。”赵先生称，他将玩偶盒子连同海报、认证书放在一个塑料袋里，用胶带封口后放在一个牛皮纸箱子里交给了上门取件的中通快递员。赵先生说，因为曾经一个快件问题需要沟通，他加了这个快递员的微信。当晚他在浏览朋友圈时发现，该快递员发布了多张人偶的照片，其中还有一张身穿中通工作服的工作人员与超人玩偶的合影，“照片中的人应该就是那个收件的快递员。”随后，赵先生给该快递员留言质疑其拆包裹的行为，但留言后，他被对方删除了好友。收件人王先生告诉记者，14日晚，赵先生告知此事后，他当即给快递员和网点打电话催促对方发件。16日，他收到快递后当场检查包裹，发现玩具外包装盒被破坏、海报和认证书均已丢失，“我打开盒子发现超人人偶头部、手部、腿部的封带都被人动过。”王先生当即拒收该包裹并向中通投诉。客服称，中通总部已介入，责令中通北京上朝阳网点于19日下午5点前给其回复。但截至发稿前，王先生仍未收到相关反馈。王先生说，他希望对方赔付全新的超人玩偶，并将海报及认证书原样送还。昨天，中通快递相关负责人在接受记者采访时表示，公司的客服、安监、收发网点等部门正在进一步通过调看监控、当事人对证、收发流程核实等途径多方取证，目前事实还有待查证、责任方尚待确认。一旦调查清楚、准确后，公司相关部门将根据事实，并按公司规定进行公平、公正处理。律师说法北京雄志律师事务所姜健律师表示，我国相关法律规定，快件发生延误、丢失、损毁和内件不符的，经营快递业务的企业应当按照与用户的约定，依法予以赔偿。</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Xichu News: As of yesterday, Mr. Zhao, whose parcel was damaged and partially lost during the mailing process, has not yet received any feedback from ZTO Express. On the 14th, he sent a new Superman doll, a limited edition global poster, and a limited edition certificate through ZTO Express. That day, Mr. Zhao found that the courier who delivered the package posted several photos on his Moments that seemed to be of his doll. On the 16th, after the package arrived, the poster and certificate were missing, resulting in a loss of over ten thousand yuan. ZTO stated that they are currently investigating and verifying the incident. The courier involved posted photos of himself with the Superman doll on his Moments. Yesterday, Mr. Zhao told a reporter from Beijing Times that around 5 p.m. on the 14th, he sent a package through ZTO Express from Beijing Chaoyang District to Mr. Wang in Luoyang, Henan. The package included a new Superman doll, a global limited edition signed poster, and a certificate. "The Superman doll is worth around 1250 yuan, and the poster is a global limited edition with autographs of all the main actors from 'Transformers 4'. I bought the poster for $1999 and paid $66 for shipping. Currently, its online selling price has reached over 10,000 yuan, with potential for appreciation." Mr. Zhao said he put the doll box, along with the poster and certificate, in a plastic bag, sealed it with tape, and placed it in a kraft paper box handed over to the ZTO courier who came to pick it up. Mr. Zhao said that because he had a previous issue with a package that required communication, he added the courier on WeChat. That evening, while browsing Moments, he found that the courier had posted multiple photos of dolls, including one with a staff member wearing a ZTO uniform posing with the Superman doll. "The person in the photos should be the courier who received the package." Subsequently, Mr. Zhao questioned the courier's behavior of opening the package through a message, but after leaving the message, he was deleted by the courier. The recipient, Mr. Wang, said that on the evening of the 14th, after being informed by Mr. Zhao, he immediately called the courier and the branch to urge them to deliver the package. On the 16th, upon receiving the package, he inspected it on the spot and found that the toy's outer packaging was damaged, and the poster and certificate were missing. "When I opened the box, I found that the seals on the head, hands, and legs of the Superman doll had been tampered with." Mr. Wang immediately refused to accept the package and lodged a complaint with ZTO. Customer service stated that ZTO headquarters had intervened and instructed the ZTO Beijing Chaoyang branch to reply by 5 p.m. on the 19th. However, as of the time of writing, Mr. Wang had not received any relevant feedback. He expressed his hope that the other party would compensate for the new Superman doll and return the poster and certificate intact. Yesterday, a responsible person from ZTO Express, in an interview with a reporter, stated that the company's customer service, safety supervision, and sending and receiving branches are further collecting evidence through methods such as reviewing surveillance footage, obtaining statements from the parties involved, and verifying the sending and receiving processes. Currently, the facts are still to be verified, and the responsible party is yet to be confirmed. Once the investigation is clear and accurate, the relevant departments of the company will handle it fairly and justly according to company regulations. Lawyer's Opinion: Lawyer Jiang Jian from Beijing Xiong Zhi Law Firm stated that according to relevant laws in our country, if a parcel is delayed, lost, damaged, or the contents are not as agreed, the company operating the express delivery business shall compensate the user in accordance with the agreement and the law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>人民网讯10月26日，2016产业中国年会将于北京国贸大饭店举行，本次年会的主题为“产业源动力：全球协同与中国创新”。年会将聚焦于探索如何通过创新引领中国产业升级，为中国在经济转型阶段提供思路与建议。当前，随着我国经济发展进入新常态，以及印度、越南等新兴经济体对我国低成本竞争优势的替代和欧美发达国家“再工业化”战略的实施，客观上已形成了对我国制造业“两头挤压”的局面。在国际发展竞争日趋激烈和我国发展动力转换的新阶段，如何通过创新，推动产业发展实现由粗放型向集约型的转变；如何通过产业调整升级，实现由价值链中低端向中高端的转变；如何充分调动全要素生产率，为经济可持续发展和迈上更高的台阶提供新动力，都是中国当前亟需解决的问题。产业中国年会正是基于这样的背景出发，汇聚行业内众多权威人士，对此一宏观产业大势进行深度研判，从行业角度共话不断创新过程中的中国产业发展，为产业构建成为中国新经济增长的中流砥柱，筹谋献计、贡献力量。本次年会邀请到了美国硅谷的资深投资家阿伦·拉奥，他将以“创新未来”为题发表主旨演讲。阿伦·拉奥长期从事投资业务，早期曾为多家知名的商业刊物撰写商业和金融方面的文章，并在近期出版《硅谷百年史——伟大的科技创新与创业历程(1900-2013)》，详尽地记述了硅谷在100多年中所发生的重大科技事件，对美国的科技创新、产业升级有独到的观察和见解。清华大学经济管理学院Freeman经济学讲席教授李稻葵将在年会中从科技创新与经济发展的角度进行主旨演讲。华夏幸福基业股份有限公司执行总裁、产业发展集团总裁赵威将致开幕词。《财经》杂志执行主编、《哈佛商业评论》中文版主编何刚将担纲“大师对话”环节主持人，与阿伦·拉奥、李稻葵就“产业创新的多重路径”为题展开对话。当天下午，年会将并行举办4个分论坛，分论坛主题分别为：从创新源点构建产业链条；出行革命：电动化、智能化和共享化；后摩尔时代，中国芯机遇；2016人工智能青年创新峰会。此外，年会还将设立领袖论坛环节，探讨在经济变革转型的浪潮中，谁将引领新经济风口，谁能抓住新经济风口的机遇，谁又能把握新投资趋势。</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>People's Daily News: The 2016 Industrial China Annual Conference will be held at the Beijing Grand Hotel on October 26th. The theme of this year's conference is "Industrial Source Power: Global Collaboration and Chinese Innovation." The conference will focus on exploring how to lead China's industrial upgrading through innovation, providing ideas and suggestions for China in the stage of economic transformation. Currently, as China's economic development enters a new normal, and with emerging economies such as India and Vietnam replacing China's low-cost competitive advantage and the implementation of the "re-industrialization" strategy in developed countries in Europe and America, objectively, a situation of "squeezing at both ends" of China's manufacturing industry has been formed. In the face of increasingly fierce international development competition and the new stage of China's development momentum transformation, how to promote the transformation of industrial development from extensive to intensive through innovation; how to achieve the transformation from the low end to the high end of the value chain through industrial adjustment and upgrading; how to fully mobilize all factors of production to provide new impetus for sustainable economic development and reaching higher levels are all urgent issues that China needs to address. The Industrial China Annual Conference is based on this background, bringing together many authoritative figures in the industry to deeply analyze the macro-industrial trend, discuss the development of China's industry in the process of continuous innovation from an industry perspective, and build the industry into a pillar of China's new economic growth, contributing ideas and efforts. The conference has invited Allen Rao, a senior investor from Silicon Valley in the United States, to deliver a keynote speech on "Innovating the Future." Allen Rao has been engaged in investment business for a long time, and he has written articles on business and finance for several well-known business publications in the past. He recently published "A Century of Silicon Valley - The Great Technological Innovation and Entrepreneurial Journey (1900-2013)," detailing the major technological events that have occurred in Silicon Valley over more than 100 years, providing unique observations and insights on technological innovation and industrial upgrading in the United States. Li Daokui, Freeman Chair Professor of Economics at Tsinghua University School of Economics and Management, will deliver a keynote speech at the conference from the perspective of technological innovation and economic development. Zhao Wei, Executive Director of Huaxia Happiness Foundation Co., Ltd. and President of the Industrial Development Group, will deliver the opening speech. He Gang, Executive Editor-in-Chief of "Caijing" magazine and Editor-in-Chief of the Chinese version of "Harvard Business Review," will host the "Master Dialogue" session, engaging in a dialogue with Allen Rao and Li Daokui on the topic of "Multiple Paths of Industrial Innovation." In the afternoon, the conference will hold four parallel forums with the following themes: Building the Industrial Chain from the Innovation Source; Travel Revolution: Electrification, Intelligence, and Sharing; Post-Moore Era, China's Chip Opportunities; 2016 Artificial Intelligence Youth Innovation Summit. In addition, the conference will also set up a Leaders Forum section to discuss who will lead the new economic trend in the wave of economic transformation, who can seize the opportunities of the new economic trend, and who can grasp the new investment trends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>step1：在中国银行办理首笔分账核算业务完成了首个自由贸易账户开户step2：交易资金通过企业一般账户划入其FT账户并通过中国银行进行区内平盘兑换为美元后汇往南美智利step3：顺利完成境外项目投资启动资金的落地这一业务不仅走通了资金从境内区外－区内－境外这一流程，并且产生了自贸区内汇率市场的第一笔报价，这个价格非常接近离岸汇率的价格。未来有可能会形成一个新的汇率市场，企业就有机会选择在岸市场兑换、离岸市场兑换或者在自贸区内兑换，这为下一步改革提供了新的载体step1：在工商银行办理首笔分账核算业务完成了首个自由贸易账户开户step2：通过其在工商银行的分账核算单元从新加坡拆入1亿元人民币贸易融资step3：随即购汇汇出向境外支付燃油款目前境内融资成本在6．5％左右，境外人民币借款利率则控制在4．5％甚至4％以内。</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Step 1: The first separate accounting operation was completed at Bank of China, marking the opening of the first free trade account. Step 2: The trading funds were transferred from the company's general account to its FT account, then converted into US dollars through Bank of China for onshore settlement before being remitted to Chile in South America. Step 3: The landing of the initial capital for overseas project investment was successfully completed. This operation not only established the flow of funds from onshore to offshore to onshore, but also generated the first quotation in the onshore exchange rate market in the free trade zone, which closely resembled the offshore exchange rate. In the future, a new exchange rate market may emerge, giving companies the option to exchange in the onshore market, offshore market, or within the free trade zone, providing a new platform for future reforms. Step 1: The first separate accounting operation was completed at Industrial and Commercial Bank of China, marking the opening of the first free trade account. Step 2: RMB 100 million in trade financing was obtained through the separate accounting unit at Industrial and Commercial Bank of China in Singapore. Step 3: Immediately after purchasing foreign exchange, the funds were remitted overseas to pay for fuel. Currently, domestic financing costs are around 6.5%, while the interest rate for offshore RMB loans is kept at 4.5% or even lower, possibly within 4%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>七分洗三分养，洁面真的很重要！对于女性的肌肤而言洁面的重要性有时重于后期护理，但是往往我们面对这个最重要却最容易忽视的一个美容黄金程序表现出的都零智慧零经验！我们常以为洁面产品停留久一点就会更有效，如果是针对油性肤质，顶多在出油部位加强按摩30-60秒钟，超过一分钟以上的时间，会让肌肤过干，反而导致肌肤代偿性出油，形成干燥型油性肌肤。另外就是过渡用高温度水清洁就能最干净！热水的确有较好的清洁效果，在寒冷冬季，应使用温水和冷水交替洗脸，用热水洗脸虽舒服，但会导致肌肤过干，热水将会抽起肌肤内含的水分。最后就是频繁清洁就可将问题肌肤解决，我常听有人道频繁清洁可解决油性、痤疮，黑头等问题，其实适得其反，洁面产品只能清洁皮肤表层的污垢、油脂，以上这些问题则必须依靠毛孔的深层清洁才能缓解改善，如果单靠清洁洗脸是远远不够的，频繁清洁不但会加剧肌肤的干燥，还会加剧问题肌肤的严重性！所以对于皮肤而言很多时候清洁正确好过于细心保养，只有地基清洁做好，保养的楼层才能稳固在青春的面容上！在保证清洁干净并保持肌肤的健康度，从个人而言还是推荐含有氨基酸成份的清洁产品，氨基酸洗面是所有洗面中最亲肤温和的洗面。其最大的特点就是高效清洁的同时，温和亲肤，低刺激，小孩和敏感肌肤都可以使用。传统的洗面奶注重的都是高效清洁、去黑头、去油等，却忽略了产品本身对肌肤的刺激。传统洗面奶为了提高清洁力及去油能力，加入了碱性极强的活性剂、发泡剂、皂基等成分，而人体的皮肤却是处于弱酸性的，长时间使用会刺激皮肤。更严重的是，皮肤的皮脂膜也会被破坏。一旦失去皮脂膜，皮肤很容易受到外界伤害。所以氨基酸成份洁面采用的则是弱酸性的氨基酸类表面活性剂，PH值与人体肌肤接近，加上氨基酸是构成蛋白质的基本物质，所以温和亲肤，耐受力敏感肌肤使用都会有很好效果！</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Seven parts cleansing and three parts nurturing, cleansing is really important for the skin! For women's skin, the importance of cleansing is sometimes more important than later care. However, we often show zero wisdom and zero experience when facing this most important but easily overlooked beauty golden procedure! We often think that leaving the cleansing product on longer will be more effective. If it is for oily skin, at most, strengthen the massage in oily areas for 30-60 seconds. Beyond one minute, it will make the skin too dry, leading to compensatory oil secretion, forming dry oily skin. Another point is that excessively using hot water for cleansing can make it the cleanest! Hot water indeed has a better cleansing effect. In cold winters, one should use warm water and cold water alternately to wash the face. Although washing the face with hot water is comfortable, it can make the skin too dry, as hot water will draw out the moisture from the skin. Lastly, frequent cleansing can solve problematic skin. I often hear people say that frequent cleansing can solve oily, acne, blackhead, and other issues. In fact, it is the opposite. Cleansing products can only clean the dirt and oil on the surface of the skin. These issues must rely on deep pore cleansing to alleviate and improve. Relying solely on cleansing the face is far from enough. Frequent cleansing not only exacerbates skin dryness but also worsens the severity of problematic skin! Therefore, for the skin, many times, proper cleansing is more important than meticulous care. Only when the foundation of cleansing is done well can the maintenance of the skin be stable on the youthful face! To ensure clean and healthy skin, personally, I recommend cleansing products containing amino acid ingredients. Amino acid facial cleanser is the most skin-friendly and gentle among all facial cleansers. Its biggest feature is that it cleans efficiently while being gentle and skin-friendly, low in irritation, suitable for children and sensitive skin. Traditional facial cleansers focus on efficient cleansing, removing blackheads, and oil, but they overlook the stimulation of the product itself on the skin. Traditional facial cleansers add highly alkaline surfactants, foaming agents, soap bases, and other ingredients to enhance cleansing and oil removal abilities, while the human skin is weakly acidic. Prolonged use can irritate the skin. More seriously, the skin's sebum film will also be damaged. Once the sebum film is lost, the skin is easily damaged by external factors. Therefore, amino acid-based cleansers use weakly acidic amino acid surfactants, with a pH value close to human skin, and amino acids are the basic substances that make up proteins. Therefore, it is gentle and skin-friendly, suitable for sensitive skin, and will have good effects!</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 省文明办副主任郭锦诗为宣传部干部集中授课中国兰州网3月27日讯(记者丁小岚实习记者赵兴华)3月27日，兰州市委宣传部特邀省文明办副主任郭锦诗为宣传部干部们做专题讲座，郭锦诗以‘四个全面’为引题，就如何锲而不舍抓好社会主义精神文明建设做出了全面深入的讲授。会上，郭锦诗对兰州市的精神文明创建过程做了简单介绍。他结合实际，用通俗易懂的语言对精神文明建设的学习进行讲授，并用三句话来深入解释社会主义精神文明建设的重要性。 宣传部干部认真聆听讲座 兰州市委宣传部召开干部专题学习会议 会议现场“精神文明是在人的头脑里搞建设”，郭锦诗提出，首先要认清形势，了解“四个越来越高”，即中央和省委对精神文明建设工作的要求越来越高、社会和人民群众对精神文明建设工作的期望越来越高、全社会开展精神文明创建的积极性越来越高、精神文明建设的科学化水平越来越高。其次是抓住主线，这个主线就是“用习近平总书记关于精神文明建设的重要论述统一思想和行动”。最后要突出根本和明确任务，突出根本就是要培育和践行社会主义核心价值观，明确任务就是要明确广泛组织开展“德润陇原”道德宣传教育活动、大力开展“做文明有礼的甘肃人”主题实践活动、深化拓展群众性精神文明创建工作、广泛开展学雷锋志愿服务活动、大力加强未成年人思想道德建设工作、深入开展“我们的节日”主题活动、大力加强文明网站建设这七项任务。郭锦诗围绕精神文明建设面临的形势、面对的几项挑战以及标准高、任务重、时间长、牵涉广和竞争大的问题深入剖析了文明城市创建“检查的是环境，扣的是道德的分”这句话。就“锲而不舍、以一贯之”，“持之以恒、积久为功”这句话，郭锦诗指出，精神文明建设有其特殊的规律，急了不行、慢了也不行，暴风骤雨不行、抓抓停停也不行，关键要在“常”、“长”二字上下功夫，就是常态化、长期抓。要接地气，坚持精神文明创建工作的群众性；树典型，坚持发挥典型的示范带动作用；造舆论，坚持营造良好的社会氛围；求创新，坚持保持创建工作的生机和活力。最后，郭锦诗对干部们提出要求，要共同努力做好社会主义精神文明建设，省文明办也将全力支持兰州市创建全国文明城市工作。</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Guo Jinshi, Deputy Director of the Provincial Civilization Office, gave a centralized lecture to the cadres of the Propaganda Department of the province on March 27th, according to the news from Lanzhou Net on March 27th (Reporter Ding Xiaolan, Intern Reporter Zhao Xinghua). On March 27th, the Propaganda Department of the Lanzhou Municipal Party Committee specially invited Guo Jinshi, Deputy Director of the Provincial Civilization Office, to give a special lecture to the cadres of the Propaganda Department. Guo Jinshi took "comprehensively promote the 'Four Comprehensives'" as the theme, and provided a comprehensive and in-depth teaching on how to persistently promote the construction of socialist spiritual civilization. During the meeting, Guo Jinshi briefly introduced the process of spiritual civilization construction in Lanzhou. He combined theory with practice, using simple and easy-to-understand language to teach about spiritual civilization construction, and explained the importance of socialist spiritual civilization construction in three sentences. The cadres of the Propaganda Department listened attentively to the lecture. The Lanzhou Municipal Party Committee's Propaganda Department held a special study meeting for cadres. At the meeting, Guo Jinshi proposed that "spiritual civilization is built in people's minds," emphasizing the need to first recognize the situation and understand that the requirements for spiritual civilization construction from the central and provincial committees are increasing, the expectations of society and the people for spiritual civilization construction are rising, the enthusiasm of the whole society for promoting spiritual civilization is increasing, and the level of scientific spiritual civilization construction is also increasing. Secondly, it is crucial to grasp the main line, which is to "unify thinking and actions with General Secretary Xi Jinping's important expositions on spiritual civilization construction." Finally, it is important to highlight the fundamental aspects and clarify the tasks. The fundamental aspect is to nurture and practice the core socialist values, and the specific tasks include organizing and carrying out activities such as moral propaganda and education under the theme of "Cultivating Morality in Gansu," vigorously promoting the theme practice of "Being Civilized and Polite Gansu People," deepening and expanding mass spiritual civilization construction work, widely promoting Lei Feng volunteer service activities, strengthening ideological and moral education for minors, carrying out "Our Festival" themed activities, and vigorously strengthening the construction of civilized websites. Guo Jinshi deeply analyzed the challenges faced by spiritual civilization construction, emphasizing the high standards, heavy tasks, long duration, wide scope, and intense competition involved in the creation of a civilized city, and pointed out that "the inspection of a civilized city focuses on the environment and evaluates moral standards." Regarding the principles of "persistence and consistency" and "perseverance leads to success over time," Guo Jinshi pointed out that spiritual civilization construction follows its own unique rules, where being too hasty or too slow, experiencing sudden storms or starting and stopping abruptly are not effective. The key is to focus on the words "regular" and "long-term," emphasizing the need for normalization and long-term efforts. It is necessary to stay grounded, adhere to the mass nature of spiritual civilization construction work, set examples, demonstrate the exemplary role of typical cases, shape public opinion, create a positive social atmosphere, seek innovation, and maintain the vitality and dynamism of the creation work. Finally, Guo Jinshi made requirements for the cadres, urging them to work together to do well in the construction of socialist spiritual civilization, and the Provincial Civilization Office will fully support the work of creating a national civilized city in Lanzhou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>促销时间：2015.4.6-2015.4.12日前，搜狐汽车大连编辑从大连市别克经销商(大连浩博汽车销售服务有限公司)处了解到，店内别克昂科拉火热开售，购昂科拉部分车款优惠2.9万元，现车充足。感兴趣的朋友可致电咨询详情，搜狐网友可获更多优惠，免费电话400-860-2956。具体车型优惠政策如下：别克昂科拉 厂商指导价 直降 现价 现车情况 询价1.4T 自动四驱全能旗舰型 19.69万 ↓2.3万 17.39万 现车充足1.4T 自动两驱都市领先型 17.89万 ↓2.9万 14.99万 现车充足1.4T 手动两驱都市运动型 16.99万 ↓2.39万 14.6万 现车充足1.4T 自动两驱都市精英型 15.99万 ↓2.39万 13.6万 现车充足1.4T 手动两驱都市进取型 14.99万 ↓2.39万 12.6万 现车充足致电商家，获取更多优惠信息！ 免费电话：400-860-2956制表：搜狐汽车大连站查看更多降价信息请进 降价栏目首页 别克昂科拉 外观方面：2015款车型车身颜色增加了电光蓝选择；都市运动型、都市领先型和四驱全能旗舰型三款中高配车型则增加燕尾黑和爱琴海蓝全新内饰配色方案，并标配Alcantara绒面运动座椅；都市精英型增加燕尾黑和玫瑰红立体烈焰纹座椅内饰。动力方面：2015款昂科拉搭载的Ecotec 1.4L涡轮增压发动机增加了发动机启停功能，自动挡车型还换装通用全新的6速DSS智能启停变速箱，采用全新离合器片材质、全新油泵和变速箱壳体设计，配备蓄能器，支持发动机启停功能。此外，都市领先型和四驱全能旗舰型还新增了发动机远程启动功能。据官方信息显示，2015款昂科拉百公里综合路况油耗手动挡车型下降0.1L至6.8L/100km，自动挡车型下降0.3L至7.3L/100km。此外，都市领先型和四驱全能旗舰型还新增了发动机远程启动功能。编辑建议：昂科拉无论是在舒适配置还是做工亦或是安全配置方面的表现都可圈可点。 虽然价格还是需要考虑一下，但喜爱它的朋友自会做出自己的选择。 搜狐大连车友会QQ群：220870924温馨提示：提及搜狐汽车，您将享受更优质的服务。声明：此价格为经销商个体行为，不代表全部经销商。由于市场价格变化多端，文中所报价格仅供当日参考。本文系搜狐汽车稿件，转载请注明出处。</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Promotion period: Before April 12, 2015, the Sohu Auto Dalian editor learned from the Buick dealer in Dalian (Dalian Haobo Automobile Sales Service Co., Ltd.) that the Buick Encore is now on hot sale, with a discount of 29,000 yuan on some models, and sufficient stock available. Interested friends can call for more details, Sohu users can enjoy more discounts, toll-free number 400-860-2956. Specific models and discount policies are as follows: Buick Encore Manufacturer's Suggested Retail Price Discounted Price Current Price Stock Inquiry 1.4T Automatic Four-wheel Drive Flagship Model 196,900 yuan ↓23,000 yuan 173,900 yuan Sufficient Stock 1.4T Automatic Two-wheel Drive Urban Leading Model 178,900 yuan ↓29,000 yuan 149,900 yuan Sufficient Stock 1.4T Manual Two-wheel Drive Urban Sport Model 169,900 yuan ↓23,900 yuan 146,000 yuan Sufficient Stock 1.4T Automatic Two-wheel Drive Urban Elite Model 159,900 yuan ↓23,900 yuan 136,000 yuan Sufficient Stock 1.4T Manual Two-wheel Drive Urban Enterprising Model 149,900 yuan ↓23,900 yuan 126,000 yuan Sufficient Stock Call the dealer for more discount information! Toll-free number: 400-860-2956 Table by: Sohu Auto Dalian Station For more price reduction information, please visit the Price Reduction section homepage of Buick Encore. In terms of appearance: The 2015 model has added the option of Electric Blue for the body color; the Urban Sport, Urban Leading, and Four-wheel Drive Flagship models have added new interior color schemes of Swallowtail Black and Aegean Blue, and come standard with Alcantara suede sport seats; the Urban Elite model has added Swallowtail Black and Rose Red three-dimensional flame pattern seat interior. In terms of power: The 2015 Encore is equipped with the Ecotec 1.4L turbocharged engine, which now has engine start-stop function. The automatic transmission models are also equipped with a new 6-speed DSS intelligent start-stop gearbox from General Motors, with new clutch plate material, new oil pump, gearbox housing design, and equipped with an accumulator to support engine start-stop function. In addition, the Urban Leading and Four-wheel Drive Flagship models also have added engine remote start function. According to official information, the fuel consumption of the 2015 Encore in comprehensive road conditions has decreased by 0.1L to 6.8L/100km for manual transmission models, and by 0.3L to 7.3L/100km for automatic transmission models. In addition, the Urban Leading and Four-wheel Drive Flagship models also have added engine remote start function. Editor's suggestion: The Encore performs well in terms of comfort, workmanship, and safety features. Although the price still needs to be considered, friends who love it will make their own choices. Sohu Dalian Car Enthusiasts QQ Group: 220870924 Friendly reminder: Mentioning Sohu Auto, you will enjoy better service. Statement: This price is the individual behavior of the dealer and does not represent all dealers. Due to the ever-changing market prices, the prices reported in this article are for reference only on the day of publication. This article is a Sohu Auto manuscript, please indicate the source when reprinting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 分享简述在供应链/价值链改善和设计中，链上企业如何根据产品特性、生产特点、自身情况以及市场走向来合理制定适当生产模式，以达到：1）既可满足客户需求，如：缩短客户订单交货期；2）同时又使企业付出合理的最小代价，如：库存得以有效控制的双赢目的？此次分享为您抛砖引玉。分享提纲General Concepts / 价值链概念Challenge of Value chain /价值链面临的挑战Operation models on Value Chain /基于价值链的生产运营模式Inventory control based on manufacturing model /基于运营模式的库存控制Case study /案例分享 SCOR-P工业工程管理博士卓越运营系列Master培训师ABB全球业务部北亚区高级咨询顾问丰富的卓越运营和供应链改善实践和培训经验专注于供应链优化、精益生产管理、白领流程管理及各类流程优化的培训与咨询 SCP-APICS滚动课程表 scp-apics 最新课程表安排可以回复数字“1”查看，更多课程详情，可回复相应关键字查找。如有任何疑问，请随时与我们联系。</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Share a brief overview of how upstream enterprises in supply chain/value chain improvement and design can reasonably formulate appropriate production models based on product characteristics, production features, their own situation, and market trends to achieve the following goals: 1) meet customer demands, such as shortening customer order delivery times; 2) simultaneously ensure that the enterprise incurs the minimum reasonable cost, such as achieving a win-win situation with effective inventory control. This sharing is just a starting point for further discussion. Outline of the sharing: General Concepts / Value Chain Concept Challenge of Value chain Operation models on Value Chain Inventory control based on manufacturing model Case study SCOR-P Industrial Engineering Management Doctoral Excellence Operations Series Master Trainer ABB Global Business Unit Senior Consultant in North Asia Rich experience in excellent operations and supply chain improvement practices and training Focus on supply chain optimization, lean production management, white-collar process management, and various process optimization training and consulting SCP-APICS Rolling Course Schedule scp-apics The latest course schedule can be viewed by replying with the number "1". For more course details, you can reply with the corresponding keywords to search. If you have any questions, please feel free to contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>青岛即将迎来新的一波冷空气最低降到7℃！ 数据来源天气app，仅供参考！最重要的是：青岛未来六天都是阴天时有阵雨的天气至于心心念念的周末恐怕又要泡汤了再来看一眼未来几天的天气▼ ▲ 青岛气象局发布你以为这就会害怕吗？图样图森破！最可怕的是↓↓↓秋裤还没准备好呐！ 如果你还坚持，“春捂秋冻”不肯加衣服，那么...这周末就会有你好看！本周日还将迎来霜降节气▼ 霜降是秋季的最后一个节气霜降一过就意味着冬天即将开始有一种思念叫“望穿秋水”有一种寒冷叫：忘穿秋裤”天冷了，你妈逼你穿秋裤了吗? 温馨提示▼距离供暖还有26天降温了，青岛的小伙伴们记得多穿衣服哦~！青 岛 大 事 件商业合作请加微信/qq：101152713▼▼▼点击阅读原文，查看更多精彩文章！</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Qingdao is about to usher in a new wave of cold air, with the lowest temperature dropping to 7°C! Data source is a weather app, for reference only! The most important thing is: Qingdao will be cloudy with showers for the next six days. As for the long-awaited weekend, it seems it will be ruined again. Let's take a look at the weather for the next few days ▼ ▲ Qingdao Meteorological Bureau released, do you think this will make you scared? The pattern is broken! The scariest thing is ↓↓↓ the long johns are not ready yet! If you still insist on not adding clothes despite the saying "keep warm in spring and cool in autumn," then... you will regret it this weekend! This Sunday will also welcome the Frost's Descent solar term ▼ Frost's Descent is the last solar term of autumn. Once Frost's Descent is over, it means winter is about to begin. There is a kind of yearning called "longing for the autumn water," and a kind of coldness called "forgetting to wear long johns." When it gets cold, does your mom force you to wear long johns? Friendly reminder ▼ There are 26 days left until heating starts. As the temperature drops, Qingdao friends, remember to wear more clothes~! For business cooperation in Qingdao, please add WeChat/qq: 101152713 ▼▼▼ Click to read the original article for more exciting content!</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>精彩内容，点这好内容还看“重庆妈妈网”冰箱用久了，总会结上一层厚厚的冰霜朗格解决？ 其实只需要这样东西就可以立马消除冰块啦~~ 除冰小技巧 所需工具：干抹布、热水、水盆、再加上冰箱自带的冰铲即可。01首先要拔掉冰箱插头，切断电源保证操作安全。 02清空冰箱，将食物移出冰箱，一些冷冻的食物我们可以集中放置在一起，这样有利于短时间之内保温。 03在冰箱中放上一碗热水（60摄氏度左右，在冰箱的底部最好垫一条吸水性较好的毛巾） 大约几分钟之后，在蒸汽的作用下霜层很快会化掉，较厚的霜层等软化后用除霜铲很容易去掉 在用蒸汽化霜时，如果霜层太厚，可以选择多用几盆热水一起进行，每层都放上一盆热水，化霜的速度会快很多 冰箱中的冰块就会大量融化、脱落 注意 1.使用金属制的水盆一定要在底部放一块布，防止温度太高损坏冰箱箱体。 2.在除霜和冰箱表面清洁都完成后，要用抹布将冰箱内部擦干 3.清洁完稍微放置20分钟左右再插电运行，这样可以避免因为冰箱内部有水接触到电路板而导致触电，同时也可以避免内部的水在通电后再次结冰 预防小技巧 要想让冰箱结冰情况不那么严重，可要做好预防工作，不然每次这么去冰也是麻烦呀~~01在放入冷冻食物之前，将冷冻室壁敷上一层塑料薄膜，当需要除霜时，把已冷冻的食物迅速移入冷藏室暂存，只要撕下冷冻室的塑料薄膜，也就很快除了霜，再把抖干净的薄膜敷上，便又可继续冷冻食物了。 02在每次除完霜之后，用毛巾把冷冻室擦干，之后在四周铝壁上涂一层植物油待下次结霜时，因附着于含油成分的冰箱壁，霜与冰箱壁之间的吸力大大降低，所以大家不必费多少力气，就可以轻松剥离结块。 03经常检查冰箱门封条是否密封。它会热冷交换产生对流、这也就生成水分。04不要放置没有冷却透的食物。因食物遇冷要放出潜热、而热会放出水分，所以冰箱易结冰。 05最好把要放置的食物用保鲜袋包好，这样可以锁住一部分水分。 06不要放置过多的食物，食物越多水分也越多。</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Exciting content, click here to see more great content on "Chongqing Mommy Website". When the refrigerator is used for a long time, it will always accumulate a thick layer of frost. How to solve it? In fact, you only need these things to immediately eliminate the ice! Defrosting tips: Tools needed: dry cloth, hot water, water basin, and the refrigerator's own ice shovel. 01 First, unplug the refrigerator plug and cut off the power to ensure safety during operation. 02 Empty the refrigerator, remove the food from the refrigerator, and gather some frozen food together, which is conducive to maintaining warmth for a short period of time. 03 Place a bowl of hot water in the refrigerator (around 60 degrees Celsius, it is best to place a towel with good water absorption at the bottom of the refrigerator). After a few minutes, the frost layer will quickly melt under the action of steam. Thicker frost layers can be easily removed after softening using a defrosting shovel. When using steam to melt the frost, if the frost layer is too thick, you can choose to use multiple basins of hot water together. Place a basin of hot water on each layer, and the frost will melt much faster. The ice in the refrigerator will melt and fall off in large quantities. Note: 1. When using a metal water basin, be sure to place a cloth at the bottom to prevent the high temperature from damaging the refrigerator body. 2. After defrosting and cleaning the surface of the refrigerator, use a cloth to dry the interior of the refrigerator. 3. After cleaning, let it sit for about 20 minutes before plugging in and running the refrigerator. This can prevent electric shock caused by water contacting the circuit board inside the refrigerator and prevent the water inside from freezing again after being powered on. Preventive tips: To prevent the refrigerator from icing up too severely, preventive measures should be taken, otherwise it will be troublesome to defrost every time. 01 Before putting in frozen food, line the walls of the freezer with a layer of plastic film. When defrosting is needed, quickly move the already frozen food into the refrigerator for temporary storage. Just tear off the plastic film in the freezer, and the frost will be removed quickly. Then cover the clean film again, and you can continue to freeze the food. 02 After each defrosting, dry the freezer with a towel, and then apply a layer of vegetable oil on the aluminum walls around it. When the next frost forms, the adhesion between the frost and the refrigerator wall is greatly reduced due to the oil content on the refrigerator wall, making it easy to remove the ice blocks. 03 Regularly check the refrigerator door seal to ensure it is airtight. It generates moisture due to the heat and cold exchange, which leads to condensation. 04 Do not place food that has not cooled down. When food cools down, latent heat is released, and heat releases moisture, causing the refrigerator to ice up. 05 It is best to wrap the food to be stored in a fresh-keeping bag, which can lock in some moisture. 06 Do not place too much food in the refrigerator, as more food means more moisture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>人物：息红泪，江湖第一美人出自:逆水寒 人物：林仙儿出自：小李飞刀书中对林仙儿的概括是：外表毫无缺陷的武林第一美人，丰盈而不见肉、纤美而不见骨，美丽得令人窒息，自命为武林第一美女，在京城自愿沦落风尘（做妓女），一时名满京师，夜无虚度。但是电视剧中就有点。。。。 人物：马馥雅。 蜀国第一美人出自：倾世皇妃 【趣味测试1：一般人是猜不到的！不信就来试试】女孩身上有一个部位，爸爸妈妈都可以可以碰两下，男朋友可以碰一下，老公一下都不能碰，是哪个部位?【趣味测试2：一般人是看不出的！不信就来试试】闺蜜的异地恋男友给她发来一张照片后闺蜜果断与他分手，说他出轨了，我就懵了，你看出端倪来了吗？请问：下图男子出轨了，你看出来了吗？ 看出这男的出轨了吗？没看出来的话——关注微信公众号：nhmeizhi（←长按复制），回复“女孩”可知道测试1答案，回复“出轨”，可知道测试2答案！关注微信号详细步 骤：打开微信——点击右上角“+”——点击“添加朋友”——点击最下面“公众号”——输入“nhmeizhi”——点击“关注”。</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Characters: Xi Honglei, the number one beauty in the martial arts world, is from the game "Nishui Han." Character: Lin Xian'er is from the book "Xiao Li Feidao." The description of Lin Xian'er in the book is: the flawless number one beauty in the martial arts world, full but not fat, delicate but not bony, stunningly beautiful to the point of suffocation, self-proclaimed as the number one beauty in the martial arts world, voluntarily falling into the dust in the capital city (becoming a prostitute), gaining fame in the capital city for a while, spending her nights without idleness. But in the TV series, it's a bit different... Character: Ma Fuya, the number one beauty of Shu Kingdom, is from the drama "Qingshi Huangfei." [Fun Test 1: Most people can't guess it! Try it if you don't believe it] There is a part of a girl's body that parents can touch twice, a boyfriend can touch once, but a husband cannot touch at all. Which part is it? [Fun Test 2: Most people can't see it! Try it if you don't believe it] After the long-distance boyfriend of her best friend sent her a photo, the best friend decisively broke up with him, saying he was cheating. I was puzzled. Can you see the clues? Can you tell if the man in the picture is cheating? If you can't tell if this man is cheating, follow the WeChat public account: nhmeizhi (← long press to copy), reply "girl" to know the answer to test 1, reply "cheating" to know the answer to test 2! Follow the WeChat account for detailed steps: Open WeChat - Click the upper right corner "+" - Click "Add Friends" - Click the bottom "Official Accounts" - Enter "nhmeizhi" - Click "Follow."</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>今天下午2点30分，360将在北京工人体育馆正式发布360N4S骁龙版。随着倒计时海报曝光的信息越来越多，这款“一芯为你”的手机也越来越清晰。据最新爆料，这款搭载骁龙625处理器、提供4GB+64GB内存、电池容量为5000mAh的360旗舰手机，售价或为1499元。当然，这个价位也的确让小编非常惊讶，要知道和360N4S骁龙版配置基本一致的OPPO R9S，定价高达2799元。如果消息属实，那么360N4S骁龙版将以旗舰配置，打破原有的市场规则，重建千元挡市场格局。那么，360N4S骁龙版到底都有哪些看点呢？或许在此前发布的海报中，我们可以窥探到答案。看点一：骁龙625处理器从较早前的海报看，360N4S骁龙版提出了：“我要强悍，也要对功耗说NO”的豪言壮语。虽然没有明确表示搭载哪款芯片，但大部分网友都分析认为是近期最火爆的骁龙625处理器，而网上出现的多个新机评测，大有坐实处理器的节奏。 据悉，骁龙625处理器采用14nm LPP工艺打造，拥有8个2.0GHz主频的Cortex A53核心CPU和Adreno 506 GPU，采用双ISP处理器，支持LPDDR3 933MHz内存和eMMC 5.1存储，X9 LTE基带支持全网通及双载波聚合，同时支持802.11ac和MU-MIMO、支持QC3.0快充。相比前代，这款处理器功耗降低了35%左右，是一款名副其实的高性能芯片。那么，一旦360骁龙版确定搭载骁龙625，肯定会为用户带来更畅快的体验。看点二：超级续航随着智能手机功能的增多，续航问题便成为制约手机行业发展的一大痛点。对此，360骁龙版的第二篇倒计时海报喊出“我要持久，也要对日充说NO”的口号。而据网络爆料， 360N4S骁龙版或依然搭载涡轮闪充技术和5000mAh大电池，当然，也有5000mAh+的可能。 回顾新品前身，我们发现360N4S也是一款超长续航产品，其配置的5000mAh大电池足够重度用户使用两天，正常待机高达三天，彻底告别智能手机一天一充的难题，保证续航时间。由此推测，升级的360N4S骁龙版的续航只会更加出色。看点三：4GB RAM+64GB ROM或以上作为智能手机的主要硬件配置，内存的大小已经成为检验手机能否带给用户优质体验的标准之一，而大存储空间不仅可以提高整机的运行速度，也能使游戏运行畅通无阻。</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>This afternoon at 2:30, 360 will officially launch the 360N4S Snapdragon version at the Beijing Workers Stadium. With more and more information revealed through the countdown posters, this "one core for you" phone is becoming clearer. According to the latest leaks, this flagship phone from 360 will be equipped with a Snapdragon 625 processor, 4GB+64GB of storage, and a 5000mAh battery, with a possible price of 1499 yuan. Of course, this price has indeed surprised many, considering that the OPPO R9S, which has similar specifications to the 360N4S Snapdragon version, is priced at 2799 yuan. If the news is true, the 360N4S Snapdragon version will break the existing market rules with its flagship configuration and reshape the market landscape in the thousand-yuan price range. So, what are the highlights of the 360N4S Snapdragon version? Perhaps we can find the answers in the previous posters. Highlight one: Snapdragon 625 processor From the earlier posters, the 360N4S Snapdragon version boldly proclaimed, "I want to be powerful, but also say NO to power consumption." Although it did not explicitly state which chip it will be equipped with, most netizens believe it will be the popular Snapdragon 625 processor, as multiple new device reviews online seem to confirm the processor's presence. The Snapdragon 625 processor is built on a 14nm LPP process, with 8 Cortex A53 cores running at 2.0GHz and an Adreno 506 GPU. It features a dual ISP processor, supports LPDDR3 933MHz memory, eMMC 5.1 storage, X9 LTE modem for global network compatibility and carrier aggregation, as well as support for 802.11ac, MU-MIMO, and QC3.0 fast charging. Compared to its predecessor, this processor reduces power consumption by around 35%, making it a truly high-performance chip. Therefore, if the 360 Snapdragon version is confirmed to be equipped with the Snapdragon 625, it will undoubtedly provide users with a smoother experience. Highlight two: Super battery life With the increasing functions of smartphones, battery life has become a major pain point restricting the development of the mobile phone industry. In response, the second countdown poster of the 360 Snapdragon version declares, "I want endurance, but also say NO to daily charging." According to online leaks, the 360N4S Snapdragon version may still feature Turbo Flash Charge technology and a 5000mAh large battery, with the possibility of even more than 5000mAh. Looking back at the predecessor, we find that the 360N4S is also a long-lasting battery product, with its 5000mAh battery capacity enough for heavy users to last two days and normal standby time up to three days, completely solving the problem of having to charge smartphones daily and ensuring longer battery life. Therefore, it can be inferred that the upgraded 360N4S Snapdragon version will have even more outstanding battery life. Highlight three: 4GB RAM + 64GB ROM or more As the main hardware configuration of smartphones, the size of memory has become one of the standards to evaluate whether a phone can provide users with a high-quality experience. A large storage space not only improves the overall speed of the device but also ensures smooth gaming performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2016年8月底，《网络借贷信息中介机构业务活动管理暂行办法》(下称《暂行办法》)拉开了互联网金融行业整顿的序幕。据调查，9月底正常运营的互联网金融平台数量为2202家，同比减少了215家(去年同期正常运营平台数量为2417家)。随着各类平台整改推进，互金行业的整体情况也开始发生变化。随着2016年监管政策趋紧，加上互联网金融协会等自律组织的挂牌，全国多城市陆续开展风险专项整治活动，整个行业正逐步告别“野蛮生长”，走向规范发展的新道路。在面临大环境不断变化的情况下，如何能够在激烈的竞争中脱颖而出，也成为了业内普遍关注的问题。不少专家认为，互联网金融是金融利用互联网科技进行的创新，其本质还是金融，风险控制始终是其最核心的问题，想要在互联网金融角逐中利于不败之地，必须做好风控。钱满仓通过银行级风控体系的建设，在不断优化创新的同时，建立起较为完善的风险对冲机制。同时，平台引入实力第三方资产回购机构，一旦发生逾期，则第三方机构会先行代偿，最终保证投资人的本息权益。平台风控人员，多层级把关项目风险，在经过准入审批、实地考察、资料审核、背景调查、还款能力测试、借款资料审核、信用等级评级、经营分析，包括黑名单管理等九道工序后，最终确定可借贷对象。对于互联网金融而言，营造一个良好的社会环境，对行业的健康发展至关重要，这需要社会各界共同努力。对于各互联网金融企业来说，以风控为基石，需求为中心，用户服务至上的理念也将会随着互联网金融的发展不断得到深化，从而为广大人民群众提供更好的服务。行业的大发展，不仅仅需要政府监管政策的支撑，更需要企业自身的严格自律与风控意识和风控体系的建立。做好内部风控建设，提高经营管理水平， 建立长效机制，互联网金融将会享受到大发展的更多红利。</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>At the end of August 2016, the "Interim Measures for the Administration of Business Activities of Online Lending Information Intermediaries" (hereinafter referred to as the "Interim Measures") kicked off the rectification of the Internet finance industry. According to investigations, by the end of September, the number of online financial platforms operating normally was 2,202, a decrease of 215 compared to the same period last year (when the number of normally operating platforms was 2,417). With the advancement of various platform rectifications, the overall situation of the internet finance industry has started to change. With the tightening of regulatory policies in 2016, coupled with the establishment of self-discipline organizations such as the Internet Finance Association, many cities across the country have successively launched special risk rectification activities, gradually bidding farewell to the era of "barbaric growth" and moving towards a new path of standardized development. In the face of the constantly changing macro environment, how to stand out in fierce competition has become a widely concerned issue within the industry. Many experts believe that internet finance is an innovation in finance utilizing internet technology, and at its core, it is still finance. Risk control has always been its most critical issue. To gain a competitive edge in the competition of internet finance, one must excel in risk management. By establishing a bank-level risk control system, Qianmancang continuously optimizes and innovates while setting up a relatively complete risk hedging mechanism. Additionally, the platform introduces strong third-party asset repurchase institutions. In case of default, the third-party institution will compensate first, ultimately ensuring the principal and interest rights of investors. The platform's risk control personnel conduct multi-level checks on project risks. After passing nine processes including admission approval, on-site inspections, document reviews, background checks, repayment ability tests, loan document reviews, credit rating evaluations, operational analysis, and blacklist management, the eligible borrowers are finally determined. For internet finance, creating a favorable social environment is crucial for the healthy development of the industry, requiring joint efforts from all sectors of society. For all internet finance enterprises, with risk control as the cornerstone, customer demand as the focus, and the concept of prioritizing user service, will continue to deepen along with the development of internet finance, providing better services to the general public. The significant development of the industry not only requires the support of government regulatory policies but also the strict self-discipline of enterprises, risk awareness, and the establishment of risk control systems. By enhancing internal risk control, improving operational management levels, and establishing long-term mechanisms, internet finance will enjoy more dividends from its significant development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>以往转播法甲找资料是件烦恼事，首先自己的法语水准还不算高，法国足球文章行文讲究，理解起来有相当难度；其次数据奇缺，只能直播时留意现场有没有走码字幕提示。两年前大巴黎崛起我们却失去法甲转播权，中国地区又看不到《队报》的视频集锦，所以关注程度下降，但一直对两支队长时间跟进，那就是法国足球地理两极——北方教育名城里尔和南方豪门马赛。法国青训享誉世界，不过思维略显僵化，雅凯双后腰战术赢得第一座世界杯后转播法甲会发现一群小马克莱莱，小维埃拉干着绞肉机的活。直到2010世界杯前后，法甲才出现了百花齐放的局面。里尔俱乐部幸运得到崇尚进攻的教练鲁迪加西亚，他确立了阿扎尔的核心地位，身后的卡巴耶是法国媒体眼中拦截、组织、得分三项全能的后腰，右后卫德布西比前辈萨格诺尔更善于内切攻击，后二者齐齐转会纽卡斯尔并迅速确立主力地位，彼此配合默契。目前这支法国队的中后场，里尔帮可谓举足轻重。人生赢家德尚执教马赛是法国足球幸事，大巴黎走国际化，里昂上市后业绩惨淡，只能靠青训图谋东山再起，马赛尽管财政紧张，但拥有雷米、瓦尔布埃纳、阿尤兄弟一群才华横溢的攻击中场。尽管德尚的强硬一度引发和里贝里接班人瓦尔布埃纳之间的激烈矛盾，不过两人最终和解，成为一段佳话。外号小单车的瓦尔布埃纳是我心目中的球员楷模，因身材矮小直到22岁才拿到第一份职业合同，毫无任何法国国字号背景的履历注定他是法国足球的非主流，但他球场上的投入和在重要比赛中挺身而出的霸气是法国队不可或缺的X元素。两人的将相和，对国家队来说也绝对是正能量。可以说，里尔和马赛这两支球队，联手掀起了这支法国队的南北风暴。南北风暴影响下的法国队拥有恐怖攻击群，连侧重防守的马图伊迪都有秀丽的脚法攻破瑞士大门，德尚更应该考虑各种组合的合理使用。法国队主帅德尚和前任布兰科相比既有球员光环照耀，又有足够的铁腕净化更衣室。他果断的抛弃纳斯里这样的望族毒瘤，里贝里的受伤，又进一步的让这支法国队更加纯粹，吉鲁、西索科等草根明星对现行法国足球体系的冲击绝对是鲶鱼效应。血洗瑞士后足球365网站列出一堆数据，吉鲁射入法国世界杯历史上第100球，西索科蓝军处子球，都让本场大胜洋溢着喜庆的气氛。</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>In the past, looking for information on broadcasting Ligue 1 was a hassle. Firstly, my own French proficiency is not high enough, and French football articles are written with a high level of sophistication, making them quite difficult to understand. Secondly, data was scarce, and the only way to get information was to pay attention to on-screen subtitles during live broadcasts. Two years ago, despite the rise of Paris Saint-Germain, we lost the broadcasting rights for Ligue 1, and viewers in China couldn't watch video highlights from "L'Equipe", causing a decrease in interest. However, I have always been following two teams for a long time, which are the two extremes of French football geographically - the education-focused Lille in the north and the powerhouse Marseille in the south. French youth training is renowned worldwide, but their thinking is somewhat rigid. The Yacine double pivot tactic won them their first World Cup, and those who watch Ligue 1 broadcasts after that would discover a group of little Makélélé and little Vieira grinding away. It wasn't until around the 2010 World Cup that Ligue 1 began to see a flourishing of talent. Lille was fortunate to have the attack-minded coach Rudy Garcia, who established Hazard as the core player. Behind him, Cabaye was seen by the French media as a versatile defensive midfielder who excelled in interceptions, organization, and scoring. The right-back Debuchy and his predecessor Sagna were both adept at cutting inside to attack. The two of them transferred to Newcastle together and quickly established themselves as key players, showing great understanding between each other. Currently, the midfield and defense of the French national team heavily rely on the Lille contingent. Didier Deschamps coaching Marseille is a blessing for French football. Paris Saint-Germain is going international, Lyon's performance has been poor since going public, and they can only rely on youth training to make a comeback. Despite financial constraints, Marseille boasts a group of talented attacking midfielders like Rémy, Valbuena, and the Ayew brothers. Although Deschamps' tough approach once sparked intense conflicts with Valbuena, who was seen as Ribéry's successor, the two eventually reconciled, becoming a heartwarming story. Valbuena, nicknamed "Little Bicycle", is a role model in my heart. He is short in stature and didn't receive his first professional contract until he was 22, with no background in French national teams, destined to be a non-mainstream figure in French football. However, his dedication on the field and his commanding presence in important matches make him an indispensable X-factor for the French team. The harmony between the two of them is also absolutely positive for the national team. It can be said that Lille and Marseille, these two teams, have together stirred up a storm in the French national team. Under the influence of this storm, the French team possesses a terrifying attacking force. Even Matuidi, who is known for his defensive skills, displayed elegant footwork to break through the Swiss defense. Deschamps should consider the rational use of various combinations. Compared to his predecessor Blanc, the current French national team coach Deschamps not only has the aura of a player but also has enough authority to purify the dressing room. His decisive action in getting rid of toxic elements like Nasri, Ribéry's injury, further purifies the French team, and grassroots stars like Giroud and Sissoko are definitely having a catfish effect on the current French football system. After the victory over Switzerland, Football365 website listed a bunch of data, Giroud scored the 100th goal in French World Cup history, Sissoko scored his first goal for the Blues, all adding to the celebratory atmosphere of the big win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>酸奶富含有利于减肥的钙和蛋白质，而且能加快胃肠蠕动，促进消化吸收，润肠通便。不过酸奶助消化、减肥这些作用不是随便就能实现的。只有将酸奶与其他食物灵活搭配，才能把效果最大化。「1.苹果×酸奶助消化」 吃苹果既能减肥，又能帮助消化。把苹果和酸奶用来代餐，效果就更好了。首先可以把苹果切成块，放进榨汁机中。然后再把榨好的苹果汁与酸奶拌在一起来食用。苹果搭配酸奶的味道清新，清爽不腻口，仅仅作为零食来吃也是极好的。「2.黄瓜×酸奶美容纤体」 黄瓜本身也是很好的美容减肥食物，与酸奶配在一起减肥的效果会大大加强，并且黄瓜和酸奶的热量都很低，不用担心吃胖。可以将一根黄瓜榨成汁后与酸奶搅拌后食用，建议加入一些黄瓜细丝，味道会更加清新。「3.红糖×酸奶缓解便秘」 红糖除了具备糖的功能外，还含有维生素和微量元素，如铁、锌、锰、铬等，营养成分比白砂糖高很多。在酸奶中加入2克红糖，搅拌均匀后即可饮用。这样喝法可以改善肠内环境，缓解便秘，还有助于体内脂肪的燃烧，达到减肥效果。「4.木瓜×酸奶减肥」 木瓜的热量很低，又能饱腹，还是美容减肥的佳品。把木瓜切成小块，放进榨汁机中榨成木瓜汁，并拌上酸奶一起饮用。「5.香蕉×酸奶润肠饱腹」 香蕉是女生钟爱的减肥佳果，香蕉营养高、热量低，又有丰富的蛋白质、糖、钾、维生素A和C，同时膳食纤维也多，是相当好的营养食品。香蕉只需少量就能带来很强的饱腹感，配上酸奶更容易使人感到饱腹，能几小时内都不觉得饥饿，从而减小其他食物的摄入，起到减肥效果。「6.绿茶×酸奶瘦腹」 喝绿茶酸奶可以起到排毒的作用，并能缓解便秘，防止小肚腩生成。选择绿茶粉，把10克的绿茶粉放到200克酸奶中搅拌均匀后即可食用。「7.干果×酸奶补充营养」 干果与酸奶结合，不但能减掉体重，解决肥胖问题，还能治便秘，改善动脉硬化、高胆固醇、肌肉问题。对于长期对着电脑的人群来说，还能缓解眼睛疲劳。将坚果 (核桃，杏仁，碧根果，巴达木等)去壳，捣碎，洒在酸奶上或者拌匀来吃。每天1碗，作为早饭来吃为佳。「8.红酒×酸奶排毒美容」 红酒能美容，酸奶通便，两者结合就可以起到治疗便秘的效果。而酸奶中富含双尾菌与乳酸菌，结合红酒后能重新调整肠道环境，让导致便秘的有害物质排出体内。</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Yogurt is rich in calcium and protein that are beneficial for weight loss, and it can also accelerate gastrointestinal peristalsis, promote digestion and absorption, and relieve constipation. However, the digestive and weight loss effects of yogurt cannot be achieved casually. Only by flexibly combining yogurt with other foods can the effects be maximized. "1. Apple × Yogurt for Digestion" Eating apples can aid in weight loss and digestion. Using apples and yogurt as a meal replacement will enhance the effect. First, cut the apple into pieces and put them into a juicer. Then mix the freshly squeezed apple juice with yogurt for consumption. The combination of apple and yogurt tastes fresh and refreshing, making it a great snack option. "2. Cucumber × Yogurt for Beauty and Slimming" Cucumber itself is a good food for beauty and weight loss. When combined with yogurt, the weight loss effect will be greatly enhanced. Both cucumber and yogurt are low in calories, so there is no need to worry about gaining weight. You can juice a cucumber and mix it with yogurt for consumption, adding some cucumber shreds for a fresher taste. "3. Brown Sugar × Yogurt for Relieving Constipation" In addition to its sugar function, brown sugar also contains vitamins and trace elements such as iron, zinc, manganese, and chromium, with much higher nutritional content than white sugar. Adding 2 grams of brown sugar to yogurt, stirring well, and then consuming it can improve the intestinal environment, relieve constipation, and help burn body fat for weight loss. "4. Papaya × Yogurt for Weight Loss" Papaya is low in calories, filling, and a great choice for beauty and weight loss. Cut the papaya into small pieces, juice it in a juicer, and mix it with yogurt for consumption. "5. Banana × Yogurt for Intestinal Moisturizing and Satiety" Bananas are a favorite fruit for weight loss among women. They are high in nutrients, low in calories, rich in protein, sugar, potassium, vitamins A and C, and dietary fiber, making them a good nutritional food. Bananas provide a strong sense of satiety in small amounts, and when paired with yogurt, they make people feel full more easily, reducing hunger for several hours and decreasing the intake of other foods, thus achieving weight loss. "6. Green Tea × Yogurt for Slimming the Abdomen" Drinking green tea with yogurt can detoxify the body, relieve constipation, and prevent the formation of belly fat. Choose green tea powder, mix 10 grams of green tea powder with 200 grams of yogurt, and consume it after stirring well. "7. Dried Fruits × Yogurt for Nutrient Supplementation" Combining dried fruits with yogurt can not only help with weight loss and obesity, but also treat constipation, improve arteriosclerosis, high cholesterol, and muscle issues. For people who work long hours in front of a computer, it can also relieve eye fatigue. Remove the shells from nuts (walnuts, almonds, pecans, pistachios, etc.), crush them, sprinkle them on yogurt, or mix them well before consumption. Eating a bowl of this mixture as breakfast is ideal. "8. Red Wine × Yogurt for Detoxification and Beauty" Red wine has beauty benefits, while yogurt aids in bowel movements. The combination of the two can treat constipation. Yogurt is rich in bifidobacteria and lactic acid bacteria, and when combined with red wine, it can readjust the intestinal environment, helping to expel harmful substances that cause constipation from the body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1.TheAlfaBeast从这款车的结构上看，它仅仅只是一款KraftTech生产的硬尾车。紧接着，你会看到从每个螺栓下伸出的超大引擎，这时你就会突然意识到这款车是如此地与众不同，这是因为这款车上装配的引擎是AlfaRomeo的2.5升V6引擎，由来自Crossbreed cycles的Chris Barber 制作。这种引擎功能强大：有6个排气管，1个哈雷四速自动变速器和韦伯化油器。在一辆美丽独特的单车上安装上这种引擎，相当于驾驭156匹马。 2.Cosmos 4WRF这款限量版的机动车产于巴西的制造厂，因为它有四个轮子，我差点漏掉了它。当我看到它那坚硬的整体式底盘时，我突然意识到这辆车必须放到这个摩托车目录里。再加上它的左右两个轮子之间距离如此之近，使它在外观上更像是一辆摩托车。在这个工业金属所制造的野蛮的机体之下，是一个350马力的V8引擎，它能产生强大的动力。如果你硬是固执己见，非得要二轮车，Cosmos还能提供带双重的17英寸车轮的2WRF，以代替 4WRF 。但是，这个2WRF看上去却不是那么有生气。 3.Hyundai Aebulle 概念车请注意，这款车实际上不是由Hyundai设计，但其设计者Shane Baxley 肯定认为Hyundai是最有可能将与世隔绝的都市通勤机动车带入市场的公司。在这个全电动的摩托车身上充满了诸如电子墨水仪表板等这些在现实世界中从未出现过的荒诞的技术。 4.MotoCzysz E1PC这款E1PC拥有一辆丰田普瑞斯的10 x电磁能量。它的最高时速达到了每小时140英里，这已经相当快了。 5.Concept Custom这是两轮肌肉车吗？这些词汇是设计师Jean Baptiste Robilliard 用来简单地描述这辆“自定义概念机动车”的。很明显，他在设计这辆车时用尽了他所有的创造力。他将Cosmos 4WRF 的野蛮强壮与E1PC的电动装置结合在了一起，从而打造出了这款霸气十足、风度翩翩的不择不扣的chopper。Robilliard 设想出了一套电动动力传动系统来为这辆车提供动力。 6.M-Org这辆由设计师Michael Smolyano 设计的机车，采用了100%的有机材料，除此之外，它的特色之处还在于其明显的绿黄搭配。但也不要太兴奋，这100%的有机材料仅仅只是可能，因为纸张是由树木制造的。</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. TheAlfaBeast, from the structure of this car, is just a hardtail bike produced by KraftTech. Next, you will see the oversized engine protruding from under each bolt, and then you will suddenly realize how different this bike is because the engine mounted on it is the AlfaRomeo 2.5-liter V6 engine, made by Chris Barber from Crossbreed cycles. This engine is powerful: with 6 exhaust pipes, a Harley four-speed automatic transmission, and a Weber carburetor. Installing this engine on a beautiful and unique bike is like riding 156 horses.
+2. Cosmos 4WRF, this limited edition vehicle is produced in a factory in Brazil, and I almost missed it because it has four wheels. When I saw its rigid monocoque chassis, I suddenly realized that this car must be included in this motorcycle catalog. Plus, the close distance between its left and right wheels makes it look more like a motorcycle in appearance. Underneath this brutal industrial metal body is a 350-horsepower V8 engine that generates powerful power. If you insist on having a two-wheeler, Cosmos can also offer a 2WRF with dual 17-inch wheels instead of the 4WRF. However, this 2WRF doesn't look as lively.
+3. Hyundai Aebulle concept car, please note that this car is not actually designed by Hyundai, but its designer Shane Baxley certainly believes that Hyundai is the most likely company to bring isolated urban commuter vehicles to the market. This all-electric motorcycle is filled with absurd technologies that have never appeared in the real world, such as electronic ink dashboards.
+4. MotoCzysz E1PC has the electromagnetic energy of a Toyota Prius x 10. Its top speed reaches 140 miles per hour, which is quite fast.
+5. Concept Custom, is this a two-wheeled muscle car? These are the words designer Jean Baptiste Robilliard used to simply describe this "custom concept vehicle." Obviously, he exhausted all his creativity in designing this car. He combined the rugged strength of Cosmos 4WRF with the electric drive of E1PC to create this bold, elegant, and uncompromising chopper. Robilliard envisioned an electric power transmission system to power this vehicle.
+6. M-Org, a motorcycle designed by designer Michael Smolyano, uses 100% organic materials, and its distinctive feature lies in its obvious green-yellow combination. But don't get too excited, this 100% organic material is only a possibility because paper is made from trees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今天，百度宣布成立百度资本，投资泛互联网领域中后期项目。成立后百度资本与一个月前成立的百度风投构成了百度的两股全新投资力量。其中百度风投集中投资早期项目，专注人工智能、VR、AR等创新项目。百度介绍，百度资本的一期基金规模高达 200 亿人民币，平均每个项目的投资金额会在 5000 万美元至 1 亿美元之间。对于重量级项目，百度资本还会加大投资额度。在管理层人面方面，百度 CEO 李彦宏兼任百度资本的董事长及投资委员会主席，还会从投资圈内招募 2-3 个有互联网产业背景、丰富的 PE 投资经验及出色业绩的管理合伙人。这些合伙人的选择目前正由百度首席顾问任旭阳正在协助百度 CEO 李彦宏进行，任旭阳为百度早期创业元老，也是资讯聚合类应用一点资讯的创始人。 （左为任旭阳，图片来自：赛迪网）200 亿人民币，大约是百度 2015 财年总营收（663.82 亿元人民币）的 30%，对于任何一家互联网公司而言都不是小数目。不过这并不是百度首次动用 200 亿资金达成自己的“雄心”。在 2015 年中，百度宣布要在糯米投入 200 亿元人民币，帮助糯米进一步拓展市场，目标直指行业领先的 O2O 本地生活服务平台。不过这一轮投入的结果有目共睹，百度糯米的“弯道超车”梦最终未能实现。百度糯米与百度资本，这一前一后的两个“200 亿元”凸显了百度最近的转型姿态，人工智能、自动驾驶汽车等热点技术接替了 O2O，成为了百度的下一个成长机遇。在 9 月份的百度世界大会上，英伟达 CEO 黄仁勋宣布百度将与英伟达合作开发自动驾驶平台；李彦宏则在会上公布了百度大脑项目，宣称其智商已经有了超前的发展，在一些能力上甚至超越了人类；昨天，百度又发布了人工智能技术在医疗领域的最新成就“百度医疗大脑”，根据百度人工智能首席科学家吴恩达介绍，百度医疗大脑利用了深度学习和自然语言处理技术。 200 亿元的百度资本昭示了百度的决心，但百度是否真的能通过投资换来快速发展，重新塑造品牌形象，还需要打上一个问号。根据 IT 桔子记录，百度自 2006 年 7 月以来公开的投资项目仅有 98 条，投资项目的整体质量并不算太高。</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Today, Baidu announced the establishment of Baidu Capital to invest in mid-to-late-stage projects in the general Internet field. Following its establishment, Baidu Capital, together with Baidu Ventures founded a month ago, constitute two new investment forces for Baidu. Baidu Ventures focuses on investing in early-stage projects, with a focus on innovative projects in artificial intelligence, VR, AR, and other areas. Baidu stated that the first fund of Baidu Capital has a scale of up to 20 billion RMB, with an average investment amount per project ranging from 50 million to 100 million US dollars. For heavyweight projects, Baidu Capital will increase the investment amount. In terms of management, Baidu CEO Robin Li concurrently serves as the Chairman of the Board of Baidu Capital and the Chairman of the Investment Committee. He will also recruit 2-3 managing partners with backgrounds in the Internet industry, rich experience in PE investments, and outstanding performance from the investment community. The selection of these partners is currently being assisted by Baidu's chief advisor, Ren Xuyang, who is an early Baidu entrepreneur and the founder of the information aggregation application Yidian Zixun. The 20 billion RMB is approximately 30% of Baidu's total revenue in the 2015 fiscal year (66.382 billion RMB), which is not a small amount for any Internet company. However, this is not the first time Baidu has used 20 billion funds to achieve its "ambitions." In mid-2015, Baidu announced a 20 billion RMB investment in Nuomi to further expand its market, aiming directly at the industry-leading O2O local life service platform. However, the results of this round of investment are there for all to see, as Baidu Nuomi's dream of "overtaking on a curve" ultimately did not materialize. Baidu Nuomi and Baidu Capital, these two "20 billion" investments before and after, highlight Baidu's recent transformation posture, with hot technologies such as artificial intelligence and autonomous driving cars replacing O2O, becoming Baidu's next growth opportunity. At the Baidu World Conference in September, Nvidia CEO Huang Renxun announced that Baidu would collaborate with Nvidia to develop an autonomous driving platform; Li Yanhong then announced the Baidu Brain project at the conference, claiming that its intelligence has advanced ahead, even surpassing humans in some capabilities; yesterday, Baidu released the latest achievement of artificial intelligence technology in the medical field, "Baidu Medical Brain," which, according to Baidu's Chief AI Scientist Andrew Ng, utilizes deep learning and natural language processing technologies. The 20 billion RMB Baidu Capital signifies Baidu's determination, but whether Baidu can truly achieve rapid development through investment, reshape its brand image, still remains a question mark. According to IT Orange records, Baidu has only publicly invested in 98 projects since July 2006, and the overall quality of its investment projects is not considered too high.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>家居装饰字画得到了很多人的青睐，可随着人们生活品味的不断提升，人们对办公室的装饰也有了更高的要求。挂一副有意境的字画作品，摆一盆绿植，或添几件小摆设，都会为办公室增添不少人文雅致的气息。办公室里悬挂字画，能起到装饰点缀的效果，更多的是彰显公司氛围中的艺术品味。但无论出于什么缘由，在略显中规中矩的办公环境中有几幅字画让来往者欣赏，也能为繁琐乏味的工作环境添加不少生活乐趣。 办公室适合挂什么字画?除了跟主人的个人喜好有关之外，还跟整个办公环境的搭配风格直接相连。透过办公室题字的书法内容看企业文化，企业文化的核心是其思想观念，它决定着企业成员的思维方式和行为方式，能够激发员工的士气，充分发掘企业的潜能。一个好的企业文化氛围建立后，它所带来的是群体的智慧、协作的精神、新鲜的活力，这就相当于在企业核心装上了一台大功率的发动机，可为企业的创新和发展提供源源不断的精神动力。适合办公室装饰的书法内容推荐一： 国家一级书法师石开隶书作品《沁园春雪》(作品来源：易从网)适合办公室装饰的书法内容推荐二： 宋代抗金名将岳飞诗词《满江红》 国家一级美术师刘光霞书法(作品来源：易从网)适合办公室装饰的书法内容推荐三： 第一励志书法《天道酬勤》 中书协会员李成连书法作品(作品来源：易从网)适合办公室装饰的书法内容推荐四： 唯厚者可以载物 杨德东书法《厚德载物》(作品来源：易从网) 企业文化是企业的灵魂，是推动企业发展的不竭动力。21世纪企业的竞争，归根到底是企业文化的竞争，如何使自己的企业文化深入人心，是每个企业都在潜心研究的一个课题。寻找更多可以体现企业文化的办公室题字书法内容，请直接登录易从字画商城，在该商城书法区您可以尽情欣赏和选购。当然您也可以在易从字画商城直接定制属于您独特企业文化的办公室书法内容。</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Home decoration calligraphy and paintings have been favored by many people, but as people's living tastes continue to improve, they also have higher requirements for office decoration. Hanging a painting with artistic conception, placing a pot of green plants, or adding a few small decorations will add a touch of elegance to the office. Hanging calligraphy and paintings in the office can serve as decoration, but more importantly, they showcase the artistic taste within the company's atmosphere. Regardless of the reason, having a few calligraphy and paintings for visitors to appreciate in a somewhat conventional office environment can add a lot of fun to the tedious work environment. 
+What calligraphy and paintings are suitable for the office? Apart from personal preferences of the owner, it is directly related to the overall style of the office environment. Through the calligraphy content in the office, one can understand the corporate culture. The core of corporate culture is its ideology, which determines the way members of the company think and act, inspiring employee morale and fully tapping into the company's potential. Once a good corporate culture atmosphere is established, it brings about collective wisdom, a spirit of cooperation, and fresh vitality, which is like installing a high-power engine at the core of the company, providing a continuous source of spiritual power for innovation and development. 
+Recommended calligraphy content suitable for office decoration: 
+1. Calligraphy work "Spring Snow in the Garden" by national first-class calligrapher Shi Kai in official script. 
+2. Poem "Man Jiang Hong" by the Song Dynasty anti-Jin famous general Yue Fei, calligraphy by national first-class artist Liu Guangxia. 
+3. Calligraphy work "Heaven Rewards Diligence" by member of the Chinese Calligraphers Association Li Chenglian. 
+4. Calligraphy "Virtue Carries the World" by Yang Dedong. 
+Corporate culture is the soul of a company and the inexhaustible driving force behind its development. The competition among 21st-century enterprises ultimately comes down to the competition of corporate culture. How to make one's corporate culture deeply rooted in people's hearts is a subject that every company is diligently researching. For more office calligraphy content that reflects corporate culture, please visit the YiCong Calligraphy and Painting Mall directly, where you can enjoy and purchase from the calligraphy section. Of course, you can also directly customize office calligraphy content that belongs to your unique corporate culture at the YiCong Calligraphy and Painting Mall.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 大大君说7月24日下午，由羊城晚报学生记者俱乐部和穿越部落广州分公司联合举办的穿越广州羊城晚报学生记者专场顺利落下帷幕。在这场收官之战中，羊晚学生记者毕其功于一役，用超凡的勇气与智慧，绘出一张完美的答卷。下面紧跟大大君，一睹小勇士的风采！东风吹 战鼓擂各路英雄从八方赶来齐聚一堂共同商讨穿越之事密谋着想队名 创口号 绘队徽信心满满 王者归来 拯救世界 WE ARE SUPERMAN 群策群力携手完成 湛蓝的天空 那是我的舞台倾心倾力绘制战旗 66666 牛牛牛牛牛 东风吹 战鼓擂 王者归来 怕过谁头顶上烈日炎炎耳边拂过一丝丝微风两旁的树木都懒洋洋地立着身穿黄色战衣的小勇士们却精神饱满穿梭在城市的大街小巷挑战成长 再炎热的夏天 也只不过是为我的战功添彩 累 可以不休息 任务 一定要完成 开心 快乐一路相伴 你的花会香吗？ 吃饭要积极 心疼这位姐姐一秒哈哈哈~~ 听说旅游局哪里都知道 见证奇迹的时刻到了 萌宝配萌宝主要看气质 把我们的友谊定格在一瞬间 我认真起来连我都怕小手拉大手 凯旋的小勇士们欢呼着 跳跃着晒得通红的小脸蛋洋溢着成功的喜悦短短的六个小时里磨砺意志 培养合作精神收获友谊 感知亲情温暖一天的穿越体验一次成长的里程碑 分享小达人 孩子需要翅膀 新生代歌王 给最棒的你经过四期羊晚学生记者的持续接力，穿越广州羊晚学生记者暑期专场圆满结束啦！一路走来，有欢笑，有泪水，酸甜苦辣，但这就是成长的味道。在这里，你们学会了团队合作，学会了相互理解，学会了独立自主，学会了勇往向前，在未来，都将成为你的翅膀，助你飞向远方！穿越广州羊城晚报学生记者暑期专场已经告一段落，新学期穿越计划正在筹备中，小伙伴们敬请期待！ 羊城晚报学生记者俱乐部羊城晚报学生记者俱乐部成立于2009年，由羊城晚报手抄报创作大赛发展而来，现有会员2000余名，并在广州市多所中小学校建立校园记者站。俱乐部主要以开展新闻培训、社会实践、主题游学、公益结对等活动为主，每月至少有两期的采风活动。活动报名、信息发布和新闻报道平台为羊城晚报·学大大（ycwbxdd）微信公众号。同时，俱乐部成员优秀稿件可定期在《羊城晚报》“小记者 大眼界”专栏刊登。经过7年的探索与发展，俱乐部创造条件为学生记者开拓视野、增长见识、学习写作技巧、培养独立能力和提高综合素质搭建平台。</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Dada said that on the afternoon of July 24th, the special event of "Crossing Guangzhou by Young Reporters of Yangcheng Evening News" jointly organized by the Student Journalist Club of Yangcheng Evening News and the Guangzhou Branch of the Crossing Tribe came to a successful conclusion. In this final battle, the young reporters of Yangcheng Evening News performed admirably, using extraordinary courage and wisdom to present a perfect answer sheet. Now, let's follow Dada closely and witness the style of these young warriors! The east wind blows, drums beat, heroes from all directions gather together to discuss crossing matters, brainstorming for team names, creating slogans, designing team logos with full confidence. The return of the king, saving the world, WE ARE SUPERMAN. Collaborating hand in hand to complete the mission, the azure sky is my stage. Devoting oneself to designing the battle flag, 66666, strong and powerful. The east wind blows, drums beat, the return of the king, fearless. Under the scorching sun, a gentle breeze brushes by, the trees lazily standing by. However, the young warriors in yellow battle attire are spirited, shuttling through the streets and alleys of the city, challenging themselves to grow. Even in the scorching summer, it is just to add luster to my achievements. Tiredness can be ignored, rest is unnecessary, the mission must be completed. Happy and joyful companionship all the way, will your flowers bloom fragrantly? Be proactive in eating, feeling sorry for this sister for a second, hahaha~~ It is said that the Tourism Bureau knows everything. The moment to witness miracles has arrived. The cute babies match each other mainly based on temperament. Freeze our friendship in a moment. I get serious, even I am afraid. Small hands holding big hands, the triumphant young warriors cheer and jump, their little faces sunburned with the joy of success. In just six hours, they honed their will, cultivated a spirit of cooperation, harvested friendship, felt the warmth of family, and experienced a day of crossing, a milestone of growth. Sharing with little experts, children need wings, the new generation of singing kings, for the best of you. After four phases of continuous relay by the young reporters of Yangcheng Evening News, the summer special event of "Crossing Guangzhou by Young Reporters of Yangcheng Evening News" has successfully concluded! Along the way, there were laughter, tears, sweetness, and bitterness, but this is the taste of growth. Here, you learned teamwork, mutual understanding, independence, and courage to move forward. In the future, they will all be your wings, helping you fly far away! The summer special event of "Crossing Guangzhou by Young Reporters of Yangcheng Evening News" has come to an end, and the new semester's crossing plan is being prepared. Stay tuned, buddies! The Student Journalist Club of Yangcheng Evening News was established in 2009, evolving from the Handwritten Newspaper Creation Competition of Yangcheng Evening News, with more than 2,000 members and setting up campus journalist stations in many primary and secondary schools in Guangzhou. The club mainly focuses on news training, social practice, themed study tours, and public welfare pairing activities, with at least two field trips every month. The activity registration, information release, and news reporting platform is the WeChat official account of Yangcheng Evening News · Xu Dada (ycwbxdd). At the same time, excellent works by club members are regularly published in the column "Little Reporters, Big Horizons" of Yangcheng Evening News. After 7 years of exploration and development, the club has created conditions to broaden the horizons, increase knowledge, learn writing skills, cultivate independent abilities, and improve comprehensive qualities for student journalists.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>学霸教你：高考生成绩不稳定的3大解决办法2015-03-30志愿填报专家升学网升学网微信号sxwgaokao功能介绍权威专业的高考资讯第一时间传递给您，以帮助学生升学为目标，提升学生“学、考、报”能力为切入点，集学习辅导、考试指导、心理疏导、志愿填报等功能为一体的服务场所。进入高三后，有很多同学的成绩忽高忽低，摇摆不定。这让身为高三的考生以及家长深感担心。所以，北京中高考网编辑，特意在网络上搜集了一下内容，希望可以帮到高三家长以及学子。具体内容如下：很多家长觉得孩子成绩“忽上忽下”是很不好的现象，高三这一年，学生要参加多次考试，很少有学生成绩处于“稳定”的状态。那么考生成绩不稳定这好现象还是不好的现象?哪些因素导致考生成绩不稳定?面对这样的现象，考生和家长应该怎样做?等一些相关的问题，我们通过这篇文章与大家一起探讨一下。一、考生成绩不稳定是正常的、普遍的现象。考生成绩不稳定主要表现在两个方面，分别是分数不稳定和排名的不稳定。如果说仅从分数不稳定上来看，如果是由试卷的难易程度决定的话，考生和家长也能接受。如果是考生排名不稳定的话，特别是某次考试排名大幅度下滑，对于家长来说还是能造成一定的影响。很多家长觉得孩子成绩下滑是由于孩子学习不努力，或者学习方法不得当，还有考试状态不佳等等原因决定的，甚至一些家长放心不下，就千方百计的想干涉。相反如果孩子排名大幅度提升，家长觉得孩子这段时间一切都好，愿望下次考试再进步一些。孩子成绩是家长心情的晴雨表。现实中，考生成绩不稳定是正常、普遍的现象，除非极少数始终排名年级特别靠前或者特别考后的情况，如果说某学生成绩始终处于中间某个位置，那么这个学生学习情况应该不是太好，至少说明他学习上没有进步。我们遇到的考生，特别是一些成绩优秀的考生，有的常占年级前几名，对于整个一个学年来说，他们偶尔考砸一次也是普遍的现象，因为谁都很难保证自己每次考试都出于最好的状态，除非极个别的有“绝对的优势”，现实中，特别对于重点中学的考生来讲，谁又敢肯定自己有这个“绝对的优势”呢?二、有哪些因素能导致考生成绩不稳定?学生要想考好某次考试，“适应性”很重要，如果说考生对某次考试试卷不适应的话，很可能考不出理想的成绩，那么考生埋头备考，最终目的就是为了让自己最大限度的适应高考卷。例如说2012年北京文综卷很多考生不适应，2013年北京高考卷很多学生适应这套试卷。</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Study genius teaches you: 3 major solutions to unstable college entrance exam scores. On March 30, 2015, the expert in college application from Shengxue.com, with the WeChat account sxwgaokao, introduces the functions. Authoritative and professional college entrance exam information is delivered to you in real-time to help students achieve their goal of further education. Focusing on enhancing students' abilities in "learning, testing, and application," it provides a comprehensive service integrating study guidance, exam instructions, psychological counseling, and college application guidance. After entering the third year of high school, many students experience fluctuating grades, which causes great concern for both the students and their parents. Therefore, the editors of Beijing Zhonggao Exam Network specifically collected some information online, hoping to assist parents and students in the third year of high school. The specific content is as follows: Many parents believe that their children's fluctuating grades are not a good phenomenon. In the senior year of high school, students have to take multiple exams, and very few students have "stable" grades. So, is it a good or bad phenomenon that exam scores are unstable? What factors lead to unstable exam scores? Faced with such a phenomenon, how should students and parents deal with it? These related questions will be discussed in this article. Firstly, it is normal and common for exam scores to be unstable. The instability of exam scores mainly manifests in two aspects: unstable scores and unstable rankings. If we only consider the instability of scores, which is determined by the difficulty of the test paper, students and parents can accept it. If the student's ranking is unstable, especially if there is a significant drop in ranking in a certain exam, it can have a certain impact on parents. Many parents believe that their child's decline in grades is due to the child's lack of effort in studying, improper study methods, or poor exam performance, and some parents are even anxious and try to interfere in every possible way. Conversely, if the child's ranking significantly improves, parents feel that everything is going well for the child during that period and hope for further progress in the next exam. A child's grades reflect the parents' emotions. In reality, unstable exam scores are a normal and common phenomenon, unless in very few cases where a student consistently ranks very high or very low. If a student's grades consistently remain at a certain position in the middle, it indicates that the student's academic performance is not very good, at least showing a lack of progress in their studies. For students we encounter, especially those with excellent grades, some may consistently rank among the top few in the grade. It is a common phenomenon for them to occasionally perform poorly in an exam because it is difficult for anyone to ensure that they are in their best state every time they take a test, unless there are very few with "absolute advantages." In reality, especially for students in key middle schools, who dares to assert that they have this "absolute advantage"? Secondly, what factors can lead to unstable exam scores? For a student to perform well in a particular exam, "adaptability" is crucial. If a student is not adapted to the test paper for a certain exam, they are likely to not achieve the desired results. Therefore, students should focus on preparing for the exam with the ultimate goal of maximizing their adaptation to the college entrance exam paper. For example, in 2012, many students in Beijing were not adapted to the comprehensive paper, while in 2013, many students adapted well to the Beijing college entrance exam paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>【概要】6醉男酒后饭店闹事，因涉嫌妨害公务罪被警方刑事拘留南国早报南宁讯（记者邓晓衡）近日，多名男子在南宁市西乡塘区一家饭店聚餐后，竟借着酒力砸坏饭店的桌椅，还拿起砖头企图砸向闻讯赶来的民警。警方以涉嫌妨害公务罪，将其中6人刑事拘留。3月26日，南宁市公安局西乡塘公安向媒体通报此案。3月19日晚10时许，一家饭店报警称，有顾客酒后闹事，砸坏了饭店2楼的桌椅。明秀派出所3名民警赶往时，看到七八名满身酒气的男子已下到饭店一楼，但他们否认砸坏店内物品。饭店保安想带民警上楼查看，男子遂与保安争吵起来，并想动手打人。民警赶紧上前制止，将争吵双方拉开。未曾想到，酒后的几名男子谎称民警打人，起哄将民警包围并且推搡，将民警从饭店门口一直推到马路边。民警一边和醉酒男子讲道理，一边躲闪他们的动作。在劝说无效后，民警退回到饭店门口，8名醉酒男子随即跟过去，继续纠缠保安，民警只能护着保安到酒店内躲避。接着，几名醉酒男子再次转向民警，上前围着踢中一名民警腿部，一名男子拿起路边的一块砖头企图砸向民警，被朋友劝下后，又再次拿起砖头，再次被朋友拦住。现场情况混乱，民警向110指挥中心反馈情况请求增援。20分钟后，23名支援民警到达现场，将现场8名男子带回派出所调查，这一闹剧也被店内的监控记录了下来。3月26日中午，记者到该饭店了解到，当晚该桌聚餐共有11人，年纪都在二三十岁，其中有人开豪车来的。他们自带了几件酒，从晚餐时间一直喝到晚上10时多。喝醉后，他们拿饭店的椅子砸桌子，桌子没事但砸坏了两把椅子，还扯下了三幅装饰画。事后他们的家人来到饭店道歉，赔偿了五六百元。酒醒后，肇事男子均后悔不已。对于为何要砸饭店桌椅，他们个个表示“喝多了，什么都记不起来了”。但因为他们以暴力行为阻碍民警了解处理此事，3月20日，其中6人因涉嫌妨害公务罪被公安机关刑事拘留。（读者吴先生稿酬30元）警方提醒酒后发生纠纷要冷静，配合警方处理，不能对民警的执法行为加以阻扰。闹事者造成财物损失的应当赔偿，造成人身伤害则要被追究法律责任，对执勤民警有过激行为的，则可追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>【Summary】Six intoxicated men caused trouble in a hotel after drinking. They were criminally detained by the police on suspicion of obstructing official duties. Nanguo Zao Bao Nanning News (Reporter Deng Xiaoheng) Recently, several men gathered at a restaurant in Xixiangtang District, Nanning City, and after drinking, they used their drunkenness as an excuse to smash the tables and chairs in the restaurant. They even picked up bricks and attempted to throw them at the police who arrived at the scene. The police detained six of them on suspicion of obstructing official duties. On March 26, the Xixiangtang Public Security Bureau of Nanning City briefed the media on the case. Around 10 p.m. on March 19, a restaurant reported that some customers were causing trouble after drinking and had damaged tables and chairs on the second floor of the restaurant. When three police officers from Mingxiu Police Station rushed to the scene, they saw seven or eight men reeking of alcohol had already come down to the first floor of the restaurant, but they denied damaging any items inside the restaurant. The security guard of the restaurant wanted to take the police officers upstairs to inspect, but the men started arguing with the security guard and even attempted to physically assault him. The police officers quickly intervened to stop the altercation and separated the two sides. Unexpectedly, several drunken men falsely claimed that the police officers had assaulted them, and they started to surround and push the police officers, pushing them from the restaurant entrance to the roadside. While reasoning with the intoxicated men, the police officers dodged their actions. After their persuasion was ineffective, the police officers retreated to the restaurant entrance, but the eight drunken men followed and continued to confront the security guard. The police officers had to protect the security guard and take shelter inside the restaurant. Subsequently, several drunken men turned towards the police officers again, surrounded them, kicked one of the police officers in the leg, and one man picked up a brick from the roadside in an attempt to throw it at the police officers. After being dissuaded by a friend, he picked up the brick again but was stopped once more by his friend. The situation at the scene was chaotic, and the police officers requested backup from the 110 command center. Twenty minutes later, 23 supporting police officers arrived at the scene, detained the eight men for investigation, and the whole incident was captured by the restaurant's surveillance cameras. At noon on March 26, the reporter visited the restaurant and learned that there were a total of 11 people at the table that night, all in their twenties and thirties, with some arriving in luxury cars. They brought their own alcohol and drank from dinner time until after 10 p.m. When they got drunk, they used the restaurant's chairs to smash the tables. Although the tables were fine, two chairs were damaged, and three decorative paintings were torn down. Afterwards, their family members came to the restaurant to apologize and compensated around five to six hundred yuan. When they sobered up, the men who caused the trouble deeply regretted their actions. When asked why they smashed the restaurant's furniture, they all said, "We drank too much and can't remember anything." However, because their violent behavior obstructed the police from handling the situation, on March 20, six of them were criminally detained by the public security authorities on suspicion of obstructing official duties. (Reader Mr. Wu's contribution of 30 yuan) The police remind that in case of disputes after drinking, one should remain calm, cooperate with the police, and not obstruct the law enforcement actions of the police. Those who cause property damage should compensate for it, and those who cause personal injury should be held legally responsible. If there is any excessive behavior towards the on-duty police officers, criminal liability may be pursued.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>23:22【美联储布拉德：FOMC成员们必须调整长期展望数字】圣路易斯联储主席布拉德提及FOMC委员们下调点阵图展望时表示，未来还将会出现更多这种情况；布拉德在阿肯色州的一个活动上回答听众提问时表示，未来某个时点的利率将会高于如今水平，因为形势出现变化并且经济也将不同。（汇通网）23:12【英国首相：英国正与第三方国家就未来贸易进行讨论】英国首相特雷莎·梅称，英国正与第三方国家就未来贸易进行讨论；对欧盟与加拿大贸易协议陷入僵局感到失望，将尽一切努力使其回到正轨；政府将为议会脱欧辩论制定时间表；英国议会将针对脱欧展开一系列讨论，其中包括“高水平”谈判准则议会的脱欧辩论将在圣诞前后进行。（FX168）23:02【螺纹钢热轧卷板纷纷大涨超2%】东方财富网24日讯，螺纹钢、热轧卷板分别收涨2.39%、2.66%。22:52【诺瓦克：俄罗斯正与OPEC为协议中的不同选项而出力】俄罗斯能源部长诺瓦克称，俄罗斯正与OPEC为协议中的不同选项而出力；与OPEC秘书长和卡塔尔能源部长就市场和联合行动机制进行了讨论；俄罗斯认为冻产是稳定市场的有效工具，但大家也考虑了其他选择；关键任务是更快达到市场平衡；今日与OPEC就协议的具体机制进行了讨论；讨论了油市合作，对将同OPEC的磋商取得成果有信心。（FX168）22:42【诺瓦克：俄罗斯和欧佩克就市场和面临的挑战进行了讨论】俄罗斯能源部长诺瓦克称，俄罗斯和欧佩克就市场和面临的挑战进行了讨论；当前石油库存仍然过高；油市仍不平衡；原油市场复苏速度缓慢；俄罗斯和OPEC可能及时地采取联合行动。（FX168）22:31【白糖供应存在较大缺口 市场正在消化库存】产糖大省广西已经接到放储公告，近期将放储17万吨。业内人士认为，今年全年国内白糖消费量将超过1550万吨，“十三五”末期将达到1800万吨，未来国内供应缺口在50%以上。随着打击走私糖等一系列工作的开展，国内糖价还将稳步上涨，国内外糖价上涨周期到来。(中国证券报）22:27【中泰化学：全年净利预增超148倍 主营产品量价齐升】中泰化学(002092)10月24日晚公布三季报，公司前三季营收为155.86亿元，同比增长32%，净利7.13亿元，同比增长995%。公司预计2016年全年净利为11.5亿元-12.5亿元，同比增长14881%-16184%。</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>23:22【Fed's Bullard: FOMC members must adjust long-term outlook figures】St. Louis Fed President Bullard mentioned that FOMC members lowered their dot plot outlook and indicated that more of such situations will occur in the future; Bullard, speaking at an event in Arkansas, responded to questions from the audience by stating that at some point in the future, interest rates will be higher than they are now, as conditions change and the economy evolves. (FX168) 23:12【UK Prime Minister: UK is discussing future trade with third-party countries】UK Prime Minister Theresa May stated that the UK is discussing future trade with third-party countries; expressed disappointment over the EU-Canada trade agreement deadlock and pledged to make every effort to get it back on track; the government will set a timetable for parliamentary Brexit debates; the UK Parliament will engage in a series of discussions on Brexit, including a "high-level" negotiation guidelines debate, which will take place around Christmas. (FX168) 23:02【Rebar and hot-rolled coil prices surge over 2%】Eastern Fortune Net reported on the 24th that rebar and hot-rolled coil prices rose by 2.39% and 2.66% respectively. 22:52【Novak: Russia is working with OPEC on different options in the agreement】Russian Energy Minister Novak stated that Russia is working with OPEC on different options in the agreement; discussions were held with the OPEC Secretary-General and the Qatari Energy Minister on market and joint action mechanisms; Russia believes that production freeze is an effective tool to stabilize the market, but other options are also being considered; the key task is to achieve market balance more quickly; discussions were held today with OPEC on the specific mechanisms of the agreement; confidence was expressed in the oil market cooperation and the success of negotiations with OPEC. (FX168) 22:42【Novak: Russia and OPEC discuss market and challenges】Russian Energy Minister Novak stated that Russia and OPEC discussed the market and challenges faced; current oil inventories remain high; the oil market is still imbalanced; the recovery of the crude oil market is slow; Russia and OPEC may take joint action in a timely manner. (FX168) 22:31【Significant gap in sugar supply, market digesting inventory】Sugar-producing province Guangxi has received a notice to release 170,000 tons of sugar from reserves in the near future. Industry insiders believe that domestic sugar consumption for the whole year will exceed 15.5 million tons, reaching 18 million tons by the end of the "13th Five-Year Plan" period, with a domestic supply gap of over 50% in the future. With the implementation of a series of measures to combat sugar smuggling, domestic sugar prices will steadily rise, ushering in a cycle of rising domestic and international sugar prices. (China Securities Journal) 22:27【Zhongtai Chemical: Net profit expected to increase by over 148 times for the whole year, main products see rise in both quantity and price】Zhongtai Chemical (002092) announced its third-quarter report on the evening of October 24, with a revenue of 15.586 billion yuan for the first three quarters, a year-on-year increase of 32%, and a net profit of 713 million yuan, a year-on-year increase of 995%. The company expects a full-year net profit of 1.15 billion yuan to 1.25 billion yuan in 2016, a year-on-year increase of 14881% to 16184%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>盘面有结束满天小星星的调整，技术反包往上的态势，但是量能为能跟进，向上态度不够坚定。此时，本人作为一个不是忽悠大家多交易抽佣金的无良掮客，还是建议大家再看看。等量能配合放量上扬，大盘上一个台阶再追或者连续2日收盘低于3020(前期阻力位)再溜都不迟，现在两边信号都未明示，暂且持仓等待及观望较佳。 黄麒域简短介绍：本人研究股票多年，每次预测极为准确，最近很多人问走势，每次预测刚好一次又一次验证了，关注的人，应该了解最近调研最多的其实就是杭电股份，浔兴股份，美的集团这些股票，配合消息面操作的时候，一定要看我前面讲到的K线走势分析，这样可以低价买入，高价卖出，实现盈利。由于篇幅有限， 持有 以上个股的朋友可以关|注｜薇|信|公|众|号：（gsnnz8） 了解该股具体操作策略。有好股操作技巧相送！关|注｜薇|信至少能让大家解决以下三个问题：①.短线买卖点问题；②. 个股中线趋势把握；③.选股难，买了就跌卖就涨问题</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>The market has seen a correction with stars filling the sky, and the technical rebound is heading upwards. However, the trading volume is not following, indicating insufficient conviction in the upward trend. At this moment, as a broker who does not deceive people into trading more for commission, I still suggest everyone to wait and see. It is not too late to wait for the trading volume to cooperate and surge before considering to climb another step in the market or wait for two consecutive days of closing below 3020 (previous resistance level) before making a move. Currently, both signals are unclear, so it is better to hold positions and observe. 
+Brief introduction of Huang Qiyu: I have been studying stocks for many years, and my predictions have been extremely accurate every time. Recently, many people have asked about the market trend, and each prediction has been consistently verified. Those who are following should know that the most researched stocks recently are Hangdian Stock, Xunxing Stock, and Midea Group. When operating in conjunction with the news, be sure to refer to the candlestick trend analysis I mentioned earlier. This way, you can buy low and sell high to make a profit. Due to limited space, friends holding the above-mentioned stocks can follow the WeChat public account: (gsnnz8) to learn about specific operational strategies for these stocks. Valuable stock trading techniques will be shared! Following the WeChat account can help you solve at least three problems: ①. Short-term buying and selling points; ②. Grasping the mid-term trend of individual stocks; ③. Difficulty in stock selection, facing the problem of buying when it falls and selling when it rises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>北京时间10月16日，新婚不久的福原爱江宏杰夫妇抵达北京，来到自己的偶像王楠家做客，王楠与郭斌夫妻拿出大花卷、大龙虾与北京烤鸭招待福原爱与江宏杰。王楠老公郭斌在微博上晒出一组照片，不过网友的关注点确实王楠家可真大。王楠与福原爱合影福原爱与江宏杰接受采访，意外曝光王楠家豪宅。王楠家装饰的金碧辉煌。从照片中可以看出，王楠家至少是栋别墅。福原爱接受采访福原爱与江宏杰享受大花卷两人笑的眼睛都没了福原爱展示大龙虾福原爱夫妇与王楠夫妇享受午餐晚餐吃烤鸭福原爱比剪刀手卖萌福原爱与王楠儿子摘山楂原来王楠家不是别墅，而是一个庄园。王楠、福原爱与汤媛媛合影王楠家庄园让网友直呼太大福原爱抱着王楠女儿首页 上一页 [13] [14] [15] [16] [17]延伸阅读陈冠希美国买浴室透明豪宅好有情趣 或与秦舒培结婚阿娇恨嫁(2016/10/17)姚笛曾嫌弃迟帅没豪宅分手？工作室发声明辟谣(2016/10/12)曝冯轲美国150万美元豪宅 拥有人没写张靓颖名字(2016/10/12)抢角女主否认因豪宅分手约会富二代 文章糊到底姚笛却要翻身(2016/10/12)[责任编辑：白金朋]绚丽美图更多俄美女成世界最红老师范冰冰被冯小刚黑惨了金星晒照秀S型曲线零食不离手的明星宋仲基宋慧乔婚期已定？鹿晗张艺兴粉丝互撕刘亦菲发福仙气全无泰国妹子和佛爷撞脸了！揭邓超满头白发真实原因马天宇又不按剧本出牌？杨幂8年前旧照被挖娱乐圈著名的几大骂战东北新闻网微信订阅号东北新闻网手机版东北新闻网法人微博新闻客户端Android版新闻客户端iPhone版返回频道首页返回本网站首页【一键分享腾讯微博搜狐微博网易微博新浪微博】发表评论查看评论所有评论仅代表网友意见，东北新闻网保持中立关键词:【进入论坛】【打印】【收藏】【关闭窗口】*免责声明：本网登载此文出于传递信息之目的，绝不意味着赞同其观点或证实其描述。如有侵犯您的利益，请您来信来电(024 23257777转8831)声明，本网站将在收到信息核实后24小时内删除相关内容。</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>On October 16th Beijing time, the newlywed couple Fukuhara Ai and Jiang Hongjie arrived in Beijing and visited their idol Wang Nan's home. Wang Nan and her husband Guo Bin served Fukuhara Ai and Jiang Hongjie with big steamed buns, large lobsters, and Beijing roast duck. Wang Nan's husband Guo Bin posted a group of photos on Weibo, attracting attention from netizens on the size of Wang Nan's home. Wang Nan and Fukuhara Ai took a photo together. Fukuhara Ai and Jiang Hongjie were interviewed, unexpectedly revealing Wang Nan's luxurious mansion. The decoration in Wang Nan's home is magnificent. From the photos, it can be seen that Wang Nan's home is at least a villa. Fukuhara Ai was interviewed. Fukuhara Ai and Jiang Hongjie enjoyed the big steamed buns so much that they couldn't stop smiling. Fukuhara Ai showed off the large lobster. Fukuhara Ai and Jiang Hongjie, along with Wang Nan and her husband, enjoyed lunch and dinner eating roast duck. Fukuhara Ai posed with a peace sign. Fukuhara Ai and Wang Nan's son picked hawthorn berries. It turns out that Wang Nan's home is not a villa, but an estate. Wang Nan, Fukuhara Ai, and Tang Yuanyuan took a photo together. Netizens exclaimed at the size of Wang Nan's estate. Fukuhara Ai held Wang Nan's daughter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 在我们二十多年的算命生涯中，常常看见一个人不管怎么努力，就是赚不到钱，到底是哪里出了问题了呢？案例：公历1973年2月4日9点15出生。乾造八字为：癸丑甲寅辛未癸巳看他八字日干坐月支知此人心地善良，不爱说话，与双亲缘份淡薄，容易被小人利用。还真是如此，他说他的朋友帮他办信用卡，还给了几万块钱的好处费给朋友，本身就欠债，办了信用卡以后，生活更加不顺利！此人确实为人忠直敬重，心慈性躁，深谋远虑，心中多劳。此人的偏财和正财都比较弱，求财不易，但是头脑中想法很多，如果遇到贵人还是可以成功的！财库不猜富足，需要补财库！最适转运补财库1、长期或周期性的财运、财库、事业，不顺利或不稳定。2、持续赚钱、努力赚钱也有赚到钱、却怎么也存不住钱。例如：身体疾病要花钱，意外花费，钱财被偷或被拐骗，其他额外花费。3、希望延续更多的财运财库。4、年过三十岁自己的事业还没有头绪； 生活中有的人命中财运不旺，即使运势很好的时候也没有财运；有的人运势很好财运也旺，可是依然没有多少钱。这就是典型的财库被锁，没有打开，因此才会出现不聚财、没有财的尴尬局面。这时候就需要做开财库和补财库，让你的财源滚滚，财库充盈，并不再钱财流失。转运补财库说明1、一个人命运的好坏，都是与生俱来的“福分”。有缘无缘，有福可享或是无福可受。一切的“福源”都来自祖先的“阴德”及自身累世的“福德”及现世的业报。2、随着成长，常因讲话做事工作，不小心或不经意的言行举止而“失德”。如：失言、恶口、拐、骗、而失口德或感情执着无明，滥情纵欲、堕胎杀生，或心不生善念、负面思想、脾气骄躁等，而“损德”，终会有“福源”不足现象。3、转运补财库的意义，即在于祈请神明作立，祈求开恩赦罪赐福，以修补耗损及先天不足的福缘与福报。 “开财门”的目的是把财库的门打开，否则钱财还是无法进来，就算你拼命努力，到头来还是一场空。 “补财库”的目的就是使得自己的财库充盈，减少钱财流失。古人说：“君子爱财，取之有 道”；如做人与道相悖，那么求也难得！人生不如意事常八九，财运不济不用怕，补财库助你财运亨通。本文由陈平命理原创，未经允许不得转载！陈平老师weixin：858660093</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>In our more than twenty years of fortune-telling career, we often see a person who, no matter how hard they try, just can't make money. What exactly is the problem? Case study: born on February 4, 1973, at 9:15 in the Gregorian calendar. The Eight Characters (Bazi) are: Gui Chou, Jia Yin, Xin Wei, Gui Si. Looking at his Bazi, the day stem sitting on the month branch indicates that this person is kind-hearted, not talkative, has a weak bond with his parents, and is easily manipulated by villains. Indeed, he said his friend helped him apply for a credit card, and even gave tens of thousands of dollars as a kickback to the friend. Already in debt, his life became even more difficult after getting the credit card! This person is truly honest, respectful, kind-hearted, impulsive, thoughtful, and hardworking. Both his indirect wealth and direct wealth are weak, making it difficult for him to seek wealth. However, he has many ideas in his mind, and if he encounters a nobleman, he can still succeed! The wealth palace is not prosperous, and needs to be supplemented with wealth! The most suitable way to enhance wealth luck is: 1. Long-term or periodic financial luck, wealth palace, and career are not smooth or stable. 2. Continuously making money, working hard to earn money, but unable to save money. For example: spending money on health issues, unexpected expenses, money being stolen or swindled, and other additional expenses. 3. Hoping to continue and enhance financial luck and wealth palace. 4. After turning thirty, one's career is still uncertain; some people have poor financial luck in their destiny, even when their overall luck is good, they still lack financial luck; some people have good overall luck and strong financial luck, but still do not have much money. This is a typical situation where the wealth palace is locked and not opened, leading to the embarrassing situation of not accumulating wealth. At this time, it is necessary to unlock and supplement the wealth palace to make your source of wealth abundant, and prevent money from flowing out. Explanation of enhancing wealth luck: 1. A person's destiny, whether good or bad, is inherent "blessing". Whether there is affinity or not, whether there is blessing to enjoy or not. All "blessings" come from the "virtue" of ancestors and the accumulated "blessings" and karmic retribution in this life. 2. As one grows up, often due to careless or inadvertent words and actions at work, one may "lose virtue". For example: speaking improperly, using foul language, swindling, and losing moral integrity or being emotionally attached without wisdom, indulging in lust, having abortions, killing, or lacking good thoughts, negative thinking, and having a bad temper, which will "deplete virtue", eventually leading to insufficient "blessings". 3. The significance of enhancing wealth luck is to pray to the deities for forgiveness, blessings, and to repair the depleted and congenitally deficient blessings and karmic retribution. The purpose of "opening the wealth gate" is to open the door of the wealth palace, otherwise money will not come in, even if you work hard, it will all be in vain. The purpose of "supplementing the wealth palace" is to make your wealth palace abundant and reduce the loss of money. The ancients said, "A noble person loves wealth, but obtains it in a righteous way"; if one's actions are contrary to righteousness, then it will be difficult to obtain wealth! Life is often full of unexpected events, if financial luck is not good, there is no need to fear, supplementing the wealth palace will help your financial luck prosper. This article is an original work by Chen Ping's fortune-telling, no reprint without permission! Teacher Chen Ping's WeChat: 858660093.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>日本共同社１４日报道，日本总务省消防厅正推进开发“机器人消防队”，以帮助应对高危场所火灾。根据设计，“机器人消防队”由４台机器人组成，分别负责上空拍摄、地面信息收集、水管连接以及水枪喷射。类似石化工厂火灾等紧急情况发生时，大型指挥车将搭载“机器人消防队”出动，由消防队员从停在安全区域的指挥车内确认火灾位置，在专用终端装置内输入地址后，负责上空拍摄的无人机和侦察机器人就会前往现场；掌握现场温度及可燃气体泄漏等情况后，消防队员向水管连接以及水枪喷射机器人下达指令，由它们根据风向等指标自动调整喷水位置及角度，开始消防作业。消防厅下设的消防研究中心表示，力争让“机器人消防队”在２０１９年投入实际应用。这样，在石化火灾等消防员无法靠近的高危火灾现场，机器人“应该有助于防止损失扩大”。（徐超）【新华社微特稿】</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>On the 14th, Japan's Kyodo News reported that the Japanese Ministry of Internal Affairs and Communications Fire Department is advancing the development of a "robot fire brigade" to assist in responding to fires in high-risk locations. According to the design, the "robot fire brigade" consists of four robots, each responsible for aerial photography, ground information collection, hose connection, and water gun spraying. In the event of emergencies such as fires in petrochemical plants, a large command vehicle will deploy the "robot fire brigade," with firefighters confirming the fire's location from the command vehicle parked in a safe area. After inputting the address into a dedicated terminal device, unmanned aerial drones and reconnaissance robots responsible for aerial photography will head to the scene. After assessing the on-site temperature and conditions such as flammable gas leaks, firefighters will instruct the hose connection and water gun spraying robots to automatically adjust the water spraying position and angle based on factors like wind direction, initiating firefighting operations. The Fire Research Center under the Fire Department aims to have the "robot fire brigade" put into practical use in 2019. This way, in high-risk fire scenes such as petrochemical fires where firefighters cannot approach, robots "should help prevent the spread of losses." (Xu Chao) [Xinhua News Agency special feature]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>下周苹果就要发布全新的Mac电脑了，坊间关于即将发布的产品的猜测也不断出现。近日芯片行业分析师LinleyGwennap对苹果A10Fusion处理器进行了解析。苹果A10Fusion芯片的两颗高性能核心代号为Hurricane(飓风)，而两颗高能效核心代号为Zephyr(微风)。根据 Geekbench 的速度测试，苹果A10芯片的Hurricane(飓风)高性能核心超越了所有其它智能手机芯片。 A10 Fusion的性能超过了三星Exynos 8890、高通骁龙820以及华为麒麟955。三星和华为的芯片在多核心任务上有一些优势，但大部分应用只使用一颗或两颗CPU核心。 根据Gwennap的介绍，苹果的A10 Fusion芯片的尺寸要远超其它处理器。有趣的是，苹果A10 Fusion芯片与英特尔x86架构对比时，可以提供几乎相同的性能。Gwennap最后得出的结论是，苹果处理器已经可以与英特尔竞争了，并认为A10 Fusion可以轻松的担任起MacBook Air上的处理任务。如果是这样的话没准新的MacBook Air会用苹果自家的处理器哦! 编辑：齐少恒</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Next week, Apple is going to release a brand new Mac computer, and speculations about the upcoming product have been emerging in the industry. Recently, chip industry analyst Linley Gwennap analyzed Apple's A10 Fusion processor. The two high-performance cores of the Apple A10 Fusion chip are codenamed Hurricane, while the two high-efficiency cores are codenamed Zephyr. According to speed tests by Geekbench, the Hurricane high-performance cores of the Apple A10 chip outperform all other smartphone chips. The performance of the A10 Fusion surpasses that of Samsung Exynos 8890, Qualcomm Snapdragon 820, and Huawei Kirin 955. Samsung and Huawei's chips have some advantages in multi-core tasks, but most applications only use one or two CPU cores. According to Gwennap, the size of Apple's A10 Fusion chip far exceeds that of other processors. Interestingly, when compared to Intel x86 architecture, the Apple A10 Fusion chip can provide almost the same performance. Gwennap's final conclusion is that Apple's processors are now competitive with Intel and believes that the A10 Fusion can easily handle processing tasks on the MacBook Air. If that's the case, maybe the new MacBook Air will use Apple's own processor! Editor: Qi Shaoheng</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>来巴西观看世界杯比赛，价格暴涨的机票并不是让球迷最难接受的，最大的麻烦来自住宿，酒店和宾馆的价格基本上翻了一番。同样，巴西的房价五年来上涨了200%，飙升的房价让当地普通百姓直呼“承受不起”。昂贵的住宿费已经让世界各地球迷苦不堪言，世界杯开赛仅一周，不少人选择了离开。房价坐上筋斗云在巴西，圣保罗与里约是排在前两位的大城市。这两个城市的房价也是巴西全国城市房价的风向标。在美丽的里约海滨，卡帕卡巴纳海滩是传统的富人区，海景公寓的价格在人民币5万元/平方米甚至更高；市区普通公寓多在2万元/平方米左右。里约和圣保罗的卫星城公寓价格在1万元/平方米左右。很多巴西人将这几年的房价暴涨归罪于2014年世界杯和即将到来的2016年奥运会。记者了解到，自2009年9月国际奥委会宣布里约热内卢成为2016年奥运会的承办城市之后，里约的楼市就发生了明显的变化，几乎是一路飙升。2012年，里约市南部依帕内玛海滩附近的莱布伦区成为整个巴西房价最贵的地区，其房价为2万雷亚尔（约合人民币5.6万元）/平方米。华人导游左乔治告诉记者，2010年时里约的平均房价约为人民币2万元/平方米，但到了2012年普通地段的房价都已涨到了4万人民币/平方米。有报告称，2013年和2014年这两年，里约的房价会稳定在6万元/平方米左右。若是从2009年算起，5年之间，巴西的房价增长了200%，这样的增长幅度在巴西过去是从未有过的。据了解，里约市普通居民的月收入在2000雷亚尔左右，中等家庭的个人收入也就是3500雷亚尔，因此动辄上万的房价让普通百姓直呼“承受不起”。磨刀霍霍向游客火热的世界杯也让巴西当地的旅馆住宿价格飙升。巴西媒体此前曾公布了一份12座世界杯举办城市旅馆价格的调查。调查显示，世界杯期间各城市的酒店房间大多上涨了150%-200%。在旅游城市里约，一晚住宿的均价为1000雷亚尔 （约合2800元人民币），当地最好的酒店之一的卡帕卡巴纳皇宫酒店，住一晚的价格竟然飙升到了1.5万雷亚尔（约合4.2万元人民币）。巴西媒体曾公布了一份12座世界杯举办城市旅馆价格的调查。调查显示，世界杯期间各城市客房差价比较大，其中最贵的库亚巴市的旅馆平均一晚1543.99雷亚尔 （约合人民币4088元），而马瑙斯市的客房一晚均价365雷亚尔 （约合人民币966元），是最便宜的。</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Coming to Brazil to watch the World Cup, the skyrocketing prices of plane tickets are not the most difficult for fans to accept. The biggest trouble comes from accommodation, as the prices of hotels and inns have basically doubled. Similarly, housing prices in Brazil have risen by 200% in the past five years, with soaring prices making local ordinary people exclaim "unaffordable". The expensive accommodation fees have made fans from all over the world extremely miserable, and just a week after the start of the World Cup, many people have chosen to leave. Housing prices have skyrocketed in Brazil, with São Paulo and Rio de Janeiro being the top two major cities. The prices of apartments in these two cities also serve as a barometer for urban housing prices nationwide in Brazil. In the beautiful Rio de Janeiro seaside, Copacabana Beach is a traditional wealthy area, where the price of sea-view apartments is around 50,000 RMB per square meter or even higher; regular apartments in the downtown area are mostly around 20,000 RMB per square meter. Satellite city apartments in Rio and São Paulo are priced around 10,000 RMB per square meter. Many Brazilians attribute the skyrocketing housing prices in recent years to the 2014 World Cup and the upcoming 2016 Olympics. It was learned that since the International Olympic Committee announced Rio de Janeiro as the host city for the 2016 Olympics in September 2009, the real estate market in Rio has undergone significant changes, almost soaring all the way. In 2012, the Leblon area near Ipanema Beach in the south of Rio became the most expensive area in Brazil, with housing prices reaching 20,000 reais (about 56,000 RMB) per square meter. Chinese tour guide Zuo Qiaozhi told reporters that in 2010, the average housing price in Rio was about 20,000 RMB per square meter, but by 2012, prices in regular areas had already risen to 40,000 RMB per square meter. Reports suggest that in 2013 and 2014, housing prices in Rio will stabilize at around 60,000 RMB per square meter. Calculated from 2009, within five years, housing prices in Brazil have increased by 200%, a growth rate unprecedented in Brazil's history. It is understood that the average monthly income of ordinary residents in Rio is around 2,000 reais, and the personal income of middle-class families is about 3,500 reais, so the exorbitant housing prices make ordinary people exclaim "unaffordable". The hotly anticipated World Cup has also led to a surge in local hotel accommodation prices in Brazil. Brazilian media previously published a survey of hotel prices in 12 World Cup host cities. The survey showed that during the World Cup, hotel room prices in most cities had increased by 150%-200%. In the tourist city of Rio, the average price for one night's stay was 1,000 reais (about 2,800 RMB), and one of the best hotels in the area, the Copacabana Palace Hotel, saw its price soar to 15,000 reais (about 42,000 RMB) for one night. Brazilian media also published a survey of hotel prices in 12 World Cup host cities. The survey showed that there was a significant difference in room rates among the cities during the World Cup, with the most expensive being in Cuiabá, where the average hotel price was 1,543.99 reais per night (about 4,088 RMB), while in Manaus, the average price for one night was 365 reais (about 966 RMB), the cheapest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>近日，“南海仲裁闹剧”的卑劣表演，极大地伤害了中国人民的感情，不少网友在网络上激愤声讨。尽管商务部副部长高燕表示未发生抵制菲律宾产品事件，但“抵制肯德基”之类的事情，不仅在网络上经常可以看到，在一些地方也是有真实发生的。近日，“南海仲裁闹剧”的卑劣表演，极大地伤害了中国人民的感情，不少网友在网络上激愤声讨。尽管商务部副部长高燕表示未发生抵制菲律宾产品事件，但“抵制肯德基”之类的事情，不仅在网络上经常可以看到，在一些地方也是有真实发生的。想必人们不会忘记，几年前，日本推出“购岛闹剧”，这种荒唐行动同样引发网友抗议。全国50多个城市均发起了抗议日本侵犯中国主权的游行示威活动，也出现了极个别打砸日产车辆、冲击涉日商场等事件。然而，“日货”与“爱国”之间没有必然联系，难道打砸日产车辆、冲击涉日商场就是爱国？果真如此的话，那盛开在武大及全国各地的樱花，是不是要连根铲除？商场琳琅满目的日货，以及千家万户正在使用的日产电器等日常用品，是不是也要全部销毁？事实上，绝对抵制日货，是办不到的，也是行不通的。这是因为，在中国，日货不仅限于汽车和电器，还有难以估量的钢铁、纤维等日本的大宗出口产品，潜伏在无数的中国建筑之中；可以说，日本制品在中国无处不在。同样，如今抵制美日韩的商品，也是办不到的。特别是，我们抵制美日韩货，他们也会反过来抵制中国制造，其结果必然是两败俱伤，双方利益受损，百姓生活也将受到不利影响。因此，爱国不是一时冲动，而应是理性的正义之举。走上街头逞一时之勇，非法无序的示威游行，不仅给城市的交通管理、社会秩序带来不必要的影响，也给广大人民群众的生产、生活造成很大的困扰，还可能会被少数别有用心的人加以利用，干起趁火打劫和挑起事端的非法勾当。根据《中华人民共和国集会游行示威法》及有关法规，凡举行游行示威活动的，必须依法向公安机关申请，并在获得公安机关许可后，依法举行。至于打砸日产车辆、冲击涉日商场等非理性的极端行为，已经涉嫌违法，公安机关将会依法查处，追究其法律责任和经济赔偿责任。“抵制肯德基”不可取，挺起民族脊梁才是真。“放大的仇恨，打不倒任何敌人”。真正的爱国，绝不是狂躁的示威和“抵制”，否则有可能伤害自己，让亲者痛，仇者快。爱国和守法并不矛盾。在一个法治的国家里，爱国首先就是要守法，守法是每个公民的基本义务，合法有序地表达爱国主义情感，才是我们公民成熟理性的表现。</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>In recent days, the despicable performance of the "South China Sea arbitration farce" has greatly hurt the feelings of the Chinese people, and many netizens have expressed their indignation online. Although Vice Minister of Commerce Gao Yan stated that there has been no boycott of Philippine products, incidents like "boycotting KFC" are not only frequently seen online but have also actually occurred in some places. Recently, the despicable performance of the "South China Sea arbitration farce" has greatly hurt the feelings of the Chinese people, and many netizens have expressed their indignation online. Although Vice Minister of Commerce Gao Yan stated that there has been no boycott of Philippine products, incidents like "boycotting KFC" are not only frequently seen online but have also actually occurred in some places. People must not forget that a few years ago, Japan launched the "purchase island farce," which similarly sparked protests from netizens. Protests against Japan's infringement of Chinese sovereignty were held in over 50 cities nationwide, and there were isolated incidents of smashing Japanese cars and disrupting Japanese-related businesses. However, there is no necessary connection between "Japanese goods" and "patriotism." Is smashing Japanese cars and disrupting Japanese-related businesses really patriotism? If so, should the cherry blossoms blooming at Wuhan University and across the country be uprooted? Should the wide range of Japanese goods in stores and the everyday items like Japanese electronic appliances used by millions of households be destroyed as well? In fact, a complete boycott of Japanese goods is not feasible or practical. This is because in China, Japanese goods are not limited to just cars and electronics; there are also significant Japanese exports like steel and fibers embedded in countless Chinese constructions; it can be said that Japanese products are ubiquitous in China. Similarly, boycotting goods from the U.S., Japan, and South Korea today is also not feasible. Especially if we boycott goods from the U.S., Japan, and South Korea, they will in turn boycott Chinese products, resulting in mutual harm, damage to both sides' interests, and adverse effects on people's lives. Therefore, patriotism is not a momentary impulse but should be a rational and just act. Taking to the streets to show temporary courage through illegal and disorderly demonstrations not only brings unnecessary disruptions to urban traffic management and social order but also causes significant troubles to the production and lives of the general public. It may also be exploited by a few malicious individuals for looting and provoking illegal activities. According to the "People's Republic of China Law on Assembly, Procession, and Demonstration" and relevant regulations, anyone organizing a demonstration must apply to the public security organs in accordance with the law and hold the demonstration legally only after obtaining permission from the public security organs. As for irrational extreme actions like smashing Japanese cars and disrupting Japanese-related businesses, they have already crossed into illegal territory, and the public security organs will investigate and hold them accountable for legal and economic compensation. "Boycotting KFC" is not advisable; standing up straight as a nation is true patriotism. "Magnified hatred cannot defeat any enemy." Genuine patriotism is never about frenzied demonstrations and "boycotts," as they may end up hurting oneself, causing pain to loved ones, and delighting enemies. Patriotism and abiding by the law are not contradictory. In a country governed by the rule of law, patriotism first and foremost means abiding by the law. It is the basic duty of every citizen to express patriotic sentiments in a legal and orderly manner, which is the mature and rational behavior of our citizens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>正所谓看多不做多，看空不做空，说到底是一种风险的控制与修行。本金是有限的，风险是无限的。所以只有努力控制风险，才可奢谈盈利。这才是在这个金融交易的游戏中生存下去的根本的法则。所以做金融交易，首要的任务就是，充分认识盈利背后的风险控制。这就是你思维中的悖论，你要做到的就是这个悖论所表现出来的一切。〇大事件：黄金白银周四欧洲央行公布的利率决议是市场关注的焦点，欧洲央行维持利率不变，不过欧洲央行行长德拉基在新闻发布会上的讲话令汇市剧烈震荡，欧元兑美元一度短线飙升70点，升破1.10关口，刷新四日高点至1.1035，随后跳水逾百点，刷新三个月低点至1.0935；现货黄金则在德拉基讲话后小幅冲高，一度刷新逾两周高点至1274.50美元/盎司，旦随着美元指数创七个月新高，金价回落至1270美元下方。北京时间周四（10月20日）20:30，美国发布10月15日当周首次申请失业救济人数，数据略逊于预期。数据虽高于预期，但已连续85周处于30万关口下方，连续周期创1970年来最长，这意味着美国劳动力市场依旧处于稳健增长的轨道上，就业市场仍强劲，或足够支撑美联储在12月加息。自6月份英国退欧公投成功退欧之后，英国正式启动退欧程序的时间确定了。欧洲理事会主席Tusk表示，英国首相Theresa May确认将在2017年3月前启动退欧谈判。“欧洲不会在退欧程序正式启动之前同英国进行协商。英国目前仍是欧盟成员，有相应的权力和义务。一旦开始退欧谈判，英国将不会参加欧盟会议。”原油周四国际油价震荡走弱，美原油12月期货一度跌逾2%至50.75美元/桶，布伦特原油12月期货最低曾触及51.57美元/桶，日内油价走弱的主要原油是部分多头的获利了结，隔夜EIA库存数据意外大减，OPEC准备减产等利好消息被市场消化完全后，油价迎来了回调。对于冻产协议能否最终达成，仍是现今市场关注的重点！①黄金 解析：周四，黄金价格亚盘的表现比较强，直接靠近前高点1273附近，但还是没有突破上去，欧盘自1273走了一轮回落，这个回落符合我们昨天的预期，但是隔夜黄金维持1270下方震荡，行情运行幅度再次变小，这样一来，这一波行情的运行周期将被拉长一些。</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>It is said that watching without taking long positions and watching without taking short positions ultimately involves controlling and practicing risk. Capital is limited, while risk is unlimited. Therefore, only by making efforts to control risk can one talk about making profits extravagantly. This is the fundamental rule for surviving in the game of financial trading. Therefore, the primary task in financial trading is to fully understand the risk control behind profits. This is the paradox in your thinking, and what you need to achieve is everything that this paradox embodies. Major Event: The interest rate decision announced by the European Central Bank on Thursday was the focus of the market's attention. The European Central Bank kept interest rates unchanged, but ECB President Draghi's speech at the press conference caused a sharp fluctuation in the forex market. The euro against the dollar briefly surged 70 points, breaking through the 1.10 level to refresh a four-day high of 1.1035, then plunged more than a hundred points to hit a three-month low of 1.0935; spot gold also rose slightly after Draghi's speech, briefly hitting a two-week high of $1274.50 per ounce, but then fell below $1270 as the US dollar index hit a seven-month high. At 20:30 Beijing time on Thursday (October 20), the US released the number of initial jobless claims for the week ending October 15, which was slightly below expectations. Although the data was higher than expected, it has been below the 300,000 mark for 85 consecutive weeks, the longest continuous period since 1970, indicating that the US labor market is still on a stable growth trajectory, with a strong job market that may be enough to support a rate hike by the Federal Reserve in December. Since the successful Brexit referendum in June, the UK has officially set the time to trigger the Brexit process. European Council President Tusk stated that UK Prime Minister Theresa May confirmed that the Brexit negotiations will be initiated before March 2017. "Europe will not negotiate with the UK before the formal start of the Brexit process. The UK is still a member of the EU and has corresponding rights and obligations. Once the Brexit negotiations begin, the UK will not participate in EU meetings." International oil prices fluctuated lower on Thursday, with US crude oil futures for December falling more than 2% to $50.75 per barrel at one point, while Brent crude oil futures for December hit a low of $51.57 per barrel. The main reason for the intraday weakness in oil prices was profit-taking by some long positions, as positive news such as the unexpected large decrease in EIA inventories and OPEC's preparation for production cuts had been fully digested by the market, leading to a pullback in oil prices. Whether the production freeze agreement can ultimately be reached remains a key focus of the current market! Gold Analysis: On Thursday, the performance of gold prices in the Asian session was relatively strong, approaching the previous high near $1273, but still failed to break through. During the European session, gold retraced from $1273, which was in line with our expectations from yesterday. However, gold remained volatile below $1270 overnight, and the range of the market operation narrowed again, which will extend the duration of this market movement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>不知道众粉丝中有多少人是和喵星人一起长大滴？超喜欢看到小孩子+喵星人的组合了，总觉得能和喵星人一起长大的孩纸一定是善良的。 欢迎关注瑞敏儿童教育资源，微信号：amttcc （本文转自猫咪那些事。声明：本号从无抠水印，抄袭等无良行为，转载尽量注明来源，由于互联网无良抄袭太多，无力每篇文章都找到最终作者，不能确定图片在哪个环节被抠水印，如侵害到原作者权益，请告知，我们将公开道歉，育儿深入交流可加QQ群：学前249561976，学龄247017699）瑞敏儿童教育资源微信号:amttcc微信简介：提供免费自助的专业儿童发展测评工具，优质的教育资源，优秀的教育理念。瑞敏关心孩子核心能力的培养，孩子的心理健康，尊重儿童发展的客观规律，只有真正优秀和有价值的内容才能得到我们的推荐。瑞敏的理想是家长不再迷茫，孩子不再是迷茫教育的试验品，帮助家长少走育儿路上的弯路。</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>I wonder how many fans have grown up with the star cats? I really love to see the combination of children and star cats. I always feel that children who grow up with star cats must be kind. Welcome to follow Rui Min Children's Education Resources, WeChat ID: amttcc (This article is from the matters of cats. Statement: This account never removes watermarks, plagiarizes, etc., and tries to indicate the source when reprinting. Due to the rampant plagiarism on the Internet, it is impossible to find the original author for every article. If the rights of the original author are infringed, please inform us, and we will publicly apologize. For in-depth parenting communication, you can join QQ groups: preschool 249561976, school age 247017699) Rui Min Children's Education Resources WeChat ID: amttcc WeChat profile: Providing free self-service professional child development assessment tools, high-quality educational resources, and excellent educational concepts. Rui Min cares about the cultivation of children's core abilities, children's mental health, respects the objective laws of child development, and only truly excellent and valuable content can receive our recommendation. Rui Min's ideal is for parents not to be confused anymore, for children not to be experimental subjects of confused education, and to help parents avoid detours on the path of parenting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>你是在“赚钱”还是“挣钱”?99%的人都不懂!文/婉悦纳金/aa1607316697从现在开始，你必须有工具箱意识。即：你的房子、车子、股票、工资等等都是你的金融工具，你的目的不是彻底拥有他们，而是利用他们。你要通过更新、倒手、与赎回实现增值，然后推高自己的高度，从而可以配置更多资源。为什么同样忙忙碌碌，有的人食不果腹，有的人硕果累累？为什么同样的机遇和能力，有的人富可敌国，有的人只能小富即安？不知庐山真面目，只缘身在此山中。如果你今天能跟着我一起跳出问题看问题，一切疑惑就迎刃而解了。人们说到老板时常用“赚钱”来形容，说到打工者时就会用上“挣钱”去描述。但有谁知道这其中的本质区别呢？ 先看看“挣钱”“挣”字：左边是手，右边是争，意思是你要用自己的双手去辛苦的劳动，你需要直接靠出售自己技能、资源去换取的薪酬，在这个过程中，其始点为物，终点也是物。而且这种报酬只跟你对你劳动成正比，你的时间和精力是有限的，所以能拿到的报酬都是比较少的。它的公式是：物＝钱＝物(数量减少)如果你是这种人，要么通过读书获得更高、更稀罕的的技能价值；要么通过爱思考、会做人、大量实践提高自己实践能力。但是对于普通人来说，每天靠双手累死累活，受尽剥削压榨，才能为自己争取到一点报酬。而且一旦你不做了，钱就没了。再说了，你挣钱的速度赶得上钱贬值的速度吗？ 再来看看“赚钱”“赚”字就不同，它左边是贝，代表着金钱，右边是一只手拿二支禾苗，代表粮食。意思就是用钱买粮食再卖出去，然后又得到钱。右边的“兼”字也可以理解为兼职的兼。“贝”加一个“兼”，也就是让你的钱去做兼职，帮你用钱生钱。婉悦认为，在奴隶社会最重要的财富是“人力”（即：奴隶）；封建时代的最重要的财富是“土地”，而资本时代最重要的财富是“资本”，而“资本”的本质就是资源的配置。“赚钱”有一个必须的前提，那就是用自己的智慧、眼光创造一种形式的劳动状态，主要依靠配置资源赚钱，其实资源是谁的不重要，关键看你如何源配置权。凡是从事资源的投入-整合-运营-产出工作的人就是老板，当然也包括企业家和创业者。这样即使你什么也不做，每天在沙滩上晒太阳，财富也会一刻不停的像滚雪球一样越滚越大。 这才是真正意义的财富增加，关键是你要把它做成一个循环，那财富就会像雪球一样越滚越大。</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Are you "making money" or "earning money"? 99% of people don't understand! By Wen Yue Na Jin / aa1607316697 From now on, you must have a toolbox consciousness. That is: your house, car, stocks, salary, etc. are all your financial tools, your goal is not to completely own them, but to use them. You need to achieve appreciation through updates, resale, and redemption, then elevate yourself to a higher level, so that you can allocate more resources. Why do some people struggle but can't make ends meet, while others are fruitful? Why do some people with the same opportunities and abilities become extremely wealthy, while others can only be moderately well-off? Not knowing the true face of Mount Lu, only because one is in this mountain. If you can jump out of the problem and look at it with me today, all doubts will be easily resolved. People often use "making money" to describe bosses and "earning money" to describe workers. But who knows the essential difference between them? Let's first look at "earning money." The character "挣" consists of "hand" on the left and "struggle" on the right, meaning you have to work hard with your own hands. You need to directly exchange your skills and resources for compensation, where the starting point is material and the end point is also material. The reward is directly proportional to your labor, and your time and energy are limited, so the reward is relatively small. Its formula is: material = money = material (quantity decreases). If you are this type of person, you either acquire higher and rarer skills through studying, or improve your practical skills through thinking, interpersonal skills, and extensive practice. However, for ordinary people, they have to work hard every day with their hands, endure exploitation and squeeze, just to earn a little reward for themselves. And once you stop working, the money stops coming in. Moreover, can you earn money fast enough to keep up with the depreciation of money? Now let's look at "making money." The character "赚" is different, with "贝" on the left representing money, and a hand holding two rice seedlings on the right representing food. It means buying food with money and then selling it to get money again. The "兼" on the right can also be understood as part-time work. "贝" plus "兼" means letting your money do part-time work for you, helping you make money with money. Wen Yue believes that in a slave society, the most important wealth is "human labor" (i.e., slaves); in the feudal era, the most important wealth is "land," and in the capitalist era, the most important wealth is "capital," and the essence of "capital" is resource allocation. "Making money" has a necessary prerequisite, that is, using your wisdom and vision to create a form of labor status, mainly relying on resource allocation to make money. In fact, it doesn't matter whose resources they are, the key is how you allocate them. Anyone engaged in resource input-integration-operation-output work is a boss, including entrepreneurs and innovators. This way, even if you do nothing, bask in the sun on the beach every day, wealth will continue to grow like a snowball. This is the true meaning of increasing wealth, the key is to make it a cycle, then wealth will grow like a snowball.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>原标题[11岁男孩家中上吊自杀曾因未完成作业被批评] 图片来自网络。 图片来自网络。新京报快讯(记者程媛媛实习生刘冰洋)4月7日晚，江苏扬州市花园小学11岁男孩阳阳放学回家后，在厨房缢亡。当地警方初查称，阳阳系自杀身亡。家属称，事发当日，阳阳曾因未完成作业被老师批评，要求学校就此给出解释。今日(4月10日)下午，扬州市教育局安保处相关负责人称，经初查，该校老师并未有不适当的行为。事发前一天发QQ空间称“学习太累、活着太累”4月10日下午，阳阳的母亲任女士告诉新京报记者，4月7日是清明节假期后第一天上课，早晨开车送阳阳上学时，并未发现孩子情绪异常。事发当晚6时许，任女士回家后发现孩子在厨房缢亡。随后，扬州市公安局开发区分局文汇派出所的民警到现场勘查，初步判定阳阳系自杀。任女士表示，家中并未发现任何阳阳留下的书面文字，其房间也无异常。据其介绍，阳阳平日学习成绩不太好，比较调皮，此前也有没完成作业的情况，但都会与家长沟通。事发前几日的清明假期也未发现阳阳有任何抑郁症状。新京报记者发现，阳阳QQ空间的最后一条状态停留在4月6日上午9时38分，“学习太累，上学太累，活着太累。”任女士称，此状态确为孩子所发。家长称自杀当日未完成作业被老师批评4月7日下午，阳阳的爸爸曾接到数学老师电话，对方称孩子没有完成作业。据任女士讲，阳阳的同学称当天阳阳的确因未完成作业在课堂上被老师批评。家属怀疑孩子出事与此有关。学校、教育局：老师未出现不当行为一个名为“江苏省扬州市花园小学”的微博于4月8日15时许发布内容称，“接家长信息：2015年4月7日19时左右，花园小学学生阳阳在家中意外身亡，面对此情，学校师生感到十分悲痛，详情警方正在调查之中。”今日晚间，花园小学副校长称，经公安机关调查取证，并未发现老师有不当教学行为。阳阳家属与校方协调之后，已接受阳阳自杀的事实。对此事，扬州市教育局相关负责人称，经初步了解，该校老师并未出现不适当行为。</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Original title: [11-year-old boy hanged himself at home due to criticism for not completing homework] The picture is from the internet. The picture is from the internet. New Beijing News Flash (Reporter Cheng Yuanyuan, intern Liu Bingyang) On the evening of April 7th, 11-year-old boy Yangyang from Huayuan Primary School in Yangzhou City, Jiangsu Province, was found dead by hanging in the kitchen after returning home from school. Local police preliminary investigation indicated that Yangyang died by suicide. Family members stated that on the day of the incident, Yangyang was criticized by his teacher for not completing his homework and they requested an explanation from the school. Today (April 10th) in the afternoon, the person in charge of the security department of the Yangzhou Education Bureau stated that after initial investigation, the teachers at the school did not engage in any inappropriate behavior. The day before the incident, a post on QQ space said "Studying is too tiring, living is too tiring." In the afternoon of April 10th, Yangyang's mother, Ms. Ren, told the New Beijing News reporter that on April 7th, the first day of school after the Qingming Festival holiday, she did not notice any abnormal emotions in her child when she drove him to school in the morning. Around 6 p.m. on the day of the incident, Ms. Ren found her child hanging in the kitchen after returning home. Subsequently, the police from the Wenhu Branch of the Development Zone Police Station in Yangzhou conducted an on-site investigation and preliminarily determined that Yangyang died by suicide. Ms. Ren stated that no written notes left by Yangyang were found at home, and his room showed no signs of abnormality. According to her, Yangyang's academic performance was not very good on regular days, he was quite mischievous, and there were instances of unfinished homework before, but he would always communicate with his parents. No signs of depression were observed in Yangyang during the Qingming holiday a few days before the incident. The last post on Yangyang's QQ space was on April 6th at 9:38 a.m., saying "Studying is too tiring, going to school is too tiring, living is too tiring." Ms. Ren confirmed that this post was indeed made by her child. Parents claimed that on the day of the suicide, Yangyang was criticized by the teacher for not completing homework In the afternoon of April 7th, Yangyang's father received a call from the math teacher, who said the child had not completed the homework. According to Ms. Ren, Yangyang's classmates confirmed that he was indeed criticized by the teacher in class that day for not completing the homework. Family members suspect that this incident is related to that. School and Education Bureau: Teachers did not engage in inappropriate behavior A Weibo account named "Huayuan Primary School in Yangzhou City, Jiangsu Province" posted around 3 p.m. on April 8th, "Received information from parents: On April 7, 2015, around 7 p.m., Huayuan Primary School student Yangyang passed away at home, facing this situation, the school teachers and students feel extremely sad, details are under investigation by the police." Tonight, the vice principal of Huayuan Primary School stated that after the investigation and evidence collection by the public security organs, no inappropriate teaching behavior by the teachers was found. After coordination between Yangyang's family and the school, they have accepted the fact that Yangyang committed suicide. Regarding this matter, the person in charge of the Yangzhou Education Bureau stated that after preliminary understanding, the teachers at the school did not engage in any inappropriate behavior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>6月19日，沈阳市公安局召开进一步强化全市学校幼儿园安全工作会议，决定从即日起至年底，在全市范围内开展一次强化高校、中小学及幼儿园安全工作专项行动，同时制定出台了十项具体工作措施。具体工作措施解读解读1重点排查幼儿园、民办学校全市公安机关将迅速组织警力，在三天内全面摸清辖区内每一所学校、幼儿园及社会办学机构的底数和自然情况，建立档案，并开展一次全面的安全检查。幼儿园、民办学校是此次排查整治的重点。解读2严格落实“一校一警”校园民警每天到校巡查，组织督促巡防队员、教师、保安员、校园保卫力量在学生、幼儿上课和上下学重点时段加强值守。解读3排查校园周边精神病人警方将对辖区内各类社区矫正对象和容易肇事肇祸的精神病人，进行全面梳理，对那些心理扭曲、心怀不满、扬言报复社会的人员，逐一落实管控责任。解读4严查网吧上网实名制以网吧上网实名制为重点，强化校园周边网吧等上网服务场所的安全监管。配合有关部门清理整治校园周边的违章建筑、书刊音像制品经营点、不洁饮食摊点等。解读5家长停车接孩子不贴罚单今后，家长接孩子在校园门口临时停车，将以说服教育为主，充分考虑家长的难处，不会贴罚单。铁西分局发布“儿童安全手册”19日，沈阳市公安局铁西分局官方微博发布一份“沈城儿童安全手册”:安全永远是第一位的：孩子们，在你还没有长大的时候，不要去逞英雄，拯救别人的事请交给成年人去做。被“欺负”应该告诉父母：不论校内还是校外，除了小伙伴之间的小摩擦，如果有人对你进行殴打和恐吓，你应该告诉父母。记住爸爸妈妈的电话：孩子们，记住爸爸妈妈的电话和家庭住址，这对你们非常重要。私密处不允许别人摸：请记住你的背心、内裤覆盖的地方就是私密处，这些地方是不允许别人看和触摸的。不能相信陌生人的话：特别是主动给你饮料、零食和说带你去玩的陌生人。学会看红绿灯过马路：除了要学会走斑马线以外，还要学会看红绿灯，记住“红灯停绿灯行”。记住坏人是可以骗的：老师常说撒谎不是好孩子，对坏人是可以撒谎的，可以不讲真话。</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>On June 19th, the Public Security Bureau of Shenyang City held a meeting to further strengthen the safety work in schools and kindergartens citywide. It was decided that from now until the end of the year, a special action will be carried out across the city to enhance the safety work in universities, primary and secondary schools, and kindergartens. At the same time, ten specific work measures were formulated and issued. The interpretation of the specific work measures is as follows:
+Interpretation 1: Focus on inspecting kindergartens and private schools. The public security organs of the city will quickly organize police forces to comprehensively understand the situation of each school, kindergarten, and privately-run educational institution in their jurisdiction within three days, establish files, and conduct a comprehensive safety inspection. Kindergartens and private schools are the key targets of this inspection and rectification.
+Interpretation 2: Strictly implement the "one school, one police officer" policy. Campus police officers will patrol schools daily, organize and supervise patrol team members, teachers, security guards, and campus security forces to strengthen their presence during key periods when students and children are in class or arriving at and leaving school.
+Interpretation 3: Inspect mentally ill individuals around campuses. The police will comprehensively review all types of community correction subjects and mentally ill individuals prone to causing trouble in their jurisdiction, and implement control measures for those with distorted minds, harboring grievances, or threatening to retaliate against society.
+Interpretation 4: Crack down on internet cafes implementing real-name registration. Emphasize the real-name registration system in internet cafes and enhance the safety supervision of internet service venues around campuses. Cooperate with relevant departments to clean up and rectify illegal buildings, book and audio-visual product vendors, and unhygienic food stalls around campuses.
+Interpretation 5: Parents picking up children will not be fined for temporary parking. In the future, parents temporarily parking at the school gate to pick up their children will be primarily educated and persuaded, taking into full consideration the difficulties faced by parents, without issuing fines.
+Tieshi Sub-bureau of Shenyang Public Security Bureau released a "Children's Safety Manual" on its official Weibo account. On the 19th, the official Weibo account of Tieshi Sub-bureau of Shenyang Public Security Bureau released a "Shenyang Children's Safety Manual": Safety always comes first: Children, before you grow up, do not act heroically, leave the rescue to adults. If you are "bullied," you should tell your parents: Whether at school or outside, apart from minor conflicts among friends, if someone assaults or threatens you, you should inform your parents. Remember your parents' phone numbers: Children, remember your parents' phone numbers and home address, they are very important to you. Do not allow others to touch your private parts: Remember, the areas covered by your vest and underwear are private, and others are not allowed to see or touch those areas. Do not believe strangers: Especially those who offer you drinks, snacks, or invite you to play. Learn to cross the road at traffic lights: In addition to using crosswalks, learn to obey traffic lights, remember "red light stop, green light go." Remember that bad people can be deceived: Teachers often say lying is not good, but it's okay to lie to bad people, you don't have to tell the truth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>5月19日清晨5时许，安徽省潜山县梅城镇罗汉村平桥组11岁的留守女童在惨遭奸杀后被抛尸粪坑。经查，死者系平桥小学六年级女生张悦。张悦被发现时，死在邻居家厕所里，下身赤裸，头朝下放在厕所中。张悦的父亲今年40岁，与妻子常年在江苏打工，留守在家的女儿是他们家的独苗苗，常年由爷爷、奶奶照顾生活起居。平日晚上张悦一人住楼房内，爷爷奶奶则住在楼房附近的平房里。19日清晨5时许，离他们约500米远的邻居发现，自己家的厕所有1具女尸，周围围满了同村的邻居。感到情况不妙的孩子奶奶，赶紧跑到张悦所住的楼房内，只见大门敞开，大门门口有孩子的衣服，地上还有血迹。孩子的奶奶又到孩子的卧室去看，也没在床上发现孩子，只是在被子上又发现有一摊血迹。孩子的奶奶基本确定死去的就是自己的孙女，随即抱衣大哭。事后分析案发过程是，凶手是在头天晚上趁孩子在家里睡觉时，撬开大门进入屋内作案，凶手残忍冷血地奸杀孩子后又抛尸邻居家的厕所粪坑中，并用两块砖头朝下压着。案发后，潜山县公安局刑警大队立即介入调查。据潜山警方5月20日通报，他们已很快锁定犯罪嫌疑人江某。江某系湖北红安县人，27岁，本身就是命案在逃犯，后疑冒充流浪乞讨人员或者打工人员，当过修理工。昨天，一位姓陶的办案民警对北青报记者介绍，目前关于该疑犯的通缉令已经发到网上，湖北省也已将该疑犯此前的命案与此并案通缉，并请群众协助提供破案线索。而孩子的父母亲属强烈希望警方能尽快破案。截至昨天已是案发第8天，孩子遗体仍停放在殡仪馆中，并未安葬。</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>In the early morning of May 19th, at around 5 o'clock, an 11-year-old left-behind girl from Luohan Village, Pingqiao Group, Meicheng Town, Qianshan County, Anhui Province, was brutally raped and murdered, and her body was thrown into a cesspool. The deceased was identified as Zhang Yue, a sixth-grade student at Pingqiao Elementary School. When Zhang Yue was found, she was dead in the neighbor's toilet, naked from the waist down, with her head facing down in the toilet. Zhang Yue's father, 40 years old this year, and his wife have been working in Jiangsu all year round. Their daughter, who stayed at home, was their only child and was taken care of by her grandparents in daily life. On regular days, Zhang Yue lived alone in the building at night, while her grandparents lived in a nearby bungalow. At around 5 o'clock on the morning of the 19th, a neighbor about 500 meters away discovered a female corpse in their toilet, surrounded by villagers from the same village. Sensing something was wrong, the child's grandmother hurried to the building where Zhang Yue lived, only to find the door wide open, the child's clothes at the door, and bloodstains on the floor. The child's grandmother went to the child's bedroom and did not find the child in bed, but found a pool of blood on the blanket. The child's grandmother was almost certain that the deceased was her granddaughter, and she burst into tears. An analysis of the case revealed that the perpetrator had broken into the house the previous night while the child was sleeping, brutally raped and killed the child, then threw the body into the neighbor's toilet cesspool and pressed it down with two bricks. After the incident, the Criminal Investigation Brigade of the Qianshan County Public Security Bureau immediately launched an investigation. According to the Qianshan police report on May 20th, they quickly identified the suspect Jiang. Jiang, a 27-year-old from Hong'an County, Hubei Province, was already a fugitive in a homicide case. He was suspected of pretending to be a beggar or a worker and had worked as a repairman. Yesterday, a police officer named Tao briefed a reporter from The Beijing News that a wanted notice for the suspect had been posted online, and Hubei Province had also issued a wanted notice for the suspect's previous homicide case, seeking the public's assistance in providing clues to solve the case. The child's parents and relatives strongly hope that the police can solve the case as soon as possible. As of yesterday, it has been the 8th day since the incident, and the child's body is still in the funeral home, not yet buried.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>10月27日~29日，2016全国高性能计算学术年会在陕西西安举行。会上发布的《2016年中国高性能计算机TOP100排行榜》显示，部署在国家超级计算无锡中心的“神威·太湖之光”超级计算机毫无悬念地以93.015PFLOPS（9.3亿亿次每秒）的测试性能荣登榜首，结束了“天河二号”对这一榜单连续3年的统治。 “天河二号”“天河一号A”分列2、3名。 第1到30名长江后浪推前浪在这份榜单中，2016年新入榜系统有74套，这意味着2015年TOP100榜单上只有前26名“幸存”。其中联想新增28套，中科曙光新增27套，浪潮11套。以上“国产三强”合计占TOP100系统份额的87%，国外品牌占据中国TOP100超级计算机半壁江山的时代一去不返。 厂商份额方面，中科曙光、联想分别以34套系统并列第一，这也是“中科系双雄”第三次同居榜首，其中曙光更是已第八次蝉联该榜单桂冠。此外，华为继2014年之后再次强势杀入榜单（5套）。性能方面，本年度中国高性能计算机TOP100的整体性能得到大幅提升，这从2015年排名第4的“神威蓝光”直线掉落到第23名可见一斑。值得一提的是，第1名的“神威·太湖之光”性能占所有100套总性能的47%，几乎与其他所有系统性能相当，充分体现了“超级”特点，一举将TOP100超算系统的平均性能较2015年提高了2.32倍；联想部署在某电信部门的超算系统垫底该榜单，性能达到528.957TFLOPS，是2015年第100名性能的1.47倍。 从应用方面来看，“大数据挖掘+深度学习”成为今年的应用热点，100台高性能计算机中有48台系统用于数据分析与机器学习，大幅高于去年的27台；用于信息服务的计算机数则由去年的48台降为今年的23台。此外，从机构类别来看，HPC系统在各类企业中的应用占76%，表明大部分的HPC应用于国民经济主战场。百亿亿次超级计算机启动研制虽然“神威·太湖之光”超越众多“前辈”拿到冠军，但它的“后辈”也毫不懈怠，已经有了“超车”的迹象。由国家并行计算机工程技术研究中心牵头的“E级高性能计算机原型系统”研制项目近日已正式启动，速度将十倍于目前世界最快。这标志包括核心处理器在内的全国产化百亿亿次超级计算机步入实际研发阶段。</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>The 2016 National High Performance Computing Academic Conference was held in Xi'an, Shaanxi from October 27th to 29th. The "2016 China TOP100 Supercomputers List" released at the conference showed that the "Sunway TaihuLight" supercomputer deployed at the National Supercomputing Center in Wuxi claimed the top spot with a testing performance of 93.015PFLOPS (9.3 trillion calculations per second), ending the three-year reign of "Tianhe-2" on the list. "Tianhe-2" and "Tianhe-1A" ranked 2nd and 3rd respectively. The rising stars surpassed the established ones in the top 30 of the list. In this year's list, 74 new systems made their debut, indicating that only the top 26 from the 2015 TOP100 list "survived". Among them, Lenovo added 28 systems, Sugon added 27 systems, and Inspur added 11 systems. The combined market share of these "domestic big three" accounted for 87% of the TOP100 systems, marking the end of the era where foreign brands dominated the Chinese TOP100 supercomputers. In terms of market share, Sugon and Lenovo tied for first place with 34 systems each, marking the third time the "Sugon-Lenovo duo" has shared the top spot. Sugon has now held the crown for the eighth time. Additionally, Huawei made a strong entry into the list again with 5 systems. In terms of performance, the overall performance of China's TOP100 high-performance computers saw a significant improvement this year, as seen from the drop in ranking of "Sunway BlueLight" from 4th place in 2015 to 23rd place. Notably, the top-ranked "Sunway TaihuLight" accounted for 47% of the total performance of all 100 systems, almost equivalent to the performance of all other systems combined, showcasing its "super" characteristics. It increased the average performance of the TOP100 supercomputing systems by 2.32 times compared to 2015. The Lenovo system deployed in a certain telecommunications department ranked at the bottom of the list in terms of performance, reaching 528.957TFLOPS, which is 1.47 times the performance of the 100th place in 2015. In terms of applications, "big data mining + deep learning" became the hot application trend this year, with 48 out of 100 high-performance computing systems used for data analysis and machine learning, a significant increase from 27 systems last year; the number of computers used for information services decreased from 48 last year to 23 this year. Furthermore, in terms of institutional categories, HPC systems accounted for 76% of applications in various enterprises, indicating that most HPC applications are used in the main battlefield of the national economy. While the "Sunway TaihuLight" surpassed many "predecessors" to claim the championship, its "successors" are also making progress without slack. The "E-level High-Performance Computing Prototype System" research project led by the National Parallel Computer Engineering Technology Research Center has recently been officially launched, with a speed ten times faster than the current world's fastest. This marks the practical research and development phase of the domestically produced exascale supercomputer, including the core processor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2016款加拿大版奔驰GLE350d，运动包豪华包灯光包9G-TRONIC自动变速箱、胎压侦测系统、全景天窗、AMG风格前后杠、前排电动可调节加热座椅、自适应防炫目内外后视镜、智能风挡玻璃清洗系统、LED日间行车灯和尾灯、LOGO氛围灯、灯光组件、多功能加热真皮方向盘、黑色木装饰条、ARTICO皮革内饰、黑色织物车顶、盲点监测、ECO自动启停功能、吸烟包、自动气候控制、铝合金行李架、金属漆、运动包：20寸AMG5幅轮毂、AIRMATIC空气悬架、自适应阻尼系统、LED智能照明系统：自适应远光灯辅助、LED动态前照明灯 外观方面：奔驰GLE350外观上更多像家族化的风格跟进，宽阔的车身轮廓，进一步凸显出车身侧面野性而富于力量感的独特气质。奔驰GLE350尾部装配了左右贯穿式的镀铬饰条，双出的排气也进一步增强该车的运动定位。 内饰方面：奔驰GLE350将配备DYNAMIC SELECT动态操控控制系统，提供六种驾驶模式选择，同时新车还可选装越野包来提升越野性能。GLE还配备有空气悬架和主动弯道控制系统，配合DYNAMIC SELECT动态操控控制系统，将为新车提供更稳健的操控表现。 操控方面：2016款奔驰GLE350将配备DYNAMIC SELECT动态操控控制系统，提供六种驾驶模式选择，同时新车还可选装越野包来提升越野性能。GLE还配备有空气悬架和主动弯道控制系统，配合DYNAMIC SELECT动态操控控制系统，将为新车提供更稳健的操控表现。 GLE350外观 上更多像家族化的风格跟进，宽阔的车身轮廓，进一步凸显出车身侧面野性而富于力量感的独特气质。2016款奔驰GLE350柴油版尾部装配了左右贯穿式的镀铬饰条，双出的排气也进一步增强该车的运动定位。另外除了太灰色的独特涂装，还有20寸轻质合金轮圈可选。 (责任编辑：冯浩)“此文为看点（天津平行进口汽车）原创内容，特此声明”?商家名称：天津路通鑫盛汽车销售有限公司地址：天津港滨海新区北海路天润科技园B503室咨询电话： 13389083967 13920350238 冯经理 (同微信)获得更多汽车测评、汽车导购、车型详解等汽车资讯！精彩内容不容错过！</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2016 Canadian version of Mercedes-Benz GLE350d, with Sport Package, Luxury Package, Lighting Package, 9G-TRONIC automatic transmission, tire pressure detection system, panoramic sunroof, AMG-style front and rear bumpers, front electrically adjustable heated seats, adaptive anti-glare interior and exterior mirrors, intelligent windshield cleaning system, LED daytime running lights and taillights, logo ambient lighting, lighting components, multifunction heated leather steering wheel, black wood trim, ARTICO leather interior, black fabric headliner, blind spot monitoring, ECO automatic start-stop function, smoking package, automatic climate control, aluminum luggage rack, metallic paint, Sport Package: 20-inch AMG 5-spoke wheels, AIRMATIC air suspension, adaptive damping system, LED intelligent lighting system: adaptive high beam assist, LED dynamic front lighting. In terms of appearance: The Mercedes-Benz GLE350 has a more family-like style, with a wide body profile that further highlights the unique wild and powerful temperament of the vehicle. The rear of the Mercedes-Benz GLE350 is equipped with chrome-plated strips that run through both sides, and the dual exhaust further enhances the sporty positioning of the vehicle. In terms of interior: The Mercedes-Benz GLE350 will be equipped with the DYNAMIC SELECT dynamic control system, offering six driving modes to choose from. The new car can also be equipped with an off-road package to enhance off-road performance. The GLE is also equipped with air suspension and active curve control system, which, combined with the DYNAMIC SELECT dynamic control system, will provide a more stable handling performance for the new car. In terms of handling: The 2016 Mercedes-Benz GLE350 will be equipped with the DYNAMIC SELECT dynamic control system, offering six driving modes to choose from. The new car can also be equipped with an off-road package to enhance off-road performance. The GLE is also equipped with air suspension and active curve control system, which, combined with the DYNAMIC SELECT dynamic control system, will provide a more stable handling performance for the new car. The GLE350's appearance follows a more family-like style, with a wide body profile that further highlights the unique wild and powerful temperament of the vehicle. The 2016 Mercedes-Benz GLE350 diesel version is equipped with chrome-plated strips that run through both sides at the rear, and the dual exhaust further enhances the sporty positioning of the vehicle. In addition to the unique gray paint, there is also an option for 20-inch lightweight alloy wheels. (Editor: Feng Hao) "This article is original content from Kandian (Tianjin Parallel Imported Cars), hereby declared." Business Name: Tianjin Lutong Xinsheng Automobile Sales Co., Ltd. Address: Room B503, Tianrun Technology Park, Beihai Road, Binhai New Area, Tianjin Port Consultation Tel: 13389083967 13920350238 Manager Feng (Same WeChat) Get more car reviews, car guides, detailed car models and other car information! Don't miss out on the wonderful content!</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的医学生“秋水”不务正业，演绎了医学生版的《麦田守望者》。 剧组提供 摄 电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的医学生“秋水”不务正业，演绎了医学生版的《麦田守望者》。 剧组提供 摄 电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的医学生“秋水”不务正业，演绎了医学生版的《麦田守望者》。 剧组提供 摄 电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的医学生“秋水”和范冰冰展开一场姐弟恋。 剧组提供 摄 电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的医学生“秋水”不务正业，演绎了医学生版的《麦田守望者》。 剧组提供 摄 电影《万物生长》14日下午在山西太原金逸影城超前点映。电影呈现出一种古怪、诗意又忧伤的气质。 剧组提供 摄中新网太原4月14日电 (李娜)和遗体合影留念、用量杯喝啤酒、写武侠小说、打群架，电影《万物生长》14日下午在山西太原金逸影城超前点映，韩庚扮演的男主角“秋水”不务正业，演绎了医学生版的《麦田守望者》。据了解，《万物生长》由李玉执导，方励监制，改编自冯唐同名小说，方励、路金波制片，范冰冰、韩庚、齐溪、吴莫愁、沙溢等主演，将于4月17日上映。此前，冯唐曾表示，《万物生长》这本小说有三个很重要的核心词：幻灭、肉体和诗意。电影也将这三个核心主题贯穿到底。片中，韩庚饰演的“秋水”是医学院校高材生，却不务正业，作弊、打架、失恋、当武侠小说枪手，在女朋友齐溪和风情熟女范冰冰之间摇摆不定，和塞林格《麦田守望者》的主人公一样荒诞、叛逆。电影中，范冰冰饰演的柳青请韩庚在五星级酒店喝咖啡，和他一起蹦极，向他展现了成人世界的绚丽和精彩，令他深深着迷。然而，范冰冰以美色为武器向上爬的行为，又重伤他，令他对成人世界产生幻灭感。《万物生长》不同于小清新的青春爱情片，偶像韩庚在电影中显得非常普通，美女齐溪的脸上布满雀斑，吴莫愁也卸下标志性浓睫毛，众人的脸上表现出一种本真的青春。“这部电影里有很强烈的情感，你看的时候会觉得你年轻的时候也这样过，义无反顾地去追求自己认为是对的东西，甚至不惜与全世界翻脸。这种决绝特不靠谱，但也特可爱。”导演李玉曾说。现场，一名观影的女观众说，“这部电影非常真实，让我想起自己的大学时代。”然而，人总是要长大的。</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>The movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. Han Geng played the medical student "Qiushui" who neglected his studies, interpreting a medical student version of "The Catcher in the Rye". The crew provided the photos. The movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. Han Geng played the medical student "Qiushui" who neglected his studies, interpreting a medical student version of "The Catcher in the Rye". The crew provided the photos. The movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. Han Geng played the medical student "Qiushui" who neglected his studies, interpreting a medical student version of "The Catcher in the Rye". The crew provided the photos. The movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. Han Geng, playing the medical student "Qiushui", and Fan Bingbing embarked on a sibling romance. The crew provided the photos. The movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. The film presents a quirky, poetic, and melancholic atmosphere. The crew provided the photos. Xinhua News Agency reported on April 14th from Taiyuan (Li Na) that taking photos with a corpse, drinking beer from a measuring cup, writing martial arts novels, and getting into fights, the movie "All Things Grow" had an advanced screening at Jinyi Cinema in Taiyuan, Shanxi on the afternoon of the 14th. Han Geng played the male protagonist "Qiushui" who neglected his studies, interpreting a medical student version of "The Catcher in the Rye". It is understood that "All Things Grow" is directed by Li Yu, produced by Fang Li, adapted from the novel of the same name by Feng Tang, produced by Fang Li and Lu Jinbo, starring Fan Bingbing, Han Geng, Qi Xi, Wu Mo Chou, Sha Yi, and others, and will be released on April 17th. Previously, Feng Tang stated that the novel "All Things Grow" has three important core words: disillusionment, flesh, and poetry. The film also integrates these three core themes throughout. In the film, Han Geng plays "Qiushui", a top student at a medical school who neglects his studies, cheats, gets into fights, experiences heartbreak, and works as a martial arts novel ghostwriter. He vacillates between his girlfriend Qi Xi and the alluring mature woman Fan Bingbing, resembling the absurdity and rebellion of Salinger's "The Catcher in the Rye". In the movie, Fan Bingbing plays Liu Qing, who invites Han Geng to drink coffee at a five-star hotel, bungee jumps with him, and shows him the splendor and excitement of the adult world, captivating him deeply. However, Fan Bingbing's use of her beauty to climb the social ladder wounds him deeply, leading him to feel disillusioned with the adult world. "All Things Grow" is different from the typical youth romance films. Idol Han Geng appears very ordinary in the movie, and the beautiful Qi Xi's face is covered in freckles, while Wu Mo Chou removes her iconic thick eyelashes, presenting a genuine youthfulness on their faces. "This movie has strong emotions. When you watch it, you will feel that you have experienced similar things when you were young, pursuing what you believe is right without hesitation, even if it means falling out with the whole world. This kind of determination may seem unreliable, but also very lovely," said director Li Yu. A female audience member at the scene said, "This movie is very real and reminds me of my college days." However, people always have to grow up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>10月19日，央视曝光了2亿贪官魏鹏远被查抄视频，办案人员从其家中搜出2亿现金，成箱的钱摆满地，专案组协调中国银行保定分行的十多名工作人员、五台点钞机分两批次赶赴现场参与清点，其中一台点钞机被当场烧坏。（据中国青年网10月21日)此则新闻一经曝光，“双面贪官”又即将成为新热词。双面的本来意思是指事情的两个方面，用来形容贪官，则是指其人前一面，人后另一面，各不相同。如“双面贪官”魏鹏远，人前衣着朴素，皮带甚至断了四五节，骑着自行车上下班，而人后却大不相同——衣橱里面藏了数套名牌衣服，房子里面藏了上亿现金，甚至连上下班都是开奥迪，把自行车放在汽车后备箱里。其实，像魏鹏远这样的“两面人”贪官不在少数。他们表面装穷，用种种伪装打造自己廉洁勤政的形象，背地里却利用权力谋私利，收受巨额贿赂，甚至过着声色犬马的生活。这种人严重破坏了当地风气，而且这种现象如果不及时遏制，不仅会直接影响某个地区的发展，更会损害党和政府在人民群众心目中的形象。因此，国家更要狠抓四风，对于“双面贪官”要严惩不贷。但是“双面贪官”隐藏太深，并不好识别。笔者建议，可以从以下几个方面入手。其一，深入群众。多了解要调查之人身边的群众，如单位的门卫，下属员工等等。从其身边入手，终能发现蛛丝马迹。其二，调查各大饭店、会所、乃至4s店的消费记录。其三，调查其身边之人。纸终究是包不住火的。只要是贪污腐败，终究会露出马脚。最后，国家需要加大力度去查处干部，撕下“双面贪官”的伪装，让其在监管的阳光下无所遁形。“双面贪官”并非是不治之症，只要有心，相信有一天这种病终会绝迹。（文/寒风）</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>On October 19th, CCTV exposed a video of 200 million corrupt official Wei Pengyuan being raided. Investigators found 200 million RMB in cash at his home, with boxes of money scattered all over the floor. The special task force coordinated over ten staff members from the Baoding branch of the Bank of China, and five cash counting machines were dispatched to the scene in two batches for counting. One of the cash counting machines was burnt on the spot. (According to China Youth Net, October 21st) Once this news was exposed, the term "two-faced corrupt official" is set to become a new buzzword. Originally, "two-faced" refers to the two aspects of a matter. When used to describe a corrupt official, it means that the person has one side in public and another side in private, which are completely different. For example, "two-faced corrupt official" Wei Pengyuan dresses plainly in public, with even his belt being broken into four or five sections, riding a bicycle to work. However, in private, it's a different story - he has several sets of designer clothes hidden in his wardrobe, over a hundred million RMB in cash hidden in his house, and even drives an Audi to work, keeping the bicycle in the car trunk. In fact, there are many "two-faced" corrupt officials like Wei Pengyuan. They pretend to be poor on the surface, using various disguises to create an image of integrity and diligence, but behind the scenes, they use their power for personal gain, accepting huge bribes, and even living a lavish lifestyle. These people seriously undermine the local atmosphere, and if this phenomenon is not promptly curbed, it will not only directly affect the development of a region but also damage the image of the Party and the government in the eyes of the people. Therefore, the country must crack down on the "four forms of decadence" and severely punish the "two-faced corrupt officials". However, "two-faced corrupt officials" are deeply hidden and not easy to identify. The author suggests starting from the following aspects. Firstly, get closer to the masses. Get to know the people around the person to be investigated, such as the security guard at the unit, subordinates, and so on. Starting from their surroundings will eventually reveal clues. Secondly, investigate the consumption records of major restaurants, clubs, and even car dealerships. Thirdly, investigate the people around them. Lies can't be covered up forever. As long as there is corruption, it will eventually be exposed. Finally, the country needs to intensify efforts to investigate and punish officials, strip off the disguise of "two-faced corrupt officials", and expose them to the public scrutiny. "Two-faced corrupt officials" are not an incurable disease. With determination, I believe that one day this kind of corruption will be eradicated. (By Han Feng)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>永暑岛填海工程影响很大，大到了让菲律宾语无伦次：菲律宾说，永暑岛填海工程针对的目标不是菲律宾、也不是越南。目标是谁：是美国。显而易见，菲律宾想利用南海永暑礁工程，来绑架美国，挟美制华。永暑岛填海工程影响很大，大到让让菲律宾胡说八道。永暑礁的造岛项目是中国在南沙群岛中所进行的第六个类似的项目。在造岛之前，中国海军使用的是一个混凝土平台，并没有建造人工岛屿。中国大陆方面是唯一的一个在南沙岛礁上没有建设机场的国家。永暑岛进行的填海工程是中国正在南沙群岛进行的几个填海工程之一，但其规模最大。在对南沙岛礁进行挖泥填海作业前，中国海军曾在永暑礁上搭建水泥平台，但没有人工扩大岛礁。中国在填海而建的岛上搭建水泥平台，大到足以容纳跑道和停机坪。在永暑岛的东面也通过挖掘修建了一个新码头，可以停泊大型油轮和海军舰艇。目前岛的面积已达大约二点五平方公里。 2015年3月10日拍的卫星图片显示，中国在南沙的多个岛礁的填海建设工程仍在继续。在目前南沙面积最大的永暑礁上，主礁盘已经基本填满，礁盘上的内湖也正在迅速缩小，与此同时，礁盘东北角出现了笔直的灰色色带，似乎证明岛上机场的跑道铺设工作已经开始。2015年3月11日的卫星图片显示，永暑礁上的跑道铺设工作仍在继续，而永暑礁人工港口内的工作船数量也出现了增加。 菲律宾媒体1月22日报道，中国在南海造岛工程丝毫没有停下来的意思，许多暗礁已经被填成了岛屿，其中永暑礁变化最大，并公布了2014年12月12日永暑岛航拍图。1月8日，菲律宾媒体援引某国防知情人士的话称，中国在南海的第二条飞机跑道或将在今年年底前竣工。另据菲三军总参谋长卡塔潘透露，北京在永暑礁上的填海造岛活动已大约进行一半，而预测中的飞机跑道很可能就建在该岛礁之上。菲律宾的三步走方案遭遇挫败后，还会出新花招，加大介入力度。菲律宾扮演的是美国的走卒角色，完全按照美国的意志行事，与美国一唱一和。执意挑起新的事端，走向对华冲突不归路。中国正在南沙群岛快速推进填海造陆工程。除了使用吊车等建造建筑物之外，还在建设可停靠大型船舶的港口。 菲律宾军方认为，中国很可能正在建设军事基地以巩固其实际控制。菲律宾军方7月中旬拍的照片显示，在南沙群岛赤瓜礁(Johnson South Reef)填海形成的陆地上，除了大型吊车等大量重型机械外，还有大规模建筑物。</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>The reclamation project on Yongshu Reef has had a significant impact, so much so that it has left the Filipino language incoherent: the Philippines say that the target of the Yongshu Reef reclamation project is not the Philippines, nor Vietnam. The target is who? It is the United States. It is obvious that the Philippines want to use the South China Sea Yongshu Reef project to kidnap the United States and use it to pressure China. The reclamation project on Yongshu Island has had such a huge impact that it has led the Philippines to talk nonsense. The island-building project on Yongshu Reef is the sixth similar project conducted by China in the Spratly Islands. Before the island-building, the Chinese Navy used a concrete platform and did not construct artificial islands. Mainland China is the only country that has not built an airport on any of the Spratly Islands. The reclamation project on Yongshu Island is one of several reclamation projects that China is carrying out in the Spratly Islands, but it is the largest in scale. Before dredging and reclamation operations on the Spratly Islands, the Chinese Navy had built a cement platform on Yongshu Reef, but did not artificially expand the reef. China has built cement platforms on the reclaimed islands large enough to accommodate runways and aprons. To the east of Yongshu Island, a new pier has been constructed through excavation, capable of docking large oil tankers and naval vessels. The island's area has now reached approximately 2.5 square kilometers. Satellite images taken on March 10, 2015, show that China's land reclamation and construction projects on multiple reefs in the Spratly Islands are still ongoing. On Yongshu Reef, the largest in the Spratlys, the main reef platform has been mostly filled, the internal lake on the platform is rapidly shrinking, and at the same time, a straight gray band has appeared at the northeast corner of the platform, indicating that the construction of the runway for the island's airport has begun. Satellite images from March 11, 2015, show that the construction of the runway on Yongshu Reef is still ongoing, and the number of work boats in the artificial harbor on Yongshu Reef has increased. Filipino media reported on January 22 that China shows no sign of stopping its island-building activities in the South China Sea, with many reefs having been turned into islands, among which Yongshu Reef has undergone the most significant changes, and a drone image of Yongshu Island taken on December 12, 2014, was released. On January 8, Filipino media cited a defense insider as saying that China's second airstrip in the South China Sea may be completed by the end of this year. According to the Filipino Chief of Staff, Catapang, Beijing's reclamation and island-building activities on Yongshu Reef are about halfway through, and the predicted airstrip is likely to be built on that reef. After the setback of the Philippines' three-step plan, new tricks will be played, increasing their involvement. The Philippines play the role of a lackey for the United States, acting entirely in accordance with U.S. wishes, singing in harmony with the U.S. They are determined to provoke new disputes, heading towards an irreversible conflict with China. China is rapidly advancing its land reclamation and island-building projects in the Spratly Islands. In addition to using cranes and other equipment to construct buildings, they are also building ports capable of docking large ships. The Philippine military believes that China is likely building military bases to consolidate its actual control. Photos taken by the Philippine military in mid-July show that on the land formed by the reclamation at Johnson South Reef in the Spratly Islands, besides a large number of heavy machinery such as cranes, there are also large-scale buildings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>中新网3月24日电 据日本媒体24日报道，因“一票之差”(每名议员代表的选民人数差异)最大达2.13倍的2014年众议院选举，律师团体为此提出违反宪法规定的“投票价值均等”原则而提起诉讼。针对广岛、山口两县共计11个选区的选举，广岛高等法院作出“违宪状态”的判决，驳回要求判处选举无效的请求。3月23日，日本大阪高等法院判处近畿地区2府4县48个选区的选举为“违宪状态”。3月19日，东京高等法院作出“符合宪法”的判决，3月20日名古屋高等法院作出“违宪状态”的判决。3月24日之后，日本各法院将继续就选举“一票之差”的问题作出判决，之后日本最高法院将作出统一判决。针对2014年12月的众议院选举，升永英俊和山口邦明两个律师团体以日本全国295个小选区为对象，向日本全国高等法院及法院分部总共提出17起诉讼。2011年的最高法院判决认为向各都道府县无条件分配1个议席的“额外1人方式”是导致选票分量差异的原因所在，要求做出调整。国会随后于2012年通过修改法律废除该规定，2013年又调整了选区划分，实现议席数0增5减。</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>According to Japanese media reports on March 24th, in the 2014 House of Representatives election where the difference in the number of voters represented by each member of parliament reached a maximum of 2.13 times due to the "one vote difference," a group of lawyers filed a lawsuit alleging a violation of the constitutional principle of "equal value of the vote." The Hiroshima High Court ruled the elections in a state of unconstitutionality for a total of 11 constituencies in Hiroshima and Yamaguchi, rejecting the request to invalidate the elections. On March 23rd, the Osaka High Court ruled the elections in 48 constituencies in the Kinki region as being in a state of unconstitutionality. On March 19th, the Tokyo High Court ruled as "constitutional," while on March 20th, the Nagoya High Court ruled as being in a state of unconstitutionality. After March 24th, various courts in Japan will continue to make judgments on the issue of the "one vote difference" in elections, and the Supreme Court of Japan will subsequently make a unified judgment. Regarding the House of Representatives election in December 2014, two lawyer groups, Nobutaka Nobunaga and Kunio Yamaguchi, filed a total of 17 lawsuits against the national High Courts and their branches, targeting 295 small constituencies across Japan. A Supreme Court ruling in 2011 identified the "additional one person method," which unconditionally allocated one seat to each prefecture, as the cause of the voting weight disparity and called for adjustments. Subsequently, the parliament abolished this provision in 2012 and adjusted the constituency division in 2013, resulting in a decrease of 5 seats with no increase in the number of seats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1昨天，小白跟我一起逛街，逛累了准备在街角的咖啡店休息时，突然碰到了小白男朋友和他的女同事。她男朋友挎着女同事的包，两个人虽然没有什么肢体接触，但是亲密交谈的样子也让我深受刺激。瞥了一眼身边的小白，牙齿紧紧咬着嘴唇，脸涨红涨红的，却只是一声不吭的站着。我们坐下点了杯咖啡，小白才缓缓吐了一口气，我问她：你怎么不叫住他呢。小白没有看我，盯着桌子上的甜甜圈，说道：那只是他同事，今天一起出来见客户，早晨的时候他就告诉我了，我叫住他又能怎么样呢，还不是大家都尴尬，我不想让他觉得我不懂事，也更不想让他在同事面前难堪。我又问她：但这样亲密的举动你不在意吗？要是我，不管是不是他同事，早就扯住他俩问个明白了。小白想了一会，强装笑脸对我说：没事啦，他们行业最近不景气，总是要见各种客户，处理各种麻烦，我就不让他添堵了。其实小白也很在乎的，她看到男朋友跟女同事过马路时绅士的保护动作，看到两人对视时的默契，看到他们步履一致的走过街角，她都在乎。但是，却在心里劝着自己，我要大度，我不能给他添麻烦。这就是善解人意的小白，懂事的一点儿也不幸福！2相比小白，我更欣赏阿紫这样的姑娘。阿紫原本和男友壮壮感情平稳即将谈婚论嫁，但是她妈妈突然生病，原本就普通的家境一下就陷入了超负荷的状态。虽然她努力工作，身兼数职，就是不希望给男友造成什么负担，但是男友的家里知道这件事后的第一反应就是，让他们分手。和很多电视剧的情节不同，阿紫非常爽快地和壮壮提出分手，并不再联系，即便她为此独自痛哭到半夜。壮壮原本觉得因为自己妈妈的无理有些愧疚，但见阿紫如此决绝，很是不理解，联系不上阿紫，便找我们几个朋友哭闹。“她就不能忍忍吗？我妈说话虽然重，但是她是为我好，没有恶意啊！”“我以前一直觉得她是个善解人意的好姑娘......”其实听到这里，我们就都觉得分手分对了。长辈当然应该尊重，甚至有时候需要忍让，壮壮他家里的态度，我们原本是理解的，但是壮壮这个男友实在是让人太失望了。要相守一生的人，遇到阻碍第一反应不应该是保护好对方吗？原本以为壮壮找我们是想了解，为什么阿紫要提分手，可是从见面开始就全部是抱怨，责怪甚至怀疑阿紫的为人。其实，阿紫提分手确实有冲动的成分，她不能接受男友家里对自己家庭的看轻，虽然物质条件不够好，但是相爱相守的父母，从不吵架的家庭一直是她的骄傲。对方看轻的不只是自己，还有她爸爸，还有她妈妈。</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Yesterday, Xiao Bai and I went shopping together. When we got tired and were about to rest at the coffee shop on the street corner, we suddenly ran into Xiao Bai's boyfriend and his female colleague. Her boyfriend was carrying the female colleague's bag. Although the two of them had no physical contact, the intimate conversation they were having was quite stimulating for me. I glanced at Xiao Bai beside me, who was biting her lip tightly, her face turning red, but she just stood there silently. We sat down and ordered some coffee. Xiao Bai finally let out a sigh and I asked her, "Why didn't you stop him?" Xiao Bai didn't look at me, she stared at the donuts on the table and said, "She's just his colleague. They came out today to meet clients together. He told me about it this morning. What would happen if I stopped him? It would just make everyone awkward. I don't want him to think I'm immature, and I definitely don't want to embarrass him in front of his colleague." I asked her again, "But aren't you bothered by their intimacy? If it were me, regardless of whether she's his colleague or not, I would have confronted them long ago." After thinking for a while, Xiao Bai forced a smile and said to me, "It's okay. Their industry has been in a downturn recently. They always have to meet various clients and deal with all kinds of troubles. I don't want to add to his troubles." In fact, Xiao Bai cared a lot too. She noticed the gentlemanly protective gestures her boyfriend made when crossing the street with his female colleague, the tacit understanding between them when they locked eyes, and their synchronized steps as they walked around the street corner. But in her heart, she was telling herself, "I need to be magnanimous. I can't cause trouble for him." This is Xiao Bai, understanding and considerate, but not necessarily happy!
+Compared to Xiao Bai, I admire girls like A Zi more. A Zi and her boyfriend Zhuang Zhuang had a stable relationship and were about to get married. However, her mother suddenly fell ill, and their originally ordinary family situation suddenly became overwhelming. Although she worked hard and took on multiple jobs, she didn't want to burden her boyfriend. But when Zhuang Zhuang's family found out about the situation, their first reaction was to break them up. Unlike many TV dramas, A Zi decisively broke up with Zhuang Zhuang and cut off contact, even though she cried alone until midnight. Zhuang Zhuang initially felt guilty because of his mother's unreasonable behavior, but seeing A Zi so resolute, he couldn't understand. Unable to reach A Zi, he came to us friends in tears. "Can't she just endure it? Although my mom's words are harsh, she means well, there's no malice!" "I always thought she was a considerate and good girl..." Actually, hearing this, we all felt that breaking up was the right decision. Of course, elders should be respected, and sometimes concessions are necessary. We could understand Zhuang Zhuang's family's attitude, but Zhuang Zhuang himself was just too disappointing. Shouldn't the first reaction of someone who is supposed to be with you for a lifetime be to protect each other when faced with obstacles? We initially thought Zhuang Zhuang came to us to understand why A Zi wanted to break up, but from the moment we met, it was all complaints, blame, and even suspicion of A Zi's character. In fact, A Zi did have an impulsive element in breaking up. She couldn't accept the belittling of her family by her boyfriend's family. Although their material conditions were not good enough, her proud parents who loved each other and never quarreled had always been her pride. It wasn't just herself that was being looked down upon, but also her father and her mother.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>按照马斯洛需求层次理论，“前辈”们还在为吃饭、安全感而奋斗，现在“95后”们更在意获得尊重和自我实现。这不是这一代年轻人的幸运吗？羡慕就行了，用不着瞎操心。日前，某互联网平台发布了一份“95后”毕业生就业报告，看得“80后”“前辈”一愣一愣的！原来，有相当比例的“95后”压根就不就业，占比高达48%。此外，在最向往的新兴职业方面，超过54%的人渴望当主播、当网红，排在其后的还有声优、化妆师、Coser、游戏测评师等。一些“老一辈”明显看不下去了。以“95后”最向往的网红“职业”来说吧，这靠谱么？有人觉得孩子们被“乱花渐欲迷人眼”的网红们晃晕了；有人批评现在的年轻人不够脚踏实地、缺乏独立思考，只会浮躁、投机、钻营；还有的一片赤诚、反复苦劝：网红不适合你们，要谨慎啊……要我来说，这些人真是想太多！仔细留心就会发现，现在“小鲜肉”的择业观已经发生了翻天覆地的变化。早两前，我们还把“稳定”“高薪”“社会地位”等作为择业的必选题，向着小白领的方面猛冲。现在呢？有人一毕业就合伙种地，尝试生鲜电商；有的开淘宝店、加入微商，平常“一言不合”就旅行；还有的在家“玩”音视频，宁肯“吃土”也不委身打工……他们在追求有趣，追求自主，追求表现自己。按照马斯洛需求层次理论，“前辈”们还在为吃饭、安全感而奋斗，现在“95后”们更在意获得尊重和自我实现。这不是这一代年轻人的幸运吗？羡慕就行了，用不着瞎操心。更进一步说，这也是社会发展、时代进步的标志。当前经济转型升级，新模式、新平台不断涌现，从传统到现代、从线下到线上，一大批此前闻所未闻的新兴职业应运而生：网约车、网络餐饮、时尚买手、酒店试睡员、旅游体验师、美食评论家……曾经的“三百六十行”早已不够用，行业可谓数以万计——这是社会不断发展创新的成果，也是经济转型、就业转型的必然结果。而站在更高的层面讲，层出不穷的新职业可以说是劳动力市场的源头活水，不仅给年轻人打开了一扇扇新的窗，也有利于进一步激发经济发展的活力。所以，有什么好担心的呢？对于年轻人来说，他们是伴随互联网成长起来的一代，对网络更加依赖，也更敢于尝试由互联网催生的新鲜职业，这在情理之中，也是大势所趋。从报告来看，向往“主播/网红”等新兴职业以及选择“不就业”的“95后”们，主要分布在北京、上海、广州、深圳等一线城市。</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>According to Maslow's hierarchy of needs theory, the "elder generation" is still striving for food and security, while the "post-95s" are more concerned about gaining respect and self-fulfillment. Isn't this lucky for the young people of this generation? Just envy them, no need to worry unnecessarily. Recently, a certain internet platform released a report on the employment of "post-95s" graduates, leaving the "elder generation" of "post-80s" stunned! It turns out that a considerable proportion of "post-95s" simply do not enter the workforce, accounting for as high as 48%. In addition, in terms of the most desired emerging professions, over 54% of people aspire to be anchors or internet celebrities, followed by voice actors, makeup artists, Cosers, game reviewers, and others. Some of the "older generation" clearly cannot stand it. Speaking of the most desired profession of internet celebrities by "post-95s", is this reliable? Some people feel that the younger generation has been dazzled by the enticing internet celebrities; some criticize that today's young people are not down-to-earth enough, lack independent thinking, and are only impulsive, opportunistic, and scheming; some earnestly and repeatedly advise: internet celebrity is not suitable for you, be cautious... In my opinion, these people are overthinking! If you pay close attention, you will find that the career outlook of the "fresh meat" has undergone a tremendous change. Just a couple of years ago, we considered "stability," "high salary," and "social status" as the must-have choices for career selection, rushing towards becoming young white-collar workers. And now? Some people start farming in partnership right after graduation, trying fresh e-commerce; some open Taobao stores, join in WeChat business, and travel at the drop of a hat; some "play" with audio and video at home, preferring to "eat dirt" rather than working for others... They are pursuing fun, autonomy, and self-expression. According to Maslow's hierarchy of needs theory, the "elder generation" is still striving for food and security, while the "post-95s" are more concerned about gaining respect and self-fulfillment. Isn't this lucky for the young people of this generation? Just envy them, no need to worry unnecessarily. Furthermore, this is also a sign of social development and progress. With the current economic transformation and upgrading, new models and platforms continue to emerge, from traditional to modern, from offline to online, a large number of previously unheard-of emerging professions have emerged: online ride-hailing, internet catering, fashion buyers, hotel sleep testers, travel experience specialists, food critics... The once "360 trades" are no longer sufficient, with industries numbering in the tens of thousands - this is the result of continuous social development and innovation, as well as the inevitable outcome of economic and employment transformation. Looking at it from a higher level, the endless stream of new professions can be said to be the lifeblood of the labor market, not only opening up new opportunities for young people but also stimulating the vitality of economic development further. So, what is there to worry about? For young people, they are the generation that has grown up with the internet, more reliant on the internet, and more willing to try out the fresh professions brought about by the internet, which is reasonable and also the trend. According to the report, those who aspire to new professions such as "anchors/internet celebrities" and the "post-95s" who choose "not to enter the workforce" are mainly concentrated in first-tier cities such as Beijing, Shanghai, Guangzhou, and Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>中新网7月26日电据美媒25日报道，现如今，每个公司似乎都有一个手机应用(APP)，就连帮助希拉里竞选总统也一样。民主党总统候选人希拉里的竞选委员会“希拉里为美国”(HillaryforAmerica)日前在AppStore推出了一款称为“Hillary 2016” 的APP。 当地时间7月14日，美国总统大选民主党“假定提名人”希拉里·克林顿在弗吉尼亚州费尔法克斯县举行竞选活动，弗吉尼亚州联邦参议员蒂姆·凯恩同台助选。图为希拉里。 中新社记者 张蔚然 摄据悉，这款应用为希拉里的支持者提供了日常挑战和测试，并为帮助竞选委员会的志愿者提供数字和实物奖励。这款“Hillary ”2016 为用户提供党政知识等一些游戏方面的日常挑战，还可以和全美各地的希拉里支持者进行比赛，并且提供数字化和现实生活中的一些奖励，比如希拉里亲笔签名的纪念品等等。 除此之外，用户还可以通过这款App参加当地的一些活动，并且邀请朋友一起参加。同时该APP还将矛头指向共和党总统候选人特朗普，表示“特朗普和总统席位的唯一障碍就是我们。” 该APP呼吁玩家通过下载和拉票活动来帮助希拉里“创造历史”。目前“Hillary 2016”的APP只有iOS版本，Android版本仍在研发中。此前，希拉里团队就已经针对特朗普爱骂人的特点，发布了“骂人特朗普”的推特应用，可以让人亲身体验下“特朗普式辱骂”。这款APP名为Trump Yourself，希拉里的竞选团队表示，这可以让大家感受一下“特朗普如何看待像你这样的人”。此外，这款应用还有特朗普侮辱其他人的言论榜单，包括“胖猪”、“大输家”以及其他被批评家视为侮辱性言论或种族歧视言论的政策立场等。</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>According to US media reports on July 25th, nowadays, it seems that every company has a mobile application (APP), even helping Hillary Clinton run for president. The campaign committee "Hillary for America" of Democratic presidential candidate Hillary recently launched an APP called "Hillary 2016" on the AppStore. On July 14th local time, the presumptive Democratic nominee for the US presidential election, Hillary Clinton, held a campaign event in Fairfax County, Virginia, with Virginia Senator Tim Kaine campaigning alongside her. The picture shows Hillary. The app provides daily challenges and tests for Hillary's supporters, as well as digital and physical rewards to help campaign volunteers. The "Hillary 2016" app offers users daily challenges in games related to party politics knowledge, allows them to compete with Hillary supporters across the US, and provides digital and real-life rewards such as souvenirs signed by Hillary herself. In addition, users can participate in local events through the app and invite friends to join. The app also takes aim at Republican presidential candidate Trump, stating, "The only obstacle between Trump and the presidency is us." The app urges players to help Hillary "make history" by downloading and participating in campaign activities. Currently, "Hillary 2016" app is only available on iOS, with the Android version still in development. Previously, Hillary's team had released a Twitter app called "Trump Yourself" targeting Trump's tendency to insult people, allowing users to experience "Trump-style insults" firsthand. The app includes a list of Trump's insults against others, including terms like "fat pig," "big loser," and other policy positions considered insulting or racially discriminatory by critics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>近日，有媒体报道本届（第十六届）发审委将于5月25日到期，并跟A股市场说“再见”。对此，接近证监会发审委的人士告诉财新记者，“创业板发审委是8月份到期，主板和中小板发审委是5月份到期，本届发审委的确是证券市场最后一届发审委，但任期将会一直延期到《证券法》修订完成。”“按照《中国证券监督管理委员会发行审核委员会法》相关规定，发审委委员每届任期一年，可以连任，但连续任期最长不超过3届。已经连任了3届的发审委成员就不能再继续延期了。”上述人士告诉财新记者，就目前发审委的成员构成来看，连任3届到期的发审委委员还是有的，不多也不少。替补人员就跟正常换届一样，从会计师和律师事务所里面来找。据公开资料显示，目前共设发审委委员25名，其中中国证监会的人员5名，中国证监会以外的人员20名，由中国证监会统一聘任。对于《证券法》的修改进度，两会期间，全国人大财经委副主任委员吴晓灵明确表示，按照正常进度，《证券法》修订案有望在4月底上会，初审过后，需要征求意见并总结，最快8月进行二审，10月完成三审。全国政协委员、上交所理事长桂敏杰也在全国“两会”期间表示，对股票发行注册制于今年内推出比较乐观。证监会副主席姜洋也表示，《证券法》的修订会严格按照人大议程，希望《证券法》修订能够在今年顺利完成。“《证券法》修订最快年内完成，IPO审核权下放也就相应的顺延到明年。”接近发审委人士告诉财新记者，IPO审核下放之后，交易所将会组建成立“上市审核委员会”。由发审委变为上市委，审核工作性质不变，但是部门的位置和角色有所转换。在推行注册制改革过程中，证监会主席肖钢明确表示，证监会要实现监管重心后移，将IPO发行从事前监管转移到事中、事后监管。上述人士补充道，不管是叫“上市审核委员会”还是叫“聆讯会”，这个部门在整个市场链条中仍是不可或缺的一环。交易所人士告诉财新记者，按照目前讨论的方案，注册制下的审核权力相比过去更透明，交易所的审核行为受到证监会监管，也意味着更大的责任。这种机制相比过去证监会集中所有权力是一种进步。据财新记者此前报道，证监会主管发行工作的一位副主席在2月初召集各有关部门，就落实注册制作出更具体的安排。在证监会层面，与现有核准制相关的一批行政规章将予以废止，本届发审委到期后不再续聘；证监会和证券交易所将出台与注册制相适应的一批行政规章和规则；同时登记结算公司也做好后台流程的技术准备。</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Recently, there have been media reports that the current (16th) IPO Review Committee will expire on May 25 and bid farewell to the A-share market. In response, a person close to the IPO Review Committee of the China Securities Regulatory Commission told Caixin reporters, "The ChiNext IPO Review Committee will expire in August, while the Main Board and SME Board IPO Review Committees will expire in May. This current IPO Review Committee is indeed the last IPO Review Committee in the securities market, but the term will be extended until the revision of the Securities Law is completed." "According to the relevant provisions of the China Securities Regulatory Commission IPO Review Committee Law, the term of office for IPO Review Committee members is one year per term, renewable, but the maximum consecutive term is not more than 3 terms. Members of the IPO Review Committee who have served 3 consecutive terms cannot be extended further." The aforementioned person told Caixin reporters that based on the current composition of the IPO Review Committee members, there are still some members who have served 3 consecutive terms and are due to expire, not many but not few. Substitute personnel will be selected in the same way as normal turnover, from accounting firms and law firms. According to publicly available information, there are currently 25 IPO Review Committee members, including 5 personnel from the China Securities Regulatory Commission and 20 personnel from outside the China Securities Regulatory Commission, appointed uniformly by the China Securities Regulatory Commission. Regarding the progress of amending the Securities Law, during the Two Sessions, Wu Xiaoling, Vice Chairman of the Financial and Economic Affairs Committee of the National People's Congress, clearly stated that according to the normal schedule, the draft amendment to the Securities Law is expected to be submitted for review by the end of April. After the initial review, opinions will be solicited and summarized, with the earliest possible second review in August and completion of the third review in October. Guo Minjie, a member of the National Committee of the Chinese People's Political Consultative Conference and Chairman of the Shanghai Stock Exchange, also stated during the National "Two Sessions" that he is relatively optimistic about the introduction of the stock issuance registration system within this year. Jiang Yang, Vice Chairman of the China Securities Regulatory Commission, also stated that the revision of the Securities Law will strictly follow the schedule of the National People's Congress, hoping that the revision of the Securities Law can be successfully completed this year. "The revision of the Securities Law will be completed at the earliest within the year, and the delegation of IPO approval authority will accordingly be postponed to next year." A person close to the IPO Review Committee told Caixin reporters that after the delegation of IPO approval, the exchange will establish a "Listing Review Committee." Changing from the IPO Review Committee to the Listing Committee, the nature of the review work remains the same, but the position and role of the department will be transformed. In the process of implementing the registration system reform, Xiao Gang, Chairman of the China Securities Regulatory Commission, clearly stated that the China Securities Regulatory Commission aims to shift the focus of regulation, transferring IPO issuance supervision from pre-issuance to during and post-issuance supervision. The aforementioned person added that whether it is called the "Listing Review Committee" or the "Hearing Committee," this department remains an indispensable link in the entire market chain. Exchange personnel told Caixin reporters that according to the current discussion, the authority under the registration system for reviews is more transparent compared to the past, and the exchange's review actions are subject to supervision by the China Securities Regulatory Commission, which also implies greater responsibility. This mechanism is a progress compared to the past when the China Securities Regulatory Commission concentrated all power. As reported by Caixin reporters earlier, a Vice Chairman of the China Securities Regulatory Commission responsible for issuing work convened various relevant departments in early February to make more specific arrangements for implementing the registration system. At the China Securities Regulatory Commission level, a batch of administrative regulations related to the existing approval system will be abolished after the current IPO Review Committee expires and will not be reappointed; the China Securities Regulatory Commission and the stock exchanges will introduce a batch of administrative regulations and rules adapted to the registration system; at the same time, the registration and settlement companies are also preparing the technical backend processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>历史上，有很多名人所以能够功成名就，都要感谢有良好的家教。例如孟母三迁、岳母教孝，再如王羲之练字、王冕习画，都是因为家庭教育成功，所以终能成为不世之才。现在的家庭教育，最要紧的是儿童要养成：第一、处世的诚信。儿童从小如果养成说谎的习惯，无异为其前途埋伏了危机，所以养成处世的诚信，这才是成功立业的根本。第二、良好的习惯。从小培养儿童爱好整洁、慈悲护生、随手关灯关门等良好的习惯，有了良好习惯，何患将来做人不能圆满。第三、礼貌的品德。儿童从小就要养成他对人尊敬的习惯，甚至不但对长辈要有礼貌，对待任何人都要谦恭有礼，所谓“敬人者人恒敬之”，能够待人以礼，将来自然也能受到别人的尊重。第四、接受的性格。有的学生不会读书、不会考试，这都是由于上课不能专心聆听，没有接受的习惯。没有接受的性格，犹如器皿覆盖，如何能承受天降甘露？所以从小要养成儿童接受的性格，如此才能学习、进步。第五、勤劳的美德。“勤有功，戏无益。”儿童的心智末能健全，皆因好游玩，因此应该导引他们读书、工作，养成勤劳的美德。第六、正常的生活。养成儿童正常的生活，包括三餐起居以及情绪的正常。生活正常有益于身心健康，对于将来立身处世更是关系重大。除了以上六点以外，尤其要维护儿童的自尊心，不可经常肆意地讽刺他、讥嘲他、责备他、歧视他。例如有的父母常说“我的儿子没有出息”“我的小孩不乖”“我的女儿好吃好玩”等等，因为你任意用语言伤害儿女幼小的心灵，他听到父母一直看不起他、数落他的不是，反而会生起反叛的心理，干脆做个不好不乖的儿女。所以，父母应该信任儿女、尊重儿女，不要和儿女形成对立。良宽禅师对夜游的沙弥尊重爱护，对花天酒地的侄儿耐心开导，因为他不说破，反而收到更大的效果。【微信公众号-育儿快讯】一对80后父母，从事儿童教育6年，宝贝1岁4个月，特开办的儿童教育公众号，育儿快讯（ID：yuerkuaixun）更多教育话题.育儿资讯，家长课堂，请关注我们。</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>In history, many famous people who achieved great success must thank their good family education. For example, Meng Mu moved three times, the mother-in-law taught filial piety, and Wang Xizhi practiced calligraphy, while Wang Mian studied painting. It was all because of successful family education that they could eventually become extraordinary talents. Nowadays, the most important aspect of family education is for children to develop: first, honesty in dealing with others. If children develop a habit of lying from a young age, it will undoubtedly jeopardize their future, so cultivating honesty in dealing with others is the fundamental key to success. Second, cultivating good habits. By instilling in children habits such as cleanliness, compassion for all living beings, and turning off lights and closing doors when not in use from a young age, with good habits, there will be no difficulty in becoming a well-rounded person in the future. Third, having polite manners. Children should be taught to respect others from a young age, not only showing respect to their elders but also being courteous to everyone. The saying goes, "Respect others and they will respect you." By treating others with respect, they will naturally receive respect in return in the future. Fourth, having a receptive character. Some students struggle with studying and exams because they cannot concentrate in class and lack the habit of being receptive. Without a receptive character, like a vessel turned upside down, how can one receive the blessings of heaven? Therefore, children should develop a receptive character from a young age in order to learn and progress. Fifth, the virtue of diligence. "Diligence leads to success, while idleness leads to nothing." If children's minds are not sound, it is often due to excessive play. Therefore, they should be guided towards reading and working to cultivate the virtue of diligence. Sixth, leading a normal life. Cultivating a normal life for children, including regular meals, daily routines, and maintaining emotional stability, is beneficial for their physical and mental health, which is crucial for their future success in life. In addition to the above six points, it is especially important to uphold children's self-esteem and not constantly ridicule, mock, blame, or discriminate against them. For example, some parents often say, "My son is useless," "My child is disobedient," "My daughter is indulgent," and so on. Using such language to hurt the young hearts of children can lead them to feel constantly looked down upon and criticized by their parents, which may trigger a rebellious attitude, making them deliberately become disobedient children. Therefore, parents should trust and respect their children, avoiding creating a confrontational relationship with them. Master Liang Kuan respected and cared for the novice monk who wandered at night, and patiently guided his nephew who indulged in pleasure, because he did not expose their faults, but instead achieved greater results.【WeChat Official Account - Parenting Express】A couple of parents born in the 1980s, engaged in children's education for 6 years, with a 1-year-and-4-month-old baby, have opened a public account on children's education, Parenting Express (ID: yuerkuaixun), for more educational topics, parenting information, and parent classes, please follow us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 工龄指从事脑力或体力劳动，以工资收入为其全部或主要生活资料来源的工作年限。一般来说，每工作一年，就形成一年工龄。从菜鸟到老手，从入职到退休，工龄长不仅代表着经验丰富、资格老，它还在“与时俱进”地影响你的收入！什么是工龄工资？工龄工资，是企业按照员工的工作年数，即员工的工作经验和劳动贡献的积累给予的经济补偿，旨在鼓励工人终身从事工作，有利于工人队伍的建设和工人队伍的稳定。不管是体制内还是体制外职工工龄都会影响收入吗？2006年7月1日开始实施的《公务员工资制度改革方案》，已经取消了“工龄工资”这种说法。但在现行国家机关、事业单位的工资结构中， 工龄对于职工工资收入、福利待遇的影响可谓无处不在。在各类职称评定中，一般也都会对工作时间做出一定限制。而职称评定又会间接影响到工资收入。而在不少民营企业， 为增强员工归属感，也会将工龄与工资挂钩。所以，工龄与你的收入密切相关！ 工龄影响基本工资有的单位会根据职工的工作年限来确定基本工资。如制定15年以下工龄基本工资为2000元，15年工龄2300元，20年工龄2500元，25年工龄2800元，30 年工龄3000元，40年工龄3500等类似标准。 工龄决定工龄工资多数单位的工龄工资政策呈线型，即确定 X元/年的分配标准，员工实际所得 工龄工资=工作年限×分配标准。有的单位还规定了工龄工资的起拿年限，即工作满几年计发。 工龄影响病假工资职工疾病或非因工负伤连续休假在6个月以内的，企业应按下列标准支付疾病休假工资：1.连续工龄不满2年的，按本人工资的60%计发。2.连续工龄满2年不满4年的，按本人工资70%计发。3.连续工龄满4年不满6年的，按本人工资的80%计发。4.连续工龄满6年不满8年的，按本人工资的90%计发。5.连续工龄满8年及以上的，按本人工资的100%计发。职工疾病或非因工负伤连续休假超过6个月的，由企业支付疾病救济费：1.连续工龄不满1年的，按本人工资的40%计发。2.连续工龄满1年不满3年的，按本人工资的50%计发。3.连续工龄满3年及以上的，按本人工资的60%计发。4.病假工资=(计算基数/21.75)×计算系数×病假天数。 工龄影响退休金许多企事业单位的退休金标准也会参照职工的工作年限。如有企业规定，按照工龄，每工作一年100元。依此类推工龄10年的退休金是1000元。</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Length of service refers to the number of years a person has worked in mental or physical labor, with wage income as their sole or main source of livelihood. Generally speaking, for each year of work, one year of service is accumulated. From a rookie to a seasoned pro, from employment to retirement, a long length of service not only represents rich experience and seniority, but also influences your income in keeping with the times! What is seniority pay? Seniority pay is an economic compensation given by companies based on employees' years of service, that is, the accumulation of employees' work experience and labor contributions, aiming to encourage workers to engage in work for a lifetime, which is beneficial for the construction and stability of the workforce. Does length of service affect income for both state-owned and non-state-owned employees? The "Civil Servant Salary System Reform Plan" implemented on July 1, 2006 has already abolished the concept of "seniority pay". However, in the current salary structure of state organs and institutions, the impact of length of service on employees' salary income and welfare benefits is ubiquitous. In various professional title evaluations, restrictions on work time are generally imposed. Professional title evaluations indirectly affect salary income. In many private enterprises, to enhance employees' sense of belonging, length of service is also linked to salary. Therefore, length of service is closely related to your income! Length of service affects basic salary in some units, the basic salary is determined based on employees' years of service. For example, setting the basic salary for employees with less than 15 years of service at 2000 yuan, 15 years of service at 2300 yuan, 20 years of service at 2500 yuan, 25 years of service at 2800 yuan, 30 years of service at 3000 yuan, 40 years of service at 3500 yuan, and so on. Length of service determines seniority pay in most units, the seniority pay policy is linear, that is, a distribution standard of X yuan/year is determined, and the actual seniority pay received by employees = years of service × distribution standard. Some units also stipulate the minimum years of service to be eligible for seniority pay, that is, when the employee has worked for a certain number of years, the pay starts. Length of service affects sick leave pay for employees who take sick leave due to illness or non-work-related injuries continuously for up to 6 months, enterprises should pay sick leave pay according to the following standards: 1. For employees with less than 2 years of continuous service, 60% of their own salary is paid. 2. For employees with 2 years or more but less than 4 years of continuous service, 70% of their own salary is paid. 3. For employees with 4 years or more but less than 6 years of continuous service, 80% of their own salary is paid. 4. For employees with 6 years or more but less than 8 years of continuous service, 90% of their own salary is paid. 5. For employees with 8 years or more of continuous service, 100% of their own salary is paid. For employees who take sick leave due to illness or non-work-related injuries for more than 6 months continuously, enterprises should pay sickness relief funds: 1. For employees with less than 1 year of continuous service, 40% of their own salary is paid. 2. For employees with 1 year or more but less than 3 years of continuous service, 50% of their own salary is paid. 3. For employees with 3 years or more of continuous service, 60% of their own salary is paid. 4. Sick leave pay = (calculation base/21.75) × calculation coefficient × number of sick leave days. Length of service affects retirement benefits, and the retirement standards of many enterprises and institutions will also refer to employees' years of service. For example, if a company stipulates that for each year of service, 100 yuan is paid, then the retirement pension for an employee with 10 years of service would be 1000 yuan, and so on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>【时尚星闻】今年演艺圈流行的是颜正、条顺还要是“学霸”！2015-04-01SMODA时尚街拍SMODA时尚街拍微信号smoda88功能介绍《SMODA时尚街拍》是来自香港的时尚资讯媒体，我们致力于提供最新最in的国际时尚潮流资讯，并通过街拍活动发掘普通人的时尚态度！我们的口号：时尚是一种人生态度，时尚是一种生活方式，我的时尚我做主！关注后就变瘦↑ 微信号 smoda88↑ 点上方蓝色小字或右上角省略号即可关注最新最快最前沿的时尚资讯！与国内一帮子戏子不同，好莱坞的男演员们可不是只有一张脸一副身材的“纯演员”，他们有内涵有文化，还有不少甚至是学霸！而其中英伦学院派帅哥们在各款男演员中的异军突起，更让人感叹差异。从新晋奥斯卡影帝埃迪?雷德梅恩，到被中国影迷昵称为“卷福”、“抖森”的本尼迪克特?康伯巴奇和汤姆?希德勒斯顿，他们可不光有“高颜值”，更是响当当名校毕业的“学霸”！从发梢到脚趾都透露着的书卷气，或许正是他们迷倒全球女粉丝的利器。埃迪?雷德梅恩（Eddie Redmayne）毕业院校：伊顿公学，剑桥大学三一学院作品：《万物理论》、《悲惨世界》、《木星上行》在2月刚举办的奥斯卡颁奖礼上，凭借在传记片《万物理论》中对科学大家史蒂芬?霍金惟妙惟肖的演绎，埃迪?雷德梅恩成了史上首位80后奥斯卡影帝！这位新科影帝从小就是优等生，求学之路顺风顺水。 埃迪凭借在电影《万物理论》的出色表演，摘得第87届奥斯卡影帝桂冠。 他小学入读英国私校前三的Colet Court，然后和威廉王子、汤姆?希德勒斯顿同年进入伊顿公学，接着到剑桥大学三一学院攻读艺术史，并获得二等上荣誉学士学位。 汤姆?希德勒斯顿（Tom Hiddleston）毕业院校：伊顿公学，剑桥大学作品：《雷神》、《复仇者联盟》 在好莱坞大片《雷神》、《复仇者联盟》中均有出色表演的汤姆?希德勒斯顿是名副其实的学霸：小学就读英国首屈一指的贵族寄宿制学校牛津龙小学，中学入读伊顿公学，在剑桥大学彭布罗科学院念古典文学，毕业后进入皇家戏剧艺术学院深造。 被中国粉丝昵称为“抖森”的希德勒斯顿还拥有超凡的语言能力：除了一口标准的牛津英语外，他还会澳洲、美国、瑞典、苏格兰口音英语，另外略通法语、西班牙语、意大利语、古希腊语、德语、俄语。</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>【Fashion News】This year in the entertainment industry, what's trending are good looks, well-proportioned figures, and being a "study genius"! On April 1, 2015, SMODA Fashion Street Snap, the WeChat account smoda88, introduced the function of "SMODA Fashion Street Snap." It is a fashion information media from Hong Kong, dedicated to providing the latest and most trendy international fashion trends, and discovering the fashion attitudes of ordinary people through street snap activities! Our slogan: Fashion is a way of life, fashion is a lifestyle, I am the master of my own fashion! Follow us and get slim↑ WeChat ID: smoda88↑ Click on the blue text above or the ellipsis in the upper right corner to follow the latest, fastest, and most cutting-edge fashion information! Unlike a group of actors in China, Hollywood male actors are not just "pure actors" with only good looks and figures. They have depth, culture, and many are even study geniuses! Among them, the British school handsome guys have emerged as a unique force among various male actors, making people marvel at the differences. From the newly crowned Oscar winner Eddie Redmayne, to Benedict Cumberbatch and Tom Hiddleston, nicknamed "Curly Fu" and "Shakeston" by Chinese fans, they not only have "high looks," but are also well-educated "study geniuses" from prestigious schools! From head to toe, the scholarly aura they exude may be the weapon that captivates female fans worldwide. Eddie Redmayne Graduated from: Eton College, Trinity College, Cambridge Works: "The Theory of Everything," "Les Misérables," "Jupiter Ascending" At the Oscars held in February, Eddie Redmayne became the first post-80s Oscar winner in history for his remarkable portrayal of the scientific genius Stephen Hawking in the biographical film "The Theory of Everything"! This new Oscar-winning actor has been an outstanding student since childhood, and his academic path has been smooth sailing. Eddie won the Oscar for Best Actor at the 87th Academy Awards for his outstanding performance in the movie "The Theory of Everything." He attended Colet Court, one of the top three private schools in the UK, before entering Eton College with Prince William and Tom Hiddleston. He then pursued art history at Trinity College, Cambridge, and graduated with an upper second-class honors degree. Tom Hiddleston Graduated from: Eton College, University of Cambridge Works: "Thor," "The Avengers" Tom Hiddleston, who delivered outstanding performances in Hollywood blockbusters "Thor" and "The Avengers," is truly a study genius: he attended the prestigious boarding school Dragon School in Oxford, then Eton College for high school, and studied classical literature at Pembroke College, Cambridge. After graduating, he furthered his studies at the Royal Academy of Dramatic Art. Hiddleston, nicknamed "Shakeston" by Chinese fans, also possesses extraordinary language skills: in addition to speaking standard Oxford English, he can also speak with Australian, American, Swedish, and Scottish accents, and has a basic understanding of French, Spanish, Italian, Ancient Greek, German, and Russian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>众所周知，在非必要的情况下频繁踩刹车，是一种耗油行为，而且损耗刹车片。有一些帮友虽然已经知道，但是新手上路难免紧张，一时半会估计也改不了，那如何自检刹车片什么时候该更换？今天就给大家说道说道刹车片的知识。刹车片也叫刹车皮。在汽车的刹车系统中，刹车片是最关键的安全零件。所有刹车效果的好坏都是刹车片起决定性作用，所以说好的刹车片是人和汽车的保护神。我们要经常检查刹车片，看看是否需要更换。 刹车片用多久需要更换刹车片和刹车盘的更换时间周期不是固定的，这取决于车辆行驶路况、驾驶员踩制动踏板的频率及力度。一般常规刹车片的更换里程是每行驶2.5万-3万公里左右。以下是一些需要注意的特殊情况：1、新手的刹车一般踩的多，消耗会大一些。2、自动挡比手动档费刹车片，因为自动挡的换档就是靠油门踏板和刹车踏板。 3、常开市区的车，刹车片的耗损会比常开公路的车快。因为常开市区的车，经常要走走停停，用刹车会多。走公路可能走好几十公里才需要减速或停车，用刹车的机会也相对少。 4、载重量大的车，刹车片损耗大。同样时速情况下的减速刹车，重量大的车惯性大，需要刹车片摩擦的力就大，因此磨损大。刹车片报警有哪些提示1、行车电脑提示：一般报警会出现一个红色的字“请检查刹车片”。然后有个图标，是一个圆圈，外面是几个虚线括号包围着的。一般出来显示就表示接近极限了，需要立刻更换。 2、刹车片自带报警片提示：有的老款车辆刹车片没有连接行车电脑，而是在刹车片上安装了一个报警的小铁片。当摩擦材料被磨得快没了的时候，刹车盘磨到的就不是刹车片，而是报警的小铁片了。这时车辆会发出刺耳的金属之间摩擦的“唧唧”声，那就是更换刹车片的信号了。 3、简单的日常自查方法：检查刹车片和刹车盘是否薄了，可以使用小手电筒进行观察检查，当检查发现刹车片的黑色摩擦材制快磨损没了，厚度为5毫米以下，就应该考虑进行更换了。4、车感：如果经验比较丰富的话，当刹车片没有的时候你可能会感觉刹车比较软，这个就要靠你自己多年驾驶的感觉了。最后说两句：刹车片问题紧密关系大家的生命安全，建议不要只凭感觉，还是多长个心，平常自查一下，刹车失灵时很可怕的。</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>As is well known, frequent braking in non-essential situations is a fuel-consuming behavior and also wears out the brake pads. Although some drivers are already aware of this, new drivers are inevitably nervous when starting out and may not be able to change their habits immediately. So, how can we self-check when to replace the brake pads? Today, let's talk about the knowledge of brake pads. Brake pads, also known as brake linings, are the most critical safety components in a car's braking system. The effectiveness of all braking depends on the brake pads, making good brake pads the protectors of both people and cars. We should regularly inspect the brake pads to see if they need replacing. The replacement interval for brake pads and brake discs is not fixed and depends on factors such as driving conditions, the frequency and intensity of braking by the driver. Generally, the replacement mileage for regular brake pads is around 25,000-30,000 kilometers. Here are some special cases to note: 1. New drivers tend to brake more, leading to faster wear. 2. Automatic transmission vehicles consume brake pads more than manual transmission vehicles because shifting in automatic transmission vehicles is done by the accelerator and brake pedals. 3. Cars frequently driven in urban areas wear out brake pads faster than those driven mainly on highways due to the frequent stops and starts in city driving. 4. Heavily loaded vehicles experience greater brake pad wear. In situations of deceleration braking at the same speed, heavier vehicles have greater inertia, requiring more friction from the brake pads, resulting in more wear. What are the indications of brake pad warnings? 1. Onboard computer alert: A warning message typically appears in red saying "Please check the brake pads" accompanied by an icon of a circle with several dashed lines around it. When this warning appears, it means the brake pads are close to their limit and should be replaced immediately. 2. Brake pad self-alarm: Some older vehicles do not have a connection to the onboard computer but have a small alarm piece installed on the brake pads. When the friction material is almost worn out, the brake disc will rub against the alarm piece instead of the brake pad, producing a sharp metal-on-metal "squeaking" sound, indicating the need to replace the brake pads. 3. Simple daily self-check method: Inspect whether the brake pads and discs have worn thin using a small flashlight. If the black friction material on the brake pads is worn down to less than 5 millimeters in thickness, it's time to consider replacement. 4. Vehicle feel: If you have enough driving experience, you may feel the brakes are softer when the brake pads are worn out. This relies on your own driving experience. In conclusion, brake pad issues are closely related to everyone's safety. It is recommended not to rely solely on feelings but to be vigilant. Regular self-checks are crucial, as brake failure can be very dangerous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 有米科技联合创始人、COO叶文胜wilsonWilson，仅六年光阴，1988年生的他已然从曾经的追风少年蜕变为如今移动营销行业领军翘楚。五年前临危受命独自驻京撸BP，带领有米广告应对数百家广告平台的穷追围堵，从四面楚歌中杀出一条血路站稳脚跟。如今，谈笑间已难窥当年的风雪与萧杀，唯双指间熏黄的烟迹记录着那些年孤寂与惆怅的时光。现任有米科技COO，统筹有米科技广告事业群运营管理。“有一件事，改变了我一生，就是大学时期和一群小伙伴做成了中国第一家移动广告平台！这是一份我真正热爱的事业。” 虽然从业仅六年多，Wilson在移动营销领域已经是一名不折不扣的老兵。多年来，Wilson长期走在中国移动广告行业的一线，服务了京东、唯品会、昆仑、芒果TV等数以千计的各业广告主。作为一个领略了无数艰险而始终追求攀爬上生态链顶端的男人，他说，在这个行业中生存就如同在海上行船，既要做好粮草的储备和生产（造血）能力，还要时刻做好与各种台风海浪抗争的准备，更要提防各个海域的海盗出没。能成功上岸的船少之又少，其中历经的艰难险阻只有真正置身其中的人才能体会到。不少人认为有米科技成功挂牌新三板上市，已然安全上岸，其实真正的艰苦卓绝才刚刚开始!从2010年有米广告横空出世到2011年移动广告平台的遍地开花，移动广告价格战的序幕拉开；从2012年第一次洗牌到2013年积分墙广告入场，市场的硝烟愈加弥漫；从2014年行业的浮躁不安到2015年的行业兼并爆发完成第二轮洗牌，移动广告行业走向规范，格局逐渐成形；2016年乃至未来，移动广告又将遭遇怎样的挑战？这一次，有米科技是否还能把握机遇从容面对?全广告行业增速趋缓，移动广告一枝独秀根据2015年的第三方数据公司的调研数据，广告全行业的市场规模大概是在6000亿的水平。主流的五大媒体中，除了互联网广告呈较大幅度增长，其余几种广告媒体均呈现出不同程度的萎缩、停滞，甚至下滑。其中最具代表性的无疑是平面媒体，13-15年之间平媒甚至呈现出腰斩式的大幅下滑。从艾瑞提供的数据上可看出，仅14-15年这一年，报媒的营收和存量更是达到了夸张的对半减少。这从侧面反映出传统广告行业已经进入寒冬。与之相反，作为互联网广告的生力军，移动广告的春天似乎才刚刚开始。2013年以来，互联网广告行业保持着30%以上的增长率，这30%的增长率中，绝大部分的增长来源于移动广告。</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Wilson, the co-founder and COO of Youmi Technology, has transformed from a young man chasing the wind to a leader in the mobile marketing industry in just six short years. Born in 1988, he took on the challenge five years ago to single-handedly manage Youmi's advertising business in Beijing, leading the company to navigate through the challenges posed by hundreds of advertising platforms and establishing a solid position in the industry. Today, it is hard to see the snow and battles of the past, but the yellow stains between his fingers serve as a reminder of the lonely and melancholic times. Currently serving as the COO of Youmi Technology, Wilson oversees the operation and management of Youmi Technology's advertising business group. "There is one thing that changed my life forever, which is creating China's first mobile advertising platform with a group of friends during my university years! This is a career that I truly love." Despite only six years in the industry, Wilson is already a seasoned veteran in the field of mobile marketing. Over the years, Wilson has been at the forefront of China's mobile advertising industry, serving thousands of advertisers from various industries such as JD.com, Vipshop, Kunlun, and Mango TV. As a man who has experienced countless hardships and always strives to climb to the top of the ecological chain, he compares surviving in this industry to sailing at sea. One must not only prepare and produce provisions (hematopoiesis) but also be ready to fight against various typhoons and waves, and guard against pirates in different sea areas. The number of ships that successfully land is few, and only those who have truly experienced the hardships and obstacles can understand. Many people believe that Youmi Technology's successful listing on the New Third Board means they have safely landed, but the real challenges have just begun! From the emergence of Youmi Advertising in 2010 to the proliferation of mobile advertising platforms in 2011, the prelude to the mobile advertising price war was opened; from the first reshuffle in 2012 to the entry of points wall advertising in 2013, the market became more turbulent; from the industry's restlessness in 2014 to the outbreak of the second round of reshuffle in 2015, the mobile advertising industry moved towards standardization and the pattern gradually took shape; what challenges will mobile advertising face in 2016 and beyond? This time, can Youmi Technology still seize the opportunity and face it calmly? While the overall advertising industry growth is slowing down, mobile advertising stands out. According to research data from a third-party data company in 2015, the market size of the entire advertising industry is approximately around 600 billion. Among the five mainstream media, except for internet advertising showing significant growth, the other types of advertising media have shown varying degrees of shrinkage, stagnation, or even decline. The most representative is undoubtedly print media, which experienced a significant decline between 2013 and 2015. Data provided by iResearch shows that in just one year from 2014 to 2015, the revenue and inventory of print media were halved dramatically. This indirectly reflects that the traditional advertising industry has entered a cold winter. In contrast, as a new force in internet advertising, the spring of mobile advertising seems to have just begun. Since 2013, the internet advertising industry has maintained a growth rate of over 30%, with the majority of this growth coming from mobile advertising.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>德国是目前欧洲发展最好的国家，大家对德国的关注越来越多。莱茵河是德国最长的河流，这几乎尽人皆知，不过你知道莱茵河在德国境内的长度是多少公里么？德国最高的山峰是哪个？德国的最低点在哪里？最古老的大学是那个？最大的火车站位于何方？小编在此介绍一些大家不太熟悉的德国之最。请君笑纳。不必谢了！11、德国最长的河流：莱茵河 莱茵河流经德国的部分总长865公里，是德国境内最长的河流。从瑞士阿尔卑斯山山区发源，到注入北海，莱茵河总长1233公里。2德国最高的山峰：楚格峰 德国最高山峰楚格峰，海拔2962米。当然，与世界屋脊，8848米高的珠穆朗玛峰相比，楚格峰就是个小矮人了。3德国的最低点：诺伊多夫-萨克森班德 很多人都知道德国最高的山峰是楚格峰（Zugspitze），但德国的最低点在哪里就很少有人知道了：诺伊多夫-萨克森班德（Neuendorf-Sachensenbande）位于海平面下3.54米，这个数据虽然缺乏震撼力，但却代表了德国陆地的最低点。水下最深处位于德国最大的湖泊博登湖，深254米。4德国最大的湖泊：博登湖 博登湖以536平方公里的面积成为德国第一大湖。与德国共享这一汪湖水的还有奥地利和瑞士。博登湖畔最大的德国城市是康斯坦茨，共有8.5万居民。5德国最大的岛屿：吕根岛 德国最大的岛屿吕根岛，面积926平方公里。第二大岛屿乌泽多姆（Usedom）面积373平方公里，与前者相比就是小巫见大巫了。6德国最高的建筑：柏林电视塔 位于柏林亚历山大广场、高368米的柏林电视台是德国最高的建筑。不过与世界最高建筑迪拜哈里发塔的828米比起来，它就逊色了许多。</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Germany is currently the best-developed country in Europe, and people's attention to Germany is increasing. The Rhine River is the longest river in Germany, which is almost known to everyone. However, do you know how many kilometers the Rhine River is within Germany? What is the highest peak in Germany? Where is the lowest point in Germany? Which is the oldest university? Where is the largest train station located? Here, the editor introduces some lesser-known superlatives of Germany. Please enjoy. No need to thank me! 1. The longest river in Germany: Rhine River The Rhine River flows through part of Germany with a total length of 865 kilometers, making it the longest river within Germany. Originating from the Swiss Alps, it flows into the North Sea with a total length of 1233 kilometers. 2. The highest peak in Germany: Zugspitze The highest peak in Germany is the Zugspitze, with an altitude of 2962 meters. Of course, compared to the world's highest peak, Mount Everest at 8848 meters, the Zugspitze is like a dwarf. 3. The lowest point in Germany: Neuendorf-Sachensenbande Many people know that the highest peak in Germany is the Zugspitze, but few know where the lowest point in Germany is: Neuendorf-Sachensenbande, located 3.54 meters below sea level, representing the lowest point of Germany's land. The deepest point underwater is in Germany's largest lake, Lake Constance, at a depth of 254 meters. 4. The largest lake in Germany: Lake Constance Lake Constance, with an area of 536 square kilometers, is the largest lake in Germany. It is shared with Austria and Switzerland. The largest German city on the shores of Lake Constance is Konstanz, with a population of 85,000. 5. The largest island in Germany: Rügen Island The largest island in Germany is Rügen Island, with an area of 926 square kilometers. The second-largest island, Usedom, has an area of 373 square kilometers, making it significantly smaller in comparison. 6. The tallest building in Germany: Berlin TV Tower Located at Alexanderplatz in Berlin, the 368-meter-high Berlin TV Tower is the tallest building in Germany. However, compared to the world's tallest building, the 828-meter-high Burj Khalifa in Dubai, it falls short by a considerable margin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 因怀疑丈夫出轨，顺德伦教一名年轻女子竟然跳河轻生！在千钧一发之际，在附近等候公交车的一位年轻男子出手营救，确认女子安全后他便默默转身离开。这位无名英雄，你在哪？戳视频丨记者采访事件回放10月16日14时30分左右，伦教中学附近，年轻女子小刘突然跳河轻生。 原来，当日中午，她发现丈夫手机上跟其他女性朋友的聊天记录， 还发了红包给对方，怀疑丈夫有出轨行为，于是一时想不开。 这条河水深约两三米，有目击群众说，小刘是头朝下掉入水中，挣扎时发出声音，但后来又没了反应。幸好，当时在附近等公交车的一名年轻男子听到声响，第一时间冲到岸边，下水将女子救起，后又在路过群众的帮助下，合力将女子拉上岸。 当日14时42分，伦教派出所接到群众报警，称位于伦教中学附近有一名跳河轻生女子被救起，但神志不清请求帮助。与此同时，正在事发地附近巡逻的治安员也向派出所反映，听见呼救声，已赶往现场。 但是，那名“救人英雄”已经不见踪影，他救起小刘后就默默转身离开了。热心救人，又低调离开，小编真心要为这名无名英雄点！而顺德警方也正在努力寻找这位热心男子，将为他申报见义勇为奖励！热心男子20多岁，身高约165cm，事发当天身穿深色短袖上衣，如有群众曾在现场围观并了解热心男子信息，请与顺德警方联系。也可拨打22209999，或在珠江商报官方微博、微信留言。全城接力！点ZAN“无名英雄”！来源：珠江商报、DV现场、佛山日报编辑：陈小腻推荐阅读感谢万能的朋友圈，顺德容山中学失联女学生回家了！上周末，全大良的学生家长和老师们都嗨翻了！德食寻味丨始于颜值，忠于口感，我们决定用分子甜品俘获你在佛山有这么一个罗曼蒂克的地方，你可以与TA一同跑向地老天荒……吓人！女子头发险掉光，只因家里养了这种常见的花| 阳光偶现，赶紧洗晒！</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Due to suspecting her husband of having an affair, a young woman in Lunjiao, Shunde, actually attempted suicide by jumping into the river! At a critical moment, a young man waiting for a bus nearby took action to rescue her. After confirming the woman's safety, he silently turned and left. Where are you, this unnamed hero? Watch the video | Reporter interviews the event replay. Around 2:30 p.m. on October 16th, near Lunjiao Middle School, the young woman Xiao Liu suddenly jumped into the river attempting suicide. It turned out that at noon that day, she discovered chat records on her husband's phone with another female friend, and even sent a red envelope to the other party, suspecting her husband of having an affair, which led her to act recklessly. The river is about two to three meters deep. Eyewitnesses said that Xiao Liu fell into the water headfirst, made sounds of struggling, but later became unresponsive. Fortunately, a young man waiting for a bus nearby heard the noise, rushed to the shore, jumped into the water to rescue the woman, and with the help of passersby, they managed to pull the woman ashore. At 2:42 p.m. that day, the Lunjiao Police Station received a report from the public that a woman who attempted suicide by jumping into the river near Lunjiao Middle School had been rescued but was in a confused state and needed help. At the same time, the public security officers patrolling nearby also reported to the police station that they heard cries for help and had rushed to the scene. However, the "hero who saved the woman" was nowhere to be found, as he quietly left after rescuing Xiao Liu. Being enthusiastic in saving people and leaving quietly, the author sincerely admires this unnamed hero! The Shunde police are also actively searching for this enthusiastic man and will nominate him for a bravery award! The enthusiastic man is in his twenties, about 165cm tall, wearing a dark short-sleeved shirt on the day of the incident. If any members of the public have information about the enthusiastic man who was at the scene, please contact the Shunde police. You can also call 22209999 or leave a message on the official Weibo or WeChat account of Zhujiang Business Daily. The whole city is working together! Like and share "The Unnamed Hero"! Source: Zhujiang Business Daily, DV Scene, Foshan Daily Editor: Chen Xiaoni. Recommended Reading: Thanks to the almighty circle of friends, the missing female student from Rongshan Middle School in Shunde has returned home! Last weekend, the students, parents, and teachers in Daliang were all thrilled! Delicacy Exploration | Starting from appearance, loyal to taste, we have decided to capture you with molecular desserts. In Foshan, there is such a romantic place where you can run towards the end of the world with your loved one... Scary! Woman's hair almost fell out, just because she kept this common flower at home | Sunlight occasionally appears, hurry up and dry it!</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>先来看看K.MUSECLUB有哪些让你心动的福利▼ ■不是所有招聘信息都能吸引你加入我们，这些福利都能够统统享受，然而最最最最重要的是，咱们是夜店呀，摆脱单身那不是分分秒秒的事。那么你又会说“我撩妹撩汉的技巧好差劲怎么办？”这也不是问题因为咱们是夜店以 下 是 招 聘 长 图 文简 洁 明 了 平 铺 直 叙▼ 【营销经理】 能喝酒，酒品好，会沟通，执行能力强。 男女不限 有一定的客户资源。（没有，跟boss沟通吧） （底薪+提成+奖金） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：陈先生 18872666643 【品牌经理】 18岁以上女性，形象气质佳 （底薪+提成+奖金） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：陈先生 18872666643 【B组dancer】 18岁以上女性，形象气质佳 身高160cm以上 有一定的舞蹈功底 （底薪6000+提成） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：陈先生 18872666643 【香槟宝贝】 18岁以上女性，形象气质佳 擅于应酬，交际能力强 （底薪8000-10000+提成） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：陈先生 18872666643 【安保】 身高178cm以上 退伍军人 身体强壮 服从命令 听从指挥 无不良嗜好 吃苦耐劳 （月薪3000元/月） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：李女士 18071792022 【服务员】 品貌端正，良好的沟通能力，负责任，执行能力强。 男女不限，有工作经验优先。 （底薪+全勤+小费 2000-4000/月） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：李女士 18071792022 【前台咨客】 身高163cm-170cm左右 形象气质佳 懂得接待礼仪 善于沟通 （月薪 2000-3000/月） 招聘地点：每天下午2点后，缪斯酒吧 招聘热线：李女士 18071792022 【保洁】 勤劳，听从分配和安排。</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>First, let's take a look at the benefits of K.MUSECLUB that make you excited ▼ ■Not all job postings can attract you to join us. You can enjoy all these benefits, and the most important thing is that we are a nightclub, getting rid of being single is not a matter of minutes. So what if you say, "My skills in flirting with girls or guys are so bad?" This is not a problem because we are a nightclub. Below is a recruitment notice with clear and concise text ▼ 【Marketing Manager】 Can drink, good at alcohol, good at communication, strong execution. No gender preference. Have certain customer resources. (If not, discuss with the boss) (Base salary + commission + bonus) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Mr. Chen 18872666643 【Brand Manager】 Females over 18 years old, with good image and temperament (Base salary + commission + bonus) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Mr. Chen 18872666643 【B Group Dancer】 Females over 18 years old, with good image and temperament, height above 160cm, with certain dance skills (Base salary 6000 + commission) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Mr. Chen 18872666643 【Champagne Baby】 Females over 18 years old, with good image and temperament, good at socializing, strong interpersonal skills (Base salary 8000-10000 + commission) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Mr. Chen 18872666643 【Security】 Height above 178cm, retired military personnel, physically strong, obedient, follow orders, no bad habits, hardworking (Monthly salary 3000 yuan) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Ms. Li 18071792022 【Waiter】 Well-groomed, good communication skills, responsible, strong execution. No gender preference, work experience preferred. (Base salary + full attendance + tips 2000-4000/month) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Ms. Li 18071792022 【Front Desk Customer Service】 Height around 163cm-170cm, good image and temperament, familiar with reception etiquette, good at communication (Monthly salary 2000-3000/month) Recruitment location: MUSE Bar after 2 pm every day Recruitment hotline: Ms. Li 18071792022 【Cleaner】 Hardworking, obedient to assignments and arrangements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>在投资市场，曾经有一位股神说过一句话："有钱的人，可以投机；钱少的人，不可投机；根本没钱的人，必须投机。"对于一个人的投资组合应否采取一注独赢的策略，我想可以这样理解，"有钱的人，输得起，可以一注独赢；钱少的人，输不起，不可以一注独赢；根本没钱的人，必须一注独赢。"这句话很好理解，但是要真正做到的，却很难。这是为什么？其实，来炒股的人，大抵最初都怀抱着一些不切实际的幻想，这也无可厚非，但是随着经历增长，意识到资本市场无神话也是必然的，这是一场蜕变。人生无非是在对的年纪做对的事情，一个人倘若没有在他那个年纪该有的情绪，那么必然有那个年纪不该有的非常经历。意识到单靠工资收入难以实现财务自由没有错，打造多元化的收入渠道也没有错，但是任何事情都遵循着一定的自然规律，财富增长的路径也是一样，年轻的时候就该专注提升个人的业务能力，因为年轻的时候职场收入远大于投资带来的现金流，所以越早意识到炒股收益难以持续高增长，就越能够意识到这种年轻靠工资以及长靠投资的财富增值方法是最优的路径，当然对于少数人而言，创业可能是更好的选择。幸运的是，职场、创业、投资，我都尝试过，虽然显得很稚嫩，但是这对于我价值投资理念的养成和实业投资的思维大有裨益，很多人也许终其一生也不曾思考不曾明白股票的本质是什么，像是水母一样，在无意识的时间中过完自己的一生。其实最初接触价值投资，颇有一些叶公好龙的味道，巴菲特等大师的作品反反复复读了不少下5遍，具体怎么做却仍然缺乏头绪，虽说"明势、取到、优术"，但是没有具体的执行，仍然有流于言语之感，所谓言语上的巨人，行动上的矮子，大抵就是如此。经过多年的反复实战验证，确定了自身股票投资的思路： 1、股票的本质是公司的权益份额，代表的是一家家企业，那么很显然公司赚钱，股价才能上涨。2、股票又具有市场属性，附带着交易者的心里预期，市场的波动带来溢价，这个溢价难以把握，又具有一定的规律，它本质上还是附着内在盈利的基石上，盛衰轮转，否极泰来，无论如何波动，始终围绕着一个点，这个点就是公司的内在价值。3、投资就是买最赚钱的公司的股票，为了保证 赚钱，就必须预留判断错误的空间，所以必须以比内在价值更低的价格购买，同事还要保证所有的公司具有强大的盈利能力，否则虽有利差，一直不能强势回归，价值回归的周期一拉长，最终还是亏损。</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>In the investment market, there was once a stock god who said, "People with money can speculate; those with little money cannot speculate; those who have no money at all must speculate." As for whether one should adopt a single-win strategy for their investment portfolio, I think it can be understood in this way, "People with money, who can afford to lose, can adopt a single-win strategy; those with little money, who cannot afford to lose, should not adopt a single-win strategy; those who have no money at all must adopt a single-win strategy." This statement is easy to understand, but very difficult to truly achieve. Why is that? In fact, most people who come to invest in stocks initially harbor some unrealistic fantasies, which is understandable, but as experience grows, realizing that the capital market is not mythical is inevitable, this is a transformation. Life is nothing more than doing the right thing at the right age. If a person does not have the emotions they should have at their age, then they will inevitably have very extraordinary experiences at that age. Realizing that financial freedom is difficult to achieve solely relying on salary income is not wrong, creating diversified income streams is also not wrong, but everything follows certain natural laws, and the path to wealth growth is the same. When young, one should focus on improving personal business capabilities because at a young age, income from the workplace far exceeds the cash flow from investments. Therefore, the earlier one realizes that stock returns are difficult to sustain high growth, the more they can realize that relying on salary when young and on investments in the long term is the optimal path for wealth appreciation. Of course, for a few people, entrepreneurship may be a better choice. Fortunately, I have tried my hand at the workplace, entrepreneurship, and investment. Although I may seem very immature, this has been very beneficial for the development of my value investment philosophy and the mindset of industrial investment. Many people may never think or understand what the essence of stocks is throughout their lives, living their lives unconsciously like jellyfish. In fact, when I first came into contact with value investing, there was a bit of a taste of being curious about something rare. I have read the works of masters like Buffett repeatedly, but still lacked a clear plan on how to proceed. Although it is said "understand the trend, pick the right stock, and have superior skills," without specific execution, it still feels like just empty words. After years of repeated practical verification, I have established my own stock investment strategy: 1. The essence of stocks is the equity share of a company, representing individual enterprises. Therefore, it is obvious that the stock price can only rise when the company makes money. 2. Stocks also have market attributes, carrying the expectations of traders in their minds. Market fluctuations bring premiums, which are difficult to grasp but follow certain rules. Essentially, they are still based on the foundation of internal profits, with ups and downs, and regardless of how they fluctuate, they always revolve around one point, which is the company's intrinsic value. 3. Investment is about buying stocks of the most profitable companies. To ensure profitability, one must reserve space for judgment errors, so it is necessary to purchase at a price lower than the intrinsic value. At the same time, it is essential to ensure that all companies have strong profit-making capabilities. Otherwise, even with a profit margin, if they cannot return strongly, and the cycle of value return is prolonged, ultimately there will be losses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “我手机上下载了许多跨境电商APP，没事的时候逛一逛，基本就能满足海淘需求。”陈女士对中国证券报记者表示，尽管自己和周边朋友出国机会都比较少，但今年以来她已很少托人代购。陈女士表示，此前有朋友在代购时遇到过海关补税，不仅耗费时间，而且补税后商品价格也失去了优势。与陈女士情况类似的消费者不在少数。近年来，跨境电商企业数量日渐攀升，既出现面对细分领域的跨境电商平台，如深耕母婴、奢侈品等领域的平台，又如以打造综合跨境电商平台为目标的企业。4月8日，《关于跨境电子商务零售进口税收政策的通知》正式实施，意味着跨境电商“免税时代”正式结束。在此背景下，“包邮包税”成为各电商平台新的促销手段。陈女士介绍，购物跨境电商APP上经常会有活动，“包邮包税”成为其购物的最大动力。“确实比较划算，而且是海外直邮，比较有保障。”陈女士称。然而，跨境电商平台如何实现“包邮包税”?某业内人士介绍，跨境电商平台通过调整商品结构、内部成本优化来填补“包邮包税”带来的价格差。在此背景下，“包邮包税”商品对于消费者在购买数量上也会有一定要求。比如，通过产品包形式，一件产品包里有两件以上同类商品。分析人士表示，2016年上半年我国跨境电商交易规模为2.6万亿元，同比增长30%。预计至2020年我国跨境电商交易规模将达12万亿元，复合增长率将到达20.11%，渗透率将达到37.6%，其中跨境B2C占比将达到30.5%。值得注意的是，我国跨境电商市场供需体现出需求旺盛、供给零散化的特点。业内人士介绍，在面临全球经济风口之下，中国消费者的力量一直没得到释放。中国消费者能获得到的海外商品有限。对于海外零售商而言，中国市场进入门槛太高，且中国整个零售市场和全球的分销市场中链条太长。“一个产品从海外源头到中国消费者手里，要经历5个到6个不同环节，而且可能跨过上万公里，这当中带来了链条成本和风险，导致到中国消费者手里的商品价格非常高。”上述业内人士表示。跨境电商行业将随着消费黏性的进一步增强而进行行业整合。多家公司正在探索跨境电商线下实体店业务。以腾邦为例，去年3月，腾邦前海保税跨境购物展示中心试营业，日到店人数逾千，其微信商城“海捣网”因订单量激增一度瘫痪。腾邦国际某高管日前在接受中国证券报记者表示：“未来，我们将开千家实体店，消费者出境游玩回国不用亲自带手信，只需在网上下单，回国到实体店拿免税商品。</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>"I have downloaded many cross-border e-commerce apps on my phone. When I have nothing to do, I browse through them, which basically satisfies my needs for overseas shopping," Ms. Chen told a reporter from China Securities Journal. Although she and her friends have limited opportunities to go abroad, she has rarely asked others to make purchases on her behalf this year. Ms. Chen mentioned that a friend had encountered customs duties during a purchasing agent service before, which not only consumed time but also eliminated the price advantage of the goods after the duties. There are many consumers in situations similar to Ms. Chen's. In recent years, the number of cross-border e-commerce companies has been increasing, with the emergence of cross-border e-commerce platforms targeting specific areas, such as platforms focusing on maternity and luxury goods, as well as companies aiming to build comprehensive cross-border e-commerce platforms. On April 8th, the "Notice on the Tax Policies for Cross-border E-commerce Retail Imports" was officially implemented, marking the end of the "tax-free era" for cross-border e-commerce. Against this backdrop, "free shipping and tax-inclusive" has become a new promotional tactic for various e-commerce platforms. Ms. Chen introduced that there are often activities on shopping cross-border e-commerce apps, and "free shipping and tax-inclusive" has become her biggest motivation for shopping. "It is indeed more cost-effective, and it is shipped directly from overseas, which is more secure," said Ms. Chen. However, how do cross-border e-commerce platforms achieve "free shipping and tax-inclusive"? An industry insider explained that cross-border e-commerce platforms fill the price gap brought by "free shipping and tax-inclusive" by adjusting the product structure and optimizing internal costs. In this context, there will also be certain requirements for consumers in terms of the quantity of purchases of "free shipping and tax-inclusive" products. For example, through product bundling, a product bundle contains two or more similar items. Analysts point out that in the first half of 2016, China's cross-border e-commerce transaction volume reached 26 trillion yuan, a year-on-year increase of 30%. It is estimated that by 2020, China's cross-border e-commerce transaction volume will reach 120 trillion yuan, with a compound annual growth rate of 20.11%, a penetration rate of 37.6%, and the share of cross-border B2C will reach 30.5%. It is worth noting that the supply and demand in China's cross-border e-commerce market show the characteristics of strong demand and fragmented supply. Industry insiders pointed out that under the global economic trend, the power of Chinese consumers has not been fully unleashed. Chinese consumers have limited access to overseas goods. For overseas retailers, the entry barrier to the Chinese market is too high, and the entire retail market in China and the global distribution market have excessively long chains. "A product from overseas to Chinese consumers has to go through 5 to 6 different links, and may cross over tens of thousands of kilometers, which brings about chain costs and risks, resulting in very high prices for the goods reaching Chinese consumers," the above-mentioned industry insider said. The cross-border e-commerce industry will undergo industry consolidation as consumer stickiness further strengthens. Many companies are exploring offline physical store businesses for cross-border e-commerce. Taking Tengbang as an example, in March last year, Tengbang's Qianhai Bonded Cross-border Shopping Exhibition Center opened for trial operation, with a daily footfall of over a thousand people, and its WeChat mall "Haidaowang" was temporarily paralyzed due to a surge in orders. A senior executive of Tengbang International recently told a reporter from China Securities Journal, "In the future, we will open thousands of physical stores, so that consumers returning from overseas trips do not need to bring back souvenirs themselves. They only need to place orders online and pick up duty-free goods at physical stores upon returning to the country."</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>如果你现在看这篇文章，证明你的单子被套了，或者昨晚严重亏损了，不妨跟张晶霖老师好好交流一下，昨晚在市场都认为原油能突破51美元上涨，而行情复制了周一的“倒V”，而今早的API大幅利空，导致原油一路暴跌，而大多数看涨的投资朋友在你们老师的建议或自己的操作下做了多单的所以现在肯定有很多朋友的多单已经被深深的套住了，那我们的多单还有机会出来吗、该怎么操作？。套单的朋友希望你认真看完这句话，很多朋友在行情突变的时候被套单，然后便惊慌失措，被套了，单子还会不会出来，还要扛多少点？要不随便找个老师问问吧，再然后你就随便找个老师问了问，结果还是一样，单子还是没出来，张晶霖老师想说的是，做投资，不管做的是什么，第一具体的条件，便是心态，我们不能操控市场，没有关系，当然也不要被市场操控自己。张晶霖只是一个分析师不是感情专家，如果你现在输了我愿意陪你东山再起；你赢，我陪你君临天下！！ ====API大幅利空携手多重利空面打压油价，今晚EIA能否锦上添花，原油会暴跌吗？====利空因素一：API原油库存大增北京时间周三凌晨，美国石油协会（API）公布的数据显示，截至10月21日当周，美国API原油库存大增475万桶，此前预期增加80万桶，前值为减少378.8万桶。API原油库存数据公布后，美油布油双双下跌逾2%。利空因素二：俄罗斯反对减产，仅支持冻产虽然多数主要产油国均曾支持限产，但是其内部立场分歧依然巨大。其中，俄罗斯驻欧佩克特使VladimirVoronkov在回答有关欧佩克减产共识的问题时表示，俄罗斯反对削减石油产量，这对俄罗斯来说不是一个选项，将产量冻结在目前水平对俄罗斯来说是一个更可取的选择。此外，委内瑞拉油长皮诺似乎也证实了“不减产”，称“冻产”协议可能只是暂时的。利空因素三：IEA署长油市不支持油价平衡国际能源署（IEA）署长比罗尔（FatihBirol）表示，尽管中国的石油消费量有望增长，但预计2017年全球石油需求增幅将仅为120万桶/日，需求增长的放缓可能意味着在明年下半年以前，国际油市无法达到供需再平衡。他亦对OPEC减产计划的成效表示质疑，因OPEC减产可能导致其他地区增产，进一步破坏油市的再平衡进程。</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>If you are reading this article now, it proves that your position has been trapped, or you suffered significant losses last night. You might as well have a good conversation with Teacher Zhang Jinglin. Last night, the market believed that crude oil could break through $51 and rise. However, the market replicated the "inverted V" pattern from Monday, and this morning's API data was significantly bearish, causing crude oil to plummet. Most of the bullish investors, following your teacher's advice or their own operations, have been deeply trapped in long positions. Is there still a chance for our long positions to come out? How should we operate? For those trapped, I hope you carefully read this sentence. Many friends get trapped when the market suddenly changes, then panic and wonder if their positions will come out and how much they have to endure. Why not casually ask a teacher? After asking a teacher, the result remains the same - the positions are still not out. What Teacher Zhang Jinglin wants to say is, in investing, no matter what you do, the first specific condition is mindset. We cannot control the market, it's okay, and of course, we should not let the market control us. Zhang Jinglin is just an analyst, not a relationship expert. If you are losing now, I am willing to accompany you to rise again; if you win, I will accompany you to dominate the world!! ====API significantly bearish, coupled with multiple bearish factors suppressing oil prices, can EIA add icing on the cake tonight, will crude oil plummet?==== Bearish factor one: API crude oil inventories surged. In the early hours of Wednesday Beijing time, data released by the American Petroleum Institute (API) showed that in the week ending October 21, US API crude oil inventories surged by 4.75 million barrels, well above the expected increase of 800,000 barrels and the previous decrease of 3.788 million barrels. After the release of API crude oil inventory data, both US oil and Brent oil fell by over 2%. Bearish factor two: Russia opposes production cuts, only supports freeze. Although most major oil-producing countries have supported production limits, internal divisions remain significant. Vladimir Voronkov, Russia's OPEC envoy, stated that Russia opposes cutting oil production, which is not an option for Russia, and freezing production at the current level is a more preferable choice for Russia. In addition, Venezuela's oil minister seems to confirm "no production cuts," stating that a "freeze" agreement may only be temporary. Bearish factor three: IEA Director does not support oil price balance. Fatih Birol, the Executive Director of the International Energy Agency (IEA), stated that although China's oil consumption is expected to increase, global oil demand growth in 2017 is projected to be only 1.2 million barrels per day. The slowdown in demand growth may mean that the international oil market will not achieve supply-demand balance until the second half of next year. He also questioned the effectiveness of OPEC's production cuts, as OPEC cuts may lead to increased production in other regions, further disrupting the oil market's rebalancing process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>瑞士表厂HYT宣布推出H3液压计时腕表，和普通依靠发条的机械式腕表不同，H3液压计时腕表采用了毛细管液压来驱动有色液体显示时间。H3液压计时腕表采用矩形设计，内建2跟直管来显示小时和分钟。另外，H3液压计时腕表也有圆形设计，有色液体沿着圆形管道流动来显示时间。H3液压计时腕表除了使用传统发条和指针之外，还通过毛细管推动有色液体在波纹管当中运动来显示时间。在上代产品H1当中，有色液体运动使用两个垂直波纹管，H2版本使用V字形的波纹管结构。H3是最新产品，在一条直线上推动液体运动，并且具有旋转的四小时刻度盘和一个铰接臂显示分钟。其中，左边的波纹管推动液体沿毛细管运动，右侧的第二根波纹管则对着色液体运动进行补偿。HYT H3 腕表限量生产25只，在九月份上，每只售价29万美元。</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Swiss watchmaker HYT has announced the launch of the H3 hydraulic chronograph watch. Unlike traditional mechanical watches that rely on a winding mechanism, the H3 hydraulic chronograph watch uses capillary tubes to drive the display of time with colored liquid. The H3 hydraulic chronograph watch features a rectangular design with 2 straight tubes built in to display hours and minutes. Additionally, the H3 hydraulic chronograph watch also comes in a circular design, where colored liquid flows along circular channels to indicate the time. In addition to the conventional winding mechanism and hands, the H3 hydraulic chronograph watch utilizes capillary tubes to propel colored liquid within corrugated tubes to show the time. In the previous model H1, the movement of colored liquid was achieved using two vertical corrugated tubes, while the H2 version employed a V-shaped corrugated tube structure. The H3 is the latest model, pushing the liquid movement in a straight line, featuring a rotating four-hour dial and an articulated arm to display minutes. The corrugated tube on the left propels the liquid along the capillary tube, while the second corrugated tube on the right compensates for the movement of the colored liquid. The HYT H3 watch is limited to 25 pieces, with each priced at $290,000 and set to be released in September.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2014年年度报告摘要一、重要提示1.1本年度报告摘要来自年度报告全文，投资者欲了解详细内容，应当仔细阅读同时刊载于上海证券交易所网站上的年度报告全文。1.2公司简介二、主要财务数据和股东变化2.1 主要财务数据（按中华人民共和国企业会计准则编制）单位：人民币·千元2.2 按香港财务报告准则编制单位：人民币·千元2.3 前10名股东持股情况表单位：股2.4 与实际控制人之间的产权及控制关系：三、管理层讨论与分析2014年度，在全球经济复苏艰难曲折、增长动力不足，我国经济发展进入新常态的大环境下，公司积极采取应对措施，围绕产业发展重心，坚持创新发展不动摇，努力落实经营发展目标，更加积极主动推进自主创新，改善经营管理，抢抓市场机遇，加大结构调整力度，进一步增强企业活力，不断提高企业发展质量和效益，较好地完成了各项任务、指标。2014年度，公司取得了较好的经营业绩。按中国企业会计准则，公司2014年度营业收入人民币348，764.11万元，利润总额人民币22，081.07万元，净利润人民币15，323.01万元。按香港财务报告准则，全年实现主营业务收入人民币345，069万元，主营业务利润人民币47，057万元，实现股东应占净溢利人民币15，323万元。2014年度，公司以现金方式收购熊猫集团公司公开挂牌转让的深圳京华5，834，430股股份（占其总股本的5.07%）；交易完成后，公司直接持有深圳京华43.10%股权，并在改选后的深圳京华董事会拥有多数席位，将其纳入合并报表范围。本次交易有利于公司扩展消费电子产品领域，提高综合竞争力，完善对参股公司的规范管理。2014年度，公司坚持科技创新与机制创新相结合，激发科技创新体系中各要素的创新活力，增强企业创新的内生动力；公司围绕主导产业，认真编制、落实科研计划大纲，按照计划完成重点科研项目；公司针对制约企业发展的技术瓶颈，集中优势资源，实现重点突破，掌握了一批具有自主知识产权的核心技术，技术实力和核心竞争力又迈上一个新的台阶。2014年公司荣获南京市知识产权管理示范企业称号。</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2014 Annual Report Summary
+1. Important Notes
+1.1 This annual report summary is extracted from the full annual report. Investors who wish to understand the detailed content should carefully read the full annual report published on the Shanghai Stock Exchange website.
+1.2 Company Profile
+2. Main Financial Data and Shareholder Changes
+2.1 Main Financial Data (prepared in accordance with the Accounting Standards for Business Enterprises of the People's Republic of China) Unit: RMB'000
+2.2 Prepared in accordance with the Hong Kong Financial Reporting Standards Unit: RMB'000
+2.3 Shareholding situation of the top 10 shareholders Unit: Shares
+2.4 Property and control relationships with the actual controller
+3. Management Discussion and Analysis
+In 2014, amidst the difficult and tortuous global economic recovery and insufficient growth momentum, and under the new normal of China's economic development, the company actively took measures to respond, focused on industrial development, adhered to innovative development without wavering, made efforts to implement operational development goals, actively promoted independent innovation, improved operational management, seized market opportunities, intensified structural adjustments, further enhanced corporate vitality, continuously improved the quality and efficiency of corporate development, and successfully completed various tasks and indicators. In 2014, the company achieved good operating performance. According to the Chinese Accounting Standards for Business Enterprises, the company's operating income in 2014 was RMB 348,764.11 thousand, total profit was RMB 22,081.07 thousand, and net profit was RMB 15,323.01 thousand. According to the Hong Kong Financial Reporting Standards, the company achieved operating income of RMB 345,069 thousand, operating profit of RMB 47,057 thousand, and net profit attributable to shareholders of RMB 15,323 thousand. In 2014, the company acquired 5,834,430 shares of Shenzhen Jinghua publicly listed by Panda Group in cash (accounting for 5.07% of its total share capital); after the transaction was completed, the company directly held 43.10% equity of Shenzhen Jinghua and held a majority of seats in the re-elected Shenzhen Jinghua board of directors, incorporating it into the consolidated financial statements. This transaction is beneficial for the company to expand into the consumer electronics field, enhance overall competitiveness, and improve the standardized management of its equity investments. In 2014, the company persisted in combining technological innovation with institutional innovation, stimulating the innovative vitality of all elements in the technological innovation system, enhancing the internal driving force of enterprise innovation; the company carefully formulated and implemented research plan outlines around the leading industry, completed key research projects according to plan; the company focused on addressing technological bottlenecks that restrict corporate development, concentrated advantageous resources, achieved key breakthroughs, mastered a batch of core technologies with independent intellectual property rights, and its technological strength and core competitiveness reached a new level. In 2014, the company was awarded the title of Nanjing Intellectual Property Management Demonstration Enterprise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>啦啦啦～好鸡冻！今天星期五啦最长的7天“工作日”总算熬到头了！ 另外，这波冷空气要领便当，回西伯利亚老家了；在大Boss副高的关照下，连江周末的天气也棒棒的，愉快地浪起来吧！ （连江今起3天的天气）看腿的季节又回来了，福利放送，记得点zan这几天温度一降，街头的妹纸是这样的 慢慢回温，街头上又可以看到这样的妹纸了耶 逼近30℃，这样的大长腿又可以看到了耶，满街大长腿啊大长腿啊大长腿啊大长腿啊大长腿啊 这腿，你们收着慢慢看，接下来要说的，可就不是个好消息了。来深呼吸，调整一下情绪…… 西北太平洋，台风已经炸窝前几天，有个小伙伴看卫星云图，找不到台风艾利的踪影，于是多事地报警了。 ??喂~妖妖零吗？我在南海上丢了一个台风。本来要狗带的艾利，听到呼唤非兴奋，正在“补血”准备复活，游魂飘到海南岛南边，又还魂加强了。不过，艾利就算是复活成功重获命名权，他也是登陆越南。因为离海南太近，受此影响，海南的强降雨预计会加强。太平洋听说有人在找台风，也打了鸡血似的，一口气领了6个出来等认领。 加上副热带高压正好在暖池头顶，西北太平洋已经炸窝了，现在有六个台风或台风胚胎同时活动，有三个正在或将要影响我国。其中，今年第21号台风莎莉嘉已经于10月13号晚上8点生成，目前在海南三亚东南2100公里。莎莉嘉是正宗的暖池台风，在菲律宾以东，它有着极佳的发展环境：太平洋超高的海水热量、高空急流和菲律宾地形的辐合帮助。因此，它即将猛烈爆发，很可能在16号凌晨以超强台风的巅峰强度登陆菲律宾。 穿过菲律宾后， 16日晚上进入南海东部，逐渐向海南岛东部海面靠近，强度逐渐加强，并将于18日下午到夜间登陆或擦过海南岛东南部（13～15级），也有可能从海南岛南部近海海面西行。对福州会不会有影响呢，福州气象台说： 22号台风海马，或直扑福建看到这刚稍稍放心了下，可后面一连串台风，又争着来报到了。在21号台风东边，未来的22号台风海马也在迅速发展。它的暖池基因比莎莉嘉更正宗，结构比莎莉嘉更好，在海上可能成为比肩莫兰蒂的超强台风。它既可能在我国登陆，也可能转向，目前来看登陆的可能性更大。</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>La la la~ So excited! Finally, the longest 7-day "workweek" has come to an end on this Friday! In addition, as the cold air is packing its bags, heading back to my hometown in Siberia; under the care of the big boss, the weekend weather in Lianjiang is also great, so let's enjoy it happily! (Lianjiang's weather for the next 3 days) The season of admiring legs is back, with benefits being given away. Remember to give a thumbs up. As the temperature drops in these days, the girls on the street are slowly warming up, and we can see these girls on the street again. Approaching 30°C, we can see those long legs again, full of long legs, long legs, long legs, long legs, long legs. These legs, take your time to admire, but what comes next is not good news. Take a deep breath, adjust your emotions... In the northwest Pacific, a typhoon exploded a few days ago. A friend looked at the satellite cloud map and couldn't find any trace of Typhoon Aere, so he alarmingly reported it. Hey~ Is Typhoon Aere there? I lost a typhoon in the South China Sea. Originally, Aere was about to leave, but upon hearing the call, he got excited and is now "replenishing blood" to prepare for a comeback. His wandering soul drifted to the south of Hainan Island and strengthened his return. However, even if Aere successfully resurrects and regains the right to be named, he will still make landfall in Vietnam. Due to the proximity to Hainan, the heavy rainfall in Hainan is expected to intensify. It is said that someone is looking for a typhoon in the Pacific, and like being injected with chicken blood, six typhoons have emerged waiting to be claimed. With the subtropical high pressure system right over the warm pool, the northwest Pacific has exploded, and now there are six typhoons or typhoon embryos simultaneously active, with three of them currently or soon to affect our country. Among them, Typhoon Sarika, the 21st typhoon of this year, was generated at 8 p.m. on October 13th, currently located 2100 kilometers southeast of Sanya, Hainan. Sarika is a genuine warm pool typhoon. To the east of the Philippines, it has an excellent development environment: the extremely high sea surface temperatures of the Pacific, high-altitude jet streams, and the convergence of the Philippine terrain all contribute to its rapid intensification. Therefore, it is expected to intensify rapidly and likely make landfall in the Philippines at its peak intensity as a super typhoon in the early hours of the 16th. After passing through the Philippines, it will enter the eastern South China Sea on the night of the 16th, gradually approaching the eastern sea area of Hainan Island, intensifying, and is expected to make landfall or brush past the southeastern part of Hainan Island on the afternoon to night of the 18th (13-15 on the Beaufort scale), or possibly move westward from the near sea area of the southern part of Hainan Island. Will it affect Fuzhou? The Fuzhou Meteorological Observatory says: Typhoon Haima, the 22nd typhoon, may directly hit Fujian. Just as we felt a bit relieved upon hearing this, a series of typhoons are lining up to make their appearance. To the east of Typhoon Sarika, the upcoming Typhoon Haima is also rapidly developing. Its warm pool genes are more authentic than Sarika's, and its structure is better, making it a potential super typhoon that could rival Moranti. It may land in our country or change direction, but currently, the possibility of landfall is higher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>昨日早高峰，不少市民遭遇地铁1号线列车临停以及车辆供电问题。经近半小时抢修，故障排除，运营秩序逐步恢复正常。为给上班族提供迟到“证明”，成都地铁首次大规模发放致歉信。同时，受影响乘客可于10日内办理退票。1号线突发供电故障地铁“熄火”24分钟昨日一大早，很多市民在微信朋友圈和微博上反映，地铁1号线部分列车出现临时停车情况：车里开启了应急照明，空调也关了。不过，从网友发布的图片上可以看到，乘客们都显得很淡然，车内秩序也十分井然。昨晨8时34分，成都地铁运营公司官方微博发布最早一条微博，“因设备故障，目前地铁1号线升仙湖站至火车南站的列车发车间隔延长。”据了解，故障在8时25分出现，24分钟后，故障排除，运营恢复。据成都地铁官方消息，造成这个情况的主要原因是，1号线突发供电故障，导致升仙湖至火车南站上行区间接触网失电。据成都地铁运营公司相关负责人介绍，8时25分故障发生后，成都地铁立即启动应急措施，多措并举，确保运营秩序快速恢复正常。致歉信可作迟到“证明”受影响乘客10日内可退票列车晚点，多数上班族面临迟到的情况。为了让上班族可以告知公司或单位，成都地铁为市民提供致歉信，以作为迟到的“证明”。记者了解到，此前成都地铁也曾提供过这种致歉信，但如此大范围发放，并提示市民用作迟到“证明”使用还是第一次。据初步统计，截至昨日上午10点，成都地铁共发放了300余封致歉信。据了解，类似措施在北京、南京、沈阳、西安等其他城市也有过。成都地铁消息，昨日受影响的乘客，还可于10日内到成都地铁全线任何车站，凭可证明于故障期间出行的票卡（如单程票、天府通卡等）办理退票，具体可详询车站工作人员。成都商报记者 张舒 摄影记者 刘海韵小知识地铁车厢内失电怎么办？当地铁发生供电故障时，只在极端故障下列车车厢内正常照明会丢失，但应急照明将立即开启，保证车厢内基本照明。那么，发生这类故障时，正在地铁车厢内的我们该怎么办？1、不要惊慌，不要在车厢内四处奔跑，不要随意触碰车内设施；2、仔细听取车厢内语音广播信息，了解故障真实情况；3、关注@成都地铁 @成都地铁运营 官方微博，掌握故障处置动态信息；4、在工作人员的指引下，耐心等候或有序下车，选择其他交通工具出行；5、乘客之间相互帮助；6、如发生眩晕等身体不适情况，应通过车厢内紧急报警装置与列车司机取得联系，或直接呼叫列车巡检员，寻求帮助。</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>During yesterday's morning rush hour, many citizens encountered temporary halts and power supply issues on Metro Line 1. After nearly half an hour of emergency repairs, the malfunction was fixed, and the operation gradually returned to normal. To provide "proof" for latecomers, Chengdu Metro issued apology letters on a large scale for the first time. Meanwhile, affected passengers can apply for refunds within 10 days. A sudden power supply failure caused Metro Line 1 to "shut down" for 24 minutes yesterday morning. Early in the morning, many citizens reported on WeChat Moments and Weibo that some trains on Metro Line 1 had temporarily stopped: the emergency lighting was on inside the train, and the air conditioning was turned off. However, from the pictures posted by netizens, passengers appeared calm, and the order inside the train was well maintained. At 8:34 am yesterday morning, the official Weibo account of Chengdu Metro Operations Company posted the earliest Weibo, stating, "Due to equipment failure, the departure interval of trains from Ascension Lake Station to Train South Station on Metro Line 1 is extended." It was reported that the malfunction occurred at 8:25 am, and 24 minutes later, the issue was resolved, and operations resumed. According to official information from Chengdu Metro, the main reason for this situation was a sudden power supply failure on Line 1, which caused a power loss in the overhead lines from Ascension Lake to Train South Station. After the malfunction occurred at 8:25 am, Chengdu Metro immediately initiated emergency measures, taking multiple measures to ensure the rapid restoration of operational order. Apology letters can serve as "proof" of lateness. Affected passengers can apply for refunds within 10 days. Due to train delays, many commuters faced the situation of being late. In order to inform their companies or units, Chengdu Metro provided apology letters to citizens as "proof" of lateness. It was learned that Chengdu Metro had provided such apology letters before, but this was the first time they were distributed on such a large scale and specifically advised for use as "proof" of lateness. According to preliminary statistics, as of 10 am yesterday morning, Chengdu Metro had issued over 300 apology letters. Similar measures have been taken in other cities such as Beijing, Nanjing, Shenyang, and Xi'an. Chengdu Metro announced that passengers affected yesterday can also go to any station on the entire Chengdu Metro line within 10 days, present tickets or cards used during the malfunction period (such as single journey tickets, Tianfu cards, etc.), and apply for refunds, details can be obtained from station staff. Chengdu Business Daily reporter Zhang Shu Photography reporter Liu Haiyun Little knowledge: What to do if the metro carriages lose power? When a metro experiences a power supply failure, normal lighting inside the train carriages will be lost only in extreme cases, but emergency lighting will immediately turn on to ensure basic illumination inside the carriages. So, what should we do if we are inside a metro carriage when such a failure occurs? 1. Do not panic, do not run around in the carriage, and do not touch the facilities inside the carriage randomly; 2. Listen carefully to the voice broadcast information inside the carriage to understand the actual situation of the malfunction; 3. Follow @Chengdu Metro and @Chengdu Metro Operations official Weibo accounts to stay informed about the progress of the fault handling; 4. Wait patiently or disembark in an orderly manner under the guidance of staff, and choose other means of transportation for travel; 5. Help each other among passengers; 6. If you experience dizziness or other physical discomfort, use the emergency alarm device inside the carriage to contact the train driver or directly call the train inspector for assistance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>买了手机后，总会要精心挑选手机号码。买了车后上牌，也会想选一些吉利的数字。买房的时候当然也这样，"18最好！要发嘛！""6很不错！66大顺嘛！""这个4不好，不要不要......（嫌弃脸）" 大家在买房子的时候，但凡岁数不大的都喜欢选择高楼层。确实，高楼层空气好又隐私，不少购房者都愿意多搭上点钱，买个高楼层，但其实住房并不是越高越好。买房首先要考虑一下几个问题：噪音污染环保局的专家研究发现，噪声向上传播，高层住宅在30到70米间噪声最大。 楼层矮反而噪声小，除了因为绿化带、行道树可以降低噪声，还因为矮楼层只接收近距离的噪声；而楼层越高接收噪声的范围越广，远距离的交通噪声都可以传送到高层。 一般来说高层建筑中，5到24层噪声最大，其中噪声在11层到22层上升最多，30层以上又较为安静。如果是一幢26层高的楼房，20—22层噪声最大。 9—11层是扬灰层？说起高楼，除了噪音外，很多民间关于"9至11层是PM2.5最爱，是扬灰层，不能买"的说法在网上流传。 对此，专家予以辟谣，他们认为无论是更"轻"的PM2.5还是更大的PM10"灰"粒，在越接近地面的楼层，才浓度越高。 数据显示，PM2.5和PM10，浓度是1到3楼最高，后面就开始下降，并呈现分布均匀的状态。即使扬尘颗粒在特定条件下短暂盘旋到9-11层的高度，那也是偶然现象，必须具备很多气象条件。 买房还需要注意这些户型格局大多数高层住宅都是采用框架结构形式，往往一层对称布置6～8户，这样就会出现南向房和北向房，有的甚至是只有西向窗户的小居室，户型格局不易改变。在挑选此类高层住房时，要考虑入住后的舒适程度，关键是要让自己住得舒服、满意。 观察景观在挑选顶层或较高楼层时，不仅要特别注意朝向景观，还要考虑周边地区未来规划，如果您现在风景不错的窗前还要再建几幢高楼，风景将会被遮挡。 户数与电梯了解整栋楼的户数，电梯的质量与运行速度也很重要。一般情况下，24层以上住宅都配备3部电梯。 供水、水压一般高层住宅在顶层都建有水箱，先将水抽到顶层再往下供，使高层住户不会因压力不足用不上水。 物业、监控大楼底层是否设置值班警卫室，是否有保安在楼内巡视，监控设备是否齐全。 考虑停车位在购房时，即使是目前无车的住户也应做好提前打算，因为未来很有可能车位比房价还贵。 没买房的，赶紧果断收藏，某一天你一定会用得上。业务合作微信：xingzaaa</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>After buying a mobile phone, people always carefully choose a phone number. When buying a car and getting a license plate, they also want to select some auspicious numbers. When buying a house, of course, it's the same, "18 is the best! It brings fortune!" "6 is great! Double 6 is even better!" "This 4 is not good, no, no... (disapproving face)." When people buy houses, those who are not old prefer to choose higher floors. Indeed, high floors have good air quality and privacy. Many homebuyers are willing to spend more money to buy a high-floor apartment. However, living on higher floors is not always better. When buying a house, several factors should be considered: noise pollution. Experts from the Environmental Protection Bureau have found that noise spreads upwards, and in high-rise residential buildings, the noise is the loudest between 30 and 70 meters. Lower floors have less noise because green belts and roadside trees can reduce noise, and lower floors only receive noise from close distances. Higher floors receive noise from a wider range, and traffic noise from a distance can reach high floors. In general, in high-rise buildings, the noise is the loudest between the 5th and 24th floors, with the most significant increase in noise between the 11th and 22nd floors, and it becomes quieter above the 30th floor. For a 26-story building, the noise is the loudest on the 20th to 22nd floors. Is the 9th to 11th floor the dust-laden layer? Speaking of high-rise buildings, besides noise, there is a popular saying online that "the 9th to 11th floors are the favorite of PM2.5, the dust-laden layer, and should not be bought." Experts have debunked this, as they believe that whether it's the "lighter" PM2.5 or the larger PM10 "dust" particles, the closer to the ground, the higher the concentration. Data shows that the concentration of PM2.5 and PM10 is highest on the 1st to 3rd floors, and then starts to decrease, showing a uniform distribution. Even if dust particles briefly hover at the height of the 9th to 11th floors under specific conditions, it is a rare occurrence and requires many meteorological conditions. When buying a house, pay attention to these layout patterns. Most high-rise residential buildings adopt a frame structure, often symmetrically arranging 6 to 8 units per floor, resulting in south-facing and north-facing rooms, and some even have small rooms with only west-facing windows. The layout pattern is not easy to change. When selecting such high-rise housing, consider the comfort after moving in, and the key is to make yourself comfortable and satisfied. Observing the landscape when choosing the top floor or higher floors, not only pay attention to the orientation of the landscape but also consider the future planning of the surrounding area. If several high-rise buildings are planned to be built in front of your current good view, the scenery will be blocked. Number of units and elevators Understand the number of units in the entire building, and the quality and speed of operation of the elevators are also essential. Generally, residential buildings above 24 floors are equipped with 3 elevators. Water supply and water pressure High-rise residential buildings on the top floor have water tanks, which pump water to the top floor first before supplying it downwards, ensuring that residents on higher floors will not have insufficient water pressure. Property management and surveillance Check if there is a duty guard room on the ground floor of the building, if there are security guards patrolling inside the building, and if the surveillance equipment is complete. Consider parking spaces. When buying a house, even if you currently do not have a car, you should plan ahead because in the future, parking spaces may become more expensive than the house itself. If you haven't bought a house yet, hurry up and save this information, you will definitely need it someday. Business cooperation WeChat: xingzaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>京华时报讯近日，公安部副部长黄明在全国学校安全工作视频会议上强调，要毫不动摇地坚持依法严打方针，始终保持对各类侵害师生人身财产安全违法犯罪活动的严打高压态势。黄明指出，公安机关会同教育、综治部门连续5年在全国组织开展“护校安园”行动，取得了明显成效。近5年发生在学校内的侵害师生人身安全刑事案件年均下降10.6%，校车交通事故年均下降35.5%，排查发现、及时制止了一大批可能危害师生安全的案（事）件苗头，有力维护了校园安全形势稳定。但是，一些地方学校安全工作仍存在不少突出问题和薄弱环节，维护校园安全工作面临着巨大压力。各地公安机关要进一步加大涉校违法犯罪打击整治力度，毫不动摇地坚持依法严打方针，始终保持对各类侵害师生人身财产安全违法犯罪活动的严打高压态势。要完善校园周边治安形势研判预警机制，及时组织开展有针对性的打击整治行动。要把开展集中打击与经常性打击有机结合起来，校园周边网格布警与高峰勤务、定点执勤与武装巡逻等各项防控措施有机结合起来，校园周边治安秩序整治与交通秩序整治、消防隐患整治有机结合起来，营造良好的校园及周边安全环境。</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Recently, Deputy Minister of Public Security Huang Ming emphasized at a national video conference on school safety work that it is necessary to unwaveringly adhere to the policy of cracking down on illegal activities in violation of the personal and property safety of teachers and students in accordance with the law, and always maintain a high-pressure crackdown on various criminal activities. Huang Ming pointed out that the public security organs, together with the education and comprehensive governance departments, have organized the "Protecting Schools and Gardens" campaign nationwide for five consecutive years, achieving significant results. Over the past five years, the annual average of criminal cases endangering the personal safety of teachers and students in schools has decreased by 10.6%, and school bus traffic accidents have decreased by an average of 35.5% per year. They have identified and timely prevented a large number of potential threats to the safety of teachers and students, effectively maintaining the stability of campus security. However, there are still many prominent issues and weak links in school safety work in some areas, and the maintenance of campus security work faces tremendous pressure. Public security organs across the country must further intensify efforts to crack down on illegal activities related to schools, unwaveringly adhere to the policy of cracking down in accordance with the law, and always maintain a high-pressure crackdown on various criminal activities that violate the personal and property safety of teachers and students. It is necessary to improve the analysis and early warning mechanism for the security situation around campuses, and promptly organize targeted crackdown operations. It is necessary to organically combine concentrated crackdowns with regular crackdowns, integrate grid patrolling around campuses with peak duties, fixed-point duty with armed patrols, and various prevention and control measures, integrate campus security order rectification with traffic order rectification and fire hazard rectification, and create a good safety environment on campus and its surroundings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>山东出台26项措施确保外贸稳定增长视频来源：山东广播电视台新闻中心《山东新闻联播》齐鲁网济南6月17日讯(山东台李龙刘欢于凡唐虎潍坊台刘洋德州台公维勇)今年前五个月，山东完成进出口总额1143.9亿美元，同比增长10.2%。尽管增速在全国主要沿海外贸省（市）中位居第一，但每月波动幅度大，同时出口综合成本上升、订单转移趋势加剧等压力也逐渐加大。昨天，省政府下发《做好外贸稳定增长工作的实施意见》，出台多项政策确保全省外贸平稳增长。据山东广播电视台新闻中心《山东新闻联播》报道，按照海关规定，进口废纸应在口岸报关，使用监管车辆运输。今年，济南海关与青岛海关合作建立的进口废纸“快捷转关”通关模式，实现了属地海关上门查验、随到随验，每年为企业节约成本达2000多万元。济南海关监管通关处副处长李应杰介绍：“通过授权共用、执法互认、信息共享、电子放行等方式，去除复杂的中间环节，实现省内企业一次申报、一放到底。”这种海关间的创新业务协作模式，被写进了山东新出台的《外贸稳增长意见》中，并进一步提出要把这种协作向区域通关一体化推进。除此之外，“意见”还从优化对外贸易结构、加快培育新型贸易业态、提高贸易便利化水平、加大财税政策支持力度等8个方面提出26条具体办法。拿出口退税来说，从2014年起，对市、县负担出口退税比上年增长部分，省级补助比例由目前对东部和中部地区50%、西部地区70%，调整为由省级全额负担，同时加快退税进度。山东省国税局进出口税收管理处处长赵卫东表示：“要求对没有疑点的出口企业的退税，在10个工作日内完成审核审批、然后送交国库办理退库，会减轻企业的财务费用和财务成本。”整顿涉企收费也是此次意见的一大亮点。山东在对报关、报检、物流等进出口行业收费进行专项检查的同时，还将对现行进出口企业的收费进行清理整顿，并制定收费清单管理制度。山东省物价局综合法规处副处长王小伶说：“就是重点面向外贸企业的实行政府定价、政府指导价的项目，我们列一个清单出来，这样外贸企业在缴费的时候可以明明白白的。”贸易融资、出口信用保险、支持应对贸易摩擦，这些以往外贸扶持办法中涉及较少的内容，新出台的意见都有个更为详细和实质性的措施。山东省商务厅副厅长吕伟说：“我们要用两个月的时间，我们也对整个政策的落地，进行督导和督察。”</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Shandong has introduced 26 measures to ensure stable growth in foreign trade. Source: Shandong Radio and Television Station News Center "Shandong News Network" Jinan, June 17th (Shandong Station Li Long, Liu Huan, Yu Fan, Tang Hu, Weifang Station Liu Yang, Dezhou Station Gong Wei Yong) In the first five months of this year, Shandong completed a total import and export volume of 114.39 billion US dollars, an increase of 10.2% year-on-year. Despite ranking first in growth rate among the major coastal provinces and cities in the country, the monthly fluctuations are large. At the same time, the comprehensive export costs are rising, and the trend of order transfer is intensifying, adding pressure. Yesterday, the provincial government issued the "Implementation Opinions on Doing a Good Job in Stabilizing Foreign Trade Growth", introducing multiple policies to ensure stable growth in foreign trade throughout the province. According to the report by Shandong Radio and Television Station News Center "Shandong News Network", in accordance with customs regulations, imported waste paper should be declared at the port and transported using supervised vehicles. This year, the "Fast Customs Clearance" mode for imported waste paper established by Jinan Customs in cooperation with Qingdao Customs achieved on-site customs inspection and verification, saving companies more than 20 million yuan annually. Li Yingjie, Deputy Director of the Customs Clearance Department of Jinan Customs, explained: "By authorizing sharing, mutual recognition of law enforcement, information sharing, and electronic clearance, eliminating complex intermediate links, enabling enterprises in the province to declare once and clear customs smoothly." This innovative business cooperation model between customs has been included in the newly introduced "Opinions on Stabilizing Foreign Trade Growth" in Shandong, and further proposes to promote this cooperation towards regional customs integration. In addition, the "Opinions" also put forward 26 specific measures from 8 aspects including optimizing the structure of foreign trade, accelerating the cultivation of new trade formats, improving the level of trade facilitation, and increasing financial and tax policy support. Taking export tax rebates as an example, starting from 2014, for the portion of the export tax rebate burdened by cities and counties that increased from the previous year, the provincial subsidy ratio, which is currently 50% for eastern and central regions and 70% for western regions, will be adjusted to be fully borne by the province, while accelerating the tax rebate progress. Zhao Weidong, Director of the Import and Export Tax Management Department of Shandong Provincial Taxation Bureau, said: "For export enterprises without doubts, the tax rebate will be completed in 10 working days for review and approval, and then submitted to the national treasury for refund, which will reduce the financial costs and expenses of enterprises." Rectifying enterprise-related fees is also a major highlight of this opinion. While conducting special inspections on fees charged in the import and export industry such as customs declaration, inspection, and logistics, Shandong will also clean up and rectify the fees charged to current import and export enterprises, and establish a fee list management system. Wang Xiaoling, Deputy Director of the Comprehensive Regulations Department of Shandong Price Bureau, said: "For projects that are mainly aimed at foreign trade enterprises with government pricing and government-guided pricing, we will list them in a clear list so that foreign trade enterprises can pay fees transparently." Trade financing, export credit insurance, and support for dealing with trade frictions, which were less involved in previous foreign trade support measures, have more detailed and substantive measures in the newly introduced opinions. Lv Wei, Deputy Director of the Shandong Provincial Department of Commerce, said: "We will spend two months supervising and inspecting the implementation of the entire policy."</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>点击题目下方天下故事免费关注，一键知天下事没有欲望和遮掩的快乐，是真正的快乐；能坦然活着和死去的自由，是真正的自由。—亚妮，写在《没眼人》出版之时 来源：锐视界注：本文根据网络资料整理而成。她叫亚妮，曾是浙江卫视的当家花旦。 她曾在CCTV国际频道“中国旅游”节目担任主持人，后进入浙江电视台，2000年，浙江卫视首次用她个人名字命名了她主持的栏目——《亚妮专访》。《亚妮专访》成为浙江卫视的黄金主持栏目，收视名列前茅。 10年前，她突然从电视上消失，来到山西左权县，至今也没有回到舞台。 原来，在这10年间，为了山西左权县的11个盲人，她卖了房子，借了债，坚持了10年。只是为了更多的人知道左权这群盲人的故事。 事情得从2000年说起，当时亚妮是“中国首届原生态南北民歌擂台赛”决赛的主持人。一位名叫石占明的羊倌直接跳过初赛和复赛，一步跨入决赛，羊倌拿着羊鞭，站在决赛舞台上，在观众哧哧的笑声中，甩着羊鞭，一声长长的干吼，全场震住了，唱完好久后，现场才响起雷鸣般的掌声。 石占明站在舞台上为了采访他，亚妮来到了太行山深处的红都村，一下子就明白了石占明得知自己得奖时的怀疑与惊讶。因为红都村所有人都是招之即歌，歌之惊天，水平完全不在石占明之下。 亚妮探访石占明，和他家的400头羊返程的路上，亚妮听到了一群人的歌声，唱歌的是11个盲人，他们坐在打成四方的铺盖上，拉着吹着打着各种乐器，仰着头向天而歌。 虽然听不懂歌词，亚妮还是生出了莫名的感动，湿了眼眶。独特的嗓音，奇妙的旋律第一次让亚妮心里升腾起异样的情绪，当她反应过来时，脸上早已挂满泪痕。就如同当年日本的小泽征尔，听到瞎子阿炳的《二泉映月》时曾说：“这个音乐我是应该跪着听的。”抱着对没眼人的好奇与尊重，亚妮不自觉地接近他们，自此踏入了一个她此前完全没料到的世界。这是一群被当地人称作“没眼人”的流浪盲艺人群体，传说他们在抗战期间，是一支八路军的情报队伍，但是他们没有编制、没有档案，那些过往仿佛只是个遥远的回忆。 他们行走于茫茫大山，自由歌唱，保存着辽州小调完整的曲牌曲目和原生态的演唱方式。 “盲宣队”无意中保全了中国西部民歌———山西省左权民歌最原生的状态和最齐全的曲牌曲目；而左权民歌已经被纳入中国非物质文化遗产名录。盲宣队员把古老的曲牌曲目口口相传，内容有的现编随唱。 亚妮说，没眼人是中国的“荷马”。</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Click below to follow the stories of the world for free, one-click to know the world without desire and concealment of joy, is true happiness; the freedom to live and die openly is true freedom. - Yani, written at the time of the publication of "The Eyeless Man" Source: Sharp Vision Note: This article is compiled based on online information. Her name is Yani, once the leading actress of Zhejiang Satellite TV. She used to be the host of the "China Travel" program on CCTV International Channel, and later joined Zhejiang TV. In 2000, Zhejiang Satellite TV named the program she hosted after her personal name - "Yani Interview". "Yani Interview" became the golden hosting program of Zhejiang Satellite TV, with high viewership ratings. Ten years ago, she suddenly disappeared from television and came to Zuoquan County, Shanxi, and has not returned to the stage since. It turns out that during these 10 years, for the 11 blind people in Zuoquan County, Shanxi, she sold her house, borrowed money, and persisted for 10 years. Just to let more people know the story of these blind people in Zuoquan. It all started in 2000, when Yani was the host of the finals of the "China's First Ecological North-South Folk Song Contest". A shepherd named Shi Zhanming directly skipped the preliminaries and semifinals, stepping into the finals in one go. Holding a shepherd's whip, he stood on the final stage, amidst the audience's laughter, he cracked the whip, let out a long roar, stunning the whole audience. After singing for a long time, thunderous applause finally rang out at the scene. Shi Zhanming stood on the stage, and to interview him, Yani went to the remote Hongdu Village in the Taihang Mountains, and immediately understood Shi Zhanming's suspicion and surprise when he learned he won. Because everyone in Hongdu Village sings on demand, their singing is extraordinary, far surpassing Shi Zhanming. When Yani visited Shi Zhanming and was on the way back with his family's 400 sheep, she heard a group of people singing. The singers were 11 blind people, sitting on folded bedding, playing various instruments, looking up to the sky and singing. Although she couldn't understand the lyrics, Yani was inexplicably moved and her eyes welled up with tears. The unique voices and wonderful melodies stirred up strange emotions in Yani for the first time, and when she realized it, tears had already streamed down her face. Just like the Japanese conductor Seiji Ozawa, who once said when he heard the blind Ah Bing's "Erquan Yingyue": "This music, I should listen to it kneeling." With curiosity and respect for the eyeless people, Yani unconsciously approached them, stepping into a world she had never expected before. This is a group of wandering blind artists called "The Eyeless People" by the locals. Legend has it that during the War of Resistance Against Japan, they were an intelligence team of the Eighth Route Army, but they had no organization, no records, and those past events seemed like distant memories. They walked in the vast mountains, singing freely, preserving the complete tunes and original singing style of the Liaozhou Xiaodiao. The "Blind Propaganda Team" inadvertently preserved the most original state and complete tunes of the Zuoquan folk songs in Shanxi Province; and the Zuoquan folk songs have been included in the list of China's intangible cultural heritage. Members of the Blind Propaganda Team pass down the ancient tunes orally, some of which are sung with newly composed lyrics. Yani said, the eyeless people are China's "Homer".</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>看车展，怎能不看车模？2016年10月21日，为期三天的第十二届RA上海国际汽车定制改装博览会（以下简称“RA改博会”）隆重开幕。 本届RA改博会展出面积达到32000平方米，比上年递增23%，参展商近200家，展车总数超300台，改装配件及用品达到500多款。现场首发定制车型22款，新品发布率超过85%，展商现场举行新闻发布会13场。 开幕首日，现场改装到极致的酷车和漂亮的车模云集，来自全球各地的专业观众及买家超过了两万人。安福汇携手酷车魔方亮相RA改博会的首日，也获得了很高的关注度。一大早，安福汇酷车魔方展台前就聚集了众多改装爱好者，由安福汇工业设计独家提供的Mustang套件线条感饱满，红黑配色突出了Mustang的运动感，也重新了美式肌肉车的含义；而首发亮相的BMW328套件则以白蓝配色为主，称得上是本次RA改装车展上难得一见的“小清新”角色。 ▲Mustang ONES套件 ▲BMW套件在展台前，酷车魔方也吸引了大批改装爱好者的眼球，纷纷体验酷车魔方3D可视化汽车改装功能，而创新的VR改车体验更是让爱好者们大呼过瘾，一位姓罗的车友打趣说酷车魔方简直就是汽车改装界的“黑科技”。 ▲顾客体验VR改车，完全沉浸其中了另外，酷车魔方“产品+销售服务”的汽车定制升级一体化解决方案，能够有效帮助商家提升用户体验，同时激活用户的潜在消费需求，因此获得了不少参展商的认可。现场甚至有改装企业表达了购买酷车魔方设备的意愿。 ▲酷车魔方总能够吸引观众的目光，一对父子在体验3D改车，看车展（车模）要从娃娃抓起。“爱酷车也爱美人”，本届RA改博会上，除了那些改装到极致的酷车和“黑科技”抢人眼球外，车模也是一道惊艳的风景线，引来无数“长枪短炮”聚集。再矜持的你当遇到这些国色天香的车模的时候，我就不信你不咔嚓几张。为了满足众多小伙伴的需求，酷车魔方小编昨天也承诺过将奋不顾身拿起手机，拍尽此次车展上让人目不暇接的美女车模。由于酷车魔方展台前人头攒动，咨询和体验的客户太多，小编只能抽身去胡乱拍了几张。 本届展会上，各种底趴跑车、大尺寸越野车、商务房车都是展会上的看点，但也不乏展区内各种国色天香的车模们，酷车魔方小编将持续关注RA改博会，在做好本职工作的同时，为您提供更精彩、更及时的资讯报导。</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>To visit a car show, how can one not look at the car models? On October 21, 2016, the three-day 12th RA Shanghai International Automobile Customization and Modification Expo (hereinafter referred to as "RA Modification Expo") grandly opened. This edition of RA Modification Expo covers an exhibition area of 32,000 square meters, a 23% increase from the previous year, with nearly 200 exhibitors, over 300 display cars, and more than 500 types of modified parts and accessories. There were 22 custom car models debuted on-site, with a new product release rate exceeding 85%, and 13 press conferences held by exhibitors on-site. On the opening day, the venue was filled with extremely modified cool cars and beautiful car models, attracting over 20,000 professional visitors and buyers from around the world. Anfu Hui, together with Cool Car Magic Square, made their debut on the first day of RA Modification Expo and received high attention. Early in the morning, a crowd of modification enthusiasts gathered in front of the Anfu Hui Cool Car Magic Square booth. The Mustang kit provided exclusively by Anfu Hui Industrial Design was full of sleek lines, and the red and black color scheme highlighted the sportiness of the Mustang, redefining the meaning of American muscle cars. The BMW 328 kit, which made its debut, was mainly in white and blue, serving as a rare "fresh and clean" character at this RA modification car show. ▲ Mustang ONES kit ▲ BMW kit In front of the booth, Cool Car Magic Square also attracted many modification enthusiasts to experience the 3D visualization car modification function. The innovative VR car modification experience made enthusiasts extremely excited, with a car enthusiast named Luo joking that Cool Car Magic Square is simply the "black technology" of the car modification industry. ▲ Customers experiencing VR car modification, fully immersed in it Additionally, Cool Car Magic Square's "product + sales service" integrated car customization upgrade solution effectively helps businesses enhance user experience and activate users' potential consumption demands, thus gaining recognition from many exhibitors. Some modification companies even expressed their intention to purchase Cool Car Magic Square equipment on-site. ▲ Cool Car Magic Square always captures the attention of the audience, a father and son experiencing 3D car modification, starting from a young age to appreciate car shows (car models). "Love cool cars and love beautiful people," at this RA Modification Expo, besides the extremely modified cool cars and "black technology" that catch people's eyes, the car models are also a stunning sight, attracting numerous admirers. Even the most reserved person cannot resist taking a few snapshots when encountering these stunning car models. To meet the demands of many friends, the Cool Car Magic Square editor promised yesterday to bravely pick up the phone and capture the endless stream of beautiful car models at this car show. Due to the crowded scene in front of the Cool Car Magic Square booth, with too many customers inquiring and experiencing, the editor could only manage to take a few random shots. At this exhibition, various low-profile sports cars, large-sized off-road vehicles, and business RVs are the highlights, but there is no shortage of beautiful car models in the exhibition area. The Cool Car Magic Square editor will continue to follow the RA Modification Expo, providing you with more exciting and timely information reports while doing their job well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>中国历史上有四大变动：秦汉帝国的建立、唐宋变革、明末清初的转换、清末民初的激变。导致第四次变化的是1911年的辛亥革命。辛亥革命的最大历史特质在于如下几点：（１）这是一场导致持续二千之久的王朝体制崩溃的革命；（２）其形态采取了各省独立的形态；（３）其结果是旧体制的解体，革命后国内纷呈四分五裂之状；（４）实现革命的主要势力，并非传统型的叛军或异族军队，而是下面将谈及的蓄积于民间的“各省之力”（简称“一省之力”{1}），等。这一无中央的革命，视其角度，其形态似为一场无国家的革命。因此，在国际社会纷纷谋求建立中央集权制的现代民族国家之大环境中，其革命的形态，只能被视为亡国的混沌之兆。二千年来王朝体制终结，此乃中国历史的空前大事件，而当时的国际社会却视其若朽木之终，自然之势而已。因此，其历史意义不仅未被同时代人所关注，亦被后人所轻视。观之于现代日、中历史教科书，这一点了然所见。这一类教科书大都枚举农民暴动之频发、官僚之腐败、财政之窘迫、军队之弛缓等，视诸如此类事例为清朝“衰落”之因，而不察此类事例实频见于所有王朝的终结之时。这些教科书都未能注意到，代之这一“衰落”王朝而起的，恰是以各省独立的形态实现辛亥革命的各省的“一省之力”。所谓各省独立，乃拜成熟达至独立的“一省之力”之所赐。姑且先交代本文结论的话，十六、十七世纪明末清初的“乡里空间”{2}乃是“地方公论”展开的空间，其规模由明末的县一级扩充至清末的省的范围。“一省之力”成熟的轨迹，显见于这一地方力量扩大、充实的过程。然而，这一传统的轨迹却被“现代化”史观或“革命”史观所遮蔽，因而被隐而不见。非但如此，现代化史观以建立中央集权制现代民族国家为现代化课题，若以此观之，辛亥革命只能是现代化之反动。若从1920年代以降的反封建、反殖民地之革命课题观之，辛亥革命与1949年的建国革命相比，则只能是不彻底的革命。职是之故，辛亥革命被视为一次迷失方向、逆而为之的混沌，建国革命则被视为以成就民族国家为目的的“由起点至目的地”的构图。或者辛亥革命被视为一场不彻底的资产阶级革命，而与后者相配套的观点，则是视建国革命为反封建反殖民地的彻底的无产阶级革命。这一“由浅而深”的构图，乃是以往广为通用的视点。但是，辛亥革命与建国革命之间的关系，本非只是依据革命的浅深程度所划分的阶段性关系，亦非视两者为起点与目的的单向排列关系。</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>In Chinese history, there have been four major changes: the establishment of the Qin and Han Empire, the reforms of the Tang and Song dynasties, the transition from the Ming to the Qing dynasty, and the upheaval from the late Qing to the early Republic of China. The cause of the fourth change was the 1911 Xinhai Revolution. The most significant historical characteristics of the Xinhai Revolution are as follows: (1) it was a revolution that led to the collapse of the imperial system that had lasted for two thousand years; (2) it took the form of provincial independence; (3) its result was the disintegration of the old system, leading to internal fragmentation after the revolution; (4) the main force behind the revolution was not a traditional rebel army or foreign troops, but the "power of each province" accumulated among the people, which will be discussed below. This decentralized revolution, depending on the perspective, appears to be a revolution without a central authority. Therefore, in the broader context of the international community's pursuit of establishing modern centralized nation-states, the form of this revolution can only be seen as a sign of national chaos. The end of the imperial system after two thousand years marked an unprecedented event in Chinese history, but the international community at that time viewed it as a natural course of events, like the decay of old wood. Consequently, its historical significance was not only overlooked by contemporaries but also underestimated by later generations. This is evident in modern Japanese and Chinese history textbooks. These textbooks mostly list frequent peasant uprisings, bureaucratic corruption, financial difficulties, and military laxity as the causes of the Qing Dynasty's "decline," without realizing that such occurrences are common at the end of all dynasties. These textbooks fail to notice that what emerged from the "decline" of the Qing Dynasty was the "power of each province" that led to the Xinhai Revolution in the form of provincial independence. The so-called provincial independence was bestowed by the matured and independent "power of each province." To briefly summarize the conclusion of this article, the "local space" in the late Ming and early Qing dynasties of the 16th and 17th centuries was the space where the "local public opinion" unfolded, expanding from the county level in the late Ming Dynasty to the provincial level in the late Qing Dynasty. The trajectory of the matured "power of each province" is evident in the process of the expansion and enrichment of this local power. However, this traditional trajectory has been obscured by the "modernization" or "revolutionary" perspectives, making it invisible. Moreover, the modernization perspective considers the establishment of a centralized modern nation-state as a modernization issue, viewing the Xinhai Revolution as a reactionary movement. From the perspective of the revolutionary themes of anti-feudalism and anti-colonialism since the 1920s, the Xinhai Revolution can only be seen as an incomplete revolution compared to the founding revolution of 1949. Therefore, the Xinhai Revolution is seen as a period of confusion and deviation, while the founding revolution is seen as a structured path from the starting point to the destination of achieving a national state. Alternatively, the Xinhai Revolution is considered an incomplete bourgeois revolution, and the corresponding view of the founding revolution is seen as a thorough proletarian revolution against feudalism and colonialism. This "from shallow to deep" perspective has been widely used in the past. However, the relationship between the Xinhai Revolution and the founding revolution is not merely a phased relationship based on the depth of the revolution, nor is it a one-way arrangement of starting point and destination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>点击上方“公众号”可以订阅哦！ 金九银十老话常说，根据9月1日实施的《互联网广告管理暂行办法》规定，特别提醒投资者注意，以下为金喜鹊理财产品广告信息。下周理财抢“鲜”看，投资机会“早”知道。</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Click on the "Official Account" above to subscribe! The old saying goes, "September is golden and October is silver." According to the "Interim Measures for the Administration of Internet Advertising" implemented on September 1st, investors are reminded to pay special attention. The following is an advertisement for Jin Xique financial products. Stay tuned for the financial opportunities next week and be the first to know!</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>红薯含有均衡的营养成份，如维生素、纤维素以及钾、铁、铜等10余种微量元素，其中纤维素对肠道蠕动起良好的刺激作用，促进排泄畅通。同时，由于纤维结构在肠道内无法被吸收，有阻挠糖类变为脂肪的特殊功能。红薯为营养最平衡的保健食品，也是最为理想而又花费不大的减肥食物。为此，今天为大家推荐了四种红薯搭配食谱，让你吃出好身材。 红薯减肥食谱1：红薯粥 材料：新鲜红薯、大米烹调：将红薯(以红皮黄心者为最好)洗净，连皮切成小块，加水与米同煮稀粥即成。点评：米粥本来就有清肠胃的作用，再配上营养高，热量低的红薯，可算得上是一道美味又减肥的佳品。红薯减肥食谱2：红薯泥 材料：红薯、油烹调：首先选红心红薯洗净、去皮，上笼蒸或煮熟，取出压成泥，再在锅内下油烧热、放入红薯泥，翻炒至水汽将干时，再继续加油炒，炒至红薯泥呈鱼子状时即成。点评：这款红薯食谱虽然能有效减肥，但是由于在烹调的过程中加入比较多的油煎炒而成，吃后容易上火，底子燥的MM要谨慎选择。红薯减肥食谱3：咸味红薯饭 材料：红薯、米、葱屑、油和盐烹调：先将红薯洗净、切成块状，沥干水份备用。再在炒锅里加入油，把红薯放在锅里翻炒至香后加入盐。然后再加入适当的水，最后把米饭倒在红薯上，小火焖熟即可。点评：咸味的红薯味道很特别，用盐代替糖来煮红薯可帮助我们减少糖分的摄入，爱美的MM们不妨一试。红薯减肥食谱4：麦仁红薯汤 材料：新鲜红薯、麦仁和冰糖。烹调：由于麦仁的表皮很硬，所以要先用水浸泡10个小时。接着把泡好的麦仁放进锅里，加入适量的水，等水沸腾后就可以加入红薯，再煮5分钟后加入适量冰糖即可。点评：此汤味道香甜，热量又低，适合喜欢甜味食物的MM哦。看到这里，是不是食指大动啊，那就赶紧去厨房试试吧，不仅可口还能减肥喽，简直是妹子们的福利啊！欢迎添加微信：qqsun5920 每天更新瘦身难题，为你制定私人瘦身计划！</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Sweet potatoes contain a balanced nutritional composition, such as vitamins, fiber, as well as more than 10 trace elements like potassium, iron, and copper. Among them, fiber has a good stimulating effect on intestinal peristalsis, promoting smooth excretion. At the same time, due to the fiber structure being unable to be absorbed in the intestines, it has a special function of hindering sugars from turning into fat. Sweet potatoes are the most balanced nutritional health food and also the most ideal and cost-effective weight-loss food. Therefore, today we recommend four sweet potato recipe combinations for you to achieve a good figure. 
+Sweet Potato Weight Loss Recipe 1: Sweet Potato Congee 
+Ingredients: Fresh sweet potatoes, rice 
+Cooking method: Wash the sweet potatoes (preferably with red skin and yellow flesh), cut them into small pieces with the skin on, cook them with rice in water to make a watery congee. 
+Comment: Rice congee already has the effect of clearing the intestines and stomach. When paired with the nutritious and low-calorie sweet potatoes, it can be considered a delicious and slimming dish. 
+Sweet Potato Weight Loss Recipe 2: Mashed Sweet Potatoes 
+Ingredients: Sweet potatoes, oil 
+Cooking method: First, wash and peel the sweet potatoes, steam or boil them until cooked, then mash them. Heat oil in a pan, add the mashed sweet potatoes, stir-fry until the moisture evaporates, then continue to stir-fry with more oil until the mashed sweet potatoes resemble fish roe. 
+Comment: Although this sweet potato recipe is effective for weight loss, it involves frying with a considerable amount of oil during cooking, which may cause heatiness after consumption. People with a dry constitution should choose carefully. 
+Sweet Potato Weight Loss Recipe 3: Savory Sweet Potato Rice 
+Ingredients: Sweet potatoes, rice, chopped scallions, oil, salt 
+Cooking method: Wash and cut the sweet potatoes into chunks, drain the water. Heat oil in a wok, stir-fry the sweet potatoes until fragrant, add salt. Then add an appropriate amount of water, finally pour the rice on top of the sweet potatoes, simmer on low heat until cooked. 
+Comment: The savory taste of sweet potatoes is unique. Cooking sweet potatoes with salt instead of sugar can help reduce sugar intake. Fashion-conscious ladies may want to give it a try. 
+Sweet Potato Weight Loss Recipe 4: Job's Tears Sweet Potato Soup 
+Ingredients: Fresh sweet potatoes, Job's tears, rock sugar 
+Cooking method: Since the skin of Job's tears is very hard, soak them in water for 10 hours first. Then put the soaked Job's tears in a pot, add an appropriate amount of water, once the water boils, add the sweet potatoes, and after cooking for 5 minutes, add an appropriate amount of rock sugar. 
+Comment: This soup is sweet and low in calories, suitable for those who like sweet foods. If you're feeling tempted, hurry to the kitchen and give it a try. Not only delicious but also slimming, it's truly a treat for the ladies! Feel free to add WeChat: qqsun5920 for daily updates on weight loss challenges and personalized weight loss plans!</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2015年池州市贵池区面试真题1.有人说，有了风，猪都会飞。马云说，没了风，猪会摔得很惨。你怎么看?【题目类型】综合分析观点类【能力考查】综合分析能力、语言表达能力【参考解析】当今社会形势大好，每个人利用好并把握好都可以趁机发展起来，即有了风，猪都会飞，但是形势一旦过去，弱者就会停滞不前，就像马云所说，风没了，所谓的猪也就摔了下去。猪碰上风也会飞，但是风过去摔死的还是猪，这就告诉我们一个深刻的道理，就是我们不能做“风口上的猪”。我们每个人要思考你怎么把控这个风，你怎么去掌握好这个风，怎么提升自己，所以我们不应该去寻找风口，而是真正的把自己变成一点点风就能够飞起来的，以至于能够翱翔。比如我们国内的一批批企业，抓住了每次机会，发展了起来，但是一批批企业由于把控不好每次机会又都倒了下去，这是对经济的伤害、对员工的伤害、对社会的伤害、对企业的伤害，所以我们必须要有前瞻性，要把握好机会，并持久的完善自己才是硬道理。马云创建的阿里巴巴商业帝国就是把握并持久更新和完善自己的典范，从创业到上市，马云每一次都做到了人无我有，人有我优，人优我新，真正实现了即使风停也能飞的榜样。鉴于此，作为新时代要求进步的年轻人，应当充分认识到新时代给予我们的好形势好机会，充实自己，学习知识丰富自己，把握好每一次机会，与此同时，要及时完善和更新自己的想法并落实到行动中，另外，在自己取得一点小成就的时候还要做到为别人创造机会，即为别人创造“风”，真正的做到风过依然在空中展翅翱翔。 2.当前好多人辞职，跳槽现象严重，很多年轻人没有规划，对于‘秒选’现象，你怎么看?【题目类型】现象题【能力考查】综合分析能力、语言表达能力【参考解析】年轻人辞职、跳槽等现象，是在市场经济条件下人才自由流动的一种正常现象，这与近两年的就业机会增加有直接关系;并且这也是年轻人实现自我，追求自我的一种体现。水往低处流，人往高出走，在一定程度下，是鼓励，是支持的。但是，更多的年轻人的辞职和跳槽是毫无规划的，对自己的人生没有一个明确的职业规划，甚至涌出一批“裸辞族”。这种现状值得我们深思：首先，对于每一个年轻人来说，都应该树立正确的择业观，在参加工作之前就应该有明确的职业规划，在转型社会中，越早形成明确的职业规划越好。</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2015 Chizhou City Guichi District interview question 1: Some people say that with wind, even pigs can fly. Jack Ma says that without wind, pigs will fall miserably. What do you think? [Question type] Comprehensive analysis of viewpoints [Skills tested] Comprehensive analysis ability, language expression ability [Reference analysis] The current social situation is very good, everyone can take advantage of and seize the opportunity to develop, so with wind, even pigs can fly. However, once the situation changes, the weak will stagnate, just as Jack Ma said, without wind, the so-called pigs will fall. Pigs can fly when they encounter wind, but those who fall when the wind passes are still pigs. This tells us a profound truth, that we should not be "pigs on the wind." Each of us should think about how to control this wind, how to grasp it well, and how to improve ourselves. Therefore, we should not seek the wind, but truly transform ourselves into a breeze that can fly, even soar. For example, batches of domestic enterprises have seized every opportunity to develop, but batches of enterprises have failed due to not handling each opportunity well. This harms the economy, employees, society, and the companies. Therefore, we must be forward-looking, seize opportunities, and continuously improve ourselves, which is the key. The Alibaba business empire created by Jack Ma is a model of seizing and continuously improving oneself. From entrepreneurship to going public, Jack Ma has always been ahead of others, better than others, and innovating. He truly embodies the example of being able to fly even when the wind stops. Therefore, as young people in the new era who are required to progress, we should fully realize the good situation and opportunities that the new era offers us, enrich ourselves, learn and expand our knowledge, seize every opportunity, and at the same time, promptly improve and update our ideas and implement them into action. Additionally, when we achieve a little success, we should also create opportunities for others, create "wind" for others, and truly soar even after the wind has passed.
+2. Currently, many people are resigning, and job-hopping is severe. Many young people lack planning. What do you think of the phenomenon of 'instant selection'? [Question type] Phenomenon question [Skills tested] Comprehensive analysis ability, language expression ability [Reference analysis] The phenomenon of young people resigning and changing jobs is a normal occurrence of talent freely flowing under market economy conditions, which is directly related to the increase in job opportunities in recent years. It is also a manifestation of young people realizing themselves and pursuing self-improvement. Water flows to low places, and people move to higher places. To a certain extent, this is encouraged and supported. However, for many young people, resigning and changing jobs are done without any planning, without a clear career plan for their lives, and even leading to a group of "naked resignation" individuals. This situation is worth pondering: Firstly, every young person should establish the correct view of career selection. Before entering the workforce, they should have a clear career plan. In a transitioning society, the earlier a clear career plan is formed, the better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 学位房成为开发商的卖点羊城晚报记者王磊摄学位僧多粥少，名校周边所谓的“学位房”价格水涨船高。为了让教育更加均衡化，深圳教育局从今年开始实施“大学区招生”，此举是否可以狙击学位房房价？老旧学位房卖十万天价深圳的学位房是一个什么情况？深职院房地产研究所所长邓志旺告诉记者，对于深圳的学位房没有一个权威的统计，有比较好的学位资源的大概有3万套左右。深圳目前的商品房总面积大概是1.2亿平方米，对应约100万套左右，也就是说只有3%的房子是带有比较优质学位的。邓志旺介绍，深圳的学位房主要分布在9个片区，都属于原来的特区之内，特区之外基本上没有。这9大片区的房价，除了罗湖稍微便宜一点以外，其他的基本上都在每平方米6万元以上，在白沙岭片区，甚至出现10万元一平方米的天价，，这个价格在深圳可以买到最顶级的房子了，但这个区有的学位房是有20多年历史的旧房子。学校欲搬周边家长堵路邓志旺对记者强调：家长买了学位房，是有风险的。邓志旺说，学校对应区域的重划每年都难保不变，当有更多的人住进来，学位房就不够了。他说，这个情况在龙岗、宝安、南山都出现过，所以后来很多家长都不干了。此外，学校也有搬迁的情况。邓志旺说，前两年深圳有一个学校要搬到另外一个地方去，结果周边的家庭把路给堵了，要求学校不可以搬，最后学校只好两个地方同时招生。因为目前学位房基本是二手房，邓志旺认为买二手学位房有很多风险。“一个房子只有一个指标，这个指标如果这个家庭用过的话，只有等到上一家的孝毕业了把学位退出来才可以去接手。交易时如果对方隐瞒这个情况，你去报名的时候才会发现这个学位已经被占了。”此外，还有开发商虚假宣传问题，“像开发商卖房的时候宣传说我这个房子有什么学位，写得很好，但是等交了房住进去，有的人才发现，这个房子其实并没有获得教育部门的认可”。学位紧张须预警并公布今年，深圳市教育局祭出了招生新政――大学区招生，出台了《深圳市教育局关于深圳市义务教育招生工作的指导意见》，从2015年起，深圳各区探索试行大学区招生制度，探索试行积分入学办法。邓志旺形容：原来的学位房基本上铁定你可以上这个学校了，这样造成了大家过度地去抢学位房，把范围扩大，把几个学校都划进来了，你可以选这家，也可以选其他的。《意见》提出，大学区积分项目包括学位申请人家庭户籍类型、住房性质、入户时间、居住年限、社保年限或纳税年限、计划生育情况等。</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Degree housing has become a selling point for developers. The scarcity of educational resources and the high prices of so-called "degree housing" around prestigious schools are on the rise. In order to make education more equitable, the Education Bureau of Shenzhen has implemented "college district enrollment" starting this year. Can this measure target the high prices of degree housing? What is the situation of degree housing in Shenzhen? Deng Zhiwang, director of the Real Estate Research Institute of Shenzhen Polytechnic, told reporters that there is no authoritative statistics on Shenzhen's degree housing, with approximately 30,000 sets of relatively good educational resources. Shenzhen's current total residential area is approximately 120 million square meters, corresponding to about 1 million sets, meaning only 3% of houses have relatively high-quality educational resources. Deng Zhiwang introduced that Shenzhen's degree housing is mainly distributed in 9 areas, all within the original special economic zone, with hardly any outside the zone. The housing prices in these 9 major areas, except for Luohu which is slightly cheaper, are mostly above 60,000 yuan per square meter. In the Baishaling area, prices have even reached a sky-high 100,000 yuan per square meter, which can buy the top houses in Shenzhen, but some of the degree housing in this area are old houses with a history of over 20 years. Schools may relocate and parents block the road. Deng Zhiwang emphasized to reporters: buying degree housing for children carries risks. Deng Zhiwang said that the reorganization of schools in the corresponding areas is subject to change every year. When more people move in, there may not be enough degree housing. He said this situation has occurred in Longgang, Bao'an, and Nanshan, so many parents have stopped doing it. In addition, schools may also relocate. Deng Zhiwang said that a school in Shenzhen wanted to move to another location a few years ago, but the surrounding families blocked the road, demanding the school not to move. In the end, the school had to enroll students in both locations. As degree housing is currently mostly second-hand houses, Deng Zhiwang believes that buying second-hand degree housing carries many risks. "A house has only one quota. If this quota has been used by the previous family, you can only take over it after the previous family's child graduates and vacates the quota. If the other party conceals this during the transaction, you will only find out that the quota has been taken when you apply." In addition, there are issues of false advertising by developers. "Some developers advertise when selling houses that their houses have certain educational resources, but after moving in, some people realize that the house has not actually been approved by the education department." Warning of degree scarcity and public disclosure. This year, the Shenzhen Education Bureau has introduced a new enrollment policy - college district enrollment, issuing the "Guiding Opinions of the Shenzhen Education Bureau on the Enrollment of Compulsory Education in Shenzhen". Since 2015, various districts in Shenzhen have been exploring the implementation of the college district enrollment system and the points-based enrollment method. Deng Zhiwang described it as: Previously, if you had a degree house, you were basically guaranteed admission to that school. This led to excessive competition for degree housing, expanding the scope and including several schools. You can choose this one or others. The "Opinions" propose that the college district points project includes the applicant's household registration type, housing nature, entry time, length of residence, social security or tax payment years, family planning situation, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>中国台球协会官网讯北京时间10月16日上午，“恒大世界斯诺克中国锦标赛”巨星战队选拔赛华西赛区在重庆恒大酒店结束了半决赛争夺。解构队以3-1战胜长寿佰爵队，率先晋级决赛。长寿佰爵队员稍显失落，解构队依然面无表情。同时段进行的比赛江油卓越领地3-2贵州聚点二队。决赛将在解构队与江油卓越领地之间展开。 本次“恒大世界斯诺克中国锦标赛”巨星战队选拔赛由恒大地产集团有限公司主办、中国台球协会和世界斯诺克联合会共同支持、由《巨星在线》平台联合推广，本次比赛报名都是通过“巨星在线”会员俱乐部进行免费报名。这次华西赛区共有28支队伍参赛，团体赛每队是三名队员。虽然今天参赛队伍变少，但是观众依然非常多，还有昨天已经淘汰的队伍过来看比赛，能够看出斯诺克群众基础已经不断壮大。 打到今日的四强已经非常不易，因为是六红球团体赛，团队协作能力更重要，同时六红球偶然性很大，有时输赢之间相差并不是很多。举办比赛也是为了宣传推广斯诺克这项运动，为了鼓励参赛队伍，进4强的队伍也有可观的奖金。记者采访了止步四强的长寿佰爵队的领队，他说：“组委会把华西赛区的比赛放在重庆，我们重庆的队员都非常兴奋，今天虽然输了，但是我们已经发挥我们最好的水平，还是非常满意。”对于止步四强，他表示：“没有遗憾，但是我们也有希望进入决赛。”领队脸上始终挂着淡淡的笑意。领队同时对他们队伍展现出的运动精神很是欣慰：“遇到强队，大家都是用心来对待比赛，完全融入比赛，重在参与，成绩是次要的，已经很满意了。”对于扫码参赛免费报名这种区别于传统的报名方式，他说：“很新颖，我也是才接触到巨星在线这个项目。”听说可以和世界级球星大咖互动，他看上去很开心：“我非常期待。” (鹿曦）长按指纹识别二维码</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>The China Billiards Association official website news: On the morning of October 16th Beijing time, the "Evergrande World Snooker China Championship" superstar team selection competition in the Huaxi region ended at the Evergrande Hotel in Chongqing with the semi-finals. The Deconstruction Team defeated the Longevity Baijue Team 3-1 and advanced to the finals. The members of the Longevity Baijue Team looked a bit disappointed, while the Deconstruction Team remained expressionless. At the same time, in another match, Jiangyou Outstanding Territory won 3-2 against the Guizhou Focus Team. The final will be between the Deconstruction Team and Jiangyou Outstanding Territory. 
+The "Evergrande World Snooker China Championship" superstar team selection competition is hosted by Evergrande Real Estate Group Limited, jointly supported by the China Billiards Association and the World Snooker Federation, and co-promoted by the "Superstar Online" platform. Registration for this competition is free through the "Superstar Online" member club. A total of 28 teams participated in the Huaxi region this time, with three members per team. Although the number of participating teams was reduced today, there were still many spectators, including teams that were eliminated yesterday coming to watch the matches, indicating the continuous growth of the snooker fan base.
+Reaching the top four today was already very challenging because it is a six-red ball team event where teamwork is crucial, and the outcome can be greatly influenced by chance. Hosting the competition is also to promote and popularize the sport of snooker, and to encourage participating teams, the top four teams will receive substantial prize money. A reporter interviewed the leader of the Longevity Baijue Team, who stopped at the top four. He said, "The organizing committee held the competition in Chongqing for the Huaxi region. Our Chongqing team members were very excited. Although we lost today, we have already performed at our best level, and we are still very satisfied." Regarding stopping at the top four, he said, "There is no regret, but we also hope to enter the finals." A faint smile always hung on the leader's face. He was very pleased with the sportsmanship shown by their team, "When facing strong opponents, everyone played with dedication, fully immersed in the game, participation is key, and the result is secondary, we are already very satisfied." Regarding the innovative method of free registration through scanning the QR code, which is different from the traditional registration method, he said, "It's very novel, I just got in touch with the Superstar Online project." He seemed very happy when he heard that he could interact with world-class snooker stars, saying, "I am very much looking forward to it." (Lu Xi) Long press to identify the fingerprint QR code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>【案情回放】孙某是某医学院09级的学生，在实习报到前被诊断出患有精神障碍。孙某的父亲带儿子去脑科医院进行治疗时，得知孩子在校期间就出现过精神方面的问题，而且在大二下学期时成绩一落千丈，而学校却没有及时告知家长。因此，孙某的父亲认为学校应对儿子病情的恶化负责，故以孙某名义对医学院提起诉讼，并以孙某法定代理人的身份参加庭审。日前，虎丘区人民法院依法审结此案。2011年6月3日本该是孙某去某医院检验科实习报到的日子，但是孙某却迟迟没有出现在医院。孙某的父亲打电话到医院询问状况时，才得知学校已经发传真到医院给孙某请假了，请假理由是孙某存在精神压力，需要观察调整。“他回家后目光呆滞，两次打开窗户想跳楼。我就一直守着他，第二天就带他去了脑科医院。”孙某的父亲告诉记者。6月21日，经过几次观察治疗后，孙某被脑科医院确诊为精神分裂症。此后，孙某的父亲就带着儿子四处求医，但效果都不佳。2013年2月，残疾人联合会向孙某发放残疾人证，残疾人证载明孙某为精神类别残疾人，残疾等级为叁级。面对这个事实，孙某的父亲认为是学校没有及时发现并告知家长孙某在校的情况才错过了最佳的治疗时机，从而导致孙某残疾，故向法院提起诉讼，要求学校赔偿各项损失5万元。【以案说法】法院经审理查明，2010年6月孙某确实去学校的心理咨询中心做过咨询，但当时孙某反映的心理困惑主要是不能集中注意力上课，害怕去人多的公共场合，以及和亲人的感情交流有问题等。心理咨询老师认为这些心理问题在来访的学生中极为常见，且做完咨询后孙某的状态有所好转。2011年5月，孙某在期末考试中多门专业课不及格，而且试卷上还出现多种与考试无关的话语。班主任又立即联系了心理咨询中心，心理咨询老师对孙某进行了心理上的疏导，发现孙某心理上存在障碍，并且建议寻找专业机构进行帮助。根据班主任的工作日志，学校当即取消了已经给孙某安排好的实习，并告知了孙某的家长。此外，法院咨询了相关的心理学学者。大多数学者认为精神分裂症是遗传因素和环境因素相互作用的结果，环境因素包括胎儿期的感染，围产期、分娩过程中的损害以及社会心理压力。因此，所谓“未及时发现”不是“精神分裂症”的病因。故法院最终依法驳回了原告的诉讼请求。本案系普通的侵权纠纷，故应满足侵权的构成要件，即原告欲要被告承担侵权责任，必须满足被告的行为与原告的损害后果之间存在因果关系。</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>【Case Review】Sun, a student from the 2009 class of a certain medical college, was diagnosed with a mental disorder before starting his internship. When Sun's father took him to a neurology hospital for treatment, he learned that his child had experienced mental issues during his time at school and his grades had plummeted in the second semester of his sophomore year, but the school did not inform the parents in a timely manner. Therefore, Sun's father believed that the school should take responsibility for the deterioration of his son's condition. He filed a lawsuit against the medical college on behalf of Sun and attended the trial as Sun's legal representative. Recently, the Huqiu District People's Court concluded this case in accordance with the law. June 3, 2011 was supposed to be the day when Sun reported for internship at a certain hospital, but Sun did not show up at the hospital. When Sun's father called the hospital to inquire about the situation, he found out that the school had already faxed a leave request to the hospital for Sun, citing mental stress as the reason, stating that Sun needed observation and adjustment. "After he came home, he had a vacant look in his eyes and tried to jump out of the window twice. I stayed by his side and took him to the neurology hospital the next day," Sun's father told reporters. On June 21, after several observations and treatments, Sun was diagnosed with schizophrenia by the neurology hospital. Subsequently, Sun's father took his son to seek medical help in various places, but the results were not satisfactory. In February 2013, the Disabled Persons' Federation issued a disability certificate to Sun, which indicated that Sun was a disabled person in the mental category with a disability level of Grade 3. Faced with this fact, Sun's father believed that the school's failure to timely detect and inform the parents of Sun's situation during his time at school had caused them to miss the best treatment opportunity, resulting in Sun's disability. Therefore, he filed a lawsuit against the school, seeking compensation of 50,000 yuan for all losses.【Legal Analysis】After trial and investigation, the court found that in June 2010, Sun did indeed seek counseling at the school's psychological counseling center, but at that time, Sun's main psychological concerns were the inability to concentrate in class, fear of crowded public places, and communication issues with family members. The psychological counselor believed that these psychological issues were very common among visiting students, and Sun's condition improved after counseling. In May 2011, Sun failed multiple professional courses in the final exams, and his papers contained irrelevant statements. The class teacher immediately contacted the psychological counseling center, where Sun was emotionally guided and found to have psychological barriers, and it was suggested to seek help from professional organizations. According to the class teacher's work log, the school promptly canceled the internship arranged for Sun and informed Sun's parents. In addition, the court consulted relevant psychologists. Most scholars believe that schizophrenia is the result of the interaction between genetic and environmental factors, with environmental factors including infections during the fetal period, damage during childbirth, and social and psychological stress. Therefore, the so-called "failure to detect in time" is not the cause of schizophrenia. Therefore, the court ultimately dismissed the plaintiff's lawsuit in accordance with the law. This case is a common tort dispute, so it must meet the elements of tort liability. That is, for the plaintiff to hold the defendant responsible for the tort, there must be a causal relationship between the defendant's actions and the plaintiff's damages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 小编很早之前做过一个调查，显示布艺沙发是大家最喜欢的沙发类型，因为相对于皮质沙发来说，布艺沙发更柔和，那么怎么样材质的布艺沙发更好呢？小编给大家整理了一下布艺沙发各种材质的区别，一起来看看吧~~纯棉沙发纯棉用料的布艺沙发柔软透气、自然环保，很贴近皮肤，是目前市场占有率最广的款型。田园风格在纯棉沙发中使用最多。 特点：价格便宜，花色最多样，但弹性较差，易折皱、易染色、较不耐磨。购买贴士：一般要选手感细腻柔软且厚实，花色自然色泽均匀的。扯出布料的线头，用火烧一下，能化成灰并且没有焦味的品质较好。保养：手洗、机洗均可，晾干后熨烫环节必不可少。为避免缩水，最好送到专业洗涤店干洗，能有效降低缩水变形的风险。日常情况下，两个月吸尘一次。绒布沙发绒布沙发给人最深刻的印象在于它超细腻、温柔的触感。从过去的灯芯绒，到现在的麂皮绒，绒布沙发在俗艳和雅致中变换着身份。相比其他布料，绒布沙发售价较贵，最好的绒布要500元/米。 特点：有时尚的外形、良好的色彩呈现效果，防尘、防污等优点，但容易起静电。选购贴士：尽量选手感轻柔滑顺，用色均匀、光泽好、整体感强的。如是长绒绒布，可用手来回抚摸，以无明显变色、发白为佳；而短绒绒布则绒越密越好，布越厚越佳。保养：平时若沾上污渍用清水擦洗即可；清洗沙发套，建议水洗，洗衣粉不宜放太多。麻布沙发麻布沙发最迷人的地方莫过于它良好的导热性能。哪怕是夏日炎炎，不必担心会有流汗黏糊糊的情况出现。麻布沙发的质感紧密而不失柔和，软硬适中，具有一种古朴自然的气质。 特点：比较耐磨、不易起褶，不褪色、不起球，不会产生静电，在潮湿的地方也不会发霉。选购贴士：表面是否平整，有没有线头或者接口，是麻布好坏的关键指标。如果希望麻布沙发更柔和，可选择含棉成分较高的棉麻沙发。保养：由于布料表面有缝隙，需要经常吸尘，去除边角、织物缝隙内的灰尘。为了尽量避免缩水，建议送专门的洗涤店干洗。混纺沙发棉料与化纤材料混纺，可以呈现出或丝质、或绒布、或麻料的视觉效果，但花型和色彩都不够自然纯正，价格也比较便宜。近年，随着差别化纤及混纤、混纺的崛起，再加上染整理工艺的日益完善，混纺面料的柔软手感和高仿真效果几乎可以假乱真。 特点：易洗免烫，色泽绚丽，结实耐用，富有弹性。购买贴士：购买时注意参看布料成分，棉质所占比例越大越好。 保养：可以直接放进洗衣机水洗。</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>The editor conducted a survey a long time ago, showing that fabric sofas are the most popular type of sofa because compared to leather sofas, fabric sofas are softer. So, what kind of fabric material is better for fabric sofas? The editor has compiled the differences between various fabric materials of fabric sofas for everyone to take a look~~
+Cotton Sofa: Fabric sofas made of pure cotton are soft, breathable, environmentally friendly, and very close to the skin, making them the most widely used type in the market. The pastoral style is most commonly used in cotton sofas. Characteristics: inexpensive, with the widest variety of patterns, but poor elasticity, prone to wrinkles, easy to stain, and less durable. Buying tips: Generally, choose a fabric that feels delicate, soft, and thick, with natural and uniform colors. Pull out a thread from the fabric, burn it with fire, it should turn into ash without a burnt smell for better quality. Maintenance: Can be hand-washed or machine-washed, ironing after air-drying is essential. To avoid shrinking, it is best to send it to a professional dry cleaner to reduce the risk of shrinkage and deformation. Vacuuming every two months under normal circumstances.
+Velvet Sofa: The most impressive feature of velvet sofas is their ultra-delicate and gentle touch. From the past corduroy to the current suede, velvet sofas switch between vulgar and elegant. Compared to other fabrics, velvet sofas are more expensive, with the best velvet costing around 500 yuan per meter. Characteristics: fashionable appearance, good color presentation, dust and dirt resistant, but prone to static electricity. Buying tips: Choose a fabric that feels soft, smooth, with even color, good gloss, and a strong overall feel. For long-pile velvet, gently stroke it back and forth, with no obvious discoloration or whitening being ideal; while for short-pile velvet, the denser the pile, the better, and the thicker the fabric, the better. Maintenance: If stained, wipe with clean water; for washing sofa covers, it is recommended to use water, avoid using too much laundry detergent.
+Linen Sofa: The most charming feature of linen sofas is their excellent thermal conductivity. Even in the hot summer, there is no need to worry about sweating and stickiness. The texture of linen sofas is tight yet soft, moderate in firmness, and exudes a natural and rustic temperament. Characteristics: relatively durable, not prone to wrinkles, does not fade, pill, or generate static electricity, and does not mold in damp places. Buying tips: The key indicator of the quality of linen sofas is whether the surface is smooth, with no loose threads or seams. If you want a softer linen sofa, choose a cotton and linen blend with a higher cotton content. Maintenance: Due to the gaps on the fabric surface, regular vacuuming is needed to remove dust from corners and fabric crevices. To avoid shrinking as much as possible, it is recommended to send it to a professional dry cleaner.
+Blended Sofa: Blending cotton with synthetic fibers can create a visual effect of silk, velvet, or linen, but the patterns and colors are not as natural and authentic, and the price is relatively cheaper. In recent years, with the rise of differentiated synthetic and blended fibers, coupled with the increasingly perfect dyeing and finishing processes, blended fabrics have almost achieved a soft touch and high simulation effect. Characteristics: easy to wash and wrinkle-free, bright colors, sturdy and durable, and elastic. Buying tips: When purchasing, pay attention to the fabric composition, the higher the percentage of cotton, the better. Maintenance: Can be directly machine-washed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>《权力的游戏》第六季刚完美收官，HBO就又放出大招了。这部名叫《罪夜之奔》(TheNightOf)的8集迷你剧，曾经依靠精彩绝伦的先导集吸引了好几家美国知名电视台的争夺，历经近五年的筹拍与制作才最终得以在HBO播出。在放映之初，《罪夜之奔》就显露出了口碑神剧的潜力。诸如 IMDB，烂番茄等权威影视剧评分网站，《罪夜之奔》都拿到了接近满分的成绩。与以往的一众HBO良心剧集类似，这部剧同样拥有电影水准的制作，尤其是镜头美感十分出众。当然，截然不同于《权力的游戏》这样的 “奇幻史诗大IP”，《罪夜之奔》翻拍自一部司法/犯罪题材英剧《司法正义》。原英剧讲述了一个戏剧张力十足的故事：男主人公一日醒来，发现露水情缘的陌生女郎躺在自己身边，竟然已成一具冰冷的尸体。吓得魂飞魄散的他万万也没想到，等待着自己的将是谋杀犯的罪名以及英国司法体系中最黑暗的炼狱。 《罪夜之奔》主创在伦敦接受采访那么，当《罪夜之奔》将整个故事移植到美国——当脆弱的人性遭遇纽约更加复杂特殊的司法体系——这部剧集又将会有什么样的神展开？受HBO鼎级剧场的邀约，《外滩》记者在伦敦采访到了《罪夜之奔》的主创人员，并为剧迷们挖到了许多幕后趣闻。不入虎穴，焉得虎子《罪夜之奔》的编剧之一史蒂芬·泽里安早在二十年前就凭借《辛德勒的名单》的改编剧本拿到过奥斯卡小金人，近几年也创作出了《龙纹身的女孩》这样的口碑佳作。但此次“跨界”来到电视圈为《罪夜之奔》当编剧，他却坦言，起初的自己对美国联邦和纽约州的司法体系并不了解。“我一直对我不了解的领域更感兴趣，”他说，“我不愿意写我了解的故事。我更想写能让我发现新世界的故事。”为了能够准确捕捉纽约州司法程序的全部细节，《罪夜之奔》的编剧，导演，演员们都进行了无数次“实地考察”。在剧中饰演女性律师的阿玛拉·卡兰透露说，她曾在纽约的公开法庭旁听了好几天，受到极大的震动。为了能够拍好在剧中占有大量篇幅的监狱戏，《罪夜之奔》的主创们甚至还前往了纽约州著名的里克斯岛监狱。 这座监狱曾因大量的暴力事件而臭名昭著。编剧泽里安说，也许是顾及到剧组人员的人身安全，狱警们不让他们接近囚徒，更不允许他们与囚徒交谈。但他们在这座真实监狱中的“历险”仍然意义匪浅。《罪夜之奔》中的监狱阴郁、压抑，是一个弱肉强食，等级森严的小社会。</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>The sixth season of "Game of Thrones" just ended perfectly, and HBO has released another big move. This 8-episode mini-series called "The Night Of" once attracted the attention of several well-known American TV stations with its outstanding pilot episode, and after nearly five years of planning and production, it finally premiered on HBO. At the beginning of its release, "The Night Of" showed the potential of becoming a critically acclaimed drama. Websites such as IMDB and Rotten Tomatoes, authoritative in the field of TV show ratings, gave "The Night Of" almost perfect scores. Similar to other conscientious HBO series, this show also boasts production quality at the level of movies, especially with its exceptional cinematography. Of course, unlike "Game of Thrones," a grand fantasy epic, "The Night Of" is a remake of a British legal/crime drama called "Criminal Justice." The original British series tells a story full of dramatic tension: the male protagonist wakes up one day to find a stranger, with whom he had a one-night stand, lying next to him, already dead. Terrified, he never imagined that he would be accused of murder and face the darkest depths of the British judicial system. The creators of "The Night Of" were interviewed in London, and when asked about transplanting the entire story to the United States—where fragile human nature encounters a more complex and unique judicial system in New York—what kind of amazing development will this series have? Invited by HBO, a journalist from "The Bund" interviewed the creators of "The Night Of" in London and uncovered many behind-the-scenes stories for fans. One of the screenwriters of "The Night Of," Steven Zaillian, who won an Oscar twenty years ago for adapting "Schindler's List" and in recent years created acclaimed works like "The Girl with the Dragon Tattoo," admitted that he initially did not understand the federal and New York state judicial systems. "I am always more interested in areas I don't understand," he said. "I don't want to write stories I already know. I prefer to write stories that allow me to discover a new world." In order to accurately capture all the details of the New York state judicial process, the screenwriters, directors, and actors of "The Night Of" conducted numerous "on-site investigations." Amara Karan, who plays a female lawyer in the series, revealed that she spent several days observing public court proceedings in New York and was greatly shocked. To film the extensive prison scenes in the series, the creators of "The Night Of" even visited the infamous Rikers Island prison in New York state. This prison was notorious for its high levels of violence. Zaillian, the screenwriter, mentioned that perhaps due to concerns for the safety of the crew, the prison guards did not allow them to get close to the inmates, let alone talk to them. However, their "adventure" in this real prison was still profoundly meaningful. The prison depicted in "The Night Of" is gloomy and oppressive, a small society of survival of the fittest, with strict hierarchies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>这车漂亮吗？奥迪、SUV......城市越野车！开着让您有高回头率！ 周末假期开着XRV载着家人或女朋友出去自驾游！惬意！ 一流的车性能，流畅的外观，我做梦都想拥有它！ 驾驶座上的人很快就是你！ 机会来了！一份一元钱，参加众筹，就有机会拥有它！一元钱就有机会把它开回家！众筹份数越多机会越多。一共188888份，筹满即开！已帮您买好了车船税、购置税、交强险！到手直接开回家！这个幸运者可能是你哦！ 要是不喜欢还有其它两款车供您选！ 吉普自由光 本田XRV更有最新苹果7手机等着你无需准备一个肾！一块钱抢苹果七，大家一起来换七！ 梦想一定要有，万一实现了呢？赶紧告诉小伙伴们！【温馨提示】长按以下二唯码识别，关注公众号后立即开抢！</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Is this car beautiful? Audi, SUV... urban off-road vehicle! Driving it will make you stand out! On weekends and holidays, driving the XRV with family or girlfriend for a self-driving tour! Comfortable! First-class car performance, sleek appearance, I dream of owning it! The person in the driver's seat will soon be you! The opportunity has come! For one dollar, participate in crowdfunding, and you have the chance to own it! For just one dollar, you have the chance to drive it home! The more crowdfunding shares, the more chances. A total of 188,888 shares, once fully funded, it will be given away! I have already helped you pay for the vehicle and vessel tax, purchase tax, and compulsory insurance! You can drive it home directly! This lucky person could be you! If you don't like it, there are two other cars for you to choose from! Jeep Cherokee and Honda XRV, plus the latest Apple 7 phone waiting for you without needing to prepare a kidney! One dollar to grab the Apple 7, let's all come together to get the seven! Dreams must be had, what if they come true? Hurry and tell your friends! [Friendly reminder] Long press the following QR code to scan, follow the official account, and start grabbing immediately!</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今日行程，一是在考察了5家蜂农之后，确定了本次割蜜的蜜源，二是到山林深处的悬崖之上背蜂。应该是此行收获最大的一天。第五处蜜源距离松柏镇约三十公里，不算非常偏僻。几番打听后，我们终于找到张师傅背山临溪的家。一处别致的农家别墅，背靠遍布板栗树的山脚，门前是一大片草地，长着品种繁多的各色野花，再往前便是香溪河的一条支流，清澈的泉水淙淙流过。环境这么好，蜜应该不错吧？ 张师傅家的蜂箱，就分布在自家屋后的山坡上，大概有一百多箱，全部是传统蜂桶，看来我们这次是找对家了。张师傅家还存有九月割的一百多斤原蜜，闻了蜜香、看了色泽、试了粘稠、我们拿仪器测试了波美度42.5度，42度是国家一级蜜和特级蜜的标准了，42.5度已经超过了特级蜜的标准，成色非常的好，确定就是我们要找的传统蜂箱成熟封盖蜜。 更让人欣喜的是，张师傅还有近一百桶蜂蜜尚未收割，知道我们是大批收购后，也给出了我们比较满意的价格，并且可以在我们全程参与下割蜜以保证蜜的纯正。于是成交，这次割蜜，就这家了！ 确定了蜜源之后，便是各项准备工作。我们先是通知物流把我们寄存在镇上的玻璃瓶和各项物料运送过来，另外便是到镇上购买各种新的割蜜工具，例如防蜂服、艾烟喷壶、蜂刷、过滤网等。一番买买买之后，四点多钟到家，今日天色已晚，蜜蜂已经全部回巢，现在割蜜会对蜂群造成较大的危害，只能再等明天。此时，迫不及待的心情多少有些失望，但是张师傅却给我们带来了更大的惊喜，那便是到山上岩壁上背蜂。 所谓的背蜂，要先和大家做个解释：神农架蜂农的蜂群，一共有两个来源。一是从现有的蜂桶中分家而来，一个蜂群容不下两个蜂王，蜜蜂一般在每年的三四月份分家，术语叫做分蜂。另外，就是从山上抓来的野蜂。一个勤快的蜂农，每年都会在只有自己才知晓悬崖缝隙里放三两个传统蜂桶，那里干燥、避风、防水，很容易吸引野蜂在那里筑巢安家。当这些蜂箱有蜂群筑巢生活后，就将其从山里面背回来，放在自己的蜂场里。今天下午要去背的这个蜂箱，已经在山里面放了两年多了。 山中毒虫杂树太多，我们换上长袖、长裤和运动鞋，带上必要的装备马上出发。开车行驶了约三十分钟后我们将车停在路边，开始向旁边的高山进发。刚开始，还是有若隐若现的山路的，这些所谓的山路，多是因为放牛、丧葬、祭祖走出来的，很多缓坡地都有那么几座坟墓，搭配已经有些昏暗的天色，让人不免泛起些许寒意。</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Today's schedule, first, after inspecting 5 beekeepers, we confirmed the honey source for this honey harvest. Second, we went to the cliff deep in the mountains to carry the beehives on our backs. It should be the most rewarding day of this trip. The fifth honey source is about thirty kilometers away from Songbai Town, not very remote. After inquiring several times, we finally found Master Zhang's home, where he carries the beehives up the mountain by the creek. It's a unique farmhouse, backed by chestnut trees at the foot of the mountain, with a large grassy area in front, growing various wildflowers of different colors. Further ahead is a tributary of the Fragrant Creek, with clear spring water flowing gently. With such a good environment, the honey should be good, right? Master Zhang's beehives are distributed on the slope behind his house, with about a hundred traditional beehives, all in traditional bee barrels. It seems we have found the right place this time. Master Zhang still has over a hundred pounds of honey harvested in September. After smelling the honey fragrance, examining the color, testing the stickiness, and using an instrument to measure the Baume degree at 42.5 degrees, 42 degrees is the standard for national first-grade and premium honey, and 42.5 degrees exceeds the standard for premium honey, indicating very good quality, confirming that it is the mature sealed honey from the traditional beehives we are looking for. What's even more pleasing is that Master Zhang has nearly a hundred barrels of honey yet to be harvested. Knowing that we are purchasing in large quantities, he offered us a satisfactory price and allowed us to participate in the honey harvest process to ensure its purity. So the deal was made, this time, we chose this home for the honey harvest! After confirming the honey source, it's time for all the preparations. We first informed the logistics to deliver the glass bottles and various materials we stored in town, and then went to town to buy various new honey harvesting tools, such as bee suits, smoke sprayers, bee brushes, and filters. After a shopping spree, we arrived home after four o'clock, the day was already late, and all the bees had returned to their hives. Harvesting honey now would cause significant harm to the bee colonies, so we had to wait until tomorrow. At this moment, the impatient feeling was somewhat disappointing, but Master Zhang brought us a bigger surprise, which was carrying the beehives on the cliffs. The so-called carrying the beehives, let me explain first: the bee colonies of the beekeepers in Shennongjia have two sources. One is from splitting existing beehives. A bee colony cannot accommodate two queen bees, so bees generally split in March or April each year, a process called swarming. The other source is wild bees caught from the mountains. A diligent beekeeper would secretly place three or two traditional beehives in crevices on the cliffs, which are dry, windproof, and waterproof, making it easy to attract wild bees to build nests there. When these beehives have bee colonies living in them, they are carried back from the mountains and placed in their own apiary. The beehive we were going to carry this afternoon had been placed in the mountains for over two years. With many poisonous insects and various trees in the mountains, we changed into long-sleeved shirts, long pants, and sneakers, and equipped ourselves before setting off. After driving for about thirty minutes, we parked the car on the side of the road and started to head towards the nearby high mountains. At the beginning, there were faint mountain paths, most of which were formed by cattle grazing, funerals, and ancestral worship. Many gentle slopes had a few graves, and with the dimming light, it inevitably brought a slight chill to the air.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 运动鞋厂商们的脑洞一个比一个大，耐克刚出了款极具未来感的自动系带鞋，又有一家公司推出了一双带具有Wi-Fi和视频功能的运动鞋，名字略长——维珍美国航空头等舱运动鞋。 图片来自：ibtimes这双鞋子出自一家创意公司 Eleven 的设计。除了自带 Wi-Fi 热点外，它还配备了一个内置的 USB 充电口、一个小型显示器，一块续航时间为 3 小时的可充电电池。且不说视频功能，至少对于现代人来说，充电宝的属性可能比自动系鞋带更为实用。 图片来自：eBay之所命名为“维珍美国航空头等舱运动鞋”，是希望用户在穿上这双鞋时，让双脚享受飞机头等舱般的体验：比如鞋子的材料与座椅一样，均是由白色意大利皮革制成，鞋带也制成了安全搭扣的样式，就连客舱内氛围灯也被搬到了鞋子上…… 图片来自：ibtimes说实话，这双鞋谈不上好看，甚至有些中二，但创造这双鞋子的初衷却是善意的——目前这双鞋子正在 eBay 上进行公益拍卖，所得款项将捐献给 Soles4Souls ——一家为贫困社区的人们提供衣服和鞋子的慈善机构。发稿前，爱范儿在eBay 瞅了一眼，最高的出价已经达到了 8900 美元。前阵子，耐克的自动系带鞋在香港拍卖出了超过 10 万美元的高价。题图来自：ibtimes吴羚善良又机智如我 邮箱#欢迎关注爱范儿认证微信公众号：AppSolution（微信号：appsolution），发现新酷精华应用。爱范儿| 原文链接· 查看评论· 新浪微博</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Sports shoe manufacturers are getting more and more creative. Nike has just released a futuristic self-lacing shoe, and another company has launched a pair of sports shoes with Wi-Fi and video functions, with a slightly long name - Virgin America First Class Cabin Sports Shoes. The design of these shoes comes from a creative company Eleven. In addition to the built-in Wi-Fi hotspot, they are also equipped with a built-in USB charging port, a small display screen, and a rechargeable battery with a battery life of 3 hours. Not to mention the video function, at least for modern people, the power bank feature may be more practical than the self-lacing feature. Named "Virgin America First Class Cabin Sports Shoes," the hope is that when users wear these shoes, their feet can enjoy the experience of a first-class cabin on an airplane: for example, the material of the shoes is made of white Italian leather just like the seats, the shoelaces are also made in the style of safety buckles, and even the ambient lighting of the cabin has been moved to the shoes... To be honest, these shoes are not particularly good-looking, and even a bit juvenile, but the original intention of creating these shoes is kind-hearted - currently, these shoes are being auctioned for charity on eBay, with the proceeds going to Soles4Souls - a charity organization that provides clothing and shoes to people in impoverished communities. Before publishing, Love Faner took a look on eBay, and the highest bid has already reached $8,900. Not long ago, Nike's self-lacing shoes were auctioned in Hong Kong for over $100,000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>10月22日至23日，《一则抢救苏醒后七旬老人颤抖写下五个字，温暖了医务工作者内心的严冬》的文章在社交平台上引发热议，众多网友被医护人员和患者之间的相互理解所感动，纷纷在微信朋友圈里热议此事。 网友深受感动，在微信朋友圈里热议此事陕西延安大学咸阳医院心血管内科六病区主任王明新告诉记者，10月21日上午9点多，一名七十多岁的郭姓患者在做检查时突发意识丧失，医院紧急启动绿色通道，将患者立即送往胸痛中心检查抢救。经查，患者是由左肺不张，右侧胸腔大量积液，纵膈移位而引起的急性缺血缺氧性脑病，经过6个小时、13名医护人员的奋力抢救，终于把老人从死亡线上拉了回来。 郭姓老人在延安大学咸阳医院接受医护人员治疗老人醒来的第一时间，看着床旁的护士，用两只手指在嘴边挨了挨，护士田梦园问老人：“叔，你是不是气管插管不舒服，让我给您取掉？” 老人摇了摇头，指了指护士手中的护理记录单，看了看笔。田梦园似乎理解了老人的意图，把笔和纸递到了老人的手里，老人随后用颤颤巍巍的手写出了“护士没吃饭”五个字。 “当时护士的眼泪就下来了，科室的同事看到这张纸条都很感动。在医患关系比较紧张的今天，确实是难得的正能量。老人的家属在看到这张纸条后，还专门为护士买来了食品。”王明新说道。对此，郭姓老人的老伴在接受记者采访时表示，老人患病已有些时间，院里的医护人员一直很细心、耐心，“检查的时候老人昏倒了，多亏医生马上抱住了他，医生护士也经常顾不上吃饭，其实就是将心比心，多互相理解。”在不少延安大学咸阳医院的医护人员看来，这件小事在医患关系紧张的今日更显难能可贵。“改善医患关系紧张的局面，除了多一些正能量、‘客观的报道以及相关部门进一步规范医疗行业外，更重要的就是像这件事当中所体现出来的，医患双方的互相体谅与理解。”延安大学咸阳医院院长康彦文评论道。 网友评论 秦网红：老爷子开明 定能长寿 伟大的陶子君：我只是看着都很感动， 云朵姑娘啊：将心比心 iluEase：会因为一些病人或家属无理取闹，我们会对这个行业失望、抱怨。</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>From October 22nd to 23rd, an article titled "Rescuing a Seventy-Year-Old Trembling Patient Who Wrote Five Words After Waking Up, Warming the Hearts of Medical Workers in the Harsh Winter" sparked heated discussions on social media platforms. Many netizens were moved by the mutual understanding between medical staff and patients, and they discussed the matter enthusiastically on WeChat Moments. Touched by the story, netizens discussed it on WeChat Moments. Wang Mingxin, director of the Cardiology Department Six at Xianyang Hospital of Yan'an University in Shaanxi, told reporters that on the morning of October 21st, a patient surnamed Guo in his seventies suddenly lost consciousness during an examination. The hospital immediately activated the green channel and rushed the patient to the Chest Pain Center for examination and rescue. After investigation, it was found that the patient suffered from acute ischemic hypoxic encephalopathy caused by left lung collapse, large right pleural effusion, and mediastinal shift. After 6 hours of intense rescue efforts involving 13 medical staff members, the elderly man was finally pulled back from the brink of death. When Mr. Guo woke up at Xianyang Hospital of Yan'an University, he looked at the nurse beside his bed, touched his mouth with two fingers, and nurse Tian Mengyuan asked him, "Uncle, is the tracheal intubation uncomfortable? Shall I remove it for you?" Mr. Guo shook his head, pointed to the nursing record in the nurse's hand, and then looked at the pen. Tian Mengyuan seemed to understand the old man's intention, handed him the pen and paper, and the old man then wrote with trembling hands, "Nurse hasn't eaten." "At that moment, the nurse's tears fell, and colleagues in the department were all touched by this note. In today's tense doctor-patient relationship, it is indeed rare positive energy. After seeing this note, the elderly man's family even specially bought food for the nurse," said Wang Mingxin. In response, Mr. Guo's wife, interviewed by reporters, said that her husband had been ill for some time, and the hospital's medical staff had always been attentive and patient. "When the old man fainted during the examination, thanks to the doctor who immediately caught him, doctors and nurses often don't have time to eat. It's really about empathy and mutual understanding." Many medical staff at Xianyang Hospital of Yan'an University believe that this small incident is particularly valuable in today's tense doctor-patient relationship. "Improving the tense doctor-patient relationship requires not only more positive energy, objective reporting, and further standardization of the medical industry by relevant departments but more importantly, mutual understanding and empathy between doctors and patients, as demonstrated in this incident," commented Kang Yanwen, President of Xianyang Hospital of Yan'an University. Netizen Comments: Qin Internet Celebrity: The old man is enlightened and will surely live a long life. Great Taozijun: I am just very moved by watching. Cloud Girl: Empathy iluEase: Because of some unreasonable behavior from patients or their families, we may become disappointed and complain about this industry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>每日小情书：第一次哭是因为你不在，第一次笑是因为遇到你，第一次笑着流泪是因为不能拥有你！精彩小提示：点击最上方蓝色帐号名一键关注后，回复数字 0 ，查看十二星座深度解析；回复任意字母 a-z，查看星座爱情小测试！女人看包，男人看表。判断一个女人的购买力，不是看她的衣服，而是看她的包包。那么问题就来了，穿什么样的衣服搭配什么包包？什么样的体型适合什么的包包？还有关于配色的小技巧你知道多少？今天就跟大家讲讲包包的最佳使用法则！ 一、穿什么样的衣服搭配什么样的包包？精致的短款大衣不少女生更偏爱冬日里的短外套。实用与利落，这时候你的包包也应该精致起来，或手拿或肩背，让你的视觉重心上移，简洁而有型。适合包款：肩背包、手拿包(单肩背、手拿)▼ 目前很夯的超长大衣冬天没有一件超长大衣，似乎说不过去了。在选择包款时，别再用大包加大你的整体负担，轻盈的小包可以让你灵动起来，尤其是斜跨的背法，是点睛之笔哦！适合包款：手拿、手提肩背两用小包(斜跨`手提) 还可配单肩包，像链条包、水桶包都是很不错的选择，建议敞开外套，单肩背即可。除大包外，备受追捧的各种单肩包也非常合适。单肩背即可。 最通勤的中长款大衣及膝长度大衣是必备单品，不论高矮胖瘦，人人都可以轻松驾驭起来。手拎的大包，最适合搭配这类大衣造型，也更适合日常通勤使用。适合包款：手拎大包（随意跨在臂弯上·手提包柄） 实用的中短款外套及臀的大衣是小个子女生的最爱。它能遮住过于宽大的臀部，但是不会将整个人淹没。搭配时，包包不适合过大，包带不要长于衣长即可。若是斜跨刚好在腰线的位置，还能提升整体比例哦！适合包款：单肩小包（斜跨·单肩） 二、包包大小如何选择？包包尺寸的选择时要充分考虑你的体型，整体和谐最重要！同时还要考虑包包里面要装多少东西。千万不要塞太多东西，更不要鼓出来！那简直是灾难。 三、配色法则NO1.同色呼应同色搭配法则是最简单最容易上手的，包包与你身上的一款颜色呼应，不管是发色、妆容（甚至是眼影色、唇色）、衣服还是鞋袜等等。让包包自然而然地融入到全身的搭配中，并不需要特意强调，不显山不露水。 包包和上衣一个色。</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Daily Love Letter: The first time I cried was because you were not there, the first time I laughed was because I met you, and the first time I laughed with tears was because I couldn't have you! Exciting tip: Click on the blue account name at the top to follow with one click, reply with the number 0 to view in-depth analysis of the twelve zodiac signs; reply with any letter from a to z to take a love test based on zodiac signs! Women look at bags, men look at watches. Judging a woman's purchasing power is not about her clothes, but about her bags. So the question arises, what kind of clothes match what kind of bags? What body type suits what kind of bags? How much do you know about color matching tips? Today, let's talk about the best ways to use bags!
+1. What kind of bags match what kind of clothes? Many girls prefer short coats in winter. Practical and neat, your bag should also be exquisite at this time, either hand-held or shoulder-carried, shifting your visual center of gravity upwards, simple and stylish. Suitable bag styles: shoulder bags, handbags (single shoulder, hand-held) ▼ Currently, long coats are very popular. It seems inadequate to not have a long coat in winter. When choosing a bag style, don't burden yourself with a large bag, a light small bag can make you more agile, especially when worn diagonally across the body, it's a finishing touch! Suitable bag styles: handbags, shoulder bags with hand straps (diagonal crossbody, hand-held) You can also choose single shoulder bags like chain bags and bucket bags, which are great choices. It is recommended to wear the coat open and carry it on one shoulder. In addition to large bags, various single shoulder bags are also very suitable. Single shoulder carry is enough. The most common mid-length and knee-length coats are essential items for commuting. Regardless of height or body shape, everyone can easily handle them. Hand-held large bags are most suitable for matching this type of coat style and are more suitable for daily commuting use. Suitable bag styles: hand-held large bags (casually carried on the arm · hand-held bag handle) Practical mid-length jackets and hip-length coats are the favorites of petite girls. They can cover up overly wide hips without drowning the whole person. When matching, the bag should not be too large, and the strap should not be longer than the length of the coat. If the diagonal crossbody bag is positioned at the waistline, it can enhance the overall proportion! Suitable bag styles: single shoulder small bags (diagonal crossbody · single shoulder)
+2. How to choose the size of the bag? When choosing the size of the bag, you should consider your body type, overall harmony is the most important! Also consider how much stuff needs to be put inside the bag. Do not stuff too many things, and definitely do not let it bulge out! That would be a disaster.
+3. Color matching rule NO1. Monochromatic Echo The rule of matching the same color is the simplest and easiest to master. The bag echoes one color on you, whether it's hair color, makeup (even eyeshadow color, lip color), clothes, or shoes and socks, etc. Let the bag naturally blend into the overall outfit, without the need to emphasize it, subtly blending in. The bag and the top are in the same color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>小霸王手机很早之前便说过要推出一款“全球首款无边框4G手机”--小霸王S3，如今这款手机正式到来，综合整体规格可知，和近期很多号称“无边框”的产品一样，小霸王S3同样非真正的“无边框手机”。 在小霸王手机官网上，S3已经有了更祥细的规格公开，资料显示，配备了5英寸屏幕的小霸王S3的三围尺寸为141.5*70.3*7.8mm，由此可见该机仍有边框存在，只是边框比普通5英寸屏幕手机做得更窄一些，但是并没有达到无边框水平，目前已有不少厂商将5英寸屏幕产品宽度控制到了69mm甚至更低。 虽然并未真正成为无边框手机，但是小霸王S3在不少方面都比以往产品更加给力，如该机采用了MTK6732四核处理器，成为小霸王旗下第一款64位LTE手机，能支持移动4G/3G/GSM网络。5英寸的屏幕搭配HD级别的分辨率，拥有1700毫安电池、1G+8G内存和定制的Android 4.4系统，拍照部份比较独特，其前后都是800万像素摄像头，而且前置自拍摄像头还单独装备了补光灯，提升自拍效果。 此外小霸王S3另有一项秘技，该机除了屏幕正面采用了康宁大猩猩3代玻璃，官方资料显示背部同样覆盖了大猩猩玻璃，白色款中框加入了金色装饰，黑色款S3则为白色中框设计。该机和小霸王其它产品一样，主要在线下实体店销售，定价为1399元。=============今年花费时间抢别人的红包，还不如明年让别人抢你的红包！开网店，做土豪，就是这么任性！咨询qq：644554614=============想要了解更多的最新科技资讯，看最新的数码评测信息，请关注我的微信号：kejiday，科技每日报</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Xiaobawang phone had said long ago that it would launch the "world's first borderless 4G phone" - Xiaobawang S3. Now that this phone has officially arrived, based on the comprehensive specifications, it can be seen that like many recent products claiming to be "borderless," Xiaobawang S3 is also not a truly "borderless phone." On the Xiaobawang phone official website, more detailed specifications of the S3 have been released. The data shows that the Xiaobawang S3 with a 5-inch screen has dimensions of 141.5*70.3*7.8mm. It can be seen that this phone still has borders, just that the borders are narrower than those of ordinary 5-inch screen phones, but it has not reached the borderless level. Currently, many manufacturers have managed to control the width of 5-inch screen products to 69mm or even lower. Although it has not truly become a borderless phone, Xiaobawang S3 is more powerful in many aspects compared to previous products. For example, this phone uses the MTK6732 quad-core processor, becoming the first 64-bit LTE phone under Xiaobawang, capable of supporting mobile 4G/3G/GSM networks. The 5-inch screen with HD-level resolution, a 1700mAh battery, 1GB+8GB memory, and a customized Android 4.4 system. The camera part is quite unique, with both front and rear cameras being 8-megapixel, and the front selfie camera is also equipped with a fill light separately to enhance selfie effects. In addition, Xiaobawang S3 has another secret technique. Besides using Corning Gorilla Glass 3 on the front screen, official data shows that the back is also covered with Gorilla Glass. The white version has gold decorations on the middle frame, while the black version of S3 has a white middle frame design. Like other Xiaobawang products, this phone is mainly sold in physical stores, priced at 1399 yuan.=============This year, instead of spending time snatching other people's red envelopes, it's better to let others snatch your red envelopes next year! Open an online store, be a tycoon, that's how bold it is! For inquiries, contact QQ: 644554614=============For more latest technology information and digital review, please follow my WeChat account: kejiday, Technology Daily.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>（专业而不笨重轻盈却性能不凡）从人体工程学角度出发适用于铜铝材质同种材质间的焊接 直流焊机 节能环保快速、便捷、高效焊接工具，连接线焊接只需2秒速焊。 点击边框调出视频工具条 焊接视频 例如大灯线路，大负载的线路，接线头的时候，你还在用钳子使劲扭紧吗？这都已经过时了，这种接法很容易出现虚接，发热，过流不够，严重的会导致线路过热烧毁。最新品的工具可以帮你解决你这个烦恼，在客户面前更加专业，线路不虚接。心动不如行动，赶紧的把工具带回家！线束线焊枪 电子焊接工具 维修工具快速、便捷、高效焊接工具，连接线焊接只需2秒速焊。焊枪主要适用于铜铝材质同种材质间的焊接，关于电压值的选择：此款为蓄电池12v到48v通用，可根据线的粗细自主选择，通常24v为最佳。焊枪焊接过程会有接线发热现象，属于正常散热本产品原价220元，国庆特优惠价120元支付方式：微信红包、QQ红包支付宝、 银行卡转账修车路咨询热线：?微信手机：159 8287 9908点击“阅读原文”也可进入直接选购</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>(Professional yet not bulky, light yet extraordinary in performance) From the perspective of ergonomics, it is suitable for welding between copper and aluminum materials of the same kind. The DC welding machine is an energy-saving, environmentally friendly, fast, convenient, and efficient welding tool. It only takes 2 seconds for wire connection welding. Click on the border to bring up the video toolbar. Welding videos, such as headlight circuits, heavy-duty circuits, and wire connectors. Are you still using pliers to tighten them forcefully? This method is outdated, as it is prone to poor connections, overheating, insufficient current, and can lead to overheating and burning of the circuit. The latest tools can help you solve this problem, making you more professional in front of customers, ensuring no poor connections in the circuit. Don't just be tempted, take action and bring the tools home quickly! Wire harness welding gun, electronic welding tools, maintenance tools, fast, convenient, and efficient welding tools. It only takes 2 seconds for wire connection welding. The welding gun is mainly suitable for welding between copper and aluminum materials of the same kind. Regarding the selection of voltage values: this model is universal for batteries from 12v to 48v, and you can choose according to the thickness of the wire, with 24v usually being the best. During the welding process, the welding gun may heat up, which is a normal heat dissipation phenomenon. The original price of this product is 220 yuan, but it is now on special offer for 120 yuan during the National Day. Payment methods: WeChat red envelope, QQ red envelope, Alipay, bank transfer. For car repair consultation hotline: WeChat/phone: 159 8287 9908. Click "Read Original" to directly purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>【庄布忠】罗曼尼?康帝马年年份和中国最出色的骏马图2015-03-26酒博酒博微信号wineblog功能介绍关注酒博，博览葡萄酒世界。作者|庄布忠编辑|静远马是一种十分高贵的动物。它们辛勤工作，从不抱怨（当然它们抱怨了我们也听不懂） ，也不伤害别人。马也是一种十分强壮的动物。如果我们需要一个活生生的证据证明不吃肉也可以长得很强壮，马作为食草动物就是最好的例子。 2014年1月31日，也就是本周五，不论你生活在北京还是布里斯班，上海还是旧金山，我们将一起迎来马年。在我58年的人生里，最令我难以忘怀的一款葡萄酒就酿造于马年的年份。罗曼尼?康帝（Romanee-Conti）1966年份是一款令人无法忘怀的葡萄酒。不过，即使是这样一款伟大的葡萄酒，也比不上当我见到——并亲手触摸到——唐玄宗（685-762年；在位：712-756年）最喜爱的骏马图：韩干的《照夜白图》时受到的震撼。罗曼尼?康帝1966年份1997年9月8日是一个凉爽而晴朗的日子。那晚的巴黎天空中繁星密布。那天晚上，当我坐上接我前往巴黎最著名的餐厅之一——银塔餐厅（La Tour d’Argent）的汽车时，内心充满了期待。那次晚宴由路易王妃香槟（Champagne Louis Roederer）主办，为了庆祝庄主及总经理Jean-Claude Rouzaud接掌家族事业30周年。宾客们被安排坐在不同的餐桌前。每桌都会有相同年份的路易王妃水晶香槟（Cristal Roederer）和伊甘酒庄（Chateau d’Yquem）葡萄酒，同时还会有两款波尔多红葡萄酒，其中包括1855年评级的一级酒庄、柏图斯酒庄（Chateau Petrus）、欧颂酒庄（Ausone）和白马酒庄（Cheval Blanc）等。不过，有一个例外，那就是勃艮第的罗曼尼?康帝。当我们到达银塔餐厅时，要在前台报上姓名，并被告知应该坐在哪一桌。我给出自己的名字“庄布忠”后拿到了一张写着桌名的小卡片。我看着那张卡片，就像一个交了令人难以置信的好运，完全醉得晕晕乎乎的人一样。为了确保这不是做梦或者什么人的恶作剧，我狠狠地掐了自己一下。我再次看向那张卡片，那个名字还在上面：“罗曼尼?康帝”。我高兴得直想手舞足蹈，并且大喊三声：“耶！耶！耶！”不过我看看四周，意识到这是一个格调优雅的聚会。我想，最好还是表现得严肃一些。</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Zhuang Buchong: Romanee-Conti, the Emperor's Horse Year and China's Finest Steed Painting. On March 26, 2015, Wine Blog's WeChat account wineblog introduced the function of following Wine Blog to explore the world of wine. Author: Zhuang Buchong Editor: Jingyuan. Horses are very noble animals. They work hard, never complain (of course, even if they did, we wouldn't understand), and do not harm others. Horses are also very strong animals. If we need living proof that one can be strong without eating meat, horses, as herbivores, are the best example. On January 31, 2014, this Friday, whether you live in Beijing or Brisbane, Shanghai or San Francisco, we will all welcome the Year of the Horse together. In my 58 years of life, the most unforgettable wine I have ever tasted was produced in the Year of the Horse. Romanee-Conti 1966 is a wine that is impossible to forget. However, even such a great wine pales in comparison to the awe I felt when I saw—and touched with my own hands—the favorite steed painting of Emperor Tang Xuanzong (685-762 AD; reigned 712-756 AD): Han Gan's "Night-Shining White." Romanee-Conti 1966, September 8, 1997, was a cool and clear day. The Paris sky was filled with stars that night. As I sat in the car that took me to one of Paris's most famous restaurants, La Tour d'Argent, my heart was full of anticipation. The dinner was hosted by Champagne Louis Roederer to celebrate the 30th anniversary of the estate's owner and general manager, Jean-Claude Rouzaud. Guests were seated at different tables. Each table had the same vintage of Louis Roederer Cristal Champagne and Chateau d'Yquem wine, as well as two Bordeaux red wines, including first growths from the 1855 classification such as Chateau Petrus, Ausone, and Cheval Blanc. However, there was one exception, the Burgundy Romanee-Conti. When we arrived at La Tour d'Argent, we had to check in at the front desk and were told which table to sit at. After giving my name "Zhuang Buchong," I received a small card with the table name written on it. I looked at the card as if I had just received incredibly good luck, feeling completely dizzy. To make sure I wasn't dreaming or being pranked, I pinched myself hard. I looked at the card again, and the name was still there: "Romanee-Conti." I was so happy that I wanted to dance and shouted "Yes! Yes! Yes!" three times. But looking around, I realized it was an elegant gathering. I thought it best to behave more seriously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>以前的摄影师需要单反+电脑才能完成摄影作品，而现在的摄影可以说是只需一部智能手机即可，手机镜头像素越来越高，拍照功能越来越强大，加之美图类app辅助，拍照与修图都可直接在手机一步完成。本文我们就来看看专业摄影师@宏贇同學教你怎么用美图M6手机拍出日系大片。 @宏贇同學表示自己平时就喜欢用手机拍照，因为单反太笨重了，之所以选择美图M6，是因为其前置镜头与后置镜头皆为2100万超高像素，自带1-7级美颜直接可进行脸部美颜，而且相机内置照片美化功能，不需要在安装各式各样的修图app，更不用在电脑修图，全景模式、HDR模式、正方形照片等可满足旅行场景需求。 手机摄影跟单反摄影本质上没什么差别，除了镜头参数及元件不同，更多需要考虑的是技术层面上要素。@宏贇同學整理出了拍照几大要素：1、人最重要器材不是最重要的，最重要的人：一个是摄影师、一个是模特(被拍者)。摄影师的审美，拍摄指导很重要;模特的表现，眼神，情绪很重要。 2、前期准备可以收集一些优秀作品参考，借鉴。拍摄前要与模特沟通好拍摄主题风格。服装、道具准备，尽可能提高模特表现力。 3、选景如日系风格，绿色与蓝色是比较常见的色彩，所以背景可选简单、纯色、光影、绿植、阳光等元素。 4、构图建议拍照时开启相机的“网格线”，以进行辅助水平构图。如居中、留白是最常见的构图方式。 5、技巧如可以采用行走中抓拍，选好背景后让模特在规定的轨迹上行走，然后开启连拍模式抓拍，这样拍出的效果更自然流畅。 6、调色最后一步就是调色，若原图不够质感，可选择相册编辑器中(或修图app)的滤镜进行调色。 所以，看了@宏贇同學的分享，很多非摄影爱好者真没必要花一大笔额外的金钱去购买专业单反，完全可以选择一款像美图M6这样拍照出色的智能手机进行代替，拍照+修图都可以直接在手机进行，相当便捷实用。声明：IT之家网站刊登/转载此文出于传递更多信息之目的，并不意味着赞同其观点或论证其描述。</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>In the past, photographers needed a DSLR camera and a computer to complete their photography works. Nowadays, photography can be done with just a smartphone. The pixel count of smartphone cameras is increasing, the shooting functions are becoming more powerful, and with the assistance of beauty apps, both shooting and editing can be done directly on the phone. In this article, we will take a look at how professional photographer @宏贇同學 teaches you how to take Japanese-style photos using the Meitu M6 smartphone. @宏贇同學 mentioned that he likes taking photos with his phone because DSLRs are too bulky. He chose the Meitu M6 because both the front and rear cameras have 21 million ultra-high pixels, with built-in beauty levels from 1 to 7 for facial beautification. The camera also has built-in photo beautification functions, eliminating the need to install various editing apps or edit on a computer. Features like panorama mode, HDR mode, square photos, etc., can meet the demands of travel scenes. Mobile photography is fundamentally no different from DSLR photography, except for differences in lens parameters and components. More consideration needs to be given to technical aspects. @宏贇同學 summarized several key elements of photography: 1. The most important equipment is not the most important; the most important are the people: the photographer and the model (subject). The photographer's aesthetics and shooting guidance are crucial; the model's performance, eye contact, and emotions are important. 2. Preparations can include collecting and referencing excellent works, communicating with the model about the shooting theme and style, preparing clothing and props, and enhancing the model's performance as much as possible. 3. Selecting scenes such as Japanese style, where green and blue are common colors, so backgrounds can be simple, monochromatic, with light and shadow, greenery, sunlight, etc. 4. Composition suggestions include turning on the camera's "grid lines" for horizontal composition assistance. Centering and negative space are common composition methods. 5. Techniques such as capturing shots while walking, selecting a background, having the model walk along a designated path, and then using continuous shooting mode for more natural and smooth results. 6. Color adjustment is the final step; if the original image lacks texture, filters in the photo editor (or editing apps) can be used for color correction. Therefore, after reading @宏贇同學's sharing, many non-photography enthusiasts may not need to spend a lot of extra money on a professional DSLR. They can opt for a smartphone like the Meitu M6, which takes excellent photos, and both shooting and editing can be done directly on the phone, making it very convenient and practical. Disclaimer: The publication/reprint of this article on IT Home website is for the purpose of conveying more information and does not imply agreement with its views or endorsement of its description.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 河南境内河流湖泊众多，形成了一道道美丽的风景，成为游客心中的美景，今天我们就和大家一道去这些地方畅游。黄河小浪底水利小浪底水利枢纽是黄河干流三门峡以下唯一能够取得较大库容的控制性工程，既可较好地控制黄河洪水，又可利用其淤沙库容拦截泥沙，进行调水调沙运用，减缓下游河床的淤积抬高。1991年4月，七届全国人大四次会议批准小浪底工程在“八五”期间动工兴建。黄河由西向东穿过库区，水流湍急，流程130km，其间有较多的支流、支沟、毛沟汇入，较大支流计有18条，多数分布在库中区和库前区，如北岸的西阳河、逢石河、亳清河、沇西河和南岸的畛河、青河、北涧河等河流。 黄河三门峡至小浪底区间流域面积为5756km2，约占三门峡至花园口区间流域面积的14%。支流来水流量一般较少，且经常出现断流。汛期常有短时间暴雨洪水，一般每年出现3～4次。 信阳南湾湖南湾湖位于河南省信阳市西南5公里，风景秀丽，岛屿众多，是著名的旅游胜地，国家AAAA景区，国家森林公园，国家水利风景区。南湾湖美，美在其水。 75平方公里的水面烟波浩淼，一碧万顷，水质清纯透明，掬手可饮，为国家一级优质软质水。南湾湖中大小不一，形态各异的61个岛屿，错落有致地散落于清碧的湖水中，犹如碧珠洒盘，美不胜收。现已经开发的有鸟岛、花鲢岛、猴岛、茶岛等。鸟岛每年有十几万只鹭科候鸟在岛上筑巢繁衍。猴岛散养这100余只太行猕猴，观猴、逗猴、与猴同乐。南湾湖拥有丰富的森林资源，浩瀚碧绿的湖面，众多奇特的岛屿港湾，齐鸣斗艳的珍禽异兽，季相多变的植物景观，人与自然和谐相处，山水园林相得益彰，构成了一副诗画山水画卷。 驻马店薄山湖薄山湖风景区位于驻马店市南部，景区面积120平方公里，著名景点景观有湖心岛、月亮湾、翠竹溪、龙女潭、兰花谷、骆驼岩、猴儿崖、多变石、九子沟、亮子冲等数十处。22平方公里的湖面在近十万亩森林的环抱下，九曲十八弯，延绵回环近30公里，山环水绕，清幽灵秀，素有“天然生态公园”和“六十里水上画廊”之美誉。薄山湖环境幽雅，水质纯净，自然优良生态环境下山、水、林的完美结合，使薄山湖成为野生动植物繁衍生息的天堂。</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Henan has many rivers and lakes, forming beautiful scenery, becoming a scenic spot in the hearts of tourists. Today, we will travel to these places together. The Xiaolangdi Water Conservancy Project on the Yellow River is the only key project downstream of the Sanmenxia on the main stream of the Yellow River that can control a large storage capacity. It can effectively control the flood of the Yellow River and utilize its sediment storage capacity to intercept sediment, carry out water and sediment regulation, and slow down the sedimentation and elevation of the downstream riverbed. In April 1991, the Fourth Session of the Seventh National People's Congress approved the Xiaolangdi Project to start construction and be built during the "Eighth Five-Year Plan" period. The Yellow River flows from west to east through the reservoir area, with swift currents, a flow length of 130km, and many tributaries, branches, and small streams joining in. There are 18 major tributaries, most of which are distributed in the middle and front areas of the reservoir, such as the Xiyang River, Fengshi River, Boqing River, Yanxi River on the north bank, and Zhen River, Qing River, Beijian River on the south bank. The basin area from Sanmenxia to Xiaolangdi on the Yellow River is 5756km2, accounting for about 14% of the basin area from Sanmenxia to Huayuankou. The inflow of tributaries is generally small, and interruptions occur frequently. During the flood season, short-term heavy rain and floods often occur, usually 3 to 4 times a year. Nanyawan Lake is located 5 kilometers southwest of Xinyang City, Henan Province. It has beautiful scenery, numerous islands, and is a famous tourist destination. It is a national AAAA scenic spot, national forest park, and national water scenic area. The beauty of Nanyawan Lake lies in its water. The vast 75 square kilometers of water surface is clear and transparent, with pure water quality that can be drunk directly. There are 61 islands of various sizes and shapes scattered in the clear blue lake, like scattered jade plates, incredibly beautiful. Developed areas include Bird Island, Hualian Island, Monkey Island, and Tea Island. Every year, tens of thousands of herons nest and breed on Bird Island. Monkey Island has over 100 wild Taihang macaques, offering opportunities to observe, play, and interact with the monkeys. Nanyawan Lake has rich forest resources, a vast and green lake surface, numerous unique island harbors, a variety of rare birds and animals, ever-changing plant landscapes, harmonious coexistence between humans and nature, and a picturesque landscape of mountains and waters. Baoshan Lake Scenic Area is located in the southern part of Zhumadian City, covering an area of 120 square kilometers. The famous scenic spots include Lake Heart Island, Moon Bay, Cuizhu Creek, Longnv Tan, Orchid Valley, Camel Rock, Monkey Cliff, Duobian Stone, Jiuzi Gou, and Liangzi Chong. Surrounded by nearly 100,000 acres of forest, the 22 square kilometers of lake surface winds around for nearly 30 kilometers, with nine bends and eighteen turns, creating a serene and beautiful environment known as the "natural ecological park" and the "sixty-mile water gallery." Baoshan Lake has an elegant environment, pure water quality, and a perfect combination of mountains, water, and forests in a natural and excellent ecological environment, making it a paradise for the reproduction and survival of wildlife.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 图：马云阿里巴巴集团创始人作为身价上千亿的首富他的座驾自然不会差了，马云的座驾是价值1070万元的迈巴赫62S—————— 图：王健林的车同样作为身价上千亿的首富 王健林的座驾是迈巴赫57s价值900万左右，相对迈巴赫62和62s，迈巴赫57s的数量更为稀有，自从迈巴赫停产后，就被人称为“绝版”豪车，虽然已经停产，但是迈巴赫57S也是身份的象征，车长超过5.7米，相对迈巴赫62短了一些，不过这个车身长度已经够长了，因为没超过6米，所以是蓝牌。—————— 图：李书福是吉利控股集团董事长、沃尔沃轿车公司董事长身价上百亿。李书福以前开的是豪情、后来是美人豹、自由舰、远景，都是吉利自己生产的车，对此，李书福的回答是：“我自己造的车我得先试呀，把风险留给自己，把安全留给用户嘛，哈哈！—————— 图：72岁的华为创始人——任正非正在上海虹桥机场排队打出租， 对比同为富豪的马云、王健林，低调出场的任正非就显得令人敬佩。主要因为小时候受过3年自然灾害，自然灾害带给任正非家庭的是让人绝望的饥饿和贫穷，任正非创办华为，成为全球电信业巨头，但依然是当年那个陪着父母苦熬过来的任正非，华为创建初期他每天穿着褶皱的衣服跟下属一起打地铺，华为崛起以后他也偶尔出现在人们视野，简单朴素，看起来像个朴实的农民老头做投资犹如经营一项生意，经营者不光要熟练成本控制和利润管理，更要懂得市场趋势、圈内人脉。赚钱与亏钱只是最后的结果，你准备工作做的越好，你成功的机会也就越大。不管做什么投资，都会有人赚，有人亏，你想成为哪一种人只看你做了什么，付出了多少。一两次的失败或者亏损并不重要，重要的是积累了能力和经验，只有经历过你才会拥有，多次总结不断进步，成功自然会属于你。笔者/一叶老师投资指导：YYLj666888</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Image: Ma Yun, the founder of Alibaba Group, as the richest man with a net worth of over a trillion, naturally has a luxury car. Ma Yun's ride is a Maybach 62S worth 10.7 million yuan. 
+Image: Wang Jianlin's car, also as a billionaire, Wang Jianlin's ride is a Maybach 57s worth around 9 million. Compared to the Maybach 62 and 62s, the Maybach 57s is rarer. Since Maybach stopped production, it has been called a "limited edition" luxury car. Although it has been discontinued, the Maybach 57S is still a symbol of status. With a length exceeding 5.7 meters, it is slightly shorter than the Maybach 62, but the length of this car is already long enough, not exceeding 6 meters, so it has a blue license plate.
+Image: Li Shufu, the chairman of Geely Holding Group and Volvo Car Corporation, with a net worth of over a hundred billion. Li Shufu used to drive the Haoqing, then the Beauty Leopard, Freedom Ship, and Vision, all produced by Geely. In response, Li Shufu said, "I have to test the cars I make first, take the risk myself, and leave the safety to the users, haha!"
+Image: Ren Zhengfei, the 72-year-old founder of Huawei, is queuing for a taxi at Shanghai Hongqiao Airport. Compared to the billionaires Ma Yun and Wang Jianlin, Ren Zhengfei's low-key appearance is admirable. Mainly because he experienced three years of natural disasters in his childhood, which brought despairing hunger and poverty to Ren Zhengfei's family. Ren Zhengfei founded Huawei, becoming a global telecom giant, but he is still the same Ren Zhengfei who endured hardships with his parents back then. In the early days of Huawei's establishment, he wore wrinkled clothes every day and slept on the floor with his subordinates. After Huawei's rise, he occasionally appeared in the public eye, simple and unpretentious, looking like a humble old farmer. Investing is like running a business, where the operator must not only be proficient in cost control and profit management but also understand market trends and industry connections. Making money or losing money is just the final result. The better prepared you are, the greater your chances of success. No matter what investment you make, some will profit and some will lose. Which type of person you become depends on what you do and how much you put in. One or two failures or losses are not important. What matters is accumulating skills and experience. Only through experience will you possess them. Continuously summarize and progress, success will naturally belong to you. By/Teacher Yiye Investment Guide: YYLj666888</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>预测是中国的传统文化，已经流传几千年，虽然文革时期中国禁止算命，把算命看风水当成封建迷信（仅限中国大陆），但还是长盛不衰，为什么呢？存在就是合理，既然存在就有它的道理。 一是地球人还有许多不可知的东西，有很多目前科学无法解释的东西，比如灵异现象，比如人的命运等，目前无法用科学证实的东西，也不要一概否定，有待“未来科学”证实；二是遗传基因产生遗传信息，出生的时空确实蕴藏诸多信息，比如由人出生的时空（年月日时）产生的四柱（民间叫八字），没有调查研究就没有发言权，“要知道梨子的味道就亲自尝一尝”，不深入研究八字的人是很难知道的；三是命运坎坷的人不少，他们对未来充满恐惧和未知，所谓：官问刑，富问灾，百姓问发财，就是真实的写照。 那么预测出来的灾都能化解吗？不是，有的可以化解，有的不可以。 干坏事的，不可化解所谓：道高一尺，魔高一丈。如果看到有灾，已经有一只脚迈向地狱的门口，但还不收手，还在继续迈向深渊，比如违法乱纪的事情，贩毒走私，贪腐等，不管多大法力的大师，都是不行的，比如当今倒台的大贪官，他们也请大师（都是有名的风水大师）调了风水，为什么还是倒台了呢？（常常有人问我这样的问题），不是那些风水大师不行，是那些贪官“自作劣不可活”。 违背命运的，不可化解一看八字就是小康的命，再怎么调，也成不了富豪，如果真的可以，那就没有穷人了；一看婚姻就不是一对人，非要求化解，要绑在一起，“捆绑不成夫妻”；一看就是寿元将尽的命，硬要求延寿，也是不可化解的，如果可以，诸葛亮点“四十九盏灯”也延寿了，就不会死在五丈原了。一边在化解一边又在消福，最终也不可化解比如有的看到有灾，给出了一系列化解办法，但继续豪赌嫖娼，或与克夫明显的女人鬼混（八字主要是食伤旺的），如果你不懂八字，一般有些职业的人（食伤旺）就是克夫的，如演艺业、娱乐行业的交际花、女律师等。 不能化解的还有许多，不胜枚举。而那些可能化解（但也不是百分之百）的。看到命运可能发生的事情，提前预防。比如五行化解（配卦、生肖、数字、颜色等）、风水化解，行善积德（放生，捐款，做好事不留名等），出世解（比如婚姻不好的找八字合的、婚姻出过问题的等）。 看到命运容易犯牢狱之灾的，嘱咐遵纪守法，不要采法律边线，年轻人可以送到部队，到不了部队的不要与社会闲杂人员混到一起。</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Prediction is a traditional Chinese culture that has been passed down for thousands of years. Although during the Cultural Revolution in China, fortune-telling was banned and considered feudal superstition, it has remained popular. Why is that? Existence is reasonable, and since it exists, it has its reasons. Firstly, there are many unknown things on Earth that humans cannot explain scientifically at present, such as supernatural phenomena and human destiny. Things that cannot be scientifically proven at present should not be completely denied and should await confirmation by "future science." Secondly, genetic genes produce genetic information, and the time and space of birth indeed contain a lot of information. For example, the Four Pillars (commonly known as the Eight Characters) generated by a person's time and space of birth (year, month, day, and hour). Without investigation and research, one has no right to speak. "To know the taste of a pear, you must taste it yourself." It is difficult for those who do not deeply study the Eight Characters to understand. Thirdly, there are many people with a rough fate who are full of fear and the unknown about the future. The saying goes: officials ask about punishment, the wealthy ask about disasters, and the common people ask about getting rich, which is a true reflection. Can all disasters predicted be resolved? No, some can be resolved, and some cannot. Those who do bad things cannot be resolved, as the saying goes: "Good deeds ascend, evil deeds descend." If one sees a disaster and has already taken a step towards the gates of hell but does not stop and continues towards the abyss, such as engaging in illegal and corrupt activities like drug trafficking and smuggling, no matter how powerful the master is, it will not work. For example, the corrupt officials who have fallen from power today also consulted famous Feng Shui masters, so why did they still fall? (Many people often ask me such questions). It is not that those Feng Shui masters are ineffective, but those corrupt officials are "digging their own graves." Those who go against their destiny cannot be resolved. For example, if one's fate is to be comfortable but not wealthy, no matter how much they adjust, they cannot become rich. If it were possible, there would be no poor people. If a marriage is not meant to be, forcing a resolution will not make them a couple. If one's lifespan is coming to an end, forcing an extension is also unresolvable. If it were possible, Zhuge Liang would have extended his life by lighting "forty-nine lamps" and would not have died at Wuzhangyuan. While resolving one issue, one may also be diminishing their blessings, which ultimately cannot be resolved. For example, some may see a disaster and be given a series of solutions to resolve it, but they continue to gamble recklessly or engage in activities like prostitution or have obvious affairs with women (especially those with a strong Food and Injury element in their Eight Characters). If you do not understand the Eight Characters, certain professionals (with a strong Food and Injury element) are naturally inclined to harm their spouses, such as those in the entertainment industry, socialites, and female lawyers. There are many unresolvable issues, and those that may be resolved (but not guaranteed). When one sees potential events in their destiny, it is advisable to take preventive measures. For example, resolving through the Five Elements (matching hexagrams, zodiac signs, numbers, colors, etc.), Feng Shui solutions, accumulating merits through good deeds (releasing animals, donations, anonymous acts of kindness, etc.), and seeking solutions outside of conventional methods (such as seeking compatibility based on Eight Characters for troubled marriages). When one sees that their destiny may lead to imprisonment, they should be reminded to abide by the law, avoid skirting legal boundaries, and young people can be sent to the military. Those who cannot join the military should avoid associating with idle and miscellaneous individuals in society.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>甘肃西瑞交易中心商品开户-简介，西瑞大宗商品开户李经理西瑞大宗开户顾问李经理能帮您解决的问题，西瑞大宗大宗商品都需要什么资料，西瑞大宗手续费是怎么收取的，点差是多少？光明贵金属帮您解决问题甘肃西瑞交易中心商品简介：甘肃西瑞大宗商品贸易有限公司(以下简称“西瑞大宗”)是响应甘肃省委，省政府大力实施的电子商务重点发展项目，西瑞是通过政府招商。公司注册资金人民币一亿元，办公面积近5000平米。甘肃西瑞大宗已与中国建设银行，中国农业银行，中国工商银行，招商银行等全国多家银行建立了良好，深度，坚实的合作。西瑞大宗：可以交易燃料烃、银、铜等大宗商品，通过光明贵金属开户最高可返还420元/手，原成本9个点，现6.3个点回本.政府批文：甘肃省人民政府 手机软件： 苹果、安卓 点差：无点差 注册资金：1亿一、西瑞大宗商品交易所强大的平台优势☆甘肃省人民政府批准，甘肃省人民政府金融服务办公室批准☆在甘肃省工商行政管理局注册登记的全国性大宗商品贸易平台二、西瑞大宗交易所物流的优势☆通过规范，系统，安全的交易体系，为生产企业，不同需求的贸易，工农业生产与消费商品供需双方提供交易，结算，交收，仓储，物流，融资，技术培训等全方位，全程式的专业服务、全力打造行业内的品牌标杆。 三、西瑞大宗促进地区发展☆西瑞拥有一批实力雄厚的现货供应商，经验丰富的运营团队，国际领先的现代化电子交易软件，立足现货交易，交易品种涵盖大宗商品，石油化工，有色金属，农产品等多元化的现货领域。☆以电子商务为切入点，努力打造B2B，B2C，C2C等电子商务综合贸易服务网络的新型商业模式。西瑞大宗授权光明贵金属开户流程：身份证正反面电子版，请务必保持图片清晰在线提交申请返佣（您也可以直接联系在线咨询师） = 开户专员协助开户 =收到返点佣金为什么选择在光明贵金属开户投资现货？(1)快! 极速周返，数百万佣金从未拖欠，返佣及时、足额、透明;(2)高! 返手续费高达99%，要你好赚;(3)稳! 众多国家级、省级批文平台，9大银行24小时监管西瑞大宗10.27日财经早间解盘一、本公司提供的分析仅供参考，操作有风险，请根据自己的风险承受能力决定是否 操作。责任自负，盈亏自担，请务必谨慎。</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Gansu Xirui Trading Center Commodity Account Opening - Introduction, Xirui Bulk Commodity Account Opening Manager Li and Xirui Bulk Account Opening Consultant Li can help you solve problems. What documents are needed for Xirui Bulk Commodity Account Opening, how is the handling fee charged for Xirui Bulk Commodity, and what is the spread? Guangming Precious Metals can help you solve problems. Gansu Xirui Trading Center Commodity Introduction: Gansu Xirui Bulk Commodity Trading Co., Ltd. (hereinafter referred to as "Xirui Bulk") is a key e-commerce development project vigorously implemented by the Gansu Provincial Party Committee and Provincial Government. Xirui was introduced through government investment. The registered capital of the company is one hundred million yuan, with an office area of nearly 5000 square meters. Gansu Xirui Bulk has established good, deep, and solid cooperation with many national banks such as China Construction Bank, Agricultural Bank of China, Industrial and Commercial Bank of China, and China Merchants Bank. Xirui Bulk: can trade bulk commodities such as fuel, silver, and copper. Through Guangming Precious Metals account opening, you can receive a maximum rebate of 420 yuan per lot, with an original cost of 9 points, now 6.3 points to break even. Government approval: Gansu Provincial People's Government. Mobile software: Apple, Android. Spread: No spread. Registered capital: 100 million yuan. Xirui Bulk Commodity Exchange's strong platform advantages: ☆ Approved by the Gansu Provincial People's Government and the Financial Services Office of the Gansu Provincial People's Government ☆ A national bulk commodity trading platform registered with the Gansu Provincial Administration for Industry and Commerce. Xirui Bulk Exchange Logistics Advantages: ☆ Through standardized, systematic, and secure trading systems, it provides comprehensive and professional services such as trading, settlement, delivery, warehousing, logistics, financing, and technical training for production enterprises and the trading needs of different sectors, as well as the supply and demand sides of agricultural and industrial production and consumer goods, aiming to create a benchmark brand in the industry. Xirui Bulk promotes regional development: ☆ Xirui has a group of strong spot suppliers, experienced operation teams, and internationally leading modern electronic trading software, focusing on spot trading with diversified products covering bulk commodities, petrochemicals, non-ferrous metals, agricultural products, and other fields. ☆ Taking e-commerce as the entry point, it strives to create a new business model of comprehensive e-commerce trade service networks such as B2B, B2C, C2C. Xirui Bulk authorizes Guangming Precious Metals account opening process: Submit electronic versions of both sides of your ID card, ensuring that the images are clear. Submit the application for rebate online (you can also directly contact the online consultant) = Account opening specialist assists in account opening = Receive rebate commission. Why choose to invest in spot trading through Guangming Precious Metals account opening? (1) Fast! Extremely fast weekly rebates, millions of commissions have never been delayed, rebates are timely, full, and transparent; (2) High! Rebates up to 99%, making it easy for you to earn; (3) Stable! Numerous national and provincial-level approved platforms, 9 major banks under 24-hour supervision. Gansu Xirui Bulk Financial Morning Analysis on October 27: The analysis provided by our company is for reference only, trading involves risks, please decide whether to trade based on your risk tolerance. You are responsible for your decisions, please be cautious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>营改增是当前财税体制改革的重头戏。截至7月19日，全面营改增已运行80天，那么，给生活服务、金融业、建筑、房地产四大行业的企业带来怎样的减税红利？今年5月1日开始的全面推开营改增试点，涉及建筑业、房地产业、金融业和生活服务业等四大行业的1100万户纳税人，比前期试点的590多万户增加近一倍。预计今年营改增将减轻企业税负5000多亿元。而此次营改增试点中，生活服务业数量最多。“我们店每月营业额大概是5万元，营改增前需缴纳营业税2500元，但现在实行营改增后只需缴1400多元，每个月大概减税1000多元。”在河北燕郊开了一家特色小吃店的李先生对《证券日报》记者说。在此次全面营改增中，像李先生一样的小规模纳税人减税明显。“营改增”在全面推开两个月之后，营业税和增值税的收入出现此消彼长的情况。财政部数据显示，1月份-6月份，国内增值税16919亿元，同比增长8.7%。其中，6月份增长20.9%，比1月份-5月份累计增幅(5.8%)提高较多。与增值税增幅较大不同的是，营业税从6月开始出现了大幅下滑的情况。1月份-6月份营业税收入为11273亿元，同比增长15.6%。其中，6月份下降86%，对比5月份营业税同比增长78%的情况，6月份营业税清缴逐渐接近尾声。对此，财政部相关负责人表示，营业税出现大幅下滑，主要是原营业税纳税人已改缴增值税。当月有少量营业税入库，主要是全面推开营改增试点前的一些在途款项。值得注意的是，为确保各行业的税负只降不增，税务部门在整个营改增中不断微调政策，多次出台有针对性的实施细则，确保一些特殊行业也能税负降低。财政部、国家税务总局日前发布的《关于金融机构同业往来等增值税政策的补充通知》，明确指出要扩大金融同业利息收入免征增值税的范围。普华永道中国内地及香港间接税主管合伙人胡根荣对《证券日报》记者表示，该文件的发布使得银行业纳税人可以在首个申报期内享受同业范围的涉税优惠。胡根荣表示，买断式买入返售金融产品免税和免税债券范围的扩大，是此次补充政策带给金融行业较为显著的利好。这将有利于减少资金市场和债券市场受营改增的冲击，增加了稳定性，降低机构融资成本，也有利于完成税改后的行业税负只减不增的政策目标。随着通知的落实执行，对于同业业务和金融债占比较高的银行来说，税负压力的缓解也较为明显。</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>The transformation from business tax to value-added tax (VAT) is the highlight of the current fiscal and tax system reform. As of July 19th, the comprehensive implementation of VAT has been in operation for 80 days. So, what kind of tax reduction benefits has it brought to enterprises in the four major industries of lifestyle services, finance, construction, and real estate? The comprehensive expansion of the VAT pilot program, which started on May 1st this year, involves 11 million taxpayers in the four major industries of construction, real estate, finance, and lifestyle services, nearly doubling the previous pilot program's 5.9 million taxpayers. It is estimated that VAT reform this year will reduce the tax burden on enterprises by over 500 billion yuan. Among the VAT pilot program, the lifestyle services industry has the largest number of participants. "Our shop has a monthly turnover of about 50,000 yuan. Before the VAT reform, we had to pay 2,500 yuan in business tax, but now with the implementation of VAT, we only need to pay a little over 1,400 yuan, reducing our monthly tax by over 1,000 yuan," said Mr. Li, who runs a specialty snack shop in Yanjiao, Hebei, to a reporter from Securities Daily. In this comprehensive VAT reform, small-scale taxpayers like Mr. Li have seen significant tax reductions. Two months after the full implementation of the VAT reform, there has been a situation of VAT revenue increasing while business tax revenue decreasing. According to data from the Ministry of Finance, from January to June, domestic VAT revenue reached 1.6919 trillion yuan, an 8.7% year-on-year increase. In June alone, there was a 20.9% growth, significantly higher than the cumulative growth rate from January to May (5.8%). In contrast, business tax revenue has seen a sharp decline starting from June. From January to June, business tax revenue was 1.1273 trillion yuan, a 15.6% year-on-year increase. However, in June, it dropped by 86%. Compared to the 78% year-on-year growth in business tax revenue in May, the decline in June indicates the gradual completion of business tax clearance. The relevant person in charge of the Ministry of Finance explained that the significant drop in business tax revenue is mainly due to the fact that original business tax payers have switched to paying VAT. There was a small amount of business tax revenue collected in the month, mainly from some outstanding payments before the full implementation of the VAT reform. It is worth noting that to ensure that the tax burden in each industry only decreases and does not increase, the tax authorities have continuously adjusted policies throughout the VAT reform, issuing targeted implementation rules multiple times to ensure that even special industries can also have their tax burden reduced. The Ministry of Finance and the State Administration of Taxation recently issued a supplementary notice on VAT policies related to financial institutions' interbank transactions, expanding the scope of VAT exemption for interest income from financial transactions. Hu Genrong, the mainland China and Hong Kong Indirect Tax Leader at PwC, told Securities Daily that the release of this document allows banking taxpayers to enjoy tax benefits within the interbank scope in the first reporting period. Hu Genrong stated that the expansion of the scope of tax exemptions for buy-back financial products and tax-exempt bonds is a significant advantage brought by this supplementary policy to the financial industry. This will help reduce the impact of the VAT reform on the capital market and bond market, increase stability, lower institutional financing costs, and also contribute to achieving the policy goal of reducing the industry's tax burden after the tax reform. As the notice is implemented, for banks with a high proportion of interbank business and financial bonds, the relief of tax pressure is also more apparent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>喜欢吃油炸类小吃，又担心街边的不卫生，那就在家自己动手做吧！不仅吃着香，还放心！1、干炸丸子 食材：猪肉300克、杏鲍菇100克、花生油半锅、食盐1/2茶匙、葱1段、姜1块、淀粉1小碗、鸡蛋2个1、干菇冲洗干净，提前泡发，猪肉洗净，先切成小块，然后剁细；2、葱姜切细末，水发好的香菇攥干水分，剁成碎末，以上原料混合，添加鸡蛋、淀粉和料酒、盐、味精、生抽和香油搅拌均匀；3、把调好的肉馅挤成等大的肉丸子，起油锅，油七八成热的时候，下入丸子，中火炸制；4、待丸子变成金黄色，捞出控油装盘。2、炸鸡柳 食材：鸡柳200克、色拉油适量1、取适量冷冻鸡柳，空炸锅待用；2、选择炸温200℃，直接把冷冻鸡柳（不用提前解冻）放进空气炸锅炸篮内，设定炸制时间为15-20分钟（视鸡柳大小来调整炸制时间)；3、炸至10分钟时，拉出炸篮，鸡柳表面刷油或喷油一次，炸制时间结束，即可取出食用(刷油时不用关机，直接拉出炸篮操作）。3、水果春卷 食材：杂果罐头1罐、春卷皮2张、沙拉酱30克、植物油30克1、杂果罐头滤去果汁装碗备用，碗中倒入沙拉酱搅拌均匀；2、取一片春卷皮摊平，用勺子舀适量的果肉包成形，锅中倒入适量的植物油，下春卷炸至两面金黄即可；3、出锅沥干油后装盘，表面用沙拉酱做装饰即可。4、酥炸茄盒食材：茄子（紫皮，长）1根、猪肉馅100克、小麦面粉15克、鸡蛋1个、生粉20克、食盐1克、葱3克、姜3克、料酒10毫升、生抽20毫升、番茄酱15克、植物油250毫升、五香粉1克、水30毫升。1、肉末中加入腌肉调料，搅拌均匀，顺着一个方向搅拌至黏稠；2、面糊中的面粉、生粉和五香粉混合，敲入1个鸡蛋，搅拌均匀；3、根据面糊的情况，加入少许的水，搅拌至糊状；4、茄子洗净，切成1厘米左右的片，然后在茄片中间横刀切开，不要切断，在茄片中间塞入肉馅（不要塞太满，以免油炸过程漏出来）；5、将茄盒放在面糊里均匀的粘裹一圈；6、锅中倒入足量的食用油，烧至7成热，放入沾了面糊的茄盒，小火炸至表面金黄即可，将炸好的茄盒放在厨房纸巾上，吸去多余的油脂，可以根据个人喜好，蘸取番茄酱或其他酱料食用。</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>If you like to eat fried snacks but worry about the unhygienic conditions on the street, then why not make them at home yourself! Not only will they taste delicious, but you can also eat them with peace of mind! 1. Dry-fried meatballs Ingredients: 300g pork, 100g shiitake mushrooms, half pot of peanut oil, 1/2 teaspoon salt, 1 section of scallion, 1 piece of ginger, 1 small bowl of starch, 2 eggs 1. Rinse the dried mushrooms clean, soak them in advance, wash the pork, cut it into small pieces, then chop finely; 2. Finely chop the scallion and ginger, squeeze the water out of the soaked shiitake mushrooms, chop them into minced pieces, mix all the above ingredients, add eggs, starch, cooking wine, salt, monosodium glutamate, light soy sauce, and sesame oil, and stir well; 3. Squeeze the seasoned meat mixture into evenly sized meatballs, heat the oil in a wok, when the oil is 70-80% hot, add the meatballs and fry over medium heat; 4. When the meatballs turn golden brown, remove them, drain the oil, and plate them. 2. Fried chicken strips Ingredients: 200g chicken strips, some salad oil 1. Take some frozen chicken strips, set aside an empty frying pan; 2. Select a frying temperature of 200°C, directly place the frozen chicken strips (no need to thaw in advance) into the air fryer basket, set the frying time for 15-20 minutes (adjust the frying time according to the size of the chicken strips); 3. At 10 minutes of frying, pull out the frying basket, brush or spray oil on the surface of the chicken strips once, when the frying time is up, remove and serve (do not turn off the fryer when brushing oil, just pull out the frying basket and operate). 3. Fruit spring rolls Ingredients: 1 can of mixed fruits, 2 spring roll wrappers, 30g salad dressing, 30g vegetable oil 1. Drain the juice from the mixed fruit can into a bowl, pour in the salad dressing and mix well; 2. Flatten a piece of spring roll wrapper, scoop an appropriate amount of fruit filling and wrap it up, pour an appropriate amount of vegetable oil into a pan, fry the spring roll until golden brown on both sides; 3. Remove from the pan, drain excess oil, plate, and decorate the surface with salad dressing. 4. Crispy fried eggplant box Ingredients: 1 purple eggplant (long), 100g pork mince, 15g wheat flour, 1 egg, 20g cornstarch, 1g salt, 3g scallion, 3g ginger, 10ml cooking wine, 20ml light soy sauce, 15g tomato sauce, 250ml vegetable oil, 1g five-spice powder, 30ml water 1. Add marinating seasonings to the minced meat, mix well until sticky; 2. Mix the flour, cornstarch, and five-spice powder in the batter, beat in 1 egg, and mix well; 3. Add a little water to the batter as needed, stir until paste-like; 4. Wash the eggplant, cut into slices about 1 cm thick, then make a horizontal cut in the middle of each slice without cutting through, stuff the minced meat into the eggplant slices (do not overfill to avoid leakage during frying); 5. Evenly coat the eggplant boxes in the batter; 6. Pour a sufficient amount of cooking oil into a pan, heat to 70% hot, add the battered eggplant boxes, fry over low heat until golden brown on the surface, place the fried eggplant boxes on kitchen paper towels to absorb excess oil, and serve with tomato sauce or other sauces according to personal preference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>近日，12岁少年沉迷“快手直播”，半个月狂刷支付宝3万余元打赏主播。紧接着，急于追回钱的哥哥，又误把网络诈骗电话当成该直播服务热线，被骗走5000元。这两个孩子的父母，44岁的外来务工者赵国辉和妻子愁眉不展。省吃俭用攒下的5万余元存款，接连两次损失了近4万元。本文来源于石家庄新闻网 暑假看“快手直播” 半个月打赏3万余元“怕孩子暑假寂寞，就没限制他玩手机，没想到他一下子花了这么多钱！”一提起小儿子小赵打赏主播的3万余元存款，来自河南的44岁务工者赵国辉仍然很生气。闯了祸的小赵被家人批评后，一直沉默寡言，饭也吃得少了。赵国辉说，小赵6月28日放暑假后，被送回了河南老家。7月7日，赵国辉突然接到一条网购钱包的信息。他马上到银行核查，发现卡上50377元存款仅剩下15121元。想起小赵知道银行卡密码，他立刻打电话到河南老家。反复追问之下，小赵终于承认这些钱用来给网上“快手直播”的主播买虚拟礼物了。赵国辉马上取出余额并核查了对账单。对账单显示，6月21日至7月6日，小赵通过网络消费了3万余元。28日放暑假后消费突然增加，7月3日当天共充值25笔，费用超过5700元。此后一直持续到7月6日。消费共计三万余元。着急要回钱 大儿子又遭网络诈骗“我每天从早晨4点一直忙到晚上10点，就是为了供3个孩子上学。银行卡里是我的全部存款。”赵国辉说，他在我市一所技工学校餐厅租了一个窗口卖面条，以前从没用过智能手机。给小赵买智能手机是为了让他上网查学习资料。当初开通网银，也是方便给老家的儿女打学费，没想到却被小赵挥霍了。为了追回钱，读高三的大儿子上网查“快手”公司的电话，却不慎进入诈骗网站。他们按照诈骗人员的要求，重新办了一张工商银行卡，并存入1万元钱，等待对方退款。大儿子又按照诈骗者指挥，把短信上的付款验证码告诉了对方。导致卡内5000元存款被划走。存款连续损失，让赵国辉一家的经济陷入困境。他不得已跟姐姐们借了4万元钱，才交上了食堂摊位费和房租。赵国辉认为孩子还小，花钱时并没有意识到问题的严重性。赵国辉希望“快手”公司能理解他们的处境，退回一部分钱。律师：12岁孩子消费行为无效对于是否能要回打赏的三万余元，记者多次拨打“快手直播”的客服电话，一直无人接听。河北天捷律师事务所律师张少辉表示，12岁少年属于限制民事行为能力人。其所从事的法律行为，属于效力待定。需要父母追认才能发生效力。</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Recently, a 12-year-old boy became addicted to "Kuaishou live streaming" and spent over 30,000 yuan in half a month to reward the anchors. Following that, his older brother, eager to recover the money, mistook a scam phone call as the customer service hotline for the live streaming service and was scammed out of 5,000 yuan. The parents of these two children, 44-year-old migrant worker Zhao Guohui and his wife, are distressed. They had saved over 50,000 yuan through frugal living, but now have lost nearly 40,000 yuan in two consecutive incidents. The source of this article is Shijiazhuang News Network. During the summer vacation, watching "Kuaishou live streaming" for half a month, spending over 30,000 yuan in rewards, "Afraid that the child would feel lonely during the summer vacation, we didn't restrict his phone usage. We didn't expect him to spend so much money all at once!" When talking about their younger son Xiao Zhao spending over 30,000 yuan to reward the anchors, Zhao Guohui, a 44-year-old worker from Henan, is still very angry. After being criticized by his family for causing trouble, Xiao Zhao remained silent and ate less. Zhao Guohui said that after Xiao Zhao started his summer vacation on June 28, he was sent back to their hometown in Henan. On July 7, Zhao Guohui suddenly received a message about a wallet purchase online. He immediately went to the bank to check and found that the deposit on the card had dropped from 50,377 yuan to 15,121 yuan. Remembering that Xiao Zhao knew the bank card password, he immediately called their hometown in Henan. After repeated questioning, Xiao Zhao finally admitted that he had used the money to buy virtual gifts for the online "Kuaishou live streaming" anchors. Zhao Guohui immediately withdrew the remaining balance and checked the bank statement. The statement showed that from June 21 to July 6, Xiao Zhao spent over 30,000 yuan through online consumption. The spending suddenly increased after the summer vacation started on the 28th, with a total of 25 recharges on July 3, totaling over 5,700 yuan. This continued until July 6, with a total spending of over 30,000 yuan. Desperate to recover the money, the older son fell victim to an online scam. "I work from 4 a.m. to 10 p.m. every day just to support my three children's education. The money in the bank is all my savings," Zhao Guohui said. He rented a noodle stall at a technical school in our city and had never used a smartphone before. He bought a smartphone for Xiao Zhao to access study materials online. Opening online banking was also to make it easier to pay tuition fees for their children back home, but it was unexpectedly squandered by Xiao Zhao. In order to recover the money, the older son in his third year of high school searched for the customer service number of "Kuaishou" online, but inadvertently entered a scam website. Following the instructions of the scammers, they applied for a new Industrial and Commercial Bank card and deposited 10,000 yuan, waiting for a refund. The older son also followed the scammer's instructions and told them the payment verification code from the text message. This resulted in 5,000 yuan being withdrawn from the card. With continuous losses in savings, Zhao Guohui's family's finances have fallen into difficulty. He had to borrow 40,000 yuan from his sisters just to pay the canteen stall fee and rent. Zhao Guohui believes that the children are still young and did not realize the seriousness of their spending. He hopes that the "Kuaishou" company can understand their situation and refund some of the money. Lawyer: Spending behavior of a 12-year-old child is invalid Regarding whether they can recover the over 30,000 yuan spent on rewards, the reporter tried calling the customer service number for "Kuaishou live streaming" multiple times, but no one answered. Zhang Shaohui, a lawyer from Hebei Tianjie Law Firm, stated that a 12-year-old child is considered a person with limited capacity for civil conduct. The legal actions they engage in are considered pending in terms of effectiveness. It requires parental recognition to take effect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>中国甘肃网7月26日讯据兰州日报报道(首席记者杨晟途通讯员孟庆丽)首批43名新闻记者挂职城关区33单位“一把手”助理活动随着昨天举行的总结会圆满结束，在表彰这批挂职记者的同时，第二批48名新闻记者继续接棒，继续深入基层挖掘采访典型亮点。在首批新闻记者驻城关挂职活动总结大会暨第二批启动仪式上，城关区委副书记、区长张永财介绍说，在过去的三个月内，43名挂职记者分赴33个单位担任“一把手”助理，充分履行宣传落实政策、传播塑造典型、发挥专业优势和体验基层工作的挂职职责，挂职记者共采写刊发新闻稿件400余篇，帮助基层解决实际问题11件，提出意见建议53条，把视角投到城关经济社会发展、民生改善等各个方面。这些全方位多角度的宣传报道，不仅为城关经济社会又好又快发展提供了有力的舆论支持，也让城关城市形象不断提升并得到各界的好评和认可。走进基层，深入基层，体验基层，才能写出有真情实感的报道，才能真正发挥媒体的引导作用，才能解民忧办实事，这也是城关区开展记者挂职基层活动的目的。市委宣传部副部长、兰州日报社社长杨增宽在会上表示，城关区开展记者挂职街道部门“一把手”助理的活动不仅引起了省市级部门的关注，更引起了全国的关注。据悉，未来三个月，第二批新闻媒体记者赴基层挂职锻炼活动中，兰州日报、兰州晚报、兰州晨报、西部商报、兰州市广电总台等5家媒体还将选派48名记者继续赴城关区26个部门和22家街道挂职锻炼，其中不乏第一批活动中表现优异的留任记者。</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>According to the Lanzhou Daily report on July 26th, the first group of 43 journalists were dispatched to serve as assistants to the heads of 33 units in Chengguan District. The activity concluded successfully with a summary meeting held yesterday. While commending this group of journalists, the second group of 48 journalists will continue to take over and further explore and report on typical highlights at the grassroots level. At the summary meeting of the first group of journalists stationed in Chengguan District and the launch ceremony of the second group, Zhang Yongcai, Deputy Secretary of the District Committee and District Mayor, introduced that in the past three months, the 43 dispatched journalists were assigned as assistants to the heads of 33 units, fully fulfilling their responsibilities of implementing policies, disseminating and shaping typical cases, leveraging their professional advantages, and experiencing grassroots work. The dispatched journalists collectively wrote and published over 400 news articles, helped solve 11 practical problems at the grassroots level, put forward 53 suggestions, and focused on various aspects of Chengguan's economic and social development and improvement of people's livelihood. These comprehensive and multi-perspective reports not only provided strong public opinion support for the rapid and good development of Chengguan's economy and society but also continuously enhanced the city's image, receiving praise and recognition from all sectors of society. Only by entering the grassroots, delving into the grassroots, experiencing the grassroots, can one write reports with true feelings, truly play the guiding role of the media, and address people's concerns and handle practical matters. This is also the purpose of Chengguan District's journalist dispatch activity. Yang Zengkuan, Deputy Minister of the Municipal Party Committee's Propaganda Department and President of Lanzhou Daily, stated at the meeting that the journalist dispatch activity of Chengguan District to assist the heads of street departments has not only attracted the attention of provincial and municipal departments but also national attention. It is reported that in the next three months, during the second batch of journalists' grassroots training activities, Lanzhou Daily, Lanzhou Evening News, Lanzhou Morning News, Western Business Daily, Lanzhou Radio and Television Station, and other five media outlets will select and dispatch 48 journalists to continue their training in 26 departments and 22 streets in Chengguan District, including outstanding journalists from the first batch of activities who will be retained.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 永葆青春是所有女人的追求，不过想要青春一直在，就要用心地保养啦。保养，保养...MM一听到这个词就想到那繁杂的护肤过程，还有化妆台上的瓶瓶罐罐。其实抗衰老也没那么难，只要掌握其中的护肤秘诀，就能事半功倍。下面小编整理的7个TIPS可以助大家轻松抗衰老哦。1、面膜双面使用效果加倍平时，我们敷面膜都是使用一面，其实面膜可以双面使用，这个双面是指当一面即将敷完时，在另一面涂满乳液或精华，之后将面膜翻转过来贴于肌肤。注意的是如果一开始敷的是美白或抗老面膜，另一面就涂上保湿产品。总之，护肤顺序是美白→抗老→保湿。2、用正确的手法涂抹护肤品涂抹护肤品时，以手指轻轻叩击肌肤，不仅能够促进产品的吸收，还能使肌肤充满生机活力，适当的压力可以保持好的血液循环，使产品更有效地被肌肤吸收。3、保湿面霜能改善初老肌肤无论涂抹了什么，最后一步都可涂上质地丰润的保湿霜，有点像晚安面膜的用法，但是不像睡眠面膜那么黏腻，它既能锁住之前护肤的水分和营养，又能防止夜间肌肤水分流失，对于改善初老症时的皮肤干燥效果特别好。 4、卸妆和护肤一并做也可以很多人都知道晚间不卸妆很可能一夜之间就毁掉了一个星期的脸部保养功课，人也老得特别快。不过人总有懒惰的时刻，这时候可以卸妆和护肤一并做。用质地丰润的乳液或者面霜在脸上打圈按摩，之后用棉片擦去，之后再用蘸满了化妆水的棉片擦拭一遍脸。注意这只在淡妆的前提下才适用。5、用高机能的化妆水代替洗脸有的MM认为早晨不用洗脸，其实这真可以。因为早晨的脸不脏，不过上面会有一些晚间保养品的氧化残留，这时候用质地比较黏稠的高机能的化妆水擦拭全脸，既完成了清洁工作，之后又可以直接上精华液了，而且对于敏感肌肤，省去一遍清洁，反而有助于角质层的修复。6、善于利用身边的小工具来抗老各种抗衰老的小工具其实可以轻松地从身边就要找得到，如用完的铝制喷雾瓶，它可是按摩小腿、按摩腰部的最佳工具，轻盈圆润触感舒服。还可以放在冰箱里，涂完身体产品后拿出来用，喷雾头还可以进行穴位按压，简直就是一等一的按摩佳品。7、防晒是抗衰老的必要功课防晒是抗衰老最有用的办法。如果不防晒，所有护肤功课都白搭。就算是下雨天，也要使用防晒值大于SPF25的防晒品，PA指数也是挑选防晒产品时必须考虑的。不过，敏感性皮肤，还是选择物理性防晒为好，因为许多化学防晒剂会有诱发过敏的可能。</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Maintaining youthfulness is the pursuit of all women, but if you want to keep youthfulness, you need to take care of it carefully. Skincare, skincare... When girls hear this word, they think of the complicated skincare process and the bottles and jars on the dressing table. In fact, anti-aging is not that difficult, as long as you grasp the skincare secrets, you can achieve twice the result with half the effort. Below are 7 TIPS compiled by the editor to help everyone easily fight aging. 1. Double the effect of using both sides of the mask Usually, we only use one side when applying a mask. In fact, the mask can be used on both sides. This means that when one side is about to be used up, apply lotion or essence to the other side, then flip the mask over and apply it to the skin. Note that if you start with a whitening or anti-aging mask, apply a moisturizing product on the other side. In short, the skincare sequence is whitening → anti-aging → moisturizing. 2. Use the correct technique to apply skincare products When applying skincare products, gently tap the skin with your fingers. This not only promotes the absorption of the product but also makes the skin full of vitality. The right pressure can maintain good blood circulation and help the product be more effectively absorbed by the skin. 3. Moisturizing face cream can improve early aging skin No matter what you apply, the final step is to apply a rich moisturizing cream, similar to the use of a night mask, but not as sticky as a sleeping mask. It can lock in the moisture and nutrients from previous skincare steps, prevent nighttime moisture loss, and is particularly effective in improving dryness in early aging skin. 4. Removing makeup and skincare together can be done Many people know that not removing makeup at night can ruin a week's worth of facial care overnight and accelerate aging. However, there are times when people are lazy. At these times, you can remove makeup and do skincare together. Use a rich lotion or cream to massage the face in circular motions, then wipe it off with a cotton pad soaked in makeup remover, followed by wiping the face with a cotton pad soaked in toner. Note that this method is only suitable for light makeup. 5. Use high-functioning toner instead of washing the face Some girls believe that they don't need to wash their face in the morning, which is true. Because the face is not dirty in the morning, but there may be some residue from the nighttime skincare products. At this time, use a thick-textured, high-functioning toner to wipe the entire face. This not only cleanses the skin but also allows you to apply essence directly afterward. For sensitive skin, skipping a cleansing step can actually help repair the skin barrier. 6. Make good use of small tools around you to fight aging Various anti-aging tools can easily be found around you, such as an empty aluminum spray bottle, which is the best tool for massaging the legs and waist, with a light and comfortable touch. You can also put it in the refrigerator, take it out after applying body products, and use the spray head for acupressure, making it an excellent massage tool. 7. Sunscreen is a necessary task for anti-aging Sunscreen is the most effective way to fight aging. Without sunscreen, all skincare efforts are in vain. Even on rainy days, you should use sunscreen with an SPF value greater than 25, and the PA index should also be considered when selecting sunscreen products. However, for sensitive skin, it is better to choose physical sunscreens, as many chemical sunscreens may trigger allergies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>宏观策略【东北策略陈亚龙/陈殷】策略日报：环保制度抓紧四季度落地；欧央行议息决议按兵不动但宽松方向不变。1.指数在年线附近徘徊，但存量资金对成交继续扩张的支撑仍在。昨日A股震荡最终再次收平，上证综指在临近年线附近已徘徊两日，与前一交易日不同的是，昨日中小创等其他指数表现为上涨。板块中电子、计算机昨日涨幅居前，军工、医药涨幅落后。当前深成指、沪深300、上证50等指数已经在年线上方，而上证综指、中小板、创业板指数还在年线下方，未来几个交易日中小创指数的走势从指数相互印证的角度将提供观察。上证综指在8月中旬和9月上旬也曾触及年线，8月中旬时已到达当时存量资金支持的成交规模上限，而9月上旬受到美国股市大跌的冲击。全市场成交额昨日略微收缩至少4750亿元，但仍大致稳定在节后以来的成交平台区，按照1.4万亿的证券结算金余额规模估算，成交规模具备进一步上升的空间。而国际市场目前尚看不到再次触发类似9月上旬美股大跌的因素。2. 碳排放权交易制度上报国务院，年内政策措施抓紧在四季度落地，国企改革和环保是重点。四季度是年内政策出台的最后时间窗口，各部委年内已有工作安排的政策需要赶在四季度完成落地，从年初的部委年度工作会议、近期中央深改组审批通过情况，以及全年改革工作重点安排来看，国企改革和环保制度是四季度政策措施推进确定性较大的两个方向。媒体报道全国碳排放权交易配额分配方案已上报国务院，预计年底前获批，此外国务院今日将派出督查组入驻20个省市落实环境执法工作，北方地区进入供暖季后雾霾天气频率增多，这些因素有望推动环保板块成为近期市场热点。在环保制度这一年底政策落地方向已经得到验证之后，国企改革在年底的推进也有望继续，央企改革中的兼并重组新方向和已获得试点资格央企的资源整合有望继续，此外广深地区的地方国企改革是地方国企改革线索上我们推进关注的方向。3. 欧央行宽松政策步伐可以更从容但方向难改变。欧央行昨日议息会议决议继续保持三大汇率不动，欧洲经济数据近期并未持续恶化，英国脱欧公投后也未出现风险恶化的迹象，这使得欧央行的政策步伐可以更加从容，但方向仍然难以改变。欧洲经济的复苏仍然明显落后于美国，并且英国脱欧如果进入实际操作阶段负面影响有望体现，相比于中美日等其他主要经济体，欧元区的财政发力在政策协调上难度更大，导致欧央行相比于其他主要央行需要承担更多的增长责任。</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Macro Strategy [Northeast Strategy Chen Yalong/Chen Yin] Strategy Daily: Environmental protection system to be implemented in the fourth quarter; ECB interest rate decision remains unchanged but the easing direction remains. 1. The index is hovering near the annual line, but the support from incremental funds for trading volume expansion continues. Yesterday, A-shares fluctuated and eventually closed flat again. The Shanghai Composite Index has been hovering near the annual line for two days, with the difference from the previous trading day being that yesterday other indices such as small and medium-sized enterprises showed an upward trend. In terms of sectors, electronics and computers led the gains yesterday, while defense industry and pharmaceuticals lagged behind. Currently, the Shenzhen Component Index, CSI 300, and SSE 50 are above the annual line, while the Shanghai Composite Index, SME Board, and ChiNext Index are still below the annual line. The trend of small and medium-sized enterprises in the next few trading days will provide observations from the perspective of mutual confirmation of indices. The Shanghai Composite Index also touched the annual line in mid-August and early September. In mid-August, it had reached the upper limit of trading volume supported by incremental funds at that time, while in early September, it was impacted by the sharp drop in the U.S. stock market. The total market turnover slightly shrank to at least 475 billion yuan yesterday, but it still roughly stabilized in the post-holiday trading platform. Based on the estimated scale of 1.4 trillion yuan in securities settlement balance, there is room for further increase in trading volume. Currently, there are no factors in the international market that could trigger a sharp drop in the U.S. stock market similar to early September. 2. The carbon emission trading system has been submitted to the State Council, and policy measures will be accelerated to be implemented in the fourth quarter, with state-owned enterprise reform and environmental protection as key focuses. The fourth quarter is the last time window for policy issuance within the year. Various ministries and commissions have arranged work plans for the year and need to complete the implementation in the fourth quarter. From the annual work conferences of ministries and commissions at the beginning of the year, recent approvals by the Central Committee for Comprehensive Deepening of Reforms, and the key arrangements for reform work throughout the year, state-owned enterprise reform and environmental protection system are the two directions with greater certainty for policy measures advancement in the fourth quarter. Media reports that the national carbon emission trading quota allocation plan has been submitted to the State Council and is expected to be approved by the end of the year. In addition, the State Council will dispatch inspection teams to 20 provinces and cities today to implement environmental law enforcement. With the increase in frequency of haze weather after the start of the heating season in northern regions, these factors are expected to drive the environmental protection sector to become a recent market hotspot. After the validation of the year-end policy implementation direction of the environmental protection system, the advancement of state-owned enterprise reform is also expected to continue at the end of the year. The new direction of mergers and reorganizations in central enterprise reform and the resource integration of central enterprises that have obtained pilot qualifications are expected to continue. In addition, the reform of local state-owned enterprises in the Guangdong-Hong Kong-Macao Greater Bay Area is a direction we will continue to focus on. 3. The ECB's easing pace can be more relaxed, but the direction is difficult to change. The ECB's interest rate meeting yesterday decided to keep the three major interest rates unchanged. The recent economic data in Europe has not continued to deteriorate, and there is no sign of worsening risks after the Brexit referendum in the UK. This allows the ECB's policy pace to be more relaxed, but the direction is still difficult to change. The economic recovery in Europe still lags significantly behind that of the United States, and if the Brexit in the UK enters the actual operational stage, the negative impact is expected to show. Compared to other major economies such as China, the U.S., and Japan, the difficulty of fiscal efforts in the Eurozone is greater in terms of policy coordination, leading the ECB to bear more growth responsibilities compared to other major central banks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 警方人员站在当地一口水井前原标题：美小镇自来水检测闹乌龙误称其中有大麻成分【环球网综合报道】据英国《每日邮报》7月24日报道，美国科罗拉多州一小镇近日闹水污染恐慌，据称当地饮用水中含有大麻成分。但后来被证明是虚惊一场。科罗拉多州的雨果是个仅有730名居民的小镇。据报道，工程人员在小镇的自来水中检测到一种化学物质。官员认为化学物质可能与大麻中的THC有关，社区水井有被污染的风险。美国联邦调查局和科罗拉多调查局后来也介入调查。THC是大麻中能够改变精神状态的成分。当局有关部门警告居民，至少48小时内不能饮用自来水，或是使用自来水做饭。民众也被分发了瓶装水度难关。然而，之后的多次测试均未发现水中有化学物质的踪迹，警报随后很快在7月23日解除。当局认为，最初的报告结果有误，并且已联系检测工具制造商，试图查明结果出错的原因。据报道，目前尚未有人因水质问题生病。美国一大麻检测所负责人彼得?佩龙表示，不可能在水中找到浓的THC，因为大麻素不溶于水。</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Police officers stand in front of a local well. Original title: American small town water testing mix-up mistakenly claims presence of marijuana components. According to a report from the British Daily Mail on July 24, a small town in Colorado, USA recently caused panic over water contamination, claiming that the local drinking water contained marijuana components. However, it was later proven to be a false alarm. Hugo, Colorado, in Colorado has only 730 residents. It was reported that engineers detected a chemical substance in the town's tap water. Officials believed that the chemical substance might be related to THC in marijuana, posing a risk of contamination to the community well. The FBI and the Colorado Bureau of Investigation later got involved in the investigation. THC is the component in marijuana that can alter mental states. Authorities warned residents not to drink tap water or use it for cooking for at least 48 hours. Bottled water was distributed to the public. However, subsequent tests did not find any traces of chemical substances in the water, and the alert was lifted on July 23. Authorities believed that the initial test results were incorrect and have contacted the manufacturer of the testing equipment to determine the cause of the error. According to reports, no one has fallen ill due to water quality issues. Peter Perron, head of a marijuana testing facility in the United States, stated that it is impossible to find high levels of THC in water because marijuana components are not soluble in water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>泛娱乐涵盖的范围非常广泛，其中文学、动漫、影视、音乐、游戏、衍生品等都可以纳入泛娱乐的范畴。 其实最早提出“泛娱乐”的概念互联网巨头，是盛大集团，当年的网络迪士尼计划是何等的宏大，虽然陈天桥没有最终实现自己的娱乐帝国梦想，但是给中国的互联网行业带来莫大的启发，后来腾讯、网易、阿里各大互联网集团巨头们都布局泛娱乐，时至今日已然成为互联网发展必然趋势之一。 【交锋】巨头们布局泛娱乐平台，不断强大IP获取能力【阿里】拥有阿里音乐、阿里文学、阿里影业、阿里游戏，中国最大的视频平台优酷土豆，现在叫合一网络，投资二次元平台A站，逐步完善泛娱乐产品布局。【百度】依托搜索入口，拥有流量巨大的爱奇艺，pps视频播放平台，与太和音乐合并的百度音乐，暗暗发力的百度电影事业部、百度文学、百度移动游戏等也是多点开花，全面布局。【腾讯】其实是盛大淡出后最积极的布局者，他合并了占市场份额80%的盛大文学成立了阅文集团，成立了腾讯影业和企鹅影业，成立动漫原创平台并与迪斯尼合作创新，以及旗下的QQ音乐， 已经在文学，影业，动漫，音乐全面布局，全产业资源打造核心甚至明星IP，当然，作为中国最大用户积累的互联网平台，腾讯游戏拥有由明星IP到变现的强大能力，这个从每年的财报中也不难看出。传统的影视公司，比如华谊兄弟，光线传媒也都在积极拓展业务线，向真正泛娱乐集团拓展。【机会】小而美的泛娱乐，可能更适合你游戏，作为泛娱乐产业体系中重要的环节，不管传统影视集团还是互联网集团都非常看中这块业务。尤其是这些年发展迅猛的手机游戏，它良好的IP变现能力成为泛娱乐战略中备受关注的热点。有人说大公司布局好多年，已经形成“套路”了，那些小公司还有的玩吗？诚然，小公司没有资本和资源像互联网巨头一样高举高打，但是中国快速成长的手游市场和巨大的手游用户群体，还是留有足够的空间给中小游戏公司存活，那怎么存活？甚至怎么活的更好？那就是接地气的中小游戏发行公司！！！怎么样才算是接地气呢？乐赢互动成立于2014年，是游戏圈内一家中小型的研发发行公司，一年一个台阶的稳步发展，从2014年最初的单机发行为主，到2015年单机稳定+网游发行为主，再到2016年作为一家拥有手机游戏（单机+网游）研发+发行公司综合型公司，一步步实现自己的规划，一步步稳定自身的生存之道。乐赢互动CEO黄海钰女士希望今后自己的公司变成这样一家“接地气”的公司。</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>The scope covered by pan-entertainment is very wide, including literature, animation, film and television, music, games, derivative products, etc. can all be included in the category of pan-entertainment. In fact, the concept of "pan-entertainment" was first proposed by Internet giant Shanda Group. The grand plan of the Internet Disney project back then was so ambitious. Although Chen Tianqiao did not ultimately realize his dream of an entertainment empire, he brought great inspiration to China's Internet industry. Later, Tencent, NetEase, Alibaba, and other Internet giants all laid out pan-entertainment, which has now become one of the inevitable trends in Internet development. [Confrontation] Giants layout pan-entertainment platforms, continuously enhancing IP acquisition capabilities. [Alibaba] owns Alibaba Music, Alibaba Literature, Alibaba Pictures, Alibaba Games, China's largest video platform Youku Tudou, now called Alibaba Pictures, invested in the second-dimensional platform AcFun, gradually improving the layout of pan-entertainment products. [Baidu] relies on the search entrance, owning the traffic-heavy iQiyi, PPS video platform, Baidu Music merged with Taihe Music, the quietly strengthening Baidu Film Division, Baidu Literature, Baidu Mobile Games, etc., all blossoming, comprehensive layout. [Tencent] is actually the most active layout after Shanda's exit. It merged Shanda Literature, which holds 80% of the market share, to establish China Reading Group, established Tencent Pictures and Penguin Pictures, established an original animation platform and innovated in cooperation with Disney, as well as its QQ Music. It has already comprehensively laid out literature, film, animation, and music, creating core and even star IPs with all-industry resources. Of course, as China's largest user-accumulated Internet platform, Tencent Games has a strong ability to monetize from star IPs, which is also evident from its annual financial reports. Traditional film and television companies, such as Huayi Brothers and Enlight Media, are also actively expanding their business lines to expand into truly pan-entertainment groups. [Opportunity] Small and beautiful pan-entertainment may be more suitable for you. As an important part of the pan-entertainment industry system, both traditional film and television groups and Internet groups attach great importance to this business. Especially in recent years, the rapidly developing mobile games, with their good IP monetization capabilities, have become a hot spot in the pan-entertainment strategy. Some people say that big companies have laid out for many years and have already formed a "routine", can small companies still play? Indeed, small companies do not have the capital and resources to compete head-on with Internet giants, but China's rapidly growing mobile game market and huge mobile game user base still leave enough space for survival for small and medium-sized game companies. How to survive? Or even how to thrive? That is to be a down-to-earth small and medium-sized game publishing company!!! What does it mean to be down-to-earth? LeYing Interactive was established in 2014, a small and medium-sized research and development and publishing company in the game industry, steadily developing step by step each year, from mainly single-player publishing in 2014, to a stable mix of single-player and online game publishing in 2015, to becoming a comprehensive company with mobile game (single-player + online game) research and development + publishing in 2016, gradually realizing its own planning, and steadily stabilizing its way of survival. Ms. Huang Haiyu, CEO of LeYing Interactive, hopes that her company will become such a "down-to-earth" company in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>易道风水命理／文我生肖属狗，前年上半年开始就没有上班了，现在有点坐吃山空的感觉，事业婚姻都出现了问题，能不能帮我看看，未来运势会如何？ （男肖狗）你的出生时间：壬戌、己酉、乙未、戊寅，现年34岁在壬子大运中，你的命局代表事业和财星的字都是忌神，预示事业和财运存在先天不利因素，单干创业不容易。现在壬子大运，大运天干地支水为印星一气贯之，生助代表你本人的乙木，说明你多得上司和长辈帮助，也有利于学习技艺，但正所谓“过犹不及”，你原局已经有壬水正印星一颗，大运又透出两颗为乱动，有拈轻怕重和畏难情绪，这势必会影响到事业运。今年至2021年，都是喜用神生身的年份，这几年可以找一份稳定工作先安定下来，业余时间自己做些兼职经营，能够进财，但需要你发扬不怕苦不怕累的精神去努力；2018戊戌年正财星透出不太理想，要注意有破财及夫妻间吵架事情发生。 你40-50岁间行的都是癸丑水旺的大运，这十年继续延续之前的好财运，要加倍拼搏去赚取属于自己的人生财富，不过这个大运丑未相冲，要注意自己和配偶会易有病伤事。50岁之后也是木旺帮身好运，运势比过往好得多，遇事有人帮，财运不错，可以过上较为舒心的晚年生活。 至于婚姻上的事情，你的财星多，正偏皆有，代表除了妻子还有别的女人滋扰你，在如今失业状态下，不但要努力找工作做事赚钱养家，更要注意洁身自好，不要去摘路边野花，维系好家庭。不是空穴来风，算命，更要知道命从何来，明明白白生活，那些显示大运是忌神的八字命造，说明前世积的福报少，这一世无财可用，何谈富贵？如果不懂三世因果，坏上再造恶人，也许下生，人身都得不到，要做牛做马还欠，苦不堪言，人之大悲。人生百态，奈何兴叹？婚姻挽回、算命、招财、招桃花、催姻缘、破小三？关注易道风水命理 （徵 Rdi2016 ）教你如何化解风水，爱情和睦，趋吉避凶，从官仕途高升，从商广纳财禄，得安康吉庆人生。</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Yi Dao Feng Shui fortune-telling / I was born in the Year of the Dog. I haven't been working since the first half of the year before last year. Now I feel a bit like I'm living off past glories. Both my career and marriage are facing problems. Can you help me see how my future fortune will be? (Male, Year of the Dog) Your birth time: Ren Xu, Ji You, Yi Wei, Wu Yin. At the age of 34, you are in the Ren Zi major luck period. The stars representing your career and wealth in your destiny are both taboo gods, indicating that there are innate unfavorable factors in your career and financial luck, and starting a business alone is not easy. In the Ren Zi major luck period, the heavenly stems and earthly branches of water represent the seal star, which supports the Yi Wood representing yourself, indicating that you will receive help from superiors and elders and it is also beneficial for learning skills. However, with the original chart having a Ren Water seal star and two chaotic stars appearing in the major luck period, there is a tendency to be overly cautious and fearful of difficulties, which will inevitably affect your career fortune. From this year to 2021, these are years when the favorable stars are in power, and during these years, you can find a stable job to settle down first, and engage in part-time business in your spare time to earn extra income. It will require you to work hard with a spirit of not fearing hardship or fatigue. In the year of Wu Xu in 2018, the Zhengcai star is not very ideal, so you need to be careful about financial losses and quarrels between spouses. Between the ages of 40 and 50, you will be in the Da Yun period of Gui Chou, which is a period of strong water. During these ten years, you will continue to have good financial luck from before, and you need to work even harder to earn your own wealth. However, this Da Yun period clashes with the Wei and Chou signs, so you need to be careful as both you and your spouse may encounter health issues. After the age of 50, the wood is strong and helps the body, and your fortune will be much better than before. You will have help when facing challenges, good financial luck, and can live a relatively comfortable life in your later years. As for marriage, with many wealth stars in your chart, both positive and negative, it indicates that besides your wife, there may be other women causing trouble for you. In your current state of unemployment, not only do you need to work hard to find a job and earn money to support your family, but you also need to maintain good personal hygiene and avoid being tempted by others, in order to maintain a harmonious family. It is not groundless, fortune-telling, but it is important to understand where your destiny comes from and live a clear life. If the fortune-telling shows that the major luck period is unfavorable, it means that you have accumulated little merit in your past life, and in this life, you have no wealth to rely on, so how can you talk about wealth and nobility? If you do not understand the law of cause and effect, and continue to do evil, perhaps in the next life, you will not even have a human body, and you will still owe debts, which is a great sorrow. Life is full of ups and downs, how can we not sigh? To save a marriage, seek fortune-telling, attract wealth, attract love, enhance marriage, or break up a love triangle? Pay attention to Yi Dao Feng Shui fortune-telling (WeChat: Rdi2016) to learn how to resolve Feng Shui issues, maintain harmony in love, avoid misfortune, advance in official career or business, accumulate wealth, and lead a healthy and auspicious life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>不造你有没有留意，大家每天玩的微信，最近推出了新版本，以及，三个新功能！说到这三个新功能就腻害了~功能一抢红包还得拼关系？！知道真相后眼泪簌簌地流首先，小编要说的，是一个新的“红包”功能。先来看具体的操作方法：第一步：选择你要发送的红包金额比如说，发20！ 第二步：选择你要发送给你想要发送的人对，没错！选择要发送的人！ 然后，你平时不喜欢的人，无论怎么样都抢不到红包啦！这样的互相伤害是不是很爽！这样发红包也告诉抢不到红包的人：你不喜欢他！（这样发红包情商是硬伤啊~） 但是！真相是极其残酷的这样发出去的红包是绿的……绿的……绿……的…… 下面重点来了——如果看到这样的红包千万别激动！因为，当你点进去，就是支！付！页！面！ 对的，庞友，你不是在收红包，这是你在付钱！ 好了，一脸懵圈的庞友，下面是正经的科普时间： 其实，这是微信新增加的收款功能，也就是能够在微信群里发起AA付款。比如，参加一些活动，采取AA制，付款者只需要在微信群里发起AA制付款，圈定需要付款的好友，就能够顺利实现AA制付款了。 再也不用担心互相伤害了！ 小编提示：这个功能是微信新增加的收款功能，也就是能够在微信群里发起AA付款。WUli群主是不是更厉害了！功能二还有一个功能更厉害：群主可以决定是否让其他朋友拉人进群这个功能太贴心了自己建的群，总是莫名奇妙混入一些广告党和微商趁晚上大家都睡着的时候开始炸广告以前群主是一个名存实亡的头衔，现在群主的作用再也不只是用来@所有人这么简单了！！首先我们点击“群管理” 打开“群聊邀请确认”按键 这样，群里的朋友拉人进来都需要经过你的同意才可以啦现在假如有一个朋友要拉人进来你点击“确认邀请”别人才可以进群哦 功能三这个功能就腻害了！斗图党的最爱一键保存发送动图GIF平常你想添加图片或者动图做表情包肯定都会遇到过下面这种情况↓ 现在只要按住动图点击“保存图片” 再从相册里找到左下角带GIF的图片就可以发送到聊天中啦 以后再也不用担心斗图没有表情了！这三个功能是不是非常强大不过！小编提示：目前，只有IOS系统可以更新到这个版本。Android系统还未更新，不过预计很快啦。小伙伴们，赶紧更新去试试吧!据说戳了抢红包的手气会更好延伸阅读↓↓↓</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>I don't know if you've noticed that WeChat, which everyone plays with every day, has recently launched a new version, as well as three new features! Speaking of these three new features, they are really amazing~ The first feature is about grabbing red envelopes and having to rely on relationships?! After knowing the truth, tears flow down first. What I want to say is a new "red envelope" feature. Let's take a look at the specific operation steps: Step 1: Choose the amount of red envelope you want to send, for example, send 20! Step 2: Choose the person you want to send it to, that's right! Choose the person you want to send it to! Then, the people you don't usually like won't be able to grab the red envelope no matter what! Isn't this kind of mutual harm satisfying? Sending red envelopes in this way also tells those who can't grab the red envelope: you don't like them! (Sending red envelopes like this is a social skill flaw~) However! The truth is extremely cruel, the red envelopes sent out in this way are green... green... green... Here comes the key point—don't get excited if you see such red envelopes! Because, when you click in, it's the payment page! That's right, my friend, you are not receiving a red envelope, you are paying money! Well, my friend who is confused, it's time for a serious popular science session: In fact, this is a new collection function added by WeChat, which allows you to initiate AA payments in WeChat groups. For example, participating in some activities and adopting the AA payment system, the payer only needs to initiate the AA payment in the WeChat group, specify the friends who need to pay, and the AA payment can be successfully implemented. No need to worry about mutual harm anymore! Editor's note: This function is a new collection function added by WeChat, which allows you to initiate AA payments in WeChat groups. Isn't the group owner more powerful now! The second feature has an even more powerful function: the group owner can decide whether to allow other friends to invite people to join the group. This function is so thoughtful! In the groups you create, there always seem to be some advertisers and micro-businesses sneaking in and starting to spam ads when everyone is asleep at night. In the past, being a group owner was a title in name only, but now the role of the group owner is no longer just to mention everyone! First, click on "Group Management" and open the "Group Chat Invitation Confirmation" button. This way, friends in the group need your permission to invite others to join. Now, if a friend wants to invite someone in, you click "Confirm Invitation" before they can enter the group. The third feature is really amazing! The favorite of meme lovers: one-click save and send animated GIFs. Normally, when you want to add pictures or animated GIFs to make memes, you must have encountered the following situation↓ Now, just hold down the animated GIF and click "Save Image", then find the image with GIF in the lower left corner of the album, and you can send it to the chat. No need to worry about running out of memes for battles anymore! Aren't these three features very powerful! Editor's note: Currently, only the iOS system can be updated to this version. The Android system has not been updated yet, but it is expected to be updated soon. Friends, hurry up and update to try it out! It is said that poking the hand that grabs red envelopes will bring better luck. Read more below↓↓↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>有人说，如果一生只能跑一次马拉松，他希望是东京马拉松。因为没跑过的，跑过的，都相信这句话“不能更认同”！东马作为唯一一个在亚洲的大满贯赛事，离中国跑者距离最近的大满贯赛事，绝对是加料十足，有跑马梦的你，似乎没理由拒绝！一直以来，它都以极致完美的服务，零死亡率的安全保障赢得良好口碑，而观众的热情与cosplay的各种嗨玩，也成为这个年轻大满贯赛事的亮点所在。2017东京马拉松抽签大幕已经缓缓合拢，真是几家欢喜几家愁，8.2%的中签率再创新低！知行合逸推出的旅行社套餐也在24小时内被一抢而空，工作人员接到无数跑者电话愿意排队等待名额。2017年东京马拉松你中签了么？知行合逸特别为已经中签的跑者推出知行合逸服务大礼包！ 东马赛前一天友谊跑中国跑团合影套餐内容包含：1. 东京五星级酒店——新大谷酒店三晚住宿（2月24日入住，27日离开）东京新大谷酒店是日本最老资格的五星级酒店之一，也是东京马拉松的御用酒店之一！酒店被一座拥有400年历史的美丽日式花园环绕，非常值得前去观赏！新大谷饭店距离赤坂见附地铁站仅有300米，从这个地铁站乘车不到10分钟即可抵达银座、涩谷和新宿区，而且前往机场有直达班车！酒店经常接待国家级贵宾，我国领导出访也曾经数度下榻这里。酒店位于日本皇居附近，所以我们强烈建议大家早起前往皇居来一个热身跑，那里是日本跑步氛围最好的地方，绝对值得前往体验！ 酒店本身 酒店内的日式花园 住在东京市中心2. 专业的跑步领队服务知行合逸在业内一向以服务见长，这一次，我们会有专门的跑步领队带您参加东马友谊跑（稍后我们会推出报名服务，点击这里可以查看2016东马友谊跑现场），5公里可以作为非常好的东马赛前热身，感受日本跑者的欢乐和热情！东马友谊跑比赛地点就在expo旁边，跑步结束后领队还会带您参加东马expo领取赛手包，当然少不了买买买，点击这里查看2016东马博览会现场。比赛日，更有专业领队带您乘坐地铁前往比赛起点。 2016年东京马拉松知行合逸中国跑团部分跑友合影3. 其它除此之外，我们将为您提前准备好日本交通卡——西瓜卡，内含1500日币的充值，由于东京地铁十分复杂，您手持西瓜卡，可以不需要在机器上买票算价格，直接刷卡即可。1500日币足够您用上二天，方便您往返东马博览会和自己游览观光等。</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Some people say that if they could only run one marathon in their lifetime, they would choose the Tokyo Marathon. Because those who have not run it and those who have, all believe in this saying "cannot agree more"! As the only major marathon event in Asia, the Tokyo Marathon is the closest major marathon event to Chinese runners, absolutely full of excitement. For those of you who dream of running a marathon, it seems there is no reason to refuse! It has always won a good reputation for its extremely perfect service and zero mortality rate safety guarantee, while the enthusiasm of the audience and the various fun of cosplay have become the highlights of this young major marathon event. The draw for the 2017 Tokyo Marathon has slowly come to a close, bringing joy to some and disappointment to others, with a record low draw rate of 8.2%! The travel packages launched by Zhi Xing He Yi were sold out within 24 hours, and the staff received numerous calls from runners willing to queue up for a spot. Have you been selected for the 2017 Tokyo Marathon? Zhi Xing He Yi has specially launched a service gift package for runners who have been selected! The day before the Tokyo Marathon, the Friendship Run Chinese running group photo package includes: 1. Tokyo five-star hotel - Shinagawa Prince Hotel three nights stay (check-in on February 24, check-out on the 27th). The Shinagawa Prince Hotel in Tokyo is one of Japan's oldest five-star hotels and also one of the designated hotels for the Tokyo Marathon! The hotel is surrounded by a beautiful Japanese garden with a history of 400 years, which is worth visiting! The Shinagawa Prince Hotel is only 300 meters away from the Akasaka-mitsuke subway station. It takes less than 10 minutes by subway to reach Ginza, Shibuya, and Shinjuku, and there is a direct shuttle to the airport! The hotel often hosts national VIPs, and our country's leaders have stayed here several times. Located near the Imperial Palace in Japan, we strongly recommend that you get up early and go to the Imperial Palace for a warm-up run. It is the best place in Japan for running atmosphere and definitely worth experiencing! The hotel itself Japanese garden in the hotel Stay in the center of Tokyo 2. Professional running guide service Zhi Xing He Yi has always been known for its service in the industry. This time, we will have dedicated running guides to accompany you for the Tokyo Marathon Friendship Run (we will launch the registration service later, click here to see the scene of the 2016 Tokyo Marathon Friendship Run). The 5 kilometers can be a very good warm-up before the Tokyo Marathon, experiencing the joy and enthusiasm of Japanese runners! The Tokyo Marathon Friendship Run takes place right next to the expo, and after the run, the guides will take you to the Tokyo Marathon expo to collect your race kit, of course, there will be shopping opportunities, click here to see the scene of the 2016 Tokyo Marathon expo. On the day of the race, professional guides will take you by subway to the starting point. 2016 Tokyo Marathon Zhi Xing He Yi Chinese running group photo 3. Others In addition, we will prepare a Japan transportation card for you in advance - Suica card, with a recharge of 1500 Japanese yen. Since the Tokyo subway system is very complex, with the Suica card in hand, you can swipe the card directly without having to buy tickets at the machine. 1500 Japanese yen is enough for you to use for two days, making it convenient for you to travel to and from the Tokyo Marathon expo and for your own sightseeing activities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>夏季随着气温的升高，冰箱做为必备的家用电器，做为贪凉一族的神器，使用率也越来越高。夏季随着气温的升高，冰箱做为必备的家用电器，做为贪凉一族的神器，使用率也越来越高。除了日常冷藏食品外，为了凉爽口感的西瓜、冷饮、牛奶等很多食品都要放冰箱里凉一下再吃，很是解暑，很是惬意。可您是否知道冰箱并非万能，使用不当很可能给身体造成不适。今日，晚报隆重推出使用冰箱五大误区，您不妨逐一对照。-指导专家市疾控制中心公共卫生监测与评价所副所长赵伟冰箱误区一：冰箱内拿出的冷食，马上吃夏天很多人为了“贪凉”，经常将冰箱中储存的食品拿出来就吃。殊不知，这样可能会得病——“冰箱病”！存放在冰箱中的食物拿出来就吃，容易引起腹泻或是肠胃疾病的不良反应。夏天刚从冰箱冷冻室取出的食品温度一般在-6℃以下，而口腔温度在37℃左右，两者温差悬殊。若快速进食，可刺激口腔黏膜，反射性地引起头部血管痉挛，从而产生头晕、头痛、恶心等的一系列症状。有时严重者可引发冰箱肠炎和冰箱胃炎等。因此，刚从冰箱内取出的食品，宜在室温下放置一段时间后再食用。冰箱误区二：存储食物，生熟混放一般来说，人们平常接触到的一些食材，如猪肉、牛肉、鱼等，在其上面都附带有大量的细菌，如果把熟食跟这些生鲜食材放在了一起，那么寄生在生鲜食材内的细菌就很容易污染熟食储物。如果人们在食用熟食时没有加热，这样很可能“病从口入”。因此，在使用电冰箱进行储存食物的时候，尽量避免生、熟食一起存放。如果要一起存放，建议分层存放，且在食物放进去之前，最好用保鲜膜包好，防止食品冷冻干燥、相互污染，水果则应擦洗干净后存入冰箱。此外，任何食物都应少存放在冰箱里，尽量随买随吃。如果存放过久，不仅会影响食物的鲜美，还可能产生异味从而污染其他食物。冰箱误区三：使用冰箱，寸土必争冰箱里储存的食品不易过多，特别是在节日里的食物剩余较多，这时许多朋友都会选择把食物放进冰箱储存，这是值得提倡的节俭美德，但如果不小心就把冰箱塞得满满当当的，就未必是好事了。在储存食品时，冰箱里的食物或容器间要留出一定的空隙，才能有利于冷空气的流通，确保必需的温度。如果冰箱内食物挤得太满，会导致热负荷过大，造成电力浪费，还会使温度高于设定温度，滋生细菌，导致食物变质。建议大家冰箱存放食物的空间维持“八成饱”的原则，并且定期对存放空间进行清理，养成外出采购食品前清理冰箱的好习惯。</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>As the temperature rises in summer, the refrigerator, as an essential household appliance and a magical tool for those who crave coolness, is being used more and more. In addition to daily refrigerated foods, many foods such as watermelon, cold drinks, and milk are put in the refrigerator to cool down before eating for a refreshing and pleasant taste, which is very relieving and enjoyable. However, do you know that the refrigerator is not omnipotent, and improper use may cause discomfort to the body? Today, the Evening News is pleased to present the five major misconceptions about using the refrigerator, which you may want to check one by one. -Guidance expert Zhao Wei, Deputy Director of the Public Health Monitoring and Evaluation Institute of the Municipal Center for Disease Control and Prevention
+Refrigerator Misconception One: Eating cold food taken out of the refrigerator immediately. In summer, many people often take out the food stored in the refrigerator and eat it right away for the sake of "coolness." Little do they know that this may lead to illness - "refrigerator sickness"! Eating food taken out of the refrigerator can easily cause diarrhea or adverse reactions in the gastrointestinal tract. The temperature of food just taken out of the freezer in summer is generally below -6°C, while the temperature in the mouth is around 37°C, resulting in a significant temperature difference. Rapid consumption may stimulate the oral mucosa, reflexively causing vascular spasms in the head, leading to a series of symptoms such as dizziness, headache, and nausea. In severe cases, it may even cause refrigerator enteritis and refrigerator gastritis. Therefore, food just taken out of the refrigerator should be left at room temperature for a while before consumption.
+Refrigerator Misconception Two: Mixing raw and cooked food when storing. Generally, some food ingredients that people commonly come into contact with, such as pork, beef, and fish, carry a large number of bacteria. If cooked food is stored together with these fresh ingredients, the bacteria parasitic in the fresh ingredients can easily contaminate the cooked food. If cooked food is consumed without heating, it may lead to "illness through the mouth." Therefore, when using the refrigerator to store food, try to avoid storing raw and cooked food together. If they must be stored together, it is recommended to store them separately and wrap them in plastic wrap before putting them in the refrigerator to prevent food from drying out, cross-contamination, and fruits should be cleaned before being stored in the refrigerator. In addition, any food should be stored in the refrigerator for a short time and consumed as soon as possible. If stored for too long, it will not only affect the freshness of the food but may also produce odors that contaminate other foods.
+Refrigerator Misconception Three: Using the refrigerator, every inch is worth fighting for. Food stored in the refrigerator should not be excessive, especially when there is a lot of leftover food during holidays. Many friends tend to put the food in the refrigerator for storage, which is a commendable virtue of thrift. However, if the refrigerator is accidentally stuffed full, it may not be a good thing. When storing food, there should be a certain space left between the food or containers in the refrigerator to facilitate the circulation of cold air and ensure the necessary temperature. If the food in the refrigerator is too crowded, it will cause excessive heat load, leading to electricity waste, raising the temperature above the set temperature, breeding bacteria, and causing food spoilage. It is recommended that the principle of keeping the refrigerator food storage space "80% full" be maintained, and regularly clean the storage space, forming a good habit of cleaning the refrigerator before going out to purchase food.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 每天早上起来喝一杯水是一种很健康的生活习惯，但是我们是应该先刷牙还是先喝水呢?晨起后，先喝一杯白开水已为大多数人认可，它不仅可清肠胃，且能将唾液中的消化酶带进肠胃，以便更充分地分解食物。但实际上不少人却忽视了一点，即喝水前应先刷牙。因此早晨起床，应该先刷牙再喝水。 晨起喝水，养成空腹喝水的好习惯，既能清肠，又能将唾液中的消化酶带进肠胃，吃东西时，还能帮助更充分地分解食物促进消化。不过，这晨起刷牙和喝水也有讲究吗?到底是该先刷牙还是先喝水呢?老祖宗传下来一句话“晨起皮包水，睡前水包皮，健康又长寿，百岁不称奇。”即指早晨空腹喝水，晚上勤泡脚，能健康长寿。不过总有些“打岔”的说法蹦出来，比如晨起喝水前该不该先刷牙?不可否认，早起喝白开水是一种健康的生活习惯，一方面可补充身体代谢失去的水分，另一方面又可促进排泄，以防便秘。而且还能稀释血液，降低血液黏稠度，促进血液循环，防止心脑血管疾病的发生，这对中老年人尤为重要。 喝水之前为什么要先刷牙呢?因为夜晚睡觉时，牙齿上容易残存一些食物残渣或污垢，当它们与唾液的钙盐结合、沉积，就容易形成菌斑及牙石。有人担心，如果先刷牙把唾液中的消化酶刷走，岂不可惜-其实，唾液中的消化酶，只是在吃东西的时候才有分解消化食物的作用，不吃东西时，它处于“休息”状态。而人们在睡觉时唾液分泌很少，因此产生的消化酶也很少。并且人体的胃肠道里本身就有消化酶，唾液只产生极少一部分，其消化作用是微乎其微的，即使刷牙时被刷去，也绝不会影响对食物的消化。春天来了，网上生意这么火，还等什么呢？不懂的可以和我聊聊！我是滨哥，青年创业者，我的微信是（ dofi90 ），欢迎广大有创业梦想的朋友来和我一起交流、互相学习！</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Getting up every morning and drinking a glass of water is a very healthy lifestyle habit, but should we brush our teeth first or drink water first? After waking up in the morning, drinking a glass of plain water is widely recognized by most people. It not only cleanses the intestines and stomach but also carries the digestive enzymes in saliva into the stomach to more fully break down food. However, many people actually overlook one point, that is, brushing teeth before drinking water. Therefore, when getting up in the morning, one should brush their teeth before drinking water. Developing the habit of drinking water on an empty stomach in the morning can not only cleanse the intestines but also carry the digestive enzymes in saliva into the stomach, which can help more fully digest food and promote digestion when eating. However, is there a particular way to brush teeth and drink water in the morning? Should we brush our teeth first or drink water first? An old saying passed down from our ancestors goes, "Drink water in the morning, soak feet before bed, healthy and long-lived, living to a hundred is not surprising." It indicates that drinking water on an empty stomach in the morning and soaking feet at night can promote health and longevity. However, there are always some "divergent" opinions popping up, such as whether one should brush their teeth before drinking water in the morning. Undeniably, drinking plain water in the morning is a healthy lifestyle habit. On the one hand, it can replenish the body's lost water, and on the other hand, it can promote excretion to prevent constipation. It can also dilute the blood, reduce blood viscosity, promote blood circulation, and prevent the occurrence of cardiovascular and cerebrovascular diseases, which is particularly important for middle-aged and elderly people. Why should we brush our teeth before drinking water? Because when sleeping at night, there may be some food residues or dirt remaining on the teeth, which, when combined and deposited with the calcium salts in saliva, can easily form plaque and tartar. Some people worry that brushing teeth first would wash away the digestive enzymes in saliva, but in fact, the digestive enzymes in saliva only function to digest food when eating. When not eating, they are in a "resting" state. Saliva secretion is minimal during sleep, so the production of digestive enzymes is also minimal. Moreover, the human gastrointestinal tract itself contains digestive enzymes, and saliva only produces a very small part. Its digestive function is minimal, and even if it is brushed away while brushing teeth, it will not affect the digestion of food. Spring is here, and online business is booming. What are you waiting for? If you don't understand, you can chat with me! I am Bin Ge, a young entrepreneur. My WeChat ID is (dofi90). Welcome friends with entrepreneurial dreams to communicate and learn together with me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>根据《中国证券投资基金业协会估值核算工作小组关于2015年1季度固定收益品种的估值处理标准》（以下简称“估值处理标准”）的有关规定，经与基金托管人、会计师事务所协商一致，自2015年3月25日起，益民基金管理有限公司对旗下证券投资基金持有的在交易所市场上市交易或挂牌转让的固定收益品种（估值处理标准另有规定的除外）的估值方法进行调整，采用第三方估值机构提供的价格数据进行估值。2015年3月25日，相关调整对本公司旗下证券投资基金前一估值日基金资产净值的影响不超过0.5%。敬请投资者予以关注。投资者可登陆基金管理人网站（www.ymfund.com）或拨打客户服务电话400-650-8808咨询有关信息。特此公告。</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>According to the relevant provisions of the "Valuation Treatment Standards for Fixed Income Varieties in the First Quarter of 2015 by the Valuation and Accounting Working Group of the China Securities Investment Fund Industry Association" (hereinafter referred to as the "Valuation Treatment Standards"), and after unanimous agreement with the fund custodian and the accounting firm, Yimin Fund Management Co., Ltd. adjusted the valuation method of fixed income varieties held by its securities investment funds listed on the exchange market or traded on the listed transfer market (excluding those with different valuation treatment standards) starting from March 25, 2015, using price data provided by a third-party valuation agency for valuation. On March 25, 2015, the impact of the relevant adjustments on the net asset value of the fund assets of the company's securities investment funds on the previous valuation date did not exceed 0.5%. Investors are kindly requested to pay attention to this. Investors can visit the fund manager's website (www.ymfund.com) or call the customer service hotline at 400-650-8808 for related information. This announcement is hereby made.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>里约奥运会央视的采访让“洪荒少女”傅园慧一夜成为网红小编我也被可爱纯真的傅爷圈粉了咱傅爷就是辣么霸气！ 在后续女子4X100米混合泳接力决赛中，中国队拿到了第四名，和奖牌失之交臂。比赛结束之后，央视记者采访了一旁捂着腹部的傅园慧。傅园慧坦言：“我认为今天我自己游得不够好，我影响了整个中国队的成绩和表现。从昨天开始，我就进入了自己的生理期，现在我感觉自己有点儿虚弱。当然，这绝不是我表现不佳的借口和理由。”“生理期”作为大多数女人不愿公开提及的词汇，傅爷竟然在央视采访的时候直言不讳，霸气如她！“月经禁忌” 为什么提起月经觉得尴尬？因为与鲜血相关，所以在漫长的历史中，关于生理期的话题，也被称为“月经禁忌”。在原始社会，人们经历战争，经历流血牺牲，鲜血被视为痛苦死亡的象征，这是最初人对于鲜血的恐惧。同时因为缺乏对月经与生殖相关的知识，使得他们认为经血是具有魔力的。所以视经血为不洁、不详，在经期内的妇女要极力回避他人，不可公开露面。比如一些地区和民族还会把月事来临直接演变成对生理期女性的人身隔离。非洲加蓬一些部落规定女性月事期间不得会见族中任何男性；日本古代也专门设置了“别火屋”来禁闭来月事的妇女。后来对姨妈的避讳就沿袭下来。来个大姨妈也要被关小黑屋女人当得可真不容易啊我提议给全世界的女性同胞们设置 一个生理假男同胞们还要负责给女票、老婆们颁一个“生理期随心所欲奖” 呵呵，别人家的男票/老公要知道姨妈来临的时候，真的很不方便以下尴尬的场景经历过的请举手！NO.1“拉肚子？”“胃痛？”“男朋友大姨夫急需照顾？”姨妈期挖空心思想不出合适的请假理由 NO.2大姨妈来势汹汹，没有带卫生巾和替换的裤子 NO.3去厕所分不清是拉肚子还是来例假 NO.4一来姨妈就想承包整个沙发和床，我不想动，只想静静，别问我静静是谁。 NO.5痛经大魔王明明带你领略了地狱的恐怖，而别人竟然以为你只是矫情de公主 - - ，最不能忍的尴尬了有木有！ 每个女性如果从12岁初潮到50岁左右大约要经历400次月经，超过1800天这和吃饭睡觉一样的小事儿虽然不用每天宣布一遍但是希望你大姨妈来的时候要对自己好点，再好点不要因为尴尬而让忍耐和无奈陪你度过姨妈期 点击原文可抽奖【我是一条广告帖】 微信：jianjiao131499 微博：尖叫护肤一个有颜值还能让你赚钱的公众号</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>The interview of "Wild Swimmer" Fu Yuanhui by CCTV during the Rio Olympics made her an internet sensation overnight. As a cute and innocent figure, Fu Yuanhui won me over as well. Our Fu Yuanhui is just so domineering! In the subsequent women's 4x100m medley relay final, the Chinese team finished fourth, narrowly missing out on a medal. After the race, a CCTV reporter interviewed Fu Yuanhui, who was seen holding her stomach. Fu Yuanhui admitted, "I think I didn't swim well today, which affected the overall performance of the Chinese team. I have actually entered my menstrual cycle since yesterday, and now I feel a bit weak. Of course, this is by no means an excuse for my poor performance." "Menstrual cycle," a term most women are reluctant to openly discuss, was boldly mentioned by Fu Yuanhui during the CCTV interview, showcasing her dominance! Why is it embarrassing to talk about menstruation? Because it is associated with blood, throughout history, discussions about the menstrual cycle have been referred to as "menstrual taboos." In primitive societies, people experienced wars and bloodshed, where blood symbolized pain and death, instilling an initial fear of blood in humans. Due to a lack of knowledge about menstruation and reproduction, they believed menstrual blood possessed magical powers. Therefore, menstrual blood was considered impure and mysterious, and women during their periods were to avoid contact with others and not be seen in public. In some regions and ethnic groups, menstruation led to the isolation of women. For example, in some tribes in Gabon, Africa, women were not allowed to meet any men during their periods; ancient Japan even had designated "separate fire rooms" to seclude menstruating women. These taboos surrounding menstruation have been passed down through generations. It's not easy being a woman who has to be confined during her period. I suggest setting up a "menstrual leave" for all women around the world, and male counterparts should be responsible for awarding women with a "menstrual freedom award" during their periods. It's really inconvenient for other people's boyfriends/husbands to know when Aunt Flo is visiting. Who has experienced these awkward situations? NO.1 "Diarrhea?" "Stomach ache?" "Boyfriend's aunt urgently needs care?" During Aunt Flo's visit, you rack your brains for a suitable excuse for taking leave. NO.2 Aunt Flo arrives fiercely, and you forgot to bring pads and spare pants. NO.3 Can't tell if it's diarrhea or menstruation in the bathroom. NO.4 When Aunt Flo arrives, she wants to occupy the entire couch and bed. I don't want to move, I just want to be quiet. Don't ask me who "quiet" is. NO.5 The period pain demon has shown you the horrors of hell, but others think you're just an overly dramatic princess - the most unbearable embarrassment, isn't it? Each woman will experience menstruation approximately 400 times from her first period at around 12 years old until about 50 years old, totaling over 1800 days. Although it's as trivial as eating and sleeping, you don't have to announce it every day. I hope you treat yourself a little better when Aunt Flo visits, and don't let embarrassment make you endure and feel helpless during that time. Click on the original post for a chance to win a prize. [I am an advertisement] WeChat: jianjiao131499 Weibo: Scream Skincare, a public account with both looks and the ability to make you money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>《吉尼斯世界记录大全》什么都记录，真是个好东西。1985年版的《吉尼斯世界记录大全》就收录了这样一次大规模屠杀。 蒙古帝国大屠杀，死亡平民2亿。这次屠杀人数空前，绝后不敢说，谁知道还有没有外星人来杀地球人。 当时估计中国直接死于屠杀的有3000--4000万人。连同中亚西亚和东欧共死亡约2亿人。1122年中国人口9347万，到元初1274年，人口887万。损失率高达91%。蒙古人灭花剌子模撒马尔罕城约百万人口；灭西夏，屠八十余万。 蒙古人数次西征，凡有抵抗即屠城，共屠数百城，包括屠杀了巴格达的数十万人口，整个中亚一片废墟。忽必烈屠杀了中国人1800万人，中国北方90%汉族平民惨遭种族灭绝。四川在蒙古帝国屠杀前，估计有1300-2000多万人，屠杀后竟然不满80 万人，近乎无人区。公元1215年，铁木真攻陷金国都城中都（北京），对城中居民进行了长达一个月之久的大屠杀，超过100万人为此殒命。 在蒙古人杀戮下，中国丧失了7000多万人口。直到公元1352年，蒙古统治者还对徐州、杭州居民进行了野蛮的大屠杀。并计划消灭张王刘李赵汉族五大姓。由于红巾军的奋起一击，这项种族灭绝政策才没被最后执行。精选热门公众号，总有一个你喜欢！每日人文ID： chenqiao998▲长按二维码-识别图中二维码-添加关注简介：传播中国优秀传统文化，推动人类进步洞察ID： dc201511▲长按二维码-识别图中二维码-添加关注简介：解析时政，洞察社会，新鲜独到.只说真话每日诗词ID：mrsc18▲长按二维码-识别图中二维码-添加关注简介：每天一首精选诗词，收获不一样的心境和感动最美诗文ID：zmsw321▲长按二维码-识别图中二维码-添加关注简介：最美文章， 唯美散文， 美丽中国风， 传世经典， 诗意人生， 美文美心，国学传承等古典诗词古典文学ID：gdscwx▲长按二维码-识别图中二维码-添加关注简介：用心制作最精美的内容，传播中国文化。每日文史ID：ng89888▲长按二维码-识别图中二维码-添加关注简介：以史为鉴，可以知兴替；以人为鉴，可以明得失。更多精彩资讯请点击“阅读原文”查看</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>"The Guinness World Records" records everything, it's really a good thing. The 1985 edition of "The Guinness World Records" included such a large-scale massacre. The Mongol Empire massacre, with 200 million civilian deaths. This massacre had an unprecedented number of casualties, and it's hard to say if there will be aliens coming to kill Earthlings in the future. At that time, it was estimated that 30-40 million Chinese people died directly from the massacre. Along with Central Asia, West Asia, and Eastern Europe, approximately 200 million people died. In 1122, the population of China was 93.47 million, and by the beginning of the Yuan Dynasty in 1274, the population was 8.87 million. The loss rate was as high as 91%. The Mongols exterminated about a million people in Samarkand; they exterminated over 800,000 in Western Xia. The Mongols launched several Western expeditions, and whenever there was resistance, they massacred the cities. They massacred hundreds of cities, including tens of thousands of people in Baghdad, leaving the whole of Central Asia in ruins. Kublai Khan massacred 18 million Chinese people, and 90% of the civilian Han population in northern China suffered ethnic genocide. Before the Mongol Empire massacre, Sichuan was estimated to have over 13-20 million people, but after the massacre, there were barely 800,000 people left, almost becoming a deserted area. In 1215, Genghis Khan captured the capital of the Jin Dynasty (Beijing), and carried out a month-long massacre of over a million residents. Under the Mongol slaughter, China lost over 70 million people. Until 1352, the Mongol rulers carried out brutal massacres of residents in Xuzhou and Hangzhou. They even planned to exterminate the five major Han surnames of Zhang, Wang, Liu, Li, and Zhao. Due to the uprising of the Red Turban Army, this policy of genocide was not ultimately carried out. Selected popular public accounts, there is always one you like! Daily Humanities ID: chenqiao998 ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: Spread excellent traditional Chinese culture, promote human progress Insight ID: dc201511 ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: Analyze current affairs, insight into society, fresh and unique. Only speak the truth Daily Poetry ID: mrsc18 ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: A selected poem every day, gaining a different mood and touch The Most Beautiful Poetry and Prose ID: zmsw321 ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: The most beautiful articles, beautiful prose, beautiful Chinese style, classic heritage, poetic life, beautiful writing and heart, traditional poetry and classical literature ID: gdscwx ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: Carefully produce the most exquisite content, spread Chinese culture. Daily Literature and History ID: ng89888 ▲ Long press the QR code-Recognize the QR code in the picture-Add attention Introduction: Taking history as a mirror, you can understand the rise and fall; taking people as a mirror, you can understand gains and losses. For more exciting information, please click "Read the original text" to view.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>大智慧阿思达克通讯社5月27日讯，大智慧通讯社（微信：DZH_news）通过监控三泰电子（002312.SZ）旗下速递易官网数据发现，通过速递易送达的快件数量，已从5月初的每日10万件左右，快速增长至每日20万件左右。三泰电子证券代表宋华梅告诉大智慧通讯社（微信：DZH_news），目前速递易官网所统计的仅仅只是成都、重庆以及部分广州、深圳的数据。此数据的快速增加，或可证明速递易的布点速度与市场接受度都有所提升。三泰电子董秘贾勇则表示，按照上个月签约数简单推算这个月签约数突破1万点应该是必然的。不过签约之后还需要安装设备等，因此签约与落地之间会存在一定的时间差。公司预计实际落地的网点数量今年为1万个。目前速递易已在全国22个城市步有网点，并已开发出户外版，也开始尝试加盟模式，布点速度进一步加快。不过主要仍仅在成都地区尝试收费及开展广告业务，据三泰电子2013年度报告披露，13年成都我来啦网格信息技术有限公司实现营收126万。贾勇表示，其他地区何时开始收费仍有视布点速度而定，公司目前考虑更多的是抢占市场以及培养用户粘性。</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Dazhihui ASDAC News Agency, May 27th - Dazhihui News Agency (WeChat: DZH_news) discovered through monitoring the official website data of Sutieyi, a subsidiary of Santai Electronics (002312.SZ), that the number of parcels delivered by Sutieyi has rapidly increased from around 100,000 per day in early May to around 200,000 per day. Song Huamei, a securities representative of Santai Electronics, told Dazhihui News Agency (WeChat: DZH_news) that the data currently collected on the Sutieyi official website only includes statistics from Chengdu, Chongqing, and some parts of Guangzhou and Shenzhen. The rapid increase in this data may prove that the speed of Sutieyi's deployment and market acceptance have both improved. Jia Yong, the secretary of the board of directors of Santai Electronics, stated that based on the number of contracts signed last month, it is inevitable that the number of contracts signed this month will exceed 10,000 points. However, there will be a certain time gap between signing the contract and actual deployment due to the need for equipment installation. The company expects to have 10,000 actual deployment points this year. Currently, Sutieyi has outlets in 22 cities nationwide, has developed an outdoor version, and has begun to explore a franchise model, further accelerating the deployment speed. However, the company is mainly experimenting with charging and advertising business in the Chengdu area. According to Santai Electronics' 2013 annual report, Chengdu Wo Laila Grid Information Technology Co., Ltd. achieved revenue of 1.26 million in 2013. Jia Yong stated that the timing of when other regions will start charging will depend on the deployment speed, and the company is currently focusing more on seizing the market and cultivating user stickiness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>“了之尘世无常，看破缘起性空。”悟尘法师，是云门宗一脉的传承。修行三十余载，于06年任弥陀寺住持方丈。时值弥陀寺建寺十年，悟尘法师特邀我前往观礼。记录下这些镜头，是有感于悟尘法师的佛学智慧，有感于佛门建筑的典雅庄重，亦有感于佛门生活的简单美好。 【悟尘法师】悟尘法师生于1950年，江西吉安谭氏子。1982年于东禅古寺剃度出家，1984年，在了慈大和尚坐下受具足戒。1999年往湖南上封寺法庆老和尚座下聆听佛法。2003年随法庆老和尚山居弥真寺，次年法庆老和尚圆寂。咐法偈：修行百载，云门宗昌。2005年，与山西应县协助灵意禅师建楞严寺。2006年三月，任弥陀寺主持，修行至今。对《地藏经》《华严经》《金刚经》有重要批注。 【僧众早课】僧众早课，诵经经书主要有《楞严咒》《大悲咒》《小几咒》《心经》《赞佛偈》。 【僧众早粥】这里是弥陀寺粥堂，座位次序按职位高低排序，悟尘法师是主持方丈，坐与最靠近后面中央的位置，进食之前所有僧众念《供养谒》 【止静】吃完早粥后，各僧众都回到自己的住处止静（小憩），出家人真正睡觉的时间只有五个小时左右，所以在白天会有两次止静。 【跑香】大概7点半左右，开静，各僧众依次从住处前往广场，由当值僧人组织僧众及居士跑香。（因涉及居士隐私，故没有拍摄照片。） 【藏经阁】弥陀寺藏经阁，寺庙建寺才十周年，加上弥陀法师平时督促僧众小心保护，藏经阁如今还是面貌新颖。 【诵经罗汉】弥陀寺因地处偏僻，交通不便，香火也并不十分旺盛，寺庙的一应开支除了信徒居士的供奉，就靠弥陀大师替新生婴儿起名字获取报酬。 【晚课吹号】晚课共三节，一堂念诵《阿弥陀经》和佛名，以此祈求自己往生西方净土；一堂礼拜88佛和念诵《大忏悔文》；一堂是放蒙山施食，念《破地狱真言》和《心经》。</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>"In the transient world, see through the origin of fate and the emptiness of nature." Master Wu Chen is a descendant of the Yunmen sect. After more than thirty years of practice, he became the abbot of Mituo Temple in 2006. At the time when Mituo Temple was celebrating its tenth anniversary, Master Wu Chen specially invited me to attend the ceremony. Capturing these moments, I was inspired by Master Wu Chen's Buddhist wisdom, the elegant and solemn architecture of the Buddhist temple, and the simple beauty of monastic life. 
+【Master Wu Chen】Master Wu Chen was born in 1950 in Jia'an, Jiangxi, from the Tan family. In 1982, he was ordained at Dong Chan Ancient Temple, and in 1984, he received full ordination under the guidance of Venerable Cide. In 1999, he went to Hunan to listen to the Dharma under the guidance of Venerable Faming at Shangfeng Temple. In 2003, he resided at Muzhen Temple with Venerable Faming, who passed away the following year. His parting verse was: "Practice for a hundred years, Yunmen sect prospers." In 2005, he assisted Venerable Lingyi in building Lengyan Temple in Yingxian County, Shanxi. In March 2006, he became the abbot of Mituo Temple and has been practicing ever since. He has made significant annotations on the "Sutra of the Past Vows of Earth Store Bodhisattva," the "Avatamsaka Sutra," and the "Diamond Sutra."
+【Morning Chanting by Monks】During the morning chanting, the monks mainly recite the "Lengyan Mantra," the "Great Compassion Mantra," the "Heart Sutra," and the "Verse in Praise of the Buddha."
+【Morning Porridge for Monks】This is the porridge hall of Mituo Temple, where the seating order is based on the hierarchy of positions. Master Wu Chen, as the abbot, sits closest to the center at the back. Before eating, all monks recite the "Offering Verse."
+【Meditation】After finishing the morning porridge, each monk returns to their residence for meditation (rest). Monastics only have about five hours of actual sleep time, so there are two meditation breaks during the day.
+【Incense Offering】Around 7:30 a.m., the incense offering begins. The monks and laypeople proceed to the square in order, organized by the duty monk. (No photos were taken to respect the privacy of the laypeople.)
+【Scripture Repository】The scripture repository of Mituo Temple still looks new, as the temple was only ten years old and Master Mituo always reminds the monks to protect it carefully.
+【Recitation of Arhats】Due to its remote location and limited transportation, Mituo Temple does not have a large number of visitors. Besides offerings from believers and laypeople, the temple's expenses are covered by Master Mituo naming newborns and receiving rewards.
+【Evening Chanting with Horn Blowing】The evening chanting consists of three sessions: reciting the "Amitabha Sutra" and Buddha's name to pray for rebirth in the Western Pure Land, paying homage to 88 Buddhas and reciting the "Great Repentance Text," and offering food to the hungry ghosts on Mount Poshan while reciting the "Mantra to Break the Hell" and the "Heart Sutra."</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>很多研究，也有很多教授博士硕士，但他们只知道万有引力，地球上或有些地方怎么算，不知道为什么有。HQW——胡氏时空量子理论，能解决的问题多，也不怕透露点能提供大家写文章，好评教授博士，加工资。当然，要他们每个人发表文章的话，都会有可能的，尽管观点不一样。但客观存在的真理只有一个。如果让他们用最简单的语言表示，可能就答不上了。一写文章，某某几年几月的观点、另外某某发在什么期刊怎么说，再自己归纳，搞几个公式，越复杂越显水平，洋洋洒洒一大本，搞无数个博士论文是没问题的。或上个什么期刊只要一发表，那可是高水平。当有别人答的上的时候，就不服，瞧不起。可能会说，我们是有引力研究中心的、国家一级学科的、名牌大学的、又有头衔博士、头衔教授、研究员什么的，好像世界上只有他们的水平高。但他们学贯九斗确实答不上，怎么办？反正又不能少工资，凉拌。如果暗地里提一点引子，有心人就会到处钻，整出自己的看法。这时，能把原创能甩多远就有多远，总想开天辟地，哪怕是从别处得到的启发。我希望不如此。请仔细往下看。</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>There are many studies, as well as many professors and doctors, but they only know about universal gravitation, how to calculate certain places on Earth, without knowing why. HQW - Hu's spacetime quantum theory can solve many problems, and is not afraid to reveal a bit to provide everyone with articles for good reviews from professors and doctors, and a raise in salary. Of course, if each of them were to publish an article, there would be possibilities, even though the viewpoints may differ. But there is only one objective truth that exists. If asked to express it in the simplest language, they might not be able to answer. Writing an article involves stating certain viewpoints from certain years and months, then summarizing them, creating a few formulas, the more complex the better to show expertise, writing a lengthy book, producing numerous doctoral theses is not a problem. Or publishing in a certain journal, as long as it is published, it is considered high-level. When someone else can answer, they become dissatisfied and look down on others. They may say, we are from the Center for Gravitational Research, a national first-class discipline, a prestigious university, with titles such as doctor, professor, researcher, etc., as if their level is the highest in the world. But they truly cannot answer comprehensively, what to do? Anyway, they cannot lose salary, so be it. If a hint is subtly provided, those who are interested will explore everywhere and come up with their own opinions. At this point, the farther one can distance oneself from the original creation, the better, always wanting to innovate, even if it is inspired by elsewhere. I hope it is not like this. Please read on carefully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "土生万物，万物归土"，土壤是我们人类生存的根本，很多人将土壤比作母亲，可见土壤对我们的重要性。然而，随着科技的发达，人类文明的进步，各种污染的出现，我们这片生活的土地已是满目疮痍。"土壤病"是由于土壤本身不健康，而产生的影响或引起农作物不能正常生长和所发生的病害，会造成植物减产甚至绝收。据中国环境保护部和国土资源部公报，中国16.1%的土壤受到污染，耕地污染的比例是19.4%，已有0.5亿亩耕地不适宜进行农业种植，环保人士称，余下的耕地大部分也属于低质或中质水平。在农业上，污染是土壤众多问题中的一个，也是造成"土壤病"的主要原因。 "土壤病"是"土传病害"吗？首先，我们必须认识到，土壤是一个有生命活动的机体，它具有物质代谢、能量转化和信息传导功能，一旦土壤理化生物性质出现问题，就会影响到土壤健康状况和植物正常生长。其次，我们还必须弄清"土壤病"和"土传病害"这两个概念，我们说的"土壤病"就是由于土壤本身的不健康问题引起农作物不能正常生长所发生的受害表现；而"土传病害"则是因为各种病源菌在土壤中生存或寄生并通过土壤传播给农作物所发生的病害。 如何判断"土壤病"？要判断土壤有没有病，首先要看生长在土壤上的农作物有没有病状，如果生长在一块土壤上的农作物因非侵染性病害所致，不能正常健壮生长所发生的病害，那就证明这个土壤本身有问题，属于不健康土壤引起的病害，所以，凡是由于土壤不健康而影响或引起农作物发生的病害，就是"土壤病"。引起"土壤病"的原因主要有以下几方面：一、长期不深耕造成的土壤耕作层变浅，耕层土壤板结严重；二、盲目大量使用化肥引起的肥害及土壤营养比例失调、以及所造成的土壤酸化和土壤次生盐碱化；三、掠夺式的营养管理导致土壤严重缺乏中微量营养元素；四、以化肥、农药及重金属为主要污染源的土壤污染；五、大量使用化肥造成土壤酸化和土壤次生盐碱化；六、长期不施有机肥出现的土壤有机质缺乏，盲目管理造成设施农业土壤发生的综合症等。"土壤病"有什么危害？土壤病危害巨大。比如，农作物抗逆性减弱，农作物根系不发达甚至腐烂死亡，从而导致了植株矮小或不能正常生长，常发生小叶、黄叶、早期落叶，花而不实、落花落果，果实畸形或失去了果品原有的良好风味，农产品品质下降甚至生产出不安全食品，产量不高以至生产出有毒食品，设施栽培的土壤有些栽植四、五年后就要换土或弃棚等。</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>"All things come from the earth, and all things return to the earth." Soil is the foundation of our human existence. Many people liken soil to a mother, highlighting the importance of soil to us. However, with the advancement of technology and human civilization, along with the emergence of various pollutants, the land of our lives is now devastated. "Soil sickness" is the impact or occurrence of crop diseases caused by unhealthy soil itself, leading to abnormal growth of crops and resulting in reduced yields or even crop failure. According to reports from the Chinese Ministry of Environmental Protection and the Ministry of Land and Resources, 16.1% of China's soil is polluted, with 19.4% of arable land being contaminated. There are already 50 million mu of arable land unsuitable for agricultural planting. Environmentalists point out that most of the remaining arable land is of low or medium quality. Pollution is one of the many problems with soil in agriculture and a major cause of "soil sickness."
+Is "soil sickness" the same as "soil-borne diseases"? First, we must recognize that soil is a living organism with metabolic, energy conversion, and information transmission functions. Once there are issues with the physical, chemical, and biological properties of the soil, it will affect soil health and plant growth. Secondly, we must differentiate between "soil sickness" and "soil-borne diseases." "Soil sickness" refers to the damage caused by the unhealthy condition of the soil itself, leading to the inability of crops to grow normally. On the other hand, "soil-borne diseases" are diseases caused by various pathogenic fungi living or parasitizing in the soil and spreading to crops through the soil.
+How to determine "soil sickness"? To determine if the soil is sick, we first need to observe whether the crops growing in the soil show any signs of disease. If the crops on a piece of soil cannot grow healthily due to non-infectious diseases, it indicates that the soil itself has problems, leading to diseases caused by unhealthy soil. Therefore, any disease affecting or caused by crops due to unhealthy soil is considered "soil sickness." The main causes of "soil sickness" include: 1. Shallow soil cultivation due to long-term lack of deep plowing, resulting in severe soil compaction in the tillage layer; 2. Excessive use of chemical fertilizers causing fertilizer damage, imbalance of soil nutrients, soil acidification, and secondary soil salinization; 3. Nutrient deficiency in the soil due to exploitative nutrient management; 4. Soil pollution mainly from chemical fertilizers, pesticides, and heavy metals; 5. Soil acidification and secondary soil salinization caused by excessive use of chemical fertilizers; 6. Lack of organic matter in the soil due to long-term absence of organic fertilizers, leading to comprehensive syndromes in soil management in facility agriculture, etc.
+What are the hazards of "soil sickness"? The hazards of soil sickness are enormous. For example, weakened stress resistance of crops, underdeveloped or rotting root systems, resulting in stunted growth or abnormal growth of plants, common symptoms such as small leaves, yellowing leaves, early leaf fall, flowers without fruiting, flower and fruit drop, deformed fruits, loss of original good flavor of fruits, decreased quality of agricultural products, production of unsafe food, low yields leading to production of toxic food, and the need to change soil or abandon greenhouses after four or five years of cultivation in facility agriculture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>【环球网报道记者王莉兰】法国国际广播电台4月7日报道称，印尼当地时间4月6日，该国最高法院驳回了两名澳大利亚籍毒贩就印尼总统佐科·维多多拒绝考虑其特赦请求所提出的上诉。这两名澳籍毒贩与其他8人因贩毒被印尼法庭判处死刑，他们随时有可能被执行死刑。据报道，印尼最高检察官的发言人表示，上述结果说明“他们已经竭尽了法律程序中应有的一切可能”。这两名澳大利亚籍毒贩分别是安德鲁·陈(Andrew Chan)和苏库玛朗(Myuran Sukumaran)，澳大利亚多次为这两名澳大利亚籍贩毒贩求情，希望能对他们从轻处罚，但毫无结果。他们和其他8人、共10名外国人因贩毒被印尼法庭判处死刑，随时有可能被执行死刑。报道指出，佐科·维多多自2014年当选以来即对贩毒继续采取严打立场。他已在1月签署总统令，批准枪毙包括5名外国人在内的6名毒贩。</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>【Global Network reporter Wang Lilan】French International Broadcasting Station reported on April 7th that on April 6th local time in Indonesia, the country's Supreme Court rejected the appeal filed by two Australian drug traffickers against Indonesian President Joko Widodo's refusal to consider their pardon requests. These two Australian drug traffickers, along with 8 others, were sentenced to death by an Indonesian court for drug trafficking, and they could be executed at any time. According to reports, a spokesperson for the Indonesian Attorney General's Office stated that the outcome indicates "they have exhausted all possible legal avenues." The two Australian drug traffickers are Andrew Chan and Myuran Sukumaran. Australia has repeatedly interceded for these two Australian drug traffickers, hoping for leniency, but to no avail. They, along with 8 others, a total of 10 foreigners, were sentenced to death by an Indonesian court for drug trafficking and could be executed at any time. The report pointed out that since being elected in 2014, Joko Widodo has maintained a tough stance on drug trafficking. In January, he signed a presidential decree approving the execution of 6 drug traffickers, including 5 foreigners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>7月25日记者从首儿所获悉，7月25日起，首都儿科研究所附属儿童医院的内分泌科、消化内科、心血管内科、肾脏内科病房将搬迁至河北燕达国际医院。据悉，首儿所病房楼五、六层将于8月初进行装修改造。这是首儿所自2015年确定住院楼逐层改造方案后的第二期改造工程，将切实为住院患儿和医护人员提供更好的医疗及工作环境。同时，四个重点专业科室入驻河北燕达医院，也是响应中央“京津冀协同发展”号召，落实“首儿所—燕达儿科疾病诊疗中心”工作的重要举措。首儿所住院楼建于2003年，设计床位300张，从启用至今已有10年。部分病房的墙面已脱落、设备管道老化，而且随着门诊量的逐年增长，现有的病房及医疗用房无法满足更多住院患儿的需求。2015年，首儿所决定对住院楼进行重新装修，为了不影响正常医疗工作，采用分期、逐层改造的方案。据悉，8月初，首儿所住院楼五层、六层将进行重新装修，预计今年年底前完工。装修改造后的病区将在面积使用率、区域分布、功能流程、设备安全等方面都有极大改善，能有效降低院内交叉感染，为患儿提供良好的治疗康复条件。四个专业科室搬迁至燕达医院后，每个专业原有的30张床，将扩大至46张床位以上，原有的三人间病房改为双人间，患儿的检查、治疗、住院费用不会因住院条件的改善而发生变化，也不影响北京儿童医保报销。四个专业的科室门诊不会迁出，医生在首儿所出诊时间不变，门诊工作地点不变。为了方便患者家属，首儿所开设了免费班车，每天4次往返于两院间。据悉，装修完成后，病房会迁回。</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>On July 25th, it was learned from the Children's Hospital affiliated to the Capital Institute of Pediatrics that starting from July 25th, the Endocrinology Department, Gastroenterology Department, Cardiovascular Department, and Nephrology Department wards of the hospital will be relocated to the Hebei Yanda International Hospital. It is reported that Floors 5 and 6 of the hospital building at the Capital Institute of Pediatrics will undergo renovation and modification in early August. This is the second phase of the renovation project since the hospital established the plan to renovate the inpatient building floor by floor in 2015, aiming to provide a better medical and working environment for inpatients and medical staff. At the same time, the relocation of the four key specialized departments to Hebei Yanda Hospital is also an important measure in response to the call for coordinated development of the Beijing-Tianjin-Hebei region by the central government, and to implement the work of the "Capital Institute of Pediatrics - Yanda Pediatric Disease Diagnosis and Treatment Center". The inpatient building of the Capital Institute of Pediatrics was built in 2003 with a design capacity of 300 beds, and has been in operation for 10 years. Some ward walls have peeled off, equipment pipelines have aged, and with the increasing number of outpatient visits each year, the existing wards and medical rooms cannot meet the needs of more inpatients. In 2015, the Capital Institute of Pediatrics decided to renovate the inpatient building. In order not to affect normal medical work, a phased and floor-by-floor renovation plan was adopted. It is reported that in early August, Floors 5 and 6 of the inpatient building will be renovated, with an expected completion before the end of this year. The renovated wards will see significant improvements in area utilization, spatial distribution, functional processes, equipment safety, etc., effectively reducing cross-infections within the hospital and providing good conditions for the treatment and recovery of patients. After the relocation of the four specialized departments to Yanda Hospital, the number of beds for each specialty will be expanded from the original 30 beds to over 46 beds, and the previous three-bed rooms will be converted into double rooms. The examination, treatment, and hospitalization costs for patients will not change due to the improvement of the hospitalization conditions, and it will not affect the reimbursement under Beijing Children's Medical Insurance. The outpatient departments of the four specialized departments will not be relocated, and the doctors' consultation hours at the Capital Institute of Pediatrics will remain unchanged, as well as the outpatient work location. To facilitate patients' families, the Capital Institute of Pediatrics has provided a free shuttle service, making four round trips between the two hospitals every day. It is reported that after the completion of the renovation, the wards will be relocated back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>俗话说，一白遮千丑，皮肤白白嫩嫩的不但看着美丽更显得年轻，而我们随着年龄的增长，皮肤就会变的暗黄没有光泽。虽然现在市面上有很多美白的产品和方法，但我个人认为还是天然的最好。 20岁女士的美白重点：注重清洁，防晒为主处于20岁年龄段的女生，皮肤的新陈代谢良好，很少存在黑色素积聚沉淀的问题。最常见的是肤色暗沉的现象。这是由于表皮老化角质、黑色素和毛孔污垢没有及时清理。 提亮肤色的第一步就是选择有效去除暗哑的洁面产品，做好清洁工作。20岁的女生皮肤代谢黑色素较好。但是皮肤经过日晒后，其自我保护机制就会启动，不可避免的产生黑色素。只有做好日常防晒，才能有效预防黑色素生成。30岁女士的美白重点：美白同时，兼顾减压舒缓近年的美白报告显示，压力是加深色素的元凶之一。步入30的你，面对兼顾事业与家庭的压力，往往会刺激荷尔蒙产生黑色素。要提高美白的效率就必须同时为肌肤减压舒缓。40岁女士的美白重点：重锤打击黑斑，抗皱提亮肤色随着年龄的增长，皮肤的代谢能力会有所下降，黑斑极容易成为脸上的瑕疵。一向没有预防黑斑意识的女士，问题尤为严重。踏入40的女士还会陆续出现皮肤松弛、皱纹等困扰，这会产生皮肤暗沉的视觉错觉。此时，祛斑、抗皱讲是美白的主打旋律了。美白是女人之间永恒的话题，为了让自己的肌肤变白，女人们什么方法都敢试。其实，这样是不科学的，有的护肤方法，可能毁害肌肤，要慎重选择。</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>As the saying goes, "a fair complexion can conceal a thousand flaws." Skin that is fair and tender not only looks beautiful but also appears younger. However, as we age, our skin can become dull and lack luster. Although there are many whitening products and methods on the market now, I personally believe that natural methods are the best. The key to whitening for a 20-year-old woman: focus on cleanliness, with sun protection as a priority. Women in their twenties have good skin metabolism, with little problem of melanin accumulation. The most common issue is dull skin caused by the failure to timely clean aging keratin, melanin, and pore dirt on the epidermis. The first step to brightening the skin tone is to choose an effective cleansing product to remove dullness and do a good cleaning job. The skin metabolism of a 20-year-old woman is good at melanin. However, after exposure to sunlight, the skin's self-protection mechanism will be activated, inevitably producing melanin. Only by doing daily sun protection can melanin generation be effectively prevented. The key to whitening for a 30-year-old woman: while whitening, also focus on stress relief. Recent whitening reports have shown that stress is one of the culprits that deepen pigmentation. As you enter your thirties, facing the pressure of balancing career and family responsibilities often stimulates hormone production and melanin. To improve the efficiency of whitening, it is necessary to simultaneously relieve stress for the skin. The key to whitening for a 40-year-old woman: target dark spots, fight wrinkles, and brighten skin tone. With age, the skin's metabolism will decrease, making dark spots easily become flaws on the face. Women who have never had a consciousness of preventing dark spots will face more serious problems. Women in their forties will continue to experience skin sagging, wrinkles, and other concerns, leading to a visual illusion of dull skin. At this time, removing spots, fighting wrinkles, and brightening the skin tone become the main themes of whitening. Whitening is an eternal topic among women, and they are willing to try any method to make their skin whiter. In fact, this is not scientific. Some skincare methods may damage the skin, so it is important to choose carefully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>全球经济放缓以及香港时尚零售环境不景气，意大利奢侈品集团普拉达Prada(1913.HK)已开始放缓在香港和中国内地的开店节奏转而翻新店铺。Prada是这两年开了最多商店的品牌之一，导致分析家怀疑它是否会曝光过度。集团发言人透露，在未来两年集团将优化其零售网络，合理化库存并关闭或缩小一些盈利较少的店铺。Prada近日扩大了于2002年在香港广东道开设的品牌旗舰店，该店面积超过1.4万平方英尺，两层建筑连通海港城购物广场。集团战略营销总监StefanoCantino指出，这是集团对潜在市场的信任投资，即使市场环境艰难，品牌应该保持一贯的高质光鲜的形象，这对于一个奢侈品牌而言是很重要的。店铺更新后更符合现代消费者的期望，他们相信香港这个市场能够来良好的业绩。本月初Prada还翻新了位于上海恒隆广场(相关干货)的门店，至于新店铺的开业基本都不在大中华区市场，零售分析师和FIT教授RobinLewis相信Prada利润的下滑还归咎于品牌的过度曝光。从2012年开始，公司一直在疯狂扩张，在包括巴西、俄罗斯、印度、中国和南非在内的新兴金砖五国市场新增260家门店。就品牌吸引潜在新顾客的需求而言，是有意义的，但是在品牌无所不在的时候，已失去如何保持其珍稀的形象。今年4月，集团CEOPatrizioBertelli曾表示对于品牌全年发展的态度相当谨慎，截至1月31日的前12个月，由于中国地区经济放缓导致Prada在亚太地区的销售额下滑了16.1%。RobinLewis解释道：“过度曝光是所有奢侈品牌的死神。然而问题在于，品牌并不知道他们已经面临过度曝光的问题，到发现的时候，已经覆水难收。据集团财报显示，集团2015年纯利润为3.3亿欧元，同比去年同期大跌26.6%，营业收入录得35.48亿欧元，同比去年下滑0.1%，按当时固定汇率计算，则减少7.7%。现在，Prada开始修复品牌过度曝光的问题，将重点转向为消费者提供个性化体验和服务。StefanoCantino周五在香港Prada旗舰店重开典礼上表示，翻新的店铺反映了公司以消费者为中心的新商业战略，与以往不同的是，新店铺传递给消费者的信息是更亲密更个性化的，公司希望给客户提供独特的购物体验。另外，Prada还针对有特殊要求的顾客推出了定制服务，集团表示每月都会重新衡量商品售价，控制不同地区的商品价格差异在10%以内。</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>The global economic slowdown and the sluggish fashion retail environment in Hong Kong have prompted the Italian luxury goods group Prada (1913.HK) to start slowing down its store opening pace in Hong Kong and mainland China and instead focus on renovating stores. Prada, one of the brands that has opened the most stores in the past two years, has analysts questioning whether it may be overexposed. A spokesperson for the group revealed that in the next two years, the group will optimize its retail network, rationalize inventory, and close or downsize some less profitable stores. Prada recently expanded its flagship store on Canton Road in Hong Kong, which was opened in 2002, with a store area exceeding 14,000 square feet, spanning two floors and connecting to the Harbour City shopping mall. Stefano Cantino, the group's Chief Marketing Officer, pointed out that this investment in the potential market demonstrates the group's trust, even in challenging market conditions, that a luxury brand should maintain a consistent high-quality and fresh image, which is crucial for a luxury brand. The updated stores are more in line with the expectations of modern consumers, and they believe that the Hong Kong market can deliver good performance. Earlier this month, Prada also renovated its store at the IFC Mall in Shanghai. As for the opening of new stores, they are mostly not in the Greater China region. Retail analysts and FIT professor Robin Lewis believe that the decline in Prada's profits can be attributed to the brand's overexposure. Since 2012, the company has been aggressively expanding, adding 260 new stores in emerging BRICS markets, including Brazil, Russia, India, China, and South Africa. While it makes sense in terms of attracting potential new customers, the brand has lost its ability to maintain its exclusive image in the face of its omnipresence. In April of this year, the group's CEO Patrizio Bertelli expressed a cautious attitude towards the brand's annual development. For the twelve months leading up to January 31, sales in the Asia-Pacific region declined by 16.1% due to the economic slowdown in China. Robin Lewis explained, "Overexposure is the death knell for all luxury brands. However, the problem is that brands are often unaware of their overexposure until it's too late to reverse the trend." According to the group's financial report, the group's net profit in 2015 was 330 million euros, a significant drop of 26.6% compared to the same period last year, with operating income reaching 3.548 billion euros, a decrease of 0.1% year-on-year, or a 7.7% decrease at the fixed exchange rate at that time. Now, Prada is addressing the issue of brand overexposure by shifting its focus to providing personalized experiences and services for consumers. Stefano Cantino stated at the reopening ceremony of the Prada flagship store in Hong Kong on Friday that the renovated stores reflect the company's new consumer-centric business strategy. Unlike before, the message conveyed to consumers through the new stores is more intimate and personalized, aiming to provide customers with a unique shopping experience. Additionally, Prada has introduced customized services for customers with special requirements, and the group stated that they will reassess product prices monthly to ensure that the price difference between different regions is kept within 10%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>宝马3系E46改装气动避震搭配ACCUAIR控制系统“第四代3系内部代号E46，由宝马独立完成外形设计的E46比前辈更显动感时尚，内饰也摆脱了老款车型略显老旧的设计风格。更重要的是宝马为E46配置了许多电子设备，车载蓝牙、多媒体影音娱乐系统、导航等现在看来十分普通的配置对于初生的E46来说还是新鲜玩意儿。E46不再以提升动力性能为重点，改以降低动力总成重量，增强车身刚性作为研发方向。”但是今天介绍的不是E46的前世今生，而是改装气动避震玩低趴姿态的E46，爱车的人当中总是有一些不安分的车主，通过自己的想法和创造力，来实现了一台又一台的气动避震改装作品！低矮的车身姿态，轮毂和翼子板的完美结合，一切看起来是那么的和谐和自然 什么是气动避震呢气动避震是安装在汽车上面的一种空气悬挂减震器，是由弹性橡胶气囊减震器、气压控制系统、储气罐、电子控制系统、连接管路所组成的。气动避震器，使车的身高度能够自由的升降，在路况不好的时候车身可以使用控制器来升高，在高速行驶时车身可以降低，另外一个最大的亮点就是静态下完全附身趴地的视觉效果，简直是令人惊叹以前总以为低车身是超级跑车的专属，现在气动避震的改装完全颠覆了我的观念，只要你敢想，并付诸行动，低趴根本就不在话下下面是宝马3系E46专用的AIRBFT气动避震的真实照片，喜欢低姿态的车友可以了解一下，专车专用，原车安装位置，超大的行程让你可以降得更低，升的更高 但是，想要高逼格的玩Hellaflush低趴风格，只有一套AIRBFT气动避震是不够的，就像是好马配好鞍，美国ACCU的控制系统是不可替代的选择，因为ACCU是目前世界公认最稳定和最智能的一套控制系统！功能介绍：四轮独立升降，前后独立升降，智能调节水平，智能补气，三段记忆高度（可自行调节）一键下降，点火自动升高等功能 AIRBFT气动避震检测现场…… ACCUAIR控制系统清点现场，为什么是清点现场呢？因为都是纯美国进口，包括一片纸都是漂洋过海从美国来的，不是崇洋媚外，好的东西，的确是值得分享…… 淞江集团 气动避震（上海）运营中心是气动避震/空气悬挂/汽车悬挂系统零配件，整车套件等研发，生产，定制，销售综合性为一体的科研团队，坐落在金融中心上海，秉承：品质成就伟业，态度专注责任！带您享受爱车的无限驾乘乐趣，品味态度，精彩人生更多气动避震的行为和乐趣，请添加微信：jiuhu777</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>The BMW 3 Series E46 modified with pneumatic shock absorbers paired with the ACCUAIR control system. The fourth-generation 3 Series, internally coded as E46, was independently designed by BMW, appearing more dynamic and stylish than its predecessors. The interior has also broken away from the slightly outdated design of previous models. Importantly, BMW equipped the E46 with many electronic devices, such as in-car Bluetooth, multimedia entertainment systems, and navigation, which were considered quite ordinary but fresh for the E46 at the time. The E46 no longer focuses on improving power performance but instead on reducing the weight of the powertrain and enhancing body rigidity as the direction of development. However, today's introduction is not about the past and present of the E46, but about the modified E46 with pneumatic shock absorbers for a lowered stance. Among car enthusiasts, there are always some restless owners who, through their ideas and creativity, have realized one pneumatic shock absorber modification after another! The low stance of the car, the perfect combination of wheels and fenders, everything looks so harmonious and natural. What is pneumatic shock absorption? Pneumatic shock absorbers are a type of air suspension shock absorber installed on cars, consisting of elastic rubber airbags, air pressure control systems, air tanks, electronic control systems, and connecting pipelines. Pneumatic shock absorbers allow the car's height to freely adjust. When the road conditions are poor, the controller can raise the body, and during high-speed driving, the body can be lowered. Another major highlight is the visual effect of the car completely lying flat on the ground when static, which is truly amazing. I used to think that a low body was exclusive to supercars, but now pneumatic shock absorber modifications have completely overturned my perception. As long as you dare to think and take action, a low stance is not a problem at all. Below are real photos of the AIRBFT pneumatic shock absorbers specifically for the BMW 3 Series E46. For car enthusiasts who like a low stance, you can check it out. Designed for specific cars, the original installation position allows you to lower and raise the car even more with its large stroke. However, if you want to play with a high-end Hellaflush low stance style, having just a set of AIRBFT pneumatic shock absorbers is not enough. Just like a good horse needs a good saddle, the American ACCUAIR control system is an irreplaceable choice because ACCUAIR is currently recognized as the most stable and intelligent control system in the world! Features include: independent lifting and lowering of all four wheels, independent lifting and lowering of the front and rear, intelligent level adjustment, intelligent air replenishment, three-stage memory height (adjustable), one-touch lowering, ignition automatic lifting, and other functions. AIRBFT pneumatic shock absorber testing scene... ACCUAIR control system inventory scene. Why is it an inventory scene? Because everything is purely imported from the United States, even a piece of paper has traveled across the ocean from the United States. It's not about blind worship of foreign things, but good things are indeed worth sharing. The Pneumatic Shock Absorption (Shanghai) Operations Center of Songjiang Group is a comprehensive research team specializing in the development, production, customization, and sales of pneumatic shock absorbers, air suspensions, and car suspension system components and complete kits. Located in the financial center of Shanghai, they adhere to the motto: Quality Achieves Greatness, Attitude Focuses on Responsibility! Let you enjoy the infinite driving pleasure of your beloved car, savor the attitude, and experience a more exciting life. For more actions and fun with pneumatic shock absorbers, please add WeChat: jiuhu777.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>生活贴士夏季高温，很多消费者都想购入一台物美价廉的好空调，那么空调究竟如何选购呢？专家指出，购买空调要避免以下3个误区：误区1：只重匹数概念。在专业的概念里，一匹的准确含义是制冷量为2500瓦每小时。但目前几乎所有厂家和商家在解释这个概念的时候总是有意无意的制造一些容易混淆的概念。因此在选购空调时，不要只看商家所介绍的匹数，而应该以产品铭牌上标定的功率为直接参考数值。误区2：体积小质量好。消费者不能把目光仅仅放在空调室内机的体积上。有些高品质空调的确结构紧凑合理，例如采用多折热交换器、双排水系统等方式压缩室内机尺寸。但是更多的小尺寸室内机是在损失了性能和品质及节省材料为基础的情况下达到小尺寸目的的。所以消费者在选择空调时不要把这个尺寸作为标准。误区3：关注低温启动。低温启动目前正在成为一些厂家或商家宣传的重点，但是这个“功能”并非如宣传的那样神奇。据介绍，低温启动并非难以实现的功能，而且其实际意义并不大。在室外温度过低时，如果让空调制热，其能效比将大幅度降低，造成实际使用的意义不大。</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Summer high temperatures, many consumers want to buy a good and inexpensive air conditioner, so how to choose an air conditioner? Experts point out that there are 3 misconceptions to avoid when purchasing an air conditioner: Misconception 1: Only focus on the concept of horsepower. In the professional concept, the accurate meaning of one horsepower is a cooling capacity of 2500 watts per hour. However, currently almost all manufacturers and merchants intentionally or unintentionally create some confusing concepts when explaining this concept. Therefore, when choosing an air conditioner, do not just look at the horsepower introduced by the merchant, but should directly refer to the power specified on the product nameplate. Misconception 2: Small size equals good quality. Consumers should not only focus on the size of the indoor unit of the air conditioner. Some high-quality air conditioners do have compact and reasonable structures, such as using multi-fold heat exchangers, dual drainage systems, etc., to compress the size of the indoor unit. However, many small-sized indoor units achieve their small size goals based on the loss of performance and quality and material savings. Therefore, consumers should not use this size as a standard when choosing an air conditioner. Misconception 3: Focus on low-temperature startup. Low-temperature startup is currently becoming a focus of promotion by some manufacturers or merchants, but this "feature" is not as magical as advertised. It is introduced that low-temperature startup is not a difficult function to achieve, and its actual significance is not significant. When the outdoor temperature is too low, if the air conditioner is used for heating, its energy efficiency ratio will be greatly reduced, resulting in little practical significance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>一个人类去和某种特定的非灵长目人科人属智人种的其他哺乳类动物交配，这本身并不值得大惊小怪。毕竟，发生在人类中间各种性质的性倒错古已有之。恋兽狂，或曰兽奸，是以动物为对象获得性满足的一种成瘾性变态性行为。除非在无法取得正常性生活的人群中发生，恋兽癖与恋童癖，恋尸癖一样，均归因于性心理精神疾患。换句话说，这是一种病，应该得到诊治而非攻击。但诡异的是，对于恋兽癖患者正当人权的维护，却并不是我们目前面对的主要议题。我们的道德困境来自完全不同的面向。那就是对于恋兽狂的一种大张旗鼓的戏仿，和与此同时引发的网络狂欢。在我们神奇的网络上，兽奸这样的变态行为因为被看成是一种取悦大众的娱乐正在被赋予某种令人迷惑的正当性。最近的盛况是，某个千万级的大V，把自己与一只狗摆拍成交配的姿态，并直截了当地名之曰“练习日狗大法”，发布在微博上。而接下来你会发现，这样一条伤风败俗的微博在短短几个小时内获得了极度热烈的回应，这就包括上万条热情洋溢的评论和几万条点赞。这当中也有极少数批评者发出微弱的声音，试图质疑这条微博发布在公众平台对于社会良俗会否造成有害影响。而这样的商榷则会立即得到博主简洁有力的回应。这些回应就包括操你妈和晒傻逼。而这些回应又会博得众多粉丝新一轮的欢呼和掌声。你不觉得那照片太恶心了吗？绝大多数不知道其中深意的人都会有这种困扰吧。而经查这其中所谓的深意也不过是漫画中对于“日狗”这两个字最粗浅的描摹。当你真的把一条阿拉斯加犬放倒在床上，骑跨其上，并让房间内第三者取角度进行专门拍摄，并把图片公然放置到公共平台，比如微博上，并美其名曰日狗大法。这种行为的策划与操作过程很明显是经过深思熟虑的。它具有明确的指向性，指向一种效仿。这种粗鄙的，超限的语言范式和行为范式正在不断刷新网络语言的底线。而这种违背正常伦理的言行正在被当做独特的个性，在网络上被高度关注赞赏和推广。这种赞赏就包括动辄以“操你妈”回应批评的上述网络达人正被媒体亲切地冠之以“国民老公”的称谓。对于网络达人在微博上展示日狗图片的新闻，慕容雪村写到，“我见识不广，在我的视野范围内，很少看到欧美诸国中有人开这样的玩笑。公众人物应该考量自己的言行能够对社会和人群产生的影响。把低俗当性格，把残忍卑鄙的言论当作独特的个性，这种风格再加上敌我斗争和仇恨教育，就会使社会情绪染上更加难以逆料的血腥味。”当然，热衷于娱乐的拥趸们当然不会这样认为。</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>A human mating with a specific non-primate, non-human species of mammals is not worth making a fuss about. After all, various types of sexual deviations have long existed among humans. Zoophilia, also known as bestiality, is an addictive paraphilic behavior where animals are the objects of sexual gratification. Unless occurring in populations unable to have normal sexual relationships, zoophilia, like pedophilia and necrophilia, is attributed to sexual and psychological disorders. In other words, it is an illness that should be diagnosed and treated rather than attacked. However, strangely, the protection of the human rights of zoophiles is not the main issue we are currently facing. Our moral dilemma comes from a completely different perspective. That is, a blatant mimicry of zoophilia and the simultaneous frenzy it triggers on the internet. On our magical internet, deviant behaviors like bestiality are being given a confusing legitimacy as a form of entertainment to please the masses. A recent phenomenon is that a social media influencer with millions of followers posed in a mating position with a dog and boldly named it "Practicing the Dog Day Method," posting it on Weibo. Subsequently, you will find that this vulgar Weibo post received extremely enthusiastic responses within a few hours, including tens of thousands of passionate comments and likes. Among them, a very small number of critics weakly voiced their concerns, attempting to question whether such a post on a public platform would have a harmful impact on societal norms. However, such debates are immediately met with the blogger's concise and forceful responses, including vulgar language and insults. These responses then garner a new round of cheers and applause from many fans. Don't you find the photo disgusting? Most people who do not understand the deeper meaning would be troubled by this, right? Upon investigation, the so-called deeper meaning is nothing more than a superficial depiction of the words "Dog Day" in a cartoon. When you actually lay an Alaskan Malamute on a bed, straddle it, have a third party in the room take a specific angle for a dedicated photo shoot, and openly post the picture on a public platform like Weibo, calling it the Dog Day Method, the planning and execution of such behavior are clearly deliberate. It has a clear direction, pointing towards imitation. This vulgar and excessive linguistic and behavioral paradigm is constantly pushing the boundaries of internet language. And this behavior, contrary to normal ethics, is being treated as a unique personality, highly praised, and promoted on the internet. This praise includes readily responding to criticism with vulgar language, and the aforementioned internet celebrities are affectionately dubbed "National Sweethearts" by the media. Regarding the news of internet celebrities showcasing dog day pictures on Weibo, Murong Xuecun wrote, "I have limited exposure, and within my scope, I rarely see people in European and American countries making such jokes. Public figures should consider the impact their words and actions can have on society and the public. Treating vulgarity as personality, and cruel and despicable remarks as unique traits, this style, combined with the indoctrination of hostility and hatred, will make social emotions tainted with an increasingly unpredictable bloody taste." Of course, fans who are enthusiastic about entertainment would not think so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 《锦绣缘华丽冒险》32、33集电视剧全集大结局：锦绣流产与左震决裂在最新的预告片中，左震终于夺回属于自己的一切，但是锦绣却因为流产失去了孩子，有些“疯疯癫癫”，因为丧子之痛恨透了左震，甚至要放弃父母之仇，选择轻生。究竟是谁救了锦绣？而左震与锦绣的感情又将如何发展呢？锦绣缘·华丽冒险第30集剧情石浩为证左震清白毙命龙四讨好前田，他说现在上海所有的码头都是他的了，前田君想运多少货都可以。前田却警告龙四不要得意忘形，须知中国有句老话叫“小心驶得万年船”。石浩注意到，前田离去时走在他身边的居然是殷明珠。龙四喝得醉醺醺时发泄说全上海只有前田敢对自己不敬，他拍着石浩的脸说他没有跟错人，他龙四就是上海的皇帝。石浩趁着龙四醉得人世不省潜入书房去翻找证明左震清白的证据，他找到了自己想要的东西，但其实东西是前田有计划放在那里让他找到的。事情的发展都是前田在幕后推波助澜。石浩将证据藏在一个安全的地方，随后就被前田的人抓了，前田说自己很敬佩他留在龙四身边委曲求全只为找到左震清白的证据。他以龙四现有的位置利诱石浩，条件就是要为大日本帝国服务，但石浩说自己不会做卖国贼。殷明珠将从向寒川处听到的将货转移码头的消息告诉前田，迫不及待地向前田要福膏，但前田以她带来的消息越来越没用为由拒绝给她福膏。前田将殷明珠带到关押石浩的牢房，前田让她亲手杀了石浩以表忠心，殷明珠颤抖着手无法下手，石浩拉着明珠的手亲自扣响了扳机，并在明珠手里塞了一把钥匙，告诉她这是自己藏证据的地方，希望她能将证据取出来证明左二爷的清白。殷明珠拿着钥匙思想斗争好久还是将证据取出来交给了前田。得知左震的原弟兄们要替石浩办葬礼，正中龙四下怀，他要让这一天成为左震的葬礼，他让手下带人埋伏在那里，并叫上商会的长老们见证这一时刻。左震告诉锦绣他要去办一件必须要办的事，锦绣不让他去，说两人明明说好的等攒多一点钱就一起回镇江去过平静的生活，左震说他们一定会回家，但必须先做完这件事，锦绣知道左震决定的事她拗不过，只得让他千万小心，她和孩子在家里等他安全回来。左震明知道出现会有什么后果，但他还是义无反顾地出现在石浩的葬礼上，他对石浩说自己一定不会让他失望。果然龙四出现了，说是要当着众长老的面清理门户，他指着左震的枪一个转眼就到了左震的手里，左震用枪指着龙四说，杀死冯先生的是他龙四，皇浦商会的叛徒也是他龙四。</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>The final episodes 32 and 33 of the TV series "Gorgeous Adventure of Splendid Love" ended with a dramatic climax. In the latest preview, Jinxiu suffered a miscarriage and broke up with Zuo Zhen. Overwhelmed by the pain of losing her child, Jinxiu became somewhat "crazy" and resented Zuo Zhen deeply. She even considered giving up her vendetta against her parents and chose to end her life. Who ultimately saved Jinxiu? And how will the relationship between Zuo Zhen and Jinxiu develop? 
+In episode 30 of "Gorgeous Adventure of Splendid Love," Shi Hao proved Zuo Zhen's innocence and sacrificed himself to please Long Si, telling him that all the docks in Shanghai now belonged to him and he could transport as much cargo as he wanted. However, Long Si warned him not to get carried away, reminding him of an old Chinese saying, "Beware of the ship that has sailed for thousands of years." Shi Hao noticed that when Maeda left, the person walking beside him was unexpectedly Yin Mingzhu. 
+While drunk, Long Si vented his frustrations, claiming that only Maeda dared to disrespect him in all of Shanghai. He slapped Shi Hao's face, asserting that he had not chosen the wrong person and that he, Long Si, was the emperor of Shanghai. Taking advantage of Long Si's intoxicated state, Shi Hao sneaked into the study to search for evidence of Zuo Zhen's innocence. He found what he was looking for, not realizing that Maeda had intentionally left it there for him to find. The unfolding events were all orchestrated by Maeda behind the scenes. Shi Hao hid the evidence in a safe place but was soon captured by Maeda's men. Maeda expressed his admiration for Shi Hao's loyalty to Long Si in his quest to find evidence of Zuo Zhen's innocence. He tempted Shi Hao with the offer to serve the Greater Japanese Empire, but Shi Hao refused to be a traitor. 
+Yin Mingzhu informed Maeda about the plan to move the goods to the docks she had heard from Xiang Hanchuan. Impatiently, she asked Maeda for the "Fu Gao," but he refused, claiming that her information was becoming less useful. Maeda took Yin Mingzhu to the cell where Shi Hao was being held captive and ordered her to kill Shi Hao as a sign of loyalty. Trembling, Yin Mingzhu was unable to do it, so Shi Hao took her hand and pulled the trigger himself. He then placed a key in Yin Mingzhu's hand, revealing the location where he had hidden the evidence, hoping she would retrieve it to prove Zuo Zhen's innocence. After much internal struggle, Yin Mingzhu eventually took out the evidence and handed it over to Maeda. 
+Upon learning that Shi Hao's former brothers intended to hold a funeral for him, Long Si saw an opportunity to turn it into Zuo Zhen's funeral. He ordered his men to ambush the funeral site and invited the elders of the Chamber of Commerce to witness the moment. Zuo Zhen informed Jinxiu that he had to attend to something important. Although Jinxiu tried to stop him, reminding him of their agreement to return to Zhenjiang for a peaceful life once they had saved enough money, Zuo Zhen insisted that they would go home eventually but had to take care of this matter first. Knowing she couldn't change Zuo Zhen's decision, Jinxiu could only advise him to be careful and wait for his safe return with their child at home. 
+Fully aware of the consequences of his appearance, Zuo Zhen still showed up at Shi Hao's funeral without hesitation. He assured Shi Hao that he would not disappoint him. Suddenly, Long Si appeared, claiming he was there to clean house in front of the elders. In a swift move, the gun that Long Si was pointing at Zuo Zhen ended up in Zuo Zhen's hand. Zuo Zhen pointed the gun at Long Si, revealing that it was Long Si who killed Mr. Feng and betrayed the Huangpu Chamber of Commerce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>“这样尽职尽责的保安，值得好好表扬。”10月24日，家住常德市城区电力新村的于先生停车时忘了关车窗，还把装有数万元现金的背包落在了座位上，幸亏小区保安及时发现并帮他把财物保管起来，这让他非常感动。10月24日晚，于先生驾车回家，将车停在小区里面。“当时想着等会儿还要出门的，随身的包就没拿回家，急急忙忙的也忘记把车窗关上。”次日凌晨3时许，蓝剑保安公司大队长彭长林和两位队员在该小区巡逻时，发现了于先生的这辆没有关车窗的汽车，“我们凑近一看，发现车内还放了一个小背包。”为了避免业主财物丢失，他们将背包取出，并留下字条。“我们把包带到监控室打开一看，里面有大量的现金和一些证件。”彭长林根据证件上的信息，找到了于先生的电话号码和住址，天一亮就通过物业负责人联系到于先生，及时将财物归还。</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>"The security guard who is so diligent and responsible deserves to be commended." On October 24th, Mr. Yu, who lives in Dianli Xincun, Chengqu, Changde City, forgot to close the car window when parking and left his backpack containing tens of thousands of yuan on the seat. Fortunately, the security guard in the residential area discovered it in time and helped him keep his belongings safe, which deeply moved him. On the evening of October 24th, Mr. Yu drove home and parked his car in the residential area. "At that time, I thought I would need to go out later, so I didn't bring my bag home with me, and in a hurry, I forgot to close the car window." Around 3 a.m. the next day, Peng Changlin, the captain of the Blue Sword Security Company, and two team members were patrolling in the residential area when they found Mr. Yu's car with the window open. "We approached and found a small backpack inside the car." To prevent the owner from losing his belongings, they took out the backpack and left a note. "We took the bag to the monitoring room, opened it, and found a large amount of cash and some documents inside." Based on the information on the documents, Peng Changlin found Mr. Yu's phone number and address, and contacted him through the property manager as soon as it was daylight to return the belongings promptly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 女子当时就倒在公交车上监控截图 女子当时就倒在公交车上监控截图N海都记者苏燕梅毛朝青海都讯昨日上午7点28分左右，福州一辆100路公交车上，一位女子突然晕倒了。“救人要紧！”46岁的公交车司机赵底新，直接将车开进了附近的福建省级机关医院。叫乘客打120 换来的却是沉默昨日下午，记者在福州火车站旁边的公交车总站，见到了赵底新师傅。赵底新告诉记者，当时，他开着的公交车刚刚离开社会主义学院公交车站。只听后面传来“扑通”一声，他回头朝车厢看了看。“有人晕倒了。”车厢里有人喊道。“麻烦大家帮我打120。”他边靠边停车，边建议乘客打电话。可是，换回的却是一片沉默。赵底新只好掏出手机打电话，可能是太紧张了，他拨成了110。打完电话，全车人开始等待，每一秒大家都觉得很漫长。“现在情况紧急，又是高峰期，这样等下去不是办法。福建省级机关医院就在旁边，还是把人及时送到医院为宜。”车内一位七旬老人说。“听了老人的话，我有了主意。”赵底新说，当时，他立即对车内所有乘客说，他要把公交车直接开到医院，希望乘客能支持，如果乘客有急事，可以先下车。说完，他打开了车门，但大部分乘客都选择留在车上。公交车从湖滨路转了个弯，来到了福建省级机关医院。由于医院内坡度大，公交车开不上去，无奈之下，赵底新将车子停在半坡上，跑进急诊室叫医生。医生来了后，晕倒的女子也醒了过来，说自己可能是低血糖犯了，才晕倒的。赵底新建议女子先在医院休息一下，吃点东西再离开。乘客后来的行为 又让司机心暖昨日上午，记者来到医院，晕倒的女子正在急诊室里休息，记者没有打扰先行离开。过了十多分钟，记者再次来到急诊室，发现女子已经离开。在采访中，赵底新说，乘客在车上，就跟他有关系。他觉得，将晕倒的乘客送医院，是他分内的事情。赵底新告诉记者，当时，他的心里也像过山车一样。刚开始，没人打电话叫救护车，让他有些心凉。可是，当他把公交车开到医院，乘客们都没有意见时，他心里的温度开始回升。公交车送人，耽误了乘客30分钟，没有一位乘客表示不满。送完人，公交车从二环路绕到西洪路，中间错过了四五个站点，也没有一位乘客发出任何一句怨言。“乘客们都在默默地支持我，让我心里暖暖的。”记者还了解到，赵底新以前曾当过联防人员，当小偷拿刀向他捅过来时，赵底新伸手抓住了刀刃，手中至今还留有一道深深的伤疤。</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>The woman collapsed on the bus surveillance screenshot. A reporter from Nandu, Su Yanmei, reported from Qinghai Daily. Yesterday morning around 7:28 am, on bus route 100 in Fuzhou, a woman suddenly fainted. "Saving lives is the priority!" Zhao Dixin, a 46-year-old bus driver, drove the bus directly to the nearby Fujian Provincial Government Hospital. Asking passengers to call 120 resulted in silence. Yesterday afternoon, the reporter saw Master Zhao Dixin at the bus terminal next to Fuzhou Railway Station. Zhao Dixin told the reporter that at that time, the bus he was driving had just left the Socialist College bus stop. He heard a "thud" from behind and looked back into the carriage. "Someone fainted," someone shouted in the carriage. "Please help me call 120," he pulled over to the side and suggested passengers make the call. However, all he got back was silence. Zhao Dixin had to take out his phone to make the call, but perhaps due to nervousness, he dialed 110 by mistake. After the call, everyone on the bus started waiting, and every second felt very long. "The situation is urgent now, and it's rush hour. Waiting like this is not a solution. The Fujian Provincial Government Hospital is right next to us. It's better to send the person to the hospital promptly," said a seventy-year-old man in the bus. "After hearing the old man's words, I had an idea," Zhao Dixin said. At that time, he immediately told all the passengers on the bus that he would drive the bus directly to the hospital, hoping for their support. If any passenger had an urgent matter, they could get off first. After saying that, he opened the door, but most passengers chose to stay on the bus. The bus turned a corner from Hubin Road and arrived at the Fujian Provincial Government Hospital. As the hospital had a steep slope, the bus couldn't go up. Helpless, Zhao Dixin parked the bus on the slope and ran into the emergency room to call for a doctor. When the doctor arrived, the woman who fainted had already woken up and said she might have fainted due to low blood sugar. Zhao Dixin suggested the woman rest at the hospital for a while, eat something, and then leave. The subsequent actions of the passengers warmed the driver's heart. Yesterday morning, the reporter went to the hospital and found the woman who fainted resting in the emergency room. The reporter did not disturb her and left first. After more than ten minutes, the reporter returned to the emergency room and found that the woman had already left. In the interview, Zhao Dixin said that the passengers on the bus were related to him. He felt that taking the fainting passenger to the hospital was his duty. Zhao Dixin told the reporter that at that time, he felt like he was on a roller coaster. At first, no one called for an ambulance, which made him feel a bit disheartened. However, when he drove the bus to the hospital and none of the passengers objected, the warmth in his heart began to return. The bus delay of 30 minutes to take the person to the hospital did not upset any passengers. After dropping off the person, the bus went from the Second Ring Road to Xihong Road, skipping four or five stops in between, yet not a single passenger complained. "The passengers silently supported me, making me feel warm inside." The reporter also learned that Zhao Dixin had previously been a member of the public security team. When a thief with a knife stabbed towards him, Zhao Dixin reached out and grabbed the blade, leaving a deep scar on his hand to this day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2016年5月28日，由《藏海花》舞台剧组发起的“跟随吴邪深入藏地秘境，追寻小哥的踪迹”众筹项目正式在优酷众筹平台上线。这是优酷众筹平台又一大热文娱众筹项目，一经上线便迅速地引起了大量粉丝的关注和热议，几千“稻米”参与支持，《藏海花》舞台剧组西藏之行众筹活动最终得以顺利成功。该项目筹集资金已过13万，项目达成率已突破110%，880元档位的10张上海场总彩排入场资格门票更是在不到1分钟之内被“秒杀”，发起方与众筹平台不得不再紧急追加5个入场名额以回馈粉丝的热情与执着。多媒体3D舞台剧《盗墓笔记外传：藏海花》改编自著名作家南派三叔的同名畅销小说，是《盗墓笔记》系列小说的外传。该舞台剧由上海祺天文化发展有限公司和南派泛娱有限公司联合出品，由《盗墓笔记》系列舞台剧导演刘方祺携原班人马倾力打造，并将于2016年7月27日在上海人民大舞台迎来首演。 藏海花的故事发生在幽远神秘的藏地，因此，主创团队产生了想要亲赴西藏采风的念头。在西藏，团队不但将完成吴邪、小哥两位主角定妆大片的实景拍摄，更是可以将VR视频拍摄技术应用到西藏之行的拍摄之中，让粉丝能以主人公视角身临藏地秘境，在虚拟现实中体验寻“灵”之旅。 优酷众筹平台大力支持《藏海花》舞台剧组众筹活动，除了在优酷APP首页和电视剧、电影等多个频道、土豆首页等多个渠道推广众筹活动外，还积极收集了解粉丝爱好与诉求，为众筹项目的项目回报提出了许多建议。本次众筹项目的回报琳琅满目，十分新颖，从虚拟的舞台剧电子海报、"西藏行"独家VR视频、主演“morning call”音频，到具有收藏价值的"西藏行"明信片套装、定制VR眼镜、人物造型U盘、主题曲音乐盒、卡通人物摇头娃娃、公交纪念卡，再到具有极度参与性的签名抽奖、门票抽奖，还有最具吸引力的、可以有机会看到台前幕后各种花絮彩蛋的总彩排门票……全方位、定制化地满足了粉丝的需求和喜好。众筹项目的支持金额跨度也很大，从支持1元即可参与的门票抽奖，到880元的总彩排门票，让各类粉丝都有机会参与众筹项目，献上自己的一份专属支持。除了资金支持外，粉丝更可以在项目讨论区留言，与项目发起人直接沟通，传递自己的喜欢与希望。这一条条留言直观地传递着支持者们对发起人的祝福和期望，也充分地体现了众筹的魅力所在。</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>On May 28, 2016, the crowdfunding project "Following Wu Xie into the mysterious Tibetan realm to trace the footsteps of Little Brother" initiated by the stage play group of "Cang Hai Hua" officially went live on the Youku crowdfunding platform. This is another hot crowdfunding project on the Youku platform in the entertainment industry. Once launched, it quickly attracted a large number of fans' attention and discussions. Thousands of "rice grains" participated in support, and the crowdfunding activity for the stage play group's trip to Tibet in "Cang Hai Hua" was successfully completed. The project has raised over 130,000 yuan, with a completion rate exceeding 110%. The 10 tickets for the final dress rehearsal in Shanghai at the 880 yuan level were "sold out" in less than 1 minute, prompting the initiators and the crowdfunding platform to urgently add 5 more tickets to reward fans' enthusiasm and dedication. The multimedia 3D stage play "The Lost Tomb Notes: Cang Hai Hua" is adapted from the eponymous bestselling novel by the famous writer Nan Pai San Shu, which is a spin-off of the "The Lost Tomb Notes" series. The stage play is jointly produced by Shanghai Qitian Cultural Development Co., Ltd. and Nan Pai Fan Yu Co., Ltd., directed by Liu Fangqi, the director of "The Lost Tomb Notes" series stage plays, and will premiere on July 27, 2016, at the Shanghai People's Grand Stage. The story of Cang Hai Hua takes place in the remote and mysterious Tibetan region, leading the creative team to the idea of personally visiting Tibet for inspiration. In Tibet, the team not only completed the real-life shooting of the two main characters, Wu Xie and Little Brother, but also applied VR video shooting technology to the filming of the trip to Tibet, allowing fans to experience the journey of seeking "spirits" from the perspective of the protagonists in virtual reality, immersing themselves in the mysterious Tibetan realm. Youku's crowdfunding platform strongly supports the crowdfunding activity of the stage play group of "Cang Hai Hua". In addition to promoting the crowdfunding activity on various channels such as the Youku APP homepage, TV dramas, movies, and the Tudou homepage, it actively collected and understood fans' preferences and demands, providing many suggestions for the project rewards of the crowdfunding project. The rewards for this crowdfunding project are diverse and innovative, ranging from virtual stage play electronic posters, exclusive VR videos of the "Tibetan Journey," actor "morning call" audio, to collectible "Tibetan Journey" postcard sets, custom VR glasses, character-shaped USB drives, theme song music boxes, cartoon character bobbleheads, bus commemorative cards, as well as highly engaging signed lottery, ticket lottery, and the most attractive total dress rehearsal tickets that offer a chance to see various behind-the-scenes extras... comprehensively and customarily meeting the needs and preferences of fans. The support amount for the crowdfunding project also varies greatly, from participating in the ticket lottery for 1 yuan to the 880 yuan total dress rehearsal ticket, allowing fans of all kinds to participate in the crowdfunding project and show their exclusive support. In addition to financial support, fans can also leave messages in the project discussion area, communicate directly with the project initiators, and convey their likes and hopes. These messages vividly convey the blessings and expectations of supporters for the initiators, fully reflecting the charm of crowdfunding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>经过几番折腾，今天上午，市民小丁终于把自己的车卖出去了。他告诉记者，因为喜欢汽车，大学时就缠着父亲买了辆车，没想到买车容易养车难，所以决定把车卖了。他的车是一辆行驶里程为2万多公里的大众速腾，跑了好几家线下4S店，最高价只给到16万，离他期望的18万还有一截距离。为了卖高一点，他又找了几个二手车商咨询，不是手续麻烦就是价格太低，没有特别中意的渠道。一次偶然的机会，小丁在网上发现了一个二手车交易平台—赶集好车，他看到在这个平台上，车主和买车人直接交易，省去了中间环节，不仅价格比其他渠道高，还很靠谱省心。他用了不到10分钟的时间发布了自己的车辆信息，赶集好车客服人员很快安排了评估师上门给汽车做评估报告并拍照，小丁的汽车刚挂到网上才一天时间，他的车就被一位买家盯上了。三天后，赶集好车工作人员陪着买家上门，旧车最终以双方都满意的价格交易。期间，一切检测、评估和过户由赶集好车完成，小丁没有缴纳任何费用。据悉，小丁朋友推荐的二手车交易平台—赶集好车，是最专业的分类信息网站赶集网在去年12月份宣布上线的项目。赶集网负责人告诉记者，赶集好车是由赶集网自营的创新O2O项目，致力于打造业内最专业、最贴心的二手车买卖上门服务，赶集专业团队全程跟踪，为买家提供放心车源和交易保障。凡本月参与评估的客户，将获得赶集好车提供的优惠补贴活动，赠品包括加油卡、电话卡、汽车用品等。去中介模式消除买卖双方的中间盘剥目前，长春正迎来汽车置换高峰，二手车市场“钱”景广阔。在2014吉林省二手车交易现场会上，中国汽车流通协会副会长于元渤透露，中国当前超过1.2亿辆的私家汽车保有量是二手车交易的基础。从2009年至2013年5年的时间里，中国汽车的总保有量增加了一亿辆，增长率达160%。而在尚未出台汽车限购政策的吉林省，也有越来越多的消费者考虑购买二手车，我市二手车市场日趋活跃。这也吸引了众多二手车交易平台的注意。在这个背景下，赶集好车近日进入我市。据赶集方面披露，赶集好车仅四个月的时间，就已经成为二手车C2C市场的领头羊，环比增长超过300%。目前该项目正迅速在全国扩展，除了长春之外，还同时进入上海、沈阳、苏州、天津等14个城市。记者了解到，赶集好车项目在平台交易模式上，根据消费者的需求，进行了模式创新：它采用C2C网络交易模式，实现买卖双方直接在平台上的交易。</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>After several twists and turns, this morning, the citizen Xiao Ding finally sold his car. He told reporters that because he liked cars, he had pestered his father to buy a car when he was in college. Unexpectedly, buying a car was easy but maintaining it was difficult, so he decided to sell the car. His car is a Volkswagen Sagitar with a mileage of over 20,000 kilometers. After visiting several offline 4S stores, the highest price offered was only 160,000 yuan, which was still some distance from his expected 180,000 yuan. In order to sell at a higher price, he consulted several used car dealers, but either the procedures were troublesome or the prices were too low, and there was no particularly satisfactory channel. By chance, Xiao Ding discovered an online used car trading platform called "Ganji Haiche". He saw that on this platform, owners and buyers could trade directly, eliminating the intermediate links. Not only were the prices higher than other channels, but it was also reliable and reassuring. In less than 10 minutes, he posted his car information on Ganji Haiche. The customer service quickly arranged for an appraiser to come to evaluate the car and take photos. Just one day after Xiao Ding's car was listed online, a buyer showed interest. Three days later, the staff from Ganji Haiche accompanied the buyer to Xiao Ding's place, and the old car was finally traded at a price satisfactory to both parties. Throughout the process, all inspections, evaluations, and transfers were completed by Ganji Haiche, and Xiao Ding did not have to pay any fees. It is reported that Ganji Haiche, a used car trading platform recommended by Xiao Ding's friend, is the most professional classified information website launched by Ganji.com in December last year. The person in charge of Ganji.com told reporters that Ganji Haiche is an innovative O2O project operated by Ganji.com, dedicated to creating the most professional and considerate on-site service for buying and selling used cars, with the Ganji professional team tracking the entire process to provide buyers with reliable car sources and transaction security. Customers who participate in the evaluation this month will receive preferential subsidies provided by Ganji Haiche, including gifts such as fuel cards, phone cards, and car supplies. By eliminating the intermediary mode, both buyers and sellers are protected from exploitation. Currently, Changchun is experiencing a peak in car replacement, and the prospects for the used car market are broad. At the 2014 Jilin Province Used Car Trading Conference, Yu Yuanbo, Vice President of the China Automobile Dealers Association, revealed that the current private car ownership in China exceeds 120 million, forming the foundation of the used car trade. From 2009 to 2013, the total number of cars in China increased by one billion, with a growth rate of 160%. In Jilin Province, where there is no car purchase restriction policy, more and more consumers are considering buying used cars, making the second-hand car market in our city increasingly active. This has also attracted the attention of many used car trading platforms. Against this backdrop, Ganji Haiche recently entered our city. According to Ganji, Ganji Haiche has become the leader in the used car C2C market within just four months, with a growth rate of over 300%. The project is rapidly expanding nationwide and has entered 14 cities including Shanghai, Shenyang, Suzhou, and Tianjin, in addition to Changchun. Reporters learned that Ganji Haiche has innovated its platform trading model according to consumer needs: it adopts a C2C online trading model, enabling direct transactions between buyers and sellers on the platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>科技日报讯（记者王春）20日，上海张江高新区管委会与投贷联动试点的8家银行签署了战略合作协议，全国首批投贷联动试点在上海张江落地。在签约仪式上，包括国家开发银行、中国银行、恒丰银行、上海银行、上海华瑞银行、北京银行、天津银行、浦发硅谷银行成为首批签约投贷联动的试点银行。张江高新区管委会常务副主任曹振全表示，投贷联动试点合作是张江示范区对科技金融服务新模式的又一次探索与实践的开始。投贷联动的融资模式既考虑了科创企业的发展特征和融资需求，股权债权相结合、资金持续供给；又考虑了国情和金融体系的特点，充分发挥银行业金融机构在客户资源、资金资源方面的优势，通过构建风险收益相匹配的体制机制，有效增加科创企业的金融供给，探索建立符合科创企业特点的金融服务模式。据悉，从2014年9月开始，张江高新区会同上海市金融办大力推动科技融资服务平台建设试点，目前已实现张江22个分园全覆盖，为园区3.7万家科创企业提供金融服务，2015年企业贷款余额达340亿元，撬动社会资本达100倍。目前，张江还在积极地与银监会对接，抓紧筹备组建张江银行，这将是一家专门为科技企业发展提供金融服务的银行。</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Science and Technology Daily News (Reporter Wang Chun) On the 20th, the Zhangjiang High-Tech Zone Management Committee in Shanghai signed a strategic cooperation agreement with 8 banks participating in the pilot program of investment and loan linkage. The first batch of national investment and loan linkage pilot projects landed in Zhangjiang, Shanghai. At the signing ceremony, including the China Development Bank, Bank of China, Hengfeng Bank, Bank of Shanghai, Shanghai Huarui Bank, Bank of Beijing, Bank of Tianjin, and Pudong Silicon Valley Bank became the first batch of pilot banks to sign the investment and loan linkage agreement. Cao Zhenquan, Executive Deputy Director of the Zhangjiang High-Tech Zone Management Committee, stated that the pilot cooperation of investment and loan linkage is another exploration and practice of a new model of technology financial services by the Zhangjiang Demonstration Zone. The financing model of investment and loan linkage not only considers the development characteristics and financing needs of technology innovation enterprises, combining equity and debt, ensuring continuous capital supply; but also takes into account the national conditions and characteristics of the financial system, fully leveraging the advantages of banking financial institutions in customer and capital resources, effectively increasing the financial supply for technology innovation enterprises, and exploring the establishment of a financial service model that suits the characteristics of technology innovation enterprises through the construction of a risk-return matching institutional mechanism. It is reported that since September 2014, the Zhangjiang High-Tech Zone, together with the Shanghai Financial Office, has vigorously promoted the construction of a technology financing service platform pilot, which has now achieved full coverage of 22 sub-parks in Zhangjiang, providing financial services to 37,000 technology innovation enterprises in the park. In 2015, the balance of enterprise loans reached 34 billion yuan, leveraging social capital by 100 times. Currently, Zhangjiang is actively coordinating with the China Banking Regulatory Commission, and is making preparations to establish the Zhangjiang Bank, which will be a bank dedicated to providing financial services for the development of technology enterprises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>无论是小考，高考亦或是中考，平时的学习习惯对于一个学生来说，都至关重要，往往直接决定了考试的成与败。有人说21天可以养成一个良好的习惯，作为学生的你？能坚持吗？ 1 提高初中数学计算正确率的窍门 真正的去理解解题方法，做完一道题目之后当堂回顾，把解题思路复述出来，并将做错的题抄在错题本上，经过一段时间的努力，一定能将解题的错误率降低，并养成良好的学习习惯。所以，我们经常说，学数学很容易，秘诀就是：会做的做对，错过的不要再错如何提高中考数学的计算的正确率，以下有四种方法以供借鉴： 第一：要对计算引起足够的重视 总以为计算式题比分析应用题容易得多，对一些法则、定律等知识学得比较扎实，计算是件轻而易举的事情，因而在计算时或过于自信，或注意力不能集中，结果错误百出。其实，计算正确并不是一件很容易的事。例如计算一道像37×54这样简单的式题，要用到乘法、加法的运算法则，经过四次表内乘法和四次一位数加法才能完成。至于计算一道分数、小数四则混合运算式题，需要用到运算顺序、运算定律和四则运算的法则等大量的知识，经过数十次基本计算。在这个复杂的过程中，稍有粗心大意就会使全题计算错误。因此，计算时来不得半点马虎。 第二：要按照计算的一般顺序进行 首先，弄清题意，看看有没有简单方法、得数保留几位小数等特别要求;其次，观察题目特点，看看几步运算，有无简便算法;再次，确定运算顺序。在此基础上利用有关法则、定律进行计算;最后，要仔细检查，看有无错抄、漏抄、算错现象。 第三：要养成认真演算的好习惯 有些同学由于演算不认真而出现错误。数据写不清，辨认失误。打草稿时不能按照一定的顺序排列竖式，出现上下粘连，左右不分，再加上相同数位不对齐，既不便于检查，又极易看错数据。所以一定要养成有序排列竖式，认真书写数字的良好习惯。 第四：不能盲目追求速度 计算又对又快是最理想的目标，但必须知道计算正确是前提条件，是最基本的要求，没有正确作基础的高速度是没有任何价值的。所以，宁愿计算的速度慢一些，也要保证计算正确，提高计算的正确率。 2 做好数学课堂笔记的五个技巧 首先，要准备一个专门用来记数学笔记的本子。 一个专门的本子非常重要。往往同学们会把老师讲课时需要记录的内容随手记在书上、或者试卷上，这样时间久了就容易丢失，想要翻看的时候找起来也很费事，甚至找不到。</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Whether it's a quiz, the college entrance examination, or the junior high school entrance examination, the study habits in daily life are crucial for a student, often directly determining the success or failure of the exam. Some people say that it takes 21 days to develop a good habit. As a student, can you persist? 1 Tips to improve the accuracy of junior high school math calculations: Truly understand the problem-solving methods, review them immediately after completing a question, restate the solution approach, and copy the incorrect questions into an error book. With effort over a period of time, you can definitely reduce the error rate in problem-solving and develop good study habits. Therefore, we often say that learning math is easy, the secret is: do the ones you can correctly, and don't repeat the mistakes. How to improve the accuracy of math calculations in the junior high school entrance examination? Here are four methods for reference: First: Pay enough attention to calculations. Many people think that calculation problems are much easier than analytical application problems, and they are more solid in knowledge of rules and laws. Calculations are considered easy, leading to overconfidence or lack of concentration, resulting in numerous errors. In fact, calculating correctly is not an easy task. For example, to calculate a simple problem like 37×54, you need to use multiplication and addition rules, requiring four multiplications within the table and four single-digit additions to complete. As for calculating a mixed operation problem involving fractions and decimals, it requires a lot of knowledge such as operation order, operation laws, and rules of the four operations, involving dozens of basic calculations. In this complex process, a little carelessness can lead to errors in the entire calculation. Therefore, there is no room for carelessness in calculations. Second: Follow the general order of calculations. First, understand the question, see if there are any simple methods, special requirements for decimal places, etc.; second, observe the characteristics of the problem, see the number of steps in the operation, and if there are any simple algorithms; third, determine the order of operations. Based on this, use relevant rules and laws for calculations; finally, carefully check for any copying errors, omissions, or miscalculations. Third: Develop the good habit of careful calculation. Some students make mistakes due to careless calculations. Unclear writing of data, identification errors. When drafting, if vertical calculations are not arranged in a certain order, resulting in sticking together vertically, not distinguishing left from right, and if the same digits are not aligned, it is not easy to check and very prone to misreading data. Therefore, it is essential to develop the good habit of orderly arranging vertical calculations and writing numbers carefully. Fourth: Do not blindly pursue speed. Being accurate and fast in calculations is the ideal goal, but it must be understood that being correct in calculations is a prerequisite, the most basic requirement, and high speed without correctness as the foundation has no value. Therefore, it is better to be a bit slower in calculations to ensure accuracy and improve the accuracy of calculations. 2 Five tips for taking good math class notes: First, prepare a notebook specifically for taking math notes. Having a dedicated notebook is very important. Students often jot down the content that needs to be recorded during the teacher's lecture on random pages of a book or on test papers, which can easily get lost over time. It becomes difficult to find when you want to review it, and sometimes it's even impossible to find.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>随着琥珀蜜蜡市场的热度越来越高，越来越多的玩家热衷于琥珀蜜蜡成品和原石的收藏，但要想买到心仪的琥珀蜜蜡，可不容易。今天就由琥珀蜜蜡收藏专家、鉴定师、估价师倪老师（微信：nbnb75，免费鉴定、估价）再告诉您几个琥珀挑选的小诀窍，包你满意！走起~纯净度越高越好 宝石在很多方面是相通的，对于任何宝石来说，净度非常重要，虽然有些玩家在琥珀收藏中看虫、看植物，但这并不代表琥珀应该是浑浊不堪的。而是除 了有内含物的部分，其他部分净度好、透明度高，才更具有收藏价值。如果是蜜蜡，虽然不看透度，但一样要求净度，杂质越少、质地越均匀越好。体积大且品质高的琥珀值得收藏 任何宝石都是稀缺资源，物以稀为贵。个头大、纯净度高的宝石绝对稀少，这点也是保值增值的保证。特别是有机宝石——琥珀，对于琥珀原料收藏来说，体积大、形状规整，纯净度高的琥珀原料极具收藏投资价值。内含物越稀有、越完整越好 对 于含有虫或者植物的琥珀来说，内含物越完整、越稀少、越清晰，价格也就越高。对收藏爱好者和投资者来说，在资金允许的情况下，可以收藏体积比 较大、纯净度比较高的琥珀，那么，对于预算不是那么充裕的玩家来说，含有昆虫的天然虫珀值得选购收藏。松树的松脂滴的很慢，体型稍大的虫子不会一动不动等 着松油下落（死去的昆虫除外），因此，琥珀里的昆虫一般很小，市面上的虫珀大多要通过放大镜才能看清，肉眼能看清的昆虫琥珀已不多见。所以要是预算不是很 充裕的话，追求体积大、净度高的琥珀不现实，但追求一块自己喜欢的虫珀还是可以的。如果虫珀里的虫子现已绝迹的话，就更有升值潜力了。越受大众欢迎的颜色，价格越贵 对 于宝石来说，颜色是否纯正非常重要。琥珀的颜色丰富、亮丽，但并不是所有颜色的琥珀都是稀缺品种，而且对于不同产地的琥珀来说，稀缺的颜色也 不一样，最值得收藏的莫过于多米尼加蓝珀，波罗的海的蜜蜡也备受大众追捧，比如，现在十分热门的波罗的海鸡油黄、多米尼加天空蓝，这两种琥珀的原料非常稀 少、品种罕见，值得投资和收藏。真琥珀有松脂光泽 琥珀是有机宝石，但是现在在中国有很多稀奇古怪的琥珀，例如，阿富汗蜜蜡、中东蜜蜡等，它们外表看起来很像老蜜蜡，但是没有松脂油光泽。这些蜜蜡的名称大多是商家“自主研发”出来的，且常常以不发达国家或地区为名。</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>With the increasing popularity of the amber market, more and more players are enthusiastic about collecting finished amber products and raw stones. However, it is not easy to buy the desired amber. Today, Mr. Ni, an expert in amber collection, appraiser, and valuer (WeChat: nbnb75, free appraisal, valuation), will share with you a few tips for selecting amber, ensuring your satisfaction! Let's go~ The higher the purity, the better. Gemstones share many similarities, and purity is crucial for any gemstone. Although some players look for insects or plants in amber collections, it does not mean that amber should be turbid. Apart from the parts with inclusions, the higher the purity and transparency of amber, the more collectible it is. For amber, although transparency is not a requirement, purity is still essential. The fewer impurities and the more uniform the texture, the better. Large size and high quality amber are worth collecting. All gemstones are scarce resources, and rarity determines value. Large-sized gemstones with high purity are extremely rare, ensuring their value and appreciation. Especially for organic gemstones like amber, large size, regular shape, and high purity raw amber materials are highly valuable for collection and investment. The rarer and more complete the inclusions, the better. For amber with insects or plants inside, the more intact, rare, and clear the inclusions, the higher the price. For collectors and investors, if budget allows, collecting relatively large and high-purity amber is recommended. For players with tighter budgets, natural amber with insects is worth considering. Amber with insects generally has small insects because larger insects would not wait for the resin to solidify. Therefore, insects in amber are usually small and may require a magnifying glass to see clearly. Amber with visible insects is becoming rare. Pursuing large size and high purity amber may not be realistic for those with limited budgets, but it is still possible to find amber with insects that you like. If the insects in the amber are extinct, it has more potential for appreciation. The more popular the color, the higher the price. For gemstones, color purity is crucial. Amber comes in a variety of rich and vibrant colors, but not all colors are rare. Different colors are scarce depending on the origin of the amber. The most collectible ambers include Dominican blue amber and Baltic amber, such as the popular Baltic butter yellow and Dominican sky blue, which are very rare and worth investing in. Genuine amber has a resinous luster. Amber is an organic gemstone, but there are many peculiar types of amber in China, such as Afghan amber and Middle Eastern amber, which look like old amber but lack the resinous luster. These ambers are often given names by merchants and are frequently associated with underdeveloped countries or regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>刘言飞语“互联网这玩意儿，就好像以前村子里面刚接通的电。刚认识电的时候，村民们都不以为然，觉得那看不见摸不着的玩意儿，能有多大用处，有啥威力？呵呵……大家都笑了。渐渐的，电力取代了火力照明，取代了人力耕田，取代了许多人自以为负的劳动力，更重要的是，电还触死了村里好几个大活人。于是，村民们开始有点相信了，经过几年的摸索，人们终于开始敬畏这个叫做“电”的东西了。惹不起，也躲不起，唯一的方法就是和平共处，再充分利用。”互联网伴随我们一起长大以前，长辈们总说我们这一代是含着金钥匙长大的；其实，我们这一代是伴随互联网一起长大的。1978年中国实行改革开放，1989年开始互联网探索，时至今日，我们的互联网已经跟我们这代人的年龄差不多大了，经历了这二十多年的发展和壮大，互联网完成了从稚嫩到成熟的发展和蜕变。 1信息互联网时代中国互联网发展初期我们称之信息互联网时代，各门户网站的成立，实现了人们信息获取从纸质阅读到电子阅读的巨大转变。2000年前后，三大门户网站新浪、网易、搜狐相继在美国纳斯达克挂牌上市，标志着中国信息互联网时代的正式开启。 2消费互联网时代经历过早期互联网的用户沉淀和技术积累，互联网三巨头BAT开始诞生并壮大，电子商务逐渐渗透到我们的衣食住行，我们也跨入了消费互联网时代。2007年，腾讯、百度、阿里巴巴市值先后超过100亿美元，中国互联网企业跻身全球最大互联网企业之列。而这一时期的互联网格局是，BAT几乎霸占了中国消费型互联网市场的半壁江山。除BAT之外的互联网公司难逃三种命运：一是模式被BAT迅速复制；二是被BAT收购；三是BAT注资，被收编。 3产业互联网时代天下大势，分久必合，合久必分。互联网终究会回归到“百花齐放”的轨道上来，产业互联网应运而生了。随着移动互联网，大数据、云计算、物联网等最新科技的日新月异，网民的日益壮大，产业+互联网的趋势不可挡！ 什么是产业互联网？产业互联网是指产业+互联网，是传统产业和互联网的完美交融。产业互联网渗透的领域更加广泛，体现在从产品设计、研发、生产制造到营销、服务等各个环节。过去的互联网发展倾向于个人消费者体验，而在未来，互联网将彻底带动整个产业的革命和腾飞。而产业互联网也绝不只是产业和互联网的纯粹叠加，更多的是基于大数据、云计算等技术手段，实现商业模式的创新和颠覆。</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Liu Yanfei said, "The Internet, this thing, is like the newly connected electricity in the village in the past. When the villagers first got to know electricity, they didn't think much of it. They thought that invisible and intangible thing, how useful could it be, what power does it have? Hehe... Everyone laughed. Gradually, electricity replaced fire for lighting, replaced human labor in farming, replaced many laborious tasks that people thought they had to do, and most importantly, electricity even killed several villagers in the village. So, the villagers started to believe a little bit. After a few years of exploration, people finally began to fear this thing called 'electricity.' Can't provoke it, can't avoid it, the only way is to coexist peacefully and make full use of it." Before we grew up with the Internet, our elders always said that our generation grew up with a silver spoon; in fact, our generation grew up with the Internet. In 1978, China implemented reform and opening up, and in 1989, the Internet exploration began. Today, our Internet is almost as old as our generation, having gone through over twenty years of development and growth, completing the transformation from infancy to maturity. 
+1. Information Internet Era In the early stages of China's Internet development, we called it the Information Internet Era, with the establishment of various portal websites, realizing a significant shift in people's information acquisition from paper reading to electronic reading. Around 2000, the three major portal websites Sina, Netease, and Sohu were successively listed on the NASDAQ in the United States, marking the formal opening of China's Information Internet Era.
+2. Consumer Internet Era After experiencing the user accumulation and technological accumulation of the early Internet, the three Internet giants BAT began to emerge and grow, and e-commerce gradually penetrated into our daily lives, leading us into the Consumer Internet Era. In 2007, Tencent, Baidu, and Alibaba successively exceeded a market value of over 10 billion US dollars, ranking Chinese Internet companies among the world's largest Internet enterprises. During this period, the Internet landscape was dominated by BAT, almost occupying half of China's consumer Internet market. Internet companies outside of BAT could hardly escape three fates: being quickly copied by BAT, being acquired by BAT, or being funded by BAT and integrated.
+3. Industrial Internet Era The trend of the world is that things will eventually come together after being separated for a long time, and they will eventually separate after being together for a long time. The Internet will ultimately return to the track of "letting a hundred flowers bloom," giving rise to the Industrial Internet Era. With the rapid development of mobile Internet, big data, cloud computing, the Internet of Things, and other cutting-edge technologies, the growing number of netizens, the trend of industry + Internet is unstoppable!
+What is the Industrial Internet? The Industrial Internet refers to the combination of industry and the Internet, the perfect integration of traditional industries and the Internet. The penetration of the Industrial Internet is more extensive, reflected in various aspects from product design, research and development, manufacturing, marketing, to services. In the past, Internet development tended to focus on individual consumer experiences, but in the future, the Internet will completely drive the revolution and takeoff of the entire industry. The Industrial Internet is not just a pure superposition of industry and the Internet, but more based on technologies such as big data, cloud computing, to achieve innovation and disruption in business models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>点击题目下方从化微社区，一键关注本账号我们的社会生活需要热心的人，他们在别人需要帮助的时候毫不犹豫地伸出援手，使原本冷漠的城市生活孕育出越来越浓厚的温情。在我们所熟悉的从城，也有许许多多乐于助人的热心街坊，碧溪社区的朴实居民潘春梅就是其中的典型一员，在社区里看到拎重物的老人家，她就会主动上前帮忙，老人家也会很放心地把手里的菜篮子交给她。助人为快乐之本奉献社区邻里 今年42岁的潘春梅，来到碧溪社区已将近二十年，二十年的社区生活，建立起潘春梅与邻里间的深厚感情，热心肠的她喜欢帮助街坊邻里。“有时候在路上看到认识的老人家，我会上前去帮他们拎东西，顺便送他们回家。虽然都是小事，但是能帮得上忙我自己很开心。”潘春梅像个小女孩一样，对着记者腼腆地笑了。潘春梅在她住的居民楼里担任楼长一职，平日里大家有什么小困难总会第一时间找到她。潘春梅印象中最深的是四楼的一户人家，家庭关系不太融洽，儿子有时候喝醉了就在家里撒酒疯，和父母大吵大闹。他的父母无奈之下只能找来潘春梅，每次潘春梅都会耐心细致地给他们做调解工作，“每次我都会劝他们，吵架对双方都没有好处，只会伤感情。其实这个年轻人也是喝多了才会胡闹，等他隔天清醒了就会给我打电话道歉认错。现在他和父母的关系已经改善很多了，吵架的次数也少了。”在女儿眼中她是“全世界最凶的人” 潘春梅在街坊邻里的眼中是一个乐于助人的好楼长，而平凡的她也和很多母亲一样，对于自己小孩的教育相当严厉，在女儿眼中，潘春梅总是“又凶又啰嗦”。潘春梅的女儿今年刚上初三，由于丈夫在外地工作，教育女儿的任务自然落在潘春梅的肩上。相比起丈夫对女儿的溺爱，潘春梅对女儿则更加严厉，这也让她成为女儿眼中“全世界最凶的人”，“她做事情比较拖拉，我叫她做个家务她都拖拉半天，叫她早点洗澡她也只顾玩手机。有时候我就会大声呵斥她，她倒反过来说我是全世界最凶的人。加上她爸爸不是经常在家，很长时间才回来一次，所以比较惯她，而我‘顺理成章’的就变成最凶的人。”潘春梅一边说着，一边忍不住笑起来。或许是经常笑口迎人，“最凶的人”潘春梅已经在街坊邻里中形成了好口碑。“阿梅是真得好人啊，每次只要有事找她，只要她有空有能力，绝对不会推脱。”街坊们提起潘春梅，一个个都竖起了大拇指。来源：广州日报社区报声明：所有权归原作者拥有，如有侵权请联系删除</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Click below the title to follow the Huaxi Micro Community. One-click follow this account. Our social life needs enthusiastic people. They will not hesitate to lend a helping hand when others need help, making the originally indifferent urban life increasingly warm. In the familiar community of Congcheng, there are also many enthusiastic neighbors who are willing to help. Pan Chunmei, a simple resident of Bixi Community, is a typical member. When she sees elderly people carrying heavy objects in the community, she will take the initiative to help. The elderly people will also trustingly hand over their vegetable baskets to her. Helping others is the foundation of happiness and dedication to the community. Pan Chunmei, 42 years old this year, has been in Bixi Community for nearly twenty years. In these twenty years of community life, Pan Chunmei has established a deep relationship with her neighbors. With a warm heart, she enjoys helping her neighbors. "Sometimes when I see elderly people I know on the road, I will go up to help them carry things and give them a ride home. Although they are all small things, I am very happy to be able to help." Pan Chunmei smiled shyly at the reporter like a little girl. Pan Chunmei serves as the floor leader in the residential building where she lives. Whenever anyone has small difficulties, they always find her first. The most memorable thing for Pan Chunmei is a family on the fourth floor. The family relationships were not very harmonious, and the son would sometimes go crazy at home after getting drunk, causing arguments with his parents. Helpless, his parents could only turn to Pan Chunmei. Every time, Pan Chunmei would patiently and meticulously mediate for them. "I always advise them that quarreling is not beneficial to either side, it will only hurt the relationship. Actually, this young man only acts up when he drinks too much. The next day when he sobers up, he will call me to apologize and admit his mistake. Now his relationship with his parents has improved a lot, and the frequency of arguments has decreased." In the eyes of her daughter, she is the "most severe person in the world." Pan Chunmei is seen by her neighbors as a helpful and good floor leader, while in her ordinary life, like many mothers, she is quite strict in educating her children. In her daughter's eyes, Pan Chunmei is always "strict and nagging." Pan Chunmei's daughter just entered the third year of junior high school this year. Since her husband works in another city, the task of educating their daughter naturally falls on Pan Chunmei. Compared to her husband's indulgence towards their daughter, Pan Chunmei is even stricter, which has led her daughter to see her as the "most severe person in the world." "She is a bit lazy in doing things. When I ask her to do chores, she procrastinates, and when I tell her to take a bath early, she just plays with her phone. Sometimes I have to scold her loudly, and she will turn around and say that I am the most severe person in the world. Since her father is not often at home and only comes back once in a long time, he spoils her more, and I, 'logically,' become the most severe person." Pan Chunmei said with a smile. Perhaps because she often greets people with a smile, the "most severe person" Pan Chunmei has already gained a good reputation among her neighbors. "Ah Mei is really a good person. Every time we need something, as long as she is available and capable, she will definitely not refuse." When the neighbors mention Pan Chunmei, they all give her a thumbs up. Source: Guangzhou Daily Community Newspaper Disclaimer: All rights belong to the original author. If there is any infringement, please contact for deletion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 樱花树下的作者陶鹏，山东潍坊人。本刊特约专栏作者。南开大学与成均馆大学硕士交换生。浪漫的国度连续很多天，每一次我们几个留学生出门时都禁不住感慨：韩国真是个适合恋爱的国度啊！在这个春花烂漫的时节，各式娇美的花儿散落在韩国的大街小巷中，到处都弥漫着浪漫的气息。你瞧，粉色的樱花还未凋谢，枚红色的杜鹃就勾住了我们的视线。杜鹃花被其国民亲切地称之为“金达莱”，寓意着长久的繁荣、喜悦和幸福。当你走在樱花花瓣铺就的街道上，天空中淅淅沥沥下着小雨，看着蔓延一整条街的杜鹃花依偎在树根和石缝中，被春雨洗刷的更加娇艳欲滴，路旁的咖啡馆内映出暖烘烘的黄光和温热气息，此时此刻的氛围让人忍不住幻想：要是遇到一个像韩剧中的男生那就完美了。 镇海军港节——军乐仪仗队游行四月初是韩国镇海一年一度的樱花节，我和朋友幸运的赶上了韩国规模最大历史最悠久的樱花庆典——镇海军港节。镇海军港节始于1953年，开办至今已有52年的历史。1953年春，为悼念韩国民族英雄李舜臣将军，镇海政府在北原转盘路设立了李舜臣铜像，并举办了悼念活动，这便是镇海军港节的由来。而这个时节也正逢樱花盛开，随着岁月的流逝逐渐形成如今的规模。军港节逐渐增加了文化艺术活动、军乐演奏会等庆典环节。尽管镇海军港节期间，各项活动精彩不断，但最受人们欢迎的还数赏樱。镇海余佐川旁长达1.5千米樱花小路、庆和火车站的樱花隧道，都是绝妙的赏樱地。粉嫩的樱花一簇一簇地绽放在枝头，在周围绿意的衬托下，显得分外娇艳。微微春风吹过，小巧的花瓣随风飘舞，纷纷扬扬的樱花雨令人陶醉。这样的美景吸引了成千上万的游客前来参观。 余佐川樱花大道 庆和站樱花路当我悠闲的漫步在余佐川樱花大道上，两旁是一眼望不到头的樱花树，一阵微风吹来，白粉色的花瓣簌簌落下，让人产生春日落雪的错觉。原本青灰色的街道也被这一场又一场的樱花雨打造出了极具少女情怀的粉红花道。空气中隐约飘来樱花的香甜气味，这一刻我沉寂许久的少女心也被再次唤醒了。当我看到周围一对对的情侣在甜蜜微笑着、拥抱着、亲吻着，连空气都跟着变得似蜜糖般甜，让人艳羡极了。浪漫的氛围，淡雅的情调，微妙的感觉，甜蜜的歌声，在这种气氛下，任谁都会燃起想恋爱的冲动吧。</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Under the cherry blossom tree is the author Tao Peng, a native of Weifang, Shandong. A special columnist for this publication. A master exchange student between Nankai University and Sungkyunkwan University. In the romantic country for many consecutive days, every time we, a few international students, go out, we can't help but sigh: South Korea is really a country suitable for love! In this season of blooming spring flowers, all kinds of delicate and beautiful flowers are scattered in the streets and alleys of South Korea, permeating a romantic atmosphere everywhere. Look, the pink cherry blossoms have not withered yet, and the crimson azaleas have caught our eyes. The azalea is affectionately called "Gindalai" by its people, symbolizing long-lasting prosperity, joy, and happiness. As you walk on the street paved with cherry blossom petals, with a drizzle falling from the sky, watching the azaleas spreading along the street, nestled in tree roots and stone crevices, washed by the spring rain, they become even more charming and dripping. Inside the cafes along the road, warm yellow light and a cozy atmosphere are reflected, the atmosphere at this moment makes people can't help but fantasize: it would be perfect to meet a guy like in a Korean drama. 
+The Jinhae Naval Port Festival - Military Band Parade
+Early April is the annual cherry blossom festival in Jinhae, South Korea. My friends and I were lucky to catch the largest and oldest cherry blossom celebration in Korea - the Jinhae Naval Port Festival. The Jinhae Naval Port Festival began in 1953 and has been held for 52 years. In the spring of 1953, to commemorate the Korean national hero General Yi Sun-sin, the Jinhae government erected a bronze statue of Yi Sun-sin at the Beonyeong Rotary Road and held a commemorative event, which is the origin of the Jinhae Naval Port Festival. This time coincides with the blooming of cherry blossoms, gradually forming the scale it is today with the passage of time. The naval port festival has gradually added cultural and artistic activities, military band concerts, and other celebratory events. Although there are continuous exciting activities during the Jinhae Naval Port Festival, the most popular is still cherry blossom viewing. The 1.5-kilometer cherry blossom path along the Yeojwacheon in Jinhae and the cherry blossom tunnel at the Gyeonghwa Station are wonderful places to view cherry blossoms. Clusters of pink cherry blossoms bloom on the branches, set off by the surrounding greenery, appearing exceptionally charming. With a gentle spring breeze, the delicate petals dance in the wind, and the fluttering cherry blossom petals are intoxicating. Such beautiful scenery attracts thousands of tourists to visit.
+Yeojwacheon Cherry Blossom Avenue Gyeonghwa Station Cherry Blossom Road
+As I leisurely stroll on the Yeojwacheon Cherry Blossom Avenue, with cherry blossom trees as far as the eye can see on both sides, a light breeze blows, and white and pink petals fall gently, giving the illusion of spring snowfall. The originally dull gray street is also transformed into a pink flower path full of girlish feelings by this repeated cherry blossom rain. Faintly drifting in the air is the sweet fragrance of cherry blossoms, and at this moment, my long-dormant girlish heart is awakened again. When I see pairs of couples around me smiling sweetly, embracing, and kissing, even the air becomes as sweet as honey, making people extremely envious. The romantic atmosphere, subtle sentiment, delicate feelings, and sweet songs, in such an atmosphere, anyone would be ignited with the impulse to fall in love.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>中国银行张家口分行创新工作思路，把握金融服务本质，加速互联网金融布局，不断拓展服务范围，提升服务能力。据了解，该行借力中国银行金融开放平台，为市民创造便利的金融环境。重点推动了便民缴费、在线金融超市等多项互联网模式惠民金融服务产品，满足了市民生活缴费、出国旅游、资金管理、理财投资等金融需求。上线“医达通”项目，实现就诊轻松挂号及缴费，有效解决了长期困扰医院和患者的挂号候诊时间长、缴费时间长的问题；开通网银、手机银行、微信等渠道网点预约服务，增加了客户时间安排上的主动性和便利性。同时，该行依靠网络金融，推广智能化银行改造，引进了先进的自助发卡机、智能填单机、网银服务机等智能设备，增强了业务承载能力和整体服务能力，实现了线上线下互动融合、相互补充的一体化服务模式，使广大客户真正享受到随时、随地、随心的金融服务。搭建网点外网wifi平台，在全辖各网点开展外网wifi项目建设，为客户提供免费上网服务，方便客户现场下载体验中银易商、手机银行等移动客户产品，提高了客户体验度。同时，该行拓展三方合作领域，与多家物业管理公司合作，构建了中银e社区综合平台，推出一体化金融服务及增值服务，致力打造由物业、银行、小区住户、小区商圈共同组成的综合服务平台，提高了社区整体生活质量。大力倡导b2b、b2c电商支付产品，为我市某医药公司上线了b2b跨行支付交易，为企业网上资金结算提供了极大的便利。与快餐店、电影院、健身中心、旅游景点、书店、电信运营商等商户合作，搭建起便捷的小额支付平台。谢云霏郭颖</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>The Zhangjiakou Branch of Bank of China has innovated its work train of thought, grasped the essence of financial services, accelerated the layout of internet finance, continuously expanded the scope of services, and enhanced service capabilities. It is understood that the branch leverages the Bank of China Financial Open Platform to create a convenient financial environment for the public. It has focused on promoting multiple internet-based people-benefiting financial service products such as convenient bill payment and online financial supermarket, meeting the financial needs of citizens in life payment, overseas travel, fund management, financial investment, and more. The launch of the "Yida Tong" project has made it easy for patients to make appointments and payments, effectively solving the long-standing problems of long waiting times for registration and payment in hospitals; the introduction of online banking, mobile banking, WeChat, and other channel appointment services has increased the proactive and convenience of customer time arrangements. At the same time, relying on internet finance, the branch has promoted the intelligent transformation of banks, introduced advanced self-service card issuing machines, intelligent form filling machines, online banking service machines, and other intelligent devices, enhancing business carrying capacity and overall service capabilities, realizing an integrated service model of online and offline interaction and complementation, allowing customers to truly enjoy financial services anytime, anywhere, and as they wish. The branch has established a branch external wifi platform, implementing external wifi project construction in all branches to provide customers with free internet access services, facilitating customers to download and experience mobile customer products such as Zhongyin Yishang and mobile banking on-site, improving customer experience. Meanwhile, the branch has expanded cooperation in the field of third-party cooperation, cooperated with multiple property management companies to build the Zhongyin e-community comprehensive platform, launched integrated financial services and value-added services, and is committed to creating a comprehensive service platform composed of property, banks, community residents, and community business circles, improving the overall quality of community life. It vigorously advocates b2b and b2c e-commerce payment products, enabling a certain pharmaceutical company in our city to launch b2b interbank payment transactions, providing great convenience for online fund settlement for enterprises. It cooperates with fast food restaurants, cinemas, fitness centers, tourist attractions, bookstores, telecommunications operators, and other merchants to build a convenient small payment platform. Xie Yunfei Guo Ying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 北京时间10月26日，谢恩-格林和肖恩-格林是一对双胞胎兄弟，按照谢恩的说法，他和肖恩“比大多数的双胞胎都要更加亲近”，不过直到当地时间9月25日的芝加哥半程马拉松比赛上，他们兄弟二人才第一次并肩冲过终点。因为身患癌症，肖恩是在谢恩的帮助下才完成比赛的。其实在两兄弟中，肖恩总是跑得更快的那个。从2010年他们一起跑步开始，在十几个半程马拉松的挑战过程当中，肖恩总是在大约8英里（约合12.87公里）的地方甩掉谢恩，然后在终点线等他。这两人在过去41年中几乎形影不离，他们成长在密苏里的伯尼，那是个只有1900人的小镇。16岁的时候，他们共享一辆汽车，并且在同一个篮球队里打球，作为控球后卫的肖恩总是给得分后卫谢恩做球。有几所高水平的高校只招募他们之中之一去打球，但分开去不同的大学是不可能的。所以，他们选择了可以同时招募他们一起打球的圣弗朗西斯大学，尽管他们的球队只是NCAA二级联赛球队，但是兄弟二人毅然决然地一起搬到了芝加哥。直到20多岁，他们还睡在同一个房间里。“我们一直在一起，我们几乎不会在没有对方的情况下干什么。他因为我而住在这里，他总说，如果我不得不搬家，那他将和我一起。这就是我们之间的关系。”肖恩说，这对兄弟有着相同的棕色眼睛以及穿过脸颊的酒窝线，在他们深棕色的头发上都有着非常突出的、几乎达到头顶的美人尖，不过，肖恩的头发现在乱而短，在他头部左侧有一块因伤疤而产生的凸起。2015年，这位有个3岁女儿的已婚父亲被诊断出患有不能手术的脑肿瘤，那是癌症的复发，2010年他曾经战胜过一次癌症了。肿瘤限制了肖恩的活动能力，他需要借助手杖才能走路。谢恩说，他从来不错过肖恩的任何一个医生预约。在9月初的一次核磁共振成像后，他问肖恩，自己是否可以用慢跑轮椅推着他去跑芝加哥半马。“我告诉他，‘我想再一次和你一起越过终点，你想不想和我一起这样做呢？’”谢恩说，他们此前已经一起完赛了4次。在接下来的几天，兄弟俩和他们的朋友以及赛事组织者一起研究，以便能得到一个适合肖恩的轮椅。谢恩原以为，他只会和肖恩一起跑最后4或5英里，“但是他却想和我一起跑完全程。”在比赛开始之前，兄弟俩每天都会用轮椅训练45分钟，谢恩还会再跟他10岁和7岁的女儿们用慢跑轮椅训练一段时间。“我的妻子担心我会把他从轮椅上摔下来。”谢恩说，比赛当天早上，这对双胞胎的30多名亲朋好友到场观战。</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>On October 26th Beijing time, Shawn Green and Sean Green are a pair of twin brothers. According to Shawn, he and Sean are "closer than most twins," but it wasn't until the Chicago Half Marathon on September 25th local time that the two brothers crossed the finish line side by side for the first time. Due to battling cancer, Sean completed the race with Shawn's help. In fact, among the two brothers, Sean is always the faster runner. Since they started running together in 2010, during the challenges of over a dozen half marathons, Sean always left Shawn behind around 8 miles and waited for him at the finish line. These two have been inseparable for the past 41 years, growing up in Bernie, Missouri, a small town with only 1900 people. At the age of 16, they shared a car and played on the same basketball team, with Sean as the point guard always setting up shots for shooting guard Shawn. Several high-level colleges recruited only one of them to play basketball, but going to different universities was not an option. So, they chose the University of St. Francis, which could recruit them both to play together, even though their team was only in the NCAA Division II. The brothers resolutely moved to Chicago together. Even in their twenties, they still slept in the same room. "We've always been together, hardly ever doing anything without each other. He lives here because of me, always saying if I have to move, he'll move with me. That's our relationship," Sean said. These brothers have the same brown eyes and dimples on their cheeks, prominent widow's peaks in their deep brown hair that almost reach the crown of their heads. However, Sean's hair is now messy and short, with a protrusion on the left side of his head due to a scar. In 2015, this married father of a 3-year-old was diagnosed with an inoperable brain tumor, a recurrence of cancer he had beaten in 2010. The tumor limits Sean's mobility, requiring him to use a cane to walk. Shawn said he never misses any of Sean's doctor appointments. After a MRI in early September, he asked Sean if he could push him in a racing wheelchair to run the Chicago Half Marathon. "I told him, 'I want to cross the finish line with you again, do you want to do it with me?'" Shawn said, as they had finished together four times before. Over the next few days, the brothers, their friends, and race organizers worked together to find a wheelchair suitable for Sean. Shawn initially thought he would only run the last 4 or 5 miles with Sean, "but he wanted to run the whole way with me." Before the race, the brothers trained in the wheelchair for 45 minutes every day, and Shawn also trained with his 10 and 7-year-old daughters in a racing wheelchair for a while. "My wife was worried I would accidentally tip him out of the wheelchair," Shawn said. On the morning of the race, over 30 friends and family members of the twin brothers were there to watch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 星期天的晚上，饭菜已经上桌，我呼唤女儿：“吃饭啦。”“等一下”她答道。我先吃了。几分钟后，女儿走过来，看了一眼桌子，问：“我的饭呢？”伴随着的是一副忿忿不满的神情。我心里一惊。她的表情，她的寻问明明在告诉我：你应该为我盛好饭的，为什么不给我盛饭呢？7岁的她有一双好手，她明明可以自己盛饭，为什么觉得我理所当然得替她盛饭呢？我立刻找到了原因。虽然我一直警告自己不要替孩子做太多，让孩子学会自己做事为自己负责，但是我仍然和许多母亲一样，不知不觉替孩子做得多了点。 以前我一直替她盛饭，以至于她认为盛饭这件事是妈妈应该为她做的，所以她不但不感激我一直以来替她盛饭，反而因为今天没给她盛饭而不满起来。是啊，既然是妈妈应该做的，她怎么会感激呢？我意识到这是在助长女儿的“受之无愧感”。“受之无愧”是指，某人觉得别人欠了他东西，或者认为别人必须给他特殊待遇。有这种倾向的人认为别人（尤其是亲近的人）应该给他想要的东西。别人给了，他觉得那是人家应该做的，他不知感恩；别人没有给，他就认为别人太不应该，于是就心生不满和怨恨。“受之无愧感”强烈的人可能变成一只“白眼狼”。前不久在网络上看到的一个帖子，发帖人小A，10岁时父母相继过世，年长他20岁的姐姐将他抚养成人，并供他上了大学，后来他考上了公务员。姐姐在工厂上班，姐夫在学校门口摆一个小摊。现在他姐姐退休了，退休金每月1800元。姐姐的儿子--小A的外甥考上了外地某个大学的建筑专业，学费比本地大学其他专业贵。姐姐家收入锐减，开支突增，财务突然紧张起来。姐姐想让小A每个月给她1000元作为养老费（实际应该是补贴外甥上大学的生活费），小A不干，并劝说姐姐不让外甥读学费昂贵的建筑专业。姐姐一气之下，扬言小A不给抚养费就要将他告上法庭。小A问，如果姐姐将他告上法庭，他需不需要承担抚养费？会不会对他的前途造成影响？他特别强调，姐姐只是将他养活大，对他没有对外甥好，至于如何不好，他举例说2003年上大学时，姐姐每月仅仅给他300元的生活费。言辞间有很多对他姐姐一家的不满，并且毫无感激之情。姐姐将他抚养成人并送去上大学，小A本应心怀感激、知恩图报，他却认为姐姐姐夫做得还不够好。 我不熟悉法律，不知法律上这位弟弟有没有义务赡养姐姐。</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>On Sunday evening, the meal was already on the table, and I called out to my daughter, "Let's eat." "Wait a moment," she replied. I started eating first. A few minutes later, my daughter walked over, looked at the table, and asked, "Where's my food?" Accompanied by a look of dissatisfaction. I was taken aback. Her expression, her inquiry clearly told me: you should have served my food for me, why didn't you serve it for me? At the age of 7, she has capable hands, she could have served her own food, why did she think it was my duty to serve her food for her? I immediately found the reason. Although I had always warned myself not to do too much for my child, to let the child learn to take responsibility for themselves, I still, like many mothers, unconsciously did a bit too much for my child. I used to serve her food all the time, to the point where she thought serving food was something that Mom should do for her, so not only did she not appreciate me serving her food all along, but she became dissatisfied because I didn't serve her food today. Yes, if it's something Mom should do, how could she be grateful? I realized that this was fostering my daughter's sense of "undeserved entitlement." "Undeserved entitlement" refers to when someone feels that others owe them something, or believes that others must treat them specially. People with this tendency believe that others (especially close ones) should give them what they want. If others give it, they think it's what they should do, they don't feel grateful; if others don't give it, they think others shouldn't, and thus feel dissatisfied and resentful. People with a strong sense of "undeserved entitlement" may become "ingrates." Not long ago, I saw a post on the internet. The poster, Little A, lost his parents one after another when he was 10 years old. His sister, who was 20 years older than him, raised him to adulthood and put him through college, and later he became a civil servant. His sister worked in a factory, and her husband set up a small stall at the school gate. Now that his sister has retired, her monthly pension is 1800 yuan. His sister's son - Little A's nephew - got into a university in another city to study architecture, which had higher tuition fees than other majors at local universities. The income of his sister's family sharply decreased, while expenses suddenly increased, causing financial strain. His sister wanted Little A to give her 1000 yuan every month as a pension (which should actually be a subsidy for her nephew's living expenses in college), but Little A refused and persuaded his sister not to let her nephew study the expensive architecture major. In a fit of anger, his sister threatened to take legal action against Little A if he didn't provide support. Little A asked, if his sister took him to court, would he be required to pay support? Would it affect his future? He particularly emphasized that his sister only raised him to adulthood, did not treat him well, and as for how she didn't treat him well, he cited an example from 2003 when he was in college, his sister only gave him 300 yuan as his monthly living expenses. His words contained a lot of dissatisfaction with his sister's family, and he showed no gratitude. His sister raised him to adulthood and sent him to college, Little A should have been grateful and repaid the kindness, but he thought his sister and brother-in-law didn't do well enough. I am not familiar with the law and do not know if this younger brother has a legal obligation to support his sister.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 继今年5月陕西省直机关成功开展《国家体育锻炼标准》测验达标赛之后，首次针对普通职工群众的测验达标活动将于10月15日-16日在西航社区体育场举行。此次活动是陕西省体育局贯彻落实《全民健身实施计划》，布局推广《国家体育锻炼标准》的又一次有益探索，旨在让更多的普通民众了解这一标准，并以此作为日常健身的规范和参照。活动由陕西省体育局主办，陕西省田径协会承办，陕西省体彩管理中心及中国航发西航协办，陕西鼎彩汇信息技术有限公司运营执行。《国家体育锻炼标准》是经国务院批准推行的一项重要体育制度，是以检验公民体育锻炼效果、评价身体素质为目的，以测验达标为手段的评价体系。新版的《国家体育锻炼标准》由国家体育总局会同教育部、全国总工会等有关部门于2013年12月修订完成，按年龄实现了6-69岁人群的全覆盖，包括儿童、少年、青年、壮年、老年5个组别，测验项目分为5类，涵盖了速度、耐力、力量、灵敏、柔韧等方面。《国家体育锻炼标准》每个组别5个测验项目根据不同的测验成绩，满分为500分，其中400分及以上为优秀，320分到399分为良好，200分到319分为及格。普通人只要坚持健康的生活习惯和适量运动，完全可以达到及格以上的水平。此次活动的口号是“全民健身 我是‘达’人”，在现场进行《国家体育锻炼标准》达标测验的同时，举行更富参与性和趣味性的全民健身达人挑战赛，设置立定跳远、摸高、跳绳、平板支撑等单项，根据现场成绩决出每个单项的全民健身达人，有兴趣的市民届时不妨亲临现场一试身手。16日下午四点半，陕西国民体质监测首席专家司玉灿还将亲临现场，就体质监测、科学锻炼等问题为社区健身群众现身说法。</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Following the successful implementation of the "National Physical Fitness Standards" test competition by the Shaanxi provincial government agencies in May this year, the first test event targeting ordinary workers and the general public will be held at the Xihang Community Sports Stadium on October 15th-16th. This event is another beneficial exploration by the Shaanxi Provincial Sports Bureau to implement the "National Fitness Plan" and promote the "National Physical Fitness Standards", aiming to help more ordinary people understand this standard and use it as a norm and reference for daily fitness. The event is organized by the Shaanxi Provincial Sports Bureau, hosted by the Shaanxi Provincial Athletics Association, co-organized by the Shaanxi Provincial Sports Lottery Administration Center and the China Aviation Power West Aviation, and operated by Shaanxi Dingcai Hui Information Technology Co., Ltd. The "National Physical Fitness Standards" is an important sports system approved by the State Council, which aims to evaluate the effectiveness of citizens' physical exercise and assess physical fitness through a standardized evaluation system based on achieving test standards. The revised version of the "National Physical Fitness Standards" was completed in December 2013 by the General Administration of Sport of China, the Ministry of Education, the All-China Federation of Trade Unions, and other relevant departments. It covers the age group of 6-69 years, including children, adolescents, youth, middle-aged, and elderly in 5 categories, with 5 types of test items covering aspects such as speed, endurance, strength, agility, and flexibility. Each of the 5 test items in the "National Physical Fitness Standards" for each group has a maximum score of 500 points. Scoring 400 points and above is considered excellent, 320-399 points are good, and 200-319 points are pass. As long as ordinary people maintain healthy habits and engage in moderate exercise, they can easily achieve a pass or higher level. The slogan for this event is "National Fitness, I am a 'pass' person". In addition to the on-site "National Physical Fitness Standards" test, there will be a more interactive and fun National Fitness Challenge, including events like standing long jump, high jump, skipping rope, and plank, where participants will be judged based on their performance in each event to determine the National Fitness Champions. Interested citizens are welcome to come and test their skills on-site. At 4:30 pm on the 16th, Chief Expert of Shaanxi National Physical Fitness Monitoring, Si Yu Can, will also be present to provide guidance on physical fitness monitoring, scientific exercise, and other related issues for the community fitness enthusiasts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 昨天宝安区六届人大一次会议隆重开幕，下午各代表团讨论一大波话题来袭，引爆了人们的兴奋点！不论是政府工作报告，还是人大代表、政协委员们的提案，小编都已经埋头吭哧吭哧抄在小本本上了！听听他们有啥“好声音” 周宇代表在认真阅读政府工作报告。 董小琴、叶文香代表正在热议政府工作报告。 赵文强、李军等代表认真聆听其他代表发言。 陈喜权委员在分组讨论会上发言。建设创新主力区 让新动能挑大梁 阮忠敢代表在西乡代表团分组审议上发言。福永将结合自身实际，积极转换功能，守住工业红线，做大做强会展经济、信息经济、总部经济。一手抓以工业红线为依托的智能制造，如报告几处提到的智能制造基地、大族激光、中粮福安。一手抓以跨境电商和会展经济为主的现代服务业，拓展产业发展新空间。——林更斌代表要加大创新力度，将科技要素与产业相结合，更多地把科研院所、科研机构等科技创新要素吸引到宝安，政府给予适当的配套支持。——丁庆代表政府部门要加大各项补贴政策的宣传力度，利用自媒体、微博、微信等方式进行宣传。——陈秀锦委员唱响“中国制造2025” 助力打造产业名城 孔淑玲代表在福永代表团分组审议中发言。企业是社会的细胞，没有产业，所有的目标都是一片空白，因此报告将重点落脚在产业上是正确的。要想方设法为企业提供土地供给，将优质企业留在宝安。——李献荣代表产业发展中要选择高端产业，在具体产业中要发展高端技术，注重高产田。李克强总理说要保障中国制造2025在这里安全起航，是对宝安非常重要的定位。——谷更军代表产业是经济发展的龙头，抓住了产业发展，银行、商贸等很多服务配套行业就会聚拢。——张金龙委员西部崛起指日可待 最美宝安谱写华章 黄振辉代表在沙井代表团分组审议中发言。区政府在吸引国内外创新资源、项目落户宝安的同时，可大力发展“飞地经济”，积极与西岸城市进行产业分工合作，建立对接机制，按照互利共赢合作的市场化原则，由区属国企出面在西岸布局产业转移工业园，搭建平台，引导产业有序转移、入园发展。——龚江南委员要精心抓好城市规划，现在每个街道都有各自的发展战略，应由区里牵头修订宝安的城市总体规划，以适应当下的发展需要。——徐伟林代表城市规划一方面加大基础设施投资力度，比如交通体系、道路体系、海绵城市等，要加大建设规模；另一方面要全盘统筹，多规合一，要有超前理念。</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Yesterday, the first session of the Sixth People's Congress of Bao'an District was grandly opened. In the afternoon, various delegations discussed a wave of topics, igniting people's excitement! Whether it's the government work report or the proposals from the People's Congress deputies and CPPCC members, the editor has already been diligently jotting down notes in a small notebook! Listen to what "good voices" they have. Delegate Zhou Yu is carefully reading the government work report. Delegates Dong Xiaoqin and Ye Wenxiang are actively discussing the government work report. Delegates Zhao Wenqiang, Li Jun, and others are attentively listening to other delegates' speeches. Committee member Chen Xiquan is speaking at the group discussion meeting. Building an innovative main area, letting new driving forces take the lead, Delegate Ruan Zhonggan is speaking at the West Xiang delegation's group deliberation. Fuyong will combine its actual situation, actively transform functions, safeguard the industrial red line, and expand and strengthen the exhibition economy, information economy, and headquarters economy. On one hand, focus on intelligent manufacturing based on the industrial red line, such as the intelligent manufacturing base, DaZu Laser, and COFCO Fu'an mentioned in the report. On the other hand, focus on modern service industries with cross-border e-commerce and exhibition economy as the main focus, expanding new space for industrial development. - Delegate Lin Gengbin calls for greater innovation efforts, combining scientific and technological elements with industries, attracting more scientific research institutes, and scientific and technological innovation elements to Bao'an, with appropriate support from the government. - Delegate Ding Qing suggests that government departments should increase the publicity of various subsidy policies through self-media, Weibo, WeChat, and other means. - Committee member Chen Xiujin sings "Made in China 2025" to help build an industrial city. Delegate Kong Shuling speaks at the Fuyong delegation's group deliberation. Enterprises are the cells of society. Without industries, all goals are blank. Therefore, focusing on industries in the report is correct. We must find ways to provide land supply for enterprises and keep high-quality enterprises in Bao'an. - Delegate Li Xianrong suggests choosing high-end industries for industrial development, developing high-end technologies in specific industries, and focusing on high-yield fields. Premier Li Keqiang said that ensuring the safe takeoff of "Made in China 2025" here is a very important positioning for Bao'an. - Delegate Gu Gengjun believes that industries are the leading force of economic development. By grasping industrial development, many service supporting industries such as banks and commerce will gather. - Committee member Zhang Jinlong believes that the rise of the west is imminent, and the most beautiful Bao'an will compose a new chapter. Delegate Huang Zhenhui speaks at the Shajing delegation's group deliberation. While attracting domestic and foreign innovative resources and projects to settle in Bao'an, the district government can vigorously develop "enclave economy." Actively cooperate with cities on the west bank for industrial division of labor, establish docking mechanisms, and layout industrial transfer industrial parks on the west bank by district-owned state-owned enterprises, build platforms, guide orderly industrial transfer and park development according to the principle of market-oriented mutual benefit cooperation. - Committee member Gong Jiangnan emphasizes meticulous urban planning. Currently, each street has its own development strategy. The district should take the lead in revising the overall urban planning of Bao'an to meet the current development needs. - Delegate Xu Weilin suggests that urban planning should increase infrastructure investment, such as transportation systems, road systems, sponge cities, etc., and expand the scale of construction. At the same time, it should be comprehensively planned, integrating multiple plans into one, and have a forward-looking concept.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>苹果公司今日在中国市场正式推出了“重复使用及循环利用计划”（以旧换新计划），目前只限于iPod、iPad及iPhone4以上的机型可进行换购。ZOL记者第一时间奔赴苹果西单大悦城AppleStore零售店，独家体验这项服务。 参加以旧换新计划之前，你需要知道：1、目前参与此计划的机型包括iPhone4及以上、iPad2及以上、iPadmini及以上（不包括各产品线最新款机型）；注意，iPod的以旧换新早前就已经推出；2、中国大陆、香港、澳门、台湾版机型均可参与，其他机型不能参与。3、换购数量为一换一，即1个iPhone换1个iPhone、1个iPad换1个iPad，不能多个设备换一个设备；4、机型需要同系列，即iPhone只能换购iPhone，iPad与iPadmini之间可以互换；5、旧款设备换取“代金券”，必须当天使用；6、询价时暂无需身份证 下面正式进入“以旧换新”体验之旅。我们到访的是位于西单大悦城的苹果AppleStore零售店，由于时间是中午，所以现场的人还不算多。到店之后，我们询问了一位零售店员，随即被带到一张专门用于“以旧换新”咨询的桌子上，Specialist专家会在这里对机型的价格做出评估。 首先，Specialist专家会观察设备的外观完整程度，例如是否有划痕、磕碰等，并且会检查摄像头是否正常工作，询问设备是否进水等使用问题。在观察设备是否进水时，Specialist专家会用专门的手电筒照看iPhone或iPad数据接口以及耳机接口的试纸是否变色（据了解，iPhone或iPad中会有专门的防水试纸，当该试纸受潮或碰到水后就会由白色变成其他颜色）。此外，专家还会手动检测iPhone触屏以及相机是否正常工作，即点击手机屏幕，打开照相机应用，并进行拍照，以检测触屏反应和摄像头硬件。 之后，Specialist专家会利用苹果自己的评估系统检测设备各项信息。此时，工作人员会查看并输入设备的序列号，至评估系统，系统会评估包括购买、过保时间等六项设备信息（由于苹果对此系统严格保密，我们无法获知评分系统的依据），最终给出估价。 我们携带的设备包括16GB国行iPhone5c、16GB国行iPadmini2、16GB港版iPhone5s、32GB日版iPhone5、16GB国行iPhone4s。平均每部设备的检测时间约为5-10分钟。</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Apple officially launched the "Reuse and Recycling Program" in the Chinese market today, which is currently limited to models of iPod, iPad, and iPhone 4 and above for trade-in. ZOL reporter rushed to the Apple Store in Xidan Joy City in Beijing to exclusively experience this service. Before participating in the trade-in program, you need to know: 1. The models currently included in this program are iPhone 4 and above, iPad 2 and above, iPad mini and above (excluding the latest models of each product line); note that the trade-in program for iPod has been introduced earlier; 2. Models from mainland China, Hong Kong, Macau, and Taiwan are eligible, while other models are not; 3. The exchange quantity is one for one, meaning 1 iPhone for 1 iPhone, 1 iPad for 1 iPad, and multiple devices cannot be exchanged for one device; 4. The models need to be from the same series, meaning iPhone can only be exchanged for iPhone, and iPad can be exchanged with iPad mini; 5. Old devices are exchanged for "vouchers" that must be used on the same day; 6. No ID is required during the inquiry. Now let's officially begin the experience of the trade-in journey. We visited the Apple Store retail store in Xidan Joy City, and since it was noon, there weren't too many people on-site. After arriving at the store, we asked a retail store employee and were then taken to a table specifically for "trade-in" consultations, where a Specialist would assess the prices of the devices. First, the Specialist will inspect the external integrity of the devices, such as scratches, dents, and check if the camera is working properly, and inquire about any usage issues like water damage. When checking for water damage, the Specialist will use a special flashlight to examine whether the indicator paper at the iPhone or iPad data port and headphone jack has changed color (it is understood that there is a special waterproof indicator paper in iPhone or iPad, which will change color from white to another color when it gets wet or comes into contact with water). Additionally, the Specialist will manually test the iPhone touchscreen and camera to ensure they are functioning properly by tapping the screen, opening the camera app, and taking photos to test the touchscreen response and camera hardware. Afterwards, the Specialist will use Apple's own evaluation system to check various information about the devices. At this point, the staff will view and enter the device's serial number into the evaluation system, which will assess six device information including purchase and warranty time (due to Apple's strict confidentiality of this system, we cannot know the basis of the scoring system), and finally provide an estimate. The devices we brought include a 16GB Chinese iPhone 5c, a 16GB Chinese iPad mini 2, a 16GB Hong Kong iPhone 5s, a 32GB Japanese iPhone 5, and a 16GB Chinese iPhone 4s. The average testing time for each device is about 5-10 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 留在北上广？逃离北上广？类似的话题的讨论，似乎每隔一段时间就会在网上被炒作一番。最近，由一家招聘网站发布的《2016互联网公司应届生吸引力报告》显示，2016年，仅36%的应届生希望到北上广深工作，而在三年前，这一比例是51%。“逃离北上广”，似乎正在成为现实。然而不可否认的是，尽管城市生活的喧嚣、繁忙常令人有无力感，但大城市对于许多人仍有着致命吸引力。一款匿名社交软件近期发布了一个“那么累，为什么还要留在大城市”的话题，引来了数百名网友的回答。有些答案是相似的，但是因为背后的人不一样，语气也很不一样；有些答案是个案，你能从简单的叙述中看出一些回答者的悲欢和情绪。是的，看了他们的回答后，你会发现留在大城市的好处之一，也许恰恰就是因为你身边有着这么一群想法丰富的人！以下是网友们回答的一部分 究竟为什么要留在大城市，很多人提到了奋斗和梦想—— *现在的我永远不知道二十年后的我是什么样，趁着年轻闯一把，为那不确定的未来拼一把*我就是喜欢这个浮夸的世界！年轻的时候应该闯一闯。*到哪里都孤独，何不在风口浪尖体验下～我就喜欢看来来往往的人。*因为我从农村来，还特么读了好多书。*因为不想孩子再重复一遍留在大城市的过程。*做不了富二代只能努力拼搏成为富一代！*因为我不想后悔没有过上我想要的生活，我会努力地去接近我的目标，哪怕很累！*为了亿分之一的致富机会，为了看到更大的世界，为了找到更好的自己和那个她。*老爹跟我说有一个弄北京户口的机会，让我去北京。说是不行的话，半年后就把我弄回来。后来的后来他就没时间管我了，于是我就坚强地在北京留下来了。*我有一个朋友，不谙世事、不善交际，有一份稳定工作和中等收入。与许多独生子女一样，她在父母的支持下买房买车，一个人住着140平方的房子，每日按部就班地开车上下班，不知不觉年过三十。也是在三十岁这一年，她放弃了这一切，选择北漂……*年轻总是怀揣这梦想，尽管收入已算可观，但对于深圳的高房价来说根本不值一提。当初的想法很单纯，只要努力总可以拼出来，但这样的想法慢慢被现实磨灭，也许活在当下更有意义！ 有人提到大城市机会多—— *因为回农村当律师可能会饿死或者被人吃了。 *因为在家没有IT行业，所以只能留在大城市。*我这回家当网管都没人要的，在大城市可以找到想要的工作。*回到小地方，更觉得自己没用。</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Stay in Beijing, Shanghai, and Guangzhou? Escape from Beijing, Shanghai, and Guangzhou? Discussions on similar topics seem to be hyped online every once in a while. Recently, a report titled "2016 Internet Companies' Attractiveness to Fresh Graduates" released by a recruitment website revealed that in 2016, only 36% of fresh graduates wished to work in Beijing, Shanghai, Guangzhou, or Shenzhen, compared to 51% three years ago. "Escaping from Beijing, Shanghai, and Guangzhou" seems to be becoming a reality. However, it cannot be denied that despite the hustle and bustle of city life often making people feel powerless, big cities still hold a fatal attraction for many. A popular anonymous social networking app recently posted a topic "So tired, why stay in a big city?" which attracted responses from hundreds of netizens. Some answers were similar, but due to different people behind them, the tones varied greatly; some answers were individual cases, and from simple narratives, you could sense the joys and sorrows, as well as emotions of the respondents. Yes, after reading their answers, you will discover that one of the benefits of staying in a big city may be precisely because you are surrounded by such a diverse group of people! Here are some responses from netizens about why they choose to stay in big cities. Many people mentioned striving and dreams— *I will never know what I will be like in twenty years, so while I'm young, I should take a chance and strive for the uncertain future. *I just love this flamboyant world! When young, one should take risks. *Loneliness exists everywhere, so why not experience the excitement at the forefront? I just love watching people come and go. *Because I come from the countryside and have read a lot of books. *Because I don't want my child to repeat the process of staying in a big city. *If I can't be a second-generation rich, I can only work hard to become a first-generation rich! *Because I don't want to regret not living the life I want, I will work hard to get closer to my goal, even if it's tiring! *For a one-in-a-billion chance to get rich, to see a bigger world, to find a better self and that special someone. *My dad told me there was an opportunity to get a Beijing household registration, asking me to go to Beijing. He said if it didn't work out, he would bring me back in six months. Later on, he got too busy to take care of me, so I resolutely stayed in Beijing. *I have a friend who is inexperienced, not good at socializing, has a stable job and a moderate income. Like many only children, with the support of her parents, she bought a house and a car, living alone in a 140-square-meter house, driving to and from work every day, and unknowingly passed the age of thirty. It was also at the age of thirty that she gave up everything and chose to drift to Beijing... *Youth always carries dreams, although the income is considerable, it is not worth mentioning compared to the high housing prices in Shenzhen. The initial idea was very simple, as long as you work hard, you can always make it, but such thoughts are slowly eroded by reality, perhaps living in the moment is more meaningful! Some mentioned that big cities offer more opportunities— *Because going back to the countryside to be a lawyer might starve to death or be eaten by others. *Because there is no IT industry at home, so I can only stay in a big city. *No one wants me to be a network administrator at home, but in a big city, I can find the job I want. *Going back to a small place, I feel even more useless.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>据英国autoexpress10月21日报道，斯柯达研发部近日证实了将推出晶锐SUV的消息，新车有望于2018年上市。日前，斯柯达方面已获得了生产许可，将生产一台超越现款的小型跨界车。 作为雪铁龙C4Cactus和日产Juke的主要竞争对手，斯柯达晶锐已经足足酝酿了两年。然而事实上，斯柯达不是唯一一家推出小型SUV的车企：今年的巴黎车展上西雅特表示将于2017年下半年推出一款名为Arona的汽车;基于Polo的大众T-Roc也是晶锐强劲的竞争对手之一，不过后者的体积略大，高度也会略高，前端会比较独特且车身浑圆。此外，关于新车的名称还未确定，只知道斯柯达于今年年初注册了Aratan和Airon两个商标。据悉，新车基于大众中型汽车MQB平台打造，将不再使用打造现款晶锐的大众PQ25平台。斯柯达可谓是将大众的平台用到了极致，斯柯达汽车全球技术研发董事Christian Strube先生表示：“我们借用大众的平台，将我们自己的想法变成现实，同时也为大众的平台注入了新的活力。”</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>According to a report from Auto Express on October 21, Skoda's R&amp;D department recently confirmed the news of launching the Crystal SUV, and the new car is expected to be on the market in 2018. Recently, Skoda has obtained production approval to produce a compact crossover that surpasses the current model. As a major competitor to Citroen C4 Cactus and Nissan Juke, Skoda Crystal has been brewing for two years. However, Skoda is not the only car manufacturer to introduce a compact SUV: at this year's Paris Motor Show, SEAT announced that they will launch a car named Arona in the second half of 2017; Volkswagen's T-Roc, based on the Polo, is also a strong competitor to the Crystal, although it is slightly larger in size, with a slightly higher height, a unique front end, and a more rounded body. In addition, the name of the new car has not been determined yet, but it is known that Skoda registered two trademarks, Aratan and Airon, earlier this year. It is reported that the new car is based on Volkswagen's MQB platform for midsize cars, and will no longer use Volkswagen's PQ25 platform used to build the current Crystal. Skoda has truly maximized the use of Volkswagen's platforms, as Christian Strube, Skoda's global director of technical development, said, "We borrow Volkswagen's platforms to turn our own ideas into reality, while also injecting new vitality into Volkswagen's platforms."</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>前段时间，在美国电影《超能陆战队》中登场的智能机器人“大白”火了，而今天艺术灯饰为大家带来几款像大白一样的体型胖胖的“SoftLight”灯饰，喜欢“大白”的人来看看到底有没有相似的韵味吧。 “Oft LightS”灯饰，这款具有柔软特性的创意灯具设计，柔软的和暖暖的产品都能够给人带来亲近的感觉。 有人说，多肉的植物就是能够缓解压力的“治愈系”植物，碰上去软绵绵的质感也为这些灯饰带来了些许治愈系的色彩。使用聚氨酯材料制作而成的外观整件创意产品都具备了柔软的特点，告别了大部分产品给人留下的生硬的印象。 这款灯饰的风格就像很火的动漫人物——那个“软软胖胖”的大白，让人总想上去捏一捏，也是萌萌的。 还有这款像毛毛虫一样的治愈系艺术灯饰 Lampe L 是设计师 Anna Leymergie 设计的一款产品，这是一款L形的，无论将它放在哪里都好像一团流淌着的光球，效果十分迷人并且从满了动感。 Lampe L 的主要材料有日本纸、白橡木、亚麻纱和藤条材料，完全靠手工一点一点打造完成，十分精细。 这款用竹编手工制作的艺术灯饰，虽说这是一款用天然材料制作，但是倒“T字”的造型、发出的光亮有没有与大白有那么一丝相似的神韵呢？ 也许未来，这些像“大白”一样软绵绵的灯饰能够成为一种时尚与流行，相信这样的艺术灯饰不论在什么场合，都能带给人们像《超能陆战队》中“大白”一样治愈系的“暖暖”的关怀之光。</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Some time ago, the intelligent robot "Baymax" that appeared in the American movie "Big Hero 6" became popular. Today, art lighting brings to everyone several chubby "SoftLight" lighting fixtures that resemble Baymax. Fans of Baymax can come and see if there is a similar charm. "Soft Lights" lighting fixtures, this creative lighting design with soft characteristics can bring a close feeling to people with its soft and warm products. Some people say that succulent plants are "healing" plants that can relieve stress, and the soft and fluffy texture also brings a touch of healing color to these lighting fixtures. The appearance of this creative product made of polyurethane material all has the characteristic of softness, bidding farewell to the stiff impression left by most products. The style of this lighting fixture is like the very popular animated character - the "soft and chubby" Baymax, making people always want to pinch it, very cute. There is also this healing art lighting fixture like a caterpillar, Lampe L, designed by designer Anna Leymergie. This L-shaped product looks like a flowing light ball wherever it is placed, with a very charming and dynamic effect. The main materials of Lampe L include Japanese paper, white oak, linen yarn, and rattan materials, all meticulously crafted by hand, very delicate. This art lighting fixture made by hand with bamboo weaving, although it is made of natural materials, does the inverted "T-shaped" design and the emitted light have a hint of similarity in charm with Baymax? Perhaps in the future, these soft and fluffy lighting fixtures like Baymax can become a fashion trend. I believe that such art lighting fixtures, no matter the occasion, can bring people a warm and caring light like Baymax in "Big Hero 6".</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 作者姓名：陈虹向聘书编号：3FCZJ07010125个人简介：陈虹向，南边文艺第三届扶持作家，笔名南沉榆，1996年11月出生，山西省晋城市人，现就读于大同大学。《幸福的脚步》一文曾获第十四届“语文报杯”全国中学生作文大赛省级二等奖，《撑起一方晴天》一文获全国大学生“青年访谈杯”文学写作大赛散文组优秀奖。创作手记：文字是一次美学的体验，它虽然没有画面那样直观，但始终凭借柔美的姿态浮于我们的心灵。我们的感受，我们的经历，都被记录下来，刻在历史的年轮上。我们会随着心走，向往着那片心灵的寂静。代表作品：撑起一方陈虹向冬去春来，枯木尽散，棕色的枝头渐渐开出新绿，伴着叽叽喳喳的和声，一抹斜阳燃亮了大地。送去了俱寂的冬，万物都伸展着懒腰，迫不及待地迎接着暖阳的到来。脱去了慵懒，春光渐渐入画。一切都显得和谐而美好。为了不辜负这撩人的春光，播种者埋下了希望。春节过后，或是迎接工作，亦或是三五个好友在一起享受最后的相聚。没错，种子若要成长，必要经历五味。于是，我也常常思考，是不是终归离别多于相逢。无论是家人还是有着自己美好的那座城。我和父亲一起外出，坐在可以带我走到外面世界去的小火车上，说实话，心里还是寄宿着激动。寒风吹的刺骨，可看到身边的父亲，觉得满心的暖。陌生的城市，陌生的霓虹灯，陌生的道路。我们待的时间并不久，办完了事情立刻就踏上了回家的路途。归程的火车是在白天，大概下午就可以到达。我坐在父亲的对面，看着父亲，他好像更瘦弱了，身体可还似从前那样？都说岁月静好，为何还要在他身上留下印记？我们都不善言谈，我们的爱都藏在心里，默默地早已为彼此做好一切。在我踏上到学校的列车时，我常常幻想父亲还在我身边。转头一看，挤满的只有和我一样同样远行的人。我相信很多人和我一样有思乡情节，我们都称之为“恋家情节”。太多的舍不得在那一刻写在面颊。可时光不等人，我们要变得优秀，才能带给他们更好。离别多于相逢，或许正是如此。我们最美的年华，应该怀着最美的追求和梦想。当你去为了自己的追求而尝试，而拼搏， 你会发现他们一直陪着我们身边，等待着那颗种子渐渐被浇灌成长，它就拥有了强壮的力量去完成陪伴。不要害怕，征途也有醉人的风光。不要迷惘，你身后一直有双大手为你撑着晴天。不要哭泣，短暂的离别你更懂得珍惜。</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Author's name: Chen Hongxiang Job offer number: 3FCZJ07010125 Personal profile: Chen Hongxiang, supported writer of the third South Literary Arts, pen name Nan Chenyu, born in November 1996, from Jincheng City, Shanxi Province, currently studying at Datong University. The article "The Steps of Happiness" won the second prize in the provincial level of the 14th "Language Newspaper Cup" National High School Student Composition Competition, and the article "Holding Up a Clear Sky" won the Excellence Award in the prose group of the National College Students' "Youth Interview Cup" Literature Writing Competition. Creation note: Words are an aesthetic experience, although not as intuitive as images, they always float in our hearts with a gentle posture. Our feelings, our experiences, are all recorded and engraved on the rings of history. We follow our hearts, yearning for the tranquility of the soul. Representative works: Holding Up a Clear Sky by Chen Hongxiang Winter is leaving, spring is coming, the withered trees are scattered, the brown branches gradually sprout new green leaves, accompanied by the chirping of birds, a slanting sun illuminates the earth. Winter, which was once silent, has been sent away, and all things are stretching lazily, eagerly welcoming the arrival of the warm sun. Shedding laziness, the spring gradually unfolds. Everything appears harmonious and beautiful. In order not to disappoint this enchanting spring, the sower plants hope. After the Spring Festival, whether welcoming work or enjoying the last gathering with three to five good friends. Yes, if seeds are to grow, they must experience the five flavors. So, I often ponder, is parting more frequent than meeting after all. Whether it is family or the beautiful city of one's own. I went out with my father, sitting on a small train that could take me to the outside world. To be honest, there was still excitement in my heart. The cold wind was piercing, but seeing my father beside me, I felt warmth in my heart. The unfamiliar city, the unfamiliar neon lights, the unfamiliar roads. We didn't stay long, as soon as we finished our business, we immediately set off on the journey back home. The return train journey was during the day, and we would probably arrive in the afternoon. I sat across from my father, looking at him. He seemed to have become thinner, is his body still the same as before? They say time is gentle, then why leave marks on him? We are not good at talking, our love is hidden in our hearts, silently we have already done everything for each other. When I boarded the train to school, I often fantasized that my father was still by my side. But when I turned my head, the crowded train was filled with people traveling as far as I was. I believe many people, like me, have homesickness, which we call "homesickness". Too much reluctance was written on our faces at that moment. But time waits for no one, we must become outstanding in order to give them a better life. Perhaps parting is more frequent than meeting. Our most beautiful years should be filled with the most beautiful pursuits and dreams. When you try and strive for your own pursuits, you will find that they have always been with us, waiting for the seed to be gradually watered and grown, giving it the strength to accompany us. Do not be afraid, the journey also has its intoxicating scenery. Do not be confused, there are always big hands behind you holding up a clear sky. Do not cry, the brief parting makes you cherish more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>今日合肥市不动产登记中心发布通知，因国土局停电，不动产登记中心数据服务器临时关闭，明日(25日)合肥各不动产登记分中心及办证窗口暂停办理登记业务。 通知显示，接市供电局(市电力公司)通知，本月25日(星期二)上午6点至下午8点，合肥市政务区部分区域(包括市不动产登记中心数据机房)停电，停电期间，不动产登记中心数据服务器临时关闭，各不动产登记分中心及办证窗口暂停办理登记业务，不动产登记业务咨询服务正常进行。通知发出后，不少网友咨询办理抵押、资金托管、缴税等业务是否受影响。小编分别咨询了合肥市阜南路存量房办税服务中心和市不动产登记中心瑶海分中心。阜南路办税服务中心工作人员表示，暂未接到任何通知，明天缴税、查询首套房业务正常进行。市不动产登记中心瑶海分中心工作人员称，因全市不动产登记业务服务器放在国土局，明天国土局停电，导致窗口不能启用交易软件，登记业务不能办理。包括办理抵押业务和资金托管业务同样不能办理。</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Today, the Real Estate Registration Center in Hefei issued a notice that due to a power outage at the Land Bureau, the data server of the Real Estate Registration Center will be temporarily shut down. Tomorrow (the 25th), all real estate registration sub-centers and certificate issuance windows in Hefei will suspend registration services. The notice indicates that according to the notification from the Municipal Power Supply Bureau (Municipal Power Company), on the 25th of this month (Tuesday), from 6 a.m. to 8 p.m., some areas in the administrative area of Hefei (including the data center of the Real Estate Registration Center) will experience a power outage. During the outage, the data server of the Real Estate Registration Center will be temporarily closed, and all real estate registration sub-centers and certificate issuance windows will suspend registration services, while real estate registration consultation services will continue as usual. After the notice was issued, many netizens inquired whether services such as mortgage registration, fund custody, and tax payment would be affected. The author consulted both the Funan Road Existing House Tax Service Center and the Yaohai Sub-center of the Real Estate Registration Center in Hefei. The staff at the Funan Road Tax Service Center stated that they had not received any notice yet, and that tax payment and first-time home purchase inquiries would proceed as usual tomorrow. The staff at the Yaohai Sub-center of the Real Estate Registration Center mentioned that since the city's real estate registration business servers are located at the Land Bureau, the power outage at the Land Bureau tomorrow will prevent the windows from using the transaction software, thus registration services cannot be provided. This includes the inability to process mortgage and fund custody services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>第1页：哈弗H2限时优惠0.8万元[58车·濮阳行情·原创]近日，笔者从濮阳通达哈弗汽车4S店了解到，店内哈弗H2现车销售，颜色可选，目前购哈弗H2可优惠0.80万元，感兴趣的朋友可以到店咨询购买。想了解更多车型优惠信息请致电：4008-585858。哈弗H2最新价格变化表车型 指导价（万元） 现价（万元） 优惠幅度 优惠比例2016款 哈弗H2 1.5T 手动两驱都市版 9.88 9.08 0.8万元 8.1%2016款 哈弗H2 红标 1.5T 手动四驱舒适型 9.68 8.88 0.8万元 8.26%2016款 哈弗H2 1.5T 自动两驱尊贵型 12.88 12.08 0.8万元 6.21%2016款 哈弗H2 1.5T 手动四驱尊贵型 12.38 11.58 0.8万元 6.46%2016款 哈弗H2 1.5T 手动两驱尊贵型 11.58 10.78 0.8万元 6.91%2016款 哈弗H2 1.5T 手动四驱豪华型 11.78 10.98 0.8万元 6.79%2016款 哈弗H2 1.5T 自动两驱精英型 11.68 10.88 0.8万元 6.85%2016款 哈弗H2 红标 1.5T 手动两驱舒适型 8.88 8.08 0.8万元 9.01%濮阳地区4S经销商2016年7月26日行情 58车 www.58che.com保养方面，哈弗H2享受厂商提供的三年或10万公里整车质保，常规保养周期为5000公里/次，常规的小保养费用一般在280元左右，大保养则要根据车况而定，如更换机油和三滤，费用是360元左右。详细价格请以店内报价为准。 ● 编辑点评：2016款哈弗H2新增三款豪华型车型，新增了电子手刹、雾灯转向照明、ESP、天窗、电动折叠后视镜、坡道辅助等14项豪华配置。与老款车型相同，搭载了一台1.5T发动机，最大输出功率110千瓦，最大扭矩210牛·米，传动部分，与发动机匹配的是6速手动和6速自动变速箱。驱动形式上，新车将继续提供两驱和四驱版本供消费者选择。注：汽车市场价格多变，文章内的价格信息为编辑在市场上采集到的当日实时价格，以当日为准。同时此价格是经销商的个体行为，所以文中价格仅供参考。另外，文中图片为车型资料图片，价格信息与图片拍摄地点无关。</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Page 1: Haval H2 Limited Time Offer of 8,000 Yuan Discount [58Che·Puyang Market·Original] Recently, the author learned from the Puyang Tongda Haval Automobile 4S store that the Haval H2 in stock is available for sale with optional colors. Currently, a discount of 8,000 yuan is offered for purchasing the Haval H2. Interested friends can visit the store for inquiries and purchases. For more information on discounts for other models, please call: 4008-585858. Latest Price Changes for Haval H2 Models Model Guide Price (in thousand yuan) Current Price (in thousand yuan) Discount Amount Discount Percentage 2016 Haval H2 1.5T Manual Two-Wheel Drive Urban Edition 9.88 9.08 8,000 yuan 8.1% 2016 Haval H2 Red Label 1.5T Manual Four-Wheel Drive Comfort Edition 9.68 8.88 8,000 yuan 8.26% 2016 Haval H2 1.5T Automatic Two-Wheel Drive Luxury Edition 12.88 12.08 8,000 yuan 6.21% 2016 Haval H2 1.5T Manual Four-Wheel Drive Luxury Edition 12.38 11.58 8,000 yuan 6.46% 2016 Haval H2 1.5T Manual Two-Wheel Drive Luxury Edition 11.58 10.78 8,000 yuan 6.91% 2016 Haval H2 1.5T Manual Four-Wheel Drive Deluxe Edition 11.78 10.98 8,000 yuan 6.79% 2016 Haval H2 1.5T Automatic Two-Wheel Drive Elite Edition 11.68 10.88 8,000 yuan 6.85% 2016 Haval H2 Red Label 1.5T Manual Two-Wheel Drive Comfort Edition 8.88 8.08 8,000 yuan 9.01% Puyang Area 4S Dealership Market on July 26, 2016 58Che www.58che.com In terms of maintenance, the Haval H2 enjoys a three-year or 100,000-kilometer whole-vehicle warranty provided by the manufacturer. The routine maintenance cycle is 5,000 kilometers/time, and the cost of routine minor maintenance is generally around 280 yuan, while major maintenance costs vary depending on the vehicle condition, such as oil and filter replacement, costing around 360 yuan. For detailed prices, please refer to the quotes in the store. ● Editor's Comment: The 2016 Haval H2 has added three luxury models, with 14 luxury configurations including electronic parking brake, fog light steering illumination, ESP, sunroof, electric folding rearview mirror, and hill start assist. Similar to the previous models, it is equipped with a 1.5T engine with a maximum output power of 110 kilowatts and a maximum torque of 210 Newton meters. In terms of transmission, it is matched with a 6-speed manual and a 6-speed automatic gearbox. In terms of driving mode, the new car will continue to offer two-wheel drive and four-wheel drive versions for consumers to choose from. Note: Prices in the automotive market are subject to change. The price information in the article is the real-time price collected by the editor in the market on that day, subject to the actual price on that day. Additionally, the prices are individual actions of dealers, so the prices in the article are for reference only. Furthermore, the pictures in the article are model information pictures, and the price information is not related to the location where the pictures were taken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国撤侨和人道主义救援从来不分国籍中国驻斯里兰卡使馆工作人员6日对《环球时报》记者说，应斯里兰卡政府要求，临沂舰6日还搭载45名斯侨民撤离。使馆一直与斯外交部及在也门的斯侨民保持电话联系，协助其联系我驻也门使馆的工作人员。5日晚，39名斯里兰卡人经8小时长途跋涉，通过7道关卡从萨那抵达亚丁，我驻也门使馆沿途电话打招呼，使其顺利通关并于6日中午前进入荷达台港。斯侨民在港口给中国驻斯使馆打来电话说，中国大使来了，我马上要上你们的大军舰，非常感谢！目前，也门冲突双方正在也门第二大城市亚丁激战。据路透社6日报道，亚丁郊外当日频传爆炸声，当地居民称，一艘外国军舰正对胡塞武装在郊外的据点进行轰炸。在亚丁市内，激烈的巷战和爆炸持续多日，对该市造成严重破坏。市民面临着严重的食物、饮用水和供电短缺。法新社6日援引也门医疗机构和军方的消息报道称，胡塞武装和也门政府军5日起在亚丁的激烈交火已在24小时内造成至少53人死亡，其中包括17名平民、10名政府军士兵和至少26名胡塞武装成员。英国广播公司（BBC）称，尽管面临沙特领导的盟军的空袭，胡塞武装5日还是占领了亚丁的更多地区。胡塞武装组织高级成员、也门总统哈迪的前顾问萨马德当天表示，只要沙特领导的联军停止对也门空袭，胡塞武装愿开展和平对话。沙特阿拉伯新闻网5日援引萨马德的话说，除了停止空袭和在规定时间内开展对话，胡塞武装没有任何条件。但胡塞武装拒绝让在沙特避难的哈迪返回也门。但有报道援引分析人士的话称，胡塞武装的和谈诚意令人怀疑。也门卫生部称，自3月26日以来，至少有185人在亚丁丧生，1282人受伤。这一数字并不包括胡塞武装组织成员和在空袭中伤亡的人员。也门危机还让巴基斯坦陷入两难。巴基斯坦议会6日举行特别会议，讨论军援沙特联盟。巴基斯坦国防部长阿西夫当天表示，沙特已要求巴基斯坦向也门派遣战斗机、军舰及士兵参与军事行动。但有分析认为，巴基斯坦既不愿得罪沙特也不想激怒邻国伊朗，或许将采取折中方案即向也门派遣军事顾问。英国《每日邮报》指出，沙特去年向巴基斯坦提供了15亿美元的经济援助。 中国撤侨和人道主义救援从来不分国籍 中国撤侨和人道主义救援从来不分国籍</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>China's evacuation of nationals and humanitarian rescue operations have never distinguished nationalities. Chinese Embassy staff in Sri Lanka told Global Times reporters on the 6th that, at the request of the Sri Lankan government, the Linyi ship also evacuated 45 Sri Lankan nationals on the 6th. The Embassy has been in telephone contact with the Sri Lankan Ministry of Foreign Affairs and Sri Lankan nationals in Yemen, assisting them in contacting staff at our Embassy in Yemen. On the evening of the 5th, 39 Sri Lankans arrived in Aden after an 8-hour long-distance trek, passing through 7 checkpoints from Sana'a to Aden. Our Embassy in Yemen called along the way, ensuring their smooth customs clearance and entry into the Port of Hodeidah by noon on the 6th. Sri Lankan nationals at the port called the Chinese Embassy in Sri Lanka and said, "The Chinese Ambassador is here, I am about to board your warship, thank you very much!" Currently, the conflicting parties in Yemen are engaged in intense battles in Aden, the second largest city in Yemen. According to Reuters on the 6th, explosions were heard on the outskirts of Aden that day, with local residents saying that a foreign warship was bombing the Houthi armed group's positions on the outskirts. In Aden city, fierce street fighting and explosions have been ongoing for several days, causing severe damage to the city. Residents are facing severe shortages of food, drinking water, and electricity. Agence France-Presse on the 6th cited reports from Yemeni medical institutions and the military, stating that intense clashes between the Houthi armed group and the Yemeni government forces in Aden on the 5th had resulted in at least 53 deaths within 24 hours, including 17 civilians, 10 government soldiers, and at least 26 Houthi armed members. The BBC reported that despite facing airstrikes by the Saudi-led coalition, the Houthi armed group still occupied more areas in Aden on the 5th. Samad, a senior member of the Houthi armed group and former advisor to Yemeni President Hadi, stated that as long as the Saudi-led coalition stops airstrikes in Yemen, the Houthi armed group is willing to engage in peace talks. Saudi Arabia's news website on the 5th quoted Samad as saying that the Houthi armed group has no conditions other than stopping airstrikes and engaging in dialogue within a specified time frame. However, the Houthi armed group refused to allow Hadi, who is seeking refuge in Saudi Arabia, to return to Yemen. Reports citing analysts stated that the sincerity of the Houthi armed group in the peace talks is questionable. The Yemeni Ministry of Health stated that since March 26th, at least 185 people have died in Aden and 1,282 have been injured. This figure does not include members of the Houthi armed group or casualties from airstrikes. The Yemen crisis has also put Pakistan in a dilemma. The Pakistani Parliament held a special meeting on the 6th to discuss military support for the Saudi alliance. Pakistani Defense Minister Asif stated that Saudi Arabia had requested Pakistan to send fighter jets, warships, and soldiers to participate in military operations in Yemen. However, some analysts believe that Pakistan, unwilling to offend Saudi Arabia or anger neighboring Iran, may adopt a compromise by sending military advisors to Yemen. The UK's Daily Mail pointed out that Saudi Arabia provided Pakistan with $1.5 billion in economic aid last year. China's evacuation of nationals and humanitarian rescue operations have never distinguished nationalities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>《哥斯拉》（ゴジラ、Godzilla）是日本东宝株式会社制作的怪兽电影系列，也是日本乃至全世界最长寿的“怪兽系列电影”，被翻拍过好几个版本...14年，美版《哥斯拉》上映后，霓虹人表示坐不住了：哥斯拉还是交给我们来拍吧！近日，东宝电影放出了由庵野秀明指导的真人电影新哥斯拉的预告第二弹，话不多说，先来感受！制作方强调，跟美版相比，日版的这个哥斯拉是“史上最暗黑的版本”，此外还不忘嘲讽之前美国人拍的哥斯拉有点“滑稽”，至于特效，哒哒君想知道看过预告片之后，你给几分？ 片中你能看到自卫队打击哥斯拉的身影...作为一个特摄的爱好者，导演庵野秀明对于能拍《新哥斯拉》也是非常满足，此外，他导演的《福音战士新剧场版》的最终章迟迟没有消息，庵野秀明也不得不为此向大家谢罪。《新哥斯拉》电影将在7月29日在日本上映。</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>"Godzilla" (ゴジラ, Godzilla) is a monster movie series produced by Toho Co., Ltd. of Japan, and it is also the longest-running "monster movie series" in Japan and even the world. It has been remade several times... In 2014, after the release of the American version of "Godzilla," Neon Genesis Evangelion fans couldn't sit still: let us handle Godzilla! Recently, Toho Films released the second trailer of the live-action new Godzilla directed by Hideaki Anno. Without further ado, let's feel it first! The production team emphasized that compared to the American version, this Godzilla from the Japanese version is the "darkest version in history." In addition, they did not forget to mock the previous American version of Godzilla as a bit "ridiculous." As for the special effects, after watching the trailer, how many points would you give? In the film, you can see the Self-Defense Forces attacking Godzilla... As a fan of special effects, director Hideaki Anno is very satisfied with being able to make "New Godzilla." In addition, there has been no news about the final chapter of the "Evangelion: New Theatrical Edition" directed by him, and Hideaki Anno has to apologize to everyone for this. The movie "New Godzilla" will be released in Japan on July 29th.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>导读“首单3小时免费、1元每公里、10元每小时、99元封顶”，当滴滴、优步合并后，网约车的涨价变得顺理成章的时候，分时租赁这种真正的共享出行开始站上共享经济的舞台。2016年10月28日，云杉智慧新能源技术有限公司旗下纯电动汽车分时租赁业务——“云租车”在广州大学城投入试运营。 在过去的一年，汽车分时租赁模式悄然在一些城市登陆，出现在工业园区、商务中心等地段，这个新兴的租车模式，以小时或天计算汽车的随取即用租赁服务费用，消费者可以按个人用车需求和用车时间预订租车，可以说是共享出行的升级版本，真正具备了共享经济气质的租车模式。而有别于其他的分时租赁运营商，“云租车”纯电动汽车分时租赁配置的是零排放的纯电动汽车“奇瑞eQ”。同时“云租车”采用无人值守的模式，手机APP智能管理租车和还车流程，并在广州大学城范围内的购物商圈，体育中心、酒店停车场、地铁站的交通枢纽等核心区域停车场设置了24个无人值守的取还车网点。经济环保的零排放汽车，无人值守的智能化管理，不仅依靠降低运营成本实现了优惠的租赁价格，还给新一代青年提供了通过使用零排放汽车践行环保理念的机会。 谈到“云租车”此次以广州大学城为登陆地的初衷，云杉智慧新能源技术有限公司乘用车事业部总经理助理杨玉姣介绍道：“分时租赁作为一种共享出行模式，对缓解城区交通拥堵的意义非比寻常，从年轻人着手更能逐渐改变消费者的传统消费习惯。首先，大学城的消费者相对年轻化、注重环保、提倡低碳出行，其次，我们的价格也使得‘云租车’极具市场竞争优势。”据了解，“云租车”的用户还可在云杉智慧旗下所有充电站免费充电。作为业内率先提出“车网协同”创新模式的新能源汽车综合运营服务商，云杉智慧在广州市宏海汽车租赁、水悦年华酒店、东英商务园、阳光大酒店和财汇信息科技产业园等地区的充电桩站点已建成试运营。至2016年底，云杉智慧将在分时租赁平台逐步投入200辆纯电动汽车，并在广州地区投放200辆具有营运资质的新能源车辆作为网约车运营，还将着力解决新能源汽车售后维保，车辆运营智能监控管理等各类新能源汽车运营问题，助力形成新能源汽车生态圈。</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Introduction: With the merger of DiDi and Uber, the increase in prices of online car-hailing services has become a natural progression. At this point, time-sharing rental, a true form of shared transportation, has stepped onto the stage of the sharing economy. On October 28, 2016, "Yunzhuche," the pure electric car time-sharing rental service under Yunsan Smart New Energy Technology Co., Ltd., was put into trial operation in Guangzhou University City. Over the past year, the car time-sharing rental model has quietly landed in some cities, appearing in industrial parks, business centers, and other areas. This emerging car rental model calculates the rental service fees on an hourly or daily basis, allowing consumers to book cars according to their personal needs and rental time, making it an upgraded version of shared transportation. It truly embodies the essence of the sharing economy. Different from other time-sharing rental operators, "Yunzhuche" offers zero-emission pure electric cars, specifically the "Chery eQ." Additionally, "Yunzhuche" operates in an unmanned mode, managing the rental and return processes through a mobile app. In the core areas of Guangzhou University City, such as shopping districts, sports centers, hotel parking lots, and metro stations, 24 unmanned pick-up and return points have been set up. The economic and environmentally friendly zero-emission cars, along with unmanned intelligent management, not only reduce operating costs to offer competitive rental prices but also provide the younger generation with an opportunity to practice environmental protection by using zero-emission vehicles. Regarding the choice of Guangzhou University City as the initial landing place for "Yunzhuche," Yang Yujiao, Assistant General Manager of the Passenger Car Division of Yunsan Smart New Energy Technology Co., Ltd., explained, "As a shared transportation model, time-sharing rental is of great significance in alleviating urban traffic congestion. Starting with young people can gradually change consumers' traditional consumption habits. Firstly, consumers in university cities are relatively young, environmentally conscious, and advocate low-carbon travel. Secondly, our prices give 'Yunzhuche' a strong competitive advantage in the market." It is understood that users of "Yunzhuche" can also enjoy free charging at all charging stations under Yunsan Smart. As a leading new energy vehicle comprehensive operation service provider that first proposed the innovative "vehicle-network collaboration" model, Yunsan Smart has completed trial operations of charging stations in areas such as Honghai Car Rental in Guangzhou, Shuiyue Nianhua Hotel, Dongying Business Park, Sunshine Hotel, and Caihui Information Technology Industrial Park. By the end of 2016, Yunsan Smart will gradually introduce 200 pure electric cars to the time-sharing rental platform and deploy 200 new energy vehicles with operational qualifications in the Guangzhou area for online car-hailing services. They will also focus on addressing various operational issues of new energy vehicles, such as after-sales maintenance and intelligent monitoring and management of vehicle operations, to help establish a new energy vehicle ecosystem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>近日长安轻型车方对外公布消息称，“开睿行·好运行”微信红包上线27天以来，已有超20000名新老用户参与活动，累计发放红包金额达500万元，在2015年开年之际掀起了一场声势浩大的“互联网+”营销运动，标志着传统车企在借助社交平台打造互联网2.0新经济形态的道路上又迈出了重要一步。 对此各家媒体均有发声，并各自表达了己方观点，因各自观点较为新颖且声量巨大，一时间引起众多外围媒体的强烈关注和讨论，小编经过仔细整理，大致梳理出各方主流媒体的主要观点。垂直媒体：传统车企数字化营销转型标杆之作 汽车行业媒体巨擘“汽车之家”方面表示，此次微信红包活动采用“前端游戏活动+后端红包抽奖”双互动模式，并巧妙软性植入“用户筛选”、“线上集客”、“线下转销”等商业转化环节，除能让用户在活动过程中体验到“有趣”、“实惠”之外，也为其客户管理平台加持了巨大的流量输入功能。而另一大行业巨头“易车网”也对此表示高度认可，同时强调长安轻型车一向有“反传统”的营销思维，其互联网思维所带来的专业化和人性化，对用户渗透和市场地位升级有巨大推动作用，这在传统车企数字化营销转型的时代也显得尤为可贵。财经媒体：功能品质决定品牌溢价 “21cn财经”方面认为，此次活动之所以能取得如此大的关注度，与其明星车型长安睿行M80有着“枝繁叶茂”式的联系。作为长安轻型车主打产品，长安睿行M80完全按照国际标准正向开发的战略车型，自去年上市以来凭借卓越的品质和实用性逐渐拓宽消费市场，在同类产品竞争中凸显了在空间、节油、舒适、安全及外观等方面的优势，并以“全功能轻客”重新定义了轻客价值标准，并在此基础上建立起“强效认知”、“标杆效应”、“品类门槛”等多点市场附加值。此前“每经网”就曾报道，据说在为长安睿行代言之前，汪涵曾经接到过多家知名车企的代言邀请，经过权衡汪涵最终还是选择与长安一拍即合，从中可看出汪涵在观众心目中睿智、居家男人形象与长安睿行M80的产品形象相得益彰。门户媒体：在包装过剩的今天产品依旧为王 典型代表就是“网易汽车”，曾深刻揭示了这一商业逻辑的客观存在。网易汽车曾评价长安睿行M80在功能性上是毋庸置疑的，其外观内饰设计符合当下消费者主流审美，况且在一般的储物格空间上也很丰富，虽然仍有一些不足，主要体现在车内配置上，不过并没有因此影响到它作为入门级轻客的又一务实之选。</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Recently, Chang'an Light Vehicle announced to the public that since the launch of the "Ruihang · Good Luck" WeChat red envelope 27 days ago, more than 20,000 new and old users have participated in the activity, with a total red envelope amount of 5 million yuan distributed. At the beginning of 2015, it triggered a grand "Internet +" marketing movement, marking an important step for traditional car companies to create a new economic form of Internet 2.0 through social platforms. Various media outlets have made statements on this matter, expressing their own viewpoints. Due to the novelty and significant influence of their respective viewpoints, it has attracted strong attention and discussions from many peripheral media for a while. After careful organization, the mainstream viewpoints of various media outlets have been roughly summarized. Vertical media: Traditional car companies' digital marketing transformation benchmark. The automotive industry media giant "Autohome" stated that this WeChat red envelope activity adopts a dual interactive mode of "front-end game activity + back-end red envelope draw," cleverly embedding "user screening," "online customer acquisition," "offline sales conversion," and other commercial conversion links. In addition to allowing users to experience "fun" and "benefits" during the activity, it also provides significant traffic input functions for its customer management platform. Another industry giant, "Yiche.com," also highly recognizes this, emphasizing that Chang'an Light Vehicle has always had a "non-traditional" marketing mindset. Its Internet thinking brings about professionalism and humanization, playing a significant role in user penetration and market position upgrade, which is particularly valuable in the era of traditional car companies' digital marketing transformation. Financial media: Functional quality determines brand premium. "21cn Finance" believes that the reason why this activity has attracted such great attention is closely related to its star model, the Chang'an Ruihang M80. As the flagship product of Chang'an Light Vehicle, the Chang'an Ruihang M80 is a strategic model developed in accordance with international standards. Since its launch last year, it has gradually expanded its consumer market with outstanding quality and practicality, highlighting its advantages in space, fuel efficiency, comfort, safety, and appearance in competition with similar products. It has redefined the value standard of light commercial vehicles as a "full-function light commercial vehicle" and established multiple market added values such as "strong cognitive effect," "benchmark effect," and "category threshold" based on this. Previously, "NBD.com" reported that before endorsing the Chang'an Ruihang, Wang Han had received endorsement invitations from many well-known car companies. After weighing the options, Wang Han ultimately chose to collaborate with Chang'an, which reflects the synergy between Wang Han's wise and homely image in the audience's minds and the product image of the Chang'an Ruihang M80. Portal media: In today's era of excessive packaging, products are still king. A typical representative is "NetEase Auto," which has profoundly revealed the objective existence of this commercial logic. NetEase Auto once praised the Chang'an Ruihang M80 for its unquestionable functionality, with exterior and interior designs that align with the mainstream consumer aesthetics, and rich storage space in general storage compartments. Although there are still some shortcomings, mainly reflected in the car's interior configuration, it has not affected its position as another practical choice for entry-level light commercial vehicles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 京沪大战费祖为哥哥庆生（搜狐体育徐江4月3日北京报道）北京时间4月3日，中超联赛第四轮比赛打响，北京国安在主场以2-0战胜上海申花，取得京沪大战的胜利。比赛结束后，申花主帅吉洛对比赛中裁判的判罚非常不满意，认为国安胜之不武。谈到本场比赛的情况，申花主帅吉洛说：“今天的比赛跟预期一样困难，国安是很好的球队，他们的发挥比我们要好，很遗憾国安的取胜方式，我想国安如果想获得比赛胜利，可以采取其他的方式。今天如果我们回看比赛的片段，很多场景值得商榷，比如我们10号进入对方禁区，如果大家在现场做判罚可能是大家可以想到的。"随后话题说道国安获得的点球，吉洛说：“那个点球的判罚想像力非常丰富，国安是一支非常好的球队，但今天有一些胜之不武，非常遗憾我说这些话，我也没有其他评价，这场比赛公正的说，应当是一场平局。” 京沪大战 宋博轩冲突遭锁喉随后，有媒体问申花主帅为什么把裁判的判罚归结为国安胜之不武，吉洛表示：“我不愿意因为任何关于裁判的言论而受到处罚，但如果我们的第一个球不是这样丢掉的，也许比赛的走势不是这样，如果国安以另外一种方式进了球，我们无话可说。”随后谈到国安和申花的板凳深度，吉洛说：“我承认国安的板凳厚度要远比我们强，我看了国安不同的比赛，国安有能力在不同比赛换不同的队员我们做不到，双线作战他们能打得非常好，确实是依赖于他们的替补力量，如果有20名球员水平差不多可以打比赛，对于教练来说非常幸福。我们反复说要注意伤病与停赛，但申花还处于重建阶段，今年打到现在的成绩已经很不容易。”</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>In the Beijing-Shanghai battle, Fei Zu celebrated his brother's birthday (Sohu Sports Xu Jiang reported from Beijing on April 3). On April 3, Beijing time, the fourth round of the Chinese Super League kicked off. Beijing Guoan defeated Shanghai Shenhua 2-0 at home, winning the Beijing-Shanghai battle. After the game, Shenhua head coach Gilor was very dissatisfied with the referee's decisions during the match, believing that Guoan's victory was not achieved in a fair manner. Speaking about the situation of this match, Shenhua head coach Gilor said: "Today's game was as difficult as expected. Guoan is a very good team. Their performance was better than ours. It is regrettable the way Guoan won. I think if Guoan wants to win the game, they can adopt other methods. If we review the match today, many scenes are worth discussing. For example, when our number 10 entered the opponent's penalty area, if everyone on the scene made a decision, it might be something everyone could think of." The discussion then turned to the penalty awarded to Guoan, and Gilor said: "The imagination behind that penalty decision was very rich. Guoan is a very good team, but today there were some unsportsmanlike behaviors. It is very regrettable for me to say these words. I have no other comments. To be fair, this match should have been a draw." In the Beijing-Shanghai battle, Song Boxuan was involved in a conflict and was choked. Later, when asked by the media why he attributed the referee's decisions to Guoan's unsportsmanlike behavior, Gilor said: "I do not want to be punished for any comments about the referee, but if we didn't concede the first goal like that, maybe the game wouldn't have gone this way. If Guoan scored in a different way, we would have nothing to say." He then talked about the depth of Guoan and Shenhua's bench, saying: "I admit that Guoan's bench depth is much stronger than ours. I have watched Guoan play in different matches. They have the ability to change players in different games, something we cannot do. They can play very well in dual competitions, relying on their bench strength. If there are about 20 players of similar level who can play matches, it is very fortunate for the coach. We keep emphasizing the need to pay attention to injuries and suspensions, but Shenhua is still in a rebuilding phase. It has not been easy to achieve the results we have reached this year."</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>环球外汇3月23日讯--周一(3月23日)欧市盘初，英镑/美元于1.4930处徘徊。知名投行布朗兄弟哈里曼(BBH)外汇策略全球主管MarcChandler指出，英镑似乎比欧元更为疲软，预计英镑兑欧元可能将回吐此前大部分涨幅。Chandler指出，英镑较欧元更为疲软，英镑兑欧元或回吐近期大部分涨幅。因英国央行(BOE)行长卡尼言论较为鸽派，且即将来临的英国5月大选存在较大不确定性，进而也影响了英镑走势。他表示，上周美国联邦公开市场委员会(FOMC)会议结果较为鸽派，英镑受助短暂飙升至1.5165附近，但在关键回撤目标位1.5200及20日均线1.5185之前止住涨势。他还表示，英镑/美元上周收盘未能站上1.50重要关口，接下来该水位料对英镑/美元构成重要阻力，但更为关键的测试在1.5130附近。他指出，英镑/美元下行关键支撑位于1.4850。环球外汇行情中心表示，北京时间14:47，英镑/美元报1.4928/32。</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Global Forex News on March 23rd - In early European trading on Monday, March 23rd, the British pound/US dollar was hovering around 1.4930. Marc Chandler, Global Head of Forex Strategy at the well-known investment bank Brown Brothers Harriman (BBH), pointed out that the pound seems weaker than the euro, and he expects the pound to euro exchange rate to potentially give back most of its previous gains. Chandler noted that the pound is weaker compared to the euro, and the pound against the euro may retrace most of its recent gains. Due to the dovish comments from Bank of England (BOE) Governor Carney and the significant uncertainty surrounding the upcoming UK May election, it has also affected the pound's trend. He stated that the outcome of last week's Federal Open Market Committee (FOMC) meeting in the United States was dovish, which briefly boosted the pound to around 1.5165, but the uptrend was halted before reaching the key retracement levels of 1.5200 and the 20-day moving average of 1.5185. He also mentioned that the British pound/US dollar failed to close above the important level of 1.50 last week, and the next key level is expected to pose a significant resistance for the pound/US dollar, with a more crucial test around 1.5130. He pointed out that the key support level for the pound/US dollar on the downside is at 1.4850. The Global Forex Market Center reported that at 14:47 Beijing time, the British pound/US dollar was trading at 1.4928/32.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>利用和彩云拯救你的360云盘，自动迁移数据到百度云360已经正式通知了要关闭了，详情看这360云盘转型公告2017年2月1日停止个人服务可是一堆数据怎么备份啊，偶然看见一个帖子说自动搬家，试了一试，果然可以！ 支持网盘一键搬家：360云盘、百度云、和彩云、onedrive、天翼云、小米路由器下面来说明一下具体方法：1.关注和彩云微信公众号，因为是在微信公众平台进行操作的。微信添加好友，添加公众号 搜索 “和彩云” （全名是中国移动和彩云）认证过的那个！2.注册一个和彩云的账号3.点击左下角的”我的文件”，然后点击网盘搬家 这个时候注意了，进入网盘后在上面选择“我的网盘”，然后添加先你要搬家的网盘和接收文件的网盘 添加完成360网盘和百度网盘后，我们现在开始整理360网盘的文件进入360网盘---找到我的应用数据文件夹，进入后会有一个imWallet文件夹，我们把需要转移的文件全站放入这个目录，建议是放在一个文件夹中！为了后面方便操作！ 整理好文件后，我们就在微信公众号上面进行操作！起始盘选择360网盘，目标盘选择百度云盘 选择完成！下面进行文件转移！记住要全选择文件才可以点击“运行”的哦 上面是选择好了的，然后选择要转移的文件，点击中间的运行，好了，就剩等待了！但是这个实测转移文件巨慢，大家要耐心等待！ 收到下发通知后耐心等待就OK了！</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Using He Caiyun to save your 360 cloud drive, automatically migrating data to Baidu cloud has officially been notified to close. For details, check out the 360 cloud drive transformation announcement on February 1, 2017. How to back up a bunch of data? By chance, I saw a post about automatic moving, tried it, and it really works! Support one-click migration for cloud drives: 360 cloud drive, Baidu cloud, He Caiyun, OneDrive, Tianyi cloud, Xiaomi router. Here is a detailed explanation of the specific method: 1. Follow He Caiyun's WeChat official account, because the operation is done on the WeChat platform. Add WeChat friends, add official accounts, search for "He Caiyun" (the full name is China Mobile He Caiyun), the certified one! 2. Register a He Caiyun account. 3. Click on "My Files" in the lower left corner, then click on "Cloud Drive Migration". At this point, pay attention, after entering the cloud drive, select "My Cloud Drive" at the top, then add the cloud drive you want to migrate from and the one to receive the files. After adding 360 cloud drive and Baidu cloud drive, we can now start organizing the files in the 360 cloud drive. Enter the 360 cloud drive, find the "My Application Data" folder, inside there will be an "imWallet" folder, put all the files that need to be transferred into this directory, it is recommended to put them in one folder for convenience in later operations! After organizing the files, we can proceed with the operation on the WeChat official account! Select 360 cloud drive as the source drive, Baidu cloud drive as the target drive, and click "Done"! Now proceed with the file transfer! Remember to select all files before clicking "Run". Once everything is selected, click "Run" in the middle, and that's it, just wait! However, the file transfer is extremely slow in practice, so everyone needs to be patient! Just wait patiently after receiving the notification!</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 多彩万圣节，快乐high翻天“不给糖就捣蛋”的小精灵要整装待发。诡异南瓜.幽灵城堡.茂密森林.魔法女巫.鬼怪精灵那么今年的万圣节怎么玩呢?来吧！DIY ! 这些萌萌的小手工!更多微信资源请加李老师微信：1210556497“? 神秘的魔法女巫? 神秘魔法女巫，总是一身黑色装束，尖帽子，长披风，骑着会飞的扫把。 神秘魔法女巫，总是一身黑色装束，尖帽子，长披风，骑着会飞的扫把。材料准备：彩色卡纸 ( 黑色、橘色、黄色、绿色、白色)，胶水、画笔、小树枝。 “?恐怖多脚小宠物? 准备材料：废弃纸筒、铁丝、毛线、画笔、丙烯颜料、胶水、塑料玩具眼睛、剪刀、画笔等。 “? 蜘 蛛 挂 饰 ? 万圣节！梦幻黑蜘蛛必不可少。 材料准备：毛根条、纸板、胶水、记号笔、剪刀、活动眼睛等。 用记号笔在纸板上画出蜘蛛的头部、眼睛、身体按照画出的印记用剪刀剪出所需的材料，一只蜘蛛需要4个圆形. 用胶水把剪好的蜘蛛头、眼睛和身体粘贴起来，再用毛根条捏成6条腿组合，再用绳子串联起来，万圣节蜘蛛挂饰就完成了。 “? 幽 灵 城 堡 灯 笼 瓶 ? 家里是否有闲置的玻璃瓶呢？简单装饰，就有了万圣节的气氛。 材料准备：玻璃瓶、粉紫色油性笔、黑色纸、胶水、铅笔、剪刀。 粉紫色油性笔，在瓶身画出渐变色。 铅笔在黑色纸上画出城堡、树、蝙蝠、南瓜等万圣元素，用剪刀剪下。 将剪好的元素贴在瓶身，再放入一只蜡烛。古怪的剪影，神秘的色彩，映透着稀疏的烛光，点亮了奇妙的万圣夜。“? 万圣节布南瓜 ? 常见的橘色布料制作的南瓜，摆放在家里添色彩。 准备材料：橘色布匹、麻绳、棉花等。 方形布料包裹上棉花，用麻绳捆绑封口。 “? 神秘的魔法女巫? 手工折纸的立体小南瓜，操作也很简单哦。 材料准备：彩色卡纸、胶水、树枝。 橘色系彩纸裁成整齐宽度的纸条，长度要有阶梯变化，每种长度纸条需要准备2条，纸条尺寸之间的长度变化概在3-5厘米。再将长条如图折好。 同等长度的两根纸条首尾相连，中心处胶水粘好。组合一个南瓜需要折纸4-5层，小树枝变成南瓜蒂，配上小叶子。 “? 黑色的蝙蝠? 准备材料：黑色卡纸、胶水、绳子、铅笔、塑料玩具眼睛、打孔器、剪刀、记号笔等 1.按照白纸画好的蝙蝠形状，用记号比在黑色卡纸上描绘蝙蝠轮廓，并用剪刀剪好。 2.用胶水贴上蝙蝠的眼睛，用打孔器在卡片底部打个孔。</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Colorful Halloween, happy high "trick-or-treat" little elves are ready to go. Eerie pumpkins. Ghostly castles. Dense forests. Magical witches. Ghostly elves. So how to play Halloween this year? Let's go! DIY! These cute little handicrafts! For more WeChat resources, please add Teacher Li's WeChat: 1210556497. Mysterious magical witch. The mysterious magical witch is always dressed in black, with a pointed hat, a long cloak, and rides a flying broom. Materials needed: colored cardstock (black, orange, yellow, green, white), glue, paintbrush, small twigs. Terrifying multi-legged pets. Materials needed: discarded paper tube, wire, yarn, paintbrush, acrylic paint, glue, plastic toy eyes, scissors, paintbrush, etc. Spider decoration. Halloween! A dreamy black spider is essential. Materials needed: furry roots, cardboard, glue, marker pen, scissors, moving eyes, etc. Use a marker pen to draw the spider's head, eyes, and body on the cardboard. Cut out the required materials according to the drawn marks. A spider needs 4 circular pieces. Glue the cut spider head, eyes, and body together, then use furry roots to make 6 legs, string them together with a rope, and the Halloween spider decoration is complete. Ghostly castle lantern bottle. Do you have any idle glass bottles at home? Simple decoration creates a Halloween atmosphere. Materials needed: glass bottle, pink-purple oil pen, black paper, glue, pencil, scissors. Use a pink-purple oil pen to draw a gradient on the bottle. Use a pencil to draw castles, trees, bats, pumpkins, and other Halloween elements on black paper, then cut them out. Paste the cut elements on the bottle and insert a candle. The quirky silhouettes, mysterious colors, illuminated by sparse candlelight, light up the magical Halloween night. Halloween fabric pumpkin. A pumpkin made of common orange fabric, placed at home to add color. Materials needed: orange fabric, hemp rope, cotton, etc. Wrap cotton in square fabric and tie the opening with hemp rope. Mysterious magical witch. A simple handmade 3D paper pumpkin, the operation is also very simple. Materials needed: colored cardstock, glue, twigs. Cut the orange paper into neat strips of varying lengths, prepare 2 strips for each length, with a length difference of 3-5 cm between strips. Then fold the long strips as shown in the picture. Connect the two strips of equal length at the ends, glue in the center. To assemble a pumpkin, fold the paper 4-5 layers, turn a small twig into a pumpkin stem, and add small leaves. Black bats. Materials needed: black cardstock, glue, rope, pencil, plastic toy eyes, hole punch, scissors, marker pen, etc. 1. Trace the bat shape drawn on white paper onto black cardstock using a marker pen and cut it out with scissors. 2. Glue on the bat's eyes, and punch a hole at the bottom of the card.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10月20日，普华永道发布2016年前三季中国内地企业海外并购报告。报告显示，2016年前三季度中国内地企业海外并购交易数量达到创纪录的671宗，超过2015年和2014年的总和，交易总额超1600亿美元。2016年前三季度中国内地企业海外并购交易数量和金额均显著增长，大额交易集中出现，单笔金额超过10亿美元的大额交易逾30宗。普华永道中国企业购并服务合伙人唐迅表示，“大额交易的集中出现是今年前三季度海外并购市场的热点”。中国化工430亿美元收购先正达是迄今为止最大的中国企业海外收购案例，而即使剔除这项巨额交易，2016年前三季度海外并购交易总额仍然超过之前两年的总和，今年第二大海外并购交易则当属腾讯控股与芬兰高科技企业Supercell Oy86亿美元的并购交易，之后是安邦保险与Strategic Hotels65亿美元的并购交易。从并购投资者类型上看，民营企业第一次在交易金额和交易数量上双双赶超国有企业，占2016年前三季度总交易金额的一半，上市公司持续成为中国大陆企业海外并购活动的主力军。唐迅补充道:“民营企业海外并购不仅在数量上实现大幅增长，在金额上也达到了一个新的高点，其中一部分企业已经在海外频繁出手，积累了一定经验，真正的中国跨国企业将在他们之中出现。”在投资标的上，在2016年前三季度，前十大海外并购交易中有9宗交易的目标公司位于欧洲和北美，1宗交易位于澳洲，其中高科技及娱乐行业并购占半数。“2016年中国内地企业海外并购交易显著增长，主要得益于资本市场畅通的融资通道和快速增长的财务投资者，也是现阶段的国际经济环境和国内竞争态势，中国企业主动选择海外并购，以期实现行业多元化、产业全球化、技术高级化的布局。”普华永道中国企业购并服务合伙人唐迅表示。在中国企业海外并购掀起热潮的表象下，国际税收环境的变化对企业的风险管控及合规性提出挑战。在不久前刚结束的G20峰会上，20国集团工商界(B20)提出了税收方面的政策建议，即用税收的方式来支持包容性增长。G20峰会公报也重申了在增长背景下的国际税收合作的重要性。作为BEPS行动计划的重要组成部分，2016年7月，中国国家税务总局公布了《国家税务总局关于完善关联申报和同期资料管理有关事项的公告》，即42号公告，该公告对于“走出去”的企业提出了更高的合规性要求。</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>On October 20th, PricewaterhouseCoopers (PwC) released the 2016 third-quarter report on overseas mergers and acquisitions by Chinese mainland companies. The report shows that in the first three quarters of 2016, the number of overseas mergers and acquisitions by Chinese mainland companies reached a record high of 671 transactions, exceeding the total for 2015 and 2014, with a total transaction value exceeding $160 billion. In the first three quarters of 2016, both the number and value of overseas mergers and acquisitions by Chinese mainland companies saw significant growth, with a concentration of large transactions, including over 30 transactions exceeding $1 billion each. Tang Xun, Partner of PwC's China M&amp;A Services, stated, "The concentration of large transactions is a highlight in the overseas M&amp;A market for the first three quarters of this year." 
+The $43 billion acquisition of Syngenta by ChemChina is the largest overseas acquisition case by a Chinese company to date. Even excluding this massive transaction, the total value of overseas mergers and acquisitions in the first three quarters of 2016 still exceeded the total for the previous two years. The second-largest overseas acquisition in 2016 was the $8.6 billion acquisition of Supercell Oy, a Finnish high-tech company, by Tencent Holdings, followed by Anbang Insurance's $6.5 billion acquisition of Strategic Hotels. In terms of the type of investors in mergers and acquisitions, for the first time, private enterprises have surpassed state-owned enterprises in both transaction value and quantity, accounting for half of the total transaction value in the first three quarters of 2016. Listed companies continue to be the main force in overseas mergers and acquisitions activities of mainland Chinese enterprises. Tang Xun added, "Private enterprises' overseas mergers and acquisitions have not only achieved significant growth in quantity but also reached a new high in value. Some of these enterprises have been frequently involved in overseas transactions, accumulating certain experiences, and true Chinese multinational enterprises will emerge among them."
+Regarding investment targets, in the first three quarters of 2016, nine out of the top ten largest overseas mergers and acquisitions transactions targeted companies in Europe and North America, while one transaction was in Australia, with half of the transactions in the high-tech and entertainment industries. "The significant growth in overseas mergers and acquisitions by Chinese mainland companies in 2016 is mainly due to the smooth financing channels in the capital market and the rapid growth of financial investors. It is also a result of the current international economic environment and domestic competitive situation. Chinese companies actively choose overseas mergers and acquisitions to achieve industry diversification, global industrialization, and high-tech layout," said Tang Xun, Partner of PwC's China M&amp;A Services. 
+Beneath the surface of the surge in overseas mergers and acquisitions by Chinese companies, changes in the international tax environment pose challenges to risk management and compliance for enterprises. At the recent G20 summit, the Business 20 (B20) proposed tax policy recommendations to support inclusive growth through taxation. The G20 summit communiqué also reiterated the importance of international tax cooperation in the context of growth. As an important part of the BEPS Action Plan, in July 2016, the State Administration of Taxation of China issued Announcement No. 42, which imposes higher compliance requirements on enterprises going global.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>随着物联网的蓬勃发展，智能家居正成为未来生活主流趋势。在万物互联的大环境下，智能家居向着更加智能化、人性化的方向发展，智能家居产品的普及已经成为必然趋势。据估计，到2019年，全球智能家居市场规模将达到4900亿美元，市场增速将超过智能手机和平板市场。在经济增长的带动下，国内消费者的消费观念正在从过去一味追求低价转向追求高品质生活享受，这一变化在家电家居市场表现的尤其明显。过去鲜有人问津的智能空气净化器、净水器、马桶盖等逐渐开始走俏，4K曲面智能电视、扫地机器人、家庭云服务等也备受消费者关注，这种现象从侧面反映出智能家电家居正在成为行业发展的风向标，以智能家电家居为核心的现代生活方式正得到越来越多消费者的认同。经过多年的技术革新，智能家居产品逐渐从有线控制转为无线控制，不仅产品功能更加符合人们需求，产品成本和市场售价也大幅下降。摆脱了曾经高不可攀的价格和单一机械的功能，如今，智能家居全面走向互联互通时代，给予消费者最好的生活体验和享受。以zigbee技术为主流的无线智能家居已经开始飞入寻常百姓家，作为行业领跑者的物联传感更是给广大消费者带来了百元级别高性价比智能家居产品，让普通老百姓也能够享受到智能家居带来的智慧生活。任何好的产品都必须以人为本，以满足用户的需求为己任。作为智能家居行业的领跑者，物联传感目前的主要任务是普及智能家居，扩大用户人群。通过普及智能家居，将一般消费者转变成智能家居用户，物联传感可以对用户使用习惯、使用场景等进行调研分析来改进智能家居产品。产品本质上是一种解决问题的工具，通过得到用户的反馈，产品功能和用户体验才能不断优化提升，智能家居才能不断满足用户千变万化的生活需求。作为中国最早起步的智能家居企业之一，物联传感大力发展推动智能家居在中国的普及。通过采用多品牌市场战略和代理商加盟制度，物联传感在短短数年间迅速扩展，现在几乎每个省市都拥有了物联传感智能家居体验中心。持之以恒的努力带来了可喜的回报，现在物联传感智能家居产品已畅销全球，得到了海内外消费者广泛的认同，也为智能家居成为未来生活主流趋势奠定了良好的开端。</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>With the vigorous development of the Internet of Things, smart homes are becoming the mainstream trend of future life. In the context of everything being interconnected, smart homes are evolving towards a more intelligent and humanized direction. The popularization of smart home products has become an inevitable trend. It is estimated that by 2019, the global smart home market will reach $490 billion, with a market growth rate surpassing that of smartphones and tablets. Driven by economic growth, domestic consumers' consumption concepts are shifting from the previous pursuit of low prices to the pursuit of high-quality life enjoyment. This change is particularly evident in the home appliance market. Smart air purifiers, water purifiers, toilet lids, which were previously less sought after, are gradually becoming popular. 4K curved smart TVs, robotic vacuum cleaners, home cloud services, and other products are also receiving considerable attention from consumers. This phenomenon reflects that smart home appliances are becoming the industry's trendsetter, and the modern lifestyle centered around smart home appliances is gaining more and more recognition from consumers.
+After years of technological innovation, smart home products are gradually transitioning from wired control to wireless control. Not only are the product functions more in line with people's needs, but the product costs and market prices have also significantly decreased. Breaking away from the once unattainable prices and single mechanical functions, smart homes are now moving towards an era of interconnectedness, providing consumers with the best living experience and enjoyment. Wireless smart homes, mainly based on Zigbee technology, have begun to enter ordinary households. As a leader in the industry, IoT sensors have brought high-cost-effective smart home products at the hundred-yuan level to the general public, allowing ordinary people to enjoy the intelligent life brought by smart homes. Any good product must be user-oriented, with meeting users' needs as its responsibility. As a leader in the smart home industry, IoT sensors' main task is currently to popularize smart homes and expand the user base. By popularizing smart homes, turning ordinary consumers into smart home users, IoT sensors can conduct research and analysis on user habits and usage scenarios to improve smart home products. Products are essentially tools to solve problems. By receiving feedback from users, product functions and user experience can be continuously optimized and improved, meeting the ever-changing life needs of users. As one of the earliest smart home companies in China, IoT sensors have vigorously promoted the popularization of smart homes in China. Through the adoption of a multi-brand market strategy and an agent joining system, IoT sensors have rapidly expanded in just a few years, with smart home experience centers established in almost every province and city. Persistent efforts have brought gratifying returns. Now, IoT sensor smart home products are selling well globally, gaining wide recognition from consumers at home and abroad, and laying a good foundation for smart homes to become the mainstream trend of future life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>提示：点上方↑"济南新鲜事"免费订阅哦！现在半张毛爷爷能干嘛吃个麻辣烫还得精挑细选买个衣服只能去地摊逛逛当然啦地摊上也不一定能买到如果你想吃得好又能拍到美美哒照片呵呵哒 做梦不过梦也有成真的时候小编搜罗了大江南北终于在济南找着这么几家不用太感谢小编请叫小编活雷锋1米兰?咖啡 推荐：米兰特色香辣虾、泡椒牛蛙、培根炒高丽菜、米兰秘制烤鲈鱼、干锅土豆片、米兰自制咖啡、金针菇日本豆腐评价：环境很高档，服务员很周到，整个咖啡厅装修比较用心。靠窗户的地方风景很美，尤其是晚上。菜品也是包罗万象，风格各异。泡椒牛蛙的肉质很滑嫩，泡椒选择的是小巧的灯笼椒，香辣适宜，滋味十足。日本豆腐爽滑柔嫩还带着淡淡的蛋香，与金针菇的菌香相得益彰，吃起来清淡鲜美。铁板秘制鲈鱼是一道大菜，鲈鱼本就是鱼中之鲜，烤制后置于铁盘中，外皮焦香，鱼肉细嫩。人均：44元地址：历下区泺源大街29号圣凯财富广场二楼西厅(银座商城对面)电话：0531-666256782Wayne Tower韦恩烧烤餐厅 推荐：烤牛舌、酸辣土豆丝、烤骨髓、肥牛、烤生蚝、老厨白菜评价：位置比较好找，靠近青龙桥，餐厅布置十分简洁干净，服务也非常的好。尤其要说一下菜品，土豆丝非常好吃。各种串都很好吃，西红柿鸡蛋汤特别大一盆，好多鸡蛋和木耳，价格还超级便宜。点菜时服务员一直说不要点太多，吃了不够再点，特别实在。店里很干净，适合朋友小聚。人均：44元地址：历下区山大南路延长线西口青后小区四区历下房产交易中心对面(和谐妇科医院东行50米)电话：186152675143恋摊 推荐：钢管鸡、蒲扇羊肉串、甜沫、恋摊滋味鱼头、水货群聊评价：环境很有特色，中间的大摩托车小孩子很喜欢，还有免费的爆米花。菜品方面总体来说口味还是不错的，并非有名无实那种。钢管鸡是蒜香味的，炸馒头外酥里嫩，爆蛋牛肉也很香嫩。基本都是特色菜，上菜的形式和盘子多种多样，服务员态度相当好，适合年轻人聚会。人均：46元地址：历下区解放路159号电话：0531-869687874美客拍拍摄影主题餐厅 推荐：小鸡逃跑、菠萝咕咯肉、蓝莓山药、口水凉皮、果味油条虾、被猫揍扁的鱼 评价：在世贸广场那边，选了个比较靠里面的座位，桌子旁边的灯饰很精致。菜品很有特色，菜量足，食材新鲜。最爱蛤蜊鸡，麻辣鲜香，不论花蛤还是鸡肉都鲜嫩入味，而且里面的笋片好好吃，麻麻的味道太喜欢。</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Reminder: Click the "Latest News in Jinan" above to subscribe for free! Now, with half a Mao Zedong portrait, you can either enjoy a spicy hot pot or carefully select a piece of clothing at a street stall. Of course, you may not necessarily find what you want at the street stall. If you want to eat well and take beautiful photos, hehe, dreams do come true sometimes. Our editor has searched far and wide and finally found a few places in Jinan that you don't have to thank too much for. Just call our editor a "living Lei Feng". 
+Milan Coffee: Recommended dishes include Milan's special spicy shrimp, pickled pepper bullfrog, bacon stir-fried cabbage, Milan's secret grilled perch, dry-fried potato slices, Milan's homemade coffee, and enoki mushroom with Japanese tofu. Review: The environment is upscale, the service is attentive, and the entire coffee shop is meticulously decorated. The view by the window is beautiful, especially at night. The dishes are diverse in style. The meat of the pickled pepper bullfrog is tender and smooth, with a suitable level of spiciness. The Japanese tofu is smooth and tender with a hint of egg fragrance, complementing the enoki mushrooms well. The grilled secret perch is a large dish with crispy skin and tender flesh. Average cost per person: 44 yuan. Address: 2nd Floor, West Hall, Shengkai Wealth Plaza, No. 29 Luoyuan Street, Lixia District. Phone: 0531-666256782.
+Wayne Tower BBQ Restaurant: Recommended dishes include grilled beef tongue, hot and sour shredded potatoes, grilled bone marrow, fatty beef, grilled oysters, and old chef cabbage. Review: Easy to find location near Qinglong Bridge, the restaurant is simple and clean, with excellent service. The shredded potatoes are very delicious. All kinds of skewers are tasty, and the tomato and egg soup is particularly large with plenty of eggs and wood ears, and very affordable. The staff advises not to order too much, encouraging customers to order more if needed. The restaurant is clean and suitable for small gatherings with friends. Average cost per person: 44 yuan. Address: Opposite Lixia Real Estate Trading Center, Fourth District of Qinghou Xiaoyuan, West Extension of Shanda South Road, Lixia District. Phone: 186152675143.
+Love Stall: Recommended dishes include steel pipe chicken, fan-shaped lamb skewers, sweet foam, love stall flavored fish head, and seafood group chat. Review: The environment is very distinctive, with a large motorcycle in the middle that children love, and free popcorn. Overall, the taste of the dishes is good and not just in name. The steel pipe chicken has a garlic flavor, the fried mantou is crispy outside and tender inside, and the beef with exploding eggs is fragrant and tender. Most dishes are specialties, served in various forms and plates, with very good service attitude, suitable for young people gatherings. Average cost per person: 46 yuan. Address: 159 Jiefang Road, Lixia District. Phone: 0531-869687874.
+Meikepai Photography Theme Restaurant: Recommended dishes include "Little Chicken Escape", pineapple sweet and sour pork, blueberry yam, saliva cold skin, fruit-flavored oil strip shrimp, and "Fish Beaten by a Cat". Review: Located near the World Trade Plaza, we chose a seat closer to the inside, with exquisite lighting decorations next to the table. The dishes are very distinctive, generous in portion, and made with fresh ingredients. The favorite is the clam chicken, spicy and fresh, with tender and flavorful clams and chicken, and the bamboo shoots inside are delicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>中新社巴黎5月28日电 (记者龙剑武)法国警方27日采取行动，强制拆除了位于该国西部加莱港的3处难民营地，驱离了数百名试图偷渡到英国的非法移民。加莱海峡省当局以“消除卫生隐患”为由，出动200多警力，拆除了加莱港内近800人规模的3处营地。在警方设立警戒线后，推土机铲平了非法移民搭建的帐篷。法国警方此次行动招致多数难民和人权组织的抗议。“法国庇护之地”协会批评当局的做法缺少配套的安置措施，无法根治问题，呼吁通过国际合作解决移民问题，加莱海峡省当局则认为，这些营地人满为患，缺乏必要的卫生设施，已经造成疥螨病疫情爆发等公共健康问题，而且还给当地带来了治安隐患，因此必须关闭。据报道，此次被警方拆除的营地主要聚集了来自叙利亚、伊拉克、阿富汗等地的难民。他们试图从加莱港，尤其是通过英法海地隧道前往英吉利海峡对岸的英国。这些设施简陋、缺乏水电的难民营地通常被称为“丛林”。2002年，法国政府关闭了加莱附近的桑加特国际红十字会难民中心，但是非法移民仍不断涌入加莱，逐渐形成偷渡者营地。</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Paris, May 28 (CNS) - French police took action on the 27th, forcibly dismantling three refugee camps located in the western port of Calais, driving away hundreds of illegal immigrants attempting to sneak into the UK. The authorities of the Calais Channel province mobilized more than 200 police officers to remove three camps with nearly 800 people inside the port of Calais, citing "eliminating health hazards" as the reason. After setting up a police cordon, bulldozers flattened the tents built by illegal immigrants. This action by the French police has sparked protests from the majority of refugees and human rights organizations. The "France Terre d'Asile" association criticized the authorities for lacking accompanying resettlement measures, unable to solve the problem at its root, and called for solving the immigration issue through international cooperation. The authorities of the Calais Channel province, on the other hand, believe that these overcrowded camps lack necessary sanitary facilities, have caused outbreaks of scabies and other public health issues, and have brought security risks to the local area, hence the need for closure. According to reports, the camps dismantled by the police this time mainly housed refugees from Syria, Iraq, Afghanistan, and other places. They were trying to reach the UK from the port of Calais, especially through the Channel Tunnel between England and France. These rudimentary, water and electricity-lacking refugee camps are commonly referred to as the "Jungle." In 2002, the French government closed the Sangatte International Red Cross refugee center near Calais, but illegal immigrants have continued to pour into Calais, gradually forming camps for smugglers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>育婴月嫂、快递员、厨师、手艺精湛的泥瓦匠……月收入动辄六七千元，让一些坐在办公室的小白领望之兴叹。如今，掌握一技之长的蓝领工人，薪水不断上涨，月入上万元已不是稀罕事。“没想到，一个月嫂的工资比我还高，我真心请不起啊！”刚当上妈妈的杨阳很受打击。在今年的“五一”，她顺利生了一个小公主，本想请个月嫂照顾她们母女俩，但奈何市场上的月嫂要价都很高，当地最低都得每月6000元起，稍微有些经验的高级月嫂得万元以上。杨阳就是公司的一个小白领，每月领着不到5000元的工资，她两个月的工资都抵不过一个高级月嫂，这让她如何请得起？其实，记者也深有同感。去年年底，记者也荣升为妈妈，可就在“当妈妈”的喜悦感还未散去时，就遭遇到人生中的一大打击。原本也有请月嫂的念头，但北京一个普通月嫂的要价在每月70 0 0元以上。记者肉疼啊，最后只能打消念头，辛苦宝爸。月嫂是专业护理产妇与新生儿的一种新兴职业，相对月薪只有两三千元的普通保姆，月嫂属于高级家政人员，是现代蓝领一族中的一员。通常情况下，月嫂的工作集保姆、护士、厨师、早教师的工作性质于一身，目前在京津等地的一般月嫂的月薪在6000元到2万元之间。这让坐在办公室的白领不能不感慨：我们真不如人家蓝领。长期以来，中国的应试教育以及轻视技能的观念，使许多学生不屑于读技校，而纷纷走的独木桥，只为求得更高的文凭，增加求职的砝码。结果，人才市场上拥有本科文凭的求职者比比皆是，而有一技之长的技术工人却供不应求，花费数万元读完本科，可能面临失业，有一门手艺或技术，到哪里都能找着工作。如今市场上，对于技工等蓝领的呼声越来越高，甚至出现了高薪蓝领，让不少蓝领族来了个逆袭：与其做一个企业的小白领，还不如当一个高级大蓝领。高级月嫂月薪上万“跟家住的育婴月嫂每月都是7000元起，好一点的要9000元，当月有法定节假日的，节假日要支付3倍工资。”北京大兴某家政公司的负责人告诉记者，工作了四五年，照顾过十来个小孩的高级月嫂更是供不应求，不仅档期排得满，甚至得提前1年或半年预约，这样的育婴月嫂，月薪在万元以上。在北京仁和医院发名片的育婴月嫂魏阿姨告诉记者：“我们做月嫂的，不仅可以照顾孩子，而且产妇的需求也可以照应到，如揉奶缓解奶胀等，非常适合家中无老人来照看的家庭。”据知情人透露，普通的保姆，若只是做家务不育婴的话，最高月薪也就三四千元。</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Baby nurses, couriers, chefs, skilled bricklayers... with monthly incomes easily reaching six to seven thousand yuan, causing some white-collar workers sitting in offices to sigh with envy. Nowadays, blue-collar workers who have mastered a skill are seeing continuous salary increases, with monthly incomes exceeding tens of thousands of yuan not being uncommon. "I never expected that a baby nurse's salary would be higher than mine. I really can't afford it!" Yang Yang, who just became a mother, felt very discouraged. This year on "May Day," she successfully gave birth to a little princess and had intended to hire a baby nurse to take care of the mother and daughter. However, the baby nurses in the market are asking for high prices, with the lowest starting at 6,000 yuan per month locally, and experienced senior baby nurses asking for over ten thousand yuan. Yang Yang is just a white-collar worker in the company, earning less than 5,000 yuan per month. Her two months' salary cannot even match that of a senior baby nurse, how can she afford to hire one?
+In fact, the reporter also deeply empathizes. At the end of last year, the reporter also became a mother, but just as the joy of "being a mother" had not yet dissipated, she encountered a major setback in life. Although she had thought about hiring a baby nurse, the price of an ordinary baby nurse in Beijing is over 7,000 yuan per month. The reporter felt heartache, and in the end, could only give up the idea and rely on the hard work of her husband. Baby nurses are a new emerging profession specializing in caring for mothers and newborns. Compared to ordinary nannies with monthly salaries of only two to three thousand yuan, baby nurses belong to the category of senior domestic workers and are members of the modern blue-collar workforce. Typically, a baby nurse's job combines the roles of a nanny, nurse, chef, and early childhood educator. Currently, the monthly salary of an ordinary baby nurse in Beijing, Tianjin, and other places ranges from 6,000 yuan to 20,000 yuan. This makes white-collar workers sitting in offices can't help but feel that they are not as good as blue-collar workers.
+For a long time, China's exam-oriented education and the notion of looking down on skills have led many students to disdain attending technical schools and instead opt for higher diplomas to increase their job competitiveness. As a result, there is an abundance of job seekers with undergraduate degrees in the talent market, while skilled technical workers are in short supply. Spending tens of thousands of yuan to complete a bachelor's degree may lead to unemployment, but having a craft or technical skill ensures job opportunities everywhere. Nowadays, the demand for blue-collar workers such as technicians is increasing in the market, and there are even high-paying blue-collar jobs, allowing many blue-collar workers to experience a reversal: rather than being a white-collar worker in a company, it is better to be a senior blue-collar worker.
+Senior baby nurses earn over ten thousand yuan a month. "Live-in baby nurses start at 7,000 yuan per month, and better ones cost 9,000 yuan. If they work on statutory holidays, they are paid triple the salary," said the person in charge of a domestic service company in Daxing, Beijing. Senior baby nurses who have worked for four to five years and taken care of about ten children are in high demand. Their schedules are full, and appointments need to be made 1 year or 6 months in advance. Such baby nurses earn over ten thousand yuan a month. Wei, a baby nurse distributing business cards at Renhe Hospital in Beijing, told reporters, "As baby nurses, we not only take care of children but also cater to the needs of mothers, such as relieving breast engorgement through breast massage, making it very suitable for families without elderly people to look after." According to insiders, if a nanny only does housework without caring for babies, the highest monthly salary is only three to four thousand yuan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>特别申明：本人所作的复盘和分享，仅限于交流和探讨，不做任何收费，不构成操作建议，请谨慎对待，如果未来出现任何法律问题和责任，概和本人无关，请大家注意投资风险。1、周末和几位朋友交流，有位朋友说，现在有点迷惑，“一路一带”概念的中字头上周表现比较好，我的观点是像去年一样，一路一带概念引领大盘上涨的概率很低，因为资金量不够，去年是杠杆资金；2、明天观点不变，最近几天预计都变化不大，晚上稍微看了一下，券商一样值得配置，其他先不多说，晚点还有事情；3、交流群群规和入群方法请查阅《慕水社群群规及入群申请说明V3.0》，商务合作请将方案发邮箱：linpeiren@imusun.com，股票QQ群类的不会推广勿扰；慕水微信公众号：musunlife这里有说人话的投资心得，如果您想和我们一起追求财富自由，关注我们就对啦！</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Special statement: The replays and sharing I have done are only for communication and discussion, not for any charges, not constituting operational advice. Please handle with caution. If any legal issues or responsibilities arise in the future, they have nothing to do with me. Please be aware of investment risks. 1. Over the weekend, I exchanged views with a few friends. One friend said he was a bit confused now. The concept of "Belt and Road" with Chinese characters performed relatively well last week. My view is that, like last year, the probability of the "Belt and Road" concept leading the market to rise is very low because the amount of funds is insufficient. Last year it was leveraged funds. 2. My view remains unchanged for tomorrow. I expect little change in the next few days. I briefly looked at it tonight, and securities are still worth allocating. I won't say much about other things for now. I have something to do later. 3. For the group rules and joining methods, please refer to "Mushui Community Group Rules and Application Instructions V3.0". For business cooperation, please send the proposal to the email: linpeiren@imusun.com. Do not promote stock QQ groups. Mushui WeChat official account: musunlife. Here you can find investment insights in plain language. If you want to pursue financial freedom with us, follow us!</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>不管是哪家企业，哪家个体，现在重点关注的无非都是双十一这个让你惊喜又忧伤的节日吧，虽说在此前期还有一个热闹非凡的万圣节，但是在双十一面前，商家们无论如何还是把焦点放在在双十一，毕竟这是一个不成文的节日，却又是一个牵动着全部人心的日子。 其实，在双十一真正到来还有大半个月，但是不管是哪个商家企业，都早早的提前一个月开始了双十一活动的备战，这个到底是什么原因导致的呢？相比较之前的中秋节国庆节，可能并没有这么的大张旗鼓，但是对于双十一，甚至是接下来的双十二，无可避免的可是一场剁手大战！没错，双十一的确是快来了，真想说在这段期间看到最多的就是双十一这几个字了，无非还有光棍节，但是更多的商家把苗头对准了双十一，很少的把焦点放在光棍节上面。对此，小编其实很想说说自己的想法，并不是说只要在双十一这一天搞活动，那就是走在了胜利的前端，其实不然，更多的机会其实是赢在过程的，并不是一味的只有结果。 在我们眼中看来，这段时间无论是各个网站还是微博微信空间，都已经被双十一霸屏了。对于一个同样作为商家小编的我来说，我可以说是看花了眼，但正在这个时候要更加的保持清醒的头脑，秉承着商家的商业道德，为群众创造独有的真情的服务。 对于如何看待双十一，当然不同的人看到的东西是不一样的，对于商家来说，可以说是看到了商机，看到了订单，看到了自己一直以来的期待；对于买家来说，看到了优惠，看到了心爱的货物，看到了降价。但是对于大部分来说，可能你看到的降价并不是真的降价，你看到的优惠其实也没有优惠多少，只是打着双十一的名号在故弄玄虚罢了。然而在买家心里，却是十分的开心与满意，自认为买到了多么优惠的产品，赚到了多少的便宜似的，那是不然的。</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>No matter which company, which individual, the current focus is nothing but the Double Eleven, a festival that brings you both surprises and sorrows. Although there is a lively Halloween before this period, in front of the Double Eleven, businesses still put the focus on the Double Eleven no matter what, after all, this is an unwritten festival, yet a day that touches everyone's heart. In fact, the real arrival of the Double Eleven is still more than half a month away, but no matter which business or company, they all started preparing for the Double Eleven activities a month in advance. What exactly caused this? Compared to the Mid-Autumn Festival and National Day before, perhaps there wasn't such a big fuss, but for the Double Eleven, and even the upcoming Double Twelve, an inevitable shopping frenzy is approaching! Yes, the Double Eleven is indeed coming soon. During this period, what we see the most is the Double Eleven, with Singles' Day being another focus, but more businesses are targeting the Double Eleven, rather than Singles' Day. In this regard, the author actually wants to share his thoughts. It's not just about holding activities on Double Eleven that leads to victory. On the contrary, more opportunities lie in the process, not just the outcome. In our eyes, during this period, whether it's various websites or Weibo and WeChat spaces, they have already been dominated by the Double Eleven. For me, as a business editor, I can say that my eyes are dazzled, but at this time, I must keep a clear mind, uphold the business ethics of the merchants, and create unique and sincere services for the public. How to view the Double Eleven, of course, different people see different things. For businesses, it can be seen as an opportunity, seeing orders, and seeing their long-awaited expectations; for buyers, they see discounts, see beloved goods, and see price reductions. However, for most people, what you see as a discount may not actually be a real discount, the discounts you see may not be that significant, it's just a gimmick under the name of Double Eleven. Nevertheless, in the minds of buyers, they are very happy and satisfied, thinking they have bought very discounted products and gained a lot of benefits, which is not the case.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>随着产品同质化时代的到来，用户体验已成为企业的核心竞争力之一。研究用户体验，越来越被企业重视。然而，或许这种研究从一开始，就错了！用户体验，是用户与产品或服务互动的过程，以及这个过程用户主观的感受。如此一来，研究客户体验，就成了研究用户与产品或服务的交互过程。就此展开，大多数企业追求更极致的交互过程，以期带给客户更极致的主观感受；这样的结果，带来产品粘性的增加，用户逐渐付出更多的时间，最后欲罢不能、精疲力尽。于是，另外一种观点开始出现，即张小龙所谓的“好的产品是用户用完即走的”。如此又走向另一个极端，用完即走的用户，在不同需求不断产生的时候，面对同质化的用完即走的产品，又面临了选择困难。问题，如此繁杂、交错，因为在根源上，从一开始就错了！让我们回到用户体验的起源，用户体验是交互，是感受；研究用户体验是为了更好的交互和感受；更好的交互和感受就能转化成更多的商业利润。在这个逻辑里，用户、用户体验、产品、产品交互，都成了提升商业利润的工具，而唯独失去了商业价值！好的产品和服务是带给用户价值的，只有极致的价值，才能让客户最终满足，这也是为什么苍蝇馆子卫生条件差，却一直有顾客的原因。用户或许会因为服务员的笑脸而感受美好，但绝不会为难以下咽的饭菜买第二次单；如果饭菜口味一样，都在服务上下功夫，其结果一定是增加服务成本，降低利润，最后降低产品品质；与其如此，不如下功夫提升饭菜口味，如果实在提升不了，缩减产品线，专注极致做好一道菜，或许是更好的选择！那么什么才是同质化时代的答案呢？其实回到商业的本质，这个问题很好回答。商业的本质，是创造商业价值，商业价值的创造基于对客户需求的满足，满足用户需求的过程，是用户体验，而需求满足后，用户对于产品的感觉，才是结果。想让用户二次消费，必须要做到这个感觉能在用户再次产生需求时，能足够唤起用户记忆、印象、甚至是身体感觉记忆，用户才可能作出同样的消费选择。感觉，是用户体验的核心，也是用户体验的结果！研究用户体验是术，研究用户感觉，是道！通过研究用户感觉、用户记忆、用户印象，来指导用户体验的产品流程、细节，才是同质化产品时代的王道！感觉，自古以来，都是难以言传、只可意会的，更别说研究感觉，再用感觉指导用户体验了。然而，总有一类人，是特别的存在！一位盲人在街上乞讨，他写了这样一句话：我什么都看不见，结果行人姗姗而去，所获甚少。</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>With the advent of the era of product homogenization, user experience has become one of the core competitive advantages of enterprises. The study of user experience is increasingly valued by businesses. However, perhaps this research was wrong from the beginning! User experience is the process of interaction between users and products or services, as well as the subjective feelings of users in this process. As a result, studying customer experience becomes the study of the interaction process between users and products or services. In this regard, most enterprises pursue more extreme interaction processes in order to bring customers more extreme subjective feelings; this results in increased product stickiness, with users gradually spending more time, eventually becoming unable to stop and feeling exhausted. Consequently, another viewpoint begins to emerge, that is, the so-called "good products are those that users walk away from after use" by Zhang Xiaolong. This leads to another extreme, where users who walk away after use, when faced with constantly emerging needs, are confronted with the difficulty of choosing from homogenized products that are used and then discarded. The problem is so complex and intertwined because fundamentally, it was wrong from the beginning! Let's go back to the origin of user experience. User experience is interaction, it is feeling; studying user experience is for better interaction and feeling; better interaction and feeling can be transformed into more business profits. In this logic, users, user experience, products, and product interaction have all become tools to enhance business profits, but have lost their business value! Good products and services bring value to users, and only extreme value can ultimately satisfy customers. This is why a shabby restaurant with poor hygiene conditions can still have customers. Users may feel good because of the smiles of the waiters, but they will never buy a second meal of hard-to-swallow food; if the food tastes the same and efforts are made in service, the result will definitely be increased service costs, reduced profits, and ultimately reduced product quality. Instead of this, it is better to focus on improving the taste of the food. If it cannot be improved, reduce the product line, focus on doing one dish extremely well, which may be a better choice! So what is the answer in the era of homogenization? In fact, returning to the essence of business makes this question easy to answer. The essence of business is to create business value, and the creation of business value is based on satisfying customer needs. The process of satisfying user needs is user experience, and after the needs are met, the user's feelings towards the product are the result. To make users consume again, this feeling must be able to evoke enough memories, impressions, and even physical sensations when users have the same need again, so that users may make the same consumption choice. Feeling is the core of user experience and the result of user experience! Studying user experience is a skill, studying user feelings is a way! By studying user feelings, memories, and impressions to guide the product process and details of user experience, is the key to the era of homogenized products! Feeling, since ancient times, has always been difficult to express in words, only to be understood, let alone studying feelings and then using feelings to guide user experience. However, there are always special individuals! A blind person begging on the street wrote the following sentence: "I can't see anything, and as a result, passersby walk away, and I gain very little."</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>请点击上面亲子早教心理学免费订阅！孩子近视了？往往家长的第一反应就是：快给孩子配眼镜！！……但是一段时间后，很多家长却发现，孩子的近视程度不但没有控制，反而加深了！家长就疑惑了，为什么配镜后度数反倒加深了呢？原因就在于，眼镜只有光学矫正作用，没有预防、治疗作用。孩子由于眼睛调节力很强，用眼时间稍长也不觉得累，长此以往就很容易视疲劳，导致近视。而在近视早期，通过治疗是可以恢复的。认为孩子患了近视必须马上戴镜，不然视力会越来越差的观点有失偏颇。在孩子患近视初期，如果立即戴上眼镜，眼球将失去自我修复功能，孩子将一生都离不开眼镜。所以，一旦发现孩子有视力下降的迹象后，正确的做法是：及时到医院进行检查，并通过服用相关药物、保健品来预防控制近视的发生和发展。怎样判断是否要给孩子配眼镜呢？首先要先判断孩子所患近视程度处于哪个阶段：是属于假性近视、混合性近视还是真性近视阶段。要准确鉴别近视类别，一定要到专业的眼科机构经过专家检测才行。1、混合近视如果孩子所患近视中既有假性近视又有真性近视成分，但真性近视成分不高，则可以不配眼镜，以调整用眼习惯、注意用眼卫生和加强营养保健为主，配合治疗，可逐渐提高视力。2、假性近视如果孩子患的是假性近视，切勿配戴眼镜，一定要抓紧治疗，否则3~6个月内极易变成真性近视。12岁以下的孩子发现近视初期多半属于假性近视。治疗方法主要有调整用眼习惯、注意用眼卫生、加强营养和保健，并配合物理治疗等，短时间的假性近视可以消除。3、真性近视排除假性近视之后，若孩子眼睛仍存留有真性近视200度以上，应考虑为孩子配戴合适的眼镜。为控制孩子视力进一步下降，应同时积极采取治疗措施，如注意用眼卫生和加强营养保健、坚持治疗等。否则，孩子的近视度数将会以大约每年增加75度的速度上升，直到25岁左右。来源：网络，侵删想用点点滴滴 来衬托你的美变的更美，长按上图二维码关注她阅读投诉阅读精选留言加载中以上留言由公众号筛选后显示了解留言功能详情</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Please click above to subscribe to free parent-child early childhood education psychology! Is your child nearsighted? Often the first reaction of parents is: Quickly get glasses for the child!!... However, after a period of time, many parents find that not only has the degree of myopia in children not been controlled, but it has deepened! Parents are puzzled, why does the degree deepen after wearing glasses? The reason is that glasses only have an optical correction effect, not a preventive or therapeutic effect. Children have strong eye adjustment ability, so they don't feel tired even if they use their eyes for a slightly longer time, which easily leads to visual fatigue and myopia. In the early stages of myopia, it can be restored through treatment. The view that children must wear glasses immediately if they have myopia, otherwise their vision will deteriorate, is biased. In the early stages of myopia in children, if glasses are worn immediately, the eyeballs will lose their self-repair function, and the child will be dependent on glasses for life. Therefore, once signs of decreased vision are found in children, the correct approach is: promptly go to the hospital for examination, and prevent and control the occurrence and development of myopia through the use of relevant drugs and health products. How to determine whether to give glasses to children? First, determine which stage of myopia the child is in: pseudo-myopia, mixed myopia, or true myopia. To accurately identify the type of myopia, you must go to a professional ophthalmic institution for expert testing. 1. Mixed myopia: If the child's myopia includes both pseudo-myopia and true myopia, but the true myopia component is not high, glasses may not be needed. It is mainly to adjust eye habits, pay attention to eye hygiene, strengthen nutrition and health care, and gradually improve vision with treatment. 2. Pseudo-myopia: If the child has pseudo-myopia, do not wear glasses, but treat it promptly, otherwise it is very likely to turn into true myopia within 3 to 6 months. Most cases of myopia in children under 12 years old in the early stages are pseudo-myopia. The treatment methods mainly include adjusting eye habits, paying attention to eye hygiene, strengthening nutrition and health, and physical therapy, which can eliminate pseudo-myopia in a short time. 3. True myopia: After ruling out pseudo-myopia, if the child still has true myopia of over 200 degrees, suitable glasses should be considered. To prevent further deterioration of the child's vision, active treatment measures should be taken, such as paying attention to eye hygiene, strengthening nutrition and health care, and adhering to treatment. Otherwise, the child's myopia degree will increase at a rate of approximately 75 degrees per year until around the age of 25. Source: Internet, deleted if infringed. Want to use bits and pieces to enhance your beauty, long press the QR code above to follow her for reading, complaints, and selected comments. Loading comments, the above comments are displayed after being selected by the public account. Understand the details of the comment function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>中新社澳门5月26日电 (记者王国安)澳门特区行政长官选举管理委员会主席宋敏莉26日表示，预计新一届行政长官选举的整体预算约3200万澳门元，将于本周内正式公布。管委会当天举行会议，讨论选举的宣传工作及往后将发出的指引。宋敏莉向传媒介绍，行政长官选举的整体预算由两部分组成，即选举委员会委员选举的预算和行政长官选举的预算。后者的预算约1490万澳门元，较上届2009年的1380万元增加8%。她认为增长合理，过去5年间的通胀对增幅带来一定影响。至于选委选举的预算约为1740万澳门元。宋敏莉指出，根据选举法，本届选委选举必须进行投票程序，所以必然带来新的预算，这是往届选举所没有的。选委选举订定于今年6月29日举行。宋敏莉表示，因应此次选委选举首次采用电子点票方式，管委会计划下周举行点票流程介绍会，向传媒等讲解电子点票的程序。澳门特区行政长官选委选举报名已于本月20日结束，总计有352人递交参选人报名表。目前，合资格的选委选举参选人名单已张贴于公共行政大楼，公众亦可通过行政长官选举网站查阅。</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>MACAU, May 26 (Xinhua) - The Chairperson of the Electoral Affairs Commission for the Chief Executive Election of the Macao Special Administrative Region, Song Minli, stated on the 26th that the overall budget for the upcoming Chief Executive election is estimated to be around 32 million Macao Patacas, and will be officially announced within this week. The Commission held a meeting on that day to discuss the election publicity work and the guidelines to be issued in the future. Song Minli introduced to the media that the overall budget for the Chief Executive election consists of two parts, namely the budget for the election of members of the Election Committee and the budget for the Chief Executive election. The latter's budget is around 14.9 million Macao Patacas, an 8% increase from the 13.8 million Patacas in the previous 2009 election. She believes the increase is reasonable, as inflation over the past 5 years has had a certain impact on the increase. As for the budget for the Election Committee election, it is about 17.4 million Macao Patacas. Song Minli pointed out that according to the election law, this Election Committee election must go through a voting process, which will inevitably bring a new budget, something that previous elections did not have. The Election Committee election is scheduled to be held on June 29 this year. Song Minli stated that in response to this Election Committee election, which will use electronic voting for the first time, the Commission plans to hold a briefing on the voting process next week to explain the procedures of electronic voting to the media and others. The registration for the Macao Special Administrative Region Chief Executive Election Committee election ended on the 20th of this month, with a total of 352 people submitting candidacy forms. Currently, the list of eligible candidates for the Election Committee election has been posted at the Public Administration Building, and the public can also check it through the Chief Executive Election website.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 萝兜 不正经VR游戏评测 苹果目前应该是在进行基础硬件、元件的改进工作，让VR和AR体验可以更上一层。苹果不发明设备，但引领潮流，在能够把VR/AR设备设计得像iPod、iPhone、MacBook一般漂亮之前，可能不会轻易进入市场。 苹果放弃VR选择AR 虚拟现实VR和增强现实AR无疑是最受关注的新型技术，事实上它们比已经成熟化、产业化的智能手机市场更能够代表未来。 索尼PS VR将在本月中旬上市，与Oculus、HTC形成三足鼎立之势；谷歌DayDream则关注移动VR市场，兼容手机和头显有可能在今年末、明年初大量出现；微软的HoloLens、英特尔的AR头盔，则专注AR应用，让人们在现实中触摸数字内容。 那么苹果呢？事实上，提姆·库克已经不止一次表现出对VR和AR设备的兴趣，并且表示它们将是未来趋势。虽然我们不清楚苹果会何时进入市场，但可以肯定的是，苹果已经在偷偷开发属于自己风格的VR/AR设备及平台，下面一起来了解一下相关内容。 苹果早已关注VR/AR市场？ 对于苹果这样的科技巨头，巨大的专利储备并不令人意外。事实上，早在2008年，苹果就已经申请了类似谷歌眼镜、三星Gear VR这样的手机兼容头显，可以将iPhone变成显示器，实现移动式的虚拟现实体验。 随着技术的革新，苹果也在不断更新专利，更新一些的头显专利则与Oculus Rift相似，采用全封闭设计，同时具有自动调节视野、视力的效果，同时使用无线形式与外部设备连接。 苹果面对的竞争对手 目前，苹果面对的竞争对手包括Oculus、HTC、索尼等桌面VR头戴厂商，三星、谷歌等移动VR厂商以及微软、英特尔等AR厂商，市场竞争可谓非常激烈。 显然，苹果并不缺乏概念和技术，但迟迟未进入市场，则与其“调性”有关：苹果总是希望能够通过微小、但本质化的提升，改变用户体验。 比如，目前VR头戴大多笨重、有线，并且没有完全解决眩晕问题；AR设备则类似谷歌眼镜甚至更大，并不能作为普通太阳镜佩戴。苹果目前应该是在进行基础硬件、元件的改进工作，让VR和AR体验可以更上一层。 苹果的VR/AR设备会是什么样子？ 事实上，苹果在今年已经开始布局AR市场，但并非通过视觉设备，而是AirPods。 这款重新设计的无线耳机，可以开启Siri，就像科幻电影《她》中那样，成为人们耳边的虚拟助手，这显然是充满AR潜力的设计。</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Luodou's improper VR game review. Apple is currently working on improving basic hardware and components to take VR and AR experiences to the next level. Apple doesn't invent devices, but leads the trend. Before being able to design VR/AR devices as beautifully as iPod, iPhone, and MacBook, they may not easily enter the market. Apple abandons VR and chooses AR. Virtual reality (VR) and augmented reality (AR) are undoubtedly the most attention-grabbing new technologies, representing the future more than the mature and industrialized smartphone market. Sony's PS VR will be launched in mid-month, forming a tripartite situation with Oculus and HTC; Google's DayDream focuses on the mobile VR market, compatible with phones and headsets, likely to appear in large numbers by the end of this year or early next year; Microsoft's HoloLens and Intel's AR helmet focus on AR applications, allowing people to touch digital content in reality. So, what about Apple? In fact, Tim Cook has shown interest in VR and AR devices more than once and stated that they are the future trend. Although we are not sure when Apple will enter the market, it is certain that Apple is secretly developing its own style of VR/AR devices and platforms. Let's learn more about the related content below. Has Apple been paying attention to the VR/AR market for a long time? For a tech giant like Apple, a huge patent reserve is not surprising. In fact, as early as 2008, Apple had applied for patents similar to Google Glass and Samsung Gear VR, which could turn the iPhone into a display, enabling a mobile virtual reality experience. With technological innovation, Apple has been continuously updating patents. Some of the updated headset patents are similar to Oculus Rift, featuring a fully enclosed design, automatic adjustment of field of view and vision effects, and wireless connection to external devices. Apple's competitors Currently, Apple's competitors include desktop VR headset manufacturers such as Oculus, HTC, Sony, mobile VR manufacturers such as Samsung, Google, and AR manufacturers such as Microsoft, Intel, making the market competition very intense. Obviously, Apple is not lacking in concepts and technology, but its delay in entering the market is related to its "style": Apple always hopes to change the user experience through small but essential improvements. For example, currently, most VR headsets are bulky, wired, and have not completely solved the problem of dizziness; AR devices are similar to Google Glass or even larger, and cannot be worn as regular sunglasses. Apple is currently working on improving basic hardware and components to take VR and AR experiences to the next level. What will Apple's VR/AR devices look like? In fact, Apple has already started laying out the AR market this year, but not through visual devices, but through AirPods. These redesigned wireless earphones can activate Siri, becoming a virtual assistant by people's ears, just like in the sci-fi movie "Her," which is obviously a design full of AR potential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 继上次的情感答疑，兄弟们看到了很多觉得自己不会存在但是又确实存在的问题，并且从中获得了答案，很多兄弟说：“原来感情中还真会遇到这些问题啊，原来还可以这么解决啊。”并且自从苏恨导师写的“怎么确定她适合做你的长期伴侣？”的文章出后，粉丝们咨询长期关系方面的问题开始短时间内急剧增加。对于这个问题，我们不妨选择两个很典型的问题来解释。1.妹子问自己前任是怎么分手的，我该怎么回答？ 这个兄弟能意识到这个问题中间有坑，说明确实是有一些情感直觉，这种问题回答不好确实会影响和妹子的后续发展，不信的话，我们尝试做个互动！“XXX（看这个文章的你），你上一位女朋友是怎么分手的？”看完这句话，想象和你约会的妹子在你面前真正问了你这句话，你怎么回答？不要看我下面的解答！闭目30秒开始回答。......有了答案，那么来对应下面我给大家的解释，看看你是哪一种：第一种：说一切都是自己的错。把自己花心没责任，不爱卫生，脾气暴躁，情商低，抠门不体贴，容易怀疑女友，没主见等缺点统统告诉女生。这种回复得到的结果我就不过多解释了，都展示了自己很低能量，让女生怀疑你的能力，影响你的后续发展，可能过两天就崩盘了，哎呀好尴尬~第二种，说一切都是前任的错。兄弟们可能第一思想会想推卸责任，反正都分手了也无所谓，于是开始把矛头指向前任，说前任怎么怎么不懂事，无理取闹，诋毁和抱怨她的万般不是，和她相处不来，然后你无情的把她甩了。这种回复得到的结果会是：女人开始把你说的所有负面评价映射到自己身上，恐惧自己以后和你相处在一起了会不会也重蹈覆辙，被你嫌弃，然后在下一任女朋友面前遭受类似的指责和抨击。所以对于评价前任方面，我们要做到的就是——夸赞而不抨击，回忆而不遗憾。不然当时你看上她是有多眼拙？这时不妨描述出你们之前相处得很好，然后把你们分手的因素归结到——客观因素。比如：自己因为工作原因分配到了其他城市，她出国留学了。 这些即使你们相处得不错，但是又遇到不可控的客观因素！具体的根据自身情况来组织语言了。2. 想让女人爱你，首先你得是个男人！我有一个同学，读书的时候一个班，人很强壮，够义气，打架的事从来没怕过谁，扛把子除了他哥就是他了，唯独在女人面前截然相反。前段时间得知我在一见恋爱从事情感教育方面的工作，正好有这方面的问出现了，就顺手发我看看。（这哥们没有关注我们公众号，不然也不这样了），请看下图。</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Following the emotional Q&amp;A session last time, the brothers encountered many problems that they thought did not exist but actually did, and they found answers from them. Many brothers said, "So there are indeed these issues in relationships, and there are ways to solve them." Since the article "How to Determine If She Is Suitable to Be Your Long-term Partner?" written by Instructor Su Hen was published, fans' inquiries about long-term relationship issues have sharply increased in a short period of time. For this issue, let's choose two very typical questions to explain. 1. A girl asks how she broke up with her ex, how should I respond? This brother can realize that there are pitfalls in this question, indicating that there are indeed some emotional intuitions. A poor answer to this question can indeed affect the subsequent development with the girl. If you don't believe it, let's try an interaction! "XXX (you reading this article), how did you break up with your last girlfriend?" After reading this sentence, imagine the girl you are dating actually asking you this question in front of you, how would you respond? Don't look at my answer below! Close your eyes for 30 seconds and start answering. ...... Now that you have an answer, let's correspond to the explanation I give below and see which type you belong to: The first type: Blame everything on yourself. Tell the girl all your shortcomings such as being fickle, irresponsible, unhygienic, bad-tempered, emotionally unintelligent, stingy, inconsiderate, easily suspicious of girlfriends, lacking initiative, etc. This kind of response, I won't explain too much about the results obtained, all showing very low energy, making the girl doubt your abilities, affecting your subsequent development, and maybe collapsing in a few days. Awkward~ The second type, blame everything on the ex. Brothers may initially want to shirk responsibility, thinking that since they have broken up, it doesn't matter anyway, so they start pointing fingers at the ex, saying how unreasonable and nagging the ex was, slandering and complaining about all her faults, saying they couldn't get along with her, and then heartlessly dumped her. The result of this kind of response will be: Women start to reflect all the negative comments you made on themselves, fearing that they will also repeat the same mistakes when being with you in the future, being rejected by you, and then facing similar accusations and criticisms in front of the next girlfriend. Therefore, when evaluating the ex, what we need to do is - praise without criticism, reminisce without regret. Otherwise, how blind were you to like her back then? At this time, it might be better to describe how well you got along before, and then attribute the reasons for the breakup to - objective factors. For example: you were assigned to another city due to work reasons, she went abroad for studies. Even if you got along well, you encountered uncontrollable objective factors! Organize your language based on your own situation. 2. If you want a woman to love you, first you have to be a man! I have a classmate who was in the same class during school, very strong, loyal, never afraid of fights, besides his brother, he was the one to rely on, but he was completely different in front of women. Recently, I found out that I work in emotional education, and there happened to be questions in this area, so he sent them to me. (This guy didn't follow our public account, otherwise it wouldn't be like this), please see the picture below.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>娱乐圈真实的友情难得可贵，乔任梁与陈乔恩、陈坤与周迅...早前有媒体曝出陈坤与周迅关系铁到买同个小区居住，而近日周迅生日，陈坤更是微博晒照为其庆生，开启回忆杀。 据悉，10月18日是周迅的生日，陈坤在17日晚间就送上祝福为其庆生，还晒出周迅的照片，配文：“老友，等不及再一个小时了，提前祝福周公子生日快乐，小讯，每天都幸福。”除了晒出周迅庆生的照片外，陈坤还翻出与周迅合作《像雾像雨又像风》的剧照，当时的周迅青涩不已，引发网友们纷纷怀旧，如此友情真的让人羡慕嫉妒。 但是令网友好奇的时，为啥俩人经常聚会不见赵薇呢?赵薇与陈坤是大学同学，在学校赵薇陈坤黄晓明三人并称“三剑客”，关系铁到不行，而三人的友情也一直备受网友羡慕，每每做客聊天节目也难以避忌。早前传出陈坤与赵薇闹翻了，是真的吗?更有网友表示陈坤删光了有关赵薇的微博，疑似撇开关系，那么到底什么原因呢? 近日，赵薇因为新片《没有别的爱》起用戴立忍、水原希子而饱受争议，更是被广大网友炮轰，而陈坤作为赵薇的好友自然免不了攻击，有媒体称陈坤为了避免攻击删光与赵薇微博。对此，陈坤的宣传人员表示：“我们也不知道为什么会有这一风波，我自己也去看了一下，那些微博都还在。”为此，记者进入陈坤主页查看，逐条去翻，发现陈坤于2013年发布的祝贺赵薇生日快乐的微博，以及去年5月发布的与赵薇亲密合影都在微博上，谣言不攻自破。 虽然赵薇与陈坤并未闹掰，但是不得不承认的是，俩人后来的关系并没有一开始那么好了，陈坤和赵薇多年的友情渐生嫌隙，与周迅不无关系。虽然陈坤与周迅认识晚于赵薇，但两人的关系发展迅速。而电影《画皮2》拍摄时，就有香港媒体爆料称赵薇和周迅发生了不愉快。因此有媒体报道，《画皮2》后三人的关系就开始发生微妙变化，陈坤友情的天枰开始有所倾斜，真人版《画皮》在现实中上演。推荐阅读：范冰冰晒搞怪自拍 自黑美颜前原图素颜肌肤竟获赞揭秘王宝强新任女经纪人 宋喆曾是马蓉推荐细思极恐</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>The genuine friendship in the entertainment industry is rare and precious. Qiao Renliang with Joe Chen, Chen Kun with Zhou Xun... Earlier, the media exposed that Chen Kun and Zhou Xun's relationship was so close that they bought houses in the same residential area. Recently, on Zhou Xun's birthday, Chen Kun even posted photos on Weibo to celebrate her birthday, triggering a wave of nostalgia. It is reported that Zhou Xun's birthday is on October 18th. Chen Kun sent his blessings on the evening of the 17th to celebrate her birthday in advance, and posted a photo of Zhou Xun with the caption: "Old friend, can't wait for another hour, wishing Zhou Gongzi a happy birthday in advance, Xiaoxun, be happy every day." In addition to posting photos of Zhou Xun's birthday celebration, Chen Kun also dug out stills from the drama "Painted Skin" that he co-starred with Zhou Xun. At that time, Zhou Xun looked so youthful, arousing nostalgia among netizens. Such genuine friendship is truly enviable. However, what makes netizens curious is why the two often gather but Zhao Wei is absent? Zhao Wei and Chen Kun were college classmates. In school, Zhao Wei, Chen Kun, and Huang Xiaoming were known as the "Three Musketeers," with an extremely close relationship. Their friendship has always been admired by netizens, and it's hard to avoid mentioning it even when they appear on talk shows. There were rumors before that Chen Kun and Zhao Wei had a falling out, is it true? Some netizens even claimed that Chen Kun deleted all the Weibo posts related to Zhao Wei, seemingly distancing himself from the relationship. What could be the reason behind this? Recently, Zhao Wei faced controversy for casting Dai Li Ren and Mizuhara Kiko in her new film "No Other Love," which led to widespread criticism from netizens. As a good friend of Zhao Wei, Chen Kun naturally couldn't escape the attacks. Some media reported that Chen Kun deleted all the Weibo posts related to Zhao Wei to avoid criticism. In response, Chen Kun's publicist said, "We don't know why this controversy arose. I checked it myself, and those Weibo posts are still there." To clarify, reporters visited Chen Kun's Weibo page and carefully checked each post. They found that Chen Kun's Weibo post from 2013 wishing Zhao Wei a happy birthday and a photo of him with Zhao Wei posted in May last year were still on his Weibo, debunking the rumors. Although Zhao Wei and Chen Kun did not have a falling out, it must be acknowledged that their relationship was not as good as it used to be. Over the years, Chen Kun and Zhao Wei's friendship gradually developed some rifts, which is not unrelated to Zhou Xun. Although Chen Kun met Zhou Xun later than Zhao Wei, their relationship developed rapidly. During the filming of "Painted Skin 2," there were reports from Hong Kong media that Zhao Wei and Zhou Xun had some unpleasant encounters. Therefore, some media reported that after "Painted Skin 2," the relationship among the three started to subtly change, and Chen Kun's friendship balance began to shift, mirroring the real-life drama of "Painted Skin." Recommended reading: Fan Bingbing posts funny selfies, self-deprecating beauty before and after makeup, original photo of bare-faced skin unexpectedly praised. Revealing the new female agent of Wang Baoqiang, Song Zhe, who was once recommended by Ma Rong, is thought-provoking.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>美国本土投资者不停减持国债，为何中国还在购买？中国仍为美国国债的外国中第一大持有国。对中国投资者而言，持有美国国债也会带来如下成本或风险：持有美国国债，面临着由美元贬值的估值效应造成的资本损失或美国国债市场价格下降。 过去的数年来，中国政府持续购买美国国债，但美国本土的投资者却不停减持。例如，10年前美国国债的总额约为3万亿元，当中逾七成、即2万亿元以上为美国本土的投资者拥有；但时至今天，美国国债的总额增至16万亿美元，却只有三成为本土投资者持有，而且比例不断下降。美国人不买美国国债的原因十分简单，就是利息率不吸引人。至于中国政府购买美国国债的主因，就是因为其着眼点并不放在投资的利息率上，而是希望稳定本国货币对美元的汇率，借此保护国家的出口业。从目前的经济形势来看，要令人民币不升值有两个主要方法，一是在市场上大举抛售人民币，或是大举购入美元。这个方法不可能持久，二是每年大量购入美国债，以防止人民币汇率上升。外汇储备来自外商直接投资、对外贸易顺差及进入中国的国际游资。截至2005年底，中国外汇储备超过8000亿美元，我国已连续10年资金净外流，10年来国外净运用我国资金累计达到1.72万亿元。中国如同国际资金流动的“中转站”：一边是外资持续涌入赚取高额回报，推高外汇储备余额；一边是中国的资金持续多年净外流，而投资回报率偏低。北京大学中国经济研究中心教授宋国青把这种现象称为“一江春水向西流”。招商银行首席外汇分析员刘维明指出，中国资金净外流是巨额外汇储备对外投资引起的，并不是说国内企业的资金多得用不了。这并不是一个悖论。在现行外汇制度下，境外资金进入中国时必须兑换为人民币，由央行把外汇买下，形成外汇储备。目前中国的外汇储备主要用来购买美国国债，而10年期美国国债的收益率不到5%。 中国买美国国债是为了投资，就像一些有闲散资金的人，为能够使得自己持有的资金升值，把钱投入债卷或股市一样（如何只是存在银行，过了十几年，通货膨胀就会使得这些钱值不了多少了，试想二十年前，1万元可以买多杀东西，现1万元又能买多少，一套房子二十年前能卖多少钱，现在房价又是多少）。因为美国国债是最稳定和回报率最高的债卷（如果你买一些小国的国债，这些小国不稳定，国内动荡或是被一些国家入侵，你投资的这些钱就全瞎了）。中国有大量的外汇储备，钱如果不投资就会损失非常大的，投资就要投实力雄厚的“大企业”。</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>American domestic investors keep reducing their holdings of treasury bonds, why is China still buying? China remains the largest foreign holder of US treasury bonds. For Chinese investors, holding US treasury bonds also brings the following costs or risks: holding US treasury bonds faces capital losses caused by the devaluation of the US dollar or a decrease in the market price of US treasury bonds. Over the past few years, the Chinese government has continued to purchase US treasury bonds, while American domestic investors have been reducing their holdings. For example, ten years ago, the total amount of US treasury bonds was about 30 trillion yuan, of which over 70%, or more than 20 trillion yuan, was owned by American domestic investors; but today, the total amount of US treasury bonds has increased to $16 trillion, with only 30% held by domestic investors, and the proportion continues to decline. The reason Americans are not buying US treasury bonds is very simple, the interest rates are not attractive. As for the main reason why the Chinese government buys US treasury bonds, it is because their focus is not on the interest rates of the investment, but on stabilizing the exchange rate of their own currency against the US dollar, in order to protect the country's export industry. From the current economic situation, there are two main methods to prevent the appreciation of the Renminbi: one is to sell Renminbi massively in the market, or to buy US dollars in large quantities. This method is not sustainable. The other is to purchase a large amount of US treasury bonds every year to prevent the appreciation of the Renminbi exchange rate. Foreign exchange reserves come from foreign direct investment, trade surpluses, and international speculative capital entering China. By the end of 2005, China's foreign exchange reserves exceeded $800 billion, and China has had a net outflow of funds for 10 consecutive years, with a cumulative outflow of foreign funds of 1.72 trillion yuan over the past 10 years. China acts as a "transit station" for international capital flows: on one hand, foreign capital continues to flow in to earn high returns, pushing up the balance of foreign exchange reserves; on the other hand, China's funds have been flowing out for many years, with a relatively low return on investment. Song Guoqing, a professor at Peking University's China Economic Research Center, refers to this phenomenon as "a river of spring water flowing westward." Liu Weiming, chief foreign exchange analyst at China Merchants Bank, pointed out that China's net outflow of funds is caused by the massive foreign exchange reserves investing abroad, not because domestic companies have too much money to use. This is not a paradox. Under the current foreign exchange system, when foreign funds enter China, they must be exchanged for Renminbi, which the central bank buys, forming foreign exchange reserves. Currently, China's foreign exchange reserves are mainly used to purchase US treasury bonds, with a yield of less than 5% for 10-year US treasury bonds. China buys US treasury bonds for investment, just like some individuals with idle funds invest their money in bonds or the stock market to increase the value of their holdings (if the money is just kept in the bank, after a dozen years, inflation will erode its value significantly, think about how much 10,000 yuan could buy twenty years ago, and how much it can buy now, or how much a house could be sold for twenty years ago compared to now). Because US treasury bonds are the most stable and highest-yielding bonds (if you invest in bonds from smaller countries, these countries are unstable, prone to domestic turmoil or invasion by other countries, and your investment will be at risk). China has a large amount of foreign exchange reserves, and if the money is not invested, it will incur significant losses, so investments must be made in strong "big enterprises."</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>高考改革各位老师、家长不知道昨天您有没有被2017年高考考试大纲修订的消息刷屏了呢？什么什么，高考又要发生变化啦？小编肯定地告诉您，的确如此。根据一些省市教育厅发布的信息，近日，教育部考试中心下发了《关于2017年普通高考考试大纲修订内容的通知》。 据报道，此次高考考试大纲修改主要体现在“一增一减”上。也就是说既有增加的考点，也有删减的考点呢！“增”主要是指整体上增加中华优秀传统文化的考核内容，如语文中增加古代文化常识的内容；“减”主要是指大部分学科对部分知识点进行删减，如数学在现行考试大纲三个选考模块中删去“几何证明选讲”。 而且这次《修订》涉及的科目也很多呢——参加全国统考的高考科目，除英语外各科内容都有修改。要知道，考试大纲是高考命题的规范性文件和标准，是考试评价、复习备考的依据，是推进考试内容改革的切入点。可是事关重要呢！《大纲修订内容》究竟变化在哪里？未来高考的备考方向在哪里？小编结合了媒体对2017对考纲进行的趋势解读，一起跟您谈谈！修订基本原则坚持整体稳定，推进改革创新。优化考试内容，着力提高质量。提前谋篇布局，体现素养导向。主要修订内容1、增加中华优秀传统文化的考核内容：增加古代文化常识的内容【原文表述】增加中华优秀传统文化的考核内容，积极培育和践行社会主义核心价值观，充分发挥高考命题的育人功能和积极导向作用。比如，在语文中增加古代文化常识的内容，在汉语中增加文言文、传统节日、民俗等内容，在数学中增加数学文化的内容。2、完善考核目标:便于学生理解和复习备考【原文表述】结合学科特点和核心素养的要求，在考试大纲中对考核目标的内涵进行修订，在考试说明中对各个考核目标进行具体解析，并补充试题样例，进一步说明考核目标要求，便于考生理解和复习备考。3、调整考试内容:合理设置选考模块【原文表述】在强调共同基础的前提下，合理设置选考模块，满足高校人才选拔要求，契合课程标准的修订方向。比如，语文将文学类文本阅读、实用类文本阅读均设为必考内容，适应高校对新生基本能力和综合素质的要求，呼应中学教学的意见；数学减少选考模块“几何证明选讲”，物理将模块3-5列为必考，顺应课程标准修订的趋势。各学科修订内容及解读（附备考建议）—语 文— 【原文表述】更注重体现语文学科的基础性和综合性，优化考查内容，调整选考模块，全面考查语文能力和人文素养。</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>The reform of the college entrance examination, teachers and parents, do not know if you were overwhelmed by the news of the revision of the 2017 college entrance examination outline yesterday? What, what, is the college entrance examination going to change again? The editor can tell you with certainty that this is indeed the case. According to information released by some provincial and municipal education departments, recently, the Examination Center of the Ministry of Education issued a "Notice on the Revision of the 2017 National College Entrance Examination Outline." It is reported that this revision of the college entrance examination outline mainly reflects "one increase and one decrease." That is to say, there are both added examination points and deleted examination points! The "increase" mainly refers to the overall increase in the assessment content of Chinese excellent traditional culture, such as adding ancient cultural knowledge content in Chinese; the "decrease" mainly refers to the deletion of some knowledge points in most subjects, such as removing "selected topics on geometric proofs" from the three optional modules in the current mathematics examination outline. Moreover, this "revision" involves many subjects—except for English, the content of all subjects participating in the national unified examination has been modified. You know, the examination outline is a normative document and standard for the proposition of the college entrance examination, the basis for examination evaluation, review, and preparation, and the starting point for promoting the reform of examination content. But it's important! Where are the changes in the "revision of the outline"? What is the direction of future college entrance examination preparation? The editor, combined with the media's trend analysis of the 2017 examination outline, will discuss with you! The basic principle of the revision is to adhere to overall stability and promote reform and innovation. Optimize the examination content and focus on improving quality. Plan ahead and reflect the orientation of literacy. The main revised content: 1. Increase the assessment content of Chinese excellent traditional culture: add content on ancient cultural knowledge [original text expression] Increase the assessment content of Chinese excellent traditional culture, actively cultivate and practice the core socialist values, give full play to the educational function and positive guidance of the college entrance examination propositions. For example, add content on ancient cultural knowledge in Chinese, add classical Chinese, traditional festivals, folk customs, etc., in mathematics, add content on mathematical culture. 2. Improve assessment goals: facilitate student understanding and review [original text expression] Combine the characteristics of the subjects and the requirements of core literacy, revise the connotation of the assessment goals in the examination outline, provide specific analysis of each assessment goal in the examination instructions, supplement sample questions, further explain the requirements of the assessment goals, facilitate student understanding and review. 3. Adjust examination content: reasonably set optional modules [original text expression] Under the premise of emphasizing common foundations, reasonably set optional modules to meet the talent selection requirements of universities, and align with the direction of curriculum standard revisions. For example, in Chinese, literary text reading and practical text reading are both set as compulsory content, adapting to the requirements of new students' basic abilities and comprehensive qualities in universities, echoing the opinions of secondary school teaching; mathematics reduces the optional module "selected topics on geometric proofs," physics designates modules 3-5 as compulsory, in line with the trend of curriculum standard revisions. Revised content and interpretation of each subject (with review suggestions) — Chinese — [original text expression] Pay more attention to reflecting the basic and comprehensive nature of the Chinese subject, optimize the examination content, adjust the optional modules, comprehensively examine Chinese language abilities and humanistic literacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 五年前，HectorMonsegur是知名黑客组织匿名者分支Lulzsec的领袖。那时候，他与同伙们盗取公司数据，将其泄露到网上，并在社交媒体上炫耀战绩。他的网名是Sabu。如今，他仍然组织网络攻击，但是目的已经与以往完全不同了。作为西雅图安全公司 Rhino Security 的一员，他管理着一个六人团队，而他们的任务是发现安全漏洞，并向客户发出提醒。“我不是前 LulzSec 成员，也不是前 FBI 线人。我是一名安全研究员，” Monsegur 接受 Wired 网站采访时说，“Sabu 是个角色。那个人已经不存在了。坐在你面前的这个人只想做生意、照顾家人、支付账单。” (图片来自 Wired)令人惊讶的是，许多公司都乐意让 Monsegur 测试他们的网络安全。Rhino Security 的创始人 Ben Caudill 说，目前仅有一家公司表达了疑虑，要求 Monsegur 退出攻击测试。其它情况下，客户将 Monsegur 的参与当做是一种强化的安全措施。在他们看来，Monsegur 能够帮助他们发现那些易被黑客们利用的漏洞。“这就像是把乔丹请进了你的篮球队，” Caudill 说，“他们知道 Hector。他的名字曾上过新闻头条。作为客户，他们更加确定一切漏洞都能被发现。” (图片来自 calliamedia)从犯罪分子到安全人员，这是许多黑客走过的道路。不过，Hector Monsegur 的经历更加复杂。5 年前，在短短两月时间里，LulzSec 的黑客们密集攻击了许多公司， 让它们承受了巨额损失。“那是我从未见过的事情，就像是匿名者嗑药了一样。” 安全公司 Taia Global 的创始人 Jeffrey Carr 说。随后，Monsegur 被逮捕，成为 FBI 的线人。这让他成了黑客们痛恨的对象。去年，Monsegur 曾计划在 Jeffery Carr 组织的安全大会上演讲，但是，线上的抗议风潮震惊了组织者。最终，安全大会不得不临时取消。“他们对 Hector 的恨意简直疯狂。”如今，Monsegur 只想忘掉过去，从头开始自己的生活。在被释的三年里，他不能使用计算机。然后，他发现自己很难找到工作，因为网络安全公司都不愿意他见面。如今，他终于获得了一份全职工作，不想再重蹈覆辙了。</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Five years ago, Hector Monsegur was the leader of the well-known hacker group Lulzsec, a branch of the Anonymous organization. Back then, he and his accomplices stole company data, leaked it online, and boasted about their achievements on social media. His online alias was Sabu. Today, he still organizes cyber attacks, but his motives have completely changed. As a member of the Seattle security company Rhino Security, he leads a team of six whose task is to identify security vulnerabilities and alert clients. "I am not a former LulzSec member or a former FBI informant. I am a security researcher," Monsegur said in an interview with Wired. "Sabu is a character. That person no longer exists. The person sitting in front of you just wants to do business, take care of his family, and pay the bills." Surprisingly, many companies are willing to have Monsegur test their network security. Ben Caudill, the founder of Rhino Security, mentioned that only one company expressed concerns and requested Monsegur to refrain from conducting the security tests. In other cases, clients see Monsegur's involvement as a form of enhanced security measure. They believe that Monsegur can help them identify vulnerabilities that hackers could exploit. "It's like having Jordan join your basketball team," Caudill said. "They know Hector. His name has been in the headlines. As clients, they are more confident that all vulnerabilities will be discovered." Transitioning from criminals to security personnel is a path that many hackers have taken. However, Hector Monsegur's journey is more complex. Five years ago, in just two months, LulzSec hackers launched intensive attacks on many companies, causing them significant losses. "It was something I had never seen before, like Anonymous was on drugs," said Jeffrey Carr, the founder of security company Taia Global. Subsequently, Monsegur was arrested and became an informant for the FBI, making him a target of hatred among hackers. Last year, Monsegur planned to speak at a security conference organized by Jeffery Carr, but online protests shocked the organizers. Ultimately, the security conference had to be canceled at the last minute. "Their hatred towards Hector was simply insane." Now, Monsegur just wants to forget the past and start his life anew. During his three years of release, he was not allowed to use a computer. Then, he found it challenging to secure a job because cybersecurity companies were reluctant to hire him. Finally, he has landed a full-time job and does not want to repeat past mistakes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>一年一度的篮球赛为微凉的秋意迸发如火的热情让高埗人仿佛再回到里约的赛场没错，战歌已然奏响对手就在眼前，一切蓄势待发10月17日高埗镇男子篮球锦标赛乙级赛事开打 明晚，在芦村篮球场，护安围篮球场你可以看到球场上肆意挥洒汗水的他们转身，跳跃，张扬且潇洒带球，加速，一战成名 球场上的他们，叱咤风云，所向披靡势必给你带来精彩的篮球盛宴 埗妹向女神们提出一个请求明天观赛，暂时放下淑女的姿态看赛场上大展身手的队员为他们喝彩，为他们欢呼 最后奉上10月17日赛程10月17日护安围篮球场19:00-20:30 宝莲(白)VS护安围(黑)20:30-22:00 新联(白)VS草墩(红)芦村篮球场19:00-20:30 欧邓(红)VS保安围(蓝)20:30-22:00 横滘头(蓝)VS三联(黄)你，不来看吗？ 东莞高埗通（dggbdggb）精选实惠 ?：高埗特产高乐丰腊猪头低至6.3折?：山香菇农家鸡2~4人套餐低至4.6折?：奇味农家鸡2~4人套餐低至4.6折东莞高埗通，期待与你邂逅 点击“阅读原文”购买公交地铁钥匙扣</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>The annual basketball game ignites the cool autumn with fiery passion in Gaobu, making the people of Gaobu feel like they are back on the Rio court. Yes, the battle anthem has already sounded, the opponents are right in front of us, everything is ready to go. On October 17th, the Gaobu Town Men's Basketball Championship Division B will kick off. Tomorrow night, at the Lu Village Basketball Court and Hu'anwei Basketball Court, you can see them freely sweating on the court, turning around, jumping, showing off and stylishly dribbling, accelerating, and making a name for themselves. They on the court, dominating the scene, will surely bring you a wonderful basketball feast. Gaobu girls make a request to the goddesses to temporarily set aside their ladylike demeanor and watch the players show off their skills on the court, cheer for them, and applaud them. Finally, here is the schedule for October 17th: October 17th, Hu'anwei Basketball Court, 19:00-20:30 - Baolian (White) VS Hu'anwei (Black), 20:30-22:00 - Xinlian (White) VS Caodun (Red). Lu Village Basketball Court, 19:00-20:30 - Oudeng (Red) VS Bao'anwei (Blue), 20:30-22:00 - Hengjitou (Blue) VS Sanlian (Yellow). Won't you come and watch? Dongguan Gaobu Tong (dggbdggb) selected affordable items: Gaobu specialty Galefeng cured pig head as low as 63% off, mountain mushrooms and farmhouse chicken 2-4 person set meal as low as 46% off, and exotic farmhouse chicken 2-4 person set meal as low as 46% off. Dongguan Gaobu Tong, looking forward to meeting you. Click "Read Original" to buy bus and subway keychains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>本报讯（记者涂睿智）6月12日，和平区委副书记、区委政法委书记、区综治委主任李海军带领区有关部门负责同志来到区房管局，就进一步开展好党的群众路线教育实践活动以及进一步完成好综治目标考核任务和物业管理工作进行调研。李海军听取了区房管局关于2013年社会管理综合治理目标考核情况、2014年综治目标考核任务落实和物业服务管理的情况汇报。他指出，今年以来，区房管局高度重视综治目标考核工作，严格对照综治目标责任书的标准，认真查找工作中的薄弱环节，取得了良好效果。(下转第22版)(上接第21版)下一阶段，要把承担的任务指标再细化分解，落实到具体部门和责任人，切实把本单位的综治工作目标落到实处，在全区营造更加良好的社会综治环境。李海军强调，要紧密结合党的群众路线教育实践活动，在完成旧楼区居住功能综合提升改造，在物业管理全覆盖的基础上从细致处入手，提升工作标准，加大工作力度，把工作做实做细。要结合老百姓关注的热点问题，把更多的老旧楼房纳入到物业管理范畴中。要以党的群众路线教育实践活动为契机，解决好联系服务群众最后一公里的问题，为广大人民群众办更多的好事实事。</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>This report (Reporter: Tu Ruizhi) On June 12, Li Haijun, Deputy Secretary of the Heping District Committee, Secretary of the District Committee's Political and Legal Affairs Committee, and Director of the District Comprehensive Governance Committee, led relevant department heads of the district to the District Housing Management Bureau to conduct research on further carrying out the Party's mass line education and practice activities, as well as further completing the assessment tasks of comprehensive governance objectives and property management work. Li Haijun listened to the District Housing Management Bureau's report on the assessment of social management comprehensive governance objectives in 2013, the implementation of comprehensive governance assessment tasks in 2014, and the situation of property service management. He pointed out that since the beginning of this year, the District Housing Management Bureau has attached great importance to the assessment of comprehensive governance objectives, strictly comparing with the standards of the comprehensive governance responsibility letter, earnestly identifying the weak links in the work, and achieved good results. (Continue to page 22) (Continued from page 21) In the next stage, the task indicators should be further refined and decomposed, implemented to specific departments and responsible persons, effectively implement the comprehensive governance work objectives of this unit, and create a better social governance environment in the entire district. Li Haijun emphasized that it is necessary to closely integrate the Party's mass line education and practice activities, complete the comprehensive upgrading and transformation of residential functions in old residential areas, start from the details on the basis of full coverage of property management, improve work standards, increase work intensity, and ensure that the work is practical and meticulous. It is necessary to address hot issues of concern to the people, include more old buildings in the scope of property management. Taking the Party's mass line education and practice activities as an opportunity, solve the last mile problem of connecting and serving the people, and do more practical things for the benefit of the people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>一个中心一切以健康为中心 两个基本点遇事潇洒一点，看世糊涂一点。三个忘记忘记年龄，忘记过去，忘记恩怨四个拥有人生路上一定要拥有真正爱你的人，拥有知心朋友；拥有向上的事业，拥有温暖的住所。五个要要唱、要跳、要美、要笑，要有气质。六个不能不能饿了才吃不能渴了才喝不能困了才睡不能累了才歇不能病了才检查不能老了才后悔七个禁止人生于世要止于怒止于愁止于气止于怨止于恨止于伤感止于消沉八个适宜宜静宜动宜行宜乐宜释放宜果敢宜温情宜大度 九个感谢心怀感恩感谢天感谢地感谢四季感谢父母感谢亲人感谢朋友感谢爱人感谢帮过自己的熟人感谢帮过自己的陌生人 十个等候静静地等候孩子长大长大了他才会懂得父母的辛苦静静地等候爱人成熟成熟了才会懂得两情相守等候久别的朋友回来重温友情的美好在寒冬风雪急骤的时候等候春回大地的温暖等候幸福花开每天辛勤浇灌等候意外的惊喜以善良的心面对红尘等候久病的亲人康复耐心细致予以照顾等候种种误解消除时间可以说明一切等候得到领导重用用工作能力来证明自己等候成功的到来时刻努力！每天努力多一点，机会来了挡也挡不住！！</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>One center, everything revolves around health. Two basic points, encounter things with a carefree attitude, view the world with a confused mind. Three things to forget: forget age, forget the past, forget grudges. Four things to possess on the journey of life: must have someone who truly loves you, have intimate friends; have a career that moves upward, have a warm place to live. Five things to do: sing, dance, be beautiful, smile, have temperament. Six things not to do: don't wait to eat until you're hungry, don't wait to drink until you're thirsty, don't wait to sleep until you're tired, don't rest only when you're exhausted, don't check for illness only when you're sick, don't regret only when you're old. Seven things to avoid in life: avoid anger, avoid sorrow, avoid rage, avoid resentment, avoid hatred, avoid sadness, avoid depression. Eight things to be suitable for: suitable for tranquility, suitable for movement, suitable for action, suitable for joy, suitable for release, suitable for being decisive, suitable for warmth, suitable for generosity. Nine things to be grateful for: be grateful to heaven, be grateful to earth, be grateful for the four seasons, be grateful to parents, be grateful to relatives, be grateful to friends, be grateful to loved ones, be grateful to acquaintances who have helped, be grateful to strangers who have helped. Ten things to wait for: wait quietly for children to grow up, only when they grow up will they understand the hardships of their parents; wait quietly for loved ones to mature, only when they mature will they understand the commitment of love; wait for friends who have been apart for a long time to return and relive the beauty of friendship; wait for the warmth of spring to return to the earth in the harsh winter; wait for happiness to bloom by diligently nurturing it every day; wait for unexpected surprises with a kind heart; wait patiently and meticulously for sick loved ones to recover; wait for misunderstandings to be resolved, time will explain everything; wait to be recognized and valued by leaders, use your work abilities to prove yourself; wait for the arrival of success, work hard! Strive a little harder every day, when opportunities come, nothing can stop you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 张柏芝与男子外出游玩小肚凸显据香港媒体报道，自从5年前同谢霆锋离婚后，张柏芝几乎去哪里，五米范围内，都会见到两个儿子谢振轩(Lucas)同谢振南(Quintus)在身边。近日中午，张柏芝带着两个宝贝儿子，在大埔三门仔上游艇出海，同行中有张豪龙、孙佳君同两个孩子。一行人浩浩荡荡上船由早玩到晚，直到七点多，记者见孙佳君一马当先，带着4个孩子先行上船，与附近的七人车集合。隔了5分钟，只见张柏芝同一个穿着蓝色衬衫、一边抽烟的胡须中年男离开游艇。玩了一日的张柏芝，心情似乎好愉快，同胡须男边走边聊天。二人刻意断后，远离大队，原本只需5分钟的路程，但张柏芝同胡须男足足走了10分钟，才到众人集合的停车场。一向穿衣服都有独特个人品味的张柏芝，身上只穿着件薄如蝉翼的背心，但下身就离奇配条十足男装沙滩裤，再加对白鞋，身型全无，背心之下竟然离奇凸肚子。等孙佳君同两个孩子离去后，张柏芝先接回Lucas同Quintus上宝马车，同胡须男一行四人坐车返回张柏芝位于中环半山世纪大厦。记者等到接近10点，仍未见胡须男离去，看来这位胡须男，已经融入柏芝家中。#星动观影团#【本期福利：《封神传奇》电影票】各方势力强势集结，上天入地，大显神通！光明与黑暗全面开战！《封神传奇》开启东方奇幻新格局！搜索并关注公众号 “星动九州”（微信号：xingdongzhongguo），点击 “福利”菜单，参与活动即有机会赢取。每周都有福利喔~~</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Gillian Chung's Outing with a Man Highlights Her Slight Belly Protrusion According to Hong Kong media reports, since her divorce from Nicholas Tse five years ago, Gillian Chung can be seen with her two sons, Lucas and Quintus, within a five-meter radius wherever she goes. Recently at noon, Gillian Chung took her two precious sons to go yachting at Sam Mun Tsai in Tai Po. Also present were Jordan Chan, Cherrie Ying, and their two children. The group boarded the yacht in a grand manner and played from morning till night. Around 7 o'clock, reporters saw Cherrie Ying taking the lead, boarding the boat with four children and joining seven other people nearby. Five minutes later, Gillian Chung was seen leaving the yacht with a middle-aged man in a blue shirt who was smoking. Gillian Chung, who had spent the day playing, seemed to be in a very happy mood, chatting with the man with a beard as they walked. The two deliberately fell behind, distancing themselves from the group. The journey that originally only took 5 minutes ended up taking Gillian Chung and the man with a beard a full 10 minutes to reach the parking lot where everyone was gathering. Known for her unique personal style in clothing, Gillian Chung was only wearing a thin vest on top, but strangely paired it with a pair of full-on men's beach pants and white shoes, completely hiding her figure, revealing a mysterious protrusion under the vest. After Cherrie Ying and the two children left, Gillian Chung first picked up Lucas and Quintus and got into a BMW, while the man with a beard and three others got into a car and returned to Gillian Chung's residence at Century Tower in Mid-Levels. Reporters waited until close to 10 o'clock and still did not see the man with a beard leave, indicating that this man with a beard has already integrated into Gillian Chung's family. #StarMovieClub# [This Issue's Benefit: "The Legend of the Gods" Movie Tickets] Various forces are gathering, reaching the heavens and the earth, displaying great powers! Light and darkness are in full-scale war! "The Legend of the Gods" is opening a new era of Eastern fantasy! Search and follow the public account "Star Nine Continents" (WeChat ID: xingdongzhongguo), click on the "Benefits" menu, participate in the activities for a chance to win. There are benefits every week!</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10月27日，中英人寿携手奥运乒乓冠军陈玘，开启“星星点灯?关爱留守儿童公益计划”，“乒乓伴你行”湖北站活动在孝感孝昌县邹岗镇中心小学隆重举行。孝感市金融办张应平主任、孝感市保险行业协会韩军秘书长、孝昌县邹岗镇多位领导特邀出席，孝感孝昌县邹岗镇中心小学、黄石刘仁八镇中心小学、荆州松滋市洈水镇西斋小学的留守儿童代表及老师们共同参与，同时活动也吸引了多位中英客户及社会爱心人士的积极主动参加。 中英人寿湖北分公司李健成总经理为三校捐赠爱心物资活动仪式上，少先队员们为到场嘉宾系上鲜艳的红领巾表达感谢，中英人寿湖北分公司李健成总经理致辞并为三所小学捐赠爱心物资。星星点灯爱心大使奥运乒乓冠军陈玘上台给孩子们送祝福，鼓励他们用积极向上的心态去克服生活学习中遇到的困难，并在台上与留守儿童代表、老师切磋球技。嘉宾们为激烈角逐而出的12位三校乒乓小将依次颁奖，社会爱心人士、志愿者团队及校方学生们纷纷献上精彩演出，现场掌声不断。 奥运乒乓冠军陈玘与孩子切磋 全体嘉宾、留守儿童代表和志愿者同台合影活动仪式后，陈玘与嘉宾领导一行参观学校关爱小屋，并在乒乓活动室与孩子们面对面，指点孩子们的球技并赠送签名球拍，现场氛围热烈。 奥运冠军陈玘指导孩子球技连续七年，中英人寿湖北分公司为孝感、黄石、荆州三所小学的关爱小屋募集和补充书籍文体用品等爱心物资。26日，湖北分公司员工代表组成志愿者团队前往邹岗镇小学进行支教授课，用精心准备的多彩课程丰富孩子们的课堂，让孩子们感受陪伴与快乐。“星星点灯?乒乓伴你行”以一张小小的球台搭建桥梁，连接乒乓球明星球员、爱心志愿者与留守儿童，用顽强、拼搏、团结的体育精神，从心灵层面多角度关爱、激励他们，为他们点燃满天星光，照亮心灵。 星星之火可以燎原，中英人寿秉承“关爱万家”的企业愿景，以实际行动持续践行社会责任，不断丰富留守儿童的精神生活，让他们感受温暖关爱，身心健康成长。</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>On October 27th, China and England Life Insurance, together with Olympic table tennis champion Chen Qi, launched the "Lighting Stars, Caring for Left-behind Children Public Welfare Program." The "Ping Pong Accompanies You" event was grandly held at Zhongxin Elementary School in Zougang Town, Xiaochang County, Xiaogan. Director Zhang Yingping from the Financial Office of Xiaogan City, Secretary General Han Jun from the Insurance Industry Association of Xiaogan City, and several leaders from Zougang Town, Xiaochang County were specially invited to attend. Representatives and teachers of left-behind children from Zhongxin Elementary School in Zougang Town, Liurenba Elementary School in Huangshi, and Xizhai Elementary School in Yishui Town, Songzi City, Jingzhou, participated together. The event also attracted many Chinese and English customers and caring individuals from the society to actively participate.
+At the donation ceremony, Li Jiancheng, General Manager of China and England Life Insurance Hubei Branch, donated loving supplies to the three schools. Young pioneers tied bright red scarves for the guests to express gratitude. Li Jiancheng, General Manager of China and England Life Insurance Hubei Branch, delivered a speech and donated loving supplies to the three schools. Olympic table tennis champion Chen Qi, the ambassador of the Lighting Stars program, went on stage to bless the children, encouraging them to overcome difficulties in life and learning with a positive attitude, and interacted with the representatives and teachers of left-behind children, showcasing table tennis skills. Guests presented awards to the 12 young table tennis players from the three schools, and caring individuals, volunteer teams, and students from the schools performed wonderful shows, receiving continuous applause.
+After the event, Chen Qi, the Olympic table tennis champion, interacted with the children. All guests, representatives of left-behind children, and volunteers took a group photo together. Chen Qi and the guests then visited the caring cottages in the school, interacted with the children face-to-face in the table tennis room, provided guidance on their table tennis skills, and gave away signed table tennis rackets, creating a warm atmosphere on-site.
+For seven consecutive years, Olympic champion Chen Qi has been guiding children in table tennis skills. China and England Life Insurance Hubei Branch has raised and supplemented loving supplies such as books and sports equipment for the caring cottages in the three schools in Xiaogan, Huangshi, and Jingzhou. On the 26th, representatives of the Hubei Branch formed a volunteer team and went to Zougang Town Elementary School to teach, enriching the children's classroom experience with carefully prepared colorful courses, allowing the children to feel companionship and joy. The "Lighting Stars, Ping Pong Accompanies You" program builds a bridge with a small table tennis table, connecting table tennis stars, caring volunteers, and left-behind children, using the spirit of perseverance, hard work, and unity in sports to care for and inspire them from multiple perspectives at the spiritual level, igniting countless stars to illuminate their hearts.
+A single spark can start a prairie fire. China and England Life Insurance upholds the corporate vision of "Caring for Thousands of Families," continuously fulfilling social responsibilities with practical actions, enriching the spiritual lives of left-behind children, allowing them to feel warmth and care, and grow up healthy in body and mind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>最近有朋友准备购置一台SUV，要求挺简单：30万出头的预算，品牌响亮、配置主流、全景天窗就万事大吉了。可是，就是这么简单的一个需求，拿着30万出头的预算，却被忽悠得差点搞了台某国产合资神车的顶配车型，还好紧要关头被老婆叫停。回头给朋友洗了下脑，有这预算为何不考虑纯进口车型？顺道就推荐了如下几款，也请各位车友做下参考嘛！大众Tiguan指导价：34.60-41.92万，终端优惠4-5万不等。 这款是进口的，国产把它拉长了叫途观，也就是上海大众那款神车。不得不承认，进口Tiguan没有它的国产弟弟好卖，定价稍高、维护稍贵是个硬伤，但原滋原味的德国本土车也有自己的实力。仅从通过能力一项上来讲，Tiguan全系标配四驱、更高的底盘和更大的接近角、离去角，Tiguan通过性能甩途观N条街，综合考虑下途观的销售方式，实际上Tiguan有部分车型售价已经在国产车型价格区间内了。最近正值淡季，有些区域对2.0TSI舒适版车型还有氙灯升级的打包优惠政策，促销过后裸车在32万左右，考虑到加几万就能享受纯进口品质和更好的越野性能，值得预算较充裕的粉丝入手。Jeep自由光指导价：37.19-52.99万，终端优惠6万不等。 Jeep卖的不只是情怀，自由光在这次推荐的车型中是配置最高的，也是唯一一款带中央差速器锁止功能和差速锁的。自由光这款车的亮点主要是造型设计、越野性能和9AT变速箱，实际体验来看，外形和越野性能这两项很令人满意，尤其是它的四驱系统，可谓同级别最强，不过9AT变速箱和2.4L发动机的动力组合的表现并没有预想得那么好。另外极光的变速箱风波发生之后，这款采埃孚的9AT耐用性也成了疑问。不过，自由光目前终端优惠大，30万的预算，2.4L都市版是绝对可以拿下的，而2.4L豪华版也不会超过33万。林肯MKC指导价：33.98-43.88万，终端暂无优惠，好像部分城市买车还要加保险、加装饰。这车确实是个冷门，但是也确实符合文中开头，朋友提出的品牌响亮、配置主流、全景天窗的要求。林肯MKC基于福特Global C平台打造，4552*1864*1637的车身尺寸在同级别中还是占有一定优势的。作为一款主打豪华品质的SUV车型，氙气大灯、透镜、大灯自动清洗和自动调节功能都不可少。动力系统2.0T+6AT只能说中规中矩。</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Recently, a friend is preparing to purchase an SUV with a simple requirement: a budget of just over 300,000 RMB, a well-known brand, mainstream configuration, and a panoramic sunroof would be perfect. However, with such a simple requirement and a budget of just over 300,000 RMB, he was almost persuaded to buy a top-of-the-line model of a certain domestically produced joint venture car, but luckily, he was stopped by his wife just in time. Afterward, I helped him reconsider his options. With this budget, why not consider pure imported models? I recommended the following models to him for reference! Volkswagen Tiguan MSRP: 346,000-419,200 RMB, with terminal discounts ranging from 40,000 to 50,000 RMB. This model is imported, and the domestically produced version is called the Tiguan, which is the miraculous car from Shanghai Volkswagen. It must be admitted that the imported Tiguan is not as popular as its domestically produced counterpart, with slightly higher pricing and maintenance costs being a drawback, but the original German-made car also has its own strengths. Solely in terms of off-road capability, the Tiguan comes standard with all-wheel drive, a higher chassis, and larger approach and departure angles. The Tiguan outperforms the domestically produced version by a mile in terms of off-road performance. Taking into account the sales approach of the Tiguan, in fact, the prices of some Tiguan models are already within the range of domestically produced models. Currently in the off-season, some regions offer bundled upgrade policies for the 2.0 TSI Comfort model with xenon headlights, with the bare car priced at around 320,000 RMB after the promotion. Considering that for just a few thousand more, you can enjoy the quality of pure imports and better off-road performance, it is worth it for fans with a relatively ample budget to consider purchasing it. Jeep Cherokee MSRP: 371,900-529,900 RMB, with terminal discounts of up to 60,000 RMB. Jeep sells not only emotions, but the Cherokee is the highest-configured model among the recommended models this time, and the only one with a central differential lock and differential lock. The highlights of the Cherokee are its design, off-road performance, and 9-speed automatic transmission. In actual experience, the exterior design and off-road performance are very satisfying, especially its four-wheel drive system, which can be said to be the strongest in its class. However, the performance of the 9-speed automatic transmission and the 2.4L engine combination is not as good as expected. Additionally, after the gearbox controversy of the Cherokee, the durability of this ZF 9-speed automatic transmission has also become a question. However, the Cherokee currently has significant terminal discounts. With a budget of 300,000 RMB, the 2.4L City Edition is definitely within reach, and the 2.4L Luxury Edition will not exceed 330,000 RMB. Lincoln MKC MSRP: 339,800-438,800 RMB, with no current terminal discounts, and it seems that in some cities, additional insurance and decorations are required when purchasing the car. This car is indeed a niche model, but it does meet the friend's initial requirements of a well-known brand, mainstream configuration, and panoramic sunroof. The Lincoln MKC is built on the Ford Global C platform, and with dimensions of 4552*1864*1637, it still has a certain advantage in the same class. As an SUV model that emphasizes luxury quality, xenon headlights, lenses, headlight automatic cleaning, and automatic adjustment functions are all essential. The powertrain system of 2.0T+6AT can only be described as average.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>看到有人说绿松石是佛教七宝珠，小编忍不住呵呵了，绿松石现在炙手可热，但是还真不是佛教七宝珠，一般来讲佛教七宝珠指的只是砗磲、玛瑙、水晶、珊瑚、琥珀、珍珠、麝香，这七种。 实际上在佛教中，绿松石并没有特殊的含义，但是绿松石却跟佛教有很深的渊源。我们看到经常有佛教题材的雕件，以及绿松石佛珠，三通等等，就可见一斑。 绿松石和佛教的渊源，还要从我国藏族人民说起，在青藏高原上，每一个藏民都拥有自己的绿松石，他们认为佩戴绿松石是天意。藏王的子民不得把绿松石丢弃在水里，人的灵魂就会离开肉体而消亡。 绿松石在藏区文化中确实有着特殊的地位，这体现在藏民生活中的各个角落，随处可见到绿松石的影子，甚至包括带垂和链子、奶桶钩、围裙钩、胸饰、背饰、发饰等等。 也正因如此，藏传佛教也受到影响，比如藏传佛教的寺院和造像上都能见到绿松石。佛教就是这样与绿松石结下不解之缘。 相识是缘，如果您也喜欢绿松石，请加微信：jsg-huaheshang 相信在文玩这条路上我们会成为好朋友，让您远离假货！</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Seeing someone say that turquoise is one of the seven treasures of Buddhism, the editor couldn't help but chuckle. Turquoise is currently in high demand, but it is not actually one of the seven treasures of Buddhism. Generally speaking, the seven treasures of Buddhism refer to agate, carnelian, crystal, coral, amber, pearl, and musk. In fact, turquoise does not have a special meaning in Buddhism, but it does have deep roots with Buddhism. We often see Buddhist-themed carvings, turquoise Buddhist beads, and ritual implements, which is a clear indication. The connection between turquoise and Buddhism can also be traced back to the Tibetan people in our country. On the Qinghai-Tibet Plateau, every Tibetan owns their own turquoise, believing that wearing turquoise is a divine will. The subjects of the Tibetan king must not throw turquoise into the water, as it is believed that the soul will leave the body and perish. Turquoise indeed holds a special position in Tibetan culture, evident in various aspects of Tibetan life, where the presence of turquoise can be seen everywhere, including on accessories like pendants, chains, milk bucket hooks, apron hooks, chest ornaments, back ornaments, hair accessories, and more. It is because of this that Tibetan Buddhism has also been influenced, with turquoise being visible on the temples and statues of Tibetan Buddhism. This is how Buddhism and turquoise have formed an inseparable bond. Meeting is fate. If you also like turquoise, please add WeChat: jsg-huaheshang. I believe that on this journey of collecting cultural relics, we can become good friends and keep you away from counterfeit products!</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>本文来源：日本物语（RoninGosho）建筑的舒适性，体现在哪里？不单是施工精良、装饰华美，更根源于设计的人性化、以人为本。◆◆◆◆◆日本的建筑在这方面可谓是一个表率，做到了处处以人为中心，在养老住宅上的细节研究，也是人性化到极致。中国从2000年开始也已进入老龄化社会，解决养老问题将是老龄化社会面对的重要任务。他们的衣食住行有很多需要注意的细节。让老人生活上更方便、安全、健康、舒适，这是养老住宅设计最基本原则。今天就来看看日本养老住宅的细节之处，一起借鉴一二。▼卫生老一辈的人勤勤恳恳不停歇，爱劳动、爱清洁，让洗洁变得轻松又安全吧。 1. 厨房高度 根据老人身高，重新定义厨房高度吧：市面上正常比较认可的普遍柜台合适高度为「身高÷2＋5～10cm」。假如台面低了容易增加弯腰时的负荷，台面高了一直站着烹饪容易产生肩膀疲劳的痛苦和感受。另外，能坐下来工作的厨房装修也是非常值得推荐的。 若为高龄人士（腿脚不便需轮椅老人），操作台根据使用者腿部情况高度+18cm=约73～85厘米左右。 2. 抽拉龙头 感应龙头减少向前打开开关的次数，并有效节水；普通抽拉龙头的成本则更低，对于水槽内部清洗能够更加方便，减少操作负担。泡沫出水方式能够极大化地提供洗污能力，节水的同时减少洁净的劳度。 3. 洗碗机 洗碗机在发达国家家庭占有率高达70%-80%，中国人饮食喜欢煎炒食物，或者易黏糊的糯米等，清洗强度大，时间久；在父母接受的观念下，洗碗机的耗水大约人工时的?，有效减轻老年人劳动负担，同时兼具杀菌消毒功能，使饮食更健康。 4. 轮椅对应化妆柜 首先，要确保洗漱下方拥有足够的空间，而避免膝盖和脚碰撞；化妆柜/盆的高度可以设定在约65cm左右。 台盆及水龙头设计则需要尺寸：A. 水龙头把手容易接触的深度约30cm左右B. 接触到水流的深度约30cm左右（出水向外倾斜）C. 手插入的容纳空间需水龙头吐水高度在10cm以上 5. 浴室柜空间 老人站立时，80cm是化妆柜的舒适高度，可以减少腰部的负担，以及水不容易流向肘部而滴落，深度空间上需要达到60cm，这样的空间站或者坐都恰好了。 6. 卫洗丽、智能马桶 智能马桶盖的中老年人（40-49岁的人群）占了消费用户中的20%，智能马桶盖起源于美国，最早用于医疗和老年保健，最初设置有温水洗净功能。</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>This article is from "Japanese Stories" (RoninGosho). Where does the comfort of Japanese architecture lie? It is not only reflected in excellent construction and exquisite decoration, but more fundamentally in the human-centered and people-oriented design. ◆◆◆◆◆ Japanese architecture can be said to be a model in this respect, always putting people at the center, and the detailed research on elderly housing is also carried out to the extreme in terms of humanization. Since 2000, China has also entered an aging society, and solving the elderly care issue will be an important task facing the aging society. There are many details to pay attention to in their daily lives. Making the lives of the elderly more convenient, safe, healthy, and comfortable is the most basic principle of elderly housing design. Today, let's take a look at the details of Japanese elderly housing and learn from them together. ▼ Hygiene The older generation is diligent and hardworking, loves labor and cleanliness, making dishwashing easier and safer. 1. Kitchen counter height Redefine the kitchen counter height according to the height of the elderly: the generally accepted suitable height of a normal countertop on the market is "height ÷ 2 + 5 to 10 cm". If the countertop is too low, it can easily increase the load when bending over, and if it is too high, standing all the time for cooking can lead to shoulder fatigue and discomfort. In addition, a kitchen renovation that allows sitting while working is also highly recommended. For the elderly (those with mobility issues or in wheelchairs), the height of the countertop should be the user's leg height + 18 cm, approximately 73-85 cm. 2. Pull-out faucet Sensor faucets reduce the number of times the faucet needs to be opened manually, saving water; regular pull-out faucets are more cost-effective, making it easier to clean the inside of the sink and reducing the operational burden. Foam water outlets can greatly enhance cleaning power, save water, and reduce the labor of cleaning. 3. Dishwasher Dishwashers have a high penetration rate in developed countries, reaching 70%-80% in households. Chinese cuisine often involves frying and sticky foods like glutinous rice, which require intense cleaning and take a long time. With the acceptance of the concept by parents, the water consumption of a dishwasher is about the same as manual washing, effectively reducing the labor burden on the elderly, while also providing sterilization and disinfection functions for healthier eating. 4. Wheelchair-accessible vanity First, ensure that there is enough space under the washbasin to avoid knee and foot collisions; the height of the vanity can be set at around 65 cm. The basin and faucet design require dimensions: A. The depth of the faucet handle that is easy to reach is about 30 cm B. The depth of contact with the water flow is about 30 cm (tilted outward) C. The space for hand insertion needs the water outlet height to be at least 10 cm above. 5. Bathroom cabinet space When standing, 80 cm is a comfortable height for the vanity, reducing the burden on the waist and preventing water from dripping onto the elbows. The depth space needs to reach 60 cm, providing a space that is suitable for standing or sitting. 6. Bidet toilet, smart toilet Bidet toilet seats are used by 20% of middle-aged and elderly consumers (aged 40-49), originating in the United States for medical and elderly care, initially equipped with warm water cleaning functions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>【背景】精细化工产品销售客户负责人采购和生产【问题】1.认识某采购但并不能确定他是不是负责该项目的，所以想找生产，但大公司管理严，生产直接不接待供应商，怎么办？2.跟生产碰头后了解确实需要，可以试用，但要听采购的，而采购三番两次以忙啊开会之类推辞，怎么办？蓝小雨回复：1.销售开单=人情做透+利益驱动（满足客户需求）在咱们拜访客户前，人家早就有现成的供应商了，你再去拜访，这叫虎口夺食，说白了就是去抢客户！这类项目销售有一个规律，一定要先做人情，人情没做透，谁会跟你说实话呢？还不如跟原来供应商合作，多一事不如少一事！所以做人情是项目成功的第一个关键因素。等人情做透，大家成为朋友之后，再用利益驱动来说服客户，也就是提供的产品、价格、服务满足客户的需求。2.人情做透决定你是否能开单，利益驱动决定你开单大小。准备好话术，为什么要换成我们家的产品？话术分为公对公和私对私，其中，“公对公”利益驱动，是指客户采购你的产品，对他公司有啥好处？你要给出明确说法。其中，“私对私”利益驱动，是指客户采购你的产品，对他个人有啥好处？不是说红包，而是给他职业带来什么机遇，领导怎么看这事，包括是否存在某些“职场风险”，你都要给出明确说法，引导客户去思考，去说服自己。3.客户需求主要分为精神层面和物质层面客户主要需求 = 客户痛点，根据“单爆”原则，咱们紧紧抓住客户痛点，开大单机会将大增。因为任何一件产品都不可能全面满足客户需求，但只要满足客户主要需求就行。如果手上产品不能满足客户主要需求，换掉客户是上策，否则会浪费时间。4.看《我把一切告诉你》里面的慧聪案例展示了“公对公”和“私对私”两种利益驱动的说法，多用多研究，没有准备，那就准备失败。更多精彩案例尽在蓝小雨吧（点击即可进入）蓝小雨：书籍《我把一切告诉你》作者、天涯创业家园著名楼主，微信订阅号lanxy2014本文来自【蓝小雨冠军销售】微信订阅号：lanxy2014 每日精彩销售、创业文章不断！关注后，在微信回复“视频”即可查看精彩销售创业视频。雨总在线销售创业视频大全地址（点击即可进入）</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>【Background】The person in charge of sales of fine chemical products is responsible for purchasing and production for clients.【Issues】1. Recognizing a certain purchaser but not sure if they are in charge of the project, so wanting to contact production, however, the management of the large company is strict, and production does not directly receive suppliers, what to do? 2. After meeting with production and understanding the actual need, it can be tried, but it needs to be approved by the purchaser. However, the purchaser has been busy or in meetings and has been postponing, what to do? Lan Xiaoyu's reply: 1. Sales order = Establishing relationships thoroughly + Driven by interests (meeting customer needs). Before we visit clients, they already have existing suppliers. If you visit again, it's like snatching food from a tiger's mouth, in other words, it's like stealing clients! There is a rule in this type of project sales, you must first establish relationships. If relationships are not established thoroughly, who will tell you the truth? It's better to cooperate with the original supplier, less trouble is better than more! Therefore, establishing relationships is the first key factor for project success. After establishing relationships thoroughly and becoming friends, then use interest-driven to persuade clients, which means providing products, prices, and services that meet customer needs. 2. Establishing relationships thoroughly determines whether you can place an order, and interest-driven determines the size of the order. Prepare your words, why should they switch to our products? The words are divided into business-to-business and private-to-private. In the case of "business-to-business" interest-driven, it means what benefits the customer's company will get from purchasing your products? You must give a clear explanation. In the case of "private-to-private" interest-driven, it means what benefits the customer will get personally from purchasing your products? It's not about giving a red envelope, but about what opportunities it will bring to their career, how the leadership views this matter, including whether there are certain "career risks", you must give a clear explanation to guide the customer to think and convince themselves. 3. Customer needs are mainly divided into spiritual and material aspects. Customer main needs = customer pain points. According to the "single burst" principle, we tightly grasp the customer's pain points, and the opportunity to place large orders will greatly increase. Because no product can fully meet customer needs, but as long as the main needs of the customer are met, it's sufficient. If the products on hand cannot meet the main needs of the customer, it is best to change the customer, otherwise, time will be wasted. 4. Look at the case of Hui Cong in the book "I Tell You Everything", which shows the two types of interest-driven, "business-to-business" and "private-to-private". Use them more and study them more. Without preparation, you are preparing to fail. More exciting cases are available at Lan Xiaoyu (click to enter). Lan Xiaoyu: The book "I Tell You Everything" author, famous founder of Tianya Entrepreneurship Community, WeChat subscription account lanxy2014. This article is from the WeChat subscription account "Lan Xiaoyu Champion Sales": lanxy2014. Continuous daily wonderful sales and entrepreneurship articles! After following, reply "video" on WeChat to watch exciting sales and entrepreneurship videos. Rain General's online sales and entrepreneurship video complete address (click to enter).</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 今晚的夜空，你不可错过。 今晚的夜空，你不可错过。难得一见的“月全食”天象奇观即将登场。这是继2011年12月10日之后我国观测条件最好的一次，如果错过，就得再等4年。更令人兴奋的是，“红月亮”现象也将出现。由云南省天文爱好者协会主办，中科院云南天文台科学普及教育基地、云南省天文学会、五华区科协协办的“昆明第十一届马路天文夜”活动，也将邀请市民一起在翠湖欣赏“天狗食月”，同时为公众提供一台口径40公分的专业级别天文望远镜—“移动天文台”来观测月全食。活动“移动天文台”助阵观测今晚翠湖，在“马路天文夜”活动中，云南天文爱好者协会将为公众提供一台口径40公分的专业级别天文望远镜—“移动天文台”来观测月全食。“如果有市民想要拍照，我们还提供了几台小的天文望远镜给市民接相机或者手机，进行拍照留念。”苏泓说，“本次活动下午18:00就可以开始进场进行设备调试，和观测适应。月全食的整个过程是18:00到21:30，所以整个活动也将持续到月食结束为止”。据了解，“马路天文夜”即Sidewalk Astronomy Night，最早由道布森反射式望远镜的发明者美国的约翰·道布森教授提出，通过志愿者带着望远镜走上街头，在人口密集的路边广场，向过往行人提供用望远镜欣赏美丽天空，以进行天文科普。小贴士教你拍“月食葫芦串”据了解，2015年有2次月食，一次是4月4日晚，另一次将发生在9月28日，但9月28日的月食我国不能观测到，所以4月4日晚间的月全食绝对值得天文发烧友们期待。那么，如何与“红月亮”合影呢？怎样才能拍摄出效果绝佳的“月食葫芦串”呢？天文专家介绍，只要天气晴朗，我国公众只需找个视野开阔的地方，凭借肉眼就可以观测。对于本次月全食来说，由于月亮位置比较低，喜欢天体摄影的公众可以提前准备好相机，来一张与“红月亮”的合影。“最好提前选好位置，到时候成功的几率就更大了。”而要想拍摄“月食葫芦串”，需选用能连续在同一幅画面中多次曝光的相机和广角镜头，并准备好三脚架来固定相机，每隔15分钟左右拍一次，就可以得到“月食葫芦串”的独特效果。期待下场小雨 观测效果会更好不久之前，雾霾袭昆，昆明空气质量爆表。对此苏泓表示，空气质量也会对月食观测效果产生直接影响。记者从云南省气象局了解到，4月3日天气为多云转晴，气温 12～24℃，风力西风4级，湿度为40%，降水概率为10%，空气质量为优。</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Tonight's night sky is not to be missed. A rare "total lunar eclipse" phenomenon is about to take place, which is the best observation condition in China since December 10, 2011. If you miss it, you will have to wait another 4 years. What's even more exciting is the appearance of the "red moon" phenomenon. Organized by the Yunnan Amateur Astronomical Association, co-sponsored by the Yunnan Astronomical Observatory of the Chinese Academy of Sciences, the Yunnan Astronomical Society, and the Wuhua District Association for Science and Technology, the "11th Kunming Sidewalk Astronomy Night" event will invite citizens to enjoy the "dog eating moon" at Cuihu Lake and provide the public with a professional-grade 40 cm diameter astronomical telescope - the "Mobile Observatory" to observe the total lunar eclipse. The "Mobile Observatory" will be present at Cuihu Lake tonight for the "Sidewalk Astronomy Night" event. The Yunnan Amateur Astronomical Association will provide the public with a professional-grade 40 cm diameter astronomical telescope - the "Mobile Observatory" to observe the total lunar eclipse. "If citizens want to take photos, we also provide several small telescopes for citizens to connect their cameras or phones for photography," said Su Hong. "The event can start setting up equipment and adapting to observation from 18:00 in the afternoon. The entire process of the total lunar eclipse is from 18:00 to 21:30, so the event will continue until the end of the lunar eclipse." It is understood that "Sidewalk Astronomy Night," first proposed by Professor John Dobson, the inventor of the Dobsonian telescope, involves volunteers taking telescopes to the streets and providing passersby with the opportunity to admire the beautiful sky through telescopes for astronomical popularization. Tips for shooting the "lunar eclipse gourd string" reveal that there were 2 lunar eclipses in 2015, one on the night of April 4, and the other on September 28. However, the lunar eclipse on September 28 cannot be observed in China, so the total lunar eclipse on the night of April 4 is definitely worth looking forward to for astronomy enthusiasts. So, how can you take a photo with the "red moon"? How can you capture the perfect "lunar eclipse gourd string"? Astronomers suggest that as long as the weather is clear, the public in China can observe with the naked eye from a wide-open area. For this total lunar eclipse, as the moon will be relatively low, those who enjoy astrophotography can prepare their cameras in advance to capture a photo with the "red moon." "It's best to choose a location in advance, which will increase your chances of success," they said. To capture the "lunar eclipse gourd string," you need to use a camera and wide-angle lens that can continuously expose multiple times in the same frame, prepare a tripod to stabilize the camera, and take a photo every 15 minutes to achieve the unique effect of the "lunar eclipse gourd string." Expecting a light rain will lead to better observation results. Recently, haze has hit Kunming, and the air quality has been off the charts. Su Hong mentioned that air quality will directly affect the observation of the lunar eclipse. According to the Yunnan Meteorological Bureau, the weather on April 3 will be partly cloudy to clear, with temperatures ranging from 12 to 24°C, a west wind of 4 levels, humidity of 40%, a 10% chance of precipitation, and excellent air quality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1949年11月21日晚，北京一夜之间封闭了全市所有的妓院，并对妓女进行集中收容改造，这种断然禁娼的方式，被称为“北京方式”。2000年中国人权状况白皮书高度肯定了这项成就：“在很短的时间内，就使这种在中国延续3000多年、严重摧残妇女身心健康和尊严的罪恶渊薮绝迹。” 1949年初春，驻防北平的国民党傅作义部和林彪、聂荣臻等率领的东北及华北野战军签订了和平协议，解放军接防傅作义部进入北平，并且举行了盛大的入城式，当时全副武装的解放军官兵从永定门进入这座千年古都，经过前门大街的时候是人群欢迎的高潮，而其中呢也不乏从附近八大胡同跑出来看热闹妓女，以及妓院的老鸨，当时她们还不知道，从这一刻起她们的命运将被改变。 1949年2月，解放军在北平举行了盛大的入城式，一些观摩的市民没有想到，新政权入城后烧的三把火之一就是取缔妓院。为了尽快争取民心，稳定秩序，中共决定干几件有社会影响的大事，取缔妓院成了北平新政府优先考虑的政绩之一。 1949年2月，北平和平解放，三月北平市政府下发了对妓院进行管制的若干暂行条例，5月，北平市市长叶剑英召集政府官员，开会研究改造清理妓院的问题，叶剑英指示，先把妓院情况调查清楚，然后决定如何处理。 新政府之所以如此急于禁娼，也与中共领袖毛泽东进城后的一次经历有关，当时毛住在香山双清别墅，常乘车来往于北平城与香山之间，江海波在一篇文章中记述。 有天晚上，他带了秘书乘一辆吉普车进了北平城，在一个胡同口车子被一群吵吵嚷嚷的人阻断了去路，原来是妓院的老鸨在揍一个逃出来的小妓女，这件事让毛十分震怒，他对时北平市委书记彭真及公安局长罗瑞卿言，新社会决不允许娼妓存在，罗当即表示要将北平的妓院全部关掉，接着罗迅速草拟了关闭妓院的议案，并成立了由他亲任总指挥的取缔妓院指挥部。 罗瑞卿是中共久经沙场的战将，他用打仗的方式来指挥这场行动，他调动了两千四百多名军警，三十七辆卡车，并配备了消毒药水及药品，还宣布了几条纪律，其中规定，行动中要态度严肃，不得与妓女调笑或受勾引，不得接受贿赂或款待，不得私拿妓院物品等，其实大规模行动前北平各公安分局已开始对嫖娼进行限制，当年民警曾在八大胡同抓住一名衣冠楚楚的带枪嫖客，自称是傅作义的副官，作家李恒昌记述。</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>On the evening of November 21, 1949, Beijing closed all the brothels in the city overnight and concentrated on reforming the prostitutes, a resolute way of banning prostitution known as the "Beijing Approach." In the year 2000, the White Paper on Human Rights in China highly praised this achievement: "In a very short period of time, it eradicated this evil that had persisted in China for over 3000 years, severely damaging the physical and mental health and dignity of women." In early spring of 1949, the Kuomintang troops led by Fu Zuoyi stationed in Beiping and the Northeast and North China Field Army led by Lin Biao and Nie Rongzhen signed a peace agreement. The People's Liberation Army took over the defense from Fu Zuoyi's troops and entered Beiping, holding a grand entry ceremony. At that time, fully armed PLA soldiers entered this ancient capital through Yongding Gate. The climax of the welcome was along Front Gate Street, where crowds cheered. Among them were not only curious prostitutes and brothel madams from the nearby Eight Great Hutongs, who were unaware that their fate would be changed from that moment on. In February 1949, the People's Liberation Army held a grand entry ceremony in Beiping. Some citizens who came to watch did not expect that one of the first things the new regime did after entering the city was to close down the brothels. In order to quickly win over the hearts of the people and stabilize the order, the Communist Party of China decided to do several socially impactful things, and closing down the brothels became one of the priorities of the new Beiping government. In February 1949, Beiping was peacefully liberated, and in March, the Beiping City Government issued several temporary regulations for the control of brothels. In May, Beiping Mayor Ye Jianying convened government officials to discuss the issue of reforming and clearing out the brothels. Ye Jianying instructed to first investigate the situation of the brothels and then decide how to deal with them. The reason why the new government was so eager to ban prostitution was also related to an experience of Mao Zedong, the leader of the Communist Party of China, after he entered the city. At that time, Mao was living in the Fragrant Hills Shuangqing Villa and often traveled between Beiping City and the Fragrant Hills. One night, he took his secretary in a jeep into Beiping City. At the entrance of an alley, the car was blocked by a group of noisy people. It turned out that the madam of a brothel was beating a young prostitute who had escaped. This incident made Mao very angry. He told the Beiping City Party Secretary Peng Zhen and the Public Security Bureau Director Luo Ruiqing that the new society would never allow prostitutes to exist. Luo immediately expressed his intention to close all the brothels in Beiping. He quickly drafted a proposal to close the brothels and established a task force led by himself to ban the brothels. Luo Ruiqing was a seasoned military commander of the Communist Party. He directed this operation in a military manner, mobilizing over 2400 soldiers and police officers, thirty-seven trucks, and providing disinfectants and medicines. He also announced several disciplines, including maintaining a serious attitude during the operation, not joking or being seduced by the prostitutes, not accepting bribes or hospitality, not taking any items from the brothels privately, etc. In fact, before the large-scale operation, the public security sub-bureaus in Beiping had already started to restrict prostitution. That year, the police once caught a well-dressed man with a gun soliciting a prostitute in the Eight Great Hutongs, claiming to be Fu Zuoyi's deputy, as recorded by the writer Li Hengchang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>俗话说的好“按住葫芦起了瓢”，就在国家被股票大熊市和楼市暴涨暴跌困扰的时候，人民币汇率又冲出来火上浇油。从今年三月低点开始算起汇率贬值幅度超过5%，尤其是本月下跌出现加速的现象，不到一个月损失2%，想想都让人心疼。更让广大群众心碎的是，美元处在升值周期，人民币下跌方向还看不到改变的希望！说到这里有人要问了，人民币暴跌关我X事？ 接下来作者给大家捋一捋基本套路，说一说人民币贬值对大家生活的影响 开个玩笑，好了，言归正传！人民币持续暴跌可能带来的恶果说起汇率暴跌给民众带来的影响，现成的例子都能举出不少，抛开那些读书时代在地图上都找不到的凌乱小国和岛国（咱们的邻居不算，大家懂得），最典型时间最近且大家都熟悉的就是某个大国，同时也是金砖国家的代表—俄罗斯。1.俄罗斯卢布汇率暴跌卢布的贬值狂潮主要是在2014年底到2015年初，下跌速度和深度请看图： 短短半年时间，幅度超过百分之五十，一直到今年还缓不过气来，虽然随着油价上涨其价格有所反弹。造成的严重后果有：a.卢布下跌，俄罗斯进口产品涨价，俄罗斯中产购买外国商品变得更贵，学术语叫输入性通胀。b.俄罗斯企业进口原材料价格可能会上涨，增加了企业原材料成本，也可能会使得生产产品价格上涨，劳动力工资增加速度更缓慢。据俄罗斯连塔网9月15日报道，最近一年卢布对美元汇率暴跌致使俄罗斯工资急剧缩水。2014年初，俄罗斯人均月收入为900美元。2015年中期，其工资约为3.3万卢布(确切的统计数据将于年终公布)，以65卢布兑1美元的中间汇率换算，这大致相当于500美元。筒子们把汇率折算成人民币就能推算出以下结果：c.俄罗斯当地人购买食品、服装、移动电话、日常生活用品等需要支付更多，俄罗斯这些普通生活用品都会涨价。2014年13至15日，俄罗斯莫斯科，民众在超市和商场购物。12月15日消息，俄罗斯卢布兑美元汇率暴跌13%。莫斯科居民表示，当地人都在疯狂扫货，一周来肉类蔬菜等价格上涨约20%，街头未发生骚乱，当地居民称“习惯了”。 图为俄罗斯居民爆买超市物资，囤货对抗通货膨胀，工资降低物价飞涨，全国人民表示情绪非常稳定！！！ d.俄罗斯人出境游费用增加，尤其是俄罗斯人去美国和欧洲等一些国家出境游费用增加。俄罗斯人出国留学费用上涨，比如去美国和欧洲等国家留学费用更高。经济不好，节衣缩食那是必须的，钱不是万能的，但没钱是万万不能的。</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>As the saying goes, "holding a gourd and picking up a ladle," just when the country is troubled by a bear market in stocks and a surge and plunge in the real estate market, the exchange rate of the RMB is adding fuel to the fire. Calculated from the low point in March this year, the depreciation of the exchange rate has exceeded 5%, especially with the accelerated decline this month, a loss of 2% in less than a month, which is heartbreaking to think about. What's even more heart-wrenching for the general public is that the US dollar is in an appreciation cycle, and there is no hope of a change in the direction of the RMB's depreciation! At this point, some may ask, "What does the sharp drop in the RMB have to do with me?" Next, the author will sort out the basic routine for everyone, talk about the impact of RMB depreciation on everyone's lives. Joking aside, let's get back to the point! The potential consequences of the continuous sharp depreciation of the RMB are discussed. Speaking of the impact of the sharp drop in the exchange rate on the people, there are plenty of ready examples, leaving aside the messy small countries and island nations that were hard to find on the map during our school days (excluding our neighbors, you know what I mean), the most typical and recent example that everyone is familiar with is a certain major country, also a representative of the BRICS countries—Russia. 1. The sharp drop in the Russian ruble exchange rate The ruble's depreciation frenzy was mainly from the end of 2014 to the beginning of 2015. Look at the speed and depth of the decline in the chart: In just half a year, the depreciation exceeded fifty percent, and it has not recovered until this year, although its price has rebounded somewhat with the rise in oil prices. The serious consequences include: a. With the ruble's decline, imported products in Russia become more expensive, making foreign goods more expensive for the Russian middle class, known academically as import inflation. b. The prices of imported raw materials for Russian companies may rise, increasing the cost of raw materials for companies, which may also lead to an increase in the prices of products, while the rate of increase in labor wages is slower. According to a report by Russia's Lenta website on September 15, the sharp drop in the ruble against the US dollar over the past year has led to a sharp decline in Russian wages. In early 2014, the average monthly income in Russia was $900. By mid-2015, the wage was about 33,000 rubles (exact statistics will be released at the end of the year), which roughly equates to $500 at the mid-rate of 65 rubles to 1 US dollar. By converting the exchange rate to RMB, the results can be calculated as follows: c. Local Russians have to pay more for food, clothing, mobile phones, daily necessities, etc., and the prices of these common items in Russia will increase. From December 13 to 15, 2014, in Moscow, Russia, people were shopping in supermarkets and malls. On December 15, it was reported that the ruble had plummeted by 13% against the US dollar. Moscow residents said that people were frantically stocking up, with prices of meat, vegetables, and other items rising by about 20% in a week. There were no riots on the streets, and locals said they were "used to it." The picture shows Russian residents buying goods in supermarkets to fight against inflation, with reduced wages and soaring prices, and the national mood is very stable!!! d. The cost of outbound travel for Russians has increased, especially for Russians traveling to countries like the US and Europe. The cost of studying abroad for Russians has increased, such as studying in countries like the US and Europe. In tough economic times, tightening one's belt is necessary. Money is not everything, but not having money is absolutely unacceptable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>全国两会闭幕后的第二天，安徽乌龙镇党委书记、镇长、纪委书记等主要领导班子成员就喝酒吃肉摆起“龙门阵”，最终竟导致一位村干部醉酒死亡。点评:乌龙镇陪酒事件，是一个乡镇基层领导班子的“集体坍塌”，虽然是在大家不太在意的喝酒方面。不是因为贪污腐败，而是因为工作作风，这尤其值得警惕。把喝酒当成工作的润滑剂，这种陋习已经在某些基层干部心里根深蒂固。如果不是出了人命，乌龙镇的官员们可能还会对“边喝酒边工作”的错误作风没有清醒的认识。仔细想来，这种无意识或者习惯性的工作思维方式危害巨大。靠喝酒润滑感情，解决工作问题，其实是一种懒政思维和为官不为。如何将党和政府的方针政策全面贯彻落实，打通改革推进的“最后一公里”，基层乡镇的党员干部尤为重要。那些工作还靠喝酒摆“龙门阵”的，该醒醒了。</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>The day after the closing of the National People's Congress and the Chinese People's Political Consultative Conference, the main leadership team members of the Party Committee Secretary, Mayor, and Discipline Inspection Commission Secretary of Wulong Town, Anhui Province, set up a "Dragon Gate Formation" while drinking and eating meat, which ultimately led to the death of a village cadre due to alcohol intoxication. Comment: The accompanying drinking incident in Wulong Town is a "collective collapse" of the grassroots leadership team of a township, although it is in an aspect of drinking that people do not pay much attention to. It is not because of corruption, but because of work style, which is particularly alarming. Treating drinking as a lubricant for work has deeply rooted in the minds of some grassroots cadres. If there had been no fatalities, the officials in Wulong Town might still not have a clear understanding of the wrong practice of "drinking while working". Upon careful consideration, this unconscious or habitual way of thinking in work poses great harm. Relying on drinking to smooth relationships and solve work problems is actually a kind of lazy governance mindset and dereliction of duty. It is particularly important for grassroots party members and cadres in townships to fully implement the Party and government's policies and push forward the "last mile" of reform. Those who still rely on drinking and setting up a "Dragon Gate Formation" should wake up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>本文为车早茶原创文章，作者王小夕，转载请注明出处及作者父母常说，我吃过的盐比你走过的路还多，我说的都是对的，你要听。老司机说，我开过各种路况，你这小罗罗要听我的经验。但是，茶哥相信，老司机们看到这些路，没有人再敢称自己为老司机。喀喇昆仑公路地点：中国新疆喀什——巴基斯坦塔科特 这是茶哥的老家，大家都知道新疆有很多无人区，当然也有很要险要的山路，北起中国新疆喀什，穿越喀喇昆仑山脉、兴都库什山脉、帕米尔高原、喜马拉雅山脉西端，经过中巴边境口岸红其拉甫山口，南到巴基斯坦北部城市塔科特，公路全长1032公里，其中中国境内416公里，巴基斯坦境内616公里。太克公路地点：中国太原 这个魔鬼“U”字弯：这条公路有一个又急又陡的“U”字弯。这个弯道属于陡坡急弯，弯道径小而纵坡度大，而且一般的弯道应该是外高里低，此处却正好相反是里高外低，所以车辆行经此处时往往离心力大于向心力，容易造成侧翻。另外，这里是从太原到古交的最后一个弯道，经过前面的一段下山路后，司机的精神容易疲惫，注意力分散。更要命的是，一些车辆的制动装置在到达此处时已经被前段的下坡路摩擦得很烫了，车辆制动性正在减弱，不熟悉路况的司机，突然发现这个超乎想象的大弯，再紧急踩刹车，容易出现刹车失灵，只能猛打方向。但这样一来，方向如果打死，车辆在巨大的惯性作用下很容易翻倒；如果方向打不死，就可能冲下山坡，车毁人亡。京珠高速公路粤境北段路线地点：广州到长沙 京珠高速公路粤境北段路线：被称为“货车杀手”。自2003年4月建成通车后，广州至湖南长沙仅需7个多小时，大大方便了华南交通。但由于大量货车严重超载、驾驶员安全意识淡薄、路段坡陡坡长等原因导致交通事故频繁。除此之外如果你要去国外自驾冒险，这几条路最好避过去。死亡之路地点：玻利维亚 玻利维亚首都拉巴斯有一条Yungas公路，它从海拔330米的雨林地带直通海拔3600米的高原，被称为“死亡之路”。 之所以有这么个称号是因为全长只有60多公里的路段每年都会有200至300人死于交通事故，是世界公认的第一险路。 道尔顿高速地点：阿拉斯加 道尔顿高速是一条667公里长的高速，路面没有铺柏油，在寒冬时节的路况很差。虽然这条路会经过一些聚居区和卡车服务站，但是数量极少。在高速上，司机要经历冰冷刺骨的天气、砂砾路、雪崩以及漫天飞舞的暴风雪的折磨，同时还要忍受没有手机信号的寂寞。</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>This article is an original work by Chezaotea, written by the author Wang Xiaoxi. Please indicate the source and author when reprinting. Parents often say, "I have eaten more salt than you have walked on roads, what I say is right, you should listen." Veteran drivers say, "I have driven through various road conditions, you little rookies should listen to my experience." However, Chezaotea believes that when veteran drivers see these roads, no one dares to call themselves a veteran driver anymore. Karakoram Highway Location: Kashgar, Xinjiang, China - Tashkurgan, Pakistan. This is Chezaotea's hometown. Everyone knows that Xinjiang has many uninhabited areas, of course, there are also very dangerous mountain roads. Starting from Kashgar in Xinjiang, China, crossing the Karakoram Mountains, the Kunlun Mountains, the Pamir Plateau, the western end of the Himalayas, passing through the China-Pakistan border port of Khunjerab Pass, and reaching the northern Pakistani city of Tashkurgan, the total length of the highway is 1032 kilometers, with 416 kilometers in China and 616 kilometers in Pakistan. Taiyuan Highway Location: Taiyuan, China. The Devil's "U" Bend: This road has a sharp and steep "U" bend. This bend is steep and sharp, with a small radius and a large longitudinal slope. Normally, bends should be higher on the outside and lower on the inside, but here it is the opposite, higher on the inside and lower on the outside. Therefore, when vehicles pass through this section, the centrifugal force is often greater than the centripetal force, which can easily cause rollovers. Moreover, this is the last bend from Taiyuan to Gujiao. After a downhill section, the driver's spirit is easily fatigued and attention is distracted. What's more dangerous is that some vehicles' braking systems have been heated by the previous downhill road when they reach this point, causing a decrease in braking performance. Unfamiliar drivers, suddenly encountering this unimaginably large bend, may experience brake failure when trying to brake urgently, and can only sharply turn the steering wheel. However, if the steering is too sharp, the vehicle is very likely to overturn due to the huge inertia; if the steering is not sharp enough, it may rush down the hillside, resulting in the destruction of the vehicle and casualties. Beijing-Zhuhai Expressway Guangzhou to Changsha Section Location: Guangzhou to Changsha. The Guangzhou to Changsha section of the Beijing-Zhuhai Expressway is known as the "truck killer". Since its completion and opening to traffic in April 2003, it only takes a little over 7 hours to travel from Guangzhou to Changsha in Hunan, greatly facilitating transportation in South China. However, due to severe overloading of a large number of trucks, drivers' weak safety awareness, steep and long slopes on the road, frequent traffic accidents occur. In addition, if you plan to drive abroad for an adventure, it is best to avoid these roads. Death Road Location: Bolivia. In the Bolivian capital La Paz, there is a Yungas Road that leads from the rainforest zone at an altitude of 330 meters to the plateau at an altitude of 3600 meters, known as the "Death Road". It is so named because every year, 200 to 300 people die in traffic accidents on this road segment, making it the world's recognized most dangerous road. Dalton Highway Location: Alaska. The Dalton Highway is a 667-kilometer-long highway with no asphalt surface, making it very poor in road conditions during the harsh winter season. Although this road passes through some settlements and truck service stations, they are very few in number. On this highway, drivers have to endure bone-chilling weather, gravel roads, avalanches, and blizzards, while also enduring the loneliness of having no mobile phone signal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jiǎn减少叫“减”，古文又写作“氵咸”。左边是水，右边是“咸”，咸是全部、灭绝的意思，合起来就是减少。《说文》：“减，损也。”《礼记》：“礼主其减，乐主其盈”，意思是礼仪让人收敛暴躁傲慢，音乐使人增益美好心灵。引申出衰退（如清减）、不足、降低、节约等。北京市国土资源局昨日公布今年供地计划，其中商品房用地缩减四分之一。之前国土部和住建部合发《关于优化2015年住房及用地供应结构促进房地产市场平稳健康发展的通知》，随后而来的是住房贷款优惠政策，被认为是空前的救市之举，但事实上只是房产新政减库存、限供给的一部分。如今北京商品房供地计划的出台，也是对之前误读的纠正。房地产市场一直都是不完全的市场，过去的十多年中，房地产市场不断增大，带来了庞大的政府收入和GDP的增长，但也使得泡沫放大，普通人的收入离房价越来越远。正如有学者所言，房地产的救市，最终总是在“损不足而奉有余”，而不是真正制造一个公平的市场环境。在人治时代，权力是百姓的敌人，所以古来用政，只在一个“减”字，减少索取，减少争利，减少干预，社会自然繁荣。每每社会发展，都是因为政府在“减”，每每动荡，都是因为“增”得太多。所以老子说，“我无事，而民自富；我无欲，而民自朴”。虽然是消极的思想，但背后却是对于公权力无法约束的无奈。世界上最早实行开放式办公的阮籍，一生不爱做官，唯一做过的地方行政官员就是东平相，做了十多天，唯一做的事情就是“坏府舍屏鄣，使内外相望”，结果是法令精简，办公效率提升。私密减少，公平就增多；索取减少，百姓财富就增多；权力减少，权利就增多。法治社会，并不需要政府无为，但依法治国，本身就意味着减少乃至消灭法外的特权。在今天，另外一个“减”字，正在成为无数生活在大都市中的人们最关心的事情，不是减肥，而是减排。昨日，北京市发改委宣传节能环保理念的“大篷车”正式开始巡游京城。同日，北京市环保局就机动车污染召开座谈会，会上透露，北京将在明年实施国六排放标准，将会收紧污染物排放指标，超标汽油车将禁止进入六环。“减排”的关键本来不在理念。超标汽油车、超标汽油为什么能够进入市场？《环保法》为什么空悬？不解决根本问题，不能依法治理，多少宣传和措施恐怕也只是一场没有结果的作秀。</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>"Jiǎn" means "reduce," and in ancient texts it is also written as "氵咸." On the left is water, and on the right is "咸," which means complete or extinct, so together it means to reduce. In the "Shuōwén Jiězì," it says, "减,损也." In the "Lǐjì," it says, "礼主其减，乐主其盈," meaning that rituals help people restrain their arrogance and music helps enrich their souls. It extends to meanings such as decline (as in 清减), insufficiency, reduction, and conservation. Yesterday, the Beijing Municipal Bureau of Land and Resources announced this year's land supply plan, in which residential land was reduced by a quarter. Previously, the Ministry of Land and Resources and the Ministry of Housing and Urban-Rural Development jointly issued the "Notice on Optimizing the Structure of Housing and Land Supply in 2015 to Promote the Stable and Healthy Development of the Real Estate Market." This was followed by preferential housing loan policies, which were considered an unprecedented measure to boost the market. However, in reality, it was just a part of the new real estate policies to reduce inventory and restrict supply. The introduction of the Beijing residential land supply plan today is also a correction to the previous misinterpretation. The real estate market has always been an imperfect market. Over the past decade, the real estate market has continued to expand, bringing in substantial government revenue and GDP growth, but it has also inflated bubbles, making it increasingly difficult for ordinary people to afford housing. As some scholars have said, the rescue of the real estate market always ends up in "reducing insufficiency and having excess," rather than truly creating a fair market environment. In an era of human governance, power is the enemy of the people. Therefore, in ancient times, governance was based on the principle of "reducing" - reducing demands, reducing profit-seeking, reducing intervention - leading to natural social prosperity. Every time society develops, it is because the government is "reducing," and every time there is turmoil, it is because there is too much "increase." Therefore, as Laozi said, "I do nothing, and the people enrich themselves; I have no desires, and the people become simple." Although it is a passive thought, behind it lies a sense of helplessness towards the unrestrained public power. Ruan Ji, who was the earliest practitioner of open-plan offices in the world, never liked being an official. The only administrative position he held was as the magistrate of Dongping, where he only made one change in his ten-day tenure, which was to "demolish the screens in the government office to allow the inside and outside to see each other." The result was simplified regulations and improved office efficiency. With reduced privacy, fairness increases; with reduced demands, people's wealth increases; with reduced power, rights increase. A rule of law society does not require the government to be inactive, but governing by law itself means reducing or even eliminating extralegal privileges. Today, another "reducing" word is becoming the most concerning issue for many people living in metropolitan areas, not weight loss, but emissions reduction. Yesterday, the Beijing Municipal Development and Reform Commission officially started the "Big Tent Car" tour to promote energy conservation and environmental protection concepts in the capital. On the same day, the Beijing Municipal Environmental Protection Bureau held a symposium on vehicle pollution, revealing that Beijing will implement the National VI emission standards next year, tightening pollutant emission standards, and banning gasoline vehicles that exceed the standards from entering the Sixth Ring Road. The key to "reducing emissions" lies not in concepts. Why can vehicles and gasoline that exceed standards enter the market? Why is the "Environmental Protection Law" left hanging? Without solving the fundamental problems and governing by law, all the propaganda and measures may just be a show without results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “在雾霾的侵袭下，学校的操场也能变成一个独善其身的小小世外桃源”，一个原理简单、节能环保的“除霾机器人”在今天上午举办的第35届北京青少年科技创新大赛公开展示活动上分外引人注目。记者了解到，经过区县评选、市级初评，共有197个北京项目和34个境外项目参加了本次展示。北京市铁路第二中学王宇迪的展位格外惹眼：绿地、高楼、红跑道，这模型活似一个逼真的学校操场。只是，“操场”旁边源源不断排放出的白色烟雾，让学校里显得有点“云山雾罩”。“您别奇怪，看操场左侧确实烟雾弥漫，但右边是不是空气清新啊？”经王宇迪的“指点”，大家注意到了模型内的变化。原来，他设计的是一个“除霾机器人”，通过放置在学校楼顶的风机将不洁净的空气引入密闭的水喷淋空间，经过水分离获得洁净的空气，通过屋檐下的风道吹向操场。“吹来的空气在操场形成正压清洁空气环境，驱散不干净的空气。同时，湿润空气吸热降低操场温度，造成逆温层倒置，使质量较轻、温度较高的‘雾霾’不易入侵操场。”王宇迪介绍，这个小设计最大的特点就是节能，“我在屋顶还设置了雨滴、风速和雾霾监测设备，下雨、刮风的环境，空气质量较好，机器人就可以休息了。到了雾霾环境再作业，设备还可检测不洁空气被清理的进度。”利用简单的空气流动原理就打造了一个空气清新的校园环境。会场里，一个不断“行进”的大船模型也颇受欢迎，被学生、老师们团团围住。西城区外国语学校高二的刘子巍告诉记者，这是他与“队友”王静文共同设计的“双体式太阳能水面清污船”。清污船的主体是一艘“双体船”，双体船经过的水面变窄、压强变小，这样周围水面的垃圾就会“自动”涌向清污船。这时候，船头设置的两把水面清扫刷就派上了用场，“这里我们借鉴了街头清污车的设计，刷头转动不停把四周的垃圾聚拢进来。”转动刷头是由什么动力控制的呢？原来船上安装着太阳能板和铅酸电池，供给刷头转动。聚拢至船体的垃圾进入船后部的垃圾打捞网，这时候一艘运转船启动了功能，行至船尾与垃圾打捞网实现对接。“主船体闸门打开、放下‘固定钩’，钩住运转船实现固定、对接。”对接后，打捞网将垃圾倒入运转船。装满垃圾的小船就可以离开主船，将垃圾转送到河岸。“运转船运转垃圾完全不影响继续清理水面，主船可以24小时作业，实现连续清理的目的。”王静文告诉记者，“目前这一系列的控制程序还有一部分不够完善，需要遥控器控制。通过改善，不久就会实现全单片机控制啦。</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>"Under the invasion of haze, the school playground can also turn into a self-contained little paradise," a simple and energy-saving "anti-haze robot" attracted special attention at the 35th Beijing Youth Science and Technology Innovation Competition held this morning. It was learned that after district and county selections, as well as municipal preliminary evaluations, a total of 197 Beijing projects and 34 overseas projects participated in this exhibition. The booth of Wang Yudi from Beijing Railway Second Middle School was particularly eye-catching: green space, tall buildings, red running track, this model looked like a realistic school playground. However, the continuous emission of white smoke next to the "playground" made the school appear a bit shrouded in mist. "Don't be surprised, look, the left side of the playground is indeed filled with smoke, but isn't the air fresh on the right?" With Wang Yudi's guidance, everyone noticed the changes inside the model. It turned out that he designed an "anti-haze robot," which, by placing a fan on the school roof, draws unclean air into a closed water spray space, separates the water to obtain clean air, and blows it towards the playground through the wind duct under the eaves. "The blown air creates a positive pressure clean air environment on the playground, dispersing the unclean air. At the same time, the moist air absorbs heat to lower the playground temperature, causing the inversion of the temperature layer, making it difficult for the lighter and warmer 'haze' to invade the playground." Wang Yudi explained that the biggest feature of this small design is energy-saving. "I also installed rain, wind speed, and haze monitoring devices on the roof. In rainy or windy conditions with better air quality, the robot can rest. It will only operate in haze conditions, and the equipment can also detect the progress of cleaning unclean air." By utilizing the simple principle of air flow, a fresh air campus environment was created. At the venue, a continuously moving large ship model also attracted a lot of attention, surrounded by students and teachers. Liu Ziwei, a senior student from Xicheng Foreign Language School, told reporters that this was the "twin-hull solar-powered water surface pollution cleaning ship" designed jointly with his "teammate" Wang Jingwen. The main body of the pollution cleaning ship is a "twin-hull ship." As the twin-hull ship passes, the water surface becomes narrower and the pressure decreases, causing the surrounding garbage to "automatically" flow towards the pollution cleaning ship. At this point, the two water surface cleaning brushes at the bow of the ship come into play. "Here, we drew inspiration from the design of street cleaning vehicles. The rotating brushes continuously gather the garbage around." What powers the rotating brushes? It turns out that the ship is equipped with solar panels and lead-acid batteries to supply power for the brush rotation. The garbage gathered to the ship's rear enters the garbage salvage net, at which point a functioning salvage ship starts operating and docks with the garbage salvage net at the stern. "The main ship's gate opens, the 'fixed hook' is lowered, hooking onto the salvage ship for fixing and docking." After docking, the salvage net pours the garbage into the salvage ship. Once the small ship is filled with garbage, it can leave the main ship and transfer the garbage to the riverbank. "The operation of the salvage ship does not affect the continuous cleaning of the water surface. The main ship can operate 24 hours a day to achieve continuous cleaning." Wang Jingwen told reporters, "Currently, some parts of this series of control procedures are not perfect and require remote control. Through improvement, soon it will be fully controlled by a single chip."</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>北京时间（10.21钱鑫学/撰）首先是美国总统大选第三次辩论，其次是美盘时段的欧洲央行行长德拉基讲话，另外还有美国当周初请失业金数据。因而市场整体波动较大；黄金白银受此影响不大，虽一度短暂冲高受阻回落，但整体依然在区间内震荡；原油方面，美元走强拖累油价，此外在连续大涨之后投资者对油价多头回补也施压油价，油价隔日单边下跌，周三涨幅全部获利回吐，油价再次退守50关口下方。【现货黄金技术分析】现货黄金技术面上，昨日金价在前期高点处受阻下挫，日K线收取阴线；日线上看，K线运行于布林带中规与下轨之间，布林带开口向下运行，短周期MA5.MA10交金叉运行于1260处形成支撑位，附图MACD指标0轴下方金叉放量。指标中性偏强；四小时图来看，黄金在1274附近遇到阻力，上行动力有所停滞。目前价格背靠5日均线，MACD指标形成死叉向下拐头，后期多头走势不乐观。重点关注1274附近阻力是否能有效突破。 10月21日-现货黄金日内操作建议：1、激进者，1271做空，1275止损，目标看1263、1250附近。2、稳健者，离场观望或咨询钱鑫学分析师。</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Beijing time (written by Qian Xin on 10.21) first is the third debate of the US presidential election, followed by a speech by European Central Bank President Draghi during the US trading session, and also the initial jobless claims data in the US for the week. As a result, the market experienced significant overall volatility; gold and silver were not greatly affected by this, although they briefly surged but were blocked and fell back, still oscillating within a range overall; as for crude oil, the strengthening US dollar dragged down oil prices, and after consecutive sharp rises, investors' long positions in oil prices also pressured them, leading to a unilateral drop in oil prices the next day, with all gains from Wednesday being given back, and oil prices once again falling below the $50 mark. 
+[Technical Analysis of Spot Gold] From a technical perspective, spot gold prices were blocked and fell at the previous high point yesterday, forming a bearish candlestick on the daily chart; looking at the daily chart, the candlesticks are running between the middle and lower bands of the Bollinger Bands, with the Bollinger Bands opening downwards, the short-term MA5 and MA10 forming a golden cross at 1260 to provide support, and the MACD indicator below the zero axis showing a bullish cross with increasing volume. The indicators are neutral to slightly bullish; on the four-hour chart, gold encountered resistance near 1274, and the upward momentum stalled. Currently, the price is supported by the 5-day moving average, the MACD indicator has formed a bearish cross and turned downwards, indicating a pessimistic outlook for the bullish trend in the future. Pay close attention to whether the resistance near 1274 can be effectively broken. 
+October 21 - Spot Gold Intraday Trading Recommendations: 1. For aggressive traders, short at 1271, stop loss at 1275, target around 1263 and 1250. 2. For conservative traders, stay out and observe or consult analyst Qian Xin for advice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2015年3月21日下午，东风悦达起亚全新SUV车型KX3傲跑南昌国力起亚弘达店和弘帆店联合正式上市，东风悦达起亚销售运营分部经理蔡善广、国力集团领导及省内各主流媒体参加了上市发布会新车。KX3推出1.6L、1.6T和2.0L三个排量，售价区间为11.28万元-18.68万元。除了7款单色外观，KX3本次还特别推出青花瓷、丹墨色2款独有的双色外观，新车配置丰富，同时KX3还搭载了四驱系统，以青春的明媚多彩与都市的精致炫目，为追求个性、品味时尚的都市魅力人群带来无与伦比的妙趣驾乘体验。 图 图 本次KX3南昌上市会在南昌国力店完美落幕，同时也是南昌国力弘达店三周年店庆，感谢新老客户们对东风悦达起亚品牌的支持和厚爱，东风悦达起亚南昌国力店将会继续以一流的品质来服务大众，以最好的状态来回报大家的关爱。</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>On the afternoon of March 21, 2015, the all-new SUV model KX3 of Dongfeng Yueda Kia was officially launched at the Nanchang Guoli Kia Hongda and Hongfan stores. Cai Shanguang, Sales and Operations Manager of Dongfeng Yueda Kia Sales and Operations Division, leaders of Guoli Group, and mainstream media from the province attended the launch event of the new car. The KX3 is available in three displacements: 1.6L, 1.6T, and 2.0L, with prices ranging from 112,800 yuan to 186,800 yuan. In addition to 7 single-color exteriors, the KX3 also introduced two unique dual-color exteriors, Qinghuaci and Danmo, this time. The new car is well-equipped, and the KX3 is also equipped with a four-wheel drive system. With its youthful and colorful charm and exquisite urban brilliance, it brings an unparalleled and delightful driving experience to urban charm seekers who pursue individuality and fashion taste. The KX3 Nanchang launch event concluded perfectly at the Nanchang Guoli store, which also marked the third anniversary celebration of the Nanchang Guoli Hongda store. We thank new and old customers for their support and love for the Dongfeng Yueda Kia brand. The Dongfeng Yueda Kia Nanchang Guoli store will continue to serve the public with first-class quality and repay everyone's love in the best possible way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 本文由ARinChina（www.arinchina.com）原创，转载请联系ARinChina（微信ID：arinchinaservice）。三星推出了兼容GearVR的VR浏览器，Mozilla 和 Google Chrome 合作开发了 WebVR API，微软也宣布 Edge 浏览器明年将支持 WebVR。国外的 VR 浏览器搞得风生水起，国内也有人不甘落后。号称“国内首款 VR 浏览器”——百度 VR 浏览器于 9 月 15 日低调上线。它到底是开山鼻祖还是跟风噱头？和我们一起一探究竟——打开百度 VR 浏览器，校准完毕眼镜类型和陀螺仪，将手机横屏即可进入 VR 模式，之后所有的操作均通过视点移动进行。 百度 VR 浏览器的虚拟环境就如它自己宣传的那样，“简洁明了的暗色系风格”以及“太空主题环境”，为的是能带给用户更沉浸的体验。不过对一款 VR 浏览器来说，最重要的当然不是设计风格，而是内容和用户体验。内容：板块很多，鸡肋不少百度 VR 浏览器分为“主页”、“影视”、“应用”和“我的”四个板块。 “影视”板块有 VR 全景模式和 3D 模式可选，能看电影和全景视频，资源还是很丰富的； “应用”板块里共有 90 款 VR 应用，VR 游戏占大多数； “我的”板块里能查看本地视频和离线缓存（百度 VR 浏览器提供视频离线缓存功能），以及校准 VR 眼镜型号、陀螺仪和设置手机屏幕大小。 不过，这三个板块功能几乎所有 VR 视频应用都具备，并无新意。这款 VR 浏览器之所以能被称为“浏览器”，主要取决于“主页”板块中的“VR 热站”功能。创新与鸡肋兼具的“VR 热站”“VR 热站”里包括视频网站、图片网站和资讯网站。 视频网站包括腾讯、优酷、B 站、搜狐以及乐视，点进去可在 VR 环境下访问该网站的视频资源；图片网站也同理，不过“百度百科数字博物馆”点开是一栋古建筑的室内全景图，眼前只有 Home 键和一个没有交互功能的黄色箭头，除了看看四周什么也做不了。 而资讯网站就有些鸡肋了。</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>This article is original from ARinChina (www.arinchina.com). For reprinting, please contact ARinChina (WeChat ID: arinchinaservice). Samsung has launched a VR browser compatible with GearVR, Mozilla and Google Chrome have collaborated to develop the WebVR API, and Microsoft has also announced that Edge browser will support WebVR next year. VR browsers abroad are thriving, and some people in China are unwilling to fall behind. Claimed as the "first VR browser in China," Baidu VR browser quietly went online on September 15. Is it truly a pioneer or just a follow-up gimmick? Let's explore together - open the Baidu VR browser, calibrate the glasses type and gyroscope, and switch the phone to landscape mode to enter VR mode. All operations thereafter are done through moving the viewpoint. The virtual environment of Baidu VR browser is just as it claims, with a "clear and concise dark color scheme" and a "space-themed environment," aiming to provide users with a more immersive experience. However, for a VR browser, the most important aspect is not the design style, but the content and user experience. Content: many sections, but some are lackluster. Baidu VR browser is divided into four sections: "Home," "Movies &amp; TV," "Apps," and "Mine." The "Movies &amp; TV" section offers VR panoramic mode and 3D mode for watching movies and panoramic videos, with a rich variety of resources. The "Apps" section includes 90 VR applications, with VR games being the majority. In the "Mine" section, users can view local videos and offline caches (Baidu VR browser provides video offline caching function), calibrate VR glasses type, gyroscope, and adjust phone screen size. However, these three sections' functions are present in almost all VR video applications, lacking novelty. The reason why this VR browser can be called a "browser" mainly depends on the "VR Hot Sites" feature in the "Home" section. The innovative yet lackluster "VR Hot Sites" include video websites, image websites, and news websites. Video websites include Tencent, Youku, Bilibili, Sohu, and LeTV, where users can access the website's video resources in a VR environment; the same applies to image websites. However, when clicking on "Baidu Baike Digital Museum," it shows an indoor panoramic view of an ancient building with only a Home button and a non-interactive yellow arrow, offering limited functionality. The news websites are somewhat lackluster.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>多小伙伴不敢在微信或者淘宝上买翡翠之类的东西，是因为担心图片和实物差距太大，确实很多不良商家会将翡翠的照片P的过仙，实物拿到手后发现比图片打了几个折扣，引起一些不必要的损失和纠纷，但是同时也有不少商家踏踏实实真真正正在诚实地卖货，市场良莠不齐，如何透过图片，照出翡翠的本来面目？让照妖镜来帮大家。小编祭出的这两招，第一招是辨别色的，第二招是辨别种的。浏览完这两段话只需要几分钟，但是可能会让你少交很多学费，省下的也许是几千几万甚至几十万几百万，小编整理很用心，也希望小伙伴们耐心看完。照妖镜第一招：看照片中放翡翠的手的颜色。翡翠很看中色，所以通常做仙图的商家，会将自家的翡翠p得更绿一点，最简单的处理方式就是调色，不过这种简单调色有个明显的漏洞，就是图片里其他物体的颜色也会发生变化，最容易分辨的就是托翡翠的手会变红。所以一般内行网上买翡翠会要求商家提供，自然光下上手照片。 上图是卖家照片，下图是实物照片 对比第一个图的光斑，明显图片在同一位置下被调色，而2个图片红圈部位附近的绿色明显不同，显然是用图片软件修改过的。照妖镜第二招：看透光照。在鉴别翡翠质地中，透光照非常非常非常重要，但透光照也有讲究。真正的透光照，是将翡翠迎着阳光拍照，从下往上拍。翡翠中若有棉、线、纹、裂等任何问题，在阳光下都无所遁形，正常佩戴时看不出来的问题，在透光照中都一览无遗，透光照是翡翠定价的很重要的参考因素。但有些翡翠商持有的翡翠问题颇多，又想定个高价，势必要想办法隐藏翡翠的问题，这时透光照就成了他们的心头恨，那怎么办呢？有的人不放透光照，有的人放伪装成透光照的照片。 有些翡翠透光照的背景是地面、墙面下部等，这就是伪透光照，或者叫遮光照，这种往往是从上往下俯拍的，这样不但能躲避了阳光，遮掩住自己不想让客户看到的瑕疵，而且神奇的是，常常这种照片比上手照显得翡翠更无暇，更能遮蔽翡翠的问题。</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Many friends are afraid to buy jade and similar items on WeChat or Taobao because they worry about a big gap between the pictures and the actual items. Indeed, many unscrupulous merchants will overly enhance the photos of jade, and when the actual item is received, it is found to be quite different from the picture, causing unnecessary losses and disputes. However, at the same time, there are also many merchants who are honestly selling their products. The market is mixed with good and bad. How can we see through the pictures and reveal the true face of the jade? Let the "Jade-Exposing Mirror" help everyone. The two tricks introduced by the editor are: the first trick is to identify the color, and the second trick is to identify the type. It may only take a few minutes to read these two paragraphs, but it may save you a lot of tuition fees, possibly saving you thousands, tens of thousands, or even millions. The editor has put a lot of effort into organizing this, and hopes that friends will patiently read through it. The "Jade-Exposing Mirror" first trick: Look at the color of the hand holding the jade in the photo. Jade values color greatly, so merchants who enhance their jade in pictures usually make their jade greener. The simplest way to do this is by adjusting the color. However, this simple color adjustment has a clear loophole, which is that the colors of other objects in the picture will also change. The easiest way to distinguish is that the hand holding the jade will turn red. Therefore, experienced buyers purchasing jade online will request the merchant to provide photos taken under natural light. The upper image is the seller's photo, and the lower image is the actual item photo. By comparing the highlights in the first image, it is obvious that the color has been adjusted in the same position, and the green near the circled areas in the two images is significantly different, indicating that the images have been modified using photo editing software. The "Jade-Exposing Mirror" second trick: Look at the transparency. In identifying the texture of jade, transparency is extremely important, but there are also nuances to transparency. Genuine transparency involves taking photos of jade facing the sunlight, from bottom to top. Any issues such as cotton, lines, patterns, or cracks in the jade will be revealed under sunlight, which are not visible during normal wear but are clearly visible in transparent photos. Transparency is a very important factor in pricing jade. However, some jade merchants have many issues with their jade and still want to set a high price. They inevitably try to hide the problems of the jade, making transparency a thorn in their side. What to do then? Some people do not provide transparent photos, while others provide photos disguised as transparent. Some jade photos with transparency have backgrounds such as the ground or the lower part of a wall, which is fake transparency, or shadowed transparency. These photos are often taken from above, avoiding sunlight and concealing flaws that they do not want customers to see. Surprisingly, these photos often make the jade look flawless and better at hiding the jade's issues compared to photos taken under natural light.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 看看徒弟们这些年的手艺长进如何？著名湘菜大师许菊云今日在常德柳叶宴至尊酒店召集自己的一班徒弟徒孙，进行了一场别开生面的技艺交流。这种不打分、不评奖、不授牌，纯粹以师门相邀请的大型湘菜技术交流活动，在省内首开先河，必将在一个特定的区域内掀起一场技术练兵和技术竞赛，对整个行业也无疑具有表率作用。 餐饮烹调师一个手工制作的群体，从古至今都是师傅口传授艺，所以自然而然形成了“师门”。近年来这种“师门”活动有所强化，有历史的原因，也有社会原因和认为因素。正确引导这种“师门”活动，加强横向技术交流，包括同师门中的技术交流，是适应开放型经济社会的必然走势，也是自发的、资源的民间切磋技术、培养专业技术人才的渠道，得到一些颇有名望的厨师们的鼎力支持。许菊云说，“许门”的这次活动只是个开篇，继常德之后，益阳、张家界、深圳等地的“许门弟子”，马上就提出了申请，想成为第二届、第三届的举办地。今后，许菊云计划让这种交流活动常态化。 许菊云从业半个多世纪了，这次到常德参加技术交流活动的近百名厨师，是全国260多名徒弟中的一部分优秀代表，而且既有第二代的代表，还有第三、四代的代表，从而形成了一波连一波的技术链。这些优秀厨师中，有不少是湘菜大师，还有的是省内外知名的餐饮行业的企业家。比如承办这次活动的常德柳叶集团餐饮管理有限公司董事长林友清，旗下企业已遍及北京、福建等地，信誉卓著，实力雄厚，多年以来都是常德市餐饮行业的领跑者。 既然是师门内的技术交流，大家都放开手脚，拿出了自己的看家本领发挥出自己的最好水平。例如徒弟简忠姚做的拆骨肉煨鹿茸菇；蔡智敏做的回味谷鸡；欧阳海林做的祖安红煨整鲍；徒孙毛奇做的养生红薯丸；外孙秦隆做的西红柿虾仁等等，有传统菜也有创新菜，都十分接地气，有非常好的市场潜力。 本次活动菜式标准菜谱将在湘菜杂志独家发布，欢迎订阅！这次活动，许菊云还从天津请来了津菜大师赵嘉祥，从沈阳请来了东北菜大师刘敬贤，从大连请来了海参大师載书经，从武汉请来了鄂菜大师卢永良，从杭州请来了浙菜大师王仁孝，从江西请来了赣菜大师黄正晖，许菊云请这些大师们对他徒弟们的菜作点评，并想藉此推动整个湘菜事业的发展。 湖南省餐饮行业协会会长周新潮、副会长刘国初、秘书长王桃珍、《湘菜》杂志荣誉主编丁柳生、主编刘科出席了本次交流会。</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Let's see how the craftsmanship of the apprentices has progressed over the years? Today, the renowned Hunan cuisine master Xu Juyun gathered a group of his apprentices and grand-apprentices at the prestigious Liuye Banquet Hotel in Changde, Hunan, for a unique skills exchange. This large-scale Hunan cuisine technical exchange event, which does not involve scoring, awards, or certifications, purely based on invitations within the master's lineage, is pioneering in the province and undoubtedly will spark a wave of technical training and competition within a specific area, setting an example for the entire industry. The culinary profession is a group of artisans who have traditionally passed down their skills orally, forming naturally what is known as the "master's lineage." In recent years, these "master's lineage" activities have been strengthened due to historical and social reasons, as well as recognition factors. Properly guiding these "master's lineage" activities, enhancing horizontal technical exchanges, including exchanges within the same master's lineage, is an inevitable trend in adapting to an open economic society. It is also a spontaneous and resourceful channel for grassroots technical exchanges, nurturing professional talents, and has received strong support from some renowned chefs. Xu Juyun said, "This event by the Xu lineage is just the beginning." Following Changde, disciples of the Xu lineage from Yiyang, Zhangjiajie, Shenzhen, and other places have immediately applied to host the second and third editions. In the future, Xu Juyun plans to institutionalize these exchange activities. Xu Juyun, who has been in the industry for over half a century, was joined by nearly a hundred chefs at the technical exchange event in Changde, representing some of the outstanding disciples among the 260 apprentices nationwide. These chefs include representatives from the second generation, as well as the third and fourth generations, forming a wave after wave of technical lineage. Among these outstanding chefs, many are Hunan cuisine masters, while others are well-known entrepreneurs in the catering industry both inside and outside the province. For example, Lin Youqing, the chairman of the Changde Liuye Group Catering Management Co., which hosted this event, has businesses spread across Beijing, Fujian, and other places, with a strong reputation and solid strength, leading the catering industry in Changde for many years. Since this is a technical exchange within the master's lineage, everyone has shown their best skills. For example, apprentice Jian Zhongyao made a dish of deer meat stewed with velvet shank mushrooms; Cai Zhimin made a dish of Guji chicken; Ouyang Hailin made a dish of red-braised abalone from Zuan; grand-apprentice Mao Qi made a dish of health-preserving sweet potato balls; and great-grandson Qin Long made a dish of tomato with shrimp, and so on. There are traditional dishes as well as innovative dishes, all very down-to-earth and with great market potential. The standard recipes from this event will be exclusively published in the Hunan Cuisine magazine, so stay tuned! For this event, Xu Juyun also invited Tianjin cuisine master Zhao Jiaxiang, Northeast cuisine master Liu Jingxian from Shenyang, sea cucumber master Zai Shujing from Dalian, Hubei cuisine master Lu Yongliang from Wuhan, Zhejiang cuisine master Wang Renxiao from Hangzhou, and Gan cuisine master Huang Zhenghui from Jiangxi to provide feedback on the dishes prepared by his apprentices, aiming to drive the development of the entire Hunan cuisine industry. Zhou Xinchao, President of the Hunan Catering Industry Association, Vice President Liu Guochu, Secretary-General Wang Taozhen, Honorary Editor-in-Chief of "Hunan Cuisine" magazine Ding Liusheng, and Editor Liu Ke attended the exchange meeting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>《再见瓦城》曝光新剧照腾讯娱乐讯据台湾媒体报道，由赵德胤执导、柯震东与吴可熙主演的《再见瓦城》入围今年威尼斯影展的“威尼斯日”国际竞赛单元。据悉，三位主创将在8月底抵达意大利威尼斯，并将携手亮相红地毯。导演赵德胤在得知这个喜讯后表示很开心，女主吴可熙称去威尼斯最想看心目中的男神瑞恩?高斯林，而柯震东表示“期待参加威尼斯影展，希望一切顺利平安。《再见瓦城》两位主演柯震东、吴可熙与此同时，影片还曝光了全新剧照，地点似乎在曼谷城市的街道上。只见柯震东全身湿透地骑着机车、表情很酷，后座的吴可熙坐在后座双手环抱着他，头则靠在柯震东肩膀上，做痛哭状，不知两人究竟发生了什么样的事情。影片确定将在威尼斯影展首映，之后会在台湾地区上映，具体上映日期未定。《再见瓦城》预告海报《再见瓦城》是柯震东的复出首作，柯震东在影片中饰演从缅甸偷渡至泰国的劳工，与女主角吴可熙上演一出异国爱情戏。为拍摄这部新片，柯震东去年五月就与赵德胤到缅甸生活两个月，学习云南方言，接着到泰国生活两个月，实习片中角色的工作，该片2015年9月初开始于泰国曼谷、清迈等地拍摄，拍摄时间约两个月，柯震东从受训到拍片，经纪人皆未跟随，所有生活都由他自理，据悉，他嘴上会开玩笑喊好累，但相当认真工作，也是剧组的开心果，《再见瓦城》制片黄茂昌称赞他敬业、聪明，“他到每个地方都适应得很好，每天都很开心。”腾讯新闻手机客户端新增电影频道，汇聚全球电影资讯、好片推荐，更有全国通兑电影票，好莱坞原版电影周边送不停！</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>"Goodbye, Va City" exposes new stills. According to Taiwan media reports, directed by Zhao Deyin, starring Ko Chen-tung and Wu Kexi, "Goodbye, Va City" has been nominated for the "Venice Day" international competition unit at this year's Venice Film Festival. It is reported that the three main creators will arrive in Venice, Italy at the end of August and will walk the red carpet together. Director Zhao Deyin expressed his happiness upon hearing the good news, female lead Wu Kexi said she most wants to see her idol Ryan Gosling in Venice, and Ko Chen-tung said, "Looking forward to participating in the Venice Film Festival, hoping everything goes smoothly and safely." Meanwhile, the film "Goodbye, Va City" has also exposed new stills, seemingly set on the streets of Bangkok. Ko Chen-tung is seen riding a motorcycle, drenched, with a cool expression, while Wu Kexi sits on the back seat, hugging him with her hands and leaning her head on Ko Chen-tung's shoulder, looking like she is crying in pain. It is unknown what has happened between the two. The film is set to premiere at the Venice Film Festival and will later be released in Taiwan, with the specific release date yet to be determined. "Goodbye, Va City" trailer poster "Goodbye, Va City" is Ko Chen-tung's comeback film, where he plays a laborer who sneaks from Myanmar to Thailand, and has an exotic love story with the female lead Wu Kexi. To shoot this new film, Ko Chen-tung lived in Myanmar with Zhao Deyin for two months last May, learning the Yunnan dialect, then lived in Thailand for two months, interning in the role of the character in the film. The film started shooting in early September 2015 in Bangkok and Chiang Mai, Thailand, with a shooting period of about two months. From training to filming, Ko Chen-tung did not have his manager with him, and he took care of all aspects of his life. It is reported that he would jokingly say he was tired, but he worked very seriously and was the joy of the crew. Producer Huang Maochang praised him for being dedicated and smart, saying, "He adapted well to every place he went, and was happy every day." Tencent News mobile app has added a movie channel, gathering global movie information, recommended movies, and offering nationwide movie tickets, with Hollywood original movie peripheral products giveaways!</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>选购新车：您在考虑什么？一般情况下：新手选车会先看重油耗和安全性！！！老司机首先看重性能和质量工艺！！！那么机会来了！！ 试驾有礼？订购有礼？置换有礼？车改有礼？金融钜惠？……是的，没错，就是这么任性！ 金融贷款、保险、精品一站式服务，质量保证！买车要抓紧时机，错过悔之不及！活动时间：3月21日-22日垂询热线：0769-82080777专享礼：赠送凯美瑞专属3年或6万公里6次免费基础保养；置换礼：凯美瑞专属置换补贴5000元分期礼：购车最高尊享3年0利息，日供低至16元到店礼：凡活动期间到店客户，均可获得精美礼品一份；试驾礼：到店试驾，即可获得多功能照明救生一体逃生锤一个！介绍礼：凡活动期间转介绍朋友、同事、亲戚购车成功，即可获得500元油卡一张；公务礼：公务员购车可享4000元公务员补贴；订车礼：活动期间订车客户，均可获得订车豪礼一份； 1、外观更炫目：全新凯美瑞传承丰田“KEEN LOOK”家族脸谱设计。2、内饰更高档：4.2英寸TFT显示屏，亮蓝色氛围灯。3、动力更强劲：双喷射系统直喷引擎，高智能6AT变速器。4、装备更齐全：双区独立自动空调系统，全方位安心IPA智能泊车辅助系统。</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Choosing a new car: What are you considering? Generally speaking, newcomers to car selection will prioritize fuel consumption and safety!!! Seasoned drivers, on the other hand, will prioritize performance and quality craftsmanship!!! So, here's the opportunity!!! Test drive gifts? Order gifts? Trade-in gifts? Car modification gifts? Huge financial benefits?... Yes, that's right, just that whimsical! Financial loans, insurance, and boutique one-stop service, quality guaranteed! Don't miss the chance to buy a car, regret it if you miss it! Event period: March 21st-22nd. Inquiry hotline: 0769-82080777. Exclusive gifts: Receive 3 years or 60,000 kilometers of free basic maintenance for the exclusive Camry; Trade-in gift: Exclusive Camry trade-in subsidy of 5000 yuan; Installment gift: Enjoy up to 3 years of 0 interest, with daily payments as low as 16 yuan; In-store gift: Customers visiting the store during the event period will receive a delicate gift; Test drive gift: Test drive at the store and receive a multifunctional lighting and life-saving integrated escape hammer; Introduction gift: Successfully refer a friend, colleague, or relative to purchase a car during the event period and receive a 500 yuan fuel card; Official gift: Government employees purchasing a car can enjoy a 4000 yuan government subsidy; Order gift: Customers who place an order during the event period will receive an order gift. 1. More eye-catching appearance: The all-new Camry inherits Toyota's "KEEN LOOK" family facial design. 2. More upscale interior: 4.2-inch TFT display screen, bright blue ambient lighting. 3. More powerful power: Dual injection system direct injection engine, high-intelligence 6AT transmission. 4. More fully equipped: Dual-zone independent automatic air conditioning system, all-round peace of mind IPA intelligent parking assist system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> （搜狐体育独家稿件严禁转载）北京时间2016年10月19日，在今天的季前赛中，老鹰主场迎战鹈鹕。鹈鹕核心安东尼-戴维斯仍然因伤缺阵，老鹰则全员迎战。最终，阵容完整的老鹰主场96-89战胜鹈鹕。全场比分：24-19、35-22、18-18、19-30（老鹰在前）老鹰方面：施罗德13分5篮板5助攻，科沃尔13分2篮板4助攻，霍华德10分11篮板，米尔萨普8分5篮板4助攻。鹈鹕方面，所罗门-希尔13分4篮板3助攻，琼斯18分4篮板，希尔德13分3篮板2助攻，坎宁安11分6篮板1助攻。首节比赛，施罗德三分线外命中，老鹰率先得手。鹈鹕方面也不甘落后，上篮得手还以颜色。霍华德来到老鹰之后状态不错，接到施罗德的传球后上演暴扣，随后又助攻科沃尔三分命中。鹈鹕方面，特伦斯-琼斯不断命中，一直让分差保持在5分左右。首节结束，老鹰24-19领先。第二节比赛，鹈鹕开场之后仍让找不到进攻状态，通过罚球拿到1分后陷入得分荒。老鹰方面，米尔萨普连续得手，老鹰以30-20领先两位数。双方实力差距明显，老鹰手感越来越好，霍华德、米尔萨普和亨弗里斯轮番冲击老鹰内线。本节还剩4分钟时，分差已经扩大到20分。半场战罢，老鹰59-41领先。下半场比赛，鹈鹕队开始冲击篮下，在弗雷泽的带领下打出一波9-5，将分差缩小到13分。比赛中段，弗雷泽由于连续犯规被迫下场，老鹰趁机起势，先是霍华德空中拦截鹈鹕上篮，随后贝兹莫尔和科沃尔连续命中三分，老鹰又将分差扩大到20。本节最后时刻，鹈鹕加洛韦投中压哨三分。三节结束，老鹰77-59领先18分。最后一节比赛，老鹰换上全替补阵容，鹈鹕随即抓住机会迫近比分。终场前两分多钟，在新秀巴迪-希尔德的带领下，鹈鹕将分差缩小到10分以内。老鹰最终顶住了压力，主场96-89战胜鹈鹕。。老鹰首发：施罗德 科沃尔 贝兹莫尔 米尔萨普 霍华德鹈鹕首发：蒂姆-弗雷泽 希尔德 所罗门-希尔 丹特-坎宁安 阿西克（搜狐体育独家稿件严禁转载）</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>(Sohu Sports exclusive article, no reproduction allowed) On October 19, 2016 Beijing time, in today's preseason game, the Hawks hosted the Pelicans. Pelicans' core player Anthony Davis was still absent due to injury, while the Hawks were at full strength. In the end, the complete lineup of the Hawks won 96-89 against the Pelicans at home. Full game scores: 24-19, 35-22, 18-18, 19-30 (Hawks in the lead). For the Hawks: Schroder scored 13 points, 5 rebounds, and 5 assists, Korver scored 13 points, 2 rebounds, and 4 assists, Howard scored 10 points and grabbed 11 rebounds, Millsap scored 8 points, 5 rebounds, and 4 assists. For the Pelicans, Solomon Hill scored 13 points, 4 rebounds, and 3 assists, Jones scored 18 points and grabbed 4 rebounds, Hill scored 13 points, 3 rebounds, and 2 assists, Cunningham scored 11 points, 6 rebounds, and 1 assist. In the first quarter, Schroder hit a three-pointer outside the line, giving the Hawks an early lead. The Pelicans also fought back, scoring inside. Howard, in good form since joining the Hawks, made a dunk after receiving a pass from Schroder, and then assisted Korver for a three-pointer. Jones of the Pelicans kept scoring, keeping the point difference at around 5 points. At the end of the first quarter, the Hawks led 24-19. In the second quarter, the Pelicans struggled to find their offensive rhythm, only scoring 1 point from free throws. Millsap of the Hawks kept scoring, leading by double digits with 30-20. The gap in strength was evident, with the Hawks' shooting getting better. Howard, Millsap, and Humphries took turns attacking the Pelicans' inside line. With 4 minutes left in the quarter, the point difference had widened to 20 points. At halftime, the Hawks led 59-41. In the second half, the Pelicans started attacking the basket, led by Frazier, and scored a 9-5 run to reduce the point difference to 13 points. In the middle of the game, Frazier fouled out, giving the Hawks an opportunity to extend their lead. Howard made an aerial interception, followed by Bazemore and Korver hitting consecutive three-pointers, widening the gap to 20 points again. In the final moments of the quarter, Gallo hit a buzzer-beating three-pointer for the Pelicans. At the end of the third quarter, the Hawks led 77-59 by 18 points. In the final quarter, the Hawks substituted all their starters, and the Pelicans took the chance to close the gap. With just over two minutes left in the game, led by rookie Buddy Hield, the Pelicans reduced the point difference to within 10 points. The Hawks ultimately withstood the pressure and won 96-89 at home against the Pelicans. Hawks' starting lineup: Schroder, Korver, Bazemore, Millsap, Howard. Pelicans' starting lineup: Tim Frazier, Hill, Solomon Hill, Dante Cunningham, Asik. (Sohu Sports exclusive article, no reproduction allowed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 据美国《华尔街日报》18日报道，澳大利亚官方表示，将在6月底之前确定对马来西亚航空MH370航班的新搜寻区域。报道指出，这将使那些寻求在重新启动的搜寻行动中扮演角色的私人承包商没有多少时间在官方招标结束前调整报价。此外，由于没有确定的搜寻区域，部署在印度洋的深海勘探船是否有用成为疑问。“搜寻区域将会移动”澳大利亚联合机构协调中心（JACC）18日表示，通过重新分析失踪飞机与国际海事卫星组织一个卫星之间传输的脉冲信号，可以明确肯定“搜寻区域将会移动”。报道称，虽然官方尚未确定具体区域，但沿着根据这架波音777飞机在3月8日最后一次传输的脉冲信号确定的弧线，任何新的定位都仍会在印度洋南部。据媒体此前报道，新搜寻区域可能会朝西南移动数百英里，因为查看了卫星脉冲信号的分析人员认为，这架飞机的飞行速度可能快于人们此前的设想，而且可能随后朝南飞行。最近几周，中国海军的“竺可桢号”测量船已经探查了4088平方公里的海底，希望能为使用水下声呐设备进行更仔细的搜寻奠定基础。一旦搜寻区域变动，这些海底地图是否有用还不得而知。荷兰公司辉固（Fugro NV）拥有的一艘商业勘探船“辉固赤道号”（Fugro Equator）也在本周开始绘制海底地图。辉固驻西澳大利亚州珀斯的代表此前表示，公司旗下船只的日租金在7.5万澳元（约合7万美元）至16万澳元之间。南印度洋仍是现有的最佳线索卫星数据显示，飞机绕过印度尼西亚苏门答腊岛的最北端后，曾向南转向，飞越印度洋。澳大利亚军方退役将领、此次搜寻任务的负责人安格斯休斯顿表示，这仍然是调查者在搜寻飞机的过程中持有的最佳线索。“我们必须继续深入，对海床进行全面搜索。”他说。他还表示，“那些电子握手是我们目前掌握的最有力的信息。”6月10日，澳大利亚交通安全局聘请私人公司辉固调查（Fugro Survey）沿着飞机可能的最后地点的弧线进行为期三个月的搜寻。这条弧线是根据卫星数据测算出来的。澳大利亚交通安全局还在招标，希望在月底前能找到一家商业承包商，部署拖曳式深海潜水设备，对海底进行详细搜索。休斯顿说，拖曳式搜索不需要等海底绘图工作结束，今年夏天就可以开始。他还称，金达利作战雷达网，即澳大利亚本国的远程超视距雷达系统当时没有关注这架飞机可能经过的区域，亦未能侦测到它。调查人员也没有从一次水下撞击声中找到任何有用的线索。</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>According to the report by the American "Wall Street Journal" on the 18th, Australian officials stated that they will determine a new search area for Malaysia Airlines flight MH370 before the end of June. The report pointed out that this will give private contractors involved in the restarted search operation little time to adjust their bids before the official tender process ends. In addition, the usefulness of the deep-sea exploration ships deployed in the Indian Ocean is in question due to the lack of a confirmed search area. "The search area will move," the Australian Joint Agency Coordination Centre (JACC) stated on the 18th that by reanalyzing the pulse signals transmitted between the missing aircraft and a satellite of the International Maritime Satellite Organization, it can be clearly confirmed that "the search area will move." The report stated that although the authorities have not yet determined the specific area, any new location will still be in the southern Indian Ocean along the arc determined based on the pulse signals transmitted by the Boeing 777 aircraft on March 8. According to previous reports, the new search area may move several hundred miles southwest as analysts who reviewed the satellite pulse signals believe that the aircraft's flight speed may have been faster than previously thought and may have subsequently flown south. In recent weeks, the Chinese Navy's "Zhu Kezhen" survey ship has explored 4,088 square kilometers of the seabed in the hope of laying the groundwork for a more detailed search using underwater sonar equipment. Once the search area changes, it is still unknown whether these seabed maps will be useful. A commercial survey ship owned by the Dutch company Fugro NV, the "Fugro Equator," has also started mapping the seabed this week. A representative of Fugro in Perth, Western Australia, previously stated that the daily rental cost of the company's ships ranges from 75,000 Australian dollars to 160,000 Australian dollars. The southern Indian Ocean remains the best existing clue. Satellite data shows that after bypassing the northern tip of Sumatra, Indonesia, the aircraft turned south and flew over the Indian Ocean. Angus Houston, a retired Australian military officer and head of the search operation, said this is still the best lead investigators have in the search for the aircraft. "We must continue to delve deeper and conduct a comprehensive search of the seabed," he said. He also stated, "Those electronic handshakes are the most powerful information we currently have." On June 10, the Australian Transport Safety Bureau hired the private company Fugro Survey to conduct a three-month search along the arc of the aircraft's possible final location. This arc was calculated based on satellite data. The Australian Transport Safety Bureau is also tendering for a commercial contractor to deploy towed deep-sea diving equipment for a detailed seabed search by the end of the month. Houston said that the towed search does not need to wait for the seabed mapping to be completed and can start this summer. He also mentioned that the Jindalee Operational Radar Network, Australia's own over-the-horizon radar system, did not focus on the area where the aircraft may have passed and did not detect it. Investigators also did not find any useful clues from an underwater impact sound.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 北京时间4月4日，在今天快船队的训练中，球队后卫贾马尔-克劳福德(左小腿有伤)也参加了。据ESPN记者ArashMarkazi透露，克劳福德在训练中看起来很棒，他表示虽然克劳福德没有官方的复出时间，但是消息源表示，下周三(北京时间4月8日，快船队对阵湖人队)依旧是一个暂时的计划。克劳福德本赛季打了60场比赛，场均上场26.9分钟的他可以得到16.4分2.5个助攻2个篮板。Arash Markazi还透露，快船队依旧在关注着内特-罗宾逊(左膝盖有伤)的情况，如果他恢复健康，而且能在下周的比赛中上场，快船队依旧有计划签下罗宾逊。本赛季，罗宾逊为快船队打了9场比赛，场均上场14分钟可以得到5.1分2.2个助攻，投篮命中率为33.3%。</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>On April 4th Beijing time, in today's Clippers' training, the team's guard Jamal Crawford (left calf injured) also participated. According to ESPN reporter Arash Markazi, Crawford looked great in training. He said although there is no official return date for Crawford, sources indicate that next Wednesday (April 8th Beijing time, Clippers vs. Lakers) is still a tentative plan. Crawford has played 60 games this season, averaging 26.9 minutes per game with 16.4 points, 2.5 assists, and 2 rebounds. Arash Markazi also revealed that the Clippers are still monitoring the situation of Nate Robinson (left knee injured). If he recovers and can play in next week's game, the Clippers still plan to sign Robinson. This season, Robinson has played 9 games for the Clippers, averaging 14 minutes per game with 5.1 points, 2.2 assists, and a shooting percentage of 33.3%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>（长江日报记者刘舒通讯员向正鹏樊佳钰）来汉参加“武汉英国周”活动的英国新任驻华大使吴百纳，昨日专程到湖北大学访问——29年前，她首次来中国，便在这所大学担任英语外教一年。“从这里，我开始认识中国。”她说。 29年前在湖北大学教英语“这是我上任驻华大使以来首次到访武汉，但事实上这不是我第一次来武汉。”吴百纳说，自己和武汉渊源颇深，曾于1986至1987年在湖北大学教授英语。1983年，吴百纳从苏格兰名校圣安德鲁斯大学获得硕士学位。1986年，她以外籍专家身份经由中国外国专家局选拔推荐，获聘湖北大学外语系外教。那是她首次来到中国。“很高兴回到湖北大学，29年前我第一次来到中国，当时是杨老师去广州接我。”昨日，吴百纳步入湖北大学会议厅，一眼认出学校退休教师杨夷平等多位老同事。“她在课堂上引入角色扮演形式，引导学生模拟去银行办理业务、去医院看病等场景，教授在国外生活中常用的对话，这种教学模式在当时很新颖。”杨夷平向记者回忆，当年，吴百纳教授湖北大学英语专业学生英语口语、写作和英国文学课程，她因备课认真、上课方式活泼受到学生欢迎。“从那时起，我认识了一批很好的中国朋友。”吴百纳说，自己至今仍与多名湖北大学同事保持联系。2004年，她在担任英国驻华大使馆政务参赞期间来汉出差，曾抽空到湖北大学作“中英关系发展前景”讲座。曾旁听讲座的教师回忆，当时吴百纳已显出重视发展对华关系的外交理念。吴百纳担任英国驻华大使后，中英媒体报道中均称她曾在“武汉大学”担任英语教师。湖北大学一位老师说，这可能是由“在武汉的大学”误译而来。</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>(Changjiang Daily reporter Liu Shu correspondent Xiang Zhengpeng Fan Jiayu) British Ambassador to China, Wu Bai Na, who came to Wuhan to participate in the "Wuhan British Week" event, visited Hubei University yesterday - 29 years ago, she first came to China and taught English as a foreign teacher at this university for a year. "From here, I began to understand China," she said. "This is my first visit to Wuhan since taking office as the Ambassador to China, but in fact, this is not my first time in Wuhan," Wu Bai Na said. She has a deep connection with Wuhan, having taught English at Hubei University from 1986 to 1987. In 1983, Wu Bai Na obtained a master's degree from the prestigious University of St Andrews in Scotland. In 1986, she was selected and recommended by the State Administration of Foreign Experts Affairs of China as a foreign expert to teach at the Foreign Languages Department of Hubei University. That was her first time in China. "I am very happy to return to Hubei University. 29 years ago, when I first came to China, it was Teacher Yang who picked me up in Guangzhou," Wu Bai Na said. Yesterday, Wu Bai Na walked into the conference hall of Hubei University and immediately recognized several retired teachers from the school, including Yang Yiping. "She introduced role-playing in the classroom, guiding students to simulate scenarios such as conducting transactions at the bank and seeing a doctor at the hospital, teaching dialogues commonly used in daily life abroad. This teaching method was quite innovative at that time," Yang Yiping recalled to the reporter. At that time, Wu Bai Na taught English speaking, writing, and British literature courses to English majors at Hubei University. She was well-liked by students for her meticulous lesson preparation and lively teaching style. "Since then, I have made many good Chinese friends," Wu Bai Na said, still keeping in touch with many colleagues from Hubei University. In 2004, during her tenure as a political affairs counselor at the British Embassy in China, she visited Wuhan on business and gave a lecture on "Prospects for the Development of Sino-British Relations" at Hubei University. Teachers who attended the lecture recalled that Wu Bai Na had already shown a diplomatic concept emphasizing the importance of developing relations with China. After Wu Bai Na became the British Ambassador to China, both Chinese and British media reports referred to her as having been an English teacher at "Wuhan University." A teacher from Hubei University said that this may have been a mistranslation of "a university in Wuhan."</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>近日，孝义市志愿服务总站门口多了个大家伙——自助捐衣箱。捐衣箱箱子有一人多高的“个头”，足以装下将近80公斤的衣物。有了它，市民可以将旧衣服变废为宝，举手做公益之余，既培养了市民节俭养德优良传统，也促进了资源的循环利用。志愿者总站工作人员将定期把募集的衣物发放给有需求的特困群众。 市民准妈妈李彩霞正在捐衣自助捐衣箱于4月8日在志愿服务总站试点投放以来，得到了孝义市民朋友的积极响应，每天都有市民前来捐助。随后，自助捐衣箱将陆续在府东社区、迎宾北社区、离柳社区、幸福社区等居民区推广，方便广大市民捐赠衣物，传递爱心。 孝义志愿者服务总站孝义市志愿者服务总站由孝义市志愿者协会于2015年3月30日正式成立运行。通过这个平台，进一步扩大了志愿服务的影响力和普及面，将更实在、更惠民的志愿服务方便快捷地送到市民的日常生活中。总站成立短短两周以来，道德讲堂、心理咨询、义诊、义务理发、手工培训、经典诵读等活动天天有，时时有，深受广大市民的欢迎。累计开展志愿服务活动20余次，受众人数达500余人。如今，志愿服务总站已悄然成为人们愿意来、方便来、惦记来的“老地方”。来这里，接受服务；来这里，服务他人。</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Recently, at the entrance of Xiaoyi City Volunteer Service Center, a big guy has been added - a self-service donation clothes box. The box is as tall as a person, enough to hold nearly 80 kilograms of clothing. With it, residents can turn old clothes into treasures, not only cultivating the fine tradition of thrift and virtue among the citizens, but also promoting the recycling of resources. The staff of the volunteer center will regularly distribute the collected clothes to the needy special groups. Expectant mother Li Caixia is donating clothes to the self-service donation box. Since the trial operation of the self-service donation clothes box at the Volunteer Service Center on April 8th, it has received positive responses from the citizens of Xiaoyi, with people coming to donate every day. Subsequently, the self-service donation clothes box will be gradually promoted in residential areas such as Fudong Community, Yingbin North Community, Liliu Community, and Xingfu Community, making it convenient for the general public to donate clothes and spread love. Xiaoyi Volunteer Service Center was officially established and operated by Xiaoyi Volunteer Association on March 30, 2015. Through this platform, the influence and popularity of volunteer services have been further expanded, bringing more practical and beneficial volunteer services conveniently into the daily lives of citizens. Since its establishment just two weeks ago, the Volunteer Service Center has been conducting activities such as moral lectures, psychological counseling, free clinics, voluntary haircuts, handicraft training, and classic recitations every day, which have been warmly welcomed by the general public. Over 20 volunteer service activities have been carried out, reaching an audience of over 500 people. Now, the Volunteer Service Center has quietly become a "old place" where people are willing to come, convenient to come, and remember to come. Come here to receive services; come here to serve others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>微信编辑器小蚂蚁编辑器多年的从教经验使我一直坚信“酷爱阅读的孩子，学习更有爆发力”、“读书是应试的最好对策”。作为一个教育工作者，我更相信读书对人精神成长的影响。所以，从女儿降临人世起，我就一直希望让书陪伴她的成长。陪伴阅读从婴幼儿期启蒙整本书的阅读 我不赞成孩子的早期阅读只停留在文字层面，或粗浅的图片认读层面。女儿还没学会说话，我就开始给她读整本的图画书。我喜欢和她一起翻阅那一本本薄薄的图画书，一边翻阅，一边讲述短小有趣的故事，一页一页地翻，一句一句地讲……彩色的图画带给孩子视觉、心灵上的感受与记忆是黑白的文字所不能替代的。那些优秀的图画书给尚小的女儿带来了愉悦和幸福感，对她的认识世界、想像力和阅读能力都起了不可估量的作用。我喜欢选一些儿童诗给女儿读，那时的儿童诗整本书不多见，我便将一些童诗和民谣打印、剪贴、装订于硬纸板上，做成一本本独一无二的、五颜六色的、各种形状的“书”，让这些书变身玩具陪伴女儿。儿童诗词语锤炼准确恰当，声音节奏朗朗上口，幼小的女儿渐渐会用诗歌的语言来表达自己认识的世界。幼儿时期诵读一些中华经典，还能在传统文化与价值观方面对孩子产生潜移默化的作用。女儿幼儿期间，我选择了《三字经》、《声律启蒙》给她读，开始她自然是不愿接受的，我便不断地放录音，有意无意地让她的耳边不断有此环绕，似背景音乐。忽有一日，女儿也会断断续续记住不少。独立阅读从入学第一天起坚持整本书的阅读 真正的整本书的独立阅读是从小学开始的。入学第一天起，我们便定下每日的“读书时间”，开始是共同朗读，学了拼音后，她便按照学校的要求坚持独立阅读注音读物。一字一字拼读，很慢，字不连句，句不知义，一个短小的故事甚至要读上几天。但凡事贵在坚持，有量变才有质变。女儿的阅读速度渐快，识字量也加大。一年后，便能独立阅读纯文字的读物。为了激发她的阅读兴趣，拥有读书的成就感，我们让她拥有自己的书架，放上很多短小的、很薄的、故事性很强的插画图书。广泛阅读让推荐与自选丰富整本书的阅读 一、二年级时，女儿的读书以寓言、神话、童话故事为主。中年级以后，我们便推荐了国内外优秀的各种儿童文学作品。最简单的方法就是将各类大奖小说囊括其中：国际安徒生奖、纽伯瑞儿童文学奖……这些大奖小说应该是属于孩子“一辈子的书”。</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>The WeChat editor, Little Ant Editor, has many years of teaching experience, which has always led me to firmly believe that "children who love reading have more explosive learning abilities" and "reading is the best strategy for exams." As an educator, I believe more in the impact of reading on spiritual growth. Therefore, since my daughter came into the world, I have always hoped to accompany her growth with books. Starting from infancy, I do not agree with children's early reading staying only at the level of text or superficial picture recognition. Even before my daughter learned to speak, I started reading entire picture books to her. I enjoy flipping through those thin picture books with her, turning page by page, telling short and interesting stories as we go, flipping through page by page, telling sentence by sentence... The colorful pictures bring to children a visual and spiritual experience and memories that black and white words cannot replace. Those excellent picture books have brought joy and happiness to my young daughter, playing an immeasurable role in her understanding of the world, imagination, and reading ability. I like to choose some children's poems to read to my daughter. At that time, complete books of children's poems were not common, so I printed, cut, and bound some poems and nursery rhymes on hard cardboard, creating unique, colorful, and variously shaped "books" to turn these books into toys to accompany my daughter. Children's poems refine language precisely and appropriately, with rhythmic and catchy sounds. Gradually, my young daughter will use the language of poetry to express her understanding of the world. Reciting some Chinese classics during early childhood can also have a subtle influence on children in terms of traditional culture and values. During my daughter's early childhood, I chose to read her the "Three Character Classic" and "The Art of War in Rhymes." At first, she was unwilling to accept them, so I kept playing recordings intentionally or unintentionally, letting these sounds surround her ears like background music. Suddenly, one day, my daughter began to remember quite a bit intermittently. Independent reading of entire books has been insisted upon since the first day of school. Genuine independent reading of entire books starts from elementary school. From the first day of school, we set a daily "reading time." Initially, we read together, and after learning Pinyin, she insisted on independent reading of phonetic books as required by the school. Reading letter by letter, very slowly, without connecting words or understanding sentences, even a short story may take several days to read. Persistence is key in everything, as quantitative change leads to qualitative change. My daughter's reading speed gradually increased, and her vocabulary expanded. After a year, she could independently read text-only materials. To stimulate her interest in reading and give her a sense of achievement in reading, we gave her her own bookshelf, filled with many short, thin, and highly story-driven illustrated books. Extensive reading enriches the recommended and self-selected reading of entire books. In the first and second grades, my daughter mainly read fables, myths, and fairy tales. After the middle grades, we recommended various excellent children's literary works from both domestic and international sources. The simplest method was to include various award-winning novels: the Hans Christian Andersen Award, the Newbery Medal... These award-winning novels should belong to a child's "lifetime books."</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>9岁女童在北京市顺义区一国学班内学习时不仅遭受老师虐待，还疑似被当成弃儿骗捐敛财。国学班成“敛财班”，鱼龙混杂让人伤不起。近年来，国学热一直持续。很多家长出于对传统文化的崇拜，把孩子们送进“国学班”。看着受虐孩子身上的斑斑伤痕，不知家长心中会作何感想?国学班变成了“狼外婆”，成为一些不法分子乘机牟利的工具，不禁让人心寒。从办学资质、办学地点、师资力量及监管制度上，许多“国学班”都存在着漏洞，给一些不法分子可乘之机。据调查，在北京一些居民楼、城乡接合部等地，一些没有资质的国学班潜藏其中。因为缺乏监管，已经让许多国学班的“纯粹文化”大打折扣。有人以国学之名招生赚取学费;也有人以国学之名行不法之事。国学班其实是披着国学外衣的培训班，最值得注意的是，该类培训班是否有培训资质，有关部门是否监管到位。培训班成立之前缺乏审查，成立之后缺乏监管，势必让一些不法分子有空可钻，让一些违规国学班有机会成为“狼外婆”。在此情形下，不免提醒各位钟情于国学的家长，追风需谨慎。</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>A 9-year-old girl studying in a Guoxue class in Shunyi District, Beijing not only suffered abuse from the teacher, but also was suspected of being used as an abandoned child to deceive donations for personal gain. Guoxue classes have turned into "money-collecting classes," with a mix of good and bad that is unbearable. In recent years, the enthusiasm for Guoxue has been ongoing. Many parents, out of admiration for traditional culture, send their children to "Guoxue classes." Looking at the bruises on the abused children, one can only wonder what the parents are feeling. Guoxue classes have turned into "wolf grandmothers," becoming tools for some unscrupulous individuals to profit, which is chilling. Many "Guoxue classes" have loopholes in terms of school qualifications, locations, teaching staff, and regulatory systems, providing opportunities for some unscrupulous individuals to take advantage of. According to investigations, some unqualified Guoxue classes are hidden in residential buildings, urban-rural junctions, and other areas in Beijing. Due to lack of supervision, the "pure cultural" essence of many Guoxue classes has been greatly compromised. Some enroll students under the guise of Guoxue to earn tuition fees, while others engage in illegal activities under the guise of Guoxue. In fact, Guoxue classes are training classes disguised in the cloak of Guoxue. What is most noteworthy is whether such training classes have the necessary qualifications and whether the relevant authorities are effectively regulating them. The lack of pre-establishment review and post-establishment supervision of training classes inevitably provides opportunities for some unscrupulous individuals to exploit and for some non-compliant Guoxue classes to become "wolf grandmothers." In this situation, it is necessary to remind parents who are fond of Guoxue to be cautious when following trends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 展览现场，王为民（左一）正在向市民介绍公益广告。本报记者朱岩摄昨日，在市图书馆以“中国梦”为主题的公益广告展一经展出便吸引众多市民驻足观赏。只见该展览均采用报刊公益广告剪辑组成，以不同主题分布在八个正反两面的展板上，展览内容以孝道、爱心、勤俭、环保、文明等为主，向市民传递了一种正能量。该展览的剪辑者王为民，今年78周岁，是市第二中学的退休语文教师。谈起剪辑收集报刊公益广告，王为民表示，这不得不先说说《邯郸晚报》。王为民是《邯郸晚报》的忠实读者，大约从2013年春季起，《邯郸晚报》频繁登载公益广告，他发现晚报上登载的公益广告不仅思想内容涉及面广、有积极的教育意义，而且艺术形式多样，其中有剪纸、水墨画、水彩画、泥塑、杨柳青年画、名人字画等。“如果把这些公益广告剪辑收藏，供自己和家人欣赏一定是个不错的选择！”说干就干，王为民将《邯郸晚报》上登载的公益广告进行了剪辑，但光从《邯郸晚报》上收集毕竟数量有限，于是王为民联系到爱好读报的好友田瑞卿，向其说明情况，好友也对他这一想法十分支持，并将自己订阅的报纸进行留存送给王为民。同时，家住贸易路的王为民还向附近报亭老板打了招呼：“凡是有登载公益广告的报刊、杂志都给我留一份。”通过多种渠道，王为民剪辑收藏的公益广告越来越多，于是他买来牛皮纸，把这些收藏品进行粘贴，挂在自家的书房和家人一起观赏。在二中建校60周年之际，为开展庆祝活动，已经退休的王为民老师被聘为顾问。王为民为向学生们宣传正能量，将自己的公益广告收藏命名为“中国梦”，在二中北校区报刊阅览室进行展览近三个月，共展出剪辑作品300多张，获得了良好的效果。经过两年多的剪辑收藏，如今王为民已拥有公益广告800余张，他希望能有更多的人看到他的收藏品，从中受到教育，获取力量，这也是他一直以来的梦想。抱着试试看的想法，王为民向市图书馆副馆长李明霞提出在市图书馆举办一次公益广告展，没想到李明霞欣然答应。她认为，图书馆本身是一个思想教育的场所，是一个传播正能量的平台，因此愿意为王为民提供方便，让更多的人受益。对此，王为民利用半个月的时间重新对一张张公益广告进行剪辑，再一张张粘贴，制作了16张展页，共360多张公益广告，分为不同的主题，如孝道、爱心、勤俭、环保、文明等，这样使这些收藏的公益广告内容更加明晰，展览效果更好。据了解，此次公益广告展从3月24日开始至4月25日结束。</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>At the exhibition site, Wang Weimin (first from the left) is introducing public service advertisements to the citizens. Photo by Zhu Yan, a reporter from this newspaper. Yesterday, a public service advertisement exhibition with the theme of "Chinese Dream" at the city library attracted many citizens to stop and watch as soon as it opened. The exhibition consists of clippings of public service advertisements from newspapers and magazines, distributed on eight double-sided display boards with different themes such as filial piety, love, thrift, environmental protection, and civilization, conveying positive energy to the citizens. The editor of this exhibition, Wang Weimin, a retired Chinese language teacher from the Second High School in the city, aged 78 this year. Speaking of clipping and collecting public service advertisements from newspapers, Wang Weimin mentioned the "Handan Evening News". Wang Weimin is a loyal reader of the "Handan Evening News". Since around the spring of 2013, the newspaper has frequently published public service advertisements. He found that the public service advertisements published in the evening newspaper not only cover a wide range of ideological content with positive educational significance, but also come in various artistic forms, including paper-cutting, ink painting, watercolor painting, clay sculpture, Yangliuqing New Year paintings, and calligraphy by famous people. "Clipping and collecting these public service advertisements for appreciation by myself and my family would definitely be a good choice!" Without further ado, Wang Weimin clipped the public service advertisements published in the "Handan Evening News". However, the quantity collected from the newspaper was limited. Therefore, Wang Weimin contacted his friend Tian Ruiqing, who enjoys reading newspapers, explained the situation to him, and his friend fully supported his idea, keeping and giving him the newspapers he subscribed to. At the same time, Wang Weimin, who lives on Trade Road, also informed the nearby newspaper stand owner: "Please keep a copy of any newspaper or magazine that publishes public service advertisements for me." Through various channels, the collection of public service advertisements clipped by Wang Weimin grew. He then bought parchment paper and pasted these collections, hanging them in his study for himself and his family to appreciate. On the occasion of the 60th anniversary of the founding of the Second High School, retired teacher Wang Weimin was hired as a consultant for the celebration activities. To promote positive energy to the students, Wang Weimin named his collection of public service advertisements "Chinese Dream" and held an exhibition in the newspaper reading room of the North Campus of the Second High School for nearly three months, displaying over 300 clippings, which had a good effect. After more than two years of clipping and collecting, Wang Weimin now has over 800 public service advertisements. He hopes that more people can see his collection, be educated and empowered by it, which has always been his dream. With a "let's give it a try" mindset, Wang Weimin proposed to Li Mingxia, the deputy curator of the city library, to hold a public service advertisement exhibition at the library. To his surprise, Li Mingxia readily agreed. She believed that the library itself is a place for ideological education and a platform for spreading positive energy, so she was willing to facilitate Wang Weimin and benefit more people. Utilizing half a month, Wang Weimin re-clipped and pasted each public service advertisement, creating 16 display pages with over 360 public service advertisements, divided into different themes such as filial piety, love, thrift, environmental protection, and civilization. This made the content of these collected public service advertisements clearer and improved the exhibition effect. It is understood that this public service advertisement exhibition will run from March 24th to April 25th.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>【IT168厂商动态】魅族世界杯神福利来袭，即日起，转发魅族官方微博活动微博，带#我想去看世界杯#，并@心中的女神，即由机会和梦寐以求的女神，一起飞赴巴西共飨世界杯盛宴，9天8夜，亲密同游! 魅族神福利&amp;nbsp;女神陪你共飨世界杯盛宴 四年一度的世界杯足球赛，作为全球足球迷的视觉盛宴，将于6月12日至7月13日在巴西12座城市中的12座球场内举行。世界杯对于中国球迷来说，都是遥不可及，现场观战都是“高帅富”的专利，“Diaosi”只能蜗居在电视前为喜爱的球队加油呐喊，这一次逆转的机会来了。魅族世界杯神福利，将为球迷圆梦，不仅可赴巴西现场观看世界杯球赛，更有女神陪你同吃同住同行，堪称史上最“神”的福利。</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>【IT168 Vendor News】Meizu World Cup divine welfare is coming! Starting today, retweet the official Weibo activity post of Meizu, add #I want to go to see the World Cup#, and mention your goddess, you will have the chance to fly to Brazil together with the goddess you dream of, to enjoy the World Cup feast for 9 days and 8 nights, intimate travel together! Meizu divine welfare, goddess accompanies you to enjoy the World Cup feast. The quadrennial World Cup football tournament, as a visual feast for global football fans, will be held from June 12th to July 13th in 12 cities and 12 stadiums in Brazil. For Chinese football fans, the World Cup has always been out of reach, watching live on the scene is a privilege of the "rich and handsome", while the "losers" can only cheer for their favorite teams in front of the TV. This time, the chance for a turnaround has come. Meizu World Cup divine welfare will fulfill the dreams of fans, not only can you watch the World Cup matches live in Brazil, but also have a goddess to accompany you to eat, live, and travel together, making it the most "divine" welfare in history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 这里是容易引发异物卡滞导致车门无法关闭的地方。 地铁车厢门下方导轨里的珍珠。一颗珍珠，放在身上，是装饰品，如果放错了地方，可能会发生难以预料的后果。10月19日，当一颗珍珠出现在成都地铁1号线广都站车门下的导轨里，整列车不得不清客退出运营，导致后续列车全线出现晚点。20日，成都地铁1号线华府大道中心站副站长唐大伟告诉记者，成都地铁列车车门大多是采用内藏门结构，车门下方有一个小小的导轨，这里就是异物卡滞车门的“高发地”。一颗珍珠，一粒弹珠或高跟鞋跟，就可能会让车门卡滞无法关闭。而类似这样的事件，本月已经出现了三次。一不小心，酿成大问题。地铁清客元凶是一颗珍珠10月19日，下午4时44分，地铁1号线开往升仙湖方向的列车，驶入广都站。当所有乘客上车后，却发现车门无法关闭。“一般情况下，如果车门无法电动关闭，司机会采用手动关闭的方式。”唐大伟告诉记者，但是列车司机和现场工作人员现场处理后，仍无法关闭该门。车门关不上，为了确保乘客安全，只能清客。不得已，列车广播只好以故障为由，希望乘客下车配合。唐大伟说，故障列车很快退出运营，地铁方面紧急调动了另外的列车上线运行。但是，由于清客花费了一些时间，还是影响了后续列车的运营。经过紧急排查发现，这起车门故障的元凶竟然是一颗“珍珠”首饰。20日，在接受华西都市报记者采访时，成都地铁运营公司车辆专业工程师尚魁毅介绍，地铁列车只要有一扇车门因故障关不上，就无法再安全载客，必须退出运营抢修。而1个弹珠、1个手机或高跟鞋跟，就可能会让车门卡滞无法关闭，轻则影响列车所在线路的运营。碰上高峰期，则可能导致整个地铁全线运营晚点。关门故障本月发生了三次一颗小珍珠，甚至是一只纽扣，在普通乘客看来可能不起眼，但是扔到地铁里，却容易酿成大事件。唐大伟告诉记者，因异物阻滞导致车门无法关闭的情况，这个月已经发生了三起。10月6月，地铁2号线260车发生关门故障。检修人员赶到现场，在车门中取出了一块塑料碎片。10月14日，一列地铁列车在关门时多次出现瞬时故障，火速赶到的检修人员从车门中取出一个长21毫米、宽17毫米、厚10毫米的金属环状物。硬币、纽扣、手表、高跟鞋跟、地铁卡、公交卡、小广告……成都地铁一名工作人员回忆说，曾经在地铁4号线处于行进中的列车上发现车门处卡了一颗小弹珠，使出洪荒之力还是没能把这个弹珠抠出来。</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>This is a place where foreign objects easily get stuck, causing the door unable to close. Pearls in the guide rail under the subway car door. A pearl, when worn as an accessory, if placed in the wrong place, may lead to unforeseen consequences. On October 19th, when a pearl appeared in the guide rail under the door of Guangdu Station on Chengdu Metro Line 1, the entire train had to be cleared of passengers and taken out of service, resulting in delays for subsequent trains. On the 20th, Tang Dawei, the deputy station manager of Huafu Avenue Center Station on Chengdu Metro Line 1, told reporters that most of the Chengdu metro train doors use a hidden door structure, with a small guide rail under the door, which is a "high-risk area" for foreign objects causing the door to jam. A pearl, a marble, or a high heel shoe heel could cause the door to jam and not close. Similar incidents have already occurred three times this month. A small mistake can lead to a big problem. The culprit for clearing the subway was a pearl. On the afternoon of October 19th at 4:44 pm, a train on Line 1 of the subway heading towards Shengxian Lake entered Guangdu Station. After all passengers boarded, it was discovered that the door could not be closed. "Normally, if the door cannot be closed electrically, the driver will manually close it," Tang Dawei told reporters. However, even after the train driver and on-site staff tried to handle it, the door still could not be closed. To ensure passenger safety, with the door unable to close, passengers had to be cleared. The train broadcast had to ask passengers to disembark due to a malfunction. Tang Dawei said the faulty train was quickly taken out of service, and the subway system urgently deployed another train for operation. However, due to the time taken to clear passengers, it still affected the operation of subsequent trains. After an emergency inspection, it was found that the culprit for the door malfunction was actually a "pearl" accessory. On the 20th, in an interview with Huaxi Metropolis Daily, Shang Kuiyi, a professional engineer at Chengdu Metro Operations Company, explained that as long as one door of a subway train cannot be closed due to a malfunction, it cannot safely carry passengers and must be taken out of service for repair. A marble, a mobile phone, or a high heel shoe heel could cause the door to jam and not close, affecting the operation of the train line at best. During peak hours, it could lead to delays in the entire subway system. Door malfunction occurred three times this month. A small pearl, or even a button, may seem inconspicuous to ordinary passengers, but when thrown into the subway, it can easily lead to a major incident. Tang Dawei told reporters that there have been three cases this month where foreign objects obstructed the door from closing. On October 6th, Line 2 of the subway had a door malfunction on train 260. Maintenance personnel arrived at the scene and removed a piece of plastic from the door. On October 14th, a subway train experienced multiple momentary malfunctions when closing the door, and the maintenance personnel who arrived quickly removed a metal ring-shaped object measuring 21mm long, 17mm wide, and 10mm thick from the door. Coins, buttons, watches, high heel shoe heels, subway cards, bus cards, flyers... A Chengdu Metro staff member recalled finding a small marble stuck in the door of a moving train on Line 4 of the subway, and even with great effort, they couldn't get the marble out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>本网讯今年是中国工农红军长征胜利80周年。四渡赤水、巧渡金沙江、飞夺泸定桥等传唱后世的故事大多家喻户晓，重返长征路，当年的枪林弹雨留下了依稀可见的痕迹，当年的红军精神却是久久流传、经久不衰。 “纵横天下路，难过乌江渡”。乌江以滩多、谷深、流急著称，全长千余公里，自西南向东北斜穿黔地，形成贵州南北天然屏障。1935年1月1日，红军用一场漂亮的战斗，在这天险之地书写了一个“伟大的转折”。突破乌江，是红军面临的生死之战、传奇之战，也被誉为长征十大胜战之首。突破乌江，粉碎了国民党凭借乌江天险围堵红军的企图，也宣告了李德等“左倾”错误路线的终结。突破乌江，也是红军取得万里长征胜利的重要突破点和转折点。80年前无数革命志士用生命和鲜血书写了长征的伟大胜利，而今他们的精神又被一代代延续至今。伟大的长征精神：不怕牺牲、前赴后继，勇往直前、坚韧不拔，众志成城、团结互助，百折不挠，克服困难。长征精神是我们每一名共产党员需要延续和发扬的精神，即使是在国泰民安的今天，长征精神也永不朽。（顾文超）</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>This year marks the 80th anniversary of the victory of the Chinese Workers' and Peasants' Red Army's Long March. Stories such as the Four Crossings of the Chishui River, the Ingenious Crossing of the Jinsha River, and the Capture of Luding Bridge have been passed down through generations. Returning to the Long March route, the traces of the past gunshots and shellings are faintly visible, yet the spirit of the Red Army from that time has been enduring and everlasting. "Traveling across the world, it's difficult to cross the Wu River." The Wu River is known for its numerous shoals, deep valleys, and swift currents, stretching over a thousand kilometers from southwest to northeast, forming a natural barrier between the north and south of Guizhou. On January 1, 1935, the Red Army achieved a brilliant victory in this treacherous terrain, marking a "great turning point." Breaking through the Wu River was a battle of life and death, a legendary battle faced by the Red Army, and is also hailed as the first of the ten great victories of the Long March. Breaking through the Wu River shattered the Kuomintang's attempt to block the Red Army using the natural defenses of the Wu River, and also signaled the end of the "leftist" errors led by Li De. Breaking through the Wu River was a crucial breakthrough and turning point in the Red Army's victory in the Long March. Eighty years ago, countless revolutionary martyrs inscribed the great victory of the Long March with their lives and blood, and today their spirit continues to be passed down from generation to generation. The great spirit of the Long March: fear no sacrifice, forge ahead, be courageous and tenacious, unite and help each other, be indomitable, overcome difficulties. The spirit of the Long March is a spirit that every Communist Party member needs to carry on and promote. Even in the peaceful and prosperous present, the spirit of the Long March will never perish. (Gu Wenchao)</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>在热恋的男女眼中，求婚这种事情一定是世界上最浪漫的，而大多数女人都向往一场浪漫的求婚，独具一格的求婚方式与婚礼一样意义重大。除了法国人浪漫的世界闻名，而最近一个上海小伙的“世纪最强的告白”同样让人触动。上海男子痴迷GPS绘画带女友自驾中国两万公里痴迷于GPS绘画的张先生在29岁生日那天突然决定带上女友完成用自驾和步行环游中国的梦想。他在2014年辞掉工作，凭借着手机里百度地图的指引，带着对未知世界的好奇、兴奋与渴望，以及一个充满勇气创新的计划，张先生踏上了追逐自己梦想的路。从上海到云贵，再从海南回转，他游历了中国南部的各个角落，他一路跋涉，经历了酷暑台风等恶劣天气和海拔跨度惊人的艰难自驾环境，把他自己走过的足迹一步一脚的印记录下来，竟然走过了南中国23007.1公里的土地。自驾背后隐藏更大“秘密”最强世纪告白诞生2015年3月张先生终于结束旅行，除了环游中国南部，他还有一个“不可告人”的秘密。奇迹在他完成了自驾环游中国南部壮举之后发生了，返家后他将旅途的数据资料导入电脑，把自己走过的点连成线，路线图案竟然是长三角的一颗爱心，以及横跨整个中国南部的歪歪扭扭的巨型英文“MARRY ME”。原来，张先生已经事先规划好了自己的环游路线，一路用GPS记录下来，最后将走过的足迹放到百度地图上连起来，最后连出了一句“MARRY ME”和一个“爱心”。直到这时，才揭开这次旅行最大的目的，这次浪漫策划的目的是向他的女友求婚，张先生女友在看到图片之后喜极而泣，没想到两人一起看遍中国美景之后竟然有如此惊喜，她瞬间同意了张先生的求婚，这次被称之为“史上最强告白”的行动终于以喜剧收尾。张先生：求婚成功很开心感觉自己还在做梦张先生称自己不是艺术家，而是一个GPS画家—利用百度地图预先规划好路线，带上GPS，开始自驾，最后再将百度地图上的足迹连点成线，画完收工。他对笔者说，这里是我的祖国和故乡，小时候看书本上的地理坐标觉得十分遥远，长大后希望通过自己的方式去看家乡的大山大川，去认识书本上没教的中国，完成了这次旅行人也成熟了不少，通过这次旅行还获得了完美求婚体验，现在自己感觉还在梦里，女朋友变成老婆的感觉真棒。在游历中国南部的日子里，除了绘制这篇巨画外，张先生还用相机记录了他们到过的每个地方，他将此行制成了一个5分钟的私人短片，他说这也算是送给自己一份难忘的生日礼物。</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>In the eyes of lovers, marriage proposal is definitely the most romantic thing in the world. Most women long for a romantic proposal, as a unique proposal is as significant as the wedding ceremony. Apart from the renowned romance of the French, a recent Shanghai guy's "most powerful confession of the century" also touched many. The Shanghai man, Mr. Zhang, who is obsessed with GPS drawing, decided on his 29th birthday to fulfill his dream of traveling around China with his girlfriend by driving and walking. In 2014, he quit his job and, guided by Baidu Maps on his phone, embarked on a journey full of curiosity, excitement, and eagerness for the unknown world, as well as a courageous and innovative plan to chase his dream. From Shanghai to Yunnan and Guizhou, then back to Hainan, he traveled to every corner of southern China, enduring harsh self-driving conditions such as scorching heat, typhoons, and extreme altitude changes. He meticulously recorded every step of his journey, covering a total of 23,007.1 kilometers of southern China. Behind the self-driving adventure hides an even greater "secret" - the most powerful century proposal. In March 2015, Mr. Zhang finally completed his journey. Besides touring the south of China, he had another "unspoken" secret. A miracle happened after he finished his remarkable self-driving journey in southern China. Upon returning home, he imported the travel data into his computer, connecting the points he had walked into a line. The route pattern turned out to be a heart shape in the Yangtze River Delta and a giant English "MARRY ME" twisting across the entire southern China. It turned out that Mr. Zhang had planned his travel route in advance, recording his journey with GPS along the way, and finally connecting the footprints on Baidu Maps to form the words "MARRY ME" and a heart. It was only at this moment that the biggest purpose of this trip was revealed - the romantic plan was a proposal to his girlfriend. When Mr. Zhang's girlfriend saw the pictures, she was moved to tears and happily accepted his proposal. This action, known as the "strongest confession in history," finally ended in a comedy. Mr. Zhang expressed his joy at the successful proposal, feeling like he was still dreaming. He described himself not as an artist, but as a GPS painter - planning the route in advance on Baidu Maps, using GPS during the journey, and then connecting the footprints on the map to finish the drawing. He told the interviewer, "This is my motherland and hometown. When I was a child, the geographical coordinates in the textbooks seemed very distant. As I grew up, I hoped to see the mountains and rivers of my hometown in my own way, to get to know the China that was not taught in the textbooks. Through this trip, I have matured a lot. I also had a perfect proposal experience. Now I feel like I'm still dreaming, and it feels great to have my girlfriend become my wife." During their days traveling in southern China, besides creating this huge painting, Mr. Zhang also used a camera to record every place they visited. He compiled the journey into a 5-minute personal short film, considering it a memorable birthday gift to himself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>【PConline资讯】近日，有外国媒体拍摄到宝沃BX5的路试谍照图。该车是宝沃旗下第二款SUV，其量产车型将在11月开幕的广州车展中正式发布。量产版车型将会搭载汽油动力系统和混合动力系统。宝沃BX5概念车宝沃BX5是一辆紧凑级SUV，其车身长度约为4.5m，轴距接近2700mm。车身轮廓与此前北京车展亮相的概念车基本一致，车灯的造型也没有太大的变化。宝沃BX5概念车宝沃BX5在动力方面，将推出汽油版和混动版。汽油版车型将搭载1.8T涡轮增压发动机，搭配6速手自一体变速器。混动版车型将搭载1.4T发动机和电动机，搭配7速双离合变速器。编辑点评：此前宝沃的BX7是初尝到了汽车市场的甜头，其外形有豪华SUV的影子，丰富的配置有着极高的性价比。现在准备推出紧凑级的BX5，是要丰富自己的车系，和抢夺现在火热的小型SUV市场。</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>【PConline News】Recently, foreign media captured spy photos of the Borgward BX5 during road tests. This vehicle is the second SUV under Borgward's brand, and the production model will be officially unveiled at the Guangzhou Auto Show in November. The production version will be equipped with gasoline powertrain and hybrid powertrain systems. The Borgward BX5 concept car is a compact SUV with a body length of about 4.5 meters and a wheelbase close to 2700mm. The body profile is basically the same as the concept car that appeared at the Beijing Auto Show earlier, with no significant changes in the shape of the headlights. In terms of power, the Borgward BX5 will be available in gasoline and hybrid versions. The gasoline version will be powered by a 1.8T turbocharged engine paired with a 6-speed automatic transmission. The hybrid version will be powered by a 1.4T engine and an electric motor, paired with a 7-speed dual-clutch transmission. Editor's Comment: Previously, Borgward's BX7 tasted the sweetness of the automotive market, with a luxurious SUV appearance and rich features offering great value for money. Now preparing to launch the compact BX5, Borgward aims to enrich its product line and compete in the current hot small SUV market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 夏季很多人会遇到上火这个难题，上火不仅会造成口臭、口疮、牙痛的出现，而且还会让人长痘痘。为了解决这种情况，小编今天给大家介绍三款降火汤，喝了不仅去除火气还能清肠，有减肥瘦身的作用！1、苦瓜汤苦瓜性寒，夏天成熟，在夏季食用能够清热去火、止渴消暑，在夏季用苦瓜来做汤喝，可以很好的帮助大家达到降火的目的。 同时，在苦瓜中维生素C的含量比较高，人们在食用之后，不仅可以很好的滋补身体，为身体补充能量、提高身体机能，还能够让肌肤变得白暂嫩滑。除此之外，经常吃苦瓜还有降血糖以及调节内分泌的作用，所以在平时适量的吃苦瓜对于滋补身体、减肥瘦身有非常好的帮助。苦瓜排骨汤的做法 食材：排骨、苦瓜、玉米、葱、料酒、生姜、胡椒粉、食盐。做法：1、首先把排骨清洗干净，然后焯一下水，去除排骨的油脂以及腥味。2、把排骨放入锅中加入水、生姜、葱、料酒，用大火煮开。3、在汤中加入切好的玉米煮开。4、把苦瓜瓤去除干净后，放入煮开的汤中，用小火进行熬煮。5、在煮开的汤水中加入食盐调味就可以食用了。2、冬瓜汤夏天吃冬瓜清热祛暑、润肺生津，有助于夏季降火。而且富含丰富的维生素C、钾元素，而钾元素是人体必需的微量元素，具有排水消肿的作用。冬瓜中含有丙醇二酸，这种物质能够有效的抑制糖类转化成脂肪，另外冬瓜中本来就不含脂肪，热量也很低，对于减肥是再好不过的食物了。在这里小编向大家推荐一款汤，对于夏天祛湿有很好的帮助。冬瓜淮山蹄髈汤的做法 食材：蹄髈、冬瓜、淮山、姜、料酒、食盐。做法：1、把蹄髈进行清洗，加入料酒，用水焯一下，以此来去除蹄髈的油腻。2、把淮山、冬瓜、生姜洗干净，放置一边。3、把焯过水的蹄髈放入锅中，用大火进行熬煮一个小时。4、加入淮山、冬瓜、食盐一起用小火慢炖。3、莲藕汤吃莲藕对于夏天的炎热有很好的去除，用莲藕制成的藕粉，能够消食止泻、开胃清热，对身体虚弱有很好的滋补作用，在古代，藕粉一度被钦定为御膳贡品。 一般来说，莲藕属于老幼妇孺都可以食用的食物，特别是对于高热病患者、高血压患者、贫血患者来说，更是可以适当的多吃一点。下面就为大家推荐一款以莲藕为材料制作的汤，能够有效的保健身体。百合莲藕梨汤 食材：百合、莲藕、梨、冰糖、枸杞 蜂蜜。做法：1、将百合、莲藕、梨洗干净，切成块状，放置在盘子中。2、把枸杞洗干净，放在一边。3、把切成块状的莲藕，放在锅中煮5分钟。</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>In summer, many people may encounter the difficult problem of "excessive internal heat". Excessive internal heat not only causes bad breath, mouth ulcers, and toothache, but also leads to acne. In order to solve this situation, today the editor will introduce three soups that can reduce internal heat. Drinking these soups can not only remove internal heat and cleanse the intestines, but also have the effect of weight loss and slimming! 1. Bitter Melon Soup Bitter melon has a cold nature. When it ripens in summer, consuming it can clear heat, relieve internal heat, quench thirst, and relieve summer heat. Making soup with bitter melon in summer can help everyone achieve the goal of reducing internal heat. Additionally, bitter melon is rich in vitamin C. After consumption, it can not only nourish the body, replenish energy, and improve physical functions, but also make the skin white, tender, and smooth. Furthermore, regularly eating bitter melon can help lower blood sugar levels and regulate endocrine function. Therefore, consuming bitter melon in moderation is very beneficial for nourishing the body, weight loss, and slimming. Recipe for Bitter Melon Pork Rib Soup Ingredients: pork ribs, bitter melon, corn, scallion, cooking wine, ginger, ground pepper, salt. Method: 1. Clean the pork ribs, blanch them in water to remove excess fat and odor. 2. Put the pork ribs in a pot with water, ginger, scallion, and cooking wine, bring to a boil. 3. Add the chopped corn to the boiling soup. 4. Clean the bitter melon, remove the seeds, and add it to the boiling soup. Simmer over low heat. 5. Season with salt and the soup is ready to be served. 2. Winter Melon Soup Eating winter melon in summer can clear heat, relieve summer heat, moisten the lungs, and generate body fluids, which helps reduce internal heat in summer. Winter melon is rich in vitamin C and potassium, an essential trace element for the human body with diuretic and anti-inflammatory effects. Winter melon contains citric acid, which can effectively inhibit the conversion of sugars into fat. Moreover, winter melon is naturally low in fat and calories, making it an excellent food for weight loss. Here is a recommended soup that is beneficial for dampness removal in summer. Recipe for Winter Melon and Chinese Yam Soup Ingredients: pig trotters, winter melon, Chinese yam, ginger, cooking wine, salt. Method: 1. Clean the pig trotters, add cooking wine, blanch in water to remove excess grease. 2. Wash the Chinese yam, winter melon, and ginger, set aside. 3. Put the blanched pig trotters in a pot, simmer over high heat for an hour. 4. Add Chinese yam, winter melon, and salt, simmer over low heat. 3. Lotus Root Soup Eating lotus root in summer is effective in relieving heat. Lotus root powder can aid digestion, stop diarrhea, stimulate appetite, and clear heat. It has a good nourishing effect on weak bodies. In ancient times, lotus root powder was once designated as a tribute to the imperial court. Generally, lotus root is suitable for people of all ages, especially for patients with high fever, hypertension, and anemia, who can eat more lotus root appropriately. Below is a recommended soup made with lotus root to maintain good health. Recipe for Lily, Lotus Root, and Pear Soup Ingredients: lily, lotus root, pear, rock sugar, wolfberry, honey. Method: 1. Wash the lily, lotus root, and pear, cut them into pieces, and place them in a plate. 2. Wash the wolfberry and set aside. 3. Put the cut lotus root in a pot and boil for 5 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>3月6日是一年中的第3个节气——惊蛰。三月惊蛰，天气转暖，万物复苏。这个时候的养生秘诀在于顺应阳气的升发、万物始生的特点，使自身的精神、情志、气血也如春日一样舒展畅达，生机盎然。一、惊蛰应多吃清淡食物《黄帝内经》指出：“正气存内，邪不可干。”意思是说，在人体正气强盛的情况下，邪气不容易侵入机体，也就不会发生疾病，所以增强体质，提高人体的抗病能力十分重要。在日常饮食中注意做到饮食品种的多样化，以保证人体能够得到丰富而充足的营养素供给。由于惊蛰后的天气明显变暖，不但各种动物开始活动，微生物(包括能引起疾病的细菌、病毒)也开始生长繁殖，所以人们需要进行饮食调养，增强体质以抵御病菌或病毒的侵袭。惊蛰节气是传染病多发的日子，要预防季节性的传染病的发生，应多吃清淡食物，如糯米、芝麻、蜂蜜、乳品、豆腐、鱼、蔬菜、甘蔗等。维生素对人体的生理功能有着重要的作用，特别是维生素c的摄入能够明显提高人体的抗病能力，维生素c含量丰富的食物有：水萝卜、辣椒、甜椒、苦瓜、蒜苗、白菜薹、红菜薹、油菜薹、甘蓝(圆白菜)、菜花、西兰花、芥菜、芥蓝、菠菜、萝卜缨、木耳菜、香菜、苋菜、芦笋、白薯叶、山楂、黑加仑、沙棘、柑橘、刺梨、番石榴、桂圆、荔枝、木瓜等。二、惊蛰宜适当进补惊蛰的饮食原则是保阴潜阳，可以适当选用一些补品，以提高人体的免疫功能。一般应选服具有调血补气、健脾补肾、养肺补脑的补品。像鹌鹑汤、白木耳煮麻雀、清补菜鸭、枸杞银耳羹、荸荠萝卜汁、枸杞蛇肉汤、虫草山药烧牛髓、扁豆粥等。或食用一些海参、龟肉、蟹肉、银耳、雄鸭、冬虫夏草等，燥烈辛辣之品应少吃。下面给大家介绍两款进补食疗方：1.猪心枣仁汤材料：猪心1个，酸枣仁15克，茯苓15克，远志5克，味精、精盐各适量。做法：先将猪心剖开，洗干净;茯苓、酸枣仁、远志用细纱布袋装好，扎紧口与猪心同入砂锅，加水适量，先用武火烧沸，打去浮沫，后改文火慢炖，至猪心熟透后，加入少许精盐、味精调味即成。此汤有补血养心、益肝宁神之功效。适用于心肝血虚所致的心悸不宁，失眠多梦，记忆力减退;以及阵发性心动过速、风湿性心脏病、神经衰弱、癔病等。2.炖龙眼党参鸽肉汤材料：龙眼肉30克，党参30克，白鸽肉150克。做法：先将鸽肉洗干净，切成小块，与龙眼肉、党参同入砂锅，加水适量炖汤，鸽肉熟后饮汤，食肉和龙眼。此汤有滋肝肾、益脾气之功效。</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>March 6th is the third solar term of the year - "Jingzhe". In March, during the solar term of Jingzhe, the weather turns warm and all things revive. The key to health preservation at this time lies in following the characteristics of the rising yang energy and the beginning of all things, allowing one's spirit, emotions, and qi and blood to be as relaxed and smooth as a spring day, full of vitality. Firstly, during Jingzhe, one should eat more light and bland foods. "Huangdi Neijing" points out: "When the righteous qi is strong inside, evils cannot invade." This means that when the body's righteous qi is strong, evils are less likely to invade the body, and diseases will not easily occur. Therefore, it is very important to enhance one's constitution and improve the body's ability to resist diseases. In daily diet, it is important to ensure a variety of food types to ensure that the body receives rich and adequate nutrient supply. Due to the obvious warming weather after Jingzhe, not only various animals begin to be active, but also microorganisms (including bacteria and viruses that can cause diseases) begin to grow and reproduce. Therefore, people need to adjust their diet to enhance their constitution to resist the invasion of germs or viruses. Jingzhe solar term is a day when infectious diseases are more prevalent. To prevent the occurrence of seasonal infectious diseases, one should eat more light and bland foods, such as glutinous rice, sesame, honey, dairy products, tofu, fish, vegetables, sugarcane, etc. Vitamins play an important role in the body's physiological functions, especially the intake of vitamin C can significantly improve the body's ability to resist diseases. Foods rich in vitamin C include: watermelon radish, chili pepper, bell pepper, bitter melon, garlic sprouts, Chinese flowering cabbage, red flowering cabbage, oilseed rape, cabbage, cauliflower, broccoli, mustard greens, spinach, radish leaves, wood ear fungus, coriander, amaranth, asparagus, sweet potato leaves, hawthorn, black currant, sea buckthorn, citrus, prickly pear, pomegranate, longan, lychee, papaya, etc. Secondly, during Jingzhe, it is advisable to appropriately supplement nutrition. The dietary principle of Jingzhe is to nourish yin and hide yang, and one can appropriately choose some tonics to enhance the body's immune function. Generally, one should choose tonics that regulate blood and qi, invigorate the spleen and nourish the kidneys, and nourish the lungs and brain. Such as quail soup, white fungus cooked with sparrows, clear tonic duck, wolfberry silver ear soup, water chestnut radish juice, wolfberry snake soup, cordyceps yam stewed beef marrow, mung bean porridge, etc. Or consume some sea cucumber, turtle meat, crab meat, tremella, male duck, Cordyceps sinensis, etc., and avoid eating dry, spicy, and pungent foods. Here are two tonic dietary recipes: 1. Pork Heart Jujube Kernel Soup Ingredients: 1 pork heart, 15g sour jujube kernels, 15g Poria, 5g Yuanzhi, a little monosodium glutamate, and salt. Method: First, cut the pork heart open and wash it; wrap Poria, sour jujube kernels, and Yuanzhi in a fine gauze bag, tie it tightly, and put it into a clay pot with the pork heart. Add an appropriate amount of water, bring to a boil over high heat, skim off the foam, then simmer over low heat until the pork heart is fully cooked. Add a little salt and monosodium glutamate to season. This soup has the effects of nourishing blood and heart, benefiting the liver, calming the mind, and is suitable for symptoms caused by deficiency of heart and liver blood, such as palpitations, insomnia, dreaminess, memory loss; as well as paroxysmal tachycardia, rheumatic heart disease, neurasthenia, hysteria, etc. 2. Stewed Longan, Codonopsis, and Pigeon Soup Ingredients: 30g longan flesh, 30g Codonopsis, 150g pigeon meat. Method: Wash the pigeon meat, cut it into small pieces, put it into a clay pot with longan flesh and Codonopsis, add an appropriate amount of water to stew the soup. After the pigeon meat is cooked, drink the soup, eat the meat and longan. This soup has the effects of nourishing the liver and kidneys, invigorating the spleen, and is suitable for...</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>近几天全国都在关注一件事 年收入12万元就是高收入群体？！个税改革又在搞事情！消息一出瞬间上了微博热搜 微博大V也开始打抱不平 我们来梳理一下消息大致是这样的↓↓↓最新个税改革即将落地，目的在于进一步减轻中等以下收入者的税负，同时适当加大对高收入者的税收调节力度，堵塞高收入者非正规收入渠道。媒体解读也纷纷开始，认为年收入超过12万，将被划入高收入群体，并且要多缴税。12万就是高收入了？还要多缴税！工资刚涨一点又被打回解放前消息的真伪还没确定12万的话题已爆发出洪荒之力被全国网友们彻底玩坏：网友评论路见不平一声吼平的：@闹红一舸舫：交税的时候就把我列入富人了[怒骂]@会跑的Su：刘强东一个月才拿1块钱呢！@妳在我心中就是故鄉：大叔卖早点月入2万，一不小心年收入12万元成高收入群体。。。@科技头条菌：瞬间有上亿人晋升高收入群体，今天你被达标了吗？@-LV：本来工资稍微涨了点，政策一出，立刻打回解放前。关注点完全没对焦的：@RAY：这日子啥都不缺，就得坚持收看新闻联播@票票在手爽歪歪：我觉得评论里的人都是来装逼的。。。@小鱼的那片森林：天朝套路深，我要去火星@雪爪：我是在上税法课吗？被12万甩好几条街的：@王二小：八线城市的不懂你们在讨论什么@胡椒：好紧张，可我呵呵年收入三万。。。[摊手][摊手][摊手]@一只安静的枕头：蓝瘦丝，炒香菇[晕]@给我一片创可贴：年收入不到12万的仰望。。。。@小周周：看了看我的存款，和我没什么关系@wenfei:中国人真有钱，可是跟我没有一毛钱关系啊突然找到了人生的目标：@Suk是sunshine：哦，我毕业以后还是回家好好在我的四线小城市待着吧@涂涂alpha ： 先定个小目标，比如说我先有资格交税[挖鼻]@为玉入迷我也一路跟：………………为能先交税而奋斗[挖鼻]北上广直接急眼的：@夏上罅树老公说老子吃不消啊：别逗了。。在一线城市年收入12w刚好够吃够住而已。。</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>In recent days, the whole country has been paying attention to one thing - an annual income of 120,000 yuan is considered a high-income group?! The personal income tax reform is stirring up trouble again! As soon as the news came out, it trended on Weibo instantly. Weibo influencers also started to express their dissatisfaction. Let's summarize the news roughly like this ↓↓↓ The latest personal income tax reform is about to be implemented, aiming to further reduce the tax burden on those with medium and below-average incomes, while appropriately increasing the tax adjustment for high-income earners and blocking irregular income channels for high-income earners. Media interpretations have also begun to emerge, suggesting that those with an annual income exceeding 120,000 yuan will be classified as high-income earners and will have to pay more taxes. 120,000 yuan is considered high income? And more taxes need to be paid! Just when salaries have increased a bit, they are pushed back to the pre-liberation era. The authenticity of the news is not confirmed yet, but the topic of 120,000 yuan has already sparked a huge response, completely driven by netizens across the country: Netizens commented on the unfairness they see: @闹红一舸舫: When paying taxes, I'm suddenly considered a rich person [angry scolding] @会跑的Su: Liu Qiangdong only earns 1 yuan a month! @妳在我心中就是故鄉: Uncle who sells breakfast earns 20,000 a month, accidentally becoming a high-income group with an annual income of 120,000 yuan... @科技头条菌: Instantly, over a hundred million people have been promoted to the high-income group. Have you met the criteria today? @-LV: Salaries just slightly increased, but with the new policy, it's back to the pre-liberation era immediately. Completely unfocused attention: @RAY: Life is lacking nothing, but I must persist in watching the news broadcast @票票在手爽歪歪: I think people in the comments are just showing off... @小鱼的那片森林: The tricks in the Heavenly Kingdom are deep, I want to go to Mars @雪爪: Am I attending a tax law class? Feeling left behind by the 120,000 yuan: @王二小: People in lower-tier cities don't understand what you are discussing @胡椒: Feeling nervous, but I only earn 30,000 a year... [shrug][shrug][shrug] @一只安静的枕头: Blue thin silk, stir-fried mushrooms [dizzy] @给我一片创可贴: Those with an annual income of less than 120,000 yuan look up in admiration... @小周周: After checking my savings, it has nothing to do with me @wenfei: Chinese people are indeed wealthy, but it has nothing to do with me Suddenly found the goal of life: @Suk是sunshine: Oh, after graduation, I'd better go back home and stay in my fourth-tier small city @涂涂alpha: Let's set a small goal first, like being eligible to pay taxes [picking nose] @为玉入迷我也一路跟: ... Struggling to be able to pay taxes first [picking nose] Those in Beijing, Shanghai, and Guangzhou are directly anxious: @夏上罅树老公说老子吃不消啊: Don't joke... in first-tier cities, an annual income of 120,000 yuan is just enough to eat and live.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>江苏太平洋石英股份有限公司2014年度内部控制自我评价报告江苏太平洋石英股份有限公司2014年度内部控制自我评价报告根据《企业内部控制基本规范》及其配套指引的规定和其他内部控制监管要求(以下简称企业内部控制规范体系)，结合江苏太平洋石英股份有限公司(以下简称公司或本公司)内部控制制度和评价办法，在内部控制日常监督和专项监督的基础上，我们对公司2014年12月31日(内部控制评价报告基准日)的内部控制有效性进行了评价。一、 重要声明按照企业内部控制规范体系的规定，建立健全和有效实施内部控制，评价其有效性，并如实披露内部控制评价报告是公司董事会的责任。监事会对董事会建立和实施内部控制进行监督。经理层负责组织领导企业内部控制的日常运行。公司董事会、监事会及董事、监事、高级管理人员保证本报告内容不存在任何虚假记载、误导性陈述或重大遗漏，并对报告内容的真实性、准确性和完整性承担个别及连带法律责任。公司内部控制的目标是合理保证经营管理合法合规、资产安全、财务报告及相关信息真实完整，提高经营效率和效果，促进实现发展战略。由于内部控制存在的固有 局限性，故仅能为实现上述目标提供合理保证。此外，由于情况的变化可能导致内部控制变得不恰当，或对控制政策和程序遵循的程度降低，根据内部控制评价结果推测未来内部控制的有效性具有一定的风险。二、内部控制评价结论根据公司财务报告内部控制重大缺陷的认定情况，于内部控制评价报告基准日，不存在财务报告内部控制重大缺陷，董事会认为，公司已按照企业内部控制规范体系和相关规定的要求在所有重大方面保第1页 共5页江苏太平洋石英股份有限公司 2014 年度 内部控制自我评价报告持了有效的财务报告内部控制。根据公司非财务报告内部控制重大缺陷认定情况，于内部控制评价报告基准日，公司未发现非财务报告内部控制重大缺陷。自内部控制评价报告基准日至内部控制评价报告发出日之间未发生影响内部控制有效性评价结论的因素。三、内部控制评价工作情况(一) 内部控制评价范围公司按照风险导向原则确定纳入评价范围的主要单位、业务和事项以及高风险领域。纳入评价范围的主要单位包括本公司及 3 家全资子公司连云港柯瑞宝石英陶瓷材料有限公司、连云港太平洋光伏材料 有限公司、连云港太平洋金浩石英制品有限公司。</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Jiangsu Pacific Quartz Co., Ltd.'s 2014 Internal Control Self-Assessment Report According to the provisions of the "Basic Norms for Enterprise Internal Control" and its supporting guidelines, as well as other internal control regulatory requirements (hereinafter referred to as the Enterprise Internal Control Normative System), combined with the internal control system and evaluation methods of Jiangsu Pacific Quartz Co., Ltd. (hereinafter referred to as the Company or this Company), based on daily supervision and special supervision of internal control, we evaluated the effectiveness of the internal control of the Company as of December 31, 2014 (the benchmark date of the internal control evaluation report). I. Important Statement In accordance with the provisions of the Enterprise Internal Control Normative System, it is the responsibility of the company's board of directors to establish sound and effective internal control, evaluate its effectiveness, and truthfully disclose the internal control evaluation report. The supervisory board oversees the establishment and implementation of internal control by the board of directors. The management is responsible for organizing and leading the daily operation of enterprise internal control. The company's board of directors, supervisory board, directors, supervisors, and senior management ensure that this report does not contain any false records, misleading statements, or major omissions, and assume individual and joint legal responsibilities for the truthfulness, accuracy, and completeness of the report content. The objective of the company's internal control is to reasonably ensure the legality and compliance of business management, asset security, the truthfulness and completeness of financial reports and related information, improve operational efficiency and effectiveness, and promote the realization of development strategies. Due to inherent limitations in internal control, it can only provide reasonable assurance for achieving the above objectives. In addition, changes in circumstances may lead to inappropriate internal control or a decrease in the degree of compliance with control policies and procedures, and there is a certain risk in inferring the effectiveness of future internal control based on the internal control evaluation results. II. Conclusion of Internal Control Evaluation Based on the identification of significant deficiencies in the internal control of financial reports of the company, as of the benchmark date of the internal control evaluation report, there were no significant deficiencies in the internal control of financial reports. The board of directors believes that the company has maintained effective internal control over financial reporting in all significant aspects in accordance with the requirements of the Enterprise Internal Control Normative System and relevant regulations. Based on the identification of significant deficiencies in the internal control of non-financial reports of the company, as of the benchmark date of the internal control evaluation report, the company did not find any significant deficiencies in the internal control of non-financial reports. There were no factors affecting the conclusion of the evaluation of internal control effectiveness between the benchmark date of the internal control evaluation report and the date of issuance of the internal control evaluation report. III. Internal Control Evaluation Work Situation (1) Scope of Internal Control Evaluation The company determines the main units, businesses, and matters included in the evaluation scope, as well as high-risk areas, based on a risk-oriented approach. The main units included in the evaluation scope are the Company and its three wholly-owned subsidiaries: Lianyungang Kerui Quartz Ceramic Materials Co., Ltd., Lianyungang Pacific Photovoltaic Materials Co., Ltd., and Lianyungang Pacific Jinhao Quartz Products Co., Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>秋冬季节是很多人家开始进补的时候了，最近几天儿童医院就接连遇到几起婴幼儿吃东西堵住气道的情况，现场很多父母都异常焦虑不知道如何是好，以为只是小事情却可能断送了小小的生命，无不令人惋惜。 大闸蟹虽然美味，蒸熟的大闸蟹更是让人看了直流口水，但是也存在一定的隐患呢。6岁小男孩乐乐家就煮了大闸蟹，螃蟹煮好后乐乐开心地拿出去跟小伙伴一起分享，没过多久，孩子就被这螃蟹爪子卡住了。乐乐爸爸：“他咳嗽了一阵吐了出来，以为就出来了，他也能正常玩耍也没啥不正常的表现，第二天检查了一下说是支气管炎，就一直当支气管炎治着。”治疗几天后没见好转，拍了CT后才知道原来乐乐气管里的异物仍然存在，家长赶紧带乐乐来了儿童医院。儿童医院五官科副主任医师：“卡到右侧支气管一个蟹壳，大概有8天了。”以上案例还是比较轻微的，下面这个案例就属于比较严重的。 手术后异物被取出，卡住乐乐气管的螃蟹腿足足有3厘米长。不仅是6岁的乐乐，还有3岁半的小男孩明明早上在吃早餐的时候被馒头卡住。馒头卡住了明明的双侧支气管，属于急诊中的急诊。他们是外地来打工的，本就不宽裕，住在出租房中。早上9点，和以往一样明明妈妈早上起来给一家人做早餐，丈夫出去上班后，她就独自一人抱着宝宝吃起了早餐。然而悲剧发生了，当时3岁大的宝宝在吃馒头，孩子吃了两三口突然就停下来了，表情有异样，难以下咽的模样！但是妈妈却没有意识到这个事情的严重性，当时她就给孩子喂水。喂了几次后发现还是没有缓解，使劲拍背也没有见效！后面看看孩子的反应，脸色发青，逐渐有发紫的现象，当时她就急了，急忙联系房东帮忙送去医院。医师给孩子检查后发现心跳已经停止！整个发青发紫，体温已经逐渐冰冷，孩子已经失去了知觉，紧急采取了心肺复苏术，持续了20分钟依旧没有起色，遗憾的病没有挽回孩子的生命。女人无法接受这个现实，女人哇地哭了。“孩子没死，还有希望，我要打120。”女子打了120，随后一辆救护车又将孩子送去别的医院。可惜，结果没有改变。 医师建议 ”当患者自己有呼吸同时他在主动的大声的用力咳嗽排出异物的时候，我们不要拍他的背，因为这时候拍背会干扰他自主咳嗽的节奏，不利于异物的卡出。另外一种情况就是当患者出现异物窒息以后，他的呼吸已经完全被阻塞了，患者不能呼吸，面色青紫，这个时候我们拍背法就不如另外一种方法——海姆立克手法更有效。</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>The autumn and winter seasons are when many families start to nourish their bodies. In recent days, several cases of infants and young children choking on food have occurred in children's hospitals. Many parents on the scene are extremely anxious and unsure of what to do. They thought it was just a minor issue, but it could potentially cost a young life, which is truly regrettable. Although hairy crabs are delicious, steamed hairy crabs can make one's mouth water. However, there are certain risks. Six-year-old Lele cooked hairy crabs at home. After cooking the crabs, Lele happily took them out to share with his friends. Not long after, the child got his throat stuck by a crab claw. Lele's father said, "He coughed and vomited for a while, thinking it was out. He could still play normally without any abnormal signs. The next day, he was diagnosed with bronchitis and was treated as such." After several days of treatment with no improvement, a CT scan revealed that there was still a foreign object in Lele's trachea. The parents hurriedly brought Lele to the children's hospital. The deputy chief physician of the ENT department at the children's hospital said, "A crab shell has been stuck in the right bronchus for about 8 days." The above case is relatively mild, the following case is more severe. After the operation, a crab leg that was 3 centimeters long was removed from Lele's trachea. Not only Lele, but also a 3-and-a-half-year-old boy named Mingming got choked on a steamed bun during breakfast. The steamed bun blocked Mingming's bilateral bronchi, which was a critical emergency. They were migrant workers from another city and were not well-off, living in a rented house. At 9 o'clock in the morning, as usual, Mingming's mother got up to make breakfast for the family. After her husband went to work, she was alone holding the baby and having breakfast. However, a tragedy occurred. When the 3-year-old baby was eating the steamed bun, after two or three bites, he suddenly stopped, with a strange expression and a choking appearance! But the mother did not realize the seriousness of the situation. At that time, she gave the child water. After feeding several times and finding no relief, vigorously patting the back also had no effect! Looking at the child's reaction, his face turned blue, gradually showing signs of purple. At that moment, she panicked and quickly contacted the landlord to help send the child to the hospital. After the doctor examined the child, it was found that the heartbeat had stopped! Turning blue and purple, body temperature gradually dropping, the child had lost consciousness. Emergency cardiopulmonary resuscitation was performed, but after 20 minutes, there was still no improvement, and unfortunately, the child's life could not be saved. The woman could not accept this reality and burst into tears. "The child is not dead, there is still hope, I need to call 120." The woman called 120, and then an ambulance took the child to another hospital. Unfortunately, the outcome remained unchanged. The doctor advised, "When the patient is able to breathe and actively cough to expel the foreign object, we should not pat their back, as it may disrupt their rhythm of coughing, which is not conducive to dislodging the foreign object. Another situation is when the patient is completely blocked from breathing due to choking on a foreign object, unable to breathe, with a bluish-purple complexion. At this time, the back patting method is not as effective as the Heimlich maneuver."</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>什么样的笔记本电脑适合学生使用？相信很多家长都曾为这个问题困扰过。肯定的是，配置低的笔记本影响使用体验，价位太高的笔记本并不适合学生使用，除了主张孩子的虚荣心别无好处。那么，什么样的笔记本电脑才适合学生使用呢？今天，小编在市面上搜罗了一些适合学生党使用的笔记本电脑，这些笔记本电脑均具备高配低价的特点，无疑是学生用机的上上之选。当然，大家都可以推荐~ 学生党必入超值笔记本大搜罗&amp;nbsp;神舟华硕名列其中 战神K610D-I5D1战神K610D-I5D1是一款大众学生机，该机配置强悍，3499元的价格延续了神舟一贯的高性价比路线，非常适合学生使用。神舟战神K610D-i5 D1，采用了英特尔的睿i5 4210MQ处理器，独显配备了2GB DDR3显存的NVIDIA GeForce GT 840M独立显卡，15.6英寸的显示屏，分辨率为1920×1080的全高清配置，对于主流大型游戏都能轻松运行。硬件配置方面，战神K610D-i5 D1除了搭载i5-4210M处理器和2GB显存的GT 840M独立显卡外，还搭载了4GB内存、500GB机械硬盘、15.6英寸1920×1080分辨率的IPS屏幕，整机性能出众，性价比高。 学生党必入超值笔记本大搜罗&amp;nbsp;神舟华硕名列其中 华硕W519D4210华硕W519D4210是一款优秀的全能型笔记本。该机主打轻薄时尚，3590元的价格铸就了强悍配置下的高性比价。在配置上，华硕W519D4210 采用了15.6英寸屏幕，搭载了Intel酷睿i7四代四核CPU处理器，主频1.7GHz，最高睿频2700MHz，4GB内存容量，最大可达8GB，更有2GB入门级独立显卡，充分满足学生的日常学习娱乐需求，性能稳定，运行更高效。华硕W519D4210复合材质打造的黑色机身，线条流畅、庄重大方；拥有500GB硬盘容量，学习文档、影音娱乐，都能轻松存储。15英寸的显示屏，搭配内置音效芯片，打造近乎完美的视听效果，非常适合学生使用。</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>What kind of laptop is suitable for students to use? I believe many parents have been troubled by this question. It is certain that a laptop with low configuration affects the user experience, and a laptop with a high price is not suitable for students to use, except for advocating children's vanity. So, what kind of laptop is suitable for students to use? Today, the editor has collected some laptops suitable for student use in the market. These laptops all have the characteristics of high configuration and low price, undoubtedly the top choice for student users. Of course, everyone can also recommend~ Students must have a great value laptop search, Hasee and Asus are among them. Hasee Warwolf K610D-I5D1 is a popular student laptop with powerful configuration. Priced at 3499 yuan, it continues Hasee's consistent high cost performance route, very suitable for student use. Hasee Warwolf K610D-I5D1 is equipped with Intel Core i5 4210MQ processor, and a dedicated graphics card NVIDIA GeForce GT 840M with 2GB DDR3 memory. The 15.6-inch display has a resolution of 1920×1080 full HD configuration, capable of running mainstream large games easily. In terms of hardware configuration, in addition to the i5-4210M processor and 2GB memory GT 840M dedicated graphics card, Warwolf K610D-I5D1 also comes with 4GB memory, 500GB mechanical hard drive, and a 15.6-inch 1920×1080 resolution IPS screen, outstanding overall performance and high cost performance. Students must have a great value laptop search, Hasee and Asus are among them. Asus W519D4210 is an excellent all-around laptop. It emphasizes lightweight, stylish design, and the price of 3590 yuan ensures high cost performance under powerful configuration. In terms of configuration, Asus W519D4210 features a 15.6-inch screen, Intel Core i7 fourth-generation quad-core CPU processor with a base frequency of 1.7GHz and a maximum turbo frequency of 2700MHz, 4GB memory capacity expandable to 8GB, and a 2GB entry-level dedicated graphics card, fully meeting students' daily study and entertainment needs, stable performance, and more efficient operation. The black body of Asus W519D4210 is made of composite materials, with smooth and dignified lines; it has a 500GB hard drive capacity, making it easy to store study documents and multimedia entertainment. The 15-inch display screen, combined with built-in audio chip, creates an almost perfect audio-visual effect, very suitable for student use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>从游戏发展史出发，两句话剖析魔兽世界的发展趋势。 大众观点一：WOW的衰落是时代发展的必然。首先这个观点不能说是错的，但的确是比较狭隘的。我们可以比WOW年纪更大的梦幻西游来对比，WOW是接近2005年在中国开服的，梦幻西游是2003年开服的。现在的梦幻西游无论是吸金能力，游戏人数都是过去的数倍之多。没玩过的可以挑个周末随便建个号看看，有些区卡得甚至走一步，退三步，大家仍然挤破头去玩。反观WOW，玩个T练级排本，10点以后都要排5分钟，DPS要排15-20多分钟从这一点上来看，只要你游戏有维持玩家和发展新玩家的能力，游戏生命力会随时间衰落这个观点是比较片面的，为什么会产生这样的反差，这个就要从游戏价值来说，下面我来分析两款游戏的游戏价值当然可能会有很多人说梦话西游有很多人是多开的，是五开，甚至十开的。这个对于个人玩家来说，可能你觉得有影响，但对于这款游戏来说，你一个人五开，十开，要消耗5倍10倍的点卡，你依然乐此不疲，更加佐证这款游戏的生命力和商业价值。 大众观点二：版本更新，旧装备淘汰，新装备出现这个正是WOW好玩的地方。 我觉得这个正是魔兽衰落的真正原因，过了版本之后装备没有任何价值。这是个真实的事情我高中时在玩魔兽，冲点卡，买金，建公会带团，打造了三橙战士和其他毕业的职业。我同学花了5000买了一把130的无级别四法青云，我大学毕业时，我的WOW账号里的装备一毛不值（在游戏里也没有价值，连橙装连幻化都不行）。我同学的四法青云卖了28000，等于他拿无级别装逼玩了5年，还赚了两万多。我花了差不多的钱，更多的时间，研究攻略，组建工会，带团打BOSS，结果上版本的顶级装备，过一个版本就不如绿装，想幻化装个逼都不给。70年代一只凤凰，G团拍到13万金，那时候一张大卡2500-3000的样子，结果下个版本能单刷了，你要是买了凤凰的人，你是不是有点爆炸。就算没买凤凰的人，这个版本还会去努力的为了这种稀有坐骑努力攒金吗？肯定也是等下个版本回来单刷了。装备是不是也是同理呢？ 装备刷了下个版本就是扔商店，坐骑下个版本可以单刷，那这款游戏的粘度在哪里？都是为了游戏体验，装备无所谓？那团队出装备你一样都不拿可以？以我70年代，和85年代带过的无数团来看，玩这个游戏都是为了装备。我们是DKP团，本来就是DKP谁高谁拿，很公平，结果也常有人为了装备闹不开心。</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Starting from the history of game development, analyze the development trend of World of Warcraft in two sentences. Popular viewpoint one: The decline of WoW is an inevitable result of the times. While this viewpoint is not entirely wrong, it is indeed quite narrow. We can compare WoW, which was launched in China around 2005, with the older game "Journey to the West," which was launched in 2003. Currently, Journey to the West, in terms of revenue generation and player numbers, far surpasses WoW. For those who have not played it, you can easily create an account and see for yourself on a weekend. In some servers, players are still eager to play despite facing difficulties in logging in. On the other hand, in WoW, whether it's forming a team to level up or raiding, players have to wait in queues for 5 minutes after 10 p.m., and DPS players have to wait for 15-20 minutes. From this perspective, the viewpoint that a game's vitality will decline over time as long as it can maintain existing players and attract new ones is somewhat one-sided. The reason for this contrast lies in the value of the games, which I will analyze below. Of course, some may argue that many players in Journey to the West use multiple accounts, even five or ten at a time. While this may affect individual players, for the game itself, even if you play with five or ten accounts, you still need to consume five or ten times the game points, which further proves the vitality and commercial value of the game. Popular viewpoint two: Version updates, old equipment being phased out, and new equipment appearing are what make WoW fun. I believe this is the real reason for the decline of Warcraft. After each version update, the equipment loses all its value. This is a true story: when I was in high school, I played Warcraft, topped up game points, bought gold, founded a guild, led raids, and built three orange-clad warriors and other high-level professions. My classmate spent 5000 to buy a level 130 non-grade Four-Law Qingyun sword. By the time I graduated from college, the equipment in my WoW account was worthless (it had no value in the game, not even for transmogrification). My classmate sold the Four-Law Qingyun for 28,000, which means he played with a non-grade equipment for 5 years and made over 20,000. I spent almost the same amount of money, more time, studied strategies, formed a guild, led raids, and the top-tier equipment of the previous version was not as good as green equipment in the next version, and you couldn't even transmogrify it. In the 70s, a Phoenix mount was sold for 130,000 gold in the guild, and a big card cost around 2500-3000. In the next version, it could be soloed. If you were the one who bought the Phoenix, wouldn't you feel a bit frustrated? Even if you didn't buy the Phoenix, would you still strive to save gold for this rare mount in the next version? Surely, you would wait for the next version to solo it. Does the same logic apply to equipment? Once the equipment is outdated in the next version, it's like throwing it in the store. If mounts can be soloed in the next version, where is the stickiness of this game? Isn't it all for the gaming experience, and equipment doesn't matter? Then why bother with team equipment drops if you're not going to take any? From my experience leading numerous raids in the 70s and 85s, players play this game for the equipment. We were a DKP guild, where the one with the highest points got the loot, which was fair, but there were often disputes over equipment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>保险学-考研参考书目《政治经济学教程》宋涛中国人民大学出版社2006年版《政治经济学》逢锦聚等高等教育出版社2007年版《西方经济学》高鸿业中国人民大学出版社《微观经济理论基本原理与扩展》尼克尔森 中国人民大学出版社《宏观经济学》 曼昆 中国人民大学出版社辅助书目：《微观经济学十八讲》平新乔《微观经济学：现代观点》范里安《宏观经济学》巴罗专业规划新祥旭教研室对专业课解析：正是由于专业课比较复杂，只要考生认真研究专业课，把握专业课考试的本质和规律，那么，专业课的复习就能够事半功倍。第一阶段：确定专业在这一阶段，同学必须要根据三个最重要的因素来正确选择报考专业。这三个重要因素是：1.本科专业与研究生专业的匹配程度2.对研究生专业真实的喜好程度3.对研究生专业天然的擅长程度第二阶段：进行通用知识点学习在专业确定后，还需更多时间考虑更多因素才能最终决策报考学校。在定了专业却没定学校的这段时期，很多同学不会进行专业课学习，因为他们认为同一专业，不同学校考的不一样，在没有最终确定学校之前，无法开始学习。其实这是一个错误的认识。因为，虽然不同学校同一专业学习内容不全相同，但只要是同属于一个专业，无论哪个学校所的考查范围，一定有20%左右的知识点是重叠的。这不同学校都一致要求掌握的20%相同知识点，我们称之为通用知识点。通用知识点往往是基础层面的知识点，也就是在未定学校之前就应该开始学习的专业课内容。我们在确定专业后，就应采用特殊方案锁定通用知识点，然后针对通用知识点，进行2轮预热理解与1轮初始记忆。第三阶段：确定学校这一阶段，同学应综合多种因素来正确选择报考学校。影响学校选择的因素很多，但最重要的一个因素是你自身的考试能力。同一专业，不同学校竞争强度不同，越好的学校越难考，你有多强的考试能力你就可以考多好的学校。但是自己的考试能力未来能强到什么程度，自己力所能及的最好学校是那所学校，所以确定学校的一个重要因素就是充分的了解自己的实力。第四阶段：进行全范围知识点学习在报考学校确定后，同学应利用四种资料(专业招生目录、历年真题、公开指定参考书籍和内部默认学习资料)来确定专业课需要复习的全部知识点范围。当专业课可能考查的全部知识点确定之后，考生应该将全范围知识点快速理解认知1轮，然后针对通用知识点阶段未学部分再重点理解认知2至3轮。</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Insurance Studies - Reference Books for Postgraduate Entrance Examination "Political Economy Tutorial" by Song Tao, Renmin University of China Press, 2006 edition "Political Economy" by Feng Jinju and others, Higher Education Press, 2007 edition "Western Economics" by Gao Hongye, Renmin University of China Press "Microeconomic Theory: Basic Principles and Extensions" by Nicholson, Renmin University of China Press "Macroeconomics" by Mankiw, Renmin University of China Press Supplementary Books: "Eighteen Lectures on Microeconomics" by Ping Xinqiao "Microeconomics: Modern Perspectives" by Fan Lian "Macroeconomics" by Barro Professional Planning by Xin Xiangxu Teaching and Research Office on Professional Course Analysis: Due to the complexity of professional courses, as long as candidates study professional courses carefully and grasp the essence and rules of professional course exams, the review of professional courses can be twice as effective. Phase One: Determining the Major In this phase, students must correctly choose a major based on three most important factors. These three important factors are: 1. The degree of match between undergraduate major and graduate major 2. Genuine interest in the graduate major 3. Natural aptitude for the graduate major Phase Two: Studying General Knowledge Points After determining the major, more time needs to be spent considering more factors to make the final decision on which school to apply to. During the period when the major is decided but the school is not yet determined, many students do not study professional courses because they believe that the exams for the same major at different schools are different, and they cannot start studying until the school is finally decided. In fact, this is a misconception. Although the study content of the same major at different schools is not entirely the same, as long as it belongs to the same major, about 20% of the knowledge points are overlapping regardless of the exam scope set by different schools. These knowledge points that different schools all require mastery of, about 20%, are called general knowledge points. General knowledge points are often basic-level knowledge points, which should be studied before the school is determined. After determining the major, a special plan should be adopted to identify general knowledge points, followed by 2 rounds of preliminary understanding and 1 round of initial memorization for the general knowledge points. Phase Three: Determining the School In this phase, students should consider various factors to correctly choose the school to apply to. There are many factors that influence the choice of school, but the most important factor is your own exam ability. For the same major, the competition intensity varies among different schools, and the better the school, the harder it is to get in. The better your exam ability, the better school you can apply to. However, the extent to which your exam ability can improve in the future and the best school you can realistically aim for depend on your own capabilities. Therefore, an important factor in determining the school is to fully understand your own strengths. Phase Four: Studying All Knowledge Points After determining the school to apply to, students should use four types of materials (professional enrollment catalogs, past exam papers, publicly designated reference books, and internally designated study materials) to determine the full range of knowledge points that need to be reviewed for professional courses. Once all the knowledge points that may be tested in the professional courses are determined, candidates should quickly understand and recognize all the knowledge points in one round, and then focus on understanding and recognizing the parts that have not been studied in the general knowledge points stage for 2 to 3 rounds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>在我们的日常生活中，总有几个让你不省心的朋友。比如你建了一个好友群，在你看来有这些人就够了，然而总有人会不打一声招呼就拉进了其他人。又比如开开心心的聚完一次餐，你付完了所有的费用，等到要结算AA时，有的人早就不见踪影，此时的你，尴尬症一下就犯了。所以你还在为微信群莫名奇妙多了个人而伤神烦恼嘛？你还在为每次聚会之后收钱而尴尬烦躁吗？这时，微信挺身而出，发布了一个新版本：群聊能收钱，拉人需群主确认。10月26日消息，微信发布新版本6.3.28，对群功能进行了两项功能升级。 1 群主可启用需群主确认才能邀请朋友进群功能。微信群群主可在群详情页的群管理选项中，开启此项功能。开启此项功能后，群主将对群成员拥有更高的管理权限。 2 新版微信中在群聊页面添加了收款功能。群活动或者聚餐后，可直接在群里发出收款。 有了这个功能，妈妈再也不用担心我犯尴尬症了据说具体的操作方式是这样的???第一步：选择你要发送的红包金额 第二步：选择你要发送给你想要发送的人 然后，你平时不喜欢的人，无论怎么样都抢不到红包啦！这样的互相伤害是不是很爽！这样发红包也告诉抢不到红包的人：你不喜欢他！（总感觉哪里不对劲，这样发红包情商是硬伤啊~）当然，真相或许很残忍！▼ 这红包是绿的！看到这样的红包千万别激动！这不是发红包，你点进去，就是支付页面了！ 这！是！收！红！包！啊！ 下面是科普时间：其实这个是群收款功能，也就是能够在微信群里发起AA付款。比如，参加一些活动，采取AA制，付款者只需要在微信群里发起AA制付款，圈定需要付款的好友，就能够顺利实现AA制付款了。这样也好！大家就不能互相伤害了，还能愉快发红包抢红包！此外，还有一个新功能，不想看到的文章，以后再也不用担心刷屏了 国家正式宣布：三星Note7不能上飞机了！昨天，民航局官网发布公告：为确保航空运输安全，从2016年10月27日起，民航局严禁旅客和机组成员随身或在手提行李中携带三星Galaxy Note 7手机；严禁将三星Galaxy Note 7手机放入托运行李中托运；严禁将三星Galaxy Note 7手机作为航空货物收运。 △民航局10月26日网站截图民航局要求航空公司及其地面服务代理人、航空销售代理人在售票、办理乘机手续、货物收运等环节针对上述规定内容履行告知义务。</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>In our daily life, there are always a few friends who make you uneasy. For example, you have created a friend group, and in your opinion, having these people is enough, but there are always people who add others without saying hello. Another example is after a happy gathering, you have paid all the expenses, but when it comes to splitting the bill, some people have already disappeared, leaving you feeling embarrassed. Are you still troubled and annoyed by the inexplicable addition of people to your WeChat group? Are you still feeling awkward and upset about collecting money after each gathering? At this moment, WeChat stepped forward and released a new version: group chats can collect money, and adding people requires confirmation from the group owner. On October 26th, WeChat released the new version 6.3.28, with two upgrades to the group functions. 1. Group owners can enable the function that requires confirmation from the group owner to invite friends to join the group. Group owners can open this function in the group management options on the group details page. After enabling this function, the group owner will have higher management authority over group members. 2. The new version of WeChat has added a payment collection function in group chats. After group activities or gatherings, you can directly send out payment requests in the group. With this function, mom will no longer have to worry about me feeling embarrassed. It is said that the specific operation method is as follows: Step 1: Select the amount of money you want to send Step 2: Select the person you want to send the money to Then, the people you don't like won't be able to grab the money no matter what! Isn't this kind of mutual harm cool? Sending out money like this also tells those who can't grab the money: you don't like them! (It feels like something is off, this way of sending money is a social faux pas~) Of course, the truth may be very cruel! ▼ This red envelope is green! Don't get too excited when you see this kind of red envelope! This is not a red envelope, if you click on it, it will take you to the payment page! This! Is! Receiving! Red! Envelopes! Here comes the educational time: Actually, this is the group collection function, which allows you to initiate splitting the bill in a WeChat group. For example, when participating in activities that follow a split bill system, the payer only needs to initiate the split bill payment in the WeChat group, specify the friends who need to pay, and smoothly implement the split bill payment. This way is also good! Everyone won't harm each other, and can still happily send and grab red envelopes! In addition, there is a new feature - you no longer have to worry about seeing unwanted articles flooding your feed. The country officially announced: Samsung Note7 is not allowed on airplanes! Yesterday, the Civil Aviation Administration website issued an announcement: to ensure aviation safety, starting from October 27, 2016, the Civil Aviation Administration strictly prohibits passengers and crew members from carrying Samsung Galaxy Note 7 phones in their carry-on or checked baggage; it is also prohibited to check in Samsung Galaxy Note 7 phones as checked baggage; and it is forbidden to transport Samsung Galaxy Note 7 phones as air cargo. △ Screenshot of the Civil Aviation Administration website on October 26th The Civil Aviation Administration requires airlines and their ground service agents, aviation sales agents to fulfill the obligation to inform passengers at various stages such as ticketing, check-in, and cargo handling regarding the above regulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>鹅厂腾讯一直以抄袭在互联网圈里横行多年，在今年的ChinaJoy的腾讯展台前，便出现了某游戏厂商拉横幅痛斥腾讯的抄袭行为。不过，腾讯似乎并不Care这样的事情，毕竟“虱子多了不痒，债多了不愁”。但是，腾讯现在也笑不起来了，旗下《王者荣耀》也遭到了山寨。 日前，台湾游戏厂商Garena推出了一款5V5类MOBA手游作品《传说对决》，游戏内提供30位英雄进行选择对战，游戏模式更是包括了5V5三路推塔、1V1PK竞技、5V5ARAM等热门电竞模式，更是支持语音系统。就连轮盘操作模式也近乎一样，很多玩家表示，这就是一款台湾版的《王者荣耀》。虽然被诰病抄袭《王者荣耀》，但是这并不影响《传说对决》这款游戏在玩家中造成热潮，超2万封测激活码12小时被抢空。</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>The Tencent, a goose factory, has been rampant in the Internet circle for many years by copying. At this year's ChinaJoy, in front of Tencent's booth, a certain game company displayed a banner condemning Tencent's plagiarism. However, Tencent seems not to care about such things, after all, "many lice don't itch, and many debts don't worry." However, Tencent is not laughing now, as its game "King of Glory" has also been counterfeited. Recently, the Taiwanese game company Garena launched a 5V5 MOBA mobile game called "Legend of the Duel", which provides 30 heroes for players to choose for battle. The game modes include 5V5 three-lane tower pushing, 1V1 PK competition, 5V5 ARAM, and other popular esports modes, as well as support for voice systems. Even the joystick operation mode is almost the same. Many players have expressed that this is a Taiwanese version of "King of Glory". Although accused of copying "King of Glory", this does not affect the craze caused by "Legend of the Duel" among players, with over 20,000 closed beta activation codes being snatched up within 12 hours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>最近，电商行业甚是热闹，多家淘品牌经过大浪淘沙后，目前“剩者”争相进入资本市场。近日，多家互联网品牌企业排队申请IPO，其中仅阿里平台旗下的电商企业，就有近50家，其中以服装、食品、化妆品和家具电商为多。截至目前，拥有茵曼、初语的广东汇美和北京裂帛轮番发布招股书。 然而争相进入资本市场的淘品牌，在启动IPO时却遇到了传统企业申请上市时没见过的新问题。据悉，淘品牌IPO面临着销售数据难确认，券商要调取商家与阿里的月度对账单；需要阿里出具商家在天猫所处市场地位的验证资料等难题，而这类依托第三方平台而发展的品牌电商公司在国内上市尚无可供参考的案例。背靠阿里的这些淘品牌是否仍能保持先前迅猛的势头？资本市场是否依然买账？背靠阿里上市 淘品牌优势和壁垒并存尽管淘品牌动作频频，为脱“淘”寻找新的增长点，但是背靠阿里的互联网品牌上市也难免会碰到各种问题，一些传统企业更是“老革命碰上新问题”。来自安徽芜湖的三只松鼠，在启动IPO时却遇到了传统企业申请上市时没见过的新问题，比如券商要调取商家与阿里的月度对账单；需要阿里出具商家在天猫所处市场地位的验证资料等。而这类依托第三方平台而发展的品牌电商公司在国内上市尚无可供参考的案例。天猫平台成立的“协助商家上市办公室”负责人顾盈指出，一边是大量的企业缺乏资金，一边是大量资金找不到出路。这被称为中国资本市场的“堰塞湖”现象；主板公司比中小板多，中小板公司比创业板多，这被称为中国资本市场的“倒三角”现象。如何打通“堰塞湖”，破解“倒三角”，也体现了深交所在资本市场积极探索“供给侧改革”、锐意创新的决心和勇气。中国电子商务研究中心分析师姚建芳接受长江商报记者采访时分析称：“重塑品牌价值成为目前淘品牌转型的重要突破口，上市成为其转型的重要途径。目前国内的新三板上市要求相对宽松，给众多淘品牌上市创造了有利条件，但是上市后能否受到资本的青睐、品牌价值能否得到新的突破尚未可知。”网购红利减退 淘品牌遇到新的挑战对于“淘品牌扎堆上市”现象的出现，有专家认为，这说明电商经济进入快车道，互联网品牌迎来极大发展机会，体现资本市场对它们的认可。不过，令人遗憾的是，频频刷脸的淘品牌却并不能因此而摆脱对平台的依赖，随着天猫的崛起，传统服装品牌的入驻，淘品牌们的话语权开始变弱。</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Recently, the e-commerce industry has been very lively. After many Taobao brands have gone through a rigorous selection process, the "survivors" are now eagerly entering the capital market. In recent days, many internet brand companies have lined up to apply for IPOs, with nearly 50 e-commerce enterprises under the Alibaba platform alone, most of which are in the clothing, food, cosmetics, and furniture sectors. As of now, Guangdong Huimei and Beijing Liebo, which own brands such as Yinman and Chuyu, have successively released their prospectuses. However, these Taobao brands rushing into the capital market are facing new issues during the IPO process that traditional enterprises applying for listing have never encountered. It is reported that Taobao brands' IPOs are facing difficulties in confirming sales data, as securities firms need to access monthly reconciliation statements between merchants and Alibaba; they also require verification materials from Alibaba regarding the market position of merchants on Tmall, among other challenges. Moreover, there are no reference cases for these brand e-commerce companies that rely on third-party platforms for development to go public in China. Can these Taobao brands backed by Alibaba maintain their previous rapid growth momentum? Will the capital market still be receptive? Despite the frequent actions of these Taobao brands rushing to go public and seeking new growth points beyond "Taobao," internet brands backed by Alibaba are inevitably encountering various problems. Some traditional enterprises are even facing "old revolution meets new problems." For example, Three Squirrels from Wuhu, Anhui, encountered new issues during the IPO process that traditional enterprises applying for listing have never seen before, such as securities firms needing to access monthly reconciliation statements between merchants and Alibaba, and requiring Alibaba to provide verification materials regarding the market position of merchants on Tmall. The head of the "Assistance Office for Merchant Listing" established by Tmall, Gu Ying, pointed out that there is a phenomenon in the Chinese capital market where many enterprises lack funds while there is a surplus of funds unable to find a way out, known as the "reservoir" phenomenon of the Chinese capital market; there are more mainboard companies than SME board companies, and more SME board companies than GEM board companies, known as the "inverted triangle" phenomenon of the Chinese capital market. How to break through the "reservoir" and solve the "inverted triangle" also reflects the Shenzhen Stock Exchange's active exploration of "supply-side reform" and its determination and courage to innovate in the capital market. Analyst Yao Jianfang from the China E-commerce Research Center, in an interview with the Changjiang Business Daily, analyzed, "Reshaping brand value has become an important breakthrough for the current transformation of Taobao brands, and going public has become an important path for their transformation. Currently, the listing requirements for the New Third Board in China are relatively lenient, creating favorable conditions for many Taobao brands to go public. However, it remains to be seen whether they will be favored by capital and whether their brand value will achieve new breakthroughs after listing." With the decline of the online shopping dividend, Taobao brands are facing new challenges. Regarding the phenomenon of "Taobao brands rushing to go public," some experts believe that this indicates that the e-commerce economy is entering a fast lane, and internet brands are facing great development opportunities, reflecting the recognition of the capital market towards them. However, it is regrettable that despite the frequent appearances of Taobao brands, they cannot escape their dependence on platforms. With the rise of Tmall and the entry of traditional clothing brands, the bargaining power of Taobao brands has begun to weaken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>国企管理中国专注国资国企管理的国家级财经媒体。 10月14日至16日，由《国企管理》杂志和中国企业管理研究会共同主办，以“新国企?新动力?新增长”为主题的2016国企管理年会在京举行。会议同时举行了“2016 全国国有企业管理创新成果与优秀论文”发布仪式。 国务院国有重点大型企业监事会主席季晓南出席会议并讲话。来自财政部、国务院国资委、国家税务总局、中国社会科学院、国务院发展研究中心和全国各省市国资国企监管部门、中央企业、地方国企以及部分大专院校、研究机构的200多名代表参加了会议。中国企业管理研究会会长黄速建在“2016全国国企管理创新成果和优秀论文”发布仪式上表示，组织这项活动的目的，主要是为深入贯彻党的十八大和十八届三中、四中、五中全会精神，探索社会主义新型国企管理模式和理论，深化国有企业改革，鼓励和推动国有企业强化管理和创新驱动，并总结和推广管理创新成果和经验，通过示范效应提升国有企业综合管理水平。此次“成果”和“论文”申报工作得到了各中央企业、地方国企、研究机构和大专院校的广泛参与，各级国资国企监督管理部门积极支持。截至2016年8月25日，经由财政部、国务院国资委、国务院发展研究中心、中国社会科学院、中国企业管理研究会、清华大学的专家、教授组成的成果和论文审定专家组审定，通过初审的“成果”为44项，“论文”为42篇。9月9日开始公示并进入复审阶段，经过对通过初审的“成果”和“论文”逐项、逐篇进行查实、复核、调研，并结合公众评价和问卷调查结果，通过最终审定的“成果”为30项，“论文”为27篇。</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Guoqi Guanli Zhongguo, a national-level financial and economic media focusing on state-owned assets and state-owned enterprise management. From October 14th to 16th, the 2016 State-Owned Enterprise Management Annual Conference with the theme "New State-Owned Enterprises, New Driving Forces, New Growth" was jointly organized by the magazine "Guoqi Guanli" and the China Enterprise Management Research Association in Beijing. The conference also held the ceremony for the release of the "2016 National State-Owned Enterprise Management Innovation Achievements and Excellent Papers." Ji Xiaonan, Chairman of the Supervisory Board of Key Large State-Owned Enterprises under the State Council, attended the meeting and delivered a speech. Over 200 representatives from the Ministry of Finance, the State-owned Assets Supervision and Administration Commission of the State Council, the State Administration of Taxation, the Chinese Academy of Social Sciences, the Development Research Center of the State Council, national and local state-owned asset and state-owned enterprise regulatory departments, central enterprises, local state-owned enterprises, as well as some universities, research institutions participated in the conference. Huang Su Jian, President of the China Enterprise Management Research Association, stated at the ceremony of the "2016 National State-Owned Enterprise Management Innovation Achievements and Excellent Papers" that the main purpose of organizing this event is to thoroughly implement the spirit of the 18th National Congress of the Communist Party of China and the Third, Fourth, and Fifth Plenary Sessions of the 18th Central Committee, explore socialist new types of state-owned enterprise management models and theories, deepen the reform of state-owned enterprises, encourage and promote state-owned enterprises to strengthen management and innovation-driven development, and summarize and promote management innovation achievements and experiences to enhance the comprehensive management level of state-owned enterprises through demonstration effects. The "achievements" and "papers" declaration work has received extensive participation from central enterprises, local state-owned enterprises, research institutions, and universities, with active support from supervisory and management departments at all levels of state-owned assets and state-owned enterprises. As of August 25, 2016, the expert review panel composed of experts and professors from the Ministry of Finance, the State-owned Assets Supervision and Administration Commission of the State Council, the Development Research Center of the State Council, the Chinese Academy of Social Sciences, the China Enterprise Management Research Association, and Tsinghua University approved 44 "achievements" and 42 "papers" in the preliminary review. The public announcement and reexamination phase started on September 9th. After verifying, reviewing, researching each "achievement" and "paper" approved in the preliminary review, and combining public evaluations and questionnaire survey results, the final approved "achievements" were 30 items, and the "papers" were 27.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>丧尸来袭全城戒备warning！！！进行一切的自由幻想吧，因为这个月底的夜晚，会有一场狂暴的盛宴！那座山，那个神秘的山顶防空洞内，会有大量 " 丧尸 "出逃吗，还是你所幻想的一切不可预知的事件？ ? 万圣节防空洞派对 ?164号防空洞 / 电音趴 / 丧尸出洞倒计时8天，惊魂开场10月29日晚8:30限定一晚的万圣节主题，你准备好了吗？▼ 你会从这里开始....生存之路Way to live传染力极强的病毒已经出现，并正以迅雷不及掩耳的速度蔓延到整个世界，生存者种族濒临灭绝。城市也已陷入了部分或完全摧毁的状态。面对水和食物的短缺，作为生存者的你不得不寻找藏身之处避难... 而164号防空洞也许会是最后的希望。在到达目的地164号防空洞的路上，我们邀请你加入这场全新的游戏环节，我们精心设定了一条求生之路，你所要担心的就是那些丧尸！他们正饥肠辘辘的等着你...从丧尸的魔掌中活下来，你会是其中之一吗？▼164号防空洞NO.164 shelter这个阴暗而神秘的防空洞，连接的走廊里忽明忽暗的灯光，这里是安全地点，只有真的勇士才能勇闯丧尸重围，到达这里。你剩余的血条代表着你可以得到的物资补助数量！而这里的幸存者们可以暂时为自己幸运的生存而庆祝一下了！（剩余一根血条赠送万圣节道具，三根血条送一瓶酒） ▼危险游戏Dangerous game在防空洞的深处，集合了万圣节整蛊筹码游戏，考验技巧与智慧，不仅能赚取酒水，还能赢得筹码，兑换礼物，当然，如果失败，你同样将失去你的筹码。这些 筹码将是你活下去唯一的希望！ ▼防空洞电音趴Music party当夜幕降临，所有的丧尸与人类将沉浸在充斥着DJ们带来的震撼 重生Party，庆祝历经末日浩劫后的喜悦和感动，彻底释放一切。神秘女神DJ亲临现场，更有GETAWAY音乐厂牌整夜狂欢 ▼百鬼夜行Hyakkiyakou无论是丧尸，还是夜行者，你可以装扮成任何生物，参与到我们之中来请盛装打扮，为你的万圣节留下最美妙的回忆。（创意万圣节装扮，自行化妆来到现场，前往签到区就有机会获得酒水奖励，赠送酒水有限，先到先得）摄影师，摄像师会用画面记录这个最嗨的夜晚，还有《无空映画摄影工作室》全程录像，所以记得好好打扮哦~ 现场我们请到了4名画师，以及4名比基尼热裤模特，进行人体彩绘，带给你最棒的视觉冲击。</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Zombie attack, city on high alert warning! Let your imagination run wild because at the end of this month, there will be a wild feast on that mountain, inside that mysterious mountaintop bunker, will there be a large number of "zombies" escaping, or will it be all unpredictable events you imagine? Halloween bunker party at Bunker 164 / Electronic music party / Zombie countdown 8 days, hair-raising opening on the night of October 29th at 8:30, limited to one night of Halloween theme, are you ready? ▼ You will start from here... The way to survive, a highly contagious virus has appeared and is spreading rapidly throughout the world, the human race is on the brink of extinction. Cities have also fallen into partial or complete destruction. Faced with a shortage of water and food, as a survivor, you have to find a hiding place for refuge... And Bunker 164 may be the last hope. On the way to Bunker 164, we invite you to join this new game segment, we have carefully designed a path of survival, the only thing you need to worry about is those zombies! They are eagerly waiting for you... To survive from the clutches of the zombies, will you be one of them? ▼ Bunker 164 NO.164 shelter This dark and mysterious bunker, the corridor with flickering lights, is a safe place, only real heroes can brave through the zombie siege and reach here. Your remaining blood bars represent the amount of supplies you can receive! And the survivors here can celebrate their lucky survival for a while! (One remaining blood bar will receive a Halloween prop, three remaining blood bars will receive a bottle of wine) ▼ Dangerous game In the depths of the bunker, there is a Halloween prank chip game, testing skills and wisdom, not only can you earn drinks, but also win chips, exchange gifts, of course, if you fail, you will also lose your chips. These chips will be your only hope to survive! ▼ Bunker music party When night falls, all zombies and humans will immerse themselves in the DJ's shocking rebirth party, celebrating the joy and excitement after the apocalypse, releasing everything completely. The mysterious goddess DJ will be on the scene, with GETAWAY music label partying all night long. ▼ Hyakkiyakou Whether zombies or night walkers, you can dress up as any creature and join us. Please dress up and leave the most wonderful memories for your Halloween. (Creative Halloween costumes, come to the scene with your own makeup, go to the check-in area for a chance to win a drink reward, limited drinks, first come first served) Photographers and videographers will capture this most exciting night, and "Wukong Film Photography Studio" will record the whole process, so remember to dress up nicely~ We have invited 4 artists and 4 bikini shorts models to do body painting, bringing you the best visual impact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>点击上方蓝字恋上瑜伽！没有丑女人，只有懒女人，美丽都是练出来的！每天一招简单瑜伽动作，让你轻松拥有好身材！点击上方蓝字;和小编一起来学习塑身瑜伽吧！完全是免费哦，请放心关注★每年秋冬季节都是针织毛衣上场的时候你的毛衣只拿来保暖御寒人家出街拉风就靠毛衣★如何将毛衣穿的保暖又有型散发出时髦气场而不是乡土气息这就得考验你的搭配能力了首先来聊聊正确的洗毛衣方法这关系到你毛衣的寿命哦①选择洗衣液用手洗，洗时要翻过来洗里面②洗净后双手按压挤出水，千万不要像拧毛巾一样拧出水③为避免把毛衣拉长，晾晒时平铺着晾干PS：毛衣起球的问题几乎不可避免。可以选择不起球的马海毛、兔毛等材质，或是准备一个剃球机，要穿时像男生剃胡须一样“嗡嗡”几下。</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Click the blue word above to fall in love with yoga! There are no ugly women, only lazy women. Beauty is all about practice! A simple yoga move every day will help you easily achieve a good figure! Click the blue word above; learn body-shaping yoga with the editor! It's completely free, so feel free to pay attention ★ Every autumn and winter season is the time for knitted sweaters to come out. If you only use your sweater for warmth and not for looking stylish when going out, it's all about the sweater ★ How to wear a sweater to keep warm and stylish, exuding a fashionable aura rather than a rustic vibe, this will test your matching skills. First, let's talk about the correct way to wash sweaters, as it relates to the lifespan of your sweater: ① Choose laundry detergent for hand washing, wash inside out ② After washing, press and squeeze out the water with both hands, never twist it like wringing a towel ③ To avoid stretching the sweater, lay it flat to dry PS: The problem of sweater pilling is almost unavoidable. You can choose materials like mohair, rabbit hair that do not pill, or prepare a fabric shaver. When wearing, shave a few times like shaving a beard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>作为国内最大的基于资源分享的人人都能赚钱的社交网站——爆米花网，与国内微电影行业的垂直门户网站——石榴微电影网，建立了“资源+分成”的合作模式。爆米花网在其网站上推出石榴微电影网微电影专区并在首页展示，石榴微电影网则为专区的内容支撑方，为专区提供质量高的微电影和网络视频，以便提高用户的观影体验。 此次，石榴微电影网在爆米花网原创专区上线的作品种类众多，其中涉及动作、爱情、科幻、喜剧、惊悚、公益等多个领域，特别是历届金丹若国际微电影艺术节的获奖作品，这些优秀作品使得专区的影片质量得到了强有力的保障。同时，也能依靠内容增强网站黏性，扩大用户规模，在“内容为王”的市场环境下站稳脚跟，对于用户和网站本身都是利大于弊。 短视频是时下最为流行的社交类语言，年初Papi酱的火爆就可以看出这里边蕴藏着巨大的商业价值。Papi酱所制作的短视频在微信公众平台，随便一条推送都能够到达十万次以上的阅读量，微博更是以千万次的播放量为计算单位。而基于短视频衍生出来的微电影，从最初的服务于广告和公益的形式，已经逐步扩充其内容承载范围，获得越来越多的关注。每年都会涌现数以万计微电影作品，虽然质量参差不齐但是足见微电影市场的繁荣。据数据显示，国内微电影产业总值已经达到700亿元，没有庞大的资金限制，没有严苛的拍摄手法约束，即便不是科班出生的制作者都能借助微电影实现自己的导演梦，这种种优势吸引了众多年轻人和大学生加入到微电影的制作当中。另外，随着新媒体影响力的逐渐扩大，国内微电影也随之蓬勃发展，使得微电影的宣发成本下降，宣发的方式也不再像传统那样单一。 石榴微电影网最为国内领先的微电影展播、发行平台，拥有各种类型的微电影和网络视频，资源数量处于行业前列。如何将这些资源变现，服务于更多人群，是每一个行业工作者都会去考量的问题。因此，与爆米花网的合作是一次业务的完善，借助爆米花网“分享+分账”的独特运营模式，让越来越多的人可以通过石榴微电影原创专区关注微电影领域、欣赏微电影作品，了解微电影的创作团队，为普及微电影、促进微电影变现、推动微电影的发展起到了推波助澜的作用。来源于：石榴微电影 微信公众号，ID：shiliuweidianying</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>As the largest resource-sharing social networking site in China where everyone can make money - Popcorn Network, and the vertical portal website of the domestic microfilm industry - Pomegranate Microfilm Network, have established a "resources + profit sharing" cooperation model. Popcorn Network has launched the Microfilm Zone of Pomegranate Microfilm Network on its website and showcased it on the homepage, while Pomegranate Microfilm Network serves as the content provider for the zone, offering high-quality microfilms and online videos to enhance users' viewing experience. This time, Pomegranate Microfilm Network has a wide variety of works launched in the original zone of Popcorn Network, covering multiple genres such as action, romance, science fiction, comedy, thriller, and public welfare, especially including award-winning works from previous editions of the Golden Danruo International Microfilm Art Festival. These outstanding works ensure a strong guarantee for the quality of the zone's films. At the same time, by enhancing the website's content, it can increase user engagement, expand the user base, and establish a foothold in the market environment where "content is king", which is more beneficial than detrimental for both users and the website itself. Short videos are currently the most popular form of social language, as seen from the popularity of Papi Jiang earlier this year, which indicates the huge commercial value it holds. Short videos produced by Papi Jiang on WeChat public platform can easily reach over 100,000 views with just one push, while on Weibo, the calculation is based on tens of millions of views. Microfilms derived from short videos, initially serving advertisements and public welfare, have gradually expanded their content coverage and gained increasing attention. Tens of thousands of microfilm works emerge every year, although the quality varies, it is evident of the prosperity of the microfilm market. According to data, the total value of the domestic microfilm industry has reached 70 billion yuan, without significant financial constraints or strict filming techniques, even non-professional producers can realize their directorial dreams through microfilms. These advantages attract many young people and college students to participate in microfilm production. In addition, with the gradual expansion of new media influence, the domestic microfilm industry is also flourishing, leading to a decrease in the promotion cost of microfilms and a diversification of promotion methods compared to traditional ones. Pomegranate Microfilm Network is the leading microfilm exhibition and distribution platform in China, with a large number of microfilms and online videos of various types, placing it at the forefront of the industry in terms of resources. How to monetize these resources and serve a larger audience is a question that every industry worker will consider. Therefore, the cooperation with Popcorn Network is a business improvement. By leveraging Popcorn Network's unique operation model of "sharing + profit sharing", more and more people can pay attention to the microfilm field through the original zone of Pomegranate Microfilm Network on Popcorn Network, appreciate microfilm works, understand the creative teams behind microfilms, and play a role in popularizing microfilms, promoting their monetization, and driving their development. Source: Pomegranate Microfilm WeChat Official Account, ID: shiliuweidianying</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>今年市场一扫去年颓势，迎来“慢牛”行情，债券也由此成为最赚钱的基金品种。银河证券数据显示，截至5月20日，债券基金今年以来平均净值增长率为2.9864%，不但超出货币基金的1.8336%，更让股票基金-7.8815%、混合基金-4.0661%的平均净值增长率相形见绌。在此背景下，中银基金将于5月26日起发行中银聚利分级债券基金，锁定债券市场投资契机。据了解，中银聚利分级债券基金成立后，A份额将每六个月打开申赎一次，分级运作周期内首期约定年化收益率预计可达4.7%，周期封闭运作的特点使该基金没有日常申赎带来的流动性压力，可投资到期收益率较高但流动性一般的债券品种，将个券待偿期与运作周期剩余期限相匹配，获取较高的到期收益。此外，由于无外部现金流入或流出压力，该基金还能通过较长期维持高杠杆来放大幅度有限但确定性较强的债券投资收益。固定收益类产品历来是中银基金的优势所在。海通证券最新一期基金公司业绩排名显示，截至一季度末，中银基金固定收益类产品超额收益率在行业内高居第二。据悉，今年以来，中银基金及其旗下产品已包揽中国基金业金牛奖及晨星基金奖等权威奖项。</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>This year, the market has swept away the decline of last year and ushered in a "slow bull" market, making bonds the most profitable type of fund. According to data from Galaxy Securities, as of May 20th, the average net asset value growth rate of bond funds this year is 2.9864%, not only exceeding the 1.8336% of money market funds, but also far surpassing the average net asset value growth rate of -7.8815% for stock funds and -4.0661% for mixed funds. Against this backdrop, China Construction Bank Fund will launch the China Construction Bank Juyi Graded Bond Fund starting from May 26th, seizing the investment opportunity in the bond market. It is understood that after the establishment of the China Construction Bank Juyi Graded Bond Fund, Class A shares will be open for subscription and redemption every six months. The expected annualized return rate for the first phase within the graded operation cycle is estimated to reach 4.7%. The characteristic of a closed operation cycle without daily subscription and redemption pressures allows the fund to invest in bond varieties with higher maturity yields but average liquidity, matching the remaining period of individual bond maturity with the operation cycle to obtain higher maturity yields. In addition, with no external cash inflows or outflows pressure, the fund can also amplify the limited but more certain bond investment returns by maintaining high leverage for a longer period. Fixed-income products have always been the strength of China Construction Bank Fund. The latest fund company performance ranking from Haitong Securities shows that by the end of the first quarter, China Construction Bank Fund's fixed-income products had the second highest excess return rate in the industry. It is reported that China Construction Bank Fund and its affiliated products have won authoritative awards such as the China Fund Industry Golden Bull Award and Morningstar Fund Award since the beginning of this year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>“央广新闻”微信公众号上有一篇夜读文章“离开位子，你是谁”被广大网友广泛转发。文章以一只驴的故事开头，一只在寺庙里拉磨的驴因一次下山运送佛像被路上行人顶礼膜拜而飘飘然，上山后不再肯去拉磨，而只想接受人们的崇拜。无奈，僧人放它下山，却被行人棍棒交加的暴揍一顿，跑回寺庙对僧人抱怨“人心险恶”，而僧人叹息到“那天，人们跪拜的，是你背上驮的佛像，不是你啊！”，文章最后引出了文章的主旨句“人生最大的不幸，就是不认识自己。离开位子，自己什么都不是!”这篇文章之所以被广泛的传播，很重要的一个原因就是它让每一个读此文章的人会思考，会反问自己“离开位子，你是谁？”在转发这篇文章的人群中很大一部分是政府机关的领导干部，而且“共产党员”的微信公众号也对此文章进行了转载。笔者认为“共产党员”转载这篇文章，是想让更多的党员干部能够看清自己、看清自己手中的权力。读完这篇文章，笔者想到了之前读到的“耿彪之问”，两者虽讲的不同的故事，但却有共通之处，笔者认为党员干部应该通过这个故事来好好反思一下。1991年，已经从党和国家领导人岗位上退下来的耿飚在陕甘宁陇东某县给当地的干部讲了一件往事：50年前，耿飚任副旅长的一二九师三八五旅就曾驻扎过这里。当时，一个战士损害了当地群众的利益，旅部决定按纪律枪毙他。老百姓知道后，也是黑压压来了一大群人，为这个违纪的战士求情。耿飚对父老乡亲们说，纪律是必须坚决执行的。于是老百姓都跪下了，哭着说共产党都是好人，就饶了这个战士，让他戴罪立功，上前线多杀几个鬼子吧！耿飚反复说明八路军的军纪，可老百姓一个也不起来。最后，耿飚只得流泪接受了群众的要求。讲到这里，耿飚激动地大声问道：“现在，我要问问在座的你们这些人，不管哪一个，如果犯了事，老百姓还会替你们求情吗？”全场顿时鸦雀无声。二十多年前耿彪问当地干部的话，现在也完全可以用来问问现在的领导干部，并且值得当今党员领导干部细细品味和深思。“离开位子，你是谁”在文章的最后总结了一句话“看清自己最重要！能力很重要，可有一样东西比能力更重要，那就是人品。”对于领导干部来说必须要“看清自己”，作为领导干部，不论地位多高，权力多大，都是人民的勤务员；领导干部最该具备的“人品”是全心全意为人民服务；领导干部最该拥有的“能力”是为民造福的能力。</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>The article "Who Are You When You Leave Your Position" on the WeChat official account of "CNR News" has been widely shared by netizens. The article begins with a story about a donkey. A donkey that used to grind at a temple became conceited after being worshipped by passersby while carrying a Buddha statue down the mountain. When it refused to grind upon returning to the mountain and only wanted to receive people's worship, the monks had to let it go down the mountain. However, it was severely beaten by the passersby with sticks and ran back to the temple complaining to the monks about the wickedness of human hearts. The monk sighed, "That day, people were bowing to the Buddha on your back, not to you!" The article concludes with the main sentence, "The greatest misfortune in life is not knowing oneself. When you leave your position, you are nothing!" The reason why this article has been widely circulated is that it prompts everyone who reads it to reflect and ask themselves, "Who are you when you leave your position?" A large part of the people who forwarded this article are leaders of government agencies, and even the WeChat official account of "Communist Party Members" reposted this article. The author believes that the reposting of this article by "Communist Party Members" is to help more party members and cadres see themselves clearly and understand the power they hold. After reading this article, the author thought of the "Question by Geng Biao" he had read before. Although they tell different stories, they share a common theme. The author believes that party members and cadres should reflect on themselves through these stories. In 1991, Geng Biao, who had retired from the position of party and state leader, told a story to local cadres in a county in Shaanxi, Gansu, and Ningxia. Fifty years ago, Geng Biao's 385th Brigade of the 129th Division, where he served as deputy regimental commander, was stationed there. At that time, a soldier harmed the interests of the local people, and the brigade decided to execute him according to discipline. When the villagers found out, a large crowd came to plead for this soldier who violated the rules. Geng Biao told the villagers that discipline must be strictly enforced. So the villagers all knelt down, crying and saying that the Communist Party members were all good people, and they begged for mercy for this soldier, allowing him to make amends and kill more Japanese devils on the front lines. Geng Biao repeatedly explained the military discipline of the Eighth Route Army, but none of the villagers stood up. In the end, Geng Biao had to tearfully accept the demands of the crowd. At this point, Geng Biao asked loudly with excitement, "Now, I want to ask all of you present, no matter who you are, if you make a mistake, will the villagers still plead for you?" The whole room fell silent. The words that Geng Biao asked the local cadres more than twenty years ago can now be used to ask today's leaders, and it is worth the current party members and leaders to carefully ponder and reflect on. The article concludes with the sentence "Seeing oneself clearly is the most important! Ability is important, but there is something more important than ability, and that is character." For leaders, it is essential to "see oneself clearly." As leaders, no matter how high their position or how great their power, they are servants of the people; the most important "character" that leaders should possess is to serve the people wholeheartedly; and the most important "ability" that leaders should have is the ability to benefit the people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>新加坡买房有什么政策吗?中国买家在新加坡买房的比例，已和印度尼西亚人持平，除了新加坡的邻国马来西亚，中国买家已成为在新加坡置业最多的群体。2011年1月1日，新加坡的投资移民门槛将大幅提高，在这短暂的时间通道中，众多中国富裕阶层对新加坡房产开始了新一波考察，某新加坡驻香港的中介机构告诉记者：“过去，新加坡10套房子大约有7套是华人买的，现在10套有8套是华人买的。 根据新加坡购房相关规定，中国人是可以申请购房贷款的，且新加坡贷款利率较低，新加坡房贷利率在购房第一年约为1.2%，这相较于国内6%左右的利率有着很大的优势。通常在办理贷款时，银行综合考察购房者的收入，资产情况，工作年龄以及信用记录等信息。申请步骤一般为：①.联系银行贷款专员。②.递交所需评估材料③.贷款申请获得批准④.签订贷款协议新加坡的贷款利率通常有固定利率和浮动利率之分，贷款时不论是固定利率还是浮动利率各银行都会有不同的配套方案。根据自身情况选择适合自己的就可以。阅读更多：http://house.65singapore.com/hnews/gfzn/39467.html</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Are there any policies for buying a house in Singapore? The proportion of Chinese buyers purchasing houses in Singapore has now equaled that of Indonesians, surpassing all other nationalities except for Malaysians, becoming the largest group of property buyers in Singapore. Starting from January 1, 2011, the threshold for investment immigration in Singapore will be significantly raised. During this brief window, many wealthy Chinese have begun a new wave of property inspections in Singapore. A Singaporean intermediary agency in Hong Kong told reporters, "In the past, about 7 out of 10 houses in Singapore were bought by Chinese, but now 8 out of 10 are bought by Chinese." According to Singapore's property purchase regulations, Chinese people are eligible to apply for housing loans. The interest rates for Singaporean loans are relatively low, with the interest rate in the first year of purchasing a house in Singapore being around 1.2%, a significant advantage compared to the approximately 6% interest rate in China. When applying for a loan, banks comprehensively consider the applicant's income, assets, work experience, and credit history. The application process generally involves: ①. Contacting the bank's loan officer. ②. Submitting the required evaluation materials. ③. Loan application approval. ④. Signing the loan agreement. Singapore's loan interest rates usually come in fixed and variable rates, and different banks offer various packages regardless of the type of interest rate chosen. Choose the one that suits your own situation. Read more: http://house.65singapore.com/hnews/gfzn/39467.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>期待已久的金鹰节颁奖典礼终于拉开了帷幕，除了对各种奖项究竟花落谁家之外的期待外，颁奖嘉宾组合也是十分有看点啊！最最令人期待的大概就是胡歌林依晨这对颁奖嘉宾了吧，两人曾经一起合作过《天外飞仙》《射雕英雄传》，cp粉也是一大把啊！敢说除了郑元畅，大多数人都希望林依晨能够和胡歌在一起吧！ 林依晨和胡歌8年后合体，一出场颁奖时，林依晨立刻说，官方微博网友留言，希望颁奖者不要太多官方话，要多点真诚。于是拿出测谎仪给胡歌戴上，不料一问“过去合作过，以及台下三位女演员，谁是你最喜欢的女演员?”胡歌答，当然是身旁这位，不料铃声竟大响，让林依晨苦笑：“郭靖在黄蓉面前都不会说谎，事过多年，郭靖也变伪装者。”胡歌则说，发生一点小故障。 不过，一连响了好几声，胡歌看著台下的唐嫣、刘涛，以及其他演员，他也笑说，这测谎仪有问题，“我要圆回来，不然观众会觉得我一句真话都没有。其实用测谎仪的目的，是我一个说了不算，观众说了才算。”最后观众最受欢迎女演员奖由《花千骨》的赵丽颖夺下。胡歌凭借《琅琊榜》、《伪装者》获得观众喜爱的男演员奖，及人气视帝奖，实至名归。 《伪装者》胡歌饰演明台 胡歌提到自己很幸运，比起许多人更早知道什么样的演员才是真正的演员，“我要感谢林依晨”，他回忆起两人在拍摄《射雕》时，对方曾说过两句话，“演戏是一个探索人性的过程”，以及“是在用生命演戏”，这两句话至今仍深深烙印在脑海中，“我会记住一辈子”，而台下的林依晨听到他的真情告白，瞬间感动地掩面落泪，两人深厚交情让人动容。 胡歌与林依晨因戏结缘，是2005年第一次合作《天外飞仙》，典型的银幕型夫妻，所以说演戏和现实还是有差距的。那时的林依晨，真的是活泼可爱的紧哪！ 那时的胡歌傻乎乎的，呆呆的，但是对于心爱人的执着令人感动！那时青春年少的我们，也都憧憬着这样的爱情！ 2006年一部《天外飞仙》让两人一度成为最佳荧幕情侣，“地瓜”和“小七”火遍了大江南北。继而两人又合作了《射雕英雄传》，诠释了郭靖和黄蓉两个经典角色。 虽然胡歌、林依 晨一直称对方为好朋友，可唐嫣却曾爆料他们俩假戏真做过。也是在快乐大本营游戏中，胡歌与唐嫣分为一组，当被问到心目中女友的最佳人选时，胡歌连忙称是唐 嫣避开问题。 当问到胡歌多年的拍戏过程中，有没有与哪位合作过的女演员假戏真做，动了真情时，唐嫣大声爆料，“当然是林依晨啦”。</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>The long-awaited Golden Eagle Awards ceremony finally kicked off, in addition to the anticipation of who will win the various awards, the combination of award presenters is also very intriguing! Perhaps the most anticipated pair is Hu Ge and Ariel Lin, who have collaborated on "Chinese Paladin" and "The Legend of the Condor Heroes" before, and they have a lot of fans as a couple! It is safe to say that apart from Zheng Yuanchang, most people hope that Ariel Lin can be with Hu Ge! Eight years later, when Ariel Lin and Hu Ge appeared together on stage to present an award, Ariel Lin immediately said, according to the official Weibo comments, that she hopes the presenters won't use too many official words and should be more sincere. So she took out a lie detector and put it on Hu Ge. Unexpectedly, when asked, "Who is your favorite actress among those you have worked with in the past and the three actresses on stage?" Hu Ge answered, "Of course, it's the one beside me." Unexpectedly, the lie detector rang loudly, making Ariel Lin smile bitterly: "Even Guo Jing wouldn't lie in front of Huang Rong. Many years have passed, and even Guo Jing has become a pretender." Hu Ge then said there was a small malfunction. However, after several more rings, Hu Ge looked at Tang Yan, Liu Tao, and other actors in the audience and jokingly said that there was a problem with the lie detector, "I need to circle back, otherwise the audience will think I haven't said a single true statement. In fact, the purpose of using the lie detector is that what I say doesn't count, only what the audience says counts." In the end, the Most Popular Actress Award was won by Zhao Liying from "The Journey of Flower." Hu Ge won the Audience Favorite Actor Award and the Popularity Emperor Award for his performances in "Nirvana in Fire" and "The Disguiser," which was well-deserved. In "The Disguiser," Hu Ge played Ming Tai. Hu Ge mentioned that he was very lucky to know earlier than many others what kind of actor is a real actor, "I want to thank Ariel Lin." He recalled that when they were filming "The Legend of the Condor Heroes," she said two sentences, "Acting is a process of exploring human nature," and "It's acting with life," these two sentences are still deeply imprinted in his mind, "I will remember them for a lifetime." When Ariel Lin heard his heartfelt confession, she was instantly moved to tears, their deep friendship touching everyone. Hu Ge and Ariel Lin became acquainted through acting, starting with their first collaboration in 2005 on "Chinese Paladin," a typical on-screen couple, showing that there is still a gap between acting and reality. At that time, Ariel Lin was truly lively and adorable! At that time, Hu Ge was silly and naive, but his dedication to his loved one was touching! In their youth, we all yearned for such love! In 2006, a drama called "Chinese Paladin" made them the best on-screen couple for a while, "Digua" and "Xiaoqi" became popular all over the country. They then worked together on "The Legend of the Condor Heroes," portraying the classic roles of Guo Jing and Huang Rong. Although Hu Ge and Ariel Lin have always referred to each other as good friends, Tang Yan once revealed that they had a real relationship. It was during a game on a variety show when Hu Ge and Tang Yan were in a group and asked about the best choice for a girlfriend, Hu Ge quickly said it was Tang Yan, avoiding the question. When asked if during his many years of filming, he had developed real feelings for any actress he worked with, Tang Yan loudly revealed, "Of course, it's Ariel Lin!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>一次性纸杯看起来卫生、方便，但正如所有产品一样，它的合格情况也有真有假。毕竟是“入口”的产品，我们一定要为身体健康把好关。有人说一次性纸杯的内壁上通常涂了一层薄薄的蜡，如果水的温度超过了40℃，就会溶化。 实际上，目前国内的一次纸杯根据用途可以分为三种：冷饮杯、热饮杯及冰淇淋杯。而根据纸杯的涂层也可以分为三种：涂蜡杯、聚乙烯涂膜杯及直壁双层杯。 显然涂蜡的目的是为了防水，因为蜡遇热会融化，所以涂蜡杯只能用作冷饮杯。如果要用涂蜡杯装热饮的话需要再加一层乳液，直壁双层杯用的就是这种涂层，并且因为双层杯隔热性好，所以常用做热饮杯和冰激淋杯。聚乙烯涂膜杯则是在杯壁覆盖有聚乙烯薄层，优点是冷饮和热饮都能够应付自如，并且表面更光滑，杯子外面能够方便印刷精美的图案，所以倍受快餐行业青睐。所以可见购买纸杯时要分辨清楚纸杯的种类，如果使用公共场合的纸杯，一般一些大型快餐连锁店的纸杯还是可以放心用的。而环境恶劣、没有卫生许可证的食肆，所用的纸杯很难有保障。 至于涂蜡杯能不能装热饮，对于一个合格的涂蜡纸杯来说，热水的温度起码要超过50℃才能导致石蜡融化。并且合格纸杯用的是食品级石蜡，即便是不小心喝进了肚子，也不必担心，那点石蜡不会对身体造成危害。用冷饮杯盛装热水的真正危险在于，石蜡融化后纸杯会失去防水性，很容易被热水穿透导致漏水，烫伤使用者。 如何选择安全的纸杯呢？首先我们要知道一个误区，使用一次性纸杯时，第一杯水最好不要喝，最好等四五分钟后将水倒掉，使纸杯中有害物质充分挥发。 其实，纸杯在生产过程中真的会掺入不少的有害物质，比如不法厂商使用了荧光剂，纸杯外壁喷涂图案用的颜料和助剂带入铅、砷及有机溶剂。除了厂家问题，使用者在存放过程中纸杯还有可能被微生物污染。我们想知道的是，用开水，仅仅5分钟的时间就足够除掉杯内的有害物质了吗？答案显而易见，合格的一次性纸杯都是经过消毒的，如果用此方法消灭细菌可行，工业生产上早就用这个方法生产更安全的纸杯了，还用得着消费者自己动手？至于不合格的纸杯，致病菌的数量和其他有害物质的量无从估计，即便用开水泡5分钟的方法有一定的作用，也不能保证这些有害物质能被完全去除，或是减低到安全的标准。选用合格的纸杯才是上策。而对于合格的纸杯，倒掉第一杯水则没有必要。 但我们还是建议，如果是合格的纸杯，第一杯水但喝无妨，如果是不合格的纸杯，第几杯水都不要喝。</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Disposable paper cups may look clean and convenient, but like all products, their quality can be genuine or fake. After all, as a product that goes into the mouth, we must ensure it is safe for our health. Some people say that there is usually a thin layer of wax coated on the inner wall of disposable paper cups, and if the water temperature exceeds 40°C, the wax will melt. In fact, disposable paper cups in China can be divided into three types based on their use: cold drink cups, hot drink cups, and ice cream cups. They can also be classified into three types based on the coating: wax-coated cups, polyethylene film-coated cups, and straight-walled double-layer cups. Obviously, the purpose of wax coating is to make it waterproof. Since wax melts when heated, wax-coated cups can only be used for cold drinks. If wax-coated cups are used for hot drinks, an additional layer of emulsion is needed. The straight-walled double-layer cups use this type of coating, and because of their good heat insulation, they are often used for hot drinks and ice cream. Polyethylene film-coated cups have a thin layer of polyethylene on the cup wall, which can handle both cold and hot drinks with a smooth surface. These cups are favored by the fast-food industry as they allow for printing of exquisite patterns on the outside. Therefore, when purchasing paper cups, it is important to distinguish the types of paper cups. Disposable paper cups from large fast-food chains in public places are generally safe to use. However, paper cups used in unhygienic environments or establishments without health permits are hard to guarantee. As for whether wax-coated cups can hold hot drinks, for a qualified wax-coated paper cup, the temperature of hot water must exceed 50°C to melt the paraffin wax. Qualified paper cups use food-grade paraffin wax, so even if accidentally ingested, it poses no harm to the body. The real danger of using cold drink cups for hot water lies in the loss of waterproofing after the paraffin wax melts, making the cup prone to leakage and causing burns to the user. How to choose safe paper cups? First of all, it is a misconception that the first cup of water should not be consumed when using disposable paper cups. It is best to wait for four to five minutes and then pour out the water to allow harmful substances in the cup to evaporate fully. In fact, harmful substances can be introduced during the production of paper cups, such as fluorescent agents used by unscrupulous manufacturers, lead, arsenic, and organic solvents brought in by pigments and additives used for spraying patterns on the outer wall of the paper cups. Apart from issues with manufacturers, paper cups can also be contaminated by microorganisms during storage. The question is, can boiling water for just 5 minutes effectively remove harmful substances from the cup? The answer is clear: qualified disposable paper cups are sterilized, and if using this method could eliminate bacteria, the industry would have long used it to produce safer paper cups, rather than relying on consumers to do it themselves. As for substandard paper cups, the quantity of pathogenic bacteria and other harmful substances cannot be estimated. Even though soaking in boiling water for 5 minutes may have some effect, it cannot guarantee that these harmful substances can be completely removed or reduced to safe levels. Choosing qualified paper cups is the best option. For qualified paper cups, pouring out the first cup of water is unnecessary. However, we still recommend that if it is a qualified paper cup, there is no harm in drinking the first cup of water, but if it is an unqualified paper cup, it is best not to drink any of the water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “寻找龙城十二女婕”启动仪式。本报记者刘江摄 “寻找龙城十二女婕”启动仪式。本报记者刘江摄本报3月22日讯（记者 冯洁 李婕 见习记者 柴旭辉 张颖）今天下午，由山西晚报全媒体、树咖啡千脑俱乐部以及山西各界知名人士共同发起的“寻找龙城十二女婕”活动新闻发布会暨启动仪式在省城举行。发布会在诗情画意的传统氛围中开场，古筝琴声悠悠，杯中茶香袅袅……山西电视台知名制片人、主持人田甜、山西晚报首席记者郭风情、太原大学讲师杨文星、中国旗袍第一人龚航宇、山西女人帮帮主穆心宇、山西青年书法家协会副主席徐晓梅和山西文瀛书院院长卫方正作为受邀嘉宾，一同开启“寻找”之旅。到场嘉宾分享了他们对“寻找龙城十二女婕”的看法，田甜表示：“这样的一次寻找，对那些最睿智、最美丽、最善良的女性来说，意义非凡。”郭风情说：“寻找龙城十二女婕，这个"婕"字好，作为女人，我们不要一味去追求杰出，而应该去追求幸福，在美好的时间内享受美好的事物，找回女人本来的样子，绽放真正的东方美。”活动发起人胡虹谈起发起“寻找龙城十二女婕”的初衷，“女人是家庭的灵魂，是城市的名片，而在我们生活中，有很多美好的女人宛如沧海遗珠，并未被发现，所以我们去寻找百姓心中最美丽善良、智慧优雅、高素质的美好女子，让其作为山西新时代的女性代表，弘扬社会正能量，传承国学智慧，塑造山西新形象。”山西晚报全媒体“指尖山西”手机客户端对此次新闻发布会进行了全程直播，同时也是活动唯一在线的报名平台。作为由山西晚报专业团队打造，聚集新闻资讯、本地生活、社交互动、便民查询、优惠购物的山西移动门户，山西晚报全媒体及旗下的“指尖山西”邀请生活在太原，年龄在18岁到60岁之间，美丽的、善良的、智慧的、优雅的你，成为龙城十二女婕之一，成为弘扬社会正能量的公益大使，传承国学智慧，展现太原健康文明的城市新形象。凡报名参选者，主办方将为选手提供服装造型和主题拍摄，并在微信评选页面中展示参赛照片；最终获得“龙城十二女婕”称号的选手还将被推选参加本年度世界环球夫人盛典。报名方式1.现场报名：到树咖啡进行报名，地址：太原市小店区体育南路与许坦西街交叉口美 特 好 往 北50米 ， 联 系 电 话 ：0351-7787818；15035116665。2.线上报名：山西晚报“指尖山西”手机客户端报名。</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>"Search for the Twelve Women of Dragon City" launching ceremony. Photo by reporter Liu Jiang. The launching ceremony of "Search for the Twelve Women of Dragon City" was held in the provincial capital this afternoon, initiated by Shanxi Evening News, Tree Coffee Brain Club, and well-known figures from various sectors in Shanxi. The press conference started in a poetic and picturesque traditional atmosphere, with the melodious sound of the guzheng and the lingering fragrance of tea in the cups. Shanxi TV's renowned producer and host Tian Tian, Shanxi Evening News' chief reporter Guo Fengqing, Taiyuan University lecturer Yang Wenxing, China's leading qipao designer Gong Hangyu, the leader of Shanxi Women's Help Group Mu Xinyu, the vice chairman of Shanxi Youth Calligraphers Association Xu Xiaomei, and the dean of Shanxi Wenyin Academy Wei Fangzheng were invited guests who together embarked on the journey of "searching". The guests shared their views on "Search for the Twelve Women of Dragon City", with Tian Tian stating, "This search is of extraordinary significance for the most intelligent, beautiful, and kind-hearted women." Guo Fengqing said, "Searching for the Twelve Women of Dragon City, the character '婕' is excellent. As women, we should not blindly pursue excellence, but pursue happiness, enjoy beautiful things in good times, rediscover the true essence of women, and bloom with the true beauty of the East." The initiator of the event, Hu Hong, talked about the original intention of launching the "Search for the Twelve Women of Dragon City", saying, "Women are the soul of the family, the business card of the city. In our lives, many beautiful women are like pearls in the sea, yet undiscovered. Therefore, we are searching for the most beautiful, kind-hearted, wise, elegant, and high-quality women in the hearts of the people, to represent the women of the new era in Shanxi, promote positive social energy, inherit the wisdom of Chinese culture, and shape a new image of Shanxi." Shanxi Evening News' mobile app "Fingertip Shanxi" provided live coverage of the press conference and served as the only online registration platform for the event. Created by the professional team of Shanxi Evening News, "Fingertip Shanxi" is a Shanxi mobile portal that gathers news, local life, social interaction, convenient queries, and discounted shopping. Shanxi Evening News and its "Fingertip Shanxi" platform invited beautiful, kind, wise, and elegant individuals living in Taiyuan between the ages of 18 and 60 to become one of the Twelve Women of Dragon City, to become a public ambassador promoting positive social energy, inheriting the wisdom of Chinese culture, and showcasing a new image of a healthy and civilized city in Taiyuan. For those who register to participate, the organizers will provide clothing styling and themed photo shoots for the contestants, and display their competition photos on the WeChat voting page. The contestants who ultimately receive the title of "Twelve Women of Dragon City" will also be selected to participate in this year's World Global Lady Summit. Registration methods: 1. On-site registration: Register at Tree Coffee, address: 50 meters north of the intersection of Sports South Road and Xutan West Street in Xiaodian District, Taiyuan City, Tel: 0351-7787818; 15035116665. 2. Online registration: Register via the Shanxi Evening News "Fingertip Shanxi" mobile app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>中新网4月12日电 中央气象台4月12日06时继续发布大风降温预报：受较强冷空气影响，12日08时至14日08时，黄淮中部、江淮大部、江南北部等地气温将下降6～8℃；内蒙古东南部、陕西北部、华北、黄淮、江淮等地有5～6级偏北风；渤海海域将有7～9级、阵风10～11级的东北风。此外，受冷空气影响，内蒙古东南部、东北地区南部、华北东部、黄淮大部、江淮大部、江南东北部等地有小到中雨(雪)，河北东部、山东北部的局部地区有大雨；江南大部等地的气温也将下降4～6℃，并伴有4～5级风。未来24小时具体预报如下：12日08时至13日08时，河南中东部、安徽中北部、山东西部、江苏西部等地气温将下降6～8℃。12日08时至13日08时，辽宁西部、华北北部、西藏西南部等地有小雪或雨夹雪；东北地区南部、华北东部、黄淮中东部、江淮中东部、江南东北部、云南中北部、海南等地有小雨或阵雨，其中，华北东部、山东中部等地的部分地区有中雨，局地大雨。内蒙古中部、辽宁、华北、黄淮、江淮、江南东北部等地有4～6级偏北风。13日08时至14日08时，西藏西南部的部分地区有小到中雪或雨夹雪；新疆北部、黄淮东部、江淮中东部、江南东北部、西藏东南部、云南西部等地有小雨，局地中雨。华北南部、黄淮大部、江淮大部、江南东北部等地有4～5级偏北风。14日08时至15日08时，新疆东北部、西藏西南部等地有小雪或雨夹雪；新疆北部、西藏东南部、云南中北部、四川南部、重庆南部、贵州、湖南西部等地有小到中雨，其中贵州北部的局地有大雨。新疆北部、甘肃西部、内蒙古西部有4～5级偏西风；新疆东部和南疆盆地，甘肃西部、内蒙古西部等地的部分地区有扬沙或浮尘，局地有沙尘暴。</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>China News Service, April 12th - The Central Meteorological Observatory continued to issue a forecast for strong winds and temperature drop on April 12th at 06:00. Due to the influence of strong cold air, from 08:00 on the 12th to 08:00 on the 14th, the temperature in the central part of the Yellow River and Huai River, most of Jiangsu, and the northern part of Jiangnan will drop by 6 to 8 degrees Celsius; southeastern Inner Mongolia, northern Shaanxi, North China, the Yellow River and Huai River regions will experience a northerly wind of force 5 to 6; the Bohai Sea will have a northeasterly wind of force 7 to 9, with gusts reaching force 10 to 11. In addition, affected by the cold air, southeastern Inner Mongolia, southern parts of Northeast China, eastern parts of North China, most of the Yellow River and Huai River regions, most of Jiangsu, and northeastern Jiangnan will see light to moderate rain (snow), while eastern Hebei, northern Shandong, and some areas will experience heavy rain; temperatures in most of Jiangnan will also drop by 4 to 6 degrees Celsius, accompanied by winds of force 4 to 5. The specific forecast for the next 24 hours is as follows: from 08:00 on the 12th to 08:00 on the 13th, temperatures in central and eastern Henan, northern and central Anhui, western Shandong, and western Jiangsu will drop by 6 to 8 degrees Celsius. From 08:00 on the 12th to 08:00 on the 13th, there will be light snow or sleet in western Liaoning, northern North China, and southwestern Tibet; light rain or showers in southern Northeast China, eastern North China, eastern Yellow River and Huai River, eastern Jiangsu and Jiangnan, central and northern Yunnan, and Hainan, with some areas in eastern North China and central Shandong experiencing moderate rain and locally heavy rain. Central Inner Mongolia, Liaoning, North China, the Yellow River and Huai River regions, most of Jiangsu, and northeastern Jiangnan will have a northerly wind of force 4 to 6. From 08:00 on the 13th to 08:00 on the 14th, there will be light to moderate snow or sleet in some areas of southwestern Tibet; light rain in northern Xinjiang, eastern Yellow River, eastern Jiangsu, northeastern Jiangnan, southeastern Tibet, and western Yunnan, with moderate rain in some areas. Southern North China, most of the Yellow River and Huai River regions, and northeastern Jiangnan will have a northerly wind of force 4 to 5. From 08:00 on the 14th to 08:00 on the 15th, there will be light snow or sleet in northeastern Xinjiang and southwestern Tibet; light to moderate rain in northern Xinjiang, southeastern Tibet, central and northern Yunnan, southern Sichuan, southern Chongqing, Guizhou, and western Hunan, with locally heavy rain in northern Guizhou. Northern Xinjiang, western Gansu, and western Inner Mongolia will have a westerly wind of force 4 to 5; some areas in eastern Xinjiang, the southern Junggar Basin, western Gansu, and western Inner Mongolia will experience blowing sand or dust, with local sandstorms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>装修是每个人甚至是每个家庭都要经历的事情，不管你是找装修公司或者是自己装修，当然找装修公司是最省事的事情，但是我们必须要找那种专业的装修公司，不然你就会落进别人的“陷阱”。找装修公司前应该做什么，找好装修公司又应该落实什么，也许每个即将装修的人都会为此头疼，完全摸不着头绪，买了新房，肯定想装修得大家都满意了，但是装修途中问题非常多，那么装修中的注意事项和步骤有哪些呢?为此特别参考资料得出以下五点：一、要选择有相关部门核发的营业执照和建筑装饰企业资质证书的企业，要向有关部门咨询，“货比三家”，选择信誉度高、具有专门施工力量的家装企业。与装修公司进行咨询、洽谈时，要多了解公司情况，如公司有几名设计师，是否受过专业培训，有几年实际工作经验，还要直接与设计人员交流，以确定对方水准。二、确定设计方案和工程预算，将自己的装修风格方面的和经济方面的要求告诉设计师。然后，量房、画图纸、选择装饰材料，做出预算。负责任的装饰公司的预算会非常详细，包括完善的施工工艺，各种装饰材料的品牌、数量、规格型号、质量标准、价格，都列举得一丝不苟。三、签订合同，设计方案与工程预算确定后，双方必须签订由国家有关部门或市有关部门提供的标准合同文本。在签订合同时，将家装的质量标准;建材的规格、质量、价格、付款方式、施工期限等要逐一填写清楚，一旦违约便可追究其法律责任，为确保万无一失，合同可由权威部门进行公证。四、施工阶段进行监理，进入施工阶段后，需要消费者具有一双敏锐的“慧眼”，包括材料的检验，施工工艺的监督，核实其进场的材料及施工工艺是否与装修合同的内容相符。五、签订工程保修协议书，工程完毕后，按期交付使用，正规的装饰公司都要与客户签订工程保修协议书，保修期至少应在一年以上。 掌握装修的五个步骤最重要的是熟悉装修价格。装修价格主要是由材料费+人工费+设计费+其他费用组成。材料费：一般以市场价为主，当你了解价格的同时，也应了解它的材质、品牌和质量。在购买时还要把正常的损耗打入，一般为百分之十左右。人工费：人工费用是按每个工序不一样的要求做法，收费也有所不同的差别。设计费：分人工设计和电脑设计，因此费用也就有所差别，设计人员的级别也影响着设计费用的高低。</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Decoration is something that every individual or even every family has to go through. Whether you are hiring a decoration company or doing it yourself, of course, hiring a decoration company is the easiest thing to do, but we must find a professional decoration company, otherwise you will fall into someone else's "trap". What should be done before finding a decoration company, and what should be implemented after finding a good decoration company, perhaps everyone who is about to decorate will be headache about this, completely clueless. After buying a new house, you definitely want the decoration to satisfy everyone, but there are many problems during the decoration process. So, what are the precautions and steps in the decoration process? For this reason, referring to special reference materials, the following five points are derived: 
+1. Choose an enterprise with a business license issued by relevant departments and a qualification certificate for architectural decoration enterprises. Consult relevant departments, "compare goods from three different stores", and choose a home decoration enterprise with high credibility and specialized construction strength. When consulting and negotiating with the decoration company, you should learn more about the company's situation, such as how many designers the company has, whether they have received professional training, how many years of practical work experience they have, and directly communicate with the designers to determine their level.
+2. Determine the design scheme and project budget, and tell the designer your requirements in terms of decoration style and economic aspects. Then, measure the room, draw drawings, select decoration materials, and make a budget. The responsible decoration company's budget will be very detailed, including comprehensive construction techniques, brands, quantities, specifications, quality standards, and prices of various decoration materials, all listed meticulously.
+3. Sign a contract. After the design scheme and project budget are determined, both parties must sign a standard contract text provided by the relevant national or municipal departments. When signing the contract, the quality standards of home decoration, specifications, quality, prices, payment methods, construction period, etc., should be filled in one by one clearly. Once breached, legal responsibilities can be pursued. To ensure everything is foolproof, the contract can be notarized by authoritative departments.
+4. Supervise during the construction phase. After entering the construction phase, consumers need to have a keen "insight", including inspecting materials, supervising construction techniques, and verifying whether the materials and construction techniques on-site match the content of the decoration contract.
+5. Sign an engineering warranty agreement. After the project is completed and delivered on time, formal decoration companies must sign an engineering warranty agreement with customers, with a warranty period of at least one year. Mastering the five steps of decoration, the most important thing is to be familiar with decoration prices. Decoration prices mainly consist of material costs, labor costs, design fees, and other expenses. Material costs are generally based on market prices, and when you understand the prices, you should also understand their materials, brands, and quality. When purchasing, normal losses should also be taken into account, generally around ten percent. Labor costs vary depending on the requirements of each process, and the charges are also different. Design fees are divided into manual design and computer design, so the costs vary, and the level of designers also affects the level of design fees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>香港铁路有限公司(港铁)26日表示，截至今年2月底，连接香港岛南区的南港岛线(东段)整体工程已完成近84%，会以2016年底为通车目标。届时将采用全自动列车控制系统运作，无驾驶室的全自动列车将首度登常2011年5月动工的南港岛线(东段)全长7公里，行走香港岛中西区金钟至南区海怡半岛，途经南区的海洋公园、黄竹坑和利东站，是中型的铁路系统，混合隧道和以高架桥形式建造。26日，港铁南港岛线土木工程项目经理黄健维介绍，全长3.2公里、连接金钟站和海洋公园站的南风隧道已完成开挖，隧道结构也完成95%；高架桥的建造工程、鸭洲隧道大致完成，4个南区车站大部分工程也符合目标。但他指出，金钟站扩建工程虽然过去数月进展理想，但仍要面对很大的挑战，工程团队正日以继夜推展有关工程。当中，最具挑战性的港岛线隧道支撑架开挖已完成70%。另外，黄健维介绍，南港岛线(东段)采用全自动列车控制系统，设有自动修复功能，当遇上突发事故，车务控制中心可遥控指令列车重启自动修复，恢复正常运作，无需人手操作。车务控制中心也可透过闭路电视了解车厢内情况。他还说，全自动列车控制系统可更灵活调动列车，车务控制中心能指令列车增加班次，以应付突如其来增加的乘客量。全自动列车控制系统在全球多个城市广泛使用，港铁迪士尼线已在2005年开始采用，至今一直运作畅顺。当天，港铁也安排传媒到车厂参观南港岛线(东段)的列车，车身以银灰色为主，车内灯火通明、空气畅通。为配合南区特色，车内装潢以“沿海之乡”为题设计，记者发现，天花灯箱采用水波纹设计，吊环、乘客座位旁选用湖蓝色调，予人感觉轻松悠闲。此外，南港岛线(东段)列车的最大特色，是香港首次有铁路列车的头尾两端不设驾驶室，采用开放式设计，乘客可透过眼前3面挡风玻璃，一览无遗欣赏南区沿途景色，感受平日车长驾驶的视野。港铁介绍，南港岛线(东段)共有10列上述新列车，每列列车有3卡，由长春轨道客车股份有限公司制造，总造价为5.4亿港元。每列列车可载约900名乘客，最快下月在黄竹坑站与海怡半岛站之间的轨道上进行测试。</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>The MTR Corporation Limited (MTR) announced on the 26th that as of the end of February this year, the overall construction of the South Island Line (East) connecting the southern district of Hong Kong Island has been completed by nearly 84%, with the target of opening by the end of 2016. At that time, it will operate with a fully automatic train control system. The fully automatic trains without a driver's cab will run for the first time on the South Island Line (East), which started construction in May 2011. The line, with a total length of 7 kilometers, will travel from Admiralty in the Central and Western District of Hong Kong Island to the southern district's Ap Lei Chau, passing through Ocean Park, Wong Chuk Hang, and Lei Tung stations. It is a medium-sized railway system, constructed with a mix of tunnels and elevated bridges. On the 26th, Huang Jianwei, the civil engineering project manager of the South Island Line, introduced that the 3.2-kilometer Nam Fung Tunnel connecting Admiralty Station and Ocean Park Station has been excavated, with the tunnel structure also 95% complete. The construction of the elevated bridge and the Duck's Eye Tunnel is mostly finished, and the majority of the work at the four stations in the southern district also meets the targets. However, he pointed out that the expansion project of Admiralty Station, although progressing well in recent months, still faces significant challenges, with the project team working around the clock to push forward the related work. The most challenging part, the excavation of the tunnel support structure for the Island Line, is 70% complete. In addition, Huang Jianwei explained that the South Island Line (East) adopts a fully automatic train control system with an automatic recovery function. In case of emergencies, the train service control center can remotely command the train to restart for automatic recovery, restoring normal operation without manual intervention. The train service control center can also monitor the interior of the carriages through closed-circuit television. He also mentioned that the fully automatic train control system allows for flexible train scheduling, with the control center able to instruct trains to increase frequency to cope with sudden increases in passenger volume. The fully automatic train control system is widely used in many cities around the world, and the MTR Disneyland Line has been using it since 2005, operating smoothly to this day. On that day, the MTR also arranged for the media to visit the trains of the South Island Line (East) at the depot. The train body is mainly silver-gray, with bright lights and good ventilation inside. To match the characteristics of the southern district, the interior decoration is themed "Coastal Hometown." Reporters found that the ceiling lightboxes feature a water ripple design, with light blue tones chosen for the handrails and passenger seats, giving a relaxed and leisurely feel. Furthermore, the most distinctive feature of the South Island Line (East) trains is that for the first time in Hong Kong, there are no driver's cabs at the front and rear ends of the train, adopting an open design. Passengers can enjoy the scenery along the southern district through the three front windshields, experiencing the view that the train operator usually has. The MTR introduced that there are a total of 10 sets of these new trains on the South Island Line (East), each consisting of 3 cars, manufactured by CRRC Changchun Railway Vehicles Co., Ltd., with a total cost of 540 million Hong Kong dollars. Each train can carry approximately 900 passengers, and the testing on the track between Wong Chuk Hang Station and Ap Lei Chau Station is expected to start next month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>东南网漳州7月20日讯（王婷实习生林虹）人间有爱，温暖常在。7月16日，由兴业银行漳州支行与东南网漳州站联合主办的爱由“兴”生活动如期举行。兴业银行龙文分行为贫困家庭送上了大米、食用油等爱心物资，给受赠的家庭带去了希望与帮助。当日上午10点，记者跟随兴业银行工作人员一同到郭阿琴和郑宝全两位贫困户家中走访，并给他们送上了爱心物资。 走访郭阿琴家。 郭阿琴平时收的废品。走进郭阿琴老人的家中，可以看到房间十分简陋，简单地摆放着几件家具。郭阿婆今年64岁，丈夫已经去世十几年，她独自一人带大两个女儿。据介绍，郭阿婆之前在机砖厂工作二十多年，因长期劳作手指已经严重变形。后来在村子里当环卫工人，自从有了外孙女后，就留在家中照顾外孙女.郭阿婆说，“现在两个女儿都在外面打零工，我平时就会捡些废品拿去卖添补家用，兴业银行每个月的帮助都让我很感动。” 走访郑全宝家。紧接着记者及工作人员走访了贫困户郑全宝，到郑全宝家时，他已经出门打零工了，家中86岁的老父亲佝偻着背热情地招待工作人员。据介绍，郑全宝今年52岁，没有固定的工作，平时靠打零工获取经济来源。妻子已经离世十几年了，留下一双儿女。而大女儿在14岁时被外来打工拐走了，17岁的儿子因智力发育不全，长期留在家中。面对着工作人员的嘘寒问暖，郑全宝的父亲很是感激，离开时，他还将工作人员送到门口并连连道谢。</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>On July 20th, Zhangzhou, Southeast Net News (Intern Wang Ting, Lin Hong) Love exists among humans, warmth is always present. On July 16th, the "Love from 'Xing'" event jointly organized by the Zhangzhou Branch of Industrial Bank and Southeast Net Zhangzhou Station was held as scheduled. The Longwen Branch of Industrial Bank delivered love supplies such as rice and cooking oil to impoverished families, bringing hope and assistance to the recipients. At 10 o'clock that morning, reporters accompanied Industrial Bank staff to visit the homes of two impoverished households, Guo Aqin and Zheng Baoquan, and delivered love supplies to them. Visiting Guo Aqin's home. Guo Aqin usually collects scrap. Stepping into the home of Guo Aqin, one can see that the room is very simple, with only a few pieces of furniture placed in a simple manner. Grandma Guo is 64 years old, her husband passed away over a decade ago, and she has raised two daughters on her own. It was introduced that Grandma Guo had worked in a brick factory for over twenty years before, and her fingers were severely deformed due to long-term labor. Later, she worked as a sanitation worker in the village, and after her granddaughter was born, she stayed at home to take care of her. Grandma Guo said, "Now both my daughters work odd jobs outside, I usually pick up scrap to sell and supplement our household expenses. The monthly assistance from Industrial Bank always touches me deeply." Visiting Zheng Baoquan's home. Following that, the reporter and staff visited the impoverished household Zheng Baoquan. When they arrived at Zheng Baoquan's home, he had already left for odd jobs, and his 86-year-old father warmly welcomed the staff with a hunched back. It was introduced that Zheng Baoquan is 52 years old, without a stable job, and relies on odd jobs for economic resources. His wife passed away over a decade ago, leaving behind a son and a daughter. The eldest daughter was taken away by outsiders for work at the age of 14, and the 17-year-old son has intellectual disabilities and stays at home long-term. Faced with the care and concern from the staff, Zheng Baoquan's father was very grateful. When they left, he even escorted the staff to the door and repeatedly expressed his thanks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>本报7月18日讯(记者李珍梅)2016年积分落户工作将于本周启动，今年积分落户计划指标总量为2000人，符合条件的人员可于周四通过网络进行报名。18日，记者从青岛市人力资源和社会保障局获悉，今年积分落户将于本周启动。积分落户网上申请时间为7月21日至8月19日。根据《〈青岛市积分落户办法〉实施细则》要求，申请积分落户人员需具有高中以上学历，在本市(指城区和新区)有合法固定住所，持本市有效的《山东省居住证》满3年，在本市就业创业并按规定缴纳社会保险满3年，无犯罪记录。跟去年首批积分落户一样，今年积分落户指标体系分为基本分、导向分、附加分和负积分。申请人登录青岛人力资源社会保障网(http://www.qdhrss.gov.cn)“网上办事”栏目中“积分落户”版块，使用本人身份证和社保卡号登录认证，填报个人申报信息。申请人需按要求逐项填报并上传相关证明材料，填报完成后，系统自动初评各指标项积分和总积分。初评总积分达到100分以上(含100分)的，保存提交信息，完成网上报名。窗口申报则安排在7月25日至8月31日。申请办理积分落户人员取得青岛市积分落户卡后，持所需证明材料到拟落户地公安分局办理积分落户申请人及其随迁人员的《准予迁入证明》。申请人持《准予迁入证明》到户口所在地公安派出所将户口迁出。其中，户口在胶州、即墨、平度、莱西四市的人员可直接持《准予迁入证明》到落户地派出所办理落户手续。申请人单独办理户口迁入且材料齐全的，公安分局受理后当场予以办理《准予迁入证明》。申请人申请配偶、未婚子女随迁的，公安分局自受理之日起10个工作日审核，对符合政策规定的签发《准予迁入证明》。不符合规定的于5个工作日内通知申请人。今年，为方便申报人员，本年度积分落户申报材料取消无犯罪记录证明、社保缴纳证明和计划生育证明等材料；居住证办理情况由申请人在积分落户系统申报，公安机关通过有关信息系统核准。据悉，今年青岛市积分落户计划指标总量为2000人。居住证时间累计计算青岛市人社局专门对申请条件中的居住证时间计算方式给出了说明。居住证时间实行累计计算，计算日期从2012年10月1日至2016年12月31日，期间有效的山东省居住证(含2016年1月1日执行国务院《居住证暂行条例》后的居住登记期)、暂住证和人才居住证的有效时间均累计计算，有效期累计满3年为合格。</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>This newspaper reported on July 18th (Reporter Li Zhenmei) that the 2016 points-based household registration work will start this week. This year, the total quota for the points-based household registration plan is 2000 people, and eligible individuals can register online on Thursday. On the 18th, it was learned from the Qingdao Municipal Human Resources and Social Security Bureau that the points-based household registration will start this week. The online application for points-based household registration will be open from July 21st to August 19th. According to the "Qingdao Points-based Household Registration Measures Implementation Rules," applicants for points-based household registration must have a high school diploma or above, have a legal fixed residence in this city (referring to urban and new areas), hold a valid "Shandong Province Residence Permit" for at least 3 years, have been employed or engaged in entrepreneurship in this city and paid social insurance as required for at least 3 years, and have no criminal record. Similar to the first batch of points-based household registration last year, this year's points-based household registration quota system is divided into basic points, orientation points, additional points, and negative points. Applicants can log in to the Qingdao Human Resources and Social Security website (http://www.qdhrss.gov.cn) under the "Online Services" section, select the "Points-based Household Registration" section, use their ID card and social security card number for authentication, fill in personal declaration information, and upload relevant supporting documents as required. After completing the form, the system will automatically evaluate the points for each indicator and the total points. If the total points reach 100 or above (including 100 points), the information can be saved and submitted to complete the online registration. Window registration will be arranged from July 25th to August 31st. After the applicants for points-based household registration obtain the Qingdao Points-based Household Registration Card, they should bring the necessary documents to the local public security sub-bureau of the intended residence to apply for the "Permit for Entry of Applicant and Accompanying Personnel." The applicant should then go to the local police station where the household registration is located to transfer the household registration. For individuals from Jiaozhou, Jimo, Pingdu, and Laixi, they can directly go to the local police station of the intended residence with the "Permit for Entry" to complete the household registration procedures. If the applicant applies for household registration transfer alone and all documents are complete, the public security sub-bureau will issue the "Permit for Entry" on the spot after accepting the application. If the applicant applies for the relocation of a spouse or unmarried children, the public security sub-bureau will review the application within 10 working days from the date of acceptance and issue the "Permit for Entry" to those who meet the policy requirements. Those who do not meet the requirements will be notified within 5 working days. This year, to facilitate applicants, the documents required for points-based household registration have been simplified, and the requirements for providing a criminal record certificate, social insurance payment certificate, and family planning certificate have been waived. The processing of the residence permit will be handled by the applicant through the points-based household registration system, and the public security organ will verify it through relevant information systems. It is reported that this year, the total quota for the Qingdao points-based household registration plan is 2000 people. The Qingdao Municipal Human Resources and Social Security Bureau has provided explanations on the calculation method of the residence permit time in the application conditions. The residence permit time is calculated cumulatively, from October 1, 2012, to December 31, 2016. The valid periods of Shandong Province Residence Permits (including the residence registration period after the implementation of the State Council's "Provisional Regulations on Residence Permits" on January 1, 2016), temporary residence permits, and talent residence permits are all cumulatively calculated, and a cumulative period of 3 years is required to qualify.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 绘图：简仁山银瓶嘴樟木头镇精英别墅区B1号是一栋三层的豪华别墅。包工头李立国气愤地说：“这别墅我盖的，没有任何施工手续，是违章建筑。”这栋豪华别墅的主人，是现任东莞市社会保障局樟木头分局局长连金奎。双方因面积计算方式各执一词，产生了5万元工程款的纠纷。对于别墅是违建的说法，连金奎予以否认。不过，樟木头镇住建部门确认，连金奎的这栋别墅确实没有办过报建手续。樟木头镇住建部门确认，这栋别墅确实没有办过报建手续。至此，这栋别墅“违建”的本质确定无疑。我们是一个土地资源严重紧缺的国家，科学合理地保护好土地资源，乃各级政府以及相关监管部门义不容辞的责任。近些年来，国家有关部门也接连出台多条“禁令”，旨在从源头上遏制违规大肆修建别墅的问题。通俗地说，中央层面曾五发“禁墅令”：国土资源部早在2003年就紧急下发《关于清理各类园区用地加强土地供应调控的紧急通知》〔45号文〕禁止别墅供地；2006年国土资源部、国家发改委又共同研究制定的《禁止用地项目目录》第十五条，别墅项目用地被明令禁止；2008年1月，国务院再次下发《关于促进节约集约用地的通知》，要求合理安排住宅用地，继续停止别墅类房地产开发项目的土地供应；2010年3月国土资源部又一次强调“严禁向别墅供地”；2012年2月底，国土资源部公布《关于做好2012年房地产用地管理和调控重点工作的通知》，再次强调停止别墅类用地的土地供应。虽然中央层面三令五申禁批别墅用地，但依然有一些地区出现别墅群，究其原因：一方面是地方对“土地财政”的依赖，别墅地块的出让是一大笔收入，别墅后面的大笔税费也令一些地方部门难以割舍；另一方面，一些人违反规定偷偷摸摸违章建设别墅，这就造成了违建别墅的出现。具体到东莞，因为经济水平较好，诸如别墅之类的高档、豪华住宅本就屡见不鲜。一些违建别墅之所以堂而皇之存在，还因为在一些违章建筑上存在“历史遗留”问题。2013年7月，东莞市城管综合执法局相关负责人曾表示：“城管综合执法部门在判断违法建筑性质时会分成三类，分别为‘历史遗留违法建筑’、‘在建存量违法建筑’和‘新增违法建筑’，区别三者的重要指标就是以2012年11月20日为时间节点。</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Drawing: Jianren Mountain Silver Bottle Mouth Zhangmutou Elite Villa Area B1 is a three-story luxury villa. The contractor Li Liguo angrily said, "I built this villa, without any construction procedures, it is an illegal building." The owner of this luxury villa is Lian Jinkui, the current director of the Zhangmutou Sub-bureau of Dongguan Social Security Bureau. Due to different calculation methods for the area, a dispute over 50,000 yuan in construction funds arose between the two parties. Lian Jinkui denied the claim that the villa was illegally built. However, the Zhangmutou Town Housing Department confirmed that Lian Jinkui's villa indeed did not go through the process of applying for construction permits. The Zhangmutou Town Housing Department confirmed that this villa indeed did not go through the process of applying for construction permits. Therefore, the nature of this villa being an "illegal construction" is unquestionable. We are a country with severely scarce land resources, and it is the unshakable responsibility of governments at all levels and relevant regulatory authorities to protect land resources scientifically and reasonably. In recent years, relevant departments of the country have successively issued multiple "prohibitions" aimed at curbing the problem of illegal construction of villas. In simple terms, the central government has issued five "villa prohibition orders": as early as 2003, the Ministry of Land and Resources urgently issued the "Urgent Notice on Clearing Various Park Land and Strengthening Land Supply Control" [Document No. 45], prohibiting the supply of land for villas; in 2006, the Ministry of Land and Resources and the National Development and Reform Commission jointly formulated the "Catalog of Prohibited Land Use Projects," with the fifteenth item explicitly prohibiting land use for villa projects; in January 2008, the State Council once again issued the "Notice on Promoting Economical and Intensive Land Use," requiring the rational arrangement of residential land and continuing to stop the supply of land for villa real estate development projects; in March 2010, the Ministry of Land and Resources once again emphasized "strictly prohibiting the supply of land for villas"; at the end of February 2012, the Ministry of Land and Resources announced the "Notice on Doing Key Work in Real Estate Land Management and Control in 2012," once again emphasizing the cessation of land supply for villa-type land. Although the central government has repeatedly prohibited the allocation of land for villas, there are still some areas where villa clusters appear. The reasons for this are: on the one hand, local governments rely on "land finance," and the allocation of villa plots is a significant source of income, while the substantial taxes and fees behind the villas also make it difficult for some local departments to let go; on the other hand, some people secretly violate regulations and build villas illegally, leading to the emergence of illegal villas. Specifically in Dongguan, due to its relatively good economic level, high-end and luxurious residences such as villas are not uncommon. Some illegal villas exist openly also because there are "historical legacy" issues in some illegal constructions. In July 2013, a person in charge of the Dongguan City Urban Management Comprehensive Law Enforcement Bureau once stated, "When the urban management comprehensive law enforcement department judges the nature of illegal buildings, they are divided into three categories, namely 'historical legacy illegal buildings,' 'existing il